--- a/data/02_intermediate/cleaned_Black_M_songs.xlsx
+++ b/data/02_intermediate/cleaned_Black_M_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C479"/>
+  <dimension ref="A1:C451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Take_it_Back_v2</t>
+          <t>Please Forgive</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2Pac - California Love feat. Dr. Dre Roger 2Pac - Changes 2Pac - Keep Ya Head Up 2Pac - Dear Mama 2Pac - Last Wordz feat. Ice-T Ice Cube 2Pac - Hit 'Em Up feat. Outlawz 2Pac - Ambitionz Az A Ridah 2Pac - All Eyez On Me feat. Big Syke 2Pac - I Get Around feat. Digital Underground 6LACK - Seasons feat. Khalid 6LACK - East Atlanta Love Letter feat. Future 6LACK - Switch 6LACK - PRBLMS 6LACK - Pretty Little Fears feat. J. Cole 21 Savage - ball wo you 21 Savage - Rich Nigga Shit feat. Metro Boomin Young Thug 21 Savage - a lot feat. J. Cole 21 Savage - Spiral Ari Lennox - Shea Butter Baby fat. J. Cole AAP Rocky - Fukk Sleep feat. FKA Twigs AAP Rocky - 1Train feat. Kndrick Lamar, Joey Bada, Yelawolf, Danny Brown, Action Bronson Big K.R.I.T AAP Rocky - Potato Salad feat. Tyler, The Creator AAP Rocky - r - Cali AAP Rocky - Fuckin' Problems feat. Kendrick Lamar, Drake 2 Chainz Bas - Purge Bas - Night Job Bas - Icarus feat. Ari Lennox Bas - Tribe feat. J. Cole Bas - Fried Rice feat. JID Big Sean - First Chain feat. Nas Kid Cudi Big Sean - Bezerk feat. Hit-Boy AAP Ferg Big Sean - Go Legend feat. Metro Boomin Travis Scott Big Sean - Beware feat. Lil' Wayne Jhené Aiko Big Sean - Pull Up N Wreck feat. Metro Boomin 21 Savage Busta Rhymes - I Know What You Want feat. Mariah Carey Flipmode Squad Busta Rhymes - Break Ya Neck Busta Rhymes - Calm Down feat. Eminem Denzel Curry - CLOUT COBAIN CLOUT CO13A1N Denzel Curry - Zenith feat. Joey Bada Denzel Curry - RICKY Denzel Curry - TakeitBackv2 with Kenny Beats Denzel Curry - SIRENS Z1RENZ feat. JID Denzel Curry - DIET1.5 Denzel Curry - PERCS PERCZ Denzel Curry - SPEEDBOAT Denzel Curry - SUMO ZUMO DMX - Ruff Ryders' Anthem DMX - Party Up DMX - X Gon' Give It To Ya Dreamville - Under The Sun feat. J. Cole, Lute DaBaby Dreamville - Down Bad feat. Bas, EARTHGANG, J. Cole, JID Young Nudy Dreamville - LamboTruck feat. Cozz, Childish Major REASON Dreamville - Wells Fargo Interlude feat. JID, EARTHGANG, Buddy Guapdad 4000 Dreamville - Ladies, Ladies, Ladies feat. JID T.I. Dreamville - 1993 feat. J. Cole, JID, Cozz, EARTHGANG, Buddy Smino Dreamville - Rembrandt...Run It Back feat. JID, J. Cole Vince Staples Dreamville - Costa Rica feat. Bas, JID, Mez, Buddy, Jace, Reese LAFLARE, Ski Mask the Slump God, Smokepurpp Guapdad 4000 Dr. Dre - Fuck Wit Dre Day And Everybody's Celebratin' feat. Snoop Dogg Dr. Dre - Nuthin' But A G Thang feat. Snoop Dogg Dr. Dre - Still D.R.E feat. Snoop Dogg Dr. Dre - Forgot About Dre feat. Eminem Dr. Dre - Deep Water feat. Kendrick Lamar, Justus Anderson .Paak Dr. Dre - What's The Difference feat. Xzibit Eminem Dr. Dre - I Need A Doctor feat. Skylar Grey Eminem Dr. Dre - Medicine Man feat. Candice Pillay, Anderson .Paak Eminem Dr. Dre - Animals feat. Anderson .Paak Dr. Dre - The Next Episode feat. Snoop Dogg Dr. Dre - Issues feat. Ice Cube, Anderson .Paak and Dem Jointz Dr. Dre - Talking To My Diary EARTHGANG - Punchanella EARTHGANG - Momma Told Me feat. JID EARTHGANG - Meditate feat. JID Eminem - Stan Eminem - The Real Slim Shady Eminem - 'Till I Collapse feat. Nate Dogg Eminem - Without Me Eminem - Love Game feat. Kendrick Lamar Eminem - Guilty Conscience feat. Dr. Dre Eminem - Lucky You feat. Joyner Lucas Eminem - My Name Is Eminem - Bitch Please II feat. Snoop Dogg, Dr. Dre, Nate Dogg Xzibit Eminem - Guilty Conscience feat. Dr. Dre Eminem - Kill You Eminem - Good Guy feat. Jessie Reyez Eminem - The Ringer GZA - Shadowboxin' feat. Method Man GZA - Liquid Swords Hopsin - Ill Mind Of Hopsin 5 Hopsin - Sag My Pants Hopsin - Ill Mind Of Hopsin 8 Hopsin - Ill Mind Of Hopsin 9 Ice Cube - It Was A Good Day Ice Cube - Check Yo Self Ice Cube - No Vaseline Ice Cube - Go To Church feat. Snoop Dogg Lil' Jon Ice Cube - Hello feat. MC Ren Dr. Dre Ice Cube - Friday Ice Cube - Natural Born Killaz feat. Dr. Dre Ice-T - 6 'N The Mornin' Ice-T - Colors Ice-T - O.G. Original Gangsta IDK - Cereal feat. JID Kenny Mason IDK - Porno IDK - ONCE UPON A TIME FREESTYLE feat. Denzel Curry J. Cole - Wet Dreamz J. Cole - No Role Modelz J. Cole - KOD J. Cole - New York Times feat. 50 Cent Bas J. Cole - Forbidden Fruit feat. Kendrick Lamar J. Cole - January 28th J. Cole - Lights Please J. Cole - Immortal J. Cole - m y . l i f e with 21 Savage Morray J. Cole - p r i d e . i s . t h e . d e v i l with Lil Baby J. Cole - l e t . g o . m y . h a n d with Bas 6LACK J. Cole - 1 0 0 . m i l ' with Bas J. Cole - a m a r i J. Cole - a p p l y i n g . p r e s s u r e Jessie Reyez - IMPORTED with 6LACK Jessie Reyez - COFFIN feat. Eminem Jessie Reyez - FAR AWAY II feat. A Boogie Wit da Hoodie JID Jhené Aiko - 10k Hours feat. Nas JID - 151 Rum JID - Off Deez with J. Cole JID - NEVER JID - EdEddnEddy JID - 8701 feat. 6LACK JID - Hot Box feat. Method Man Joey Bada JID - Tiiied feat. 6LACK Ella Mai JID - Mounted Up JID - Workin Out JID - Bruuuh Remix feat. Denzel Curry JID - Off Da Zoinkys JID - Westbrook feat. AAP Ferg JID - Ballads with Conway The Machine JID - Slick Talk Joyner Lucas - Ross Capicchioni Joyner Lucas - Ultrasound Joyner Lucas - I'm Sorry Joyner Lucas - I Lied Intro Joyner Lucas - The War feat. Young Thug Joyner Lucas - I Love Joyner Lucas - Devil's Work Joyner Lucas - Happy Birthday Joyner Lucas - Isis feat. Logic Joyner Lucas - Lotto Joyner Lucas - Finally feat. Chris Brown Joyner Lucas - 10 Bands feat. Timbaland Joyner Lucas - ADHD Joyner Lucas - Revenge Kendrick Lamar - Rigamortus Kendrick Lamar - Backseat Freestyle Kendrick Lamar - Money Trees feat. Jay Rock Kendrick Lamar - good kid Kendrick Lamar - m.A.A.d city feat. MC Eiht Kendrick Lamar - Compton feat. Dr. Dre Kendrick Lamar - The Recipe - Bonus Track feat. Dr. Dre Kendrick Lamar - Black Boy Fly - Bonus Track Kendrick Lamar - King Kunta Kendrick Lamar - The Blacker The Berry Kendrick Lamar - DNA. Kendrick Lamar - ELEMENT. Kendrick Lamar - LOYALTY. FEAT. RIHANNA. Kendrick Lamar - LOVE. FEAT. ZACARI. Kendrick Lamar - FEAR Kid Cudi - In My Dreams Cudder Anthem Kid Cudi - Day 'N' Nite Nightmare Kid Cudi - Scott Mescudi Vs. The World feat. CeeLo Green Kid Cudi - Marijuana Kid Cudi - Solo Dolo Part II feat. Kendrick Lamar Kid Cudi - Beez feat. RZA Kid Cudi - Damaged Kid Cudi - Another Day Kid Cudi - Show Out with Skepta Pop Smoke Kid Cudi - Dive Kid Cudi - Elsie's Baby Boy flashback Kid Cudi - Rockstar Knights with Trippie Redd Kid Cudi - Lord I Know Kid Cudi - The Adventures of Moon Man Slim Shady feat. Eminem Kid Cudi - Pursuit Of Happiness Nightmare feat. MGMT Ratatat Mac Miller - O.K - Bonus Track feat. Tyler, The Creator Mac Miller - Knock Knock Mac Miller - God Is Fair, Sexy Nasty feat. Kendrick Lamar Meek Mill - Offended feat. Young Thug 21 Savage Meek Mill - Froze feat. Lil Uzi Vert Nicki Minaj Meek Mill - Difference feat. Quavo Desiigner Meek Mill - Litty feat. Tory Lanez Method Man - Episode 3 - Grand Prix Method Man - Meth Vs. Chef feat. Raekwon Method Man - I'll Be There For You You're All I Need To Get By with Mary G. Blige Metro Boomin - 10 Freaky Girls with 21 Savage Metro Boomin - Don't Come Out The House with 21 Savage Metro Boomin - No More feat. Travis Scott, Kodak Black 21 Savage Metro Boomin - Space Cadet feat. Gunna Nas - If I Ruled The World Imagine That feat. Lauryn Hill Nas - N.Y. State Of Mind Nas - Adam and Eve feat. The-Dream Nas - The World Is Yours Nas - Highly Favored Nas - EMPD Nate Dogg - Never Leave Me Alone feat. Snoop Dogg Nate Dogg - So Fly Nate Dogg - I Got Love Ol' Dirty Bastard - Shimmy Shimmy Ya Ol' Dirty Bastard - Brooklyn Zoo Ol' Dirty Bastard - Intoxicated feat. Raekwon, Method Man Macy Gray RZA - Grits RZA - Fatal Ski Mask the Slump God - Burn The Hoods Ski Mask the Slump God - Nuketown feat. Juice WRLD Ski Mask the Slump God - Faucet Failure Smino - Baguetti feat. Kenny Beats JID Snoop Dogg - Who Am I What's My Name? Snoop Dogg - Drop It Like It's Hot feat. Pharrell Williams Snoop Dogg - Gin N Juice feat. Dat Nigga Daz Snoop Dogg - Beautiful feat. Pharrell Williams Charlie Wilson Snoop Dogg - G'z and Hustlaz SZA - Love Galore feat. Travis Scott SZA - Doves In The Wind feat. Kendrick Lamar Tech N9ne - Worldwide Choppers Tech N9ne - Am I A Psycho feat. B.o.B Hopsin Tech N9ne - Speedom Wwc2 feat. Krizz Kaliko Eminem Tech N9ne - Fragile feat. Mayday, Kendall Morgan Kendrick Lamar Tech N9ne - So Dope They Wanna feat. Wrekonize, Twisted Insane Snow Tha Product Tech N9ne - Sriracha feat. Joyner Lucas Logic The Game - Martians Vs Goblins feat. Lil' Wayne Tyler, the Creator The Game - How We Do feat. 50 Cent The Notorious B.I.G. - Juicy The Notorious B.I.G. - Hypnotize The Notorious B.I.G. - Big Poppa The Notorious B.I.G. - Who Shot Ya? The Notorious B.I.G. - Notorious Thugs feat. Bone Thugs-N-Harmony T.I - That's All She Wrote feat. Eminem T.I - Welcome To The World feat. Kanye West Kid Cudi T.I - Popped Off feat. Dr. Dre T.I - Whatever You Like Token - And You feat. IDK Bas Travis Scott - goosebumps feat. Kendrick Lamar Travis Scott - HIGHEST IN THE ROOM Travis Scott - through the late night feat. Kid Cudi Travis Scott - Pornography Travis Scott - NC-17 feat. 21 Savage Travis Scott - BUTTERFLY EFFECT Travis Scott - STOP TRYING TO BE GOD feat. Stevie Wonder, Kid Cudi, James Blake Philip Bailey Travis Scott Kid Cudi - THE SCOTTS Travis Scott - FRANCHISE feat. Young Thug M.I.A Tyler, the Creator - Potato Salad with AAP Rocky Tyler, the Creator - Tamale Tyler, the Creator - DEATHCAMP feat. Cole Alexander Tyler, the Creator - See You Again feat. Kali Uchis Tyler, the Creator - SMUCKERS feat. Lil Wayne Kanye West Vince Staples - Blue Suede Warren G - Regulate feat. Nate Dogg Warren G - This DJ WESTSIDE BOOGIE - Soho feat. JID WESTSIDE BOOGIE - Rainy Days feat. Eminem WESTSIDE BOOGIE - Still Thirsty Wu-Tang Clan - Method Man Wu-Tang Clan - Triumph Wu-Tang Clan - C.R.E.A.M Wu-Tang Clan - Da Mystery of Chessboxin' Wu-Tang Clan - Protect Ya Neck Young Thug - The London feat. Travis Scott J. Cole Young Thug - Hot Remix feat. Travis Scott Gunna8</t>
+          <t>A nigga really done fucked up now Lemme catch my breath, finna hold my breath Yo Power, this a really great beat, good job Get it and go, stack up my dough Bitch eat my dick like a meatball hero Black on my body like Neo I been had the sauce, I'm the new Tapatío The fuck is a T.O.? Terrell Owens Fuckin' bitches barely knowin' them Sometimes I feel suicidal Shout out to my nigga crim Bang, no Chiddy, run it up like Giddy Better not fuck with me, Zeltron 6 Billi' Got the rock like Milly, get cent like 50 Yeah Better not talk shit when I got goons with me I got the power Right, but I'm not a Ranger Yeah Got the beat by Powers Right and we just made a banger Get it and go, I'll stomp your ass to the ground If you think you can fuck with my flow Open the door, I do not walk through that muh'fucker If they not talkin' no dough I don't smoke dro, I barely drink Pour up that coffee for niggas that sleep Used to sell quarter of ounces of stink I make a quarter a show if you blink You couldn't see what I saw, now you peep Now they on D, I hit the flea-flicker You should've seen quicker, I'ma just Ether him I'ma just Ether him, make 'em see heater, son I'm a say I'm the dad, niggas from Trinidad Come with that choppa that don't need no helipad Hit your ass, pop-pop, and now you irrelevant Pop up the trunk and I don't mean an elephant I'm talkin' stacks, you talkin' bricks All of the rhymes you rap ain't legit I catch a case, I plead the fifth You catch a case, you bring the clique I'm not the type to lose sleep for a bitch I might just fuck for a week then I quit I might just cop me a Rollie that don't lose the value And trade in the shit for a crib Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro Bitch, I don't got no respect for opposition Okay Casket and it don't show with dirty feelings Okay Blood on my blunt, you get the picture What's up? Blaze carry blades with tetanus, don't get shot Huh? Y'all think your Majin gettin' booed off stage Yeah Write books like me, you ain't on my page Yeah Drac' fightin' our apes, it's our ways Yeah Bet you won't act tough with a gun in yo' face Okay I'll pull up with a red light, nigga, what's up? Nigga try to peel off like, Oh shit, fuck Huh? When the buckshot spray, better duck or have luck All my dogs got fed when the moon comes up Haha Wit' a pit bull off its leash It's the Wardog boss Okay Real circle, never break they form Okay Stay militant Okay when the clip go off Okay, what's up? Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon' I just jumped back like I'm on one Look what you did, bitch, you owe us somethin' I'm just the guy, like just get it done Smokin' gelato, got plenty sons You like Juwanna Mann, I like designer fame Tats on my chest, rep' the Zombies, man All on that bitch like a sonogram I be that nigga, that Hall of Fame Look at yourself, we are not the same High as a pit like I'm on a plane Fuckin' that bitch like they all the same Ain't nothin' with Juice I'm drunk off the booze with a thou' on the shoes I just won't lose, niggas is fool, swag Rockin' the blue fur, I like that bitch right there Think I'm gon' like, her Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot this shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon' Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon'25</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Please Forgive</t>
+          <t>N64</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A nigga really done fucked up now Lemme catch my breath, finna hold my breath Yo Power, this a really great beat, good job Get it and go, stack up my dough Bitch eat my dick like a meatball hero Black on my body like Neo I been had the sauce, I'm the new Tapatío The fuck is a T.O.? Terrell Owens Fuckin' bitches barely knowin' them Sometimes I feel suicidal Shout out to my nigga crim Bang, no Chiddy, run it up like Giddy Better not fuck with me, Zeltron 6 Billi' Got the rock like Milly, get cent like 50 Yeah Better not talk shit when I got goons with me I got the power Right, but I'm not a Ranger Yeah Got the beat by Powers Right and we just made a banger Get it and go, I'll stomp your ass to the ground If you think you can fuck with my flow Open the door, I do not walk through that muh'fucker If they not talkin' no dough I don't smoke dro, I barely drink Pour up that coffee for niggas that sleep Used to sell quarter of ounces of stink I make a quarter a show if you blink You couldn't see what I saw, now you peep Now they on D, I hit the flea-flicker You should've seen quicker, I'ma just Ether him I'ma just Ether him, make 'em see heater, son I'm a say I'm the dad, niggas from Trinidad Come with that choppa that don't need no helipad Hit your ass, pop-pop, and now you irrelevant Pop up the trunk and I don't mean an elephant I'm talkin' stacks, you talkin' bricks All of the rhymes you rap ain't legit I catch a case, I plead the fifth You catch a case, you bring the clique I'm not the type to lose sleep for a bitch I might just fuck for a week then I quit I might just cop me a Rollie that don't lose the value And trade in the shit for a crib Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro Bitch, I don't got no respect for opposition Okay Casket and it don't show with dirty feelings Okay Blood on my blunt, you get the picture What's up? Blaze carry blades with tetanus, don't get shot Huh? Y'all think your Majin gettin' booed off stage Yeah Write books like me, you ain't on my page Yeah Drac' fightin' our apes, it's our ways Yeah Bet you won't act tough with a gun in yo' face Okay I'll pull up with a red light, nigga, what's up? Nigga try to peel off like, Oh shit, fuck Huh? When the buckshot spray, better duck or have luck All my dogs got fed when the moon comes up Haha Wit' a pit bull off its leash It's the Wardog boss Okay Real circle, never break they form Okay Stay militant Okay when the clip go off Okay, what's up? Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon' I just jumped back like I'm on one Look what you did, bitch, you owe us somethin' I'm just the guy, like just get it done Smokin' gelato, got plenty sons You like Juwanna Mann, I like designer fame Tats on my chest, rep' the Zombies, man All on that bitch like a sonogram I be that nigga, that Hall of Fame Look at yourself, we are not the same High as a pit like I'm on a plane Fuckin' that bitch like they all the same Ain't nothin' with Juice I'm drunk off the booze with a thou' on the shoes I just won't lose, niggas is fool, swag Rockin' the blue fur, I like that bitch right there Think I'm gon' like, her Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot this shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon' Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Get it and go, your bitch is a ho She sent me a flick when I flick on my phone Hit it and go, I pass her to bro He shoot his shot and I bet he gon' score Hit it and go, I pass her to bro He shoot his shot and I bet he gon', bet he gon'25</t>
+          <t>Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit Delivery, I'm the bullet that killed Kennedy Enemy, D.I.T.C., darkest symphony Necro, fuck around and let the TEC blow Red beam to his noggin make it look like techno I told you, I don't even wanna be the best, ho I'm the threat with Tourette's making motherfuckers John Doe Ricky Rozay, Aquarius Killa The Keyser Soze Making a family cry together like the O'Jays Back in the old days, I'm the one that's chosen Thug from the 90's, I'm cryogenically frozen Avenger, but yet I be the Joker and the Riddler With a mindset that's switched like Harvey Denture's dent The Dark Knight, fuck a Clark Kent Martin Lawrence when he traveled back in time with suspense Suspended, animation when my brain reacts Don't belong in this world like I'm Samurai Jack Click Clack on the Glock, seventeen get me Then put the Ghostface so we can empty the cream Cash rules everything around me surrounding The ditch where they dug the darkness that's shrouding Found me, Nemo, ego Kanyeezy Bruh I'm from a city where niggas they con easy Where they quick to pull that trigger, never a squeegee Then make it on the late night news, nigga, good evening Yeah, Mike, things are quite here now at Miami, Carol City High School, but earlier today was quite the scene when nearly the entire student body walked out of the school to protest Trayvon Martin's murderer. Signs in hand, chanting, Justice for Trayvon. Now Trayvon actually went to school here at Carol City last year so some of these kids actually knew him personally, and they say his murderer should be behind bars Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit I'm Acid, fornicating with crack shit Cheated with the virus that took over the life of Magic Sharing a needle, with the common-slash-hobo Sterilize with the spit that shoots from a Komodo Dragon, gun chuck, fire, I'm blasting Dope and sick , that shit is just a classic Huh, that's a hit for you bastards That's the shit for you bastards I'm lugubrious because I'm from a place where niggas Shoot at shit and never on no Buddha shit, that knock-knock And who is it? Am I really losing it? Maybe Trapped in a white room with a dead baby Am I going crazy? Is my name Casey? Anthony, then the baby turns into an amputee God damn I'm really losing my mind Or should I end it all just by grabbing a nine? But, it's too easy, Demonz of my mind leave me leave me Put me into isolation so you wouldn't see me Free me from misery and un-easy Pain, emotions from the crypt I gain Yet another young brain slain, mane...Dang! He just lost consciousness That's life when you live without consequence Death over sixteen shots, his head is split Dead42</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N64</t>
+          <t>Ain’t No Way</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit Delivery, I'm the bullet that killed Kennedy Enemy, D.I.T.C., darkest symphony Necro, fuck around and let the TEC blow Red beam to his noggin make it look like techno I told you, I don't even wanna be the best, ho I'm the threat with Tourette's making motherfuckers John Doe Ricky Rozay, Aquarius Killa The Keyser Soze Making a family cry together like the O'Jays Back in the old days, I'm the one that's chosen Thug from the 90's, I'm cryogenically frozen Avenger, but yet I be the Joker and the Riddler With a mindset that's switched like Harvey Denture's dent The Dark Knight, fuck a Clark Kent Martin Lawrence when he traveled back in time with suspense Suspended, animation when my brain reacts Don't belong in this world like I'm Samurai Jack Click Clack on the Glock, seventeen get me Then put the Ghostface so we can empty the cream Cash rules everything around me surrounding The ditch where they dug the darkness that's shrouding Found me, Nemo, ego Kanyeezy Bruh I'm from a city where niggas they con easy Where they quick to pull that trigger, never a squeegee Then make it on the late night news, nigga, good evening Yeah, Mike, things are quite here now at Miami, Carol City High School, but earlier today was quite the scene when nearly the entire student body walked out of the school to protest Trayvon Martin's murderer. Signs in hand, chanting, Justice for Trayvon. Now Trayvon actually went to school here at Carol City last year so some of these kids actually knew him personally, and they say his murderer should be behind bars Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit Moshin' to nostalgic rock shit, I'm Brock, bitch Semi-automatic might blast like Team Rocket Wait, and tell 'em I'm mixing that Slayer with that 2Pac shit One golden bullet to kill all that faggot pop shit I'm Acid, fornicating with crack shit Cheated with the virus that took over the life of Magic Sharing a needle, with the common-slash-hobo Sterilize with the spit that shoots from a Komodo Dragon, gun chuck, fire, I'm blasting Dope and sick , that shit is just a classic Huh, that's a hit for you bastards That's the shit for you bastards I'm lugubrious because I'm from a place where niggas Shoot at shit and never on no Buddha shit, that knock-knock And who is it? Am I really losing it? Maybe Trapped in a white room with a dead baby Am I going crazy? Is my name Casey? Anthony, then the baby turns into an amputee God damn I'm really losing my mind Or should I end it all just by grabbing a nine? But, it's too easy, Demonz of my mind leave me leave me Put me into isolation so you wouldn't see me Free me from misery and un-easy Pain, emotions from the crypt I gain Yet another young brain slain, mane...Dang! He just lost consciousness That's life when you live without consequence Death over sixteen shots, his head is split Dead42</t>
+          <t>Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh Gotta take it slow, fuck up out my way Been five years, still ain't took a break I done did so much and still, I paved my way Good poker face, do that shit with grace Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way, ain't no way I can't fake when bitches smilin' in my face Wanna take what I make? Too bad I do this shit with grace Can't relate, take a break, and come back when it resonate I rais the stakes Yeah, I put th fire to the flame, I put the hater shit to shame Ooh Such a shame, they can't break a bitch with what they say Bitch I wake up and I choose the money Money, they wake up and they choose to hate Huh? Can't mimic the image Yeah, they don't know what to do What? These bitches been itchin' for an issue, couldn't fit in my shoes So I got me some puff, and I got me a pump Huh? And I shot me a punk, bitch, I'm poppin' the trunk Bitch Bitch, my trunk in the front, pussy poppin' and young Yeah If I pull this chopper out when I shoot, bitch, better duck Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh What's the real rules and regulations? Like what's the conversation? What you really sayin'? Nah, for real, nigga What you really sayin'? Ain't no way I ain't gon' Shawshank from out the shit Shovel snow, shiverin' in cold I don't want the silverware, shit goes I saw myself sinkin', shawty slipperyed the slope My partner praise a lot and slang dope My block the same, we rock the same clothes Watch the same shows, readin' rainbows, fuck the same hoes Keep the bank closed, let the thing blow like Oh, oh, oh, oh Ain't no way this the way I'm livin' out my final days I feel like JAY, chakra flowin' through me like a tidal wave Rivals made to be a slave inside my suicidal page Watchin' Paris with a H, we ain't where the Eiffel stay Over the years, friends turn to enemies Bullets curvin' left and right sort of like parentheses Viciously, I can turn your sympathies to symphonies And I can send you up the same day you try to sin for me Niggas be gettin' famous off of infamy Infiltrate the industry by usin' my life to write a hit At first, I used to fight this shit Jiggaman made his first album at twenty-six I passed twenty-five, I was seventeen gettin' rich Ain't no way I was gonna take what people sell me Run the jewels 'cause I kill a mic on any LP Trained up my body and soul, you can't derail me Trust, between God and myself, they'll never fail me Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh-oh22</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ain’t No Way</t>
+          <t>THE BLACKEST BALLOON | THE 13LACKEZT 13ALLOON</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh Gotta take it slow, fuck up out my way Been five years, still ain't took a break I done did so much and still, I paved my way Good poker face, do that shit with grace Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way Ain't no way, ain't no way, ain't no way, ain't no way, ain't no way I can't fake when bitches smilin' in my face Wanna take what I make? Too bad I do this shit with grace Can't relate, take a break, and come back when it resonate I rais the stakes Yeah, I put th fire to the flame, I put the hater shit to shame Ooh Such a shame, they can't break a bitch with what they say Bitch I wake up and I choose the money Money, they wake up and they choose to hate Huh? Can't mimic the image Yeah, they don't know what to do What? These bitches been itchin' for an issue, couldn't fit in my shoes So I got me some puff, and I got me a pump Huh? And I shot me a punk, bitch, I'm poppin' the trunk Bitch Bitch, my trunk in the front, pussy poppin' and young Yeah If I pull this chopper out when I shoot, bitch, better duck Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh What's the real rules and regulations? Like what's the conversation? What you really sayin'? Nah, for real, nigga What you really sayin'? Ain't no way I ain't gon' Shawshank from out the shit Shovel snow, shiverin' in cold I don't want the silverware, shit goes I saw myself sinkin', shawty slipperyed the slope My partner praise a lot and slang dope My block the same, we rock the same clothes Watch the same shows, readin' rainbows, fuck the same hoes Keep the bank closed, let the thing blow like Oh, oh, oh, oh Ain't no way this the way I'm livin' out my final days I feel like JAY, chakra flowin' through me like a tidal wave Rivals made to be a slave inside my suicidal page Watchin' Paris with a H, we ain't where the Eiffel stay Over the years, friends turn to enemies Bullets curvin' left and right sort of like parentheses Viciously, I can turn your sympathies to symphonies And I can send you up the same day you try to sin for me Niggas be gettin' famous off of infamy Infiltrate the industry by usin' my life to write a hit At first, I used to fight this shit Jiggaman made his first album at twenty-six I passed twenty-five, I was seventeen gettin' rich Ain't no way I was gonna take what people sell me Run the jewels 'cause I kill a mic on any LP Trained up my body and soul, you can't derail me Trust, between God and myself, they'll never fail me Ain't no way niggas still doubt me after this shit Ain't no way you been here this long and still ain't rich I done dumped my savings and my dreams like ayy Pull up on your bitch like wait Still talkin' slick like wait Nigga on the road, my escape Humble as a bitch, but not today Ridin' through the 6 without the Drac', but got the drape Oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh-oh Oh, oh, oh, oh Oh, oh, oh, oh Oh, oh, oh-oh22</t>
+          <t>Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Put that on the gang, wait, put that on my name, wait Put that on my mama, put that on my first chain, wait Say I'm not the same, who said that my face changed? wait You thought I was lame but I made a lane damn straight All truth, no dare, these hoes don't care They'll leave you passed out in your underwear Leave me in the cold but you'll never take my soul, bitch Curry's still that nigga with a mouth full of gold, bitch Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Watchin' me and watchin' you is like some on demand shit Niggas want the clout so they can buy a fuckin' mansion Niggas on them percs and might just shoot a fucking campus Everybody and they mama tweakin' on that Xan shit Shit is messed up, pills be on the dresser, uh Buddha bless ya, give instructor X some, uh Look at my eyes, let the beat ride Ain't shit changed since Lil Peep died On the Southside, it's suicide, in a box with a suit and tie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Man y'all niggas ain't shit man Man y'all niggas rockin' shit man Bring it back round this shit man, 2K KRS genius style king of violence type shit with that shit man we back Fuck you mean, I'm too high for this shit let me calm down In this bitch all maxed out Full power, full spirit, full body release, we ain't playing no more You niggas ain't got 2K lens unless we let you in Unless we open the door, so don't let it close on you Haha31</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>THE BLACKEST BALLOON | THE 13LACKEZT 13ALLOON</t>
+          <t>The Glory</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Put that on the gang, wait, put that on my name, wait Put that on my mama, put that on my first chain, wait Say I'm not the same, who said that my face changed? wait You thought I was lame but I made a lane damn straight All truth, no dare, these hoes don't care They'll leave you passed out in your underwear Leave me in the cold but you'll never take my soul, bitch Curry's still that nigga with a mouth full of gold, bitch Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Watchin' me and watchin' you is like some on demand shit Niggas want the clout so they can buy a fuckin' mansion Niggas on them percs and might just shoot a fucking campus Everybody and they mama tweakin' on that Xan shit Shit is messed up, pills be on the dresser, uh Buddha bless ya, give instructor X some, uh Look at my eyes, let the beat ride Ain't shit changed since Lil Peep died On the Southside, it's suicide, in a box with a suit and tie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Ooh, ooh, feel like a horror movie Ooh, ooh, why my brother callin' to me? Ooh, ooh, acting like I never knew me Ooh, ooh, put that on my brother Mookie Man y'all niggas ain't shit man Man y'all niggas rockin' shit man Bring it back round this shit man, 2K KRS genius style king of violence type shit with that shit man we back Fuck you mean, I'm too high for this shit let me calm down In this bitch all maxed out Full power, full spirit, full body release, we ain't playing no more You niggas ain't got 2K lens unless we let you in Unless we open the door, so don't let it close on you Haha31</t>
+          <t>You see us as winners, when do we ever win? When am I even good enough? Acknowledge your friends Sometimes things get broken and we argue again Spent the last 20 minutes all inside of my head I'll explain it as takin' cash on culture from the poachers Scopin' everything I have, ignorin' all the bullshit that made me mad Killin' coral reefs, smoking weed too fast Almost got skipped, bitch I read too fast, I don't bleach my past These are the titles G's supposed to have, cold in the summer Sweatin' bullets out on Flatbush Ave Spirit like I got a platinum plaque, modern acrobat, the mass effect I sharp shoot 'em, make them tap the mat, so accurate We represent the illest seniors, small demeaners Tellin' lies inside this room of cheaters Even at the stage of a fetus, I reclaim to repeat this to all my demons That's pigeon-holin' your genius and feedin' right into weakness How can he write his thesis? He don't believe in Jesus Sweetness, I'm almost speechless, for our future, egregious We gotta pick up the pieces shawty, I'm familiar with pain Used to play by myself when they considered it lame Do this thing by yourself, nothing is ever obtained Introverted but Im emergin' the spark to the flames I won't harp on a thing I won't causin' the blame, but it's hard to obtain I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig A real friend'll kill you if you asked him to Instead of stabbing on the back of you Just trying to get ahead But you can't spend a dime if you work yourself dead We are so deep in love with the sinner but not the sin How could she turn my king size into a waterbed? Damn, I'm just sayin' Kick her out the crib and scream, Baby, come back Then kick her out againI'm just crazy like that Bitches fall in love with a nigga out of his mind And I fall so deep into lust with a chick with a big behind My ex left cause I ain't got no hits I heard her new boyfriend lumpin' her up with his fists But hey, you got what you asked for, I'm petty as shit That's some food for thought, I let you do the dishes I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig I'm Faizon with no love, give love with a golden glove I'm the man with a golden gun, black man under golden sun I'm shinin', Jack Nicholson, wishes where my nickels went Kisses on my mistletoes, did I have a Christmas? No But I had a misses though, believe me, shoulda vacay'd in Tahiti Wishing you were dyin' with me, sweet as hugs and diabetes Leave me, love me, touch me, cut me, lustin' Fuck me, busty, dusty, old and rusted Baby, do you mind if I revise what's in your mind? You see my call declined because a certain point in time I'm hopin' every line it hits like millimeter nine You beggin' me to change, that is a penny to a dime The realness in my spirit always gets you every time Optimistic like Optimus, we ain't even reached our prime Roses are red and violence leads to violins End of discussion, I hope that we could still be friends Don't take this shit for granted, I'm blessed just like my granny Shout out my Uncle Mannie, hey, hi, I hope you winnin' Gia, I hope you listenin' And Tommy hold your head, man fuck your heart condition Rihanna like my big momma, we call Penny Big Momma She like a hundred years old, that's a real old timer Uncle Karl you in a better place Just know the pictures that you took gon' live forever and a motherfuckin' day Rest in peace Uncle Rob, we miss you, bless your heart Rihanna and my grandmomma took me in from the start Aunt Marie beatin' cancer, givin' everything she had My cousin Calvin showed me swag, my cousin Hebrew showed me straps Me and J used to hustle, he had that white, I had that green Who got them pills? We in Fort Greene, lil niggas on the scene God had four knives, that's one for each pocket Gonna need nine lives if you get outta pocket If I see cousin James, I'll knock his eye out his socket Diamante hold me down like I ain't got a wallet Rest in peace to my sweet great-grandma Grace I wish my momma was alive, if I could see her face My grandfather used to say when I fucked up That I was just like my momma, tough love I wish I could see my kid way more than I could My baby momma holdin' grudges but the court will do good8</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Glory</t>
+          <t>Melt Session #1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>You see us as winners, when do we ever win? When am I even good enough? Acknowledge your friends Sometimes things get broken and we argue again Spent the last 20 minutes all inside of my head I'll explain it as takin' cash on culture from the poachers Scopin' everything I have, ignorin' all the bullshit that made me mad Killin' coral reefs, smoking weed too fast Almost got skipped, bitch I read too fast, I don't bleach my past These are the titles G's supposed to have, cold in the summer Sweatin' bullets out on Flatbush Ave Spirit like I got a platinum plaque, modern acrobat, the mass effect I sharp shoot 'em, make them tap the mat, so accurate We represent the illest seniors, small demeaners Tellin' lies inside this room of cheaters Even at the stage of a fetus, I reclaim to repeat this to all my demons That's pigeon-holin' your genius and feedin' right into weakness How can he write his thesis? He don't believe in Jesus Sweetness, I'm almost speechless, for our future, egregious We gotta pick up the pieces shawty, I'm familiar with pain Used to play by myself when they considered it lame Do this thing by yourself, nothing is ever obtained Introverted but Im emergin' the spark to the flames I won't harp on a thing I won't causin' the blame, but it's hard to obtain I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig A real friend'll kill you if you asked him to Instead of stabbing on the back of you Just trying to get ahead But you can't spend a dime if you work yourself dead We are so deep in love with the sinner but not the sin How could she turn my king size into a waterbed? Damn, I'm just sayin' Kick her out the crib and scream, Baby, come back Then kick her out againI'm just crazy like that Bitches fall in love with a nigga out of his mind And I fall so deep into lust with a chick with a big behind My ex left cause I ain't got no hits I heard her new boyfriend lumpin' her up with his fists But hey, you got what you asked for, I'm petty as shit That's some food for thought, I let you do the dishes I wanna see you winnin', I wanna see you get the cash Wanna see you finish, don't wanna see you wave the flag Wanna see you try hard, wanna see you do it big Bringing champagne home, 'long as I could get a swig I'm Faizon with no love, give love with a golden glove I'm the man with a golden gun, black man under golden sun I'm shinin', Jack Nicholson, wishes where my nickels went Kisses on my mistletoes, did I have a Christmas? No But I had a misses though, believe me, shoulda vacay'd in Tahiti Wishing you were dyin' with me, sweet as hugs and diabetes Leave me, love me, touch me, cut me, lustin' Fuck me, busty, dusty, old and rusted Baby, do you mind if I revise what's in your mind? You see my call declined because a certain point in time I'm hopin' every line it hits like millimeter nine You beggin' me to change, that is a penny to a dime The realness in my spirit always gets you every time Optimistic like Optimus, we ain't even reached our prime Roses are red and violence leads to violins End of discussion, I hope that we could still be friends Don't take this shit for granted, I'm blessed just like my granny Shout out my Uncle Mannie, hey, hi, I hope you winnin' Gia, I hope you listenin' And Tommy hold your head, man fuck your heart condition Rihanna like my big momma, we call Penny Big Momma She like a hundred years old, that's a real old timer Uncle Karl you in a better place Just know the pictures that you took gon' live forever and a motherfuckin' day Rest in peace Uncle Rob, we miss you, bless your heart Rihanna and my grandmomma took me in from the start Aunt Marie beatin' cancer, givin' everything she had My cousin Calvin showed me swag, my cousin Hebrew showed me straps Me and J used to hustle, he had that white, I had that green Who got them pills? We in Fort Greene, lil niggas on the scene God had four knives, that's one for each pocket Gonna need nine lives if you get outta pocket If I see cousin James, I'll knock his eye out his socket Diamante hold me down like I ain't got a wallet Rest in peace to my sweet great-grandma Grace I wish my momma was alive, if I could see her face My grandfather used to say when I fucked up That I was just like my momma, tough love I wish I could see my kid way more than I could My baby momma holdin' grudges but the court will do good8</t>
+          <t>Yo Take a ride on my train of thought, fundamentals what I bought Penniless, I await the emptiness enlightened Twenty-six years on Earth, my soul fighting Habits that ain't happen, my body has took a liken To my lifestyle, battling stress the size of Goliath Slingshots plus hard rocks, these stones getting thrown My temptations are amplified when I get alone Tried to separate the action from the man I wholeheartedly understand why I need to grow even though I'm grown If I did you wrong, I vow to make it right Judg me off appearance, it was said to m, I'm impolite Eyes remain in freeze mode, I'm stuck in fight-or-flight I'm deflecting my daily problems within my daily life Recognize hidden patterns of my own demise Why I feel like hiding a truth is finding a lie? Dealt with thoughts of suicide, women I've objectified Couldn't see it through my eyes so for that, I apologize I'm just hypnotized, working hard to empathize Strung out on love addiction and groupies when souls collide I've been this way since the day I turned six I've been touched before, way before I touched my Now I'm almighty pushing through the pain The almighty cushion to the flame The birds and burning bushes in my brain I had to make an effort, double overtime to change Had to journal my journey and mistakes I made on the way Manipulation to get what I want Getting very distant after I got what I need Writing rap and wisdom, whiskey, women, wars and weed Narrating all these conflicts, then top it off with greed I keep walkin', I keep walkin', I keep walkin' Me and my so-called best friends don't speak often Blaming me for everything when they can't point fingers at they selves, so be grateful I offered the help Being aware is my definition of melt My eyes see imperfections within myself Cracked images, bad luck, and broken mirrors Funny how I see in permanent so clearer I dedicate this to the ones I hurt It's time to get my spirit right on earth Before my sins become a evil curse Conquer thirst, can't revert to who I was at first I channel God through this verse Accountability, I take responsibility For all my actions, I packed them in these soliloquies Just because we're not friends don't mean we're enemies Thank you all for listening, sending y'all with good energy Melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt7</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Melt Session #1</t>
+          <t>P.A.T.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yo Take a ride on my train of thought, fundamentals what I bought Penniless, I await the emptiness enlightened Twenty-six years on Earth, my soul fighting Habits that ain't happen, my body has took a liken To my lifestyle, battling stress the size of Goliath Slingshots plus hard rocks, these stones getting thrown My temptations are amplified when I get alone Tried to separate the action from the man I wholeheartedly understand why I need to grow even though I'm grown If I did you wrong, I vow to make it right Judg me off appearance, it was said to m, I'm impolite Eyes remain in freeze mode, I'm stuck in fight-or-flight I'm deflecting my daily problems within my daily life Recognize hidden patterns of my own demise Why I feel like hiding a truth is finding a lie? Dealt with thoughts of suicide, women I've objectified Couldn't see it through my eyes so for that, I apologize I'm just hypnotized, working hard to empathize Strung out on love addiction and groupies when souls collide I've been this way since the day I turned six I've been touched before, way before I touched my Now I'm almighty pushing through the pain The almighty cushion to the flame The birds and burning bushes in my brain I had to make an effort, double overtime to change Had to journal my journey and mistakes I made on the way Manipulation to get what I want Getting very distant after I got what I need Writing rap and wisdom, whiskey, women, wars and weed Narrating all these conflicts, then top it off with greed I keep walkin', I keep walkin', I keep walkin' Me and my so-called best friends don't speak often Blaming me for everything when they can't point fingers at they selves, so be grateful I offered the help Being aware is my definition of melt My eyes see imperfections within myself Cracked images, bad luck, and broken mirrors Funny how I see in permanent so clearer I dedicate this to the ones I hurt It's time to get my spirit right on earth Before my sins become a evil curse Conquer thirst, can't revert to who I was at first I channel God through this verse Accountability, I take responsibility For all my actions, I packed them in these soliloquies Just because we're not friends don't mean we're enemies Thank you all for listening, sending y'all with good energy Melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt I keep walkin', I keep walkin', I keep walkin' I keep walkin', I keep walkin', I keep, melt7</t>
+          <t>I'm finna show you fuck niggas how Florida go H.A.M., nigga Straight like that, fuck nigga FnZ Oh damn Ronny J, please turn me up Contact, sit out, Ima hold the fort All black, sticks out like I'm Voldemort Lights out, stomped out like Columbus Short This ain't what you want, better teleport Instant transmission, have your mans missing, plans thicken While my bands thicken, have your clan stricken, hands itchin That's the trigger finger, uh, now your spirit linger, uh Get my Stanley Steamer on, sniper with the beamer on Cut your line like I'm Hercules, leave you in surgery Beef is a wad of meat, bitch, this ain't Aqua Teen Fuck a gun, I'ma go whip his ass Fuck around, have you spinnin' like Taz All you niggas quick to pick up a strap Everlast make a nigga take naps Used to go to sleep, I would hear the blocka, blocka Think it's fireworks but I assume it's a chopper Why they hit that man with the boom-shaka-laka? If he got the scope with the zoom, shotta, shotta I grew up in a city where most people have no goals Just cold-blooded niggas in a place that never snow Well rob you for your chain, probably pistol whip your ho We carry hollow tips cause it reflects what's in my soul, damn Contact, sit out, Ima hold the fort All black, sticks out like I'm Voldemort Lights out, stomped out like Columbus Short This ain't what you want, better teleport Instant transmission, have your mans missing, plans thicken While my bands thicken, have your clan stricken, hands itchin' Thats the trigger finger, uh, now your spirit linger, uh Get my Stanley Steamer on, sniper with the beamer on Blood on my shoes, these ain't red bottoms, headshot 'em Fly in the night with my bats, Gotham, feds watching Bitch, I'm from Dade, I do no cappin', no lackin' Once you get hit, don't know what happened, no flapping Free Ted, nigga, fuck all my enemies Fuck nigga run up, catchin' felonies Get the racks, flip the pack, that's my specialty Hundred round hit your block, I got seventy Riot, riot, you don't want no violence Silence, silence, tell that boy be quiet Riot, riot, don't make me start a riot Silence, silence, put that boy in silence Riot, riot, don't make me start a riot Silence, silence, put that boy in silence Oh damn Ronny J, please turn me up Blackland, nigga, 66.-motherfuckin'-69</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P.A.T.</t>
+          <t>Purrposely</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>I'm finna show you fuck niggas how Florida go H.A.M., nigga Straight like that, fuck nigga FnZ Oh damn Ronny J, please turn me up Contact, sit out, Ima hold the fort All black, sticks out like I'm Voldemort Lights out, stomped out like Columbus Short This ain't what you want, better teleport Instant transmission, have your mans missing, plans thicken While my bands thicken, have your clan stricken, hands itchin That's the trigger finger, uh, now your spirit linger, uh Get my Stanley Steamer on, sniper with the beamer on Cut your line like I'm Hercules, leave you in surgery Beef is a wad of meat, bitch, this ain't Aqua Teen Fuck a gun, I'ma go whip his ass Fuck around, have you spinnin' like Taz All you niggas quick to pick up a strap Everlast make a nigga take naps Used to go to sleep, I would hear the blocka, blocka Think it's fireworks but I assume it's a chopper Why they hit that man with the boom-shaka-laka? If he got the scope with the zoom, shotta, shotta I grew up in a city where most people have no goals Just cold-blooded niggas in a place that never snow Well rob you for your chain, probably pistol whip your ho We carry hollow tips cause it reflects what's in my soul, damn Contact, sit out, Ima hold the fort All black, sticks out like I'm Voldemort Lights out, stomped out like Columbus Short This ain't what you want, better teleport Instant transmission, have your mans missing, plans thicken While my bands thicken, have your clan stricken, hands itchin' Thats the trigger finger, uh, now your spirit linger, uh Get my Stanley Steamer on, sniper with the beamer on Blood on my shoes, these ain't red bottoms, headshot 'em Fly in the night with my bats, Gotham, feds watching Bitch, I'm from Dade, I do no cappin', no lackin' Once you get hit, don't know what happened, no flapping Free Ted, nigga, fuck all my enemies Fuck nigga run up, catchin' felonies Get the racks, flip the pack, that's my specialty Hundred round hit your block, I got seventy Riot, riot, you don't want no violence Silence, silence, tell that boy be quiet Riot, riot, don't make me start a riot Silence, silence, put that boy in silence Riot, riot, don't make me start a riot Silence, silence, put that boy in silence Oh damn Ronny J, please turn me up Blackland, nigga, 66.-motherfuckin'-69</t>
+          <t>Hey, pipe up, bitch Go by the name of XXX Members Only, Very Rare in this bitch Hey, tell that pussy nigga SpaceGhostPurrp pull up Bitch ass, do that pussy ass shit, pussy ass nigga Fuck wrong with you, boy? Bitch, I'm hard as fuck and I'm about to pop yo' cherry, bitch Yuh, yuh, bitch Getting niggas to fight your battles 'cause we know you scary, bitch Uh, yuh, yuh, ayy Claim you from the hood, boy, you stayed in Ives Dairy, bitch Yuh, yuh, uh, yuh Nah, this ain't no beef, this that Eazy and Jerry Heller shit Yuh, yuh, bitch Hope you die from AIDS, fuck with me with all this whack shit Ayy, yuh, yuh Now I'm 'bout to show you who's the real god of black, bitch Yuh, yuh, yuh Blackland radio burnt to a fucking crisp Bitch, yuh, bitch 2016, you a bitch, suck a nigga dick Bitch, bitch, bitch, bitch, yuh Fuck the police but I'm fed up Yuh ULT up in this thang, get yo head bust Yuh, yuh You know where I stay, never pulled up Try to diss me, you a fucking fool, bruh Hahaha Nigga, I'm a gook Yeah, yeah, yeah Dumb as fuck I even battled you Damn Flow so ass, shit's embarrassed to come out of you Yuh, bitch Nigga, I'll fade you like Naruto Come for your head like I'm ultimate, Kabuto, mmm What? Boy, you get jump like Geronimo Sending me shots like you part of the Alamo, mmm Yuh Bruh, you are not making no sense, mmm Ugh DASH beat yo' ass like a bitch, mmm Ugh Bari beat you like a bitch So I guess you got the hits I am immaculate, bitch Bitch Truly, I'm really the activist, bitch Brought you back so I could kill you again This is the ending before you begin Yeah, yuh Told you, don't fuck with the Ultimate Pull up, pull up, pull up I got the key, now I'm giving you hell, nigga Pull up, pull up Definition of a failed nigga Pull up, yuh Go ahead and paint your nails, nigga Free Slikk and free Nell, nigga Yuh, yuh, yuh D-E-N-Z-E-L, nigga Everyone know you a punk nigga Your own family don't fuck with ya How the fuck am I a stan, nigga? Yuh, yuh, yuh First artist in Klan, nigga Yuh, yuh Brought you Nell and Simmie, didn't get a penny I thought that you was my fam, nigga, ooh Bitch Murk a nigga back to back And I'll smack the tats off this pussy nigga forehead, woo God damn Motherfucka you ass and wack boy who laughing at You better talk to your old head You fled back to Miami when Nast caught a charge You a fraud, swear to God Claim you a man, but you act like a broad Yuh, yuh, yuh, yuh, yuh Everything you saying, it is a facade SpaceGhostPussy Blackland really belongs to me Bitch You came to my house begging trying to make a song with me Bitch All I spit is facts, all your rhymes are fucking nursery This is what a pussy nigga get for dissing, purposely Shouts out to Taylissa 'cause I know you really love her Ew Why the fuck you here, your daddy shouldve wore a rubber Ugh You blowing up her Twitter 'cause you thought Mark was gon fuck her What? SGP, and the S stand for a sucka, ho A sucka ho, you a sucka ho You a low down pretty motherfucka ho You a pussy ho, HoGhostPurrp Yeah, you gettin' merked Bitch, yeah, I smoke purp, ho Hey man, I'm a street nigga, shit, man I'm not Denzel, Denzel lil' too humble for you, dawg So, pussy nigga, you can come for me I'll come for you too, tweet that address, send that address, pussy nigga, we'll pull up On gang15</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Purrposely</t>
+          <t>BIRDZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hey, pipe up, bitch Go by the name of XXX Members Only, Very Rare in this bitch Hey, tell that pussy nigga SpaceGhostPurrp pull up Bitch ass, do that pussy ass shit, pussy ass nigga Fuck wrong with you, boy? Bitch, I'm hard as fuck and I'm about to pop yo' cherry, bitch Yuh, yuh, bitch Getting niggas to fight your battles 'cause we know you scary, bitch Uh, yuh, yuh, ayy Claim you from the hood, boy, you stayed in Ives Dairy, bitch Yuh, yuh, uh, yuh Nah, this ain't no beef, this that Eazy and Jerry Heller shit Yuh, yuh, bitch Hope you die from AIDS, fuck with me with all this whack shit Ayy, yuh, yuh Now I'm 'bout to show you who's the real god of black, bitch Yuh, yuh, yuh Blackland radio burnt to a fucking crisp Bitch, yuh, bitch 2016, you a bitch, suck a nigga dick Bitch, bitch, bitch, bitch, yuh Fuck the police but I'm fed up Yuh ULT up in this thang, get yo head bust Yuh, yuh You know where I stay, never pulled up Try to diss me, you a fucking fool, bruh Hahaha Nigga, I'm a gook Yeah, yeah, yeah Dumb as fuck I even battled you Damn Flow so ass, shit's embarrassed to come out of you Yuh, bitch Nigga, I'll fade you like Naruto Come for your head like I'm ultimate, Kabuto, mmm What? Boy, you get jump like Geronimo Sending me shots like you part of the Alamo, mmm Yuh Bruh, you are not making no sense, mmm Ugh DASH beat yo' ass like a bitch, mmm Ugh Bari beat you like a bitch So I guess you got the hits I am immaculate, bitch Bitch Truly, I'm really the activist, bitch Brought you back so I could kill you again This is the ending before you begin Yeah, yuh Told you, don't fuck with the Ultimate Pull up, pull up, pull up I got the key, now I'm giving you hell, nigga Pull up, pull up Definition of a failed nigga Pull up, yuh Go ahead and paint your nails, nigga Free Slikk and free Nell, nigga Yuh, yuh, yuh D-E-N-Z-E-L, nigga Everyone know you a punk nigga Your own family don't fuck with ya How the fuck am I a stan, nigga? Yuh, yuh, yuh First artist in Klan, nigga Yuh, yuh Brought you Nell and Simmie, didn't get a penny I thought that you was my fam, nigga, ooh Bitch Murk a nigga back to back And I'll smack the tats off this pussy nigga forehead, woo God damn Motherfucka you ass and wack boy who laughing at You better talk to your old head You fled back to Miami when Nast caught a charge You a fraud, swear to God Claim you a man, but you act like a broad Yuh, yuh, yuh, yuh, yuh Everything you saying, it is a facade SpaceGhostPussy Blackland really belongs to me Bitch You came to my house begging trying to make a song with me Bitch All I spit is facts, all your rhymes are fucking nursery This is what a pussy nigga get for dissing, purposely Shouts out to Taylissa 'cause I know you really love her Ew Why the fuck you here, your daddy shouldve wore a rubber Ugh You blowing up her Twitter 'cause you thought Mark was gon fuck her What? SGP, and the S stand for a sucka, ho A sucka ho, you a sucka ho You a low down pretty motherfucka ho You a pussy ho, HoGhostPurrp Yeah, you gettin' merked Bitch, yeah, I smoke purp, ho Hey man, I'm a street nigga, shit, man I'm not Denzel, Denzel lil' too humble for you, dawg So, pussy nigga, you can come for me I'll come for you too, tweet that address, send that address, pussy nigga, we'll pull up On gang15</t>
+          <t>Uh-huh, yeah, hmm Yeah, uh-huh, yeah FnZ Well damn Let's start it over Eye of Jehovah Come take a look at my city and its culture City full of vultures, city full of Zoes City full of gangsters that's stickin' to the code Everybody thinking that they know me for real 'Cause they only seen me on a poster for real Don't test my dawg, they got holsters for real Fuck a Pop-Tart, we carry toasters for real Aim, cock back, shoot at lames Name unknown, we are not the same Shame on a brrt tryna run game We was able to sell it, now my city serve 'caine Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck No Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Huh Maybach Music Living on a limb and I'm blowing hemp Boss You see the limo tinted, never know it's him Woo Cocaine wraps in the Cadillac Okay I got lil' homie with me, city on our backs Denzel Always been a loner 'cause I'm so rebellious What? Pulling on a bong, it make me feel angelic M-M-M Penning a memoir, I pray I live to tell it Huh Never will I tell it, that's considered careless Woo Vroom, vroom, vroom, bitch, we on a move Vroom Snort a line of this, I bet you clean your room Haha Mansions in Atlanta, trophy on the mantle I got 'em Long live my nigga Nipsey, light another candle Boss, Maybach Music Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Butterfly doors keep the birds chirpin' Oh Big top back like I'm in the circus Yeah Pray I keep it all at the Sunday service, uh My pastor making dollars like he Erick Sermon Lord forgive me for my tendencies, yuh Got an evil plan for my mini-mes, yuh See business gotta grow, time to plant a seed, yeah Its time to make compost of my enemies, yeah My city full of palm trees and bad bitches You see? If your dawg green, its bad business You see? If it's all greed, they all switching We lost, and by all means, we all missing Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck9</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIRDZ</t>
+          <t>Parents</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Uh-huh, yeah, hmm Yeah, uh-huh, yeah FnZ Well damn Let's start it over Eye of Jehovah Come take a look at my city and its culture City full of vultures, city full of Zoes City full of gangsters that's stickin' to the code Everybody thinking that they know me for real 'Cause they only seen me on a poster for real Don't test my dawg, they got holsters for real Fuck a Pop-Tart, we carry toasters for real Aim, cock back, shoot at lames Name unknown, we are not the same Shame on a brrt tryna run game We was able to sell it, now my city serve 'caine Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck No Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Huh Maybach Music Living on a limb and I'm blowing hemp Boss You see the limo tinted, never know it's him Woo Cocaine wraps in the Cadillac Okay I got lil' homie with me, city on our backs Denzel Always been a loner 'cause I'm so rebellious What? Pulling on a bong, it make me feel angelic M-M-M Penning a memoir, I pray I live to tell it Huh Never will I tell it, that's considered careless Woo Vroom, vroom, vroom, bitch, we on a move Vroom Snort a line of this, I bet you clean your room Haha Mansions in Atlanta, trophy on the mantle I got 'em Long live my nigga Nipsey, light another candle Boss, Maybach Music Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck Butterfly doors keep the birds chirpin' Oh Big top back like I'm in the circus Yeah Pray I keep it all at the Sunday service, uh My pastor making dollars like he Erick Sermon Lord forgive me for my tendencies, yuh Got an evil plan for my mini-mes, yuh See business gotta grow, time to plant a seed, yeah Its time to make compost of my enemies, yeah My city full of palm trees and bad bitches You see? If your dawg green, its bad business You see? If it's all greed, they all switching We lost, and by all means, we all missing Don't start none, won't be none Don't speak, don't hear, and don't see none Only fear one, but now I fear none And if you ain't God, well, I don't give a fuck9</t>
+          <t>Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Pity, pity, pityfirst you showing off them titties Letting niggas lick the clittie to a flower or some witty comment Witty, now you shitty with those saggy tig ol' bitties And a flabby old ass, trying to look like Ms. Nicki Picky, 'cause I say you look like Ms. Piggy It's a damn shame that we the same pigment First you act like Bobby, now you look like Whitney If a nigga know the chorus then please say it with me Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Nigga, nigga, niggalet a nigga level with ya How the hell you gon' be broke and always be the bigger spender? Stories sweeter than the Splenda that was thrown inside the blender So you wanna get crunk while you mix it with the liquor Nigga, people like you, I don't get ya Claimin' you a baller but your momma living with ya Better look inside the picture, 'cause you ain't getting richer Now it's hard to see his son 'cause the momma took him with her Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Let 'em do whatever it's whatever, they endeavor From the streets to the clubs, to the guns, to the cheddar Till you get a phone call, email, or a letter That your jit locked up or he dead on the stretcher Better parenting is the main pressure Your daughter got kids but wasn't taught about pleasure Your kids are the treasure, the love you couldn't measure Will end up in the hole if you don't get it together32</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Parents</t>
+          <t>Lay_Up.m4a</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Pity, pity, pityfirst you showing off them titties Letting niggas lick the clittie to a flower or some witty comment Witty, now you shitty with those saggy tig ol' bitties And a flabby old ass, trying to look like Ms. Nicki Picky, 'cause I say you look like Ms. Piggy It's a damn shame that we the same pigment First you act like Bobby, now you look like Whitney If a nigga know the chorus then please say it with me Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Nigga, nigga, niggalet a nigga level with ya How the hell you gon' be broke and always be the bigger spender? Stories sweeter than the Splenda that was thrown inside the blender So you wanna get crunk while you mix it with the liquor Nigga, people like you, I don't get ya Claimin' you a baller but your momma living with ya Better look inside the picture, 'cause you ain't getting richer Now it's hard to see his son 'cause the momma took him with her Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch With a dirty white tee and some dirty ass kicks And you got no money, so you can't feed the jit Your momma ain't shit, your daddy ain't shit And then you realize that life is a bitch Got no education, so you got to be the chick That strip for a living 'cause you gotta pay the rent Let 'em do whatever it's whatever, they endeavor From the streets to the clubs, to the guns, to the cheddar Till you get a phone call, email, or a letter That your jit locked up or he dead on the stretcher Better parenting is the main pressure Your daughter got kids but wasn't taught about pleasure Your kids are the treasure, the love you couldn't measure Will end up in the hole if you don't get it together32</t>
+          <t>We marvel about some athlete earning ten or fifteen million a year Well, if that's the case, that athlete must be worth to his owners billions of dollars Getting to the paper like it's human nature Goddamn, the more they hate us, that just motivate us I know revenge tastes the sweetest, mmm, I'm gon' savor I'm just sending all my graces up to my creator No negotiation, this is world domination You can fill the trophy cases up with nominations I'm the Alpha-Omega, that mean you can't replace us That mean I'm throwing dice in Vegas, betting all the wages My girl expensive, remember you get what you pay for Big, big pay-off moves on and off the radar You can't afford to miss a layup when you in the playoffs Uh Press on, stress on I give this shit blood, flesh, bone Can't catch me, I skate to my destiny That's necessity, you can't out-finesse me She like chocolate, Nestlé, brown and sexy Touch me, tease me, please me, just don't test me I'm the bar, my weight up, you can't press me Legendary bloodline, my ancestry Ooh, I'm devoted and hated, I re-coded the Matrix I just loaded the bases and you know I'ma make it hit Getting to the paper like it's human nature Getting to the paper like it's human nature Getting to the paper like it's human nature, uh Uh Getting to the paper like it's human nature No time to relax, we ain't in Jamaica Getting to the paper like it's human nature Uh Yeah, yeah, yeah, yeah Lil Tunechi I've been having conversations with the constellations We keep this shit between us, just like a doctor-patient The heaviest intoxication make the problems weightless I'ma need some sanitation for the time that's wasted Told my shrink that life is crazy, he said, Life is crazy I bought a house so fucking big it feel like I'm my neighbors I told my weed man, I need nature, he accommodate me I got two choppers look alike, I call 'em crock and gator The flowers looking quite amazing, I ain't like the fragrance I stand beside a baby, see who you decide to play with I'ma take my fucking chances, I'm a lucky bastard My heart race 'til it catch up to who it's running after Oh my gosh, I'm gone, I'm on a planet I'm not knowin' Said, Let there be light, but then all my lights were blown Yeah, I know my rights, I mean I know right from wrong I know yayo white and sweeter than a yellow bone I know love is life and I know life is never long I made plans to get away and in the morning, I'll be gone Man, I mind-fuck, no foreplay, brainwash, my thoughts fade Brainstorm, I storm chase, guilty conscience no court date Lil Tunechi Tunechi Detroit Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Get this shit no matter how long it takes us I've been having conversations with the constellations Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Black music sells about sixty percent of the music sold in the world It outsells other people's native music And yet, we're willing to sing for pennies a record30</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lay_Up.m4a</t>
+          <t>’ Cosmic ’ .m4a</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>We marvel about some athlete earning ten or fifteen million a year Well, if that's the case, that athlete must be worth to his owners billions of dollars Getting to the paper like it's human nature Goddamn, the more they hate us, that just motivate us I know revenge tastes the sweetest, mmm, I'm gon' savor I'm just sending all my graces up to my creator No negotiation, this is world domination You can fill the trophy cases up with nominations I'm the Alpha-Omega, that mean you can't replace us That mean I'm throwing dice in Vegas, betting all the wages My girl expensive, remember you get what you pay for Big, big pay-off moves on and off the radar You can't afford to miss a layup when you in the playoffs Uh Press on, stress on I give this shit blood, flesh, bone Can't catch me, I skate to my destiny That's necessity, you can't out-finesse me She like chocolate, Nestlé, brown and sexy Touch me, tease me, please me, just don't test me I'm the bar, my weight up, you can't press me Legendary bloodline, my ancestry Ooh, I'm devoted and hated, I re-coded the Matrix I just loaded the bases and you know I'ma make it hit Getting to the paper like it's human nature Getting to the paper like it's human nature Getting to the paper like it's human nature, uh Uh Getting to the paper like it's human nature No time to relax, we ain't in Jamaica Getting to the paper like it's human nature Uh Yeah, yeah, yeah, yeah Lil Tunechi I've been having conversations with the constellations We keep this shit between us, just like a doctor-patient The heaviest intoxication make the problems weightless I'ma need some sanitation for the time that's wasted Told my shrink that life is crazy, he said, Life is crazy I bought a house so fucking big it feel like I'm my neighbors I told my weed man, I need nature, he accommodate me I got two choppers look alike, I call 'em crock and gator The flowers looking quite amazing, I ain't like the fragrance I stand beside a baby, see who you decide to play with I'ma take my fucking chances, I'm a lucky bastard My heart race 'til it catch up to who it's running after Oh my gosh, I'm gone, I'm on a planet I'm not knowin' Said, Let there be light, but then all my lights were blown Yeah, I know my rights, I mean I know right from wrong I know yayo white and sweeter than a yellow bone I know love is life and I know life is never long I made plans to get away and in the morning, I'll be gone Man, I mind-fuck, no foreplay, brainwash, my thoughts fade Brainstorm, I storm chase, guilty conscience no court date Lil Tunechi Tunechi Detroit Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Get this shit no matter how long it takes us I've been having conversations with the constellations Yeah, yeah, yeah Getting to the paper like it's human nature Yeah, yeah, yeah Black music sells about sixty percent of the music sold in the world It outsells other people's native music And yet, we're willing to sing for pennies a record30</t>
+          <t>We here, we here, we here yes yes yes yes Fire code uh uh uh uh Yes, huh hey We roll from uh- you know hey You know what time it is get your hand out my You know what time it, uh Black Star, come on ma yeah Now come on ma yeah Come on ma uh And, listen Yo honeys check it out, she got me mesmerized With your black hair and your fat ass WOW Walks over, feel your feet tap on the ground Make a nigga come back like What's happenin now? Hear he really promising the platinum, get down You'll be backin it out, straight backin 'em down With your hand on your mouth And damn baby girl, what's that all about? You know the ave puttin curves in the brow On your job, all workin it out I like how you coordinate purse, skirt, and the blouse Around the way, comin straight out the house You just laid on the couch Make a cat just pause and be Wow Baby's body was immaculate Sweet like my first kiss in the back of the flick I have to insist, miss, that we chat for a bit But your ass wanna diss Walkin all fast like you can't stop I need somebody to get passionate with You just assume that I be on that supermasculine shit Crackin the whip just to shut you you and fasten your lip I just be shinin my light and they be baskin in it I go out casually dip trip on the tragically hit Sippin Cosmopolitans on some fashionably shit Black Star in the building and it hasta be sick BK still smokin nigga pass me the shit, what Stop what up You got it come on ma Stop You got it come on ma Stop You got it Stop Brown sugar let me see you shake it out Stop brown sugar baby Ha you got it there you go brown sugar baby you got it work it out brown sugar baby you got it come on ma Brown sugar let me see you shake it out Yeah, this go out to the cats Be workin for weeks to purchase a piece I'm with my people hurtin to cease, it's curtains for peace Certain keeps spurs to their knees like I'm chirpin with Tweet Rhymes sicker than the pervert that flirt with his niece Stop, the track lay in a hearse deceased We don't play, my man Kanye murdered the beat Yo the rhymin's on me, coutesy of Kweli It's ludacris how I'm disturbin the peace Yeah, you ain't burnin the street Look at how we got 'em personally thiefed Sipped on when I get open Henny Pen strollin on the track like Bishop Don Or filmed on the Real World Smoke slow, no joke, one draw I kill y'all How many times yo do I got to tell y'all? My next album boy I get killed off, it's real y'all We big merger, you act like you know the deal y'all Brooklyn, stand up and let me hear y'all Brown sugar babe Chocolate Nubian girls rock to this whoo Black Star rock the whole metropolis Brooklyn cats and you know we pocket it Black Star got the whole world watchin it Stop, from the Ivy League colleges To the blocks where the drama is And they keepin their ??? lit Just shake it out and respond to this And shake all of it Stop uh come on You got it I said come on Stop You got it yeah, yo, we said come on Stop You got it brown sugar lemme see you shake it out Stop brown sugar baby You got it Stop I said come on You got it look at you Stop You got it brown sugar lemme see you shake it out Stop huh yeah Stop come on ma Stop come on ma Stop Stop come on ma Black Star start doin it Stop come on ma 02 y'all yeah Stop come on ma uh yeah Stop Black Star, shinin Stop yeah Stop haha yeah Stop haha yeah Stop Mos Kweli, come on Stop</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>’ Cosmic ’ .m4a</t>
+          <t>EVIL TWIN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>We here, we here, we here yes yes yes yes Fire code uh uh uh uh Yes, huh hey We roll from uh- you know hey You know what time it is get your hand out my You know what time it, uh Black Star, come on ma yeah Now come on ma yeah Come on ma uh And, listen Yo honeys check it out, she got me mesmerized With your black hair and your fat ass WOW Walks over, feel your feet tap on the ground Make a nigga come back like What's happenin now? Hear he really promising the platinum, get down You'll be backin it out, straight backin 'em down With your hand on your mouth And damn baby girl, what's that all about? You know the ave puttin curves in the brow On your job, all workin it out I like how you coordinate purse, skirt, and the blouse Around the way, comin straight out the house You just laid on the couch Make a cat just pause and be Wow Baby's body was immaculate Sweet like my first kiss in the back of the flick I have to insist, miss, that we chat for a bit But your ass wanna diss Walkin all fast like you can't stop I need somebody to get passionate with You just assume that I be on that supermasculine shit Crackin the whip just to shut you you and fasten your lip I just be shinin my light and they be baskin in it I go out casually dip trip on the tragically hit Sippin Cosmopolitans on some fashionably shit Black Star in the building and it hasta be sick BK still smokin nigga pass me the shit, what Stop what up You got it come on ma Stop You got it come on ma Stop You got it Stop Brown sugar let me see you shake it out Stop brown sugar baby Ha you got it there you go brown sugar baby you got it work it out brown sugar baby you got it come on ma Brown sugar let me see you shake it out Yeah, this go out to the cats Be workin for weeks to purchase a piece I'm with my people hurtin to cease, it's curtains for peace Certain keeps spurs to their knees like I'm chirpin with Tweet Rhymes sicker than the pervert that flirt with his niece Stop, the track lay in a hearse deceased We don't play, my man Kanye murdered the beat Yo the rhymin's on me, coutesy of Kweli It's ludacris how I'm disturbin the peace Yeah, you ain't burnin the street Look at how we got 'em personally thiefed Sipped on when I get open Henny Pen strollin on the track like Bishop Don Or filmed on the Real World Smoke slow, no joke, one draw I kill y'all How many times yo do I got to tell y'all? My next album boy I get killed off, it's real y'all We big merger, you act like you know the deal y'all Brooklyn, stand up and let me hear y'all Brown sugar babe Chocolate Nubian girls rock to this whoo Black Star rock the whole metropolis Brooklyn cats and you know we pocket it Black Star got the whole world watchin it Stop, from the Ivy League colleges To the blocks where the drama is And they keepin their ??? lit Just shake it out and respond to this And shake all of it Stop uh come on You got it I said come on Stop You got it yeah, yo, we said come on Stop You got it brown sugar lemme see you shake it out Stop brown sugar baby You got it Stop I said come on You got it look at you Stop You got it brown sugar lemme see you shake it out Stop huh yeah Stop come on ma Stop come on ma Stop Stop come on ma Black Star start doin it Stop come on ma 02 y'all yeah Stop come on ma uh yeah Stop Black Star, shinin Stop yeah Stop haha yeah Stop haha yeah Stop Mos Kweli, come on Stop</t>
+          <t>Uh, uh Uh, uh Uh, uh Uh ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs Drownin' in the gases from a war, scared to admit we lost Drownin' with a president who really should of took a loss I frown at society, hope atom bombs just take us all I frown at society, hope atom bombs just take us all My access to oblivion, I kill reptilian I power up Nathan Fillion, call me six billion I'm drillin' this building a cult, killing my enmies as a result You a bitch, your mom a bitch, your mom's a hoe, and I'm killing you all ZXLTRXN and ZillaKami, bitch, w back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs La-di da, pocket full of cream, call it Häagen-Dazs With the sauce, I can make an atheist go, Oh my Gosh Lactose, you ain't makin' bread so now you lack toast Brag, boast, most people say that I'm an asshole Cash rules everything around me, but niggas want the clout now You say you with the shits, still a nigga air you out now Eren Yeager out and hit him with the click-clack-bow Nigga, you's a bitch, your white tee is a night gown ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EVIL TWIN</t>
+          <t>Bleach</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Uh, uh Uh, uh Uh, uh Uh ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs Drownin' in the gases from a war, scared to admit we lost Drownin' with a president who really should of took a loss I frown at society, hope atom bombs just take us all I frown at society, hope atom bombs just take us all My access to oblivion, I kill reptilian I power up Nathan Fillion, call me six billion I'm drillin' this building a cult, killing my enmies as a result You a bitch, your mom a bitch, your mom's a hoe, and I'm killing you all ZXLTRXN and ZillaKami, bitch, w back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs La-di da, pocket full of cream, call it Häagen-Dazs With the sauce, I can make an atheist go, Oh my Gosh Lactose, you ain't makin' bread so now you lack toast Brag, boast, most people say that I'm an asshole Cash rules everything around me, but niggas want the clout now You say you with the shits, still a nigga air you out now Eren Yeager out and hit him with the click-clack-bow Nigga, you's a bitch, your white tee is a night gown ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs</t>
+          <t>Yung Germ My fate is pain-stakin' I run away, hopin' that I run into my makin' Maker, am I just forsaken? Ready to bust my load because I do not have no patience Callin' on my phone, it's goin' straight out to the tone Like I'm stuck in danger in the Paris Catacombs Seein' stuff that isn't, turn the light on and it's gone As Above, So Below, I am lower than low And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down My life is far from basic The emptiness surround the void inside me like it's vacant Findin' ways to fill it, unfulfilled's a natural feelin' As I battle mental illness, often clashin' with my brilliance Now I'm smokin' reefer 'til ashes tumble down a nigga's sneakers My fear and anxiety's off the meters The only thing I know is I don't know, so enter the unknown Shit is gettin' rocky, we touch stone And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down My life is straight racin' I speed away, hopin' that I lost whoever's chasin' Chaser, he is always gainin' Ready to use my NOS if he gets closer, I'm just waitin' I cannot stay neutral, I fucked my clutch Okay Do I go forward or do I back up? Okay Do I lay down or do I just stand up? Okay The only thing I know is that I don't know No And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And shut me down And shut me down22</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bleach</t>
+          <t>Dark &amp; Violent</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yung Germ My fate is pain-stakin' I run away, hopin' that I run into my makin' Maker, am I just forsaken? Ready to bust my load because I do not have no patience Callin' on my phone, it's goin' straight out to the tone Like I'm stuck in danger in the Paris Catacombs Seein' stuff that isn't, turn the light on and it's gone As Above, So Below, I am lower than low And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down My life is far from basic The emptiness surround the void inside me like it's vacant Findin' ways to fill it, unfulfilled's a natural feelin' As I battle mental illness, often clashin' with my brilliance Now I'm smokin' reefer 'til ashes tumble down a nigga's sneakers My fear and anxiety's off the meters The only thing I know is I don't know, so enter the unknown Shit is gettin' rocky, we touch stone And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down My life is straight racin' I speed away, hopin' that I lost whoever's chasin' Chaser, he is always gainin' Ready to use my NOS if he gets closer, I'm just waitin' I cannot stay neutral, I fucked my clutch Okay Do I go forward or do I back up? Okay Do I lay down or do I just stand up? Okay The only thing I know is that I don't know No And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And I don't wanna know What I'm drinkin' needs no antidote Just shut me up And shut me down And shut me down And shut me down22</t>
+          <t>Fang life! Klan shit, nigga You ain't never heard no tales from the darkside You ain't never heard no tales from the darkside Welcome to the land You ain't never heard no tales from the darkside What it's 'bout?! Its bout a young nigga, running away from the moon to catch the sun quicker Drug dealer, Nino with the steelo trying to sell kilos and grams Settling angry stomachs up in his fam So if that silver spoon on your plate, if you touch that, that's your fate Don't have faith, Like Evans, you got to face demons to get to your heaven The pimps is the prophets, not prophets for reverends, this is the lifestyle of a broke adolescent So here's a lesson of a teen that survived Rikers But shortly, his life had ended with a bullet that's made out of Midas Touch You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a fucking name on the darkside You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a fucking name on the darkside Knew a young brother without a name, he was in love with his nina trapped And steadily schemin', barely sleepin', but dreamin' of pretty bitches and beamers But when he awake, he sees his fate And his reality, to do whatever it takes to elevate his fucking salary Any nigga's a casualty, kill 'em, rob 'em Then casually walk off into the darkness, it all started When he was, welcomed into our fucked up world, the son of a fucked up girl And his father was just a blur, his life had took a curve When he saw his brother dead on the curb, due to retaliation Of the gang relation, he was young, a kid, a baby And yet to realize the pollution of the nation Now he 18 life in jail is what he facin' Shit, murder was the case that they gave him Shit, murder was the case when they raised him Mind stuck in the all black prison You think he give a fuck about the system? Car driving Nigga we gotta get this money Damn right We gotta get this money, I got the plans... Everything's set up Just got to go in there-.. Got the banger man, as long as you got the hammer man, we out ...Go by the book... You ready to do this shit or what? Yeah, yeah, 'this what I got to do Out on the gank, rolling the dank As he cased out the bank, he was catching that shank Getting loaded the stick, trying to major his rank Thugging was how he was brought in the paint Rush the security, no longer pure was thee Soul turned it cold for the love of the gold Bust in the air, everyone hit the floor Not giving a fuck, loc-ing off of the 'dro Bodied a nigga, riding in a dropped Lac Top back, cruising them twenty fours So I went crazy, my vision got hazy I walked in the bank, and I start to get bold Clutching that pistol grip The teller was moving too slow so I pistol-whipped The bitch, he was twitching, bust at a civilian And blasted the mag with no mask in the buildin Burn the fingertips off, replace the dental Left the golden bullet magic in his coufie, no his temple Thats engraved, leaving corpses In graves, Glock 17 cutting fades Barber, we dumped the security in the harbor Then we switched the identity, chose the name Leroy Carter The bank teller looking short and squeamish Steve pistol-whipped the bitch she kept screaming Shut up, ho, before a nigga nut up, ho Steve said he couldnt take the shit So he took her to the back, then Steve grabbed the MAC Then he put it to her head, and then he ripped the bitch Bro, we gotta do a job or we might get toast 13 shots rung out and it left two ghost Tales from the dark side, jack move, riding Trials and tribulations of the dark and violent26</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dark &amp; Violent</t>
+          <t>Black Balloons Reprise</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fang life! Klan shit, nigga You ain't never heard no tales from the darkside You ain't never heard no tales from the darkside Welcome to the land You ain't never heard no tales from the darkside What it's 'bout?! Its bout a young nigga, running away from the moon to catch the sun quicker Drug dealer, Nino with the steelo trying to sell kilos and grams Settling angry stomachs up in his fam So if that silver spoon on your plate, if you touch that, that's your fate Don't have faith, Like Evans, you got to face demons to get to your heaven The pimps is the prophets, not prophets for reverends, this is the lifestyle of a broke adolescent So here's a lesson of a teen that survived Rikers But shortly, his life had ended with a bullet that's made out of Midas Touch You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a fucking name on the darkside You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a fucking name on the darkside Knew a young brother without a name, he was in love with his nina trapped And steadily schemin', barely sleepin', but dreamin' of pretty bitches and beamers But when he awake, he sees his fate And his reality, to do whatever it takes to elevate his fucking salary Any nigga's a casualty, kill 'em, rob 'em Then casually walk off into the darkness, it all started When he was, welcomed into our fucked up world, the son of a fucked up girl And his father was just a blur, his life had took a curve When he saw his brother dead on the curb, due to retaliation Of the gang relation, he was young, a kid, a baby And yet to realize the pollution of the nation Now he 18 life in jail is what he facin' Shit, murder was the case that they gave him Shit, murder was the case when they raised him Mind stuck in the all black prison You think he give a fuck about the system? Car driving Nigga we gotta get this money Damn right We gotta get this money, I got the plans... Everything's set up Just got to go in there-.. Got the banger man, as long as you got the hammer man, we out ...Go by the book... You ready to do this shit or what? Yeah, yeah, 'this what I got to do Out on the gank, rolling the dank As he cased out the bank, he was catching that shank Getting loaded the stick, trying to major his rank Thugging was how he was brought in the paint Rush the security, no longer pure was thee Soul turned it cold for the love of the gold Bust in the air, everyone hit the floor Not giving a fuck, loc-ing off of the 'dro Bodied a nigga, riding in a dropped Lac Top back, cruising them twenty fours So I went crazy, my vision got hazy I walked in the bank, and I start to get bold Clutching that pistol grip The teller was moving too slow so I pistol-whipped The bitch, he was twitching, bust at a civilian And blasted the mag with no mask in the buildin Burn the fingertips off, replace the dental Left the golden bullet magic in his coufie, no his temple Thats engraved, leaving corpses In graves, Glock 17 cutting fades Barber, we dumped the security in the harbor Then we switched the identity, chose the name Leroy Carter The bank teller looking short and squeamish Steve pistol-whipped the bitch she kept screaming Shut up, ho, before a nigga nut up, ho Steve said he couldnt take the shit So he took her to the back, then Steve grabbed the MAC Then he put it to her head, and then he ripped the bitch Bro, we gotta do a job or we might get toast 13 shots rung out and it left two ghost Tales from the dark side, jack move, riding Trials and tribulations of the dark and violent26</t>
+          <t>Let's take a nice, deep breath Slowly exhale And take a nice, deep breath The Big Bang happened when the black balloon ignited I feel the pain shoulder to shoulder as I was knighted The night turns to day and my days don't seem the brightest It's like itis, I wanna take a bite out of what life is If the President fuck around and piss off ISIS Bury me in blueberry bills, jewels, and ices Let's connect from mind to mind Lies are on the rise, increasin', bigger size Hard to victimize when evil's idolized Inside my battered mind, I have visions of bein' broke A broken man writin' words of wisdom inside these notes Shattered and lost, chatterin' talk, blabberin' off Grabbin' the cross, telling Jesús nothing matters at all, ugh The black balloon floats, the black balloon flies The black balloon pops, the black balloon dies I must be the black balloon and The children of the world always meets a doomed end The earth will soon end We all perish, all parents, all kids, all buried Cemetery, ceremonious, find me at my loneliest Life is the ugliest bitch I ever messed with But she quick to down that nut back like Nesquik Never try to take my life, you get your chest hit Countin' paper with Nyyjerya 'til my flesh split Uh, uh, uh We all cry The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed 'Til then, I kick that funky shit until my casket closed We all cry Can you save me, baby? The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed Ooh-ahh 'Til then, I kick that funky shit until my casket closed We all cry Ooh-ahh Can you save me, baby? Ooh-ahh, ahh-ahh-ahh, ahh-ahh Ooh-ahh, ahh Can you save me, baby? Ooh-ahh12</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Black Balloons Reprise</t>
+          <t>If Tomorrow’s Not Here</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Let's take a nice, deep breath Slowly exhale And take a nice, deep breath The Big Bang happened when the black balloon ignited I feel the pain shoulder to shoulder as I was knighted The night turns to day and my days don't seem the brightest It's like itis, I wanna take a bite out of what life is If the President fuck around and piss off ISIS Bury me in blueberry bills, jewels, and ices Let's connect from mind to mind Lies are on the rise, increasin', bigger size Hard to victimize when evil's idolized Inside my battered mind, I have visions of bein' broke A broken man writin' words of wisdom inside these notes Shattered and lost, chatterin' talk, blabberin' off Grabbin' the cross, telling Jesús nothing matters at all, ugh The black balloon floats, the black balloon flies The black balloon pops, the black balloon dies I must be the black balloon and The children of the world always meets a doomed end The earth will soon end We all perish, all parents, all kids, all buried Cemetery, ceremonious, find me at my loneliest Life is the ugliest bitch I ever messed with But she quick to down that nut back like Nesquik Never try to take my life, you get your chest hit Countin' paper with Nyyjerya 'til my flesh split Uh, uh, uh We all cry The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed 'Til then, I kick that funky shit until my casket closed We all cry Can you save me, baby? The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed Ooh-ahh 'Til then, I kick that funky shit until my casket closed We all cry Ooh-ahh Can you save me, baby? Ooh-ahh, ahh-ahh-ahh, ahh-ahh Ooh-ahh, ahh Can you save me, baby? Ooh-ahh12</t>
+          <t>Lights out! If tomorrow's not here, I write down all of my worst fears Fear of loss, fear of change, fear of losing my peers Apparently I will watch the whole world collapse and appear No tears, my intuition tells me that the end is near The only thing I should fear is fear itself Learn that being afraid of God is being afraid of yourself So go to church nigga, but I won't go cause I don't know Where all the money and the collection plate go If the church still owe, then you know, read your bible at home I'ma read it myself, all the stories that I'm reading show me how to prevail The guard came in the other day and gave me some mail and said that I got a phone call When I get out we gon' go harder than Medusa, building stone walls out of human flesh Dave Koresh, burn that shit down even though I'm not around I know you gon' hold it down till the day that I get out If tomorrow's not here, if tomorrow's not here If tomorrow's not here, if tomorrow's not here So are you it, or you ain't, or just claiming to be? Either you're something, or nothing, or just nothing to see If tomorrow's not here Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching If tomorrow's not here, I write down all of my worst fears Fear of loss, fear of change, fear of losing my peers We, been afraid of something that is out of my control Like a verse from Duckworth, make a silly rapper's butt hurt Sodomized through the eyes of a troubled youth Talking between the bars, you tell them within the booth Way back in 2012 when a nigga was 22 Passed you the Tropicana now my niggas got the juice For millennias to come, go Millennium Falcon Fuck a hand out, I'd rather leave my hands solo The smartest thing you ever did, Curry, was going solo While I'm in the county blues, lofty bout to take over the promo for the fam I'm here because I never gave a damn, like an angry beaver Smoking dust and reefer Live life, smoke a pound, even though I'm not around I know you gon' hold it down till the day that I get out If tomorrow's not here, if tomorrow's not here If tomorrow's not here, if tomorrow's not here So are you it, or you ain't, or just claiming to be? Either you're something, or nothing, or just nothing to see If tomorrow's not here Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Yo, I'd like to dedicate this track, to my nigga Ruben Thompson and my nigga Darnell Butler ULT, ultimately till infinity We gon' make sure y'all niggas straight when y'all get out Shout out to all my niggas that's been locked down Rest in peace to anybody that ain't here with us right now RIP Chinaman, RIP Lotto, man... RIP Bo I wish all y'all niggas could enjoy the luxury that we've got right now It's not too many real niggas left out here Everybody is claiming they true but they show they true colors at the end of the day Niggas is chameleons to me, just blending in with they surroundings ULT for life9</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>If Tomorrow’s Not Here</t>
+          <t>One Punch Man</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lights out! If tomorrow's not here, I write down all of my worst fears Fear of loss, fear of change, fear of losing my peers Apparently I will watch the whole world collapse and appear No tears, my intuition tells me that the end is near The only thing I should fear is fear itself Learn that being afraid of God is being afraid of yourself So go to church nigga, but I won't go cause I don't know Where all the money and the collection plate go If the church still owe, then you know, read your bible at home I'ma read it myself, all the stories that I'm reading show me how to prevail The guard came in the other day and gave me some mail and said that I got a phone call When I get out we gon' go harder than Medusa, building stone walls out of human flesh Dave Koresh, burn that shit down even though I'm not around I know you gon' hold it down till the day that I get out If tomorrow's not here, if tomorrow's not here If tomorrow's not here, if tomorrow's not here So are you it, or you ain't, or just claiming to be? Either you're something, or nothing, or just nothing to see If tomorrow's not here Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching If tomorrow's not here, I write down all of my worst fears Fear of loss, fear of change, fear of losing my peers We, been afraid of something that is out of my control Like a verse from Duckworth, make a silly rapper's butt hurt Sodomized through the eyes of a troubled youth Talking between the bars, you tell them within the booth Way back in 2012 when a nigga was 22 Passed you the Tropicana now my niggas got the juice For millennias to come, go Millennium Falcon Fuck a hand out, I'd rather leave my hands solo The smartest thing you ever did, Curry, was going solo While I'm in the county blues, lofty bout to take over the promo for the fam I'm here because I never gave a damn, like an angry beaver Smoking dust and reefer Live life, smoke a pound, even though I'm not around I know you gon' hold it down till the day that I get out If tomorrow's not here, if tomorrow's not here If tomorrow's not here, if tomorrow's not here So are you it, or you ain't, or just claiming to be? Either you're something, or nothing, or just nothing to see If tomorrow's not here Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Let's all jump out the window Before your casket get closed, and your ashes get smoked Tomorrow's not promised but the coming's real close Oh, gotta do a little soul searching Yo, I'd like to dedicate this track, to my nigga Ruben Thompson and my nigga Darnell Butler ULT, ultimately till infinity We gon' make sure y'all niggas straight when y'all get out Shout out to all my niggas that's been locked down Rest in peace to anybody that ain't here with us right now RIP Chinaman, RIP Lotto, man... RIP Bo I wish all y'all niggas could enjoy the luxury that we've got right now It's not too many real niggas left out here Everybody is claiming they true but they show they true colors at the end of the day Niggas is chameleons to me, just blending in with they surroundings ULT for life9</t>
+          <t>One punch man laugh Look Five Stars Higher Gang Ronny J, listen up What you talkin' about? Wack shit, fake shit, sorry I don't get it Sit your ass down just look how we make it I know I'm best rapper since I was 20 I don't wanna hear it cause' you're dirty Dirt I be like a birdman I'm a bird I don't know it but I can learn Learn I just want the money I swear I swear, I swear, I going too deep I'm AP You never see Chinese drippin', ok I got ideal, I never obey Fuck what you think, you been talking about me? Onepunch man So comfortable Ayy-ayy, ayy-ayy Ayy-ayy, ayy-ayy Esketit Ayy-ayy, ayy-ayy Ayy-ayy, ayy-ayy, ayy Lets get it, bitch Pew, pew, pew, pew, pew Can't fuck with the fed Ayy, yeah, ayy Ronny J listen up My feet no Morty but Rick, Owens What I tiptoe with my big, toe in Scary side posted like scare, crowin' I'm at yo' head like a hair, sew in Hide-and-seek where is your hair, line going? Make the AK sound like some titties I motorboated Can't bite my sauce 'cause it's poison coated My flow gets you going like locomotive Is you deaf, bitch? Is you deaf? Watch your step, bitch Watch your step How I pull the pistol, pop it like a nigga got a Mega Man wrist Ouch, ouch Higher predicted it, you should count a nigga album bitch You done little bitch Ooh! Ouch! Hotter the nigga sauce hit the beat like it's a fuckin' One Punch Man fist? Bitch! Woosh Ayo! How the fuck? Y'all gon' let this nigga Ski Mask drop some fire shit And y'all niggas think he gon' eat that? Nah, son! Nah B! It ain't goin' out like that! Aight? Keep a .45, no Colt Niggas get to runnin' like they Usain Bolt Give a nigga wings, give a nigga Red Bull If a nigga die, then I might be Deadpool Five to your face like I'm Abraham Lincoln I leave a hole that's the size of a penny When I Cascade they gon' say that it's Denny Pay off the witness, they say I'm at Denny's Call me Goku I play the numbers just like sudoku Triple zero's making hella ovals Overpaid, but bitch, I'm goin' postal I dress to kill and y'all niggas formal Magic on me, trick, I'm Dumbledore Open your back up, you lookin' like Bulbasaur Bitch I'm tyrannical, go in tyrannosaurus Stupid ass nigga, you know that's a metaphor Haha haha haha Super Saiyan, yah, Hokage Ninja in my heart Naruto Naruto, Goku Goku, you weak as cold food Cold food Murder you like cutting tofu Tofu Higher Gangvibe Higher gang swag young rapper don't know how to be a man Purple fire, purple juice, the swag in studio B Still be the whole lot of money dance Blessing blessing, flexing flexing, hoe Many fashion flow yeah Endangered animal, yeah Become international fuck no love, cash only You need to pay I'm VVIP Psh free Pay, free Dunkin' from three I'm running my way Okay In too many different place, and you need face to face6</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>One Punch Man</t>
+          <t>Story: No Title</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>One punch man laugh Look Five Stars Higher Gang Ronny J, listen up What you talkin' about? Wack shit, fake shit, sorry I don't get it Sit your ass down just look how we make it I know I'm best rapper since I was 20 I don't wanna hear it cause' you're dirty Dirt I be like a birdman I'm a bird I don't know it but I can learn Learn I just want the money I swear I swear, I swear, I going too deep I'm AP You never see Chinese drippin', ok I got ideal, I never obey Fuck what you think, you been talking about me? Onepunch man So comfortable Ayy-ayy, ayy-ayy Ayy-ayy, ayy-ayy Esketit Ayy-ayy, ayy-ayy Ayy-ayy, ayy-ayy, ayy Lets get it, bitch Pew, pew, pew, pew, pew Can't fuck with the fed Ayy, yeah, ayy Ronny J listen up My feet no Morty but Rick, Owens What I tiptoe with my big, toe in Scary side posted like scare, crowin' I'm at yo' head like a hair, sew in Hide-and-seek where is your hair, line going? Make the AK sound like some titties I motorboated Can't bite my sauce 'cause it's poison coated My flow gets you going like locomotive Is you deaf, bitch? Is you deaf? Watch your step, bitch Watch your step How I pull the pistol, pop it like a nigga got a Mega Man wrist Ouch, ouch Higher predicted it, you should count a nigga album bitch You done little bitch Ooh! Ouch! Hotter the nigga sauce hit the beat like it's a fuckin' One Punch Man fist? Bitch! Woosh Ayo! How the fuck? Y'all gon' let this nigga Ski Mask drop some fire shit And y'all niggas think he gon' eat that? Nah, son! Nah B! It ain't goin' out like that! Aight? Keep a .45, no Colt Niggas get to runnin' like they Usain Bolt Give a nigga wings, give a nigga Red Bull If a nigga die, then I might be Deadpool Five to your face like I'm Abraham Lincoln I leave a hole that's the size of a penny When I Cascade they gon' say that it's Denny Pay off the witness, they say I'm at Denny's Call me Goku I play the numbers just like sudoku Triple zero's making hella ovals Overpaid, but bitch, I'm goin' postal I dress to kill and y'all niggas formal Magic on me, trick, I'm Dumbledore Open your back up, you lookin' like Bulbasaur Bitch I'm tyrannical, go in tyrannosaurus Stupid ass nigga, you know that's a metaphor Haha haha haha Super Saiyan, yah, Hokage Ninja in my heart Naruto Naruto, Goku Goku, you weak as cold food Cold food Murder you like cutting tofu Tofu Higher Gangvibe Higher gang swag young rapper don't know how to be a man Purple fire, purple juice, the swag in studio B Still be the whole lot of money dance Blessing blessing, flexing flexing, hoe Many fashion flow yeah Endangered animal, yeah Become international fuck no love, cash only You need to pay I'm VVIP Psh free Pay, free Dunkin' from three I'm running my way Okay In too many different place, and you need face to face6</t>
+          <t>Story with no title, everything is vital Came up in this game now my idols is my rivals Childhood friends end up pulling guns on you Hoes wanna fuck because you carry funds on you Like a blind man in church homie I don't see none of that Still can't believe that I made it off rapping Baby bottle blue mic spitting blue magic How the fuck the rap game become a beauty pageant? Fugazi ass rapper trying to sound like Atlanta Cause they got no identity, I'm off the top like O-Ren Ishii vs. Uma Thurman Gasoline, in my thermos and I'm 'bout to make a furnace out you niggas Spitting ether, make-believers call it Easter I am Jesus with a blacker penis, that is fucking genius Who said Jesus can't be a black guy? Even Luke Skywalker's father was on the dark side Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Send them off to Lotto, let the case say spray! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Just like a Story with no title, everything is vital Started from the bottom where they wear bikini bottoms Dig even deeper you see is crabs in a bucket When shit hit the fan niggas up it like fuck it Spitting colder shit over cold shit my diamond you cold bitch You like N64 go buy my old shit I keep a AK on my Issa Gold shit That's how it goes down on the lower East Coast bitch South Florida 21 getting older mind of a marine ever since I was a teen Blowing up smithereens, living a broke man's dream Follow the roots of the prince 'til they crown me king It seems, these niggas acting less than G's This ain't the place that I choose to be Where friends become strangers Everybody wants to be a gangsta It's going down on the block, no anchor, story with no title! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Send them off to Lotto let the case say spray! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Just like a Story with no title, bullet with no name I was brought up inside a city that was built off cane Even during my sunny days I am still a hurricane I just wanna make it rain ain't no aim ba-bay Watching Bebe's kids, we all Bebe's kids Little badass jits that's where the story begins 'Fore the end of the timeline, on to the crimes rise Out here beefing ain't no working at Five Guys It's wild, convicted felon put on trial It's sad, a mother outlives her child And that's bad, especially because we're black When the revolution start that's when the niggas attack I'm looking at the liars that say you ain't come from riches Stop calling our women bitches, fried chicken and watermelons Not my diet, Im everything you fear and what defines it And if I die today it's not surprising, story with no title11</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Story: No Title</t>
+          <t>Me Now</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Story with no title, everything is vital Came up in this game now my idols is my rivals Childhood friends end up pulling guns on you Hoes wanna fuck because you carry funds on you Like a blind man in church homie I don't see none of that Still can't believe that I made it off rapping Baby bottle blue mic spitting blue magic How the fuck the rap game become a beauty pageant? Fugazi ass rapper trying to sound like Atlanta Cause they got no identity, I'm off the top like O-Ren Ishii vs. Uma Thurman Gasoline, in my thermos and I'm 'bout to make a furnace out you niggas Spitting ether, make-believers call it Easter I am Jesus with a blacker penis, that is fucking genius Who said Jesus can't be a black guy? Even Luke Skywalker's father was on the dark side Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Send them off to Lotto, let the case say spray! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Just like a Story with no title, everything is vital Started from the bottom where they wear bikini bottoms Dig even deeper you see is crabs in a bucket When shit hit the fan niggas up it like fuck it Spitting colder shit over cold shit my diamond you cold bitch You like N64 go buy my old shit I keep a AK on my Issa Gold shit That's how it goes down on the lower East Coast bitch South Florida 21 getting older mind of a marine ever since I was a teen Blowing up smithereens, living a broke man's dream Follow the roots of the prince 'til they crown me king It seems, these niggas acting less than G's This ain't the place that I choose to be Where friends become strangers Everybody wants to be a gangsta It's going down on the block, no anchor, story with no title! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Send them off to Lotto let the case say spray! Story with no title, everything is vital Praying for my rivals let the church say ay! Everything is vital, hand up on the rifle Just like a Story with no title, bullet with no name I was brought up inside a city that was built off cane Even during my sunny days I am still a hurricane I just wanna make it rain ain't no aim ba-bay Watching Bebe's kids, we all Bebe's kids Little badass jits that's where the story begins 'Fore the end of the timeline, on to the crimes rise Out here beefing ain't no working at Five Guys It's wild, convicted felon put on trial It's sad, a mother outlives her child And that's bad, especially because we're black When the revolution start that's when the niggas attack I'm looking at the liars that say you ain't come from riches Stop calling our women bitches, fried chicken and watermelons Not my diet, Im everything you fear and what defines it And if I die today it's not surprising, story with no title11</t>
+          <t>It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me Infinite words couldn't curse me now Everything is backwards mother's saying that I'm sinning Close my eyes and say, Forgive me 'Cause I know the devil ain't Devil told my mother in the end that he'll be winning 'Cause the world is full of sinning No, your son is not a saint Spirit of God and the holy ghost, it was written in anecdotes That a snake would try to corrupt what he create Sick of facades and the horoscope, I devour the antidote Told my mother that I was spirited away Monstrosity murdering masterpieces, I'm mutilated Falling forever, fear and forsaken, incinerated Innocence inferno when I'm no longer incubated Welcome to the world whenever I'm reincarnated Relyin' on the last breath, but y'all would never know Rewind it to the last step, play me when I'm below If heaven's set on fire, that's the day they make hell snow The devil want my soul and yet I'm tellin' him, Hell no It's still like death It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me The worst me Infinite words couldn't curse me now Everything is backwards ever since the new beginning God has given me the vision so that I can see my fate Blind can't lead the blind and if we try, then we'll be spinnin' In a cycle in position, try to find a better place Lucifer, devil, the anti-christ taking light up out of my life In the darkness, it seems to me there's no escape Initially alter it into dark, place the pain inside of a pot And then bury it in a spot where I decay It's death before dishonor, I'm a hideous disfigurement Who dying from the envious evil trapped in Floridians Came from the Vatican, kill off the advocate Feeling inadequate, when a bitch nigga bleed Won't even make it to see 23 years, fuck it, I don't wanna be Here, look at the time when I'm turnin' it back On the clock and my right hand makin' it tick Life is a bitch, better yet, it's a pit And my hatred is everyday making you sick Regurgitated, early stages, earn the hatred Burn the sages, caught in mazes Instigated, inspiration, imitations Only here, reanimated, damn It's like my world is reversing Reversing Even the pain couldn't hurt me now Rewind the good to the worst things The worst things Even my love has deserted me now I cannot love 'cause it hurts me Hurts me I will be happy when I see the sun drown I have transformed to the worst me Worst me Infinite words couldn't curse me now It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me Infinite words couldn't curse me now25</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Me Now</t>
+          <t>​terms</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me Infinite words couldn't curse me now Everything is backwards mother's saying that I'm sinning Close my eyes and say, Forgive me 'Cause I know the devil ain't Devil told my mother in the end that he'll be winning 'Cause the world is full of sinning No, your son is not a saint Spirit of God and the holy ghost, it was written in anecdotes That a snake would try to corrupt what he create Sick of facades and the horoscope, I devour the antidote Told my mother that I was spirited away Monstrosity murdering masterpieces, I'm mutilated Falling forever, fear and forsaken, incinerated Innocence inferno when I'm no longer incubated Welcome to the world whenever I'm reincarnated Relyin' on the last breath, but y'all would never know Rewind it to the last step, play me when I'm below If heaven's set on fire, that's the day they make hell snow The devil want my soul and yet I'm tellin' him, Hell no It's still like death It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me The worst me Infinite words couldn't curse me now Everything is backwards ever since the new beginning God has given me the vision so that I can see my fate Blind can't lead the blind and if we try, then we'll be spinnin' In a cycle in position, try to find a better place Lucifer, devil, the anti-christ taking light up out of my life In the darkness, it seems to me there's no escape Initially alter it into dark, place the pain inside of a pot And then bury it in a spot where I decay It's death before dishonor, I'm a hideous disfigurement Who dying from the envious evil trapped in Floridians Came from the Vatican, kill off the advocate Feeling inadequate, when a bitch nigga bleed Won't even make it to see 23 years, fuck it, I don't wanna be Here, look at the time when I'm turnin' it back On the clock and my right hand makin' it tick Life is a bitch, better yet, it's a pit And my hatred is everyday making you sick Regurgitated, early stages, earn the hatred Burn the sages, caught in mazes Instigated, inspiration, imitations Only here, reanimated, damn It's like my world is reversing Reversing Even the pain couldn't hurt me now Rewind the good to the worst things The worst things Even my love has deserted me now I cannot love 'cause it hurts me Hurts me I will be happy when I see the sun drown I have transformed to the worst me Worst me Infinite words couldn't curse me now It's like my world is reversing Even the pain couldn't hurt me now Rewind the good to the worst things Even my love has deserted me now I cannot love 'cause it hurts me I will be happy when I see the sun drown I have transformed to the worst me Infinite words couldn't curse me now25</t>
+          <t>Yo, I can see it in your eyes, think you just got two Fascinated with the new flu, two by two All my zoo shit true and I'm too badu I be all over their head like the shampoo do Snoozing on a revolution so I blew by you Literally leave your body in the Blue Bayou We be looking at your troopers and your crew like ''who?'' Educating, elevating on your boo IQ Pledge allegiance to nothing, I got the wood and he crushing My kamikazes are coming to light Picasso percussion, you dummy Little bummy ain't a damn thing funny You so poor, honey, all you have is money So inhale the fragrance I be the apex, ho, get on my wavelength Another like me? Highly unlikely Hiding in my psyche, I dare you to come and find me I dare you to come and dare me to flip and commit a homi I promise to God I'm probably the God of rhyming Dividing the profits with prophets, prophecy wasn't lying I grew my hair out just so I could look like a lion So when I say I wore it, that metaphor is more exciting I understand that, for sure like beach homes and sand crabs Bonjour, bitch pardon my French I never been to France, but I like to kiss like them Consider this the Kiss of Death like Jada came through Nitty, you know it's love when they showing hate, boo Food for thought, hope you get a plateful Lately I done turned the booth to a dinner table Young mindfuck, what the fuck you thought? Fire in my eyes, in my shades it's dark And I'm still getting used to this famous part They say I sold my soul, but what about what I bought? Soul It's rap game, little Bhudda baby I take it you can hang in spaces with mother nature the Bhudda lady You feel my nexus, I'm flexin' my solar plexus We can have a flower orgy and keep it all in an essence More dread from warheads They want the poor dead, but I fed the universe on my forehead And did this happen beforehand? Now face it, they just basically erasing them glitches up in the matrix Always thought the term Black Magic was kinda racist And I have yet to find intelligent basis for all the hatred Attracting and deflecting a core of my star portals Ain't it gorgeous to be mortal? I couldn't be more cordial Now who dare stare into the hazy sun? I tell 'em it was I, Nitty Scott the wavy one I move things that move things with mood swings Got these niggas kissing my mood ring, I'm out 12</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>​terms</t>
+          <t>AUTOMATIC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Yo, I can see it in your eyes, think you just got two Fascinated with the new flu, two by two All my zoo shit true and I'm too badu I be all over their head like the shampoo do Snoozing on a revolution so I blew by you Literally leave your body in the Blue Bayou We be looking at your troopers and your crew like ''who?'' Educating, elevating on your boo IQ Pledge allegiance to nothing, I got the wood and he crushing My kamikazes are coming to light Picasso percussion, you dummy Little bummy ain't a damn thing funny You so poor, honey, all you have is money So inhale the fragrance I be the apex, ho, get on my wavelength Another like me? Highly unlikely Hiding in my psyche, I dare you to come and find me I dare you to come and dare me to flip and commit a homi I promise to God I'm probably the God of rhyming Dividing the profits with prophets, prophecy wasn't lying I grew my hair out just so I could look like a lion So when I say I wore it, that metaphor is more exciting I understand that, for sure like beach homes and sand crabs Bonjour, bitch pardon my French I never been to France, but I like to kiss like them Consider this the Kiss of Death like Jada came through Nitty, you know it's love when they showing hate, boo Food for thought, hope you get a plateful Lately I done turned the booth to a dinner table Young mindfuck, what the fuck you thought? Fire in my eyes, in my shades it's dark And I'm still getting used to this famous part They say I sold my soul, but what about what I bought? Soul It's rap game, little Bhudda baby I take it you can hang in spaces with mother nature the Bhudda lady You feel my nexus, I'm flexin' my solar plexus We can have a flower orgy and keep it all in an essence More dread from warheads They want the poor dead, but I fed the universe on my forehead And did this happen beforehand? Now face it, they just basically erasing them glitches up in the matrix Always thought the term Black Magic was kinda racist And I have yet to find intelligent basis for all the hatred Attracting and deflecting a core of my star portals Ain't it gorgeous to be mortal? I couldn't be more cordial Now who dare stare into the hazy sun? I tell 'em it was I, Nitty Scott the wavy one I move things that move things with mood swings Got these niggas kissing my mood ring, I'm out 12</t>
+          <t>Owww! Get on down repeat 3X Well, it's the E wit the juice, I'm down to get loose Strapped in black wit the nine by the boots Hardcore funk that make ya wanna pump a chump My posse's thick, so I will never get jumped The slayer, a beast from the east, I'm psycho If I had a glove, I would be Bad as Michael Some say, yo, I sound rugged Pack wit the ultimate rap wit the Power like Snap A.K.A. the Mic Wrecker A rap star wit the boomin style, black as tar Smokin, the E's no jokin, so don't trip or flip And make a hit, so bust it Some ain't feel the way I do when I get wreck No half steppin, I kick back like a weapon On the microphone, I delight And groovy, a California quake couldn't move me Get on down repeat 4X It's going down 2X No lights, no camera, but lots of action No moonwalkin backwards, kid, like Michael Jackson Strictly funk flows and steel toed Timb boots to troop State to state, stage to stage, as I clock loot Black Asiatic, rapper fanatic, automatic Black nine mil is what I pack so kill the static EPMD quench the sound of thumps underground Ya stupid boy, no props here, you catch a beatdown The Squad still in effect, no record skippin Ya stupid boy, keep the track, still bullshittin Down wit the rap pack, still grabbin my bozack Here's a ticket kid to ride the Jim like Amtrak Got mad skills, hi-tech, been known to snap necks From eighty-seven to ninety-two, fourth cassette But now I'm Swayze, ghost, the rap host Who rip shows, from coast to coast Get on down repeat 4X It's going down 2X Yea, back to the picture, the scene It's me Erick Sermon, my M-16 Just in case, ya know, a fight broke out I can just chill, pull out the smoke out One, no grill, no charcoal, no fluid Act like Bo Jackson, Nike, and Just Do It If there's a problem, the Hit Squad rolls mad deep So I can rest my head and get some sleep While the E-Double, takes a nap, no time to slack It's my turn to guard the fort, ready for combat Guns and violence, that we don't promote Just takin what's ours kid, chill or smell the gunsmoke As I pull out, squeezin like Mr. Charmin Destroyin posses of demo tapes like Agent Orange So chill kid and act like you know Peace from the MD a.k.a. Slow Flow It's going down 4X Get on down...</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AUTOMATIC</t>
+          <t>Pyro (leak 2019)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Owww! Get on down repeat 3X Well, it's the E wit the juice, I'm down to get loose Strapped in black wit the nine by the boots Hardcore funk that make ya wanna pump a chump My posse's thick, so I will never get jumped The slayer, a beast from the east, I'm psycho If I had a glove, I would be Bad as Michael Some say, yo, I sound rugged Pack wit the ultimate rap wit the Power like Snap A.K.A. the Mic Wrecker A rap star wit the boomin style, black as tar Smokin, the E's no jokin, so don't trip or flip And make a hit, so bust it Some ain't feel the way I do when I get wreck No half steppin, I kick back like a weapon On the microphone, I delight And groovy, a California quake couldn't move me Get on down repeat 4X It's going down 2X No lights, no camera, but lots of action No moonwalkin backwards, kid, like Michael Jackson Strictly funk flows and steel toed Timb boots to troop State to state, stage to stage, as I clock loot Black Asiatic, rapper fanatic, automatic Black nine mil is what I pack so kill the static EPMD quench the sound of thumps underground Ya stupid boy, no props here, you catch a beatdown The Squad still in effect, no record skippin Ya stupid boy, keep the track, still bullshittin Down wit the rap pack, still grabbin my bozack Here's a ticket kid to ride the Jim like Amtrak Got mad skills, hi-tech, been known to snap necks From eighty-seven to ninety-two, fourth cassette But now I'm Swayze, ghost, the rap host Who rip shows, from coast to coast Get on down repeat 4X It's going down 2X Yea, back to the picture, the scene It's me Erick Sermon, my M-16 Just in case, ya know, a fight broke out I can just chill, pull out the smoke out One, no grill, no charcoal, no fluid Act like Bo Jackson, Nike, and Just Do It If there's a problem, the Hit Squad rolls mad deep So I can rest my head and get some sleep While the E-Double, takes a nap, no time to slack It's my turn to guard the fort, ready for combat Guns and violence, that we don't promote Just takin what's ours kid, chill or smell the gunsmoke As I pull out, squeezin like Mr. Charmin Destroyin posses of demo tapes like Agent Orange So chill kid and act like you know Peace from the MD a.k.a. Slow Flow It's going down 4X Get on down...</t>
+          <t>Friday Night Pyro August 24th, 2018 Irvine, California The UCI Colosseum Match Card M1 Eddie Edwards def. Robbie Williams No Limit First Round M2 Golden Bryce def. Vinny Testaverde Golden Bryce debut M3 Slayer def. Awesome Guest Ref Marc Snow Mick Foley M4 The McGraws def. Mondo Milk ENT M5 Tanahashi def. Kota Ibushi M6 Jaques Dudley def. Chris Johnson Champagne Clausen M7 Romeo Roselli def. GG camerman after time expires M8 The Truth Infantry Edwards, Croyle Blackman w Will Olaffub def. TakaNaka, Pac, Rey Mysterio Ruckus Detailed Events No Limits Championship Tournament Quarter-Final Match M1 Eddie Edwards w Will Olaffub, Steve Blackman Croyle def. Robbie Williams via submission Robbie Williams slow to get up gets medical treatment and has his arm in a sling and as he is getting carted to the back. Steve Blackman grabs Robbie and destroys him in quick fashion, soon Croyle and Edwards even get some cheap shots in and Edwards re-applies his finishing submission hold Crossface as paramedics pull him off Troy Clausen with Joel Gertner comes out during the mugging of Robbie and he screams at The Truth Infantry What are you doing?, Olaffub orders Edwards to stop as The Truth Infantry slowly walk past Clausen with their arms up as if to say they arent guilty of attacking a defenseless hurt wrestler. Robbie doesnt look good. Troy up to Ollafub and Infantry on top of ramp If you guys all wanna get physical tonight, Well then you got it! 6 man tag match, Truth Infantry versus Ruckus, Pac Rey Mysterio later tonight. Olaffub answering confidently as the infantry smiles deviantly Not a problem, as a matter of fact Troy why a 6 man tag, How about 2 on say..5 Troy Alright, if you jagaloons got a death wish then fine. 5 is what you want, 5 is what you are gonna get, Ruckus, Pac Mysterio. Now you got all of them plus, 2. The 2 being men who happen to be the greatest tag team in this industry, Taka Naka on top of that! Good luck Blackman grabs mic from Olaffub Troy, you are gonna look stupid at the end of the night. I guarantee it. M2 Golden Bryce def. Vinny Testaverde Bryce wins in dominant fashion Human Resources Help!!!!! Mick Foley comes out to the ring then brings out Jake Awesome and says he has to be motivated and that one loss and one occurence of him tapping out doesn't mean the world is over Jake Awesome responds almost confused as to why Mick has brought him here and gurantees yes indeed, he tapped out at heatwave but if given the chance to take on Slayer again. He wouldn't do it again. Jake thanks Mick for his help and Mick Foley responds claiming I AM THE 1 JAKE AWESOME FAN! Slayer with Marc Snow comes out at the end. Fine Speech Mick, Jake Awesome to these people will always be the hero. Jake Awesome will always be the champion. Regardless, of who is holding it. and here we are show 2 of the spark is back but where exactly is the title. He was the last champion, I made him tap even with a biased officiator. I deserve gold. Mick Slayer, Mr. Clausen has informed me not to spill this news but I thank the fans RIGHT HERE in Irvine, California cheap pop need to know this information. The new XPWEW world heavyweight champion will be crowned at Anarchy Rulz. Next week, more details will be revealed Marc Snow interrupts, Mick! more details revealed my son should have the belt! Where is it! Where is the belt! My son should have it. Mick Marc I dont think weve formally met, I do know about the urban legend. The urban legend that this crowd is chanting. Your independent persona of Nick Foley, in the 90s where you sold counterfeit 8 x 10s claiming you were me. I dont hold any grudges against you I get it. You gotta put ice cream in the freezer. I know the stories. but Marc, one thing I wont tolerate from you is the sass leaking from your quivering lip. Marc Mick Mick No, No for 20 years I tolerated you profiting from MY NAME, MY LEGACY, watching you maintain a living pretending to be me! A cheap version of mick foley, So how dare you call me biased. Maybe Im taking this a little too far na maybe Im letting my 20 years of aggression against you leak out in this trivial argument No, dont bow up at me its trivial. You still won the match. You still beat the mammoth. but how dare Marc Snow call me biased. A man who held a bias against his youngest son, a bias for your entire life pointing at Slayer. I dot know how you can just apologize with this snake. Marc I dont even wanna see your face. You can call me bias, but you cant call me an abusive father. You cant call me a bias parent and you damn sure cant teach me a damn thing about being without morals. I broke my body in half on every continent to provide for my family, not take all the loot and leave them for dead and then come back to my sons life twenty years later asking for a handout. Ive lost respect for you Slayer, so yeah I had a bias against a guy that can make amends with this liar. Marc Mick, Im in a decent mood tonight and Im trying so desperately not to punch you in your fat bearded face but what the hell Jake Awesome slaps Marc Snow down to the ground and then attacks Slayer repetitively. Slayer and Marc Snow powder out of the ring. Mick Marc, I know youve spilt blood. but I know you havent spilled as much as me but tonight. Im gonna put the Zebra stripes back on pulls off Red flannel to unveil Zebra flannel Heatwave rematch tonight! Slayer vs Jake Awesome Mick And Marc Snow, to assure you and your baby boy arent a victim of bad officiating. You can wear the stripes too. Jake Awesome will NOT lose again. Slayer I dont wanna wait lets do this right now Guest Referees Mick Foley Marc Snow M3 Slayer def. Jake Awesome so much interaction between Snow and Foley, Slayer mouths a lot to Foley throughout Slayer def. Jake via submission yet again. Awesome taps and Foley doesnt know how to react as he hesitates yet still raises Slayers hand in victory Mick Jake, even Michael Jordan missed a few shots, even Tom Brady lost a super bowl, Jake Awesome, I still think you are the best professional wrestler this industry has ever seen. Jake barely acknowledges Mick and just walks to the curtain looking at the ground. M4 The McGraws def. Mondo Milk ENT The McGraws run down the crowd praising Alex Jones to be their manager. The McGraws now dub themselves. 1776. Massive heat basically white heat from their post match promo about Obama being born in Kenya M5 Tanahashi def. Kota Ibushi with a knee to Kota mid-air going for his shooting star press. Tanahshi sneaks the win. Interview Kandi Khaos speaks with Jaques Dudley tonight on his match with Chris Johnson and Champagne Clausen and where does he stand with Troy Clausen. Jaques says Clausen claims hes changed, Ill guess well see M6 Jaques def. Chris Johnson Champagne Clausen in a three way dance Jaques pins Johnson Troy Clausen and Joel Gertner come out clapping his hands. Jaques that was an impressive victory. What everyone here didnt realize is what you guys just watched was a number 1 contenders match for the heavyweight title. Congrats Jaques Clausen winks Jaques nods unaware if he should believe Troy or not Backstage Clausen walking back behind the curtain to a sweaty Slayer and Marc Snow in his hippie tye die referee shirt. What the fuck was that Clausen? Troy What? Slayer So Jaques beat your rookie son and that human scum Chris Johnson and hes in the damn title chase Troy Yeah, do you watch the show, thats what I just said. and Im the boss and well your not. Marc Snow grabs Gertners neck brace tightly choking him Slayer gets up in Troy Clausens face Slayer I dont care if your the damn second coming. I want my title. I wanna know why I made the previous world champion. Tap out, TWICE. and IM not the 1 contender Clausen Fine, Slayer you are now the 2 contender. Happy? Now if you dont mind. Id suggest Colgate, Crest maybe. Clausen walks away Joel Gertner holding his throat coughing The Truth Infantry backstage are talking to referee Danny Coleman. Ollafub is up front showing him some papers backstage. Blackman and Croyle shew away our cameraman recording their locker room In ring Romeo Roselli this is the heavens crown championship. Last Sunday at Heatwave I announced that I will be holding the 7 minutes in Heaven Challenge so who wants to be the lucky first challenger A camera man gives his camera to another staff member and takes off all his wires and hops in the ring, telling Romeo to bring it Crowd is really into it Romeo looking around confused. Are you a camera man? You want to be the first challenger? What is your name My name is GG and Ive been a camera man for XPW since this company started M7 Romeo Roselli def. GG after the seven minute time limit expires but GG was actually in control of the match at the end of the time limit. Crowd chants GG! GG! GG! Romeo attacks him with a fluorescent light tube in the crowd and scars his head in the audience stands Romeo you will not embarrass me Romeo throws GG into a trash can and pushes it down the stadium stairs Romeo you will not make a mockery of me Romeo grabs his title and walks to the back Video Package Joe Gacy Kirby Lee Covington small boy on a playground swinging on swing set We are a disease Plagueground is coming M8 The Truth Infantry w Olaffub def. TakaNaka, Rey Mysterio, Pac, and Ruckus high spot of the match takes place when Rey Mysterio pins Croyle for a 3 count, Ruckus pins Blackman for a 3 and Taka pins Edwards for a 3 and Danny just gives them a weird look commentary is confused, the crowd is confused chanting you fucked up, bullshit eventually Troy Clausen and Joel Gertner run on down, Troy calls for Danny. Olaffub eavesdrops over smiling. Danny audibly says Im just doing my job, doing what Im told. The match still awkwrdly going on at this point. Blackman rolls up Tanaka and Danny counts the 1-2-3 Clausen is like what now that 3 count applies bell rings and your winner The Truth Infantry crowd is confused Truth Infantry powders up the ramp with Olaffub jumping up and down for joy, so much in fact his pony tail comes undone. Troy Referee Danny Coleman should not be judged for his officiating. Unlike Mick Foley hes not a biased ref. You see this is the reaction we all wanted. I thought maybe Heatwave would be when the world would find out The Truth!!! Clausen and the opponents in the ring stare intently Olaffub When XPWEW reformed. I went through these re-sign contracts of all my clients in deep deep detail. I noticed so many loose loop holes here and I made a few minor changes. I thought you were a legal Troy Clausen, I guess not haha I read the trades I adjusted the contracts of Blackman, Croyle and Eddie Edwards. Thats right I skewed just one little thing. These contracts were so loose honestly it may have took.5 minutes hahahaha Infantry laughs in unison My clients dont apply to the referees count of 3. In the contracts of my clients. It says clearly and Troy you signed off on all of these. Hell, I dont even think you read them. I probably could have gotten away with putting a little more zeros on the salaries. Honestly. Troy you are a joke. A negotiating failure. A jagaloon of jargon. Troy my clients must be pinned to the count of 5. to be beaten in that ring. and now these contracts are water tight. And if you were so clevar to just I dont know fire us on the spot. Good luck, Ill see you in court if you try because these contracts not only oblige my clients to be beaten with the count of 5. These are guaranteed iron clad contracts. Sealed. You and everyone have made fun of my client Steve Blackman, calling him a thing of the past, a shell of himself. Steve Blackman is more intense with age. More focused and the same applies for Edwards and Croyle as well. My men are focused and now they have the ultimate edge and you or anyone in the back cant do a damn thing about it. We are here to capture all the gold, and were out for destruction. What Edwards did to Robbie Williams was only the prologue to the story that is THE TRUTH!!! Thnank you Thank you!4</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pyro (leak 2019)</t>
+          <t>Shoot the 3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Friday Night Pyro August 24th, 2018 Irvine, California The UCI Colosseum Match Card M1 Eddie Edwards def. Robbie Williams No Limit First Round M2 Golden Bryce def. Vinny Testaverde Golden Bryce debut M3 Slayer def. Awesome Guest Ref Marc Snow Mick Foley M4 The McGraws def. Mondo Milk ENT M5 Tanahashi def. Kota Ibushi M6 Jaques Dudley def. Chris Johnson Champagne Clausen M7 Romeo Roselli def. GG camerman after time expires M8 The Truth Infantry Edwards, Croyle Blackman w Will Olaffub def. TakaNaka, Pac, Rey Mysterio Ruckus Detailed Events No Limits Championship Tournament Quarter-Final Match M1 Eddie Edwards w Will Olaffub, Steve Blackman Croyle def. Robbie Williams via submission Robbie Williams slow to get up gets medical treatment and has his arm in a sling and as he is getting carted to the back. Steve Blackman grabs Robbie and destroys him in quick fashion, soon Croyle and Edwards even get some cheap shots in and Edwards re-applies his finishing submission hold Crossface as paramedics pull him off Troy Clausen with Joel Gertner comes out during the mugging of Robbie and he screams at The Truth Infantry What are you doing?, Olaffub orders Edwards to stop as The Truth Infantry slowly walk past Clausen with their arms up as if to say they arent guilty of attacking a defenseless hurt wrestler. Robbie doesnt look good. Troy up to Ollafub and Infantry on top of ramp If you guys all wanna get physical tonight, Well then you got it! 6 man tag match, Truth Infantry versus Ruckus, Pac Rey Mysterio later tonight. Olaffub answering confidently as the infantry smiles deviantly Not a problem, as a matter of fact Troy why a 6 man tag, How about 2 on say..5 Troy Alright, if you jagaloons got a death wish then fine. 5 is what you want, 5 is what you are gonna get, Ruckus, Pac Mysterio. Now you got all of them plus, 2. The 2 being men who happen to be the greatest tag team in this industry, Taka Naka on top of that! Good luck Blackman grabs mic from Olaffub Troy, you are gonna look stupid at the end of the night. I guarantee it. M2 Golden Bryce def. Vinny Testaverde Bryce wins in dominant fashion Human Resources Help!!!!! Mick Foley comes out to the ring then brings out Jake Awesome and says he has to be motivated and that one loss and one occurence of him tapping out doesn't mean the world is over Jake Awesome responds almost confused as to why Mick has brought him here and gurantees yes indeed, he tapped out at heatwave but if given the chance to take on Slayer again. He wouldn't do it again. Jake thanks Mick for his help and Mick Foley responds claiming I AM THE 1 JAKE AWESOME FAN! Slayer with Marc Snow comes out at the end. Fine Speech Mick, Jake Awesome to these people will always be the hero. Jake Awesome will always be the champion. Regardless, of who is holding it. and here we are show 2 of the spark is back but where exactly is the title. He was the last champion, I made him tap even with a biased officiator. I deserve gold. Mick Slayer, Mr. Clausen has informed me not to spill this news but I thank the fans RIGHT HERE in Irvine, California cheap pop need to know this information. The new XPWEW world heavyweight champion will be crowned at Anarchy Rulz. Next week, more details will be revealed Marc Snow interrupts, Mick! more details revealed my son should have the belt! Where is it! Where is the belt! My son should have it. Mick Marc I dont think weve formally met, I do know about the urban legend. The urban legend that this crowd is chanting. Your independent persona of Nick Foley, in the 90s where you sold counterfeit 8 x 10s claiming you were me. I dont hold any grudges against you I get it. You gotta put ice cream in the freezer. I know the stories. but Marc, one thing I wont tolerate from you is the sass leaking from your quivering lip. Marc Mick Mick No, No for 20 years I tolerated you profiting from MY NAME, MY LEGACY, watching you maintain a living pretending to be me! A cheap version of mick foley, So how dare you call me biased. Maybe Im taking this a little too far na maybe Im letting my 20 years of aggression against you leak out in this trivial argument No, dont bow up at me its trivial. You still won the match. You still beat the mammoth. but how dare Marc Snow call me biased. A man who held a bias against his youngest son, a bias for your entire life pointing at Slayer. I dot know how you can just apologize with this snake. Marc I dont even wanna see your face. You can call me bias, but you cant call me an abusive father. You cant call me a bias parent and you damn sure cant teach me a damn thing about being without morals. I broke my body in half on every continent to provide for my family, not take all the loot and leave them for dead and then come back to my sons life twenty years later asking for a handout. Ive lost respect for you Slayer, so yeah I had a bias against a guy that can make amends with this liar. Marc Mick, Im in a decent mood tonight and Im trying so desperately not to punch you in your fat bearded face but what the hell Jake Awesome slaps Marc Snow down to the ground and then attacks Slayer repetitively. Slayer and Marc Snow powder out of the ring. Mick Marc, I know youve spilt blood. but I know you havent spilled as much as me but tonight. Im gonna put the Zebra stripes back on pulls off Red flannel to unveil Zebra flannel Heatwave rematch tonight! Slayer vs Jake Awesome Mick And Marc Snow, to assure you and your baby boy arent a victim of bad officiating. You can wear the stripes too. Jake Awesome will NOT lose again. Slayer I dont wanna wait lets do this right now Guest Referees Mick Foley Marc Snow M3 Slayer def. Jake Awesome so much interaction between Snow and Foley, Slayer mouths a lot to Foley throughout Slayer def. Jake via submission yet again. Awesome taps and Foley doesnt know how to react as he hesitates yet still raises Slayers hand in victory Mick Jake, even Michael Jordan missed a few shots, even Tom Brady lost a super bowl, Jake Awesome, I still think you are the best professional wrestler this industry has ever seen. Jake barely acknowledges Mick and just walks to the curtain looking at the ground. M4 The McGraws def. Mondo Milk ENT The McGraws run down the crowd praising Alex Jones to be their manager. The McGraws now dub themselves. 1776. Massive heat basically white heat from their post match promo about Obama being born in Kenya M5 Tanahashi def. Kota Ibushi with a knee to Kota mid-air going for his shooting star press. Tanahshi sneaks the win. Interview Kandi Khaos speaks with Jaques Dudley tonight on his match with Chris Johnson and Champagne Clausen and where does he stand with Troy Clausen. Jaques says Clausen claims hes changed, Ill guess well see M6 Jaques def. Chris Johnson Champagne Clausen in a three way dance Jaques pins Johnson Troy Clausen and Joel Gertner come out clapping his hands. Jaques that was an impressive victory. What everyone here didnt realize is what you guys just watched was a number 1 contenders match for the heavyweight title. Congrats Jaques Clausen winks Jaques nods unaware if he should believe Troy or not Backstage Clausen walking back behind the curtain to a sweaty Slayer and Marc Snow in his hippie tye die referee shirt. What the fuck was that Clausen? Troy What? Slayer So Jaques beat your rookie son and that human scum Chris Johnson and hes in the damn title chase Troy Yeah, do you watch the show, thats what I just said. and Im the boss and well your not. Marc Snow grabs Gertners neck brace tightly choking him Slayer gets up in Troy Clausens face Slayer I dont care if your the damn second coming. I want my title. I wanna know why I made the previous world champion. Tap out, TWICE. and IM not the 1 contender Clausen Fine, Slayer you are now the 2 contender. Happy? Now if you dont mind. Id suggest Colgate, Crest maybe. Clausen walks away Joel Gertner holding his throat coughing The Truth Infantry backstage are talking to referee Danny Coleman. Ollafub is up front showing him some papers backstage. Blackman and Croyle shew away our cameraman recording their locker room In ring Romeo Roselli this is the heavens crown championship. Last Sunday at Heatwave I announced that I will be holding the 7 minutes in Heaven Challenge so who wants to be the lucky first challenger A camera man gives his camera to another staff member and takes off all his wires and hops in the ring, telling Romeo to bring it Crowd is really into it Romeo looking around confused. Are you a camera man? You want to be the first challenger? What is your name My name is GG and Ive been a camera man for XPW since this company started M7 Romeo Roselli def. GG after the seven minute time limit expires but GG was actually in control of the match at the end of the time limit. Crowd chants GG! GG! GG! Romeo attacks him with a fluorescent light tube in the crowd and scars his head in the audience stands Romeo you will not embarrass me Romeo throws GG into a trash can and pushes it down the stadium stairs Romeo you will not make a mockery of me Romeo grabs his title and walks to the back Video Package Joe Gacy Kirby Lee Covington small boy on a playground swinging on swing set We are a disease Plagueground is coming M8 The Truth Infantry w Olaffub def. TakaNaka, Rey Mysterio, Pac, and Ruckus high spot of the match takes place when Rey Mysterio pins Croyle for a 3 count, Ruckus pins Blackman for a 3 and Taka pins Edwards for a 3 and Danny just gives them a weird look commentary is confused, the crowd is confused chanting you fucked up, bullshit eventually Troy Clausen and Joel Gertner run on down, Troy calls for Danny. Olaffub eavesdrops over smiling. Danny audibly says Im just doing my job, doing what Im told. The match still awkwrdly going on at this point. Blackman rolls up Tanaka and Danny counts the 1-2-3 Clausen is like what now that 3 count applies bell rings and your winner The Truth Infantry crowd is confused Truth Infantry powders up the ramp with Olaffub jumping up and down for joy, so much in fact his pony tail comes undone. Troy Referee Danny Coleman should not be judged for his officiating. Unlike Mick Foley hes not a biased ref. You see this is the reaction we all wanted. I thought maybe Heatwave would be when the world would find out The Truth!!! Clausen and the opponents in the ring stare intently Olaffub When XPWEW reformed. I went through these re-sign contracts of all my clients in deep deep detail. I noticed so many loose loop holes here and I made a few minor changes. I thought you were a legal Troy Clausen, I guess not haha I read the trades I adjusted the contracts of Blackman, Croyle and Eddie Edwards. Thats right I skewed just one little thing. These contracts were so loose honestly it may have took.5 minutes hahahaha Infantry laughs in unison My clients dont apply to the referees count of 3. In the contracts of my clients. It says clearly and Troy you signed off on all of these. Hell, I dont even think you read them. I probably could have gotten away with putting a little more zeros on the salaries. Honestly. Troy you are a joke. A negotiating failure. A jagaloon of jargon. Troy my clients must be pinned to the count of 5. to be beaten in that ring. and now these contracts are water tight. And if you were so clevar to just I dont know fire us on the spot. Good luck, Ill see you in court if you try because these contracts not only oblige my clients to be beaten with the count of 5. These are guaranteed iron clad contracts. Sealed. You and everyone have made fun of my client Steve Blackman, calling him a thing of the past, a shell of himself. Steve Blackman is more intense with age. More focused and the same applies for Edwards and Croyle as well. My men are focused and now they have the ultimate edge and you or anyone in the back cant do a damn thing about it. We are here to capture all the gold, and were out for destruction. What Edwards did to Robbie Williams was only the prologue to the story that is THE TRUTH!!! Thnank you Thank you!4</t>
+          <t>I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three Bitch I came to win, so I shoot the three Niggas playing foul they can't keep it G Talking to the cops call it referees You be cheap talking I keep cash on me Thinking I'ma fall wake up out your dream Thirty with the beam make a nigga lean It's a murder scene I ain't see a thing He be LeBron James he be switching teams I be doing me, they like Who is he? I be snatching bitches keep your jewelry I with all my niggas fuck security And my bitch bad no insecurities The 30 on me like I wear a jersey A sharp shooter call me Stephen Curry I'm dunking on them like I'm James Worthy I be King Simmie you ain't even worthy I'm working late I get the money early Had to kick her out she was mad annoying Niggas hating but they bitch going I pulled off I was in the foreign My weed loud so you can't ignore it These niggas sleeping I can hear them snoring A different breed I smoke different weed I smoke OG It ain't got no seeds I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three Drippin adrenaline dribble and dip in them Benjamins within this syndicate This is my christening wickedness future no who is the wickedest infinite Need me a crib with a picket fence counterfeit niggas dont change they aint making sense never Never could desert hot boy in the desert Got hits like Maywheather you soft as my leather Call me young Chester cause I get the cheddar Eight balling no better Im with the vendetta, Im shooting barrettas God of the city just like the Favelas My niggas all gangsters just like the Goodfellas Hellen Keller niggas out of sight out of mind Cloud 9 south side the affili homicide Curry on the beat got a simmie on the side U-L-T, C9, 2-7-5 I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three6</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Shoot the 3</t>
+          <t>JPEGULTRA!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three Bitch I came to win, so I shoot the three Niggas playing foul they can't keep it G Talking to the cops call it referees You be cheap talking I keep cash on me Thinking I'ma fall wake up out your dream Thirty with the beam make a nigga lean It's a murder scene I ain't see a thing He be LeBron James he be switching teams I be doing me, they like Who is he? I be snatching bitches keep your jewelry I with all my niggas fuck security And my bitch bad no insecurities The 30 on me like I wear a jersey A sharp shooter call me Stephen Curry I'm dunking on them like I'm James Worthy I be King Simmie you ain't even worthy I'm working late I get the money early Had to kick her out she was mad annoying Niggas hating but they bitch going I pulled off I was in the foreign My weed loud so you can't ignore it These niggas sleeping I can hear them snoring A different breed I smoke different weed I smoke OG It ain't got no seeds I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three Drippin adrenaline dribble and dip in them Benjamins within this syndicate This is my christening wickedness future no who is the wickedest infinite Need me a crib with a picket fence counterfeit niggas dont change they aint making sense never Never could desert hot boy in the desert Got hits like Maywheather you soft as my leather Call me young Chester cause I get the cheddar Eight balling no better Im with the vendetta, Im shooting barrettas God of the city just like the Favelas My niggas all gangsters just like the Goodfellas Hellen Keller niggas out of sight out of mind Cloud 9 south side the affili homicide Curry on the beat got a simmie on the side U-L-T, C9, 2-7-5 I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three All my chains on feel like Mr. T I ain't got no limits feel like Master P I be sipping muddy this is not no tea Plug hit my phone, come and shout with me Rolling up that sticky, your bitch stuck to me Even when I'm sleep, money in my dreams Strippers on the floor, ones in my jeans Sipping Dirty Sprite, nigga watch me lean Cause I'm a different breed Got your bitch on me Feeling like I'm Curry, balling on your team How you do this shit? They keep asking me Bitch I came to win, so I shoot the three6</t>
+          <t>You think you know me Out the trenches for you flabbergasted, fat fucks It's your boy Denzel Curry in this bitch And I'm chillin' with my nigga Peggy You already know what time it is, we goin' around the world with it And inside your girl with it, you feel me? Live out of your bitch body like my nigga Wang Zhi And you know, for Pete's sake Nigga, the boy Denzel Curry gotta do what it take To get that motherfuckin' money and that motherfuckin' bread To get it all on your bitch head, you dig? So, this how we gon' do it Okay, so I gotta be rude No matter which way you go, you'll still be a square like a Rubik's Cube Zeltron, nigga, I am that dude Me and J-P goin' A-P-E So I got monky bars, but this ain't PE Everybody said I got ADD but it never add up, I'ma count past three Mattr fact, one All of this devilish shit from D to MC but it's guaranteed to make a rev run Knee-high jump, better get far or its T I stomp South Florida nigga but I'm North Dade, nigga This year, I'ma be a too-paid nigga Knockin' off the top, that's a toupee, nigga I'm a tsunami, the new wave, nigga Most of your members will be dismembered When you fall off, bitch, I'm yellin' out, Timber You couldn't fuck with me if I had Tinder Last name Curry and the C for charisma Somebody from Street Fighter 6 on my neck But you niggas never do it like this Got a brand new all-gold shin, Akuma hangin' from my neck to my dick Live and direct out your bitch pussy This your boy Denzel Curry in this ho A.K.A. Zeltron, A.K.A. Big Ultra Y'all niggas don't know what the fuck it is When a real nigga step into a room with some alligator shoes on 'Cause you know we straight out the swamp, straight out the Everglades Out of Florida, bitch-ass nigga You feel me? Dade County, Get Sprayed County Lauderdale or Slaughterdale You already know what the fuck it is Ayy, Peggy, let me talk to 'em one time, hold up Niggas be beggin' for shit to be different until they get it, then they treat it indifferent People projectin' they bullshit at you 'cause they dissatisfied with the life that they living Niggas' net worth be like seventeen bucks while they begging for feet pics from shortys I been in I can sniff out you proximity hoes, always near some shit going on but never did it I dont understand when people talk shit on me, they gotta lead with a lie or some fibbing Friends acting like they don't wanna talk, then start begging for change, I don't know what it's giving Niggas be tryin' to fuck on your bitch while they dappin' you up sayin', I see your vision Fake friends turning on me for nothing, they mad 'cause they failed even with an advantage This is my fight, I just woke up as a child of the light Jumped on the beat, had to tell it, Goodnight Y'all tried your best but the heat aimin' right Kimber OG, I'm as high as a kite Shop for success, well, I brought me a pint Watch how I whip, I ain't stir-fry the rice Get your head cracked just for rollin' the dice, uh Now don't believe hype Believe what you see, not what's said on the mic Peggy Chun-Li, I kick out every time Can't keep me down, so they try block the shine Try fuck with my money, try fuck with my mind Then acting like fucking they bitch is a crime This ain't relatable, this ain't debatable Somethin' happened to you, it's by design, shh Yeah, yeah, yeah, yeah, yeah, man JPEG motherfuckin' MAFIA Makin' grown men emotional since 2008, at least Now, walk around everywhere as me, you know And you never catch me out here lookin' like these dirty-ass underground rappers Locked in the Airbnb somewhere with a bunch of niggas, playin' with each other's dicks Zero women around, loopin' records nobody wants to hear Uh, look On my knees for a God who can hear I can't pray to no God I can't fear I think I should have ran me a cult Quarterback that ho like I'm Peyton on Colts Fuck-niggas yappin' 'bout me on they alt But when I see you, it's degrees of assault You said you see him, you catching a case? I hope not like the one you got in your vault 'Cause that shit is shaky Heard the church service said, Come as you are So I showed up with a whole bunch of bitches that hate me Told my main bitch to stop actin' expensive Girl, pass me the mic, you as clueless as Stacy I know that time heals wounds, but my time is money and I can't use time as saline Pray, for all of my enemies, they either dead or hating, literally faking Lame-ass niggas get exposed everyday and I don't gotta do nothing more than frustrate him He's not a threat, bitch, I'm on him, a vet I had marksman in basic, I never need training Ayy, they make a career from hating Ayy, they make a career from faking I shit-talked my way right into a bag You pussy in private, beg him for collabs You pillow-talkin' to these bitches, it's sad I don't know whether to slap you or laugh Shower posse, give that baby a bath I know your label saw a cash grab You got popped then turned hashtag Stop yappin' online 'cause you know where I'm at, lil' bitch Fuck nigga1</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JPEGULTRA!</t>
+          <t>Babylon</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>You think you know me Out the trenches for you flabbergasted, fat fucks It's your boy Denzel Curry in this bitch And I'm chillin' with my nigga Peggy You already know what time it is, we goin' around the world with it And inside your girl with it, you feel me? Live out of your bitch body like my nigga Wang Zhi And you know, for Pete's sake Nigga, the boy Denzel Curry gotta do what it take To get that motherfuckin' money and that motherfuckin' bread To get it all on your bitch head, you dig? So, this how we gon' do it Okay, so I gotta be rude No matter which way you go, you'll still be a square like a Rubik's Cube Zeltron, nigga, I am that dude Me and J-P goin' A-P-E So I got monky bars, but this ain't PE Everybody said I got ADD but it never add up, I'ma count past three Mattr fact, one All of this devilish shit from D to MC but it's guaranteed to make a rev run Knee-high jump, better get far or its T I stomp South Florida nigga but I'm North Dade, nigga This year, I'ma be a too-paid nigga Knockin' off the top, that's a toupee, nigga I'm a tsunami, the new wave, nigga Most of your members will be dismembered When you fall off, bitch, I'm yellin' out, Timber You couldn't fuck with me if I had Tinder Last name Curry and the C for charisma Somebody from Street Fighter 6 on my neck But you niggas never do it like this Got a brand new all-gold shin, Akuma hangin' from my neck to my dick Live and direct out your bitch pussy This your boy Denzel Curry in this ho A.K.A. Zeltron, A.K.A. Big Ultra Y'all niggas don't know what the fuck it is When a real nigga step into a room with some alligator shoes on 'Cause you know we straight out the swamp, straight out the Everglades Out of Florida, bitch-ass nigga You feel me? Dade County, Get Sprayed County Lauderdale or Slaughterdale You already know what the fuck it is Ayy, Peggy, let me talk to 'em one time, hold up Niggas be beggin' for shit to be different until they get it, then they treat it indifferent People projectin' they bullshit at you 'cause they dissatisfied with the life that they living Niggas' net worth be like seventeen bucks while they begging for feet pics from shortys I been in I can sniff out you proximity hoes, always near some shit going on but never did it I dont understand when people talk shit on me, they gotta lead with a lie or some fibbing Friends acting like they don't wanna talk, then start begging for change, I don't know what it's giving Niggas be tryin' to fuck on your bitch while they dappin' you up sayin', I see your vision Fake friends turning on me for nothing, they mad 'cause they failed even with an advantage This is my fight, I just woke up as a child of the light Jumped on the beat, had to tell it, Goodnight Y'all tried your best but the heat aimin' right Kimber OG, I'm as high as a kite Shop for success, well, I brought me a pint Watch how I whip, I ain't stir-fry the rice Get your head cracked just for rollin' the dice, uh Now don't believe hype Believe what you see, not what's said on the mic Peggy Chun-Li, I kick out every time Can't keep me down, so they try block the shine Try fuck with my money, try fuck with my mind Then acting like fucking they bitch is a crime This ain't relatable, this ain't debatable Somethin' happened to you, it's by design, shh Yeah, yeah, yeah, yeah, yeah, man JPEG motherfuckin' MAFIA Makin' grown men emotional since 2008, at least Now, walk around everywhere as me, you know And you never catch me out here lookin' like these dirty-ass underground rappers Locked in the Airbnb somewhere with a bunch of niggas, playin' with each other's dicks Zero women around, loopin' records nobody wants to hear Uh, look On my knees for a God who can hear I can't pray to no God I can't fear I think I should have ran me a cult Quarterback that ho like I'm Peyton on Colts Fuck-niggas yappin' 'bout me on they alt But when I see you, it's degrees of assault You said you see him, you catching a case? I hope not like the one you got in your vault 'Cause that shit is shaky Heard the church service said, Come as you are So I showed up with a whole bunch of bitches that hate me Told my main bitch to stop actin' expensive Girl, pass me the mic, you as clueless as Stacy I know that time heals wounds, but my time is money and I can't use time as saline Pray, for all of my enemies, they either dead or hating, literally faking Lame-ass niggas get exposed everyday and I don't gotta do nothing more than frustrate him He's not a threat, bitch, I'm on him, a vet I had marksman in basic, I never need training Ayy, they make a career from hating Ayy, they make a career from faking I shit-talked my way right into a bag You pussy in private, beg him for collabs You pillow-talkin' to these bitches, it's sad I don't know whether to slap you or laugh Shower posse, give that baby a bath I know your label saw a cash grab You got popped then turned hashtag Stop yappin' online 'cause you know where I'm at, lil' bitch Fuck nigga1</t>
+          <t>We built this house on love and trust On something more than bricks and dust Now we're running down the clock Waiting for the aftershock We started out with things to do Hopes and dreams to pull us through Now everything is called to doubt Not much left to dream about Black money breathes black money crawls Black money lives inside these walls It's never really if so much as when The greed that chills the empty hearts of men To sate a rich man's vanity they're laying waste to history The thieves have entered Babylon again Black money breathes black money crawls Black money lives inside these walls The politicians tell us how It's time to milk the sacred cow They drop their bombs where children play Then say it has to be that way Black money breathes black money crawls Black money lives inside these walls</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Babylon</t>
+          <t>Denny Cascade</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>We built this house on love and trust On something more than bricks and dust Now we're running down the clock Waiting for the aftershock We started out with things to do Hopes and dreams to pull us through Now everything is called to doubt Not much left to dream about Black money breathes black money crawls Black money lives inside these walls It's never really if so much as when The greed that chills the empty hearts of men To sate a rich man's vanity they're laying waste to history The thieves have entered Babylon again Black money breathes black money crawls Black money lives inside these walls The politicians tell us how It's time to milk the sacred cow They drop their bombs where children play Then say it has to be that way Black money breathes black money crawls Black money lives inside these walls</t>
+          <t>Tell me what you niggas know bout niggas like me Rollin' K.O.D. while on LSD Tell me what ya'll niggas know bout niggas like me Rollin' K.O.D. while on LSD I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I be the universe gangster, runnin' through your damn block Click, clack, poppin', that's the sound of the grey matter Glock So I be Aquarius killa, that nigga guerrilla when runnin' up Alaska in my heart so who gon' tell me that I give a fuck Or what Goddess that I'm smashin' when I leave the club Angel, soarin' through the dancefloor like a kokita God damn, really when the mother nature got us up in my galaxy Lavishly, livin' in the mansion where we play Grey's Anatomy Doctor, I am so proper, look at the posture I'll cross her, and finally caught her but then I lost her Found her, a close encounter, over-the-counter I bounce her, I wouldn't play her cause I'm not Bowser Arouse her, gave her a heart, drop dollars and browsers Amped up, I think we stamped up, she's in my trousers Wowsers, she's at the tower, peek in the shower The flowers become the power within the hour Cowards, spaces to outer, green as the outer Glow, after I'm stickin' my dick in this ho, beggin' for mo', woah Woah, slow down, she thought I was destroyin' her She likes the way it feels when she's searchin' for euphoria Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Tell me what you niggas know bout niggas like me Rollin' K.O.D. while on LSD Tell me what ya'll niggas know bout niggas like me Rollin' K.O.D. while on LSD I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly23</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Denny Cascade</t>
+          <t>BALD REMIX</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tell me what you niggas know bout niggas like me Rollin' K.O.D. while on LSD Tell me what ya'll niggas know bout niggas like me Rollin' K.O.D. while on LSD I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I be the universe gangster, runnin' through your damn block Click, clack, poppin', that's the sound of the grey matter Glock So I be Aquarius killa, that nigga guerrilla when runnin' up Alaska in my heart so who gon' tell me that I give a fuck Or what Goddess that I'm smashin' when I leave the club Angel, soarin' through the dancefloor like a kokita God damn, really when the mother nature got us up in my galaxy Lavishly, livin' in the mansion where we play Grey's Anatomy Doctor, I am so proper, look at the posture I'll cross her, and finally caught her but then I lost her Found her, a close encounter, over-the-counter I bounce her, I wouldn't play her cause I'm not Bowser Arouse her, gave her a heart, drop dollars and browsers Amped up, I think we stamped up, she's in my trousers Wowsers, she's at the tower, peek in the shower The flowers become the power within the hour Cowards, spaces to outer, green as the outer Glow, after I'm stickin' my dick in this ho, beggin' for mo', woah Woah, slow down, she thought I was destroyin' her She likes the way it feels when she's searchin' for euphoria Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Euphoria, euphoria, I'm glidin' through South Florida On acid tabs, shawty with a chick that look like Gloria Estefan back in 1985 Shake that ass just like a conga when you get a nigga high Tell me what you niggas know bout niggas like me Rollin' K.O.D. while on LSD Tell me what ya'll niggas know bout niggas like me Rollin' K.O.D. while on LSD I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly I'm fried, I'm in my zone I got that kush, I got Patron I got that weed, and LSD And your bitch just popped a molly23</t>
+          <t>Blast blast blast out darts in the Wu basement Ahhh Ahhh Word up, it's a beautiful day Ahhh Aiyyo, call me a cab, it's the Razor Sharp kid Dipped everyday my style is po-lit' I'm out to the Mansion, I gots to catch Ghost I'm headed to the club tonight, we need toast For that wack ass MC, talking all the shit I know we can't wait just to get his wig split It's war with the Gods this year, represent The bitch-ass niggas keep trying to repent But we still licking off, we wild like 2 Cent Park Hill Projects, say it with your lungs Fuck y'all, cats, we always got guns But just in case, we get drunk and can't drive We gotta fuck something up Dead or alive y'all coming with us We live on th other side of the chart Whre your mother met Poppa Wu Poppa Wu After the tour I came back for more Coming correctly, just like before Wu-Tang Forever I was just a pirate In the rec room regulating with Osirus Deep thoughts, I don't take no shorts Minds on lease like expensive imports Elevate the seed, no lust or greed Living life long time may continue to breed Never getting caught up inside the agencies For ten long years, but I paid my fee Now I'm on the frontline with W.T.C. Back me down these streets are still ill From Brownsville all the way down in Park Hill Pack with the beef cause niggas won't chill Cats smoked out like chicken on the grill I'm taking this shit way back to Bill Bill In the projects where my man got killed Bloods accumulating, we getting impatient Knowledge and Wisdom, teach the understanding That's how I'm planning, blow up like a cannon Pull my man in, hit y'all again Now I make sense, we do this for the rent Build with intelligence break your defense No hesitation, time gets spent I can't never stop 'til my heart is content</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>So.Incredible.pkg</t>
+          <t>Psycho</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21 AAP Rocky - G-Unit Rice Drakeo the Ruler - Too Icey Joey Trap - BIRDIES KILL.ZERO - .HAUNTR. koi - all of that Luke Combs Billy Strings - The Great Divide MonoNeon - Done with the BS ft. Ledisi Steve Aoki Willy William - Mambo ft. Sean Paul, El Alfa, Sfera Ebbasta Play-N-Skillz The Bloody Beetroots Teddy Killerz - Elevate TOBi - Love Not Blood Victoria Monét - F.U.C.K. Wiz Khalifa - Chicken with the Cheese ft. Chevy Woods 24hrs 22 Ben Howard - Crowhurst's Meme Dolly Parton - 5 to 9 Indii G. - Drifting Kito, VanJess Channel Tres - Recap Leslie Odom Jr. - Beautiful Things Can Happen Luca Yupanqui - V4.3, Pt. 2 PlayThatBoiZay - 90'S BABY FREESTYLE XANAKIN SKYWOK - Club Banger! ft. Billy Marchiafava youra - MIMI 23 03 Greedo Wiz Khalifa - Substance We Woke Up Curreny - Misty Drippin' So Pretty - Too Sick Death From Above 1979 - One One Ghetts - No Mercy ft. BackRoad Gee Pa Salieu Ichiko Aoba - Asleep Among Endives Jimmy Edgar - NOTICE ft. 24hrs Jordin Sparks - You Still Think of Me Julien Baker - Favor Lauren Auder - Heathen Moneybagg Yo - Time Today pluko - High Hopes ft. DUCKWRTH sad alex Stereolab - Household Names sumika - shukusai Tkay Maidza Yung Baby Tate - KIM Trey Songz - Brain Unusual Demont - Pine YBN Almighty Jay - Battling My Spirit YNW BSlime - OTW 24 BAND-MAID - About Us Daya - Bad Girl Digga D AJ Tracey - Bringing It Back FINNEAS - American Cliché H.E.R. - Fight for You hololive IDOL PROJECT - STARDUST SONG ft. Tokoyami Towa, Shiranui Flare Amane Kanata Iglooghost - Sylph Fossil Jack Reynolds - Sunny Gaze Lil Durk - Love You Too ft. Kehlani Lil Playah - Knocked Off! ft. OnlyBino Lucky Daye Tiana Major9 - On Read MARINA - Man's World Empress Of Remix ft. Pabllo Vittar Sam Fischer Demi Lovato - What Other People Say Sia David Guetta - Floating Through Space Tino Szn - Vice ft. NOT Yeek - 3000 Miles Baby Baby 25 8 Graves Saint Slumber - Guillotine 88GLAM 6ixbuzz - Urgent Messages aespa - Forever Aidan Alexander - the end of the world Allie X - GLAM! Blssom - Vas Bobby Sessions Megan Thee Stallion - I'm a King Bob Moses - The Blame DJ Seinfeld Remix Bow Wow - My Pain Cardi B - Up Carly Pearce - Should've Known Better Cheat Codes - Hate You Love You ft. AJ Mitchell Chet Faker - Get High CMTEN - ALONE ft. RILEY THE MUSICIAN Creo - Aurora Dan Shay - Glad You Exist DBangz - The Source ft. Jay Zole DC the Don - Rag3 Kidd Diplo Sonny Fodera - Turn Back Time Bklava Remix Dream - Roadtrip ft. PmBata DUSTY LOCANE - Rumble Ellise - Bubblegum Brain FCG Heem - Need It Felix Cartal Kiiara - Happy Hour Flight - The Whole Team Hit Foley - Better Than Love Freddie Gibbs - Gang Sings ft. ScHoolboy Q G-Eazy - Provide ft. Mark Morrison Chris Brown GI-DLE - HWAA Dimitri Vegas Like Mike Remix Goody Grace - Grape Swisher Ice Cube - Trying to Maintain ILLENIUM, Dabin Lights - Hearts on Fire Bassjackers Remix Jazmine Sullivan - Lost One Live Jessie Ware - Remember Where You Are Edit JID - Bruuuh Remix Jim Jones Harry Fraud - Lose Lose johan lenox Cousin Stizz - phases Jonas Blue AWA - Something Stupid Jordan Suaste - If the World Ended Tonight Josef Salvat - One More Night JP THE WAVY - Lucky Star ft. Lancey Foux Kevin Garrett - Pure Imagination Keyshia Cole - I Don't Want to Be in Love KyleYouMadeThat - Hoopla ft. NLE Choppa Like Saturn - lost happiness Louis the Child BabyJake - Somewhere Else Luke Bryan - Country Does Martin Garrix - Pressure ft. Tove Lo Miley Cyrus - Prisoner Jax Jones Remix ft. Dua Lipa Molly Kate Kestner - Get Up ft. Brock Monroe MonoNeon - The Little Green Man ft. Daru Jones Morray - Kingdom Myuk - Mahou Nessly - Affairs Nessly - No Reason Night Lovell - Counting Down the List Oliver Tree - Out of Ordinary OMB Peezy - Dope Boy ft. Rylo Rodriguez Peso Peso - Brad Pitt ft. Trippie Redd Phora - Loaded Gun Polo G - GNF OKOKOK Puma Blue - Sweet Dreams Quelly Woo - Hot Winter Raveena - Tweety Rezz - Sacrificial ft. PVRIS Ricky Montgomery - Line Without a Hook Remix ft. mxmtoon Ritt Momney - Not Around Robin Thicke - Lucky Star Ruben - Mama Don't Know SG Lewis Nile Rodgers - One More Shordie Shordie Murda Beatz - LOVE ft. Trippie Redd SLANDER Au5 - Anywhere ft. PLYA shYbeast Smokepurpp Lil Mosey - We Outside Teddy Swims - My Bad Tee Grizzley - Late Night Calls Tokyo Machine Weird Genius - Last Summer ft. Lights Tom MacDonald - Cancelled Tone Stith - FWM VIC MENSA - SHELTER ft. Wyclef Jean Chance the Rapper Xan Griffin - Frustrated XIX - Henny Bottle Yelawolf Caskey - Been a Problem Yemi Alafifuni - Behold the Lamb Young Rog Summer Walker - Bullshit Yung Dred - Everything's Up ft. Hotboii Zella Day - Holocene ft. Weyes Blood 26 916frosty, ILYMAX Zcxr - beem Kodak Black - Every Balmain Savage Gap - goodbyes are the hardest part 27 NoCap - Dismiss You Wiz Khalifa - Dreams ft. 24hrs 28 Brent Faiyaz - CIRCLES Derivakat - Under the Weather Gabrielle - Stop Right Now Pink Sweat - Heaven Slim Thug - BlackQueen Slowpalace, FWLR qwinn - Already Gone The Vaccines - High Horse 29 645AR - MAMA PRAY Capo Lee, Shorty, JME, Frisco - Baitest Sound Dry Cleaning - Strong Feelings Ebhoni - X-Ting ISLAND - Octopus Katy Kirby - Portals Lauren Duski - I Would For You Pale Waves - Fall to Pieces plxntkid- crucifix slowthai Skepta - CANCELLED Valley - Like 1999 210 Brad Paisley - Off Road Cherry Glazerr - Big Bang Claud - Guard Down Danny L Harle DJ Mayhem - Interlocked Danny L Harle DJ Ocean - Ocean's Theme Dee Watkins - Make Em Mad GRAE - Soft Greta Van Fleet - Heat Above Gryffin Two Feet - I Want Love Ichiko Aoba - Asleep Among Endives demo Invader Kaide Steele 11 - SHGO Jacob Banks - Parade Kevo Muney - Leave Some Day Remix ft. Lil Durk KUKA - No Good for Me Liz Phair - Hey Lou Luh Kel - 726am Middle Kids - Cellophane Brain Of Mice Men - Timeless PROM - Friends Rebecca Black - Friday Remix ft. Dorian Electra, Big Freedia 3OH!3 Sainvil - Need 2 Teezo Touchdown - Technically Tigers Jaw - New Detroit TK from Ling tosite sigure - unravel n-buna from Remix Trippie Redd - BUZZ Unlike Pluto why mona - Circular Motion 211 Ashe - The Same COIN - Sagittarius Superstar ft. Faye Webster Danny Elfman - Love in the Time of Covid Dua Lipa - We're Good Eric Bellinger Hitmaka - Hit Eazy Erica Banks - Buss It Remix ft. Travis Scott flora cash - Feeling So Down G-Eazy - A Little More ft. Kiana Ledé Glitterer - Life is Not a Lesson Headie One - Siberia hololive IDOL PROJECT - Dreaming Days ft. Amane Kanata, Houshou Marine, Usada Pekora, Oozora Subaru, Yuzuki Choco, Nakiri Ayame, Murasaki Shion, Natsuiro Matsuri Shirakami Fubuki joan BEKA - brokenhearted together Kings of Leon - Echoing milk. - YouI Noga Erez - End of the Road Acoustic Live - Kids Against The Machine Rileyy Lanez - When I See You Lamont's Song Ruel - too many feelings Sauce Twinz - Splash ft. Trippie Redd Skrapz - Jumpout ft. Nines Stefflon Don, Tiwa Savage Rema - Can't Let You Go Remix Stephanie Poetri - IRL Tory Lanez - Mine Still Freestyle Tristam - Burn 212 3OH!3 - LOVE SOMEBODY 3OH!3 - TATTOOED HEART 916frosty - wow! ft. Ducey Gold Alaina Castillo - stfu i got u Aloe Blacc LeAnn Rimes - I Do Aly AJ - Pretty Places Anne-Marie, KSI, Digital Farm Animals - Don't Play Acoustic Aston Merrygold - Overboard AViVA Omiki - EVIL Remix Bianca - Gimme Biig Piig - Cuenta Lo Birdy - Loneliness Bishop Briggs - SOMEONE ELSE Remix ft. Jacob Banks blackwinterwells - HEARSE ft. funeral Carlie Hanson - I Hate Your Room Carly Rose - First Carrie Underwood - Softly and Tenderly Charlotte Cardin - Meaningless Clever - Rolls Royce Umbrella ft. Chris Brown CRAY - Roses R Red Dan Bull - Living Life in Limbo Deadmau5 - Arguru 2k19 DJ Pharris - Everything New ft. Wiz Khalifa, Chance the Rapper, Rockie Fresh Doe Boy - Lowkey ft. Lil Uzi Vert Drew Sycamore - 45 Fahrenheit Girl Eloise - Hungover FITZ - Somebody Sometimes Futuristic Michael Minelli - Waste Your Time G-Eazy - A Little More ft. Kiana Ledé Gallant - Relapse. gavn! - crazy Acoustic George Cosby - Real Love Gordi Alex Lahey - Dino's Grant RUNN - Fix It Guapdad 4000 !llmind - How Many Hauskey - Go Wrong Henry Daher Ski Mask the Slump God - Unseen Jay Sean - Incomplete Joey Trap - BRACE Jon Batiste - Cry KAROL G, Anuel AA J Balvin - LOCATION K. Forest - Summer We Never Had Kelly Rowland - Black Magic Kevin Gates - Plug Daughter 2 KIDZ BOP Kids - Levitating Killstation - SPIRALIA Klass Murda Benny the Butcher - Theme Song Landon Cube, lil rxspy SypSki - Down Out LPB Poody - Batman Like Saturn - vanished years Lil Gnar - Missiles ft. Trippie Redd Lil Mosey - Enough Lil Playah - you THINK I CARE! Lil Tjay 6LACK - Calling My Phone lilspirit - 4ever Lucki - Greed ft. Lil Yachty Luclover Tes X - Speedracer Luh Kel - I Wish Mariah Carey - We Belong Together Mimis Late Night Valentines Mix Mario - Luxury Love Maude Latour - Walk Backwards Maye - Yours Men I Trust - Tides Mýa - Forever My Love Ninajirachi Kota Banks - Secretive! nothing,nowhere. - upside down P!nk Willow Sage Hart - Cover Me in Sunshine Paycheck - WHERE'S THE LOVE? PJ Harding Noah Cyrus - Dear August PROFF - Dark Magic ProfJam - Alguém Como Tu ft. Agir Quinn XCII - my wife 2 dogs RiFF RAFF x DJ Paul x Merkules - CUP CUP CUP Riley Pearce - Golden Retriever Roosevelt - Lovers ROSIE - Retail Therapy Rowdy Rebel - Jesse Owens ft. NAV Ryan Hurd - Chasing After You ft. Maren Morris Sabina Ddumba - Damn Good Woman SACHI - Take Me Back Sara Kays - Future Kids Savannah Cristina - Body Work Scarypoolparty - Home Sea Girls - Nothing Breaks Like a Heart Sevyn Streeter, Chris Brown AAP Ferg - Guilty Sharon Van Etten - On Your Way Now Shy Glizzy - White Lie ft. RMR Sir Sly - Loverboy Sir Sly - thx. Skizzy Mars - Pro Bad Decision Maker Sophie and the Giants - Right Now Stalking Gia - Worship Stunna Girl - Still Smoke Surf Mesa Madison Beer - Carried Away Syd - Missing Out Taylor Swift - Love Story Taylor's Version The Fratellis - Need a Little Love Theia - CREEP ft. Vayne Tokyo Jetz - WYTD ft. Toosii Trey Songz - Brain UPSAHL - STOP! valentina cy - Love Me Now Victoria Justice - Stay Warhol.SS - Checks We Are The Empty - The Ocean Weathers - Losing Blood Wolfgang Gartner - Cosa Nostra X Ambassadors Jensen McRae - skip.that.party YNW Bortlen - Lovey Dovey ft. Toosii Young M.A - Off the Yak Young Thug - That Go! ft. T-Shyne Meek Mill Yungeen Ace - All in All Zachary Knowles - johnny june 213 Aaron Cartier - You Too Care - Sun Hello to the Islands for Me Sol Jay - RULEZ Terror Jr - Too Soon ft. Shawn Wasabi 214 904TEZZO - Here to Stay Airospace - Cosmic Void Anirudh Ravichander - Rendu Kaadhal Bobby V - Reply Chuu - Hello Digga D - Toxic IRENE - A White Night Joey Purp KAMI - FOR YOU Kevinhilfiger - haunt u MAJ - Queen Peniel - Valentine PewDiePie - Coco SuperMega - Brand New Shirt 215 CHEEZE - Daydream Dessa - Bombs Away Helix tears - idku ft. Blxty, Yurms, Chava, blackwinterwells, Capoxxo, 8485 SEBii Kalan.FrFr. - No Love ft. Cypress Moreno Mozzy KUURO Goja - Close to Hell Moses Boyd Katy B - 2 Far Gone Remix SOYOU - ZEROATTITUDE ft. IZONE pH-1 Wallows - Quarterback ZIA - I become love to you 216 Alfie Templeman - Everybody's Gonna Love Somebody Dad Sports - nrvs again Dawn Richard - Bussifame Eunkwang - , Whyd You Leave Me ExRe 12 Ensemble - Where the Time Went Remix ft. Josephine Stephenson Hayley Mary - Would You Throw a Diamond Kang Daniel - PARANOIA Lil Lotus - Girl Next Door Lil Peppa Buzzboi - Cheez Crackerz Remix Lil Peppa Buzzboi - Just One Sock Remix Lil Peppa Lil Grillz FF Lost Girl - Menneskekollektivet ft. Håvard Volden Jenny Hval Lost Horizons - Heart of a Hummingbird ft. KookieLou Nick Hakim - QADIR BADBADNOTGOOD Remix Porridge Radio piglet - Let's Not Fight! Porridge Radio piglet - Strong Enough Rusty Cage - Hollow Men SEBii - breakOUT Toth - Turnaround Cocaine Song Wild Pink - Pacific City Your Old Droog Tha God Fahim - Slam Dunk Contest ft. Pharoahe Monch YOZOH - Weak People 217 AJR - Way Less Sad Arm's Length - No Sleep Christine and the Queens - Would I Lie to You? ft. Manu Payet COBRAH - DIP 'N' DRIP Crowded House - To The Island D Imman - Yaazha Yaazha Genesis Owusu - Gold Chains Gojira - Born for One Thing Iceage - Vendetta José González - El Invento LightSkinKeisha - FDH Mahalia - Jealous ft. Rico Nasty Mariah Carey - We Belong Together Mimi's Late Night Valentine's Mix Maty Noyes - Alexander Problem Wiz Khalifa - 4 the Low serpentwithfeet - Same Size Shoe Shura - obsession ft. Rosie Lowe Stereolab - The Super It The Antlers - Just One Second THE BLOSSOM - HARDCORE HAPPY TRI.BE - DOOM DOOM TA TRI.BE - Loca Unlike Pluto - Zoned Out in My Youth Vindata - Good 4 Me Vindata - Union Vintage Morelli x Arielle Maren - Dreamers 218 Isak Danielson - If You Ever Forget That You Love Me KAYTRANADA - Caution King Gizzard the Lizard Wizard - Pleura Koven - Numb Koven - Worlds Collide Grafix Remix Rack - Davay Major Lazer Ludmilla - Pra Te Machucar Manchester Orchestra - Bed Head MAY-A - Time I Love To Waste NF - CLOUDS Paloma Mami - Religiosa Tom Odell - numb Ulrikke - Falling Apart Velafire - Under Me 219 24kGoldn - 3, 2, 1 637godwin - High Life 6ix9ine - ZAZA Adelén - Jaded Alan Walker salem ilese - Fake a Smile Alice Phoebe Lou - Dirty Mouth Amy Shark - Love Songs Ain't for Us ft. Keith Urban Anx 916frosty - All American Rejects Aston Merrygold - Share a Coke Babygirl - You Were in My Dream Last Night Bella Thorne - Shake It Benny the Butcher Elcamino - Immunity BFB da Packman - Honey Pack Remix ft. Lil Yachty DDG Big tunt - Money Gang ft. Pooh Shiesty BIGBABYGUCCI - Seeing Ghosts Blac Chyna - Doom ft. Asian Doll Black Honey - Disinfect BMW KENNY - HAHA Brent Ewing Zoey Dollaz - The Fall Budjerah - Higher Camden Cox - Under the Water Cash Cash - Too Late ft. Wiz Khalifa Lukas Graham Catie Turner - Hide and Seek Charlotte Jane - Down Days Chris Brown Young Thug - Go Crazy Remix ft. Latto, Lil Durk Future CLEWS - Want You That Way Clinton Kane - CHICKEN TENDIES Cochise - Usopp Coi Leray - No More Parties Remix ft. Lil Durk Conan Gray - Overdrive DaBaby - Beatbox Freestyle Dami Im - Lonely Cactus Danny Quest Cheat Codes - That Feeling ft. Hayley May David Shawty - bad bye Day Sulan YG - Bailar Denzel Curry, Kenny Beats Smino - So.Incredible.pkg Robert Glasper Version ft. Robert Glasper Desto Dubb - BNB ft. Lil Pump Dimitri Vegas Like Mike, DVBBS Roy Woods - Too Much Drippin' So Pretty - 18 ELHAE - Separated ELIO - CHARGER Remix ft. Charli XCX Ella Henderson Tom Grennan - Let's Go Home Together Emily Weisband - New Salt Friedberg - Midi 8 Funkmaster Flex Jadakiss - Damn Shame Gianni Kosta Dragonette - Phantom GLADES - Dancing in the Mirror Grace Davies - i met a boy online hololive IDOL PROJECT - ClearSky AsuiroClearSky ft. Tokoyami Towa, Shiranui Flare, Sakura Miko, Ookami Mio, Minato Aqua, Natsuiro Matsuri, Aki Rosenthal, Yozora Mel Roboco Jake Miller - ADDERALL Janine - Loving Me Julia Gargano - You Don't Get To Justine Skye - Intruded Kembe X - Under Pressure The Smoking Peanut Kenny Mason - Partments KIDDO - My 100 L.L.A.M.A, Ne-Yo Carmen DeLeon - Shake Like Saturn - free roaming Lil Yachty - Hit Bout It ft. Kodak Black LocateEmilio 27CLUB - runny nose Lord Huron - Not Dead Yet Lxst - Famous Matt Ox - Shivers Marshmello Arash - Lavandia Matt Berninger - Let It Be MELVV - READY OR NOT ft. umru Terror Jr Memo600 Only The Family - Pistol Tottin Mike Shinoda - Happy Endings ft. UPSAHL iann dior Mimoza - Young Queen MUST DIE! - SORROW TECH Olivia Holt - Do You Miss Me OMB Peezy - Love is Blind Paris Texas - HEAVY METAL Paul Woolford Amber Mark - HEAT Polish Club - Stop For a Minute Powfu, Rxseboy Sarcastic Sounds - the way that you see me ft. Ayleen Valentine PRETTYMUCH - Lonely Purple Disco Machine - Fireworks ft. Moss Kena The Knocks Rah Swish - A Year Ago Rebecca Ferguson - No Words Needed ft. Nile Rodgers Russ - MISUNDERSTOOD Sandro Cavazza Georgia Ku - Love To Lose Semetary - NECROMANSER Sipho the Gift - Do More Sophia Messa - Not That Kind of Love Still Woozy - Rocky Space Tyger - Satellites Surf - Parlay Tainy Miguel - Sunbathe The Strumbellas - Greatest Enemy Tory Lanez Chris Brown - F.E.E.L.S. Transviolet - Drugs in California Virgil Abloh - Delicate Limbs Omar S Remix Walker Hayes - I Hope You Miss Me Xan Griffin - S.I.M.P.I.N.G. Young Dolph Key Glock - Case Closed Buppy. - Open My Letter 220 kurtains - axel ocelot 222 Shinsei Kamattechan - Boku no Sensou Becky G Burna Boy - Rotate Billie Eilish - ilomilo Live Cold Hart - Every Day's a Day Dayglow - Something Duke Deuce - SPIN ft. Foogiano Eptic - Shadow People Green Day - Here Comes the Shock Joey Trap - YUCA Nekomata Okayu - YUMMY! Mogu Mogu YUMMY! Zara Larsson - Look What You've Done 221 Architects - Meteor Luba Juice - ''Who'' ft. King Andi3 223 Adult Mom - Checking Up cupcakKe - Back In Blood Remix Dropkick Murphys - Middle Finger Fred again.. The Blessed Madonna - Marea We've Lost Dancing Glass Beach - yoshis island world 7x7 mix Greentea Peng - Nah It Ain't the Same Gutta100 - Beatbox Remix Jade Bird - Open up the heavens Jetty Bones - Nothing JID - Skegee Lael Hansen - rip2me Pussy Riot - TOXIC ft. Dorian Electra Shamir - Ocean Eyes SUNMI - Tail SUNMI - What the Flower SURAN - Sunny 224 2KBABY - No More Parties Remix Alex Porat - girlfriend Aodhan - I'm Closed Baby Queen - These Drugs Bright Eyes - Flirted With You All My Life Caleborate Kota the Friend - Contact Cautious Clay - Roots CHAI - Maybe Chocolate Chips ft. Ric Wilson Elena Tsagrinou - El Diablo ELHAE - Fun Fact Ballad Half Waif - Party's Over James Vickery - Come to Me ft. Musiq Soulchild Jao - Coringa Julien Baker - Heatwave Kero Kero Bonito - The Princess and the Clock Liyah Knight Nerve - Cheers Muki - I Make Boys Cry renforshort - virtual reality Sinéad Harnett - Last Love Starrah - Miss This THE BOYZ - Breaking Dawn The Offspring - Let the Bad Times Roll The Vaccines - Fire THEY. - Count Me In Remix ft. Kiana Ledé Tom Aspaul - Tender 2 ft. Funk LeBlanc Vaundy - sink Will Mannay - No Feelings Wolf Alice - The Last Man on Earth 225 Bleu Clair - The Tempo Cosha Coby Sey - Tighter Mansionair - MORE Nick Jonas - Spaceman NSG - Drunk Guitar Remix ft. Potter Payper Owlle - Sounds Familiar Peach PRC - Josh Post Malone - Only Wanna Be with You Steps Michelle Visage - Heartbreak in This City Remix Tiana Blake - Interruption Yeek - Valencia 226 22Gz - Blixky Gang Freestyle, Pt. 2 27CLUB - Crushin' 2KBABY Marshmello - Like This 6 Dogs - Starfire Teen Titans A.CHAL - Nobody Like Me Alesso Armin Van Buuren - Leave a Little Love Alexandra Stan - Aleasa Aleyna Tilki - Retrograde Alice Longyu Gao - She Abunai ft. Mura Masa bülow Aloe Blacc - Other Side Alyssa Joseph - sadboy anders - Late to the Party Ant Saunders - Spoiled Aries - DITTO Ben Howard - Far Out Ben Howard - Follies Fixture Billy Davis - Dream No More ft. Ruel Genesis Owusu Bizness Boi Symphani Soto - Im Witchu braveweather - blackwhite BRELAND - Cross Country Brett Young - You Got Away with It Carrie Underwood - Great is Thy Faithfulness ft. CeCe Winans Cavetown - Paul CHEETAH - Villain ft. JAMIE Cinders - Growing Up Claire Rosinkranz - Parking Lot Claire Rosinkranz - Real Life Claudia Leitte - Agradece Curtis Waters - Conceited Dava - New Ceilings DDG OG Parker - Money Long ft. 42 Dugg Denzel Curry Kenny Beats - Cosmic .m4a The Alchemist Version ft. Joey Bada dePresno - Church Divided Minds - Wake Up DJ Topgun - Sleep ft. David Shawty BBY GOYARD Doll Skin - Control Freak DOOLIE - Woke Up Feeling Dramatic Ella Vos Mokita - still dreaming, backwards Elle King Miranda Lambert - Drunk And I Don't Wanna Go Home Elliphant - Drunk Angry Enisa - Count My Blessings EVAN GIIA - Stay Up FCG Heem - More Pain ft. Toosii Florrie - Hours Frances - Ocean in Gold Frances - Rare Futuristic Michael Minelli - Know Me GARZI - PARANOIA Greta Isaac - Like Me H.E.R. Justin Credible - Damage Justin Credible Remix Hanne Leland - Even If It Breaks My Heart Hotboii - Fuck Shit IDK - Just Like Martin India Shawn - Too Sweet ft. Unknown Mortal Orchestra Jaguar Jonze - CURLED IN Jazmine Flowers - Awkward Joel Corry, RAYE David Guetta - BED John-Robert - Damn Bean Josie Man - Cuts Bruises Joyce Wrice - On One ft. Freddie Gibbs Kamrin Houser - G-Code ft. Lil Skies Key Glock - I'm the Type Kitten - American Football Kristen Hanby - Good Girl ft. YBN Nahmir KYLE - But Cha ft. Josh Golden Lauren Daigle - Hold On To Me Leon Bridges Keite Young - Like a Ship Like Saturn - missing summer Lil Kapow - No Headlights Lunay - Sin Ropa Maisie Peters - John Hughes Movie Magnolia Park - Back on My Bullshit ft. Jake Hill Martin Jensen Georgia Ku - 2019 Mat Kearney - Pontiac MDMA Molly - Hills Millie Turner - Concrete Tragedy MOL - TEN FOLD ft. MC Virgins Lil Force Morcheeba - Oh Oh Yeah Nessly - Link and Build ft. MadeinTYO Noname - Rainforest Nuski2Squad - Gone Too Soon ft. Toosii Peder Elias - Best Friend Pop Smoke - AP Quelly Woo - PAIN INTO PASSION R3HAB, Fafaq DNF - Ringtone Rah Swish - Warm Ups ft. Leeky G Bando Royal the Serpent - i can't get high Sarah Close - Forgive or Forget Sasha Keable - Exception Shelley FKA DRAM - Exposure SIX60 - All She Wrote Slayyyter - Clouds Sol Jay - fatal SpotEmGottem - Beat Box 3 ft. DaBaby SSGKobe - Tired of Me Steele 11 - like dat! Steve Aoki George Benson - Give Me the Night Suigeneris - Hennyclaws Surf - Beyoncé Surf - To The Moon SVEA Call Me Loop - I'll Get Better Sycco - My Ways Tank - Can't Let It Show Tee Grizzley - Robbery Part Two Tilian - Anthem The Band CAMINO - 1 Last Cigarette The Kid LAROI - STILL CHOSE YOU ft. Mustard Thomston - JPA989 Tom Speight - Strange Days Torine - Bored TRAQULA - Cheat Codes for Hoes Remix ft. Shotgun Willy Two Feet - Never Enough Tyla Yaweh - All the Smoke Elias Remix ft. Gunna, Wiz Khalifa Elias Vacation Forever - Pop Up In My Head William Singe - Talk to Me Nice XIX - Toxic ft. BENKRO YG - Go Big ft. Big Sean YSN Flow - Bottom Boy Yung Bae - Disco Body Parts ft. AWOLNATION Yung Bleu - Thieves in Atlanta ft. Coi Leray Zak Abel - Be Kind 227 Dotter - Little Tot Eric Saade - Every Minute The Stupendium - The Apex ft. NemRaps 228 J Balvin - Ma' G9</t>
+          <t>I am not dex I am not famous dex I am none of that shit bro I'm not a rapper, I'm none of that So don't mix me with all that fu' fuck shit You turkey ass nigga, you thanksgiving ass nigga Oh woah, Dexter, look Bitch I'm a psycho put one in yo head i ain't talking no micro My niggas they stack roll I'm saving yo life i ain't talking no geico hold on wait Bitch I'm a psycho put one in yo head i ain't talking no micro My niggas they stack roll I'm saving yo life i ain't talking no geico Niggas snake bitches sucking dick, shit hella if i know I run up for me a big bank roll And R.I.P to big bro bankroll Boy this ain't no game, boy stay in yo lane Diamonds kicking like they Liu Kang, diamonds biting like they Jackie Chan Wait, yeah, i fuck yo lil' bitch she was late Bust it right up in her face, then you took her on a date They say boy you a psycho They say boy you a psycho They say boy you a psycho They say boy you a psycho I'm balling hard like the lotto I'm balling hard like the lotto I fuck your bitch that's my motto They say boy you a psycho They say boy you a psycho They say boy you a psycho They calling me dex I'm a psycho They calling me dex I'm a psycho I'm balling hard like the lotto I'm balling hard like the lotto I just pulled up in a lambo Oh shit, they like there he go They calling me crazy, Im little Boy fuck the hospital I wack ya fucking sister, and not even save her picture Oh wait naw, loosing my mind off a adderall I'm busting so hard from tylenol Oh man i can't hear y'all They say boy you so crazy, I'm strapped like the navy All these bitches want my baby, I'm fucking bitches and they pay me Babygirl leggo my eggo Shit, you know how that go All my songs on the radio, oh shit I'm a psycho yeah They say boy you a psycho They say boy you a psycho They say boy you a psycho They say boy you a psycho I'm balling hard like the lotto I'm balling hard like the lotto I fuck your bitch that's my motto They say boy you a psycho They say boy you a psycho They say boy you a psycho They calling me dex I'm a psycho They calling me dex I'm a psycho I'm balling hard like the lotto I'm balling hard like the lotto I just pulled up in a lambo Oh shit, they like there he go2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BALD REMIX</t>
+          <t>Hate Government</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Blast blast blast out darts in the Wu basement Ahhh Ahhh Word up, it's a beautiful day Ahhh Aiyyo, call me a cab, it's the Razor Sharp kid Dipped everyday my style is po-lit' I'm out to the Mansion, I gots to catch Ghost I'm headed to the club tonight, we need toast For that wack ass MC, talking all the shit I know we can't wait just to get his wig split It's war with the Gods this year, represent The bitch-ass niggas keep trying to repent But we still licking off, we wild like 2 Cent Park Hill Projects, say it with your lungs Fuck y'all, cats, we always got guns But just in case, we get drunk and can't drive We gotta fuck something up Dead or alive y'all coming with us We live on th other side of the chart Whre your mother met Poppa Wu Poppa Wu After the tour I came back for more Coming correctly, just like before Wu-Tang Forever I was just a pirate In the rec room regulating with Osirus Deep thoughts, I don't take no shorts Minds on lease like expensive imports Elevate the seed, no lust or greed Living life long time may continue to breed Never getting caught up inside the agencies For ten long years, but I paid my fee Now I'm on the frontline with W.T.C. Back me down these streets are still ill From Brownsville all the way down in Park Hill Pack with the beef cause niggas won't chill Cats smoked out like chicken on the grill I'm taking this shit way back to Bill Bill In the projects where my man got killed Bloods accumulating, we getting impatient Knowledge and Wisdom, teach the understanding That's how I'm planning, blow up like a cannon Pull my man in, hit y'all again Now I make sense, we do this for the rent Build with intelligence break your defense No hesitation, time gets spent I can't never stop 'til my heart is content</t>
+          <t>Anti-American, I'm pro-Assata Write rhymes like a scholar, all about a dollar Dollar equals Allah, put away the scouters You won't see my power, this your final hour On Nefertiti, this is for the city Cut throat, you shouldn't fuck with my committee Kill it, call it Kenny, say it came from Diddy All you other rappers hella Pooh, no Winnie Eeny, meeny, miney, moe, tic-tac-toe Leave a XO on a death note I wrote Flow on a back stroke in my black clothes I'm a asshole, got ghost out the atmos Fear me, departed them now they fear me You want a war, bring the gear please Murdering everyone yearly, sincerely, ultimate They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit36</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Psycho</t>
+          <t>Running the Streets</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>I am not dex I am not famous dex I am none of that shit bro I'm not a rapper, I'm none of that So don't mix me with all that fu' fuck shit You turkey ass nigga, you thanksgiving ass nigga Oh woah, Dexter, look Bitch I'm a psycho put one in yo head i ain't talking no micro My niggas they stack roll I'm saving yo life i ain't talking no geico hold on wait Bitch I'm a psycho put one in yo head i ain't talking no micro My niggas they stack roll I'm saving yo life i ain't talking no geico Niggas snake bitches sucking dick, shit hella if i know I run up for me a big bank roll And R.I.P to big bro bankroll Boy this ain't no game, boy stay in yo lane Diamonds kicking like they Liu Kang, diamonds biting like they Jackie Chan Wait, yeah, i fuck yo lil' bitch she was late Bust it right up in her face, then you took her on a date They say boy you a psycho They say boy you a psycho They say boy you a psycho They say boy you a psycho I'm balling hard like the lotto I'm balling hard like the lotto I fuck your bitch that's my motto They say boy you a psycho They say boy you a psycho They say boy you a psycho They calling me dex I'm a psycho They calling me dex I'm a psycho I'm balling hard like the lotto I'm balling hard like the lotto I just pulled up in a lambo Oh shit, they like there he go They calling me crazy, Im little Boy fuck the hospital I wack ya fucking sister, and not even save her picture Oh wait naw, loosing my mind off a adderall I'm busting so hard from tylenol Oh man i can't hear y'all They say boy you so crazy, I'm strapped like the navy All these bitches want my baby, I'm fucking bitches and they pay me Babygirl leggo my eggo Shit, you know how that go All my songs on the radio, oh shit I'm a psycho yeah They say boy you a psycho They say boy you a psycho They say boy you a psycho They say boy you a psycho I'm balling hard like the lotto I'm balling hard like the lotto I fuck your bitch that's my motto They say boy you a psycho They say boy you a psycho They say boy you a psycho They calling me dex I'm a psycho They calling me dex I'm a psycho I'm balling hard like the lotto I'm balling hard like the lotto I just pulled up in a lambo Oh shit, they like there he go2</t>
+          <t>Maybach Music I just wanted you to know you deserve the world I'm apologizin' right now She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets Runnin', runnin', runnin' the streets She be stayin' up I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep Fake niggas always caught up in the realest shit Mama always told me, Watch who you be dealin' with Snake bitches, can't get wrapped up in your feelings with Never watered down, my niggas on some killin' shit Miami mercenaries, really, that's the double M Born baller, baby boy, I be above the rim Quick step, then I plant, just like I'm Durant Peyton Manning with the poems, go look at the stats Went from sleepin' on the floor to pissin' Moët All my teachers sellin' dope, even sold me a sack Wake up in the mornin', so I need to smoke When I really need to keep my queen close MAC-11, dirty money on my prayer rug Say a prayer for me, really show a player love Time to touch a million, did it with finesse Never wait up for me, go and get your rest She be stayin' up She be stayin' up When I ain't comin' home I ain't comin' home Runnin', runnin', runnin' the streets Yeah Runnin', runnin', runnin' the streets She be stayin' up She be stayin' up I ain't comin' home I ain't comin' home Runnin', runnin', runnin' the streets Yeah It's so hard to get sleep She be staying up, we be layin' up, shit When I ain't around, who you layin' up with? Fuckin', fuckin', fuckin' it up and I been Runnin', runnin', runnin' it up, yeah We call it a gang, but that's who I work with Who I put in pain, who I put in work with Always saying something me, when I be Runnin', runnin', runnin' the streets But would you still be fuckin' with me If I was wearin' the same jeans for a week? If I was hungry and I ain't have nothing to eat? Would you, yeah, would you still think about it when you up? Don't think about me when I'm gone 'Cause I ain't comin' home And you'll be all alone So think about it when you up She be stayin' up Don't think about me when you gone When I ain't comin' home 'Cause I ain't comin' home Runnin', runnin', runnin' the streets And you'll be all alone Runnin', runnin', runnin' the streets So think about me when you up She be stayin' up About me when I'm gone I ain't comin' home About me when I'm gone Runnin', runnin', runnin' the streets Comin' home It's so hard to get sleep Runnin' the streets like a runny nose Ain't no love in the streets when you bleedin' from a bullet hole Like Stanley Yelnats, he caps, his head red The feds' come across, lost, a man's dead Dyslexic, spell Dade Street sweeper clean up the streets like Cascade They back on the rampage, like Quentin Shippin' 'em off to San Quentin Ran wicked with some niggas on the block Still stickin' on the beam Gentrification, junkies, and fiends Workin' later, so I'm sendin' a message off to my queen If I don't make it out alive, you and I Is the only thing important to me, in case I die Message received, she's a blessing indeed Make sure I put something away for when she carry my seed For my unborn son, I got a few words left Be better than me, and everything, on my last dyin' breath, ah She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep She be stayin' up I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep7</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hate Government</t>
+          <t>SHAKE 88</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Anti-American, I'm pro-Assata Write rhymes like a scholar, all about a dollar Dollar equals Allah, put away the scouters You won't see my power, this your final hour On Nefertiti, this is for the city Cut throat, you shouldn't fuck with my committee Kill it, call it Kenny, say it came from Diddy All you other rappers hella Pooh, no Winnie Eeny, meeny, miney, moe, tic-tac-toe Leave a XO on a death note I wrote Flow on a back stroke in my black clothes I'm a asshole, got ghost out the atmos Fear me, departed them now they fear me You want a war, bring the gear please Murdering everyone yearly, sincerely, ultimate They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit They wanna scan on my wrist My whole life been at risk, make a plan for my jit shit Look at the time on my wrist Make a play so legit on my hate government shit36</t>
+          <t>Nothin' but tutti-fruity Get on the floor if you got that booty, booty Nothin' but tutti-fruity Get on the floor if you got that booty, booty FnZ Oh damn She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She throw it back, hands on her knees I got the racks, so bust the cheeks She love to dance, but not for free So name the price, I'll pay the fee You know that ass want it, I put this cash on it The way you bounce that ass, you make them bitches mad, don't you? You want somebody to come and take care your niece, huh? 'Cause you a bad bitch and you don't fuck with fleas, huh? Hello? Here's a little something 'bout a bitch like me Rule number one, don't touch my weave If I ain't pass, don't puff my weed Niggas with money is all I need She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front You want somebody that will take you overseas, yeah You want them ass shots, and want some double D's, yeah You want all diamonds, tryna make your neck freeze, yeah You want Chanel bags and want some double G's, yeah You got that shit all in your bag Got your ex on the side looking mad You want somebody to come and take care your niece, huh? 'Cause you a bad bitch and you don't fuck with fleas, huh? Hello? Here's a little something 'bout a bitch like me Rule number one, don't touch my weave If I ain't pass, don't puff my weed Niggas with money is all I need She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front Now shake that ass, bitch And let me see what you got, now let me see what you got Now shake that ass, bitch And let me see what you got, and let me see what you got Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me3</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Running the Streets</t>
+          <t>Envy Me</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Maybach Music I just wanted you to know you deserve the world I'm apologizin' right now She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets Runnin', runnin', runnin' the streets She be stayin' up I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep Fake niggas always caught up in the realest shit Mama always told me, Watch who you be dealin' with Snake bitches, can't get wrapped up in your feelings with Never watered down, my niggas on some killin' shit Miami mercenaries, really, that's the double M Born baller, baby boy, I be above the rim Quick step, then I plant, just like I'm Durant Peyton Manning with the poems, go look at the stats Went from sleepin' on the floor to pissin' Moët All my teachers sellin' dope, even sold me a sack Wake up in the mornin', so I need to smoke When I really need to keep my queen close MAC-11, dirty money on my prayer rug Say a prayer for me, really show a player love Time to touch a million, did it with finesse Never wait up for me, go and get your rest She be stayin' up She be stayin' up When I ain't comin' home I ain't comin' home Runnin', runnin', runnin' the streets Yeah Runnin', runnin', runnin' the streets She be stayin' up She be stayin' up I ain't comin' home I ain't comin' home Runnin', runnin', runnin' the streets Yeah It's so hard to get sleep She be staying up, we be layin' up, shit When I ain't around, who you layin' up with? Fuckin', fuckin', fuckin' it up and I been Runnin', runnin', runnin' it up, yeah We call it a gang, but that's who I work with Who I put in pain, who I put in work with Always saying something me, when I be Runnin', runnin', runnin' the streets But would you still be fuckin' with me If I was wearin' the same jeans for a week? If I was hungry and I ain't have nothing to eat? Would you, yeah, would you still think about it when you up? Don't think about me when I'm gone 'Cause I ain't comin' home And you'll be all alone So think about it when you up She be stayin' up Don't think about me when you gone When I ain't comin' home 'Cause I ain't comin' home Runnin', runnin', runnin' the streets And you'll be all alone Runnin', runnin', runnin' the streets So think about me when you up She be stayin' up About me when I'm gone I ain't comin' home About me when I'm gone Runnin', runnin', runnin' the streets Comin' home It's so hard to get sleep Runnin' the streets like a runny nose Ain't no love in the streets when you bleedin' from a bullet hole Like Stanley Yelnats, he caps, his head red The feds' come across, lost, a man's dead Dyslexic, spell Dade Street sweeper clean up the streets like Cascade They back on the rampage, like Quentin Shippin' 'em off to San Quentin Ran wicked with some niggas on the block Still stickin' on the beam Gentrification, junkies, and fiends Workin' later, so I'm sendin' a message off to my queen If I don't make it out alive, you and I Is the only thing important to me, in case I die Message received, she's a blessing indeed Make sure I put something away for when she carry my seed For my unborn son, I got a few words left Be better than me, and everything, on my last dyin' breath, ah She be stayin' up When I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep She be stayin' up I ain't comin' home Runnin', runnin', runnin' the streets It's so hard to get sleep7</t>
+          <t>I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me Up in Carol City, me and Lotto in the Charger, when we slide two deep Two deep Can't fuck with the south with a AK-forty-seven bumping T Double-D Double D, nigga! First forty-eight, gotta say it one time, R.I.P. my nigga Bizzle Bizzle!...,,,bizzle Kick, drill, ravish of a nigga think he savage, turn him to a popsicle That's Ice...COLD!, and my last name ain't three-thousand 3000 Bad ass bitch on my t.i.p. Tip Harris, she wet, like an everlasting fountain Still a Hot Boy, bout whatever like, Turk or Wayne, like a motherfuckin' Carter Niggas water whipping, in the hot damn kitchen, like a nigga Avatar, or Katara Remember that it's still fuck the other side, lurking all black, like that boy Plies Snapping, like a fat ho at the Popeye's when she don't get the thigh, the chicken, or the fries So nigga what it be? I can turn my shirt to a ski, fuck feds, not even Ice T Wanna come and ice me, like it's New Jack City,shit looking grim - no Mandy, Billy Cross the chopper line bitch, you better bow down to a nigga greater than yourself...trick Flow is immortal, so therefore I gorde, you do something of it for yourself...trick From the 'Tre deuce, got to keep a deuce deuce, like a nigga lurking in South Cen-TRU South Central Bruh, if you bout that pressure cross that line, fuck nigga state your issue... My nigga I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me Behold these verses, the stars to the churches will all metamorph into seven I'm rocking 'bout four types of polo, you peep that my style it must be Armageddon Apocalypse stop, pop the clip, better bow down now it's all about power Fantasy darker than Swishers, the wicked demented, get hit with the mystical shower Now that's dan-ger grab, on the ban-ger, take down the empire bruh In the hood jits robbin', like Williams,let's hope that they'll never doubt fire Niggas be knocking no cabbage, no UPS person, so tell me what's up with the S? Slithery snakes, with they slithery tongues, salivating salvations with shit on your head Yes, Curry gone mash on these cowards With shells to they back like they Bowser, spit fire - no flower Get smoke, like the OG and sour then head up to Broward You know when the bass turn up louder, 'bout loud as the dro, get to the door I'm shroomed out my mental, like Mario Bros I'm seeing the walls start to kaleidoscope, so I'm guessing that already means that I'm gone It's quite striking that, haters won't tell the truth in front of your face Not the same time, not the same place, so they hate from a greater distance far away You see them in person look 'em in the eye, and they say that that wasn't the case Y'all can suck a dick in advance Like Rich Homie Quan, get the fuck out my face...bitch I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me 13</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SHAKE 88</t>
+          <t>Lord Vader Kush II</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nothin' but tutti-fruity Get on the floor if you got that booty, booty Nothin' but tutti-fruity Get on the floor if you got that booty, booty FnZ Oh damn She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She throw it back, hands on her knees I got the racks, so bust the cheeks She love to dance, but not for free So name the price, I'll pay the fee You know that ass want it, I put this cash on it The way you bounce that ass, you make them bitches mad, don't you? You want somebody to come and take care your niece, huh? 'Cause you a bad bitch and you don't fuck with fleas, huh? Hello? Here's a little something 'bout a bitch like me Rule number one, don't touch my weave If I ain't pass, don't puff my weed Niggas with money is all I need She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front You want somebody that will take you overseas, yeah You want them ass shots, and want some double D's, yeah You want all diamonds, tryna make your neck freeze, yeah You want Chanel bags and want some double G's, yeah You got that shit all in your bag Got your ex on the side looking mad You want somebody to come and take care your niece, huh? 'Cause you a bad bitch and you don't fuck with fleas, huh? Hello? Here's a little something 'bout a bitch like me Rule number one, don't touch my weave If I ain't pass, don't puff my weed Niggas with money is all I need She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front She gon' shake that ass 'cause she only live once She gon' smoke a blunt, then vibe to the front Now shake that ass, bitch And let me see what you got, now let me see what you got Now shake that ass, bitch And let me see what you got, and let me see what you got Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me Now drop it down, drop it down, bust it open for me3</t>
+          <t>Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch I put them L's in the sky, like a nigga sticking up Jésus Arnold Schwarzenegger any nigga chillin' with her Black bitch fuck around her might erase you Flat land bounce that I walk on Sometimes I never seem to walk home 47th Ave down 17th Ave like Rudy Tabootie you in a Chalk Zone All Chicago niggas got 30's, Dade County niggas got K's Carol City nigga from the route,in a stadium, start shit in a 3-2 lane I can show motherfuckers that feel my pain, Uzumaki upon the terrain Niggas killing niggas over bitches, but my nigga this ain't the Django Unchained Shot like Jamie Foxx got the neighborhood watch thinkin' they the fuckin' cops Shoot a nigga pop, pop, pop Damn, but he gets off innocent shots shots Time to expose all of the god damn have-nots Curry, how does the primitive weaponry Risen from nothing but short hand built legacy Honestly it will be done to the death of me Serving no Jeffrey Prince of the Rebel fleets Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch Running getting wicked while I'm bumpin' Biggie Who is the wickedest infidel you ever saw Split the blunt in half with a lightsaber staff Fertilize it with a dab whenever you split the 'gar New age, ice age, I'm a whole boss Stand out like super models in a room with Chris Bosh C9 is the future and my gang be posh Niggas shot the reality, now it's my nigga Tosh Cause my point-0, next episode Give em the chronic that let em' explode D-O double G-izzle it's a dog eat dog world C-nizzle B-gizzle my nigga we run the globe Legendary singer, Will Smith Best of both sides, I'm a walking talking spliff On another level nigga I am you a chef Like meet me in the shower you better get a grip on life Killa clan destined looking for Lotto and astral projection On the other side with a Jesus piece flexin' Like Reed Richards, Mr. Fantastic my bed and my brethren is breathin' Inhale exhale Lucifer calling Jehovah on the Nextel On the 3-2 Avenue to fuck with Denzel As the mystical virus falls frost just like Hell I say Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch18</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Envy Me</t>
+          <t>Good Night</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me Up in Carol City, me and Lotto in the Charger, when we slide two deep Two deep Can't fuck with the south with a AK-forty-seven bumping T Double-D Double D, nigga! First forty-eight, gotta say it one time, R.I.P. my nigga Bizzle Bizzle!...,,,bizzle Kick, drill, ravish of a nigga think he savage, turn him to a popsicle That's Ice...COLD!, and my last name ain't three-thousand 3000 Bad ass bitch on my t.i.p. Tip Harris, she wet, like an everlasting fountain Still a Hot Boy, bout whatever like, Turk or Wayne, like a motherfuckin' Carter Niggas water whipping, in the hot damn kitchen, like a nigga Avatar, or Katara Remember that it's still fuck the other side, lurking all black, like that boy Plies Snapping, like a fat ho at the Popeye's when she don't get the thigh, the chicken, or the fries So nigga what it be? I can turn my shirt to a ski, fuck feds, not even Ice T Wanna come and ice me, like it's New Jack City,shit looking grim - no Mandy, Billy Cross the chopper line bitch, you better bow down to a nigga greater than yourself...trick Flow is immortal, so therefore I gorde, you do something of it for yourself...trick From the 'Tre deuce, got to keep a deuce deuce, like a nigga lurking in South Cen-TRU South Central Bruh, if you bout that pressure cross that line, fuck nigga state your issue... My nigga I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me Behold these verses, the stars to the churches will all metamorph into seven I'm rocking 'bout four types of polo, you peep that my style it must be Armageddon Apocalypse stop, pop the clip, better bow down now it's all about power Fantasy darker than Swishers, the wicked demented, get hit with the mystical shower Now that's dan-ger grab, on the ban-ger, take down the empire bruh In the hood jits robbin', like Williams,let's hope that they'll never doubt fire Niggas be knocking no cabbage, no UPS person, so tell me what's up with the S? Slithery snakes, with they slithery tongues, salivating salvations with shit on your head Yes, Curry gone mash on these cowards With shells to they back like they Bowser, spit fire - no flower Get smoke, like the OG and sour then head up to Broward You know when the bass turn up louder, 'bout loud as the dro, get to the door I'm shroomed out my mental, like Mario Bros I'm seeing the walls start to kaleidoscope, so I'm guessing that already means that I'm gone It's quite striking that, haters won't tell the truth in front of your face Not the same time, not the same place, so they hate from a greater distance far away You see them in person look 'em in the eye, and they say that that wasn't the case Y'all can suck a dick in advance Like Rich Homie Quan, get the fuck out my face...bitch I'mma keep balling, 'til they envy me 21 guns, for my enemies Niggas got some, ho ass tendencies Cash out, I'm ballin', til they envy me My enemies, motherfuck my enemies Cause I'ma keep ballin', til they envy me My enemies, motherfuck my enemies Cause, I'ma keep ballin', til they envy me 13</t>
+          <t>Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight It's ironic how it's crabs in the bucket but I'm coming from the sea Snapping at me, the poetry Dead on the street 'cause they lost in hate Jit wanna get his stripes, eat some Frosted Flakes Off to say communities we have no place Even though the real victim is who caught the case My Golden State all about the green, Draymond Stay away from being a convict, Akon Come to Carol City where the fun don't end Till a nigga get to dumping like an ex-girlfriend Stay in, bow your head we prayin' For a bad bitch able to come on the weekend uh! And if I said it I did it in pretense uh! If you don't get it then please just pretend I spied through my mahogany brown eyes The sun will still rise, I thank the most high The sun will keep on shining I'ma keep on shining The sun gon' keep on shining Give love to the most high God Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight I can't even begin to explain the type of epidemics representing Carol City Killings, Dealings, youngins really ill in these streets We tryna make a way to put the foolishness to sleep Keep mixing the antidote No nonsense my mind molds metallic gold Clear my conscience cause it's harder come to recognize I got a clean slate And finally getting to the point of feeling free beats Hover my energy Body scars put the pain in my heartbeat so I gotta drop ether We touch the soul because we young niggas that gotta eat They perpetrating promoting the shit they gotta reap My family is the reason that I even speak Every decent memory of people still be living shife And you ain't really gotta die to lose your life Think about it, it's a lot of niggas living outta sight Hype got you niggas ride the pipe as we reaching higher heights The sun will keep on shining I'ma keep on shining The sun gon' keep on shining Give love to the most high God Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon make it to the daylight Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight9</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lord Vader Kush II</t>
+          <t>Bloodshed</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch I put them L's in the sky, like a nigga sticking up Jésus Arnold Schwarzenegger any nigga chillin' with her Black bitch fuck around her might erase you Flat land bounce that I walk on Sometimes I never seem to walk home 47th Ave down 17th Ave like Rudy Tabootie you in a Chalk Zone All Chicago niggas got 30's, Dade County niggas got K's Carol City nigga from the route,in a stadium, start shit in a 3-2 lane I can show motherfuckers that feel my pain, Uzumaki upon the terrain Niggas killing niggas over bitches, but my nigga this ain't the Django Unchained Shot like Jamie Foxx got the neighborhood watch thinkin' they the fuckin' cops Shoot a nigga pop, pop, pop Damn, but he gets off innocent shots shots Time to expose all of the god damn have-nots Curry, how does the primitive weaponry Risen from nothing but short hand built legacy Honestly it will be done to the death of me Serving no Jeffrey Prince of the Rebel fleets Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch Running getting wicked while I'm bumpin' Biggie Who is the wickedest infidel you ever saw Split the blunt in half with a lightsaber staff Fertilize it with a dab whenever you split the 'gar New age, ice age, I'm a whole boss Stand out like super models in a room with Chris Bosh C9 is the future and my gang be posh Niggas shot the reality, now it's my nigga Tosh Cause my point-0, next episode Give em the chronic that let em' explode D-O double G-izzle it's a dog eat dog world C-nizzle B-gizzle my nigga we run the globe Legendary singer, Will Smith Best of both sides, I'm a walking talking spliff On another level nigga I am you a chef Like meet me in the shower you better get a grip on life Killa clan destined looking for Lotto and astral projection On the other side with a Jesus piece flexin' Like Reed Richards, Mr. Fantastic my bed and my brethren is breathin' Inhale exhale Lucifer calling Jehovah on the Nextel On the 3-2 Avenue to fuck with Denzel As the mystical virus falls frost just like Hell I say Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Betcha Rozay never ever heard no shit like this Huh New age of the Ice Age, cut cloth from this Carol City shit Lord Vader Kush Staying all black Niggas wanna be with it in a gang Roll up on a sucker hit him with the click clack 3-2 Zel Anakin Skywalker pack Burn a motherfucker to the ashes Make sure a pig don't come back Fuck niggas envy me because I'ma ball 6 man shawty I'ma ball until I fall Fuck niggas they envy me cause I'ma ball 6 man shawty I'ma ball until I fall Bitch18</t>
+          <t>Bitch, I'm ultimate When I flow, I drop bombs like a Soviet Not a communist, but I'm anonymous Zero tolerance if niggas talking shit Now you talking, the end of the partnership Had to cut that bitch off Send that bitch off with a fucking sawed-off Being too nice isn't giving a fuck 'Cause these internet niggas be thinking I'm soft What are you, lost? Come down the one way I don't fuck with none of you niggas the long way Stepping to the Ultimate is the wrong way I'm a real ass nigga, y'all boys is anime Characters, I will embarrass you You don't want war in this game, ain't no challenger, boy Rather get paper and stack it, my boy With a bad bitch in a Challenger, boy You don't want no motherfucking problems You don't want beef, might as well play possum, dead Kneel before the almighty dread Reiterate everything that I said Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Biatch Bitch, I'm ultimate When I'm spitting it's lyrical syphilis I'm intelligent but I get ignorant Not so famous but yet I am infamous I'm a dick and y'all niggas is feminist, put the ill in the Iliad Fuck that I'm taking the odd out of Odyssey Denzel got a murdering policy With no remorse, not accepting apologies No jewelries, speaking tomfoolery Fuck the rap game, I'ma speak at my eulogy Bury them Like a smoothie, my nigga, I bury them In this world I feel like a terrarium Out of my cranium, back in my stadium, starship Giving you all of my hardship Don't give a fuck about a car, whip, slip You don't want no motherfucking problem You don't want beef, might as well play possum, dead Kneel before the almighty dread Reiterate everything that I said Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Biatch28</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Good Night</t>
+          <t>TWISTIN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight It's ironic how it's crabs in the bucket but I'm coming from the sea Snapping at me, the poetry Dead on the street 'cause they lost in hate Jit wanna get his stripes, eat some Frosted Flakes Off to say communities we have no place Even though the real victim is who caught the case My Golden State all about the green, Draymond Stay away from being a convict, Akon Come to Carol City where the fun don't end Till a nigga get to dumping like an ex-girlfriend Stay in, bow your head we prayin' For a bad bitch able to come on the weekend uh! And if I said it I did it in pretense uh! If you don't get it then please just pretend I spied through my mahogany brown eyes The sun will still rise, I thank the most high The sun will keep on shining I'ma keep on shining The sun gon' keep on shining Give love to the most high God Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight I can't even begin to explain the type of epidemics representing Carol City Killings, Dealings, youngins really ill in these streets We tryna make a way to put the foolishness to sleep Keep mixing the antidote No nonsense my mind molds metallic gold Clear my conscience cause it's harder come to recognize I got a clean slate And finally getting to the point of feeling free beats Hover my energy Body scars put the pain in my heartbeat so I gotta drop ether We touch the soul because we young niggas that gotta eat They perpetrating promoting the shit they gotta reap My family is the reason that I even speak Every decent memory of people still be living shife And you ain't really gotta die to lose your life Think about it, it's a lot of niggas living outta sight Hype got you niggas ride the pipe as we reaching higher heights The sun will keep on shining I'ma keep on shining The sun gon' keep on shining Give love to the most high God Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon make it to the daylight Even if they hit me on sight Everything gon' be alright Everybody have a good night We gon' make it to the daylight9</t>
+          <t>L.A.P.D. Police Station... Yes, I'd like to report a murdera dead body, or something Where at? In the alley Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner KLVN 1999, Raven Miyagi I stay on my grind, ever since they took Chyne I break out that Nine, aim it and cock it Don't fuck nigga drop it, I shoot it, they pop it I lay down the line just like a pipe Like a blunt gettin' sliced at the end of a scythe Grim to the reaper, I'm 'bout to get deeper Blackland, Carol City my shit day and night Bitch, fuck a man on the moon I'm Captain Planet, I'm plantin' the shrooms Evacuate the fuckin' premises lyricists Evidence running with Raider Klan goons, all black Ugly Mane Just like from Memphis, I'm makin' a stang Hoes talk that shit, and they always run game But when niggas beckon, they screaming yo name Fuck them stupid hoes, really that's the way it goes I bought Triple Six and Outkast's Greatest Hits So niggas can't touch me, a friend or a foe And Slikk, I fucked up yo shit, young nigga, yo ass gone lame I'm the best outta Carol City, ever since Gunplay Denzel Curry, ho Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Listen young man, I can pop you with one hand Rob you with the other, Ugly Mane, I go dumb ham I'm a one man unaffiliated private institution Don't confuse it, me and Raider Klan is tight as nooses All black Zeus-in', it gets gruseome if you slippin' Leave you imprisoned inside of a chalk line around your final position Got this forty that I'm sippin', 'cause it's boring with no competition I'm slidin' through the hood on these Ds that I'm twistin' This is for the playas, this is for the runners This is for them hustlers smokin' herb in abundance Flippin' nothin less than onions, pullin' guns as big as Paul Bunyan We keep it more than underground, we in the dungeon Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner14</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bloodshed</t>
+          <t>AL1ENZ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Bitch, I'm ultimate When I flow, I drop bombs like a Soviet Not a communist, but I'm anonymous Zero tolerance if niggas talking shit Now you talking, the end of the partnership Had to cut that bitch off Send that bitch off with a fucking sawed-off Being too nice isn't giving a fuck 'Cause these internet niggas be thinking I'm soft What are you, lost? Come down the one way I don't fuck with none of you niggas the long way Stepping to the Ultimate is the wrong way I'm a real ass nigga, y'all boys is anime Characters, I will embarrass you You don't want war in this game, ain't no challenger, boy Rather get paper and stack it, my boy With a bad bitch in a Challenger, boy You don't want no motherfucking problems You don't want beef, might as well play possum, dead Kneel before the almighty dread Reiterate everything that I said Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Biatch Bitch, I'm ultimate When I'm spitting it's lyrical syphilis I'm intelligent but I get ignorant Not so famous but yet I am infamous I'm a dick and y'all niggas is feminist, put the ill in the Iliad Fuck that I'm taking the odd out of Odyssey Denzel got a murdering policy With no remorse, not accepting apologies No jewelries, speaking tomfoolery Fuck the rap game, I'ma speak at my eulogy Bury them Like a smoothie, my nigga, I bury them In this world I feel like a terrarium Out of my cranium, back in my stadium, starship Giving you all of my hardship Don't give a fuck about a car, whip, slip You don't want no motherfucking problem You don't want beef, might as well play possum, dead Kneel before the almighty dread Reiterate everything that I said Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate Denzel, why you had to make bloodshed? 'Cause a fuck nigga fucked with the ultimate 28 in a clip, I'ma shoot what's left Fucking with a black star, but I ain't Mos Def Biatch28</t>
+          <t>Oh ! Les bras en lair, ça peut tuer I am the best rapper alive Je suis le meilleur rappeur français en vie Brah ! Forever Young, allez viens on temmène, Forever Young On les emmerde, un million dproblèmes, on les enterre On veut être millionnaire, Forever Young, levez les mains en lair Jmène ma guérilla, cest du Alonz Je viens des cités dor, je ne veux pas dbronze Cest la Black Machine, chicha qua le goût résine Je vaux 1 milliard en kidnapping Et cest le retour de K.A.S.S.I.M PIMP ! 2 milliard de clip sur Google Chine, wallah reste tranquille La baraka même sous bière fine Jcabre Saint Antoine, Bougainville À deux doigts davoir les cheveux longs défrisés comme les ptits dma ville Click-Click PAH ! PAH ! Cest moi qui tire, mettez-vous dans la file Tapage nocturne dans ta cité Lalbum est sorti, les 3.2 écoutent papé Bourricot ouais jsuis au top, je suis prêt à mettre les gaz Quel corps sur le sol sera dessiné Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Jvais les fumer Motherfuck jai la santé, les couilles à Béné Belafomouk, je suis sur la route, jarrive au taquet Poussez, poussez Ajax, Tottenham Fenerbahce, Hooligan No Limit, Menace de société Et sucez-nous la bite, on arrive, ça va péter Ça va péter ! Campeón Campeón !, popular On a affrété un jet, avec deuxtrois chars Deuxtrois chattes mais je suis le Capo dei Capi Jachète larbitre et le match, appelle-moi Aulas ou Tapie Wallah recule sinon jappuie, jsuis Marseille mais en pleine forme Plusieurs Luciano, Alonz', imagine lalbum Monstre, jai la frappe, jai le seum, le bon, celui qui t'explose Jvais mourir en studio par overdose Cest la nuit dnoce, le rap français jvais lui fourrer Direction Las Vegas, jvais lexporter, hors de portée Dans les cordes, loreille je vais lui mordre Jai 2054 raisons denculer la concurrence, vous verrez, vous-verrez, vous verrez Game-Game Over ! 1</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TWISTIN</t>
+          <t>Unmask</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>L.A.P.D. Police Station... Yes, I'd like to report a murdera dead body, or something Where at? In the alley Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner KLVN 1999, Raven Miyagi I stay on my grind, ever since they took Chyne I break out that Nine, aim it and cock it Don't fuck nigga drop it, I shoot it, they pop it I lay down the line just like a pipe Like a blunt gettin' sliced at the end of a scythe Grim to the reaper, I'm 'bout to get deeper Blackland, Carol City my shit day and night Bitch, fuck a man on the moon I'm Captain Planet, I'm plantin' the shrooms Evacuate the fuckin' premises lyricists Evidence running with Raider Klan goons, all black Ugly Mane Just like from Memphis, I'm makin' a stang Hoes talk that shit, and they always run game But when niggas beckon, they screaming yo name Fuck them stupid hoes, really that's the way it goes I bought Triple Six and Outkast's Greatest Hits So niggas can't touch me, a friend or a foe And Slikk, I fucked up yo shit, young nigga, yo ass gone lame I'm the best outta Carol City, ever since Gunplay Denzel Curry, ho Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Listen young man, I can pop you with one hand Rob you with the other, Ugly Mane, I go dumb ham I'm a one man unaffiliated private institution Don't confuse it, me and Raider Klan is tight as nooses All black Zeus-in', it gets gruseome if you slippin' Leave you imprisoned inside of a chalk line around your final position Got this forty that I'm sippin', 'cause it's boring with no competition I'm slidin' through the hood on these Ds that I'm twistin' This is for the playas, this is for the runners This is for them hustlers smokin' herb in abundance Flippin' nothin less than onions, pullin' guns as big as Paul Bunyan We keep it more than underground, we in the dungeon Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner Rollin' in my hood, twistin' on them Ds Hangin' with my partners, tossin' forties on the corner14</t>
+          <t>DJ Patt on the beat Captain Crunch presents Free Nell, Free Slikk Back in the day when a nigga trip six Now a nigga trip scene On the Internet tip Let's talk about the Internet chick Let me get back on topic On how Curry was the top pick To hold the whole sun in his hands till he drops hot shit I got the game interlocked swift in a box sucked in 'Cause I'm thinking outside of it That's how I got a house and a whip Some niggas shout, Fuck, for the cream Floss like a river at the dentist Lifestyle imaginary who will fuck your image All you niggas only in it for the motherfucking scrimmage Put that on lotto mane Why all them niggas all sound the same Like pinky you better use your brain Focus on the past only make you lame Black metal jackets full metal jackets Fucking with the kilo like Allen, I'm blasting Thinking about my passion I'm sick of being passive Pastor you ain't even got the fucking answers Kanye West it, Smith Wesson Blasting on these motherfuckers ducking like Aflac Here's to the other slave running for Aztec Ayy On acid fucking my heart no batches Ayy, ayy Hahahaha, thank you, Curry Yuh, yuh Like a truck with me Do a buck fifty If she fuck with me Then she stuck with me What you doing I'm busting, busting, busting, busting, busting, I'm busting Pussy nigga cross-eyed, sipping on tussin' Got a new bitch, sound like Siri, she Russian She tried to suck and suck my dick just like a musket You're my whore, ayy, you're my whore, ayy Diamonds they got acne blackheads, I'm on par I don't need your car, I got face card, ayy Diamonds walk it out up on your boulevard Okay, like your bitch be killing me Said that she feeling me Jet like I'm big that bitch into me, mmm Pockets Yo Gotti, they hopped in the Mase' My chain is a sin cuz it's killing me, ayy My nigga Xen got the pistol piece, uh My nigga Curry don't keep the peace, uh This is the gift that I give to ye, uhh Drown in designer, my necklace piece, bitch Niggas in the cut who head fucked, ayy Ayy, ayy, ayy! Bitch I do this for my niggas in the cut Who head fucked up Ain't never had to clutch A pistol we'll stomp That nigga will cut Straight through his jugular They drag him through that mud Burn his body up My niggas don't move in silence We in the venue, we riot Fuck nigga, need I remind you Xen ain't no wavy, I'm virus Spreading the chaos, so layup and stay out the Lambo', you about to get tucked Tucked Talking and bumping them guns I'm coming in, coming, you pussy get fucked Ayy Nigga know that If and when your pistol loaded You can never kill a soldier If it ain't his time to go yet Now let that simmer in 'Cause I been planning it Who trying to bring Xen in But they just can't finish him Ayy Shoutout to my brothers who gonna fight for they vision They gotta fight to stay alive in this life we living Damn7</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AL1ENZ</t>
+          <t>CAROLMART</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Oh ! Les bras en lair, ça peut tuer I am the best rapper alive Je suis le meilleur rappeur français en vie Brah ! Forever Young, allez viens on temmène, Forever Young On les emmerde, un million dproblèmes, on les enterre On veut être millionnaire, Forever Young, levez les mains en lair Jmène ma guérilla, cest du Alonz Je viens des cités dor, je ne veux pas dbronze Cest la Black Machine, chicha qua le goût résine Je vaux 1 milliard en kidnapping Et cest le retour de K.A.S.S.I.M PIMP ! 2 milliard de clip sur Google Chine, wallah reste tranquille La baraka même sous bière fine Jcabre Saint Antoine, Bougainville À deux doigts davoir les cheveux longs défrisés comme les ptits dma ville Click-Click PAH ! PAH ! Cest moi qui tire, mettez-vous dans la file Tapage nocturne dans ta cité Lalbum est sorti, les 3.2 écoutent papé Bourricot ouais jsuis au top, je suis prêt à mettre les gaz Quel corps sur le sol sera dessiné Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Jvais les fumer Motherfuck jai la santé, les couilles à Béné Belafomouk, je suis sur la route, jarrive au taquet Poussez, poussez Ajax, Tottenham Fenerbahce, Hooligan No Limit, Menace de société Et sucez-nous la bite, on arrive, ça va péter Ça va péter ! Campeón Campeón !, popular On a affrété un jet, avec deuxtrois chars Deuxtrois chattes mais je suis le Capo dei Capi Jachète larbitre et le match, appelle-moi Aulas ou Tapie Wallah recule sinon jappuie, jsuis Marseille mais en pleine forme Plusieurs Luciano, Alonz', imagine lalbum Monstre, jai la frappe, jai le seum, le bon, celui qui t'explose Jvais mourir en studio par overdose Cest la nuit dnoce, le rap français jvais lui fourrer Direction Las Vegas, jvais lexporter, hors de portée Dans les cordes, loreille je vais lui mordre Jai 2054 raisons denculer la concurrence, vous verrez, vous-verrez, vous verrez Game-Game Over ! 1</t>
+          <t>You know, being from Dade County We do the fly shit naturally, man We do the stuntin' shit naturally, why? Huh, 'cause we blendin' in with the environment man, haha Ayy FnZ Oh damn South Florida might be the most beautifulest place in the land, homie Look at all these bad bitches How can you not ride with one in the drop? How can you not catch a stunt in the most perfectest weather the Earth's got? I got a pocket full of money and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh A real-ass nigga from the 305 I was raised off of Trina, Trick, Rick, and Plies When it comes to that green shit, I am anti 'Cause I'd rather see a man live than a man die Run down or you run track, oh, that boy cat Get the gat, make it go brrat, leave that boy flat All black, make the back block look like Baghdad Play the track, it's a special way I fold my flag, uh Pocket full of money and my teeth glitter Somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh Hear the bass down the block 'cause the trunk keep knockin' Got them bushid blades 'cause the rims keep choppin' UM for the swag to get Miami poppin' You could smoke a lil' weed long as you ain't flockin' Put Dade on the map, gotta stay with a strap Stay away from a roach 'cause they raidin' the trap I'm the Raiden of rap when they tell that boy, Finish him It's nothin' but fatalities, them crackers gon' sentence 'em, huh Pocket full of money, and my teeth glitter Somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money, and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money, and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh It depends on if the bitches feel like playin' today But you know they always with it, Curry, hah Ayy, I'm out this bitch, man, Yayo6</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Unmask</t>
+          <t>Troubles</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DJ Patt on the beat Captain Crunch presents Free Nell, Free Slikk Back in the day when a nigga trip six Now a nigga trip scene On the Internet tip Let's talk about the Internet chick Let me get back on topic On how Curry was the top pick To hold the whole sun in his hands till he drops hot shit I got the game interlocked swift in a box sucked in 'Cause I'm thinking outside of it That's how I got a house and a whip Some niggas shout, Fuck, for the cream Floss like a river at the dentist Lifestyle imaginary who will fuck your image All you niggas only in it for the motherfucking scrimmage Put that on lotto mane Why all them niggas all sound the same Like pinky you better use your brain Focus on the past only make you lame Black metal jackets full metal jackets Fucking with the kilo like Allen, I'm blasting Thinking about my passion I'm sick of being passive Pastor you ain't even got the fucking answers Kanye West it, Smith Wesson Blasting on these motherfuckers ducking like Aflac Here's to the other slave running for Aztec Ayy On acid fucking my heart no batches Ayy, ayy Hahahaha, thank you, Curry Yuh, yuh Like a truck with me Do a buck fifty If she fuck with me Then she stuck with me What you doing I'm busting, busting, busting, busting, busting, I'm busting Pussy nigga cross-eyed, sipping on tussin' Got a new bitch, sound like Siri, she Russian She tried to suck and suck my dick just like a musket You're my whore, ayy, you're my whore, ayy Diamonds they got acne blackheads, I'm on par I don't need your car, I got face card, ayy Diamonds walk it out up on your boulevard Okay, like your bitch be killing me Said that she feeling me Jet like I'm big that bitch into me, mmm Pockets Yo Gotti, they hopped in the Mase' My chain is a sin cuz it's killing me, ayy My nigga Xen got the pistol piece, uh My nigga Curry don't keep the peace, uh This is the gift that I give to ye, uhh Drown in designer, my necklace piece, bitch Niggas in the cut who head fucked, ayy Ayy, ayy, ayy! Bitch I do this for my niggas in the cut Who head fucked up Ain't never had to clutch A pistol we'll stomp That nigga will cut Straight through his jugular They drag him through that mud Burn his body up My niggas don't move in silence We in the venue, we riot Fuck nigga, need I remind you Xen ain't no wavy, I'm virus Spreading the chaos, so layup and stay out the Lambo', you about to get tucked Tucked Talking and bumping them guns I'm coming in, coming, you pussy get fucked Ayy Nigga know that If and when your pistol loaded You can never kill a soldier If it ain't his time to go yet Now let that simmer in 'Cause I been planning it Who trying to bring Xen in But they just can't finish him Ayy Shoutout to my brothers who gonna fight for they vision They gotta fight to stay alive in this life we living Damn7</t>
+          <t>Boop, boop Woah, Kenny Ooh Got some troubles that these drugs can't fix Can't fix We must struggle because life's a bitch Haha Think you happy when your ass get rich Get rich Blow my money 'cause a bag ain't shit Ooh Got some troubles that these drugs can't fix Hell nah We must struggle because life's a bitch Nah, bitch Think you happy when your ass get rich Get that money Blow my money 'cause a bag ain't shit I just lost my house to the drought, ayy Damn Now I'm stayin' on my momma couch, ayy Damn Told me get a job or to bounce, ayy Bounce Never paid a bill, I cop a ounce, ayy Ounce I could spend a twnty on a dub Ayy But I can't even spend it on som shit I really love For real I need some TLC but bitches treat me like a scrub Scrub I gotta drive my momma car to pull up to the club Club Ain't nothin' left to do but now a nigga gotta hustle Hell nah I got it out the mud and then I did it off the muscle Ayy, that's tough Maneuver through the game, I put my niggas in the huddle Now we all just runnin' routes, some fittin' pieces to the puzzle My nigga, ayy Ah Got some problems that the music can't fix Can't fix Whole squad, everybody on my dick Get off my dick More money, more problems, and we lit They lit All my exes textin', sayin' I ain't, uh, shit Shit She said, Get the bag, go and be yourself 'Self Pretty bitches sayin' I need to be myself 'Self When I was down bad and I needed help Help Passin' by me on the street, you should've seen yourself Uh Yeah, how did you not remember how it was then? Then, then Now all the sudden, I got new cousins Kin, kin Hollering up on my gate, tryna get buzzed in, huh Hm, hm If you don't give a damn, I don't give a fuck I can't swim, I got a pool and I'ma drown in it Drown in it Drunk under water, they goin' clown fishin' Clown fishin' I be on my own, don't be announcin' shit Woah The chopper make beautiful music, play around with it Ain't nothin' left to do but now a nigga gotta hustle Hell nah I got it out the mud and then I did it off the muscle That's tough, yeah Maneuver through the game, I put my niggas in the huddle Yeah Now we all just runnin' routes, some fittin' pieces to the puzzle My nigga, ayy Got some troubles that these drugs can't fix Can't fix We must struggle because life's a bitch Uh, uh Think you happy when your ass get rich Get rich Blow my money 'cause a bag ain't shit Ooh Got some troubles that these drugs can't fix Hell nah We must struggle because life's a bitch Nah, bitch Think you happy when your ass get rich Get that money Blow my money 'cause a bag ain't Shit Bitch, I'm high Ayy, bitch Shit Uh, ayy-ayy Shit17</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CAROLMART</t>
+          <t>Lemonade</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>You know, being from Dade County We do the fly shit naturally, man We do the stuntin' shit naturally, why? Huh, 'cause we blendin' in with the environment man, haha Ayy FnZ Oh damn South Florida might be the most beautifulest place in the land, homie Look at all these bad bitches How can you not ride with one in the drop? How can you not catch a stunt in the most perfectest weather the Earth's got? I got a pocket full of money and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh A real-ass nigga from the 305 I was raised off of Trina, Trick, Rick, and Plies When it comes to that green shit, I am anti 'Cause I'd rather see a man live than a man die Run down or you run track, oh, that boy cat Get the gat, make it go brrat, leave that boy flat All black, make the back block look like Baghdad Play the track, it's a special way I fold my flag, uh Pocket full of money and my teeth glitter Somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh Hear the bass down the block 'cause the trunk keep knockin' Got them bushid blades 'cause the rims keep choppin' UM for the swag to get Miami poppin' You could smoke a lil' weed long as you ain't flockin' Put Dade on the map, gotta stay with a strap Stay away from a roach 'cause they raidin' the trap I'm the Raiden of rap when they tell that boy, Finish him It's nothin' but fatalities, them crackers gon' sentence 'em, huh Pocket full of money, and my teeth glitter Somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money, and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh I got a pocket full of money, and my teeth glitter It's somethin' 'bout bein' a trill ass nigga I'm so fresh I'm so fresh It depends on if the bitches feel like playin' today But you know they always with it, Curry, hah Ayy, I'm out this bitch, man, Yayo6</t>
+          <t>Yeah Let me sip my lean, mix it with the lemonade Only mix it with that Minute Maid, lemonade Turn a nigga wife into a minute maid nigga Minute maid, rice on that minute, ayy hold up Yeah, I only mix it with the lemonade, yeah I turned a nigga wife into a minute maid, yeah Minute-made rice on the lemon steak, yeah Put your main bitch on a dinner plate, yeah Huh, it's your friend huh? Tell that bitch to go and hop on in, yeah She freaky, she came again And again, and again yeah She said Zay let me call six more friends yeah I said okay, I'ma go'n and get 'em in yeah Tell 'em when they get to the gate Hit the code, I'll buzz 'em in yeah Too many drugs, now they on a drug binge, yeah These hoes trippin' nigga These hoes slippin' and they dippin' They'll get you nigga You better not be around trippin' Forget it nigga I ain't giving out hand outs to none of you niggas You bitches nigga, you snitches nigga, hah, yeah I don't leave my cash out 'round the house When I got these hoes runnin' 'bout, nigga That's where the fuck you fucked up at Told your bitch where your stash spot was at and then she took that TYBG, salute the bitch nigga I got respect for any ho out here tricking niggas 'Cause I ain't never even fucked witcha So I don't give a fuck to even care to fuck witcha nigga, who? Is this his bitch, we got his bitch, we made her switch that Yeah, now she tweakin', now she geekin', she too live man We got her twerking, doing lines on a handstand He mad as fuck because he never got to witness that Yeah, I only mix it with the lemonade I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate Yeah nigga, I only mix it with that Minute Maid Yeah I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate I got five bitches doin' coke with me Don't aim it, don't play semi, put that thirty to your belly Call Wulf, got the draco, it get scary No Mercy, can't pay Mary, man this K like Tom Jerry, wait Pour an eight Fuck your lil bitch, yeah I'm straight Hop in my straight I get the cake every day, what Write your name right on the K Write your name right on the K I get that money, no break I'm running right to the cake Dexter I only mix it with the lemonade I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate Yeah nigga, I only mix it with that Minute Maid Yeah I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate1</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Troubles</t>
+          <t>Bulls On Parade (triple j Like A Version)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Boop, boop Woah, Kenny Ooh Got some troubles that these drugs can't fix Can't fix We must struggle because life's a bitch Haha Think you happy when your ass get rich Get rich Blow my money 'cause a bag ain't shit Ooh Got some troubles that these drugs can't fix Hell nah We must struggle because life's a bitch Nah, bitch Think you happy when your ass get rich Get that money Blow my money 'cause a bag ain't shit I just lost my house to the drought, ayy Damn Now I'm stayin' on my momma couch, ayy Damn Told me get a job or to bounce, ayy Bounce Never paid a bill, I cop a ounce, ayy Ounce I could spend a twnty on a dub Ayy But I can't even spend it on som shit I really love For real I need some TLC but bitches treat me like a scrub Scrub I gotta drive my momma car to pull up to the club Club Ain't nothin' left to do but now a nigga gotta hustle Hell nah I got it out the mud and then I did it off the muscle Ayy, that's tough Maneuver through the game, I put my niggas in the huddle Now we all just runnin' routes, some fittin' pieces to the puzzle My nigga, ayy Ah Got some problems that the music can't fix Can't fix Whole squad, everybody on my dick Get off my dick More money, more problems, and we lit They lit All my exes textin', sayin' I ain't, uh, shit Shit She said, Get the bag, go and be yourself 'Self Pretty bitches sayin' I need to be myself 'Self When I was down bad and I needed help Help Passin' by me on the street, you should've seen yourself Uh Yeah, how did you not remember how it was then? Then, then Now all the sudden, I got new cousins Kin, kin Hollering up on my gate, tryna get buzzed in, huh Hm, hm If you don't give a damn, I don't give a fuck I can't swim, I got a pool and I'ma drown in it Drown in it Drunk under water, they goin' clown fishin' Clown fishin' I be on my own, don't be announcin' shit Woah The chopper make beautiful music, play around with it Ain't nothin' left to do but now a nigga gotta hustle Hell nah I got it out the mud and then I did it off the muscle That's tough, yeah Maneuver through the game, I put my niggas in the huddle Yeah Now we all just runnin' routes, some fittin' pieces to the puzzle My nigga, ayy Got some troubles that these drugs can't fix Can't fix We must struggle because life's a bitch Uh, uh Think you happy when your ass get rich Get rich Blow my money 'cause a bag ain't shit Ooh Got some troubles that these drugs can't fix Hell nah We must struggle because life's a bitch Nah, bitch Think you happy when your ass get rich Get that money Blow my money 'cause a bag ain't Shit Bitch, I'm high Ayy, bitch Shit Uh, ayy-ayy Shit17</t>
+          <t>Come wit' it now Come wit' it now The microphone explodes, shattering the mold Either drop the hits like de la O or get the fuck off the commode With the sure shot, sure to make a body drop Drop and don't copy, yo, don't call this a co-op Terror rains drenchin', quenchin' the thirst Of the power don, that five-sided Fistagon The rotten sore on the face of Mother Earth gets bigger The triggers cold, empty your purse Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Weapons, not food, not homes, not shoes No need, just feed the war, cannibal animal I walk the corner to the rubble, that used to be a library Line up to the mind cemetery, now What we don't know keep the contracts alive and moving They don't gotta burn the books, they just remove 'em While arms warehouses fill as quick as the cells Rally 'round the family, pocket full of shells Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Listen, birds chirpin', dogs barkin', kids missin', milk cartons Soul dark as black markets, war is startin', more is sparkin' Glory prophets praise Muhammad Diff'rent Strokes, Philip Drummond Gave me crack, like I'm plumbin', Jesus Christ, second comin' Cut myself, now I'm numbin', never scared, never runnin' Chosen one, I'm one hunnid, pray for me, pray for London Guilty me, he ain't done and gun me down, all for nothin' Precedent in abundance, president is a puppet Gotta hate it, gotta love it, pass a class, I rise above it Wise enough, advise the public, pistol bust, screamin', Fuck it Donald Trump, Donald Duck, what the fuck is the difference? Now, we stuck in a rut, this ain't what I envisioned What is what? What is guts when you don't have intuition? Not a saint, not a sin, tell me, what's my real religion? Genocide, Genesis, they say it's a new beginning I'm a sinner, you a sinner, I can see the devil grinning Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Bulls on parade Come wit' it now Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade13</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lemonade</t>
+          <t>CHARLIE SHEEN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Yeah Let me sip my lean, mix it with the lemonade Only mix it with that Minute Maid, lemonade Turn a nigga wife into a minute maid nigga Minute maid, rice on that minute, ayy hold up Yeah, I only mix it with the lemonade, yeah I turned a nigga wife into a minute maid, yeah Minute-made rice on the lemon steak, yeah Put your main bitch on a dinner plate, yeah Huh, it's your friend huh? Tell that bitch to go and hop on in, yeah She freaky, she came again And again, and again yeah She said Zay let me call six more friends yeah I said okay, I'ma go'n and get 'em in yeah Tell 'em when they get to the gate Hit the code, I'll buzz 'em in yeah Too many drugs, now they on a drug binge, yeah These hoes trippin' nigga These hoes slippin' and they dippin' They'll get you nigga You better not be around trippin' Forget it nigga I ain't giving out hand outs to none of you niggas You bitches nigga, you snitches nigga, hah, yeah I don't leave my cash out 'round the house When I got these hoes runnin' 'bout, nigga That's where the fuck you fucked up at Told your bitch where your stash spot was at and then she took that TYBG, salute the bitch nigga I got respect for any ho out here tricking niggas 'Cause I ain't never even fucked witcha So I don't give a fuck to even care to fuck witcha nigga, who? Is this his bitch, we got his bitch, we made her switch that Yeah, now she tweakin', now she geekin', she too live man We got her twerking, doing lines on a handstand He mad as fuck because he never got to witness that Yeah, I only mix it with the lemonade I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate Yeah nigga, I only mix it with that Minute Maid Yeah I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate I got five bitches doin' coke with me Don't aim it, don't play semi, put that thirty to your belly Call Wulf, got the draco, it get scary No Mercy, can't pay Mary, man this K like Tom Jerry, wait Pour an eight Fuck your lil bitch, yeah I'm straight Hop in my straight I get the cake every day, what Write your name right on the K Write your name right on the K I get that money, no break I'm running right to the cake Dexter I only mix it with the lemonade I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate Yeah nigga, I only mix it with that Minute Maid Yeah I turned a nigga new wife into a minute maid, yeah Minute-made rice chillin' on the lemon steak I don't give no fuck 'bout none of you haters, I put y'all on a plate1</t>
+          <t>I'ma go crazy for the whole year 'Cause a nigga too solid like Metal Gear Got no friends and I got no peers But a nigga got fam and they all right here Now get gone and go ahead Put it all together, fear no man, uh Like Lindsay with a Lohan, gotta go, man Turn a nigga to a stone man, yuh Up, set a man up, Curry bust out and I wet a man up Curry the killer, I don't give a fuck Most of you niggas be wearing makeup Used to get numb now it's time to wake up Came a long way from the mattress Who's gonna match this? Cock shit from the chopstick, I'm packing Backless, get back, end of the atlas, uh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I'ma make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Fuckin' up the scene I'm a mean motherfucker, no lean in my cup, I'm straight Mane with a white mane, put a Blackmage on the way to space Kicking it with Heaven's Gate Call me Yung Manson, kidnapping a bitch to get a ransom Make her commit a murder, no blood on my hands I'm biting on the tip of my Beretta Spittin' no filler, with Curry the killer, ain't nobody realer I'm catching no feelings, yeah, 2018, I'm signing no deal, ayy I took my bitch to Hawaii, almost got bombed by Kim Jong I'm ready to die in paradise, I got no will to go on Yuh, man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh17</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bulls On Parade (triple j Like A Version)</t>
+          <t>The Last</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Come wit' it now Come wit' it now The microphone explodes, shattering the mold Either drop the hits like de la O or get the fuck off the commode With the sure shot, sure to make a body drop Drop and don't copy, yo, don't call this a co-op Terror rains drenchin', quenchin' the thirst Of the power don, that five-sided Fistagon The rotten sore on the face of Mother Earth gets bigger The triggers cold, empty your purse Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Weapons, not food, not homes, not shoes No need, just feed the war, cannibal animal I walk the corner to the rubble, that used to be a library Line up to the mind cemetery, now What we don't know keep the contracts alive and moving They don't gotta burn the books, they just remove 'em While arms warehouses fill as quick as the cells Rally 'round the family, pocket full of shells Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Listen, birds chirpin', dogs barkin', kids missin', milk cartons Soul dark as black markets, war is startin', more is sparkin' Glory prophets praise Muhammad Diff'rent Strokes, Philip Drummond Gave me crack, like I'm plumbin', Jesus Christ, second comin' Cut myself, now I'm numbin', never scared, never runnin' Chosen one, I'm one hunnid, pray for me, pray for London Guilty me, he ain't done and gun me down, all for nothin' Precedent in abundance, president is a puppet Gotta hate it, gotta love it, pass a class, I rise above it Wise enough, advise the public, pistol bust, screamin', Fuck it Donald Trump, Donald Duck, what the fuck is the difference? Now, we stuck in a rut, this ain't what I envisioned What is what? What is guts when you don't have intuition? Not a saint, not a sin, tell me, what's my real religion? Genocide, Genesis, they say it's a new beginning I'm a sinner, you a sinner, I can see the devil grinning Rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells They rally 'round the family With a pocket full of shells Bulls on parade Come wit' it now Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade Bulls on parade13</t>
+          <t>Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA I been smokin' chronic, on my Panasonic watchin' people dyin' Got me bein' honest with my savior Keep that sinnin' away from me, yeah Shit is hard to stomach, I can't even vomit Pour up gin and tonic just to calm my conscience Wonderin' on every second, I wanna leave, yeah Forced to be mellow, see my common fellow Told him Keep your distance can't even say Hello It struck me harder than a bow and arrow Time is gettin' worse for people in the ghetto Too many homeless People layin' down, too many roses Losin' loved ones that be the closest People run up with guns fully loaded, they might blow it Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Stayed off the net, now I'm constantly readin' You say the wrong thing, you get canceled for tweetin' Looking for answers, that's what I been seekin' The ones with influence don't ever be teachin' Industry colorist, they need to cut this shit Can't fuck with government, what can I say? Caught me some other shit, can't fall in love with it I say a prayer to not be the prey Hoes with the drama OD Then they turn around and throw they drama on me These are the only reasons why I stay lowkey And I knew this world was shitty when we lost Kobe Young man, black man, I'm a negro World had to heal, now the world need growth Cops killin' blacks when the whites do the most And your so-called revolution ain't nothin' but a post Period Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA13</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CHARLIE SHEEN</t>
+          <t>Equalizer</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>I'ma go crazy for the whole year 'Cause a nigga too solid like Metal Gear Got no friends and I got no peers But a nigga got fam and they all right here Now get gone and go ahead Put it all together, fear no man, uh Like Lindsay with a Lohan, gotta go, man Turn a nigga to a stone man, yuh Up, set a man up, Curry bust out and I wet a man up Curry the killer, I don't give a fuck Most of you niggas be wearing makeup Used to get numb now it's time to wake up Came a long way from the mattress Who's gonna match this? Cock shit from the chopstick, I'm packing Backless, get back, end of the atlas, uh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I'ma make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Fuckin' up the scene I'm a mean motherfucker, no lean in my cup, I'm straight Mane with a white mane, put a Blackmage on the way to space Kicking it with Heaven's Gate Call me Yung Manson, kidnapping a bitch to get a ransom Make her commit a murder, no blood on my hands I'm biting on the tip of my Beretta Spittin' no filler, with Curry the killer, ain't nobody realer I'm catching no feelings, yeah, 2018, I'm signing no deal, ayy I took my bitch to Hawaii, almost got bombed by Kim Jong I'm ready to die in paradise, I got no will to go on Yuh, man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh Man, that flow is mean, yuh, 'cause it's in my genes, yuh Boy, you not a king, I'll send you to the guillotine, yuh All you niggas green, yuh, I don't make a scene, yuh Boy, you half a man, I should've called you Charlie Sheen, yuh17</t>
+          <t>Ultimate Equalizer, synthesizer Ultimately, I will brutalize ya I got the shit that could take out New York I do not fuck with the population Contemplation killing competition Confrontation, reevaluation You don't want to see the revelation Straps looking like a lederhosen, stop Doctor said he couldn't hold on Cut, motherfucker I am Logan N-I-G-G-A Attila the Hun Mixed with Bishop Magic Juan I got the fuckin' magic wand I am the ugly, I am so ugly With the face, only ya mother could love me Nothing is lovely, only get loneliness Phoniness only resides on the tongue Sun is never radiant, coming undone So instantaneous, it has begun No way escaping it though Suicide thoughts with the murder I wrote Death from anonymous, broken my promises Feeling that I will return later on Fuck it, it's Halo, I wouldn't respawn Equalizer, synthesizer Ultimately, I will brutalize ya I got the shit that could take out New York I do not fuck with the population Contemplation killing competition Confrontation, reevaluation You don't want to see the revelation Straps looking like a lederhosen, stop I fucked that bitch, she's a fan, yuh I got the drugs in my BAPE, yuh Niggas hate, cant relate, yuh All of your diamonds is fake, yuh Most of these niggas is waste, yuh I got the sauce, she gon' taste, yuh New Rollie came with the face, yuh Keep my bitches like my diamonds, in place, yuh Iceberg on my neck, watch what Ive do next RJ on my chest, but I just copped the Patek, yuh I fucked that bitch right to sleep, yuh, I got a band on my waist I dont got no time to waste, I hit a lick, I hit a lick I hit a lick then I re-up, check my account and I double up I make ten bands in a day, I make ten bands in a day, yuh I hit a lick, then I re-up, check my account and I double up I make ten bands in the day, I make ten bands in the day, yuh Watch the way that I flex, yuh Shawty want me cause Im next, yuh Sippin' on wet, Moet, yuh Look, now her panties are wet, yuh Ah, yuh, ride my wave, yeah, Im paid Ah, yuh, ride my wave, yeah, Im pai-25</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Last</t>
+          <t>Angelz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA I been smokin' chronic, on my Panasonic watchin' people dyin' Got me bein' honest with my savior Keep that sinnin' away from me, yeah Shit is hard to stomach, I can't even vomit Pour up gin and tonic just to calm my conscience Wonderin' on every second, I wanna leave, yeah Forced to be mellow, see my common fellow Told him Keep your distance can't even say Hello It struck me harder than a bow and arrow Time is gettin' worse for people in the ghetto Too many homeless People layin' down, too many roses Losin' loved ones that be the closest People run up with guns fully loaded, they might blow it Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Stayed off the net, now I'm constantly readin' You say the wrong thing, you get canceled for tweetin' Looking for answers, that's what I been seekin' The ones with influence don't ever be teachin' Industry colorist, they need to cut this shit Can't fuck with government, what can I say? Caught me some other shit, can't fall in love with it I say a prayer to not be the prey Hoes with the drama OD Then they turn around and throw they drama on me These are the only reasons why I stay lowkey And I knew this world was shitty when we lost Kobe Young man, black man, I'm a negro World had to heal, now the world need growth Cops killin' blacks when the whites do the most And your so-called revolution ain't nothin' but a post Period Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA Any day can be our last day So much trouble on the streets that we need to buy a AK Brung a mask for the whole day We ain't tryna get sick, so we walk around with no face The USA is a cold place Cold world, cold world, we don't even got a North Face Any day can be our last day Drinkin', I been drinkin', I need AA13</t>
+          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jehovah judge me on my flaws My word is law, forever stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm growing tired of the bullshit I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those, the good book of posers Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch What did you say? Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm growing tired of the bullshit Motherfucker I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing7</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Equalizer</t>
+          <t>Sanjuro</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ultimate Equalizer, synthesizer Ultimately, I will brutalize ya I got the shit that could take out New York I do not fuck with the population Contemplation killing competition Confrontation, reevaluation You don't want to see the revelation Straps looking like a lederhosen, stop Doctor said he couldn't hold on Cut, motherfucker I am Logan N-I-G-G-A Attila the Hun Mixed with Bishop Magic Juan I got the fuckin' magic wand I am the ugly, I am so ugly With the face, only ya mother could love me Nothing is lovely, only get loneliness Phoniness only resides on the tongue Sun is never radiant, coming undone So instantaneous, it has begun No way escaping it though Suicide thoughts with the murder I wrote Death from anonymous, broken my promises Feeling that I will return later on Fuck it, it's Halo, I wouldn't respawn Equalizer, synthesizer Ultimately, I will brutalize ya I got the shit that could take out New York I do not fuck with the population Contemplation killing competition Confrontation, reevaluation You don't want to see the revelation Straps looking like a lederhosen, stop I fucked that bitch, she's a fan, yuh I got the drugs in my BAPE, yuh Niggas hate, cant relate, yuh All of your diamonds is fake, yuh Most of these niggas is waste, yuh I got the sauce, she gon' taste, yuh New Rollie came with the face, yuh Keep my bitches like my diamonds, in place, yuh Iceberg on my neck, watch what Ive do next RJ on my chest, but I just copped the Patek, yuh I fucked that bitch right to sleep, yuh, I got a band on my waist I dont got no time to waste, I hit a lick, I hit a lick I hit a lick then I re-up, check my account and I double up I make ten bands in a day, I make ten bands in a day, yuh I hit a lick, then I re-up, check my account and I double up I make ten bands in the day, I make ten bands in the day, yuh Watch the way that I flex, yuh Shawty want me cause Im next, yuh Sippin' on wet, Moet, yuh Look, now her panties are wet, yuh Ah, yuh, ride my wave, yeah, Im paid Ah, yuh, ride my wave, yeah, Im pai-25</t>
+          <t>Verse 1 ILL BILL I spit on behalf of my death cult made of millions of morbid angels Standing in a burning church in Norway lost in hatred Of course Satan smiles through the face of a child Who's born with the number of the Devil scraped into his scalp We dont like none of yall at all My 'Fuck your mother in the mouth' type of dawgs might write this song Triple X bitches call me and invite me home They run up on me on the street in then invite me dome I spit the truth for the youth movement, its goon music Engineered to make you bang your motherfucking head to it Earn chips, live fast lives and spit flames Then burn bitches with crackpipes like Rick James Ill Bill, Im from Brooklyn where the stars are born I make drug music plus I be involved in porn I be the chosen like Robby Benson beyond comprehension Holding a toaster like Bronson in Death Wish Hook x2 Black metal, I cock back react thorough En la botánica con el santero Black mask, white robe, shrouded in peril Trapped me in the war between God and the Devil Verse 2 Sick Jacken I know a babalawo who cuts chicken heads I fuck chicken heads man that Santeria shit is fucking wild Im feeling like my time running out Im the middle of the block guns drawn when they gun it down I break speed limits on the highway to Hell They got the Devil chasing me trying to give me life without bail I drink spirits and smoke form for medicine And inhale elements of sickle cell You can catch me in the hood like VD That Sixth Side Street shit homes and we aint deal with the PD The most hated on the block with no greatest Crash through the storm and attack the storm raiders I shoot the shit with Shaman, my spirit is still starving Imagine all the shit that my soul famine is causing Knife-carving nine on the psychos at night swarming I fight to be righteous but the murder is more calm Hook Verse 3 Q-Unique I been forced to fulfill a dark and hateful agarro And was born the son of a Satan santero Burn black candles for a black Sabbath After the fact the priest converted her to a crack addict Its flat madness with black gats and black magic Sit and watch the death of faces and laugh at it With two white pale goth bitches lost in an orgy And you too could subscribe for the cost of a forty I got the blood of the faceless pagans on me A sacred place praying to raise a Haitians army The Babalawo wolf from Brooklyn in all white White fitted, white Nikes, moving that pure white all night Make a bruha scream chango and fuck their brains out Your ice crucifix wont save you, tuck your chains now Between heaven and hell, pa arriba y pa abajo Knowing the devil itself vamos pal carajo Hook</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Angelz</t>
+          <t>The Ills</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jehovah judge me on my flaws My word is law, forever stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm growing tired of the bullshit I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those, the good book of posers Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch What did you say? Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm growing tired of the bullshit Motherfucker I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing7</t>
+          <t>Yeah, huh My mind is a playing field for mental arguments My thoughts are sayin' my emotions is who started it My personality always conflicts with other people The good in me has never been conscious of seein' evil I could be ferocious in my times of feelin' feeble Sick of life's ills, it could be short for illegal Common sense, a victim to sensory deprivation The mediator met with it all is in meditation Lord invited me to stay idly on his left side So I can right my wrongs in these songs to live and let die Channellin' Notorious, Makaveli and Left Eye Son of Ra, speakin' on Horus to see who am I? Topple leaders, runnin' with demons, cunnin' and thievin' always Silhouette-surfin' and stretchin' through mental hallways Demons on my mind, they know where to hide, really Then nine minutes later, I'm met with the nine milli' So nine times out of ten, I'm probably going to Hell 'Cause I'm the devil, which means I sold my soul to myself Shelf all of my worst fears in the mason jar glasses Next to all the dreams and things I ever imagined Book of magic, Seal of Solomon, it's a talisman Speak my name in vain, it will be met with some challenges I devise a way to rise, time to strategize The purest form of Zeltron made me alkaline I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin' The kid inside me always seems to man up The higher power is within myself, no need to pan up Believe in U-L-T the way a child believes in Santa Manipulate the masses and the media on camera Black holes and white lights, white noise and black sun Shadows and bright lights eclipse back in action Surrounded by dismay, I display visions of a way For Heaven on Earth and hell on Earth to fight for night and day Apocalyptic hoes conflict against my optimistic hopes The ropes around my neck are golden chains for me to choke My locs reflect the locks and the flames that burn across In my very nation, I walk with my peers, surrounded by chalk Deities and darkness meetin' at my dinner table Deeper than rap, my life is real, this is my mystic fable Play the bad guy just to finish the race first 'Cause the last guy was nice, but he end up dying of thirst I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin' I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin'15</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sanjuro</t>
+          <t>No Wave</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Verse 1 ILL BILL I spit on behalf of my death cult made of millions of morbid angels Standing in a burning church in Norway lost in hatred Of course Satan smiles through the face of a child Who's born with the number of the Devil scraped into his scalp We dont like none of yall at all My 'Fuck your mother in the mouth' type of dawgs might write this song Triple X bitches call me and invite me home They run up on me on the street in then invite me dome I spit the truth for the youth movement, its goon music Engineered to make you bang your motherfucking head to it Earn chips, live fast lives and spit flames Then burn bitches with crackpipes like Rick James Ill Bill, Im from Brooklyn where the stars are born I make drug music plus I be involved in porn I be the chosen like Robby Benson beyond comprehension Holding a toaster like Bronson in Death Wish Hook x2 Black metal, I cock back react thorough En la botánica con el santero Black mask, white robe, shrouded in peril Trapped me in the war between God and the Devil Verse 2 Sick Jacken I know a babalawo who cuts chicken heads I fuck chicken heads man that Santeria shit is fucking wild Im feeling like my time running out Im the middle of the block guns drawn when they gun it down I break speed limits on the highway to Hell They got the Devil chasing me trying to give me life without bail I drink spirits and smoke form for medicine And inhale elements of sickle cell You can catch me in the hood like VD That Sixth Side Street shit homes and we aint deal with the PD The most hated on the block with no greatest Crash through the storm and attack the storm raiders I shoot the shit with Shaman, my spirit is still starving Imagine all the shit that my soul famine is causing Knife-carving nine on the psychos at night swarming I fight to be righteous but the murder is more calm Hook Verse 3 Q-Unique I been forced to fulfill a dark and hateful agarro And was born the son of a Satan santero Burn black candles for a black Sabbath After the fact the priest converted her to a crack addict Its flat madness with black gats and black magic Sit and watch the death of faces and laugh at it With two white pale goth bitches lost in an orgy And you too could subscribe for the cost of a forty I got the blood of the faceless pagans on me A sacred place praying to raise a Haitians army The Babalawo wolf from Brooklyn in all white White fitted, white Nikes, moving that pure white all night Make a bruha scream chango and fuck their brains out Your ice crucifix wont save you, tuck your chains now Between heaven and hell, pa arriba y pa abajo Knowing the devil itself vamos pal carajo Hook</t>
+          <t>I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now Ballin', it's a lay-up, shots gon' make you lay down Swish, swish Niggas keep on hatin', they know they ain't safe now Right I might have to take shit, run up in your safehouse Haha Did a show in Paris, now I'm off to Cape Town Run it, run it I came from spammin' on DMs But now shit done changed, I go HAM on your BM They used to make fun of him, now they wan' be him See I just be sonnin' 'em A.M. to P.M You didn't believe him and now you done changed, I'm no angel, the demon Yeah, you like to smile in his face when you see him That's why I don't look in your face for a reason Bitch, this is a Black Mirror season, I'm I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now Thurgood Marshall artist If you try to hit a foul like Artemis, uh For the new wave, I started it Like a du-rag when you open up the starter kit, uh Same shit but a new fly, Jay I D got a motherfuckin' K on the side Chopped off now a nigga lay on the side Yellow tape, everybody pray on the side Do-do-do-do-do-do Noah's Ark, I made my mark So, nigga, don't start with me, don't fuck with me From the dust, I'm Spartacus So anybody touchin' me is first degree Oh, yeah Whirlwind, mixed with a whirlpool Uh-huh Denzel 'bout to make a fuckin' typhoon Uh-huh What can I say? I'm a boss tycoon Uh-huh Coolest monkey in the jungle, not a baboon, ah I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now20</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The Ills</t>
+          <t>Alakazam</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Yeah, huh My mind is a playing field for mental arguments My thoughts are sayin' my emotions is who started it My personality always conflicts with other people The good in me has never been conscious of seein' evil I could be ferocious in my times of feelin' feeble Sick of life's ills, it could be short for illegal Common sense, a victim to sensory deprivation The mediator met with it all is in meditation Lord invited me to stay idly on his left side So I can right my wrongs in these songs to live and let die Channellin' Notorious, Makaveli and Left Eye Son of Ra, speakin' on Horus to see who am I? Topple leaders, runnin' with demons, cunnin' and thievin' always Silhouette-surfin' and stretchin' through mental hallways Demons on my mind, they know where to hide, really Then nine minutes later, I'm met with the nine milli' So nine times out of ten, I'm probably going to Hell 'Cause I'm the devil, which means I sold my soul to myself Shelf all of my worst fears in the mason jar glasses Next to all the dreams and things I ever imagined Book of magic, Seal of Solomon, it's a talisman Speak my name in vain, it will be met with some challenges I devise a way to rise, time to strategize The purest form of Zeltron made me alkaline I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin' The kid inside me always seems to man up The higher power is within myself, no need to pan up Believe in U-L-T the way a child believes in Santa Manipulate the masses and the media on camera Black holes and white lights, white noise and black sun Shadows and bright lights eclipse back in action Surrounded by dismay, I display visions of a way For Heaven on Earth and hell on Earth to fight for night and day Apocalyptic hoes conflict against my optimistic hopes The ropes around my neck are golden chains for me to choke My locs reflect the locks and the flames that burn across In my very nation, I walk with my peers, surrounded by chalk Deities and darkness meetin' at my dinner table Deeper than rap, my life is real, this is my mystic fable Play the bad guy just to finish the race first 'Cause the last guy was nice, but he end up dying of thirst I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin' I'm seein' illusions in the pockets of my brain I use it, then find a way to illustrate my pain Confusion, 'cause you don't understand a word I'm sayin' Forgive me for all I done, 'cause I be barely prayin'15</t>
+          <t>Who's that joker man stabbin you deep And have your spilled blood flowin' like a babbling creek? It's Violent J, the motherfuckin red neck killer Pick em up and rip they body in half, like a gorilla Cause I'm out there like a scream in the night I juggle dead kitty cats and dance naked in the moonlight Wicked Clowns, forever in the shadows And I'm taking that head off that neck of yours Baby bubba, a bubba bang, alakaboo I got a hatchet with a blade of fire, runnin' at you I'm out the Southwest gutter- scrubby, nerdy, and nutty So fuck your old money, get your throat bloody makin' fun of me Get on! Crows watch me up on the wires I caught one and pulled its fuckin' beak off with some pliers And I can dance to the sound of bodies rottin' underground And if you hear it too, dance with the clown. Come on, alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you Im gonna murder you, one for the darkness Alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you Im gonna murder you one for the darkness Alakazam I slide in through your window like a snake at night And then all through your family home and take what I like And if you wake up, you fallin' back asleep for good laughing You met Shaggs, a killer in paint and gang rags Ninjutsu, all up the walls like Spider-Man Give me a lighter and a gas can, this towns on fire And I got knives in my boots. I kick like Jet Li I put holes in your cheeks, and they can't even catch me roar Fuck fallin' in love. I chainsaw bitches All the loves of my life, I left em buried in ditches And I gets my boogie on, boogie bang to the beat I'll blow the brains out your head and spread em all in the street Im a magician. Six cards appear in the flesh Show's over, and now the Witch is there on your chest They got you runnin' through the darkness just as fast as you can Like, god damn, alakazam, damn, alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you I'm gonna murder you. One for the darkness Alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you I'm gonna murder you. One for the darkness Alakazam Bam, bam, fire I throw I set your fuckin' back on fire, cut and wire your throat Bloody fingers, I didn't do it less I got away I gives a fuck about my soul in Hell I let it rot away I live to die, and how I die is totally up to me I kidnap somebody's mama, hung her dead from a tree Call me crazy or call me nothing I don't give a fuck Because I'm walking with the Witch, and I don't need a second look, holy shit, y'all Oh, Jesus Oh, dear Jesus Oh Lord Hoioi. Hoioi. Rrrr. Hrrr Jongongongongongongong Yes, Lord I'm learnin' is quick prayer Teach it to all you really quickly Okie dokie, Lord Lord, I love it, Lord Thank you, Father, for more of the heavy Weighty Drunken Glory in this house today Hoioioi. Hoioioi? You know, Isaiah 35, it says you will be overtaken by joy That means taken over by joy That means...1</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>No Wave</t>
+          <t>Flying Nimbus</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now Ballin', it's a lay-up, shots gon' make you lay down Swish, swish Niggas keep on hatin', they know they ain't safe now Right I might have to take shit, run up in your safehouse Haha Did a show in Paris, now I'm off to Cape Town Run it, run it I came from spammin' on DMs But now shit done changed, I go HAM on your BM They used to make fun of him, now they wan' be him See I just be sonnin' 'em A.M. to P.M You didn't believe him and now you done changed, I'm no angel, the demon Yeah, you like to smile in his face when you see him That's why I don't look in your face for a reason Bitch, this is a Black Mirror season, I'm I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now Thurgood Marshall artist If you try to hit a foul like Artemis, uh For the new wave, I started it Like a du-rag when you open up the starter kit, uh Same shit but a new fly, Jay I D got a motherfuckin' K on the side Chopped off now a nigga lay on the side Yellow tape, everybody pray on the side Do-do-do-do-do-do Noah's Ark, I made my mark So, nigga, don't start with me, don't fuck with me From the dust, I'm Spartacus So anybody touchin' me is first degree Oh, yeah Whirlwind, mixed with a whirlpool Uh-huh Denzel 'bout to make a fuckin' typhoon Uh-huh What can I say? I'm a boss tycoon Uh-huh Coolest monkey in the jungle, not a baboon, ah I'm goin' uptown with a smile and my tongue brown Rollie in my name, Plain Jane, what's a bust down? What? Nigga, I ain't on what you on, you a fuckin' fraud You know that ain't law, not at all Right, right, right See I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now I could fuck the wave up, bitch, that ain't the wave now20</t>
+          <t>Bitch! Polygon, no one can stop me I stay connected, fuck a Octagon Smokin' on gasoline It's about to be a marathon Carry on, carry on I'ma touch it, No Omarion Rockin' vintage Stereon Call me Dookie Marion the Third Smokin' a pound of herb Over the universe, while I'm embracin' the earth Anything else I prefer Purposes, purposes Make a connection so telepathic Psychopathic, I'm a fuckin' savage Now it's time to get hyperactive Federation, I'm black flagging Preparation from the black ass me You guys been actin' asthmatic Niggas hundred-yard dashin' I'm not a comic, stop laughin' If it's comic discretion No more than a comet, I'm blastin' off What the fuck goin' thru my head My mind just be driftin' off That's my thoughts Thinkin' bout' a thot Trust my only thought Countin' knots Time for me to plot at rappers throwin' shots Lyrical shuriken, mentally murderin' Denzel the Ultimate, Loftythe305 Flying Nimbus freestyle bitch, I'm on Cloud 9 Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Hoe bossin' ain't easy, I'm ballin' on a beatzy Pussy bald like Jeezy, got a all-white beezy Leave her all white and jizzy, it's a Posh Gang nigga Last Fall I was out in New York doing art and fucking bitches Don't give a fuck who you are, it's all about the Benji's At the Aventura Mall in Miami bitches got the new Huaraches Pocketbook on Illuminati Wrist a bitch like a moist towelette That jizz walk is the whole body That pussy profit I know bout it! ULTIMATE Pussy profit, get the pussy's poppin' Fuck them sugar daddy's on that bitch that from college ULTIMATE I get it in any means, regardless 'Cause I'm hella heartless, locking down the gauntlet ULTIMATE You betta feel me, get crackin' on Benjamins If it's no dividends Then I'm sorry there's no house that you living in Throw ink in remembrance You will be livin' inside of my thoughts 'Cause you just a thot Trust my only thought Countin' knots Time for me to plot at rappers throwin' shots Lyrical shuriken, mentally murderin' Denzel the Ultimate, Loftythe305 Flying Nimbus freestyle bitch, I'm on Cloud 9 Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely19</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Alakazam</t>
+          <t>John Wayne</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Who's that joker man stabbin you deep And have your spilled blood flowin' like a babbling creek? It's Violent J, the motherfuckin red neck killer Pick em up and rip they body in half, like a gorilla Cause I'm out there like a scream in the night I juggle dead kitty cats and dance naked in the moonlight Wicked Clowns, forever in the shadows And I'm taking that head off that neck of yours Baby bubba, a bubba bang, alakaboo I got a hatchet with a blade of fire, runnin' at you I'm out the Southwest gutter- scrubby, nerdy, and nutty So fuck your old money, get your throat bloody makin' fun of me Get on! Crows watch me up on the wires I caught one and pulled its fuckin' beak off with some pliers And I can dance to the sound of bodies rottin' underground And if you hear it too, dance with the clown. Come on, alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you Im gonna murder you, one for the darkness Alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you Im gonna murder you one for the darkness Alakazam I slide in through your window like a snake at night And then all through your family home and take what I like And if you wake up, you fallin' back asleep for good laughing You met Shaggs, a killer in paint and gang rags Ninjutsu, all up the walls like Spider-Man Give me a lighter and a gas can, this towns on fire And I got knives in my boots. I kick like Jet Li I put holes in your cheeks, and they can't even catch me roar Fuck fallin' in love. I chainsaw bitches All the loves of my life, I left em buried in ditches And I gets my boogie on, boogie bang to the beat I'll blow the brains out your head and spread em all in the street Im a magician. Six cards appear in the flesh Show's over, and now the Witch is there on your chest They got you runnin' through the darkness just as fast as you can Like, god damn, alakazam, damn, alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you I'm gonna murder you. One for the darkness Alakazam Black magic, this wickedry I love to let it get a grip on me Let me be the first to get the word to you I'm gonna murder you. One for the darkness Alakazam Bam, bam, fire I throw I set your fuckin' back on fire, cut and wire your throat Bloody fingers, I didn't do it less I got away I gives a fuck about my soul in Hell I let it rot away I live to die, and how I die is totally up to me I kidnap somebody's mama, hung her dead from a tree Call me crazy or call me nothing I don't give a fuck Because I'm walking with the Witch, and I don't need a second look, holy shit, y'all Oh, Jesus Oh, dear Jesus Oh Lord Hoioi. Hoioi. Rrrr. Hrrr Jongongongongongongong Yes, Lord I'm learnin' is quick prayer Teach it to all you really quickly Okie dokie, Lord Lord, I love it, Lord Thank you, Father, for more of the heavy Weighty Drunken Glory in this house today Hoioioi. Hoioioi? You know, Isaiah 35, it says you will be overtaken by joy That means taken over by joy That means...1</t>
+          <t>Ooh, happy Anytime that I can take Any love that we stay Oh, how hard it's been Bad times in here like I'm Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing The world is darker than th integration of a Brooklyn Dodger All I need is me, myslf and I and also my revolver Crackers out here shootin' joggers, trouble makin' firestarters Still get paid to solve our problems, him or me, I guess I pop him Way before he shoot, I shot 'em, plottin' from the get then got 'em 911, emergency will murder me the day I call 'em Now they got me livin' lawless, been the furthest thing from flawless They ain't fuck with niggas since the greatest of the grandfathers bought 'em So much pain I've endured, now I'm painless I got the juice, my only friend is my stainless My little weapon gave me power when I aimed it Bwah This for my niggas in the struggle, let us sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Who is it? And they already lying Fuck what you say, fuck every damn thing in time Alright, cool, cool5</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Flying Nimbus</t>
+          <t>Mystical Virus Pt. 3: The Scream</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bitch! Polygon, no one can stop me I stay connected, fuck a Octagon Smokin' on gasoline It's about to be a marathon Carry on, carry on I'ma touch it, No Omarion Rockin' vintage Stereon Call me Dookie Marion the Third Smokin' a pound of herb Over the universe, while I'm embracin' the earth Anything else I prefer Purposes, purposes Make a connection so telepathic Psychopathic, I'm a fuckin' savage Now it's time to get hyperactive Federation, I'm black flagging Preparation from the black ass me You guys been actin' asthmatic Niggas hundred-yard dashin' I'm not a comic, stop laughin' If it's comic discretion No more than a comet, I'm blastin' off What the fuck goin' thru my head My mind just be driftin' off That's my thoughts Thinkin' bout' a thot Trust my only thought Countin' knots Time for me to plot at rappers throwin' shots Lyrical shuriken, mentally murderin' Denzel the Ultimate, Loftythe305 Flying Nimbus freestyle bitch, I'm on Cloud 9 Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Hoe bossin' ain't easy, I'm ballin' on a beatzy Pussy bald like Jeezy, got a all-white beezy Leave her all white and jizzy, it's a Posh Gang nigga Last Fall I was out in New York doing art and fucking bitches Don't give a fuck who you are, it's all about the Benji's At the Aventura Mall in Miami bitches got the new Huaraches Pocketbook on Illuminati Wrist a bitch like a moist towelette That jizz walk is the whole body That pussy profit I know bout it! ULTIMATE Pussy profit, get the pussy's poppin' Fuck them sugar daddy's on that bitch that from college ULTIMATE I get it in any means, regardless 'Cause I'm hella heartless, locking down the gauntlet ULTIMATE You betta feel me, get crackin' on Benjamins If it's no dividends Then I'm sorry there's no house that you living in Throw ink in remembrance You will be livin' inside of my thoughts 'Cause you just a thot Trust my only thought Countin' knots Time for me to plot at rappers throwin' shots Lyrical shuriken, mentally murderin' Denzel the Ultimate, Loftythe305 Flying Nimbus freestyle bitch, I'm on Cloud 9 Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely Flyin' way overseas I'm chillin' with the homies Askin' me where I be I'm somewhere where the hoes be This is where I'm supposed to be It's just bad bitches only You look like a puppy dog You looking all so lonely19</t>
+          <t>Gold bullet that's trapped in his temple Was just the beginning of a deranged mental The mind wasn't simple, the man wasn't gentle They bust out the brain but got caught in the dimple To bust out the dental, the tooth full of wisdom With black on black tints, they jet in the rental The young mane hearing the whisper of Sindel With a gift since birth, if you answer this riddle Who I be? The fetus of a demon Semen from the tip Of the penis I'm the only thing That you see when you're dreaming Armageddon and aftermath This may blog in paragraphs Sit on a throne, full of X's and bones Blowing smoke and I laugh Turning sinners like you Into my personal acid tabs Let me put you up on game I've been shot, burned, and stabbed, and Still ain't deceased I carry the mark of the beast Now can you tell me Who the fuck I be? Damien, as the kid replies Wine, red wine was the color of his eyes Coughing a lot of blood like Piru, but he slowly dies As his eyes close shut, in prison was his eternal life And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein He thought he wanted seven digits, the thickest bitches, the top position Tried to make a profit off the poverty he lives in Atrocities committed on the blocks that he got kids in And now he pops prescriptions, he's in prison to suspicions He fucked the Devil's daughter, now he pissed away forgiveness Only sounds he hears are shots popping in the distance Thinking that they coming, now he haunted by these visions He knows that there's a dark, and a light, but he don't know the difference He used to run around bangin', man, he love the shit And now he sit around, waitin' for his punishment Cops on some old beef, that's why he gotta hold heat He's stuntin' like his daddy, even pops had the gold teeth But pops went to prison back in '03 So lil man never got to listen to a OG Never got to tell him other options that you don't see So lil man grew up thinking prison where he supposed to be, Ugly And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein For the scene, see the best is never seen They say I lack in appearances, but they lack in experience I remain quiet like I'm in constant meditation Only way to get in my place is expert and constant observation, nigga Never compete, much less be winner at it Seven days a week, I found my sinister I control my perimeter, patrol isn't giving up Every effort you attempt never amounts to enough They talk around you, but you know you can't give in And you part of the system, so they treat you just like them Every action is countered, so just don't disturb my zen Every student with honor knows you must deserve lessons, yeah I roll with what every character should have That's why I'm equipped with a black suit and mask, I blast Now it's silent like when the Earth had begun I am Genesis 1, this is God's work done11</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>John Wayne</t>
+          <t>Narcotics</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ooh, happy Anytime that I can take Any love that we stay Oh, how hard it's been Bad times in here like I'm Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing The world is darker than th integration of a Brooklyn Dodger All I need is me, myslf and I and also my revolver Crackers out here shootin' joggers, trouble makin' firestarters Still get paid to solve our problems, him or me, I guess I pop him Way before he shoot, I shot 'em, plottin' from the get then got 'em 911, emergency will murder me the day I call 'em Now they got me livin' lawless, been the furthest thing from flawless They ain't fuck with niggas since the greatest of the grandfathers bought 'em So much pain I've endured, now I'm painless I got the juice, my only friend is my stainless My little weapon gave me power when I aimed it Bwah This for my niggas in the struggle, let us sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Walk around the hood like I'm John Wayne Nine on my hip, I'ma let that bih bang I'ma give them what they gave us on the first grade No remorse, I'ma give them boys pain, we sing, sing Who is it? And they already lying Fuck what you say, fuck every damn thing in time Alright, cool, cool5</t>
+          <t>Why these, why these, why these, why these Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy, smoking and twisting I'm black and I'm gifted These crackers be thinkin' that niggas get wicked Ferocious and vicious, they bust out and diss us Imperial pistols that Narc on a mission That's another nigga dead, hit 'em with the beam infrared Frankly, I'm fed up with Feds Profiling because my dreads long Nigga that's Biggie, it's dead wrong Head home, dro in the atmosphere Wondering why they think a nigga selling narcotics All because we niggas that be livin' in the projects If I move funny, they gon' hit me with the object Objective is subject, watch kill Uh Take you down if they know you got it Brains in the street, they'll leave you thoughtless, damn Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it, ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it, ayy King of the mischievous South Speaking with my deviant mouth How do I feel since I'm black? Proud What's the shit you represent? Clout Nine on the side of my hip, bow This the return of the black owl Max Julien, bring the mac out Raven Miyagi is back, ow Bow-bow-bow-bow Black metal fist got these other motherfuckers caught up in the mix Put 'em in the bars when they didn't do shit Got the opposition living on the offense It's why I gotta grab my rifle Think about survival, hand on the Bible, so I won't let none of them take my soul That's why a nigga stay on ten toes down Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these niggas thinkin on the low that we got it? Bitch, because I got it doesn't mean a nigga got it Why these niggas thinkin on the low that we got it? Thinkin' every nigga is selling narcotics Why do I have a lot of arrests? Because of harassment. Why is there harassment? Because them people that harass me, have set up a problem that made me, disagree with them violently and, and they, they set up these problem, in order to exploit me and other people like me They think they're living in a police state and they become hostile toward the policemen And why they wanna get rid of me? Because I'm saying something that might wake up other exploited people and some depressed people and if all these people ever get together, then these pigs that are exploiting us we'll be able to run them into the lake. That's why they wanna get rid of us I want when they see me, they know that every day when I'm breathing, it's-it's-it's for us to go farther, you know? Every time I speak, I want the truth to come out, you know what I'm sayin'? Every time I speak, I want to shiver, and even if I get in trouble you know what I'm sayin'? That, ain't that what we're supposed to do?4</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mystical Virus Pt. 3: The Scream</t>
+          <t>Mental</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Gold bullet that's trapped in his temple Was just the beginning of a deranged mental The mind wasn't simple, the man wasn't gentle They bust out the brain but got caught in the dimple To bust out the dental, the tooth full of wisdom With black on black tints, they jet in the rental The young mane hearing the whisper of Sindel With a gift since birth, if you answer this riddle Who I be? The fetus of a demon Semen from the tip Of the penis I'm the only thing That you see when you're dreaming Armageddon and aftermath This may blog in paragraphs Sit on a throne, full of X's and bones Blowing smoke and I laugh Turning sinners like you Into my personal acid tabs Let me put you up on game I've been shot, burned, and stabbed, and Still ain't deceased I carry the mark of the beast Now can you tell me Who the fuck I be? Damien, as the kid replies Wine, red wine was the color of his eyes Coughing a lot of blood like Piru, but he slowly dies As his eyes close shut, in prison was his eternal life And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein He thought he wanted seven digits, the thickest bitches, the top position Tried to make a profit off the poverty he lives in Atrocities committed on the blocks that he got kids in And now he pops prescriptions, he's in prison to suspicions He fucked the Devil's daughter, now he pissed away forgiveness Only sounds he hears are shots popping in the distance Thinking that they coming, now he haunted by these visions He knows that there's a dark, and a light, but he don't know the difference He used to run around bangin', man, he love the shit And now he sit around, waitin' for his punishment Cops on some old beef, that's why he gotta hold heat He's stuntin' like his daddy, even pops had the gold teeth But pops went to prison back in '03 So lil man never got to listen to a OG Never got to tell him other options that you don't see So lil man grew up thinking prison where he supposed to be, Ugly And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein And now that nigga scream like he Sindel Yelling 'suicide' in his prison cell Running with them demons since the age of 12 Life's never a game, watch him cut his vein For the scene, see the best is never seen They say I lack in appearances, but they lack in experience I remain quiet like I'm in constant meditation Only way to get in my place is expert and constant observation, nigga Never compete, much less be winner at it Seven days a week, I found my sinister I control my perimeter, patrol isn't giving up Every effort you attempt never amounts to enough They talk around you, but you know you can't give in And you part of the system, so they treat you just like them Every action is countered, so just don't disturb my zen Every student with honor knows you must deserve lessons, yeah I roll with what every character should have That's why I'm equipped with a black suit and mask, I blast Now it's silent like when the Earth had begun I am Genesis 1, this is God's work done11</t>
+          <t>It's all in your mental It's all in your mental It's all in your mental Yeah Let me take you higher than herbalists climbin' tree tops This is not rap, my nigga, this more like bebop Class of Freddy Hubbard, these words are uttered like dairy cattle Makin' sure the rain last forever, I'm slip-less in Seattle Foot to gravel, I travel across the nation for ages Even as I start to get older, this music is bathin' Inside the fountain of youth, surroundin' the booth is water My mind is flooded with these flows, so get th recorder My mental stat is, Whatever happens, happen Yeah, I'm makin' it happen rappin' If I was back in the '40s, I would've been gassin', scattin' Different practice created a different habit for passion I find it harder to make an action, yet It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes because it's all in my Ah, ah, ah, ah Ah, ah, ah, ah Ah, ah, ah, ah Ah, ah, ah, ah Born of the resistance that birthed me Made music of everything Is somebody recording these cries? Bodies blown through concrete, nobody based in that Bombs, buildings crumbling Repetitive gunfire got bass in it, but the cries drowned it out Sampled bomb blast in the Pacific and let it run to the earthquake on the other side, looped it Below screams was fire Harpoons and everything Radiation make it sound analog Needed somethin' death could dance to Changed my whole style up, so used to the slickness Sorrow streamlined into story Dancing alone in front of speakers my whole life9</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Narcotics</t>
+          <t>HOT ONE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Why these, why these, why these, why these Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy, smoking and twisting I'm black and I'm gifted These crackers be thinkin' that niggas get wicked Ferocious and vicious, they bust out and diss us Imperial pistols that Narc on a mission That's another nigga dead, hit 'em with the beam infrared Frankly, I'm fed up with Feds Profiling because my dreads long Nigga that's Biggie, it's dead wrong Head home, dro in the atmosphere Wondering why they think a nigga selling narcotics All because we niggas that be livin' in the projects If I move funny, they gon' hit me with the object Objective is subject, watch kill Uh Take you down if they know you got it Brains in the street, they'll leave you thoughtless, damn Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it, ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it, ayy King of the mischievous South Speaking with my deviant mouth How do I feel since I'm black? Proud What's the shit you represent? Clout Nine on the side of my hip, bow This the return of the black owl Max Julien, bring the mac out Raven Miyagi is back, ow Bow-bow-bow-bow Black metal fist got these other motherfuckers caught up in the mix Put 'em in the bars when they didn't do shit Got the opposition living on the offense It's why I gotta grab my rifle Think about survival, hand on the Bible, so I won't let none of them take my soul That's why a nigga stay on ten toes down Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these crackers thinking that a nigga serve narcotics? Just because I'm living doesn't mean a nigga got it Ayy Why these niggas thinkin on the low that we got it? Bitch, because I got it doesn't mean a nigga got it Why these niggas thinkin on the low that we got it? Thinkin' every nigga is selling narcotics Why do I have a lot of arrests? Because of harassment. Why is there harassment? Because them people that harass me, have set up a problem that made me, disagree with them violently and, and they, they set up these problem, in order to exploit me and other people like me They think they're living in a police state and they become hostile toward the policemen And why they wanna get rid of me? Because I'm saying something that might wake up other exploited people and some depressed people and if all these people ever get together, then these pigs that are exploiting us we'll be able to run them into the lake. That's why they wanna get rid of us I want when they see me, they know that every day when I'm breathing, it's-it's-it's for us to go farther, you know? Every time I speak, I want the truth to come out, you know what I'm sayin'? Every time I speak, I want to shiver, and even if I get in trouble you know what I'm sayin'? That, ain't that what we're supposed to do?4</t>
+          <t>I'm a skinny bitch, but my pussy fat And this big juicy ass is far from flat They call this bomb pussy a black hole Michaels one sexy hot astronaut, he knows his role He choke me like I'm in a turtleneck His dickcage so hot, leave my hole in a wreck Jasbina's nose is so fucking long, oh my god But youre bigger, the audience in pussy applaud Time to get out your scissors and glue Are the arts and crafts in-between my legs too much for you? Don't get too messy though, you sexy boy Because everyone wants to play with my toy Toy, toy, toy, toy, toy, toy, toy You know you want this paper pussy Come and tear it apart But don't cum in this paper pussy Cause it'll fall apart Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy I already have one mistake, I mean kid When they scream my name, I feel a hole outside start to dig My body is the seventh wonder And my cum comes like a clap of thunder Melanie is an ugly skank, but we already knew that I can't see her anymore, Ellen's too fat I'm waiting here on all fours Till the cum comes through my pores Time to get out your scissors and glue Are the arts and crafts in-between my legs too much for you? Don't get too messy though, you sexy boy Because everyone wants to play with my toy Toy, toy, toy, toy, toy, toy, toy You know you want this paper pussy Come and tear it apart But dont cum in this paper pussy Cause itll fall apart Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mental</t>
+          <t>ALOHA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>It's all in your mental It's all in your mental It's all in your mental Yeah Let me take you higher than herbalists climbin' tree tops This is not rap, my nigga, this more like bebop Class of Freddy Hubbard, these words are uttered like dairy cattle Makin' sure the rain last forever, I'm slip-less in Seattle Foot to gravel, I travel across the nation for ages Even as I start to get older, this music is bathin' Inside the fountain of youth, surroundin' the booth is water My mind is flooded with these flows, so get th recorder My mental stat is, Whatever happens, happen Yeah, I'm makin' it happen rappin' If I was back in the '40s, I would've been gassin', scattin' Different practice created a different habit for passion I find it harder to make an action, yet It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes, because It's all in your mental It's all in my mind, but I'ma feel fine once I'm meltin' my eyes because it's all in my Ah, ah, ah, ah Ah, ah, ah, ah Ah, ah, ah, ah Ah, ah, ah, ah Born of the resistance that birthed me Made music of everything Is somebody recording these cries? Bodies blown through concrete, nobody based in that Bombs, buildings crumbling Repetitive gunfire got bass in it, but the cries drowned it out Sampled bomb blast in the Pacific and let it run to the earthquake on the other side, looped it Below screams was fire Harpoons and everything Radiation make it sound analog Needed somethin' death could dance to Changed my whole style up, so used to the slickness Sorrow streamlined into story Dancing alone in front of speakers my whole life9</t>
+          <t>Ils sont dans l'bail hey Brûlant leur âme hey Moi c'est mamba yo Et pas Lebron James C'est la fête tonight Pendant un instant je vois plus tout noir Pour t'libérer d'tes chaines J'ai des trucs trop dark Pas b'soin d'une tenaille Un homie j'donne un coup d'main Il veut mes amis, mes vrais contacts Depuis tipeu j'veux des pouvoirs Faut, j'récupère l'amulette au pape sur un siège, toujours au tel Juste pour ma paie yeah yeah Allume un cierge J'ai un projet sacré à faire sacré à faire J'vous dit tous aloha J'ai une vue imprenable imprenable J'ai ma chemise hawaïenne Fume un spliff à la tienne yes Comme sur une autre planète woof J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha J'ai une vue imprenable imprenable Han J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha Aloha Aloha Aloha Un joint,un verre et du thé noir Un joint, un noir et du thé vert Si j'vais dans l'boule elle s'ra trop mal Elle fume le produit du terroir Dans l'brouillard, dans l'noir On fait pas chasse et pêche Le lendemain ça s'dépêche Pense à ton temps man Tu pries mais t'agis comme satan man J'suis sur le toit, pas sur de moi Mais sur d'les graillent yah yah Des fois j'les voient J'me dit la trap à fait son time Avec ma peau mate Faut les dents en cobalt J'veux briller comme les U.S J'dois déjà découper des têtes dans Lutèce J'vous dit tous aloha J'ai une vue imprenable imprenable J'ai ma chemise hawaïenne Fume un spliff à la tienne yes Comme sur une autre planète woof J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha Aloha Comme sur une autre planète Fume un spliff à la tienne</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HOT ONE</t>
+          <t>Heartless</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>I'm a skinny bitch, but my pussy fat And this big juicy ass is far from flat They call this bomb pussy a black hole Michaels one sexy hot astronaut, he knows his role He choke me like I'm in a turtleneck His dickcage so hot, leave my hole in a wreck Jasbina's nose is so fucking long, oh my god But youre bigger, the audience in pussy applaud Time to get out your scissors and glue Are the arts and crafts in-between my legs too much for you? Don't get too messy though, you sexy boy Because everyone wants to play with my toy Toy, toy, toy, toy, toy, toy, toy You know you want this paper pussy Come and tear it apart But don't cum in this paper pussy Cause it'll fall apart Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy I already have one mistake, I mean kid When they scream my name, I feel a hole outside start to dig My body is the seventh wonder And my cum comes like a clap of thunder Melanie is an ugly skank, but we already knew that I can't see her anymore, Ellen's too fat I'm waiting here on all fours Till the cum comes through my pores Time to get out your scissors and glue Are the arts and crafts in-between my legs too much for you? Don't get too messy though, you sexy boy Because everyone wants to play with my toy Toy, toy, toy, toy, toy, toy, toy You know you want this paper pussy Come and tear it apart But dont cum in this paper pussy Cause itll fall apart Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy Pussy, pussy, pussy, pussy, pussy, pussy Paper pussy</t>
+          <t>Boop boop boop boop boop boop Bap bap bap blap blap, brrap, brrap My gun got diarrhea when it boop boop boop boop boop Y'all niggas with that barking shit, that woo woo woo woo woo Do you hear the 1 to 44, double 22? Hold on, let me slow it down, R.I.P. DJ Screw, ooh Niggas be thinking they real niggas, niggas be thinking they shining Niggas be thinking they diamonds, my niggas movin' in silence You niggas don't want a war, I lay you down with the dinosaurs Bitch I am a Megazord, in the streets you do not win awards I'm high as a hoverboard, I don't compute like a motherboard I eat like a carnivore, none of you niggas prepared for war This ain't what you heard before, roll up the green like a herbivore This ain't what you heard before, roll up the green like a herbivore Like Jordan you stay with the bullshit My nigga I'm done with the nonsense My nigga I'm outta my conscience I'm throwin' my brain out the window A whole bunch of kush and some indo I'm bout to roll up with my kinfolk With all of the things that I seen It's looking just like what Bush wrote Roll it up, smoke it up and put it through the glass pipe Fuck around with me, this'll probably be your last night First time she saw me, it will probably be her last time When she call me back, I'ma tell her it's a bad time I do not talk shit, I'd rather just start shit Out of my starship, I slept with a goddess Out of the darkness, I feel like a goblin I am so heartless, I'm feeling so heartless I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? Yeah!16</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ALOHA</t>
+          <t>Kristi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ils sont dans l'bail hey Brûlant leur âme hey Moi c'est mamba yo Et pas Lebron James C'est la fête tonight Pendant un instant je vois plus tout noir Pour t'libérer d'tes chaines J'ai des trucs trop dark Pas b'soin d'une tenaille Un homie j'donne un coup d'main Il veut mes amis, mes vrais contacts Depuis tipeu j'veux des pouvoirs Faut, j'récupère l'amulette au pape sur un siège, toujours au tel Juste pour ma paie yeah yeah Allume un cierge J'ai un projet sacré à faire sacré à faire J'vous dit tous aloha J'ai une vue imprenable imprenable J'ai ma chemise hawaïenne Fume un spliff à la tienne yes Comme sur une autre planète woof J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha J'ai une vue imprenable imprenable Han J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha Aloha Aloha Aloha Un joint,un verre et du thé noir Un joint, un noir et du thé vert Si j'vais dans l'boule elle s'ra trop mal Elle fume le produit du terroir Dans l'brouillard, dans l'noir On fait pas chasse et pêche Le lendemain ça s'dépêche Pense à ton temps man Tu pries mais t'agis comme satan man J'suis sur le toit, pas sur de moi Mais sur d'les graillent yah yah Des fois j'les voient J'me dit la trap à fait son time Avec ma peau mate Faut les dents en cobalt J'veux briller comme les U.S J'dois déjà découper des têtes dans Lutèce J'vous dit tous aloha J'ai une vue imprenable imprenable J'ai ma chemise hawaïenne Fume un spliff à la tienne yes Comme sur une autre planète woof J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha J'ai ma chemise hawaïenne Fume un spliff à la tienne J'vous dit tous aloha Aloha Comme sur une autre planète Fume un spliff à la tienne</t>
+          <t>Aw Lord baby, she got a flip phone Da-damn baby, I been smokin' Been chokin' and it's so potent baby, we high baby And you got the silver Gucci by my man Ferg, baby? You a giant baby, you steppin' on these niggas' necks Sometimes you gotta just ease that, ease that left foot off baby And then put your right foot on the, on the top of them, big baby And choke them even harder, cause you's a dog You's a, you's a fuckin' champ, these are puppies baby They can't, they can't fuck with you baby, Lord Racks on racks on racks, Yeah Dapper Dan all on my back Right Double G all on my cap, Yeah monogram on a Maybach Smear Testin' that pussy like Pap Smear eatin' that bitch from the back Yeah Mumble rap all on that cat Yeah Lil Pump, she makin' it clap I'm 'bout to write Yammy a letter, tell 'em I'm doin' way better Right Plain Jane the song of the year Yeah I'm busy just chasin' the lettuce I'm a Calvin Klein model on billboards, I did a campaign with the fellas Right Adidas done gave me another deal and Hennessy too, they got cheddar Alright Shoot videos in the PJs Yeah then I go hop on a PJ Yeah They sendin' me all these free clothes Right momma just put it on eBay I run the shit like a relay, niggas gon' have to press replay Yammy say hi to my daddy for me, and Jam Master Jay for TJ Goddamn, nigga When it be raining outside nigga, you the umbrella Cause that shit just bounce off you with that Gucci God, nigga I'ma call you Kristi YamaGucci, baby Cause you just all over the fuckin' world with this shit, baby Niggas cannot touch you Trench coat mob is a Go-Go Gadget You don't wanna see a pretty scene get drastic Fuckin' with the Lords, no Frodo Baggins Niggas bring your clothes to the screen like a fat bitch Even though my name is Denzel, no actin' Pap-pap, puttin' everything inside a casket Track that, everything is gonna be a classic Wrap that, put that bitch inside a prophylactic When I'm rappin', got no heart, Im double tappin' From a city built on coke and pistol-packin' See you flaggin' and they packin' what you lackin' Take you out and then they act like nothin' happen Amnesia got rid of the heater Back in the hood where they blowin' on reefer I follow the light while you follow the leader Now a nigga overseas where they checkin' my Visa, look Nah baby, what kinda flip phone you got? Is that a Nextel baby, no, a Chirp baby This nigga got a Boost, baby, what the fuck Nigga, you gotta step it up You need to get you a trap phone Nigga you need to get one of these fuckin' Motorolas, baby Niggas can't even track us, baby Finger roll, finger roll, finger roll, finger roll, dunk, yeah Ballin' on my enemies, I ain't even tyin' up the pumps, huh Imagine when I tie 'em up, yeah I shake 'em, they gon' need a crutch, yeah And I ain't talkin' groupie bitches When I say they got their panties in a bunch I'm talkin' niggas, I ain't talkin' nada They ain't talkin' figures, gotta be six, seven or better Tryna get a house, gotta get my bread up Tryna stay on pace? You gon' have to step up Cruisin' in a Wraith, see if they make it get-up Pull up to the place, fucked her when we met up Yeah, I'm gettin' buzz, but I never let up I ain't seen a doctor, but I got my check up Check up, check up, check up, check up I'm playin' chess, you stuck on checkers That's why your gang can never check us They take your chain, and now you neck-less Check up, check up, check up, check up I got a check on my watch Wait I'm losin' track of time Cause I don't hear tick or no tock Yup8</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Heartless</t>
+          <t>Kill Us All</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Boop boop boop boop boop boop Bap bap bap blap blap, brrap, brrap My gun got diarrhea when it boop boop boop boop boop Y'all niggas with that barking shit, that woo woo woo woo woo Do you hear the 1 to 44, double 22? Hold on, let me slow it down, R.I.P. DJ Screw, ooh Niggas be thinking they real niggas, niggas be thinking they shining Niggas be thinking they diamonds, my niggas movin' in silence You niggas don't want a war, I lay you down with the dinosaurs Bitch I am a Megazord, in the streets you do not win awards I'm high as a hoverboard, I don't compute like a motherboard I eat like a carnivore, none of you niggas prepared for war This ain't what you heard before, roll up the green like a herbivore This ain't what you heard before, roll up the green like a herbivore Like Jordan you stay with the bullshit My nigga I'm done with the nonsense My nigga I'm outta my conscience I'm throwin' my brain out the window A whole bunch of kush and some indo I'm bout to roll up with my kinfolk With all of the things that I seen It's looking just like what Bush wrote Roll it up, smoke it up and put it through the glass pipe Fuck around with me, this'll probably be your last night First time she saw me, it will probably be her last time When she call me back, I'ma tell her it's a bad time I do not talk shit, I'd rather just start shit Out of my starship, I slept with a goddess Out of the darkness, I feel like a goblin I am so heartless, I'm feeling so heartless I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? I am so heartless, why am I so heartless? Yeah!16</t>
+          <t>Yo, I drop gems like a bad jewel thief, I'm Kool Keith Dr. Octagon with a delivery from the Octomom The Unabomber with a unibrow, I stay connected I make sure that the globe gets infected Explosion, earthquakes, mudslides, erosion Global domination, I'ma set it to a motion Emotion only for the weaker being, make sure that nobody see And show my intellect 'cause I'm a evil genius Futurama, I hope you're ready to fry You expect me to talk, I expect you to die I hang you out to dry from the washing machine It's like a movie critic way I'm peeping the scene, son Said and done, when it's finished, my nigga, finito When I go out, I go out with a pound of C4 This for everybody out there tryna play a hero Yeah, it just might kill us all It just might kill us all Yeah It just might kill us all You know It just might kill us all Yeah, yeah, uh It just might kill us all Be on watch, you know they wanna kill us all Kill us all, yeah, can I die yet? Come along 125 in the valley, treading on a heatwave I think we set the sky on fire, breathing in every day Before you rise like a phoenix, you gotta play Jean Grey I just wanna flex, I don't wanna be another ex, yeah Keep it all up in my head now, when I see red, it's a let down Always finding different ways to get down Whole wide world gone to shit now but I can't quit now Never been the type to just sit down And shut up, enemies tryna run up, homie, but I keep it all 100 Minute that the sun up, I'm thinking 'bout the money Yeah, it just might kill us all It just might kill us all It just might kill us all It just might kill us all Yeah Fuck it, I love it Hey, Jesse, run up the budget I don't know what kind of idiot you think is gonna fall for this scam but you people are in trouble. You contacted the wrong person, bye29</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kristi</t>
+          <t>Vigorous</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Aw Lord baby, she got a flip phone Da-damn baby, I been smokin' Been chokin' and it's so potent baby, we high baby And you got the silver Gucci by my man Ferg, baby? You a giant baby, you steppin' on these niggas' necks Sometimes you gotta just ease that, ease that left foot off baby And then put your right foot on the, on the top of them, big baby And choke them even harder, cause you's a dog You's a, you's a fuckin' champ, these are puppies baby They can't, they can't fuck with you baby, Lord Racks on racks on racks, Yeah Dapper Dan all on my back Right Double G all on my cap, Yeah monogram on a Maybach Smear Testin' that pussy like Pap Smear eatin' that bitch from the back Yeah Mumble rap all on that cat Yeah Lil Pump, she makin' it clap I'm 'bout to write Yammy a letter, tell 'em I'm doin' way better Right Plain Jane the song of the year Yeah I'm busy just chasin' the lettuce I'm a Calvin Klein model on billboards, I did a campaign with the fellas Right Adidas done gave me another deal and Hennessy too, they got cheddar Alright Shoot videos in the PJs Yeah then I go hop on a PJ Yeah They sendin' me all these free clothes Right momma just put it on eBay I run the shit like a relay, niggas gon' have to press replay Yammy say hi to my daddy for me, and Jam Master Jay for TJ Goddamn, nigga When it be raining outside nigga, you the umbrella Cause that shit just bounce off you with that Gucci God, nigga I'ma call you Kristi YamaGucci, baby Cause you just all over the fuckin' world with this shit, baby Niggas cannot touch you Trench coat mob is a Go-Go Gadget You don't wanna see a pretty scene get drastic Fuckin' with the Lords, no Frodo Baggins Niggas bring your clothes to the screen like a fat bitch Even though my name is Denzel, no actin' Pap-pap, puttin' everything inside a casket Track that, everything is gonna be a classic Wrap that, put that bitch inside a prophylactic When I'm rappin', got no heart, Im double tappin' From a city built on coke and pistol-packin' See you flaggin' and they packin' what you lackin' Take you out and then they act like nothin' happen Amnesia got rid of the heater Back in the hood where they blowin' on reefer I follow the light while you follow the leader Now a nigga overseas where they checkin' my Visa, look Nah baby, what kinda flip phone you got? Is that a Nextel baby, no, a Chirp baby This nigga got a Boost, baby, what the fuck Nigga, you gotta step it up You need to get you a trap phone Nigga you need to get one of these fuckin' Motorolas, baby Niggas can't even track us, baby Finger roll, finger roll, finger roll, finger roll, dunk, yeah Ballin' on my enemies, I ain't even tyin' up the pumps, huh Imagine when I tie 'em up, yeah I shake 'em, they gon' need a crutch, yeah And I ain't talkin' groupie bitches When I say they got their panties in a bunch I'm talkin' niggas, I ain't talkin' nada They ain't talkin' figures, gotta be six, seven or better Tryna get a house, gotta get my bread up Tryna stay on pace? You gon' have to step up Cruisin' in a Wraith, see if they make it get-up Pull up to the place, fucked her when we met up Yeah, I'm gettin' buzz, but I never let up I ain't seen a doctor, but I got my check up Check up, check up, check up, check up I'm playin' chess, you stuck on checkers That's why your gang can never check us They take your chain, and now you neck-less Check up, check up, check up, check up I got a check on my watch Wait I'm losin' track of time Cause I don't hear tick or no tock Yup8</t>
+          <t>Ayy Ayy, ayy, ayy, ayy Ronny J, listen up Ayy, chillin' like a mo'fucker Ayy, feelin' like a mo'fucker Feelin' like a mo'fucker ayy Swerve, swerve, swerve, swerve yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Feelin' like a mo'fucker yeah Feelin' like a mo'fucker yeah I be that fuckin' young savage, mo'fucker yuh, yuh I be that fuckin' young savage, mo'fucker yuh, yuh , , 22 , oh oh, oh , , hey, hey Dont gives a fuck about your hey I keep it raw like Sushi ayy, hey My circle tight like Ksubi ayy, hey , , nah nah ? Savage, savage Haring with some white lines yah I got money bags by douzaine ayy, yuh Ronny from the grind, oh, yeah Feelin' like a mo'fucker yeah Feelin' like a mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker mo'fucker Same shit, different chapter feelin' like a mo'fucker AR, make you scatter Bullets fly, ain't you pastor? feelin' like a mo'fucker Pass me the blunt, 'cause your life don't matter Hot-damn, like gray matter Glock in hand and they will pop it mo'fucker Send it to the skyline I be that Bullets to your face like a show fuckin' young savage Nigga, prime time mo'fucker Out of this world, Invader Zim You wanna play God, nigga, play The Sims Nigga, oh, nah, don't pray to him You wanna move work, but never been to the gym You wanna run shit, well, I overlapped it Matter fact, I overlapped the intergalactic Matter fact, I overlapped space and time Until the reverse and brought Biggie out of his casket You can't stand me, I'm not Marshall Mathers Your girlfriend said she was up for NAFTA She told me sufferin' succotash Now thats another afternoon fuckin' that ass Obviously, like a hobbit, you see She wanted a ring, all over my jeans 'Cause she wanted my genes, my DNA But I gettin' up in yo' ass like TSA, whoa TMI, , , Runnin' with apes like Im runnin' with Caesar No, you can't back her, it's not a two-seater Nowadays niggas play follow the leader I follow, you follow, unfollow, delete ya Accounts are suspended, you need Neutrogena for yo' AVI Live and let live while I'm left to die die Two handguns like Turok, nigga I am the father, I'm Bardock, nigga We could shoot to fade, no Clorox, nigga Ichi-Ichigo bullets, 'cause you know the tips be hollow Livin' today, but you won't see tomorrow My AO went up to A after Apostle, bitch yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker mo'fucker9</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kill Us All</t>
+          <t>Sangria</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Yo, I drop gems like a bad jewel thief, I'm Kool Keith Dr. Octagon with a delivery from the Octomom The Unabomber with a unibrow, I stay connected I make sure that the globe gets infected Explosion, earthquakes, mudslides, erosion Global domination, I'ma set it to a motion Emotion only for the weaker being, make sure that nobody see And show my intellect 'cause I'm a evil genius Futurama, I hope you're ready to fry You expect me to talk, I expect you to die I hang you out to dry from the washing machine It's like a movie critic way I'm peeping the scene, son Said and done, when it's finished, my nigga, finito When I go out, I go out with a pound of C4 This for everybody out there tryna play a hero Yeah, it just might kill us all It just might kill us all Yeah It just might kill us all You know It just might kill us all Yeah, yeah, uh It just might kill us all Be on watch, you know they wanna kill us all Kill us all, yeah, can I die yet? Come along 125 in the valley, treading on a heatwave I think we set the sky on fire, breathing in every day Before you rise like a phoenix, you gotta play Jean Grey I just wanna flex, I don't wanna be another ex, yeah Keep it all up in my head now, when I see red, it's a let down Always finding different ways to get down Whole wide world gone to shit now but I can't quit now Never been the type to just sit down And shut up, enemies tryna run up, homie, but I keep it all 100 Minute that the sun up, I'm thinking 'bout the money Yeah, it just might kill us all It just might kill us all It just might kill us all It just might kill us all Yeah Fuck it, I love it Hey, Jesse, run up the budget I don't know what kind of idiot you think is gonna fall for this scam but you people are in trouble. You contacted the wrong person, bye29</t>
+          <t>Okay, I'm Okay, I'm Okay, I'm Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-piece heater Uh Bro, I'm creepin', I'm pullin' up in a two-seater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin' Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, bitch nigga Yeah Snitch nigga Bitch, kill a nigga, which nigga? Yeah Man, I wish a nigga pull up on me like a ho Yeah Man, I wish a nigga, I be posted with my bros Bros Yo, I'm all up in my bag, please step back Yeah This could be a murder case, I pull up with a mask Uh-huh Step back, hit him with a left-right jab Yeah Uppercut, hit him in the throat, that's bad I'ma give it to him, sticks hidin' in the living room Uh-huh Sticks hidin' in the living room Yeah, yeah Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-pice heater Uh Bro, I'm creepin', I'm pullin' up in a two-sater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin' Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, uh, bitch nigga Yeah, uh Snitch nigga Bitch, uh, kill a nigga, which nigga? Yeah I came up with the sauce, I feel like Kel Mitchell Yeah Drac' on my side, I'm runnin' with Josh Nichols Yeah My dawgs got guns in case there is a issue Okay Teenage Mutant, they lettin' them shells hit you Brr We don't like splinters, my nigga, we smoke 'Woods Let it simmer, my nigga, I'm all hood Stormy winter, my nigga, we all good like 070 Shake Bumpin' Slow Jamz like, Damn, I miss the old 'Ye A.K. Curry known as Aquarius'Killa In the air with the Jordans and I bathe with gorillas See, my bitch call me Hun but she won't call me Attila Livin' in a cruel world where you won't see no one realer Okay Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-piece heater Uh Bro, I'm creepin', I'm pullin' up in a two-seater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin'Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, bitch nigga Yeah Snitch nigga Bitch, kill a nigga, which nigga? Yeah15</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Vigorous</t>
+          <t>Pure Enough</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ayy Ayy, ayy, ayy, ayy Ronny J, listen up Ayy, chillin' like a mo'fucker Ayy, feelin' like a mo'fucker Feelin' like a mo'fucker ayy Swerve, swerve, swerve, swerve yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Feelin' like a mo'fucker yeah Feelin' like a mo'fucker yeah I be that fuckin' young savage, mo'fucker yuh, yuh I be that fuckin' young savage, mo'fucker yuh, yuh , , 22 , oh oh, oh , , hey, hey Dont gives a fuck about your hey I keep it raw like Sushi ayy, hey My circle tight like Ksubi ayy, hey , , nah nah ? Savage, savage Haring with some white lines yah I got money bags by douzaine ayy, yuh Ronny from the grind, oh, yeah Feelin' like a mo'fucker yeah Feelin' like a mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker mo'fucker Same shit, different chapter feelin' like a mo'fucker AR, make you scatter Bullets fly, ain't you pastor? feelin' like a mo'fucker Pass me the blunt, 'cause your life don't matter Hot-damn, like gray matter Glock in hand and they will pop it mo'fucker Send it to the skyline I be that Bullets to your face like a show fuckin' young savage Nigga, prime time mo'fucker Out of this world, Invader Zim You wanna play God, nigga, play The Sims Nigga, oh, nah, don't pray to him You wanna move work, but never been to the gym You wanna run shit, well, I overlapped it Matter fact, I overlapped the intergalactic Matter fact, I overlapped space and time Until the reverse and brought Biggie out of his casket You can't stand me, I'm not Marshall Mathers Your girlfriend said she was up for NAFTA She told me sufferin' succotash Now thats another afternoon fuckin' that ass Obviously, like a hobbit, you see She wanted a ring, all over my jeans 'Cause she wanted my genes, my DNA But I gettin' up in yo' ass like TSA, whoa TMI, , , Runnin' with apes like Im runnin' with Caesar No, you can't back her, it's not a two-seater Nowadays niggas play follow the leader I follow, you follow, unfollow, delete ya Accounts are suspended, you need Neutrogena for yo' AVI Live and let live while I'm left to die die Two handguns like Turok, nigga I am the father, I'm Bardock, nigga We could shoot to fade, no Clorox, nigga Ichi-Ichigo bullets, 'cause you know the tips be hollow Livin' today, but you won't see tomorrow My AO went up to A after Apostle, bitch yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker yeah I be that fuckin' young savage, mo'fucker yeah Bitches being bitches 'cause they are bitches bitches Mo'fuckers always get my fuckin' riches riches I be that fuckin' young savage, mo'fucker mo'fucker9</t>
+          <t>Baby Ronny J, listen up Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror, cuz? When you all alone girl are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough? February sixteenth, is the day I regret my birth Most times I thought about endin' it when I came into this Earth Compared to Dracula, the man in the mirror I see is nothing Reflecting on all of the bitches I got but none of them love me Like the woman I donated my heart to without the surgery Charity, short-term goals is longevity Keeping it G is the key, and I told you that's the cure for us When the tears fall down your eyes, you ask yourself Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror cuz? When you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough? February fourteenth is just the day to repopulate I never have no love south side of the Florida state Love me for who I am, never love me for what I make I travel around the world and yes I drove on the interstate Niggas would though I was fraudulent? Everything is politics When coal turn into diamonds people want to praise and acknowledge it Always quick to polish it, but quickly let me go Happened to that young nigga with the nappy afro He died around the same time that Lotto did Now it's 2016 and I know what the motto is and I don't need no Aubrey Graham just to make a hit That's just another view from my iPhone 6 Free Mr. Zone 6, I know Guwop is coming home Just another Aquarius that you hate to the bone You wanna be a thug, but you won't live in harmony Lazy, I'm crazy, I'm wishing that a nigga start with me Last year just made a nigga less friendly, approaching my adversaries I know that people envy, my soul is still empty All I see is pussies talking shit with they homeboys That's a modern day Ren Stimpy Girls wanna be classy but still dress skimpy not giving a fuck simply Then wonder why people think you're an escort Keeping it G is the key and you know that be the cure for us Mirror pieces fall and reflect on your life and ask Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror, cuz? When you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough?11</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sangria</t>
+          <t>Talk That Shit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Okay, I'm Okay, I'm Okay, I'm Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-piece heater Uh Bro, I'm creepin', I'm pullin' up in a two-seater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin' Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, bitch nigga Yeah Snitch nigga Bitch, kill a nigga, which nigga? Yeah Man, I wish a nigga pull up on me like a ho Yeah Man, I wish a nigga, I be posted with my bros Bros Yo, I'm all up in my bag, please step back Yeah This could be a murder case, I pull up with a mask Uh-huh Step back, hit him with a left-right jab Yeah Uppercut, hit him in the throat, that's bad I'ma give it to him, sticks hidin' in the living room Uh-huh Sticks hidin' in the living room Yeah, yeah Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-pice heater Uh Bro, I'm creepin', I'm pullin' up in a two-sater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin' Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, uh, bitch nigga Yeah, uh Snitch nigga Bitch, uh, kill a nigga, which nigga? Yeah I came up with the sauce, I feel like Kel Mitchell Yeah Drac' on my side, I'm runnin' with Josh Nichols Yeah My dawgs got guns in case there is a issue Okay Teenage Mutant, they lettin' them shells hit you Brr We don't like splinters, my nigga, we smoke 'Woods Let it simmer, my nigga, I'm all hood Stormy winter, my nigga, we all good like 070 Shake Bumpin' Slow Jamz like, Damn, I miss the old 'Ye A.K. Curry known as Aquarius'Killa In the air with the Jordans and I bathe with gorillas See, my bitch call me Hun but she won't call me Attila Livin' in a cruel world where you won't see no one realer Okay Okay, I'm drinkin' in my cup, that's a bottle of Sangria Huh Knock a nigga out with a two-piece heater Uh Bro, I'm creepin', I'm pullin' up in a two-seater Yeah Can't believe it? You see it, now I'm mothafuckin' eatin'Uh-huh I'm a speed demon, I be goin', I'm a NASCAR What's up? Bitch suckin' dick while I go faster Faster I ain't playin' with no lil' nigga Uh-uh, bitch nigga Yeah Snitch nigga Bitch, kill a nigga, which nigga? Yeah15</t>
+          <t>Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch Mind is took over, just like MK-Ultra My niggas be repping that Bilderberg Pineal gland open, the portals will show them When I astral travel, we back on the curb Slangin' the bird, injured niggas gon' learn Enter cerebral, the minds of the feeble Get eaten like beetles in Mummy Returns Raven Miyagi be sipping that saké Medusa head on me like I'm illuminati I've just woken up in a brand new Bugatti Then grabbing that shotty if niggas gon' test Get off yo chest, talk about a nigga like me Ain't the best, tryna make a fucking threat Put your body on a jet, 314 motherfuckers Ya'll niggas ain't fucking with the set Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch Let's go get 'em, let the nigga Curry killa hit 'em With my niggas, talk shit it's a bless I got a rhythm Motherfucker's bought to drill 'em Kill him, kidnap him, they hear kamikaze it's creeping attack 'em Like blade, renegade through the everglades Put a pussy nigga body 6 feet, aligator elevator But a nigga can't swim so he gotta count sheep Like 1, 2, searching for you 3, 4, nigga it's on when I kick in the door Then I'm selling your ho Then I'm leaving your body like ashes of dro Slow, turn the nigga to a friendly ghost But my nigga, this ain't no movie though Caught that faggot slipping at the motherfucking Muvico So don't talk shit, if you ain't 'bout it Like, light yo ass up like fucking Christmas Either you be a man, or you be a bitch, nigga I don't give a fuck, just don't talk shit Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch8</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pure Enough</t>
+          <t>Pig Feet</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Baby Ronny J, listen up Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror, cuz? When you all alone girl are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough? February sixteenth, is the day I regret my birth Most times I thought about endin' it when I came into this Earth Compared to Dracula, the man in the mirror I see is nothing Reflecting on all of the bitches I got but none of them love me Like the woman I donated my heart to without the surgery Charity, short-term goals is longevity Keeping it G is the key, and I told you that's the cure for us When the tears fall down your eyes, you ask yourself Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror cuz? When you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough? February fourteenth is just the day to repopulate I never have no love south side of the Florida state Love me for who I am, never love me for what I make I travel around the world and yes I drove on the interstate Niggas would though I was fraudulent? Everything is politics When coal turn into diamonds people want to praise and acknowledge it Always quick to polish it, but quickly let me go Happened to that young nigga with the nappy afro He died around the same time that Lotto did Now it's 2016 and I know what the motto is and I don't need no Aubrey Graham just to make a hit That's just another view from my iPhone 6 Free Mr. Zone 6, I know Guwop is coming home Just another Aquarius that you hate to the bone You wanna be a thug, but you won't live in harmony Lazy, I'm crazy, I'm wishing that a nigga start with me Last year just made a nigga less friendly, approaching my adversaries I know that people envy, my soul is still empty All I see is pussies talking shit with they homeboys That's a modern day Ren Stimpy Girls wanna be classy but still dress skimpy not giving a fuck simply Then wonder why people think you're an escort Keeping it G is the key and you know that be the cure for us Mirror pieces fall and reflect on your life and ask Are you pure enough To keep it real with yourself when you in the mirror, bruh? Or when you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Are you pure enough? To keep it real with yourself when you in the mirror, cuz? When you all alone, girl, are you sure enough? Keep it G is the key and that is the cure for us You said you had enough Girl, are you sure enough?11</t>
+          <t>Welcome to the day niggas took over Helicopters over my balcony If the police can't harass, they wanna smoke every ounce of me Breath is alchemy, see how my life converted They say that life's a female dog, well I'm perverted Go to jail and get murdered Murder was the case they gave us Manipulate the system so the prison could slave us, ayy Nothin' can save us Foot Lockr, liquor stores, undercovers bringin' hords Ten years plus four, little kids die at war Mama want me baptized, swimmin' in the blood shore Shut down schools to open guns and drug stores Seems like the floor gotta flourish When I'm readin' my horoscope, the vision is horrid But you be soarin', stay woke Rather live rich than stay broke I'm starin' though my rearview in my pitch-black locs My notes disappear, reappear, shit is wicked here Tragedy all over the screen like William Shakespeare plays Disease, the grade, increase grenades Disease, the AIDS, I seize today Like Wade, I fade away I pray today, 'cause life is crazy JAY-Z, a school of hard knocks They want us crucified with stones and hard rocks, come on! Uh, yeah, look, uh, yeah I got a different reality The cops ain't the only one that's pointing they gats at me The government puttin' all this pressure on back of me My friends wanna kill me for success that I acheived So I'm all by myself around everybody Till somebody from the other side come catch a body Yeah, somethin' gotta change The prison industry is making everybody slaves The people that own the prisons is also making a loss The gross of the prison system is over 7 billion dollars Uh, so I'm trapped by the pigs Feet poored out the car, laid flat by the pigs feet Uh, see all we are VR'd, sleep in a snooze Peeking at deacons keepin' the rules Creepin' in rooms Sneakin' cheeks for the doom, cats kiddin' me Little cats killed literally How these cats talk bigotry? Like an Avatar forest, the machine talk, Jarvis Whatever they hand you, it'll be y'all risk Your hand stuck in the cookie jar, hold on to the sweet shit, beef shit Green jackets, the old cats, feel the heat cliff, eclipse Blacks cover the white light, cats stuck in the twilight Why, Lyt? See, the wise life stuck in hindsight Sign bright, read, catch up, it's monumental, don't mind your men Mind you, in my mind intertwined you, men sign you in Don't get no autograph from Patrick Just collapsed shit But don't run from Cleopatra Perhaps you sleep, your mattress weak Stuck like a statue, is that you geeks? We attack you, don't act too street We gon' ask you- Bring the cops out, bring the cop-out You see the pigment We depict, the indigenous people- Hold on to life, we don't go for the house of reps They done trapped us in the alphabet Our alphas can't get out the net 'Net ballin', imaginary goal Shot clock, what's your net worth? Chris Webber? Mmm, deep webber? Mmm Time out, mom's house, etymology, mortgage die route Be lesbian, buddy, you better study Puddy holes on this muddy road Buddy cold They gon' pay for takin' my brother Nas say we need one mic and they shot the brown one Yall done forgot the brown one The new white Mike Rockin' a nightgown It's ancient They covered his passed with his kid blanket Y'all sleep, y'all don't see how the image changed Remember the times, nigga I'm here to remind niggas we kings</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Talk That Shit</t>
+          <t>HOODLUMZ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch Mind is took over, just like MK-Ultra My niggas be repping that Bilderberg Pineal gland open, the portals will show them When I astral travel, we back on the curb Slangin' the bird, injured niggas gon' learn Enter cerebral, the minds of the feeble Get eaten like beetles in Mummy Returns Raven Miyagi be sipping that saké Medusa head on me like I'm illuminati I've just woken up in a brand new Bugatti Then grabbing that shotty if niggas gon' test Get off yo chest, talk about a nigga like me Ain't the best, tryna make a fucking threat Put your body on a jet, 314 motherfuckers Ya'll niggas ain't fucking with the set Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch Let's go get 'em, let the nigga Curry killa hit 'em With my niggas, talk shit it's a bless I got a rhythm Motherfucker's bought to drill 'em Kill him, kidnap him, they hear kamikaze it's creeping attack 'em Like blade, renegade through the everglades Put a pussy nigga body 6 feet, aligator elevator But a nigga can't swim so he gotta count sheep Like 1, 2, searching for you 3, 4, nigga it's on when I kick in the door Then I'm selling your ho Then I'm leaving your body like ashes of dro Slow, turn the nigga to a friendly ghost But my nigga, this ain't no movie though Caught that faggot slipping at the motherfucking Muvico So don't talk shit, if you ain't 'bout it Like, light yo ass up like fucking Christmas Either you be a man, or you be a bitch, nigga I don't give a fuck, just don't talk shit Niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know These niggas wanna talk that shit Always say you a gangsta, but real niggas know you a bitch8</t>
+          <t>What price are you talking about, sir? Malcolm X The price of freedom is death Yo Only one sperm cell survives out of millions Hustlers strive, the trades we learn by the buildings In Hell's Kitchen - projects burn the children Some get locked, lay in a box with no feeling On my back staring at the ceiling, through dealing Sweat dripping, hands together, my knees kneeling Where was God when my pops fell to his death bleeding? Was he trapped like Martin in his last cry for freedom? And when I die, will my soul ride 'til I see him? Never thought that I'd be overseas with Koreans Rockin' a vest, pushin' bulletproof Europeans In hot wheels - spit shit the crowd could feel Spendin' chips on Halal meals, ripping foul steel While snakes come behind me to lace my spine Say grace and at the same time, embrace my nine We ball like ghetto children in life tournaments Lusting for platinum chains and ice ornaments I strive for what I live for - cut from an iller cloth Plot like Hyman Roth in a loft Stack chips before the new millennium curse U-N-I-Verse, we true and living heirs to the universe Rep' the 41st 'til my heart burst Ready to die - 'til we seen Biggie ride in a hearse Yo, your comrades moving like wolves in sheep's clothing Friends are foes - hanging niggas cause they holding If you can't hold on, hang on - we can make it Whatever they don't give us in this life, we can take it Joy and pain - through the sunshine and rain As the world turns, life remains the same We escaped through the flames in this game we bled Pour some liquor on the ground - God bless the dead To my niggas still living, yo - hold your head To my niggas still living, yo - hold your head Yo, yo, yo I blow shots from a drop rover 'til the world's over Seeing Jehovah through the eyes of a young soldier Black Moses - literature in pure dosage From a landscape of Kuwait - Jakes and vultures Too many of us lose focus Due to the fact that we're all just a bunch of soldiers Foul cultures Funny how the streets mold us Allah told us - in the cages where they hold us, it's much colder Hear the pain through my words as I in song See, the world's rotten like the veins in my father's arm Used to be a follower of Islam - niggas is sheist' Study my life - living in these days is trife Heaven and Hell, a thin line between paradise Rather than lose, some choose to take they own life Said a prayer for him, hoping that his soul was blessed Cause my hands couldn't cover all the holes in his chest What they do? Turn around and blame me for his death I'm like Malcolm X resurrected in a Lex', holding two tecs Holograms in the headrest, yo Shoulda knew what love is, before he learned what a thug is Now we leave the seeds to be raised by their mothers I've seen the 'hood raise brothers Kill too many of us A thin line between the freedom and the foul judges In the streets, where them snake niggas hold grudges</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pig Feet</t>
+          <t>BLACK FLAG FREESTYLE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Welcome to the day niggas took over Helicopters over my balcony If the police can't harass, they wanna smoke every ounce of me Breath is alchemy, see how my life converted They say that life's a female dog, well I'm perverted Go to jail and get murdered Murder was the case they gave us Manipulate the system so the prison could slave us, ayy Nothin' can save us Foot Lockr, liquor stores, undercovers bringin' hords Ten years plus four, little kids die at war Mama want me baptized, swimmin' in the blood shore Shut down schools to open guns and drug stores Seems like the floor gotta flourish When I'm readin' my horoscope, the vision is horrid But you be soarin', stay woke Rather live rich than stay broke I'm starin' though my rearview in my pitch-black locs My notes disappear, reappear, shit is wicked here Tragedy all over the screen like William Shakespeare plays Disease, the grade, increase grenades Disease, the AIDS, I seize today Like Wade, I fade away I pray today, 'cause life is crazy JAY-Z, a school of hard knocks They want us crucified with stones and hard rocks, come on! Uh, yeah, look, uh, yeah I got a different reality The cops ain't the only one that's pointing they gats at me The government puttin' all this pressure on back of me My friends wanna kill me for success that I acheived So I'm all by myself around everybody Till somebody from the other side come catch a body Yeah, somethin' gotta change The prison industry is making everybody slaves The people that own the prisons is also making a loss The gross of the prison system is over 7 billion dollars Uh, so I'm trapped by the pigs Feet poored out the car, laid flat by the pigs feet Uh, see all we are VR'd, sleep in a snooze Peeking at deacons keepin' the rules Creepin' in rooms Sneakin' cheeks for the doom, cats kiddin' me Little cats killed literally How these cats talk bigotry? Like an Avatar forest, the machine talk, Jarvis Whatever they hand you, it'll be y'all risk Your hand stuck in the cookie jar, hold on to the sweet shit, beef shit Green jackets, the old cats, feel the heat cliff, eclipse Blacks cover the white light, cats stuck in the twilight Why, Lyt? See, the wise life stuck in hindsight Sign bright, read, catch up, it's monumental, don't mind your men Mind you, in my mind intertwined you, men sign you in Don't get no autograph from Patrick Just collapsed shit But don't run from Cleopatra Perhaps you sleep, your mattress weak Stuck like a statue, is that you geeks? We attack you, don't act too street We gon' ask you- Bring the cops out, bring the cop-out You see the pigment We depict, the indigenous people- Hold on to life, we don't go for the house of reps They done trapped us in the alphabet Our alphas can't get out the net 'Net ballin', imaginary goal Shot clock, what's your net worth? Chris Webber? Mmm, deep webber? Mmm Time out, mom's house, etymology, mortgage die route Be lesbian, buddy, you better study Puddy holes on this muddy road Buddy cold They gon' pay for takin' my brother Nas say we need one mic and they shot the brown one Yall done forgot the brown one The new white Mike Rockin' a nightgown It's ancient They covered his passed with his kid blanket Y'all sleep, y'all don't see how the image changed Remember the times, nigga I'm here to remind niggas we kings</t>
+          <t>Yo, y'all know what time it is Black flag on everything, stay protected Move real smooth, know what I'm sayin'? Don't spare nothin', let's go Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah Take these niggas to escuela, nigga, I speak Español Boom I don't deal with pussy niggas, never hang with messy hoes No Hangin' with them Cubans, boy, you thought he was from Mexico One love to my Jamaican niggas, sak pasé to all my Zoes I don't even speak creole, bitch, I only speak my mind Huh If my music made you deaf, then, bitch, my jewelry made you blind Bling, baow Did it all with one flow, niggas used to double-time Uh-huh Yeah, I used to smart-talk, but now I had to dumb it down Dumb it down Straight record Zel, bitch, I'm blowin' up the spot Ayy I'm a Carol City nigga, mane, y'all hoes must've forgot Ayy I am not an emo rapper and I ain't no fuckin' herd nigga What else? I was whoopin' ass since the first, second, and third, nigga What else? Girls that be in love with me be the type to curve niggas Curve Your hoes take a cock or two, so that bitch a bird, nigga Put me in The Firm, nigga, look at what I earned, nigga I'ma keep it P, only thing missin' is a perm, nigga What up? Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah Brown flag on my steering wheel I'm so stuck, I'm stirring still Fucked her, had an oil spill This Draco built like Bushwick Bill Like I'm from New York, I'm a rebel and rowdy Pull out this long-nose revolver like, Howdy Coolin' at South Park, high as fuck like Towelie Sippin' on Crayola, Slapwood full of Maui I'm so cold, I put the burr in Burberry Pants sag 'cause my dick and balls too heavy Turn his noodle pack into spaghetti Then ride with his body on the hood of the Chevy FLA, what the fuck is the deal? Bitch, I'm straight out of Texas, we keepin' it trill Got Kill Bill and we got King of the Hill I'm a Activis sipper, I stay crackin' seals Cocaine, get a hit in a hundred-dollar bill I'ma delete 'em with millimeters, nah, for real I cut open people, you just Dr. Phil I'm beefin' with alligators 'cause I killed they cousin Just to make his bitch ass into boots Tejano to the bone, I'm strong with the roots Got a mouth full of diamonds, lookin' like Fruity Loops They know I'm the truth, make them disappear, poof Hit from the back, make the pussy go poof Traphouse in the south, got shooters on the roof I'm a dog-ass Mexican, woof-woof-woof They know I'm the truth, make them disappear, poof Hit from the back, make the pussy go poof Traphouse in the south, got shooters on the roof I'm a dog-ass Mexican, woof-woof-woof Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah5</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>HOODLUMZ</t>
+          <t>The Smell of Death</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>What price are you talking about, sir? Malcolm X The price of freedom is death Yo Only one sperm cell survives out of millions Hustlers strive, the trades we learn by the buildings In Hell's Kitchen - projects burn the children Some get locked, lay in a box with no feeling On my back staring at the ceiling, through dealing Sweat dripping, hands together, my knees kneeling Where was God when my pops fell to his death bleeding? Was he trapped like Martin in his last cry for freedom? And when I die, will my soul ride 'til I see him? Never thought that I'd be overseas with Koreans Rockin' a vest, pushin' bulletproof Europeans In hot wheels - spit shit the crowd could feel Spendin' chips on Halal meals, ripping foul steel While snakes come behind me to lace my spine Say grace and at the same time, embrace my nine We ball like ghetto children in life tournaments Lusting for platinum chains and ice ornaments I strive for what I live for - cut from an iller cloth Plot like Hyman Roth in a loft Stack chips before the new millennium curse U-N-I-Verse, we true and living heirs to the universe Rep' the 41st 'til my heart burst Ready to die - 'til we seen Biggie ride in a hearse Yo, your comrades moving like wolves in sheep's clothing Friends are foes - hanging niggas cause they holding If you can't hold on, hang on - we can make it Whatever they don't give us in this life, we can take it Joy and pain - through the sunshine and rain As the world turns, life remains the same We escaped through the flames in this game we bled Pour some liquor on the ground - God bless the dead To my niggas still living, yo - hold your head To my niggas still living, yo - hold your head Yo, yo, yo I blow shots from a drop rover 'til the world's over Seeing Jehovah through the eyes of a young soldier Black Moses - literature in pure dosage From a landscape of Kuwait - Jakes and vultures Too many of us lose focus Due to the fact that we're all just a bunch of soldiers Foul cultures Funny how the streets mold us Allah told us - in the cages where they hold us, it's much colder Hear the pain through my words as I in song See, the world's rotten like the veins in my father's arm Used to be a follower of Islam - niggas is sheist' Study my life - living in these days is trife Heaven and Hell, a thin line between paradise Rather than lose, some choose to take they own life Said a prayer for him, hoping that his soul was blessed Cause my hands couldn't cover all the holes in his chest What they do? Turn around and blame me for his death I'm like Malcolm X resurrected in a Lex', holding two tecs Holograms in the headrest, yo Shoulda knew what love is, before he learned what a thug is Now we leave the seeds to be raised by their mothers I've seen the 'hood raise brothers Kill too many of us A thin line between the freedom and the foul judges In the streets, where them snake niggas hold grudges</t>
+          <t>Ray, you smell it? That's the smell of death! United they fall, divided I stand Make sure the enemy can die in advance I follow God, not the words of a man I got blood on my sword and my hands We go to war, I won't give you the chance I ran, I mean evade Then pick a time to engage so you can feel my rage Like Naruto in the Sage Mode Expose those beyond hoes Treat them like they made a mistake, that's what they all chose Explode your head, you already dead So you don't gotta ask why I had to make bloodshed I get bread like Brie, smoke bomb-ass weed Need to chill 'cause I only see red like green Things won't ease, niggas bled, so bleed That's the smell of death and it just won't leave I get bread like Brie, smoke bomb-ass weed Need to chill 'cause I only see red like green Things won't ease, niggas bled, so bleed That's the smell of death and it just won't leave5</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BLACK FLAG FREESTYLE</t>
+          <t>Shawshank</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yo, y'all know what time it is Black flag on everything, stay protected Move real smooth, know what I'm sayin'? Don't spare nothin', let's go Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah Take these niggas to escuela, nigga, I speak Español Boom I don't deal with pussy niggas, never hang with messy hoes No Hangin' with them Cubans, boy, you thought he was from Mexico One love to my Jamaican niggas, sak pasé to all my Zoes I don't even speak creole, bitch, I only speak my mind Huh If my music made you deaf, then, bitch, my jewelry made you blind Bling, baow Did it all with one flow, niggas used to double-time Uh-huh Yeah, I used to smart-talk, but now I had to dumb it down Dumb it down Straight record Zel, bitch, I'm blowin' up the spot Ayy I'm a Carol City nigga, mane, y'all hoes must've forgot Ayy I am not an emo rapper and I ain't no fuckin' herd nigga What else? I was whoopin' ass since the first, second, and third, nigga What else? Girls that be in love with me be the type to curve niggas Curve Your hoes take a cock or two, so that bitch a bird, nigga Put me in The Firm, nigga, look at what I earned, nigga I'ma keep it P, only thing missin' is a perm, nigga What up? Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah Brown flag on my steering wheel I'm so stuck, I'm stirring still Fucked her, had an oil spill This Draco built like Bushwick Bill Like I'm from New York, I'm a rebel and rowdy Pull out this long-nose revolver like, Howdy Coolin' at South Park, high as fuck like Towelie Sippin' on Crayola, Slapwood full of Maui I'm so cold, I put the burr in Burberry Pants sag 'cause my dick and balls too heavy Turn his noodle pack into spaghetti Then ride with his body on the hood of the Chevy FLA, what the fuck is the deal? Bitch, I'm straight out of Texas, we keepin' it trill Got Kill Bill and we got King of the Hill I'm a Activis sipper, I stay crackin' seals Cocaine, get a hit in a hundred-dollar bill I'ma delete 'em with millimeters, nah, for real I cut open people, you just Dr. Phil I'm beefin' with alligators 'cause I killed they cousin Just to make his bitch ass into boots Tejano to the bone, I'm strong with the roots Got a mouth full of diamonds, lookin' like Fruity Loops They know I'm the truth, make them disappear, poof Hit from the back, make the pussy go poof Traphouse in the south, got shooters on the roof I'm a dog-ass Mexican, woof-woof-woof They know I'm the truth, make them disappear, poof Hit from the back, make the pussy go poof Traphouse in the south, got shooters on the roof I'm a dog-ass Mexican, woof-woof-woof Ayy, black flag all on my mic On my mic I been known to spend a lot like Bob Barker, the price is right Hey Being broke my kryptonite Huh, being rich my superpower Huh Smokin' on these bitter niggas, in my hood, we call it sour Smoke From the southside of FLA, been through Dade and Broward Musty-ass kush on me, smellin' like a golden shower The shower Yeah, I like my weed louder, bitches badder, niggas realer Ayy I don't play about my family, 'bout my business, 'bout my skrilla Nah5</t>
+          <t>FnZ Oh, damn Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank I don't wear Balmains, all I ever do is ball, man I am not a rapper, they all lame I am not dope, I'm hard, wait... I can power up and level up at any moment Spitting like a semi, only get me semicolon Couple 0's like I'm Stanley Yelnats Every flow is unmatched and I better get set, inhale Finish 'em, finish 'em Mess around with me and I diminish 'em all Even if I ever did the minimum all Even in Arizona, better killin' them all Rogue one but I got a team wit' me Bad man when I got a ting wit' me I get mean, I get green Show the whole game what's never been seen Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank Designer sneakers hurt my feet now Every beat is gettin' beat down Couldn't eat, well watch, I eat now Like, How you getting paid to freestyle? Different cities every week now Every woman is a freak now What state, probably lookin' bleep now I was homeless, sleep designer sheets now 30 different missions, when I speak they listen Couldn't find a soul she fishin' Who the crew, it wasn't you, I know it's true 'Cause you look like the opposition Run it up, run it up, greatest ever sums it up I ain't have a lot when I was comin' up Kinda made my stomach turn when I brought it up, wait... Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank6</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The Smell of Death</t>
+          <t>Say Ya Grace</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ray, you smell it? That's the smell of death! United they fall, divided I stand Make sure the enemy can die in advance I follow God, not the words of a man I got blood on my sword and my hands We go to war, I won't give you the chance I ran, I mean evade Then pick a time to engage so you can feel my rage Like Naruto in the Sage Mode Expose those beyond hoes Treat them like they made a mistake, that's what they all chose Explode your head, you already dead So you don't gotta ask why I had to make bloodshed I get bread like Brie, smoke bomb-ass weed Need to chill 'cause I only see red like green Things won't ease, niggas bled, so bleed That's the smell of death and it just won't leave I get bread like Brie, smoke bomb-ass weed Need to chill 'cause I only see red like green Things won't ease, niggas bled, so bleed That's the smell of death and it just won't leave5</t>
+          <t>First off, I told Murda this ain't a battle about no PG step, nigga, it's to see me reset So let's get it done This nigga talkin' all that, this and that But denyin' the fact I'm a aristoc'at aristocrat a risk to cat You kitten, son? This nigga PG Step all the way to the top for this shit to plunge And Daylyt stamps the shit And you run with it You dumb In that moment, I noticed Nigga, where'd you get it from? Nigga, that style mine, and it got no name until I give it one And I'm the biter, this writer shook Like nigga, let's fight, and a life get took A uppercut, mixed with a litle me, he gon' bite the hook It's real her I took a verse, right? But so what? Nigga, I ain't gonna steal hre That's why the gun so big, I left it home and it's still here Nigga, look, quick question, which new team did you hear that I'm repping? Nigga, I got a mind of my own, my conscious has holes, so for pretending not to murk ya section I will go off But nigga, as soon as I get to turn that weapon, and still steel do it again like, I ain't learned my lesson You basic as shit, like I bet they gon' call Prez Mr. Hide My Bars 'cause he be takin' em shits, so that a hundred dollars and Mulatto Black and gon' pay for the shit, but Constipation, think about, he be making me sick Nigga, I sat down on this round and pushed, I ain't takin' this shit Nigga, fuck Dre Nigga, I don't care what tool he got, or who he shot Swear to God on RBE, you ain't Cash Capone a fuckin' booty pop, is that true or not? Plus my dog Brian, he got a ruger cocked So duck the lowest Lois, or you gettin' Stuey Stewie shot I said, this motherfucker don't like me point And I get to blacking on screen like a Spike Lee joint 'Cause I heard that Bonus the shooter And even Charles spray weapons So if Dre don't take deep cover, it's a 187 Fuck a gun play reference, I may get in ya face Like I saw your battle with Trez, the shit's a disgrace Nigga, you punch for nothing, and got dragged in a miserable way But welcome back Mr. Hide My Bars, I'm from the X and my niggas just been itching to sell Smack You let 'em eat on the PGs, he think this shit's a buffet But then the fat nigga get a chef that cook food and couldn't finish his plate So at the end of the day, give 'em at least the clip from shots blammin' I treat the bitch, after the pieces hit, like I'm scammin' Damn it Step in this ring with a plan, you don't wanna brawl Catch a stray, but you could visit the pound if you want it, dog I'm in Longside, New Jersey, low, gun involved I read ya town's population, and nigga, who are you gonna call? 'cause Dre, ya town small as shit And I brought a drum for all 2931 of y'all I'm gunning for, you know that John bitch like Gotti's girl I stick him up until his insides settle and top'll twirl As for your bitch, yeah, miracles happen, he got a girl And she petite, you threw The Weeknd on, made her body twirl She started ridin' as soon as it came on, Bobby's World A lot of niggas is talkin' with no proportion shit But you even gotta pay a price when you die, you heard of coffins, bitch It's fuck the world twice, nigga, seems unfortunate But if I'm such a dick, hop off of it Morning, bitch One round down Woosah This nigga was too quick to snatch a rack They wouldn't even let this nigga on Smack Why y'all let him back to battle rap You might've started the PG Step, but bitch I made it great Anyone that mentions the shit, they be sayin' Dre URL was like making facial changes on a created player, they help you save ya face They was tryin' to protect the kid from the Step like a baby gate My gorillas get ugly in the hood, these is Bathing Apes Fat nigga, I'll bow ya head over food, nigga, say ya grace Fuck a one on one, me and my gun are the greatest mates The strap heavy but it help me jump better like ankle weights I took my time, I ain't rush in Russian, soldier, I ain't a Soviet Y'all old niggas playin' past y'all prime, kinda like Kobe is This won't be a tie, recent battles you haven't shown me shit I show y'all I could fuck up a vet off Smack worse than worse than Jody did He wanna enjoy the fruits of his labor because this bitch sweet Go to his crib to black buried Blackberry and we gon' dig deep Don't need a key, we kiwi know you honey do honeydew, so we'll send heat And have a pair fire at Prez, like he got impeached peach These niggas with little heart thinking they could ride along Young guns ain't really workin', but they swear they tommy strong My mindset like using a public bathroom and shitting there inside the stall Because I don't wanna leave 'til until everybody gone Niggas done gave me the short end of the stick, I'm talking loyalty that, y'know loyalty this I'm keeping shit straight up, this is last straw And it's funny how, these pussy 'never come out the house' cats finally find somebody else barkin' out of your backdoor I'm pissed, so for the green, you wouldn't like me when i'm angry, bitch 'Cause I'm my class' Hulk, and if I spazzed off Even my pants might sag, pause Nah, you see, that was a hidden bar, for you aren't ready for the rounds I'm wastin', I rapped my ass off Tryin' to conceal the plug and I don't feel ya love, then I'mma steal on ya bud like piff did They say he crazy, Prez obese baby bed, that's a big crib Tell ya uncle, stay home I kill a restaurant, better chill, these niggas won't get they babies back Nah, nigga, this ain't forgiving Just note that I said barbecue, 'cause the finger lickin' Tia and Tamera, once I split this image, you'll see the difference I let a billiona air billionaire, 'cause you have to pay toupée, you seen Apprentice? Donald Trump, I won't murk ya bitch, but if that hoe tell, then we in business Nigga, I came back regardless of the hate like fuck fake, y'all niggas likin' Go 'head and act if you want, just don't hate, this momma Jones on a smoke break, the ratchet'll spark I paused the game to take a piss, that mean I'm back from the start And these fans Now the fiends watching him like the back on a shark I said nah, or did I? Nigga, that's the question at hand Nigga, let's address it It all started-- 'cause-- I wouldn't-- Nigga, dead it It wasn't to better the plan but I did tarnish my name And got life lessons from fans I looked at it as a Mario game 'Cause one shell ain't make me less of a man Shoutout to Smack Y'all see a nigga back Whoever said that Prez dead Prez back, demeanor is intact Let's keep it facts Y'all niggas think I'mma lose , picture that Nigga, I'm keepin' it cool to ya boo, tit for tat And fuck a Infrared dot He gon' see how good a For tryin' to Cookie the empire They call us clones Nigga, I used to fill in my Shit I used to have small apartment, Dre, I bought some chrome Nigga, the shit is so big When I brought it home, I bought a home And I suggest you kneel, when I shoot shots, it sting No I propose you getting a big box Right after the leg drop, it ring No I propose, you getting bow, can he survive like Dr King Balcony, survive like Dr King Nigga, not with me, Woosah Let's get to that old Prez Smoke bastard In the end Indian, a brother step wrong, and get the strap for nothing mack I don't know what's worse Me taking another nigga' raps, or letting the trap down You know, like how Joe Jackson did Mr. Rat Let's take it back When I first started, they said I'd be flipping tiers But then I took a verse, and the shit wasn't light The fans looked at me like lice, but still can't figure out how to wash me Like how did I get in here hair Shots'll flare Nah, am I down for that, ff, oxin', yeah But the box clowns Prez'll put the stock down, that's my career All heads Old heads take several seat, am I down for the rockin' chair Prepare to fight, think Scary Spice, I'm the wildest here hair Dot or Dre couldn't see me then Or with a group of yes men, that's lot of yeahs years And tell T-Top, with the porridge pull rich I pop a bear poppa bear I'm cleanin' up Nigga I'm goin' over the flow, like I missed a spot Look, listen, watch I got a itch to put dots over dots, that's chicken pox All eyes on me, which route did I take for the chicken, pox I let it spit Think nemesis, I ain't missin' dot 'cause nemesis is Whoever got you winnin' is a damn reach, Tryin' to let lead fly through a van seat The chopper strapped to my back How I get to this damn heat? Help me, bro Shit look like a back itch I can't reach I'm from where niggas pull out flags when you tryin' to ball Watch wherre you step, 'cause they gon' say you offside, so watch your lining, dog If you in the field, and you see a play, and you don't like the call, don't try to brawl 'cause you can waste your time out for nothing if you challenge wrong I smell death in the air, I'm a heathen when I'm breathin' He don't wanna taste the beef like he eatin' with a vegan If I touch the gun, you gon' hear it, I'mma squeeze it 'cause I'm heated Smell, taste, touch, hear I'mma give you the fifth since you gotta see it to believe it! I run away and let it ring, like a nigga a loc It's plain plane and simple like you sitting in coach It's a Scandal when I'm liftin' the toast Prez got a problem, this black bitch'll fix it like Olivia Pope! You wish to die, it'll get granted Put the fifty to his mug Put twenty on his head, and have him movin' up Like the Jeffersons We'll kill 'em for a dub Beat 'em up, and drew, and jack son And give 'em ten and use a snub Around five, I'm linkin' up, with some hitters that I trust And watching ten bullets fly, but I can aim at his head and give him one 'Cause Prez should be used to having his face in the middle of them bucks I was gonna bend ya man too, regardless I was gon' bust a lead To keep it a hundred, you still would get the buck if you wasn't Prez A savage, shit, I'm Cory I'll give him wings he don't deserve, this Harvey To get away from the shots, this nigga just hit the floor, see It remind you of Ezel in the liquor store, see This bum ain't really slick, but he still gon' get the forty Don't think I'm reckless, you dyslexic, you quick to read me wrong Ain't shit funny, I ain't riddlin' ritalin, I'll make you keep it calm The thing is drawn, and like a road trip, the other sing along I'll have you feelin' fill in the toast, like you tryin' new sneakers on If these bitch ride for ya, then these bitch die for ya With the miller, I'll see see Murda, I'm a master, P, it's shockin' ya I'll fuck ya little ass up, beat the G shit out of ya Little nigga, I'm 6'3, but you three six, Mafia Three 6 Mafia Fucking ya bitch is like the barbershop, 'cause she stay with wild sex She a freak, she sit in my seat, then bring the tape around next That bitch throw on a cover, then she pullin' my chair up She sit on the wood like a kid getting a haircut I eyeball work, I hate the scale, you can tell by my fitness If I hear about your work like orientation, I'mma come by and visit I'll bring the shotty on his block, and aim the snub while he pitching That's what I mean by sticking my nose in somebody's business Sell straight coking, no shortcuts, no Dej Loaf-in You don't never see me play like Greg Oden Straight potent, I break up the rock Roc like Dame, Hova So I'm pushing keys to my death like Beethoven Same slogan, it's Loud Boys, niggas knows it's us When we rollin' up, we already rollin' up Loud Boys, Jersey I'm the wildest Not Rasheed, that just mean, that I been Ben a problem And old heads said aim at his whip, over the brick, I'll hit you and whoever they send to block cinder block There's a lot of stake For acting tough, as soon as we meet, you getting hit with the metal, I tenderize 'em Bow Wow What's Bow Wow's ex bitch, Erica? Well, wherever he hidin', my men'll find him Straight heat, ready for war for sure, clip , one round down like a hole in the floor I'm not gonna dwell But Boom told me to give you coke and it's raw Hotel room, I got the green light opening doors Home invasion, I'm only here to get them digits in and out I run in the spot, like where Dre?, of course he in the kitchen, piggin' out Fuck how y'all feel, for talking I put the Smith up in his mouth Now he Garfield, pussy was just kitten on the couch Why him, fuck a Woosah, lame, get me upset This clip got no limit Soldier bitch, that's Mia X No I aim it and watch they man dash Damon Dash, that's Aaliyah' ex You don't wanna get plane crashed on like Aaliyah jet Get his in the throat with a Nintendo controller, 'cause we Wii up next You done all you coulda did, you jerk, but this is really the time for when this bitch get murked I mean the real definition of 'here is where the shit gets worse' SIG clap, got a kick back, like he hit me first And the sad part is you walk around like you some writer Bow, his family mourning, find his brains in front of a lawn so his dome got hired That's a Mitchell Ness Heat jersey, my throwback fire You ain't seen shit, you waitin' on somebody to tell on a nigga, Boom, you shoulda called out Myers It's Prez Mafia, I brought the clock for ya fuckin' scared, I'll pop chrome, I'll give you a knot not home, like you wasn't there Think Dre featuring 2Pac fuck a flare I let a cal lift on ya, love ain't in the air California Love Dre, once I clap back at ya lackey, you meeting God, think anymore I'll pack son out back, we don't need a target If I catch him in that store, cheesin' calm Then the heaters spark I let three froze But watch cheap clothes, why flee flea the market If Surf can say the chopper's out like Welvin, and he the god This Nina bonkers, pop bro, whoever uncool uncle shot, that's Peter Parker So suburban He never been around them niggas that's been them riders I know low rider Bloods that's givin' out transfusions you mention drama Or them big locs that hang around with them folks, give a clip, that's karma comma When you see a playboy throwin' up bunnies on ya block with a drum, it ain't a Energizer Pardon my You know my partner's a loud boy, he got Tourettes Syndrome The nigga don't know he be acting stupid, y'all Like I said I want John John, tell a nigga I'm ready to get a Don knots donuts for not knowing when three's company But when two are involved, you move in, jack and I don't give a fuck who feel that bar Tell Dougy he shoulda said, I'm still a nigga that keep wheel still steel like a boot on the car It makes sense, honestly, I don't know what to think of this They got me faced against battle rap's Weird Al Yankovich A big dummy I slide the common part of sentence, I showed a pair of these parodies, the clip funny City, after you shoot this bag, please have my cash like Mitch Money What, y'all ain't peep, cousin Shoot this bag, please have my cash, that's Mitch Money Peep, cousin No , you eat nothin' Shots, I'm sendin' em out Don't say shit, or a clip'll come out And as a child I was taught not to talk with a fifth to ya mouth Dedication and hard work, that's what lyrics about Like I said, I had to sit and push for this shit to come out Keep givin' 'em clout I ain't do this shit for you, this shit for the crowd For the folks And sayin' I took some shit I was battlin' Took and shit And I took the shit with a smile For the folks who really loved me and remember my style Zike a fat bitch on a seesaw, it's about to go down Hoffa The only reason why I called him Hoffa is 'cause his friends is some busters, think about it Look author Arthur, why convert the bull when I red tops Count on the head Shit, if you just don't want it, get slap boxed 'cause I mastered rounds and angles, both behind metal, every word that I write in my pad, locked And this round is for my niggas that really don't have guap And since ya mouth brings less fortune, it's gon' have knots less fortunate, have nots WeGoHard, thanks for having me, nigga And guess what, it's two reunions, FTW, Faculty, nigga I don't care who feel some type of way, that's where the Grinch stay You bitch-made! I'll run up on you, with a switchblade Ch! Then switch blades! His head'll be red like Malcolm X in his pimp days Yeah, I stole it, bitch 'cause you took bars, and act like you wrote the shit There's one main rule in hip hop, and you broke the shit Fuck all the excuses, you was lazy and stole How many nights y'all stay up late and feel like y'all brain will explode You shoulda used your art and craft and tried making ya own I know things was rough an' Ruffin you shoulda left the Temptations alone You said, I'm only here to make shit worse But I break fast, 'cause I'm quick to grab the toast like I'm late for work But you stole ya homies' bars and had to take his words So you had another nigga punch for you like you was late for work You got a black prostitute mindset 'cause nigga, you fuckin' cheap You'll break your word to leagues That shows your trust is weak How you steal deposits to give your soul food just to fuckin' eat You a take plates without showing ya face like uncle Pete You break your words as a man when your funds is dropping You steal bars and deposits, you a bum with problems Like Paula Patton, I hope you done with robbin' Robin 'cause you don't help your team rock, it's a shame Let me explain 'cause you use the trap wrong like Jesse and James The trap was in your corner, motherfucker Bloodsucka Sad leech shit He betrays anyone that hugs the bull Huxtable, this man Heathcliff They was protecting you, doing mad weak shit Now you just lost your full court, Prez 'cause you fucked up the trap defense Yo, we was scheduled to battle last year, right Got to the event and we heard it was closin' Since we ain't battle, we ain't get paid He was stuck in Jersey, just broken-in So you stayed at my man's crib, and he was servin' you coke-ing I know all about you snorting all them percs up ya nose in I saw him before the battle, he had worried emotions I went to give him daps, and he thought I was Mercy and frozen You say you power forward, but Burstin' a forward My state will make him hurt any moment Jersey Comin' outta nowhere like Surf when he choking Who gave this scary nigga stripes I think he Beetlejuice On Smack, you'll call Murda for problems, did it on TV too But when in Pittsburgh, niggas was gon' jump Murda I could see the proof he was callin' You was unreachable You answered in battles but couldn't when he needed to Let me speak to you 'cause I made observations And me and Bonus be having the same conversations Yo, Bonus I fronted Prez a quarter for five hundred, but this man's a sucka So I'mma need that giant Bronco, so fam is covered We understand each other See, giant Bronco, was me gettin' that quarter back Related Since he lie, he gotta pay ten, see what this man in, brother You got no heart, so like a bench player, don't start Chrome spark Better give interest to them bucks, like a loan shark You lean on me, I'm firin' the old Faculty like Joe Clark I smoke ya weed and won't pass gas like farting not cool Go to his crib and I won't march in like Marvin Nah bull, I'll be a mechanic, in a car with my tool Just waiting for you to come out ya spot like the parking lot full So tell this shallow nigga, don't play in the deep end I'll wave and drop a player like Dre Den' a GM While he grieving, I'll get a MAC And take him to see him That mourning morning over when I put a M AM to PM Your bitch love to show her ass like her jeans was sagging She a ballhog, I was surprised when I seen her passing And them cheeks I'm smashing I can't believe I had to keep going wild like a Steams reaction You freak skeezer, she a meat eater I call her carnivore Anyone acting rude been stutter, that's what they sorry for Gun in my jeans, saw it pulling my leg like a charley horse So the K9 going through a square like a doggy door I ain't wave my arms all battle, and you ain't see me flex But it wouldn't be me if I ain't do my PG step We wash you filthy niggas, so if you drop dirt My old shooters got chemistry, so crew not Spurs What I got in store, this count discount, like my coupon work I'll move the steel still nigga like You Got Served I'm fat 'cause I'm hungry You starving, you don't eat Closed mouths don't get fed, and pussy, you don't speak Basing a whole battle over size is so weak 'Cause what they call you when you heavy, wait, obese</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Shawshank</t>
+          <t>A Day in the Life of Denzel Curry Pt. 2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FnZ Oh, damn Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank I don't wear Balmains, all I ever do is ball, man I am not a rapper, they all lame I am not dope, I'm hard, wait... I can power up and level up at any moment Spitting like a semi, only get me semicolon Couple 0's like I'm Stanley Yelnats Every flow is unmatched and I better get set, inhale Finish 'em, finish 'em Mess around with me and I diminish 'em all Even if I ever did the minimum all Even in Arizona, better killin' them all Rogue one but I got a team wit' me Bad man when I got a ting wit' me I get mean, I get green Show the whole game what's never been seen Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank Designer sneakers hurt my feet now Every beat is gettin' beat down Couldn't eat, well watch, I eat now Like, How you getting paid to freestyle? Different cities every week now Every woman is a freak now What state, probably lookin' bleep now I was homeless, sleep designer sheets now 30 different missions, when I speak they listen Couldn't find a soul she fishin' Who the crew, it wasn't you, I know it's true 'Cause you look like the opposition Run it up, run it up, greatest ever sums it up I ain't have a lot when I was comin' up Kinda made my stomach turn when I brought it up, wait... Cook it up, gourmet Woo I go Super Saiyan, Gotenks Ah Anything I ever do is top rank Yeah Got more bars than the Shawshank Ah Cook it up, gourmet Gourmet I go Super Saiyan, Gotenks Woo Anything I ever do is top rank Woo Got more bars than the Shawshank6</t>
+          <t>I do this for my niggas I do this for myself Enter my mind That's all I can say nigga Five in the morning turn to six, my life has turned into a bitch With the fucking wettest clit in the galaxy Rapidly tripping and rapping and snapping And killing my niggas that coming through blasting And looking for money, and looking for magic We sticking together like metal and magnets Lutrashious, me and Mercedes up in the condo On the phone for nine months, we sparked the conversation Enter the void, mind escaping Racing, plus my heart rate went blazing Ganja, as I ponder on graduation Threats hit a nigga, the points where I could make it Not a contract, could take what I created Not on paper, my clan-name erased it Down nigga, since day one, I never hate shit Same nigga tat 2-7-5 on the pavement Got highs and lows on one path of greatness Eighteen years of life, larger than basic Markese, Andrew, Darnell, et cetera It's still my niggas, know things will get better but Things take time, and all things change Some people venture off and make they own lane But the place is just the same from the F.L.A But my cuzzo Chynaman got hit with the eight from the clip And my nigga William had his last trip When he hung his self in his room Roll up the spliff as I puff one, puff two for my niggas Then three for the niggas that be hating Nigga, I don't care, Aquarius Killa, the Mack Talk your girl up out her underwear Let me bite that pussy like a god damn juicy bear Suicidal thoughts, I'm on my head to make it clear Another life and day, hallucinate got me in my rear Lamborghini dreams, Freddy Krueger is my shooter Raider still the klan, but C9 is the future, bitch Na na na na na na, na-na-na na na Synthesize, and realize, that life's no game Synthesize, and realize, that life's no game Synthesize, and realize, life's no game, no No game, no game, no, no game I should have said it's no game, no No game, No game, no Synthesize, and realize, life's no game Synthesize, and realize, life's no game, no game Synthesize, realize, life's no game Synthesize, realize, life's no game Game over man14</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Track 01</t>
+          <t>Bitch Named Bitch</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Janvier 1001 Sterna - Paie le Prix - 2201 Booba - Autopsie Vol.2 Mixtape 2901 Ades - Un degré de plus 2901 Artistes Multiples - Compilation Rap R'and'B 2901 Black Marché - Au quart 2 Tour - 2901 Mafia K'1 Fry - Jusqu'à la mort - 2901 Flynt - 1 pour la plume EP Février 0502 Kamelancien - Le Charme en Personne 0502 Vitaa - À fleur de toi 1202 Artistes Multiples - B.O TAXI 4 1202 Faf Larage - Rap Stories 1202 IAM - Official Mixtape - 1702 Soprano - Puisqu'il Faut Vivre - 2602 Hocus Pocus - Du sable sur les paupières Maxi Mars 0503 Compilation Beat de Boul - Dans un autre monde 0503 Seth Gueko - Patate de Forain 1203 Anfalsh - Représailles chapitre 1 1203 Ärsenik - S'il en reste Quelque Chose Best-Of 1203 Artistes Multiples - Compilation Ecoute la rue Marianne 1203 Artistes Multiples - Compilation Get On The Floor - 1203 La Fouine - Aller-Retour - 1903 Youssoupha - À Chaque Frère 2603 Artistes multiples - Compilation Menace sur la planète rap vol.3 2603 L'Algerino - Mentalité Pirate 2603 - Octobre Rouge - Votez pour Nous 2603 Tony Parker - Tony Parker - XX03 Haroun - Sur Scène Maxi Avril - 0204 IAM - Saison 5 0204 Passi - Révolution - 1604 Haroun - Au Front 1604 Rohff - Au-Delà De Mes Limites Classics Réédition 1704 Smoker - La roue tourne 2304 Artistes Multiples - Compilation Chroniques de Mars Vol.2 2304 Enigmatik - Un Nouveau Souffle - 2304 La Rumeur - Du Cur à l'Outrage - 3004 Salif - Boulogne Boy Street Album XX04 Artistes Multiples - Compilation Délepenisons Mai 0205 Artistes multiples - Compilation Opinion sur rue Vol.3 0205 Psykick Lyrikah - Acte 0705 Dabaaz - Moi, Ma Gueule Et Ma Propre Personne 0705 Les Grandes Gueules - On ne peut pas plaire à tout le monde vol.2 1405 Brigade des mineurs - Brigade des mineurs 1405 Expression Direkt - D.Terminé 2105 Artistes Multiples - Compilation Traffic - 2105 Tar-One - À la première personne - 2805 Flynt - J'éclaire ma ville - 2805 Fatal Bazooka - T'as vu ? - 2805 Kamini - Psychostar World 2905 Manu Key - Prolifique Part 2 3105 Smoker - La roue tourne Juin 0406 Artistes Multiples - Compilation Il faut sauver le rap Francais 2 - 0406 Idir - La France des couleurs 1106 ATK - Silence Radio 1106 Mokobe - Mon Afrique 1106 Wouilo - Nouvelle Generation 1806 LIM - Délinquant Maxi - 1806 Mc Solaar - Chapitre 7 1906 MAF - Interdit d'illusion 2506 Artistes Multiples - Compilation Tetes Brulees Vol 4 2506 Demon One - Mon Rap 2506 Samm Coloquinte - Plus rien à foutre Juillet 0207 Rohff - Le cauchemar du rap Francais 1407 Many - Nerfs à vif Août 0208 Ahmad - Le môme qui voulut être roi 2708 James Delleck - Le cri du papillon 2808 Stomy Bugsy - Rimes Passionnelles Septembre 0309 Leeroy - Open Bar 0309 Oxmo Puccino - La réconciliation 1009 Alibi Montana - Inspiration guerrière 1009 El Matador - Parti de rien - 1809 VII - Lettre Morte 2409 Fat Cap - A l'arrache Octobre 0110 Artistes multiples - Marseille connexion Vol. 2 - 0110 TSR Crew - A quoi ça rime ? 0110 Bakar - Rose du béton - 0110 Hocus Pocus - Place 54 0810 Monsieur R - Ché guevara, Une braise qui brule encore 1510 Passi - Evolution 1510 Rockin Squat - Too hot for TV 2110 Smoker - Gangsta Music vol.1 2210 Alpha 5.20 - 3025 avant Rakailles 4 - 2210 Don Choa - Jungle de béton 2210 Jeff Le Nerf - Tout ce que j'ai 2510 Rouda - Musique des lettres 2710 LIM - Délinquant Double album 2910 Dontcha - Maxi Calibre - 2910 Enz - Ma Boutique 2910 Kamelancien - Le Charme En Personne Réedition Novembre 0511 Ol Kainry - Demolition Man 0511 Zakariens - Avenir en suspens 1211 Soprano - Puisqu'il Faut Vivre Réedition 1911 Aketo - Cracheur 2 Venin 1911 Idjal - Tiré d'histoires vraies 1911 Mc Arabica - L'Egalité dans la différence - 1911 Mino - Il était une fois 1911 TLF - Rêves de rue 2611 NTM - Best Of 2611 Rim K - Famille Nombreuse 2711 Sofiane - Première Claque Décembre 0112 Karlito - Ozas - 1012 Sinik - Le toit du monde 1112 Bouchées Doubles - Collector - 3112 T.I.S - La Petite Voiture Dates non connues Artistes Multiples - B.O Scorpion 2Bal - Mapassa Carpe Diem - En Temps Voulu Chodo - Sans règles Eech - Get Eech Stop Crying Kalash L'Afro - Cracheur de flammes La Spirale - Ni Dieu Ni Maître La Swija - Track One Tv L'Hexaler - Démo Mysa - Les poésies du chaos Pit Baccardi - Collector 1997-2007 mixtape Stress - Renaissance Artistes multiples - Compilation Neochrome hall stars X-Men - X-Story Zaho - Zaho La Mixtape2</t>
+          <t>Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Got your bitch, thats a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Got yo- I'm running down the fucking universe In a purple vert, Pink Flame Playin' while a nigga diggin' in her skirt Switch it up, take her to the back Like I do with her, splurgin' Yeah girl I know you're not a virgin So twerk it After I work it baby you're worthless Curses, but my dear I'm just blurring Roses, just turned a nigga into Moses Any given reason I open up in the ocean I'm stroking, playing slow motion Juvie, who me? All up in her head like a kufi Ooh wee, Denny Cascade is a cool G Realest nigga ever I meditate on mount Fuji With a lady that resembles Lauryn Hill Welcome to my world, the red and blue pill Morpheus, really wanna know just what you're working with We chop it up, we break it down And then we never work again Bitch Got your bitch, thats a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Root of all evil Woke up in a Martin car, my chain look medieval Leandoer, bitch, Ill thrash her like a Weavile Money in the needle, Glock empty, re-load we know Drop-top in the whip fucking bad bitches Seeball I'm the 5th Beatle, talking is my detail Yung Lean a young fetal, smoking loud in the cathedral Half an ounce of lethal, half an ounce of peaceful Glock to your head, pop goes the weasel Half an ounce of lethal, half an ounce of peaceful Glock to your head, pop goes the weasel Dank got me flying over state, counting stacks is paper Where my mind running circles, certain Intoxicated, leave your luck to faith No need to negotiate Hide the dead bodies so we count the weight Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch That's a bitch named bitch That's a bitch named bitch That's a bitch named bitch10</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Say Ya Grace</t>
+          <t>R.I.P 2 R.I.P | R.1.P 2 R.1.P</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>First off, I told Murda this ain't a battle about no PG step, nigga, it's to see me reset So let's get it done This nigga talkin' all that, this and that But denyin' the fact I'm a aristoc'at aristocrat a risk to cat You kitten, son? This nigga PG Step all the way to the top for this shit to plunge And Daylyt stamps the shit And you run with it You dumb In that moment, I noticed Nigga, where'd you get it from? Nigga, that style mine, and it got no name until I give it one And I'm the biter, this writer shook Like nigga, let's fight, and a life get took A uppercut, mixed with a litle me, he gon' bite the hook It's real her I took a verse, right? But so what? Nigga, I ain't gonna steal hre That's why the gun so big, I left it home and it's still here Nigga, look, quick question, which new team did you hear that I'm repping? Nigga, I got a mind of my own, my conscious has holes, so for pretending not to murk ya section I will go off But nigga, as soon as I get to turn that weapon, and still steel do it again like, I ain't learned my lesson You basic as shit, like I bet they gon' call Prez Mr. Hide My Bars 'cause he be takin' em shits, so that a hundred dollars and Mulatto Black and gon' pay for the shit, but Constipation, think about, he be making me sick Nigga, I sat down on this round and pushed, I ain't takin' this shit Nigga, fuck Dre Nigga, I don't care what tool he got, or who he shot Swear to God on RBE, you ain't Cash Capone a fuckin' booty pop, is that true or not? Plus my dog Brian, he got a ruger cocked So duck the lowest Lois, or you gettin' Stuey Stewie shot I said, this motherfucker don't like me point And I get to blacking on screen like a Spike Lee joint 'Cause I heard that Bonus the shooter And even Charles spray weapons So if Dre don't take deep cover, it's a 187 Fuck a gun play reference, I may get in ya face Like I saw your battle with Trez, the shit's a disgrace Nigga, you punch for nothing, and got dragged in a miserable way But welcome back Mr. Hide My Bars, I'm from the X and my niggas just been itching to sell Smack You let 'em eat on the PGs, he think this shit's a buffet But then the fat nigga get a chef that cook food and couldn't finish his plate So at the end of the day, give 'em at least the clip from shots blammin' I treat the bitch, after the pieces hit, like I'm scammin' Damn it Step in this ring with a plan, you don't wanna brawl Catch a stray, but you could visit the pound if you want it, dog I'm in Longside, New Jersey, low, gun involved I read ya town's population, and nigga, who are you gonna call? 'cause Dre, ya town small as shit And I brought a drum for all 2931 of y'all I'm gunning for, you know that John bitch like Gotti's girl I stick him up until his insides settle and top'll twirl As for your bitch, yeah, miracles happen, he got a girl And she petite, you threw The Weeknd on, made her body twirl She started ridin' as soon as it came on, Bobby's World A lot of niggas is talkin' with no proportion shit But you even gotta pay a price when you die, you heard of coffins, bitch It's fuck the world twice, nigga, seems unfortunate But if I'm such a dick, hop off of it Morning, bitch One round down Woosah This nigga was too quick to snatch a rack They wouldn't even let this nigga on Smack Why y'all let him back to battle rap You might've started the PG Step, but bitch I made it great Anyone that mentions the shit, they be sayin' Dre URL was like making facial changes on a created player, they help you save ya face They was tryin' to protect the kid from the Step like a baby gate My gorillas get ugly in the hood, these is Bathing Apes Fat nigga, I'll bow ya head over food, nigga, say ya grace Fuck a one on one, me and my gun are the greatest mates The strap heavy but it help me jump better like ankle weights I took my time, I ain't rush in Russian, soldier, I ain't a Soviet Y'all old niggas playin' past y'all prime, kinda like Kobe is This won't be a tie, recent battles you haven't shown me shit I show y'all I could fuck up a vet off Smack worse than worse than Jody did He wanna enjoy the fruits of his labor because this bitch sweet Go to his crib to black buried Blackberry and we gon' dig deep Don't need a key, we kiwi know you honey do honeydew, so we'll send heat And have a pair fire at Prez, like he got impeached peach These niggas with little heart thinking they could ride along Young guns ain't really workin', but they swear they tommy strong My mindset like using a public bathroom and shitting there inside the stall Because I don't wanna leave 'til until everybody gone Niggas done gave me the short end of the stick, I'm talking loyalty that, y'know loyalty this I'm keeping shit straight up, this is last straw And it's funny how, these pussy 'never come out the house' cats finally find somebody else barkin' out of your backdoor I'm pissed, so for the green, you wouldn't like me when i'm angry, bitch 'Cause I'm my class' Hulk, and if I spazzed off Even my pants might sag, pause Nah, you see, that was a hidden bar, for you aren't ready for the rounds I'm wastin', I rapped my ass off Tryin' to conceal the plug and I don't feel ya love, then I'mma steal on ya bud like piff did They say he crazy, Prez obese baby bed, that's a big crib Tell ya uncle, stay home I kill a restaurant, better chill, these niggas won't get they babies back Nah, nigga, this ain't forgiving Just note that I said barbecue, 'cause the finger lickin' Tia and Tamera, once I split this image, you'll see the difference I let a billiona air billionaire, 'cause you have to pay toupée, you seen Apprentice? Donald Trump, I won't murk ya bitch, but if that hoe tell, then we in business Nigga, I came back regardless of the hate like fuck fake, y'all niggas likin' Go 'head and act if you want, just don't hate, this momma Jones on a smoke break, the ratchet'll spark I paused the game to take a piss, that mean I'm back from the start And these fans Now the fiends watching him like the back on a shark I said nah, or did I? Nigga, that's the question at hand Nigga, let's address it It all started-- 'cause-- I wouldn't-- Nigga, dead it It wasn't to better the plan but I did tarnish my name And got life lessons from fans I looked at it as a Mario game 'Cause one shell ain't make me less of a man Shoutout to Smack Y'all see a nigga back Whoever said that Prez dead Prez back, demeanor is intact Let's keep it facts Y'all niggas think I'mma lose , picture that Nigga, I'm keepin' it cool to ya boo, tit for tat And fuck a Infrared dot He gon' see how good a For tryin' to Cookie the empire They call us clones Nigga, I used to fill in my Shit I used to have small apartment, Dre, I bought some chrome Nigga, the shit is so big When I brought it home, I bought a home And I suggest you kneel, when I shoot shots, it sting No I propose you getting a big box Right after the leg drop, it ring No I propose, you getting bow, can he survive like Dr King Balcony, survive like Dr King Nigga, not with me, Woosah Let's get to that old Prez Smoke bastard In the end Indian, a brother step wrong, and get the strap for nothing mack I don't know what's worse Me taking another nigga' raps, or letting the trap down You know, like how Joe Jackson did Mr. Rat Let's take it back When I first started, they said I'd be flipping tiers But then I took a verse, and the shit wasn't light The fans looked at me like lice, but still can't figure out how to wash me Like how did I get in here hair Shots'll flare Nah, am I down for that, ff, oxin', yeah But the box clowns Prez'll put the stock down, that's my career All heads Old heads take several seat, am I down for the rockin' chair Prepare to fight, think Scary Spice, I'm the wildest here hair Dot or Dre couldn't see me then Or with a group of yes men, that's lot of yeahs years And tell T-Top, with the porridge pull rich I pop a bear poppa bear I'm cleanin' up Nigga I'm goin' over the flow, like I missed a spot Look, listen, watch I got a itch to put dots over dots, that's chicken pox All eyes on me, which route did I take for the chicken, pox I let it spit Think nemesis, I ain't missin' dot 'cause nemesis is Whoever got you winnin' is a damn reach, Tryin' to let lead fly through a van seat The chopper strapped to my back How I get to this damn heat? Help me, bro Shit look like a back itch I can't reach I'm from where niggas pull out flags when you tryin' to ball Watch wherre you step, 'cause they gon' say you offside, so watch your lining, dog If you in the field, and you see a play, and you don't like the call, don't try to brawl 'cause you can waste your time out for nothing if you challenge wrong I smell death in the air, I'm a heathen when I'm breathin' He don't wanna taste the beef like he eatin' with a vegan If I touch the gun, you gon' hear it, I'mma squeeze it 'cause I'm heated Smell, taste, touch, hear I'mma give you the fifth since you gotta see it to believe it! I run away and let it ring, like a nigga a loc It's plain plane and simple like you sitting in coach It's a Scandal when I'm liftin' the toast Prez got a problem, this black bitch'll fix it like Olivia Pope! You wish to die, it'll get granted Put the fifty to his mug Put twenty on his head, and have him movin' up Like the Jeffersons We'll kill 'em for a dub Beat 'em up, and drew, and jack son And give 'em ten and use a snub Around five, I'm linkin' up, with some hitters that I trust And watching ten bullets fly, but I can aim at his head and give him one 'Cause Prez should be used to having his face in the middle of them bucks I was gonna bend ya man too, regardless I was gon' bust a lead To keep it a hundred, you still would get the buck if you wasn't Prez A savage, shit, I'm Cory I'll give him wings he don't deserve, this Harvey To get away from the shots, this nigga just hit the floor, see It remind you of Ezel in the liquor store, see This bum ain't really slick, but he still gon' get the forty Don't think I'm reckless, you dyslexic, you quick to read me wrong Ain't shit funny, I ain't riddlin' ritalin, I'll make you keep it calm The thing is drawn, and like a road trip, the other sing along I'll have you feelin' fill in the toast, like you tryin' new sneakers on If these bitch ride for ya, then these bitch die for ya With the miller, I'll see see Murda, I'm a master, P, it's shockin' ya I'll fuck ya little ass up, beat the G shit out of ya Little nigga, I'm 6'3, but you three six, Mafia Three 6 Mafia Fucking ya bitch is like the barbershop, 'cause she stay with wild sex She a freak, she sit in my seat, then bring the tape around next That bitch throw on a cover, then she pullin' my chair up She sit on the wood like a kid getting a haircut I eyeball work, I hate the scale, you can tell by my fitness If I hear about your work like orientation, I'mma come by and visit I'll bring the shotty on his block, and aim the snub while he pitching That's what I mean by sticking my nose in somebody's business Sell straight coking, no shortcuts, no Dej Loaf-in You don't never see me play like Greg Oden Straight potent, I break up the rock Roc like Dame, Hova So I'm pushing keys to my death like Beethoven Same slogan, it's Loud Boys, niggas knows it's us When we rollin' up, we already rollin' up Loud Boys, Jersey I'm the wildest Not Rasheed, that just mean, that I been Ben a problem And old heads said aim at his whip, over the brick, I'll hit you and whoever they send to block cinder block There's a lot of stake For acting tough, as soon as we meet, you getting hit with the metal, I tenderize 'em Bow Wow What's Bow Wow's ex bitch, Erica? Well, wherever he hidin', my men'll find him Straight heat, ready for war for sure, clip , one round down like a hole in the floor I'm not gonna dwell But Boom told me to give you coke and it's raw Hotel room, I got the green light opening doors Home invasion, I'm only here to get them digits in and out I run in the spot, like where Dre?, of course he in the kitchen, piggin' out Fuck how y'all feel, for talking I put the Smith up in his mouth Now he Garfield, pussy was just kitten on the couch Why him, fuck a Woosah, lame, get me upset This clip got no limit Soldier bitch, that's Mia X No I aim it and watch they man dash Damon Dash, that's Aaliyah' ex You don't wanna get plane crashed on like Aaliyah jet Get his in the throat with a Nintendo controller, 'cause we Wii up next You done all you coulda did, you jerk, but this is really the time for when this bitch get murked I mean the real definition of 'here is where the shit gets worse' SIG clap, got a kick back, like he hit me first And the sad part is you walk around like you some writer Bow, his family mourning, find his brains in front of a lawn so his dome got hired That's a Mitchell Ness Heat jersey, my throwback fire You ain't seen shit, you waitin' on somebody to tell on a nigga, Boom, you shoulda called out Myers It's Prez Mafia, I brought the clock for ya fuckin' scared, I'll pop chrome, I'll give you a knot not home, like you wasn't there Think Dre featuring 2Pac fuck a flare I let a cal lift on ya, love ain't in the air California Love Dre, once I clap back at ya lackey, you meeting God, think anymore I'll pack son out back, we don't need a target If I catch him in that store, cheesin' calm Then the heaters spark I let three froze But watch cheap clothes, why flee flea the market If Surf can say the chopper's out like Welvin, and he the god This Nina bonkers, pop bro, whoever uncool uncle shot, that's Peter Parker So suburban He never been around them niggas that's been them riders I know low rider Bloods that's givin' out transfusions you mention drama Or them big locs that hang around with them folks, give a clip, that's karma comma When you see a playboy throwin' up bunnies on ya block with a drum, it ain't a Energizer Pardon my You know my partner's a loud boy, he got Tourettes Syndrome The nigga don't know he be acting stupid, y'all Like I said I want John John, tell a nigga I'm ready to get a Don knots donuts for not knowing when three's company But when two are involved, you move in, jack and I don't give a fuck who feel that bar Tell Dougy he shoulda said, I'm still a nigga that keep wheel still steel like a boot on the car It makes sense, honestly, I don't know what to think of this They got me faced against battle rap's Weird Al Yankovich A big dummy I slide the common part of sentence, I showed a pair of these parodies, the clip funny City, after you shoot this bag, please have my cash like Mitch Money What, y'all ain't peep, cousin Shoot this bag, please have my cash, that's Mitch Money Peep, cousin No , you eat nothin' Shots, I'm sendin' em out Don't say shit, or a clip'll come out And as a child I was taught not to talk with a fifth to ya mouth Dedication and hard work, that's what lyrics about Like I said, I had to sit and push for this shit to come out Keep givin' 'em clout I ain't do this shit for you, this shit for the crowd For the folks And sayin' I took some shit I was battlin' Took and shit And I took the shit with a smile For the folks who really loved me and remember my style Zike a fat bitch on a seesaw, it's about to go down Hoffa The only reason why I called him Hoffa is 'cause his friends is some busters, think about it Look author Arthur, why convert the bull when I red tops Count on the head Shit, if you just don't want it, get slap boxed 'cause I mastered rounds and angles, both behind metal, every word that I write in my pad, locked And this round is for my niggas that really don't have guap And since ya mouth brings less fortune, it's gon' have knots less fortunate, have nots WeGoHard, thanks for having me, nigga And guess what, it's two reunions, FTW, Faculty, nigga I don't care who feel some type of way, that's where the Grinch stay You bitch-made! I'll run up on you, with a switchblade Ch! Then switch blades! His head'll be red like Malcolm X in his pimp days Yeah, I stole it, bitch 'cause you took bars, and act like you wrote the shit There's one main rule in hip hop, and you broke the shit Fuck all the excuses, you was lazy and stole How many nights y'all stay up late and feel like y'all brain will explode You shoulda used your art and craft and tried making ya own I know things was rough an' Ruffin you shoulda left the Temptations alone You said, I'm only here to make shit worse But I break fast, 'cause I'm quick to grab the toast like I'm late for work But you stole ya homies' bars and had to take his words So you had another nigga punch for you like you was late for work You got a black prostitute mindset 'cause nigga, you fuckin' cheap You'll break your word to leagues That shows your trust is weak How you steal deposits to give your soul food just to fuckin' eat You a take plates without showing ya face like uncle Pete You break your words as a man when your funds is dropping You steal bars and deposits, you a bum with problems Like Paula Patton, I hope you done with robbin' Robin 'cause you don't help your team rock, it's a shame Let me explain 'cause you use the trap wrong like Jesse and James The trap was in your corner, motherfucker Bloodsucka Sad leech shit He betrays anyone that hugs the bull Huxtable, this man Heathcliff They was protecting you, doing mad weak shit Now you just lost your full court, Prez 'cause you fucked up the trap defense Yo, we was scheduled to battle last year, right Got to the event and we heard it was closin' Since we ain't battle, we ain't get paid He was stuck in Jersey, just broken-in So you stayed at my man's crib, and he was servin' you coke-ing I know all about you snorting all them percs up ya nose in I saw him before the battle, he had worried emotions I went to give him daps, and he thought I was Mercy and frozen You say you power forward, but Burstin' a forward My state will make him hurt any moment Jersey Comin' outta nowhere like Surf when he choking Who gave this scary nigga stripes I think he Beetlejuice On Smack, you'll call Murda for problems, did it on TV too But when in Pittsburgh, niggas was gon' jump Murda I could see the proof he was callin' You was unreachable You answered in battles but couldn't when he needed to Let me speak to you 'cause I made observations And me and Bonus be having the same conversations Yo, Bonus I fronted Prez a quarter for five hundred, but this man's a sucka So I'mma need that giant Bronco, so fam is covered We understand each other See, giant Bronco, was me gettin' that quarter back Related Since he lie, he gotta pay ten, see what this man in, brother You got no heart, so like a bench player, don't start Chrome spark Better give interest to them bucks, like a loan shark You lean on me, I'm firin' the old Faculty like Joe Clark I smoke ya weed and won't pass gas like farting not cool Go to his crib and I won't march in like Marvin Nah bull, I'll be a mechanic, in a car with my tool Just waiting for you to come out ya spot like the parking lot full So tell this shallow nigga, don't play in the deep end I'll wave and drop a player like Dre Den' a GM While he grieving, I'll get a MAC And take him to see him That mourning morning over when I put a M AM to PM Your bitch love to show her ass like her jeans was sagging She a ballhog, I was surprised when I seen her passing And them cheeks I'm smashing I can't believe I had to keep going wild like a Steams reaction You freak skeezer, she a meat eater I call her carnivore Anyone acting rude been stutter, that's what they sorry for Gun in my jeans, saw it pulling my leg like a charley horse So the K9 going through a square like a doggy door I ain't wave my arms all battle, and you ain't see me flex But it wouldn't be me if I ain't do my PG step We wash you filthy niggas, so if you drop dirt My old shooters got chemistry, so crew not Spurs What I got in store, this count discount, like my coupon work I'll move the steel still nigga like You Got Served I'm fat 'cause I'm hungry You starving, you don't eat Closed mouths don't get fed, and pussy, you don't speak Basing a whole battle over size is so weak 'Cause what they call you when you heavy, wait, obese</t>
+          <t>Ooh, ooh, ooh, ooh Came back hard 'cause you think it's a joke Thought I fell off but I came back for more Young Zeltron go zero below I stay cold, that's from head to toe You on the pole, you on a bean I can make a bitch seem like I'm the dream No fourteen, nigga, this thirteen Got hella hoes like the state of Beijing Bitch, I'm sick like the measles Bitch, I ball like the Eagles Y'all niggas looking like Sméagol Got a lawyer and a paralegal Free Lil Pump Too cliche if I said, Fuck Trump Try one of mine, bet a nigga get jumped Jump Came from the bottom I came from a swamp With alligator shoes, off the avenue Making money day, and night, and afternoon Went from making music tryna balance school People called me gook and yet I made it cool What the fuck can you say about the nigga Denzel Curry, mane Bitch, I got it from the dirty, mane And I did it under 30, mane 30, mane Got a whole pocket full of sherbert First, second, third verse, heard your mixtape, never heard worse Niggas wanna con, never converse They just wanna ride a nigga wave 'cause a nigga making commerce Denzel use too many big words Yup Sounds like y'all niggas watch Big Bird Yup Girls wanna talk but way back then like a fine fat bitch I got big curves You'll concur if you've been there, nigga This ain't style, this swimwear, nigga Everybody know that a nigga drip hard Got hoes begging for the skin care, nigga Young'uns wanna hate but I don't care, nigga Old heads hate when they lose hair, nigga Sorry but I don't compare, nigga I can do it all and it's not fair, nigga Y'all wack as fuck, bitch I'm black as fuck Fuck They be asking why I'm acting up Up 'Cause you ain't down with us Us On the bus, fuck a bust down I'd rather bust a nut Bust a nut I don't trust niggas talking down but wanna keep in touch Fuck nigga Y'all wack as fuck, bitch I'm black as fuck Fuck They be asking why I'm acting up Up Cause you ain't down with us Us On the bus, fuck a bust down I'd rather bust a nut Bust a nut I don't trust niggas talking down but wanna keep in touch Ugh13</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A Day in the Life of Denzel Curry Pt. 2</t>
+          <t>Lil Scammer That Could</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>I do this for my niggas I do this for myself Enter my mind That's all I can say nigga Five in the morning turn to six, my life has turned into a bitch With the fucking wettest clit in the galaxy Rapidly tripping and rapping and snapping And killing my niggas that coming through blasting And looking for money, and looking for magic We sticking together like metal and magnets Lutrashious, me and Mercedes up in the condo On the phone for nine months, we sparked the conversation Enter the void, mind escaping Racing, plus my heart rate went blazing Ganja, as I ponder on graduation Threats hit a nigga, the points where I could make it Not a contract, could take what I created Not on paper, my clan-name erased it Down nigga, since day one, I never hate shit Same nigga tat 2-7-5 on the pavement Got highs and lows on one path of greatness Eighteen years of life, larger than basic Markese, Andrew, Darnell, et cetera It's still my niggas, know things will get better but Things take time, and all things change Some people venture off and make they own lane But the place is just the same from the F.L.A But my cuzzo Chynaman got hit with the eight from the clip And my nigga William had his last trip When he hung his self in his room Roll up the spliff as I puff one, puff two for my niggas Then three for the niggas that be hating Nigga, I don't care, Aquarius Killa, the Mack Talk your girl up out her underwear Let me bite that pussy like a god damn juicy bear Suicidal thoughts, I'm on my head to make it clear Another life and day, hallucinate got me in my rear Lamborghini dreams, Freddy Krueger is my shooter Raider still the klan, but C9 is the future, bitch Na na na na na na, na-na-na na na Synthesize, and realize, that life's no game Synthesize, and realize, that life's no game Synthesize, and realize, life's no game, no No game, no game, no, no game I should have said it's no game, no No game, No game, no Synthesize, and realize, life's no game Synthesize, and realize, life's no game, no game Synthesize, realize, life's no game Synthesize, realize, life's no game Game over man14</t>
+          <t>Yeah, look at this James Delgado Would you look at this? Look at this, way too many hoes on my dick Dick I can't even take a fuckin' piss, huh Big weird, stop actin' like R. Kelly, lil' bruh Huh? Fake woke hoes, they just fuckin' for brunch Brunch Bitch, my money longer than the DMV line, line Yeah Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Bands Take over the world 'cause I think I can, I think I can I know I can, I go again, these niggas is annoying Yeah I'm flexin', I flexed on 'em, rub it in like ointment They throwin' bands at my bitch, my ego is enormous Gigantic, I see your antics, you an informant 'Forming, these niggas snitchin', these niggas bitches Hungry, I'm eatin' bitches and shittin' riches Indulgin', please don't interrupt me when I'm dozin' Paparazzi takin' pictures, I just be posin' They gawkin', I leave 'em jawless, I'm from West Oakland Dope fiends was my fam, I'm from where the dope is Took me for a store walk, served 'em, they got tore off Wipe me down like floor mops, I'ma rip the doors off Yeah I'ma put the doors up, the Tesla like a gull, uh Mmm Swipin' in your storefront, we come through, fuck your store up It's just me and James Delgado scrubbin' cards down on the marble Drink my liquor straight from bottle, shooters with me hostile Look at this, way too many hoes on my dick Yeah I can't even take a fuckin' piss, huh Piss Big weird, stop actin' like R. Kelly, lil' bruh Never Fake woke hoes, they just fuckin' for brunch Mimosa Bitch, my money longer than the DMV line, line Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Huh? Take over the world 'cause I think I can, I think I can I know I can, I know I can, I'm juggin' off the Instagram I swipe it all, I gotta scram, proceed to hit the running man What you know about a scam? Wanna pull up in a Lam'? Tired of sittin' in a kitchen every day just eatin' Spam? Fuck diamonds and pearls, I want all the coal and all the clams Bought me a new iPhone and see all the apps are holograms Dodgin' ham, pig, oink-oink with the body cam They will never catch me, fuck the law and I don't give a damn Ooh Back in the day it was me and my goons I came from Carol City, caught a flight to Cancún My nigga from the Bay is a boss tycoon R.I.P. to Mac Dre, he was gone too soon Real nigga here, so you better make room Chopper street sweeper, hit that man with the broom I gotta bet it all 'cause a nigga can't lose I gotta bet it all 'cause a nigga Look at this, way too many hoes on my dick I can't even take a fuckin' piss, huh Big weird, stop actin' like R. Kelly, lil' bruh Never Fake woke hoes, they just fuckin' for brunch Mimosa Bitch, my money longer than the DMV line, line Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Huh? Take over the world 'cause I think I can, I think I can, I6</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bitch Named Bitch</t>
+          <t>Izayah</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Got your bitch, thats a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Got yo- I'm running down the fucking universe In a purple vert, Pink Flame Playin' while a nigga diggin' in her skirt Switch it up, take her to the back Like I do with her, splurgin' Yeah girl I know you're not a virgin So twerk it After I work it baby you're worthless Curses, but my dear I'm just blurring Roses, just turned a nigga into Moses Any given reason I open up in the ocean I'm stroking, playing slow motion Juvie, who me? All up in her head like a kufi Ooh wee, Denny Cascade is a cool G Realest nigga ever I meditate on mount Fuji With a lady that resembles Lauryn Hill Welcome to my world, the red and blue pill Morpheus, really wanna know just what you're working with We chop it up, we break it down And then we never work again Bitch Got your bitch, thats a bitch named bitch Got your bitch and my bitch That's a bitch named bitch In my, in my Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch Bitch Root of all evil Woke up in a Martin car, my chain look medieval Leandoer, bitch, Ill thrash her like a Weavile Money in the needle, Glock empty, re-load we know Drop-top in the whip fucking bad bitches Seeball I'm the 5th Beatle, talking is my detail Yung Lean a young fetal, smoking loud in the cathedral Half an ounce of lethal, half an ounce of peaceful Glock to your head, pop goes the weasel Half an ounce of lethal, half an ounce of peaceful Glock to your head, pop goes the weasel Dank got me flying over state, counting stacks is paper Where my mind running circles, certain Intoxicated, leave your luck to faith No need to negotiate Hide the dead bodies so we count the weight Bitch, that's a bitch named bitch Got your bitch and my bitch That's a bitch named bitch That's a bitch named bitch That's a bitch named bitch That's a bitch named bitch10</t>
+          <t>Two-tone diamonds 'bout to blind everybody Blind everybody And your girl, she hooked on phonics Yeah 'Cause she do whatever I say, ayy Do whatever I say Money don't solve my problems My problems But I'm doin' good, I James Delgado! Ayy, stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the bank Stealin', stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the Huh? Take it all Stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that Yeah, ayy I come from Psycho's and I'm finna be that way When I unlock all my chakra, bruh, my enemies gon' pray When these fuckboys gon' come try and it's finna be that day Got this beautiful woman with me and she finna be that bae She said that pussy taste like ice cream and I'm finna eat sorbet If my brother got that chopper, bet his enemies on skates Yamaguchi, my wrist frosty, my mind, I almost lost it My main bitch got that test back so she know that she ain't caught shit We just bought shit, she just talk shit Ayy My nigga Dee be off shit Yeah That chopper love to sing, but shit, sometimes it just be talking, ayy Fuck that little bitch, she a catfish Feeling like JID, never had shit, had to grab shit, had to swipe shit Had a white bitch with a wide trick Pulling all the bitches every time he would pipe it Yeah Call up Zay, know he tote, he gon' spray All his foes better stay on them toes, in the bank At the shows with the crows and the clout fucking hoes Bustin' down with the bros in the Bay, we gon' stay, always Stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the bank Stealin', stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the Huh? Stealin' all the motherfuckin' money out that bank Stealin', stealin' all the motherfuckin' money out that bank Maxo, Maxo, Maxo Whoa, Kenny! Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I'ma scam a nigga dough, Hardaway for the penny Screamin' Fuck the popo 'til the law come get me Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I'ma scam a nigga dough, Hardaway for the penny Screamin', Fuck the popo 'til the law come get me I'm sorry, Your Honor, huh Persona my posture, my etiquette proper Flippin' the drop, uh-huh Oh, what? Convertible dropper, it came with a choppa Write me a script when I go to the doctor Servin' new J's like I work at Foot Locker Fuck on her face and I empty her wallet Took it to Chase to withdraw a deposit I can't love that ho 'cause that lil' bitch be boppin' Water VVs, it came from the faucet CVVs, we 'bout to go shoppin' High-Tech lean, pints out the closet Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I was stealin' all the motherfuckin' money out that bank Maxo, Maxo, Maxo, ayy Why the fuck I need a loan for police to leave me alone? Once you makin' provolone, they think you sellin' from your home Motherfuck these maricóns, excuse me, I'm not bashin' shit I open safes like open sesame now there ain't no cash in it Crash the whip like I'm Crash Bandicoot then get my bands a coupe Bands are blue from what they hand to you, my guap is tangible Sayin' to you, My shit's phenomenal, I'm a phenomenon Back in the days, my boys was starvin' and it wasn't Ramadan Octagon, if it's about my feet then the boy get dropped If it's paper over pussy, best believe everything gon' pop When I walk into the building now, it's open the close-up shop When I I was stealin' all the motherfuckin' money out that bank Ashley Banks, Carlton Banks, Hilary Banks robbin' a bank Outta your league, outta your rank, wanna be us but niggas can't I know your girl, she just a skank, you got a gun, I got a tank All this shit random but I gotta thank All of my niggas for breakin' the bank, bitch4</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>R.I.P 2 R.I.P | R.1.P 2 R.1.P</t>
+          <t>Skywalker</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ooh, ooh, ooh, ooh Came back hard 'cause you think it's a joke Thought I fell off but I came back for more Young Zeltron go zero below I stay cold, that's from head to toe You on the pole, you on a bean I can make a bitch seem like I'm the dream No fourteen, nigga, this thirteen Got hella hoes like the state of Beijing Bitch, I'm sick like the measles Bitch, I ball like the Eagles Y'all niggas looking like Sméagol Got a lawyer and a paralegal Free Lil Pump Too cliche if I said, Fuck Trump Try one of mine, bet a nigga get jumped Jump Came from the bottom I came from a swamp With alligator shoes, off the avenue Making money day, and night, and afternoon Went from making music tryna balance school People called me gook and yet I made it cool What the fuck can you say about the nigga Denzel Curry, mane Bitch, I got it from the dirty, mane And I did it under 30, mane 30, mane Got a whole pocket full of sherbert First, second, third verse, heard your mixtape, never heard worse Niggas wanna con, never converse They just wanna ride a nigga wave 'cause a nigga making commerce Denzel use too many big words Yup Sounds like y'all niggas watch Big Bird Yup Girls wanna talk but way back then like a fine fat bitch I got big curves You'll concur if you've been there, nigga This ain't style, this swimwear, nigga Everybody know that a nigga drip hard Got hoes begging for the skin care, nigga Young'uns wanna hate but I don't care, nigga Old heads hate when they lose hair, nigga Sorry but I don't compare, nigga I can do it all and it's not fair, nigga Y'all wack as fuck, bitch I'm black as fuck Fuck They be asking why I'm acting up Up 'Cause you ain't down with us Us On the bus, fuck a bust down I'd rather bust a nut Bust a nut I don't trust niggas talking down but wanna keep in touch Fuck nigga Y'all wack as fuck, bitch I'm black as fuck Fuck They be asking why I'm acting up Up Cause you ain't down with us Us On the bus, fuck a bust down I'd rather bust a nut Bust a nut I don't trust niggas talking down but wanna keep in touch Ugh13</t>
+          <t>Oh my god, Ronny I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories I can't even fathom the way I've been livin' I'm tripping out, too many people be all in my business I'm ripping out my hair follicles 'cause Everybody want a particle of my soul If I have one, I can't even fathom Oh, Lord, they put me on the fire If they can't love ya, they try to crucify ya Took my nigga Moses and took my damn messiah When I'm under siege, I can only get higher I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories It feels like you're ripping the skin off me Too many parasites, please get off me I'ma do what the rain does But when I go outside, it's like it rain blood You just a hoe so you'll never be my main blood You say we bros when we never shared the same blood So my god, get the fuck out with that bullshit today, uh Fake shit get hit with a full clip today, yee I need a sign, uh, I'm out my mind, I Never had love cause they say love is blind, ah I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories I can't even fathom the way I've been livin' I'm tripping out, too many people be all in my business I'm ripping out my hair follicles 'cause Everybody want a particle of my soul If I have one, I can't even fathom Oh! Oh! Oh! Oh!19</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lil Scammer That Could</t>
+          <t>Extinct (Extended)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Yeah, look at this James Delgado Would you look at this? Look at this, way too many hoes on my dick Dick I can't even take a fuckin' piss, huh Big weird, stop actin' like R. Kelly, lil' bruh Huh? Fake woke hoes, they just fuckin' for brunch Brunch Bitch, my money longer than the DMV line, line Yeah Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Bands Take over the world 'cause I think I can, I think I can I know I can, I go again, these niggas is annoying Yeah I'm flexin', I flexed on 'em, rub it in like ointment They throwin' bands at my bitch, my ego is enormous Gigantic, I see your antics, you an informant 'Forming, these niggas snitchin', these niggas bitches Hungry, I'm eatin' bitches and shittin' riches Indulgin', please don't interrupt me when I'm dozin' Paparazzi takin' pictures, I just be posin' They gawkin', I leave 'em jawless, I'm from West Oakland Dope fiends was my fam, I'm from where the dope is Took me for a store walk, served 'em, they got tore off Wipe me down like floor mops, I'ma rip the doors off Yeah I'ma put the doors up, the Tesla like a gull, uh Mmm Swipin' in your storefront, we come through, fuck your store up It's just me and James Delgado scrubbin' cards down on the marble Drink my liquor straight from bottle, shooters with me hostile Look at this, way too many hoes on my dick Yeah I can't even take a fuckin' piss, huh Piss Big weird, stop actin' like R. Kelly, lil' bruh Never Fake woke hoes, they just fuckin' for brunch Mimosa Bitch, my money longer than the DMV line, line Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Huh? Take over the world 'cause I think I can, I think I can I know I can, I know I can, I'm juggin' off the Instagram I swipe it all, I gotta scram, proceed to hit the running man What you know about a scam? Wanna pull up in a Lam'? Tired of sittin' in a kitchen every day just eatin' Spam? Fuck diamonds and pearls, I want all the coal and all the clams Bought me a new iPhone and see all the apps are holograms Dodgin' ham, pig, oink-oink with the body cam They will never catch me, fuck the law and I don't give a damn Ooh Back in the day it was me and my goons I came from Carol City, caught a flight to Cancún My nigga from the Bay is a boss tycoon R.I.P. to Mac Dre, he was gone too soon Real nigga here, so you better make room Chopper street sweeper, hit that man with the broom I gotta bet it all 'cause a nigga can't lose I gotta bet it all 'cause a nigga Look at this, way too many hoes on my dick I can't even take a fuckin' piss, huh Big weird, stop actin' like R. Kelly, lil' bruh Never Fake woke hoes, they just fuckin' for brunch Mimosa Bitch, my money longer than the DMV line, line Cartier my eyes, got my VVV's blind, blind, blind VV's Money talk, so you not speakin' bands Huh? Take over the world 'cause I think I can, I think I can, I6</t>
+          <t>Yeah I'm just sayin' that, yeah I just, damn Ahem Yeah, yeah I take my licks in the storm That storm headed, them doors severed Fly around the chicken, I'm more breaded, my Lord better Success in the air, my pores said it They say I'm the greatest, nigga, them whores said it Hopped in the Rolls, 2020, lock and I load Pop Shit explode Dot, Big Sean, Electron', feel like I gotta Control My music connect with the people And bridgin' like the top of th nose Soul, let 'em know 'bout thm blocks that we rose from Legend in my city, must acknowledge it I hustle 'fore I fight, head down, Nate Robinson, wait Similar to Nate 'cause we was runnin' from Jakes while makin' plates I'm gettin' bread still You niggas runnin' in place, I'm tryna treadmills Monte had to sit down, so fuck the feds still Got out, mansion in Victorville We from the gutter, nigga, all day So now, it's ghetto ponytails, nigga, we've come a long way REAS' Look, ugh Niggas want my old shit Ooh, buy my old album Yeah And tell your favorite rappers, Come see me and peep the outcome I put a X right beside his name like Malcolm And give his head to the nigga that he stole his style from Heee, brrt, brrt I got a list of niggas to kill, don't ask, How come? Boom, boom, boom Don't ask no names, just pray that you not one Not one I ain't playin' with these niggas, but they still is my sons And fuck your top five if I ain't your top one Ooh These raps written in blood I got lit off the buzz Uh-huh, know how I'm feelin' this bud Right I'm the king of my city Facts, and I can feel all the love Uh-huh There ain't nobody to trust Nope, if niggas ain't one of us Nah I see through the poker face, dawg, I'm callin' his bluff I shine like a multifaceted gem in the rough I'm passionate with every pen that I touch Uh-huh It's like I wrote this shit in cursive What else? Right God MC flow Woo, nigga, these is Bible verses God, yeah The feature fee won't include the hearses No Same thing you gifted with is what youll be cursed with What? Soul-searchin' 'til my flow's perfect or Im lyin in the morgue Thinkin', Damn, they don't make 'em like this anymore Yeah, yeah, ugh Who left the bricks on the floor? We too big on the boards, whoa Smooth nigga, off the bench, I'ma score I could hit a million hoes that's legit, but I'm sure They don't make 'em like my bitch anymore Who let these kids in the door? You was 'posed to keep it closed Now, they in here throwing stones and break the window to my soul Ain't no remote chance in Hell I ever let 'em get control, ugh I surf the 'Gram and see the wave you niggas rode Go to the board for the lesson I'll be transparent with you, just don't be projecting Who taught you to be armed and use your guard as a weapon? Who told you hit your shell every time you feel threatened? You know that I been stressed, I smoked a quarter by afternoon I walk with a attitude I gave you niggas change and got no token of gratitude Like, what I gotta do to make you tap in? I might fuck around, start beefing with my rap friends Fuck you, REASON Before we roam, let me go back to the start 'Cause art imitates life, and life imitates art Once we start to dive in this knowledge and this wisdom They gon' always wanna box us in like it's cubism Knew about Picasso before I was a snot-nose Before I had a pot to piss in, and 'fore a hot stove Pressure is like walking across hot coal I'm cooler than a North Face in Norway, Oslo Everybody on this track is known to slay shit JID gave me a reason to snap on Zay shit Toy with my emotions, I am not one to play with I'm rapping with these Top Dawgs to chill with my down bitch That is no lie, I'm a nice guy and a wiseguy With a bright mind, fresh out of Muay Thai Don't like to beef with niggas 'cause they all pie Only time they really caught a body was in Far Cry Try to bring the Grammy to the crib, that's it Why die to be a legend when I live that shit? You could talk about my music, I don't give two shits Because sooner or later, you gon' ride my dick Icarus if I fall off, but I'ma soar Like a sprained ankle when I landed on the floor If you don't like the song, here's the exit door 'Cause they don't really make 'em like this anymore Bitch, we've been bored, I wish we could tour Girl, you need Christ, not Christian Dior Why you keep tryn' take pics with me for? Damn, they don't make 'em like this anymore A white boy broke her heart back in high school Now she told me she ain't taking white dick anymore Damn, are you sure? Cry when she don't get her way Damn, are you four? Stole her heart, now I'm tryna slide in the getaway The game chose me, baby, I didn't get a say I done watched a lot of rappers rise and disintegrate Paid attention to the styles I'm finna demonstrate This is how you do it, man World's getting too insane, turned a check into a chain Tuggin' on her NuvaRing, we are not the same If you fuckin' with my crew, then you got the right brothers, like we flew a plane Don't ask me about it, let your boo explain Look, say she don't know REAS', that shit too insane Old school, put my shorty on Biggie like Pootie Tang, do your thing Cap in all the raps, that shit won't stop Rest in peace, Breonna Taylor her killers, they should've knocked Wait, Jack, I'm in some pussy, I was knee-deeper than Funkadelics I am legend, that explain all the will that a nigga carry Talking real big wheel like Ferris Top, that's it from the greatest Newborn babies, that shit newly apparent, REASON I take my licks in the storm, bitch, do me raw Yeah, still fuckin' 'til six in the morn' Son, how I flooded out the wrist to reward Damn, they don't make 'em like this anymore Yeah, I fuck my bitch when I'm bored, rich from the poor Drunk, high, stumblin' off the shits and record Video vixen, she copped her tits from the store, said Damn, they don't make 'em like this a6</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Izayah</t>
+          <t>ART OF WAR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Two-tone diamonds 'bout to blind everybody Blind everybody And your girl, she hooked on phonics Yeah 'Cause she do whatever I say, ayy Do whatever I say Money don't solve my problems My problems But I'm doin' good, I James Delgado! Ayy, stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the bank Stealin', stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the Huh? Take it all Stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that bank I was stealin' all the motherfuckin' money out that Yeah, ayy I come from Psycho's and I'm finna be that way When I unlock all my chakra, bruh, my enemies gon' pray When these fuckboys gon' come try and it's finna be that day Got this beautiful woman with me and she finna be that bae She said that pussy taste like ice cream and I'm finna eat sorbet If my brother got that chopper, bet his enemies on skates Yamaguchi, my wrist frosty, my mind, I almost lost it My main bitch got that test back so she know that she ain't caught shit We just bought shit, she just talk shit Ayy My nigga Dee be off shit Yeah That chopper love to sing, but shit, sometimes it just be talking, ayy Fuck that little bitch, she a catfish Feeling like JID, never had shit, had to grab shit, had to swipe shit Had a white bitch with a wide trick Pulling all the bitches every time he would pipe it Yeah Call up Zay, know he tote, he gon' spray All his foes better stay on them toes, in the bank At the shows with the crows and the clout fucking hoes Bustin' down with the bros in the Bay, we gon' stay, always Stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the bank Stealin', stealin' all the motherfuckin' money out the bank I was stealin' all the motherfuckin' money out the Huh? Stealin' all the motherfuckin' money out that bank Stealin', stealin' all the motherfuckin' money out that bank Maxo, Maxo, Maxo Whoa, Kenny! Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I'ma scam a nigga dough, Hardaway for the penny Screamin' Fuck the popo 'til the law come get me Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I'ma scam a nigga dough, Hardaway for the penny Screamin', Fuck the popo 'til the law come get me I'm sorry, Your Honor, huh Persona my posture, my etiquette proper Flippin' the drop, uh-huh Oh, what? Convertible dropper, it came with a choppa Write me a script when I go to the doctor Servin' new J's like I work at Foot Locker Fuck on her face and I empty her wallet Took it to Chase to withdraw a deposit I can't love that ho 'cause that lil' bitch be boppin' Water VVs, it came from the faucet CVVs, we 'bout to go shoppin' High-Tech lean, pints out the closet Whoa like Kenny, mix the dro with the Henny I be sellin' flapjacks like IHOP, Denny's I was stealin' all the motherfuckin' money out that bank Maxo, Maxo, Maxo, ayy Why the fuck I need a loan for police to leave me alone? Once you makin' provolone, they think you sellin' from your home Motherfuck these maricóns, excuse me, I'm not bashin' shit I open safes like open sesame now there ain't no cash in it Crash the whip like I'm Crash Bandicoot then get my bands a coupe Bands are blue from what they hand to you, my guap is tangible Sayin' to you, My shit's phenomenal, I'm a phenomenon Back in the days, my boys was starvin' and it wasn't Ramadan Octagon, if it's about my feet then the boy get dropped If it's paper over pussy, best believe everything gon' pop When I walk into the building now, it's open the close-up shop When I I was stealin' all the motherfuckin' money out that bank Ashley Banks, Carlton Banks, Hilary Banks robbin' a bank Outta your league, outta your rank, wanna be us but niggas can't I know your girl, she just a skank, you got a gun, I got a tank All this shit random but I gotta thank All of my niggas for breakin' the bank, bitch4</t>
+          <t>Yo, this the type of shit to make you curb stomp a newborn baby Goddamn, Jasiah, you on this bih like a crazy washing machine Yuh, ayy, ayy Goddamn What? What? What? Yuh When the beat gon' drop? This a art of war, all fair in the hailstorm Yeah, yeah Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah I keep the piece like them peoples in Canada Throwin' up guns but I ain't talkin' ugala I get the paper, same color arugula If it's a battle, I'm crashing your nebula Angel of Death, better known as the messenger I kill your favorite rapper and his manager I grab the mic and I'll damage ya Super Saiyan stamina, my clip is long like et cetera I don't play with niggas like a racist gamer If my name on the feature then you endangered Go the hardest in war with my face painted Sum me up in two words, insane and famous Been a decade and I'm still bangin' Niggas throwin' out shots and I'm still aimin' All these rappers that's pussy be false claimin' You a lame nigga in the terms layman I'm makin' paper, I'm watchin' my neighbors I don't know who envy me, envy me I keep the cable business, ain't no fable I'm close to my friend but closer to my enemies What? In my head, bitch, there's like ten of me Ten of me Don't give a fuck you're not feeling me Fuck 'em Murkin' you, that's in my fantasy Blatt Knockin' that boy out his denim jeans Grra This a art of war, all fair in the hailstorm Yeah, yeah Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah Fuck up a bitch if she was on some petty shit Bitches be talkin' shit just to be relevant I smoke it strong out the pound for the hell of it She got a problem but she ain't addressin' shit I pop a one-of-one, I'm always dressin' She clear as fuck, I hope they get the message Sit down lil' ho, you ain't steppin' I'ma do that shit, if you know, it's reckless Bitch wanna fight me? She don't like me? Put that lil' bitch on a mothafuckin' white tee I met your wifey, don't gotta wife me But you gotta private jet-fly me Think they had dentures, these bitches biting Waste of my time, these bitches trifling I got my Rollie on, that's perfect timing Yeah, yeah, lil' bitch Haha I'm makin' paper, I'm watchin' my neighbors I don't know who envy me, envy me I keep the cable business, ain't no fable I'm close to my friend but closer to my enemies What? In my head, bitch, there's like ten of me Ten of me Don't give a fuck you're not feeling me Fuck 'em Murkin' you, that's in my fantasy Blatt Knockin' that boy out his denim jeans Grra This a art of war, all fair in the hailstorm Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah7</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Skywalker</t>
+          <t>BUSHY B INTERLUDE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Oh my god, Ronny I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories I can't even fathom the way I've been livin' I'm tripping out, too many people be all in my business I'm ripping out my hair follicles 'cause Everybody want a particle of my soul If I have one, I can't even fathom Oh, Lord, they put me on the fire If they can't love ya, they try to crucify ya Took my nigga Moses and took my damn messiah When I'm under siege, I can only get higher I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories It feels like you're ripping the skin off me Too many parasites, please get off me I'ma do what the rain does But when I go outside, it's like it rain blood You just a hoe so you'll never be my main blood You say we bros when we never shared the same blood So my god, get the fuck out with that bullshit today, uh Fake shit get hit with a full clip today, yee I need a sign, uh, I'm out my mind, I Never had love cause they say love is blind, ah I keep the heat so let me be discreet The highs and lows, the skies and then the streets The life I live has took a part of me The only Hell resides in my memories I can't even fathom the way I've been livin' I'm tripping out, too many people be all in my business I'm ripping out my hair follicles 'cause Everybody want a particle of my soul If I have one, I can't even fathom Oh! Oh! Oh! Oh!19</t>
+          <t>Poppin' Poppin', poppin', poppin' Poppin', poppin' I'm drippin', so faded, I'm drippin', so faded Poppin' Poppin', poppin', poppin' Poppin', poppin' I'm drippin', so faded, I'm drippin', so faded Now you wanna fuck at the wrong timin' But you wasn't here when I was grindin' Now you wanna talk 'cause the boy shinin' Just because you fine, you don't get the finest Me gettin' money, what I understood You was doing nothin', I did what I could At first, you was saying that I wasn't hood Since a nigga moved, now I'm Hollywood Poppin' Poppin', poppin' Poppin' Pop the bra, she topless Uh And the drop is topless Uh Bands and panties droppin' Poppin' Poppin', poppin' Poppin' Pop the bra, she topless Uh And the drop is topless Uh Bands and panties droppin'1</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Extinct (Extended)</t>
+          <t>Track07</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yeah I'm just sayin' that, yeah I just, damn Ahem Yeah, yeah I take my licks in the storm That storm headed, them doors severed Fly around the chicken, I'm more breaded, my Lord better Success in the air, my pores said it They say I'm the greatest, nigga, them whores said it Hopped in the Rolls, 2020, lock and I load Pop Shit explode Dot, Big Sean, Electron', feel like I gotta Control My music connect with the people And bridgin' like the top of th nose Soul, let 'em know 'bout thm blocks that we rose from Legend in my city, must acknowledge it I hustle 'fore I fight, head down, Nate Robinson, wait Similar to Nate 'cause we was runnin' from Jakes while makin' plates I'm gettin' bread still You niggas runnin' in place, I'm tryna treadmills Monte had to sit down, so fuck the feds still Got out, mansion in Victorville We from the gutter, nigga, all day So now, it's ghetto ponytails, nigga, we've come a long way REAS' Look, ugh Niggas want my old shit Ooh, buy my old album Yeah And tell your favorite rappers, Come see me and peep the outcome I put a X right beside his name like Malcolm And give his head to the nigga that he stole his style from Heee, brrt, brrt I got a list of niggas to kill, don't ask, How come? Boom, boom, boom Don't ask no names, just pray that you not one Not one I ain't playin' with these niggas, but they still is my sons And fuck your top five if I ain't your top one Ooh These raps written in blood I got lit off the buzz Uh-huh, know how I'm feelin' this bud Right I'm the king of my city Facts, and I can feel all the love Uh-huh There ain't nobody to trust Nope, if niggas ain't one of us Nah I see through the poker face, dawg, I'm callin' his bluff I shine like a multifaceted gem in the rough I'm passionate with every pen that I touch Uh-huh It's like I wrote this shit in cursive What else? Right God MC flow Woo, nigga, these is Bible verses God, yeah The feature fee won't include the hearses No Same thing you gifted with is what youll be cursed with What? Soul-searchin' 'til my flow's perfect or Im lyin in the morgue Thinkin', Damn, they don't make 'em like this anymore Yeah, yeah, ugh Who left the bricks on the floor? We too big on the boards, whoa Smooth nigga, off the bench, I'ma score I could hit a million hoes that's legit, but I'm sure They don't make 'em like my bitch anymore Who let these kids in the door? You was 'posed to keep it closed Now, they in here throwing stones and break the window to my soul Ain't no remote chance in Hell I ever let 'em get control, ugh I surf the 'Gram and see the wave you niggas rode Go to the board for the lesson I'll be transparent with you, just don't be projecting Who taught you to be armed and use your guard as a weapon? Who told you hit your shell every time you feel threatened? You know that I been stressed, I smoked a quarter by afternoon I walk with a attitude I gave you niggas change and got no token of gratitude Like, what I gotta do to make you tap in? I might fuck around, start beefing with my rap friends Fuck you, REASON Before we roam, let me go back to the start 'Cause art imitates life, and life imitates art Once we start to dive in this knowledge and this wisdom They gon' always wanna box us in like it's cubism Knew about Picasso before I was a snot-nose Before I had a pot to piss in, and 'fore a hot stove Pressure is like walking across hot coal I'm cooler than a North Face in Norway, Oslo Everybody on this track is known to slay shit JID gave me a reason to snap on Zay shit Toy with my emotions, I am not one to play with I'm rapping with these Top Dawgs to chill with my down bitch That is no lie, I'm a nice guy and a wiseguy With a bright mind, fresh out of Muay Thai Don't like to beef with niggas 'cause they all pie Only time they really caught a body was in Far Cry Try to bring the Grammy to the crib, that's it Why die to be a legend when I live that shit? You could talk about my music, I don't give two shits Because sooner or later, you gon' ride my dick Icarus if I fall off, but I'ma soar Like a sprained ankle when I landed on the floor If you don't like the song, here's the exit door 'Cause they don't really make 'em like this anymore Bitch, we've been bored, I wish we could tour Girl, you need Christ, not Christian Dior Why you keep tryn' take pics with me for? Damn, they don't make 'em like this anymore A white boy broke her heart back in high school Now she told me she ain't taking white dick anymore Damn, are you sure? Cry when she don't get her way Damn, are you four? Stole her heart, now I'm tryna slide in the getaway The game chose me, baby, I didn't get a say I done watched a lot of rappers rise and disintegrate Paid attention to the styles I'm finna demonstrate This is how you do it, man World's getting too insane, turned a check into a chain Tuggin' on her NuvaRing, we are not the same If you fuckin' with my crew, then you got the right brothers, like we flew a plane Don't ask me about it, let your boo explain Look, say she don't know REAS', that shit too insane Old school, put my shorty on Biggie like Pootie Tang, do your thing Cap in all the raps, that shit won't stop Rest in peace, Breonna Taylor her killers, they should've knocked Wait, Jack, I'm in some pussy, I was knee-deeper than Funkadelics I am legend, that explain all the will that a nigga carry Talking real big wheel like Ferris Top, that's it from the greatest Newborn babies, that shit newly apparent, REASON I take my licks in the storm, bitch, do me raw Yeah, still fuckin' 'til six in the morn' Son, how I flooded out the wrist to reward Damn, they don't make 'em like this anymore Yeah, I fuck my bitch when I'm bored, rich from the poor Drunk, high, stumblin' off the shits and record Video vixen, she copped her tits from the store, said Damn, they don't make 'em like this a6</t>
+          <t>Black folks forgive us, but it's merely a word And there's a lot worse things out there then words The bombing in Oklahoma, the kids in Colorado So forgive us when we say shit like N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest Yo, I'ma hit a bitch from the back nigga Quick to get stacks, spittin' facts on the track Black maniac, opposite of whack nigga At the nightclub full of 'gnac nigga Lyrically strapped wit' a gat nigga Stand back nigga, I'm 'bout to introduce a ho nigga to a gat nigga Tech Neyo, 'bout ta be yo, 2K hero, we fo' below zero where we go Come wit' the hard hits, run where the sparks lit You niggas that start shit end up in a dark pit We regime and vills, we kill with steel and gold grills Exodus, Insanus, Nocturnus, never get vexed with us What kinda nigga is you? I don't know You soft as cotton my kinda nigga is the kinda nigga Who is equivalent to an igloo We went from peanut butter in Benton To Tech N9ne really spittin' Went from the Jackson Five to George Clinton To Bill Clinton, yay he's a nigga like us A nigga that smokes weed and loves bitches who loves to suck I'm a nigga that bust, I'm a nigga that cuss when I fuss I'm a nigga that knows on this globe five hundred thou' isn't enough I'm a nigga don't like other niggas that try to keep on a plantation With the caucasian, beware it's the nigga invasion Nigga! Do what they can to gain green Nigga! Setting the trends for mainstream Nigga! Gangbang Nigga! Dope slang Nigga! Still Nigga! Ill Nigga! Will Nigga! Kill N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest Yo, beware of us niggas, better to be scared of us niggas We wiping away mothafuckas who so much as glare at us niggas I run from the law with my niggas, down for the fall with my niggas How many of the niggas, inner city you know are down to brawl with my niggas I hang with gang bang niggas, doctor niggas, you name the niggas, I got the niggas Like Big Dog, Mac Mac, Will and Foster nigga I run with killer niggas, then I hang with these nigga who produce thriller nigga You know the nigga that the did the wiz color purple Q-Jay top thriller nigga I'ma live nigga, I'ma die nigga, I'ma fly or I'ma gonna fry nigga If I do, if I do ya'll go to the record store and buy nigga 6, 6, triple 8, 46, 99, 3 niggas, we niggas Getting fucked up with R to the motherfuckin' D to the V niggas Want me to call you brother but you's a nigga like me The ununited states gives a fuck about your Bachelors Degree So black people if we embarrassed ya, sorry but our character is Newly and grimed and suicidal of America nigga Nigga! Do what they can to gain green Nigga! Setting the trends for mainstream Nigga! Gangbang Nigga! Dope slang Nigga! Still Nigga! Ill Nigga! Will Nigga! Kill N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest That's right, this is for my nigga Rodney This is for the whole motherfucking game related staff nigga Putting it down, midwest side, nigga ride nigga Tech N9ne, this is how we do it Motherfucker told me it was derogatory Treat it like it's mandatory You know what I'm sizzling Don Juan takes us up out this bitch Now look here, I done told y'all motherfuckers We gon' do it again and we gon' do it twice And we gon' rock this shit for the motherfucking 2K So I want y'all to go get that motherfuckin' new album The Calm Before The Storm on MidWestSide records Tecca Nina, Don Juan, everybody Hey, this goes to black, white, Hispanic You know what I'm sayin', everybody You know what I'm sizzlin' When y'all stop shootin' and killin' Each motherfuckin' other I'll stop saying nigga, 'til then Nigga, nigga, nigga, nigga, nigga, nigga please I treat it like a fucking disease1</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ART OF WAR</t>
+          <t>Talk About Me</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Yo, this the type of shit to make you curb stomp a newborn baby Goddamn, Jasiah, you on this bih like a crazy washing machine Yuh, ayy, ayy Goddamn What? What? What? Yuh When the beat gon' drop? This a art of war, all fair in the hailstorm Yeah, yeah Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah I keep the piece like them peoples in Canada Throwin' up guns but I ain't talkin' ugala I get the paper, same color arugula If it's a battle, I'm crashing your nebula Angel of Death, better known as the messenger I kill your favorite rapper and his manager I grab the mic and I'll damage ya Super Saiyan stamina, my clip is long like et cetera I don't play with niggas like a racist gamer If my name on the feature then you endangered Go the hardest in war with my face painted Sum me up in two words, insane and famous Been a decade and I'm still bangin' Niggas throwin' out shots and I'm still aimin' All these rappers that's pussy be false claimin' You a lame nigga in the terms layman I'm makin' paper, I'm watchin' my neighbors I don't know who envy me, envy me I keep the cable business, ain't no fable I'm close to my friend but closer to my enemies What? In my head, bitch, there's like ten of me Ten of me Don't give a fuck you're not feeling me Fuck 'em Murkin' you, that's in my fantasy Blatt Knockin' that boy out his denim jeans Grra This a art of war, all fair in the hailstorm Yeah, yeah Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah Fuck up a bitch if she was on some petty shit Bitches be talkin' shit just to be relevant I smoke it strong out the pound for the hell of it She got a problem but she ain't addressin' shit I pop a one-of-one, I'm always dressin' She clear as fuck, I hope they get the message Sit down lil' ho, you ain't steppin' I'ma do that shit, if you know, it's reckless Bitch wanna fight me? She don't like me? Put that lil' bitch on a mothafuckin' white tee I met your wifey, don't gotta wife me But you gotta private jet-fly me Think they had dentures, these bitches biting Waste of my time, these bitches trifling I got my Rollie on, that's perfect timing Yeah, yeah, lil' bitch Haha I'm makin' paper, I'm watchin' my neighbors I don't know who envy me, envy me I keep the cable business, ain't no fable I'm close to my friend but closer to my enemies What? In my head, bitch, there's like ten of me Ten of me Don't give a fuck you're not feeling me Fuck 'em Murkin' you, that's in my fantasy Blatt Knockin' that boy out his denim jeans Grra This a art of war, all fair in the hailstorm Get your bag, boy, this that shit that keep your head strong Boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Grra Get you're mad, boy, this that shit that keep your head strong Pa-pa-pa-pa This a art of war, all fair in the hailstorm Yeah, yeah, yeah, yeah Get your bag, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah, boom, boom, boom, boom This a bad noise, this that shit that keep your head strong Yeah, yeah, yeah, yeah Get you're mad, boy, this that shit that keep your head strong Yeah, yeah, yeah, yeah7</t>
+          <t>Little queen beware, fashion tempers flare And they light up with a brilliant glare Page after page, after page, after page, after page A hollow vase only costs ten pounds But an empty vessel makes the loudest sound And you have to get heard in this loudest of towns- or go under We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Vamos a hablar de ti Let's talk about me Vamos a hablar de ti The people look like ghouls in the neon light Get the big city blues every single night World gone crazy? It was never sane- not now, not ever Bars full of couples not talking to each other Seeking solitude in the company of others We're not in love- we just can't resist each other at playtime We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Vamos a hablar de mi Let's talk about me Vamos a hablar de ti Let's talk about me Vamos a hablar, hablar, hablar Let's talk about me We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Let's talk about me Oh, let's talk about me, me, me, me, me, me Oh Vamos a hablar de mi Let's talk about me Vamos a hablar, hablar Vamos a hablar de mi Vamos a hablar, hablar, hablar Vamos a hablar de mi Vamos a hablar de mi</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BUSHY B INTERLUDE</t>
+          <t>Captain Sea Fonk</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Poppin' Poppin', poppin', poppin' Poppin', poppin' I'm drippin', so faded, I'm drippin', so faded Poppin' Poppin', poppin', poppin' Poppin', poppin' I'm drippin', so faded, I'm drippin', so faded Now you wanna fuck at the wrong timin' But you wasn't here when I was grindin' Now you wanna talk 'cause the boy shinin' Just because you fine, you don't get the finest Me gettin' money, what I understood You was doing nothin', I did what I could At first, you was saying that I wasn't hood Since a nigga moved, now I'm Hollywood Poppin' Poppin', poppin' Poppin' Pop the bra, she topless Uh And the drop is topless Uh Bands and panties droppin' Poppin' Poppin', poppin' Poppin' Pop the bra, she topless Uh And the drop is topless Uh Bands and panties droppin'1</t>
+          <t>Denny Cascade Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J shades on a nigga eyelids Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feeling like I dont belong here Denny Cascade, rollin' wit a green AK Ain't Eazy, like I'm bumpin' Dre Day But a nigga aint cray, Denny got the answers, no Ye But when the white comes I Sway Niggas be prey, slaves to the ways everyday Save a ho, S curled in the cape, doggin' these hoes Nigga raw doggin these hoes, until the bitch say she's late Bitches on my dick, purple weed like Prince Better tell these hoes, bitch I ain't Clark Kent Denny Cascade charge hoes like rent Bumpin' triple-6 chiefin' while I'm shining moonlit In a Cadliac, splat, puff on the doja, the thraxx Pushin', she burn, the cat Beat the pussy up all the way to the max I beat the pussy up all the way to the mat Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J say that a nigga I knew Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feeling like I dont belong here Okay the moon is out, blunt is lit Ride around space fuckin' the baddest bitch Divin' in the portal cuz we splashin' in You know the captain is... Denny Cascade Mr. Universe, gangster Hanging mouth down like an anchor All my bitch wanna kiss like Kankers Get your hoes like lookin' up a chaser But if you need that, I got it Presidential new Reaganomics Break it down smoking on the chronic It's the shaman, Denny Cascade And you know it's me, come with me Fried as the lock on the Aqua Teen Purple the galaxy I can see But this is how truly you know it's me Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J say that a nigga I knew Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feel like I dont belong here20</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Track07</t>
+          <t>Chief Forever</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Black folks forgive us, but it's merely a word And there's a lot worse things out there then words The bombing in Oklahoma, the kids in Colorado So forgive us when we say shit like N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest Yo, I'ma hit a bitch from the back nigga Quick to get stacks, spittin' facts on the track Black maniac, opposite of whack nigga At the nightclub full of 'gnac nigga Lyrically strapped wit' a gat nigga Stand back nigga, I'm 'bout to introduce a ho nigga to a gat nigga Tech Neyo, 'bout ta be yo, 2K hero, we fo' below zero where we go Come wit' the hard hits, run where the sparks lit You niggas that start shit end up in a dark pit We regime and vills, we kill with steel and gold grills Exodus, Insanus, Nocturnus, never get vexed with us What kinda nigga is you? I don't know You soft as cotton my kinda nigga is the kinda nigga Who is equivalent to an igloo We went from peanut butter in Benton To Tech N9ne really spittin' Went from the Jackson Five to George Clinton To Bill Clinton, yay he's a nigga like us A nigga that smokes weed and loves bitches who loves to suck I'm a nigga that bust, I'm a nigga that cuss when I fuss I'm a nigga that knows on this globe five hundred thou' isn't enough I'm a nigga don't like other niggas that try to keep on a plantation With the caucasian, beware it's the nigga invasion Nigga! Do what they can to gain green Nigga! Setting the trends for mainstream Nigga! Gangbang Nigga! Dope slang Nigga! Still Nigga! Ill Nigga! Will Nigga! Kill N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest Yo, beware of us niggas, better to be scared of us niggas We wiping away mothafuckas who so much as glare at us niggas I run from the law with my niggas, down for the fall with my niggas How many of the niggas, inner city you know are down to brawl with my niggas I hang with gang bang niggas, doctor niggas, you name the niggas, I got the niggas Like Big Dog, Mac Mac, Will and Foster nigga I run with killer niggas, then I hang with these nigga who produce thriller nigga You know the nigga that the did the wiz color purple Q-Jay top thriller nigga I'ma live nigga, I'ma die nigga, I'ma fly or I'ma gonna fry nigga If I do, if I do ya'll go to the record store and buy nigga 6, 6, triple 8, 46, 99, 3 niggas, we niggas Getting fucked up with R to the motherfuckin' D to the V niggas Want me to call you brother but you's a nigga like me The ununited states gives a fuck about your Bachelors Degree So black people if we embarrassed ya, sorry but our character is Newly and grimed and suicidal of America nigga Nigga! Do what they can to gain green Nigga! Setting the trends for mainstream Nigga! Gangbang Nigga! Dope slang Nigga! Still Nigga! Ill Nigga! Will Nigga! Kill N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest N-I-double-G-A-S Some of us gotta sell yay, cess Getting hella rilla doing they best Player haters better wear they vest That's right, this is for my nigga Rodney This is for the whole motherfucking game related staff nigga Putting it down, midwest side, nigga ride nigga Tech N9ne, this is how we do it Motherfucker told me it was derogatory Treat it like it's mandatory You know what I'm sizzling Don Juan takes us up out this bitch Now look here, I done told y'all motherfuckers We gon' do it again and we gon' do it twice And we gon' rock this shit for the motherfucking 2K So I want y'all to go get that motherfuckin' new album The Calm Before The Storm on MidWestSide records Tecca Nina, Don Juan, everybody Hey, this goes to black, white, Hispanic You know what I'm sayin', everybody You know what I'm sizzlin' When y'all stop shootin' and killin' Each motherfuckin' other I'll stop saying nigga, 'til then Nigga, nigga, nigga, nigga, nigga, nigga please I treat it like a fucking disease1</t>
+          <t>Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga I pour my liquor upon the concrete for the fallen niggas that were murdered in the 13 Gotta keep a hammer in case a nigga wanna case me Long live Tiarra, baby girl was only 18 Victim from a stick drill Bullets hot and this shit real Niggas wanna talk who trill brah? Who the livest? Motherfuckers on that Pac shit Nigga fuck the world like a side bitch Mackaveli vibin' Flippin' blunts like a psychic Betcha them boys still ridin' Murder gardens is lookin' like Gotham Bitch I stunt in all black like I'm Gothic Got 30 in a clip run your pockets Shit want everything in ya wallet From 3-7 hit a 2-0-7 Candy lady servin tryna make a profit Got, nickel and diming we rollin' and lightin' Talkin' that lick on a spliff Grab all these packages smoke with the African's Getting real high off the piff Run at me money crook little boy what in the fuck could I say These crackers don't know about what a nigga shooting now That's communicating with a K Problems get solved and resolved so they spray Channel 7 news they caught PJ's killer Look at the screen like Oh My God Daddy looky-look bro we know this nigga What the fuck or so it seems Like Piccolo nigga how you do a nigga green Go to the club but it ain't 54' Posted up with a shone now we speakin' on the beat Chill with Ciara and the niggas from the scene Who would of thought she would of ended in a Benz Life's fucked up for the poor young teen As she got hit up with about 17 Shots from the dark, let her feel from the park Better note these games and don't be smart Better learn get, if you don't learn get, then you more liable' to get got 3-2 Z-E-L, piss off no R.Kel's Bitch I'm from the place where all the palm trees and the AK's dwell Times is hard but I know things gon' get better nigga Carol City chief fuccboi I'mma chief forever nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga17</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Talk About Me</t>
+          <t>Bow Down</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Little queen beware, fashion tempers flare And they light up with a brilliant glare Page after page, after page, after page, after page A hollow vase only costs ten pounds But an empty vessel makes the loudest sound And you have to get heard in this loudest of towns- or go under We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Vamos a hablar de ti Let's talk about me Vamos a hablar de ti The people look like ghouls in the neon light Get the big city blues every single night World gone crazy? It was never sane- not now, not ever Bars full of couples not talking to each other Seeking solitude in the company of others We're not in love- we just can't resist each other at playtime We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Vamos a hablar de mi Let's talk about me Vamos a hablar de ti Let's talk about me Vamos a hablar, hablar, hablar Let's talk about me We don't care if you can't pay We don't care what you've got to say We don't hear when you cry out- Our smiles are hollowed out Let's talk about me Let's talk about me Oh, let's talk about me, me, me, me, me, me Oh Vamos a hablar de mi Let's talk about me Vamos a hablar, hablar Vamos a hablar de mi Vamos a hablar, hablar, hablar Vamos a hablar de mi Vamos a hablar de mi</t>
+          <t>Let me give you a little inside information about God It's my time now I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit Denzel with the L at the end of the noun Makin' sure that y'all don't see a cap and a gown Too many lil' niggas still runnin' around Come face to face with the wild and that's the end of your child Universe, gangsta is the god of the sound From the planet of the nectar on the sea and the isles Wanna see an angel dead? Let's walk a few miles With a sword, halo, and a crown so round Like root canal, in your mouth Fuck around you get 40 cal' Bitch what the fuck is beef to a slaughterhouse? Got sticks that'll knock your baby momma out Scratch that, knock Harry Potter out Hit his head on Obama's couch, nail Obama's scout Y'all niggas is sauerkraut When the villain bring the choppers out, then they call you out Tell me what's that about? When you catch 'em then you ash 'em out Get the money then I'm cashin' out Really what is that about? What's that about? My nigga, tsk tsk Only shoot once it's a hit, and if you shoot twice it's a miss My nigga bang bang Fuck that, let his brains hang, nigga fuck that let his brains hang I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit 36 O's in a brick, 16 O's in a pound AK47 with the red beam and a drum on that bitch hold 150 rounds Go on, ride with your squad Nigga you could die with your squad, tryna get live with your squad Young OG, nigga I'm a young OG Get toe-tagged tryna play hard And it's money over boppers My young nigga's ex pill-popper, all of 'em ride with them choppers Call a mortician, ain't no need for a doctor Call a mortician, ain't no need for a doctor Dead on arrival, yeah I said dead on arrival Swear to God on a stack of Bibles Headshot a nigga, reassuring no survival Headshot a nigga, reassuring no survival Cold heart nigga, that's how they raised me Kill or be killed so you really can't blame me Straight up the gutter where they killin' over words Fuck around and get toe-tagged in front of your baby Nigga get buck Swear to God nigga get buck, first time let it be your last I ain't worried 'bout shit Nigga, I ain't worried 'bout shit send a murder gang at your pussy ass I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit Bow down Fuck nigga! Bow down Fuck nigga! Bow down Fuck nigga! Bow down Fuck nigga! Better to reign in hell than to serve in heaven, is that it? Why not? I'm a fan of man25</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Captain Sea Fonk</t>
+          <t>First Night</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Denny Cascade Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J shades on a nigga eyelids Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feeling like I dont belong here Denny Cascade, rollin' wit a green AK Ain't Eazy, like I'm bumpin' Dre Day But a nigga aint cray, Denny got the answers, no Ye But when the white comes I Sway Niggas be prey, slaves to the ways everyday Save a ho, S curled in the cape, doggin' these hoes Nigga raw doggin these hoes, until the bitch say she's late Bitches on my dick, purple weed like Prince Better tell these hoes, bitch I ain't Clark Kent Denny Cascade charge hoes like rent Bumpin' triple-6 chiefin' while I'm shining moonlit In a Cadliac, splat, puff on the doja, the thraxx Pushin', she burn, the cat Beat the pussy up all the way to the max I beat the pussy up all the way to the mat Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J say that a nigga I knew Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feeling like I dont belong here Okay the moon is out, blunt is lit Ride around space fuckin' the baddest bitch Divin' in the portal cuz we splashin' in You know the captain is... Denny Cascade Mr. Universe, gangster Hanging mouth down like an anchor All my bitch wanna kiss like Kankers Get your hoes like lookin' up a chaser But if you need that, I got it Presidential new Reaganomics Break it down smoking on the chronic It's the shaman, Denny Cascade And you know it's me, come with me Fried as the lock on the Aqua Teen Purple the galaxy I can see But this is how truly you know it's me Got hella hoes like a home depot so you already know I gotta keep that hammer Juicy J say that a nigga I knew Sea Fonk bitch, rockin' with a Fiji bandanna Let me take you underwater You not a dime you a quarter Flex nigga like yoga Complex nigga I'm Yoda Mothafucka I'm a soldier Fuck her suckin' on my cobra You don't wanna say it's over But she wanna bend over Denny, I'm a supernova Flat nights make you stronger Feel like I dont belong here Feel like I dont belong here20</t>
+          <t>When I was small, and Christmas trees were tall We used to love while others used to play Don't ask me why, but time has passed us by Some one else moved in from far away Now we are tall, and Christmas trees are small And you don't ask the time of day But you and I, our love will never die But guess we'll cry come first of May The apple tree that grew for you and me I watched the apples falling one by one And I recall the moment of them all The day I kissed your cheek and you were mine Now we are tall, and Christmas trees are small And you don't ask the time of day But you and I, our love will never die But guess we'll cry come first of May When I was small, and Christmas trees were tall Do do do do do do do do do... Don't ask me why, but time has passed us by Some one else moved in from far away</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chief Forever</t>
+          <t>NO PEN NO PAD</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga I pour my liquor upon the concrete for the fallen niggas that were murdered in the 13 Gotta keep a hammer in case a nigga wanna case me Long live Tiarra, baby girl was only 18 Victim from a stick drill Bullets hot and this shit real Niggas wanna talk who trill brah? Who the livest? Motherfuckers on that Pac shit Nigga fuck the world like a side bitch Mackaveli vibin' Flippin' blunts like a psychic Betcha them boys still ridin' Murder gardens is lookin' like Gotham Bitch I stunt in all black like I'm Gothic Got 30 in a clip run your pockets Shit want everything in ya wallet From 3-7 hit a 2-0-7 Candy lady servin tryna make a profit Got, nickel and diming we rollin' and lightin' Talkin' that lick on a spliff Grab all these packages smoke with the African's Getting real high off the piff Run at me money crook little boy what in the fuck could I say These crackers don't know about what a nigga shooting now That's communicating with a K Problems get solved and resolved so they spray Channel 7 news they caught PJ's killer Look at the screen like Oh My God Daddy looky-look bro we know this nigga What the fuck or so it seems Like Piccolo nigga how you do a nigga green Go to the club but it ain't 54' Posted up with a shone now we speakin' on the beat Chill with Ciara and the niggas from the scene Who would of thought she would of ended in a Benz Life's fucked up for the poor young teen As she got hit up with about 17 Shots from the dark, let her feel from the park Better note these games and don't be smart Better learn get, if you don't learn get, then you more liable' to get got 3-2 Z-E-L, piss off no R.Kel's Bitch I'm from the place where all the palm trees and the AK's dwell Times is hard but I know things gon' get better nigga Carol City chief fuccboi I'mma chief forever nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga Carol, Carol City I'ma chief forever, nigga Roll my, roll my weed and I'mma chief forever, nigga Talking pressure niggas bout whatever, nigga You fuck around they'll leave you on a stretcher, nigga17</t>
+          <t>Fuck it, bring the beat back No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, uh Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, yuh Got these nuts, they can hold that No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, ah Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, uh Got these nuts, they can hold that From the dirt, got it up out the mud, huh Bitch I'ma ball, balling like I'm Elmer Fudd, huh You took a L, minute that you took a dub, uh Say you my bro, nigga we was never blood, huh I be the shit like a diaper, stay in the cut like I'm Scyther Curry the killer, that nigga, I kill anybody when I'm in a cypher Call a nigga DC sniper, I don't want to be you either These niggas say I'm the future, Mekhi Phifer Do it so easily these niggas don't want to see me on DVD, yuh I got the energy most of you niggas don't have a identity, yuh I got the buzz and beyond and my flow can go to infinity, yuh Most of you niggas is lost, might as well call you virginity, yuh Fuck a rap name, fuck a rap chain, fuck the whole game, impregnate Abort my kids upon her face, and fuck a new bitch the next day It's not about you, it's not about God, it's not about race, Tay-K Why the devil gon' hate? Leave a nigga chalked outline no trace, so okay No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, uh Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, yuh Got these nuts, nigga hold that No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, ah Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, uh Got these nuts, nigga hold that17</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bow Down</t>
+          <t>GOATED.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Let me give you a little inside information about God It's my time now I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit Denzel with the L at the end of the noun Makin' sure that y'all don't see a cap and a gown Too many lil' niggas still runnin' around Come face to face with the wild and that's the end of your child Universe, gangsta is the god of the sound From the planet of the nectar on the sea and the isles Wanna see an angel dead? Let's walk a few miles With a sword, halo, and a crown so round Like root canal, in your mouth Fuck around you get 40 cal' Bitch what the fuck is beef to a slaughterhouse? Got sticks that'll knock your baby momma out Scratch that, knock Harry Potter out Hit his head on Obama's couch, nail Obama's scout Y'all niggas is sauerkraut When the villain bring the choppers out, then they call you out Tell me what's that about? When you catch 'em then you ash 'em out Get the money then I'm cashin' out Really what is that about? What's that about? My nigga, tsk tsk Only shoot once it's a hit, and if you shoot twice it's a miss My nigga bang bang Fuck that, let his brains hang, nigga fuck that let his brains hang I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit 36 O's in a brick, 16 O's in a pound AK47 with the red beam and a drum on that bitch hold 150 rounds Go on, ride with your squad Nigga you could die with your squad, tryna get live with your squad Young OG, nigga I'm a young OG Get toe-tagged tryna play hard And it's money over boppers My young nigga's ex pill-popper, all of 'em ride with them choppers Call a mortician, ain't no need for a doctor Call a mortician, ain't no need for a doctor Dead on arrival, yeah I said dead on arrival Swear to God on a stack of Bibles Headshot a nigga, reassuring no survival Headshot a nigga, reassuring no survival Cold heart nigga, that's how they raised me Kill or be killed so you really can't blame me Straight up the gutter where they killin' over words Fuck around and get toe-tagged in front of your baby Nigga get buck Swear to God nigga get buck, first time let it be your last I ain't worried 'bout shit Nigga, I ain't worried 'bout shit send a murder gang at your pussy ass I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 36 O's in the key OG niggas call me big bruh Knowing goddamn well that they older than me and I ain't worried 'bout shit Nigga, I ain't worried 'bout shit 'less there's 16 O's in a pound New god flow Nigga this that new god flow, y'all bitch niggas better bow down I ain't worried 'bout shit Bow down Fuck nigga! Bow down Fuck nigga! Bow down Fuck nigga! Bow down Fuck nigga! Better to reign in hell than to serve in heaven, is that it? Why not? I'm a fan of man25</t>
+          <t>Black mollies in the aquarium Darting back and forth as though an earthquake were certain And I turned up the heater And I ripped off my shirt And I grabbed hold of my stereo And I threw it out the window You were in town again You'd come around again You were dragging me down again with you Siamese fish flashing like sparklers It started to rain And the telephone rang a couple of times I put a bullet through its cold dead brain And I got out my photographs of you And I put bullets though all of them too You were in town again You'd come around again You were dragging me down again with you Yeah</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>First Night</t>
+          <t>Knotty Head (UK Remix)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>When I was small, and Christmas trees were tall We used to love while others used to play Don't ask me why, but time has passed us by Some one else moved in from far away Now we are tall, and Christmas trees are small And you don't ask the time of day But you and I, our love will never die But guess we'll cry come first of May The apple tree that grew for you and me I watched the apples falling one by one And I recall the moment of them all The day I kissed your cheek and you were mine Now we are tall, and Christmas trees are small And you don't ask the time of day But you and I, our love will never die But guess we'll cry come first of May When I was small, and Christmas trees were tall Do do do do do do do do do... Don't ask me why, but time has passed us by Some one else moved in from far away</t>
+          <t>It's history right here Wassup my nigga? It's time to empower these niggas, baby, do it for the city We got to give it to them raw though, ya heard me? J-11 skeet skeet skeet 23s, word to Reekz Reekz I put sauce in these skreets skrr Smashing grams and no deets smashing Brodie Dave had the squares Dave Rockstar with them tears tearing I was juugin' like I'm Rick Ross Losing weight eating pears uh! Teeth and neck or Smart Water water Richy Rich, I'm that porter I am Send a lamb to that slaughter Slaught it, chopper 9 to that quarter chop chop Niggas talk but don't bang Bow! Niggas sell but don't slang, damn trapping Judge got bacon in, damn, oh man They so nice in that can free 'em Flowers and snakes on my garments Gucci I fuck models in apartments uh! Eating dinners as my starters Tryna hit the belly, no Cartman belly Shotty make a nigga cartwheel I had molly for the half deal what? Hoe shot me down with a crossbow uh? Now I don't know how a heart feel nah I got uncles and they aren't Phil nope If she ain't fucking, she can't chill skrr Grey niggas dip up your trackies, err That's a savage, you can ask Dill I used to say a bag on the outfit casual Now it's ten bag when I step out step out Couldnt buy a trim back then, I was stressed out Now peng tings get their chest out U.L.T for life and I'm gon' rep it till the death of me My physical and spiritual is never sold separately Medically inclined forever feeling that the sky is better Sky is not the limit my attitude will disguise the weather Under my sweater I'm feeling as if I'm under pressure I need a Smith and Wesson You say I need a lecture I got a dead brother plus I've never seen my mother Question my feelings of her Asking me if I still love her Get the product then we out the door Mama I've been twistin' weed And now it's time to lock the fro, blowin' dro Call me knotty head cause I don't give a fuck I was raised off in the projects, know this life ain't meant for us Bitch I can't be touched Get the product then we out the door Mama I've been twistin' weed And now it's time to lock the fro, let it go Call me knotty head and if I ever go Tell my mama that I love her cause tomorrow not for sure I would never know Tote a 4 and pour some liq' I'ma tote that stick until they send me to the pen This the way it is, I gotta get it how I live Knotty headed niggas Told her I might hit a lick I'ma tote that stick until they send me to the pen This the way it is, I gotta get it how I live Knotty headed niggas Yeah, uh Maybach Music Found another body in the lake huh Same day another tattoo on his face huh Obituary on his mothers fireplace Baby mother fuck another sucker on a blind date woo Shots fired every night Im tryna mind mine Dolphin Gang, Bello cigars on the sideline yea Pussy niggas you can see it on his timeline Hatin' on his dawg, shit Im tryna find mine woo Calm nigga when Im lit up I get Von Miller huh Rich niggas if you real then you can run with us let's get it Educated reading books Im talkin Art of War Whippin yoda yayo residue on the marble floors I wanna see my niggas with the flyest clothes woo Came to put my city on thats if Im right or wrong what? Pulling into Risco Park in the richest cars woo And Im thinking of my dawgs since Im livin wrong Jehovahs witness swear to God I done seen it all bang Picking up the pistols every time the dogs bark ugh You pointing fingers but them choppers cutting arms off D.C.C.C. we came to warn y'all Mothafucka damn right we came to warn y'all Mothafucka damn right we came to warn y'all huh Curry whats up! Double M uh Its futuristic shit7</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO PEN NO PAD</t>
+          <t>POISON KLAN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Fuck it, bring the beat back No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, uh Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, yuh Got these nuts, they can hold that No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, ah Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, uh Got these nuts, they can hold that From the dirt, got it up out the mud, huh Bitch I'ma ball, balling like I'm Elmer Fudd, huh You took a L, minute that you took a dub, uh Say you my bro, nigga we was never blood, huh I be the shit like a diaper, stay in the cut like I'm Scyther Curry the killer, that nigga, I kill anybody when I'm in a cypher Call a nigga DC sniper, I don't want to be you either These niggas say I'm the future, Mekhi Phifer Do it so easily these niggas don't want to see me on DVD, yuh I got the energy most of you niggas don't have a identity, yuh I got the buzz and beyond and my flow can go to infinity, yuh Most of you niggas is lost, might as well call you virginity, yuh Fuck a rap name, fuck a rap chain, fuck the whole game, impregnate Abort my kids upon her face, and fuck a new bitch the next day It's not about you, it's not about God, it's not about race, Tay-K Why the devil gon' hate? Leave a nigga chalked outline no trace, so okay No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, uh Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, yuh Got these nuts, nigga hold that No pen no pad, uh Moving 'round the city like a nomad, uh Gotta be on point like a gnome hat, ah Had to leave the place where I'm known at, uh Now a nigga never wanna go back, uh Broke niggas ask where the dough at, uh Old niggas ask where the hoes at, uh Got these nuts, nigga hold that17</t>
+          <t>Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your-roll your All I got is poison like this Bell Biv DeVoe Shit, it just might be a hazard, if you see I'm unprovoked I'm awoke, never emo, 'cause emotions don't evoke I devote most of my time and effort not to be approached Fuck a ghost, it's the omen, floamin' through the most morose In necrosis of the nervous system, of the host Comatose, homeostasis, how many bags overlook the oasis? How many bitches come out lookin' basic? Nigga, this life, this is not an equation, huh Trump cards on deck, like I'm Reagan, huh Yuh Every year some bullshit, I ain't pagan, huh Yuh I wanna take over the world, but why I'm waitin', huh That might be the same day I'm facin' Satan, huh Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Yeah, ayy Slide through the night like I'm Ra's al Ghul All that talk doesn't make y'all tough Niggas really ain't built for the way I move Fly young nigga, I'ma takeoff soon Said in all caps, nigga, I came like DOOM If a nigga on me he could pay whats due Really, I could be a hero but it ain't the move Villian shit, I been killin' shit Can't be dealin' with them niggas you be dealin' with Me and all the homies movin' way too militant Grab the squad and sign the deal, then buy the dealership, dealership Whippin' that Tesla like I kick it with Elon Niggas can't fuck with the buildin' that we on Boys hear my name and it's on like I'm Rihan' Rockin' the nation for profit, and be gone Bitch, and you noticed I brought the heat like I was Wade way back in '06, yeah Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Hol' on, wait, yuh, stop it They talkin' shit 'cause I'm poppin' I'm from Miami, I'm tropic They want the salt 'cause I got it Hol' on, wait, checks deposit You can get plugged like a socket Plug Turn your ass into a shooting target Hoes scream my name 'cause I'm poppin' Once you a thug, there's no stoppin' Plug in my phone got me shoppin' Remember I was broke, I was robbin' Got money, now pistols start cockin' Heard PlayThatBoiZay now, he jockin' I'm a three-oh-five nigga, I'm bossin' I ain't been the dentist, I'm flossin' Muy cali got a-got a nigga coughin' No IG, put him in a coffin Put a hole in one like I'm golfin' He get squirted on his head, like a dolphin But I green out, turn to a goblin Got that power like a nigga named Austin But I green like a nigga play for Boston You can tell her, I don't do this shit often You can tell her, I don't do this shit often, ayy Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro4</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GOATED.</t>
+          <t>BLACKLAND 66.6</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Black mollies in the aquarium Darting back and forth as though an earthquake were certain And I turned up the heater And I ripped off my shirt And I grabbed hold of my stereo And I threw it out the window You were in town again You'd come around again You were dragging me down again with you Siamese fish flashing like sparklers It started to rain And the telephone rang a couple of times I put a bullet through its cold dead brain And I got out my photographs of you And I put bullets though all of them too You were in town again You'd come around again You were dragging me down again with you Yeah</t>
+          <t>Alright, yo Damn, let me just break down some smoke real quick, bro Let me turn this shit on real quick, go ahead Nah I already heard this shit, man, I need somethin' new Hell no Ayy, yo, pass me that lighter, dawg Yeah? Ayy, yo Oh man, its motherfuckin' lit today, it's 87 degrees outside, woo But shit, we still like that when Im playin' new hits That was just SpaceGhostPurrp, Muney Jordan, and uh, this shit goes crazy Yeah, it do Up next, we got Denzel Curry, playing new hot joint called P.A.T. Turn it up real quick though Right now on Blackland Radio 305, we in the house1</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Knotty Head (UK Remix)</t>
+          <t>GOGETA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>It's history right here Wassup my nigga? It's time to empower these niggas, baby, do it for the city We got to give it to them raw though, ya heard me? J-11 skeet skeet skeet 23s, word to Reekz Reekz I put sauce in these skreets skrr Smashing grams and no deets smashing Brodie Dave had the squares Dave Rockstar with them tears tearing I was juugin' like I'm Rick Ross Losing weight eating pears uh! Teeth and neck or Smart Water water Richy Rich, I'm that porter I am Send a lamb to that slaughter Slaught it, chopper 9 to that quarter chop chop Niggas talk but don't bang Bow! Niggas sell but don't slang, damn trapping Judge got bacon in, damn, oh man They so nice in that can free 'em Flowers and snakes on my garments Gucci I fuck models in apartments uh! Eating dinners as my starters Tryna hit the belly, no Cartman belly Shotty make a nigga cartwheel I had molly for the half deal what? Hoe shot me down with a crossbow uh? Now I don't know how a heart feel nah I got uncles and they aren't Phil nope If she ain't fucking, she can't chill skrr Grey niggas dip up your trackies, err That's a savage, you can ask Dill I used to say a bag on the outfit casual Now it's ten bag when I step out step out Couldnt buy a trim back then, I was stressed out Now peng tings get their chest out U.L.T for life and I'm gon' rep it till the death of me My physical and spiritual is never sold separately Medically inclined forever feeling that the sky is better Sky is not the limit my attitude will disguise the weather Under my sweater I'm feeling as if I'm under pressure I need a Smith and Wesson You say I need a lecture I got a dead brother plus I've never seen my mother Question my feelings of her Asking me if I still love her Get the product then we out the door Mama I've been twistin' weed And now it's time to lock the fro, blowin' dro Call me knotty head cause I don't give a fuck I was raised off in the projects, know this life ain't meant for us Bitch I can't be touched Get the product then we out the door Mama I've been twistin' weed And now it's time to lock the fro, let it go Call me knotty head and if I ever go Tell my mama that I love her cause tomorrow not for sure I would never know Tote a 4 and pour some liq' I'ma tote that stick until they send me to the pen This the way it is, I gotta get it how I live Knotty headed niggas Told her I might hit a lick I'ma tote that stick until they send me to the pen This the way it is, I gotta get it how I live Knotty headed niggas Yeah, uh Maybach Music Found another body in the lake huh Same day another tattoo on his face huh Obituary on his mothers fireplace Baby mother fuck another sucker on a blind date woo Shots fired every night Im tryna mind mine Dolphin Gang, Bello cigars on the sideline yea Pussy niggas you can see it on his timeline Hatin' on his dawg, shit Im tryna find mine woo Calm nigga when Im lit up I get Von Miller huh Rich niggas if you real then you can run with us let's get it Educated reading books Im talkin Art of War Whippin yoda yayo residue on the marble floors I wanna see my niggas with the flyest clothes woo Came to put my city on thats if Im right or wrong what? Pulling into Risco Park in the richest cars woo And Im thinking of my dawgs since Im livin wrong Jehovahs witness swear to God I done seen it all bang Picking up the pistols every time the dogs bark ugh You pointing fingers but them choppers cutting arms off D.C.C.C. we came to warn y'all Mothafucka damn right we came to warn y'all Mothafucka damn right we came to warn y'all huh Curry whats up! Double M uh Its futuristic shit7</t>
+          <t>Gotta kill it for my niggas dying off Uh, uh Gotta feel it 'til a nigga get it off Yuh, uh Feelin like The Rock, a nigga walkin' tall Uh, yuh You could be the ball, but you would never ball Aww Kill again, peel it out, tie it off Yeah, what? Pokémon, bitch, I'm known to evolve Yuh, yuh Run the game, bitch, I dont ever jog What? Huh? Make a check, like a nigga been to Prague Aww Made a monopoly, nobody stopping me Huh? Yuh Them I'm gon' build the economy, uh Yuh, yuh Takin' the property, eat it like Jollibee Uh, yuh Then it's goin' straight to the colony Uh, yuh EBT, easily, no one this season seein' me, uh Uh, yuh, yuh Agree to disagree, it's cool cause I believe in me, yuh Fire in my palm Yeah, bitch, Im never calm Yeah Put my hands up, time to make a spirit bomb Get back! I got heaters, yuh Now my name Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh Got heatseekers, yuh Go hard like Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh, yeah Really go hard, been a strong machine So I came with the force that a Jedi never seen Way too high like I'm caught up in a tree But a nigga might die if he interrupt the peace Fuck do you mean? All of my niggas, they fucking supreme Pull up and run it like I was Usain Thinking bout my life but a nigga left the game But a hater want beef then I pull up with the gang Look at the stats, uh Got you boys training for weeks, yuh, yuh Hyperbolic got me super brolic, and one hit will probably bring fatigue My nigga, my fucking eye is on the cream I gotta just ex 'em out by any means I cut the snakes out the ride, I'm sucker free She sucking my Dragon Balls until I'm Zd, yuh Got every wish that you need, yuh Puffing that Piccolo weed, yuh Pussy, I'm way out your league Put your lil' nigga straight into debris, yuh Fire in my palm Yeah, bitch, I'm never calm Yeah Put my hands up, time to make a spirit bomb Get back! I got heaters, yuh Now my name Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh Got heatseekers, yuh Go hard like Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh, yeah You know this come has power or something Black power Power to give a fool like you nightmares So you will understand that Black power Black power Black power Black power Black power Black power Black power7</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>POISON KLAN</t>
+          <t>ULTRA SHXT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your-roll your All I got is poison like this Bell Biv DeVoe Shit, it just might be a hazard, if you see I'm unprovoked I'm awoke, never emo, 'cause emotions don't evoke I devote most of my time and effort not to be approached Fuck a ghost, it's the omen, floamin' through the most morose In necrosis of the nervous system, of the host Comatose, homeostasis, how many bags overlook the oasis? How many bitches come out lookin' basic? Nigga, this life, this is not an equation, huh Trump cards on deck, like I'm Reagan, huh Yuh Every year some bullshit, I ain't pagan, huh Yuh I wanna take over the world, but why I'm waitin', huh That might be the same day I'm facin' Satan, huh Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Yeah, ayy Slide through the night like I'm Ra's al Ghul All that talk doesn't make y'all tough Niggas really ain't built for the way I move Fly young nigga, I'ma takeoff soon Said in all caps, nigga, I came like DOOM If a nigga on me he could pay whats due Really, I could be a hero but it ain't the move Villian shit, I been killin' shit Can't be dealin' with them niggas you be dealin' with Me and all the homies movin' way too militant Grab the squad and sign the deal, then buy the dealership, dealership Whippin' that Tesla like I kick it with Elon Niggas can't fuck with the buildin' that we on Boys hear my name and it's on like I'm Rihan' Rockin' the nation for profit, and be gone Bitch, and you noticed I brought the heat like I was Wade way back in '06, yeah Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Hol' on, wait, yuh, stop it They talkin' shit 'cause I'm poppin' I'm from Miami, I'm tropic They want the salt 'cause I got it Hol' on, wait, checks deposit You can get plugged like a socket Plug Turn your ass into a shooting target Hoes scream my name 'cause I'm poppin' Once you a thug, there's no stoppin' Plug in my phone got me shoppin' Remember I was broke, I was robbin' Got money, now pistols start cockin' Heard PlayThatBoiZay now, he jockin' I'm a three-oh-five nigga, I'm bossin' I ain't been the dentist, I'm flossin' Muy cali got a-got a nigga coughin' No IG, put him in a coffin Put a hole in one like I'm golfin' He get squirted on his head, like a dolphin But I green out, turn to a goblin Got that power like a nigga named Austin But I green like a nigga play for Boston You can tell her, I don't do this shit often You can tell her, I don't do this shit often, ayy Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro Eeny, meeny, miny, moe Pick your poison, roll your dro Pick your poison, roll your dro Pick your poison, roll your dro4</t>
+          <t>Got your name, got my .9 Showin' no love, watch the whole industry imitate ULTRAGROUND SHXT, what the fuck you got started? Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Showin' no love, ready to kill Make so much money from drugs that I deal Pop at a nigga, then pop me a seal I love all my city, they smokin' the pills Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party Here's the gist, I'm creepin' to take all your bank out the vault, ho Give it up or you will be First 48, the first episode Niggas tryin', Niggas dyin', shootin' ballistics all over the place Like an astronaut, this plastic Glock will knock your head to space A Glizzock, A, double that K, it's a murder case No underground niggas, we ULTRAGROUND niggas, we watch the whole industry imitate Same day pay, 'cause we gon' make what niggas won't forget ULTRAGROUND, we started from ground up, nigga, it's over with Gotta get money, I gotta get paper I got me some guap and I got me some haters I got me a Glock and it came with a laser You fuckin' with ULTRA? You gon' meet yo' maker That's what you get bein' a ho ULT follow that up with no fold That's what you get bein' a ho ULT follow that up with no fold Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Nina, Nina, Trick, have you seen her? Poppin' yo' guns like you ain't heard of me Play with me, bitch, and it's gon' be a murder scene Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party Got my money up, give no fucks, I'm not one of them They don't make no sense, Got my money up, give no fucks, I'm not one of them They don't make no sense, booted up, tooted up, run it down All my niggas lit, you a bitch, talking like these hoes Walk in the street with And she gon' rub me, she pretty, litty on litty, know me and my bitty I can't turn down, fuck that ho, she Feel like it's my time now, young nigga I'm gon' shine now my wrist, when you drip like this, shit lit In the cut, young stay quick, try Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Nina, Nina, Trick, have you seen her? Poppin' yo' guns like you ain't heard of me Play with me, bitch, and it's gon' be a murder scene Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party My dawg'nem bought a pound, so we inhalin' a bunch of smoke The price of fame, I know it's coke Me, I threw up, murder she wrote Bitch, I'm with everything, Curry a heavy thang Hit you and split you, it's messin' up everything Cannot be one of them niggas that's never on business 'Cause I gotta get everything Niggas be trippin' with me like they know me But, nigga, you know from the Niggas be wastin' they time, mane If I'm lyin', I'm dyin', pull out my .9 Respect the fact that I gotta get to it If these niggas can't do nothin' about it, then bad Talkin' shit under yo' breath, but will it continue when I got my foot up your ass? Hop out the whip then blast Hop out the whip then blast I told you stop poppin' that crazy shit Now look at you pushing them daisies, bitch IHop out the whip then blast I got my foot up they ass I told you stop poppin' that crazy shit Now look at you pushing them daisies, bitch Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been black on it just like the president Nina, Nina, Trick have you seen her? Bumpin' your gun like you haven't heard of me Play with me, bitch, and it's gonna be a murder scene Got your name, got my .9 Niggas know this Ultra shit Ultraground shit, what the fuck, you got started Got yo'-got your name, got my .9 Niggas know this Ultra shit Ridin' with my .9 tucked, stuck in the party</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BLACKLAND 66.6</t>
+          <t>Like Me</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alright, yo Damn, let me just break down some smoke real quick, bro Let me turn this shit on real quick, go ahead Nah I already heard this shit, man, I need somethin' new Hell no Ayy, yo, pass me that lighter, dawg Yeah? Ayy, yo Oh man, its motherfuckin' lit today, it's 87 degrees outside, woo But shit, we still like that when Im playin' new hits That was just SpaceGhostPurrp, Muney Jordan, and uh, this shit goes crazy Yeah, it do Up next, we got Denzel Curry, playing new hot joint called P.A.T. Turn it up real quick though Right now on Blackland Radio 305, we in the house1</t>
+          <t>Its like a blaze when I say your name Because your body is just striking Enlightening Like lightning The storm here, is quiet I bite it When hearing the moans and groans as I dip deep Your knees weak But don't speak When my spirit Is in sync Along with you I lust for you like London Jones If you my ride or die Would you ride or grip the chrome? In a Mercedes Benz With fine clothes we roam Just like the traveler, no? Til' we entered inside your home Its known That Denzel can give you the mo' better Adrenaline rush As I proceed to get you wetter I bless her Just like a pastor seeing someone sneezing Good evening The way you look just blossoms as the season Spring Meaning you're clean, which is next to godliness Thank the good Lord he blessed the earth with beautiful goddesses Dropin' it To the surface, like a fallen angel The devil has a new dress My butterflies are painful Tame you So that I can pet the pussy cat Soft and heavy moaning when I hit it from the back Skies are looking kinda misty as the scene faded black Both hands on the wheel ain't no such thing as turning back baby You can search, the whole world Just to see And I'll pay, for your trip Its on me You might go, your whole life Just to find Out it was, a complete Waste of time Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga no, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga It's just, you and I And God watching over Kissing on my neck and hands going down my shoulder Closer and closer You're feeling a little colder My mind is saying stroke her but I wanna console her Hold her Love is in the eye of the beholder She could be my Sade and I could be her soldier Told her Once when we get a little older Hopefully we'll push a little baby in a stroller Lower Is the tone she whispered in my ear She said I love you Denny and I love you near and dear Never knew Nasir But the words were sincere When I went inside her mind, it was like Revista Leer I read between the lines In her eyes I spot a tear I uttered to her softly, girl you have nothing to fear I kiss her on the lips Then she told me to come here As she climbed to the top She became my chandelier Not knowing Created another life this very moment The future of my very insistence's got me open Its potent Like the smoke, when its in my lungs Its a fire in the air With the greeting of the tongues But none Will ever come between me and her bond So leave my sanctuary don't come back and don't respond This my garden of Eden But as one this is our temple My miniature moral is more than just being central You can search, the whole world Just to see And I'll pay, for your trip Its on me You might go, your whole life Just to find Out it was, a complete Waste of time Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga no, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga Ain't there a nigga, there a nigga like me, no Ain't there a nigga, there a nigga7</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GOGETA</t>
+          <t>The Cave: Season 1 - Episode 12</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Gotta kill it for my niggas dying off Uh, uh Gotta feel it 'til a nigga get it off Yuh, uh Feelin like The Rock, a nigga walkin' tall Uh, yuh You could be the ball, but you would never ball Aww Kill again, peel it out, tie it off Yeah, what? Pokémon, bitch, I'm known to evolve Yuh, yuh Run the game, bitch, I dont ever jog What? Huh? Make a check, like a nigga been to Prague Aww Made a monopoly, nobody stopping me Huh? Yuh Them I'm gon' build the economy, uh Yuh, yuh Takin' the property, eat it like Jollibee Uh, yuh Then it's goin' straight to the colony Uh, yuh EBT, easily, no one this season seein' me, uh Uh, yuh, yuh Agree to disagree, it's cool cause I believe in me, yuh Fire in my palm Yeah, bitch, Im never calm Yeah Put my hands up, time to make a spirit bomb Get back! I got heaters, yuh Now my name Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh Got heatseekers, yuh Go hard like Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh, yeah Really go hard, been a strong machine So I came with the force that a Jedi never seen Way too high like I'm caught up in a tree But a nigga might die if he interrupt the peace Fuck do you mean? All of my niggas, they fucking supreme Pull up and run it like I was Usain Thinking bout my life but a nigga left the game But a hater want beef then I pull up with the gang Look at the stats, uh Got you boys training for weeks, yuh, yuh Hyperbolic got me super brolic, and one hit will probably bring fatigue My nigga, my fucking eye is on the cream I gotta just ex 'em out by any means I cut the snakes out the ride, I'm sucker free She sucking my Dragon Balls until I'm Zd, yuh Got every wish that you need, yuh Puffing that Piccolo weed, yuh Pussy, I'm way out your league Put your lil' nigga straight into debris, yuh Fire in my palm Yeah, bitch, I'm never calm Yeah Put my hands up, time to make a spirit bomb Get back! I got heaters, yuh Now my name Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh Got heatseekers, yuh Go hard like Gogeta, yuh Uh Derek Jeter, yuh Knock a nigga out his sneakers, yuh Uh, yeah You know this come has power or something Black power Power to give a fool like you nightmares So you will understand that Black power Black power Black power Black power Black power Black power Black power7</t>
+          <t>Wipe it out, he know what I'm talkin' about R.I.P. my nigga CeddyBu Dumb shit mane, ya holla at me, though Season finale Got the fresh ass Jeedy-Weedies on Woah, Kenny Yeah, that's how we ride Denzel in God mode, it's outrageous Bars so hard, my raps feel like cages Customized Bruce Lee kicks, they all Asian Sweatshops in Vietnam, I'm so racist You the type of nigga they love to hate hearin' Nigga, I do not care, I'm Ed Sheeran I don't give a fuck, my nigga, I feel like Jiren Goin' against Goku, who the fuck told you? Everybody in the whole game tried to mold you Clay dough, Play-Doh, Curry don't play, though Say so, lasso, rope the game, asshole I don't really give a fuck about you, it's cash flow Cash rules everything around me, C.R.E.A.M. Guns rule everything around us, beams Green or the red or the dots to your head Fuck around with the Curry, better league and leave him dead Flames all on my body like I'm Charmander Denzel in a pond like a salamander Came through and you know I got the right answer Everything a nigga spit, shit is all cancer All AIDS, all bar point blades Niggas don't know about me, they all fake Tears off the moon, off the mothafuckin' sun Denzel the unique one, the God son I may not be Nas or Lil Nas X But Denzel hit a nigga through the solar plex I don't really give a fuck, a nigga is the next Like MTV is BET, you see? Or WET 'cause Kenny's on the beat Woah, Kenny Get it? WET, White Entertainment Niggas don't know that the nigga is insane, bitch Y'all niggas on some lame shit I'm on some game shit, droppin' names and shit Came through, I'm insane, you bitch I might drain your bitch of her... esophagus Stop this shit3</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ULTRA SHXT</t>
+          <t>Ultimate (Remix)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Got your name, got my .9 Showin' no love, watch the whole industry imitate ULTRAGROUND SHXT, what the fuck you got started? Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Showin' no love, ready to kill Make so much money from drugs that I deal Pop at a nigga, then pop me a seal I love all my city, they smokin' the pills Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party Here's the gist, I'm creepin' to take all your bank out the vault, ho Give it up or you will be First 48, the first episode Niggas tryin', Niggas dyin', shootin' ballistics all over the place Like an astronaut, this plastic Glock will knock your head to space A Glizzock, A, double that K, it's a murder case No underground niggas, we ULTRAGROUND niggas, we watch the whole industry imitate Same day pay, 'cause we gon' make what niggas won't forget ULTRAGROUND, we started from ground up, nigga, it's over with Gotta get money, I gotta get paper I got me some guap and I got me some haters I got me a Glock and it came with a laser You fuckin' with ULTRA? You gon' meet yo' maker That's what you get bein' a ho ULT follow that up with no fold That's what you get bein' a ho ULT follow that up with no fold Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Nina, Nina, Trick, have you seen her? Poppin' yo' guns like you ain't heard of me Play with me, bitch, and it's gon' be a murder scene Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party Got my money up, give no fucks, I'm not one of them They don't make no sense, Got my money up, give no fucks, I'm not one of them They don't make no sense, booted up, tooted up, run it down All my niggas lit, you a bitch, talking like these hoes Walk in the street with And she gon' rub me, she pretty, litty on litty, know me and my bitty I can't turn down, fuck that ho, she Feel like it's my time now, young nigga I'm gon' shine now my wrist, when you drip like this, shit lit In the cut, young stay quick, try Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been Dressed in all black on the creep like the president Nina, Nina, Trick, have you seen her? Poppin' yo' guns like you ain't heard of me Play with me, bitch, and it's gon' be a murder scene Got your name, got my .9 Niggas know this ULTRA SHXT ULTRAGROUND SHXT, what the fuck you got started? Got your name, got my .9 Niggas know this ULTRA SHXT Ridin' with my .9 tucked, stuck in the party My dawg'nem bought a pound, so we inhalin' a bunch of smoke The price of fame, I know it's coke Me, I threw up, murder she wrote Bitch, I'm with everything, Curry a heavy thang Hit you and split you, it's messin' up everything Cannot be one of them niggas that's never on business 'Cause I gotta get everything Niggas be trippin' with me like they know me But, nigga, you know from the Niggas be wastin' they time, mane If I'm lyin', I'm dyin', pull out my .9 Respect the fact that I gotta get to it If these niggas can't do nothin' about it, then bad Talkin' shit under yo' breath, but will it continue when I got my foot up your ass? Hop out the whip then blast Hop out the whip then blast I told you stop poppin' that crazy shit Now look at you pushing them daisies, bitch IHop out the whip then blast I got my foot up they ass I told you stop poppin' that crazy shit Now look at you pushing them daisies, bitch Rollin' up a leaf cigar Sittin' in the back of my car High as I wanna be, high as I ever been black on it just like the president Nina, Nina, Trick have you seen her? Bumpin' your gun like you haven't heard of me Play with me, bitch, and it's gonna be a murder scene Got your name, got my .9 Niggas know this Ultra shit Ultraground shit, what the fuck, you got started Got yo'-got your name, got my .9 Niggas know this Ultra shit Ridin' with my .9 tucked, stuck in the party</t>
+          <t>Ronny J, listen up I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates god damn Great, eliminate like ElimiDate ooh Hey, young boy had to penetrate ooh Face, young boy done caught a case ooh Bang, now his mama livin' with the pain uh Wait, doctor says he's gonna stay huh? Let him get the Senzu Bean so he regenerate oh Now a nigga harder than the head of the state damn Denzel Curry is the new candidate damn Ultimate, alternate, you are the opposite Stop this shit, chop your esophagus esophagus Bitches be boppin' it, bow down and pop it in Droppin' it in her esophagus esophagus She get so nasty, in public she classy Perhaps she is able to swallow it uh Girl, I can make you a star star, ooh Then I put her ass on Apollo, bitch damn Bitch, I am ultimate, behold my awesomeness Narcissist, part time an arsonist flame Rippin' through cartilage, I am the hardest, bitch Wrap it up, put in sarcophagus damn Dearly departed, it's done when it started So now that I'm livin' so harmonious harmonious Feelin' like Spartacus, Curry the ultimate I am the best, there's no politics Bitch, I'm ultimate, ultimate Bitch, I'm... I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates damn Ultimate, infinite, flow is opium Open the internet, photosynthesis Put up parentheses, temporary Very scary if I feel like Dirty Harry Just might bust a bitch, never knew my life But yet the question is, Is he fake? Is he real? What the message is, chop a bitch nigga up I'ma sever it when I sever shit I kill 'em, no Kony, these niggas ain't homies Claim you the homie, I turn into Broly Droppin' melodic, enter the cosmic Flow like a prophet, lyrical toxic Flow like a foreigner, I'm the torturer Out of South Florida, call the coroner Killed in the corridor, I'm the overlord Rhymes like a sorcerer, I'm an animorph Bitch, I'm a beast Nigga, you tell me who fuckin' with me K to the I to the N to the G Claim you the hottest, but I disagree Better learn something and get a degree This for Lord Infamous, so R.I.P Arrivederci, bitches lookin' thirsty Ridin' through the dirty, like it's mandatory Ending of the story I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates Yeah, aye, I am the juice from the mafia six I will pimp slap a bitch 'cause I don't give a damn I am the nigga that drank the hard liquor I smoke like a hippy and I pop them xans I am the nigga that showed you the game How to stick to the money and get you some dough Ain't no excuses you grinding you get it You whippin' and flipping and stunt on these hoes I need a moment of silence today I killed the club, I pulled up in a Wraith So hypnotizin, these hoes mesmerized by my diamonds I shine and they try to throw shade I want the throat but I'm too proud to pay Bitch skip the talking I throw a lil' bread She get to sucking and I just discover The whole other meaning to price on your head Yo, tell 'em bring me chain for a thousand HOL' UP! Matter fact, make it fifty thousand HOL' UP! I got so much sauce dripping on me I think I'ma 'bout to change my name to a thousand island Bitch I'm about to turn up a level Fuckin' RnB chicks out of Coachella Give her that dick she think I'm in love with her Now she texting me a motherfucking four-page letter I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates8</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Like Me</t>
+          <t>Take Care in Your Dreaming</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Its like a blaze when I say your name Because your body is just striking Enlightening Like lightning The storm here, is quiet I bite it When hearing the moans and groans as I dip deep Your knees weak But don't speak When my spirit Is in sync Along with you I lust for you like London Jones If you my ride or die Would you ride or grip the chrome? In a Mercedes Benz With fine clothes we roam Just like the traveler, no? Til' we entered inside your home Its known That Denzel can give you the mo' better Adrenaline rush As I proceed to get you wetter I bless her Just like a pastor seeing someone sneezing Good evening The way you look just blossoms as the season Spring Meaning you're clean, which is next to godliness Thank the good Lord he blessed the earth with beautiful goddesses Dropin' it To the surface, like a fallen angel The devil has a new dress My butterflies are painful Tame you So that I can pet the pussy cat Soft and heavy moaning when I hit it from the back Skies are looking kinda misty as the scene faded black Both hands on the wheel ain't no such thing as turning back baby You can search, the whole world Just to see And I'll pay, for your trip Its on me You might go, your whole life Just to find Out it was, a complete Waste of time Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga no, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga It's just, you and I And God watching over Kissing on my neck and hands going down my shoulder Closer and closer You're feeling a little colder My mind is saying stroke her but I wanna console her Hold her Love is in the eye of the beholder She could be my Sade and I could be her soldier Told her Once when we get a little older Hopefully we'll push a little baby in a stroller Lower Is the tone she whispered in my ear She said I love you Denny and I love you near and dear Never knew Nasir But the words were sincere When I went inside her mind, it was like Revista Leer I read between the lines In her eyes I spot a tear I uttered to her softly, girl you have nothing to fear I kiss her on the lips Then she told me to come here As she climbed to the top She became my chandelier Not knowing Created another life this very moment The future of my very insistence's got me open Its potent Like the smoke, when its in my lungs Its a fire in the air With the greeting of the tongues But none Will ever come between me and her bond So leave my sanctuary don't come back and don't respond This my garden of Eden But as one this is our temple My miniature moral is more than just being central You can search, the whole world Just to see And I'll pay, for your trip Its on me You might go, your whole life Just to find Out it was, a complete Waste of time Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga no Coz there ain't no one like me Ain't there a nigga, there a nigga like me Ain't there a nigga no, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga Ain't there a nigga, there a nigga like me Ain't there a nigga, there a nigga Ain't there a nigga, there a nigga like me, no Ain't there a nigga, there a nigga7</t>
+          <t>Take care in your dreaming and love when you can You'll need it now You'll need it now Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Love how you sleep Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Take care Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Love how you sleep Take care in your dreaming and love when you can Yeah You'll need it now Love how you breathe You'll need it now Lov how you leave 2011, my name cam alive At the same time, I planned my suicide Literally, I would live lonely inside On the physical side, all my miracles died 2012, guess that plan ain't go well Out my shell, still I'm livin' in hell Yet it was written, from God it was gifted To give you a story that ain't hard to tell 2013, far from a pre-teen But it seems that a nigga chased my dream Making anything that the world has not seen nor heard Moving words like verbs, curved 2014, when I turned nineteen Sayin' RIP to my big bro Tree And my girl TT, when she got gunned down Now I'm back on road 'Cause I couldn't come 'round to the funeral Let a whole year pass Made an EP and the fans got mad A lotta issues that a young man had Just two years shy of a high school grad 2016, when the boy got mean ULT embedded in my genes 'Round the same time I met X and Ski If the Klan ain't hit, then we just might be The ones to have it all in our reach 2017, I had no place to sleep 2018, Taboo One Three Was the best shit people ever heard from me When you get pure pain, I'ma just make heat 2019, been good and bleak Cut off the locks, new looks, same me Used to chase my dreams, now the dreams chase me Take care in your dreaming and love when you can Chase my dreams, chase my dreams Take care in your dreaming and love when you can Love how you breathe Love how you sing Take care in your dreaming and love when you can Chase my dreams, chase my dreams Take care in your dreaming Yeah South side of Africa, you ain't really heard of her Mama was a daughter of a chief, make sense since Royalty so skin deep, melanin carried through heaps Papa was a soldier, built our whole life off his shoulders Both were my pillars, yeah, I told ya Both were a product of about ten kids About ten needs, about ten feeds Walking to school, it was about 10k's Knees getting faded, hope getting faded Aches, no lights flashing and flicker, it was a dream Providing for they children, just to hope our souls beam With prosperity, my parents, they took big care of me Made sure opinions were heard 'cause it was scary Middle kid tings, always lurking in the back When I felt I wasn't heard, decided to take back Take care in your dreaming and love when you can Back, take care Chase my dreams, chase my dreams Take care in your dreaming Yeah, nigga, I was a dream Anything that the world has not seen, has not seen, has not seen Was a dream Take care in your dreaming and love when you can Yeah, when I turned nineteen, chase my dreams Love how you sing You'll need it now Take care in your dreaming Take care, take care, take care, take care, take care Love don't leave Love can't breathe Love can't breathe Breathe Take care in your dreaming and love when you can Love can't breathe2</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>The Cave: Season 1 - Episode 12</t>
+          <t>FALSE GODS FREESTYLE</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wipe it out, he know what I'm talkin' about R.I.P. my nigga CeddyBu Dumb shit mane, ya holla at me, though Season finale Got the fresh ass Jeedy-Weedies on Woah, Kenny Yeah, that's how we ride Denzel in God mode, it's outrageous Bars so hard, my raps feel like cages Customized Bruce Lee kicks, they all Asian Sweatshops in Vietnam, I'm so racist You the type of nigga they love to hate hearin' Nigga, I do not care, I'm Ed Sheeran I don't give a fuck, my nigga, I feel like Jiren Goin' against Goku, who the fuck told you? Everybody in the whole game tried to mold you Clay dough, Play-Doh, Curry don't play, though Say so, lasso, rope the game, asshole I don't really give a fuck about you, it's cash flow Cash rules everything around me, C.R.E.A.M. Guns rule everything around us, beams Green or the red or the dots to your head Fuck around with the Curry, better league and leave him dead Flames all on my body like I'm Charmander Denzel in a pond like a salamander Came through and you know I got the right answer Everything a nigga spit, shit is all cancer All AIDS, all bar point blades Niggas don't know about me, they all fake Tears off the moon, off the mothafuckin' sun Denzel the unique one, the God son I may not be Nas or Lil Nas X But Denzel hit a nigga through the solar plex I don't really give a fuck, a nigga is the next Like MTV is BET, you see? Or WET 'cause Kenny's on the beat Woah, Kenny Get it? WET, White Entertainment Niggas don't know that the nigga is insane, bitch Y'all niggas on some lame shit I'm on some game shit, droppin' names and shit Came through, I'm insane, you bitch I might drain your bitch of her... esophagus Stop this shit3</t>
+          <t>Blood in, blood out I'm seein' illusions lookin' at time, it's barely movin' Let me unwind, all the confusion's stuck in my mind Lettin' me break up or watch it divide As I see another part of me that's hard as me, uh See the other side is callin' me the God in me Split personalities, split my reality Life is a bitch that I fuck, beastiality Might be your fault if you fall from fatality Pull out Excalibur, call up the cavalry I can change the way that people think by using alchemy Homie, I'm a God, you're gon' tell me that it's blasphemy? I'm just telling people that I'm more than a human being Every day a nigga spit fresh, call it Listerine I don't give a damn about your jewelry Brother, you are just another fool to me Denny never dealin' with the coonery Feelin' like the end is coming soon to me Everybody dies, everybody lives In the nightmares, I stare at the motherfucking light Everybody dies, everybody lives In a nightmare, I stare for the new inside8</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ultimate (Remix)</t>
+          <t>Void</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ronny J, listen up I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates god damn Great, eliminate like ElimiDate ooh Hey, young boy had to penetrate ooh Face, young boy done caught a case ooh Bang, now his mama livin' with the pain uh Wait, doctor says he's gonna stay huh? Let him get the Senzu Bean so he regenerate oh Now a nigga harder than the head of the state damn Denzel Curry is the new candidate damn Ultimate, alternate, you are the opposite Stop this shit, chop your esophagus esophagus Bitches be boppin' it, bow down and pop it in Droppin' it in her esophagus esophagus She get so nasty, in public she classy Perhaps she is able to swallow it uh Girl, I can make you a star star, ooh Then I put her ass on Apollo, bitch damn Bitch, I am ultimate, behold my awesomeness Narcissist, part time an arsonist flame Rippin' through cartilage, I am the hardest, bitch Wrap it up, put in sarcophagus damn Dearly departed, it's done when it started So now that I'm livin' so harmonious harmonious Feelin' like Spartacus, Curry the ultimate I am the best, there's no politics Bitch, I'm ultimate, ultimate Bitch, I'm... I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates damn Ultimate, infinite, flow is opium Open the internet, photosynthesis Put up parentheses, temporary Very scary if I feel like Dirty Harry Just might bust a bitch, never knew my life But yet the question is, Is he fake? Is he real? What the message is, chop a bitch nigga up I'ma sever it when I sever shit I kill 'em, no Kony, these niggas ain't homies Claim you the homie, I turn into Broly Droppin' melodic, enter the cosmic Flow like a prophet, lyrical toxic Flow like a foreigner, I'm the torturer Out of South Florida, call the coroner Killed in the corridor, I'm the overlord Rhymes like a sorcerer, I'm an animorph Bitch, I'm a beast Nigga, you tell me who fuckin' with me K to the I to the N to the G Claim you the hottest, but I disagree Better learn something and get a degree This for Lord Infamous, so R.I.P Arrivederci, bitches lookin' thirsty Ridin' through the dirty, like it's mandatory Ending of the story I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates Yeah, aye, I am the juice from the mafia six I will pimp slap a bitch 'cause I don't give a damn I am the nigga that drank the hard liquor I smoke like a hippy and I pop them xans I am the nigga that showed you the game How to stick to the money and get you some dough Ain't no excuses you grinding you get it You whippin' and flipping and stunt on these hoes I need a moment of silence today I killed the club, I pulled up in a Wraith So hypnotizin, these hoes mesmerized by my diamonds I shine and they try to throw shade I want the throat but I'm too proud to pay Bitch skip the talking I throw a lil' bread She get to sucking and I just discover The whole other meaning to price on your head Yo, tell 'em bring me chain for a thousand HOL' UP! Matter fact, make it fifty thousand HOL' UP! I got so much sauce dripping on me I think I'ma 'bout to change my name to a thousand island Bitch I'm about to turn up a level Fuckin' RnB chicks out of Coachella Give her that dick she think I'm in love with her Now she texting me a motherfucking four-page letter I am the one, don't weigh a ton Don't need a gun to get respect up on the street okay Under the sun, the bastard son Will pop the Glock to feed himself and family sheesh By any means, your enemies, my enemies We wet them up like a canteen damn The yellow tape surrounds the fate Don't have a face, so now you late, open the gates8</t>
+          <t>In my room Staring and tripping Look at the TV its Adult Swim Dripping the lick from the LSD Lucid I'm dreaming On broader perspectives Chiefing forever Smoked out with Ciara Right on 37, the hottest of weathers November the 4th to November the 6th On memory lane as my mind reminisce On my dawgs Why'd shit have to go the wrong way? Young breeds falling victim to the fucking gunplay No MMG, just a RIP's And the channel 7 news Popping on the Twitter feed On the story about the beings Yellow tape at the scene Lead bullets to your jaw Martin Luther King She was only 18 hit got hit with 13 Be Careful where you go 'Cause niggas is lurking All night, Poltergeist, Ghost Tell me who I can't approach Have all my dawgs drowning inside my head As I wonder how Rodney King might stay afloat Coast, dead Gone off the shroom pack Joints stay fat, like Joe Have a squad terror at your door Pour shit, head in the dead zone I'm in that Void Tell me who fucking with the boy Back down 'fore a nigga get destroyed I'm in that Void Tell me who fuckin with the boy Talk shit but you wear corduroys I'm in that Void Niggas won't ride by side Take you out any moment you fried I'm in that Void Nigga gotta grab my nine On a nigga fuck up my vibe I'm in that Void Why these motherfuckers tryna plot? Crackers be acting green like that nigga Roger Klotz When there's no evidence 'Cause blacks irrelevant Better scream fuck the world until it's celibate Criminal element with revolution intent Is a rebel, a-con artist with common sense Is a nigga based on the skin, not ignorance Is a bitch, obligated to suck a dick Maybe not Carol City Porters stay HOT Eleven shooters caught up inside a weed headshot Take photo, ended up in limbo Oh no Bringing out the Glock like Frodo Golem, destroying the land like Sodom Gomorrah, of eight twenty-six I present you south Florida What I see, clear as Visine My brother ended up in a crime scene Cops are the only ones on a crime spree Cowards took my brother untimely Tryna get a little face so niggas try me So Im coming at their scalp like Apache Indians in the biz down the 32 ave God damn nigga causing aftermath What the fuck you know I build, destroy Motherfuckers cant feel that I'm in that Void Tell me who fucking with the Void Back down before a nigga gets destroyed I'm in that Void Tell me who fuckin with the boy Talk shit but you wear corduroys I'm in that Void Niggas won't ride by side Take you out any moment you fried I'm in that Void Nigga gotta grab my nine On a nigga fuck up my vibe I'm in that Void Is it time to be going I got the slide shit we throning I got the time and I'm choking Good guys be lying and I'm slowing This ain't no joking Oh oh oh People test before they know just who you are There's no time to waste I'm tryna make it far Heard this place a cloud Bitch be making them sounds When she finna go down Yeah yeah Yeah yeah10</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Take Care in Your Dreaming</t>
+          <t>32 Ave Intro</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Take care in your dreaming and love when you can You'll need it now You'll need it now Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Love how you sleep Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Take care Take care in your dreaming and love when you can You'll need it now Love how you breathe You'll need it now Love how you sleep Take care in your dreaming and love when you can Yeah You'll need it now Love how you breathe You'll need it now Lov how you leave 2011, my name cam alive At the same time, I planned my suicide Literally, I would live lonely inside On the physical side, all my miracles died 2012, guess that plan ain't go well Out my shell, still I'm livin' in hell Yet it was written, from God it was gifted To give you a story that ain't hard to tell 2013, far from a pre-teen But it seems that a nigga chased my dream Making anything that the world has not seen nor heard Moving words like verbs, curved 2014, when I turned nineteen Sayin' RIP to my big bro Tree And my girl TT, when she got gunned down Now I'm back on road 'Cause I couldn't come 'round to the funeral Let a whole year pass Made an EP and the fans got mad A lotta issues that a young man had Just two years shy of a high school grad 2016, when the boy got mean ULT embedded in my genes 'Round the same time I met X and Ski If the Klan ain't hit, then we just might be The ones to have it all in our reach 2017, I had no place to sleep 2018, Taboo One Three Was the best shit people ever heard from me When you get pure pain, I'ma just make heat 2019, been good and bleak Cut off the locks, new looks, same me Used to chase my dreams, now the dreams chase me Take care in your dreaming and love when you can Chase my dreams, chase my dreams Take care in your dreaming and love when you can Love how you breathe Love how you sing Take care in your dreaming and love when you can Chase my dreams, chase my dreams Take care in your dreaming Yeah South side of Africa, you ain't really heard of her Mama was a daughter of a chief, make sense since Royalty so skin deep, melanin carried through heaps Papa was a soldier, built our whole life off his shoulders Both were my pillars, yeah, I told ya Both were a product of about ten kids About ten needs, about ten feeds Walking to school, it was about 10k's Knees getting faded, hope getting faded Aches, no lights flashing and flicker, it was a dream Providing for they children, just to hope our souls beam With prosperity, my parents, they took big care of me Made sure opinions were heard 'cause it was scary Middle kid tings, always lurking in the back When I felt I wasn't heard, decided to take back Take care in your dreaming and love when you can Back, take care Chase my dreams, chase my dreams Take care in your dreaming Yeah, nigga, I was a dream Anything that the world has not seen, has not seen, has not seen Was a dream Take care in your dreaming and love when you can Yeah, when I turned nineteen, chase my dreams Love how you sing You'll need it now Take care in your dreaming Take care, take care, take care, take care, take care Love don't leave Love can't breathe Love can't breathe Breathe Take care in your dreaming and love when you can Love can't breathe2</t>
+          <t>Up on the Three Two Ave I wake up every morning tryna figure how to start my day I go to the bathroom then take me a piss Brush my teeth now it's time to parlé I call up B Money to open the crib So it's time to go jet so I skate open the door nigga I'm rolling and blousing and coughing these ounces These money roll a whole 28 Took 8 grams Bumping 99' jams reminiscing on the town last week Talk about a cop cherry tops run a block In a baja saying that the youngin' had heat Spur of the moment The youngin' was dumb as he died from a fatal attack On the 207 called 9-11 Hit 15 bullets to his back Shit got whack Everybody really on that but you just got to embrace it Keep it on the churches like its braces Murder Gardens Carol City unsolved cases Face it, you get wasted like it's GTA But this ain't no Grove Street and you ain't CJ, nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga 7</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FALSE GODS FREESTYLE</t>
+          <t>No Threat</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Blood in, blood out I'm seein' illusions lookin' at time, it's barely movin' Let me unwind, all the confusion's stuck in my mind Lettin' me break up or watch it divide As I see another part of me that's hard as me, uh See the other side is callin' me the God in me Split personalities, split my reality Life is a bitch that I fuck, beastiality Might be your fault if you fall from fatality Pull out Excalibur, call up the cavalry I can change the way that people think by using alchemy Homie, I'm a God, you're gon' tell me that it's blasphemy? I'm just telling people that I'm more than a human being Every day a nigga spit fresh, call it Listerine I don't give a damn about your jewelry Brother, you are just another fool to me Denny never dealin' with the coonery Feelin' like the end is coming soon to me Everybody dies, everybody lives In the nightmares, I stare at the motherfucking light Everybody dies, everybody lives In a nightmare, I stare for the new inside8</t>
+          <t>Yeah, I been I been Yeah I been moving through the city like a phantom In the opera of a dark caramel Cleopatra moanin', holy matrimony Since I took her down in a cabana Same time mama move up to Atlanta I was in Miami tryna dodge the cameras Niggas in the hood, hold when it's drama Niggas so dramatic Finna tote a cannon or a lil' Uzi Yeah Talk that, talk that shit Yeah Talk that, talk that shit Yeah, yeah Yeah Talk that, talk that shit Yeah Yeah Okay Love and rage When the bass hit like a thunderwave I shape-shift, shake shit for a hundred days Still underrated, son Even if they tell me I'm top five Undebatable to even tell me I'm not, I Put this shit on my mama, all you niggas on bought time 'Cause shit I say cold, Zay told me to watch spines Niggas be frontin', say they love me, that's all cap You see where I'm headed, nigga, I know you want that I know where your head is, I know when this is combat You gon' be a Benedict, I'm bettin' it on wax 'Cause niggas stay fugazi Stay fugazi You makin' my mood crazy My mood crazy You makin' me chose how I might move, what I might do lately Ho, you made me my worst version Makes sense why my words worsened And maybe I should walk in your shoes But I just see life through first person No church sermons in the Serengeti Where niggas swearin' that we never ready Well I do anything that's necessary to be legendary Nigga, February, back to February, nigga, what No threat, it really ain't no threat Bitch Nobody came close and I'm 'bout to go ghost, but you really ain't know yet You really ain't know yet You really ain't know yet Nah Big bad wolf and I'm 'bout to kill 'em all But a nigga ain't O-F, yeah, yeah yeah Okay, kill 'em like 13 Assassins You right Orlando, play with the magic No camo, shots win the basket Oh hell no, me in the casket? In a suit, four piece, eulogies talkin' 'bout war, peace Screams, cries, fame, breach, wings high, can't reach If I'm walkin' on the cloud to the golden gates Then I hope that Jehovah gon' hold the place Then the devil gon' lie, say they stole my space Causin' me to repeat as a whole new race, oh no Be cremated, then reincarnated 'Cause Earth, I hate it, for sure Don't debate it, I get too faded 'Cause I ain't waitin' for hope Scopes, under bright lights Sadness cuts deep into my life With that fuck shit, I'ma end your timeline On that front page news is a highlight Let's reverse I'm remindin' you of what I don't take kindly to For any simple-minded fool who blinded tryna tote the tool You touch us, then we gotta touch all Families, friends, girlfriends, and all If you up, you better not stall 'Cause we won't be here when you fall No threat, it really ain't no threat Bitch Nobody came close and I'm 'bout to go ghost, but you really ain't know yet You really ain't know yet You really ain't know yet Nah Big bad wolf and I'm 'bout to kill 'em all But a nigga ain't O-F, yeah, yeah yeah3</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Void</t>
+          <t>Fallin’ Apart</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>In my room Staring and tripping Look at the TV its Adult Swim Dripping the lick from the LSD Lucid I'm dreaming On broader perspectives Chiefing forever Smoked out with Ciara Right on 37, the hottest of weathers November the 4th to November the 6th On memory lane as my mind reminisce On my dawgs Why'd shit have to go the wrong way? Young breeds falling victim to the fucking gunplay No MMG, just a RIP's And the channel 7 news Popping on the Twitter feed On the story about the beings Yellow tape at the scene Lead bullets to your jaw Martin Luther King She was only 18 hit got hit with 13 Be Careful where you go 'Cause niggas is lurking All night, Poltergeist, Ghost Tell me who I can't approach Have all my dawgs drowning inside my head As I wonder how Rodney King might stay afloat Coast, dead Gone off the shroom pack Joints stay fat, like Joe Have a squad terror at your door Pour shit, head in the dead zone I'm in that Void Tell me who fucking with the boy Back down 'fore a nigga get destroyed I'm in that Void Tell me who fuckin with the boy Talk shit but you wear corduroys I'm in that Void Niggas won't ride by side Take you out any moment you fried I'm in that Void Nigga gotta grab my nine On a nigga fuck up my vibe I'm in that Void Why these motherfuckers tryna plot? Crackers be acting green like that nigga Roger Klotz When there's no evidence 'Cause blacks irrelevant Better scream fuck the world until it's celibate Criminal element with revolution intent Is a rebel, a-con artist with common sense Is a nigga based on the skin, not ignorance Is a bitch, obligated to suck a dick Maybe not Carol City Porters stay HOT Eleven shooters caught up inside a weed headshot Take photo, ended up in limbo Oh no Bringing out the Glock like Frodo Golem, destroying the land like Sodom Gomorrah, of eight twenty-six I present you south Florida What I see, clear as Visine My brother ended up in a crime scene Cops are the only ones on a crime spree Cowards took my brother untimely Tryna get a little face so niggas try me So Im coming at their scalp like Apache Indians in the biz down the 32 ave God damn nigga causing aftermath What the fuck you know I build, destroy Motherfuckers cant feel that I'm in that Void Tell me who fucking with the Void Back down before a nigga gets destroyed I'm in that Void Tell me who fuckin with the boy Talk shit but you wear corduroys I'm in that Void Niggas won't ride by side Take you out any moment you fried I'm in that Void Nigga gotta grab my nine On a nigga fuck up my vibe I'm in that Void Is it time to be going I got the slide shit we throning I got the time and I'm choking Good guys be lying and I'm slowing This ain't no joking Oh oh oh People test before they know just who you are There's no time to waste I'm tryna make it far Heard this place a cloud Bitch be making them sounds When she finna go down Yeah yeah Yeah yeah10</t>
+          <t>He say, she say Ayy Never been concerned about the, He say, she say Uh Young Felipe Never been concerned about the, He say, she say Look inside my bank account, you'll see it's my B-day Every day, all day, but I do not eat cake, and I do not see hate Stinkmeaner, my demeanor with the Nina Señoritas wanna meet me at the Catalina Wine mixer, mix it up with my elixir Overlookin' the ocean, I'm hopin' I see Flipper Young Felipe, movin' like it's GTA But not CJ, more like Tommy, copy, facts Spacey nigga, you can call me Drax Win every fucking track and you know it's 'bout to slap, uh Things are fallin' apart Uh Life is getting so bad Oh yeah Cost of living is getting so high Uh Turn up, said they want fire, let it burn up Tryna break my habits but some days I gotta burn up Got your girl hooked off the truth, no Sojourner You know I'm Ja Rule with the pen, ink murder, so I was writin' 'bout tomorrow, when today called Throwin' curves at a nigga, no baseball We work through it, hashtag, no days off Feelin' high, feelin' blessed, no Based God Dudes hatin' on my lines, no eight balls But I got dope in my quotes, speech napalm So before you wanna ride, check your breaks Y'all on very thin ice, with some really cheap skates Margarita, no food, we do very cheap dates Don't give me bad mood, but the head mad great, uh What's in my wallet? The keys to they heart is a deposit Things are fallin' apart Uh Life is getting so bad4</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>32 Ave Intro</t>
+          <t>Break YoSelf</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Up on the Three Two Ave I wake up every morning tryna figure how to start my day I go to the bathroom then take me a piss Brush my teeth now it's time to parlé I call up B Money to open the crib So it's time to go jet so I skate open the door nigga I'm rolling and blousing and coughing these ounces These money roll a whole 28 Took 8 grams Bumping 99' jams reminiscing on the town last week Talk about a cop cherry tops run a block In a baja saying that the youngin' had heat Spur of the moment The youngin' was dumb as he died from a fatal attack On the 207 called 9-11 Hit 15 bullets to his back Shit got whack Everybody really on that but you just got to embrace it Keep it on the churches like its braces Murder Gardens Carol City unsolved cases Face it, you get wasted like it's GTA But this ain't no Grove Street and you ain't CJ, nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga You bitch nigga, bitch nigga Hashtag rich nigga 7</t>
+          <t>Klan....Bounce.....You know what the fuck it is, 94 mentality, now these niggas mad at me......bounce 'Til you hold 'em out, mothasuckas come get some of this An-an-anna got me clickin' I ain't trippin', 'cause I'm on that snow These niggas be clutchin and postin the block, and be scared to pop Drop another brother motherfucka blackland We the south, tell me you bout it, I really doubt it Shooters run up to keep me out the violence Niggas be prowlin, you ain't even a component, opponents deceise every moment So break yoself claimin you want it, you runnin up on it You stuck up, you chicken, you boneless See really ain't holy, rest in peace pj my nigga, you really ain't know him You really ain't growin, smokin that ganja my nigga, you really ain't blowin My niggas be totin, nigga you left and you hit So get labled a snitch and you dumped in a ditch You like a bitch Break yoself claiming you eatin I shouldn't give a shit Nigga betta duck, drunk and he dont give a fuck Clutchin and ready to bust, he never did trust That nigga, done dissed and got rushed, he felt like he set that shit up Now if you trynna buck, hittin the gate and got stuck Where safe till that nigga ran up And snitched on his plug, got stuffed and drugged through the mud Left in a tub full of blood These niggas dont tell, fuck up and tell on your self You look like that nigga dat never sat up in a jail Dem niggas so body frail, betta break yo self I take yo health, gotta make this wealth Quick wit it, niggas can't get wit it Smokin and chokin exposin them bastards I don't give a fuck and what These niggas gone hate and these bitches they're nuts Living existences, personal prescription You sippin this lean just to get you high Stick in the air, aim at me if you dare Ignorance is a bliss so I'm hopin you die Niggas is niggas, so niggas have moments, and ended up leaving the synthesis Total disaster, they'll kill if they have to with bullets and mayhem And killin a bitch, Wasted in miami, where shit is uncanny I'm hopin I'm livin past 21, Where is the drop, get the Glock and I pop And the lean and gettin that nigga and gun Consequence, consequence having no consciences Leaving yo blood on the fuckin floor This is reality makin no gratisy Nigga it's Curry so open the door Cruisin' round' in that black splat, with a mac ten got a hundred rounds attached Run up on him with the funk and lay his ass flat Talkin' stupid make them choppas go brapp brapp haaa Young ass nigga chasin' scrilla get dat, pump to your gum Make your fuckin face go numb, fuck nigga you don't want no beef Fuck nigga you don't want no beef, any nigga wanna get it He can get it black stick put that shit to his mothafuckin' fitted And I ain't playin witcha', my niggas' come getcha', take a hundred rounds with ya We blow on that dank, fuck nigga get stank, put that shit to his face And blow out his brains, nigga you witnessin' real, put him in the field I bet he get killed, that nigga never kept it real, he script when he hit He got 15 years, pussy nigga remember I got yo address And I know where yo mama live, put a real nigga off in the field An' all he know is kill, kill This the real deal, bitch I bet you feel trill Off in this thang from the south watch yo mouth cuz what we spit is kill, ill Dade County 305 what you know about it ho? In this thang we gettin change And we just gettin rowdy yo, trunk music thump you better bump, toot it once As you is, nigga we off in the business, we gettin the chiznits Cuz we got to eat, you niggas can't get with me, I'm sickedly Spittin this shit so quickedly, they can't get with me this is the Recognize how we just apply this shit with a vibe and we gettin live And you bitches is about to cry7</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>No Threat</t>
+          <t>Benz</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Yeah, I been I been Yeah I been moving through the city like a phantom In the opera of a dark caramel Cleopatra moanin', holy matrimony Since I took her down in a cabana Same time mama move up to Atlanta I was in Miami tryna dodge the cameras Niggas in the hood, hold when it's drama Niggas so dramatic Finna tote a cannon or a lil' Uzi Yeah Talk that, talk that shit Yeah Talk that, talk that shit Yeah, yeah Yeah Talk that, talk that shit Yeah Yeah Okay Love and rage When the bass hit like a thunderwave I shape-shift, shake shit for a hundred days Still underrated, son Even if they tell me I'm top five Undebatable to even tell me I'm not, I Put this shit on my mama, all you niggas on bought time 'Cause shit I say cold, Zay told me to watch spines Niggas be frontin', say they love me, that's all cap You see where I'm headed, nigga, I know you want that I know where your head is, I know when this is combat You gon' be a Benedict, I'm bettin' it on wax 'Cause niggas stay fugazi Stay fugazi You makin' my mood crazy My mood crazy You makin' me chose how I might move, what I might do lately Ho, you made me my worst version Makes sense why my words worsened And maybe I should walk in your shoes But I just see life through first person No church sermons in the Serengeti Where niggas swearin' that we never ready Well I do anything that's necessary to be legendary Nigga, February, back to February, nigga, what No threat, it really ain't no threat Bitch Nobody came close and I'm 'bout to go ghost, but you really ain't know yet You really ain't know yet You really ain't know yet Nah Big bad wolf and I'm 'bout to kill 'em all But a nigga ain't O-F, yeah, yeah yeah Okay, kill 'em like 13 Assassins You right Orlando, play with the magic No camo, shots win the basket Oh hell no, me in the casket? In a suit, four piece, eulogies talkin' 'bout war, peace Screams, cries, fame, breach, wings high, can't reach If I'm walkin' on the cloud to the golden gates Then I hope that Jehovah gon' hold the place Then the devil gon' lie, say they stole my space Causin' me to repeat as a whole new race, oh no Be cremated, then reincarnated 'Cause Earth, I hate it, for sure Don't debate it, I get too faded 'Cause I ain't waitin' for hope Scopes, under bright lights Sadness cuts deep into my life With that fuck shit, I'ma end your timeline On that front page news is a highlight Let's reverse I'm remindin' you of what I don't take kindly to For any simple-minded fool who blinded tryna tote the tool You touch us, then we gotta touch all Families, friends, girlfriends, and all If you up, you better not stall 'Cause we won't be here when you fall No threat, it really ain't no threat Bitch Nobody came close and I'm 'bout to go ghost, but you really ain't know yet You really ain't know yet You really ain't know yet Nah Big bad wolf and I'm 'bout to kill 'em all But a nigga ain't O-F, yeah, yeah yeah3</t>
+          <t>Benz, Benz, Benz, Benz, Benz, Benz, Benz... Benz, Benz, Benz, Benz, Benz, Benz, Benz... I ride down 27 with a mixed bitch Looking like LisaRaye My bitch is in the passenger Like Dracula and Carmen Hayes Who blow me like cocaine With a little propane King of the Hill I keep it real She drop that top like Rogaine So slide wit ya boy If you ain't talkin' bout Benz Then I don't wanna ride with ya boy Come over here get high with ya boy Glide with ya boy Side with ya boy I do it how I wanna do it Run that pussy - Carl Lewis Now she thinking she my wife Oh my god, are you stupid? Talkin' about all I need is love and affection But baby I'm a dog barks And I am not the type to mess with I'm cruisin in that Lexus With a chick named Alexis And later in the night She gon' earn herself A pearl necklace I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that 'Cause you aint really On that, on that I told my baby I'm that nigga countin' figures Bumpin to that 69 Your bitch on that ecstasy That witch on switch motor grind Drinking off of dollar signs She all on the dick And she clappin' her thighs Finesse at expense With my face on her breasts And she poppin' that pussy Just like a .45 Now, when I recline I'm in my zone Bitch nigga, I'm fine Bruh bruh just vibe She done with her twerking Damn she tired Ride, I told ya chick lets slide In order to dive in the passenger A nigga just had to just fuck with her mind Dick and desire in her temple Now she thoughts are caught in her mental Now she wants to ride my beep Like singers ride instrumentals But I bump that little key And she told that girl to bust it Man she do it like a stripper When she lay it down and then touch it So rub it, similar to vapor rub For your chest, make those pantaloons Tsunami, mixed with Falls Niagra wet Now it's a family reunion When my mini-me is down her neck Raven Miyagi Aquarius Killa That nigga that never take kindly to threats I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby Benz Benz Bitch I got a Benz Benz Benz Bitch I got a Benz Benz Benz Bitch I got a Benz And I got them Bands So I'm makin' ends Bitch I got a Benz Bitch I got a Benz And I got them Bands So I'm making Ends Bitch I got a Benz Bitch I got a Benz And I got them Bands So you know I'm making Ends5</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fallin’ Apart</t>
+          <t>Got My Back</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>He say, she say Ayy Never been concerned about the, He say, she say Uh Young Felipe Never been concerned about the, He say, she say Look inside my bank account, you'll see it's my B-day Every day, all day, but I do not eat cake, and I do not see hate Stinkmeaner, my demeanor with the Nina Señoritas wanna meet me at the Catalina Wine mixer, mix it up with my elixir Overlookin' the ocean, I'm hopin' I see Flipper Young Felipe, movin' like it's GTA But not CJ, more like Tommy, copy, facts Spacey nigga, you can call me Drax Win every fucking track and you know it's 'bout to slap, uh Things are fallin' apart Uh Life is getting so bad Oh yeah Cost of living is getting so high Uh Turn up, said they want fire, let it burn up Tryna break my habits but some days I gotta burn up Got your girl hooked off the truth, no Sojourner You know I'm Ja Rule with the pen, ink murder, so I was writin' 'bout tomorrow, when today called Throwin' curves at a nigga, no baseball We work through it, hashtag, no days off Feelin' high, feelin' blessed, no Based God Dudes hatin' on my lines, no eight balls But I got dope in my quotes, speech napalm So before you wanna ride, check your breaks Y'all on very thin ice, with some really cheap skates Margarita, no food, we do very cheap dates Don't give me bad mood, but the head mad great, uh What's in my wallet? The keys to they heart is a deposit Things are fallin' apart Uh Life is getting so bad4</t>
+          <t>Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that Well it's the A to the jigga jigga G Rolling with my brother, no other, P-I-C Partner in crime if you didn't catch the rhyme Yes, my brother, my man, my fam, the whole nine And since we're talking about brothers There's another dog in the pound, K. Shabazz is the other On this track Me and Wali World shared time And go willy way back, black, like Grandpa's hair line I'm from the ghetto, I will never ever let go Always had a def show since the get go Hold up, wait, let me jump on the scene Yo who you be? I'm Wali World from the Neighborhood News team I put down the rock, now I'm strictly hip-hop Now I Keep a steady head and stay around the block Party Arty how you like it? Yo the shit sounds fat Yo LB what you doing? I'm lounging, black Well it's my debut so I gotta stay true Will he flip or flop? No I'm a dip to the top I can never get sick of looking at the brown grits I take my pain and flip, I came with the head, now I'm hot Yes I had to blow up the spot Trade a lay up for tracks and got my rhymes for my jump shot And my range is outrageous Got mad pull memory's full, too many pages Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that First things first, you know I burst with the herbs On my own like a roughneck with the mental of a damn nerd The gear I wear is only rough and right Gave the Timbs a break, sport Northflakes with construction tights I get hype and light blunts with my crew Smoke a spliff with Ice if Wu got the .22 And Mama Duke gets nuff respect Because she kept me in check, one deep, now that's a roughneck Dre's the best, you'd better say yes, or test The G double O-D-F-E double L-A-S I'm incredible, making MC's edible Sell out is what I'll never do, get paid is what I'd better do And while my brother's in the federal I'm making LP's, collecting G's for my revenue Now so I was bombing Brothers are dying for glory A disaster Happily ever after We don't know that story My brother's gone, I got to get work Dressed in my boots and my sweatshirt, I'm rolling with the network The new, yes I'm down with Neighborhood News Jordan was on top, now Wali World rules Hanging with the Goodfellas, smoking marijuana Big ups to Afrika Bambaataa and my brother Kale Kinyata I got a SP-12 from the brother Show I gotta flow to let them others know I told you before that I had to stay true Wali World is out, now how'd you like my debut? Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Break YoSelf</t>
+          <t>BLOOD ON MY NIKEZ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Klan....Bounce.....You know what the fuck it is, 94 mentality, now these niggas mad at me......bounce 'Til you hold 'em out, mothasuckas come get some of this An-an-anna got me clickin' I ain't trippin', 'cause I'm on that snow These niggas be clutchin and postin the block, and be scared to pop Drop another brother motherfucka blackland We the south, tell me you bout it, I really doubt it Shooters run up to keep me out the violence Niggas be prowlin, you ain't even a component, opponents deceise every moment So break yoself claimin you want it, you runnin up on it You stuck up, you chicken, you boneless See really ain't holy, rest in peace pj my nigga, you really ain't know him You really ain't growin, smokin that ganja my nigga, you really ain't blowin My niggas be totin, nigga you left and you hit So get labled a snitch and you dumped in a ditch You like a bitch Break yoself claiming you eatin I shouldn't give a shit Nigga betta duck, drunk and he dont give a fuck Clutchin and ready to bust, he never did trust That nigga, done dissed and got rushed, he felt like he set that shit up Now if you trynna buck, hittin the gate and got stuck Where safe till that nigga ran up And snitched on his plug, got stuffed and drugged through the mud Left in a tub full of blood These niggas dont tell, fuck up and tell on your self You look like that nigga dat never sat up in a jail Dem niggas so body frail, betta break yo self I take yo health, gotta make this wealth Quick wit it, niggas can't get wit it Smokin and chokin exposin them bastards I don't give a fuck and what These niggas gone hate and these bitches they're nuts Living existences, personal prescription You sippin this lean just to get you high Stick in the air, aim at me if you dare Ignorance is a bliss so I'm hopin you die Niggas is niggas, so niggas have moments, and ended up leaving the synthesis Total disaster, they'll kill if they have to with bullets and mayhem And killin a bitch, Wasted in miami, where shit is uncanny I'm hopin I'm livin past 21, Where is the drop, get the Glock and I pop And the lean and gettin that nigga and gun Consequence, consequence having no consciences Leaving yo blood on the fuckin floor This is reality makin no gratisy Nigga it's Curry so open the door Cruisin' round' in that black splat, with a mac ten got a hundred rounds attached Run up on him with the funk and lay his ass flat Talkin' stupid make them choppas go brapp brapp haaa Young ass nigga chasin' scrilla get dat, pump to your gum Make your fuckin face go numb, fuck nigga you don't want no beef Fuck nigga you don't want no beef, any nigga wanna get it He can get it black stick put that shit to his mothafuckin' fitted And I ain't playin witcha', my niggas' come getcha', take a hundred rounds with ya We blow on that dank, fuck nigga get stank, put that shit to his face And blow out his brains, nigga you witnessin' real, put him in the field I bet he get killed, that nigga never kept it real, he script when he hit He got 15 years, pussy nigga remember I got yo address And I know where yo mama live, put a real nigga off in the field An' all he know is kill, kill This the real deal, bitch I bet you feel trill Off in this thang from the south watch yo mouth cuz what we spit is kill, ill Dade County 305 what you know about it ho? In this thang we gettin change And we just gettin rowdy yo, trunk music thump you better bump, toot it once As you is, nigga we off in the business, we gettin the chiznits Cuz we got to eat, you niggas can't get with me, I'm sickedly Spittin this shit so quickedly, they can't get with me this is the Recognize how we just apply this shit with a vibe and we gettin live And you bitches is about to cry7</t>
+          <t>Okay Okay Okay, uh, okay Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, how the fuck you get all your bread took? I'm a real nigga, leave a trail full of dead crooks Opposite of snitch, you the type to make the feds look I could make a sham shook, that chopper sing like Sam Cooke Change gon' come with this drum, please don't get involved In the M-I-A, it's first forty-eight, you'll be mystery unsolved So it's best you keep my name out your mouth This how the fuck it go down in the South Most of my niggas been down in a drought So they're lookin' for smoke and you look like an ounce Lord, forgive me for my sins, I can't spare the rod In these final days, they're been times that been hella hard No, I'm not a killer, but my dawg got a darker heart Jit said he was a demon, so tonight, we'll be playin' God Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy I'm the godfather of this shit, shut the fuck up, let's go Get him hit, sent the word without sayin' a single word He claim he a rider, now that nigga ride in a hearse Stupid nigga tried to play me dirty, now he in the dirt His homies ain't gon' do shit but go put his name up in a verse All you niggas pussies, should wear halter tops and miniskirts This Draco like a nine to five, who wanna come and get this work? Whoever the loudest in this bitch is who gon' get it first This bitch confused, how she wearin' Coach but wanna sit in first? Mane, let me wipe the blood off my Louis boots Drum on the chopper like a muhfuckin' hula hoop 2023 and you know these niggas don't scrap no more I keep the .19 like I'm Leonardo DiCaprio Okay, okay, set it off, I'ma do the damn thang Yeah, ayy Put my name on my gang, on my goddamn chain Shut the fuck up To a rich nigga, you a goddamn lame Ayy To a broke nigga, you a goddamn stain I'm the godfather of this shit, mane, Juicy Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Benz</t>
+          <t>INTRO (13LOOD 1N + 13LOOD OUT MIXX)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Benz, Benz, Benz, Benz, Benz, Benz, Benz... Benz, Benz, Benz, Benz, Benz, Benz, Benz... I ride down 27 with a mixed bitch Looking like LisaRaye My bitch is in the passenger Like Dracula and Carmen Hayes Who blow me like cocaine With a little propane King of the Hill I keep it real She drop that top like Rogaine So slide wit ya boy If you ain't talkin' bout Benz Then I don't wanna ride with ya boy Come over here get high with ya boy Glide with ya boy Side with ya boy I do it how I wanna do it Run that pussy - Carl Lewis Now she thinking she my wife Oh my god, are you stupid? Talkin' about all I need is love and affection But baby I'm a dog barks And I am not the type to mess with I'm cruisin in that Lexus With a chick named Alexis And later in the night She gon' earn herself A pearl necklace I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that 'Cause you aint really On that, on that I told my baby I'm that nigga countin' figures Bumpin to that 69 Your bitch on that ecstasy That witch on switch motor grind Drinking off of dollar signs She all on the dick And she clappin' her thighs Finesse at expense With my face on her breasts And she poppin' that pussy Just like a .45 Now, when I recline I'm in my zone Bitch nigga, I'm fine Bruh bruh just vibe She done with her twerking Damn she tired Ride, I told ya chick lets slide In order to dive in the passenger A nigga just had to just fuck with her mind Dick and desire in her temple Now she thoughts are caught in her mental Now she wants to ride my beep Like singers ride instrumentals But I bump that little key And she told that girl to bust it Man she do it like a stripper When she lay it down and then touch it So rub it, similar to vapor rub For your chest, make those pantaloons Tsunami, mixed with Falls Niagra wet Now it's a family reunion When my mini-me is down her neck Raven Miyagi Aquarius Killa That nigga that never take kindly to threats I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby I'm that, I'm that, nigga so Fall back, fall back And you dont really Want that, want that Cause you aint really On that, on that I told my baby Benz Benz Bitch I got a Benz Benz Benz Bitch I got a Benz Benz Benz Bitch I got a Benz And I got them Bands So I'm makin' ends Bitch I got a Benz Bitch I got a Benz And I got them Bands So I'm making Ends Bitch I got a Benz Bitch I got a Benz And I got them Bands So you know I'm making Ends5</t>
+          <t>Blood in, blood out 4</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Got My Back</t>
+          <t>Klvn Shxt</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that Well it's the A to the jigga jigga G Rolling with my brother, no other, P-I-C Partner in crime if you didn't catch the rhyme Yes, my brother, my man, my fam, the whole nine And since we're talking about brothers There's another dog in the pound, K. Shabazz is the other On this track Me and Wali World shared time And go willy way back, black, like Grandpa's hair line I'm from the ghetto, I will never ever let go Always had a def show since the get go Hold up, wait, let me jump on the scene Yo who you be? I'm Wali World from the Neighborhood News team I put down the rock, now I'm strictly hip-hop Now I Keep a steady head and stay around the block Party Arty how you like it? Yo the shit sounds fat Yo LB what you doing? I'm lounging, black Well it's my debut so I gotta stay true Will he flip or flop? No I'm a dip to the top I can never get sick of looking at the brown grits I take my pain and flip, I came with the head, now I'm hot Yes I had to blow up the spot Trade a lay up for tracks and got my rhymes for my jump shot And my range is outrageous Got mad pull memory's full, too many pages Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that First things first, you know I burst with the herbs On my own like a roughneck with the mental of a damn nerd The gear I wear is only rough and right Gave the Timbs a break, sport Northflakes with construction tights I get hype and light blunts with my crew Smoke a spliff with Ice if Wu got the .22 And Mama Duke gets nuff respect Because she kept me in check, one deep, now that's a roughneck Dre's the best, you'd better say yes, or test The G double O-D-F-E double L-A-S I'm incredible, making MC's edible Sell out is what I'll never do, get paid is what I'd better do And while my brother's in the federal I'm making LP's, collecting G's for my revenue Now so I was bombing Brothers are dying for glory A disaster Happily ever after We don't know that story My brother's gone, I got to get work Dressed in my boots and my sweatshirt, I'm rolling with the network The new, yes I'm down with Neighborhood News Jordan was on top, now Wali World rules Hanging with the Goodfellas, smoking marijuana Big ups to Afrika Bambaataa and my brother Kale Kinyata I got a SP-12 from the brother Show I gotta flow to let them others know I told you before that I had to stay true Wali World is out, now how'd you like my debut? Now if you need me You know I'm here, G You got my back, black? You know it's like that If you need me You know I'm here, G You got my back, black? You know it's like that</t>
+          <t>Came in through the front door, lil' nigga that big 4 Niggas know what I came for, that bankroll, that cash flow Raider Klan in yo girl throat, Raider Klan in yo girl ass Blaze up then talk last, they see through like new glass Don't ask I won't tell, but even if niggas know triggas' dont miss Im gon' do me with my arm around yo bitch If bitches was money well fuck it im rich If I was a lame I would lay in a ditch But I am the man, with my hand on my dick Not bragging or boasting but I am the shit I'm flowing is so dope, I should start selling bricks Niggas is hatin' cuz the paper Im chasin' Crooked ass cops dont wanna see a nigga make it Shoot yo clothes off and they'll find your body naked You got it, well ima take it Curry on the beat, he finna rape it Bouncin I'm rockin electrical shockin The gun to the cock it I shoot it I pop it You leaning I drop it his body get shot Then I buy it I sell it my nigga I cop it Like handcuffs, but not arrest Aquarius'Killa that nigga's the best Fucking with me better get off yo chest But fucking with me and yo ass gon' rest In the fuckin hearse, Denzel Curry is a curse Devilz is my rivals, untold chapters in the bible Bitch im like Lord Infamous, taught by the scarecrow Fuckin with raven leavin niggas dead like necro Odd nigga like mellowhype, when you hear them gunsounds Purrp told me to keep it G, but I keep it to the underground Blackland six six dot, 2Pac with two Glocks Fuck around get twelve shots, I aim for heads like dreadlocks Fuck bars I spit xannies, take off yo bitch panties Pass her some X pills she said damn that dick dandy Candy, Im smashin' that bitch Rappin' that shit when im cashin' and shit She jokin' and chokin' im laughin and shit Poppin these addies im fast on this shit She clappin' and shit, suckin me up I know she a slut so I bust in her guts Dont give a fuck she still give me that butt But im all buckled up strapped and running her up Im drunk as fuck, eatin' that pussy Like makeveli fucker do not push me Gettin' that brain but im going retarded I am the shit motherfucker who farted Slingy bitch through the front doe Ruben fucking Slikk all in ya broad Big dick yeah long and hard like the mothafuckin wood on yeah yard Back yard, act hard, pussy nigga you will get popped Ruben slikk, hollar at a nigga, if you want a acid drop Fifteen, for the tab, yeah bitch I know your dad He bought acid from a nigga like me Way back in the day talkin bout last week Hey nigga, yeah nigga, ruben slikk all in ya head nigga Gettin head nigga, from a bad bitch Bust a nut in her face like cabbage All of that, from her purse Big dick then disperse Yum yum, she eats, that big dick like healthy treats Talkin bout that healthy one, talkin bout that healthy one If ima fuck a bitch raw then it better be a healthy one4</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BLOOD ON MY NIKEZ</t>
+          <t>The Game</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Okay Okay Okay, uh, okay Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, how the fuck you get all your bread took? I'm a real nigga, leave a trail full of dead crooks Opposite of snitch, you the type to make the feds look I could make a sham shook, that chopper sing like Sam Cooke Change gon' come with this drum, please don't get involved In the M-I-A, it's first forty-eight, you'll be mystery unsolved So it's best you keep my name out your mouth This how the fuck it go down in the South Most of my niggas been down in a drought So they're lookin' for smoke and you look like an ounce Lord, forgive me for my sins, I can't spare the rod In these final days, they're been times that been hella hard No, I'm not a killer, but my dawg got a darker heart Jit said he was a demon, so tonight, we'll be playin' God Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy I'm the godfather of this shit, shut the fuck up, let's go Get him hit, sent the word without sayin' a single word He claim he a rider, now that nigga ride in a hearse Stupid nigga tried to play me dirty, now he in the dirt His homies ain't gon' do shit but go put his name up in a verse All you niggas pussies, should wear halter tops and miniskirts This Draco like a nine to five, who wanna come and get this work? Whoever the loudest in this bitch is who gon' get it first This bitch confused, how she wearin' Coach but wanna sit in first? Mane, let me wipe the blood off my Louis boots Drum on the chopper like a muhfuckin' hula hoop 2023 and you know these niggas don't scrap no more I keep the .19 like I'm Leonardo DiCaprio Okay, okay, set it off, I'ma do the damn thang Yeah, ayy Put my name on my gang, on my goddamn chain Shut the fuck up To a rich nigga, you a goddamn lame Ayy To a broke nigga, you a goddamn stain I'm the godfather of this shit, mane, Juicy Okay, okay, set it off, I'ma do the damn thang Put my name on my gang, on my goddamn chain To a rich nigga, you a goddamn lame To a broke nigga, you a goddamn stain Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane, let me wipe the blood off my Nikes, ayy Mane</t>
+          <t>Before you judge, do your research, nigga, we hurt Before I even think about us, I think of me first The street had only brought me ether and random outburst I told the hood that I'ma come back, just get me out first And niggas quick to call me sellout when I'm on the outskirts Want to know how I got there? I put in hard work I know you wanna get this money, you gotta be smart first Pay attention, write this shit down, and repeat my verse I don't fuck with people that ain't on the same time Too lazy to wanna make dimes, then wanna tak mine When it comes to fucking with dims, you need to peep signs Pussy over money online, then, nigga, you blind Find yourself paying for shit because she too fine If you wasn't making a cent, you getting denied If you see she independent and have a good vibe That's the one you better stick with and keep on your side The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game Seen a lot of brothers fucked up, seen some friends die 'Cause you walked away from a fight don't mean that you pie I don't got a problem with all these other new guys Even find myself bumping 'bout just a few guys Doing all this industry shit, I start to realize We lookin' up to junkies and shit, then mimic they lives Niggas go and get some new tats, wear the same chains Gucci, Prada, Fendi, you all wear the same thing Niggas fucking on the same bitch that you call main Now I gotta roast you slow, mane, like it was lo mein If you said I came for your head, I guess I'm Rogaine All of y'all like layover flights, y'all niggas too plain You don't need to brag or dress up when all your shit flame Sabotaging other black men, bruh, all that shit lame I got love for Megan, but also got love for Noname And I won't stop speaking to y'all until I change The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game By the way This ain't a motherfucking Diss This the motherfucking Truth Bitch3</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INTRO (13LOOD 1N + 13LOOD OUT MIXX)</t>
+          <t>Tally</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Blood in, blood out 4</t>
+          <t>Ayo, bitch, I'm spectacular Tall black man with an advanced vernacular Immaculate, slightly crazed over-analyst Backpacking activist, I'm the new catalyst To change your mind frames back up to what matters It's a brand new chapter I'm adding more paragraphs to this cast Slack up and get embarrassed I had it with you wack-ass niggas, I'm changing channels And I dare a nigga to touch my remote Might fuck around and start a revolt Cause we know you can't keep lying to my people We wreckin' shit wherever we go I'm free yo, ice cold niggaeskimo Goddamn it, I'm the man30 karats on the hands, homie Motherfuck your next plans, homie Motherfuck your advance, homie A motherfucker, I might be your stepdad, homie I'm home alone with strep Got sick vocals that flex on any nigga I'm Bret, the hitman, homie Heart colder than Owen when I be flowin' Frozen like any arctic, I start shit like Bart Simps I blew up here, something like Marge's I barge in the booth like drill sergeants with troops I am the proof like a vest made for bullets When you pull it, just be careful when you shoot Dex got the footage My placement belongs inside a spaceship I'm handin' out facelifts for those who need replacements A makeshift bow staff for you old bags, I blow past so fast Swingin' to get your dome smashed, I'm on that I'm crusing the city holding my mojo Looking over my shoulder with no GoPros Ain't know the kid moved dolo I'mma live forever through these bars, fuck YOLO I'm a motherfucking superstar, what are y'all on? We gon' be rich off this shit, word to Mylon My mama always told me Keep calm, enjoy the calm in the morning Only reason I don't blast off you cats without warning And I will not let you ignore me, it's all me So I'mma keep blazing y'all with more heat At least it balls up the morphine Got a line around the corner give me more fiends And I'mma father all you niggas, word to Maury Man, I'm the future bitch, fuck who was before me Goddamn it, I'm the man30 karats on the hands, homie Motherfuck your next plans, homie And motherfuck your advance, homie You know the industry's in trouble when you understand That L.A. Reid is blowing fucking millions on some cover bands You're all cover bands, all I hear is cover bands Understand we know that all the compliments are underhand I'm so Italian in the mattress, there's a hundred grand I'm not a homosexual, but that is how you fuck the man Second thoughts before you play me shit you made at camp And Fruity Loop producers re-evaluate and cut your hands Mike Krzyzewski, O's and X's, baby, run the plan The bullies in the lunchroom stole the bread, flung the ham Knives can break, guns can jam And death will come for every man But all I need's my Bible and some melatonin, understand All we see is happy days, Richie Cunningham Beautiful Mind drives the people, we do trucks and vans Good Will's gone hunting, motherfucker Where you been, Affleck? We're just seein' if you ducks can dance I am the black sheep, I'm half 'sleep You athletes couldn't walk in a track meet No racism cause you all could take a backseat Your past seats are ass cheeks My class meets the stampedes of Nissans and Camrys My family's a bunch of superheroes, Stan Lee Damn it, I'm the man30 karats in the hand Motherfuck your advance, homie Twice, motherfuck your advance, homie Motherfuck your advance, homie6</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Klvn Shxt</t>
+          <t>2017 BET Hip Hop Awards - Cypher 1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Came in through the front door, lil' nigga that big 4 Niggas know what I came for, that bankroll, that cash flow Raider Klan in yo girl throat, Raider Klan in yo girl ass Blaze up then talk last, they see through like new glass Don't ask I won't tell, but even if niggas know triggas' dont miss Im gon' do me with my arm around yo bitch If bitches was money well fuck it im rich If I was a lame I would lay in a ditch But I am the man, with my hand on my dick Not bragging or boasting but I am the shit I'm flowing is so dope, I should start selling bricks Niggas is hatin' cuz the paper Im chasin' Crooked ass cops dont wanna see a nigga make it Shoot yo clothes off and they'll find your body naked You got it, well ima take it Curry on the beat, he finna rape it Bouncin I'm rockin electrical shockin The gun to the cock it I shoot it I pop it You leaning I drop it his body get shot Then I buy it I sell it my nigga I cop it Like handcuffs, but not arrest Aquarius'Killa that nigga's the best Fucking with me better get off yo chest But fucking with me and yo ass gon' rest In the fuckin hearse, Denzel Curry is a curse Devilz is my rivals, untold chapters in the bible Bitch im like Lord Infamous, taught by the scarecrow Fuckin with raven leavin niggas dead like necro Odd nigga like mellowhype, when you hear them gunsounds Purrp told me to keep it G, but I keep it to the underground Blackland six six dot, 2Pac with two Glocks Fuck around get twelve shots, I aim for heads like dreadlocks Fuck bars I spit xannies, take off yo bitch panties Pass her some X pills she said damn that dick dandy Candy, Im smashin' that bitch Rappin' that shit when im cashin' and shit She jokin' and chokin' im laughin and shit Poppin these addies im fast on this shit She clappin' and shit, suckin me up I know she a slut so I bust in her guts Dont give a fuck she still give me that butt But im all buckled up strapped and running her up Im drunk as fuck, eatin' that pussy Like makeveli fucker do not push me Gettin' that brain but im going retarded I am the shit motherfucker who farted Slingy bitch through the front doe Ruben fucking Slikk all in ya broad Big dick yeah long and hard like the mothafuckin wood on yeah yard Back yard, act hard, pussy nigga you will get popped Ruben slikk, hollar at a nigga, if you want a acid drop Fifteen, for the tab, yeah bitch I know your dad He bought acid from a nigga like me Way back in the day talkin bout last week Hey nigga, yeah nigga, ruben slikk all in ya head nigga Gettin head nigga, from a bad bitch Bust a nut in her face like cabbage All of that, from her purse Big dick then disperse Yum yum, she eats, that big dick like healthy treats Talkin bout that healthy one, talkin bout that healthy one If ima fuck a bitch raw then it better be a healthy one4</t>
+          <t>Dark side, you're now at the BET Cypher And you know we all from south Florida, so let me introduce the crew We got my dog Ball Greezy the legend We got my dog Zoey Dollaz making dollaz And we got my dog, put your face on Ski Mask The Slump God And it's your boy Ultimate Denzel Curry Aye yo, Premo drop that shit Uh, I want a swag like Fab, crib like Ross Paper like Jiggy and a hustle like Puff Keep it street like Jeezy, label like Weezy Talk more shit than Trick Daddy and Yeezy Legend like Pac, and that nigga Biggie Go from ashy to classy just like Nicki Major key like Khaled, smoke like Snoop Bang beats like Dre and make movies like Cube Tour the world like Flo, neck like Slick Rick With a fire ass album like 50 gon' get rich Cool like Cab, bang like Jimmy Smoove like Juelz, and freaky like Zekie Nas with the knowledge, X with the pain Ja Rule with the melodies and Drake when I sing OutKast with the grammar, Geechie at it's finest Cee Lo Green with the dungeon fam behind him Ball Greezy, wide, yeah Ayo, I'm bout to hit this beat raw, somebody get a Plan B I'm so hot I made them move the cypher to Miami After this your girl mouth about to be dumb like Donald Trump Cause I'm on this screen spitting harder than Donald Duck Last year, I was watching this on the TV This year, hi hater, I know you see me When I was ducking cops, swiping cards with no I.D You was home bored, scrolling up on your IG uh My future bright boy I see no error I could've been like you, broke without a clue But those c-notes better A rap nigga touch me? He know better I be solo, but I'm 32 deep My clip a ladder I make them bullets go climb up your cheeks It's never about how you fall, it's always about the hand that catches ya You can catch 3 to your head like you Chance the Rapper Jay told me never go Eric Benét I say never go Joe Budden, and lose a bad chick like Tahiry right on TV Because fuck a rap beef, knowing they wanna meet me Rappers, dancing like they Meechie Louie shorts on jet skis, ooh I'm finna But I'll put some things on a yacht though Never lose your cool over some thot hoe .40 cal leave you with abajo Yellow colored lambo, looking like it's a nacho 5 hour flight for your chick, to eat some tacos This too easy I ain't have to go hard Ima hold it down for Dade County and pass it to my dog Ayy, ayy, ayy, ayy, ayy This disgusting, like I just spilled some mustard I'll turn my flow to arson, let it burn like it's straight from Usher Matter fact, I rode here on the back Of a saber tooth white wild mountain cat Double park in a spot for the handicap 'Cause if you can't tell I got a bad back But, it's a mayday, who gave this crazy a payday And when she see my big huevos Made face like she stepped on Legos God of War, like I'm Kratos, carnivore, I'm the prey though I'm a whore, we a whore, we all whores, ayy! Even if she hot I'm gonna drop her like potato Told these niggas catch up like the sauce from a tomato I see myself in Great White, you shrimp just like alfredo And the way that I'm getting bread like I'm a jar of mayo Better recognize, this the man ULT Coming from the depths of that black land CC Aquarius'killa the ultimate no Marvel or DC You'll never be superman cuz I'm where the green be Kryptonite You say we blood until they lay you in the crypt tonight Be careful or people that's around that ain't living right the Left turn leave another brother chest burn Bullets so hot they'll leave your homie's chest hair permed Used to be on the block like HR Where the crackers chasing most of my niggas like an Atar Raw, I'm Egyptian, nah I'm encryption, law My depiction is a real nigga description bitch You still hum capped off a niggas rims Put some green on your head like I play The Sims Say green because I've never been a flashy nigga You see the world in black and white like a ashy nigga7</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>The Game</t>
+          <t>Something in the Water</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Before you judge, do your research, nigga, we hurt Before I even think about us, I think of me first The street had only brought me ether and random outburst I told the hood that I'ma come back, just get me out first And niggas quick to call me sellout when I'm on the outskirts Want to know how I got there? I put in hard work I know you wanna get this money, you gotta be smart first Pay attention, write this shit down, and repeat my verse I don't fuck with people that ain't on the same time Too lazy to wanna make dimes, then wanna tak mine When it comes to fucking with dims, you need to peep signs Pussy over money online, then, nigga, you blind Find yourself paying for shit because she too fine If you wasn't making a cent, you getting denied If you see she independent and have a good vibe That's the one you better stick with and keep on your side The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game Seen a lot of brothers fucked up, seen some friends die 'Cause you walked away from a fight don't mean that you pie I don't got a problem with all these other new guys Even find myself bumping 'bout just a few guys Doing all this industry shit, I start to realize We lookin' up to junkies and shit, then mimic they lives Niggas go and get some new tats, wear the same chains Gucci, Prada, Fendi, you all wear the same thing Niggas fucking on the same bitch that you call main Now I gotta roast you slow, mane, like it was lo mein If you said I came for your head, I guess I'm Rogaine All of y'all like layover flights, y'all niggas too plain You don't need to brag or dress up when all your shit flame Sabotaging other black men, bruh, all that shit lame I got love for Megan, but also got love for Noname And I won't stop speaking to y'all until I change The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game The game, the game, the game, the game The game, the game, the game, the game These niggas out here screamin' that they gang, gang, gang Be the same niggas fuckin' up the game, game, game By the way This ain't a motherfucking Diss This the motherfucking Truth Bitch3</t>
+          <t>Ooh, ah Yeah, yeah, ayy, ayy Yeah, yeah, ayy I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing And it really hurt my soul, damn, yeah Contract, contact bullshit make you realize you been shorted, yeah Concepts fallin' short, you niggas tryin' too hard, I noticed, yah Confined by the corporate, mak you see you can't afford it yet Industry a bit', I mean a big bit', I mean Norbit, yeah Blinded by the glitz, I'm gettin' tired, it must be more to men Jewelry, jewelry, foreign car, your foreign broad imported, yeah I just set a target, I need milli' in my wallet, yeah Something's in the water, something's in the way, Nirvana It's in my mama name, Big Tymers, don't need no dollar to rely on I'm good in the hood, I'm like vagina, yeah Nigga too worried 'bout designer, yeah That'll get you cut like Andrew Bynum, yeah Where I'm from they come and find ya, yeah Aye, I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing Mhm, mhm, mhm And it really hurt my soul, damn, yeah Okay, okay, okay Mhm, mhm Fake it 'til you make it, camouflagin' all facades, ayy Personal opinion don't amount to what our God say Tell the kids, Go farther, when they house don't have a padre Bottle water when I rap, grew up never drinkin' from the tap I was so sick of these airports 'til COVID hit the map Now we're too sleep at this point, we even tired of takin' naps I lost close friends to a drug binge, in hopes I can bring 'em back Momma said this the revelation, doubters all lookin' for resolutions Everyone buying in desperation On a good note, there's no air pollution Man, our reflection is over the seven seas It's clear that we want it all, eyes on we, what you see? Aye, I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing And it really hurt my soul, damn, yeah1</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tally</t>
+          <t>Untitled ft. Denzel Curry</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ayo, bitch, I'm spectacular Tall black man with an advanced vernacular Immaculate, slightly crazed over-analyst Backpacking activist, I'm the new catalyst To change your mind frames back up to what matters It's a brand new chapter I'm adding more paragraphs to this cast Slack up and get embarrassed I had it with you wack-ass niggas, I'm changing channels And I dare a nigga to touch my remote Might fuck around and start a revolt Cause we know you can't keep lying to my people We wreckin' shit wherever we go I'm free yo, ice cold niggaeskimo Goddamn it, I'm the man30 karats on the hands, homie Motherfuck your next plans, homie Motherfuck your advance, homie A motherfucker, I might be your stepdad, homie I'm home alone with strep Got sick vocals that flex on any nigga I'm Bret, the hitman, homie Heart colder than Owen when I be flowin' Frozen like any arctic, I start shit like Bart Simps I blew up here, something like Marge's I barge in the booth like drill sergeants with troops I am the proof like a vest made for bullets When you pull it, just be careful when you shoot Dex got the footage My placement belongs inside a spaceship I'm handin' out facelifts for those who need replacements A makeshift bow staff for you old bags, I blow past so fast Swingin' to get your dome smashed, I'm on that I'm crusing the city holding my mojo Looking over my shoulder with no GoPros Ain't know the kid moved dolo I'mma live forever through these bars, fuck YOLO I'm a motherfucking superstar, what are y'all on? We gon' be rich off this shit, word to Mylon My mama always told me Keep calm, enjoy the calm in the morning Only reason I don't blast off you cats without warning And I will not let you ignore me, it's all me So I'mma keep blazing y'all with more heat At least it balls up the morphine Got a line around the corner give me more fiends And I'mma father all you niggas, word to Maury Man, I'm the future bitch, fuck who was before me Goddamn it, I'm the man30 karats on the hands, homie Motherfuck your next plans, homie And motherfuck your advance, homie You know the industry's in trouble when you understand That L.A. Reid is blowing fucking millions on some cover bands You're all cover bands, all I hear is cover bands Understand we know that all the compliments are underhand I'm so Italian in the mattress, there's a hundred grand I'm not a homosexual, but that is how you fuck the man Second thoughts before you play me shit you made at camp And Fruity Loop producers re-evaluate and cut your hands Mike Krzyzewski, O's and X's, baby, run the plan The bullies in the lunchroom stole the bread, flung the ham Knives can break, guns can jam And death will come for every man But all I need's my Bible and some melatonin, understand All we see is happy days, Richie Cunningham Beautiful Mind drives the people, we do trucks and vans Good Will's gone hunting, motherfucker Where you been, Affleck? We're just seein' if you ducks can dance I am the black sheep, I'm half 'sleep You athletes couldn't walk in a track meet No racism cause you all could take a backseat Your past seats are ass cheeks My class meets the stampedes of Nissans and Camrys My family's a bunch of superheroes, Stan Lee Damn it, I'm the man30 karats in the hand Motherfuck your advance, homie Twice, motherfuck your advance, homie Motherfuck your advance, homie6</t>
+          <t>from Snippets Pi-pi-piss on your , call me young Sosa, bro I'm an Aquarius, don't call me Scorpio Flow like a torpedo, tired of two-speed though Figaro, figure out, into my beast mode Aquarius'Killa, bro, get off my genitals You, fly like a butterfly in a cocoon Ride through the night like I'm just a gobble-gobble, waka-waka, underwater Pray disorder, I be mortal, I'll destroy your God The epidemy of I I could be normal but sorry, that is not our job U-U-Underground, I am the underworld</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2017 BET Hip Hop Awards - Cypher 1</t>
+          <t>Delusional Shone</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dark side, you're now at the BET Cypher And you know we all from south Florida, so let me introduce the crew We got my dog Ball Greezy the legend We got my dog Zoey Dollaz making dollaz And we got my dog, put your face on Ski Mask The Slump God And it's your boy Ultimate Denzel Curry Aye yo, Premo drop that shit Uh, I want a swag like Fab, crib like Ross Paper like Jiggy and a hustle like Puff Keep it street like Jeezy, label like Weezy Talk more shit than Trick Daddy and Yeezy Legend like Pac, and that nigga Biggie Go from ashy to classy just like Nicki Major key like Khaled, smoke like Snoop Bang beats like Dre and make movies like Cube Tour the world like Flo, neck like Slick Rick With a fire ass album like 50 gon' get rich Cool like Cab, bang like Jimmy Smoove like Juelz, and freaky like Zekie Nas with the knowledge, X with the pain Ja Rule with the melodies and Drake when I sing OutKast with the grammar, Geechie at it's finest Cee Lo Green with the dungeon fam behind him Ball Greezy, wide, yeah Ayo, I'm bout to hit this beat raw, somebody get a Plan B I'm so hot I made them move the cypher to Miami After this your girl mouth about to be dumb like Donald Trump Cause I'm on this screen spitting harder than Donald Duck Last year, I was watching this on the TV This year, hi hater, I know you see me When I was ducking cops, swiping cards with no I.D You was home bored, scrolling up on your IG uh My future bright boy I see no error I could've been like you, broke without a clue But those c-notes better A rap nigga touch me? He know better I be solo, but I'm 32 deep My clip a ladder I make them bullets go climb up your cheeks It's never about how you fall, it's always about the hand that catches ya You can catch 3 to your head like you Chance the Rapper Jay told me never go Eric Benét I say never go Joe Budden, and lose a bad chick like Tahiry right on TV Because fuck a rap beef, knowing they wanna meet me Rappers, dancing like they Meechie Louie shorts on jet skis, ooh I'm finna But I'll put some things on a yacht though Never lose your cool over some thot hoe .40 cal leave you with abajo Yellow colored lambo, looking like it's a nacho 5 hour flight for your chick, to eat some tacos This too easy I ain't have to go hard Ima hold it down for Dade County and pass it to my dog Ayy, ayy, ayy, ayy, ayy This disgusting, like I just spilled some mustard I'll turn my flow to arson, let it burn like it's straight from Usher Matter fact, I rode here on the back Of a saber tooth white wild mountain cat Double park in a spot for the handicap 'Cause if you can't tell I got a bad back But, it's a mayday, who gave this crazy a payday And when she see my big huevos Made face like she stepped on Legos God of War, like I'm Kratos, carnivore, I'm the prey though I'm a whore, we a whore, we all whores, ayy! Even if she hot I'm gonna drop her like potato Told these niggas catch up like the sauce from a tomato I see myself in Great White, you shrimp just like alfredo And the way that I'm getting bread like I'm a jar of mayo Better recognize, this the man ULT Coming from the depths of that black land CC Aquarius'killa the ultimate no Marvel or DC You'll never be superman cuz I'm where the green be Kryptonite You say we blood until they lay you in the crypt tonight Be careful or people that's around that ain't living right the Left turn leave another brother chest burn Bullets so hot they'll leave your homie's chest hair permed Used to be on the block like HR Where the crackers chasing most of my niggas like an Atar Raw, I'm Egyptian, nah I'm encryption, law My depiction is a real nigga description bitch You still hum capped off a niggas rims Put some green on your head like I play The Sims Say green because I've never been a flashy nigga You see the world in black and white like a ashy nigga7</t>
+          <t>Hey, hey, hey, hey Hey, hey, hey How many niggas is saying they pimping It's evident when is it none of you niggas got pimp in your blood All of y'all watered down like a tub full of suds I cannot fuck with you let me roll up my bud Girl you look like a dime but can you roll up a dub Go to the club you said you ain't looking for love But you dark and lovely and the night was gusting Marijuana and bubbly now your body I'm lusting Forever, ever never for the time being You without clothes is the only thing I'm seeing Hair swanging you hear what I'm saying I may be a gook but this time I'm not playing This conversation was start of creation Creating a game that was shown to me Niggas be praising you hoping to play with you Sorry my dear you're just shone to me Well it's cool to us if you want to be shown We'll just blame it on the fact that she just don't know It's cool cause you are delusional Cause you know that we know that you are what you are You're shone I respect the ladies No love for these hoes Whats the point in fucking bitches When that shit gets old Seen it time and time again The way that you don't know So I had to switch the game up It's fuck bitches get dough, ohh Time for me to settle down And quit chasing after these skirts All of these hoes only know what I worth Yeah I got a girl don't want her to get hurt, mane Bout to go way back home Away from the life full of sin That Billie Jean and a cup of gin I know you wanna fuck, don't pretend shawty Well it's cool to us if you want to be shown We'll just blame it on the fact that she just don't know It's cool cause you are delusional Cause you know that we know that you are what you are You're a shone No need to No need to No need to No need to No need to No need to4</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Something in the Water</t>
+          <t>Babylon (Skrillex &amp; Ronny J Remix)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ooh, ah Yeah, yeah, ayy, ayy Yeah, yeah, ayy I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing And it really hurt my soul, damn, yeah Contract, contact bullshit make you realize you been shorted, yeah Concepts fallin' short, you niggas tryin' too hard, I noticed, yah Confined by the corporate, mak you see you can't afford it yet Industry a bit', I mean a big bit', I mean Norbit, yeah Blinded by the glitz, I'm gettin' tired, it must be more to men Jewelry, jewelry, foreign car, your foreign broad imported, yeah I just set a target, I need milli' in my wallet, yeah Something's in the water, something's in the way, Nirvana It's in my mama name, Big Tymers, don't need no dollar to rely on I'm good in the hood, I'm like vagina, yeah Nigga too worried 'bout designer, yeah That'll get you cut like Andrew Bynum, yeah Where I'm from they come and find ya, yeah Aye, I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing Mhm, mhm, mhm And it really hurt my soul, damn, yeah Okay, okay, okay Mhm, mhm Fake it 'til you make it, camouflagin' all facades, ayy Personal opinion don't amount to what our God say Tell the kids, Go farther, when they house don't have a padre Bottle water when I rap, grew up never drinkin' from the tap I was so sick of these airports 'til COVID hit the map Now we're too sleep at this point, we even tired of takin' naps I lost close friends to a drug binge, in hopes I can bring 'em back Momma said this the revelation, doubters all lookin' for resolutions Everyone buying in desperation On a good note, there's no air pollution Man, our reflection is over the seven seas It's clear that we want it all, eyes on we, what you see? Aye, I see somethin' in the water, they don't lead us, but they follow No surprise, the ship goes down yeah I see somethin' in the water, ain't no subtle way to call it You get caught up and it goes down yeah I see somethin' in the future, they don't like us but they use us We ain't stupid, niggas slow yeah I see a bunch of niggas moochin' off what other people doing And it really hurt my soul, damn, yeah1</t>
+          <t>Oh my gosh, Ronny It is the ultimate Myrmidon From the land, which is the city of Babylon Dreads in my hairs, dont confuse me for Cinnamon I'm one of a kind, as I grow like a Digimon When I'm evolving, not many books Many revolvers, no problem solving Illegal tendencies, infinite symphonies Illustrate misery, living on infamy Infamous Lord If you come back from the dead, you will go back to the morgue I'll hunt you like Sun Tzu, so better be humble Don't make me, I'm Wesley in the Art of War Soar, sin and then you will be flying Truth, ad hominem, I won't be lying Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion I might run up on a nigga and click Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion I might run up on a nigga and Click It is the ultimate test Strategize now, it's the ultimate flex So I'm doing my thing without breaking a sweat Got a list full of names and I'm all about checks Like an assassin, I'm everlasting Go like a gadget, you can imagine When I get ratchet, Clank on me Thankfully Ain't no containing me, comparing me Vision impaired, you should prepare to die Never been scared to try I got the feel of a burning sensation My nation believe I can walk on the sky Anakin, analyst, and highly dangerous Must be an alien, that pray to amethyst My style is cancerous, up in the cannabis ULT anarchist Oh Click, click Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion Click, click I might run up on a nigga and Click2</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Untitled ft. Denzel Curry</t>
+          <t>PXSH6XD SHXT</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>from Snippets Pi-pi-piss on your , call me young Sosa, bro I'm an Aquarius, don't call me Scorpio Flow like a torpedo, tired of two-speed though Figaro, figure out, into my beast mode Aquarius'Killa, bro, get off my genitals You, fly like a butterfly in a cocoon Ride through the night like I'm just a gobble-gobble, waka-waka, underwater Pray disorder, I be mortal, I'll destroy your God The epidemy of I I could be normal but sorry, that is not our job U-U-Underground, I am the underworld</t>
+          <t>Well, I'm going back to fantasy land I'll have nothing to take with me, I can't just defend my- On the west side screaming, Thug life Like I ran off on the plug twice Ain't no lies, I ain't like Plies Fuckin' mad hoes, might be my vice She my type, but she unknown Not bright, but she know I'm on, man She said she want all of me That pussy keep callin' me Shes gon throw that ass back just like a shoe that's thrown by Cardi B These niggas got no game, they on JV, and I'm on varsity Pass, pick up, smash, ash, stash, switch up Glad bag, mad thicker, gag gag gag, pick her If she ever wanna 69, she a cancer If she only with you for the money, she a scammer She can be a freaky bitch and put it on a camera Wave around the pussy like a motherfuckin' banner Flag on the play, ooh Turn my swagger on today, ooh New ZXLTRON on the way Catch your bae comin' over, andele But I never let her stay unless she into anime, yeah I would sing on the outro but I- I honestly don't know what to sing about I really don't know what to sing about Freebase asked me to do that shit and I fuck with freebase, so4</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Delusional Shone</t>
+          <t>COLE PIMP</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hey, hey, hey, hey Hey, hey, hey How many niggas is saying they pimping It's evident when is it none of you niggas got pimp in your blood All of y'all watered down like a tub full of suds I cannot fuck with you let me roll up my bud Girl you look like a dime but can you roll up a dub Go to the club you said you ain't looking for love But you dark and lovely and the night was gusting Marijuana and bubbly now your body I'm lusting Forever, ever never for the time being You without clothes is the only thing I'm seeing Hair swanging you hear what I'm saying I may be a gook but this time I'm not playing This conversation was start of creation Creating a game that was shown to me Niggas be praising you hoping to play with you Sorry my dear you're just shone to me Well it's cool to us if you want to be shown We'll just blame it on the fact that she just don't know It's cool cause you are delusional Cause you know that we know that you are what you are You're shone I respect the ladies No love for these hoes Whats the point in fucking bitches When that shit gets old Seen it time and time again The way that you don't know So I had to switch the game up It's fuck bitches get dough, ohh Time for me to settle down And quit chasing after these skirts All of these hoes only know what I worth Yeah I got a girl don't want her to get hurt, mane Bout to go way back home Away from the life full of sin That Billie Jean and a cup of gin I know you wanna fuck, don't pretend shawty Well it's cool to us if you want to be shown We'll just blame it on the fact that she just don't know It's cool cause you are delusional Cause you know that we know that you are what you are You're a shone No need to No need to No need to No need to No need to No need to4</t>
+          <t>I'm the colonel of the motherfucking tank Got a mattress, no need for a bank Yeah, I see you motherfucker, but my stare is fuckin' blank Last night three motherfuckers thought that they were gettin' paid Tried to rob me blind, so I cut open their eyes Left their blood on my blade Now I'm sippin' lemonade in the shade Just another day in the 7th Ward by the lake Yeah, bitch, where I stay I e- I be ridin' in that camo Jeep, double cup is ocean deep I'm sleepin', don't you make a peep Y'all a bunch of fuckin' cheapened sheep I'll fuckin' cut and gut your fuckin' seepin' slut And I'm a fuckin' mutt, I'll sell your meat for bucks Got a bitch that will get your ass done up Hot in the winter and cold in the summer Pussies wanna try to come and run up Glock cocked and I'm chillin' with my gun up See I, never gave a fuck about nothing Got crack in the stove, hide the money in the oven If I'm ever tryna get my funds up Break in with the mask, grab the money real fast I hope a fucker know when they see me Never in my life ever sold a CD Lo-fi pimp, mp3, black and white life, no TV Smokin' that dope on the low, got all them pounds in the flo' Drugs never slow 'cause this that junkie who can flow It ain't, nothing to rob me a liquor sto' Syrup, I'm drinking it by the fo' The devil be all up in my soul, bitch South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park13</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Babylon (Skrillex &amp; Ronny J Remix)</t>
+          <t>Sunday Service (Vandalized Edit)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Oh my gosh, Ronny It is the ultimate Myrmidon From the land, which is the city of Babylon Dreads in my hairs, dont confuse me for Cinnamon I'm one of a kind, as I grow like a Digimon When I'm evolving, not many books Many revolvers, no problem solving Illegal tendencies, infinite symphonies Illustrate misery, living on infamy Infamous Lord If you come back from the dead, you will go back to the morgue I'll hunt you like Sun Tzu, so better be humble Don't make me, I'm Wesley in the Art of War Soar, sin and then you will be flying Truth, ad hominem, I won't be lying Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion I might run up on a nigga and click Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion I might run up on a nigga and Click It is the ultimate test Strategize now, it's the ultimate flex So I'm doing my thing without breaking a sweat Got a list full of names and I'm all about checks Like an assassin, I'm everlasting Go like a gadget, you can imagine When I get ratchet, Clank on me Thankfully Ain't no containing me, comparing me Vision impaired, you should prepare to die Never been scared to try I got the feel of a burning sensation My nation believe I can walk on the sky Anakin, analyst, and highly dangerous Must be an alien, that pray to amethyst My style is cancerous, up in the cannabis ULT anarchist Oh Click, click Bruh, ain't no Hakuna Matata 'Cuz, you shouldn't fuck with a lion Click, click I might run up on a nigga and Click2</t>
+          <t>You know we back, right? Clear the streets out Jarreau Vandal Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ooh, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ooh, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah So hard to ghost, yet, I'm ready to die Not B.I.G., not limited to the sky If the doves cry, they label me as a Prince With a bad bitch thats covered in cheetah print, oh shit Wanted for the most swag, I'm the culprit Draped in unknown shit, you ain't own this Shoe game just like the Home Alone flicks These aint Off-White, these McCaulay Culkins, ooh I'm the token Black guy, that's right Tell the whole world kiss my backside Watch your girl spread like wildfire Easy as pie, who let the fat guy loose? Back to black roots Back to stack racks and pack them black coupes Attack we contract to back and black suits I am what I am, I'm Zeus and Jésus, what it do? I ride with the livest men, day ones from five to ten From the 3 like Iverson So that means I only ride with Ken Like I hit you with the Hadouken Fuck a How you been? or Where you been at? Go ask your girl where her chin at, go ask the world what I win at Same place that we pray to God where we sin at Lookin' for the holy water, ask me where the Gin at? Woah, let's slow down King Arthur of the table, let's go 'round Never try to tell me whats my sound And CLOUT COBAIN made me really hate clowns So profound when it come to the art I was too bound to the ways of the dark Let em all drown with a ticket for the Ark Tryna ride this wave, be a victim to a shark For real5</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dat $tick (Freestyle)</t>
+          <t>Behind Barz (ZEZE Freestyle)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>03' Adolescence - J. Cole 100 Degrees - Rich Brian 1037 - Beach House 10 Mile Stereo - Beach House 1123 - mj apanay 1, 2 - mxmtoon 1.5 - 21 Savage feat. Offset 151 Rum - JID 17again - Powfu 18 Months - THEY. feat. Ty Dolla ign 1999 - beabadoobee 1999 - Big K.R.I.T. feat. Lloyd 1999 - Bedroom Session - beabadoobee 1Train - AAP Rocky feat. Kendrick Lamar, Joey Bada, Yelawolf, Danny Brown, Action Bronson, Big K.R.I.T. 200 AM - ReptileLegit 2020 - EDEN 2020 - Kojey Radical 20 Wave Caps - Earl Sweatshirt feat. Domo Genesis 21 Questions - 50 Cent feat. Nate Dogg 22 Two's - JAY-Z 24 - IDK 247 - The Neighbourhood 24's Vocals Only - T.I. 27 Summers - Nas 2 Cups of Blood - Gravediggaz 2 Hurt M - sleep.ing 2 Phones - Kevin Gates 2 soon - kshi 2 The Face - 88rising, Rich Brian, Higher Brothers 3005 - Childish Gambino 300 AM - Finding Hope 3230 - Vince Staples 33rd Blakk Glass - City Morgue 3500 - Travis Scott feat. Future 2 Chainz .357 - Pressa 3 AM - Maxo Kream feat. ScHoolboy Q 3 Below - SAINt JHN 3 Headed Goat - Lil Durk feat. Lil Baby Polo G 3 Headed Snake - Gunna feat. Young Thug 3-Minute Rule - Beastie Boys 3NIGHTS - SAIAH 3NIGHTS - SAIAH feat. guardin 3 Tearz - Danny Brown feat. Run The Jewels 400 Lux - Lorde 403 am - Forrest. 42 Hundred Choices - IDK 444222 - Lil Uzi Vert 495 - IDK feat. YungManny, Big Flock, Big JAM, Rico Nasty, Weensey 4 Min Convo Favorite Song - A Boogie Wit da Hoodie 4 Seasons - Method Man Redman feat. LL Cool J Ja Rule 4th Chamber - GZA feat. RZA, Ghostface Killah, Killah Priest 4th Qtr - Quando Rondo 505 - Arctic Monkeys 5 TINT - Travis Scott 5 Thousand Singles - SAINt JHN 66SLAVS - City Morgue 679 - Fetty Wap feat. Remy Boyz 6 Feet - Scarlxrd 6 Foot 7 Foot - Lil Wayne feat. Cory Gunz 6 Kiss - Trippie Redd feat. Juice WRLD YNW Melly 6th Grade - sadgods feat. Kuzu Mellow Laeland 745 - Vince Staples 777 - Joji 818 - Anonymouz 8701 - JID feat. 6LACK 8 Million Stories - A Tribe Called Quest 94 Bentley - SAINt JHN 95 at Night - Fiji Blue 99 Problems - JAY-Z 9 Milli Bros - Ghostface Killah feat. Wu-Tang Clan ? - MF DOOM feat. Kurious ? - Outkast A A B-Boy's Alpha - Cannibal Ox Above The Clouds - Gang Starr feat. Inspectah Deck Above The Law - Bad Meets Evil A BOY IS A GUN - Tyler, The Creator a classmate from a different world - Powfu acting like that - YUNGBLUD feat. Machine Gun Kelly ADHD - Joyner Lucas A.D.H.D. - Kendrick Lamar Addiction - Big K.R.I.T. feat. Lil Wayne Saweetie A Dream I Can't Remember Interlude - Quadeca Affirmative Action - Nas After Hours - The Weeknd Afterlife - Flatbush Zombies After Party - Don Toliver Afterthought - Joji feat. BENEE Afraid - The Neighbourhood again - guardin agoraphobic - CORPSE A.I. - rei brown Ain't Cha - Clipse feat. Re-Up Gang AIN'T GON STOP ME - reggie, Monte Booker, Kenny Beats A King's Nightmare - Polo G alive - guardin All Again - Powfu Nuxe feat. Snøw All Bad - Future feat. Lil Uzi Vert All Bad - JID feat. Mereba All Due Respect - Run The Jewels feat. Travis Barker Alleyways - The Neighbourhood All Falls Down - Kanye West feat. Syleena Johnson All for You - Little Brother feat. Darien Brockington all i can see - guardin All I Need - khai dreams Atwood all i need - whiterosemoxie All I Want - Kodaline All I Want - T-Pain feat. Flipp Dinero All I Wanted - Paramore All I Want Is A Yacht - SAINt JHN ALL KILLER NO FILLER - City Morgue All Mine - Remix - Sense feat. Eleven Bonjr all my friends - 21 Savage feat. Post Malone All Of The Lights - Kanye West All Out - Corbin All Star - Lil Tecca feat. Lil Tjay All The Years - Beach House All To Me - Giveon almost home - mxmtoon ALOHA - Charlie Heat Denzel Curry alone in the attic - guardin Alone Together - Quadeca Along for the Ride - Atwood a lot - 21 Savage feat. J. Cole alright - guardin Alright - Kendrick Lamar alright - keshi altitude - guardin always - keshi ALWAYS DO - The Kid LAROI Always Forever - Bryson Tiller A.M. - Lonr America Loves Gangsters - Cunninlynguists A Milli - Lil Wayne and - EDEN Angel - beabadoobee Angel - Bedroom Session - beabadoobee ANGELZ - MF DOOM feat. Ghostface Killah Another Day - Kid Cudi Another Night - Mac Miller Another Year - 111nightshift feat. Donttrustlando, Nosgov, sphere merchants Anything But Words - Banks Steelz Anywhere But Here - Killer Mike feat. Emily Panic Apollo Kids - Ghostface Killah feat. Raekwon Apologies - Kota the Friend Apparently - J. Cole applause - whiterosemoxie Apple Cider - beabadoobee Are You Bored Yet? - Wallows feat. Clairo Are You Okay? - Thomas Reid, Rxseboy, Powfu Are You Sure - beabadoobee Argue with me - Jomie feat. Rxseboy Art Class - beabadoobee Art of War - Jasiah feat. Denzel Curry Rico Nasty Ashley - Stunna 4 Vegas DaBaby Assassination Day - Ghostface Killah feat. Raekwon, RZA, Inspectah Deck As the World Caves In - Matt Maltese Aston Martin Music - Rick Ross feat. Drake Chrisette Michele Astronaut - Beach House A Tale Of 2 Citiez - J. Cole ATF - DMX atlas - keshi ATL Freestyle - 6LACK ATTENTION - Joji Attention - Rich Brian feat. Offset Atom - Cannibal Ox feat. Alaska Cryptic Aquemini - Outkast a way to stay - Fudasca feat. Resident Hashir A World Alone - Lorde a world of chaos - Powfu feat. Rxseboy, Jomie, Ivri Aw Shit - ZillaKami Solo - City Morgue B Babushka Boi - AAP Rocky Baby - Quality Control, Lil Baby, DaBaby Babyface Savage - Bhad Bhabie feat. Tory Lanez Babylon - Outkast Baby Pluto - Lil Uzi Vert Baby Sitter - DaBaby feat. Offset BabyWipe - Ski Mask The Slump God Back - Lil Pump feat. Lil Yachty Back Like That - Ghostface Killah feat. Ne-Yo Back On - Quality Control Lil Baby Back On The Ledge - SAINt JHN Backseat Freestyle - Kendrick Lamar Back To Mars - beabadoobee backup - guardin Backwards - Forrest. Back With You - SUGR? Bad and Boujee - Migos feat. Lil Uzi Vert BADASS - ZillaKami Lil Uzi Vert Bad Bad Bad - Young Thug feat. Lil Baby Bad Boy - Juice WRLD Young Thug Bad Day - Nyck Caution feat. Denzel Curry Bad Girls - Lil Skies feat. Gucci Mane Bad Hoe - Tom The Mail Man Bad Luck - Denzel Curry feat. PlayThatBoiZay Bad Moon Rising - Creedence Clearwater Revival B.a.F - ilkmoney BagBak - Vince Staples Baguetti - Smino, JID, Kenny Beats BALD! REMIX - JPEGMAFIA Denzel Curry Balenciaga Challenge - 6LACK feat. Offset Ballin' - Mustard feat. Roddy Ricch Ball Hard - Lil Wayne feat. Lil Twist Banana Clip - Miguel Banana Clipper - Run The Jewels feat. Big Boi bandaids - keshi Bank - EARTHGANG Bank Account - 21 Savage Baptize - Spillage Village, JID, EARTHGANG feat. Ant Clemons Barbarian - Calboy feat. Lil Tjay Bastard Satan's Kid - Lil Wayne Batter Up - Nelly, Murphy Lee, Ali Battle for Asgard - Cannibal Ox feat. L.I.F.E. Long C-Rayz Walz Be Intro - Common Beach Ballin' - Yung Pinch feat. blackbear Beach Whatever - Surf Curse BEAMIN - Quadeca Beast Mode - A Boogie Wit da Hoodie feat. PnB Rock YoungBoy Never Broke Again Beat Take 1 - The Neighbourhood feat. Ghostface Killah Beautiful Girl - Cunninlynguists Beautiful Morning - Little Brother Beautiful Oblivion - The Neighbourhood feat. IDK Beautiful Smile - Saba feat. IDK BedRock - Young Money feat. Lloyd Be Easy - Ghostface Killah feat. Ice Cube Be Easy - Ghostface Killah feat. Trife Diesel Be Easy - T.I. Beef Rap - MF DOOM Been a While - Jhove before i met you - Jhove feat. Elijah Lee Before You Go - Lewis Capaldi Behind the Clouds - yaeow beibs in the trap - Travis Scott feat. NAV Be Like Me - Lil Pump feat. Lil Wayne Believe - Big K.R.I.T. Below The Heavens pt. 1 - Blu Exile Belly - Lil Baby Gunna benny's and henny - foryou, versor Beno! - Playboi Carti Be You - Gangsta Boo feat. Crunchy Black BERZERK - Scarlxrd beside you - keshi Best Friend - DaBaby feat. Rich The Kid BEST ON EARTH - Bonus - Russ feat. BIA Betrayal - Gang Starr feat. Scarface Better - Forrest. Better Times - Beach House Beyond Love - Beach House Bezerk - Big Sean feat. AAP Ferg BFK - Freddie Gibbs B.I.B.L.E. Basic Instructions Before Leaving Earth - GZA feat. Killah Priest Big Bank - Big K.R.I.T. feat. T.I. Big Black Truck - Dreamville JID Big Dawg - Smokepurpp feat. Rick Ross Big Dusty - Joey Bada Big Fish - Vince Staples Big For Your Boots - Stormzy Bigger Than Life - Lil Uzi Vert Bigger Than You - 2 Chainz feat. Drake Quavo Big Girl - Ghostface Killah Big Shrimp - Flatbush Zombies Big Time - Vince Staples Birds Bees - Vince Staples feat. Daley BIRDZ - Denzel Curry feat. Rick Ross Bitch, Don't Kill My Vibe - Kendrick Lamar B.I.T.E. - Fabolous BITIN' - PlayThatBoiZay B.I. Vs. Friendship - Gang Starr feat. M.O.P. Black White - Juice WRLD Black 2 - Buddy BLACK BALLOONS 13LACK 13ALLOONZ - Denzel Curry feat. Twelve'len GoldLink Black Balloons Reprise - Flying Lotus feat. Denzel Curry Black Beatles - Rae Sremmurd feat. Gucci Mane Black Connection - Camp Lo BLACKJACK - Remix - Aminé feat. Cordae BLACK METAL TERRORIST 13 M T - Denzel Curry Black Nostaljack AKA Come On - Camp Lo BLACKOUT - Lil Kapow BLACKPLANET - SAIAH Blind - SadBoyProlific Blind Threats - ScHoolboy Q feat. Raekwon Blockbuster Night, Pt. 1 - Run The Jewels Blood Hound - 50 Cent feat. Young Buck Bloodshed - Denzel Curry bloom - fragile. Blow a Bag - Future Blowing Down - Digable Planets Blu Collar Worker - Blu Exile blue - guardin blue - keshi Blue - The Neighbourhood blue - Remix - keshi feat. Jai Wolf Bluebird - Beach House Bluegrass - E the profit Blue Moon - EARTHGANG Blue Suede - Vince Staples Blurred voices - Bonjr, Ouska, versor B.O.B. - Bombs Over Baghdad - Outkast body bag - Machine Gun Kelly feat. YUNGBLUD Bert McCracken Bomb - Freddie Gibbs Madlib feat. Raekwon Bonfire - Brenky Bonfire - Childish Gambino bon iver - mxmtoon BOP - DaBaby Bora Bora - Lil Durk Borders - SAINt JHN feat. Lenny Kravitz Bored Without You - Rxseboy feat. Powfu Boss - Lil Pump Both - Remix - Gucci Mane feat. Drake Lil Wayne boudreaux's - foryou, versor Bounce Out With That - YBN Nahmir Box In Hand - Ghostface Killah feat. Method Man Street Boy Bi - Mad Tsai BOYFRIEND KILLER - Palmertrees Brain Cell - Cunninlynguists brakence 2.0 freestyle - brakence feat. Majent Brand New - khai dreams break da law - 21 Savage Break The Bank - ScHoolboy Q Breathe - 88rising, Joji, Don Krez Breathe - Lauv Brighter Days - Jomie Brilliant Bitch - SAINt JHN Bring Da Ruckus - Wu-Tang Clan Broccoli - Shelley FKA DRAM feat. Lil Yachty Broke As Fuck - Cordae Broke Bitch - Tiny Meat Gang Broke In A Minute - Tory Lanez Broke Leg - Tory Lanez, Quavo, Tyga Broken - Freddie Gibbs Madlib feat. Scarface Broken - THEY. feat. Jessie Reyez Broken Trust - SadBoyProlific feat. Monty Datta Mishaal Brooklyn - Mos Def Brooklyn's Finest - JAY-Z feat. The Notorious B.I.G Brown Paper Bag - Migos brutal - Olivia Rodrigo Bruuuh - Remix - JID Denzel Curry B.S. - Jhené Aiko feat H.E.R. BUAKAW - City Morgue Bubblin - Anderson .Paak Buck 50 - Ghostface Killah feat. Cappadonna, Method Man, Redman Building Steam With A Grain Of Salt - DJ Shadow BULLETPROOF SHOWER CAP - Pouya feat. City Morgue Bummer Friend - Surf Curse Bundy Sincere - Curreny, Freddie Gibbs, The Alchemist Burgundy - Earl Sweatshirt feat. Vince Stapkes Burnin Bridges Long Day - Quadeca feat. IDK Burn The Hoods - Ski Mask The Slump God BUSHY B INTERLUDE - Denzel Curry Business Is Business - Lil Baby Gunna Bust Me - Lil Uzi Vert Butane Champion's Anthem - Killer Mike feat. El-P But I Still Respect Women - Smokepurpp Butterflies - Fiji Blue BUZZCUT - BROCKHAMPTON feat. Danny Brown Bye - Snøw, Jomie, Skinny Atlas, Ivri, tomcbumpz C Cabin Fever - CORPSE Caged - Jomie Skinny Atlas CAKE - 1 800 PAIN Calculator - 88rising AUGUST 08 feat. Barney Bones California - 88rising, Rich Brian, NIKI, Warren Hue Calling My Phone - Lil Tjay 6LACK Candles on Fire! - Quadeca Can I - Kehlani Can I Live - JAY-Z Can I Live II - JAY-Z feat. Memphis Bleek CAN'T GET OVER YOU - Joji feat. Clams Casino Can't Go Back - Kojey Radical can't leave without it - 21 Savage feat. Lil Baby Gunna can't look back - Machine Gun Kelly CAN'T SAY - Travis Scott Can't You See? - Quadeca Can U Get Away - 2Pac CAPO - NLE Choppa Care - beabadoobee Caroline - Calboy feat. Polo G CAROUSEL - Travis Scott Carter II - Lil Wayne Case Closed - Redman feat. Rockwilder Napalm CASH MANIAC CAZH MAN1AC - Denzel Curry feat. Nyyjerya Cashmere Tears - Kojey Radical Carterpillar - Royce Da 5'9 feat. Eminem King Green Cat Girls Are Ruining My Life! - CORPSE Cat Piss - Ski Mask The Slump God feat. Lil Yachty Cause for Concern - Lovejoy Caved In - Cunninlynguists CB4 - Slum Village Ceilings - beabadoobee Ceilings - Bedroom Session - beabadoobee Celebrate - DaBaby feat. Rich Homie Quan Celebration Station - Lil Uzi Vert Cell Therapy - Goodie Mob Centurion - Earl Sweatshirt feat. Vince Staples Cereal - IDK JID feat. Kenny Mason Chanel - Frank Ocean Change Lanes - Kevin Gates Chaos - SadBoyProlific feat. marc indigo M.E CHAOS IS A LADDER - Bonjr Chariot - Calboy feat. Meek Mill, Lil Durk, Young Thug charity - YUNGBLUD Charlie Brown - beabadoobee Chasing Cars - Snow Patrol Chateau - Jaden feat. AAP Rocky Cheatin' - Little Brother Chi-City - Common Chill Bill - Rob tone feat. J. Davi Spooks Chill Bill REMIX - Rob tone feat. Shelley FKA DRAM, Denzel Curry, Cousin Stizz Chloe Kelly - Surf Curse Chrome Heart Tags - Lil Uzi Vert Chum - Earl Sweatshirt Circles - EDEN City of Angels - Miguel Clash - Cornelius clash of the titans - Powfu Class In Session - A1TH Quadeca cliché - mxmtoon cliffnote - guardin Clinton Hill - Kota the Friend Clipse of Doom - Ghostface Killah feat. Trife Diesel Clockwise - Remix - Jarrod Gipson feat. Synova Close My Eyes - 21 Savage Close Your Eyes And Count To Fuck - Run The Jewels feat. Zack De La Rocha Clouded - brakence Clout - Offset feat. Cardi B CLOUT COBAIN CLOUT CO13A1N - Denzel Curry Cludder - JID C.N.B. - Vince Staples CoastClear - Beast Coast Coat Check Session 47 - Nyck Caution Cocktail - EARTHGANG codename juliet - guardin feat. sadeyes Coffee - beabadoobee Cokewhite - GoldLink feat. Pusha T cold - guardin feat. guccihighwaters Cold Hearted - Blu Exile Collect Calls - Quando Rondo Come Back Baby - Pusha T Come Through and Chill - Miguel feat. J. Cole Salaam Remi COME THRU - Joji Comfort Zone - Yot Club Comfy In Nautica - Panda Bear Commercial - Lil Baby feat. Lil Uzi Vert Compton - Kendrick Lamar feat. Dr. Dre concert for aliens - Machine Gun Kelly Confetti - Rich Brian Consecutive Normal Punches - Domo Genesis feat. Buddy Constellations - Laffey feat. Oatmello Coolie High - Camp Lo 'Cosmic'.4a - Denzel Curry Kenny Beats feat. Joey Bada The Alchemist Costa Rica - Dreamville, Bas, JID feat. Guapdad 4000, Reese LAFLARE, Jace, Mex, Smokepurpp, Buddy, Ski Mask The Slump God Costa Rica - Ronny J feat. Ski Mask The Slump God cotton candy - YUNGBLUD Cotton Cloud - Fatb CRACK - 1 800 PAIN CRANK - City Morgue crash - EDEN Crashed My Whip - Jomie crazy - guardin Crazy - Lil Pump creature - guardin creep - mxmtoon Creeping - Lil Skies feat. Rich The Kid Crescendo - The Underachievers Criminal - Miguel feat. Rick Ross cuba lake - guardin Cult4Ever - SAINt JHN Cutlass - Jadakiss feat. Exodus D Da Art of Storytellin' Pt. 1 - Outkast Da Art of Storytellin' Pt. 2 - Outkast Daemons - XXXTENTACION feat. Kemba Joey Bada daisies - guardin feat. Flowars Damaged - Kid Cudi Damien - DMX Da Mystery of Chessboxin' - Wu-Tang Clan Dancing In The Rain - Blu Exile Dance with Me - beabadoobee Dance with the Devil - Immortal Technique Dark Knight Dummo - Trippie Redd feat. Travis Scott Dark Queen - Lil Uzi Vert D.A.R.L.I.N.G. - Beach House Da Rockwilder - Method Man Redman date night - whiterosemoxie Dat tick Remix - Rich Brian feat. Ghostface Killah Pouya Day By Day - Fiji Blue Daydreamin' - Lupe Fiasco feat. Jill Scott Daylight - Joji Diplo Days Like This - GoldLink feat. Khalid Days of Candy - Beach House Daytona 500 - Ghostface Killah feat. Raekwon Cappadonna DAYWALKER! - Machine Gun Kelly feat. CORPSE DDFH - Run The Jewels Dead Bent - MF DOOM DEAD DESERT - Trippie Redd Travis Barker feat. Scarlxrd ZillaKami Dead Eyes - Promoting Sounds, Powfu, Ouse Deadz - Migos feat. 2 Chainz Dear Mama - 2Pac Death - Trippie Redd feat. DaBaby death bed coffee for your head - Powfu feat. beabadoobee Deathtrap - Gravediggaz december - mj apanay Deep End - Lil Baby Deeper - Freddie Gibbs Madlib deja vu - Olivia Rodrigo Demanding - NOT DESTROYUSALL - 1 800 PAIN Devil In A New Dress - Kanye West feat. Rick Ross D'evils - JAY-Z Devil Town - Cavetown Diamonds From Sierra Leone - Bonus Track - Kanye West Diary of a Madman - Gravediggaz Did It Again - Lil Tecca Die For Me - Post Malone feat. Future Halsey Die For You - The Weeknd DIET - Denzel Curry Kenny Beats DIET1.5 - Denzel Curry Kenny Beats feat. Benny The Butcher Die Trying - Michl Different Class, Same Boat - Powfu Different Scales - Mick Jenkins Digital - IDK Digits - Young Thug Dirt Off Your Shoulder - JAY-Z Dirty - Shoreline Mafia Dirty Dan - Lil Kapow dirty elevator music - Flatbush Zombies Dirty Money - Clipse Dirty Taurus - Ant Beale Charlie Heat Disappear - beabadoobee Disappear - Bedroom Session - beabadoobee Disconnect - 6LACK Disrespectin - 88rising, Rich Brian, Higher Brothers, AUGUST 08 Diva - The Kid LAROI feat. Lil Tecca DND - Polo G DOA - Rich Brian DO DAT - Stunna 4 Vegas feat. DaBaby Lil Baby Dogs Of War - Ghostface Killah feat. Raekwon, Theodore Unit, Trife Diesel, Capadonna, Sun God Dog Song - Yot Club Do It Now - Mos Def feat. Busta Rhymes Dominate The Weak - Ice Cube Domo23 - Tyler, The Creator Do Not Disturb - Smokepurpp Murda Beatz feat. Lil Yachty Offset Don't Care - Rich Brian Don't Come Out The House - Metro Boomin 21 Savage don't fall asleep - guardin don't fall asleep yet - Powfu feat. ENRA Don't Get Chipped - Vince Staples Don't Like.1 - Kanye West, Chief Keef, Pusha T, Big Sean, Jadakiss Don't Pray For Me - Quando Rondo Don't Push Me - 50 Cent feat. Lloyd Banks Eminem Don't Stand So Close - Gangsta Boo feat. DJ Paul Juicy J Don't Talk Put Your Head On My Shoulder - The Beach Boys doom - tomcbumpz, SadBoyProlific, Ivri Dope Boy Dreams - Quando Rondo Dopeman - Vince Staples feat. Joey Fatts Kilo Kish Do What U Feel - Redman Down And Out - Cam'ron feat. Kanye West Syleena Johnson Down Bad - Dreamville, JID, Bas, J. Cole, EARTHGANG feat. Young Nudy Down Below - Roddy Ricch Down Like That - KSI feat. S-X, Lil Baby, Rick Ross downstairs - guardin Dragged - Corbin DRAINO - City Morgue feat. Denzel Curry Drip - Snøw, Skinny Atlas, Jomie Drip Too Hard - Lil Baby Gunna Drive On - NIKI drivers license - Olivia Rodrigo Drive Safe - Rich Brian Drive Slow - Calica Drizzy Draco - Maxo Kream dropout - brakence dropout - brakence w blackbear Drowning - A Boogie Wit da Hoodie feat. Kodak Black drugs - EDEN drunk - Fudasca feat. Laeland Rxseboy drunk - keshi drunk face - Machine Gun Kelly Duel Of The Iron Mic - GZA feat. Masta Killa, Dreddy Kruger, Inspectah Deck, Ol' Dirty Bastard Due Season - Jesse Boone Dye It Red - beabadoobee Dyin Breed - Polo G E EARFQUAKE - Tyler, The Creator East Atlanta Love Letter - 6LACK feat. Future echo complex - Bonjr singular balance Ecstasy - Young Thug feat. Machine Gun Kelly effort - brakence Effortless - Polo G Egg Man - Beastie Boys E-GIRLS ARE RUINING MY LIFE - CORPSE Savage Gap Ego Death - Quadeca Elevators Me You - Outkast Eleven - Kojey Radical Emo Song - beabadoobee Emotionally Dumb - Kota the Friend Enby Cypher - 111nightshift feat. grimtweakr, carpetgarden, brdynl, stagehoax, Smeliot, BeanyBoy, Killing Cassie, sc0ttryan Endless - gate Enemies - Post Malone feat. DaBaby Enjoy the Moment - Rxseboy enough for you - Olivia Rodrigo Envy Me - Calboy ERASE U - The Kid LAROI Erase Your Social - Lil Uzi Vert Escape From LA - The Weeknd Eternally - TOMORROW X TOGETHER even - mj apanay Event Horizon - gate Everest - beabadoobee Everydays, Vol. 1 - Boltex, Holly, Whosmodz, Bonjr Everytime - Jomie W Powfu Ew - Joji Examination Of What - Digable Planets Ex Calling - 6LACK Ex-Factor - Ms. Lauryn Hill Eye for a Eye Your Beef Is Mines - Mobb Deep feat. Nas Raekwon Eyes - Quadeca Eyes Blue Like The Atlantic, Pt. 2 - Sista Prod feat. Powfu, Alec Benjamin, Rxseboy, Sarcastic Sounds F Fade - Knowmadic Faithful - Common Fallin - Bazzi feat. 6LACK Fallin' Apart - Young Franco feat. Denzel Curry Pell falling - C H O I S I E S, Teqkoi, bobby someone Falling for U - Peachy! mxmtoon Fallingforyou - The 1975 falling in reverse - EDEN falling out the window - guardin FALL IN LOVE - NOT Far Gone - Ski Mask The Slump God feat. Lil Baby Fast Lane - Bad Meets Evil Faucet Failure - Ski Mask The Slump God favorite crime - Olivia Rodrigo Favorite Mistake - Giveon FBC - Freddie Gibbs Feel About It - Kojey Radical feelings are fatal - mxmtoon feelings i forgot - mj apanay Feelin' It - JAY-Z feat. Mecca Feelin' The Love - Vince Staples Feels Like Summer - Vince Staples FEEL SOMETHING - The Kid LAROI feat. Marshmello Female Robbery - The Neighbourhood fever dream - mxmtoon Fields - EARTHGANG feat. Malik fiends - whiterosemoxie Fight Music - D12 FIND HIM! - Comethazine Find My Way - khai dreams Atwood Fingertips - Skinny Atlas, Snøw, Jomie feat. kerri Fire Squad - J. Cole first - mxmtoon firstego - brakence First Place - Polo G Lil Tjay First Things First - Blu Exile Fish - Ghostface Killah feat. Raekwon Cappadonna Fish Outta Bacardi - Quadeca EGOVERT Flex - Polo G feat. Juice WRLD Float - 6LACK float - EDEN Float - The Neighbourhood Floating - ScHoolboy Q feat. 21 Savage Flooded - Lil Skies Flowers - The Neighbourhood Fly Away - khai dreams, Matt Jordan, Atwood Flying High - Travis Scott feat. Toro y Moi Fly Out West - Yot Club F.N - Lil Tjay Focus - Bazzi feat. 21 Savage fomo - EDEN Fool - Cavetown Foot Fungus - Ski Mask The Slump God For All My Nz and Bitches - Snoop Dogg feat. The Lady Of Rage Tha Dogg Pound Forever - Drake, Kanye West, Lil Wayne, Eminem Forever - Lil Baby feat. Lil Wayne Forever - sadgods feat. Flowars Kenny Forever - Tom The mail Man Forever Love - SuperDuperWavey foreverover - EDEN forget me too - Machine Gun Kelly feat. Halsey Forget That - Lil Baby feat. Rylo Rodriguez Forgot About Dre - Dr. Dre feat. Eminem FRANCHISE - Travis Scott feat. Young Thug M.I.A. Freaks - Surf Curse Freddy Krueger - YNW Melly feat. Tee Grizzley Free - 6LACK Freedom Is Priceless - SAINt JHN Freedom of Speech - Immortal Technique Free Fall - Cornelius Free Lighter - 2 Chainz feat. Lil Uzi Vert Chief Keef Free Mason - Rick Ross feat. JAY-Z Fr Fr - Wiz Khalifa feat. Lil Skies Friday Night Cypher - Big Sean feat. Tee Grizzley, Kash Doll, Cash Kidd, Payroll, 42 Dugg, Boldy James, Drego, Sada Baby, Royce Da 5'9, Eminem Friends - Mishaal feat. Powfu FromdaTomb - Joey Bada feat. Chuck Strangers fuckboy - brakence fucking beautiful, but no finish line in sight - foryou, FCKING UP FREESTYLE - Stunna 4 Vegas Fck Up Some Commas - Future FCK YOU, GOODBYE - The Kid LAROI feat. Machine Gun Kelly Fck Your Ethnicity - Kendrick Lamar Fuel - Black Thought feat. Portugal. The Man The Last Artful, Dodgr Full Speed - Vincent Augustus feat. Atwood Fumes - EDEN feat. gnash FUN! - Vince Staples Funeral - Lil Wayne Funky For You - Common feat. Bilal Jill Scott future diary - Powfu feat. Jomie Skinny Atlas Fvck Dat - Jabb fwb - brakence G Game Over - Yot Club Nice Guys GANG GANG - Polo G Lil Wayne Gang Related - Logic Gangsta - ScHoolboy Q Gangsta's Paradise - Coolio feat. L.V Gangsta Sht - Outkast feat. Slimm Calhoun, C-Bone, TMO Gang Up - Young Thug, 2 Chainz, Wiz Khalifa, PnB Rock Gasoline Dreams - Outkast feat. Khujo Goodie Gaspar Yanga - D Smoke feat. Snoop Dogg Gates to the Sun POLLEN Singles - SahBabii feat. Joji Get at Me - DJ Quik Get At Me Dog - DMX feat. Sheek Get Em High - Kanye West feat. Talib Kweli Common Get It - Run The Jewels Get Paid - Vince Staples feat. Desi Mo Get Right Witcha - Migos Get The Fuck Off My Dick - Vince Staples Ghost Deini - Ghostface Killah feat. Superb Ghostface Killers - 21 Savage, Offset, Metro Boomin feat. Travis Scott Ghost in My Mind - j'san Epektase Ghost - Remix - Jaden AAP Rocky Ghosts - Scapegoat Giant - Banks Steelz Gila - Bach House Gimme Love - Joji ginger tea - brakence Girl - gate Givenchy Kickin - Calboy feat. Lil Baby Lil Tjay Give Up the Goods Just Step - Mobb Deep feat. Big Noyd Giving Up - Corbin Glaciers of Ice - Raekwon feat. Ghostface Killah Masta Killa Glass House - Wiz Khalifa feat. Curreny Big K.R.I.T Glitter - Tyler, The Creator Glow Up - Meek Mill GNF OKOKOK - Polo G GO! - Common Go! - Killer Mike GO - The Kid LAROI feat. Juice WRLD go - whiterosemoxie Go Away! - Scapegoat GOD BLESS THE RATCHETS - SAINt JHN Goddamn - Tyga feat. A Boogie Wit da Hoodie God Lives Through - A Tribe Called Quest God Only Knows - The Beach Boys god save me, but don't drown me out - YUNGBLUD God's Plan - Drake Godzilla - Eminem feat. Juice WRLD Go Gas - Domo Genesis feat. Wiz Khalifa, Juicy J, Tyler, The Creator Goin Down - Scarface Going Bad - Meek Mill feat. Drake gold - EDEN Gold - GZA Gold Coast - 88rising Rich Brian Gone - Kanye West feat. Consequence Cam'ron Gone - The Weeknd Good - Atwood good 4 u - Olivia Rodrigo Goodbyes - Post Malone feat. Young Thug Good Dank - Wiz Khalifa good day - 21 Savage feat. ScHoolboy Q Project Pat Good Day - iann dior Good Days - SZA Good for Nothing - Powfu feat. guardin Good Life - Blu Exile Good Life - Kanye West feat. T-Pain good morning - EDEN Good Morning - Black Thought feat. Pusha T, Swizz Beatz, Killer Mike Good Night - Denzel Curry feat. Twelve'len Nell Good on My Own - Jomie Skinny Atlas Gook - Denzel Curry Gorgeous - SAINt JHN Go Slow - Yot Club GOSPEL - DaBaby feat. Chance the Rapper, Gucci Mane, YK Osiris Go Stupid - Polo G Stunna 4 Vegas feat. NLE Choppa Mike WiLL Made-It Got - Mos Def Goth Babe - Surf Curse Got It - Jaden Go to Mars - PnB Rock feat. Tee Grizzley GP4 - Logic Grace - Lil Baby feat. 42 Dugg Gravehop187 - City Morgue feat. Sickboyrari Gravity - EDEN Greater Love - Blu Exile Green Light - Lorde Grey Area - 2 Chainz Groovy Tony Eddie Kane - ScHoolboy Q feat. Jadakiss growing - 50landing Grown - Atwood G-Shit - Tiny Meat Gang Spock Gucci Gucci - Lil Durk feat. Gunna GUESS WHAT - Russ feat. Rick Ross Guess Who - Goodie Mob GUMMY - BROCKHAMPTON Gundam Wing - Anonymuz Gwendolynn's Apprehension - Mick Jenkins H hadiknownsooner - Bonjr, Nekö, versor Hair Down - SiR feat. Kendrick Lamar Halfway Off The Balcony - Big Sean Hand of the Dead Body - Scarface Hands Up - Vince Staples Hang N' Bang - Vince Staples feat. ATon Matthews hangover cure - Machine Gun Kelly happier - Olivia Rodrigo Happy - SadBoyProlific feat. Thomas Reid Teqkoi Hardest To Love - The Weeknd Hard FeelingsLoveless - Lorde Hardknock - Joey Bada feat. CJ Fly Hard Piano - Pusha T feat. Rick Ross Harem - Miguel Harold's - Freddie Gibbs Madlib Hasta Luego - Bonus - JID Hate Bein' Sober - Chief Keef feat. 50 Cent Wiz Khalifa Hate It Or Love It - The Game feat. 50 Cent HATEMELOVEME - SAIAH Hate The Other Side - Juice WRLD feat. Marshmello, The Kid LAROI, Polo G Hate to Be It - Swerzie Havoc - NOT Hazel - Cavetown Hazeus View - Joey Bada Headstone - Flatbush Zombies heal - 50landing Heartache - yaeow Heart Attack - Scarlxrd Heartbeat Conversations - Rxseboy HEARTBREAK - SAIAH Heartless - Denzel Curry Heartless - Kanye West Heartless - Polo G feat. Mustard Heart of Chambers - Beach House Heart Of The City Ain't No Love - JAY-Z Heathers - Surf Curse Heatin Up - Lil Baby feat. Gunna Heatwave - Yot Club Heaven Or Las Vegas - The Weeknd Hectic - AAP Ferg feat. Puff Daddy Hellfire - Cunninlynguists HELL-O - Flatbush Zombies Hello - J. Cole Hell Of A Night - ScHoolboy Q Hell's Wind Staff Killah Hills 10304 - GZA herb - Flatbush Zombies hertz - EDEN He Say She Say - Lupe Fiasco feat. Gemini Sarah Green Hey Julie! - KYLE feat. Lil Yachty hey sego - Bonjr Hey Up There - Buddy feat. Ty Dolla ign Hide in Your Blue Eyes - Thomas Reid Powfu High - Freddie Gibbs Madlib feat. Danny Brown high dry - mxmtoon High For This - The Weeknd High Hopes - Joji feat. Omar Apollo High Off That Weed - Gangsta Boo High School Reunion - SAINt JHN High School Reunion, Prom - SAINt JHN feat. Lil Uzi vert High Top Versace - 2 Chainz feat. Young Thug History - 88rising Rich Brian Hit Em Up - Lil Wayne Hive - Earl Sweatshirt feat. Vince Staples Casey Veggies Hola' Hovito - JAY-Z hold somebody - guccihighwaters feat. Powfu Sarcastic Sounds Hold Tight - Slum Village feat. Q-Tip HOLD UP, I'M SLEEPING ON THIS - foryou, Bonjr Hol' Up - Kendrick Lamar Holy Dances - Beach House Homage - Vince Staples Home - Fiji Blue Home - Vince Staples Richie Kohan Home Again - Beach House Homemade Dynamite - Lorde Honest - rei brown Hood Politics - Kendrick Lamar hooligan - Baby Keem hope again - guardin hope ur ok - Olivia Rodrigo Hopscotch - 88rising, AUGUST 08, Joji, Rich Brian feat. Barney Bones Horen Sarrison - beabadoobee Horizon - NOT Horizons - S N U G Nuver feat. Mondo Loops Hot Box - JID feat. Method Man Joey Bada hot girl bummer - blackbear Hot Shower - Change the Rapper feat. MadeinTYO DaBaby Hours - soupandreas iverness House Of Balloons Glass Table Girls - The Weeknd Houston - Ronny J feat. Denzel Curry HOUSTONFORNICATION - Travis Scott How - The Neighbourhood How Can I Tell You? - Fiji Blue How I Feel - T.I. feat. Eric Bellinger Killer Mike How Much A Dollar Cost - Kendrick Lamar feat. James Fauntleroy Ronald Isley how to live - yaeow feat. Powfu Sarcastic Sounds how to sleep - EDEN How Was Your Day? - beabadoobee How You Live It - Nyck Caution feat. Joey Bada Humble Mumble - Outkast feat. Erykah Badu Hunker Down - Corbin HURT - 1 800 PAIN Hurt Me - Juice WRLD Hurt Me Soul - Lupe Fiasco Hurtsomemore - ReptileLegit Hypnotize - The Notorious B.I.G Hypothetical Love - Rxseboy feat. Eric Godlow Hysteria - Anonymuz I I - Jaden i - Kendrick Lamar I - Lil Skies I Ain't Got Time! - Tyler, The Creator iamlegend - Flatbush Zombies I Been Waitin - Big K.R.I.T. I Can Fvcking Tell - SAINt JHN I Can't Handle Change - Roar I Can't Sleep - Powfu feat. Sarcastic Sounds icarus - EDEN ICE BOY - Corbin Ice Cream - Raekwon feat. Ghostface Killah, Method Man, Cappadonna ice cream man - YUNGBLUD I Couldn't Be More In Love - The 1975 I Didn't Ask To Come - Goodie Mob I Do It - Lil Wayne feat. Big Sean Lil Baby idontcare - brakence I Don't Die - Joyner Lucas Chris Brown Idontreallycare - ReptileLegit I Don't Wanna Feel No More - reggie I Don't Wanna Fly - SKinny Atlas, Snøw, Jomie feat. Kaxi I Fall Apart - Post Malone i feel like chet - mxmtoon I Fell in Love With You, Now It's Killing Me - Skinny Atlas, Snøw, Jomie I Fell in Love with You One Night in September - Rook1e If There's Nothing Left... - NIKI if we never talk - mj apanay I Gave You Power - Nas I Get the Bag - Gucci Mane feat. Migos I Gotcha - Lupe Fiasco I Heart You Got Too Litt Last Night - SAINt JHN I hope - Fudasca feat. Thomas Reid i hope someone sings on this one day - foryou, IHYG - SAIAH I Know - Polo G I know that it's over - Stay Inside, Laeland, Zaini I Lied Intro - Joyner Lucas ill come back to you - Powfu feat. Sarcastic Sounds Rxseboy I'LL SEE YOU IN 40 - Joji Illy Mode - Scru Face Jean feat. Quadeca i love you - Billie Eilish I'm A Dboy - Lil Wayne feat. Birdman I Made - Big K.R.I.T. feat. Yella Beezy i'm a ghost but it hurts - Rxseboy Imagine You - Static feat. Powfu im closing my eyes - potsu feat. shiloh I'm Gonna Kill Santa Claus - Danny Gonzalez I'm Him - Smokepurpp Ronny J feat. Denzel Curry Imightbreakmyback - Moxas I'm in Love With an E-Girl - Wilbur Soot i'm in love with u, sorry - j'san I Miss My Mum - Cavetown I Miss the Old You - Powfu feat. Rxseboy I'm Not A Star - Rick Ross I'm Not Making out With You - Surf Curse Imperfect Flower - Quando Rondo Impossile - Travis Scott I'm Sorry - Glimlip Yasper I'm Sorry Boris - Wilbur I'm Still - Juice WRLD im used to it - Powfu I'm Waiting For The Day - The Beach Boys in another life - mj apanay In Between - Bonus - 6LACK feat. BANKS In Da Club - 50 Cent Indigo - 88rising NIKI indigo - whiterosemoxie I Need U - yaeow I Need U Remix - yaeow feat. Rxseboy In It - AAP Ferg feat. Mulatto Initiation - The Weeknd Ink - Coldplay In My Feelings - Quando Rondo In My Head - Bedroom In My Head Till I'm Dead - Surf Curse In My Place - Coldplay In My Section - Quando Rondo In Remembrance - Blu Exile Insane - Flume feat. Moon Holiday Inside My Head - SUGR? INSOMNIA - PlayThatBoiZay Insomnia - Rxseboy instacrush - mj apanay Internet Ruined Me - Wilbur Soot ION - Lil Pump feat. Smokepurpp IONEVENRAP - PlayThatBoiZay feat. DrownMili Iron Maiden - Ghostface Killah feat. Raekwon Cappadonna I Seen a Man Die - Scarface Isis - Joyner Lucas feat. Logic isohel - EDEN iSOLDMYHEARD2YOU - SAIAH iSpy - KYLE feat. Lil Yachty is your bedroom ceiling bored? - Fudasca Remix - Sody Cavetown feat. Rxseboy Fudasca It Ain't Easy, It Ain't Easy - Beast Coast I Think I'm OKAY - Machine Gun Kelly feat. YUNGBLUD Travis Barker i thin</t>
+          <t>Link Up TV, Behind Barz D.a. got that dope First off, every rapper in the game garbage No flodgin', bitch I'm the Green Goblin Bitch I'm always working hard, but I ain't Amish All you silly little niggas need to pay homage To a nigga like me, 'cause you ain't like me And most likely, I'ma take your bitch In some brand new Nikes, used to rock the Y-3 If you sponsored by me, then you are the shit Big time player, big city roller Came a long way from using Motorola Pickled eggs, don't forget the juice, that cost a quarter Tryna dodge the crackers when they try to reach their quota Yeah, you already know what it is bitch I light up an incense, 'cause nigga, I'm too lit Don't give me your two cents, here's a penny for your thoughts Put a penny in a pig, never pennies for a thot Know what it is, know what it ain't, I'ma go back to the bank Fuck a new car, in a new paint, I'ma pull up in a tank Like drank never on me, and the dank never on me If a nigga catch a fade Then we paint with the homies like a mural Fuck a federal bureau It's plural, hella hoes and apparel That's American, none of these hoes I'm marryin' They only give a fuck 'bout what a nigga carryin' Hmm, ha, I'm the new guy Nigga better not try me, he might die If a, nigga, pull up, I Just might, have to, pull out, fire No Nino but I make G money Four kilo so I get ki' money Hit C-Note so I see money I go dumb but I ain't no dummy Pull up on a nigga, on God Nigga never had to do fraud Catch a nigga live with the squad On that C shit, on that C shit Pull up on a nigga, on God Nigga never had to do fraud Catch a nigga live with the squad On that C shit, on that C shit Carol City, nigga And I'm out Fumes, the engineer5</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PXSH6XD SHXT</t>
+          <t>​A+</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Well, I'm going back to fantasy land I'll have nothing to take with me, I can't just defend my- On the west side screaming, Thug life Like I ran off on the plug twice Ain't no lies, I ain't like Plies Fuckin' mad hoes, might be my vice She my type, but she unknown Not bright, but she know I'm on, man She said she want all of me That pussy keep callin' me Shes gon throw that ass back just like a shoe that's thrown by Cardi B These niggas got no game, they on JV, and I'm on varsity Pass, pick up, smash, ash, stash, switch up Glad bag, mad thicker, gag gag gag, pick her If she ever wanna 69, she a cancer If she only with you for the money, she a scammer She can be a freaky bitch and put it on a camera Wave around the pussy like a motherfuckin' banner Flag on the play, ooh Turn my swagger on today, ooh New ZXLTRON on the way Catch your bae comin' over, andele But I never let her stay unless she into anime, yeah I would sing on the outro but I- I honestly don't know what to sing about I really don't know what to sing about Freebase asked me to do that shit and I fuck with freebase, so4</t>
+          <t>Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away We just wanna party Party just for you We just want the money Money just for you Yeah I know you wanna party Party just for free Girl, you got me dancin' Girl, you got me dancin' Dance and shake the frame Yeah We just wanna party Yeah Party just for you Yeah We just want the money Yeah Money just for you You I know you wanna party Yeah Party just for free Yeah Girl, you got me dancin' Girl, you got me dancin', yeah Dance and shake the frame Ooh This is America Don't catch you slippin' now Don't catch you slippin' now Look what I'm whippin' now This is America Woo Don't catch you slippin' now Don't catch you slippin' now Look what I'm whippin' now This is America Skrrt, skrrt, woo Don't catch you slippin' now Ayy Look how I'm livin' now Police be trippin' now Woo Yeah, this is America Woo, ayy Guns in my area Word, my area I got the strap Ayy, ayy I gotta carry 'em Yeah, yeah, I'ma go into this Ugh Yeah, yeah, this is guerilla Woo Yeah, yeah, I'ma go get the bag Yeah, yeah, or I'ma get the pad Yeah, yeah, I'm so cold like, yeah Yeah I'm so dope like, yeah Woo We gon' blow like, yeah Straight up, uh Ooh-ooh-ooh-ooh-ooh, tell somebody You go tell somebody Grandma told me Get your money, Black man Get your Black man Get your money, Black man Get yourBlack man Get your money, Black man Get yourBlack man Get your money, Black man Get yourBlack man Black man This is America Woo, ayy Don't catch you slippin' now Woo, woo, don't catch you slippin' now Don't catch you slippin' now Ayy, woah Look what I'm whippin' now Slime! This is America Yeah, yeah Don't catch you slippin' now Woah, ayy Don't catch you slippin' now Ayy, woo Look what I'm whippin' now Ayy Look how I'm geekin' out Hey I'm so fitted I'm so fitted, woo I'm on Gucci I'm on Gucci I'm so pretty Yeah, yeah, woo I'm gon' get it Ayy, I'm gon' get it Watch me move Blaow This a celly Ha That's a tool Yeah On my Kodak Woo Black Ooh, know that Yeah, know that, hold on Get it Woo, get it, get it Ooh, work it 21 Hunnid bands, hunnid bands, hunnid bands Hunnid bands Contraband, contraband, contraband Contraband I got the plug in Oaxaca Woah They gonna find you like blocka Blaow Ooh-ooh-ooh-ooh-ooh, tell somebody America, I just checked my following list, and You go tell somebody You mothafuckas owe me Grandma told me Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Black man 1, 2, 3get down Ooh-ooh-ooh-ooh-ooh, tell somebody You go tell somebody Grandma told me, Get your money Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Black man You just a black man in this world You just a barcode, ayy You just a black man in this world Drivin' expensive foreigns, ayy You just a big dawg, yeah I kenneled him in the backyard No, probably ain't life to a dog For a big dog459</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>COLE PIMP</t>
+          <t>SKED</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>I'm the colonel of the motherfucking tank Got a mattress, no need for a bank Yeah, I see you motherfucker, but my stare is fuckin' blank Last night three motherfuckers thought that they were gettin' paid Tried to rob me blind, so I cut open their eyes Left their blood on my blade Now I'm sippin' lemonade in the shade Just another day in the 7th Ward by the lake Yeah, bitch, where I stay I e- I be ridin' in that camo Jeep, double cup is ocean deep I'm sleepin', don't you make a peep Y'all a bunch of fuckin' cheapened sheep I'll fuckin' cut and gut your fuckin' seepin' slut And I'm a fuckin' mutt, I'll sell your meat for bucks Got a bitch that will get your ass done up Hot in the winter and cold in the summer Pussies wanna try to come and run up Glock cocked and I'm chillin' with my gun up See I, never gave a fuck about nothing Got crack in the stove, hide the money in the oven If I'm ever tryna get my funds up Break in with the mask, grab the money real fast I hope a fucker know when they see me Never in my life ever sold a CD Lo-fi pimp, mp3, black and white life, no TV Smokin' that dope on the low, got all them pounds in the flo' Drugs never slow 'cause this that junkie who can flow It ain't, nothing to rob me a liquor sto' Syrup, I'm drinking it by the fo' The devil be all up in my soul, bitch South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park South Park Said I'm 'bout to lose my mind South Park13</t>
+          <t>Damn, nigga He's heating up Damn, nigga Damn, nigga Ayy, ayy, ayy, ayy Damn, nigga I don't trust nobody because some want me to suffer Suffer Even Jesus called a nigga out on his last supper Judas Tell it like it is 'cause I don't st-st-stutter Stutter All these Jamaican shottas tell your crew, Go suck your mudder Baow What could you do, huh? Try me, they put you in suits, huh, huh You is a fluke, huh, I play your bitch like a flute, huh, huh With all the shit that I seen, this water so sick as a flu, huh, huh Treatin' my people like animals, bitch, I grew up in the zoo, huh, huh Monkey fist, mixed with Bruce Lee kicks, you get your kufi split Uh, yeah Sleep on this, I gotta ask Bill Cosby if he roofied this Uh It's ludicrous, I'll b lit forever 'till I say I'm fuckin' through with this Snatched th power from you 'cause you don't know what to do with it And I said what I said Bitch Bitch, you scared, bitch, you scared And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch Power Ranger Glock, bullets came in different colors Brrt Bitch, the crib I'm in got more sticks than acupuncture Ain't on safety, press to coverage, who in the fuck he think he pressin'? Tryna convince the press you tough'll get you pussies pressed in public Free Give me the loot, shoot, bullets at enemy troops I got more arms than a centipede, but he still'll get beat like he sendin' me loops Shitted on any attempt to keep Ken in the kennel, the criminals finna get loose Niggas is cinnamon, sit him in food Lord, if he play, I send him to yous, split up in two Boo Fuck a truce, we was tuckin' tools, headed to Sunday school Bitch, I go where the funds come in twos, no, and it's not with you Hundred racks on your noggin if I'm online and notice your comments rude Uh Tryna act like you scared, nigga, you said what you said And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch5</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sunday Service (Vandalized Edit)</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>You know we back, right? Clear the streets out Jarreau Vandal Yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ooh, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Ooh, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah So hard to ghost, yet, I'm ready to die Not B.I.G., not limited to the sky If the doves cry, they label me as a Prince With a bad bitch thats covered in cheetah print, oh shit Wanted for the most swag, I'm the culprit Draped in unknown shit, you ain't own this Shoe game just like the Home Alone flicks These aint Off-White, these McCaulay Culkins, ooh I'm the token Black guy, that's right Tell the whole world kiss my backside Watch your girl spread like wildfire Easy as pie, who let the fat guy loose? Back to black roots Back to stack racks and pack them black coupes Attack we contract to back and black suits I am what I am, I'm Zeus and Jésus, what it do? I ride with the livest men, day ones from five to ten From the 3 like Iverson So that means I only ride with Ken Like I hit you with the Hadouken Fuck a How you been? or Where you been at? Go ask your girl where her chin at, go ask the world what I win at Same place that we pray to God where we sin at Lookin' for the holy water, ask me where the Gin at? Woah, let's slow down King Arthur of the table, let's go 'round Never try to tell me whats my sound And CLOUT COBAIN made me really hate clowns So profound when it come to the art I was too bound to the ways of the dark Let em all drown with a ticket for the Ark Tryna ride this wave, be a victim to a shark For real5</t>
+          <t>I must be falling Or is it just a dream? No, this is it There's no in between You know I want you I know that you want me My heart's a lock And love is the key You just stood there And watched as I fell I gave in when you promised me love Take my heart Take my hand Take whatever you want Take my will Take my thoughts Take whatever I've got I know you'll take so much I can never get back That's okay My heart is still young And my weakness I know it's showing through Now all my secrets They're all about you And my rsistance You must have seen it go 'Cause whn you touched me I couldn't say no You just stood there And watched as I fell I gave in to your promise of love Take my heart Take my hand Take whatever you want Take my will Take my thoughts Take whatever I've got I know you'll take so much I can never get back That's okay My heart is still young I gave in when you promised me love Take my heart Take my hand Take whatever you want Take my will It's your promise of love Take my thoughts Take my hand Take whatever I've got That's okay My heart is still young Take my heart Take my hand Take whatever you want Take my will It's your promise of love It's your promise of love Take my thoughts Take my hand Take whatever I've got That's okay My heart is still young My heart is still young Take my heart Take my hand Take whatever you want My heart is still young Take my will It's your promise of love I know Take my thoughts Take my hand Take whatever I've got My heart is still young That's okay</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Behind Barz (ZEZE Freestyle)</t>
+          <t>Grim</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Link Up TV, Behind Barz D.a. got that dope First off, every rapper in the game garbage No flodgin', bitch I'm the Green Goblin Bitch I'm always working hard, but I ain't Amish All you silly little niggas need to pay homage To a nigga like me, 'cause you ain't like me And most likely, I'ma take your bitch In some brand new Nikes, used to rock the Y-3 If you sponsored by me, then you are the shit Big time player, big city roller Came a long way from using Motorola Pickled eggs, don't forget the juice, that cost a quarter Tryna dodge the crackers when they try to reach their quota Yeah, you already know what it is bitch I light up an incense, 'cause nigga, I'm too lit Don't give me your two cents, here's a penny for your thoughts Put a penny in a pig, never pennies for a thot Know what it is, know what it ain't, I'ma go back to the bank Fuck a new car, in a new paint, I'ma pull up in a tank Like drank never on me, and the dank never on me If a nigga catch a fade Then we paint with the homies like a mural Fuck a federal bureau It's plural, hella hoes and apparel That's American, none of these hoes I'm marryin' They only give a fuck 'bout what a nigga carryin' Hmm, ha, I'm the new guy Nigga better not try me, he might die If a, nigga, pull up, I Just might, have to, pull out, fire No Nino but I make G money Four kilo so I get ki' money Hit C-Note so I see money I go dumb but I ain't no dummy Pull up on a nigga, on God Nigga never had to do fraud Catch a nigga live with the squad On that C shit, on that C shit Pull up on a nigga, on God Nigga never had to do fraud Catch a nigga live with the squad On that C shit, on that C shit Carol City, nigga And I'm out Fumes, the engineer5</t>
+          <t>Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full Death don't got no mercy, got you talkin' murky When you poppin' Perkies, she pop her pussy She drop her tushy, she almost hurt me Let me get this nut off before the opps could murk me Could be cops or surgery Could be disease, could be bitchin', itchin' Could be fuckin' fleas, my decision, Spanish cheese Spread it, get it back, snap, cheddar Jack, pat I'ma get 'em right back, bitch Meet me on the other side My only regret is that my mother cried And my chick too, I shit you Not, there will be another kid to take my spot Is it too early for me? Will there be a jury for me? Have you heard me Lordy? Worried you ain't heard my story Will it be late at night or in the early morning? Either way, slurpin' forties out in purgatory Ashamed of myself, the pain that I felt My paper, my wealth, not concerned with or pertained to my health Not concerned with if I hang from a belt All these people talkin', I just stay to myself, so what's real? Watch me float around my city, gettin' wild With a stomach full of bile, as I suffer with a smile Think about it when I wake up, money all got ate up at the bar Prolly get some new tomorrow, I be paid up, straight up Floatin' down the River Styx, countin' daffodils Ignorin' all these e-mails from Complex and Mass Appeal Thinkin', If I wasn't such a pussy, I'd have had a deal When I die, play my failure on the blooper reel Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full Jackin' people for their beanstalks, stackin' my green up As I keep my head to the sky, as if I seen up See the blood, mix it with the Sprite inside of my lean cup It's a dual reality of sobriety, as I fiend up Voices, scrolling' through every option, their choices Pointless, nine millimeter might leave me voiceless Appointed to a therapist when I'm very pissed, I'm arrogant Tellin' myself that I be fine, it's the point where it's scary, yes Carried this burden, for certain, I just need a surgeon To take away all my emotions, my system is nervous You only think deep when a fuckin' shrink speaks Only time I count sheep is when a nigga six feet Six deep, ten toes, nah, that's sixty-fours Nigga, I don't play games, N64 I done been to places you ain't even been before Heaven and hell, angels and demons is my friends and foes Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full7</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>​A+</t>
+          <t>Dog Food</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away Yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, go, go away We just wanna party Party just for you We just want the money Money just for you Yeah I know you wanna party Party just for free Girl, you got me dancin' Girl, you got me dancin' Dance and shake the frame Yeah We just wanna party Yeah Party just for you Yeah We just want the money Yeah Money just for you You I know you wanna party Yeah Party just for free Yeah Girl, you got me dancin' Girl, you got me dancin', yeah Dance and shake the frame Ooh This is America Don't catch you slippin' now Don't catch you slippin' now Look what I'm whippin' now This is America Woo Don't catch you slippin' now Don't catch you slippin' now Look what I'm whippin' now This is America Skrrt, skrrt, woo Don't catch you slippin' now Ayy Look how I'm livin' now Police be trippin' now Woo Yeah, this is America Woo, ayy Guns in my area Word, my area I got the strap Ayy, ayy I gotta carry 'em Yeah, yeah, I'ma go into this Ugh Yeah, yeah, this is guerilla Woo Yeah, yeah, I'ma go get the bag Yeah, yeah, or I'ma get the pad Yeah, yeah, I'm so cold like, yeah Yeah I'm so dope like, yeah Woo We gon' blow like, yeah Straight up, uh Ooh-ooh-ooh-ooh-ooh, tell somebody You go tell somebody Grandma told me Get your money, Black man Get your Black man Get your money, Black man Get yourBlack man Get your money, Black man Get yourBlack man Get your money, Black man Get yourBlack man Black man This is America Woo, ayy Don't catch you slippin' now Woo, woo, don't catch you slippin' now Don't catch you slippin' now Ayy, woah Look what I'm whippin' now Slime! This is America Yeah, yeah Don't catch you slippin' now Woah, ayy Don't catch you slippin' now Ayy, woo Look what I'm whippin' now Ayy Look how I'm geekin' out Hey I'm so fitted I'm so fitted, woo I'm on Gucci I'm on Gucci I'm so pretty Yeah, yeah, woo I'm gon' get it Ayy, I'm gon' get it Watch me move Blaow This a celly Ha That's a tool Yeah On my Kodak Woo Black Ooh, know that Yeah, know that, hold on Get it Woo, get it, get it Ooh, work it 21 Hunnid bands, hunnid bands, hunnid bands Hunnid bands Contraband, contraband, contraband Contraband I got the plug in Oaxaca Woah They gonna find you like blocka Blaow Ooh-ooh-ooh-ooh-ooh, tell somebody America, I just checked my following list, and You go tell somebody You mothafuckas owe me Grandma told me Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Black man 1, 2, 3get down Ooh-ooh-ooh-ooh-ooh, tell somebody You go tell somebody Grandma told me, Get your money Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Get your money, Black man Black man Black man You just a black man in this world You just a barcode, ayy You just a black man in this world Drivin' expensive foreigns, ayy You just a big dawg, yeah I kenneled him in the backyard No, probably ain't life to a dog For a big dog459</t>
+          <t>Simple Uh-huh, uh, uh Woo, woo, woo It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot They tried to frisk me, want me Hot Incarcerated, I won't be Hot I run to hit the corner Hot I'm headed for the border Hot Mix the weed with water Hot Sold it to my auntie Hot Hungry, I can't be Hot So I sell it to my family I hope they don't sing like they're tryna win a GRAMMY I hope it ain't a act like they're tryna win a Emmy I'm tryna get a nut, so I'm movin' like I'm Sandy I'm livin' underwater, I don't know how I can breathe Huh Maybe it's a scuba diver air tank Air tank Maybe it's to do it when they say I can't Say I can't Maybe it's the ears what they say I ain't But either way, I ain't takin' that bait It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is- Really cold in the wintertime, cold in the summer Cold when the wind blows, cold like December Oh-yeah-yeah-yeah It's gon' be cold anyway, anyway The block's definition of hot, I be a simile I know the definition of opp, that be the enemy I seen a lot of brothers get popped, we pourin' Hennessy And God forbid a nigga get locked, 'cause it ain't ten of me Diez, buenos días to señoritas We movin' units by the kiosk for fly Adidas Forever eatin' la comida, I pack a heater We lurkin' just to catch you lackin', like we on Cheaters Free us, RIP us, long live us We tried to grab the plate of what the crackers won't give us Most of my niggas never had a Thanksgiving So instead of givin' thanks, my niggas takin' what's given You know what it is, set the city on fire Girl, free the titty if you don't wear a wire When it comes to paper, that's that shit that I require When it comes to power, that's that shit that I desire For real It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is- Really cold in the wintertime, cold in the summer Cold when the wind blows, cold like December Oh-yeah-yeah-yeah It's gon' be cold anyway, anyway1</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SKED</t>
+          <t>Gankin</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Damn, nigga He's heating up Damn, nigga Damn, nigga Ayy, ayy, ayy, ayy Damn, nigga I don't trust nobody because some want me to suffer Suffer Even Jesus called a nigga out on his last supper Judas Tell it like it is 'cause I don't st-st-stutter Stutter All these Jamaican shottas tell your crew, Go suck your mudder Baow What could you do, huh? Try me, they put you in suits, huh, huh You is a fluke, huh, I play your bitch like a flute, huh, huh With all the shit that I seen, this water so sick as a flu, huh, huh Treatin' my people like animals, bitch, I grew up in the zoo, huh, huh Monkey fist, mixed with Bruce Lee kicks, you get your kufi split Uh, yeah Sleep on this, I gotta ask Bill Cosby if he roofied this Uh It's ludicrous, I'll b lit forever 'till I say I'm fuckin' through with this Snatched th power from you 'cause you don't know what to do with it And I said what I said Bitch Bitch, you scared, bitch, you scared And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch Power Ranger Glock, bullets came in different colors Brrt Bitch, the crib I'm in got more sticks than acupuncture Ain't on safety, press to coverage, who in the fuck he think he pressin'? Tryna convince the press you tough'll get you pussies pressed in public Free Give me the loot, shoot, bullets at enemy troops I got more arms than a centipede, but he still'll get beat like he sendin' me loops Shitted on any attempt to keep Ken in the kennel, the criminals finna get loose Niggas is cinnamon, sit him in food Lord, if he play, I send him to yous, split up in two Boo Fuck a truce, we was tuckin' tools, headed to Sunday school Bitch, I go where the funds come in twos, no, and it's not with you Hundred racks on your noggin if I'm online and notice your comments rude Uh Tryna act like you scared, nigga, you said what you said And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch5</t>
+          <t>It's that 1993 That 8Ball MJG shit That comin' hard shit That 90's pimp shit That modern day's 90's FANG life shit That modern day Raider Klan shit nigga What's up nigga? Tight grip on the Tec 9, now it's time to time to, time to, creep Hollow tips in the clip puttin' suckas in a deep Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a deep sleep Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Because I'm packin what you lackin' and I'm shootin' like a tank Niggas on the gank, might do better at a bank What you drank? Smokin' dank Come through like Fuck what you claim Repping my gang FANG all on my brain Tryna maintain while I'm switchin' these lanes, swerve Roll up a blunt of that Indica herb A 90's bitch what I prefer In the passenger seat of my two seater Her curves they got me blurred, I'm slurred I'm drivin' all up on the curb 40 ounce got me mixin' up my words Now she trippin' Bitches think I'm soft cause I treat them with respect But I won't hesitate to smack a bitch with my dick haha Livin' like it's '96 six, six On you tricks Would thought Wesley Snipes is in here, cause Black is the color of the gear, and Black is the color of the year, and Black is the color of the niggas in your rearview mirr' Can't see clear Better lock them doors cause Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Ready to gank, takin' this bank Shootin' my bullets like No Limit tanks Smokin' these niggas just roll up the swisher My attitude blunt when I smoke 'em like jenk Four, five, Triple Six Act like I said that and niggas is pissed Lyricist killin' it what is the difference Niggas is thinkin' this Infamous Nina the beaner the bullet between her I open her trunk with the chopp-er Bedded then shredded, them bitches beheaded I'm shootin these niggas like shottas Dumb little hoes you ain't runnin' no game Aquarius Killa that nigga the mayne Koopsta the nigga I'm rollin' the swisher I get the big picture, I'm makin' a stank Homie talkin' shit, bruh Nigga think he gettin' me Spray his ass, kill his chick Drop him in the sea and leave Raven is not the one Y'all niggas just can't stop me Killin' these niggas just pullin' the trigger It's hard to see that autopsy Pass me the plastic Glock His ass is shot, I feel like Pac Under the pressure the heat in my dresser They tellin' these niggas they gettin' what's got Popped by Aquarius The nigga come and gut you Lord to the infamous, killin' the ... Future bounty hunter Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a deep sleep Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a a deep sleep</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Lonestar Jazz</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>I must be falling Or is it just a dream? No, this is it There's no in between You know I want you I know that you want me My heart's a lock And love is the key You just stood there And watched as I fell I gave in when you promised me love Take my heart Take my hand Take whatever you want Take my will Take my thoughts Take whatever I've got I know you'll take so much I can never get back That's okay My heart is still young And my weakness I know it's showing through Now all my secrets They're all about you And my rsistance You must have seen it go 'Cause whn you touched me I couldn't say no You just stood there And watched as I fell I gave in to your promise of love Take my heart Take my hand Take whatever you want Take my will Take my thoughts Take whatever I've got I know you'll take so much I can never get back That's okay My heart is still young I gave in when you promised me love Take my heart Take my hand Take whatever you want Take my will It's your promise of love Take my thoughts Take my hand Take whatever I've got That's okay My heart is still young Take my heart Take my hand Take whatever you want Take my will It's your promise of love It's your promise of love Take my thoughts Take my hand Take whatever I've got That's okay My heart is still young My heart is still young Take my heart Take my hand Take whatever you want My heart is still young Take my will It's your promise of love I know Take my thoughts Take my hand Take whatever I've got My heart is still young That's okay</t>
+          <t>Ezekiel Vo. Denzel Curry Lonestar Jazz Outside, looking in Reached me on a place you've never been See, I have the power of many men When I walk, you don't see a grin It's my ignorance with intelligence Militant move, you should never question the elephant I appear, yet I'm barely even here When you're not around, theres no one that's allowed to see my tears Adam to your Eve, apple of your eye Whatever the circumstances, know I'll end up on your side Carole, hit you with the lovestruck arrow Feelings start to scat like Ella Fitzgerald Pharaoh, honestly, I meant to say pheromone You was always there since my parents was never home Orphan, cracked fortune Protecting my precious orchid from evil forces Dormant, see the sky's not stormless Monday is so heavy Hit you back on a Tuesday, when things feel steady Here's the prophet, the one and only who's laying there Forever known as E, ain't no need for the alias I'm representing Mars till I feel like an alien And you're the only star that I'll date again, love Days without your face It's hard to stay sane alone I hate the time you're not here You're the closest thing to home1</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Grim</t>
+          <t>G’Z UP</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full Death don't got no mercy, got you talkin' murky When you poppin' Perkies, she pop her pussy She drop her tushy, she almost hurt me Let me get this nut off before the opps could murk me Could be cops or surgery Could be disease, could be bitchin', itchin' Could be fuckin' fleas, my decision, Spanish cheese Spread it, get it back, snap, cheddar Jack, pat I'ma get 'em right back, bitch Meet me on the other side My only regret is that my mother cried And my chick too, I shit you Not, there will be another kid to take my spot Is it too early for me? Will there be a jury for me? Have you heard me Lordy? Worried you ain't heard my story Will it be late at night or in the early morning? Either way, slurpin' forties out in purgatory Ashamed of myself, the pain that I felt My paper, my wealth, not concerned with or pertained to my health Not concerned with if I hang from a belt All these people talkin', I just stay to myself, so what's real? Watch me float around my city, gettin' wild With a stomach full of bile, as I suffer with a smile Think about it when I wake up, money all got ate up at the bar Prolly get some new tomorrow, I be paid up, straight up Floatin' down the River Styx, countin' daffodils Ignorin' all these e-mails from Complex and Mass Appeal Thinkin', If I wasn't such a pussy, I'd have had a deal When I die, play my failure on the blooper reel Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full Jackin' people for their beanstalks, stackin' my green up As I keep my head to the sky, as if I seen up See the blood, mix it with the Sprite inside of my lean cup It's a dual reality of sobriety, as I fiend up Voices, scrolling' through every option, their choices Pointless, nine millimeter might leave me voiceless Appointed to a therapist when I'm very pissed, I'm arrogant Tellin' myself that I be fine, it's the point where it's scary, yes Carried this burden, for certain, I just need a surgeon To take away all my emotions, my system is nervous You only think deep when a fuckin' shrink speaks Only time I count sheep is when a nigga six feet Six deep, ten toes, nah, that's sixty-fours Nigga, I don't play games, N64 I done been to places you ain't even been before Heaven and hell, angels and demons is my friends and foes Once this advance hit, take a 30 grand hit Bank account damaged, I'mma get some jewels Ain't no sense in savin', rent to be paid in But ain't no way to sense it once you end up gettin' screwed Thinkin' you the one, you gon' end up done When that Grim Reaper come, could be chillin' by the pool Ain't nowhere to run, man, the sun comin' up, and You ain't gonna be around to see it when it's full7</t>
+          <t>I had nigga run up on me tell me one time man Y'all niggas from the south is so laid back wit ya'll shit You know he was tryna interpretate You know how we do our thang You know how y'all make that shit happen I said look at this here We just wanna live between the sky the dirty away ya understand me? That's the real deal all the freedom talkin' 'bout this DFW shit This gorilla shit, shit Yo dog let'em know what your business is Heroin, weed, speed, the yay, I want the power by any means Several creams like Frito Lay It pays to spread your hustle a lil' bundle won't hurt Find you shoe Put your foot in now put in work Dolla dolla motherfucker is what I holla when I scuffle This my block and attack then I box you wit my knuckle Do you buck, cheddar chicken Motherfuckers about my swip I gotta pocket full of a stone and that's on the gorilla I told ya money over hoes 'til the floor we up These sluts don't give a fuck so I don't give a fuck They good from bustin' nuts, but they ain't shieet A bitch is still a bitch, so if you poor or rich I went from pennies to the millennium, Benjamins give me them I chased the big face, I'm tired of my wages minimal This better be my time or result to crime pay I gots to have dealer can't live without ya big face All in the family, she yo freak my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family All in the family, she yo freak my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family Still do nuttin move but the money Steady comin' for me, motherfuckers lookin' bummy Can I have another hit, ain't that a bitch Can you get a dime for 5, I got my nigga out six Along way from rich, I'm blitzed, bout to hit a ditch In my 80 joboritz, I miss They ain't even with a Dayton, pump a kick The bumps rollin' with my blunt, smokin' clunks Punk bitch I'm throwin' g'z up That's when they freeze up Lookin' like hoes in front of they skeezer Saint Jean you seen with a twist of lime then take the bam bam to your mind Baby one more time, then ride like Ginuwine Foot the gas sucka ass so I took off where I put the trash Then match, money over 304 Mo' more over 304, but y'all don't hear me though All in the family, she yo freak, my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family Still do nuttin move but the money The greens, I want every penny, by any means Sup, what's happenin' Cream, tax free, proud to g Our money earnin', so I'm burnin' currency All in the family, let's keep it You don't wanna shit start My click G the deepest Gorillaz and killaz Fuck these hoes Why she all up under me like Vogue, I suppose It's the gorilla lifestyle, that I live All in the family, for real, I'm in it like a splinter Continue with the mashin' Automatic fully when I pull it catch a big bullet fragment Assassin don't make me get obituary Our brand dash new I'm a professional killer it's necessary To dust and bust out Just clouds of smoke They said I did it black mafia style out the funk They know, with no evidence no fingerprints no clue Did I stutter man? That's on the butter man Dolla bill y'all all in the family Get yo skreel toe y'all all in the family Yeah that's what the fuck I'm talkin' about yeah you are Yes sir, and we gonna do it like that From now on understand me Y'all do my deu--, 60 deuce of tight Cadillacsaville feel the mack D.O.C And only these motherfuckin' big faces, that's the family Bitch ahahah</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Dog Food</t>
+          <t>Uh Huh</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Simple Uh-huh, uh, uh Woo, woo, woo It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot They tried to frisk me, want me Hot Incarcerated, I won't be Hot I run to hit the corner Hot I'm headed for the border Hot Mix the weed with water Hot Sold it to my auntie Hot Hungry, I can't be Hot So I sell it to my family I hope they don't sing like they're tryna win a GRAMMY I hope it ain't a act like they're tryna win a Emmy I'm tryna get a nut, so I'm movin' like I'm Sandy I'm livin' underwater, I don't know how I can breathe Huh Maybe it's a scuba diver air tank Air tank Maybe it's to do it when they say I can't Say I can't Maybe it's the ears what they say I ain't But either way, I ain't takin' that bait It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is- Really cold in the wintertime, cold in the summer Cold when the wind blows, cold like December Oh-yeah-yeah-yeah It's gon' be cold anyway, anyway The block's definition of hot, I be a simile I know the definition of opp, that be the enemy I seen a lot of brothers get popped, we pourin' Hennessy And God forbid a nigga get locked, 'cause it ain't ten of me Diez, buenos días to señoritas We movin' units by the kiosk for fly Adidas Forever eatin' la comida, I pack a heater We lurkin' just to catch you lackin', like we on Cheaters Free us, RIP us, long live us We tried to grab the plate of what the crackers won't give us Most of my niggas never had a Thanksgiving So instead of givin' thanks, my niggas takin' what's given You know what it is, set the city on fire Girl, free the titty if you don't wear a wire When it comes to paper, that's that shit that I require When it comes to power, that's that shit that I desire For real It's eleven o'clock, on the dot, I'm on the block Ain't no time for no sleep or no yawnin' or whatnot Twelve running 'round creepin' and peepin' for the drop We be moving with caution, the block is really hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is Hot The block is hot, the block is- Really cold in the wintertime, cold in the summer Cold when the wind blows, cold like December Oh-yeah-yeah-yeah It's gon' be cold anyway, anyway1</t>
+          <t>Haipangwingwi Taniua, Ssaru, uh-huh Black Matket Records Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Unataka mtu simple humble, rich young Ndo upeane number Unataka mtu mdark, mlight mtall Babe tafuta wababaz Unaplan future yetu kumbe uko alone Maisha ni safari mi na ride along Labda mi niomoke nikuitage form Ama labda we uomoke nikujage home Mi nayo pombe siwezi onja Aai nakunywa yote Na akiamua kukupatia Aii chukua yote Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, kijana ni gwiji Utapangaje morio ana kashilingi kwa wingi Mafeelings za nini mi ni jangili kamili Nasuka mamdenge za matajiri wa mjini, samahani Chai fupi nmejaza maziwa na majan Sikusuki mi ni Trio Mio watagwan Ka hunijui unajifanya bombo haja gan Abiria nawapanga ka makanga wa Kasaran Ama vijiti za viberiti ndani ya boxdem Wanga stishiki naget mabinti nawachokdem Washa ngwariti tuskie fiti adi shokdem Cheza na mangoksdem Maisha ni yangu, we shughulika na yako Napnda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Aah mi sitambui mbui, mi mchana buibui Nikiwa mababi mahali leta maruirui Na niko na mashoga kibao nataka madui dui Sitaki kifisi niko bongo nasaka chui chui Ukitaka mizuka, mimi ndo hooker Tna nagwara nikidara nina vikucha Hiki kichupa shika na kupa Na wanapenda ukipapia baba pupa Naishi nitakavyo ondoa vikwazo Ukiona najidai jua kujikopa ndo chanzo Nikishika ngiri natesa na majigambo Ju naona siku hizi ganji mnasafisha kwa mitambo Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Gankin</t>
+          <t>A.S.S.</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>It's that 1993 That 8Ball MJG shit That comin' hard shit That 90's pimp shit That modern day's 90's FANG life shit That modern day Raider Klan shit nigga What's up nigga? Tight grip on the Tec 9, now it's time to time to, time to, creep Hollow tips in the clip puttin' suckas in a deep Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a deep sleep Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Because I'm packin what you lackin' and I'm shootin' like a tank Niggas on the gank, might do better at a bank What you drank? Smokin' dank Come through like Fuck what you claim Repping my gang FANG all on my brain Tryna maintain while I'm switchin' these lanes, swerve Roll up a blunt of that Indica herb A 90's bitch what I prefer In the passenger seat of my two seater Her curves they got me blurred, I'm slurred I'm drivin' all up on the curb 40 ounce got me mixin' up my words Now she trippin' Bitches think I'm soft cause I treat them with respect But I won't hesitate to smack a bitch with my dick haha Livin' like it's '96 six, six On you tricks Would thought Wesley Snipes is in here, cause Black is the color of the gear, and Black is the color of the year, and Black is the color of the niggas in your rearview mirr' Can't see clear Better lock them doors cause Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Cuz I'm packin what you lackin' and I'm shootin' like a tank Ready to gank, takin' this bank Shootin' my bullets like No Limit tanks Smokin' these niggas just roll up the swisher My attitude blunt when I smoke 'em like jenk Four, five, Triple Six Act like I said that and niggas is pissed Lyricist killin' it what is the difference Niggas is thinkin' this Infamous Nina the beaner the bullet between her I open her trunk with the chopp-er Bedded then shredded, them bitches beheaded I'm shootin these niggas like shottas Dumb little hoes you ain't runnin' no game Aquarius Killa that nigga the mayne Koopsta the nigga I'm rollin' the swisher I get the big picture, I'm makin' a stank Homie talkin' shit, bruh Nigga think he gettin' me Spray his ass, kill his chick Drop him in the sea and leave Raven is not the one Y'all niggas just can't stop me Killin' these niggas just pullin' the trigger It's hard to see that autopsy Pass me the plastic Glock His ass is shot, I feel like Pac Under the pressure the heat in my dresser They tellin' these niggas they gettin' what's got Popped by Aquarius The nigga come and gut you Lord to the infamous, killin' the ... Future bounty hunter Niggas on the gank, might do better at a Niggas on the, niggas on the gank, might do better at a bank Cuz I'm packin what you lackin' and I'm shootin' like a tank Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a deep sleep Tight grip on the Tec 9, now it's time to creep Hollow tips in the clip puttin' suckas in a a deep sleep</t>
+          <t>Yeah, ayy, LoRd Lu C N There's time's way back, man When we used to smoke kush and just chill, man In the Cadillac Seville, man Just thinkin' about the cosmos, man You know astrology is where the knowledge be, you know? Ayy, my 8-track stay slap Way before I had a Cadillac with hub caps Way before a nigga ever rocked a wave cap Way before a nigga ever had to stay strapped 'Cause these niggas still tripping, Cadillac's dipping Still pistol gripping, foes still tip in Got hoes in the hotel just like the Tipton Making money off of square niggas that's attempting To get in the box but they watching out for cops Yo I hear the sirens, shh, stop! Whoa, still, my 8-track still slaps Runnin' through the city like a goddamn Mac Kaleidoscope colors in a brand new 'Lac My goons in the back do not wear all black They wear white suits, it's time for me to shoot It's time that I get my bullets in time to recoup Regroup, I go back to the club with my troops With a bad bitch that's on my side lookin' like Hoopz Who, I'm in the club, who, rollin' a dub, who? Who got the flavor lookin' like flavor of love, who? Who got the model? Who, who got the bottle? Who? Who got the truth that's looking and willing to follow, who? It's Zeltron the hell spawn, you know this, uh It seems that I'm flying like lotus, uh I'm fly like a bird catching locusts, uh My 8-track stays on Black Moses, yeah Way before wavy Yeah, you know the Isaac Hayes shit Way before wavy leggo My 8-track still slaps Way before a nigga ever had to write raps Way before a nigga ever had to peel caps Way before a nigga ever let the guns... Way before, way before, way before wavy Way before '84, '94 baby Way before many more you were born maybe Way before, way before O.J was crazy Driving Miss Daisy but I'm driving the Cadillac Two girls in the lac, hair braided to the back Sipping on some Similac, telling me to just relax One is kissing on my neck, the others on my nutsack She hide the dick, so where my nuts at? So deep inside, like where her guts at? Like Obi-Wan I had to cut that I bust my nut and then I cut back Drop them off, now it's back to the mission Let me show you how we do it, High Definition Let the money talk, what the quarter said Chilling in my water bed Thinking 'bout the money, how to make the bread For instance, a lucrative business These niggas took the spot now I'm back with a vengeance Then I pay off the cops, putting stacks in they pension Look at the newspaper it's not even worth mentioning The tabloid, I'm back boy The 8-track slaps in my lac boy Way before wavy Calm yourself That'll make you move Way before wavy Way before wavy Calm yourself Way before wavy Way before wavy12</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lonestar Jazz</t>
+          <t>SET IT</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ezekiel Vo. Denzel Curry Lonestar Jazz Outside, looking in Reached me on a place you've never been See, I have the power of many men When I walk, you don't see a grin It's my ignorance with intelligence Militant move, you should never question the elephant I appear, yet I'm barely even here When you're not around, theres no one that's allowed to see my tears Adam to your Eve, apple of your eye Whatever the circumstances, know I'll end up on your side Carole, hit you with the lovestruck arrow Feelings start to scat like Ella Fitzgerald Pharaoh, honestly, I meant to say pheromone You was always there since my parents was never home Orphan, cracked fortune Protecting my precious orchid from evil forces Dormant, see the sky's not stormless Monday is so heavy Hit you back on a Tuesday, when things feel steady Here's the prophet, the one and only who's laying there Forever known as E, ain't no need for the alias I'm representing Mars till I feel like an alien And you're the only star that I'll date again, love Days without your face It's hard to stay sane alone I hate the time you're not here You're the closest thing to home1</t>
+          <t>STRING THE BOW OF SORROW A vessel filled with flowers burning in the bay The giver of life claimed by death so fast String the bow of sorrow for a salute Arrows of eternity, of all the ones I loved So many departures, so many women gone I swim the sea of tears, covered with salt Now I know what it feels like to lose protection Your body is gone, it left me in a hearse It may sound cynical, but this life is mine Life is for the living, that is undeniable When your image is gon, my face will be blue Through tim and space, womanity be one You're no more in the phonebook The statements have been written Goodbye, Norwegian mother The quiver of time is empty SOLEFALD, 15.9.1995 La martyren salve sine sår Solefald Er jeg ditt fiolette fragment? La naturen klage sine år Solefald Hvem av oss har linsen som blinder? Jeg ante ditt nærvær i min drøm Solefald Så jeg bakom honningens ansikt? Mystikkens fjes forsvinner med deg Solefald Synker ned i den siste dvale Snu for meg din fatale bane Solefald Stig fra en heroisk horisont --------- You liked ACDCs Hell's Bells , but Slayer was no stayer I know how much you hated that Slaytanic Wehrmacht patch In the end, you did set it onto my black denim jacket I picture your afterlife in Freya's wooden halls Robed in light colours as an Art Nouveau lady You go for walks in the forest of oaks Where bumblebees hum and blackbirds sing Maybe you paint watercolour like you used to Enjoy cake and champagne and immortal youth I will leave you here, where you sat with your parents On the simple wooden staircase Where bumblebees hum and blackbirds sing As the evening breeze sways the firs in the sunset - Solefald</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>G’Z UP</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>I had nigga run up on me tell me one time man Y'all niggas from the south is so laid back wit ya'll shit You know he was tryna interpretate You know how we do our thang You know how y'all make that shit happen I said look at this here We just wanna live between the sky the dirty away ya understand me? That's the real deal all the freedom talkin' 'bout this DFW shit This gorilla shit, shit Yo dog let'em know what your business is Heroin, weed, speed, the yay, I want the power by any means Several creams like Frito Lay It pays to spread your hustle a lil' bundle won't hurt Find you shoe Put your foot in now put in work Dolla dolla motherfucker is what I holla when I scuffle This my block and attack then I box you wit my knuckle Do you buck, cheddar chicken Motherfuckers about my swip I gotta pocket full of a stone and that's on the gorilla I told ya money over hoes 'til the floor we up These sluts don't give a fuck so I don't give a fuck They good from bustin' nuts, but they ain't shieet A bitch is still a bitch, so if you poor or rich I went from pennies to the millennium, Benjamins give me them I chased the big face, I'm tired of my wages minimal This better be my time or result to crime pay I gots to have dealer can't live without ya big face All in the family, she yo freak my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family All in the family, she yo freak my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family Still do nuttin move but the money Steady comin' for me, motherfuckers lookin' bummy Can I have another hit, ain't that a bitch Can you get a dime for 5, I got my nigga out six Along way from rich, I'm blitzed, bout to hit a ditch In my 80 joboritz, I miss They ain't even with a Dayton, pump a kick The bumps rollin' with my blunt, smokin' clunks Punk bitch I'm throwin' g'z up That's when they freeze up Lookin' like hoes in front of they skeezer Saint Jean you seen with a twist of lime then take the bam bam to your mind Baby one more time, then ride like Ginuwine Foot the gas sucka ass so I took off where I put the trash Then match, money over 304 Mo' more over 304, but y'all don't hear me though All in the family, she yo freak, my freak, let's keep it in the family Dollar bill y'all, all in the family, all in the family Still do nuttin move but the money The greens, I want every penny, by any means Sup, what's happenin' Cream, tax free, proud to g Our money earnin', so I'm burnin' currency All in the family, let's keep it You don't wanna shit start My click G the deepest Gorillaz and killaz Fuck these hoes Why she all up under me like Vogue, I suppose It's the gorilla lifestyle, that I live All in the family, for real, I'm in it like a splinter Continue with the mashin' Automatic fully when I pull it catch a big bullet fragment Assassin don't make me get obituary Our brand dash new I'm a professional killer it's necessary To dust and bust out Just clouds of smoke They said I did it black mafia style out the funk They know, with no evidence no fingerprints no clue Did I stutter man? That's on the butter man Dolla bill y'all all in the family Get yo skreel toe y'all all in the family Yeah that's what the fuck I'm talkin' about yeah you are Yes sir, and we gonna do it like that From now on understand me Y'all do my deu--, 60 deuce of tight Cadillacsaville feel the mack D.O.C And only these motherfuckin' big faces, that's the family Bitch ahahah</t>
+          <t>Change, that's it! I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed Love our world, never risk the theory Go out often, everyone can feel me Sherry Temple, my homie is white, who you hating who? I'm color blind, quit the violence Say goodbye to your fellow friends, teacher, and staffs It's a graduation, look at the crown, feeling blessed Throw your caps in the air, we made it y'all, we mad it yall Throw your caps in the air I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed, I'm so blessed You know I want it yeah, I know you want it yeah I ain't playing no games, rapper gone away Everyone awaits, I'd been gone away Don't lose me, rumors are uh-uh Rumors are a pain, too young for a death wish On tour, gone ahead respect whoa No label yeah, I guess I'm good yeah I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed, I'm so blessed</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>So.Incredible.pkg (Robert Glasper Version)</t>
+          <t>ULTRA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>21 AAP Rocky - G-Unit Rice Drakeo the Ruler - Too Icey Joey Trap - BIRDIES KILL.ZERO - .HAUNTR. koi - all of that Luke Combs Billy Strings - The Great Divide MonoNeon - Done with the BS ft. Ledisi Steve Aoki Willy William - Mambo ft. Sean Paul, El Alfa, Sfera Ebbasta Play-N-Skillz The Bloody Beetroots Teddy Killerz - Elevate TOBi - Love Not Blood Victoria Monét - F.U.C.K. Wiz Khalifa - Chicken with the Cheese ft. Chevy Woods 24hrs 22 Ben Howard - Crowhurst's Meme Dolly Parton - 5 to 9 Indii G. - Drifting Kito, VanJess Channel Tres - Recap Leslie Odom Jr. - Beautiful Things Can Happen Luca Yupanqui - V4.3, Pt. 2 PlayThatBoiZay - 90'S BABY FREESTYLE XANAKIN SKYWOK - Club Banger! ft. Billy Marchiafava youra - MIMI 23 03 Greedo Wiz Khalifa - Substance We Woke Up Curreny - Misty Drippin' So Pretty - Too Sick Death From Above 1979 - One One Ghetts - No Mercy ft. BackRoad Gee Pa Salieu Ichiko Aoba - Asleep Among Endives Jimmy Edgar - NOTICE ft. 24hrs Jordin Sparks - You Still Think of Me Julien Baker - Favor Lauren Auder - Heathen Moneybagg Yo - Time Today pluko - High Hopes ft. DUCKWRTH sad alex Stereolab - Household Names sumika - shukusai Tkay Maidza Yung Baby Tate - KIM Trey Songz - Brain Unusual Demont - Pine YBN Almighty Jay - Battling My Spirit YNW BSlime - OTW 24 BAND-MAID - About Us Daya - Bad Girl Digga D AJ Tracey - Bringing It Back FINNEAS - American Cliché H.E.R. - Fight for You hololive IDOL PROJECT - STARDUST SONG ft. Tokoyami Towa, Shiranui Flare Amane Kanata Iglooghost - Sylph Fossil Jack Reynolds - Sunny Gaze Lil Durk - Love You Too ft. Kehlani Lil Playah - Knocked Off! ft. OnlyBino Lucky Daye Tiana Major9 - On Read MARINA - Man's World Empress Of Remix ft. Pabllo Vittar Sam Fischer Demi Lovato - What Other People Say Sia David Guetta - Floating Through Space Tino Szn - Vice ft. NOT Yeek - 3000 Miles Baby Baby 25 8 Graves Saint Slumber - Guillotine 88GLAM 6ixbuzz - Urgent Messages aespa - Forever Aidan Alexander - the end of the world Allie X - GLAM! Blssom - Vas Bobby Sessions Megan Thee Stallion - I'm a King Bob Moses - The Blame DJ Seinfeld Remix Bow Wow - My Pain Cardi B - Up Carly Pearce - Should've Known Better Cheat Codes - Hate You Love You ft. AJ Mitchell Chet Faker - Get High CMTEN - ALONE ft. RILEY THE MUSICIAN Creo - Aurora Dan Shay - Glad You Exist DBangz - The Source ft. Jay Zole DC the Don - Rag3 Kidd Diplo Sonny Fodera - Turn Back Time Bklava Remix Dream - Roadtrip ft. PmBata DUSTY LOCANE - Rumble Ellise - Bubblegum Brain FCG Heem - Need It Felix Cartal Kiiara - Happy Hour Flight - The Whole Team Hit Foley - Better Than Love Freddie Gibbs - Gang Sings ft. ScHoolboy Q G-Eazy - Provide ft. Mark Morrison Chris Brown GI-DLE - HWAA Dimitri Vegas Like Mike Remix Goody Grace - Grape Swisher Ice Cube - Trying to Maintain ILLENIUM, Dabin Lights - Hearts on Fire Bassjackers Remix Jazmine Sullivan - Lost One Live Jessie Ware - Remember Where You Are Edit JID - Bruuuh Remix Jim Jones Harry Fraud - Lose Lose johan lenox Cousin Stizz - phases Jonas Blue AWA - Something Stupid Jordan Suaste - If the World Ended Tonight Josef Salvat - One More Night JP THE WAVY - Lucky Star ft. Lancey Foux Kevin Garrett - Pure Imagination Keyshia Cole - I Don't Want to Be in Love KyleYouMadeThat - Hoopla ft. NLE Choppa Like Saturn - lost happiness Louis the Child BabyJake - Somewhere Else Luke Bryan - Country Does Martin Garrix - Pressure ft. Tove Lo Miley Cyrus - Prisoner Jax Jones Remix ft. Dua Lipa Molly Kate Kestner - Get Up ft. Brock Monroe MonoNeon - The Little Green Man ft. Daru Jones Morray - Kingdom Myuk - Mahou Nessly - Affairs Nessly - No Reason Night Lovell - Counting Down the List Oliver Tree - Out of Ordinary OMB Peezy - Dope Boy ft. Rylo Rodriguez Peso Peso - Brad Pitt ft. Trippie Redd Phora - Loaded Gun Polo G - GNF OKOKOK Puma Blue - Sweet Dreams Quelly Woo - Hot Winter Raveena - Tweety Rezz - Sacrificial ft. PVRIS Ricky Montgomery - Line Without a Hook Remix ft. mxmtoon Ritt Momney - Not Around Robin Thicke - Lucky Star Ruben - Mama Don't Know SG Lewis Nile Rodgers - One More Shordie Shordie Murda Beatz - LOVE ft. Trippie Redd SLANDER Au5 - Anywhere ft. PLYA shYbeast Smokepurpp Lil Mosey - We Outside Teddy Swims - My Bad Tee Grizzley - Late Night Calls Tokyo Machine Weird Genius - Last Summer ft. Lights Tom MacDonald - Cancelled Tone Stith - FWM VIC MENSA - SHELTER ft. Wyclef Jean Chance the Rapper Xan Griffin - Frustrated XIX - Henny Bottle Yelawolf Caskey - Been a Problem Yemi Alafifuni - Behold the Lamb Young Rog Summer Walker - Bullshit Yung Dred - Everything's Up ft. Hotboii Zella Day - Holocene ft. Weyes Blood 26 916frosty, ILYMAX Zcxr - beem Kodak Black - Every Balmain Savage Gap - goodbyes are the hardest part 27 NoCap - Dismiss You Wiz Khalifa - Dreams ft. 24hrs 28 Brent Faiyaz - CIRCLES Derivakat - Under the Weather Gabrielle - Stop Right Now Pink Sweat - Heaven Slim Thug - BlackQueen Slowpalace, FWLR qwinn - Already Gone The Vaccines - High Horse 29 645AR - MAMA PRAY Capo Lee, Shorty, JME, Frisco - Baitest Sound Dry Cleaning - Strong Feelings Ebhoni - X-Ting ISLAND - Octopus Katy Kirby - Portals Lauren Duski - I Would For You Pale Waves - Fall to Pieces plxntkid- crucifix slowthai Skepta - CANCELLED Valley - Like 1999 210 Brad Paisley - Off Road Cherry Glazerr - Big Bang Claud - Guard Down Danny L Harle DJ Mayhem - Interlocked Danny L Harle DJ Ocean - Ocean's Theme Dee Watkins - Make Em Mad GRAE - Soft Greta Van Fleet - Heat Above Gryffin Two Feet - I Want Love Ichiko Aoba - Asleep Among Endives demo Invader Kaide Steele 11 - SHGO Jacob Banks - Parade Kevo Muney - Leave Some Day Remix ft. Lil Durk KUKA - No Good for Me Liz Phair - Hey Lou Luh Kel - 726am Middle Kids - Cellophane Brain Of Mice Men - Timeless PROM - Friends Rebecca Black - Friday Remix ft. Dorian Electra, Big Freedia 3OH!3 Sainvil - Need 2 Teezo Touchdown - Technically Tigers Jaw - New Detroit TK from Ling tosite sigure - unravel n-buna from Remix Trippie Redd - BUZZ Unlike Pluto why mona - Circular Motion 211 Ashe - The Same COIN - Sagittarius Superstar ft. Faye Webster Danny Elfman - Love in the Time of Covid Dua Lipa - We're Good Eric Bellinger Hitmaka - Hit Eazy Erica Banks - Buss It Remix ft. Travis Scott flora cash - Feeling So Down G-Eazy - A Little More ft. Kiana Ledé Glitterer - Life is Not a Lesson Headie One - Siberia hololive IDOL PROJECT - Dreaming Days ft. Amane Kanata, Houshou Marine, Usada Pekora, Oozora Subaru, Yuzuki Choco, Nakiri Ayame, Murasaki Shion, Natsuiro Matsuri Shirakami Fubuki joan BEKA - brokenhearted together Kings of Leon - Echoing milk. - YouI Noga Erez - End of the Road Acoustic Live - Kids Against The Machine Rileyy Lanez - When I See You Lamont's Song Ruel - too many feelings Sauce Twinz - Splash ft. Trippie Redd Skrapz - Jumpout ft. Nines Stefflon Don, Tiwa Savage Rema - Can't Let You Go Remix Stephanie Poetri - IRL Tory Lanez - Mine Still Freestyle Tristam - Burn 212 3OH!3 - LOVE SOMEBODY 3OH!3 - TATTOOED HEART 916frosty - wow! ft. Ducey Gold Alaina Castillo - stfu i got u Aloe Blacc LeAnn Rimes - I Do Aly AJ - Pretty Places Anne-Marie, KSI, Digital Farm Animals - Don't Play Acoustic Aston Merrygold - Overboard AViVA Omiki - EVIL Remix Bianca - Gimme Biig Piig - Cuenta Lo Birdy - Loneliness Bishop Briggs - SOMEONE ELSE Remix ft. Jacob Banks blackwinterwells - HEARSE ft. funeral Carlie Hanson - I Hate Your Room Carly Rose - First Carrie Underwood - Softly and Tenderly Charlotte Cardin - Meaningless Clever - Rolls Royce Umbrella ft. Chris Brown CRAY - Roses R Red Dan Bull - Living Life in Limbo Deadmau5 - Arguru 2k19 DJ Pharris - Everything New ft. Wiz Khalifa, Chance the Rapper, Rockie Fresh Doe Boy - Lowkey ft. Lil Uzi Vert Drew Sycamore - 45 Fahrenheit Girl Eloise - Hungover FITZ - Somebody Sometimes Futuristic Michael Minelli - Waste Your Time G-Eazy - A Little More ft. Kiana Ledé Gallant - Relapse. gavn! - crazy Acoustic George Cosby - Real Love Gordi Alex Lahey - Dino's Grant RUNN - Fix It Guapdad 4000 !llmind - How Many Hauskey - Go Wrong Henry Daher Ski Mask the Slump God - Unseen Jay Sean - Incomplete Joey Trap - BRACE Jon Batiste - Cry KAROL G, Anuel AA J Balvin - LOCATION K. Forest - Summer We Never Had Kelly Rowland - Black Magic Kevin Gates - Plug Daughter 2 KIDZ BOP Kids - Levitating Killstation - SPIRALIA Klass Murda Benny the Butcher - Theme Song Landon Cube, lil rxspy SypSki - Down Out LPB Poody - Batman Like Saturn - vanished years Lil Gnar - Missiles ft. Trippie Redd Lil Mosey - Enough Lil Playah - you THINK I CARE! Lil Tjay 6LACK - Calling My Phone lilspirit - 4ever Lucki - Greed ft. Lil Yachty Luclover Tes X - Speedracer Luh Kel - I Wish Mariah Carey - We Belong Together Mimis Late Night Valentines Mix Mario - Luxury Love Maude Latour - Walk Backwards Maye - Yours Men I Trust - Tides Mýa - Forever My Love Ninajirachi Kota Banks - Secretive! nothing,nowhere. - upside down P!nk Willow Sage Hart - Cover Me in Sunshine Paycheck - WHERE'S THE LOVE? PJ Harding Noah Cyrus - Dear August PROFF - Dark Magic ProfJam - Alguém Como Tu ft. Agir Quinn XCII - my wife 2 dogs RiFF RAFF x DJ Paul x Merkules - CUP CUP CUP Riley Pearce - Golden Retriever Roosevelt - Lovers ROSIE - Retail Therapy Rowdy Rebel - Jesse Owens ft. NAV Ryan Hurd - Chasing After You ft. Maren Morris Sabina Ddumba - Damn Good Woman SACHI - Take Me Back Sara Kays - Future Kids Savannah Cristina - Body Work Scarypoolparty - Home Sea Girls - Nothing Breaks Like a Heart Sevyn Streeter, Chris Brown AAP Ferg - Guilty Sharon Van Etten - On Your Way Now Shy Glizzy - White Lie ft. RMR Sir Sly - Loverboy Sir Sly - thx. Skizzy Mars - Pro Bad Decision Maker Sophie and the Giants - Right Now Stalking Gia - Worship Stunna Girl - Still Smoke Surf Mesa Madison Beer - Carried Away Syd - Missing Out Taylor Swift - Love Story Taylor's Version The Fratellis - Need a Little Love Theia - CREEP ft. Vayne Tokyo Jetz - WYTD ft. Toosii Trey Songz - Brain UPSAHL - STOP! valentina cy - Love Me Now Victoria Justice - Stay Warhol.SS - Checks We Are The Empty - The Ocean Weathers - Losing Blood Wolfgang Gartner - Cosa Nostra X Ambassadors Jensen McRae - skip.that.party YNW Bortlen - Lovey Dovey ft. Toosii Young M.A - Off the Yak Young Thug - That Go! ft. T-Shyne Meek Mill Yungeen Ace - All in All Zachary Knowles - johnny june 213 Aaron Cartier - You Too Care - Sun Hello to the Islands for Me Sol Jay - RULEZ Terror Jr - Too Soon ft. Shawn Wasabi 214 904TEZZO - Here to Stay Airospace - Cosmic Void Anirudh Ravichander - Rendu Kaadhal Bobby V - Reply Chuu - Hello Digga D - Toxic IRENE - A White Night Joey Purp KAMI - FOR YOU Kevinhilfiger - haunt u MAJ - Queen Peniel - Valentine PewDiePie - Coco SuperMega - Brand New Shirt 215 CHEEZE - Daydream Dessa - Bombs Away Helix tears - idku ft. Blxty, Yurms, Chava, blackwinterwells, Capoxxo, 8485 SEBii Kalan.FrFr. - No Love ft. Cypress Moreno Mozzy KUURO Goja - Close to Hell Moses Boyd Katy B - 2 Far Gone Remix SOYOU - ZEROATTITUDE ft. IZONE pH-1 Wallows - Quarterback ZIA - I become love to you 216 Alfie Templeman - Everybody's Gonna Love Somebody Dad Sports - nrvs again Dawn Richard - Bussifame Eunkwang - , Whyd You Leave Me ExRe 12 Ensemble - Where the Time Went Remix ft. Josephine Stephenson Hayley Mary - Would You Throw a Diamond Kang Daniel - PARANOIA Lil Lotus - Girl Next Door Lil Peppa Buzzboi - Cheez Crackerz Remix Lil Peppa Buzzboi - Just One Sock Remix Lil Peppa Lil Grillz FF Lost Girl - Menneskekollektivet ft. Håvard Volden Jenny Hval Lost Horizons - Heart of a Hummingbird ft. KookieLou Nick Hakim - QADIR BADBADNOTGOOD Remix Porridge Radio piglet - Let's Not Fight! Porridge Radio piglet - Strong Enough Rusty Cage - Hollow Men SEBii - breakOUT Toth - Turnaround Cocaine Song Wild Pink - Pacific City Your Old Droog Tha God Fahim - Slam Dunk Contest ft. Pharoahe Monch YOZOH - Weak People 217 AJR - Way Less Sad Arm's Length - No Sleep Christine and the Queens - Would I Lie to You? ft. Manu Payet COBRAH - DIP 'N' DRIP Crowded House - To The Island D Imman - Yaazha Yaazha Genesis Owusu - Gold Chains Gojira - Born for One Thing Iceage - Vendetta José González - El Invento LightSkinKeisha - FDH Mahalia - Jealous ft. Rico Nasty Mariah Carey - We Belong Together Mimi's Late Night Valentine's Mix Maty Noyes - Alexander Problem Wiz Khalifa - 4 the Low serpentwithfeet - Same Size Shoe Shura - obsession ft. Rosie Lowe Stereolab - The Super It The Antlers - Just One Second THE BLOSSOM - HARDCORE HAPPY TRI.BE - DOOM DOOM TA TRI.BE - Loca Unlike Pluto - Zoned Out in My Youth Vindata - Good 4 Me Vindata - Union Vintage Morelli x Arielle Maren - Dreamers 218 Isak Danielson - If You Ever Forget That You Love Me KAYTRANADA - Caution King Gizzard the Lizard Wizard - Pleura Koven - Numb Koven - Worlds Collide Grafix Remix Rack - Davay Major Lazer Ludmilla - Pra Te Machucar Manchester Orchestra - Bed Head MAY-A - Time I Love To Waste NF - CLOUDS Paloma Mami - Religiosa Tom Odell - numb Ulrikke - Falling Apart Velafire - Under Me 219 24kGoldn - 3, 2, 1 637godwin - High Life 6ix9ine - ZAZA Adelén - Jaded Alan Walker salem ilese - Fake a Smile Alice Phoebe Lou - Dirty Mouth Amy Shark - Love Songs Ain't for Us ft. Keith Urban Anx 916frosty - All American Rejects Aston Merrygold - Share a Coke Babygirl - You Were in My Dream Last Night Bella Thorne - Shake It Benny the Butcher Elcamino - Immunity BFB da Packman - Honey Pack Remix ft. Lil Yachty DDG Big tunt - Money Gang ft. Pooh Shiesty BIGBABYGUCCI - Seeing Ghosts Blac Chyna - Doom ft. Asian Doll Black Honey - Disinfect BMW KENNY - HAHA Brent Ewing Zoey Dollaz - The Fall Budjerah - Higher Camden Cox - Under the Water Cash Cash - Too Late ft. Wiz Khalifa Lukas Graham Catie Turner - Hide and Seek Charlotte Jane - Down Days Chris Brown Young Thug - Go Crazy Remix ft. Latto, Lil Durk Future CLEWS - Want You That Way Clinton Kane - CHICKEN TENDIES Cochise - Usopp Coi Leray - No More Parties Remix ft. Lil Durk Conan Gray - Overdrive DaBaby - Beatbox Freestyle Dami Im - Lonely Cactus Danny Quest Cheat Codes - That Feeling ft. Hayley May David Shawty - bad bye Day Sulan YG - Bailar Denzel Curry, Kenny Beats Smino - So.Incredible.pkg Robert Glasper Version ft. Robert Glasper Desto Dubb - BNB ft. Lil Pump Dimitri Vegas Like Mike, DVBBS Roy Woods - Too Much Drippin' So Pretty - 18 ELHAE - Separated ELIO - CHARGER Remix ft. Charli XCX Ella Henderson Tom Grennan - Let's Go Home Together Emily Weisband - New Salt Friedberg - Midi 8 Funkmaster Flex Jadakiss - Damn Shame Gianni Kosta Dragonette - Phantom GLADES - Dancing in the Mirror Grace Davies - i met a boy online hololive IDOL PROJECT - ClearSky AsuiroClearSky ft. Tokoyami Towa, Shiranui Flare, Sakura Miko, Ookami Mio, Minato Aqua, Natsuiro Matsuri, Aki Rosenthal, Yozora Mel Roboco Jake Miller - ADDERALL Janine - Loving Me Julia Gargano - You Don't Get To Justine Skye - Intruded Kembe X - Under Pressure The Smoking Peanut Kenny Mason - Partments KIDDO - My 100 L.L.A.M.A, Ne-Yo Carmen DeLeon - Shake Like Saturn - free roaming Lil Yachty - Hit Bout It ft. Kodak Black LocateEmilio 27CLUB - runny nose Lord Huron - Not Dead Yet Lxst - Famous Matt Ox - Shivers Marshmello Arash - Lavandia Matt Berninger - Let It Be MELVV - READY OR NOT ft. umru Terror Jr Memo600 Only The Family - Pistol Tottin Mike Shinoda - Happy Endings ft. UPSAHL iann dior Mimoza - Young Queen MUST DIE! - SORROW TECH Olivia Holt - Do You Miss Me OMB Peezy - Love is Blind Paris Texas - HEAVY METAL Paul Woolford Amber Mark - HEAT Polish Club - Stop For a Minute Powfu, Rxseboy Sarcastic Sounds - the way that you see me ft. Ayleen Valentine PRETTYMUCH - Lonely Purple Disco Machine - Fireworks ft. Moss Kena The Knocks Rah Swish - A Year Ago Rebecca Ferguson - No Words Needed ft. Nile Rodgers Russ - MISUNDERSTOOD Sandro Cavazza Georgia Ku - Love To Lose Semetary - NECROMANSER Sipho the Gift - Do More Sophia Messa - Not That Kind of Love Still Woozy - Rocky Space Tyger - Satellites Surf - Parlay Tainy Miguel - Sunbathe The Strumbellas - Greatest Enemy Tory Lanez Chris Brown - F.E.E.L.S. Transviolet - Drugs in California Virgil Abloh - Delicate Limbs Omar S Remix Walker Hayes - I Hope You Miss Me Xan Griffin - S.I.M.P.I.N.G. Young Dolph Key Glock - Case Closed Buppy. - Open My Letter 220 kurtains - axel ocelot 222 Shinsei Kamattechan - Boku no Sensou Becky G Burna Boy - Rotate Billie Eilish - ilomilo Live Cold Hart - Every Day's a Day Dayglow - Something Duke Deuce - SPIN ft. Foogiano Eptic - Shadow People Green Day - Here Comes the Shock Joey Trap - YUCA Nekomata Okayu - YUMMY! Mogu Mogu YUMMY! Zara Larsson - Look What You've Done 221 Architects - Meteor Luba Juice - ''Who'' ft. King Andi3 223 Adult Mom - Checking Up cupcakKe - Back In Blood Remix Dropkick Murphys - Middle Finger Fred again.. The Blessed Madonna - Marea We've Lost Dancing Glass Beach - yoshis island world 7x7 mix Greentea Peng - Nah It Ain't the Same Gutta100 - Beatbox Remix Jade Bird - Open up the heavens Jetty Bones - Nothing JID - Skegee Lael Hansen - rip2me Pussy Riot - TOXIC ft. Dorian Electra Shamir - Ocean Eyes SUNMI - Tail SUNMI - What the Flower SURAN - Sunny 224 2KBABY - No More Parties Remix Alex Porat - girlfriend Aodhan - I'm Closed Baby Queen - These Drugs Bright Eyes - Flirted With You All My Life Caleborate Kota the Friend - Contact Cautious Clay - Roots CHAI - Maybe Chocolate Chips ft. Ric Wilson Elena Tsagrinou - El Diablo ELHAE - Fun Fact Ballad Half Waif - Party's Over James Vickery - Come to Me ft. Musiq Soulchild Jao - Coringa Julien Baker - Heatwave Kero Kero Bonito - The Princess and the Clock Liyah Knight Nerve - Cheers Muki - I Make Boys Cry renforshort - virtual reality Sinéad Harnett - Last Love Starrah - Miss This THE BOYZ - Breaking Dawn The Offspring - Let the Bad Times Roll The Vaccines - Fire THEY. - Count Me In Remix ft. Kiana Ledé Tom Aspaul - Tender 2 ft. Funk LeBlanc Vaundy - sink Will Mannay - No Feelings Wolf Alice - The Last Man on Earth 225 Bleu Clair - The Tempo Cosha Coby Sey - Tighter Mansionair - MORE Nick Jonas - Spaceman NSG - Drunk Guitar Remix ft. Potter Payper Owlle - Sounds Familiar Peach PRC - Josh Post Malone - Only Wanna Be with You Steps Michelle Visage - Heartbreak in This City Remix Tiana Blake - Interruption Yeek - Valencia 226 22Gz - Blixky Gang Freestyle, Pt. 2 27CLUB - Crushin' 2KBABY Marshmello - Like This 6 Dogs - Starfire Teen Titans A.CHAL - Nobody Like Me Alesso Armin Van Buuren - Leave a Little Love Alexandra Stan - Aleasa Aleyna Tilki - Retrograde Alice Longyu Gao - She Abunai ft. Mura Masa bülow Aloe Blacc - Other Side Alyssa Joseph - sadboy anders - Late to the Party Ant Saunders - Spoiled Aries - DITTO Ben Howard - Far Out Ben Howard - Follies Fixture Billy Davis - Dream No More ft. Ruel Genesis Owusu Bizness Boi Symphani Soto - Im Witchu braveweather - blackwhite BRELAND - Cross Country Brett Young - You Got Away with It Carrie Underwood - Great is Thy Faithfulness ft. CeCe Winans Cavetown - Paul CHEETAH - Villain ft. JAMIE Cinders - Growing Up Claire Rosinkranz - Parking Lot Claire Rosinkranz - Real Life Claudia Leitte - Agradece Curtis Waters - Conceited Dava - New Ceilings DDG OG Parker - Money Long ft. 42 Dugg Denzel Curry Kenny Beats - Cosmic .m4a The Alchemist Version ft. Joey Bada dePresno - Church Divided Minds - Wake Up DJ Topgun - Sleep ft. David Shawty BBY GOYARD Doll Skin - Control Freak DOOLIE - Woke Up Feeling Dramatic Ella Vos Mokita - still dreaming, backwards Elle King Miranda Lambert - Drunk And I Don't Wanna Go Home Elliphant - Drunk Angry Enisa - Count My Blessings EVAN GIIA - Stay Up FCG Heem - More Pain ft. Toosii Florrie - Hours Frances - Ocean in Gold Frances - Rare Futuristic Michael Minelli - Know Me GARZI - PARANOIA Greta Isaac - Like Me H.E.R. Justin Credible - Damage Justin Credible Remix Hanne Leland - Even If It Breaks My Heart Hotboii - Fuck Shit IDK - Just Like Martin India Shawn - Too Sweet ft. Unknown Mortal Orchestra Jaguar Jonze - CURLED IN Jazmine Flowers - Awkward Joel Corry, RAYE David Guetta - BED John-Robert - Damn Bean Josie Man - Cuts Bruises Joyce Wrice - On One ft. Freddie Gibbs Kamrin Houser - G-Code ft. Lil Skies Key Glock - I'm the Type Kitten - American Football Kristen Hanby - Good Girl ft. YBN Nahmir KYLE - But Cha ft. Josh Golden Lauren Daigle - Hold On To Me Leon Bridges Keite Young - Like a Ship Like Saturn - missing summer Lil Kapow - No Headlights Lunay - Sin Ropa Maisie Peters - John Hughes Movie Magnolia Park - Back on My Bullshit ft. Jake Hill Martin Jensen Georgia Ku - 2019 Mat Kearney - Pontiac MDMA Molly - Hills Millie Turner - Concrete Tragedy MOL - TEN FOLD ft. MC Virgins Lil Force Morcheeba - Oh Oh Yeah Nessly - Link and Build ft. MadeinTYO Noname - Rainforest Nuski2Squad - Gone Too Soon ft. Toosii Peder Elias - Best Friend Pop Smoke - AP Quelly Woo - PAIN INTO PASSION R3HAB, Fafaq DNF - Ringtone Rah Swish - Warm Ups ft. Leeky G Bando Royal the Serpent - i can't get high Sarah Close - Forgive or Forget Sasha Keable - Exception Shelley FKA DRAM - Exposure SIX60 - All She Wrote Slayyyter - Clouds Sol Jay - fatal SpotEmGottem - Beat Box 3 ft. DaBaby SSGKobe - Tired of Me Steele 11 - like dat! Steve Aoki George Benson - Give Me the Night Suigeneris - Hennyclaws Surf - Beyoncé Surf - To The Moon SVEA Call Me Loop - I'll Get Better Sycco - My Ways Tank - Can't Let It Show Tee Grizzley - Robbery Part Two Tilian - Anthem The Band CAMINO - 1 Last Cigarette The Kid LAROI - STILL CHOSE YOU ft. Mustard Thomston - JPA989 Tom Speight - Strange Days Torine - Bored TRAQULA - Cheat Codes for Hoes Remix ft. Shotgun Willy Two Feet - Never Enough Tyla Yaweh - All the Smoke Elias Remix ft. Gunna, Wiz Khalifa Elias Vacation Forever - Pop Up In My Head William Singe - Talk to Me Nice XIX - Toxic ft. BENKRO YG - Go Big ft. Big Sean YSN Flow - Bottom Boy Yung Bae - Disco Body Parts ft. AWOLNATION Yung Bleu - Thieves in Atlanta ft. Coi Leray Zak Abel - Be Kind 227 Dotter - Little Tot Eric Saade - Every Minute The Stupendium - The Apex ft. NemRaps 228 J Balvin - Ma' G9</t>
+          <t>Money and power Rolling and blowing the sour I could see you as a coward You get devoured This is a lyrical shower Watch me release all this power Just counting the hour to come Where the real will be praised And the child will be able to raise No fail, this story of polices inflicting they rage Trying to put us in a grave Back up nigga make space Let the tec burn Couldn't even save face ULT coming fucking up the place TRNE, we the new generation Patience the key but a nigga won't shake So it come down to it then I'm coming at your neck Keep a grip on respect Everybody show love All I know is trill niggas, you don't really want war Back up now it's time to wreck This TEC get right in his chest Town hall got me all upset 'Cause they turned in and then go double check These niggas don't pose a threat Put them in that cobra stretch I be got them close to death From fucking with the ultimate I guess this how we 'posed to get I'm about to expose some shit These boys don't be real so now I watch who I be smoking with It's best you watch your mouth and pay attention to how close you get Is they really feeling me? If they is, it's silly me Jesus walks within the sea But most people be scared to bleed Like curse release some sacred need Pain and grief remain in reach Doubt you'll be restraining me Give you what you came to see No matter who you be's My G, there'll never be a change in me Lately I've been trafficking the H Trap spiked up like Sonic Got a couple chickens in the safe Got 'em waiting for whoever say they want it Spend the bread and pull up in the Wraith Kill a hooker, pussy leave her stomach haunted Get yo' ass the fuck up out my face Your sloppy coochie wasn't worth the couple hundred I've been fucking bitches each and every day I might as well, 'cause I ain't stuck in jail gunnin' And I'm indifferent to these bitches throwing shade And in their face, I'm there to keep on throwing money Dirty thumper on my mother fuckin' waist I got the tip for when the bitch get bloody I got 'em messing up, I'm all up in her brain Plus every other bitch in there they wanna suck me Now they plotting on me, bopping on me, opping on me, I'm the one that got you homie Not the phony, out to Coney Island styling, wiling, kicking doors, and robbing Not a problem, bought the carbon, beg your pardon, there's a party, fled authority Foreign forgies, whores and orgies, all them gorgeous, Bentleys, Porsches Shell toes and Timberlands to the cement Ten toes on the gravel, grinding for a reason Pulling out the region I'm an archangel not a demon See the narcs tweaking, heavy fiending Ten hoes want a bottle, fuck 'em on a balcony, I'm rolling green in Pop that pussy, leave it leaking Now I pop a nigga, is he breathing? You a phono Chapo, faking what you preaching? You should get an Oscar acting like a bitch Ye'en hanging with the clique And it bust, we ultimate Got a temper tantrum with the fits You is not a shooter if you miss These niggas leeching, fleas and ticks Bitch, I'm not a blood donor Run the heat and lick that marijuana Follow me to live another summer I need to get it all Stevie Wonder if you blind Plugging that new state of mind Niggas bugging in the flies In the city, take you for survival Break, dive in the flow Intervessel when I drive in a soul Imma have a ball with the glow Kids next door, jits, stick it to the cold, wet I keep that fuck shit to a minimum Government ain't shit, never giving up Six feet deep in a beat When I'm digging up Now you sleep, on the head, of the indica, smoke Invasive with the parasite bite, light Cause you wanna know what's in sight, foe Dark as the evil, the evil I do not change but I evolve Bitch, Imma drop a napalm, bomb Said that I'll ring the alarm, gun Water elemental law, cost Found it and let it get lost Bitch, common sense, comments could miss Treason and treachery, left in a trench, trench Aborting into an abyss Perpetrators rest and piss in a ditch Pit, falling forever whenever you fuck with the emperor's ship They might sweet talk your face to a chocolate chip Closed casket, I'm out this bitch Ultra11</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Uh Huh</t>
+          <t>IndigoB</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Haipangwingwi Taniua, Ssaru, uh-huh Black Matket Records Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Unataka mtu simple humble, rich young Ndo upeane number Unataka mtu mdark, mlight mtall Babe tafuta wababaz Unaplan future yetu kumbe uko alone Maisha ni safari mi na ride along Labda mi niomoke nikuitage form Ama labda we uomoke nikujage home Mi nayo pombe siwezi onja Aai nakunywa yote Na akiamua kukupatia Aii chukua yote Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, kijana ni gwiji Utapangaje morio ana kashilingi kwa wingi Mafeelings za nini mi ni jangili kamili Nasuka mamdenge za matajiri wa mjini, samahani Chai fupi nmejaza maziwa na majan Sikusuki mi ni Trio Mio watagwan Ka hunijui unajifanya bombo haja gan Abiria nawapanga ka makanga wa Kasaran Ama vijiti za viberiti ndani ya boxdem Wanga stishiki naget mabinti nawachokdem Washa ngwariti tuskie fiti adi shokdem Cheza na mangoksdem Maisha ni yangu, we shughulika na yako Napnda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Aah mi sitambui mbui, mi mchana buibui Nikiwa mababi mahali leta maruirui Na niko na mashoga kibao nataka madui dui Sitaki kifisi niko bongo nasaka chui chui Ukitaka mizuka, mimi ndo hooker Tna nagwara nikidara nina vikucha Hiki kichupa shika na kupa Na wanapenda ukipapia baba pupa Naishi nitakavyo ondoa vikwazo Ukiona najidai jua kujikopa ndo chanzo Nikishika ngiri natesa na majigambo Ju naona siku hizi ganji mnasafisha kwa mitambo Maisha ni yangu, we shughulika na yako Napenda za kwangu, we shughulika na kwako Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi Mi sipangwingwi, sipangwingwi</t>
+          <t>Ronny J, listen up It's WarBucks, bitches Call my homie up, pick him up in the pickup truck Four in the mornin', on top of that it started stormin' And we had a ho in the trunk, she drunk as fuck Don't even know if she breathin' But, really, I don't give a fuck 'cause I already fucked Passed her to my homie, took advantage of her body 'Cause she nothing but a slut Yuh Started trappin' so we drove a little faster No concern about the po-po, four more blocks Then we dare run the red lights, in a dead night Not a car in sight, think I might do the whole dash Red and blue light but I skid on his ass Yuh Hands in the purse and I took all her cash She won't even know 'cause she so fuckin' bad Then I made a right turn on the street As we creep, take a peep through the window And I see that this car was followin' me But I guess it's in my mind, felt a chill down my spine As the time rewinds We stop on the block, unlock the door, everybody hop out Told the ho, Get out 'til I see that mothafucka Dressed in all-black ski mask, choppa hangin' out The mothafuckin' window all-black vento The fear read his eyes that told me he was simple He pointed to shoot the choppa But lethally, I tried to stop him from gettin' hit by the bullets My body shot up like a blocka Three shots pressed through my back, my first shot was a choppa So I did but that nigga with a choppa, yeah, he slipped Now this coward is up in my face African-American, unfortunately, it had to be the race Looked him in his eyes and told him to pull the trigger That nigga didn't say shit, goddamn that fool figured Go 'head and shoot me, nigga, my nigga, I ain't shit And you havin' second thoughts, my nigga, you ain't shit If you gon' take my life, then go 'head and pull the trigger But you not a cold killer, you a lost-ass nigga Ski mask resembles the fables of Edgar Allan But a nigga still poor, my piece is still But the still of the peace means WarBucks for the love of dinero Robber, when you face the heat, civilized travel is proper Getaway clean but half you sleepin' with Oscar That's a Shark Tale, what do I smell? Blood, but not Piru Radio plays the deadliest haikus When I rest and I stumble to the cars dead piss point Said a needle and a knife and a tech One to your eye and one to your chest Might as well blow your heart to your neck, so Can you see, world? I'ma leave a nigga wet Can you see, world? I'ma leave a nigga wet Now my name is Leroy, Steves about to get my decoy That's IndigoB in the back of the pickup Sticks on deck so why not pick the chick up? Talkin' 'bout the niggas hittin' licks, don't get up Don't give a fuck so, nigga, it's a stickup Yeah, nigga, it's a stick-up Yeah, nigga, it's a stick-up Ayo, give me yo' money, give me yo' chain Nigga, give me yo' shoes and yo' socks, my nigga Three hundred and thirty-three times two, nigga If you don't give me yo' shit, that's the mothafuckin' Glock Cold bullets all day, nigga Ayo, Steve, go get Indigo so we can get the fuck outta here Let's get the fuck outta here</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A.S.S.</t>
+          <t>BULLETPROOF</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Yeah, ayy, LoRd Lu C N There's time's way back, man When we used to smoke kush and just chill, man In the Cadillac Seville, man Just thinkin' about the cosmos, man You know astrology is where the knowledge be, you know? Ayy, my 8-track stay slap Way before I had a Cadillac with hub caps Way before a nigga ever rocked a wave cap Way before a nigga ever had to stay strapped 'Cause these niggas still tripping, Cadillac's dipping Still pistol gripping, foes still tip in Got hoes in the hotel just like the Tipton Making money off of square niggas that's attempting To get in the box but they watching out for cops Yo I hear the sirens, shh, stop! Whoa, still, my 8-track still slaps Runnin' through the city like a goddamn Mac Kaleidoscope colors in a brand new 'Lac My goons in the back do not wear all black They wear white suits, it's time for me to shoot It's time that I get my bullets in time to recoup Regroup, I go back to the club with my troops With a bad bitch that's on my side lookin' like Hoopz Who, I'm in the club, who, rollin' a dub, who? Who got the flavor lookin' like flavor of love, who? Who got the model? Who, who got the bottle? Who? Who got the truth that's looking and willing to follow, who? It's Zeltron the hell spawn, you know this, uh It seems that I'm flying like lotus, uh I'm fly like a bird catching locusts, uh My 8-track stays on Black Moses, yeah Way before wavy Yeah, you know the Isaac Hayes shit Way before wavy leggo My 8-track still slaps Way before a nigga ever had to write raps Way before a nigga ever had to peel caps Way before a nigga ever let the guns... Way before, way before, way before wavy Way before '84, '94 baby Way before many more you were born maybe Way before, way before O.J was crazy Driving Miss Daisy but I'm driving the Cadillac Two girls in the lac, hair braided to the back Sipping on some Similac, telling me to just relax One is kissing on my neck, the others on my nutsack She hide the dick, so where my nuts at? So deep inside, like where her guts at? Like Obi-Wan I had to cut that I bust my nut and then I cut back Drop them off, now it's back to the mission Let me show you how we do it, High Definition Let the money talk, what the quarter said Chilling in my water bed Thinking 'bout the money, how to make the bread For instance, a lucrative business These niggas took the spot now I'm back with a vengeance Then I pay off the cops, putting stacks in they pension Look at the newspaper it's not even worth mentioning The tabloid, I'm back boy The 8-track slaps in my lac boy Way before wavy Calm yourself That'll make you move Way before wavy Way before wavy Calm yourself Way before wavy Way before wavy12</t>
+          <t>He's like a drug addict He can barely function without pills or being drunk off his ass I don't really like Jordy that much He acts like some nice guy but when you really get to know him He's kinda a piece of shi- Bulletproof the black truck moving hella militant Some white people hate me cause I can't stop all my nigga shit Wake up count my money smoke a cig and then go beat my dick I overdosed on pain and this is simply how I deal with it Taking off her bra I arched my back and then I nut inside She saw Imma dog Well let's go take me to get euthanized My dad hit it raw I didn't wanna live this fucking life Upside down my cross now all my demons getting utilized She say that she love me but I know that she don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I won't answer my phone Tell her that I love her but she know that I don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I feel better at home Tippy toes, wok with a stick I like my water on water, yeah Suicide, suicidal, fuck around like a revolver I done lost my mind Forgive and forget, I forgot it If you need the best drugs Don't gotta go get it, I got it Bulletproof, black truck Guillotine, surgery Chop the top Money talk, pockets pop Where the ops, spin the block Knock knock, no we not Kick a door, click a Glock In yo house, fuck yo couch Where the drugs, fuck the cops She say that she love me but I know that she don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I won't answer my phone Tell her that I love her but she know that I don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I feel better at home Cut the chain drop the ball Watch that bitch sink Blowing up my phone So I keep that shit on DND I ain't got the time to explain my rowdy tendencies Overdosed on pain, fast lane, living recklessly I wake up, smoke, drink, fuck, and get money Ass, gas, or grass if you're coming honey Hat, shades, and the boots Make ya bitch fly the coop Blame it all on my roots Baby, I'm bulletproof!</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SET IT</t>
+          <t>HIT THE FLOOR</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>STRING THE BOW OF SORROW A vessel filled with flowers burning in the bay The giver of life claimed by death so fast String the bow of sorrow for a salute Arrows of eternity, of all the ones I loved So many departures, so many women gone I swim the sea of tears, covered with salt Now I know what it feels like to lose protection Your body is gone, it left me in a hearse It may sound cynical, but this life is mine Life is for the living, that is undeniable When your image is gon, my face will be blue Through tim and space, womanity be one You're no more in the phonebook The statements have been written Goodbye, Norwegian mother The quiver of time is empty SOLEFALD, 15.9.1995 La martyren salve sine sår Solefald Er jeg ditt fiolette fragment? La naturen klage sine år Solefald Hvem av oss har linsen som blinder? Jeg ante ditt nærvær i min drøm Solefald Så jeg bakom honningens ansikt? Mystikkens fjes forsvinner med deg Solefald Synker ned i den siste dvale Snu for meg din fatale bane Solefald Stig fra en heroisk horisont --------- You liked ACDCs Hell's Bells , but Slayer was no stayer I know how much you hated that Slaytanic Wehrmacht patch In the end, you did set it onto my black denim jacket I picture your afterlife in Freya's wooden halls Robed in light colours as an Art Nouveau lady You go for walks in the forest of oaks Where bumblebees hum and blackbirds sing Maybe you paint watercolour like you used to Enjoy cake and champagne and immortal youth I will leave you here, where you sat with your parents On the simple wooden staircase Where bumblebees hum and blackbirds sing As the evening breeze sways the firs in the sunset - Solefald</t>
+          <t>I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four Everything for the low, bet they thinking I don't make much A few days the work gone, y'all boys take months I save up, I don't take fronts, no rotation we face blunts Posted up, got killers with me and I dare a nigga to say something They like Bibby you intelligent, coulda' been a president I'd rather be a dope boy, I really love selling shit My last batch was fucked up, I think I need some better shit Ain't nothing but cocaine and choppers at my residence Swear my manners on one track, you ain't talking money it's irrelevant And I only fuck with about two niggas cuz you niggas be telling shit If the block hot I don't come around, snitch niggas get dumped down Let the forty cal go baw! baw! about thirty more of them gun sounds I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four Couple bands in my jeans, balling hard with my team Rack full of them one's, I be serving all of them fiends Pull up murder scene, with the girl of your dreams 40 Glock with that beam, robin jeans with them wings Say don't fuck around with them no limits, you fuck around and get smoked And if you fuck around and get two fresh then you fuck around and get poked It ain't no joke, niggas gon blow, straight AK everybody hit the floor All black mask ain't nobody gon know, bibby got crack nigga do you wanna smoke Yeah, my plug is a redneck, get them pounds in shout out fed-ex Get in the way of that count nigga, got a TEC-9 I'm spraying that I ain't slow, quit saying that, I just don't know where my head at And if you talking shit on yo block that's the same place you'll be laying at I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four26</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>KILLERS AND ROBBERS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Change, that's it! I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed Love our world, never risk the theory Go out often, everyone can feel me Sherry Temple, my homie is white, who you hating who? I'm color blind, quit the violence Say goodbye to your fellow friends, teacher, and staffs It's a graduation, look at the crown, feeling blessed Throw your caps in the air, we made it y'all, we mad it yall Throw your caps in the air I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed, I'm so blessed You know I want it yeah, I know you want it yeah I ain't playing no games, rapper gone away Everyone awaits, I'd been gone away Don't lose me, rumors are uh-uh Rumors are a pain, too young for a death wish On tour, gone ahead respect whoa No label yeah, I guess I'm good yeah I'm so blessed Whoa whoa whoa whoa I'm so blessed I'm so blessed, I'm so blessed Whoa whoa whoa whoa I'm so blessed, I'm so blessed</t>
+          <t>Blatt, blatt, blatt Yeah, yeah, yeah Yeah, yeah Ugh I'ma blitz, I'ma blitz, I'ma blitz Blah I said, I'ma run it, I'ma touchdown on yo' bitch Ah I know they say they hate me, but they all up on my dick Ow Reload with the stick and tell my brother, he won't miss Yeah Make it, flipped it, double it Crushin' it Stack the chips, I'm crushin' it Crushin' it I'm gettin' lit for the fun of it Fun of it I'm in the mix, yeah, I'm up in it Up in it Listen to this, but I'm not mumblin' Yuh Flips gon' flip-flip, feel like I'm jugglin' Yuh I can't slip, no, I'm not fumblin' Yuh She on my hit list, then I'm dubbin' it Yeah I'm with the misfits and we comin' in W-what he say? Catch a body, tell me, what's the motherfuckin' play? M-money, brains, and power, you aren't surprised? I'm feelin' crazy I just want the dough, I don't want the praise Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy If I ever, if I ever want a bitch, I gotta get it I been runnin' up them bands, don't pocket watch, just mind ya business Ayy, ayy She throw a temper tantrum when she raging on my penis She got a big-ass head like Jimmy Neutron, but she really not a genius Bitch, bitch, bitch, agh A-a-ain't nobody really fuckin' with me Fuckin' with me Rip his fucking kidney with this fuckin' semi Fuckin' semi, ugh I heard him screaming, I'm like, What the fuck up, Denny's? What's up? Ugh I lick the blood up from her pussy to her titties Bitch, ugh All black is on me and I look satanic Oh-wah He came with the drum, I came with a cannon Yuh, brrah In love with the smoke, shit, I think I'm a addict Unload the burner, man, leave him in ashes Uh, yeah, bitch I'm with my niggas, you cannot adjust Ayy The dick to his head and I think I'ma bust Ayy, yuh, haha Brr Buh, buh, buh, buh Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy I'm with Jasiah in the cut, we here to fuck these niggas up Up I need somebody in my life, I think that I done fell in love Love That bitch, she asked me if I like her, had to give that bitch a shrug Shrug The feds and opps, I know they watchin', they gon' try and plan a Stop, nigga, told you, Stop the cap Hol' up, how I make this money off of makin' some damn rap? I'ma make this nigga flap like he was fuckin' Jack I hop on the aux and I ain't talkin' 'bout no Matt I'll take off the hat, so I can stop all of the cap I feel like I'm Faygo, we gon' take him off the map I got water on my motherfuckin' body, hol' up We spin a boy like he a forty, hol' up That nigga bitchin' like Morty, hol' up I don't want that bitch or shawty, nah, nah, girl Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ULTRA</t>
+          <t>Past the Wudz Intro</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Money and power Rolling and blowing the sour I could see you as a coward You get devoured This is a lyrical shower Watch me release all this power Just counting the hour to come Where the real will be praised And the child will be able to raise No fail, this story of polices inflicting they rage Trying to put us in a grave Back up nigga make space Let the tec burn Couldn't even save face ULT coming fucking up the place TRNE, we the new generation Patience the key but a nigga won't shake So it come down to it then I'm coming at your neck Keep a grip on respect Everybody show love All I know is trill niggas, you don't really want war Back up now it's time to wreck This TEC get right in his chest Town hall got me all upset 'Cause they turned in and then go double check These niggas don't pose a threat Put them in that cobra stretch I be got them close to death From fucking with the ultimate I guess this how we 'posed to get I'm about to expose some shit These boys don't be real so now I watch who I be smoking with It's best you watch your mouth and pay attention to how close you get Is they really feeling me? If they is, it's silly me Jesus walks within the sea But most people be scared to bleed Like curse release some sacred need Pain and grief remain in reach Doubt you'll be restraining me Give you what you came to see No matter who you be's My G, there'll never be a change in me Lately I've been trafficking the H Trap spiked up like Sonic Got a couple chickens in the safe Got 'em waiting for whoever say they want it Spend the bread and pull up in the Wraith Kill a hooker, pussy leave her stomach haunted Get yo' ass the fuck up out my face Your sloppy coochie wasn't worth the couple hundred I've been fucking bitches each and every day I might as well, 'cause I ain't stuck in jail gunnin' And I'm indifferent to these bitches throwing shade And in their face, I'm there to keep on throwing money Dirty thumper on my mother fuckin' waist I got the tip for when the bitch get bloody I got 'em messing up, I'm all up in her brain Plus every other bitch in there they wanna suck me Now they plotting on me, bopping on me, opping on me, I'm the one that got you homie Not the phony, out to Coney Island styling, wiling, kicking doors, and robbing Not a problem, bought the carbon, beg your pardon, there's a party, fled authority Foreign forgies, whores and orgies, all them gorgeous, Bentleys, Porsches Shell toes and Timberlands to the cement Ten toes on the gravel, grinding for a reason Pulling out the region I'm an archangel not a demon See the narcs tweaking, heavy fiending Ten hoes want a bottle, fuck 'em on a balcony, I'm rolling green in Pop that pussy, leave it leaking Now I pop a nigga, is he breathing? You a phono Chapo, faking what you preaching? You should get an Oscar acting like a bitch Ye'en hanging with the clique And it bust, we ultimate Got a temper tantrum with the fits You is not a shooter if you miss These niggas leeching, fleas and ticks Bitch, I'm not a blood donor Run the heat and lick that marijuana Follow me to live another summer I need to get it all Stevie Wonder if you blind Plugging that new state of mind Niggas bugging in the flies In the city, take you for survival Break, dive in the flow Intervessel when I drive in a soul Imma have a ball with the glow Kids next door, jits, stick it to the cold, wet I keep that fuck shit to a minimum Government ain't shit, never giving up Six feet deep in a beat When I'm digging up Now you sleep, on the head, of the indica, smoke Invasive with the parasite bite, light Cause you wanna know what's in sight, foe Dark as the evil, the evil I do not change but I evolve Bitch, Imma drop a napalm, bomb Said that I'll ring the alarm, gun Water elemental law, cost Found it and let it get lost Bitch, common sense, comments could miss Treason and treachery, left in a trench, trench Aborting into an abyss Perpetrators rest and piss in a ditch Pit, falling forever whenever you fuck with the emperor's ship They might sweet talk your face to a chocolate chip Closed casket, I'm out this bitch Ultra11</t>
+          <t>2055, behold when ye are into the city There shall a man meet you bearing a pitcher of water Follow him into the house where he has enter you I walk alone I welcome you Flirting with death seems like the biggest infidelity Darker the skin on the ebony, in Liberty City the weaponry Has taken out one of my niggas Tiara Grant was the name Fo' shot up in the corridors, ended up slain Up in the C9 live in this region, LSD in the cube Multiply it to the third power, now it's changing my view Black and white world stinks, that Pepé Le Pew Should I ask God himself What's this opposite you? If Lucifer out there, are you after me too And if I'm not allowed into heaven, would you rapture my crew? Snooze, catching Z's look forgot to cop a plea But as far as god goes, I would say god is deceased Wait, I would say god is in me Jealously turns into murder cause some pride is vanity Ego 'come Yeezy, therefore insanity Catch my thoughts into the seas, let them swim with manatees 2055, mine is finally out the freezer Welcome back as King Diamond with a new gat that's green Fresh out the institution that arrived at the zone three But I chose a different terminal in the eyes of the merciful Who murder fools, who get trapped inside a maze Now something is unusual, like Keanu Reeves cubicle A Matrix, invasion until I'm rapping whole and take tricks Forsaken with these lead bullets she laced with Was taken from existence left with Jason The future I look upon with amazement Is just a trick with a facelift, Pissing on these peons as a hate gift I'm shroomed out The matter is grey, not simply black or white Left or right, the true path is opaque and vicious? The future is embued with golden anticipation Faith-like time never moving in a straight line The arc of destiny stretching out like a rainbow through the cosmos 40 years can pass by in the blink of an eye Did I truly live life, or simply ride the sands as they tumbled through the hourglass? Holding on to the fine moments is like grasping water Always there, yet always slipping away Lusting for more than we need Leading to the greed of acquisition And the gluttony of position A future that feels far but all too close One that could be sublime if we didn't fall behind in the times from our refinement of the mind The state of my people is altered, but my faith is completely unfaltered Gibraltar2</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>IndigoB</t>
+          <t>B.M.B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ronny J, listen up It's WarBucks, bitches Call my homie up, pick him up in the pickup truck Four in the mornin', on top of that it started stormin' And we had a ho in the trunk, she drunk as fuck Don't even know if she breathin' But, really, I don't give a fuck 'cause I already fucked Passed her to my homie, took advantage of her body 'Cause she nothing but a slut Yuh Started trappin' so we drove a little faster No concern about the po-po, four more blocks Then we dare run the red lights, in a dead night Not a car in sight, think I might do the whole dash Red and blue light but I skid on his ass Yuh Hands in the purse and I took all her cash She won't even know 'cause she so fuckin' bad Then I made a right turn on the street As we creep, take a peep through the window And I see that this car was followin' me But I guess it's in my mind, felt a chill down my spine As the time rewinds We stop on the block, unlock the door, everybody hop out Told the ho, Get out 'til I see that mothafucka Dressed in all-black ski mask, choppa hangin' out The mothafuckin' window all-black vento The fear read his eyes that told me he was simple He pointed to shoot the choppa But lethally, I tried to stop him from gettin' hit by the bullets My body shot up like a blocka Three shots pressed through my back, my first shot was a choppa So I did but that nigga with a choppa, yeah, he slipped Now this coward is up in my face African-American, unfortunately, it had to be the race Looked him in his eyes and told him to pull the trigger That nigga didn't say shit, goddamn that fool figured Go 'head and shoot me, nigga, my nigga, I ain't shit And you havin' second thoughts, my nigga, you ain't shit If you gon' take my life, then go 'head and pull the trigger But you not a cold killer, you a lost-ass nigga Ski mask resembles the fables of Edgar Allan But a nigga still poor, my piece is still But the still of the peace means WarBucks for the love of dinero Robber, when you face the heat, civilized travel is proper Getaway clean but half you sleepin' with Oscar That's a Shark Tale, what do I smell? Blood, but not Piru Radio plays the deadliest haikus When I rest and I stumble to the cars dead piss point Said a needle and a knife and a tech One to your eye and one to your chest Might as well blow your heart to your neck, so Can you see, world? I'ma leave a nigga wet Can you see, world? I'ma leave a nigga wet Now my name is Leroy, Steves about to get my decoy That's IndigoB in the back of the pickup Sticks on deck so why not pick the chick up? Talkin' 'bout the niggas hittin' licks, don't get up Don't give a fuck so, nigga, it's a stickup Yeah, nigga, it's a stick-up Yeah, nigga, it's a stick-up Ayo, give me yo' money, give me yo' chain Nigga, give me yo' shoes and yo' socks, my nigga Three hundred and thirty-three times two, nigga If you don't give me yo' shit, that's the mothafuckin' Glock Cold bullets all day, nigga Ayo, Steve, go get Indigo so we can get the fuck outta here Let's get the fuck outta here</t>
+          <t>Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? For those that have seen me in person, know i flow perfect With out a purpose life must be worthless In any instance I'm with it forgive for forgetting Tickets for a sentence they might end up missing Im hurting Those with no focus your mind must be open Thats what i need most And although others may speak on things that they probably don't know I just need you to go where your knowledge may grow just follow The voice of a generation a giant Due to my level of elevation Hired Hitman should be my new occupation And it's this land I rule without competition, see Nothing is gained if you never take risks I plan to progress till we don't exist I need you to listen, i dont need assistance Just walk with a vision pursue with persistence So would you go, let em know Im the man now, stand down Cause this might be your final chance last dance lap when i pass Wave the checkered flag in the winner's circle with my Superman stance Its a mean to an ends And its sink or swim if you dont float I'm wondering if I'm living a dream So I'm knowing that I'd lose sleep before I'd lose steam or there's no hope Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? Keep it calm and collect She offered the neck All for the set Ok whats next You rappers be acting suspect Line em up, only mess with a few I'm riding around with my crew And my driver is screw You sit on a couch while I'm busing a move Tell me I'M keeping the flow and she want to keep goin' I feed the few This how i do this how i do You get goosebumps when I touch you Baby Bone 94 Do the math slowpoke Fast stroke tip toe Only 5 foot 4 With a 6 foot ho 8 foot stripper pole Divided the dimes Together they grind Killing each other for money and diamonds I really can't blame em Get money for the kids when the day comes Respect me the feelings is mutual Been doing some things I really ain't used to This lifestyle I gotta get used to it Pussy bald like Bruce Willis Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? My girl shoot once but she never shoot twice Shine like a dime nickel plate light brite I'mma keep it G, try to be like Mike Tried to pull yo ho and fuck her on skype Knock the pussy out then send ya on sight New slaves to the game to god which is I E Y E, what do you see? S T E V I to the E So you wonder why this nigga so hot? Cooking with the ice then you got me in a pot That Percy Jackson, water whipping Talk sideways and the fo's on tipping Denzel ain't snitching So brother keep listening Be a shooter and a baller that's a pistol and piston Never go rogue so i dont be lynching Yellow gold in my teeth nicknamed Bart Simpson Melissa is a real life Lisa Pull cards bicycle jump on Visa Play for the win we the highest you see us Ask Freddy Kreuger what he thought about he dreamed us C9, O.F., S.S Why your girl think I got an S on my chest? Try and get saved i ain't loaded Pull the trigger on the truth every second Im on it3</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BULLETPROOF</t>
+          <t>STILL IN THE PAINT</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>He's like a drug addict He can barely function without pills or being drunk off his ass I don't really like Jordy that much He acts like some nice guy but when you really get to know him He's kinda a piece of shi- Bulletproof the black truck moving hella militant Some white people hate me cause I can't stop all my nigga shit Wake up count my money smoke a cig and then go beat my dick I overdosed on pain and this is simply how I deal with it Taking off her bra I arched my back and then I nut inside She saw Imma dog Well let's go take me to get euthanized My dad hit it raw I didn't wanna live this fucking life Upside down my cross now all my demons getting utilized She say that she love me but I know that she don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I won't answer my phone Tell her that I love her but she know that I don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I feel better at home Tippy toes, wok with a stick I like my water on water, yeah Suicide, suicidal, fuck around like a revolver I done lost my mind Forgive and forget, I forgot it If you need the best drugs Don't gotta go get it, I got it Bulletproof, black truck Guillotine, surgery Chop the top Money talk, pockets pop Where the ops, spin the block Knock knock, no we not Kick a door, click a Glock In yo house, fuck yo couch Where the drugs, fuck the cops She say that she love me but I know that she don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I won't answer my phone Tell her that I love her but she know that I don't And I only think about her when I'm high or alone Please don't tell me that you miss me I won't answer my phone Please don't tell me that you miss me I feel better at home Cut the chain drop the ball Watch that bitch sink Blowing up my phone So I keep that shit on DND I ain't got the time to explain my rowdy tendencies Overdosed on pain, fast lane, living recklessly I wake up, smoke, drink, fuck, and get money Ass, gas, or grass if you're coming honey Hat, shades, and the boots Make ya bitch fly the coop Blame it all on my roots Baby, I'm bulletproof!</t>
+          <t>How you feel bout all this shit? Fuck all these niggas man, God got us Yeah, Ayy Marc, what it do? I still be thinkin what the fuck we should do bout Dump? Beatmonster Shit Shots firin, took his head off Makin money with my head on Blood travel when the red out Dead body, never left alone Apprehended and Im off Same minute that Im left alone Bullets flyin, mommas cryin, mind traumatized Everybody know Stroud Not knowin where I went wrong Sad seven still the sickest in the game Money comin in, in another lane Still thuggin, hit a nigga with th flame Catch em slippin and Im blowin out the brain Need lov, Im endurin all the pain Million up and I still feel the same Cuttin up and they say I need to change Innocent, I aint ever do a thing She in college and she still dont got a brain Penitentiary, talkin bout them things Bonds go to quarter, now we in the paint Black askin why Ms. Rita buy a thing Totin a carbon while Im dippin through that lane Block boys first one to gang bang Hunnit racks, just tryna put em on a plane Greyhound, I invested in the paint Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the Shoot up the Yo since he say he want smoke And that other lil boy, I got him on the low I be chiefin, I blow out my chest, I cant choke I be lovin the smell when she cookin the dope When I went on the run, they kicked in Pawpa do D-Day callin my momma, she say she dont know I was lookin for death, I was ready to go I dropped 38 Baby not knowin Id blow I was stayin with Montana, Doody callin the phone Tryna see where Im at, I aint never come home Back then I aint pray, I was clutchin that chrome Cause them pussy lil boys tryna knock out my dome When I sat in that cell, never thought Im wrong When I thought bout my son, I wasnt feelin alone On Twitter, met Nene while ridin around I was fuckin with Mimi, she left, I was down I wont speak on nun Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the I wont speak on nun Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>HIT THE FLOOR</t>
+          <t>Cant Tell Me Shit (Remix)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four Everything for the low, bet they thinking I don't make much A few days the work gone, y'all boys take months I save up, I don't take fronts, no rotation we face blunts Posted up, got killers with me and I dare a nigga to say something They like Bibby you intelligent, coulda' been a president I'd rather be a dope boy, I really love selling shit My last batch was fucked up, I think I need some better shit Ain't nothing but cocaine and choppers at my residence Swear my manners on one track, you ain't talking money it's irrelevant And I only fuck with about two niggas cuz you niggas be telling shit If the block hot I don't come around, snitch niggas get dumped down Let the forty cal go baw! baw! about thirty more of them gun sounds I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four Couple bands in my jeans, balling hard with my team Rack full of them one's, I be serving all of them fiends Pull up murder scene, with the girl of your dreams 40 Glock with that beam, robin jeans with them wings Say don't fuck around with them no limits, you fuck around and get smoked And if you fuck around and get two fresh then you fuck around and get poked It ain't no joke, niggas gon blow, straight AK everybody hit the floor All black mask ain't nobody gon know, bibby got crack nigga do you wanna smoke Yeah, my plug is a redneck, get them pounds in shout out fed-ex Get in the way of that count nigga, got a TEC-9 I'm spraying that I ain't slow, quit saying that, I just don't know where my head at And if you talking shit on yo block that's the same place you'll be laying at I got snow, I got dro Everything for the low I be posted by that store, everything must go Everything must go, every fiend must know I got three for the ten, give em one for the four Let them know, I got coke, everything for the low What you need? call bro, gotta go back to the store Every fiend must know, everything must go Give em three for the ten, maybe one for the four26</t>
+          <t>You can't tell me shit Hold up I dont really think they got it at first Let me talk my shit spit truth on a verse Let me talk to them niggas even though its gone hurt Just watch as I bet, them niggas gone fall off over time like Ace bezel on T.V So ya life a movie ? Come on fuck nigga boy you not a emcee, and you never keep it g And ya girl say she want me to stick So I left her ass barely walking like Flynn While you in the crib waiting on her ass go figure She ain't never coming back Ol Huell Ass nigga I'm typically physically scaring you mentally Pull out the stick and put you out your misery Wrote this in braille so I know that you feeling me Niggas are hoes and don't know they identity In 6 months got on MTV Now she blow a nigga up like TNT No pie niggas in my circumference, so you can march boy cause you too weak Cause I did this shit with no co-sign Me and Marc met back in 09 Ganged up around last year Did it independent, yea the whole time So ya'll can't tell me shit Nah nigga fuck that ya'll suck my dick Middle finger to the Radio, Labels, and Media blogs who dont even want to post a nigga shit Boy I'm a young nigga getting it No fake or gimmick shit We are not one in the same or equivalent Niggas are mad that a young nigga killing shit Boy they gone hate just as long as they hearing it Niggas talking shit, who the fuck is you? Couple shots, kush blunts that's what I've been through I got a plan to be the man and bitch I'm on my way 85 blowing smoke out on the highway Heading to M.I.A Shoutout my nigga Bank Watch your mouth around the gang cause they don't fucking play Making sure I get some money each and everyday Anti violent but if you want it we gone let them spray You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through R-runnin through hell with gasoline drawers on Blowtorch when im scorchin the dragons back But thats the female thats fuckin with donkey She yellin get on me but she got the clap Burn! Lemme put my kids in her perm, ? Said how you doin, ?, waka-waka-waka, Pac-Man germs, erm. Naw, no games, no first names, likes to fuck And bumps 2 Chainz. Go ?, im like bitch paid in full She enter my course, she said lay by the pool Im Curry the killer my nigga she lovin' ? diamonds and jewels. Get it? Maybe not. Just know that I hit that twat Lot of you niggas cant tell me shit Im hard as a rock, cook Dwayne in a pot Like pow that crack, nigga that crack You can't tell me shit so mothafuckin bring that chorus back like You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through They say 2 phone you wildin', textin' and drivin' Sextin' and talking to Siri like she yo bestfriend Who da fuck is you? Got a bitch fly me out on Jetblue You save hoes, rescue, rescue blip blip Got a whole lot of cash boy, I'm only bout the racks Racks Aye, Police don't scare me, I know that they listening While I'm talking business, make sure that the lingo PG While I'm on the 3G, keep tapping my phone That doesn't mean they like what they see It's the , it's hard to get me on the phone I don't know why I feel like I'm away from everybody Lately, it been seeming like I can't relate to anybody Bitches come and go, but I stay awake for everybody You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through12</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>KILLERS AND ROBBERS</t>
+          <t>Ultra GriZelda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Blatt, blatt, blatt Yeah, yeah, yeah Yeah, yeah Ugh I'ma blitz, I'ma blitz, I'ma blitz Blah I said, I'ma run it, I'ma touchdown on yo' bitch Ah I know they say they hate me, but they all up on my dick Ow Reload with the stick and tell my brother, he won't miss Yeah Make it, flipped it, double it Crushin' it Stack the chips, I'm crushin' it Crushin' it I'm gettin' lit for the fun of it Fun of it I'm in the mix, yeah, I'm up in it Up in it Listen to this, but I'm not mumblin' Yuh Flips gon' flip-flip, feel like I'm jugglin' Yuh I can't slip, no, I'm not fumblin' Yuh She on my hit list, then I'm dubbin' it Yeah I'm with the misfits and we comin' in W-what he say? Catch a body, tell me, what's the motherfuckin' play? M-money, brains, and power, you aren't surprised? I'm feelin' crazy I just want the dough, I don't want the praise Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy If I ever, if I ever want a bitch, I gotta get it I been runnin' up them bands, don't pocket watch, just mind ya business Ayy, ayy She throw a temper tantrum when she raging on my penis She got a big-ass head like Jimmy Neutron, but she really not a genius Bitch, bitch, bitch, agh A-a-ain't nobody really fuckin' with me Fuckin' with me Rip his fucking kidney with this fuckin' semi Fuckin' semi, ugh I heard him screaming, I'm like, What the fuck up, Denny's? What's up? Ugh I lick the blood up from her pussy to her titties Bitch, ugh All black is on me and I look satanic Oh-wah He came with the drum, I came with a cannon Yuh, brrah In love with the smoke, shit, I think I'm a addict Unload the burner, man, leave him in ashes Uh, yeah, bitch I'm with my niggas, you cannot adjust Ayy The dick to his head and I think I'ma bust Ayy, yuh, haha Brr Buh, buh, buh, buh Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy I'm with Jasiah in the cut, we here to fuck these niggas up Up I need somebody in my life, I think that I done fell in love Love That bitch, she asked me if I like her, had to give that bitch a shrug Shrug The feds and opps, I know they watchin', they gon' try and plan a Stop, nigga, told you, Stop the cap Hol' up, how I make this money off of makin' some damn rap? I'ma make this nigga flap like he was fuckin' Jack I hop on the aux and I ain't talkin' 'bout no Matt I'll take off the hat, so I can stop all of the cap I feel like I'm Faygo, we gon' take him off the map I got water on my motherfuckin' body, hol' up We spin a boy like he a forty, hol' up That nigga bitchin' like Morty, hol' up I don't want that bitch or shawty, nah, nah, girl Killers and robbers, thrillers, showstoppers These bullets sing on these opps like an opera Gangsters, imposters, never get fosters Because they never get found out, they off us Agh Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy Bitch, I'm in the cut Yuh, what the fuck? I don't give a fuck Yuh Bitch, I'm in the cut, spillin' guts, gettin' bloodied up Yuh Blood bags, when I'm in the pit, you know I love a fuckin' bloodbath Yuh, yuh, ayy, blitt Bloodbath Ayy</t>
+          <t>Grrt ULTRAGROUND Griselda Miguel da Plug Griselda Ayy My pockets super, your pockets suffer Sharp as a razor when I bring the ruckus Don't want your girl 'cause she built like a trucker My bitches thick like they been eating Smucker's Got her undercover, but I won't cuff her Old chain with the new Gucci puffer Skinny jeans, but I need to get buffer Hatin'-ass nigga, why you look flustered, huh? You should be embarrassed Bitch, we at fashion week, we out in Paris Dripped down in Kiko that's freshly produced If we talkin' 'bout gold, then it's two different karats Bugs Bunny-ass nigga, hop off my dick 'Caus I'm tryna make hits like a John Wick flick Stack up, put it on my firstborn jit Stack up, put it on my firstborn jit Westsid, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Ayo, you was all in love Love, I was sellin' drugs Ah R.I.P. Vino, I was sellin' him guns Ah I was wearin' red monkeys, I was on the run I was on the run Watchin' junkies fall out, I was havin' fun I was havin' fun Hit head with the drum Grrt, put it on the hood Uh Angel on the hood Skrrt, NBs Joe Freshgoods Mm Niggas thought Suge came home, so many bloods Ah You ain't never took twenty kilos on a bus Bus, ah Westside, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Westside, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Doot-doot-doot, doot-doot-doot</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Past the Wudz Intro</t>
+          <t>The Federation</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2055, behold when ye are into the city There shall a man meet you bearing a pitcher of water Follow him into the house where he has enter you I walk alone I welcome you Flirting with death seems like the biggest infidelity Darker the skin on the ebony, in Liberty City the weaponry Has taken out one of my niggas Tiara Grant was the name Fo' shot up in the corridors, ended up slain Up in the C9 live in this region, LSD in the cube Multiply it to the third power, now it's changing my view Black and white world stinks, that Pepé Le Pew Should I ask God himself What's this opposite you? If Lucifer out there, are you after me too And if I'm not allowed into heaven, would you rapture my crew? Snooze, catching Z's look forgot to cop a plea But as far as god goes, I would say god is deceased Wait, I would say god is in me Jealously turns into murder cause some pride is vanity Ego 'come Yeezy, therefore insanity Catch my thoughts into the seas, let them swim with manatees 2055, mine is finally out the freezer Welcome back as King Diamond with a new gat that's green Fresh out the institution that arrived at the zone three But I chose a different terminal in the eyes of the merciful Who murder fools, who get trapped inside a maze Now something is unusual, like Keanu Reeves cubicle A Matrix, invasion until I'm rapping whole and take tricks Forsaken with these lead bullets she laced with Was taken from existence left with Jason The future I look upon with amazement Is just a trick with a facelift, Pissing on these peons as a hate gift I'm shroomed out The matter is grey, not simply black or white Left or right, the true path is opaque and vicious? The future is embued with golden anticipation Faith-like time never moving in a straight line The arc of destiny stretching out like a rainbow through the cosmos 40 years can pass by in the blink of an eye Did I truly live life, or simply ride the sands as they tumbled through the hourglass? Holding on to the fine moments is like grasping water Always there, yet always slipping away Lusting for more than we need Leading to the greed of acquisition And the gluttony of position A future that feels far but all too close One that could be sublime if we didn't fall behind in the times from our refinement of the mind The state of my people is altered, but my faith is completely unfaltered Gibraltar2</t>
+          <t>Slidin' out 32, pistol regurgin' you Taking lives faster than bops that keep hurting you I am not urging you, serve what I'm servin' to keep my mind straight and my plate full of holy food Shots to your head like I'm Holyfield Pistol beside me, my holy shield All of this smoke keep me growing ill Ho, I don't give a fuck, cause I cannot feel After the shit that I've been through Demons deprivin' my mental Kill them like candidates that could have done the thing But they done done nothing for you I murk you gladly juug for your packs again, smoke em until my face sore too Another galaxy, I am a magistrate we love our guns and our hoes too Motherfucker, I don't know you Motherfucker, you don't know me Mike Dece I have been running in houses and robbin' since I was like fifteen Hittin' licks with the AR-15s and I'm killin' so clean that it's crispy Still CPG till the CC, and I am still the block man, do you see me? This is the place I'm residing and it will be the place that I'm dying I pray that you faggots will try me and I will leave this whole fuckin' club slimy I don't have no time for decidin', I only break bread with my family Always keep my pistol beside me, you are not fuckin' with my fuckin' family! I only break bread with my brethren, money same color, Namekian, couple green nuggets Namekians, but you can't fuck with a veteran Niggas can't fuck with the federation Fuck what you heard, we the federation Take a photo like my nigga Sagan Super Saiyan slayin' to these salty niggas like they Himalayan Bands like I'm Kado Ketchup, no tomato Makin' paper rage it to mister rager Bitches wont cut it, cut it butter curry and no kamikaze Head is in the clouds, I'm not Eddy Murphy I'm master like Percy Miller It is the Ultimate, Curry the killer Caught it in the spot, I'm a armadillo On the ground, like a black, middle cigarillo, smoking' fuckin dro Makin' Os, like connect 4, on these hoes Put it down in her esophagus She know that my flow is extravagant Too much money you'd think that I worship the Baphomet -- NAH Preposterous, you are the offering Obvious cause an apocalypse bumpin' 2Pacalypse I'm the Goku that's made outta chocolate If you makin' money then I'm clockin' it now Keep it on tour, gotta get bust, I'mma get buff Fuck a rich slut, deep in the gut Bust nuts then I'm out like what, what! Like DMX what For a fuck nigga, who wanna PMS You ain't ever seen a real nigga ride BMX Fuck with the family, gang and ex then I'm at your neck with a fuckin' tec The rest I can say is C9 is the future and hatin' ass niggas can suck a dick We the federation, we the federation15</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B.M.B</t>
+          <t>Gunsmoke</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? For those that have seen me in person, know i flow perfect With out a purpose life must be worthless In any instance I'm with it forgive for forgetting Tickets for a sentence they might end up missing Im hurting Those with no focus your mind must be open Thats what i need most And although others may speak on things that they probably don't know I just need you to go where your knowledge may grow just follow The voice of a generation a giant Due to my level of elevation Hired Hitman should be my new occupation And it's this land I rule without competition, see Nothing is gained if you never take risks I plan to progress till we don't exist I need you to listen, i dont need assistance Just walk with a vision pursue with persistence So would you go, let em know Im the man now, stand down Cause this might be your final chance last dance lap when i pass Wave the checkered flag in the winner's circle with my Superman stance Its a mean to an ends And its sink or swim if you dont float I'm wondering if I'm living a dream So I'm knowing that I'd lose sleep before I'd lose steam or there's no hope Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? Keep it calm and collect She offered the neck All for the set Ok whats next You rappers be acting suspect Line em up, only mess with a few I'm riding around with my crew And my driver is screw You sit on a couch while I'm busing a move Tell me I'M keeping the flow and she want to keep goin' I feed the few This how i do this how i do You get goosebumps when I touch you Baby Bone 94 Do the math slowpoke Fast stroke tip toe Only 5 foot 4 With a 6 foot ho 8 foot stripper pole Divided the dimes Together they grind Killing each other for money and diamonds I really can't blame em Get money for the kids when the day comes Respect me the feelings is mutual Been doing some things I really ain't used to This lifestyle I gotta get used to it Pussy bald like Bruce Willis Tell me all of your true feelings And what you wanna do with us My crew made of true villains If we shoot you should shoot with us If you do that's my nigga I got love for the real bitches. Now That there is the truth isn't, it What else would you consider? My girl shoot once but she never shoot twice Shine like a dime nickel plate light brite I'mma keep it G, try to be like Mike Tried to pull yo ho and fuck her on skype Knock the pussy out then send ya on sight New slaves to the game to god which is I E Y E, what do you see? S T E V I to the E So you wonder why this nigga so hot? Cooking with the ice then you got me in a pot That Percy Jackson, water whipping Talk sideways and the fo's on tipping Denzel ain't snitching So brother keep listening Be a shooter and a baller that's a pistol and piston Never go rogue so i dont be lynching Yellow gold in my teeth nicknamed Bart Simpson Melissa is a real life Lisa Pull cards bicycle jump on Visa Play for the win we the highest you see us Ask Freddy Kreuger what he thought about he dreamed us C9, O.F., S.S Why your girl think I got an S on my chest? Try and get saved i ain't loaded Pull the trigger on the truth every second Im on it3</t>
+          <t>Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here Call crazy comrade, catch us on the cover Couldn't catch a anaconda, accumaliting the karma Full off black missed a medal get fellon till I collapse cause I can't change the fact, so in fact I reenact Read it back, reading in braille Can Ray Charles see what he feel I'm gassed up when I'm out of my chill So he bringing them hell, I'm fresh out of jail It's time to prevail gotta kill you niggas or my name isn't Nell Denzel with the blues, bet they can't rely on Eli 12 get the A when they see I And they know just what we do, still tryna end true real nigga Try and cop a feel and send em to the cotton field Everything light bright in my eyesight There goes the neighborhood is just a way to say white flight They hate at first sight, cause love will never treat em but a right life gotta give em light But we live our right I know you don't understand I done lost too many friends, I'm just hoping that you'll beam me up with you All I see is the opposite plotting Niggas get kilt like a skirt in Scotland Who mad, crackers wanna box me in like plaid But I got 'em spinning out of control, no Taz Too many devils to deal with Currently camouflaging the coat of chameleons Blend, tricked by the Rumpelstiltskin Saying I make all but tryna to take my ends Real world one scene when I descend Got a nigga crossed up like a quarter nick grin I'm rock shit like ISIS, Isaac I'm Newton Huey when shooting, might as well recruit me Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here Bodies on top of bodies they're always movin in silence Cause' I was runnin' at three in the mornin Hopin' they don't find me My words came under warning You'll never see me in court bitch It's hide n seek for every nigga in the street Now errbody want a body Errbody wanna beat it Bigger bullet bustin' than anybody that got the heat Errbody wanna talk, errbody wanna tweet Why the pistol in the lining only hide it when the cops out They were lookin' for a plea or a cop out Droppin' bullets off inside a nigga Dropbox Why they always tryna get into the hotspot Niggas really lose minds, but not I I done came from a place with a face every city never seen But a jail cell popular Just showin you what I see through my optical This how a motherfucker sound when his options up I know you don't understand I done lost too many friends, I'm just hoping that you'll beam me up with you I done alot of wrong in my life, as I reflect on my inner thoughts I can see alot of wrong in my rights I condone in the light Cause the darkness within me tend to start So I let the spark roam through the night Cause I'm blind to the fact A black man could barely survive an attack that the government's residents Lash at his back Stacks prove that the truth is bruisin How people gotta act like they like it But me, I could never wait I must evolve with my fate Fakeness dissolving the hate This as real as it gets Sinners get healed in the ditch But life just goes on either way Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here6</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>STILL IN THE PAINT</t>
+          <t>SKED</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>How you feel bout all this shit? Fuck all these niggas man, God got us Yeah, Ayy Marc, what it do? I still be thinkin what the fuck we should do bout Dump? Beatmonster Shit Shots firin, took his head off Makin money with my head on Blood travel when the red out Dead body, never left alone Apprehended and Im off Same minute that Im left alone Bullets flyin, mommas cryin, mind traumatized Everybody know Stroud Not knowin where I went wrong Sad seven still the sickest in the game Money comin in, in another lane Still thuggin, hit a nigga with th flame Catch em slippin and Im blowin out the brain Need lov, Im endurin all the pain Million up and I still feel the same Cuttin up and they say I need to change Innocent, I aint ever do a thing She in college and she still dont got a brain Penitentiary, talkin bout them things Bonds go to quarter, now we in the paint Black askin why Ms. Rita buy a thing Totin a carbon while Im dippin through that lane Block boys first one to gang bang Hunnit racks, just tryna put em on a plane Greyhound, I invested in the paint Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the Shoot up the Yo since he say he want smoke And that other lil boy, I got him on the low I be chiefin, I blow out my chest, I cant choke I be lovin the smell when she cookin the dope When I went on the run, they kicked in Pawpa do D-Day callin my momma, she say she dont know I was lookin for death, I was ready to go I dropped 38 Baby not knowin Id blow I was stayin with Montana, Doody callin the phone Tryna see where Im at, I aint never come home Back then I aint pray, I was clutchin that chrome Cause them pussy lil boys tryna knock out my dome When I sat in that cell, never thought Im wrong When I thought bout my son, I wasnt feelin alone On Twitter, met Nene while ridin around I was fuckin with Mimi, she left, I was down I wont speak on nun Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the I wont speak on nun Kill a nigga, get it on till my time gone Kill a nigga, only God can say that Im wrong Dead feelings, been betrayed, all my love gone Charles Mansion, prayin to em till Im gone Everlastin, I aint never in the</t>
+          <t>Damn, nigga He's heating up Damn, nigga Damn, nigga Ayy, ayy, ayy, ayy Damn, nigga I don't trust nobody because some want me to suffer Suffer Even Jesus called a nigga out on his last supper Judas Tell it like it is 'cause I don't st-st-stutter Stutter All these Jamaican shottas tell your crew, Go suck your mudder Baow What could you do, huh? Try me, they put you in suits, huh, huh You is a fluke, huh, I play your bitch like a flute, huh, huh With all the shit that I seen, this water so sick as a flu, huh, huh Treatin' my people like animals, bitch, I grew up in the zoo, huh, huh Monkey fist, mixed with Bruce Lee kicks, you get your kufi split Uh, yeah Sleep on this, I gotta ask Bill Cosby if he roofied this Uh It's ludicrous, I'll b lit forever 'till I say I'm fuckin' through with this Snatched th power from you 'cause you don't know what to do with it And I said what I said Bitch Bitch, you scared, bitch, you scared And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch Power Ranger Glock, bullets came in different colors Brrt Bitch, the crib I'm in got more sticks than acupuncture Ain't on safety, press to coverage, who in the fuck he think he pressin'? Tryna convince the press you tough'll get you pussies pressed in public Free Give me the loot, shoot, bullets at enemy troops I got more arms than a centipede, but he still'll get beat like he sendin' me loops Shitted on any attempt to keep Ken in the kennel, the criminals finna get loose Niggas is cinnamon, sit him in food Lord, if he play, I send him to yous, split up in two Boo Fuck a truce, we was tuckin' tools, headed to Sunday school Bitch, I go where the funds come in twos, no, and it's not with you Hundred racks on your noggin if I'm online and notice your comments rude Uh Tryna act like you scared, nigga, you said what you said And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch5</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cant Tell Me Shit (Remix)</t>
+          <t>Blueblood</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>You can't tell me shit Hold up I dont really think they got it at first Let me talk my shit spit truth on a verse Let me talk to them niggas even though its gone hurt Just watch as I bet, them niggas gone fall off over time like Ace bezel on T.V So ya life a movie ? Come on fuck nigga boy you not a emcee, and you never keep it g And ya girl say she want me to stick So I left her ass barely walking like Flynn While you in the crib waiting on her ass go figure She ain't never coming back Ol Huell Ass nigga I'm typically physically scaring you mentally Pull out the stick and put you out your misery Wrote this in braille so I know that you feeling me Niggas are hoes and don't know they identity In 6 months got on MTV Now she blow a nigga up like TNT No pie niggas in my circumference, so you can march boy cause you too weak Cause I did this shit with no co-sign Me and Marc met back in 09 Ganged up around last year Did it independent, yea the whole time So ya'll can't tell me shit Nah nigga fuck that ya'll suck my dick Middle finger to the Radio, Labels, and Media blogs who dont even want to post a nigga shit Boy I'm a young nigga getting it No fake or gimmick shit We are not one in the same or equivalent Niggas are mad that a young nigga killing shit Boy they gone hate just as long as they hearing it Niggas talking shit, who the fuck is you? Couple shots, kush blunts that's what I've been through I got a plan to be the man and bitch I'm on my way 85 blowing smoke out on the highway Heading to M.I.A Shoutout my nigga Bank Watch your mouth around the gang cause they don't fucking play Making sure I get some money each and everyday Anti violent but if you want it we gone let them spray You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through R-runnin through hell with gasoline drawers on Blowtorch when im scorchin the dragons back But thats the female thats fuckin with donkey She yellin get on me but she got the clap Burn! Lemme put my kids in her perm, ? Said how you doin, ?, waka-waka-waka, Pac-Man germs, erm. Naw, no games, no first names, likes to fuck And bumps 2 Chainz. Go ?, im like bitch paid in full She enter my course, she said lay by the pool Im Curry the killer my nigga she lovin' ? diamonds and jewels. Get it? Maybe not. Just know that I hit that twat Lot of you niggas cant tell me shit Im hard as a rock, cook Dwayne in a pot Like pow that crack, nigga that crack You can't tell me shit so mothafuckin bring that chorus back like You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through They say 2 phone you wildin', textin' and drivin' Sextin' and talking to Siri like she yo bestfriend Who da fuck is you? Got a bitch fly me out on Jetblue You save hoes, rescue, rescue blip blip Got a whole lot of cash boy, I'm only bout the racks Racks Aye, Police don't scare me, I know that they listening While I'm talking business, make sure that the lingo PG While I'm on the 3G, keep tapping my phone That doesn't mean they like what they see It's the , it's hard to get me on the phone I don't know why I feel like I'm away from everybody Lately, it been seeming like I can't relate to anybody Bitches come and go, but I stay awake for everybody You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through You can't tell me shit, who the fuck is you? I put in overtime, look what I've been through Look what I've been through Look what I've been through12</t>
+          <t>Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I wasn't shit I always knew I was a blueblood True blood, vampire Wanna suck the energy because I'm too fire Only reason why I never have no drip on me I'm allergic to the rain and the slips, homie Everyday I'm thinkin' 'bout where could X be Last thing he text me was Text me And it's sad that I couldn't even text back Now everybody wanna use him for they next track I did a interview, they only talked about him I thought the interview was talking 'bout the album A million dollars, million views be the outcome Deleted as a middleman, word to Malcolm Care about your ratings, care about your savings Care about your jewels and your cars on your pavement Can't you understand that a momma lost her baby Every other lyric that I heard said, Save me Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I was the shit I always knew I was a blueblood Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I was the shit I always knew I was a blueblood XXXTENTACION talking in a Interview3</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ultra GriZelda</t>
+          <t>Spice Girls</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Grrt ULTRAGROUND Griselda Miguel da Plug Griselda Ayy My pockets super, your pockets suffer Sharp as a razor when I bring the ruckus Don't want your girl 'cause she built like a trucker My bitches thick like they been eating Smucker's Got her undercover, but I won't cuff her Old chain with the new Gucci puffer Skinny jeans, but I need to get buffer Hatin'-ass nigga, why you look flustered, huh? You should be embarrassed Bitch, we at fashion week, we out in Paris Dripped down in Kiko that's freshly produced If we talkin' 'bout gold, then it's two different karats Bugs Bunny-ass nigga, hop off my dick 'Caus I'm tryna make hits like a John Wick flick Stack up, put it on my firstborn jit Stack up, put it on my firstborn jit Westsid, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Ayo, you was all in love Love, I was sellin' drugs Ah R.I.P. Vino, I was sellin' him guns Ah I was wearin' red monkeys, I was on the run I was on the run Watchin' junkies fall out, I was havin' fun I was havin' fun Hit head with the drum Grrt, put it on the hood Uh Angel on the hood Skrrt, NBs Joe Freshgoods Mm Niggas thought Suge came home, so many bloods Ah You ain't never took twenty kilos on a bus Bus, ah Westside, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Westside, run it up Ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom-boom Westside, run it up Ayo, ayo, ayo My side, run it up Boom-boom-boom-boom-boom-boom-boom-boom-boom, doot-doot-doot Doot-doot-doot, doot-doot-doot</t>
+          <t>I'm hard, ready for the bogard Hunger, nigga I'm the hunter My bar, nigga mind on mars Worldstar cause a nigga wanna be star Throw the fist, have a fit Grab the clip, pistol grip Make them flip, pass the spliff Axe shit, pass the fish You wanna pass the bitch? Cause I'ma beat the pussy up like a grizzly Til now it look like the roaches of my cheeba Girl don't leak on my sneakers Now there is spit on my adidas Niggas are talking that shit so I'm rolling my reefer Nigga wanna talk about a motherfucker Nigga wanna talk about a motherfucker Nigga I'm drinking some fucking OE I'm pimping these bitches like into the sea Denzel the Curry the ultimate nigga by far Your bitch want a xanny, that heat with the candy the bar In a mad city, I'm gifted I'm Kendrick Lamar But you can say fuck that shit nigga, I'm just going hard You niggas ain't really want war Niggas claiming they don't fuck with me Better get physical when I'm running into you War Cause when it's man to man and face to face Some of you are sounding like Ph in physical War How does it feel? Oh, to me how's it feel Oh, to know that you're pitiful War How can you hate on a nigga who's working Back to back to back to back To get mom out of that cubicle So don't call me while I'm at work Building up my net worth Cause it's my money and I need it now, now, now, now, now Like J.G. Wentworth And I know my haters wanna kill themselves Every time I say a hot line But before you do call 1-800-273-8255 Yuh, yuh, yuh My music immaculate, plus I am passionate when I be bashing it Are you selling it or are you capping it? Is you on the stale or are you clapping? Bitch on fire like a match box Still getting money in my tube socks Pop the Glock, tear the roof off Down the 9-5, quit my 9-5 Had no downsize, only uprise Ain't no surprise I did what I had to so I could surpass you I got more styles than a fashion show in Paris I'm the one that your parents made aware of Be careful with that one He's a scumbag, do not trust him If you fall in love he gone leave you The man got too many hoes he don't need you That's the nonsense that they feed you And you listen, cause you got no mind for yourself And you probably got a hundred bodies under your belt Regardless as I'm heartless in that department When it come to my money I'm an army By my lonesome, South Side Slugs Putting on for the broke ones It take one to know one Get a full clip to ya lip Talking slick, I ain't talking Gang Starr Florida reppin' The bottom of the map, we done came so far You wasn't with me coming up You not gone be when I'm on In between your bitch like floss You's a fraud, you ain't got the sauce You ain't got the sauce You ain't got the sauce7</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>The Federation</t>
+          <t>Live This Shit</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Slidin' out 32, pistol regurgin' you Taking lives faster than bops that keep hurting you I am not urging you, serve what I'm servin' to keep my mind straight and my plate full of holy food Shots to your head like I'm Holyfield Pistol beside me, my holy shield All of this smoke keep me growing ill Ho, I don't give a fuck, cause I cannot feel After the shit that I've been through Demons deprivin' my mental Kill them like candidates that could have done the thing But they done done nothing for you I murk you gladly juug for your packs again, smoke em until my face sore too Another galaxy, I am a magistrate we love our guns and our hoes too Motherfucker, I don't know you Motherfucker, you don't know me Mike Dece I have been running in houses and robbin' since I was like fifteen Hittin' licks with the AR-15s and I'm killin' so clean that it's crispy Still CPG till the CC, and I am still the block man, do you see me? This is the place I'm residing and it will be the place that I'm dying I pray that you faggots will try me and I will leave this whole fuckin' club slimy I don't have no time for decidin', I only break bread with my family Always keep my pistol beside me, you are not fuckin' with my fuckin' family! I only break bread with my brethren, money same color, Namekian, couple green nuggets Namekians, but you can't fuck with a veteran Niggas can't fuck with the federation Fuck what you heard, we the federation Take a photo like my nigga Sagan Super Saiyan slayin' to these salty niggas like they Himalayan Bands like I'm Kado Ketchup, no tomato Makin' paper rage it to mister rager Bitches wont cut it, cut it butter curry and no kamikaze Head is in the clouds, I'm not Eddy Murphy I'm master like Percy Miller It is the Ultimate, Curry the killer Caught it in the spot, I'm a armadillo On the ground, like a black, middle cigarillo, smoking' fuckin dro Makin' Os, like connect 4, on these hoes Put it down in her esophagus She know that my flow is extravagant Too much money you'd think that I worship the Baphomet -- NAH Preposterous, you are the offering Obvious cause an apocalypse bumpin' 2Pacalypse I'm the Goku that's made outta chocolate If you makin' money then I'm clockin' it now Keep it on tour, gotta get bust, I'mma get buff Fuck a rich slut, deep in the gut Bust nuts then I'm out like what, what! Like DMX what For a fuck nigga, who wanna PMS You ain't ever seen a real nigga ride BMX Fuck with the family, gang and ex then I'm at your neck with a fuckin' tec The rest I can say is C9 is the future and hatin' ass niggas can suck a dick We the federation, we the federation15</t>
+          <t>Niggas want USDA so I eat it like Thompson, Kenan Sesame seedless, hood like Sesame Street is If a nigga talking Oscar Chopper turns the ghetto to a opera So sing about me But I'm not Mr. Duckworth I am much worse when the city's mad When your temple leaking, with a Maxipad That's a pussy nigga thought, Sinister Hugo with the plot Niggas talking jive, get the Glock Pop, pop, pop, pop, keep a stock full of rocks That be Onyx, color of skin that be honest Ambient, I'm just rambling About damages and I damned the shit Like Queen Haughton as I crossed it Holocaust it like a dyke playing lacrosse bitch That means you can't hurt me Now he flying like Captain Murphy Raven Miyagi, shinobi has blessed it Now my spirit is one with the essence Another thug isolated Reverse the birth so I could awaken I live for this life, I don't live to be taken I'm Curry the Killa, half man, half amazing Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Red is the color of blood that you shed For the diamonds and gold and the mountains of green Green is the color of currency Which if you murder me, that is the thing you retrieve Red, green, and don't forget black Who stuck in the ghetto where niggas is cracked The colors together so what you call that? That's African-Americans that's caught up in the trap Like Minnie Mouse, Benny Rat Lucky number seven clicking to the clack When a nigga supposed thrash, motherfucking streets ain't safe So i keep my eyes on my back Niggas are the snake the rat, the cat, the dog Ho, least police, the pig, the hog These guys you are alliance with Will be the cause of your downfall They be lurkin' in the garden, see The pass you like pardon me Hardly see when you conversate It's just like Adam and Eve Repeats itself, niggas wanna take your wealth Actin like they need some help And leave you dealt, what I said before These niggas just the enemy of their self Nigga, no health Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain4</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gunsmoke</t>
+          <t>Too Many</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here Call crazy comrade, catch us on the cover Couldn't catch a anaconda, accumaliting the karma Full off black missed a medal get fellon till I collapse cause I can't change the fact, so in fact I reenact Read it back, reading in braille Can Ray Charles see what he feel I'm gassed up when I'm out of my chill So he bringing them hell, I'm fresh out of jail It's time to prevail gotta kill you niggas or my name isn't Nell Denzel with the blues, bet they can't rely on Eli 12 get the A when they see I And they know just what we do, still tryna end true real nigga Try and cop a feel and send em to the cotton field Everything light bright in my eyesight There goes the neighborhood is just a way to say white flight They hate at first sight, cause love will never treat em but a right life gotta give em light But we live our right I know you don't understand I done lost too many friends, I'm just hoping that you'll beam me up with you All I see is the opposite plotting Niggas get kilt like a skirt in Scotland Who mad, crackers wanna box me in like plaid But I got 'em spinning out of control, no Taz Too many devils to deal with Currently camouflaging the coat of chameleons Blend, tricked by the Rumpelstiltskin Saying I make all but tryna to take my ends Real world one scene when I descend Got a nigga crossed up like a quarter nick grin I'm rock shit like ISIS, Isaac I'm Newton Huey when shooting, might as well recruit me Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here Bodies on top of bodies they're always movin in silence Cause' I was runnin' at three in the mornin Hopin' they don't find me My words came under warning You'll never see me in court bitch It's hide n seek for every nigga in the street Now errbody want a body Errbody wanna beat it Bigger bullet bustin' than anybody that got the heat Errbody wanna talk, errbody wanna tweet Why the pistol in the lining only hide it when the cops out They were lookin' for a plea or a cop out Droppin' bullets off inside a nigga Dropbox Why they always tryna get into the hotspot Niggas really lose minds, but not I I done came from a place with a face every city never seen But a jail cell popular Just showin you what I see through my optical This how a motherfucker sound when his options up I know you don't understand I done lost too many friends, I'm just hoping that you'll beam me up with you I done alot of wrong in my life, as I reflect on my inner thoughts I can see alot of wrong in my rights I condone in the light Cause the darkness within me tend to start So I let the spark roam through the night Cause I'm blind to the fact A black man could barely survive an attack that the government's residents Lash at his back Stacks prove that the truth is bruisin How people gotta act like they like it But me, I could never wait I must evolve with my fate Fakeness dissolving the hate This as real as it gets Sinners get healed in the ditch But life just goes on either way Gunsmoke, gunsmoke Gunsmoke, gunsmoke They don't wanna see us go They don't wanna see us, grow Stepping down on the edge Stepping out on the ledge They don't wanna see us there They just wanna see us here6</t>
+          <t>Murda on the beat so it's not nice I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank I'm on too many things, on too many things high On too many things, on too many things you know it Niggas actin' lame, looking at me strange fuck 'em I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things Hey, yeah, yeah I'm on too many things, your bitch gon' let me bang These bitches off the chain, my nuts, I let 'em hang I got my money on my mind, it ain't gon' never change No matter how much dough you get, I know you still a lame You still ain't in the gang, I'm still up in the game Send them my condolences, I'm 'bout to kill a game Got a bitch named Mary Jane and that bitch is flame I feel like I'm at the crib when I'm in the bank I'm on too many thing, she on too much 'cane I pull up in Mulsanne, take up too many lanes They drive that bitch insane, she wanna give me brain And you know we can't smoke it if it ain't that dank I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank you know it I'm on too many things, on too many things On too many things, on too many things Niggas actin' lame, looking at me strange I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things Too many people, that be too many voices And there's 300 bitches and 'bout 400 horses And 'bout 500 Porches, get 600 extorted Niggas actin' like hoes Then they ass get escorted up out the club hoe With the snub nose Who the hell you gonna try? Eyes low Hanging too high to a point where it feel like I already died No lie, can't reply to the textes that I get Smokin', sippin' liquor now, used to be on that other shit, but ayy Too many names, too many dames, I can't complain Too many ways, too many things I can't explain Too many people, too many photos, so when they change The day I do some dumbass shit, then lead the gang I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank you know it I'm on too many things, on too many things On too many things, on too many things Niggas acting lame, looking at me strange I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things10</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SKED</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Damn, nigga He's heating up Damn, nigga Damn, nigga Ayy, ayy, ayy, ayy Damn, nigga I don't trust nobody because some want me to suffer Suffer Even Jesus called a nigga out on his last supper Judas Tell it like it is 'cause I don't st-st-stutter Stutter All these Jamaican shottas tell your crew, Go suck your mudder Baow What could you do, huh? Try me, they put you in suits, huh, huh You is a fluke, huh, I play your bitch like a flute, huh, huh With all the shit that I seen, this water so sick as a flu, huh, huh Treatin' my people like animals, bitch, I grew up in the zoo, huh, huh Monkey fist, mixed with Bruce Lee kicks, you get your kufi split Uh, yeah Sleep on this, I gotta ask Bill Cosby if he roofied this Uh It's ludicrous, I'll b lit forever 'till I say I'm fuckin' through with this Snatched th power from you 'cause you don't know what to do with it And I said what I said Bitch Bitch, you scared, bitch, you scared And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch Power Ranger Glock, bullets came in different colors Brrt Bitch, the crib I'm in got more sticks than acupuncture Ain't on safety, press to coverage, who in the fuck he think he pressin'? Tryna convince the press you tough'll get you pussies pressed in public Free Give me the loot, shoot, bullets at enemy troops I got more arms than a centipede, but he still'll get beat like he sendin' me loops Shitted on any attempt to keep Ken in the kennel, the criminals finna get loose Niggas is cinnamon, sit him in food Lord, if he play, I send him to yous, split up in two Boo Fuck a truce, we was tuckin' tools, headed to Sunday school Bitch, I go where the funds come in twos, no, and it's not with you Hundred racks on your noggin if I'm online and notice your comments rude Uh Tryna act like you scared, nigga, you said what you said And I said what I said, bitch, you scared, bitch, you scared Scary I don't go to sleep without a Glock by my bed Doot-doot-doot I don't say no names 'cause them boys might be the feds The feds I'm about my family, God, business and my bread Dome And I said what I said, bitch, you scared, bitch, you scared Scared I don't go to sleep without a Glock by my bed Brrt I don't say no names 'cause them boys might be the feds Feds I'm about my family, God, business and my bread Bitch5</t>
+          <t>MVP, Terrordome Oh my God, Ronny Dope roller, can't control her, boy, I'm hotter than a solar Dress code bipolar, never been a level lower That's why I gotta take over, why is it time if it slow up I gotta show off, tickin' time bomb, who 'bout to blow up? Sick money, make my pockets throw up Stay down, let the rockets go up like Houston What? Y'all niggas not important Huh? nigga try me, rigormortis What? Leave a nigga read like fortunes Okay rockets go up like Houston What? Y'all niggas not important Huh? nigga try me, rigormortis What? Leave a nigga read no fortune Okay rockets go up like I mix the Pac with the Slayer, I get my weed from Darth Vader Speak with a mindless behavior, still getting high as Invader On a space ship, elevator, thankin' two boys from Decatur Ultimate is a trailblazer, I put the heat on a hater Alligator, bitch I'm greater, scrapin' money, cheese grater Ain't no debate that I go Norman Bates Nigga swinging that hammer just like Kathy Bates I'm from a place where they movin' that weight You could call it that white, I call it Ricki Lake Back in the thirty-six chambers I witnessed the danger 'Cause there is a yard full of snakes Shame on a nigga, run game on a nigga Put flame on a nigga 'cause I got soufflé, ho Dope roller, can't control her, boy, I'm hotter than a solar Dress code bipolar, never been a level lower That's why I gotta take over, why is it time if it slow up I gotta show off, tickin' time bomb, who 'bout to blow up? Sick money, make my pockets throw up Stay down, let the rockets go up like Houston Ayy Y'all niggas not important What? nigga try me, rigormortis Okay Leave a nigga read like fortunes Okay, rockets go up like Houston what? Y'all niggas not important Huh? nigga try me, rigormortis Okay Leave a nigga read no fortune What, rockets go up like Houston8</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Blueblood</t>
+          <t>Tim Westwood Freestyle</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I wasn't shit I always knew I was a blueblood True blood, vampire Wanna suck the energy because I'm too fire Only reason why I never have no drip on me I'm allergic to the rain and the slips, homie Everyday I'm thinkin' 'bout where could X be Last thing he text me was Text me And it's sad that I couldn't even text back Now everybody wanna use him for they next track I did a interview, they only talked about him I thought the interview was talking 'bout the album A million dollars, million views be the outcome Deleted as a middleman, word to Malcolm Care about your ratings, care about your savings Care about your jewels and your cars on your pavement Can't you understand that a momma lost her baby Every other lyric that I heard said, Save me Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I was the shit I always knew I was a blueblood Stayed around when I got buzz Where was you when I wore floods? Where was you way before I had the dreads with the gold slugs Back then there was no love On the news, they would leave my image skewed as a true thug I worked hard 'til I drew blood I'm on guard, let the smile transform into a new mug Even when I was the shit I always knew I was a blueblood XXXTENTACION talking in a Interview3</t>
+          <t>Ready to murder shit, Tim Westwood? Guess who comin' out, boy Comin' out the south, boy Curry known to spit like a Draco, Malfoy I'm the only nigga that is fresher than a Altoid Everything I drop gon' be hard as a asteroid I could be a asshole, Assy McGee is actually me Never trust a bitch Adam may never come out of Eve You could suck a dick I'm 'bout to get my nuts out and leave On to other shit, callin' up the mothership Pardon me, pardon me I departed with my scholarship Heart of a lion, niggas be lyin' to be hard as shit Watchin' them fall offs like the victim of a Spartan kick Sit back and feel it, and while these other niggas politic Politician, bitch, I'm pocket-pickin' 'cause my pot is pissin' Try to diss me like you never heard that verse, did on Kristi YamaGucci, I killed that shit like I was Gucci Never been coochie, the only reason you salute me Sergeant, sergeant! It's hard, it's smart, retarded We chargin' your audience, my target We starvin', I need protein and starches Red carpet, the blood of your favorite artist It's carnage when Curry spit venom Call the ambulance so they can put some shit in him All they see was niggas in some all-black denim Caught another flow because I caught momentum, ah Curry is the feces Sharper than a bee sting Nigga, I am beasting to a point where I could be Sting Nigga, it's a meeting Meaning is a you-ting Fantastic Four, but for Curry is the new thing Back for the Mula, put this Cris with no Luda I could reach for the sky, tell the stars I'm a shooter Keep my pockets on FUPA, cheddar cheese and chalupa I will hang with my niggas, but I ain't mister Cooper Bitch, my name is the Curry Niggas scary like scurry If you want definition, then they move in a hurry If you waitin' to serve me, then you must be a waiter I done came a long way from a goddamn raider Makin' goddamn pla-per Plaper, wait, what the fuck am I sayin'? Hol' up, man, switch the beat, switch the beat What's the deal? I'm caught up in the pickle, son While people try to jack me with the nickel, son The nickel-plate Insinuate all the dough on my dinner plate It's hyperactive, makin' you hyperventilate, uh Stop breathing Got whores on all fours and four seasons No more for locked doors, we all greasin' When you in a room full of gods, so pledge allegiance Baby, open your cleavage, uh On to Cleveland, I'm off to brown And I might swerve my words, and I swerve my nouns Renounced, when I used to smoke a ounce and bounce Way back, way before I had a bank account I had one, two, three, four Five, six, seven, eight pennies in my pocket Actin' like the hot shit Knowin' damn well that a nigga ain't got shit Strictly for my niggas, way before I'm on that 'Pac shit That was way back, like, where my slaves at Way before Ross even had a Maybach The cars, the jewels, the hoes don't impress me Flashin' lights, and looking like it's epilepsy I ball like pistols when you wanna be a Piston Fuck your wrist, I'd rather go and put my fist in Put your fist pump rather than a fist bump I get the ski mask and watch your gods get slumped Ain't no false prophets, counterfeits and false profits Came through and you know I be the hot topic Curry is the nigga on the knowledge, I drop shit Denzel and you know I came through, I pop shit The uzis and moves in rooms like the Yakuza Far from losers, more like penny abusers Money young, money on my mind, I'm Sunny, sunny, sunny, let me shine, rise Risin' on the motherfuckin' east like the Islam I don't really give a fuck, they lookin' like, Who is him? Nigga came through with the motherfuckin' ism Like racism, or sexism, I texting 'em That motherfuckin' knowledge I drop Denzel, motherfucka, on the shit I pop I skate like a motherfuckin' Figure 8 If a nigga wanna talk about a dinner date You don't want this, you don't want that You don't want that, I came through Motherfucker, yeah, I gotta go back With the throwback, like a motherfuckin' seventy Came through with the motherfuckin' telepathy5</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Spice Girls</t>
+          <t>Meetings</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>I'm hard, ready for the bogard Hunger, nigga I'm the hunter My bar, nigga mind on mars Worldstar cause a nigga wanna be star Throw the fist, have a fit Grab the clip, pistol grip Make them flip, pass the spliff Axe shit, pass the fish You wanna pass the bitch? Cause I'ma beat the pussy up like a grizzly Til now it look like the roaches of my cheeba Girl don't leak on my sneakers Now there is spit on my adidas Niggas are talking that shit so I'm rolling my reefer Nigga wanna talk about a motherfucker Nigga wanna talk about a motherfucker Nigga I'm drinking some fucking OE I'm pimping these bitches like into the sea Denzel the Curry the ultimate nigga by far Your bitch want a xanny, that heat with the candy the bar In a mad city, I'm gifted I'm Kendrick Lamar But you can say fuck that shit nigga, I'm just going hard You niggas ain't really want war Niggas claiming they don't fuck with me Better get physical when I'm running into you War Cause when it's man to man and face to face Some of you are sounding like Ph in physical War How does it feel? Oh, to me how's it feel Oh, to know that you're pitiful War How can you hate on a nigga who's working Back to back to back to back To get mom out of that cubicle So don't call me while I'm at work Building up my net worth Cause it's my money and I need it now, now, now, now, now Like J.G. Wentworth And I know my haters wanna kill themselves Every time I say a hot line But before you do call 1-800-273-8255 Yuh, yuh, yuh My music immaculate, plus I am passionate when I be bashing it Are you selling it or are you capping it? Is you on the stale or are you clapping? Bitch on fire like a match box Still getting money in my tube socks Pop the Glock, tear the roof off Down the 9-5, quit my 9-5 Had no downsize, only uprise Ain't no surprise I did what I had to so I could surpass you I got more styles than a fashion show in Paris I'm the one that your parents made aware of Be careful with that one He's a scumbag, do not trust him If you fall in love he gone leave you The man got too many hoes he don't need you That's the nonsense that they feed you And you listen, cause you got no mind for yourself And you probably got a hundred bodies under your belt Regardless as I'm heartless in that department When it come to my money I'm an army By my lonesome, South Side Slugs Putting on for the broke ones It take one to know one Get a full clip to ya lip Talking slick, I ain't talking Gang Starr Florida reppin' The bottom of the map, we done came so far You wasn't with me coming up You not gone be when I'm on In between your bitch like floss You's a fraud, you ain't got the sauce You ain't got the sauce You ain't got the sauce7</t>
+          <t>I woke up and I checked my bank, like woo there it go Meetings at the office tryna map out how I blow Bitches on my line they tryna get up in my car I told her if she lick me, she get VIP at my shows This how it go, we get the Fifth and the blow Bitches and dough, you taking pics then you go Popped a quarter bar then took a sip for my zone I woke up from a nap and hit a bitch then I yawn Pending is done, these niggas envy the one Give me some grub, need complementary cups Second they stutter, you little children should run I swerve up in my pick-up just to pick up my bucks This shit for fun, you niggas in it to stunt Give 'em a run then watch 'em give up the love Pending is done, these niggas envy the one Quarter tank of gas but I'm still filling my cup I'm bout to drown in the liquor I poured up Feel like Peter Pan I will never get older I will never, never land I fall, I fall hard End up in Michael Jacksons backyard Lord, captain of hooks when I fish for a bitch But I might throw her back if the bitches cat fish She want cashing with a bit of passion I gets the paper, she gets the plastic Grocery store, your are just a shore that a nigga will soon explore Submarinas, subterranean, mediterranean And figure out that we alien, that's Sigourney Weaver Call me Julius cause I had to cease her She want a nigga cause I built my feet up Then she get me off like misdemeanors It's so demeaning, that my flow is genius Like a river had thoughts Slithering niggas that tried to move and get caught Sipping on liquor I'm moving in the right spot I can write a novel if the crackas' wanna plot Exploit, when the expo, exnay Extra X-ray, when I escape Explain cold case when the court date 1207 to the FLA Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow I told her if she lick me, she get VIP at my shows I told her if she lick me, she get VIP at my shows This how it go, we get the Fifth and the This how it go, we get the Fifth and the blow3</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Live This Shit</t>
+          <t>Dressed 2 Kill</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Niggas want USDA so I eat it like Thompson, Kenan Sesame seedless, hood like Sesame Street is If a nigga talking Oscar Chopper turns the ghetto to a opera So sing about me But I'm not Mr. Duckworth I am much worse when the city's mad When your temple leaking, with a Maxipad That's a pussy nigga thought, Sinister Hugo with the plot Niggas talking jive, get the Glock Pop, pop, pop, pop, keep a stock full of rocks That be Onyx, color of skin that be honest Ambient, I'm just rambling About damages and I damned the shit Like Queen Haughton as I crossed it Holocaust it like a dyke playing lacrosse bitch That means you can't hurt me Now he flying like Captain Murphy Raven Miyagi, shinobi has blessed it Now my spirit is one with the essence Another thug isolated Reverse the birth so I could awaken I live for this life, I don't live to be taken I'm Curry the Killa, half man, half amazing Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Red is the color of blood that you shed For the diamonds and gold and the mountains of green Green is the color of currency Which if you murder me, that is the thing you retrieve Red, green, and don't forget black Who stuck in the ghetto where niggas is cracked The colors together so what you call that? That's African-Americans that's caught up in the trap Like Minnie Mouse, Benny Rat Lucky number seven clicking to the clack When a nigga supposed thrash, motherfucking streets ain't safe So i keep my eyes on my back Niggas are the snake the rat, the cat, the dog Ho, least police, the pig, the hog These guys you are alliance with Will be the cause of your downfall They be lurkin' in the garden, see The pass you like pardon me Hardly see when you conversate It's just like Adam and Eve Repeats itself, niggas wanna take your wealth Actin like they need some help And leave you dealt, what I said before These niggas just the enemy of their self Nigga, no health Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain Sometimes I look at niggas caught up in that phase You better watch your back because these niggas change If you gon' rep your set, then rep the clique you claim Elevate your mind, the third eye is your brain4</t>
+          <t>PITCH FOR A MOVIE LION KING IN THE HOOD 1. cast list Mufasa his absence played by every father ever Simba played by the first boy you know who died too young Sarabi played by the woman in church who has forgot the taste of praise in favor of the earth that hold her boy captive Nala played by the girl crying on the swing for her valentine who now date the dirt Timon Pumbaa played by Ray-Ray Man-Man, the joy of not-dead friends Zazu played by the ghost of James Baldwin Rafiki played by a good uncle with a bad habit, his lust for rocks on his lips Scar played by the world, the police, the law its makers, the rope-colored hands The endless army of hyenas played by a gust choked tight with bullet shells, the bullets themselves now dressed in a boy 2. Opening Credits brought to you by Disney dead aunts brought to you on a platter, an apple in the lion-boys mouth brought to you on a terrible boat, reeking of shit an unnamed sick brought to you on a tree branch heavy with tree-colored man 3. Opening Scene The Circle of Life Nants ingonyama bagithi baba Sithi uhhmm ingonyama Nants ingonyama bagithi baba Sithi uhhmm ingonyama Ingonyama Siyo Nqoba Ingonyama a mothers knees fall into a puddle of the blood she made herself Ingonyama nengw enamabala 4. Song Oh I just cant wait to be king this is the part where they realize that black people dream our blood is indeed blood our teeth, teeth the music is loud because the field was wide the field was long we dreamed on simple things shoes, our children back this is the part where the racist cuts off his tongue, his wet, pink repent he gives his eyes his hands anything that has ever assumed a black body a black burnable thing. He gives himself to the lions the lions feast the lions are still a metaphor for black boys the boys, full of fear turned into dinner, fall asleep they dream yes, yes, they really do dream. 5. Song Be Prepared for the stampede of tiny lead beast for the jury not to flinch for the hands, wild in your wildless hair for the darkest toll, your double down to get half for the man, ecstatic with triggers to spread your legs while they search for drugs there for the drug there, for their mouths to ask that big question to hear your history told to you over over over for it never to change. 6. Scene Mufasa Dies at the hands of his brother Scar What did you expect to be different? The hood according to whiteness the sadness of this film is any jungle a brother kills a brotha the left behind body a forgettable meal for the dark, white birds circling above 7. Montage Timon Pumbaa teach Simba a music other than the blues clip 1 the boy getting older in spite of everything clip 2 the boy the boy-friends smoking blunts for once something else brown on fire clip 3 the boy who would be king with his mouth in another mans throne clip 4 Timon Simba singing down each others throat clip 5 Timba calling Pumbaa a faggot they all laugh clip 6 murals of all the dead friends faces clip 7 funeral songs. small caskets clip 8 red, blue, periwinkle, yellow, black, blood-maroon rags clip 9 flowers picture frames on the side walk clip 10 shot the boys laughing anyway clip 11 shot the boys laughing in the sun clip 12 shot the boys laughing in the rain clip 13 shot of the boys not being shot 8. Scene Simba comes home to kill his uncle even here, a black man kills a black man, this awful cartoon, all the children cry blood until their bodies are just bone on skin. roll the credits, I must go weep. Why does Disney remind us what we have learned - one black light swallows another so easy - killing is unavoidable as death - the kings throne is wet with his brothers blood - the queen suffers too but gets no name 9. closing credits say the name of the first boy you love who died. say it dont cry. say it love the air around your tongue. say it watch the fire come. say it watch the son rise.</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Too Many</t>
+          <t>Underwater</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Murda on the beat so it's not nice I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank I'm on too many things, on too many things high On too many things, on too many things you know it Niggas actin' lame, looking at me strange fuck 'em I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things Hey, yeah, yeah I'm on too many things, your bitch gon' let me bang These bitches off the chain, my nuts, I let 'em hang I got my money on my mind, it ain't gon' never change No matter how much dough you get, I know you still a lame You still ain't in the gang, I'm still up in the game Send them my condolences, I'm 'bout to kill a game Got a bitch named Mary Jane and that bitch is flame I feel like I'm at the crib when I'm in the bank I'm on too many thing, she on too much 'cane I pull up in Mulsanne, take up too many lanes They drive that bitch insane, she wanna give me brain And you know we can't smoke it if it ain't that dank I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank you know it I'm on too many things, on too many things On too many things, on too many things Niggas actin' lame, looking at me strange I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things Too many people, that be too many voices And there's 300 bitches and 'bout 400 horses And 'bout 500 Porches, get 600 extorted Niggas actin' like hoes Then they ass get escorted up out the club hoe With the snub nose Who the hell you gonna try? Eyes low Hanging too high to a point where it feel like I already died No lie, can't reply to the textes that I get Smokin', sippin' liquor now, used to be on that other shit, but ayy Too many names, too many dames, I can't complain Too many ways, too many things I can't explain Too many people, too many photos, so when they change The day I do some dumbass shit, then lead the gang I smoke too much dank, I smoke too much dank I have too much drank, I have too much drank you know it I'm on too many things, on too many things On too many things, on too many things Niggas acting lame, looking at me strange I just fucked her once, I don't know her name I'm on too many things, on too many things I'm on too many things, on too many things10</t>
+          <t>Stick drill ravage From medulla of the savage Niggas sticking with the illest shit got more sticks than a cabin Wet em up like Squarepants 'till the niggas start crabbin' Rundown gun down like Birdman they clapping BRRRTT! What happened to that boy? Niggas yapping then they pull a strap into that boy Paramedics come stressing cause a nigga got wetted Lurking low in the gardens watch his head get severed I reign supreme, the world is mine and you can't do a thing Cause you can't kill a God but a God can kill a king Checkmate, fuck this shit you dead weight You the type to make a jit heart race Cut cable fuck niggas and what would that make you The person in the mirror not looking so beautiful Who is you nigga, mirror mirror in the bathroom Am I gonna take a job to the back room Later pimping down and hit em with that crack boom Then I send her home and laugh like some old coons By the store Life is fact the truth is cold That's how you live 300 years more Philosophy the prophecy is probably a robbery Don't talk to me about, who's the motherfucking future C9 bow down to your rulers I got four niggas on the porch Two niggas out the park You better have your burner tucked when walking after dark Niggas be running reckless with their hammers ready to spark Everybody is a target in the hood they playing darts Taking them underwater It's through the hood and past the wudz Taking them underwater So pass the wudz and roll them good Taking them underwater And drive my mess understood Taking them underwater I'll take you underwater Okay this ones for all my dogs I do it for all of my niggas For Lotto, Chinaman, and Tiarra pour out some liquor Still thug livin' Come witness the black vision, trigger finger itchin' Brothers fall like thanksgiving, your heart is St. Nicholas Merry Christmas American Psycho with Bale as the Christian Bust your head like baby ? made of crimson Where is he now I'm spitting genocide to niglets Paraquiz back in the day, watch me form into bitches Completes the masters, you bastards Need to pass her, but the pastor, is an actor If the rapture was to capture Any mother fucker on this planet I know that Gods an artist so hell pick a good canvas So I let the bad ones perish I found god inside the face that Im starin', at In my world Jesus is black and misunderstood Im taking y'all past to the wudz and say There they go sticking again There they go sticking again There they go sticking again There they go sticking again So steal, steal, steal, steal There they go sticking again There they go sticking again Grab the steer throw the keys get the mac Cyberspace mask doing drive-bys in hovercrafts Black hover craft Grey matter gats counter act What better way to use crack to terminate blacks Black got jacked now thats the school of Hard Rock This aint no game you dont live with a life stock Like the Legend of Zelda its Heaven or Hell, bruh You callin' for 911 but theres no one to help ya M16 feel like it's Hamburger Helper And now you see yourself flying with Delta an airline Tech 9 young and wave it ya tape line its C9 You fuckin' with the wrong air-side Combine my organized crime in the mean time We seem blind still on the grind till we see shine Hover slow on the green eye You better hope you have a keen eye Drown the youth4</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Darius</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MVP, Terrordome Oh my God, Ronny Dope roller, can't control her, boy, I'm hotter than a solar Dress code bipolar, never been a level lower That's why I gotta take over, why is it time if it slow up I gotta show off, tickin' time bomb, who 'bout to blow up? Sick money, make my pockets throw up Stay down, let the rockets go up like Houston What? Y'all niggas not important Huh? nigga try me, rigormortis What? Leave a nigga read like fortunes Okay rockets go up like Houston What? Y'all niggas not important Huh? nigga try me, rigormortis What? Leave a nigga read no fortune Okay rockets go up like I mix the Pac with the Slayer, I get my weed from Darth Vader Speak with a mindless behavior, still getting high as Invader On a space ship, elevator, thankin' two boys from Decatur Ultimate is a trailblazer, I put the heat on a hater Alligator, bitch I'm greater, scrapin' money, cheese grater Ain't no debate that I go Norman Bates Nigga swinging that hammer just like Kathy Bates I'm from a place where they movin' that weight You could call it that white, I call it Ricki Lake Back in the thirty-six chambers I witnessed the danger 'Cause there is a yard full of snakes Shame on a nigga, run game on a nigga Put flame on a nigga 'cause I got soufflé, ho Dope roller, can't control her, boy, I'm hotter than a solar Dress code bipolar, never been a level lower That's why I gotta take over, why is it time if it slow up I gotta show off, tickin' time bomb, who 'bout to blow up? Sick money, make my pockets throw up Stay down, let the rockets go up like Houston Ayy Y'all niggas not important What? nigga try me, rigormortis Okay Leave a nigga read like fortunes Okay, rockets go up like Houston what? Y'all niggas not important Huh? nigga try me, rigormortis Okay Leave a nigga read no fortune What, rockets go up like Houston8</t>
+          <t>Shout out to them niggas who ain't scared to let them triggers go Fuck my cousin shooters who was snitching yea my niggas know Fuck the witnesses and fuck the judge, just let my cousin go They gave my nigga 25 to life like that's the minimal Boy I'm from a city where niggas dont show no pity With a nine in their hand they'll give you 9 like 50 Don't get jack son If a nigga try to rob me, you'll see what I have in store Yeah boy I pack son This life is kill or be killed When you're still, they'll steal with a steel So when attacking, be packing the shit that's clapping Or niggas will have you dead No witnesses know what happened When the 12 pull up, they'll circle the block 2 times Followed by 24 right behind, that's the first 48 P.I.G.S interrogate us talking bout us on tape You wanna black ball me go ahead and suck em I'm screaming fuck em I never loved em And never did really trust em And this is not a fib or a tragedy But a lesson on how not to treat your family Cause we had alcohol and marijuana 40 oz beverages Adolescents feeling pain resort to those as medicines I'm cruising down the highway, get the fuck out of my way Ice cubes in my drank and my car is smokey, celebrating Friday Trouble stuck on my mental I don't know what I'm about to get into My shooters are in the back They will act if we have any issues They're visiting down from Georgia Fucking shit up in Florida Peer pressure is on my heart And my fear is in the aroma nigga Bruh, you acting like a bitch ass nigga Peelin' down south and one route to count figures Motherfuck friends, in the end we all sinners Keep an eye on your family cause blood ain't thicker Imported the water from the blood of pure life Headed down to Miami with the mommies and fresh ice Robbing and rolling and we got the Glock tied ? And she about to give me something to light Organized crime, mobbing, gudda, squadding Would cop an Iphone but Steven was jobless Enter the Dark Knight its time to start robbing Look at my cousins in the whip, heads nodding Gat toking, pistols hoking, nigga on your damn street Put six in your chest now that's Lebron rolling with that damn heat Most of these niggas, have no father figures Their fathers the trigger now you paint the picture With strokes of ways how to survive in this economy They never did school but they learned trigonometry Shits gets real in the field Trying to free my cousin Dee So my mind is of Michael Scofield But them niggas was ratting and actin just like a tweener When all they really would of got was a small misdemeanour Thats why its killed or be killed is the mindset when you're coming from that jungle All of my shooters have mindsets like Michael Buffer they are ready to rumble Choppers hanging out that window the motive was pretty simple These bullets have minds themselves and these here were meant for your temple Nigga get back, when you hear that sound get back Motherfuckers try to rob us ya ass will get splacked Now you niggas microsoft, we'll aim it ya Adam's apple Try to test us and we'll go and get the Mack When i pulled off in my civic with wrecking odours of Henny My nigga said he need work and my niggas know we got plenty So we met up later the night, shooters in sight Everything seemed alright Until I pulled out the work then he pulled out a gun Motherfucker tried to take my life, come on You know my shooters ain't having that Grabbed the guns then they cocked it back Then they gave him till 3...2...1 then they shot his back Then I looked in my rear view can believe what I've seen My shooters hopped out the whip Them niggas fled off the scene Like God damn They say blood is thicker than water I'm thirsty for family that won't change And always keep it for 4 quarters But wait.. The family scale is unproportionate Ya son just got arrested and the crowd was recording it So you can see Lemony Snicket all in my ear Yea its unfortunate this event just had to happen here But see my cousin was the shooter Now I'm in the reptile room, with invertebrates and look alike medusas I never did the ratting Ratting will have niggas put cheese on ya head Them shooters Green Bay packing So dont D.I.E Or it's R.I.P With a head shot Now they trying to see I.D Motherfuckin run to the end ?4</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tim Westwood Freestyle</t>
+          <t>Crash The Server</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ready to murder shit, Tim Westwood? Guess who comin' out, boy Comin' out the south, boy Curry known to spit like a Draco, Malfoy I'm the only nigga that is fresher than a Altoid Everything I drop gon' be hard as a asteroid I could be a asshole, Assy McGee is actually me Never trust a bitch Adam may never come out of Eve You could suck a dick I'm 'bout to get my nuts out and leave On to other shit, callin' up the mothership Pardon me, pardon me I departed with my scholarship Heart of a lion, niggas be lyin' to be hard as shit Watchin' them fall offs like the victim of a Spartan kick Sit back and feel it, and while these other niggas politic Politician, bitch, I'm pocket-pickin' 'cause my pot is pissin' Try to diss me like you never heard that verse, did on Kristi YamaGucci, I killed that shit like I was Gucci Never been coochie, the only reason you salute me Sergeant, sergeant! It's hard, it's smart, retarded We chargin' your audience, my target We starvin', I need protein and starches Red carpet, the blood of your favorite artist It's carnage when Curry spit venom Call the ambulance so they can put some shit in him All they see was niggas in some all-black denim Caught another flow because I caught momentum, ah Curry is the feces Sharper than a bee sting Nigga, I am beasting to a point where I could be Sting Nigga, it's a meeting Meaning is a you-ting Fantastic Four, but for Curry is the new thing Back for the Mula, put this Cris with no Luda I could reach for the sky, tell the stars I'm a shooter Keep my pockets on FUPA, cheddar cheese and chalupa I will hang with my niggas, but I ain't mister Cooper Bitch, my name is the Curry Niggas scary like scurry If you want definition, then they move in a hurry If you waitin' to serve me, then you must be a waiter I done came a long way from a goddamn raider Makin' goddamn pla-per Plaper, wait, what the fuck am I sayin'? Hol' up, man, switch the beat, switch the beat What's the deal? I'm caught up in the pickle, son While people try to jack me with the nickel, son The nickel-plate Insinuate all the dough on my dinner plate It's hyperactive, makin' you hyperventilate, uh Stop breathing Got whores on all fours and four seasons No more for locked doors, we all greasin' When you in a room full of gods, so pledge allegiance Baby, open your cleavage, uh On to Cleveland, I'm off to brown And I might swerve my words, and I swerve my nouns Renounced, when I used to smoke a ounce and bounce Way back, way before I had a bank account I had one, two, three, four Five, six, seven, eight pennies in my pocket Actin' like the hot shit Knowin' damn well that a nigga ain't got shit Strictly for my niggas, way before I'm on that 'Pac shit That was way back, like, where my slaves at Way before Ross even had a Maybach The cars, the jewels, the hoes don't impress me Flashin' lights, and looking like it's epilepsy I ball like pistols when you wanna be a Piston Fuck your wrist, I'd rather go and put my fist in Put your fist pump rather than a fist bump I get the ski mask and watch your gods get slumped Ain't no false prophets, counterfeits and false profits Came through and you know I be the hot topic Curry is the nigga on the knowledge, I drop shit Denzel and you know I came through, I pop shit The uzis and moves in rooms like the Yakuza Far from losers, more like penny abusers Money young, money on my mind, I'm Sunny, sunny, sunny, let me shine, rise Risin' on the motherfuckin' east like the Islam I don't really give a fuck, they lookin' like, Who is him? Nigga came through with the motherfuckin' ism Like racism, or sexism, I texting 'em That motherfuckin' knowledge I drop Denzel, motherfucka, on the shit I pop I skate like a motherfuckin' Figure 8 If a nigga wanna talk about a dinner date You don't want this, you don't want that You don't want that, I came through Motherfucker, yeah, I gotta go back With the throwback, like a motherfuckin' seventy Came through with the motherfuckin' telepathy5</t>
+          <t>Ezekiel Vo. Denzel Curry Crash The Server Uh, uh, uh, uh, uh, uh, uh, uh Uh, uh, uh Prophet Ezekiel, AKA the prophecy I had to give you my government so you'd know me properly See this is my property, yet the system don't give a damn Take Mars, remove the S, spell it backwards, I'm a ram This the jam See, everything is hot on this desolate planet The type to put your satellite through some permanent damage No diagnostics, all your drawers need to see a mechanic Damn, we can't manageman, we can't vanish I can't speak robot, but I can speak Spanish Seems a lot of real music has been forever banished Evangelists of the sonic revival, from trip-hop into tribal Not a fight over music, this is my fight for survival How many robots? How many rebels? How many lighters? How many levels? How many monkeys? How many barrels? Left in peril, death isn't the only thing that scare you Toast to life Drop the crack, start a riot Flood the planet, be a tyrant Paint the streets, crash the server Express yourself, always be the converter Drop the crack, start a riot Flood the planet, be a tyrant Paint the streets, crash the server Express yourself, always be the converter1</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Meetings</t>
+          <t>Painkiller (Remix)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>I woke up and I checked my bank, like woo there it go Meetings at the office tryna map out how I blow Bitches on my line they tryna get up in my car I told her if she lick me, she get VIP at my shows This how it go, we get the Fifth and the blow Bitches and dough, you taking pics then you go Popped a quarter bar then took a sip for my zone I woke up from a nap and hit a bitch then I yawn Pending is done, these niggas envy the one Give me some grub, need complementary cups Second they stutter, you little children should run I swerve up in my pick-up just to pick up my bucks This shit for fun, you niggas in it to stunt Give 'em a run then watch 'em give up the love Pending is done, these niggas envy the one Quarter tank of gas but I'm still filling my cup I'm bout to drown in the liquor I poured up Feel like Peter Pan I will never get older I will never, never land I fall, I fall hard End up in Michael Jacksons backyard Lord, captain of hooks when I fish for a bitch But I might throw her back if the bitches cat fish She want cashing with a bit of passion I gets the paper, she gets the plastic Grocery store, your are just a shore that a nigga will soon explore Submarinas, subterranean, mediterranean And figure out that we alien, that's Sigourney Weaver Call me Julius cause I had to cease her She want a nigga cause I built my feet up Then she get me off like misdemeanors It's so demeaning, that my flow is genius Like a river had thoughts Slithering niggas that tried to move and get caught Sipping on liquor I'm moving in the right spot I can write a novel if the crackas' wanna plot Exploit, when the expo, exnay Extra X-ray, when I escape Explain cold case when the court date 1207 to the FLA Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow Meetings at the office tryna map how I blow I told her if she lick me, she get VIP at my shows I told her if she lick me, she get VIP at my shows This how it go, we get the Fifth and the This how it go, we get the Fifth and the blow3</t>
+          <t>You're my painkiller When my brain gets bitter You keep me close You keep me close I got front row seats for the parkside livin' Feel like the one, but I'm one in a billion Teenage cynical And I don't really know What's the point of livin' if my heart gets broken? Drivin' on the road, waiting for head-on collision Springtime funeral I miss you, but I'd rather be alone To keep me from Heartbreaks, headaches The doctor says I'm diagnosed with Shit days, mistakes But I'll be fine But I'll be fine 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close You keep me close Window seats as the plane starts leavin' Miss those streets where my knees were bleedin' Homesick veteran I left my bed again Oh, lookin' for Heartbreaks, headaches The doctor says I'm diagnosed with Shit days, mistakes But I'll be fine But I'll be fine Ooh-ooh 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close You keep me close Okay, the pain kills with no hesitation And my brain fills with no narration Got the same shield that block all our hatred Got the same chills when them thoughts are racin' about you Talkin' flowers in various hues Take a poem and make it the blues If it's violence, then sirens are red You won't talk 'til I'm under the bed Pretty nasty, girl, forget what I said I'm kidding, baby, I'm just out of my head I've been thinkin' out Pandora's Box Take your box and you keepin' the lock And I'll keep it locked down for you And I'm bound to you, how that sound to you? Then spread like the flu And that thought get around to you 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close, ooh-woah You keep me close I know you hear me Close Yeah Close Close</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Dressed 2 Kill</t>
+          <t>I’m Him</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PITCH FOR A MOVIE LION KING IN THE HOOD 1. cast list Mufasa his absence played by every father ever Simba played by the first boy you know who died too young Sarabi played by the woman in church who has forgot the taste of praise in favor of the earth that hold her boy captive Nala played by the girl crying on the swing for her valentine who now date the dirt Timon Pumbaa played by Ray-Ray Man-Man, the joy of not-dead friends Zazu played by the ghost of James Baldwin Rafiki played by a good uncle with a bad habit, his lust for rocks on his lips Scar played by the world, the police, the law its makers, the rope-colored hands The endless army of hyenas played by a gust choked tight with bullet shells, the bullets themselves now dressed in a boy 2. Opening Credits brought to you by Disney dead aunts brought to you on a platter, an apple in the lion-boys mouth brought to you on a terrible boat, reeking of shit an unnamed sick brought to you on a tree branch heavy with tree-colored man 3. Opening Scene The Circle of Life Nants ingonyama bagithi baba Sithi uhhmm ingonyama Nants ingonyama bagithi baba Sithi uhhmm ingonyama Ingonyama Siyo Nqoba Ingonyama a mothers knees fall into a puddle of the blood she made herself Ingonyama nengw enamabala 4. Song Oh I just cant wait to be king this is the part where they realize that black people dream our blood is indeed blood our teeth, teeth the music is loud because the field was wide the field was long we dreamed on simple things shoes, our children back this is the part where the racist cuts off his tongue, his wet, pink repent he gives his eyes his hands anything that has ever assumed a black body a black burnable thing. He gives himself to the lions the lions feast the lions are still a metaphor for black boys the boys, full of fear turned into dinner, fall asleep they dream yes, yes, they really do dream. 5. Song Be Prepared for the stampede of tiny lead beast for the jury not to flinch for the hands, wild in your wildless hair for the darkest toll, your double down to get half for the man, ecstatic with triggers to spread your legs while they search for drugs there for the drug there, for their mouths to ask that big question to hear your history told to you over over over for it never to change. 6. Scene Mufasa Dies at the hands of his brother Scar What did you expect to be different? The hood according to whiteness the sadness of this film is any jungle a brother kills a brotha the left behind body a forgettable meal for the dark, white birds circling above 7. Montage Timon Pumbaa teach Simba a music other than the blues clip 1 the boy getting older in spite of everything clip 2 the boy the boy-friends smoking blunts for once something else brown on fire clip 3 the boy who would be king with his mouth in another mans throne clip 4 Timon Simba singing down each others throat clip 5 Timba calling Pumbaa a faggot they all laugh clip 6 murals of all the dead friends faces clip 7 funeral songs. small caskets clip 8 red, blue, periwinkle, yellow, black, blood-maroon rags clip 9 flowers picture frames on the side walk clip 10 shot the boys laughing anyway clip 11 shot the boys laughing in the sun clip 12 shot the boys laughing in the rain clip 13 shot of the boys not being shot 8. Scene Simba comes home to kill his uncle even here, a black man kills a black man, this awful cartoon, all the children cry blood until their bodies are just bone on skin. roll the credits, I must go weep. Why does Disney remind us what we have learned - one black light swallows another so easy - killing is unavoidable as death - the kings throne is wet with his brothers blood - the queen suffers too but gets no name 9. closing credits say the name of the first boy you love who died. say it dont cry. say it love the air around your tongue. say it watch the fire come. say it watch the son rise.</t>
+          <t>Ronny J, please turn me up Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh I got a bitch, she gon' set up a play for me Set up Love her, my niggas put you in the grave for me Brrt, yeah Ride with them .6, you get cut like a bakery Brrt, yeah Keep a bank on me, oh, yeah, that motherfucker stay with me Yeah, yeah It's a dark world, I'ma get mine Big Patek on my wrist, that's big shine Big, uh These niggas broke, yeah, they pockets a lil' hungry Shit funny, remember when they was above me Haha, Purpp Put seventy bands in the trap, they gon' trust me Just trust me, the packs on the way Yeah, we gon' rush 'em Yeah, yeah I fuck on that bitch, can't let her stay with me Won't let her play me, she get lucky if she lay with me Fuck on her, yeah Bank head on me, it make me go hard I'm gettin' brain from my bitch, only time that she smart Put them on a song, only time that they holdin' Show them what they talkin', my jewelry, they don't want it Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Don't mess with them shooters, ayy Put a hole in your medulla, ayy Everybody think they a tough guy, 'til they go missin' Now I'm in Cuba, ayy Rrah At the church, say, Hallelujah, ayy They love, they miss, they knew ya, ayy And you coulda had a future, ayy But you just threw it all away Send the boys peekin' around the corner, you sippin' on corona While bullets spread like corona Yeah Now it's in the air like aroma, I want the smoke Yeah Bitch, I'm a muhfuckin' stoner Yeah Still be a loner, solo dolo Black like Zulu, still rock Polo Yeah Keep a semi auto, R-I-P Lotto That's my motto, see your ass tomorrow Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Underwater</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Stick drill ravage From medulla of the savage Niggas sticking with the illest shit got more sticks than a cabin Wet em up like Squarepants 'till the niggas start crabbin' Rundown gun down like Birdman they clapping BRRRTT! What happened to that boy? Niggas yapping then they pull a strap into that boy Paramedics come stressing cause a nigga got wetted Lurking low in the gardens watch his head get severed I reign supreme, the world is mine and you can't do a thing Cause you can't kill a God but a God can kill a king Checkmate, fuck this shit you dead weight You the type to make a jit heart race Cut cable fuck niggas and what would that make you The person in the mirror not looking so beautiful Who is you nigga, mirror mirror in the bathroom Am I gonna take a job to the back room Later pimping down and hit em with that crack boom Then I send her home and laugh like some old coons By the store Life is fact the truth is cold That's how you live 300 years more Philosophy the prophecy is probably a robbery Don't talk to me about, who's the motherfucking future C9 bow down to your rulers I got four niggas on the porch Two niggas out the park You better have your burner tucked when walking after dark Niggas be running reckless with their hammers ready to spark Everybody is a target in the hood they playing darts Taking them underwater It's through the hood and past the wudz Taking them underwater So pass the wudz and roll them good Taking them underwater And drive my mess understood Taking them underwater I'll take you underwater Okay this ones for all my dogs I do it for all of my niggas For Lotto, Chinaman, and Tiarra pour out some liquor Still thug livin' Come witness the black vision, trigger finger itchin' Brothers fall like thanksgiving, your heart is St. Nicholas Merry Christmas American Psycho with Bale as the Christian Bust your head like baby ? made of crimson Where is he now I'm spitting genocide to niglets Paraquiz back in the day, watch me form into bitches Completes the masters, you bastards Need to pass her, but the pastor, is an actor If the rapture was to capture Any mother fucker on this planet I know that Gods an artist so hell pick a good canvas So I let the bad ones perish I found god inside the face that Im starin', at In my world Jesus is black and misunderstood Im taking y'all past to the wudz and say There they go sticking again There they go sticking again There they go sticking again There they go sticking again So steal, steal, steal, steal There they go sticking again There they go sticking again Grab the steer throw the keys get the mac Cyberspace mask doing drive-bys in hovercrafts Black hover craft Grey matter gats counter act What better way to use crack to terminate blacks Black got jacked now thats the school of Hard Rock This aint no game you dont live with a life stock Like the Legend of Zelda its Heaven or Hell, bruh You callin' for 911 but theres no one to help ya M16 feel like it's Hamburger Helper And now you see yourself flying with Delta an airline Tech 9 young and wave it ya tape line its C9 You fuckin' with the wrong air-side Combine my organized crime in the mean time We seem blind still on the grind till we see shine Hover slow on the green eye You better hope you have a keen eye Drown the youth4</t>
+          <t>I think I paid my dues, I think I lift my cup I think my rent is due, I think I'll get high Window shopping, couldn't cop, no boycott Leggo see what's at the top, no toy block Them boys got toys and still, I don't even got a deal I think I'll get high I like my currency lucrative, my Words are provocative, I Say what I say cause what I say is my prerogative, I Stay positive as if I was terminally ill I could imagine having a friend but that never was real Lemon hands only using me for the limelight Looking at my wrist, they reveal themselves when the time's right When it's said and done, I can only see it in hindsight Pull a Fetty Wap on these niggas and give a blind eye I don't rock fake shit or fight soft niggas I try to unite all my brothers cause I lost niggas I got Nell and Slikk back so now I kick back Only thing I pray for is Mookie to get his jit back What's up? Got my nigga Boogie in the front, nigga what's up? Hop out, do my motherfuckin' stuff, nigga what's up? Girl I ain't rich, just a nigga on the come up Grindin' 'til the sun up, believe that I'm doin' what I want today doin' what I want I'm movin' how I want today I'm steady doin' what I want today movin' how I want And I been losin' but I won today I got to stop and see the signs, man a lot been on my mind All this hurling from this vodka mixed with wine, uh Tryna get a spot, I seen my mama get declined And then my chakra got aligned, niggas plottin' on my spine, oh shit Old backstabbin', all day hashtaggin' Lazy don't suit me nigga, see it when I start slackin' I learned to see the bigger picture when they start flashing Got it depicted to the pixel, you just all captions Oh shit, I feel enriched from my misfortune Just know that talkin' gotta chill if you bench-warming Just know the groupie getting blocked before she ever get to score No you just a rebound, I only hit you when I'm bored, oh You only wit' me for the come up Got my nigga Curry in the front, nigga what's up? Hop out, do my motherfuckin' stuff, nigga what's up? Drugs got a nigga moonwalkin' 'til the sun up, believe that I'm doin' what I want today doin' what I want I'm movin' how I want today I'm steady doin' what I want today movin' how I want And I been losin' but I won today Doin' what I want, doin' what I want Movin' how I want, movin' how I want Doin' what I want, movin' how I want7</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Darius</t>
+          <t>Bad Luck</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Shout out to them niggas who ain't scared to let them triggers go Fuck my cousin shooters who was snitching yea my niggas know Fuck the witnesses and fuck the judge, just let my cousin go They gave my nigga 25 to life like that's the minimal Boy I'm from a city where niggas dont show no pity With a nine in their hand they'll give you 9 like 50 Don't get jack son If a nigga try to rob me, you'll see what I have in store Yeah boy I pack son This life is kill or be killed When you're still, they'll steal with a steel So when attacking, be packing the shit that's clapping Or niggas will have you dead No witnesses know what happened When the 12 pull up, they'll circle the block 2 times Followed by 24 right behind, that's the first 48 P.I.G.S interrogate us talking bout us on tape You wanna black ball me go ahead and suck em I'm screaming fuck em I never loved em And never did really trust em And this is not a fib or a tragedy But a lesson on how not to treat your family Cause we had alcohol and marijuana 40 oz beverages Adolescents feeling pain resort to those as medicines I'm cruising down the highway, get the fuck out of my way Ice cubes in my drank and my car is smokey, celebrating Friday Trouble stuck on my mental I don't know what I'm about to get into My shooters are in the back They will act if we have any issues They're visiting down from Georgia Fucking shit up in Florida Peer pressure is on my heart And my fear is in the aroma nigga Bruh, you acting like a bitch ass nigga Peelin' down south and one route to count figures Motherfuck friends, in the end we all sinners Keep an eye on your family cause blood ain't thicker Imported the water from the blood of pure life Headed down to Miami with the mommies and fresh ice Robbing and rolling and we got the Glock tied ? And she about to give me something to light Organized crime, mobbing, gudda, squadding Would cop an Iphone but Steven was jobless Enter the Dark Knight its time to start robbing Look at my cousins in the whip, heads nodding Gat toking, pistols hoking, nigga on your damn street Put six in your chest now that's Lebron rolling with that damn heat Most of these niggas, have no father figures Their fathers the trigger now you paint the picture With strokes of ways how to survive in this economy They never did school but they learned trigonometry Shits gets real in the field Trying to free my cousin Dee So my mind is of Michael Scofield But them niggas was ratting and actin just like a tweener When all they really would of got was a small misdemeanour Thats why its killed or be killed is the mindset when you're coming from that jungle All of my shooters have mindsets like Michael Buffer they are ready to rumble Choppers hanging out that window the motive was pretty simple These bullets have minds themselves and these here were meant for your temple Nigga get back, when you hear that sound get back Motherfuckers try to rob us ya ass will get splacked Now you niggas microsoft, we'll aim it ya Adam's apple Try to test us and we'll go and get the Mack When i pulled off in my civic with wrecking odours of Henny My nigga said he need work and my niggas know we got plenty So we met up later the night, shooters in sight Everything seemed alright Until I pulled out the work then he pulled out a gun Motherfucker tried to take my life, come on You know my shooters ain't having that Grabbed the guns then they cocked it back Then they gave him till 3...2...1 then they shot his back Then I looked in my rear view can believe what I've seen My shooters hopped out the whip Them niggas fled off the scene Like God damn They say blood is thicker than water I'm thirsty for family that won't change And always keep it for 4 quarters But wait.. The family scale is unproportionate Ya son just got arrested and the crowd was recording it So you can see Lemony Snicket all in my ear Yea its unfortunate this event just had to happen here But see my cousin was the shooter Now I'm in the reptile room, with invertebrates and look alike medusas I never did the ratting Ratting will have niggas put cheese on ya head Them shooters Green Bay packing So dont D.I.E Or it's R.I.P With a head shot Now they trying to see I.D Motherfuckin run to the end ?4</t>
+          <t>Yeah Woo Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Bad luck Robin from my hood, Batman pull up like, What's good? Real life, no heroes in my hood, 12, ain't stoppin' V.I.P. , we lit, this bitch said I ain't But I got diamonds in my , I got diamonds on my They still get back and they words are destruction, , we ain't worried Forever known as a hermit, my life will never be perfect Good day, bad day, bad brain, rush Crush , little ants are dying in my dark pit, yeah Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Lit like neon, I don't hang with no peons Pull up in a Masi', I might spin that in a Nissan My mouth look peed on, I'm ballin' like Deion My heart cold, Freon, that bitch say that I'm a demon I rock Rock the place Place, you hurt Hurt, you hate Hate You , too bad Bad, I her face Face I hunt Hunt, you bait Bait, I save Save the day Day It's not Not your day Day Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Woo Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Crash The Server</t>
+          <t>Live From The Abyss</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Ezekiel Vo. Denzel Curry Crash The Server Uh, uh, uh, uh, uh, uh, uh, uh Uh, uh, uh Prophet Ezekiel, AKA the prophecy I had to give you my government so you'd know me properly See this is my property, yet the system don't give a damn Take Mars, remove the S, spell it backwards, I'm a ram This the jam See, everything is hot on this desolate planet The type to put your satellite through some permanent damage No diagnostics, all your drawers need to see a mechanic Damn, we can't manageman, we can't vanish I can't speak robot, but I can speak Spanish Seems a lot of real music has been forever banished Evangelists of the sonic revival, from trip-hop into tribal Not a fight over music, this is my fight for survival How many robots? How many rebels? How many lighters? How many levels? How many monkeys? How many barrels? Left in peril, death isn't the only thing that scare you Toast to life Drop the crack, start a riot Flood the planet, be a tyrant Paint the streets, crash the server Express yourself, always be the converter Drop the crack, start a riot Flood the planet, be a tyrant Paint the streets, crash the server Express yourself, always be the converter1</t>
+          <t>Overnight, Minneapolis on fire Protestors leaving an auto parts store in flames Others seen looting a local Target Tonight was a different night of protesting I walk around with confidence, plottin' on accomplishments Plannin' somethin' radical in the cut, so anonymous I don't fuck with my president, tried to block all Mexicans If he hear this message, please don't send SWAT to my residence The police keep on killin' us, hands up then they start to shoot Bad enough I'm scared of them and afraid of my niggas too I'm screamin', Black is beautiful, views are probably anti-race I can see the fear in your eyes when you look in my face We all been on this paper chase, the only way to keep us free All I see is red and green, money soak when my foes'll bleed I'm pourin' up my Hennessy, fightin' with my shadow self End up back in therapy, next to God, that's what seems to help Got a tat' of Malcolm X, other one is young Bruce Lee Always practice martial arts, misinformed then you need to read The truth they always hidin' in books because they always overlooked That's all I need to say in this verse, and now here comes the hook Reportin' live from the depths of the abyss, I'm at risk When I be talkin' to my people like this, raise my fist I tell Trump and the office to suck a dick, bitch, I'm pissed Reportin' live from the depths of the abyss, the abyss Reportin' live from the depths of the abyss, I'm at risk When I be talkin' to my people like this, raise my fist I tell Trump and the office to suck a dick, bitch, I'm pissed Reportin' live from the depths of the abyss, the abyss, the abyss When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop?4</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Painkiller (Remix)</t>
+          <t>Glacier</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>You're my painkiller When my brain gets bitter You keep me close You keep me close I got front row seats for the parkside livin' Feel like the one, but I'm one in a billion Teenage cynical And I don't really know What's the point of livin' if my heart gets broken? Drivin' on the road, waiting for head-on collision Springtime funeral I miss you, but I'd rather be alone To keep me from Heartbreaks, headaches The doctor says I'm diagnosed with Shit days, mistakes But I'll be fine But I'll be fine 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close You keep me close Window seats as the plane starts leavin' Miss those streets where my knees were bleedin' Homesick veteran I left my bed again Oh, lookin' for Heartbreaks, headaches The doctor says I'm diagnosed with Shit days, mistakes But I'll be fine But I'll be fine Ooh-ooh 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close You keep me close Okay, the pain kills with no hesitation And my brain fills with no narration Got the same shield that block all our hatred Got the same chills when them thoughts are racin' about you Talkin' flowers in various hues Take a poem and make it the blues If it's violence, then sirens are red You won't talk 'til I'm under the bed Pretty nasty, girl, forget what I said I'm kidding, baby, I'm just out of my head I've been thinkin' out Pandora's Box Take your box and you keepin' the lock And I'll keep it locked down for you And I'm bound to you, how that sound to you? Then spread like the flu And that thought get around to you 'Cause you're my painkiller When my brain gets bitter You keep me close When I've been miserable And it takes forever To let my brain get better You keep me close, ooh-woah You keep me close I know you hear me Close Yeah Close Close</t>
+          <t>Ronny J, listen up Ayy I be the Aquarius I spit out aquariums Mediterranean, bitch, I'm a alien I'm Native American, rollin', no sharin' it Bitch, I am arrogant Hazardous when I spit Darius Savage, but I'm the protagonist All of y'all leaders sip Actavis, mixed with the Xanax Control it, no Janet That shit is like satanic, so, bitch, I can't stand it I'll mail it and stab it, put guts on your canvas Then off to the Hamptons Nigga, I feel like Fred Hampton Bitch, I'm reppin' the mushroom planet I put my soul on the canvas You can peg it on a panoramic Boy, I'm just shootin' from a vantage point Now you damaged, boy Ultimately, I will Eagleton your lawn You ain't on what I'm on Pull up beat by Saigon You with Lucifer, I don't lose so far From a galaxy that's way afar That's far away, that's hard to say Who's hard to kill and who's got the ayy Okay Beyond triflin', I'm psychic I'm the man, motherfucker, I'm lightning Tryna clash with a motherfuckin' titan Denzel drag 'em to the river like a Pisces Woof I'm icy, she feisty I'm the man, motherfucker, I'm lightning She a shone but you might call her wifey C9 make the good girls get hyphy Beyond triflin', I'm psychic I'm the man, motherfucker, I'm lightning Tryna clash with a motherfuckin' titan Denzel drag 'em to the river like a Pisces Woof I'm icy, she feisty I'm the man, motherfucker, I'm lightning She a shone but you might call her wifey C9 make the good girls get hyphy6</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>I’m Him</t>
+          <t>Raider Klan Phonk</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Ronny J, please turn me up Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh I got a bitch, she gon' set up a play for me Set up Love her, my niggas put you in the grave for me Brrt, yeah Ride with them .6, you get cut like a bakery Brrt, yeah Keep a bank on me, oh, yeah, that motherfucker stay with me Yeah, yeah It's a dark world, I'ma get mine Big Patek on my wrist, that's big shine Big, uh These niggas broke, yeah, they pockets a lil' hungry Shit funny, remember when they was above me Haha, Purpp Put seventy bands in the trap, they gon' trust me Just trust me, the packs on the way Yeah, we gon' rush 'em Yeah, yeah I fuck on that bitch, can't let her stay with me Won't let her play me, she get lucky if she lay with me Fuck on her, yeah Bank head on me, it make me go hard I'm gettin' brain from my bitch, only time that she smart Put them on a song, only time that they holdin' Show them what they talkin', my jewelry, they don't want it Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Don't mess with them shooters, ayy Put a hole in your medulla, ayy Everybody think they a tough guy, 'til they go missin' Now I'm in Cuba, ayy Rrah At the church, say, Hallelujah, ayy They love, they miss, they knew ya, ayy And you coulda had a future, ayy But you just threw it all away Send the boys peekin' around the corner, you sippin' on corona While bullets spread like corona Yeah Now it's in the air like aroma, I want the smoke Yeah Bitch, I'm a muhfuckin' stoner Yeah Still be a loner, solo dolo Black like Zulu, still rock Polo Yeah Keep a semi auto, R-I-P Lotto That's my motto, see your ass tomorrow Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh Play that bitch bad, she play Play Fifty on the pinky, look like snowflake Pop an X pill, hop right on stage X Fucked her one time, told her Go that way That Purpp Double R truck, I'm him Him Pockets on fat, bitch, slim Yeah Yeah, ballin' out the gym, no rim Yeah Don't play with that boy, his shooters gon' hit Brrt, brrt, uh</t>
+          <t>Raider-Raider-Raider Klan, CPG Ruben Slikk, the nigga with that fucking tongue I lick that pussy up, I had that bitch so sprung Sucking my dick so hard she bit the skin of my fucking snake Ruben fucking Slikk, I jack my dick and then I masturbate 24 times and skeet up in her face, just to feel the load in her fucking mouth Tell that bitch to swallow the whole thing Ruben Slikk, keeping that cocaine Cause I make it rain In the club with my trap-work and my pipework, mane Pimp shit, mix this shit on up- a Mixologist What they call a G, when they hating looking at my chips Nigga check yo boy out, at the fucking ATM I ain't got no bank account, I don't pay no taxes man Nigga this is pimp shit, catch me with my ears glisten Yeah I got 2 studs, in my right ear bitch So I can hear clear, fuck her in the rear bitch Bad boy shit, Raider Klan black flaggin'... Yeah I'm leaving niggas shook Denzel Curry in that untold chapter of your Harry Potter book It's me, the P-R the I-E the S-T to the H double O-E nigga that is me to the priest To the hood looks good, yeah its that Denzel Curry motherfucker Already told you I am as cool as McFlurry If you wanna drop me, and wanna try and attack nigga you will get bit like a fucking Big Mac Its that nigga named Curry, no chicken I'm killing bitches without the AK, lyrical spray Hey! What is there to say Killing these cockroaches Denzel Curry a flow bitch Everybody knows that Denzel Curry got that white shit Coke, bitch Leave em cokey in the wet Denzel Curry, I'm catching the wave Let me go and sit, niggas transact Off my bitch, off the fucking Raider Klan M.O.E gang Denzel Curry about to rip this bitch with that Raider slang Yeah, I come in this bitch ready to attack Smack a bitch, chicken head, but I ain't no Project Pat Let me pass it back, to the motherfucking 3-6 Denzel Curry, the one and the only, the nigga ? I'm killing the shit like that, now.. Up on the motherfucking beat, trying to do this shit walking down the street With the black trench coat And I'm coming for your fucking throat Wanna play these games, my nigga just know I'm not the lame Spitting the motherfucking flow for the listeners You already know these bitches ain't missing us They kissing us And my dick is on her face, kissing my nuts My nigga I put her in her place Bitch I'm the king, big ding-a-ling Got the fattest, phonkiest sounds my nigga in the state ring Old school, take it back to the '88 Already know my nigga got the .38, robbing Niggas straight coming through, I'm knocking Niggas heads off, my nigga I ain't stopping And if you think that I'm a bitch Come test me motherfucker, I'll throw your ass up in the ditch Now listen, to the way I go hard Throw the motherfucking beat while I ride through your boulevard Nigga don't start if you think that I am a joke Goddamn I'm so fucked up, like I was on coke But I'm not, I'm sober And I am going to come through in the fucking black Range Rover The black vamp, and I don't give a damn Nigga CPG, Raider Klan we going HAM</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Bwoii</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>I think I paid my dues, I think I lift my cup I think my rent is due, I think I'll get high Window shopping, couldn't cop, no boycott Leggo see what's at the top, no toy block Them boys got toys and still, I don't even got a deal I think I'll get high I like my currency lucrative, my Words are provocative, I Say what I say cause what I say is my prerogative, I Stay positive as if I was terminally ill I could imagine having a friend but that never was real Lemon hands only using me for the limelight Looking at my wrist, they reveal themselves when the time's right When it's said and done, I can only see it in hindsight Pull a Fetty Wap on these niggas and give a blind eye I don't rock fake shit or fight soft niggas I try to unite all my brothers cause I lost niggas I got Nell and Slikk back so now I kick back Only thing I pray for is Mookie to get his jit back What's up? Got my nigga Boogie in the front, nigga what's up? Hop out, do my motherfuckin' stuff, nigga what's up? Girl I ain't rich, just a nigga on the come up Grindin' 'til the sun up, believe that I'm doin' what I want today doin' what I want I'm movin' how I want today I'm steady doin' what I want today movin' how I want And I been losin' but I won today I got to stop and see the signs, man a lot been on my mind All this hurling from this vodka mixed with wine, uh Tryna get a spot, I seen my mama get declined And then my chakra got aligned, niggas plottin' on my spine, oh shit Old backstabbin', all day hashtaggin' Lazy don't suit me nigga, see it when I start slackin' I learned to see the bigger picture when they start flashing Got it depicted to the pixel, you just all captions Oh shit, I feel enriched from my misfortune Just know that talkin' gotta chill if you bench-warming Just know the groupie getting blocked before she ever get to score No you just a rebound, I only hit you when I'm bored, oh You only wit' me for the come up Got my nigga Curry in the front, nigga what's up? Hop out, do my motherfuckin' stuff, nigga what's up? Drugs got a nigga moonwalkin' 'til the sun up, believe that I'm doin' what I want today doin' what I want I'm movin' how I want today I'm steady doin' what I want today movin' how I want And I been losin' but I won today Doin' what I want, doin' what I want Movin' how I want, movin' how I want Doin' what I want, movin' how I want7</t>
+          <t>Who is that nigga that's intergalactically fucking all your bitches? He's snapping and chatting our homegirl as she's sucking on my dizznick God base, bad bitch, walk up to her sprinkle the sentence Dip on a dose of this pimpin' equals submission at longer extension My nigga you lame Drug dealers be switching to Santa Claus instead of a cane Nigga your memories are dropped Denny Cascade better watch your brain Fuck them other niggas mane They're not icy, and they don't ball Acid got me scattered brain See my thoughts across the wall Damn, and I'm an abyssal I'm more than a kid, so baby girl get the best of me In and out and in and out continue my pimping legacy Denny Cascade the universe is saying Slumber in my bedpost as I meditate and lay Blowing that Luke Skywalker kush, Reflex under my nigga I could And if this ain't my nigga you hood Pu Pu Pu Pu You dead or you shook Damn, real nigga still will kill niggas have you lying still nigga Nah, nah for real nigga, but went up your Hilfiger It's the notorious spitter, kicking it with my niggas From the Vill, tryna bill all my niggas can keep it real My people sittin' in cells placing robbery with a steel Jumping numbers on every bail just so they can get out to kill They arresting Lee Hart Infield living the life of a cotton mill Enlighten by Christ so I see the wrong in my right Every night he gon' off the marijuana from Cali to Arizona I get bad bitch, bonus she bitch I hit homers Gotta take you by the edge no stitch and give donors daily Niggas on my side play crazy It's new fake shot to wanna roll me the Glock Drop it, but me I'ma do it like the players do Mac witchu boo sipping purple juice Your bitch wanna chill 'cause she know the truth Is my clique too trill living virtual So clique too my trill living virtual Clique too trill living virtual My clique too trill living virtual Clique too trill living virtual That ain't reality it's blocked the animality That Denny possessed on the system on the exorcist anatomy Radically rebellious to the fuckery and the faggotry, not as a caution that you cannot sugar me Not by the doctor with boy with the Agassi that you got I'm the antagonist to the plot of how America with three K's wanna see niggas got cake That's the operation for the country separation Segregate and divide and conquer they wanna see us dead, eh Planet of the apes 'cause now niggas wearing Bape Put a color in coordination that's why niggas hate on Dre But he black too like a tattoo, report his color and Trying to separate the kin from the mixture of the skin Fuck a bitch B M Dub '96 they killed the thug Now it's us against the world new millennium niggas like us Drop the late shit down but you prolly gone hear me just like believe me or not they'll look for you and Ripley Why Why why Fuck that though you don't gotta believe 'cause nigga like us all have weed I got plenty shrooms when I walk in the room get any bitch here high off me Tryna put the word through my penmanship 'Cause you don't get the shit 'cause your inferior I'ma go slap on my interior boy Tongue loud we ain't hearing ya boy Trap the photo full who has been noticed me Nigga in jail and I'm sending them photos I hoping they know that I'm out here grinding for a muthafuckin reason Clock niggas on the IPod season what is your meaningful dream Better wake your punk ass up Like Sway in the morning, I'm down and recording as early as hell Quickly cops wanna throw me in jail, What the fuck? I just be coolin You ain't dropped off shit let me school Ya Don't let this rap shit fool Ya I don't want beef, I illuminate until we see the gates and this God says that we face As I kill the Sphinx with a rival verse C9 is like Steve Jobs birth Nigga that's the future God glasses I see right through Ya Fuck nigga when I fuck which and don't No body no body fuck with my kitchen 'Cause we cooking the difference You niggas ain't doing shit different Respect my vision little boy15</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Bad Luck</t>
+          <t>Chrome Hearts</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Yeah Woo Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Bad luck Robin from my hood, Batman pull up like, What's good? Real life, no heroes in my hood, 12, ain't stoppin' V.I.P. , we lit, this bitch said I ain't But I got diamonds in my , I got diamonds on my They still get back and they words are destruction, , we ain't worried Forever known as a hermit, my life will never be perfect Good day, bad day, bad brain, rush Crush , little ants are dying in my dark pit, yeah Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Lit like neon, I don't hang with no peons Pull up in a Masi', I might spin that in a Nissan My mouth look peed on, I'm ballin' like Deion My heart cold, Freon, that bitch say that I'm a demon I rock Rock the place Place, you hurt Hurt, you hate Hate You , too bad Bad, I her face Face I hunt Hunt, you bait Bait, I save Save the day Day It's not Not your day Day Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the Woo Not human, I get treated like an object Wasn't even given time for petty soft Bad luck, turn my penny to a mob debt Bad luck, I ain't even have a job yet Bad luck, so I guess I'm gonna rob next Bad luck, now you layin' with a broke neck Bad luck, very bad, bad, not good Bad luck, tuck it all in the</t>
+          <t>I'ma have you put your lighters in the air I'd like to introduce my main man, Zacari Take it away, man Hope is still right around the corner Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide in suburbans Slide, slip Still gettin' my hands dirty Slide Still gettin' my hands dirty I need cures and angels, pure and faithful Walkin' that path could be painful From innocent fun to guilty pleasures, watch it collide in the same view I felt the effects of what fame do When you not self-aware, it can change you As I look at the past like abandoned It's the little things that really made you A main man, paid man, payin' for some Ray-Bans That cost more than your rent while others struggle to get a cent In a sense, I ain't shit, because it's many people starvin' Tombstones of a selfish man, these words are carved in Hope is still right around the corner Yo Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan Yo But in the night, I still slide Yo Just like the mask of Viktor Vaughn, you see, my heart's made of chrome See, all these trials and tribulations got me trapped in my zone Every part of my spirit become trapped in these songs In these palms, I have my destiny, so I am not calm Winnin' women been in bed sheets Layin' and lyin' while y'all feel like dyin' Fightin' for my life, is it worth it? What's my purpose? On the surface, I'm just a mortal man, understand that We make our own choices 'til the day we hand our soul back Hope is still right around the corner Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide Man I follow the golden pastures My golden soul is not for these hoes to capture I mix emotions 'til they remixed and mastered Was lookin' disasters, lookin' at my life after And even before I was goin' to war with these crackers Writin' the end to my chapter, bless it with laughter Pass the motherfuckin' weasel, I could achieve the greatest Be the high, the curse of livin' forever is wantin' to die I seen it all, been through it all I love and I hate you all The only thing I'm here to do is just evolve, dawg Hope is still right around the corner Shit Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide in suburbans Slide Still gettin' my hands dirty Slide Still gettin' my hands dirty Duh-nah-nah-nah-nah I like that, that Nah-nah-nah-nah-nah Duh-nah-nah-nah Mm-hmm-mm-hmm Mm-hmm-mm-hmm-mm Mm-hmm-mm-hmm Mm Give it up for Tim1</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Live From The Abyss</t>
+          <t>Real Feels</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Overnight, Minneapolis on fire Protestors leaving an auto parts store in flames Others seen looting a local Target Tonight was a different night of protesting I walk around with confidence, plottin' on accomplishments Plannin' somethin' radical in the cut, so anonymous I don't fuck with my president, tried to block all Mexicans If he hear this message, please don't send SWAT to my residence The police keep on killin' us, hands up then they start to shoot Bad enough I'm scared of them and afraid of my niggas too I'm screamin', Black is beautiful, views are probably anti-race I can see the fear in your eyes when you look in my face We all been on this paper chase, the only way to keep us free All I see is red and green, money soak when my foes'll bleed I'm pourin' up my Hennessy, fightin' with my shadow self End up back in therapy, next to God, that's what seems to help Got a tat' of Malcolm X, other one is young Bruce Lee Always practice martial arts, misinformed then you need to read The truth they always hidin' in books because they always overlooked That's all I need to say in this verse, and now here comes the hook Reportin' live from the depths of the abyss, I'm at risk When I be talkin' to my people like this, raise my fist I tell Trump and the office to suck a dick, bitch, I'm pissed Reportin' live from the depths of the abyss, the abyss Reportin' live from the depths of the abyss, I'm at risk When I be talkin' to my people like this, raise my fist I tell Trump and the office to suck a dick, bitch, I'm pissed Reportin' live from the depths of the abyss, the abyss, the abyss When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop? When is it really gon' change? When is it really gon' stop?4</t>
+          <t>I tried to keep these feelings in control I've tried to find a reason not to show you But every time I do, I give my all Just can't let it go And even if you say, even if you say no I'm gonna fight babe 'Cause what I need has taken hold And even if you play, even if you play dumb It's not gonna change me It's not gonna change me If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you I'm getting bored of artificial love That one night feeling is never quite enough There's evidence in each that we touch That I'm not giving up And even if you say, even if you say no I'm gonna fight babe 'Cause what I need has taken hold And even if you play, even if you play dumb It's not gonna change me It's not gonna change me If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' I won't forget about the falls and slips The flaws are seeping through your flawless lips If I'm the sun, then you are my eclipse It will never be dark forever so get a glimpse I feel though you I, can't even deny Girl you blew my mind Can't forget you if I tried In a moment, at my lowest, you get me back on my feet My heart is cold and yet it been stolen She won't give it back to me I fell hard, I don't want to fall anymore Fell hard, she don't want it all anymore Rewind, it's like we been here before Love lost, there's not a 'we' anymore, hey, hey If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin'4</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Glacier</t>
+          <t>Bad Day</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Ronny J, listen up Ayy I be the Aquarius I spit out aquariums Mediterranean, bitch, I'm a alien I'm Native American, rollin', no sharin' it Bitch, I am arrogant Hazardous when I spit Darius Savage, but I'm the protagonist All of y'all leaders sip Actavis, mixed with the Xanax Control it, no Janet That shit is like satanic, so, bitch, I can't stand it I'll mail it and stab it, put guts on your canvas Then off to the Hamptons Nigga, I feel like Fred Hampton Bitch, I'm reppin' the mushroom planet I put my soul on the canvas You can peg it on a panoramic Boy, I'm just shootin' from a vantage point Now you damaged, boy Ultimately, I will Eagleton your lawn You ain't on what I'm on Pull up beat by Saigon You with Lucifer, I don't lose so far From a galaxy that's way afar That's far away, that's hard to say Who's hard to kill and who's got the ayy Okay Beyond triflin', I'm psychic I'm the man, motherfucker, I'm lightning Tryna clash with a motherfuckin' titan Denzel drag 'em to the river like a Pisces Woof I'm icy, she feisty I'm the man, motherfucker, I'm lightning She a shone but you might call her wifey C9 make the good girls get hyphy Beyond triflin', I'm psychic I'm the man, motherfucker, I'm lightning Tryna clash with a motherfuckin' titan Denzel drag 'em to the river like a Pisces Woof I'm icy, she feisty I'm the man, motherfucker, I'm lightning She a shone but you might call her wifey C9 make the good girls get hyphy6</t>
+          <t>Yeah, nigga, we the pineapple under the sea in this mothafucka Yeah, you already know what the fuck it is, bitch Goddamn, ULT, Pro Era shit Fuck Nigga, fuck you Goddamn, goddamn He's heating up You bitch Boy-bo-boy got flow like an aqueduct If the shit ain't real, it ain't 'Pac enough Yeah Had no money for the meal, now my pockets stuffed You can't smoke with the kid, man, you dropped the blunt Woo I got no more tree No more weed, no PCP Goddamn I don't take none of that shit, B LSD Okay got my mind on freeze, froze, oh G-G-G-Good work, Charlie Cold in the springtime, Era and the C9 Catch another body, then I recline, uh Okay Gun in my Lvi's, you don't wanna see eye You gon' die lik a tie-dye Woo You don't wanna beef with the beast, you a feline Hat to the side, lookin' like T.I.P. So high, make my eyes bleed God is in my IV Goddamn, yeah It's been a long way from the days in the past, you don't know me like that Okay-kay Don't know me for the way that I cope with the pain when everything might crash Ta-ta-ta-ta-ta You ain't never been in my shoes, lookin' at the world my side of the glass Goddamn So when you mentionin' my name, it's so much for you to say, you don't know me like that So here is what you do, get the fuck up out my face Get out my face I'm off some Gin Juice, I'ma drown in Alizé I'm gonna drown And you could get the deuce, you won't need a band-aid No fuckin' And you don't wanna see me on a fuckin' bad day So, so here So here is what you do, get the money, fuck a ho I bought some Gin Juice and the mothafuckin' dro And you could get the deuce, hit your ass like Figueroa And you don't wanna see me on a fuckin' bad day, no way Boy-bo-boy got flow like an aqueduct If the shit ain't real, it ain't 'Pac enough You mothafuckas not real, you imposters, bruh I wrote your name in a search, you ain't poppin' up Flex hard, feelin' like Big Poppa Pump Beast Coast murder every fuckin' possé cut Yeah I'ma-I'ma get mine, no pity If you out of line, then you might die in my city Ten o'clock show, get inside 950 When this shit start, need a moshpit or I'm dippin' Yeah Need to get away, who the fuck am I kiddin'? Anywhere but here, couldn't be where I'm livin', uh Open up the pit like your arms up Lit, no spark plug, I'ma need more love Yeah Guess this is what a stone heart does I'm a good guy but just wait until I'm charged up You don't wanna see me on a bad day You don't wanna see me on a bad day, you don't wanna see me on a bad day You don't, you don't wanna see me on a bad day You don't wanna see me in a bad way You don't wanna test how much fuel's in the gas tank Just another clip in the ashtray, fssh I been over heads like Anne Frank Gi-gi-gi-gi-give a fuck what your man say So here is what you do, get the fuck up out my face Get out my face I'm off some Gin Juice, I'ma drown in Alizé I'm gonna drown And you could get the deuce, you won't need a band-aid No fuckin' And you don't wanna see me on a fuckin' bad day So, so here So here is what you do, get the money, fuck a ho I bought some Gin Juice and the mothafuckin' dro And you could get the deuce, hit your ass like Figueroa And you don't wanna see me on a fuckin' bad day, no way2</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>​pg baby (Remix)</t>
+          <t>DIET_1.5</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>91 APRE - All Mine BiC Fizzle - On God ft. Gucci Mane Cootie Chase Atlantic Maggie Lindemann - OHMAMI Remix Citizen Soldier - Empty Cup Cozy J C Way - One Kiss Damon Albarn - Particles Dappy, M24 BackRoad Gee - Antigua Father - Only Built 4 Hermès Linx ft. Tony Shhnow Foolio - Run Down ft. Rico Cartel Injury Reserve - Superman That Kota the Friend - 96 Bulls Lil Gnar - Hurricane Freestyle Little Simz - Point and Kill ft. Obongjayar Meek Mill - Blue Notes 2 ft. Lil Uzi Vert NEFFEX - IT'S ONLY WORTH IT IF YOU WORK FOR IT Rudimental, The Game D Double E - Instajets ft. BackRoad Gee Runnner - Snowplow Shy Glizzy Glizzy Gang - Mood Switch ft. No Savage SoFaygo - Let's Lose Our Minds Sting - If It's Love Valley - oh shit...are we in love? Wet - Clmentine Yak Gotti - Cha Cha Slide Yamii Online - HEARTLESS Yung Mal - Get Right 92 Broods - Piece of My Mind Call Me Karizma - Black Leather Charli XCX - Good Ones DaBaby - Wockesha Freestyle Daddy Yankee - MÉTELE AL PERREO FINNEAS - The 90s KIRBY - Coconut Oil M Huncho - Breadwinner Mak Sauce Lil Yachty - Wocky My Lover Matilda Mann - Stranger for now Oliver Tree Little Big - Turn It Up ft. Tommy Cash 93 404vincent - Exposure ft. PmBata ABBA - I Still Have Faith in You ABBA - Don't Shut Me Down Adekunle Gold Davido - High ayokay - I Still Need You Badflower - Johnny Wants to Fight Bankrol Hayden - Cabo Remix ft. KAHDAMI DDG Beast in Black - Moonlight Rendezvous Bobby Shmurda - No Time for Sleep Freestyle Carrie Underwood Dan Shay - Only Us CORPSE Night Lovell - HOT DEMON B!TCHES NEAR U!!! Diana Ross - If the World Just Danced Etta Bond - How Could I Forget You Florrie - Human Frawley - No One Can Fix Me G Flip - Waiting Game ft. renforshort Honest Men - A Spectrum Hot Milk - Split Personality HRVY - Runaway With It Jason Derulo - Acapulco JayDaYoungan - All Rise Jesse McCartney - Party for Two JLS - Eternal Love JVKE - This is What Falling in Love Feels Like Kaitlyn Dever Ben Platt - Only Us Lil Duval - Sexy ft. Boosie Badazz Lily Rose - I Don't Smoke Little Mix - Love Sweet Love MOD SUN - Down ft. Travis Barker mol - lavender Ms Banks - Go Low Offset Jim - Members Only Portion - WAVE Powfu KNOWN. - soda stream sky Punctual KREAM - Want You Bad Ralo - Fall Apart ft. T.I. 2 Chainz Rezz Deathpact - Chemical Bond Riton RAYE - I Don't Want You Ronski, Larry June Berner - Cookie Jar Sasha Keable Jorja Smith - Killing Me Shordie Shordie - 1000 Skylar Grey - Partly Cloudy with a Chance of Tears Smoko Ono - Winners ft. Joey Purp, Yxng Bane Chance the Rapper Sofia Carson My Little Pony - Glowin' Up Tate McRae - that way Remix ft. Jeremy Zucker The Stupendium - Room for Improvement Thouxanbanfauni MDMA - Bust Back ft. Gavo Tia Carys Toddla T - Hangman tobi lou - WIDE open Unlike Pluto - Sailing Colors UPSAHL - LUNATIC Xan Griffin - Mountain Drive Young McFly, Webbz Boldy James - Multifaceted ZillaKami - Not Worth It 94 osquinn - MVI7080 96 Deb Never - Funky Stereophonics - Hanging on Your Hinges The Band CAMINO - I Think I Like You 97 Big Thief - Certainty Common - Majesty Where We Gonna Take It ft. PJ Holly Humberstone - Scarlett Kate Nash - Horsie Kevin Gates - Trust Freestyle koi - security Maxo Kream - Big Persona ft. Tyler, the Creator Molly Payton - When Skies Were Always Blue MUNA - Silk Chiffon ft. Phoebe Bridgers Radiohead - If You Say the Word Temperance - Pure Life Unfolds Yard Act - The Overload YEBBA - All I Ever Wanted Yumi Zouma - Give It Hell 98 Andy Grammer - Damn It Feels Good to Be Me Bad Wolves - Lifeline Catalyst Crime - Condemn Me To Chaos Curtis Harding - Can't Hide It Darren Criss - Happy Holidays The Holiday Season Epica - Unchain Utopia Omega Alive Fickle Friends - Love You to Death Gryffin LOVA - Piece of Me KAHDAMI - Public Kate Bollinger - Shadows Lana Del Rey - Arcadia Lil Mexico - Different Kind ft. Pooh Shiesty Lil Mexico - No More NEFFEX - INSPIRED Remi Wolf - Guerrilla Remi Wolf - Sexy Villain Rvssian, Rauw Alejandro Chris Brown - Nostálgico Sam Fender - Get You Down Sega Bodega - Only Seeing God When I Come Sleigh Bells - True Seekers The Band CAMINO - Who Do You Think You Are? The Darkness - Nobody Can See Me Cry The Vaccines - Jump Off the Top Tirzah - Hive Mind ft. Coby Sey 99 Alicia Keys - LALA Unlocked ft. Swae Lee ARY - Birthday Calboy - She Know In Too Deep Camo! - CHRISTMAS LIGHTS Camo! - LOAD IT UP DaBaby Lil Wayne - Lonely Dave - Verdansk Survival Mode Digga D - 2K17 Farina, Lil Durk Play-N-Skillz - Nueva Vida G-Eazy - The Announcement Icewear Vezzo - 5 Milli Ignea - Mermaids ft. Ersedu Jack River - We Are the Youth Jasmine Thompson - after goodbye Josie Man - Stormy Skies Diamonds Kelvyn Colt - Emotions Logic1000 - What You Like ft. Yunè Pinku Lume - Venus Mozzy - Straight to 4th Odeal - Mr Workerman Olivia Nelson - Morning RAY BLK - Over You ft. Stefflon Don Sabrina Carpenter - Skinny Dipping Sam Hunt - 23 SSGKobe - Murakami The Agonist - Remnants in Time Thomas Headon - Nobody Has To Know Troye Sivan - Angel Baby 910 27CLUB - down bad 3ohBlack Gunna - Paper Cuts ADE - Bradley Beal Alaina Castillo - Lips Alice Merton - Hero Alice Merton - Island Aly AJ - Get Over Here Ari Lennox - Pressure Armin van Buuren Davina Michelle - Hold On Azealia Banks - Tarantula Bahari - Ways of Love BIGBABYGUCCI - Weird Extended ft. Bernard Jabs Nessly Bino Rideaux - NO MAKEUP ft. King Combs Blake Rose - Movie Bullet for My Valentine - Shatter Camila Cabello - Don't Go Yet Major Lazer Remix Central Cee - Obsessed with You ft. PinkPantheress Charlotte OC - Mexico Cheat Codes All Time Low - Ghost Story Chelsea Cutler - Calling All Angels ft. Quinn XCII Chloë - Have Mercy Christopher - If It Weren't for You Chronic Law - Private Class Clara Mae - Crash Cousin Stizz - Say Dat DC The Don - WHAT NOW? Drippin So Pretty - Dior DVBBS - Victory ft. YBN Nahmir Ed Sheeran - Shivers Elderbrook - I'll Find My Way to You Emma Steinbakken - Sorry Eva Under Fire - Comatose ft. Jonathan Dörr Far Caspian - Attempt Fivio Foreign - Story Time Geowulf - I've Been Over It Ghastly Misdom - Vibe guccihighwaters - lately HARLOE - Liquid Truth HD4President 2 Chainz - Touch Down 2 Cause Hell Bow Bow Bow ft. Fredo Bang Hey Violet - Bitter Pill Jake Miller - I Forgot About You James Blunt - Love Under Pressure John-Robert - Good Company Josef Salvat - I'm Sorry JP Cooper - We Cry Kwamie Liv - Take It Back I Want More KYLE Dougie F - Optimistic Kyle Dion - Parmesan Landon Cube - Wasted Youth LÉON - Dancer Lil Boom - Bloom of a Flower Lil Poppa - Love War Remix ft. Queen Naija lilbubblegum ciscaux - west side story Mario Judah - Remember Your Name Mimi Webb - 245 Moaning Lisa - Too Many MONSTA X - ONE DAY Moses Sumney - Can't Believe It ft. Sam Gendel Nico Santos - Would I Lie to You Pia Mia - 730 PRETTYMUCH - I Don't Wanna Leave ft. Jeremih Quin NFN - How I Came ft. Big Yavo R3HAB Jonas Blue - Sad Boy ft. Ava Max Kylie Cantrall Rachel Chinouriri - If Only RiFF RAFF, Yelawolf Nakani - Moss Remix ft. Suicideyear Rob49 - Pent House Remix ft. Babyface Ray Rosa Linn - KING ft. Kiiara ROSIE - Social Stamina Russ - Utah Freestyle Shallou - Heartaches Sofía Reyes Becky G - Mal de Amores Sonia Stein - Mercury Retrograde Surf - Give My Last ft. Yeat Syd Smino - Right Track SZA - The Anonymous Ones Tai Verdes 24kGoldn - A-O-K Tay B - Rich All My Life ft. Lil Baby Taylor Gang, Young Deji Feezy - Oh Wow ft. Wiz Khalifa Tems - Crazy Tings Thomston - Honeymoon Tom Gregory - Footprints twenty one pilots - HeathensTrees Livestream Version Uncle Murda - So What? Vengaboys - 1999 I Wanna Go Back Walker Hayes - Fancy Like Remix ft. Kesha WSTRN - Wonder Woman YoungBoy Never Broke Again - Life Support Zak Abel - Less of a Man 911 Freddie Gibbs - Vice Lord Poetry glaive - rigor mortis 555 Sena Kana Ty Dolla ign - Show Me 912 Deko - NEVER FELT LIKE THIS Sada Baby - Buckhead Bounty 913 Coca Vango - Bond No. 9 ft. Lil Quill James Blake - Famous Last Words Okay Kaya - If I Can Help Somebody SEBii - DONOrr 914 88rising Ylona Garcia - Don't Go Changing Banoffee - Never Get to Fuck Any1 Dounia - Smoke Slow Dance Hatchie - This Enchanted iann dior - V12 ft. Lil Uzi Vert KEY! CHASETHEMONEY - Rollin Mg Lil Bubba - Plates On My Table ft. Lil Jairmy NO1-NOAH - Bounce Remy Ma - GodMother St. Vincent - The Nowhere Inn 915 Carly Pearce Ashley McBryde - Never Wanted to Be That Girl Citizen Soldier - Bedroom Ceiling Comethazine - Spinback dvr Kenny Beats - lowlife Emeli Sandé - Family Foxes - Sister Ray grandson Jessie Reyez - Rain Remix ft. Idris Elba Kehlani - Altar Kitty Cah - Just Fine ft. Kiana Ledé KUKA - Down by the Water Lil Gotit - Father's Day ft. Lil PJ LILHUDDY - Partycrasher Magdalena Bay - You Lose! Marian Hill - it never ends NEFFEX - A YEAR AGO Self Esteem - Moody Skillet - Surviving the Game Snail Mail - Valentine StaySolidRocky - Lucky 916 Bring Me the Horizon - DiE4u CUCO - Under the Sun dearleo - White Lie Vigilante ft. Cold Hart Dreamer Boy - KEEP THE PACE GIRLI - Ruthless halfalive - Make of It Headie One - Beggars Can't Be Choosers Namasenda - Finish Him ft. Joey LaBeija TyFontaine - ILML 917 Alec Benjamin - Older Ashley Kutcher - Fake Bitches Baker Boy - Butterflies Bhad Bhabie - Miss Understood Birds of Tokyo - Superglue Busy Signal - Too Trickify Cassadee Pope - Tomorrow Night CJ - Réplica ft. El Alfa CMTEN - turn ur back on me ft. grimtweakr Derivakat Netrum - Finally Find You DDG - Rucci Dijon - Many Times DOPE LEMON - Stingray Pete Drakeo the Ruler 24kGoldn - Spaceship D Smoke SiR - Common Sense G-Eazy - Breakdown ft. Demi Lovato H.E.R. - Find a Way Remix ft. Lil Durk Lil Baby J4CKG - Down Like That Jeremy Zucker - Therapist Jon Bellion - I FEEL IT ft. Burna Boy Jonas Brothers - Who's in Your Head JUMEX - Lonely Summer K CAMP - Stars Aligned Freestyle Kyla La Grange - Set You Free Lakeyah Tee Grizzley - 313-414 ft. DJ Drama LEISURE - Flipside Loui - Dont Play ft. Shordie Shordie Lukas Graham - Call My Name Majid Jordan - Summer Rain Matt U Johnson - Pon Fire ft. Karl Wolf Snoop Dogg Ned Kelly Surf - Happy Hour Nuski2Squad - Vacant Ofenbach Ella Henderson - Hurricane Party Favor Elohim - Losing My Mind Placebo - Beautiful James RARE Sound, True Story Gee Seddy Hendrix - Just in Case Running Touch - Ceilings Russ - When This Was All New Sam Smith Summer Walker - You Will Be Found Santino Le Saint - Love, Drugs, Anarchy Savage Gap MC Virgins - drunk texting my ex Steve Aoki Armin van Buuren - Music Means Love Forever Taylor Swift - Wildest Dreams Taylor's Version Teddy Swims - Bed on Fire Remix ft. Ingrid Andress Thouxanbanfauni - Big Bandz ft. MDMA Tony Bennett Lady Gaga - Love for Sale Tony Gunnz Sada Baby - Kim Reynolds Tory Lanez - Gyalis Remix Unlike Pluto - Belladonna WALK THE MOON - DNA The Keys WALK THE MOON - Fire in Your House We Are the Catalyst - Drowning Whethan - THINK YOU RIGHT ft. ericdoa glaive Wiki - Promised ft. MIKE Xhristian, Only Vengeance BIGBABYGUCCI - Bad YoungBoy Never Broke Again - On My Side Yung Bans - Blow Her Back Out ft. KAHDAMI Yung Gravy TrippyThaKid - Steppin' on the Beat Zombie Juice - VMA's ft. Smoke DZA 918 G-Eazy - Let It Be Freestyle ft. OG Maco Jay Gwuapo - Blah Blah Blah redfield - Rectify 919 Lil Playah - Money Hungry! 920 Biffy Clyro - A Hunger in Your Haunt chloe mk - Slide Coi Leray - TWINNEM Keith Urban - Crimson Blue Let's Eat Grandma - Hall of Mirrors Ruby Fields - Bottle'o T.I. - Fuck Em ft. Lil Jon The Lumineers - BRIGHTSIDE 921 Bad Suns - When the World Was Mine Dan Bull - A Good World Spoiled JayDaYoungan - First Day Out LLC Freestyle J. Cole - Heaven's EP KAROL G - SEJODIOTO Katelyn Tarver - Nicer KILL.ZERO - LAMBROT Smooky MarGielaa AAP Rocky - BALLERINA Uffie - Cool Yus Gz - Step 922 22Gz - Retaliation alt-J - UME bbno - i remember Benji. Spillage Village - Elevate Damon Albarn - Royal Morning Blue Dorian Electra - Gentleman d0llywood1 Remix ft. Danny Brown Elton John Charlie Puth - After All Gia Woods - Next Girlfriend Hitmaka Queen Naija - Quickie ft. Ty Dolla ign Joesef - Fire Kankan - not da same ft. Yeat Lime Cordiale Idris Elba - Apple Crumble Lucky Daye - Over Masego, Kabza De Small DJ Maphorisa - Mystery Lady Scorpion Kings Remix ft. Don Toliver mehro - howling Moneybagg Yo, Lil Wayne Ashanti - Wockesha Remix Nia Sultana - Ambience Nia Sultana - Ambience Extended Nipsco Gang Foreign - off-white ft. Oso Foe Babyface Ray Oh Wonder - 22 Break Payday - VAMPIRE ft. Danny Brown PG RA - Selfish ft. 6LACK reggie Smino - AVALANCHE ROLE MODEL - death wish Tom Morello - Let's Get the Party Started ft. Bring Me the Horizon Travie McCoy - Loved Me Back to Life VIC MENSA - THE TASTE ft. BJ the Chicago Kid Papi Beatz Weiland - Heart Stop 923 Aitch - Party Round My Place ft. Avelino Alan Walker, K-391 Boy in Space - Paradise BIGBABYGUCCI - Feel Your Energy Kelly Clarkson - Christmas Isn't Canceled Just You KIRBY - Can We Be Friends L Devine - Die on the Dancefloor Me and That Man - Angels of Light ft. Myrkur MoStack MIST - Frankenstein Natti Natasha Maluma - Imposible Amor ODC - Wanted RÜFÜS DU SOL - On My Knees SahBabii - Bread Head Sheff G - Drum Dummy Token Rico Nasty - High Heels 924 50 Cent - Wish Me Luck ft. Charlie Wilson, Snoop Dogg Moneybagg Yo Amber Mark - What It Is Amy Allen - A Woman's World Avenue Beat - this is goodbye ft. Summer Overstreet Azure Ryder - Ladder to the Moon Bankrol Hayden Lil Tecca - Come Through BIA - BESITO ft. G Herbo Budjerah - Talk ft. MAY- Chord Overstreet - Good Times Coldplay BTS - My Universe cupcakKe - Marge Simpson Daya - What If I Told You Duran Duran - TONIGHT UNITED GIVON - For Tonight GRACEY - the internet Greyson Chance - Overloved Gunna Future - Too Easy Guns N' Roses - Hard Skool J4CKG - Everybody Dies ft. Days Dissolve J4CKG - Over Now ft. Days Dissolve James Arthur - Emily Jana Kramer - Voices Janelle Monáe - Say Her Name Hell You Talmbout ft. Zoë Kravitz, Tierra Whack, Alicia Keys, Chloe x Halle Beyoncé JC Stewart - Don't Say You Love Me JESSIA - First Call Jessie James Decker - Not in Love with You Joyner Lucas J. Cole - Your Heart Kacy Hill - Easy Going Karen Harding - You I All I Need KREAM Millean - What You've Done to Me ft. Bemende Latto - Big Energy Laura Marano - I Wanna Know What It's Like Leah Kate - Shit Show Like Saturn - warped Lil Toe - AMMO Lil Yachty - GHINI Little Boots - Silver Balloons Logic - Perfect Remix ft. Lil Wayne AAP Ferg Lonr. - RED LIGHT Lutharo - Hopeless Abandonment MASN - Strawberry Huracan Maverick Sabre - Not Easy Love ft. Demae MC Virgins - ONE CHANCE! ft. 1nonly fumiharo McFly - Dragonball Memoremains - Sympathy Morray - Bad Situations Nathan Dawe T. Matthias - Goodbye Ne-Yo - What If NEIKED, Mae Muller Polo G - Better Days Nina Nesbitt - Life's a Bitch Offset Jim - Make No Sense ft. Babyface Ray Pia Mia - Only One Portugal. The Man - Novocaine for the Soul ft. Sir Chloe Portugal. The Man - Steal My Sunshine ft. Cherry Glazerr Princess Nokia - Boys Are from Mars ft. Yung Baby Tate RedHook - Sentimental Surgery Remble - Rocc Climbing ft. Lil Yachty Rhys - thanks a lot, now i can't smile Royal the Serpent - Chips ft. American Teeth Russ - Seduce ft. Capella Grey Shordie Shordie - Specific ft. Blxst Smallpools - before the sun rises SpotEmGottem - Sosa Flow STARSET - LEAVING THIS WORLD BEHIND Steele 11 - CHEERLEADER Taylor Bennett - Easy Outside ft. Melo Makes Music The Regrettes - Monday The Stupendium - Shine Through Trevor Daniel - Alone Unlike Pluto - Everybody is Interesting Whitney Houston Clean Bandit - How Will I Know Remix Vanilla Ninja - Incredible Will Jay Sam Creighton - I Would Rather Die Than Live Forever Wrabel - wish you well YSN Flow - Case Closed Zoe Wees - That's How It Goes ft. 6LACK 925 Teezo Touchdown - I'm Just a Fan 926 DellFuturo Buggman - Dangerous ft. Busta Rhymes YN Jay - Coochie Scout, Pt. 2 ft. Lil Uzi Vert 927 Arca - Incendio Kodie Shane Rick Ross - FaceTime Luke Wild Deb Never - PIE Megan Thee Stallion, Maluma Rock Mafia - Crazy Family Rylo Rodriguez - Pallbearers Sam Fender - Spit of You Taylor Made Da Prince - The Radio Girl ft. DJ Khaled White Lies - As I Try Not to Fall Apart 928 ILOVEMAKONNEN - To The Edge Walk in Darkness - The Last Glow of Day Years Years - Crave 929 Ad Infinitum - Afterlife ft. Nils Molin Ashnikko - Panic Attack's in Paradise Ashnikko - Maggots Chris Webby - Burn ft. Apathy Locksmith Citizen Soldier - Hand Me Down cktrl - zero ft. Mereba FaZe Kaysan - Made A Way ft. Lil Durk Future Grafh DJ Shay - Very Different ft. Benny The Butcher Jordan Hawkins - Risky Jutes - Danny Phantom Kali Uchis SZA - fue mejor NEFFEX - TILL I LET GO Slimelife Shawty - Wheres The Love spill tab - Grade A ft. JAWNY Tori Amos - Speaking with Trees 930 Beast in Black - One Night in Tokyo Burna Boy - Want It All ft. Polo G Elton John Stevie Wonder - Finish Line Headie One - Cry Kane Brown H.E.R. - Blessed Free Limp Bizkit - Dad Vibes Mahalia - Roadside ft. AJ Tracey Nightshifts The Game - 20s Quin NFN - Lessons Since99 - Scripture Skylar Grey, Polo G, Mozzy Eminem - Last One Standing Squash - Don't Play With Me Sting - Rushing Water Wale - Poke It Out ft. J Cole Wallows - I Don't Want to Talk2</t>
+          <t>Ey SB woub die lakkie man Yarr the engineer Welke block wordt vandaag gespind? Veel chat maar niemand on- Jump uit die, jump uit die, jump uit die whip met speed Da's Jump Out Gang op een zone 2 neek Oi oi Zet een K op de K en krijg op je donder OVJ zegt ik ben niet honderd Maak rondes om mannen te verwonden De duivel wil met me praten Denk dat ik al met hem ben verbonden On drills, die life is geen pret Ik zou anders doen als we anders konden Swing swing, ying ying Voel me KK als ik grijp naar ding Je hoofd die wordt open gechingd Free NairoLoose, da's m'n violent twin Zie je SK ga niet in een sprint Want hij get je back en zet rams er in Alleen door rebels omringd Yolo, welke block wordt vandaag gespind? Welke block wordt vandaag gespind? On a 1-2-5, ik ben black gedresst Met die wap op peds voor cash Of ik lurk oppblock, ik wil paigons dead Mad, gyallie vindt mij te gek Ik nak het in trap sinds die 4-2 step Diligent step in die Air Force black Heb niemand gezien maar ga nog niet weg Neem die L, ik zet het wel recht We zijn op get back hier, niet op geklets Wack, ze rijden niet echt Wij doen het voor pret Opp in zicht, approach in a sec Doe die kikkestep voor die dode flat Yo, anything F get whacked En anything 2 get cheffed Two man step, fuck up a opp-boys back Step naar daar, zo van wie is op wie? Achttien inch op mij voor heat Run a man down als ik paigons zie In the T met the baddest B Brown skin, peng en ze rijdt de D Die mannen daar willen geen heat Back fast en swing op je G Veel chat maar niemand on me Back m'n chat, ik hendel die heat Ten toes met rebels on me Civilian ziet en denkt O-M-G Yo yo, jump out die whip met speed Da's Jump Out Gang op een zone 2 neek Lurk in de twee of six Zovaak op die block, maar niemand te zien Maar niemand te zien Heb een opp in m'n zicht, what's good? Rammy on me en ik back met spoed Zet hem laag in z'n eigen bloed No get back, nu zijn ze bedroefd Gyallie on me, on broski too True, gyallie loevt wat we doen Savage kid, badder than bad Dick die bitch grof, ik nak het in trap Let's go get lit Ik loop vrij op die o-six strip RS in spliff, z'n broertje tript Heb hem gewhackt op die block van .. Bijna nog één in kist Weet wat je zegt, je wil niet in spliff Bid dat ik die wap back en mis Wil je war, come try want we zijn op hits Hitsquad</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Raider Klan Phonk</t>
+          <t>Grotto Flow</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Raider-Raider-Raider Klan, CPG Ruben Slikk, the nigga with that fucking tongue I lick that pussy up, I had that bitch so sprung Sucking my dick so hard she bit the skin of my fucking snake Ruben fucking Slikk, I jack my dick and then I masturbate 24 times and skeet up in her face, just to feel the load in her fucking mouth Tell that bitch to swallow the whole thing Ruben Slikk, keeping that cocaine Cause I make it rain In the club with my trap-work and my pipework, mane Pimp shit, mix this shit on up- a Mixologist What they call a G, when they hating looking at my chips Nigga check yo boy out, at the fucking ATM I ain't got no bank account, I don't pay no taxes man Nigga this is pimp shit, catch me with my ears glisten Yeah I got 2 studs, in my right ear bitch So I can hear clear, fuck her in the rear bitch Bad boy shit, Raider Klan black flaggin'... Yeah I'm leaving niggas shook Denzel Curry in that untold chapter of your Harry Potter book It's me, the P-R the I-E the S-T to the H double O-E nigga that is me to the priest To the hood looks good, yeah its that Denzel Curry motherfucker Already told you I am as cool as McFlurry If you wanna drop me, and wanna try and attack nigga you will get bit like a fucking Big Mac Its that nigga named Curry, no chicken I'm killing bitches without the AK, lyrical spray Hey! What is there to say Killing these cockroaches Denzel Curry a flow bitch Everybody knows that Denzel Curry got that white shit Coke, bitch Leave em cokey in the wet Denzel Curry, I'm catching the wave Let me go and sit, niggas transact Off my bitch, off the fucking Raider Klan M.O.E gang Denzel Curry about to rip this bitch with that Raider slang Yeah, I come in this bitch ready to attack Smack a bitch, chicken head, but I ain't no Project Pat Let me pass it back, to the motherfucking 3-6 Denzel Curry, the one and the only, the nigga ? I'm killing the shit like that, now.. Up on the motherfucking beat, trying to do this shit walking down the street With the black trench coat And I'm coming for your fucking throat Wanna play these games, my nigga just know I'm not the lame Spitting the motherfucking flow for the listeners You already know these bitches ain't missing us They kissing us And my dick is on her face, kissing my nuts My nigga I put her in her place Bitch I'm the king, big ding-a-ling Got the fattest, phonkiest sounds my nigga in the state ring Old school, take it back to the '88 Already know my nigga got the .38, robbing Niggas straight coming through, I'm knocking Niggas heads off, my nigga I ain't stopping And if you think that I'm a bitch Come test me motherfucker, I'll throw your ass up in the ditch Now listen, to the way I go hard Throw the motherfucking beat while I ride through your boulevard Nigga don't start if you think that I am a joke Goddamn I'm so fucked up, like I was on coke But I'm not, I'm sober And I am going to come through in the fucking black Range Rover The black vamp, and I don't give a damn Nigga CPG, Raider Klan we going HAM</t>
+          <t>I be off this herb Puffing on the purp Never smoking dirt Now your feelings hurt Why you watching me he gon' hit you first Soul gon' touch the sky, bodies in the dirt I'ma serve you up, you gon' get the work The last nigga that tried me he got it first Smoking on mars, I'm off this earth I kill him with bars, leave beast in the Hearse Money I'ma stack it I'm all black it Never am I lacking Wavy like a captain Came to get it cracking Been about the action We can make it happen Nigga what it is I been going hard for a million years Never shed a tear flier than a Lear Me myself and I, three musketeers Smoking on loud I can't even hear All you see is smoke then I dissapear It's your worst day, but this been my year Now I'm taking over I'm in fifth gear I'm smoking on rover Your rap days are over This ain't your session you better move over I swerve in the Rover Mix Henny with Cola Puff on that doja I stand in my corner Ain't pay a dolla I came with the owner Now you looking salty You thought that you saw me I'm balling like Barkley My weed lit like Barkley Get yo main lady She all on top of me Getting real money you playing Monopoly It ain't no stopping me It ain't no dropping me Get hella high then I laugh like it's comedy This ain't no Twitter, I made yo bitch follow me Later that night, it was yo bitch toppin' me Captain of the sea Intergalactically I'm a catastrophe With no gravity Can't flow after me Smokin' on the tree Pass the Grabba Leaf Roll the Grabba Leaf Grab the Mac and squeeze for my mac n cheese Niggas and bitches, oh why you actin' like dog to eat I am magnifique, magnificent Just like Eminem My style infinite My weed chiefing My dro blazing My bitch bad, my flow amazing Tryna comprehend Like going through mazes Don't try to flex 'cause my brother's crazy Put that on motto I lead and you follow So check my bravado I'm smashin' movato Money the same color as avocado You never had bitches You're Johnny Bravo Why pretend to be Try befriendin' me Pulling out the AR Son of my enemies Frenemies, you never been my friend I been to places you never been my friend Fuck with me that's yo end my friend I need money I need m's my friend Goddamn, yeah I been everywhere Overseas, over the world I don't give a fuck Fuck that I need money! 275C95</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Bwoii</t>
+          <t>Walkin (Key Glock Remix)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Who is that nigga that's intergalactically fucking all your bitches? He's snapping and chatting our homegirl as she's sucking on my dizznick God base, bad bitch, walk up to her sprinkle the sentence Dip on a dose of this pimpin' equals submission at longer extension My nigga you lame Drug dealers be switching to Santa Claus instead of a cane Nigga your memories are dropped Denny Cascade better watch your brain Fuck them other niggas mane They're not icy, and they don't ball Acid got me scattered brain See my thoughts across the wall Damn, and I'm an abyssal I'm more than a kid, so baby girl get the best of me In and out and in and out continue my pimping legacy Denny Cascade the universe is saying Slumber in my bedpost as I meditate and lay Blowing that Luke Skywalker kush, Reflex under my nigga I could And if this ain't my nigga you hood Pu Pu Pu Pu You dead or you shook Damn, real nigga still will kill niggas have you lying still nigga Nah, nah for real nigga, but went up your Hilfiger It's the notorious spitter, kicking it with my niggas From the Vill, tryna bill all my niggas can keep it real My people sittin' in cells placing robbery with a steel Jumping numbers on every bail just so they can get out to kill They arresting Lee Hart Infield living the life of a cotton mill Enlighten by Christ so I see the wrong in my right Every night he gon' off the marijuana from Cali to Arizona I get bad bitch, bonus she bitch I hit homers Gotta take you by the edge no stitch and give donors daily Niggas on my side play crazy It's new fake shot to wanna roll me the Glock Drop it, but me I'ma do it like the players do Mac witchu boo sipping purple juice Your bitch wanna chill 'cause she know the truth Is my clique too trill living virtual So clique too my trill living virtual Clique too trill living virtual My clique too trill living virtual Clique too trill living virtual That ain't reality it's blocked the animality That Denny possessed on the system on the exorcist anatomy Radically rebellious to the fuckery and the faggotry, not as a caution that you cannot sugar me Not by the doctor with boy with the Agassi that you got I'm the antagonist to the plot of how America with three K's wanna see niggas got cake That's the operation for the country separation Segregate and divide and conquer they wanna see us dead, eh Planet of the apes 'cause now niggas wearing Bape Put a color in coordination that's why niggas hate on Dre But he black too like a tattoo, report his color and Trying to separate the kin from the mixture of the skin Fuck a bitch B M Dub '96 they killed the thug Now it's us against the world new millennium niggas like us Drop the late shit down but you prolly gone hear me just like believe me or not they'll look for you and Ripley Why Why why Fuck that though you don't gotta believe 'cause nigga like us all have weed I got plenty shrooms when I walk in the room get any bitch here high off me Tryna put the word through my penmanship 'Cause you don't get the shit 'cause your inferior I'ma go slap on my interior boy Tongue loud we ain't hearing ya boy Trap the photo full who has been noticed me Nigga in jail and I'm sending them photos I hoping they know that I'm out here grinding for a muthafuckin reason Clock niggas on the IPod season what is your meaningful dream Better wake your punk ass up Like Sway in the morning, I'm down and recording as early as hell Quickly cops wanna throw me in jail, What the fuck? I just be coolin You ain't dropped off shit let me school Ya Don't let this rap shit fool Ya I don't want beef, I illuminate until we see the gates and this God says that we face As I kill the Sphinx with a rival verse C9 is like Steve Jobs birth Nigga that's the future God glasses I see right through Ya Fuck nigga when I fuck which and don't No body no body fuck with my kitchen 'Cause we cooking the difference You niggas ain't doing shit different Respect my vision little boy15</t>
+          <t>Ah, ah Ah, ah, ah Ah, ah Yeah, yeah, yeah Ah, ah, ah Ah, yeah Clear a path as I keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Walkin' with my back against the sun I been runnin' all my life, that's way before my life begun Since my birth and seconds on Earth, I been the first one to confront All of these cycles that get recycled, makin' it stifle while I stunt Roll me a blunt so I forget it But it make the details look so vivid So vivid Went through a lot of shit in the last year Uh-huh Then I said, Fuck it, I'ma handle my business Yeah, yeah I pay 180 to talk to one lady She been regulatin' on how I feel Feel Describe it as raw and real Real I'm dealin' with all the ills I'm tearin' up like I'm on Dr. Phil Cry Ain't no use, you gotta walk Walk Ain't no use, you gotta walk Walk Who the fuck said, Stop the track, bruh? Let a real nigga talk Yeah I walk from the bitches, I walk from the friendship I walk from some digits, 'cause lately, my nigga, I'm feelin' indifferent Uh I wish all the best, and believe that, I meant it Huh? Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Big hands all up in my pocket Jimmy Neutron, keep a rocket Fuck 12, you can still come cop it Monster hangin' with goons and goblins I'm so heartless, shoot with a carbon, yeah Yeah Nigga, like every day Every day They say, More money, more problems Shit Shit, well, I'm like, Okay Star point guard but I still don't play Yeah, I know I'm a dawg but I still go ape, uh Never ever ever give a fuck what they say Yeah, we ain't losin' drop, they still gon' say sum', uh Yeah It's a whole lotta money in this cold world Young nigga, go and make you some, uh It's a whole lotta money in this cold world Young nigga had to take me some Yeah Fucked around, turned to a boss, uh Momma gave birth to a boss Boss, yeah They say you gotta crawl before you walk Well, fuck nigga, I ran Yeah, yeah, ran up the bands My money was locked in the can The can I had to do what I can, a man told me Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Walk, walk, walk, walk Walk, walk, walk, walk Walk, walk, walk, walk Walk, walk, walk, walk1</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Chrome Hearts</t>
+          <t>Larger Than Life</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>I'ma have you put your lighters in the air I'd like to introduce my main man, Zacari Take it away, man Hope is still right around the corner Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide in suburbans Slide, slip Still gettin' my hands dirty Slide Still gettin' my hands dirty I need cures and angels, pure and faithful Walkin' that path could be painful From innocent fun to guilty pleasures, watch it collide in the same view I felt the effects of what fame do When you not self-aware, it can change you As I look at the past like abandoned It's the little things that really made you A main man, paid man, payin' for some Ray-Bans That cost more than your rent while others struggle to get a cent In a sense, I ain't shit, because it's many people starvin' Tombstones of a selfish man, these words are carved in Hope is still right around the corner Yo Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan Yo But in the night, I still slide Yo Just like the mask of Viktor Vaughn, you see, my heart's made of chrome See, all these trials and tribulations got me trapped in my zone Every part of my spirit become trapped in these songs In these palms, I have my destiny, so I am not calm Winnin' women been in bed sheets Layin' and lyin' while y'all feel like dyin' Fightin' for my life, is it worth it? What's my purpose? On the surface, I'm just a mortal man, understand that We make our own choices 'til the day we hand our soul back Hope is still right around the corner Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide Man I follow the golden pastures My golden soul is not for these hoes to capture I mix emotions 'til they remixed and mastered Was lookin' disasters, lookin' at my life after And even before I was goin' to war with these crackers Writin' the end to my chapter, bless it with laughter Pass the motherfuckin' weasel, I could achieve the greatest Be the high, the curse of livin' forever is wantin' to die I seen it all, been through it all I love and I hate you all The only thing I'm here to do is just evolve, dawg Hope is still right around the corner Shit Chrome Hearts on me feel like gold Chrome twenty-fours jumpin' like Jordan But in the night, I still slide in suburbans Slide Still gettin' my hands dirty Slide Still gettin' my hands dirty Duh-nah-nah-nah-nah I like that, that Nah-nah-nah-nah-nah Duh-nah-nah-nah Mm-hmm-mm-hmm Mm-hmm-mm-hmm-mm Mm-hmm-mm-hmm Mm Give it up for Tim1</t>
+          <t>Oh, this shit sound hard Listen Made it out of the rubble Jake Gyllenhaal body 'cause I'm stuck in my bubble My parents tell, Be humble 'Cause they silencin' my dawg so that casket a muzzle Though I never push weight I still higher through muscle Girl, you fucked the first night, how the fuck can I trust you? Reason why they call 'em hussies 'cause they in for the hustle See, every day I'm on this Earth like a Everyday Struggle I try to run through all these bitches when my girl wanna cuddle Bend to epidemics, my mind sick I'm not worried 'bout academics since '96 Matter fact, a nigga been rappin' since '95 Let my ego trip but I'd rather keep it aside Everybody worried 'bout the cash that I'm makin' 'Cause the pigs on my ass 'cause I'm bringin' home the bacon 'Cause one fateful day I teamed up with a Jamaican With dreams and aspirations who believed that I could make it I sat around and watched my heroes spawn But most of them are assholes so now my heroes gone People dyin' every day, yet the beat goes on I kept it cool but let me show you what my ego's on I'm larger than life, headshots, caught in the light Dead in the night What you do? I could blow your mind an imaginary gun Yeah Bitch, I chase dreams and put my nightmares on the run Yeah Bitch, I been the greatest way before this shit begun Let's go Go down as a legend when it's all said and done Ayy Like a Pokémon, when I speak, better repeat Bet I leave my mark like Jigglypuff while niggas sleeping Yeah I been on the low because these niggas try to creep me At the same time they bitches try to meet and greet me Yeah I'm larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write Handlin' beef like Hamburger Helper Bubble over, water dow, shit, these niggas seltzer Yeah Gimme the ice, so let the .45 melt you Yeah Mobbin' with my niggas, it's lookin' like Helter Skelter I'm larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write Larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write So I kill when I write Say it with me 'cause I kill when I write Yeah, yeah, so I kill when I write Okay, 'cause I kill when I write Okay, 'cause I kill when I write Yeah, yeah, 'cause I kill when I write 'Cause I kill when I write 'Cause I kill when I write 'Cause I kill when I write Yeah, yeah, 'cause I kill when I write One more time, drop it What we doin' on that guitar back there? Yeah, do what you was just doin' What the bass lookin' like Kinzie on the bass like Okay, okay, okay, yeah Okay</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Real Feels</t>
+          <t>STRICTLY 4 MY R.V.I.D.X.R.Z. (S.4.M.R.)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>I tried to keep these feelings in control I've tried to find a reason not to show you But every time I do, I give my all Just can't let it go And even if you say, even if you say no I'm gonna fight babe 'Cause what I need has taken hold And even if you play, even if you play dumb It's not gonna change me It's not gonna change me If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you I'm getting bored of artificial love That one night feeling is never quite enough There's evidence in each that we touch That I'm not giving up And even if you say, even if you say no I'm gonna fight babe 'Cause what I need has taken hold And even if you play, even if you play dumb It's not gonna change me It's not gonna change me If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' I won't forget about the falls and slips The flaws are seeping through your flawless lips If I'm the sun, then you are my eclipse It will never be dark forever so get a glimpse I feel though you I, can't even deny Girl you blew my mind Can't forget you if I tried In a moment, at my lowest, you get me back on my feet My heart is cold and yet it been stolen She won't give it back to me I fell hard, I don't want to fall anymore Fell hard, she don't want it all anymore Rewind, it's like we been here before Love lost, there's not a 'we' anymore, hey, hey If this is how real feels Then I guess I want it If this is how real feels Then I guess I'm on it If this is how real feels Well it feels like falling Yeah, I feel like falling For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin' For you, you Yeah, I feel like fallin'4</t>
+          <t>Niggas these days is ready to shoot a nigga instead of poppin' a cop Well, these niggas, I'ma tell 'em how it is my nigga Comin' from my mouth, strictly for my Raiders This song goes out to the motherfucking cops and to the po-police Wanna see you pop a nigga, wanna see you kill a nigga, no justice, no peace Know niggas wanna grab that gauge around that motherfucking Blackland CC where I be, motherfuckers 'round here wanna kill a black man Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Niggas wanna talk that shit Always sayin' you a gangsta, but real niggas know you a bitch Had a couple homies that hit a couple licks That what you expect when you never had shit Growin' up in the mothafuckin' slums With a fuckin' gun to your mothafuckin' gums Then pop a nigga in his mothafuckin' lungs Two shots and you dead, your little ass is done Increase with the skill, right now it's fuck how you feel The way I get to it, you get chills Niggas they claimin' they trill All because they rockin' a slug and they grill Quit faking the phonk, immortal words from my nigga Key Bitch, I could rock a pink shirt, polka dot hat and still do me Real nigga to the letter, Goddesses, they gettin' wetter When niggas get out of line with the real, the semi just might bless ya But coppers wanna take your life more than you wanna take mine Let's start a revolution. everybody, grab a nine, bitch Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us This is for America, 'bout to put this shit in check See me with my hoodie on, just know these crackers wanna grab that TEC Cause they feel a threat, cock that beam and aim it at your chest No I'm not wearin' a vest, don't really care, 'cause this life is a test My soul relieved, nigga, not trippin' I won't spaz Remember Trayvon Martin then I blast on Zimmerman's ass It's amazing how they'll lock me up for petty shit Though I cannot live this life like this, but I keep takin' it Darker the flesh, the tighter the noose They callin' us coon and they callin' 'em goose Look at my flesh, dig deep in the roots The shit that I speak is the blend of the truth Nowadays, all these mothafuckas hittin' shipe Yes, I was born in this world but since I'm black I'm born with a strike, bitch Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Strictly for my Raiders Strictly for my Raiders3</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Bad Day</t>
+          <t>Planet Shrooms II</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Yeah, nigga, we the pineapple under the sea in this mothafucka Yeah, you already know what the fuck it is, bitch Goddamn, ULT, Pro Era shit Fuck Nigga, fuck you Goddamn, goddamn He's heating up You bitch Boy-bo-boy got flow like an aqueduct If the shit ain't real, it ain't 'Pac enough Yeah Had no money for the meal, now my pockets stuffed You can't smoke with the kid, man, you dropped the blunt Woo I got no more tree No more weed, no PCP Goddamn I don't take none of that shit, B LSD Okay got my mind on freeze, froze, oh G-G-G-Good work, Charlie Cold in the springtime, Era and the C9 Catch another body, then I recline, uh Okay Gun in my Lvi's, you don't wanna see eye You gon' die lik a tie-dye Woo You don't wanna beef with the beast, you a feline Hat to the side, lookin' like T.I.P. So high, make my eyes bleed God is in my IV Goddamn, yeah It's been a long way from the days in the past, you don't know me like that Okay-kay Don't know me for the way that I cope with the pain when everything might crash Ta-ta-ta-ta-ta You ain't never been in my shoes, lookin' at the world my side of the glass Goddamn So when you mentionin' my name, it's so much for you to say, you don't know me like that So here is what you do, get the fuck up out my face Get out my face I'm off some Gin Juice, I'ma drown in Alizé I'm gonna drown And you could get the deuce, you won't need a band-aid No fuckin' And you don't wanna see me on a fuckin' bad day So, so here So here is what you do, get the money, fuck a ho I bought some Gin Juice and the mothafuckin' dro And you could get the deuce, hit your ass like Figueroa And you don't wanna see me on a fuckin' bad day, no way Boy-bo-boy got flow like an aqueduct If the shit ain't real, it ain't 'Pac enough You mothafuckas not real, you imposters, bruh I wrote your name in a search, you ain't poppin' up Flex hard, feelin' like Big Poppa Pump Beast Coast murder every fuckin' possé cut Yeah I'ma-I'ma get mine, no pity If you out of line, then you might die in my city Ten o'clock show, get inside 950 When this shit start, need a moshpit or I'm dippin' Yeah Need to get away, who the fuck am I kiddin'? Anywhere but here, couldn't be where I'm livin', uh Open up the pit like your arms up Lit, no spark plug, I'ma need more love Yeah Guess this is what a stone heart does I'm a good guy but just wait until I'm charged up You don't wanna see me on a bad day You don't wanna see me on a bad day, you don't wanna see me on a bad day You don't, you don't wanna see me on a bad day You don't wanna see me in a bad way You don't wanna test how much fuel's in the gas tank Just another clip in the ashtray, fssh I been over heads like Anne Frank Gi-gi-gi-gi-give a fuck what your man say So here is what you do, get the fuck up out my face Get out my face I'm off some Gin Juice, I'ma drown in Alizé I'm gonna drown And you could get the deuce, you won't need a band-aid No fuckin' And you don't wanna see me on a fuckin' bad day So, so here So here is what you do, get the money, fuck a ho I bought some Gin Juice and the mothafuckin' dro And you could get the deuce, hit your ass like Figueroa And you don't wanna see me on a fuckin' bad day, no way2</t>
+          <t>To every competitor, and to any challenger Have, gold bullets rocking inside your temple, Metallica What happens when murder and mix 'em with Galaga That's too many niggas that's calibrating with calibers Excalibur, killin' all through the book of lies Livin' upon a revelation, but as master in disguise I'm master in disguise, elevated you and I Counting sticks and body parts, options when is join or die Count to 2, grab the 9, all these suckers are clouds 'Cause their fantasy is final destination underground To a dirt freak accident, A young Devil's advocate Goin' Ham on the Madison, and poppin' his bitch from the cabinet I keep locally Madison, before an undergraduate Jobs closin', now you coppin' that brick from the ocean All your life you have been focused since your mom wasn't open Face shine inside a box now it looks like you votin' From where the slogan was survive in Atlanta that holds the zone of war More killers bribe with contraband, but they playin' Contra, fuck around Tryin' to meet the next level and minimize the coppers The CPU and cheat codes won't work 20 years old can't afford a lawyer, momma said he should've went to church Stop by, I'm smokin' in another universe As my whole planet gets worse, I'm blasted if I could rule the world On my way back to Earth And see all of the out of the day gloomers Inter-galactic storm troopers keepin' my brothers captive So don't ask me if I believe in magic If I answer, I say it only exists in drugs And god is a mirror 'cause his image is in us Holy water drippin' down her body hurry up get a cup Down a in panties hopin' that she wasn't naked Same outfit as Eve, I'm not Adam, but I'm still sacred He slit the adam's apple and now it's forsaken The basic, all medication, civilization is pagan Before we built the pyramids, hieroglyphics outdated Textin' on the iPhone and 95 works slated Israelites in a modern-day Babylon but cannot live in the sun Before explain to me how we not the chosen one Seven stars in my hand, and a blade on my tongue Whether a god is a profit, illusion optic Clocks stop it, had to pause it, fundamental brain deposit project, 'cause science is not a conscience Put in logic, no emotional shit Holy as the cross that Jesus walked in, to the Crossroads I don't see no Bonethugs, all I see is Thugbones Stone cold the pegasus is arson Radiate flows like sippin' water out the faucet, bitch Custom plated and put it in a scribe If we start a revolution, it needs to be televised But it will be only for the viewers that's watchin' with open eyes I despise you critics that interfere with your lies I'm on an acid tab havin' intercourse with the sky, fuck the world I'm gonna elevation the minds, fuck the world And I'ma fuck it till it's mine, fuck the world And I'm fuckin' till it's mine2</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>’Cosmic’.m4a (The Alchemist Version)</t>
+          <t>Smoke 2049</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>03' Adolescence - J. Cole 100 Degrees - Rich Brian 1037 - Beach House 10 Mile Stereo - Beach House 1123 - mj apanay 1, 2 - mxmtoon 1.5 - 21 Savage feat. Offset 151 Rum - JID 17again - Powfu 18 Months - THEY. feat. Ty Dolla ign 1999 - beabadoobee 1999 - Big K.R.I.T. feat. Lloyd 1999 - Bedroom Session - beabadoobee 1Train - AAP Rocky feat. Kendrick Lamar, Joey Bada, Yelawolf, Danny Brown, Action Bronson, Big K.R.I.T. 200 AM - ReptileLegit 2020 - EDEN 2020 - Kojey Radical 20 Wave Caps - Earl Sweatshirt feat. Domo Genesis 21 Questions - 50 Cent feat. Nate Dogg 22 Two's - JAY-Z 24 - IDK 247 - The Neighbourhood 24's Vocals Only - T.I. 27 Summers - Nas 2 Cups of Blood - Gravediggaz 2 Hurt M - sleep.ing 2 Phones - Kevin Gates 2 soon - kshi 2 The Face - 88rising, Rich Brian, Higher Brothers 3005 - Childish Gambino 300 AM - Finding Hope 3230 - Vince Staples 33rd Blakk Glass - City Morgue 3500 - Travis Scott feat. Future 2 Chainz .357 - Pressa 3 AM - Maxo Kream feat. ScHoolboy Q 3 Below - SAINt JHN 3 Headed Goat - Lil Durk feat. Lil Baby Polo G 3 Headed Snake - Gunna feat. Young Thug 3-Minute Rule - Beastie Boys 3NIGHTS - SAIAH 3NIGHTS - SAIAH feat. guardin 3 Tearz - Danny Brown feat. Run The Jewels 400 Lux - Lorde 403 am - Forrest. 42 Hundred Choices - IDK 444222 - Lil Uzi Vert 495 - IDK feat. YungManny, Big Flock, Big JAM, Rico Nasty, Weensey 4 Min Convo Favorite Song - A Boogie Wit da Hoodie 4 Seasons - Method Man Redman feat. LL Cool J Ja Rule 4th Chamber - GZA feat. RZA, Ghostface Killah, Killah Priest 4th Qtr - Quando Rondo 505 - Arctic Monkeys 5 TINT - Travis Scott 5 Thousand Singles - SAINt JHN 66SLAVS - City Morgue 679 - Fetty Wap feat. Remy Boyz 6 Feet - Scarlxrd 6 Foot 7 Foot - Lil Wayne feat. Cory Gunz 6 Kiss - Trippie Redd feat. Juice WRLD YNW Melly 6th Grade - sadgods feat. Kuzu Mellow Laeland 745 - Vince Staples 777 - Joji 818 - Anonymouz 8701 - JID feat. 6LACK 8 Million Stories - A Tribe Called Quest 94 Bentley - SAINt JHN 95 at Night - Fiji Blue 99 Problems - JAY-Z 9 Milli Bros - Ghostface Killah feat. Wu-Tang Clan ? - MF DOOM feat. Kurious ? - Outkast A A B-Boy's Alpha - Cannibal Ox Above The Clouds - Gang Starr feat. Inspectah Deck Above The Law - Bad Meets Evil A BOY IS A GUN - Tyler, The Creator a classmate from a different world - Powfu acting like that - YUNGBLUD feat. Machine Gun Kelly ADHD - Joyner Lucas A.D.H.D. - Kendrick Lamar Addiction - Big K.R.I.T. feat. Lil Wayne Saweetie A Dream I Can't Remember Interlude - Quadeca Affirmative Action - Nas After Hours - The Weeknd Afterlife - Flatbush Zombies After Party - Don Toliver Afterthought - Joji feat. BENEE Afraid - The Neighbourhood again - guardin agoraphobic - CORPSE A.I. - rei brown Ain't Cha - Clipse feat. Re-Up Gang AIN'T GON STOP ME - reggie, Monte Booker, Kenny Beats A King's Nightmare - Polo G alive - guardin All Again - Powfu Nuxe feat. Snøw All Bad - Future feat. Lil Uzi Vert All Bad - JID feat. Mereba All Due Respect - Run The Jewels feat. Travis Barker Alleyways - The Neighbourhood All Falls Down - Kanye West feat. Syleena Johnson All for You - Little Brother feat. Darien Brockington all i can see - guardin All I Need - khai dreams Atwood all i need - whiterosemoxie All I Want - Kodaline All I Want - T-Pain feat. Flipp Dinero All I Wanted - Paramore All I Want Is A Yacht - SAINt JHN ALL KILLER NO FILLER - City Morgue All Mine - Remix - Sense feat. Eleven Bonjr all my friends - 21 Savage feat. Post Malone All Of The Lights - Kanye West All Out - Corbin All Star - Lil Tecca feat. Lil Tjay All The Years - Beach House All To Me - Giveon almost home - mxmtoon ALOHA - Charlie Heat Denzel Curry alone in the attic - guardin Alone Together - Quadeca Along for the Ride - Atwood a lot - 21 Savage feat. J. Cole alright - guardin Alright - Kendrick Lamar alright - keshi altitude - guardin always - keshi ALWAYS DO - The Kid LAROI Always Forever - Bryson Tiller A.M. - Lonr America Loves Gangsters - Cunninlynguists A Milli - Lil Wayne and - EDEN Angel - beabadoobee Angel - Bedroom Session - beabadoobee ANGELZ - MF DOOM feat. Ghostface Killah Another Day - Kid Cudi Another Night - Mac Miller Another Year - 111nightshift feat. Donttrustlando, Nosgov, sphere merchants Anything But Words - Banks Steelz Anywhere But Here - Killer Mike feat. Emily Panic Apollo Kids - Ghostface Killah feat. Raekwon Apologies - Kota the Friend Apparently - J. Cole applause - whiterosemoxie Apple Cider - beabadoobee Are You Bored Yet? - Wallows feat. Clairo Are You Okay? - Thomas Reid, Rxseboy, Powfu Are You Sure - beabadoobee Argue with me - Jomie feat. Rxseboy Art Class - beabadoobee Art of War - Jasiah feat. Denzel Curry Rico Nasty Ashley - Stunna 4 Vegas DaBaby Assassination Day - Ghostface Killah feat. Raekwon, RZA, Inspectah Deck As the World Caves In - Matt Maltese Aston Martin Music - Rick Ross feat. Drake Chrisette Michele Astronaut - Beach House A Tale Of 2 Citiez - J. Cole ATF - DMX atlas - keshi ATL Freestyle - 6LACK ATTENTION - Joji Attention - Rich Brian feat. Offset Atom - Cannibal Ox feat. Alaska Cryptic Aquemini - Outkast a way to stay - Fudasca feat. Resident Hashir A World Alone - Lorde a world of chaos - Powfu feat. Rxseboy, Jomie, Ivri Aw Shit - ZillaKami Solo - City Morgue B Babushka Boi - AAP Rocky Baby - Quality Control, Lil Baby, DaBaby Babyface Savage - Bhad Bhabie feat. Tory Lanez Babylon - Outkast Baby Pluto - Lil Uzi Vert Baby Sitter - DaBaby feat. Offset BabyWipe - Ski Mask The Slump God Back - Lil Pump feat. Lil Yachty Back Like That - Ghostface Killah feat. Ne-Yo Back On - Quality Control Lil Baby Back On The Ledge - SAINt JHN Backseat Freestyle - Kendrick Lamar Back To Mars - beabadoobee backup - guardin Backwards - Forrest. Back With You - SUGR? Bad and Boujee - Migos feat. Lil Uzi Vert BADASS - ZillaKami Lil Uzi Vert Bad Bad Bad - Young Thug feat. Lil Baby Bad Boy - Juice WRLD Young Thug Bad Day - Nyck Caution feat. Denzel Curry Bad Girls - Lil Skies feat. Gucci Mane Bad Hoe - Tom The Mail Man Bad Luck - Denzel Curry feat. PlayThatBoiZay Bad Moon Rising - Creedence Clearwater Revival B.a.F - ilkmoney BagBak - Vince Staples Baguetti - Smino, JID, Kenny Beats BALD! REMIX - JPEGMAFIA Denzel Curry Balenciaga Challenge - 6LACK feat. Offset Ballin' - Mustard feat. Roddy Ricch Ball Hard - Lil Wayne feat. Lil Twist Banana Clip - Miguel Banana Clipper - Run The Jewels feat. Big Boi bandaids - keshi Bank - EARTHGANG Bank Account - 21 Savage Baptize - Spillage Village, JID, EARTHGANG feat. Ant Clemons Barbarian - Calboy feat. Lil Tjay Bastard Satan's Kid - Lil Wayne Batter Up - Nelly, Murphy Lee, Ali Battle for Asgard - Cannibal Ox feat. L.I.F.E. Long C-Rayz Walz Be Intro - Common Beach Ballin' - Yung Pinch feat. blackbear Beach Whatever - Surf Curse BEAMIN - Quadeca Beast Mode - A Boogie Wit da Hoodie feat. PnB Rock YoungBoy Never Broke Again Beat Take 1 - The Neighbourhood feat. Ghostface Killah Beautiful Girl - Cunninlynguists Beautiful Morning - Little Brother Beautiful Oblivion - The Neighbourhood feat. IDK Beautiful Smile - Saba feat. IDK BedRock - Young Money feat. Lloyd Be Easy - Ghostface Killah feat. Ice Cube Be Easy - Ghostface Killah feat. Trife Diesel Be Easy - T.I. Beef Rap - MF DOOM Been a While - Jhove before i met you - Jhove feat. Elijah Lee Before You Go - Lewis Capaldi Behind the Clouds - yaeow beibs in the trap - Travis Scott feat. NAV Be Like Me - Lil Pump feat. Lil Wayne Believe - Big K.R.I.T. Below The Heavens pt. 1 - Blu Exile Belly - Lil Baby Gunna benny's and henny - foryou, versor Beno! - Playboi Carti Be You - Gangsta Boo feat. Crunchy Black BERZERK - Scarlxrd beside you - keshi Best Friend - DaBaby feat. Rich The Kid BEST ON EARTH - Bonus - Russ feat. BIA Betrayal - Gang Starr feat. Scarface Better - Forrest. Better Times - Beach House Beyond Love - Beach House Bezerk - Big Sean feat. AAP Ferg BFK - Freddie Gibbs B.I.B.L.E. Basic Instructions Before Leaving Earth - GZA feat. Killah Priest Big Bank - Big K.R.I.T. feat. T.I. Big Black Truck - Dreamville JID Big Dawg - Smokepurpp feat. Rick Ross Big Dusty - Joey Bada Big Fish - Vince Staples Big For Your Boots - Stormzy Bigger Than Life - Lil Uzi Vert Bigger Than You - 2 Chainz feat. Drake Quavo Big Girl - Ghostface Killah Big Shrimp - Flatbush Zombies Big Time - Vince Staples Birds Bees - Vince Staples feat. Daley BIRDZ - Denzel Curry feat. Rick Ross Bitch, Don't Kill My Vibe - Kendrick Lamar B.I.T.E. - Fabolous BITIN' - PlayThatBoiZay B.I. Vs. Friendship - Gang Starr feat. M.O.P. Black White - Juice WRLD Black 2 - Buddy BLACK BALLOONS 13LACK 13ALLOONZ - Denzel Curry feat. Twelve'len GoldLink Black Balloons Reprise - Flying Lotus feat. Denzel Curry Black Beatles - Rae Sremmurd feat. Gucci Mane Black Connection - Camp Lo BLACKJACK - Remix - Aminé feat. Cordae BLACK METAL TERRORIST 13 M T - Denzel Curry Black Nostaljack AKA Come On - Camp Lo BLACKOUT - Lil Kapow BLACKPLANET - SAIAH Blind - SadBoyProlific Blind Threats - ScHoolboy Q feat. Raekwon Blockbuster Night, Pt. 1 - Run The Jewels Blood Hound - 50 Cent feat. Young Buck Bloodshed - Denzel Curry bloom - fragile. Blow a Bag - Future Blowing Down - Digable Planets Blu Collar Worker - Blu Exile blue - guardin blue - keshi Blue - The Neighbourhood blue - Remix - keshi feat. Jai Wolf Bluebird - Beach House Bluegrass - E the profit Blue Moon - EARTHGANG Blue Suede - Vince Staples Blurred voices - Bonjr, Ouska, versor B.O.B. - Bombs Over Baghdad - Outkast body bag - Machine Gun Kelly feat. YUNGBLUD Bert McCracken Bomb - Freddie Gibbs Madlib feat. Raekwon Bonfire - Brenky Bonfire - Childish Gambino bon iver - mxmtoon BOP - DaBaby Bora Bora - Lil Durk Borders - SAINt JHN feat. Lenny Kravitz Bored Without You - Rxseboy feat. Powfu Boss - Lil Pump Both - Remix - Gucci Mane feat. Drake Lil Wayne boudreaux's - foryou, versor Bounce Out With That - YBN Nahmir Box In Hand - Ghostface Killah feat. Method Man Street Boy Bi - Mad Tsai BOYFRIEND KILLER - Palmertrees Brain Cell - Cunninlynguists brakence 2.0 freestyle - brakence feat. Majent Brand New - khai dreams break da law - 21 Savage Break The Bank - ScHoolboy Q Breathe - 88rising, Joji, Don Krez Breathe - Lauv Brighter Days - Jomie Brilliant Bitch - SAINt JHN Bring Da Ruckus - Wu-Tang Clan Broccoli - Shelley FKA DRAM feat. Lil Yachty Broke As Fuck - Cordae Broke Bitch - Tiny Meat Gang Broke In A Minute - Tory Lanez Broke Leg - Tory Lanez, Quavo, Tyga Broken - Freddie Gibbs Madlib feat. Scarface Broken - THEY. feat. Jessie Reyez Broken Trust - SadBoyProlific feat. Monty Datta Mishaal Brooklyn - Mos Def Brooklyn's Finest - JAY-Z feat. The Notorious B.I.G Brown Paper Bag - Migos brutal - Olivia Rodrigo Bruuuh - Remix - JID Denzel Curry B.S. - Jhené Aiko feat H.E.R. BUAKAW - City Morgue Bubblin - Anderson .Paak Buck 50 - Ghostface Killah feat. Cappadonna, Method Man, Redman Building Steam With A Grain Of Salt - DJ Shadow BULLETPROOF SHOWER CAP - Pouya feat. City Morgue Bummer Friend - Surf Curse Bundy Sincere - Curreny, Freddie Gibbs, The Alchemist Burgundy - Earl Sweatshirt feat. Vince Stapkes Burnin Bridges Long Day - Quadeca feat. IDK Burn The Hoods - Ski Mask The Slump God BUSHY B INTERLUDE - Denzel Curry Business Is Business - Lil Baby Gunna Bust Me - Lil Uzi Vert Butane Champion's Anthem - Killer Mike feat. El-P But I Still Respect Women - Smokepurpp Butterflies - Fiji Blue BUZZCUT - BROCKHAMPTON feat. Danny Brown Bye - Snøw, Jomie, Skinny Atlas, Ivri, tomcbumpz C Cabin Fever - CORPSE Caged - Jomie Skinny Atlas CAKE - 1 800 PAIN Calculator - 88rising AUGUST 08 feat. Barney Bones California - 88rising, Rich Brian, NIKI, Warren Hue Calling My Phone - Lil Tjay 6LACK Candles on Fire! - Quadeca Can I - Kehlani Can I Live - JAY-Z Can I Live II - JAY-Z feat. Memphis Bleek CAN'T GET OVER YOU - Joji feat. Clams Casino Can't Go Back - Kojey Radical can't leave without it - 21 Savage feat. Lil Baby Gunna can't look back - Machine Gun Kelly CAN'T SAY - Travis Scott Can't You See? - Quadeca Can U Get Away - 2Pac CAPO - NLE Choppa Care - beabadoobee Caroline - Calboy feat. Polo G CAROUSEL - Travis Scott Carter II - Lil Wayne Case Closed - Redman feat. Rockwilder Napalm CASH MANIAC CAZH MAN1AC - Denzel Curry feat. Nyyjerya Cashmere Tears - Kojey Radical Carterpillar - Royce Da 5'9 feat. Eminem King Green Cat Girls Are Ruining My Life! - CORPSE Cat Piss - Ski Mask The Slump God feat. Lil Yachty Cause for Concern - Lovejoy Caved In - Cunninlynguists CB4 - Slum Village Ceilings - beabadoobee Ceilings - Bedroom Session - beabadoobee Celebrate - DaBaby feat. Rich Homie Quan Celebration Station - Lil Uzi Vert Cell Therapy - Goodie Mob Centurion - Earl Sweatshirt feat. Vince Staples Cereal - IDK JID feat. Kenny Mason Chanel - Frank Ocean Change Lanes - Kevin Gates Chaos - SadBoyProlific feat. marc indigo M.E CHAOS IS A LADDER - Bonjr Chariot - Calboy feat. Meek Mill, Lil Durk, Young Thug charity - YUNGBLUD Charlie Brown - beabadoobee Chasing Cars - Snow Patrol Chateau - Jaden feat. AAP Rocky Cheatin' - Little Brother Chi-City - Common Chill Bill - Rob tone feat. J. Davi Spooks Chill Bill REMIX - Rob tone feat. Shelley FKA DRAM, Denzel Curry, Cousin Stizz Chloe Kelly - Surf Curse Chrome Heart Tags - Lil Uzi Vert Chum - Earl Sweatshirt Circles - EDEN City of Angels - Miguel Clash - Cornelius clash of the titans - Powfu Class In Session - A1TH Quadeca cliché - mxmtoon cliffnote - guardin Clinton Hill - Kota the Friend Clipse of Doom - Ghostface Killah feat. Trife Diesel Clockwise - Remix - Jarrod Gipson feat. Synova Close My Eyes - 21 Savage Close Your Eyes And Count To Fuck - Run The Jewels feat. Zack De La Rocha Clouded - brakence Clout - Offset feat. Cardi B CLOUT COBAIN CLOUT CO13A1N - Denzel Curry Cludder - JID C.N.B. - Vince Staples CoastClear - Beast Coast Coat Check Session 47 - Nyck Caution Cocktail - EARTHGANG codename juliet - guardin feat. sadeyes Coffee - beabadoobee Cokewhite - GoldLink feat. Pusha T cold - guardin feat. guccihighwaters Cold Hearted - Blu Exile Collect Calls - Quando Rondo Come Back Baby - Pusha T Come Through and Chill - Miguel feat. J. Cole Salaam Remi COME THRU - Joji Comfort Zone - Yot Club Comfy In Nautica - Panda Bear Commercial - Lil Baby feat. Lil Uzi Vert Compton - Kendrick Lamar feat. Dr. Dre concert for aliens - Machine Gun Kelly Confetti - Rich Brian Consecutive Normal Punches - Domo Genesis feat. Buddy Constellations - Laffey feat. Oatmello Coolie High - Camp Lo 'Cosmic'.4a - Denzel Curry Kenny Beats feat. Joey Bada The Alchemist Costa Rica - Dreamville, Bas, JID feat. Guapdad 4000, Reese LAFLARE, Jace, Mex, Smokepurpp, Buddy, Ski Mask The Slump God Costa Rica - Ronny J feat. Ski Mask The Slump God cotton candy - YUNGBLUD Cotton Cloud - Fatb CRACK - 1 800 PAIN CRANK - City Morgue crash - EDEN Crashed My Whip - Jomie crazy - guardin Crazy - Lil Pump creature - guardin creep - mxmtoon Creeping - Lil Skies feat. Rich The Kid Crescendo - The Underachievers Criminal - Miguel feat. Rick Ross cuba lake - guardin Cult4Ever - SAINt JHN Cutlass - Jadakiss feat. Exodus D Da Art of Storytellin' Pt. 1 - Outkast Da Art of Storytellin' Pt. 2 - Outkast Daemons - XXXTENTACION feat. Kemba Joey Bada daisies - guardin feat. Flowars Damaged - Kid Cudi Damien - DMX Da Mystery of Chessboxin' - Wu-Tang Clan Dancing In The Rain - Blu Exile Dance with Me - beabadoobee Dance with the Devil - Immortal Technique Dark Knight Dummo - Trippie Redd feat. Travis Scott Dark Queen - Lil Uzi Vert D.A.R.L.I.N.G. - Beach House Da Rockwilder - Method Man Redman date night - whiterosemoxie Dat tick Remix - Rich Brian feat. Ghostface Killah Pouya Day By Day - Fiji Blue Daydreamin' - Lupe Fiasco feat. Jill Scott Daylight - Joji Diplo Days Like This - GoldLink feat. Khalid Days of Candy - Beach House Daytona 500 - Ghostface Killah feat. Raekwon Cappadonna DAYWALKER! - Machine Gun Kelly feat. CORPSE DDFH - Run The Jewels Dead Bent - MF DOOM DEAD DESERT - Trippie Redd Travis Barker feat. Scarlxrd ZillaKami Dead Eyes - Promoting Sounds, Powfu, Ouse Deadz - Migos feat. 2 Chainz Dear Mama - 2Pac Death - Trippie Redd feat. DaBaby death bed coffee for your head - Powfu feat. beabadoobee Deathtrap - Gravediggaz december - mj apanay Deep End - Lil Baby Deeper - Freddie Gibbs Madlib deja vu - Olivia Rodrigo Demanding - NOT DESTROYUSALL - 1 800 PAIN Devil In A New Dress - Kanye West feat. Rick Ross D'evils - JAY-Z Devil Town - Cavetown Diamonds From Sierra Leone - Bonus Track - Kanye West Diary of a Madman - Gravediggaz Did It Again - Lil Tecca Die For Me - Post Malone feat. Future Halsey Die For You - The Weeknd DIET - Denzel Curry Kenny Beats DIET1.5 - Denzel Curry Kenny Beats feat. Benny The Butcher Die Trying - Michl Different Class, Same Boat - Powfu Different Scales - Mick Jenkins Digital - IDK Digits - Young Thug Dirt Off Your Shoulder - JAY-Z Dirty - Shoreline Mafia Dirty Dan - Lil Kapow dirty elevator music - Flatbush Zombies Dirty Money - Clipse Dirty Taurus - Ant Beale Charlie Heat Disappear - beabadoobee Disappear - Bedroom Session - beabadoobee Disconnect - 6LACK Disrespectin - 88rising, Rich Brian, Higher Brothers, AUGUST 08 Diva - The Kid LAROI feat. Lil Tecca DND - Polo G DOA - Rich Brian DO DAT - Stunna 4 Vegas feat. DaBaby Lil Baby Dogs Of War - Ghostface Killah feat. Raekwon, Theodore Unit, Trife Diesel, Capadonna, Sun God Dog Song - Yot Club Do It Now - Mos Def feat. Busta Rhymes Dominate The Weak - Ice Cube Domo23 - Tyler, The Creator Do Not Disturb - Smokepurpp Murda Beatz feat. Lil Yachty Offset Don't Care - Rich Brian Don't Come Out The House - Metro Boomin 21 Savage don't fall asleep - guardin don't fall asleep yet - Powfu feat. ENRA Don't Get Chipped - Vince Staples Don't Like.1 - Kanye West, Chief Keef, Pusha T, Big Sean, Jadakiss Don't Pray For Me - Quando Rondo Don't Push Me - 50 Cent feat. Lloyd Banks Eminem Don't Stand So Close - Gangsta Boo feat. DJ Paul Juicy J Don't Talk Put Your Head On My Shoulder - The Beach Boys doom - tomcbumpz, SadBoyProlific, Ivri Dope Boy Dreams - Quando Rondo Dopeman - Vince Staples feat. Joey Fatts Kilo Kish Do What U Feel - Redman Down And Out - Cam'ron feat. Kanye West Syleena Johnson Down Bad - Dreamville, JID, Bas, J. Cole, EARTHGANG feat. Young Nudy Down Below - Roddy Ricch Down Like That - KSI feat. S-X, Lil Baby, Rick Ross downstairs - guardin Dragged - Corbin DRAINO - City Morgue feat. Denzel Curry Drip - Snøw, Skinny Atlas, Jomie Drip Too Hard - Lil Baby Gunna Drive On - NIKI drivers license - Olivia Rodrigo Drive Safe - Rich Brian Drive Slow - Calica Drizzy Draco - Maxo Kream dropout - brakence dropout - brakence w blackbear Drowning - A Boogie Wit da Hoodie feat. Kodak Black drugs - EDEN drunk - Fudasca feat. Laeland Rxseboy drunk - keshi drunk face - Machine Gun Kelly Duel Of The Iron Mic - GZA feat. Masta Killa, Dreddy Kruger, Inspectah Deck, Ol' Dirty Bastard Due Season - Jesse Boone Dye It Red - beabadoobee Dyin Breed - Polo G E EARFQUAKE - Tyler, The Creator East Atlanta Love Letter - 6LACK feat. Future echo complex - Bonjr singular balance Ecstasy - Young Thug feat. Machine Gun Kelly effort - brakence Effortless - Polo G Egg Man - Beastie Boys E-GIRLS ARE RUINING MY LIFE - CORPSE Savage Gap Ego Death - Quadeca Elevators Me You - Outkast Eleven - Kojey Radical Emo Song - beabadoobee Emotionally Dumb - Kota the Friend Enby Cypher - 111nightshift feat. grimtweakr, carpetgarden, brdynl, stagehoax, Smeliot, BeanyBoy, Killing Cassie, sc0ttryan Endless - gate Enemies - Post Malone feat. DaBaby Enjoy the Moment - Rxseboy enough for you - Olivia Rodrigo Envy Me - Calboy ERASE U - The Kid LAROI Erase Your Social - Lil Uzi Vert Escape From LA - The Weeknd Eternally - TOMORROW X TOGETHER even - mj apanay Event Horizon - gate Everest - beabadoobee Everydays, Vol. 1 - Boltex, Holly, Whosmodz, Bonjr Everytime - Jomie W Powfu Ew - Joji Examination Of What - Digable Planets Ex Calling - 6LACK Ex-Factor - Ms. Lauryn Hill Eye for a Eye Your Beef Is Mines - Mobb Deep feat. Nas Raekwon Eyes - Quadeca Eyes Blue Like The Atlantic, Pt. 2 - Sista Prod feat. Powfu, Alec Benjamin, Rxseboy, Sarcastic Sounds F Fade - Knowmadic Faithful - Common Fallin - Bazzi feat. 6LACK Fallin' Apart - Young Franco feat. Denzel Curry Pell falling - C H O I S I E S, Teqkoi, bobby someone Falling for U - Peachy! mxmtoon Fallingforyou - The 1975 falling in reverse - EDEN falling out the window - guardin FALL IN LOVE - NOT Far Gone - Ski Mask The Slump God feat. Lil Baby Fast Lane - Bad Meets Evil Faucet Failure - Ski Mask The Slump God favorite crime - Olivia Rodrigo Favorite Mistake - Giveon FBC - Freddie Gibbs Feel About It - Kojey Radical feelings are fatal - mxmtoon feelings i forgot - mj apanay Feelin' It - JAY-Z feat. Mecca Feelin' The Love - Vince Staples Feels Like Summer - Vince Staples FEEL SOMETHING - The Kid LAROI feat. Marshmello Female Robbery - The Neighbourhood fever dream - mxmtoon Fields - EARTHGANG feat. Malik fiends - whiterosemoxie Fight Music - D12 FIND HIM! - Comethazine Find My Way - khai dreams Atwood Fingertips - Skinny Atlas, Snøw, Jomie feat. kerri Fire Squad - J. Cole first - mxmtoon firstego - brakence First Place - Polo G Lil Tjay First Things First - Blu Exile Fish - Ghostface Killah feat. Raekwon Cappadonna Fish Outta Bacardi - Quadeca EGOVERT Flex - Polo G feat. Juice WRLD Float - 6LACK float - EDEN Float - The Neighbourhood Floating - ScHoolboy Q feat. 21 Savage Flooded - Lil Skies Flowers - The Neighbourhood Fly Away - khai dreams, Matt Jordan, Atwood Flying High - Travis Scott feat. Toro y Moi Fly Out West - Yot Club F.N - Lil Tjay Focus - Bazzi feat. 21 Savage fomo - EDEN Fool - Cavetown Foot Fungus - Ski Mask The Slump God For All My Nz and Bitches - Snoop Dogg feat. The Lady Of Rage Tha Dogg Pound Forever - Drake, Kanye West, Lil Wayne, Eminem Forever - Lil Baby feat. Lil Wayne Forever - sadgods feat. Flowars Kenny Forever - Tom The mail Man Forever Love - SuperDuperWavey foreverover - EDEN forget me too - Machine Gun Kelly feat. Halsey Forget That - Lil Baby feat. Rylo Rodriguez Forgot About Dre - Dr. Dre feat. Eminem FRANCHISE - Travis Scott feat. Young Thug M.I.A. Freaks - Surf Curse Freddy Krueger - YNW Melly feat. Tee Grizzley Free - 6LACK Freedom Is Priceless - SAINt JHN Freedom of Speech - Immortal Technique Free Fall - Cornelius Free Lighter - 2 Chainz feat. Lil Uzi Vert Chief Keef Free Mason - Rick Ross feat. JAY-Z Fr Fr - Wiz Khalifa feat. Lil Skies Friday Night Cypher - Big Sean feat. Tee Grizzley, Kash Doll, Cash Kidd, Payroll, 42 Dugg, Boldy James, Drego, Sada Baby, Royce Da 5'9, Eminem Friends - Mishaal feat. Powfu FromdaTomb - Joey Bada feat. Chuck Strangers fuckboy - brakence fucking beautiful, but no finish line in sight - foryou, FCKING UP FREESTYLE - Stunna 4 Vegas Fck Up Some Commas - Future FCK YOU, GOODBYE - The Kid LAROI feat. Machine Gun Kelly Fck Your Ethnicity - Kendrick Lamar Fuel - Black Thought feat. Portugal. The Man The Last Artful, Dodgr Full Speed - Vincent Augustus feat. Atwood Fumes - EDEN feat. gnash FUN! - Vince Staples Funeral - Lil Wayne Funky For You - Common feat. Bilal Jill Scott future diary - Powfu feat. Jomie Skinny Atlas Fvck Dat - Jabb fwb - brakence G Game Over - Yot Club Nice Guys GANG GANG - Polo G Lil Wayne Gang Related - Logic Gangsta - ScHoolboy Q Gangsta's Paradise - Coolio feat. L.V Gangsta Sht - Outkast feat. Slimm Calhoun, C-Bone, TMO Gang Up - Young Thug, 2 Chainz, Wiz Khalifa, PnB Rock Gasoline Dreams - Outkast feat. Khujo Goodie Gaspar Yanga - D Smoke feat. Snoop Dogg Gates to the Sun POLLEN Singles - SahBabii feat. Joji Get at Me - DJ Quik Get At Me Dog - DMX feat. Sheek Get Em High - Kanye West feat. Talib Kweli Common Get It - Run The Jewels Get Paid - Vince Staples feat. Desi Mo Get Right Witcha - Migos Get The Fuck Off My Dick - Vince Staples Ghost Deini - Ghostface Killah feat. Superb Ghostface Killers - 21 Savage, Offset, Metro Boomin feat. Travis Scott Ghost in My Mind - j'san Epektase Ghost - Remix - Jaden AAP Rocky Ghosts - Scapegoat Giant - Banks Steelz Gila - Bach House Gimme Love - Joji ginger tea - brakence Girl - gate Givenchy Kickin - Calboy feat. Lil Baby Lil Tjay Give Up the Goods Just Step - Mobb Deep feat. Big Noyd Giving Up - Corbin Glaciers of Ice - Raekwon feat. Ghostface Killah Masta Killa Glass House - Wiz Khalifa feat. Curreny Big K.R.I.T Glitter - Tyler, The Creator Glow Up - Meek Mill GNF OKOKOK - Polo G GO! - Common Go! - Killer Mike GO - The Kid LAROI feat. Juice WRLD go - whiterosemoxie Go Away! - Scapegoat GOD BLESS THE RATCHETS - SAINt JHN Goddamn - Tyga feat. A Boogie Wit da Hoodie God Lives Through - A Tribe Called Quest God Only Knows - The Beach Boys god save me, but don't drown me out - YUNGBLUD God's Plan - Drake Godzilla - Eminem feat. Juice WRLD Go Gas - Domo Genesis feat. Wiz Khalifa, Juicy J, Tyler, The Creator Goin Down - Scarface Going Bad - Meek Mill feat. Drake gold - EDEN Gold - GZA Gold Coast - 88rising Rich Brian Gone - Kanye West feat. Consequence Cam'ron Gone - The Weeknd Good - Atwood good 4 u - Olivia Rodrigo Goodbyes - Post Malone feat. Young Thug Good Dank - Wiz Khalifa good day - 21 Savage feat. ScHoolboy Q Project Pat Good Day - iann dior Good Days - SZA Good for Nothing - Powfu feat. guardin Good Life - Blu Exile Good Life - Kanye West feat. T-Pain good morning - EDEN Good Morning - Black Thought feat. Pusha T, Swizz Beatz, Killer Mike Good Night - Denzel Curry feat. Twelve'len Nell Good on My Own - Jomie Skinny Atlas Gook - Denzel Curry Gorgeous - SAINt JHN Go Slow - Yot Club GOSPEL - DaBaby feat. Chance the Rapper, Gucci Mane, YK Osiris Go Stupid - Polo G Stunna 4 Vegas feat. NLE Choppa Mike WiLL Made-It Got - Mos Def Goth Babe - Surf Curse Got It - Jaden Go to Mars - PnB Rock feat. Tee Grizzley GP4 - Logic Grace - Lil Baby feat. 42 Dugg Gravehop187 - City Morgue feat. Sickboyrari Gravity - EDEN Greater Love - Blu Exile Green Light - Lorde Grey Area - 2 Chainz Groovy Tony Eddie Kane - ScHoolboy Q feat. Jadakiss growing - 50landing Grown - Atwood G-Shit - Tiny Meat Gang Spock Gucci Gucci - Lil Durk feat. Gunna GUESS WHAT - Russ feat. Rick Ross Guess Who - Goodie Mob GUMMY - BROCKHAMPTON Gundam Wing - Anonymuz Gwendolynn's Apprehension - Mick Jenkins H hadiknownsooner - Bonjr, Nekö, versor Hair Down - SiR feat. Kendrick Lamar Halfway Off The Balcony - Big Sean Hand of the Dead Body - Scarface Hands Up - Vince Staples Hang N' Bang - Vince Staples feat. ATon Matthews hangover cure - Machine Gun Kelly happier - Olivia Rodrigo Happy - SadBoyProlific feat. Thomas Reid Teqkoi Hardest To Love - The Weeknd Hard FeelingsLoveless - Lorde Hardknock - Joey Bada feat. CJ Fly Hard Piano - Pusha T feat. Rick Ross Harem - Miguel Harold's - Freddie Gibbs Madlib Hasta Luego - Bonus - JID Hate Bein' Sober - Chief Keef feat. 50 Cent Wiz Khalifa Hate It Or Love It - The Game feat. 50 Cent HATEMELOVEME - SAIAH Hate The Other Side - Juice WRLD feat. Marshmello, The Kid LAROI, Polo G Hate to Be It - Swerzie Havoc - NOT Hazel - Cavetown Hazeus View - Joey Bada Headstone - Flatbush Zombies heal - 50landing Heartache - yaeow Heart Attack - Scarlxrd Heartbeat Conversations - Rxseboy HEARTBREAK - SAIAH Heartless - Denzel Curry Heartless - Kanye West Heartless - Polo G feat. Mustard Heart of Chambers - Beach House Heart Of The City Ain't No Love - JAY-Z Heathers - Surf Curse Heatin Up - Lil Baby feat. Gunna Heatwave - Yot Club Heaven Or Las Vegas - The Weeknd Hectic - AAP Ferg feat. Puff Daddy Hellfire - Cunninlynguists HELL-O - Flatbush Zombies Hello - J. Cole Hell Of A Night - ScHoolboy Q Hell's Wind Staff Killah Hills 10304 - GZA herb - Flatbush Zombies hertz - EDEN He Say She Say - Lupe Fiasco feat. Gemini Sarah Green Hey Julie! - KYLE feat. Lil Yachty hey sego - Bonjr Hey Up There - Buddy feat. Ty Dolla ign Hide in Your Blue Eyes - Thomas Reid Powfu High - Freddie Gibbs Madlib feat. Danny Brown high dry - mxmtoon High For This - The Weeknd High Hopes - Joji feat. Omar Apollo High Off That Weed - Gangsta Boo High School Reunion - SAINt JHN High School Reunion, Prom - SAINt JHN feat. Lil Uzi vert High Top Versace - 2 Chainz feat. Young Thug History - 88rising Rich Brian Hit Em Up - Lil Wayne Hive - Earl Sweatshirt feat. Vince Staples Casey Veggies Hola' Hovito - JAY-Z hold somebody - guccihighwaters feat. Powfu Sarcastic Sounds Hold Tight - Slum Village feat. Q-Tip HOLD UP, I'M SLEEPING ON THIS - foryou, Bonjr Hol' Up - Kendrick Lamar Holy Dances - Beach House Homage - Vince Staples Home - Fiji Blue Home - Vince Staples Richie Kohan Home Again - Beach House Homemade Dynamite - Lorde Honest - rei brown Hood Politics - Kendrick Lamar hooligan - Baby Keem hope again - guardin hope ur ok - Olivia Rodrigo Hopscotch - 88rising, AUGUST 08, Joji, Rich Brian feat. Barney Bones Horen Sarrison - beabadoobee Horizon - NOT Horizons - S N U G Nuver feat. Mondo Loops Hot Box - JID feat. Method Man Joey Bada hot girl bummer - blackbear Hot Shower - Change the Rapper feat. MadeinTYO DaBaby Hours - soupandreas iverness House Of Balloons Glass Table Girls - The Weeknd Houston - Ronny J feat. Denzel Curry HOUSTONFORNICATION - Travis Scott How - The Neighbourhood How Can I Tell You? - Fiji Blue How I Feel - T.I. feat. Eric Bellinger Killer Mike How Much A Dollar Cost - Kendrick Lamar feat. James Fauntleroy Ronald Isley how to live - yaeow feat. Powfu Sarcastic Sounds how to sleep - EDEN How Was Your Day? - beabadoobee How You Live It - Nyck Caution feat. Joey Bada Humble Mumble - Outkast feat. Erykah Badu Hunker Down - Corbin HURT - 1 800 PAIN Hurt Me - Juice WRLD Hurt Me Soul - Lupe Fiasco Hurtsomemore - ReptileLegit Hypnotize - The Notorious B.I.G Hypothetical Love - Rxseboy feat. Eric Godlow Hysteria - Anonymuz I I - Jaden i - Kendrick Lamar I - Lil Skies I Ain't Got Time! - Tyler, The Creator iamlegend - Flatbush Zombies I Been Waitin - Big K.R.I.T. I Can Fvcking Tell - SAINt JHN I Can't Handle Change - Roar I Can't Sleep - Powfu feat. Sarcastic Sounds icarus - EDEN ICE BOY - Corbin Ice Cream - Raekwon feat. Ghostface Killah, Method Man, Cappadonna ice cream man - YUNGBLUD I Couldn't Be More In Love - The 1975 I Didn't Ask To Come - Goodie Mob I Do It - Lil Wayne feat. Big Sean Lil Baby idontcare - brakence I Don't Die - Joyner Lucas Chris Brown Idontreallycare - ReptileLegit I Don't Wanna Feel No More - reggie I Don't Wanna Fly - SKinny Atlas, Snøw, Jomie feat. Kaxi I Fall Apart - Post Malone i feel like chet - mxmtoon I Fell in Love With You, Now It's Killing Me - Skinny Atlas, Snøw, Jomie I Fell in Love with You One Night in September - Rook1e If There's Nothing Left... - NIKI if we never talk - mj apanay I Gave You Power - Nas I Get the Bag - Gucci Mane feat. Migos I Gotcha - Lupe Fiasco I Heart You Got Too Litt Last Night - SAINt JHN I hope - Fudasca feat. Thomas Reid i hope someone sings on this one day - foryou, IHYG - SAIAH I Know - Polo G I know that it's over - Stay Inside, Laeland, Zaini I Lied Intro - Joyner Lucas ill come back to you - Powfu feat. Sarcastic Sounds Rxseboy I'LL SEE YOU IN 40 - Joji Illy Mode - Scru Face Jean feat. Quadeca i love you - Billie Eilish I'm A Dboy - Lil Wayne feat. Birdman I Made - Big K.R.I.T. feat. Yella Beezy i'm a ghost but it hurts - Rxseboy Imagine You - Static feat. Powfu im closing my eyes - potsu feat. shiloh I'm Gonna Kill Santa Claus - Danny Gonzalez I'm Him - Smokepurpp Ronny J feat. Denzel Curry Imightbreakmyback - Moxas I'm in Love With an E-Girl - Wilbur Soot i'm in love with u, sorry - j'san I Miss My Mum - Cavetown I Miss the Old You - Powfu feat. Rxseboy I'm Not A Star - Rick Ross I'm Not Making out With You - Surf Curse Imperfect Flower - Quando Rondo Impossile - Travis Scott I'm Sorry - Glimlip Yasper I'm Sorry Boris - Wilbur I'm Still - Juice WRLD im used to it - Powfu I'm Waiting For The Day - The Beach Boys in another life - mj apanay In Between - Bonus - 6LACK feat. BANKS In Da Club - 50 Cent Indigo - 88rising NIKI indigo - whiterosemoxie I Need U - yaeow I Need U Remix - yaeow feat. Rxseboy In It - AAP Ferg feat. Mulatto Initiation - The Weeknd Ink - Coldplay In My Feelings - Quando Rondo In My Head - Bedroom In My Head Till I'm Dead - Surf Curse In My Place - Coldplay In My Section - Quando Rondo In Remembrance - Blu Exile Insane - Flume feat. Moon Holiday Inside My Head - SUGR? INSOMNIA - PlayThatBoiZay Insomnia - Rxseboy instacrush - mj apanay Internet Ruined Me - Wilbur Soot ION - Lil Pump feat. Smokepurpp IONEVENRAP - PlayThatBoiZay feat. DrownMili Iron Maiden - Ghostface Killah feat. Raekwon Cappadonna I Seen a Man Die - Scarface Isis - Joyner Lucas feat. Logic isohel - EDEN iSOLDMYHEARD2YOU - SAIAH iSpy - KYLE feat. Lil Yachty is your bedroom ceiling bored? - Fudasca Remix - Sody Cavetown feat. Rxseboy Fudasca It Ain't Easy, It Ain't Easy - Beast Coast I Think I'm OKAY - Machine Gun Kelly feat. YUNGBLUD Travis Barker i thin</t>
+          <t>Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Still pouring liquor for my niggas That's Chinaman and Tiara Moments play back in my mental about the last night of terror Am I scared of dying, more of a bullet flying Enter my window and hittin' my kinfolk, sit back with a blunt and Im sighing, bored I hear niggas knocking at the door Talking about some crucial shit like Cascade This shit is war round these parts This shit is on your porch or even at the park Shooting your bloods and your nigs out the dark Then they jump out and get caught by a narc 13 round from the sound of the chopper Guaranteed dropper Go on and let the hammer bang Like Bob the Builder they fix it and rang AK-47, 30 second to 47, fill it up with Mac-11s Eating church's chicken reverend Z-3 Z-4, River City, Lake Lucerne Scott Lake, Rolling Oats, ODH still making you turn Myrtle Grove, what it be And it's still free Chelly Skee Let's go get em Let's go get em Let's go get em Let's go get em Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs 1</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DIET_1.5</t>
+          <t>ARSENAL (I SMELL BITCH)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Ey SB woub die lakkie man Yarr the engineer Welke block wordt vandaag gespind? Veel chat maar niemand on- Jump uit die, jump uit die, jump uit die whip met speed Da's Jump Out Gang op een zone 2 neek Oi oi Zet een K op de K en krijg op je donder OVJ zegt ik ben niet honderd Maak rondes om mannen te verwonden De duivel wil met me praten Denk dat ik al met hem ben verbonden On drills, die life is geen pret Ik zou anders doen als we anders konden Swing swing, ying ying Voel me KK als ik grijp naar ding Je hoofd die wordt open gechingd Free NairoLoose, da's m'n violent twin Zie je SK ga niet in een sprint Want hij get je back en zet rams er in Alleen door rebels omringd Yolo, welke block wordt vandaag gespind? Welke block wordt vandaag gespind? On a 1-2-5, ik ben black gedresst Met die wap op peds voor cash Of ik lurk oppblock, ik wil paigons dead Mad, gyallie vindt mij te gek Ik nak het in trap sinds die 4-2 step Diligent step in die Air Force black Heb niemand gezien maar ga nog niet weg Neem die L, ik zet het wel recht We zijn op get back hier, niet op geklets Wack, ze rijden niet echt Wij doen het voor pret Opp in zicht, approach in a sec Doe die kikkestep voor die dode flat Yo, anything F get whacked En anything 2 get cheffed Two man step, fuck up a opp-boys back Step naar daar, zo van wie is op wie? Achttien inch op mij voor heat Run a man down als ik paigons zie In the T met the baddest B Brown skin, peng en ze rijdt de D Die mannen daar willen geen heat Back fast en swing op je G Veel chat maar niemand on me Back m'n chat, ik hendel die heat Ten toes met rebels on me Civilian ziet en denkt O-M-G Yo yo, jump out die whip met speed Da's Jump Out Gang op een zone 2 neek Lurk in de twee of six Zovaak op die block, maar niemand te zien Maar niemand te zien Heb een opp in m'n zicht, what's good? Rammy on me en ik back met spoed Zet hem laag in z'n eigen bloed No get back, nu zijn ze bedroefd Gyallie on me, on broski too True, gyallie loevt wat we doen Savage kid, badder than bad Dick die bitch grof, ik nak het in trap Let's go get lit Ik loop vrij op die o-six strip RS in spliff, z'n broertje tript Heb hem gewhackt op die block van .. Bijna nog één in kist Weet wat je zegt, je wil niet in spliff Bid dat ik die wap back en mis Wil je war, come try want we zijn op hits Hitsquad</t>
+          <t>I just spilt my cup, uh, all on my kicks, uh Designer on cuffs, that's all on my bitch, uh Two Gs in the blunt, that's how you get over shit, uh How you get rich? Uh, uh How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz We makin' deposits, step in the scene for the green It ain't nothin' to leave if I ain't gonna make it Profit Got money in my left, right, back, denim jeans If I roll up my sleeve, you would think I was poppin' I don't even be knowin' why you talkin' to me I ain't talkin' for free, whip it up, Betty Crocker Thes rap niggas ain't shit, I won't put 'em in lock I be trippin' for cents, thy be trippin' for boppers I just spilt my cup, uh, all on my kicks, uh Designer on cuffs, that's all on my bitch, uh Two Gs in the blunt, that's how you get over shit, uh How you get rich? Uh, uh How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz I smell bitch Yeah So let's get it poppin', you don't want no problems when dealin' with Zel, shit Nah Young boys on that frail shit Frail, sick as hell, sickle cell shit You sick Got me goin' off the rails, bitch Off the rail And I'm sonnen' niggas like I'm Chael, bitch, uh Rrah, rrah All the women callin' me a wapo Yeah Money like a mob boss, call me Zel Chapo, yeah Yeah, yeah All the niggas know to let the shots go Yeah I don't show no mercy 'less it's Murcielago, yeah Yeah, yeah Money over bitches is the motto Now the opps dead like Apollo versus Drago, yeah Never tell nobody that you got dough What do you think most these rappers get dropped for? Ultimate Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Brrt, Brrt Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Doot-doot-doot-doot-doot-doot, dah Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Brrah Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Yeah, yeah How you got all those sticks? Uh, bricks, uh Yeah, yeah Eatin' on fettucine, step in Ricks Yeah, yeah, on me Hittin' my city up, I'm wearin' six Yeah, yeah Think he can sit with us, I call a blitz Yeah How you got all those sticks? Uh, bricks, uh Oh, yeah Eatin' on fettucine, step in Ricks Yeah, yeah Hittin' my city up, I'm wearin' six Yeah, yeah Think he can sit with us, I call a blitz Yeah, doot-doot-doot-doot-doot-doot</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Grotto Flow</t>
+          <t>SHOTS!</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>I be off this herb Puffing on the purp Never smoking dirt Now your feelings hurt Why you watching me he gon' hit you first Soul gon' touch the sky, bodies in the dirt I'ma serve you up, you gon' get the work The last nigga that tried me he got it first Smoking on mars, I'm off this earth I kill him with bars, leave beast in the Hearse Money I'ma stack it I'm all black it Never am I lacking Wavy like a captain Came to get it cracking Been about the action We can make it happen Nigga what it is I been going hard for a million years Never shed a tear flier than a Lear Me myself and I, three musketeers Smoking on loud I can't even hear All you see is smoke then I dissapear It's your worst day, but this been my year Now I'm taking over I'm in fifth gear I'm smoking on rover Your rap days are over This ain't your session you better move over I swerve in the Rover Mix Henny with Cola Puff on that doja I stand in my corner Ain't pay a dolla I came with the owner Now you looking salty You thought that you saw me I'm balling like Barkley My weed lit like Barkley Get yo main lady She all on top of me Getting real money you playing Monopoly It ain't no stopping me It ain't no dropping me Get hella high then I laugh like it's comedy This ain't no Twitter, I made yo bitch follow me Later that night, it was yo bitch toppin' me Captain of the sea Intergalactically I'm a catastrophe With no gravity Can't flow after me Smokin' on the tree Pass the Grabba Leaf Roll the Grabba Leaf Grab the Mac and squeeze for my mac n cheese Niggas and bitches, oh why you actin' like dog to eat I am magnifique, magnificent Just like Eminem My style infinite My weed chiefing My dro blazing My bitch bad, my flow amazing Tryna comprehend Like going through mazes Don't try to flex 'cause my brother's crazy Put that on motto I lead and you follow So check my bravado I'm smashin' movato Money the same color as avocado You never had bitches You're Johnny Bravo Why pretend to be Try befriendin' me Pulling out the AR Son of my enemies Frenemies, you never been my friend I been to places you never been my friend Fuck with me that's yo end my friend I need money I need m's my friend Goddamn, yeah I been everywhere Overseas, over the world I don't give a fuck Fuck that I need money! 275C95</t>
+          <t>Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah, we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot Lets take some shots Man, she wanna take some shots Girl is you serious cuz this liquor ain't no pop She say so whattt Pass me a double cup She knocked it all back, now she want another shot I say turn uppp Now baby wanna fuck Girl wait a minute I just popped a pill, I say hold uppp I call KD, what's up Broski drunk as fuck, he said Dex im throwing up I say hold up!! Let me roll me up a blunt I pull up in my trunk I call KD, I say he up, he say for what? Man, these bitches won't shut up Baby grab this cup and hit this blunt Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah, we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot Take a shot for me New dank shit, at the hotel With a bad bitch Me and Dex's friends Getting wasted Lets party, lets turn up Take mollys, lets burn up I like a party, let's have a party Drink Bacardi at the after party Pillow fights, let's spend a body Tryna fuck a bitch before the molly She taking shots, she downed that She pour away, she take it down Her throat She fucked up, want more She all on the floor, she begging for more We turning up, we turning up We pouring up, we pouring up We're fucked up, we're fucked up Need more cups, need more cups And Dex got the rollers We finna get fucked up And yo bitch she lucked up Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah,we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Walkin (Key Glock Remix)</t>
+          <t>6 Billion Dollar Nigga</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Ah, ah Ah, ah, ah Ah, ah Yeah, yeah, yeah Ah, ah, ah Ah, yeah Clear a path as I keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Walkin' with my back against the sun I been runnin' all my life, that's way before my life begun Since my birth and seconds on Earth, I been the first one to confront All of these cycles that get recycled, makin' it stifle while I stunt Roll me a blunt so I forget it But it make the details look so vivid So vivid Went through a lot of shit in the last year Uh-huh Then I said, Fuck it, I'ma handle my business Yeah, yeah I pay 180 to talk to one lady She been regulatin' on how I feel Feel Describe it as raw and real Real I'm dealin' with all the ills I'm tearin' up like I'm on Dr. Phil Cry Ain't no use, you gotta walk Walk Ain't no use, you gotta walk Walk Who the fuck said, Stop the track, bruh? Let a real nigga talk Yeah I walk from the bitches, I walk from the friendship I walk from some digits, 'cause lately, my nigga, I'm feelin' indifferent Uh I wish all the best, and believe that, I meant it Huh? Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Big hands all up in my pocket Jimmy Neutron, keep a rocket Fuck 12, you can still come cop it Monster hangin' with goons and goblins I'm so heartless, shoot with a carbon, yeah Yeah Nigga, like every day Every day They say, More money, more problems Shit Shit, well, I'm like, Okay Star point guard but I still don't play Yeah, I know I'm a dawg but I still go ape, uh Never ever ever give a fuck what they say Yeah, we ain't losin' drop, they still gon' say sum', uh Yeah It's a whole lotta money in this cold world Young nigga, go and make you some, uh It's a whole lotta money in this cold world Young nigga had to take me some Yeah Fucked around, turned to a boss, uh Momma gave birth to a boss Boss, yeah They say you gotta crawl before you walk Well, fuck nigga, I ran Yeah, yeah, ran up the bands My money was locked in the can The can I had to do what I can, a man told me Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Keep on walkin', ain't no stoppin' In this dirty, filthy, rotten, nasty little world we call our home They get blickies poppin', ain't no options for my partners So they resort to scams and robbin' Take away stress, we ganja coppin' Blow it all out, it's all forgotten Walk, walk, walk, walk Walk, walk, walk, walk Walk, walk, walk, walk Walk, walk, walk, walk1</t>
+          <t>Ay, Ay, Yeah Bitch I'm hot, this weed got me acting a little bit antisocial Do I know you? Wanna conversate like I'm supposed to? Throwing postal inside of a hostel And a poster instead of a borstal Soo inpivotal that can be hostel I place all you niggas in brothels Your motives are inanimate Can't imagine when niggas start scattering Like some motions and papers I'm rolled up in Can't imagine this, not a magic trick I am ultimate, you are inadequate So get mad at quick, I am not a friend I am not afraid, I will not pretend Fuck a fight bitch I'll show you what knowledge is All forgiven, accept the apologies boy The loses, Curry be bossin' Cut your loses with a Katana Wannabe, cause you want the lasagna Nigga I'm nice but I gotta Armada Mark telling me to tell it how it is If I tell ya'll I'm the shit, now I'm tell ya'll I'ma walking porta potty Wit a mutha'fuckin' fat bitch in it Eatin' on a 10 Pc chicken, nigga Drive on the other side of the southside Drive on the I-95 high Get what you ask for, in the DMV sittin' tryn get the licences And I got a mutha'fuckin' passport With the ball meet me halfcourt My nigga I don't got fans with your fan to raise a task force Feelin' like an asshole cuttin' bitches with a sword When I'm out the couch 6 Million Dollar Man with a couple grand Curry runnin shit What the fuck is a track suit? I know that shit attracts you I know that shit attracts you I know that shit attracts you That's all I got10</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Larger Than Life</t>
+          <t>BLACK OPS</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Oh, this shit sound hard Listen Made it out of the rubble Jake Gyllenhaal body 'cause I'm stuck in my bubble My parents tell, Be humble 'Cause they silencin' my dawg so that casket a muzzle Though I never push weight I still higher through muscle Girl, you fucked the first night, how the fuck can I trust you? Reason why they call 'em hussies 'cause they in for the hustle See, every day I'm on this Earth like a Everyday Struggle I try to run through all these bitches when my girl wanna cuddle Bend to epidemics, my mind sick I'm not worried 'bout academics since '96 Matter fact, a nigga been rappin' since '95 Let my ego trip but I'd rather keep it aside Everybody worried 'bout the cash that I'm makin' 'Cause the pigs on my ass 'cause I'm bringin' home the bacon 'Cause one fateful day I teamed up with a Jamaican With dreams and aspirations who believed that I could make it I sat around and watched my heroes spawn But most of them are assholes so now my heroes gone People dyin' every day, yet the beat goes on I kept it cool but let me show you what my ego's on I'm larger than life, headshots, caught in the light Dead in the night What you do? I could blow your mind an imaginary gun Yeah Bitch, I chase dreams and put my nightmares on the run Yeah Bitch, I been the greatest way before this shit begun Let's go Go down as a legend when it's all said and done Ayy Like a Pokémon, when I speak, better repeat Bet I leave my mark like Jigglypuff while niggas sleeping Yeah I been on the low because these niggas try to creep me At the same time they bitches try to meet and greet me Yeah I'm larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write Handlin' beef like Hamburger Helper Bubble over, water dow, shit, these niggas seltzer Yeah Gimme the ice, so let the .45 melt you Yeah Mobbin' with my niggas, it's lookin' like Helter Skelter I'm larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write Larger than life, headshots, caught in the light Dead in the night, drunk and high as a kite Stumblin' right, fuck that, pass me the mic' See the sword as a pen so I kill when I write So I kill when I write Say it with me 'cause I kill when I write Yeah, yeah, so I kill when I write Okay, 'cause I kill when I write Okay, 'cause I kill when I write Yeah, yeah, 'cause I kill when I write 'Cause I kill when I write 'Cause I kill when I write 'Cause I kill when I write Yeah, yeah, 'cause I kill when I write One more time, drop it What we doin' on that guitar back there? Yeah, do what you was just doin' What the bass lookin' like Kinzie on the bass like Okay, okay, okay, yeah Okay</t>
+          <t>Black ops, black ops A holiday for secret cops Black ops, black ops Dropping presents from the helicopter It's been a long year, we've been so far from home Too many people here, here come the drones We take the best of it and make a mess of it Ripping up some lawn and then we're gone Black sites, black sites A thousand miles from day or night Black sites, black sites The story will remain unwritten Before we make you gone, you'd best be running on Stick to the music, child Don't get us riled Hey, there's a spot we missed, I see a Communist And there's another one and his dumb son Black ops, black ops Little vials filled with knock-out drops Black ops, black ops Maybe leave you in your old gym locker A thousand miles from day or night A story told before rewriting There's a passport here, but it could disappear Tarmac to landing pad, don't look so sad We fly to Amsterdam, and in a little bit We'll sing our special song, and this is it You'll be standing when the music stops We're not worrying about the optics1</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>STRICTLY 4 MY R.V.I.D.X.R.Z. (S.4.M.R.)</t>
+          <t>Shepherd</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Niggas these days is ready to shoot a nigga instead of poppin' a cop Well, these niggas, I'ma tell 'em how it is my nigga Comin' from my mouth, strictly for my Raiders This song goes out to the motherfucking cops and to the po-police Wanna see you pop a nigga, wanna see you kill a nigga, no justice, no peace Know niggas wanna grab that gauge around that motherfucking Blackland CC where I be, motherfuckers 'round here wanna kill a black man Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Niggas wanna talk that shit Always sayin' you a gangsta, but real niggas know you a bitch Had a couple homies that hit a couple licks That what you expect when you never had shit Growin' up in the mothafuckin' slums With a fuckin' gun to your mothafuckin' gums Then pop a nigga in his mothafuckin' lungs Two shots and you dead, your little ass is done Increase with the skill, right now it's fuck how you feel The way I get to it, you get chills Niggas they claimin' they trill All because they rockin' a slug and they grill Quit faking the phonk, immortal words from my nigga Key Bitch, I could rock a pink shirt, polka dot hat and still do me Real nigga to the letter, Goddesses, they gettin' wetter When niggas get out of line with the real, the semi just might bless ya But coppers wanna take your life more than you wanna take mine Let's start a revolution. everybody, grab a nine, bitch Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us This is for America, 'bout to put this shit in check See me with my hoodie on, just know these crackers wanna grab that TEC Cause they feel a threat, cock that beam and aim it at your chest No I'm not wearin' a vest, don't really care, 'cause this life is a test My soul relieved, nigga, not trippin' I won't spaz Remember Trayvon Martin then I blast on Zimmerman's ass It's amazing how they'll lock me up for petty shit Though I cannot live this life like this, but I keep takin' it Darker the flesh, the tighter the noose They callin' us coon and they callin' 'em goose Look at my flesh, dig deep in the roots The shit that I speak is the blend of the truth Nowadays, all these mothafuckas hittin' shipe Yes, I was born in this world but since I'm black I'm born with a strike, bitch Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Bitch, you let us, bitch, you let us Strictly for my Raiders Strictly for my Raiders3</t>
+          <t>I'm a Thundercat to a pussy like you barely Simba Ho ass nigga favorite color magenta Cooler than a reptilian blood in December With a popsicle slush fluid in the center As I plot the rock, god Ra make em rot Run up on me best believe you get got Son of a G, everything that you not Like where was you when I was running the block? When I snap, crackle, pop I'm a serial killer Wait, I'm a cannibal, Survival of the Fittest, the prodigy Of Hannibal, Rudy, let's have a face off On John Travolta, wet 'em, Super Soaker Stop, the double Glock pop on the knots B, we keep it G to the C note, we so Below zero froze I'm sub Niño The crack era repo was lethal like Ethel 333 times 2 multiply to a million You not my kin, uppercut into the ceilin' Hadouken, Shawn Anderson how I do it Shots to his head, Buddhist He cluelessly sleeping and brutally beaten I'm doing the reaping, now rest in the ditch The maggots gon' eat him, decompose the demons His ass gon be leaking and restin in piss Rusty razorblades In the stomachs of my enemies Shitted out, tetanus shot Take a shot check the clock Breeze him out Limb buyer seeks Babylon Land mine, suicide Who am I? Do or dying Industry niggas wanna talk and shit Life's a dog and I'm walkin' it Light the swisher, Offerin' the pistol whip was slick It slipped out of my hand and it clipped my wrist A bitch always callin my phone but I don't like her Drop crop jeans, the pants look like a diaper Snipe a white tiger with Ice T rifle My mental fucked up cause the things I've been through Thirst for the winter, throwing gin in the blender To mix with the purp I remember I was kicked out the crib on the first of December I worshiped the moon in the church with the symbols, the sinner You should bow down and surrender Catch a nigga grippin on the pole from the window Crazy the temper, they gave me the tazer And told me to raise it and place it by his ? 5</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planet Shrooms II</t>
+          <t>In a Grave</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>To every competitor, and to any challenger Have, gold bullets rocking inside your temple, Metallica What happens when murder and mix 'em with Galaga That's too many niggas that's calibrating with calibers Excalibur, killin' all through the book of lies Livin' upon a revelation, but as master in disguise I'm master in disguise, elevated you and I Counting sticks and body parts, options when is join or die Count to 2, grab the 9, all these suckers are clouds 'Cause their fantasy is final destination underground To a dirt freak accident, A young Devil's advocate Goin' Ham on the Madison, and poppin' his bitch from the cabinet I keep locally Madison, before an undergraduate Jobs closin', now you coppin' that brick from the ocean All your life you have been focused since your mom wasn't open Face shine inside a box now it looks like you votin' From where the slogan was survive in Atlanta that holds the zone of war More killers bribe with contraband, but they playin' Contra, fuck around Tryin' to meet the next level and minimize the coppers The CPU and cheat codes won't work 20 years old can't afford a lawyer, momma said he should've went to church Stop by, I'm smokin' in another universe As my whole planet gets worse, I'm blasted if I could rule the world On my way back to Earth And see all of the out of the day gloomers Inter-galactic storm troopers keepin' my brothers captive So don't ask me if I believe in magic If I answer, I say it only exists in drugs And god is a mirror 'cause his image is in us Holy water drippin' down her body hurry up get a cup Down a in panties hopin' that she wasn't naked Same outfit as Eve, I'm not Adam, but I'm still sacred He slit the adam's apple and now it's forsaken The basic, all medication, civilization is pagan Before we built the pyramids, hieroglyphics outdated Textin' on the iPhone and 95 works slated Israelites in a modern-day Babylon but cannot live in the sun Before explain to me how we not the chosen one Seven stars in my hand, and a blade on my tongue Whether a god is a profit, illusion optic Clocks stop it, had to pause it, fundamental brain deposit project, 'cause science is not a conscience Put in logic, no emotional shit Holy as the cross that Jesus walked in, to the Crossroads I don't see no Bonethugs, all I see is Thugbones Stone cold the pegasus is arson Radiate flows like sippin' water out the faucet, bitch Custom plated and put it in a scribe If we start a revolution, it needs to be televised But it will be only for the viewers that's watchin' with open eyes I despise you critics that interfere with your lies I'm on an acid tab havin' intercourse with the sky, fuck the world I'm gonna elevation the minds, fuck the world And I'ma fuck it till it's mine, fuck the world And I'm fuckin' till it's mine2</t>
+          <t>Its not fair, I found cum It made me say that get back Youll never... See daylight If my cocks strong It just might They figure me a gay motherfucker But Im just a motherfucker that wanna suck dick Hole stretcher, twenty men in my bed, and their bussies never redder They were splooging as their fucking ass bled My penis givin sex to my cum pets Strokin in the bed while I cum-press my erection Starin at his violet sequin studded tights, now my dicks high as shit Im tryna get it high as I can before I go and stroke a guy My ass is nothing but an empty case, black bros givin sex Dick bang, cum plague, swallow tips, givin brain, givin head I feel like I want neck so Ima come fuck all my gays Ill even fuck the dead, Im bleeding semen, d-composin in a grave Im black but yet my holes blacker I can feel my bone shatter from the pole splatter Blood and cum paints the wall Those stains wont dissolve, gonna have to paint it all Its not fair, I found cum It made me gay, my dicks fat Youll never Shoot hot cum everywhere! If my cocks strong, it just might Always goin through the motions til my cock is fuckin broken Think Im jokin when Im talking about stretchin my ass open Til Im strokin on my cock, playin with my balls emotionless Dick stiff, thoughts of niggas all up in my open pit, shit Always search for big dicks, penis printin though the britches If lifes a game of inches and my dick has been the biggest Ill fuck all bros in the world until my fuckin nuts are twitchin Gape fistin, gay jizzin, creampie and blame my addiction, bitch Its not fair, I found cum It made me gay, my dicks fat Youll neveroh shit, ah shit, the songs over Goddamn, nigga Ayo, where my dildo at?! Im stickin my dick in a nigga what else can I do, man? Not much, but I take it myself, I give and receive it I twist and squeeze it, I lick it and I please it I aint finna tell Ima lock it all up in my closet, the place where my penis and balls sit When I dont deposit them deep into gay niggas ass sockets and pop it and lock it Sometimes when I go and stalk it My cock is a rocket and I am an astronaut Fucking male ass a lot, suckin a cock like a camel deep into my castle I feel like my shaft is in Camelot And I tape it so it is on cam a lot, I cant not hump niggas from the back To stop this would be to lay down my mighty shaft and not assdamage thots But only males, I keep em on a chain and give em anal tails Then jack their prolapsed poopers til they slime on me just like a snail My sexual crimes, these rhymes entail, Im strikin males and I prevail As the gayest nigga to ever exist, to ever anally fist To ever rock that nigga sex Rolex on my fucking wrist Or in other words, Im fucking gay, nigga! Ouchie, man!</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Smoke 2049</t>
+          <t>Dark Tournament</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Still pouring liquor for my niggas That's Chinaman and Tiara Moments play back in my mental about the last night of terror Am I scared of dying, more of a bullet flying Enter my window and hittin' my kinfolk, sit back with a blunt and Im sighing, bored I hear niggas knocking at the door Talking about some crucial shit like Cascade This shit is war round these parts This shit is on your porch or even at the park Shooting your bloods and your nigs out the dark Then they jump out and get caught by a narc 13 round from the sound of the chopper Guaranteed dropper Go on and let the hammer bang Like Bob the Builder they fix it and rang AK-47, 30 second to 47, fill it up with Mac-11s Eating church's chicken reverend Z-3 Z-4, River City, Lake Lucerne Scott Lake, Rolling Oats, ODH still making you turn Myrtle Grove, what it be And it's still free Chelly Skee Let's go get em Let's go get em Let's go get em Let's go get em Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs Ready to get that smoke, ready to get that smoke Smoke in my lungs 1</t>
+          <t>It's a trip how niggas'll change quick From real to low dick, from trill to straight bitch So I be with my clique, cave be the side No lie, 305, my nigga, where I reside Where them hoes get down, niggas run down Click, clack, pow, ? the sound, you better get down, nigga Give me my crown, I'm the best in the booth K be a trip, nothing less than the truth Stay in my vibe, get high on herbal Geeked like Urkel, but bad like Kirko Bitches play, but fuck it, cause I'm from Dade Where hoes get sprayed cause they just want to hurt you My city fucked up, niggas dying everyday Mentality where I stay, you ain't saved, no K Up five boom pap, let 'em lay, all black Blackland, batcave, bitch I'm 'bout money And they want to play, my dog on the block Didn't make it to your teens, then he probably got shot Little jits getting got, the block too hot On one knee, putting money in my socks On two knees, praying up top Hoping that the bullshit stop But no time soon, so I carry the boomer to boom I'm telling you fucks that I won't lose, K-Trip, nigga Suicidal bombers on that DMT So I'm killing 'em, trying to become a legend like I'm William Killing 'em softly, searching for a refuge But this ain't Lauryn Hill, do lacerate and say I kill Like the bastard that I are, contradiction, I got a father Mischevious little boy, really, who's the oddest toddler Like I'm low-key, really though, I'm oddly, I'm Godly Niggas raid your clique like the Killer Klan Posse Killer Klan Kasi, I see pussy, I'm CAT scan Dark niggas in the night, bitches thinking I'm Batman Name's Denzel and I'm far from a Christian They'll reiterate the sentence, love God and no religion Benzes will make you commit a 187 To me, I think it's senseless like a demon, priest, and a reverend Raven Miyagi, that nigga, I be the master What happened to that bunny on Tyler? So the dick was fatter? No, that's Franklin, Donny's best friend There's a E on the end of nine cause you 'bout to meet your end 66, 6-3, dropping like a 6-4 Killer, killer, killer, hitlist or that Death Note Autographed by Justin Beiber, the future like HR Giger Left hollow like Ichigo, Grim Reapers, and Soul Eaters I don't give a fuck if you eat a pile of shit If Denzel's lame, then you are a pile of sticks Get it? Aquarius Killa Miyagi Niggas that copy come with Kakashi ripping and kicking the lyrics karate With a Bugatti, ride with a shotty, cause they might try to murk you Trapping niggas in trapezoids, watch out for your circle Like that Voice 1 You own the throne not me A tedious technicality but we are men of honor Don't you worry though, we'll get your prize yet As long as my body continues to shrink at this pace I'll no doubt be dead within the span of a year Voice 2 Right, the low human diet's working wonders for you Voice 1 As for the matter of my throne, you'll have to get much stronger to fend off my enemies Alone as I howl to the moon in the dark Raised by the wolves since the very fuckin' start Twisting my ratchet I'm clickin' and klackin' Chop off your head and get placed in the basket You actin', nigga just know Put them paws on your ass like Simba did Doa I'm a wolf trueblood to death Say my name twice and you cursed like Macbeth Call it spirit gun when I'm lifting your soul Only fear of god when everyday I grow old 'Cause these demons be walkin' and haters is talkin' While snitches is stalkin' they killin' so often Hatin' ass niggas just know Soulja Mook in this bitch and let these niggas know I'm a wolf in the jungle Concrete nigga like ya'll boys wanna play Lead an army, nigga</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ARSENAL (I SMELL BITCH)</t>
+          <t>Denzel Curry Freestyle | LA Leakers Freestyle #145</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>I just spilt my cup, uh, all on my kicks, uh Designer on cuffs, that's all on my bitch, uh Two Gs in the blunt, that's how you get over shit, uh How you get rich? Uh, uh How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz We makin' deposits, step in the scene for the green It ain't nothin' to leave if I ain't gonna make it Profit Got money in my left, right, back, denim jeans If I roll up my sleeve, you would think I was poppin' I don't even be knowin' why you talkin' to me I ain't talkin' for free, whip it up, Betty Crocker Thes rap niggas ain't shit, I won't put 'em in lock I be trippin' for cents, thy be trippin' for boppers I just spilt my cup, uh, all on my kicks, uh Designer on cuffs, that's all on my bitch, uh Two Gs in the blunt, that's how you get over shit, uh How you get rich? Uh, uh How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz How you got all those sticks? Uh, bricks, uh Eatin' on fettucine, step in Ricks On me Hittin' my city up, I'm wearin' six Think he can sit with us, I call a blitz I smell bitch Yeah So let's get it poppin', you don't want no problems when dealin' with Zel, shit Nah Young boys on that frail shit Frail, sick as hell, sickle cell shit You sick Got me goin' off the rails, bitch Off the rail And I'm sonnen' niggas like I'm Chael, bitch, uh Rrah, rrah All the women callin' me a wapo Yeah Money like a mob boss, call me Zel Chapo, yeah Yeah, yeah All the niggas know to let the shots go Yeah I don't show no mercy 'less it's Murcielago, yeah Yeah, yeah Money over bitches is the motto Now the opps dead like Apollo versus Drago, yeah Never tell nobody that you got dough What do you think most these rappers get dropped for? Ultimate Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Brrt, Brrt Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Doot-doot-doot-doot-doot-doot, dah Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Brrah Please do not click on me, dawg I got the stick on me, dawg, got the stick on me, dawg Yeah, yeah How you got all those sticks? Uh, bricks, uh Yeah, yeah Eatin' on fettucine, step in Ricks Yeah, yeah, on me Hittin' my city up, I'm wearin' six Yeah, yeah Think he can sit with us, I call a blitz Yeah How you got all those sticks? Uh, bricks, uh Oh, yeah Eatin' on fettucine, step in Ricks Yeah, yeah Hittin' my city up, I'm wearin' six Yeah, yeah Think he can sit with us, I call a blitz Yeah, doot-doot-doot-doot-doot-doot</t>
+          <t>Yeah, yeah, yeah L.A. Leakers, Justin Credible, DJ Sourmilk Let's do it today Bro, live from Redbull Studios in beautiful Santa Monica, California baby The beautiful Redbull Studios man, Power 106 is here Yes Denzel Curry is here to set a tone today Oh man, Dade County Ey, we ain't come to play around, he said just drop the beats man We gon' get right to it Yeah, drop the beat Let get this shit poppin' man Denzel Curry, L.A. Leakers Freestyle, com on Oh boy Alright, let me see what I got so far man We hre baby My heart poundin' Come on baby, it's go time Part I AHHH HA by Lil Durk Zel finna slide on the beat, okay Let a nigga ride with the heat, okay I got bars for everybody, feds gon' call that a RICO case I don't give a damn what your ego say, 2018 had a emo phase I'ma offset the game like a Migo play and a nigga go ape like I'm Nigo Bape Woo Rappin' but it's hard to believe it, actin' like you movin' bricks Cappin', you'se a quadriplegic, nigga, you ain't movin' shit Blackened bitch, we slaughterin' demons Thought I wouldn't use a blick Had to ask these niggas out, just like a ho I used to hit Come on Niggas say I'm broke because they haven't seen my safe yet Come on Freshman of the year and he ain't even talk to Ye yet Okay Am I the only nigga that the radio ain't play yet? But my checks still unfoldin' like a Barbie House Playset Wooo 'Cause I be gettin' money, so I'm smart to put the rest aside Niggas snitchin' on they self, they need to eat some pesticide Facts I ain't tryna say what you doin' wasn't justified But how they test you're gangster then you go ahead and testify? Come on Why you tryin' other niggas thinkin' you ain't next to die? I'd be paranoid, shit I'm sleepin' and I'm next to fight Peyton, AI, Tiger, they gon' put me where the best reside Come back like I'm Jordan, bet he won't test me with this .45 Uh-huh 'Fore I ride the wave Oh, I rather get hit by a bus All this shit is sus, it's like grown men in Toys R Us Ha He tried to pull my card but he ain't seein' Royal Flush This is my opinion nigga, I ain't sayin' much Lookin' up to the goats and no I'll never degrade 'em Yeah But didn't Kobe admire Jordan before he played 'em? Yes sir When Ali was the champ wasn't Frazier callin' to fade him? Yes sir You beat the best to be the best, my ultimatum Mhm Ain't no way that I'm followin' men, I'll navigate 'em And ain't no way I'm followin' trends when I create 'em You lookin' at the future my nigga, you can't escape it You'd rather wait for niggas to die to say I am the greatest Fuck y'all That boy Denzel ain't playin' no fuckin' games Oh, he, he got a point to prove, come on man He comin' in here spazzin' swingin' on that L.A. Leakers Freestyle Swingin' Man I'm comin' in hot, comin' in hot You got another round? You got another round brother? Do I have another round? Let me see, let me see, let me see Somethin, somethin' else in the clip? Man hold up, turn the beat up, turn the beat up in my head for me Okay, okay, okay I'm feelin' this shit, I'm feelin' this shit man Well let's go get it then baby, Denzel Curry's here L.A. Leakers I gotta murder everythin' down touchin', you feel me, fuck it Go season baby Listen Part II Just Saying by Jeezy 2020 vision, let my future form a distance That's so Raven, Miyagi's a little different Mhm In my premonition, I only picture my infants Mhm Rugrats, skip all the talks about Dr. Lipschitz Tryna keep the balance, be honorable and sadistic Lost a lot of homies but in my dreams they revisit Huh Lookin' at the world without lookin' forward to Christmas Should I be a Buddhist, Jehovah's Witness or Christian? Let's go Satan's out the question With the way the industry ran, you gotta have a fuckin' death wish Just to get views or to be viewed as a legend But call a nigga corny when you hear he got a message Damn, I know a nigga preachin' like a reverend My head is out the box like Seven Call me Pandora, martial arts elevate my aura Fire spit make you tempura There is no order Yeah, I am number one, fuck a top five Yeah, them other niggas cool buddy but they are not live For the fact, them other niggas are not I Too fly, compare me to Marty McFly No Biggie, I'm rappin' like I'm from Bed-Stuy Bustin' off the top of the dome, my mind is war cry Truthfully the realest of all, that is no lie Put me on the track with the best and they'll be no tie I'm sayin' no Oh shit, yo Yo, cool him off, he's, he's on fire How many, how many Redbulls you have 'for you came in here? He turned up Man just turnin' the fuck up He turned up man, crazy energy, energy baby Denzel Curry, yes Appreciate you droppin' off those bars with us man Thank you Yo, appreciate you bro Man, shit Project goin' crazy, let 'em know Yeah, ey man Melt My Eyez, See Your Future out now Melt My Eyez Deluxe is comin' out soon, that's the uncut You feel me it's like a film So, I gotta show y'all, alright I showed y'all the first half of the film But now finna show y'all like the second half of the film You feel me like the stuff that we left out Okay So, even put that in there, you know what I'm sayin' More content, more stuff, great songs, all that We love it, we love it, we lovin' havin' you on the show We gotta go digest those bars man Oh, yeah, yeah, yeah Yeah, we gotta hit rewind, yeah exactly, spittin' that back man We gon' run it back a few times man Shout to Denzel Curry, shout to our Redbull family Shout to Power 106 man, it's the Liftoff show, the L.A. Leakers baby, you know that, you know that1</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SHOTS!</t>
+          <t>Stadium Starship</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah, we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot Lets take some shots Man, she wanna take some shots Girl is you serious cuz this liquor ain't no pop She say so whattt Pass me a double cup She knocked it all back, now she want another shot I say turn uppp Now baby wanna fuck Girl wait a minute I just popped a pill, I say hold uppp I call KD, what's up Broski drunk as fuck, he said Dex im throwing up I say hold up!! Let me roll me up a blunt I pull up in my trunk I call KD, I say he up, he say for what? Man, these bitches won't shut up Baby grab this cup and hit this blunt Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah, we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot Take a shot for me New dank shit, at the hotel With a bad bitch Me and Dex's friends Getting wasted Lets party, lets turn up Take mollys, lets burn up I like a party, let's have a party Drink Bacardi at the after party Pillow fights, let's spend a body Tryna fuck a bitch before the molly She taking shots, she downed that She pour away, she take it down Her throat She fucked up, want more She all on the floor, she begging for more We turning up, we turning up We pouring up, we pouring up We're fucked up, we're fucked up Need more cups, need more cups And Dex got the rollers We finna get fucked up And yo bitch she lucked up Girl lets take some shots Man this shit will never stop Bottle after bottle Yeah,we do this shit a lot Lets take some shots This some liquor, ain't no pop Let's call all your friends And tell ya friends lets take some shots Lets take some shots All this liquor in my cup Girl, grab ya cup and bring ya friend Man lets turn up Lets take some shots Man this shit will never stop Bottle after bottle Yeah we do this shit alot</t>
+          <t>Deep in the galaxy, indigo vert When I swerve, coming down, when I swang through Stadium starship be boomin' like Metro Can I phone you home with my Bluetooth? Gold on my grill and my Glock is gray matter Some niggas be hollerin' 'bout truce, truce Beam me from misery, Pegasus symphony Riding black hoes in a black coupe Denny Cascade the majestic Messiah Pronounced as the funkiest Jesus Stranded in Zone 3 my nigga I'm zoning with LSD tabs in my grapefruit Sighin' rewindin' about the last time That my nine would cock back and would chase you Think of my honey, I'm buzzing, I'm bugging About the last time I would taste you, hate to Burst your little bubbles like it was blossom and buttercup Got niggas in the hood, be shootin', shoutin', and other stuff And then ya' mama cryin' In a ball, she crunchin' up, her walls pixilate From the swift of the angel dust Beware of the pale horse Revelation minus caving, rippin' the sound chords C9 is the future year, is 2055 Come with me into Atlantis so we can stay alive Deep in the galaxy, indigo vert When I swerve, coming down, when I swang through Stadium starship be boomin' like Metro Can I phone you home with my Bluetooth? Gold on my grill and my Glock is gray matter Some niggas be hollerin' 'bout truce, truce Beam me from misery, Pegasus symphony Riding black hoes in a black coupe Denny Cascade the majestic Messiah Pronounced as the funkiest Jesus Stranded in Zone 3 my nigga I'm zoning with LSD tabs in my grapefruit Sighin' rewindin' about the last time That my nine would cock back and would chase you Think of my honey, I'm buzzing, I'm bugging About the last time I would taste you, hate to 8</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>6 Billion Dollar Nigga</t>
+          <t>Shotz from the Double Glock</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Ay, Ay, Yeah Bitch I'm hot, this weed got me acting a little bit antisocial Do I know you? Wanna conversate like I'm supposed to? Throwing postal inside of a hostel And a poster instead of a borstal Soo inpivotal that can be hostel I place all you niggas in brothels Your motives are inanimate Can't imagine when niggas start scattering Like some motions and papers I'm rolled up in Can't imagine this, not a magic trick I am ultimate, you are inadequate So get mad at quick, I am not a friend I am not afraid, I will not pretend Fuck a fight bitch I'll show you what knowledge is All forgiven, accept the apologies boy The loses, Curry be bossin' Cut your loses with a Katana Wannabe, cause you want the lasagna Nigga I'm nice but I gotta Armada Mark telling me to tell it how it is If I tell ya'll I'm the shit, now I'm tell ya'll I'ma walking porta potty Wit a mutha'fuckin' fat bitch in it Eatin' on a 10 Pc chicken, nigga Drive on the other side of the southside Drive on the I-95 high Get what you ask for, in the DMV sittin' tryn get the licences And I got a mutha'fuckin' passport With the ball meet me halfcourt My nigga I don't got fans with your fan to raise a task force Feelin' like an asshole cuttin' bitches with a sword When I'm out the couch 6 Million Dollar Man with a couple grand Curry runnin shit What the fuck is a track suit? I know that shit attracts you I know that shit attracts you I know that shit attracts you That's all I got10</t>
+          <t>Writing from the twentythird level of a condo Right down the street from where lebron beat rondo I see the game , the upgrading for a nigga Every time I sit back I start fucking with a nigga I 'm like damn what do you think should I take that drink nah Judges laming gabels on my niggas and a whitesome sank And I just wonder what if I blunder but nigga fuck that I just vibing and taste that cat cash and tities just like that Ok im green latern floating it's superman poking Hot howking lawn you can smell it in the open Even on the ocean that aquamen seaweed Burning on that saga got this niggas wanne be me Divided we fall, united we stand x8 Up in a gravel where they judge you with a gavel But this kill will never tatel All this ratlles in my face I feel like adam But I was born with a appel the black man a bad man Chokers and poseres preformance is over Employing this soldiers that's ready for war It ain't over till the fat lady sing And the gun go click pull out the four four And put in the holster jumping the whip And I'm gone like a stoner no it's not over I'm dubbling bad with ratatatat coz you's a rat nigga My mad nigga and my asstrack nigga Still in my steez ain't you in this g Know you not me not qpsg Divided we fall, united we stand x8 Thee puss ass niggas wanne take my life But I'mma stand up nigga man up Tryna get my pants up avoid them handcuffs I'm choppin my ganja with fingers no grinder Chasin the dollar for licking vagina Underground till I retire Gold grill coz I'm a bigtymer I could ... and got them bars And in water swimming with the sharks Niggas is trippin the pistol im grippin Don't play with me coz I'm fully charged Im on that 1993 smoking in public It's the land of the free Divided we fall , united we stand , devided we fall Ride down the strip bumping to some bop Nigga get the shot from the double Glock Gunplay nigga its that triple c Coming out hard its that mjg Slide with the clan bitch you bet not slip Hardest ass slippin from the full clip Pull a motherfucker let that AK grip T I E bitch I got them stitch like tip Fuck a burgerking if a nigga want beef Bangbang on the bitch like I'm chief keef Bitches got ... nigga six feet R K All day Catch a motherfucker thats on the creep Niggas is poppin so death is your option Your body is shocking your brain is a ... I cut I chop it you niggas is drop it A bullet ... Run from the game and run from the clique Little ugly nigga u don't wanne see death Strolling down the street bumpin that beat Rippin that masterpiece 4 5 on my boat You get dough like niggas in vegas be Fuck that shit imme hit him where it hurt Knock a nigga out and put him in a verse Let a nigga out and put it on a shirt Ratatat and put him in a hurse Billinistic shit when I take your bicth And I low my clip everglades ride Let's take that trip Seamen shoes so yo ass gon slip Go and roll your boat Gently down the stream I got snipers in the bushes that shoot like swat teams Black Raven United we stand so my niggas is reppin one nation Like im raidin , im shocking you niggas so they nigga know im amazing I am raising this human is thaught this niggas johny im blazing Always been a plus bitch put the case in thats klu klux mentaly fuck Kill two hoes with one buc shot Run and than gun in your block Feel like soldiers son gonna face them shots I feel like .. under the pressure the heat ......... Niggas ain't bout that life but They claim the are They claim they hard Plus they heart of chief keef Better wanne ride with a squad Tell me where them guns at nigga My nigga is mortal combat Nigga you don't claim non Find a copy shame So yo bitch niggas yo wear thongs Thats my style on your songs So fuck nigguhs better fall back Get your head cracked Till you ball kept Like that nigga straight like that Niggas raiders in this bitch Fuck yo lifes and fuck yo ... Like lil ugly mane I'mma eat yo shit bitch</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BLACK OPS</t>
+          <t>Everywhere I Go</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Black ops, black ops A holiday for secret cops Black ops, black ops Dropping presents from the helicopter It's been a long year, we've been so far from home Too many people here, here come the drones We take the best of it and make a mess of it Ripping up some lawn and then we're gone Black sites, black sites A thousand miles from day or night Black sites, black sites The story will remain unwritten Before we make you gone, you'd best be running on Stick to the music, child Don't get us riled Hey, there's a spot we missed, I see a Communist And there's another one and his dumb son Black ops, black ops Little vials filled with knock-out drops Black ops, black ops Maybe leave you in your old gym locker A thousand miles from day or night A story told before rewriting There's a passport here, but it could disappear Tarmac to landing pad, don't look so sad We fly to Amsterdam, and in a little bit We'll sing our special song, and this is it You'll be standing when the music stops We're not worrying about the optics1</t>
+          <t>DJ E-Feezy! Denzel Curry! Yung Simmie! 808 Mafia That 305 Dade County! Everywhere I go It's what we do! Everywhere I go Everywhere I go Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch Yung Simmie Off in Carol City, but we call it the Blackland When niggas get backhand, we hop in our black vans Grinding every day, gotta stack up my stacks man Sleeping in my city, that's how you get jacked man I'm cooling with white chicks, they wearing all black man I'm sipping that kickstand, while niggas get kicked out I'm holding my wrist out, speeding in that Benz Bout to pick up your bitch now, she grabbing my dick now I told her to get down, cause haters is watching You niggas don't get pussy, I'm changing the topic You niggas don't get fresh, you shop at Hot Topic And I'm on Cloud 9, I can grab me a comet Opinions never matter, I'll piss on your comments I'm cooling in Cali, I got hitters in Compton Flying to Miami, got a bitch in her panties The way I drop bars, they should give me a Grammy I cop a whole O just to smoke with my granny I smoke all day, the weed man my daddy Everywhere I go, I be speeding through traffic With a bad bitch, I don't fuck with the ratchets My nigga got a stick, he'll let you have it Glocks under pillow, clips under mattress Everywhere I go, I'm a fucking chick magnet Grocery store, pick a bitch, then I bag it Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch Denzel Curry All about Pesos but my name isn't Pedro Everywhere a nigga go getting money for my shows If you do not have my money then I'm double-edged, a foe Ni-niggas think they bothering, not even a semi-pro Simmie let the semi go on these fuck niggas It seems like everywhere I go I'm seein' fuck niggas The only reason why you niggas hating in the first place is cause deep down, bro, you really wanna fuck with me This is not the time to preach, boy Society's a cyborg but Imma beast, boy Everything is heat, boy Niggas saying they street, boy The way I go hard is like making Black Sabbath look like the Beach Boys Dope bars equals a Percocet, anybody I murder next isn't a Malcolm X, niggas is out to flex Shit changed ever since a nigga dropped 'Threatz' So when I got the call that Lotto was in cardiac arrest Barely impressed by these niggas sneak disses, when I tried to be friends with them niggas I didn't mention My nigga, friends don't exist I'd rather get a Jennifer Anniston looking chick, and probably put her on the strip That pimp shit in my veins, Cascade is the name I'm outta this world, buddy, you can stay in your lane So far from my lane, but yet I used to be Why should I lie now? I'm keeping it true to me Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch1</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Shepherd</t>
+          <t>Bandz</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>I'm a Thundercat to a pussy like you barely Simba Ho ass nigga favorite color magenta Cooler than a reptilian blood in December With a popsicle slush fluid in the center As I plot the rock, god Ra make em rot Run up on me best believe you get got Son of a G, everything that you not Like where was you when I was running the block? When I snap, crackle, pop I'm a serial killer Wait, I'm a cannibal, Survival of the Fittest, the prodigy Of Hannibal, Rudy, let's have a face off On John Travolta, wet 'em, Super Soaker Stop, the double Glock pop on the knots B, we keep it G to the C note, we so Below zero froze I'm sub Niño The crack era repo was lethal like Ethel 333 times 2 multiply to a million You not my kin, uppercut into the ceilin' Hadouken, Shawn Anderson how I do it Shots to his head, Buddhist He cluelessly sleeping and brutally beaten I'm doing the reaping, now rest in the ditch The maggots gon' eat him, decompose the demons His ass gon be leaking and restin in piss Rusty razorblades In the stomachs of my enemies Shitted out, tetanus shot Take a shot check the clock Breeze him out Limb buyer seeks Babylon Land mine, suicide Who am I? Do or dying Industry niggas wanna talk and shit Life's a dog and I'm walkin' it Light the swisher, Offerin' the pistol whip was slick It slipped out of my hand and it clipped my wrist A bitch always callin my phone but I don't like her Drop crop jeans, the pants look like a diaper Snipe a white tiger with Ice T rifle My mental fucked up cause the things I've been through Thirst for the winter, throwing gin in the blender To mix with the purp I remember I was kicked out the crib on the first of December I worshiped the moon in the church with the symbols, the sinner You should bow down and surrender Catch a nigga grippin on the pole from the window Crazy the temper, they gave me the tazer And told me to raise it and place it by his ? 5</t>
+          <t>Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Run the check up on these fuck niggas Yeah Big money shit, I'm a motherfucker Motherfucker Love for the plug, like I'm blood brother I'm in love with the plug, in love with the plug Pull up in a Bentley truck, shittin' on her Shi-shi, shittin' on her Before I had a hit, I had bricks on 'em And niggas talkin' money like they got some Got some I can cop a whip off the bread crumbs Yeah Youngins in the hood, they gon' stretch Lay it down I can cop a Rollie off the extras Bust down I'm a dope boy and I'm gon' speak it Yeah I got work, and nigga, I'm gon' keep it Yeah If the rep don't work, nigga we still eatin' We ran up, nigga, ain't no secret, lil' nigga Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Big talk, need that big top jumpin' like a circus So hard, fuck her slow top, I'ma break a circuit Blowshark, that was my old bop, this your final curtain call Scary Movie 2 that bitch, I'm gon' fuck her wall to wall Shawty want the Curry, 'cause she know I got the sauce And I stay on point like a nigga in a joust Pussy is golden, not callin' me off Like MJ or OJ, I beat it and bounce Ol' nigga, more jumpin' the God shoes, but ain't no soul So, I'ma stack my bankroll 'til my diamonds lookin' like strobes Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>In a Grave</t>
+          <t>Think They Are</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Its not fair, I found cum It made me say that get back Youll never... See daylight If my cocks strong It just might They figure me a gay motherfucker But Im just a motherfucker that wanna suck dick Hole stretcher, twenty men in my bed, and their bussies never redder They were splooging as their fucking ass bled My penis givin sex to my cum pets Strokin in the bed while I cum-press my erection Starin at his violet sequin studded tights, now my dicks high as shit Im tryna get it high as I can before I go and stroke a guy My ass is nothing but an empty case, black bros givin sex Dick bang, cum plague, swallow tips, givin brain, givin head I feel like I want neck so Ima come fuck all my gays Ill even fuck the dead, Im bleeding semen, d-composin in a grave Im black but yet my holes blacker I can feel my bone shatter from the pole splatter Blood and cum paints the wall Those stains wont dissolve, gonna have to paint it all Its not fair, I found cum It made me gay, my dicks fat Youll never Shoot hot cum everywhere! If my cocks strong, it just might Always goin through the motions til my cock is fuckin broken Think Im jokin when Im talking about stretchin my ass open Til Im strokin on my cock, playin with my balls emotionless Dick stiff, thoughts of niggas all up in my open pit, shit Always search for big dicks, penis printin though the britches If lifes a game of inches and my dick has been the biggest Ill fuck all bros in the world until my fuckin nuts are twitchin Gape fistin, gay jizzin, creampie and blame my addiction, bitch Its not fair, I found cum It made me gay, my dicks fat Youll neveroh shit, ah shit, the songs over Goddamn, nigga Ayo, where my dildo at?! Im stickin my dick in a nigga what else can I do, man? Not much, but I take it myself, I give and receive it I twist and squeeze it, I lick it and I please it I aint finna tell Ima lock it all up in my closet, the place where my penis and balls sit When I dont deposit them deep into gay niggas ass sockets and pop it and lock it Sometimes when I go and stalk it My cock is a rocket and I am an astronaut Fucking male ass a lot, suckin a cock like a camel deep into my castle I feel like my shaft is in Camelot And I tape it so it is on cam a lot, I cant not hump niggas from the back To stop this would be to lay down my mighty shaft and not assdamage thots But only males, I keep em on a chain and give em anal tails Then jack their prolapsed poopers til they slime on me just like a snail My sexual crimes, these rhymes entail, Im strikin males and I prevail As the gayest nigga to ever exist, to ever anally fist To ever rock that nigga sex Rolex on my fucking wrist Or in other words, Im fucking gay, nigga! Ouchie, man!</t>
+          <t>Kid Hazel, you killed this Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods Catch an opp slipping, knock him out his tennis Down to catch a case, tryna get ahead of business Clean the block with the mop, I ain't leaving no witness Claiming he a bitch, show up in a nigga kitchen Dior on me, got me feeling blessed like a Christian Came from shit and made millions Ran it up fresh out of prison I'm a gift to the game, no riddle Fuck your handout, I ain't tripping Got his bitch with me, I'm pimping Glock on me got a nigga limping Glock on me, you could go missing Cartier on my vision Shitting on you niggas like a pigeon She fucking with you, she a duck, quack I took her from you with a big sack What I took from you, can't get back You niggas broke as fuck, need to fix that Yeah, you gotta watch your bitch plus you gotta watch your dawgs too Just 'cause he say he real, that don't mean he ain't flawed too Just 'cause he tote a steel, that don't mean he'll pop you Only riding with the ones that I know gonna drop you Wanna be a hot boy, well, I got hot shells I'll slap you with this pistol, don't kiss and tell Niggas going police tryna send you to jail Niggas really hurt, you ain't in no cell Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods Real shit, I don't gotta act hard Know niggas throw hands in the backyard No glove, no wraps or a mouthguard You can swipe all day, but I pull cards What I'm saying is I never had to do fraud When the old girl working 'bout two jobs When the old boy applied for a new job So I guess that I'm blessed by the true God See, back in the day, I would hop in the Lexus, just me and my manager hoping it start Here in the present, I'm stacking my scrilla all off of the shit that I said from my heart Haters get mad when they see that you the big dawg, but they won't bite and I bet they don't bark Mad over hoes, you a motherfucking simp, son, your niggas Maggie and Lisa and Bart I watch 'em all try to ether me, just because they cannot eat with me I read the bible, I know 'bout betrayal, I get reminded by a Jesus piece Perfect match, put my soul to beats, my brother with me, he gon' hold the heat Doing things I supposed to do, to be that nigga I supposed to be Zel Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods1</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dark Tournament</t>
+          <t>Get Lit or Die Tryin’</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>It's a trip how niggas'll change quick From real to low dick, from trill to straight bitch So I be with my clique, cave be the side No lie, 305, my nigga, where I reside Where them hoes get down, niggas run down Click, clack, pow, ? the sound, you better get down, nigga Give me my crown, I'm the best in the booth K be a trip, nothing less than the truth Stay in my vibe, get high on herbal Geeked like Urkel, but bad like Kirko Bitches play, but fuck it, cause I'm from Dade Where hoes get sprayed cause they just want to hurt you My city fucked up, niggas dying everyday Mentality where I stay, you ain't saved, no K Up five boom pap, let 'em lay, all black Blackland, batcave, bitch I'm 'bout money And they want to play, my dog on the block Didn't make it to your teens, then he probably got shot Little jits getting got, the block too hot On one knee, putting money in my socks On two knees, praying up top Hoping that the bullshit stop But no time soon, so I carry the boomer to boom I'm telling you fucks that I won't lose, K-Trip, nigga Suicidal bombers on that DMT So I'm killing 'em, trying to become a legend like I'm William Killing 'em softly, searching for a refuge But this ain't Lauryn Hill, do lacerate and say I kill Like the bastard that I are, contradiction, I got a father Mischevious little boy, really, who's the oddest toddler Like I'm low-key, really though, I'm oddly, I'm Godly Niggas raid your clique like the Killer Klan Posse Killer Klan Kasi, I see pussy, I'm CAT scan Dark niggas in the night, bitches thinking I'm Batman Name's Denzel and I'm far from a Christian They'll reiterate the sentence, love God and no religion Benzes will make you commit a 187 To me, I think it's senseless like a demon, priest, and a reverend Raven Miyagi, that nigga, I be the master What happened to that bunny on Tyler? So the dick was fatter? No, that's Franklin, Donny's best friend There's a E on the end of nine cause you 'bout to meet your end 66, 6-3, dropping like a 6-4 Killer, killer, killer, hitlist or that Death Note Autographed by Justin Beiber, the future like HR Giger Left hollow like Ichigo, Grim Reapers, and Soul Eaters I don't give a fuck if you eat a pile of shit If Denzel's lame, then you are a pile of sticks Get it? Aquarius Killa Miyagi Niggas that copy come with Kakashi ripping and kicking the lyrics karate With a Bugatti, ride with a shotty, cause they might try to murk you Trapping niggas in trapezoids, watch out for your circle Like that Voice 1 You own the throne not me A tedious technicality but we are men of honor Don't you worry though, we'll get your prize yet As long as my body continues to shrink at this pace I'll no doubt be dead within the span of a year Voice 2 Right, the low human diet's working wonders for you Voice 1 As for the matter of my throne, you'll have to get much stronger to fend off my enemies Alone as I howl to the moon in the dark Raised by the wolves since the very fuckin' start Twisting my ratchet I'm clickin' and klackin' Chop off your head and get placed in the basket You actin', nigga just know Put them paws on your ass like Simba did Doa I'm a wolf trueblood to death Say my name twice and you cursed like Macbeth Call it spirit gun when I'm lifting your soul Only fear of god when everyday I grow old 'Cause these demons be walkin' and haters is talkin' While snitches is stalkin' they killin' so often Hatin' ass niggas just know Soulja Mook in this bitch and let these niggas know I'm a wolf in the jungle Concrete nigga like ya'll boys wanna play Lead an army, nigga</t>
+          <t>KXNG Crooked, Eastside, Long Beach, California My name is KXNG Crooked I snap on you rappers often When I'm spazzin' I'm just gettin' my passionate point across Like a hood cat clappin' his hands when he talkin' Now that I got your attention, I feel I should really mention Don't come around here flossin', Big Willies, we Willie Lynch 'em Pull out the chopper, rappers hittin' the ground Like every bar's a bullet, when I pull it, it sound like Ba-da-da-da-da-da-da a couple of bullets are comin' your way Then it jam, like God damn Then I pick up somethin' quicker, start killin' everything in the vicinity The proximity, the Glocksimity, we on Yosemite Sam Bam, bam your body drop, Van Damme, karate chop The Beretta's a better competitor Pop pop turn your sweater to a crop top Killin' you and whoever in that drop top Etcetera, etcetera and it will not stop Just shoot, shoot like doot doot And beaucoup, beaucoup, I'm cuckoo I'm a star goin' to war with you clones like Count Dooku I'm worlds apart from you rappers Like I walk in the booth rockin' a biosuit made of plastic And NASA's galactic elastic travelin' through space, interstellar rapping Broadcastin' from uninhibited planets When I come back, that's it You see a flash in the sky, it's that nigga, I When I land, you wack niggas die And your casket is your last hit You wack bitch, fuckin' bastard Back to the hand clappin' You die quicker than Darren Wilson walkin' through Ferguson Dressed like the grand dragon of the Klan Passin' niggas with pants saggin' With they hand on a black Magnum To clap him backwards So their last words is kcuf meht nmad saggin That's backwards for fuck them damn niggas Buck them damn triggers You charge us, bodies fill up them damn Rivers 'Cause everybody wanna be the best rapper alive But I only like dead rappers Compare me to the best rappers who died And you rappers I used to look up to I gotta cancel you now Like Simon Cowell, I can't let you ex-factors survive Nah, the time's right and they finally limelightin' the god of this rhyme writin' My mic can only be likened to Poseidon's trident and Zeus' lightnin' strike And my metaphors are what Thor was to the Norse viking I'm a born titan and at-point kill 'em like swordfightin' I'm slicin' organs with songwritin', I dwarf giants I hope I'm rubbin' you pussies wrong sort of like poor dykin' I smoke philosophy, I snort science That mean I'm higher than higher learnin', look in my eyes That's where the fire's burnin' Try to deny a music messiah's returnin' You die and you fry in my iron furnace I am on my get rich or die tryin' like when Em was signin' Curtis 'Cause I am murderous Joe Budden, Jersey City, New Jersey Now we can do this a couple of different ways, it really depends Could give them classic NY jeans over the Timbs Or I could spit about my car and how it sit on the rims Or I could tell you why I'm hot and disappear like MIMS But the bars there, put that on God, ask a atheist And if I ain't the bomb at least I'm in the blast radius I'm beating these kids' indictment, shit, I like the terror APB on my actions, I'm in the viking era Moment of truth, I give you facts right now Fuck this cypher, my mind ain't on rap right now So it's fuck metaphors and punches, all the witty shit Got a missing uncle and another need a kidney flip Face says I been stressed I got an aunt getting her ass kicked by MS Nigga, why am I here? For the look, for the promo Shit that bothered from the start 'Cause the cancer left his lungs and it's on my grandfather's heart Yeah, just not the side that the beat is on I'm supposed to put that to the side when the beat is on I'm planning the funeral, I'm getting the hearse ready These niggas only wanna ask me if the verse is ready Not a how do I feel, not a how do I deal If thats life, then nigga, how is it real? These last couple of days I've been speaking to my peers Giving them cries for help, I guess they need to see the tears But wait, wildest part of all of that is They'll shoot a suicidal rapper right here on the bridge But fuck it, gotta pardon 'em, shout out to my squad and 'em House Gang, Shady, I'm gone, nigga, my job is done Yelawolf, Gadsden, Alabama My name is Wayne, I'm from Alabama Here's the back story I just fell off the turnip truck with Ernest Tubb I'm 33, I've got 3 kids and I just popped 3 pills I don't know which one's which or what it's for Safety ain't really a habit I've formed I still smoke to the cigarette butt I still drink till I end up being that klutz Clumsy, self-destructive dummy Stumbling over my words, mumbling I'll probably do it tonight Leave the bar, leave the car And pass out like a fetus in a jar with my feet up to the stars And dream about that light that leads up to the lord I have nightmares about my momma getting beat up in the yard Wake up feeling like half a human Hit the studio and unleash this guilt and regret For my lack of union between rap, you and the rock and roll community But unity between country music and MCs, I'm claiming immunity Still I'm working, sawing, milling this tree Building this house exactly the way Charlemagne tha god and Lord Jamar thought it would be Wait a minute... the lord and the god hate me Jesus Christ, I am the white devil! Nah... I'm still working, sawing, milling this tree Building this house exactly the way I thought it should be Wanna take a tour? Let's see I've got floor-to-ceiling windows and a cabin-style mansion Bucks, bears, trucks, boats, tires, spares, four-wheelers Three-wheelers, two-wheelers, a drug dealer on call Plaques on the wall, racks on the wall for my guns on the wall Lift kits, low riders, chop shops, hi tops, low tops, cowboy boots Dixie flags, American flags, Slumerican tags on my Slumerican ass CEO I've got my name on the bathrobe, and the flame on the back porch is lit Guess who's coming to dinner? André 3000 and Hank the Third, go figure I've got two stand-up jetskis, a top pedigree horse, just to pet and feed of course Who rides a horse in Nashville? I might I've got bicycles for the kids, tricycles for the babies M-80s, bottle rockets, bottles in my pocket Moonshine, gold watches, gold rings All fake, no bling, don't hate, that's my thing I've got new clothes, old clothes, vintage, tremendous, endless style Goodwill loves me Mackle-more than you I've got flat screen TVs, with skate videos on repeat All the latest CDs, mp3s, and Beats by Dre Thank you very much, Jimmy Iovine for the check I've got a black woman fine as she can be FeFe with a ring on her finger that could give sight to the blind A 5, a 10, a couple hundreds layin' on the counter I don't know where that came from I got artwork from hard work, yardworkers for yard work Don't look under the tarp, sir I'm growin' weed for my mama there I've got a paved driveway and photos in the hallway of me on my Harley And I did it my way See, hip-hop is what you make of it And I'm makin' a lot of it See that's a quadruple entendre, Jay Z eat your heart out Joell Ortiz, Brooklyn, New York But these cyphers? I treat 'em like they a war don't want no mediators Nah, this that grow up in the P's behavior, next door to the greasy neighbors People thank you, I do this for all the mean creators I was someone who never needed favors to get where I'm at Now they deem me a savior But to be honest I ain't feelin' like that, man I just really like rap Y'all lucky, trust me I'm opposite the hands of Sandusky With the shit that my pen state, these rappers can't touch me Ugly? Shit, you serious? I'm hideous I was better than all you silly kids while trying to figure out just who I really is As a younger dude, life was somethin' rude I barely made it to the first like a Cutler move No rubber groove on my shoes led to fights, so suspensions I had 3 in one week, yeah that was public school Did I say 3 in 1? That's funny 'cause there's 4 of us in the Slaughter That's a 3 and 1, I learned that in public school too Like what's in between a 3 and 1 and House Gang, I spoke to all 3 on 1 call Like I dropped 2 albums and 3 is 1 second from bein' done Just need y'all 3 to send me 1 verse apiece For this Heatmakerz beat and Brother's Keeper 1 Simple mathematics, I'm addin' up to all these rap addicts I don't like to divide dough so I multiply flow And subtract maggots Like a brand new Craftmatic, boy I'm back at it Smokin' these new boys like my last habit Dabnabbit I tried to quit but everything I kick's like the last dragon Hoes suckin' my drummer dick, they on my bandwagon I just gotta laugh 'cause y'all pushin' a lot of swag I'm pushin' this big ole Hearse, don't get body bagged Royce Da 5'9, Detroit, gah These new rappers be askin' me Why I don't be hangin' out where they be hangin' out I tell 'em, I say, Lil nigga, listen here If I don't got no business there, I don't got no business there See there's a difference here You hustlin' so you can be seen Nigga I'm grindin' so I can disappear I don't do it like other rappers do When it's on time, it's skull and bone signs at the stu We got guns you only find on your cheat code screen If you think I remind you of any of these niggas you wildin' out Like Chico Bean When there's drama I don't ask no questions, I just clap in that direction I look at this gat like it's a actual accessory I'm anti-social so relax when you step to me Nigga I shoot the breeze with actual weaponry Your lil' stare downs won't fare well I got a pale conscience, I'm the grey area The last person I had a bond with was a bail bondsman Now imagine me hangin' with y'all and we rappin' on the same song Nigga I'd rather juggle a couple of chainsaws Or run through hell with a pair of gasoline Hanes on I'm a star but not on some I wanna be a star kinda shit The only celebrity who give a fuck less than me is Marshawn Lynch Glock in the stash as a backup but the MAC'll burst Cripple your style, your first born child'll come out With a colostomy bag as the afterbirth I don't give a fuck Nigga I'll show up to Beyonce's show posin' as Jay Z Stagger in your studio session with a bomb strapped to my chest Lookin' like Omarion holdin' his baby Jump in the 4 door Mercedes with a .44 listenin' to JoJo and K-Ci Drinkin' and sniffin' enough blow that it got me thinkin' I can exchange sicknesses Maybe, this ebola for rabies That's it, just livin' the rapper life Banana clip in the air, lookin' like it's 'bout to start singin' it's MAC tonight MACs, I use this MAC as a component for thugs rollin' up I got this MAC on and you better stay in that corner 'Cause shit can turn into that song except I don't give a fuck what day it is I'll have this club goin' up, fuck with me Mack magnet, attractin' enormous green Slap this clip in this gat then call this arm Christy Mack 'Cause this bitch is that war machine Life of a giant, but who needs size when you're wack and your team's soft Drag your girl down this hill 'til she admits that it feels like she's jackin' the beanstalk We both got marketing plans Yours is to sell records and try to net more than you gross before Mine is to punch you in your face if you ever disrespect me And then go and invest into a grocery store Rolled up with the Smith Wesson and drew on you like let's fight now I do numbers, I turn you and your crew into two plumbers Translation, get your shit together and pipe down Fuck a mic, I don't write, I chew and spit I'll shoot you and your sis if you insist I got my eyes on the sparrow Silencer's so big it look like I got Bobby Shmurda tied to the front of the barrel And he doin' this My name is Marshall, I'm reppin' that motherfuckin' Motor City, bitch I just turned Slaughterhouse to a quintet Began to trend-set, murdered a friend's pet Made shit as ill as it can get went in-depth Like a fucking vignette and two bars skins wet I'm already covered in sweat and I wasn't even ready to come in yet AHH, let me set this drink down Beat up a gal, start beef with her pal Probably be wild 'til I'm wrinkled and senile And Rap God was a freestyle Off the top of the dome piece while I was 'sleep on the couch And I'm freestyling now I need a towel, sweat leaks from my brow It's burning my eyes, my cerebral is foul 'Cause shit I'm thinking about should be illegal I need my head banned like the guy who left Cleveland Ohio And went to South Beach with his talents Scream fuck you on the way out and wink with a smile This whole game can eat a dick, I'm going back deep underground But right now I'm back on that bullshit and you I'm singling out 'Cause you're so fucking outdated you should mingle a while What the fuck is this Klusterfuk of busters? Bunch of Buster Douglas', motherfuckers is one hit wonders One swing and you're crowned Knocked one out the park, one catchy jingle and now You think you fucking with me 'cause you sold like 300 thou? Bitch, I can jump without my feet ever leaving the ground Reach up, swing from a cloud with 3 thousand people around Evil and vile enough to leap in the crowd And heave a child in a sinkhole on Cinco de Mayo When I'm sprinkled in pico de gallo Mardi Gras beads in a towel I just made that up I don't know much Spanish, I'm not bilingual But I'll show you a Mexican stand off Between just these two amigos 'Cause neither really wants to say what we're thinking out loud But I sure as fuck think I know how to read body English, no doubt 'Cause we're trying to kill each other, but lyrically The fuck is humility? What is a real emcee? Royce, he came up in this shit with me Never spit that hustler shit, it wasn't a fit for me Let them adjust 'til they just get the gist of me Just not giving a fuck and plus with the history Of muscular distrophy, it wasn't a mystery Why this middle finger was stuck in this upward positioning So what in the fuck is a list to me? I'm used to not being on it, I expect it out 'em Heck wit' 'em, I get my respect without 'em Ain't really been into diamonds since I put my first record out But I could put a chain around my second album And wear it as a neck medallion Became a millionaire, went downhill from there Became civil, office swivel chair, sterling silverware Screaming life is still unfair til I get a real career The fuck am I gonna do until then? This job is too fulfilling Two ga-jillion pairs of super villain shoes to fill in A mood to kill till I plow my Coupe de Ville Into some children at the food pavilion at Build-A-Bear Warrior's mind, Im pro-hydrocodone euphoria In the Drug Emporium line, I'm soaring I'm pouring Vicodin four at a time ignoring the warning signs on 'em 'fore I go four wheeler riding Gory and violent, horrifying You surely won't find no one more abhorring Than I am with this retaliatory of rhyming for Gloria Steinem But I finger her like a witness, show me a line-up I usually am abusive, but excuse me, ma'am I guess I must've threw you for a loop like Toucan Sam When I said I could use the sample 'cause you's a tramp But look how you react to this trigger like When I call you a bigger dyke than the Hoover Dam You're playing right into Lex Luthor's hand It's such a ruthless plan, might even lose a fan But fuck it, Superman wouldn't change in a phone booth for Stan I'm a brand new being like Grand Puba's band Happy as Anderson Cooper having a tuba crammed In his pooper with lubricant...wait, that's too... I can't Since honesty is the best policy I'll give you the old college try Try to acknowledge my mistakes, probably won't qualify As a gentleman and a scholar, but it's time that I swallow pride And say that I'm sorry, sorry I can't apologize I think of all them times I compromised my bottom lines And thought of rhymes that sodomized your daughter's minds Then I'm like dollar signs But I may fight for gay rights especially if they dyke Is more of a knockout than Janay Rice Play nice, bitch, I'll punch Lana Del Rey right In the face twice like Ray Rice in broad daylight In plain sight of the elevator surveillance Til her head is banged on the railing Then celebrate with the Ravens Never date an assailant who self-medicates with inhalants I'd meditate, but I may need a better way to escape The aggression, rage and the anger Cause leg restraints on the ankles Heavy weights and an anchor with handcuffs in chains Just ain't enough to contain it But I'd still get the same respect as Jay if I came on Stage in a fucking negligée everyday and Liz Claiborne Devastated from breakup with Kate Hudson Wait slut, your friends, what are they gonna say 'Cause makeup ain't gonna cover That eye that's seven-eighths of the way shut Peppersprayed with your face cut Made my bank like a lay up Off these effing skanks on the way up Oh, bitch thinks she's heaven-sent It's evident that she ain't never been with seven inches Yes, I said seven, I measured it Seven inches from the floor While I'm standing on the fourth floor balcony At the Sheraton while I'm stretching it Bitch, I'm a pimp so a limp dick is all you'll ever get So if she's hesitant to get the hint I'll bet you that I get the message sent who she's messing with Hella quick when I tell a chick not to ever use sex as a weapon When I step in and beat the wretched wench with a crescent wrench Existential detriment to a lesbian devil And the unpleasant stench of an estrogen level A separatist like a Chechnian rebel Impressionist with a pencil A pessimist, with his lips pressed against The edge of this Red Bull Pedal to the metal I'm rippin' this shit cause right away I'll give it to a bitch like a pedestrian, deadly as ever You see what kind of effects she has on the opposite sex when I push her flexible little sexy ass through a plate of plexiglass SHADYXV as perplexing as The last fifteen years and I'm predicting my next relapse When I spit these lyrics so don't look at me weird When I start shifting gears and shit re-smears all over Britney Spears And these little Disney queers Who use chicks for beards? Just made that up too... Oh and the Shady 2.0 We wrote it in roman numerals like they do for the Super Bowls 'Cause it's supposed to confuse you hoes So flows lose you as usual, so juvenile 2 year old when I go to the studio It's only music but don't be foolish though You don't know me through it ho but you can blow me to it though In my homie's Buick Been known to lose it though so if I overdo it you drove me to it When I step in the vocal booth like I'm supposed to do And murder you on a fuckin' track like Tony Stewart In one take, if I fuck up and I don't redo it You couldn't sound grown on a beat if you were moaning to it The day I don't say fuck you wall, you can throw me through it Rootinest-tootinest, shootin' this from the hip With the sentiments, Eminem isn't penning them for the women I'm an enemy to them and the epitome of an inconsiderate idiot But they consider me equivalent to chlamydia They tryna get rid of me gadzooks But I stiggity stand for the figgity flag Of the United States and the freedom, I distribute these raps through And if I catch you doing anything Hindering or prohibiting that after I get me the Tattoo of your lips on my ass I'ma be literally Pickin' up and deliberately whippin' the Statue of Liberty at you, woooh! Fuck it Got it somewhere in there probably, I don't know142</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Say Ya Grace (Lyrical Lemonade Original Version)</t>
+          <t>Drogas</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>JanuaryCaskey - 100 Mixtape, Pt. 2 x2Nas Damian Jr. Gong Marley - Distant Relatives x2The Game Big Hit - Paisley Dreams x2Team Demo Wais P - It's a Demo Flo Milli - Never Lose Me - EP Kota the Friend - to GO, Vol. 4 Jay Cue - Finish Strong Conway the Machine Wun Two - Palermo Armand Hammer - We Buy Diabetic Test Strips x2McKinley Dixon - Beloved! Paradise! Jazz!? x2grouptherapy. - I Was Mature For My Age, But I Was Still a Child x2Euroz - This Too Shall Pass x2Odd Future - The OF Tape, Vol. 2 Trippie Redd - MANSION MUSIK ClicKlak - Holy Water x2AZ - Truth Be Told Quincey White - No Fairytales Spose Shane Reis - For All The Moose x3Maino - K.O.B. 4 Deluxe Blu - GOD Is Good A Soundtrack To Life x2Westside Gunn, Conway the Machine The Alchemist - Hall Nash 2 x2Bun B Statik Selektah - Trillstatik 3 x2Styles P - Penultimate A Calm Wolf Is Still A Wolf Mobb Deep - The Infamous '20 Exp. x2Casey Veggies - Customized Greatly, Vol. 3 Reuben Vincent - Love Is War 21 Savage - American Dream x2Kid Cudi - Insano x2Bruiser Wolf - My Story Got Stories x2Matt Martians - Matt's Missing x2Riz La Vie - Haven Nas - Life Is Good x2Logic - College Park Coast Contra - The Old Way Mixtape x2Boldy James Nicholas Craven - Penalty of Leadership x3Fedd the God - Where's Fedd? - EP x2Yeat - AftërLyfe BrandUn DeShay - Your Favorite Mixtape 2 x2Frank Ocean - channel ORANGE x2Macklemore - BEN Nappyhigh - Menace x2Benny the Butcher - Everybody Can't Go x2Kevin Gates - The Ceremony x2Lyrical Lemonade - All Is Yellow x2Metalecalec - Speaks For Itself x2Kota the Friend - to GO, Vol. 5 x2Masta Ace Marco Polo - Richmond Hill x2Elcamino - Here You Go x2100 gecs - 10,000 gecs Yves Tumor - Praise A Lord Who Chews But Which Does Not Consume Or Simply, Hot Between Worlds Navy Blue - Ways of Knowing FebruaryBig Hit - The Truth Is In My Eyes x2Nas - The Essential Nas x2Hit-Boy The Alchemist - THEODORE ANDRE - EP x2Kahlil Blu - The World Is Blü DLC x2JID - The Forever Story Deluxe JPEGMAFIA Danny Brown - Scaring the Hoes Stalley - Somebody Up There Loves Me Nas - Illmatic '14 Exp. x2Denzel Curry - Melt My Eyes See Your Future Lloyd Banks - The Course of the Inevitable 2 Hit-Boy - SURF OR DROWN Domo Genesis The Alchemist - No Idols '23 Exp. Little Simz - Drop 7 x2Fivio Foreign - Pain Love 2 x2Blu - Royal Blu x2Crosses - Goodnight, God Bless, I Love U, Delete. x21999 WRITE THE FUTURE - hella x2Y - VULTURES 1 x2Ransom - Chaos Is My Ladder Kota the Friend Statik Selektah - To See a Sunset Deluxe x2ICECOLDBISHOP - GENERATIONAL CURSE VRITRA - Pyramid x2jerry - lovemesooner x2Quadeca - SCRAPYARD x2Yeat - 2093 Jon Connor - III x2Dave East Scram Jones - FOR THE LOVE x2Tyler, The Creator - CALL ME IF YOU GET LOST The Estate Sale redveil - playing w fire - EP x2Yeat - 2093 Phase 2 Erick the Architect - I've Never Been Here Before x2French Montana - Mac Cheese 5 x2Kid Cudi - INSANO NITRO MEGA x2Casey Veggies Dylvini - Nostalgia x2EARTHGANG - ROBOPHOBIA - EP x2VRITRA - Amber x2Ol' Burger Beats - 74 Out of Time x2Lil Yachty - Something Ether - EP x2C Plus Calvin Valentine - The Plus Files x2Che Noir - The Color Chocolate, Vol. 1 - EP x2Nas - NASIR DJ Drama - I'm Really Like That Larry June The Alchemist - The Great Escape Rae Sremmurd - Sremm 4 Life MellowHype - MELLOWHYPEWEEK Cory Gunz - Loosie Pack x2Cory Gunz - Loosie Pack 2 x2MarchScHoolboy Q - BLUE LIPS x3Meek Mill - HEATHENISM x2That Mexican OT - Texas Technician x2I DONT KNOW HOW BUT THEY FOUND ME - GLOOM DIVISION x241 - 41 World Not The Album x2Read The PDF - By the Time You Look Up N.C. What We Doin... x2Infinity Knives Brian Ennals - King Cobra Elcamino Chase Fetti - Bethlehem x2Benny the Butcher - Tana Talk 4 x2Nas - The Lost Tapes 2 MellowHype - Numbers x2Millyz - Blanco 6 Black Thought El Michels Affair - Glorious Game Grandmaster Flash The Furious Five - The Message x2Blockhead - The Aux x2Slaughterhouse - Slaughterhouse - EP x2CJ Fly - baited x2Robb Bank - i think i might be happy, pt. 1 x2LNDN DRGS - Affiliated 2 x2MIKE Tony Seltzer - Pinball x2Ransom Harry Fraud - Lavish Misery x2VRITRA - The Story of Marsha Lotus x2Nas - King's Disease Lloyd Banks - The Course of the Inevitable 3 Joey Valence Brae - PUNK TACTICS x2Zombie Juice - Love Without Conditions Spose - What Could Go Wrong? x3Tierra Whack - WORLD WIDE WHACK x224kGoldn - Growing Pains x2Elcamino Real Bad Man - The Game is the Game x2Kenny Mason - 9 x2Chief Keef Mike WiLL Made-It - Dirty Nachos x2Flo Milli - Fine Ho, Stay x2All But 6 - ALL BUT 6, VOL. 2 x2Chuck Strangers - A Forsaken Lover's Plea x2Jae Skeese Superior - Testament of the Time x2CRIMEAPPLE - LETHIMCOOK x2Slaughterhouse - Welcome To Our House Deluxe x2DJ Premier - Hip Hop 50, Vol. 1 Swizz Beatz - Hip Hop 50, Vol. 2 Ill Bill - Billy Nas - It Was Written '21 Exp. Future Metro Boomin - WE DON'T TRUST YOU x2Joyner Lucas - Not Now I'm Busy x2SiR - HEAVY x2Nas - King's Disease II VRITRA - Instrumentals PV x2IDK - F65 Nas - Untitled Nas - Illmatic '04 Exp. Aprilmgk Trippie Redd - genre sadboy - EP x2Roc Marciano - Marciology x2DJ Muggs Mooch - Roc Star x2Nickelus F - Mmcht x2MichaelAngelo - No Face, No Case x2Conway the Machine - WON'T HE DO IT Nas - Magic Conway the Machine, 38 Spesh Big Ghost Ltd. - Speshal Machinery The Ghronic Edition billy woods Kenny Segal - Maps Sainté - Still Local x2Mike Dimes - In Dimes We Trust x2Casey Veggies - Life Changes J. Cole - Might Delete Later x2Reuben Vincent - General Admission x2RiTchie - Triple Digits 112 x2Concrete Boys - It's Us, Vol. 1 x2AKTHESAVIOR sagun - u r not alone x2See You Next Year - Pigeons Planes presents See You Next Year 2 x2Nas - King's Disease III Future Metro Boomin - WE DON'T TRUST YOU Mike G - Gold KAYTRAMINÉ - KAYTRAMINÉ DaBaby - CALL DA FIREMAN - EP Casey Veggies The Futuristiks - Ten Toes Down - EP Future Metro Boomin - WE STILL DON'T TRUST YOU x2Blu Shafiq Husayn - Out of the Blue x2Marv Won - I'm Fine, Thanks for Asking x2Jay Exodus - 44 x2Chris Patrick - The Calm x2Elcamino 38 Spesh - Martyr's Prayer II - EP Russ - CHOMP 2.5 - EP Nas - Magic 2 Smoke DZA - Worldwide Smoke Session, Vol. 2 ELWD - Monochrome Tyler, The Creator - Wolf uicideboy - YIN YANG TAPES Spring Season 1989-1990 - EP uicideboy - YIN YANG TAPES Summer Season 1989-1990 - EP uicideboy - YIN YANG TAPES Fall Season 1989-1990 - EP uicideboy - YIN YANG TAPES Winter Season 1989-1990 - EP Conway the Machine, 38 Spesh Big Ghost Ltd - Speshal Machinery The Ghronic Edition x2Nas - Magic 3 Gangrene - Heads I Win, Tails You Lose x2Duckman - Black Soprano Eskimo x2Angel Hill - Sorry Ur Sad, That Sucks x2Mike G - Verses McKinley Dixon - Beloved! Paradise! Jazz!? DJ Kay Slay - The Big Brother x2Kodak Black - Pistolz Pearlz Mike Dimes - TEXAS BOY Kendrick Lamar - Mr. Morale The Big Steppers Maino - This Life Forever x2Millyz - Katrina's Son x2Hit-Boy Big Hit - SURF OR DROWN, Vol. 2 Killer Mike - MICHAEL Deluxe MayThe Jet Age of Tomorrow - The Jellyfish Mentality x2The LOX - Money, Power Respect x2Ruff Ryders - Ryde or Die, Vol. 1 x2Ras Kass, RJ Payne Havoc - Guttr x24batz - u made me a st4r x2Lil' Keke - Can't Rain Forever x2Spice 1 - Platinum O.G. 2 x2G Perico - G Slim's Revenge x2Apathy - Connecticut Casual Chapter 2 x2Boldy James The Alchemist - Super Tecmo Bo x2Domani - Last Letter - EP x2DaBaby - GHETTO SUPERSTAR THE INTRO - EP x2Kahlil Blu - Metropolis Young Thug - BUSINESS IS BUSINESS Deluxe Conway the Machine - Slant Face Killah x2Ghostface Killah - Set the Tone Guns Roses x2BigXthaPlug, Roama Yung Hood - MEET THE 6IXERS x2Gunna - One of Wun x2Chief Keef - Almighty So 2 x221 Lil Harold - Sick of Myself x2Slum Village - F.U.N. x2Childish Gambino - Atavista x3The LOX - We Are the Streets x2grouptherapy. - I Was Mature For My Age, But I Was Still a Child Ruff Ryders - Ryde or Die, Vol. 2 x2Lil Uzi Vert - Pink Tape Rapsody - Please Don't Cry x2Jay 305 Hit-Boy - DONT WAIT UNTIL I DIE - EP x2Mark Battles - Do Not Disturb x2AL-D300 - Pain Made Me Rich x2The Jet Age of Tomorrow - Jellyfish Mentality Bonus EP x2The Alchemist - Flying High - EP JPEGMAFIA Danny Brown - Scaring the Hoes DLC Pack - EP Coi Leray - Lemon Cars - EP x2Fendi P - White Lines x2Vince Staples - Dark Times x2Various Artists - NBA 2K24 Soundtrack x2Smoke DZA DJ RELLYRELL - You're All Welcome x2Kota the Friend - Protea Big Hit, Hit-Boy The Alchemist - Black Whites x2Dave East, Mike Keys - APT 6E x2NASAAN - ERROR 404 x2Supastition - All That Was Left Unsaid x2The Last American B-Boy Ron Browz - Rice Beans x2Robb Bank - 2 Fone Shawty Deluxe JuneGrip - STILL Five A Fuck You Robb Bank - I Dnt txt back, I Dnt call Mach-Hommy - RICHAXXHAITIAN x2Juicy J - Mental Trillness 2 x2Jerreau - WHY SOME PEOPLE BE MAD AT ME x2Hodgy - Untitled EP 2 Jadakiss - Kiss tha Game Goodbye x2Dave East - Fortune Favors the Bold AAP Twelvyy - Kid Gotta Eat Ruff Ryders - Ryde or Die, Vol. 3 In the R We Trust x2Yelawolf - War Story x4KAYTRANADA - TIMELESS x2Ski Mask the Slump God - 11th Dimension x2C-Dot 416 ConcertBlack Milk - Everybody Good? young van gundy - THEY'LL SAY HE HAD A WAY WITH WORDS Earl Sweatshirt - Doris DDG - Maybe It's Me... CRIMEAPPLE Big Ghost Ltd - Bazuko x2Belly - 96 Miles From Bethlehem x2Jason Martin DJ Quik - CHUPACABRA x2South Strip Gutterboysouz - FILTERED CRACK x2Qu'ality - second hand crack smoke - EP x2Yelawolf ConcertRobb Bank - i think i might be happy, pt. 2 x2The Game, Woodboy Gee others - Time x2uicideboy - New World Depression x2NxWorries - Why Lawd? x2Lucki - GEMEN! x2Don Toliver - HARDSTONE PSYCHO x2Canibus - Can-I-Bus x2Canibus - 2000 B.C. x2Canibus - c True Hollywood Stories x2Canibus - MiClub - The Curriculum x2Canibus - Rip the Jacker x2Canibus - Mic Club Master, Vol. 1 x2Canibus - Mind Control x2Canibus - Hip-Hop for ale x2Canibus - For Whom the Beat Tolls x2Canibus - Melatonin Magik x2Canibus - C of Tranquility x2Canibus - Lyrical Law Disc 1 x2Canibus - Fait Accompli Super Deluxe x2Canibus Bronze Nazareth - Time Flys, Life Dies... Phoenix Rise x2Canibus - Kaiju x2Canibus - One Step Closer to Infinity x2Canibus Johnny Slash - Self Licking Ice Cream Cone x2Canibus ConcertTravis Scott - UTOPIA Nas - Magic 2 VRITRA - Midnight Pink River Weather Grey x2Styles P - A Gangster and a Gentleman x2Sheek Louch - Walk witt Me x2G-Eazy - Freak Show x2maticulous - The Expanse x2Until The Ribbon Breaks - V I S I T O R x2MARTY - Flop Era, Vol. 1 x2Khrysis Silent Snipers - Perfect Time x2Chris Webby - Lost Wednesday The Demos x2BIA - REALLY HER Deluxe Vinnie Paz - Jacinto's Praying Mantis x2Fuego Base OT The Real - Moving Base OT x2Lupe Fiasco - Samurai x2KXNG Crooked Joell Ortiz - Tapestry x2Sauce Walka - Saucefather 2 x2Channel Tres - Head Rush x2Boldy James Conductor Williams - Across the Tracks x2PRICE Kota the Friend - SANCTIONED, VOL. 1 x2Devin Malik - DEADSTOCK x2James Blake Lil Yachty - Bad Cameo x2JulyCanibus - Full Spectrum Dominance x2Jadakiss - The Champ Is Here x2Tech N9ne - BLISS The Internet - Feel Good x2Noname - Sundial Reason - Porches Jadakiss - Kiss of Death AAP Rocky - LONG.LIVE.AAP Deluxe Stalley - Peerless x242 Dugg - 4eva Us Neva Them x2UFO Fev Fredro Starr - Strapped x2mgk - Hotel Diablo Floor 13 Edition x2Styles P - Ghost Stories - The World According to P x2Styles P - Ghost in the Shell x2Trippie Redd - A Love Letter to You 5 Sheek Louch - Year of the Wolf x2Ruff Ryders - Vol. 4 The Redemption x2Yung Simmie - OG Smoke 2 NOT - Viceroy x2Eminem - The Death of Slim Shady Coup De Grâce x2Tech N9ne Collabos - Class of Strange Music x2Action Bronson - Johann Sebastian Bachlava the Doctor x2Spose - What Could Go Wrong? Common Pete Rock - The Auditorium, Vol. 1 x2Sideshow - F.U.N. T.O.Y. x2LDog Left Brain - Mind Gone, Vol. 4 MindGone4America x2Spose ConcertMt. Joy - Orange Blood Russ - Santiago MellowHigh - MellowHigh Quavo - Rocket Power JPEGMAFIA - LP! x2Childish Gambino - Bando Stone and The New World x2Denzel Curry - King of the Mischievous South, Vol. 2 x2Rich The Kid - Life's a Gamble x2Freeway Jake One - Stimulus Package 2 x2CRIMEAPPLE MichaelAngelo - Tucibi x2Jadasea MIKE - Old Earth x3Curreny MonstaBeatz - Radioactive x2Blxst - I'll Always Come Find You x2OystahGutt - Xmas in July x2Isaiah Falls - Drugs 'n' Lullabies x2Juicy J Xavier Wulf - Memphis Zoo x2Tha Dogg Pound - We All We Got Deluxe x2Albee Al - KOBA'S COMING x2Saba - ComfortZone 10 Year Anniversary Edition x2Mick Jenkins - The Patience Deluxe uicideBoy - I No Longer Fear The Razor Guarding My Heel V - EP Nyck Caution - NYCKSTAPE Casey Veggies Rockie Fresh - Fresh Veggies Kali Ranks - Living Legends x2Styles P - The Ghost in the Machine x2Sheek Louch - After Taxes x2Sheek Louch - Still a Wolf x2Styles P - Time is Money x2Apathy - Connecticut Casual Chapter 2 Chris Webby ConcertRaz Fresco DJ Muggs - The Eternal Now x2Cousin Stizz - GABOS Game Ain't Based On Sympathy x2Grafh 38 Spesh - God's Timing x2Quincey White - Quincey x2TyFontaine - Ascension2 act i x2Mustard - Faith of a Mustard Seed x2VRITRA - Indra Deluxe x2Sauce Walka - DAT BOY DEN Roc Marciano The Alchemist - The Elephant Man's Bones The ALC Edition Rakim - G.O.D's NETWORK - REB7RTH x2AugustJPEGMAFIA - I LAY DOWN MY LIFE FOR YOU x4Killer Mike - Michael The Mighty Midnight Revival, Songs For Sinners And Saints x2jerry - No Receipt x2Flee Lord - Raised in the Sand x2Wiz Khalifa - Wiz Owens x2Tasha Hendrixx - If I'm Really Being Honest x2Y - VULTURES 2 x2Saga - Black Label Saga, Vol. 2 x2Emilio Rojas - It Always Gets Better x2Oriiginelle Soduh Beats - Expensive Hunger x2Styles P - The Ghost That Sat by the Door x2Styles P - The Phantom x2Smoke DZA Flying Lotus - Flying Objects Deluxe 38 Spesh Conway the Machine - Speshal Machinery Apathy - Connecticut Casual Chapter 2 x3Styles P - The Ghost Sessions x2Styles P - Independence x2Logic - Ultra 85 x2MAVI - shadowbox x2Latto - Sugar Honey Iced Tea x3Polo G - HOOD POET x2Blu Evidence - Los Angeles x2BP Infinite - Kill or Be Killed x2Larry June - Doing It For Me Benny the Butcher - Summertime Butch x2Southside - BREAK THE SILENCE x2Planet Asia Apollo Brown - Sardines Lil Peep iLoveMakonnen - DIAMONDS Raleigh Ritchie The Internet - Black and Blue Point Two x2Onyx - Bacdafucup Onyx - All We Got Iz Us Onyx - Shut 'Em Down Fredro Starr - Firestarr Sticky Fingaz - Blacktrash The Autobiography of Kirk Jones 38 Spesh - Mother Gun x2Gucci Mane - Greatest of All Trappers x2Quando Rondo - Here for a Reason In the Darkest Time - EP x2Viktor Vaughn - Vaudeville Villain x2Styles P - The Phantom Menace x2Styles P - Super Gangster Extraordinary Gentleman x2Nas - Magic 3 VIC MENSA - Victor Sheek Louch - The Howling x2Sheek Louch - Silverback Gorilla x2Onyx - Bacdafucup, Part II Sticky Fingaz - Decade ... but wait it gets worse Fredro Starr - Don't Get Mad Get Money Onyx - Triggernometry Sticky Fingaz - God of the Underground Fredro Starr - Live 4ever Die 2day Navy Blue - Memoirs In Armour x2Planet Asia - Trust the Chain II x2King Hendrick - Super Villain Origin Story x2MellowHype - I Need Some Answers Nick Grant - SUNDAY DINNER Deluxe Armand Hammer - We Buy Diabetic Test Strips My Favorite Color - Velma x2Big Sean - Better Me Than You x2Doechii - Alligator Bites Never Heal x2Smoke DZA - THC3 KushedGod Bitch x2Curtis Williams - Danco James 10th Anniversary Edition x2Destroy Lonely - LOVE LASTS FOREVER x2Onyx - Cold Case Files Onyx - Cold Case Files, Vol. 2 Fredro Starr - Made In the Streets Onyx - turndafucup Onyx Snowgoons - Wakedafucup Reloaded Onyx - Against All Authorities - EP SeptemberJPEGMAFIA - I LAY DOWN MY LIFE FOR YOU x4Styles P - Phantom Ghost Menace x2Lil Wayne - Tha Fix Before Tha VI Joey Fatts - Glorious Lil Yachty - The Secret Recipe - EP VRITRA - Palace x2Styles P - Phantom Empire x2Sheek Louch - Life on D-Block x2Jadakiss - Kiss My Ass The Champ Is Here, Pt. 2 x2Ransom, Conway V Don - Chaos Is My Ladder 2 x2Elcamino - Built for Cuban Links x2G Herbo - Big Swerv x2LL Cool J - THE FORCE x2Fred again.. - ten days x2Onyx Dope D.O.D. - Shotgunz In Hell Onyx - Black Rock Fredro Starr - Firestarr 2 Sticky Fingaz - It's About T.I.M.E. Onyx - Present 100 Mad Onyx - Yung Onyx Spose ConcertEarl Sweatshirt The Alchemist - Voir Dire Drake - For All The Dogs Deluxe Talib Kweli J. Rawls - The Confidence of Knowing x2Yoke Lore - Far Shore - EP x2Yoke Lore - Goodpain - EP x2Yoke Lore - Absolutes - EP x2Yoke Lore - Meditations - EP x2Yoke Lore - Toward a Never Ending New Beginning Onyx Snowgoons - SnowMads Onyx - Lost Treasures Onyx - Onyx 4 Life Fredro Starr - Stash Box Onyx - 1993 Onyx - Onyx Versus Everybody Onyx - World Take Over Fredro Starr - Jazz Onyx - Blood On Da X JPEGMAFIA ConcertEminem - The Slim Shady LP Latto - Sugar Honey Iced Tea TOBi - PANIC Caskey - Cadillac Music Domo Genesis - Under the Influence 2 Jadakiss - The Last Kiss The LOX - No Security x2Styles P - The Green Ghost Project x2Jadakiss - The Champ Is Here, Vol. 3 x2Styles P - The Ghost Dub-Dime x2uicideboy - New World Depression x5uicideboy - I No Longer Fear The Razor Guarding My Heel V - EP x5Denzel Curry - King of the Mischievous South, Vol. 2 x5Onyx - Bacdafucup Onyx - All We Got Iz Us Onyx - Shut 'Em Down Fredro Starr - Firestarr Sticky Fingaz - Blacktrash The Autobiography of Kirk Jones Onyx - Bacdafucup, Part II The Alchemist - The Genuine Articulate x2Blu Exile - Love the Ominous Wind x2MC Lyte - 1 of 1 x2Lil Peep - LIL PEEP PART ONE x2OT The Real - Cost of Living x2Future - MIXTAPE PLUTO x2Sticky Fingaz - Decade ... but wait it gets worse Fredro Starr - Don't Get Mad Get Money Onyx - Triggernometry Onyx - Cold Case Files Sticky Fingaz - God of the Underground Onyx - Cold Case Files, Vol. 2 VRITRA - PV2 x2OT The Real araabmuzik - ZOMBIE Westside Gunn - And Then You Pray For Me GREYDAY 2024 Concert uicideboy, Denzel Curry, Pouya, HAARPER, Shakewell, EKKSTACYDaBaby - HOW TF IS THIS A MIXTAPE? x2OctoberStyles P - The Invincible Novel Soundtrack x2Sheek Louch - Donnie Def Jam Guerilla Warfare, Vol. 1 x2Sheek Louch - Donnie G Don Gorilla x2Jadakiss - I Love You A Dedication to My Fans x2Styles P - Master of Ceremonies Crosses - Goodnight, God Bless, I Love U, Delete. Meechy Darko - Doses Eminem - The Death of Slim Shady Coup De Grâce Joey Cool - Roller Coaster x2Cadence Weapon - ROLLERCOASTER Deluxe x2Powers Pleasant - Life Sucks x2Rich Homie Quan - Forever Goin In x2Tommy Richman - COYOTE x2Elcamino - Millionaire x3Tory Lanez - Lost Cause x2Pouya - THEY COULD NEVER MAKE ME HATE YOU x2Casey Veggies - Life Changes Fredro Starr - Made In the Streets Onyx - turndafucup Onyx Snowgoons - Wakedafucup Reloaded Onyx - Against All Authorities - EP Onyx Dope D.O.D. - Shotgunz In Hell Onyx - Black Rock Sampha - Lahai Deluxe Domo Genesis Gray Matter - What You Don't Get?! wifisfuneral - Black Heart Revenge 2 Mike G - Award Tour II - EP E L U C I D - REVELATOR x2BigXthaPlug - TAKE CARE x2Rome Streetz Daringer - Hatton Garden Holdup x2Rich The Kid, Famous Dex Jay Critch - Rich Forever 5 x2Joell Ortiz The Heatmakerz - W.A.R. With All Respect x2GloRilla - GLORIOUS x2Curreny DJ Fresh - The Encore x2Ovrkast - KAST GOT WINGS x2Willie the Kid V Don - Deutsche Marks 4 x2Fredro Starr - Live 4ever Die 2day Fredro Starr - Firestarr 2 Sticky Fingaz - It's About T.I.M.E. Onyx - Present 100 Mad Onyx - Yung Onyx Onyx Snowgoons - SnowMads Onyx - Lost Treasures Ruff Ryders - Ruff Ryders Past, Present, Future Compilation Styles P Curreny - The1st28 x2Jadakiss - Consignment x3Styles P - The Diamond Life Project x2Styles P - The World's Most Hardest MC Project x2Hodgy - Dena Tape 2 Lloyd Banks - Halloween Havoc IV The 72nd Hour Nappyhigh - Menace Yeat - LYFESTYLE x2Jaden - 2024 A Case Study of the Long Term Effects of Young Love x2Juice WRLD - The Pre-Party Extended - EP x2Benny the Butcher 38 Spesh - STABBED SHOT 2 x2Onyx - Onyx 4 Life Fredro Starr - Stash Box Onyx - 1993 Onyx - Onyx Versus Everybody Onyx - World Take Over Fredro Starr - Jazz Onyx - Blood On Da X Kahlil Blu - Metropolis Kahlil Blu - The World Is Blü DLC The Alchemist - Flying High, Pt. 2 Rick Ross Meek Mill - Too Good To Be True Earl Sweatshirt - I Don't Like Shit, I Don't Go Outside An Album by Earl Sweatshirt VRITRA 72DEMONS - Trick the Devil Kembe X - it's not that deep Che Noir - The Lotus Child King Magnetic - Third Time's A Charm Philmore Greene - The Grand Design Stay Gone Woes - PRESSING MY LUCK Lexa Gates - Elite Vessel Chris Crack - Online Shoplifting Maliciouschina - 1017 Miscellaneous To Do List Spose - Spose Raps Over The Jaw Gems Album Quests Current '23 In Summary Notable 2023 releases Next Up Aesop Rock - Integrated Tech Solutions Wiki Tony Seltzer - 14K Figaro OFM, Bangin' On Ya FM Odd Future discography Next Up Tyler, The Creator - Cherry Bomb When You Gotta Lox In The LOX discography Next Up Sheek Louch Ghostface Killah - Wu Block , Styles P - Float , The LOX - The Trinity , Styles P - Phantom and the Ghost , The LOX - The Trinity 2nd Sermon Quests Completed Jewel Runners Run the Jewels EL-P Killer Mike disc. Undead In NY Flatbush Zombies disc. Pusha Ton of Albums Pusha T Clipse Re-Up Gang disc. Next Time On Poppy Street Vince Staples disc. I Aminé No Harm Aminé disc. Jo-Vaughn Badmon Joey Bada disc. Webby Wednesday Chris Webby disc. Boooornana Eminem disc. '22 In Review Notable 2022 releases Escobar Season Nas disc. Catchdafucup Onyx current members disc. Quests To Do List Peggy's Express JPEGMAFIA discography AAP Mob discography Wu-Tang Clan discography 50 Cent The Game discographies Black Hippy individual members discographies J. Cole discography Lil Wayne discography Tech N9ne discography Canibus discography Public Enemy discography IDK discography Stalley discography Big K.R.I.T. discography Kuniva discography Stro discography N New to me O Old to me at least one prior listen Deluxe version new, have heard standard version before Rotating Playlists Shuffle4 041622 - present 10,520 songs to start Gym10 122223 - 081224 2,400ish songs to start Gym11 081324 - present 2,700 songs to start</t>
+          <t>Stephen the King Open a book and I live in a shoe 'cause I ride like Christine Trill black teen Killing the , witnesses leaving the scene I'm running with men and the Gods and the Kings Aquarius'Killa the murder-machine Bam-bam-bam when I'm cocking the beam Plus a lot that I spent on that lean Word, leaving this shit in the dirt after he came from a church Riding a hearse, Curry the Killer, the curse, putting my dick in her skirt Making her squirt 'cause she love it, polite, LeToya Luckett Sing on my dick then I kick her like a bucket But Raider ain't dying, Killer Curry keep 'em crying Cry me a river, then drag them to the river Then I make them quiver shiver, that nigga make them quiver, cold And Denzel Curry, I'm in my motherfucking mode Yo, how many bitches do you got inside the hatchback? 'Back How much money can you stuff inside a knapsack? Sack I need a couple Happy Meals and a lapdance Shit, I ain't hard to please Please What kind of gun do you hide inside your shoebox? 'Box Do you still hide money in your tube socks? Socks You ever lick a few shots at a new cop? Blaow, blaow, blaow Shit, now bring 'em up to speed Blaow, blaow No more Xannies, bitch, there's just a cup of alcohol Mix it with some juicy juice and take that shit with Adderall Sip the shake until my liver breaks, fuck her in her little face And afterwards, I take all of the shit she makes There's cocaine on her dinner plate She snorts until her motherfucking vision pixelates Ask the bitch if she wanted a giant dick to taste And when she says yes I'll beat that pussy till it fucking breaks I come in this bitch, likin' the pussy I'm lickin' on, fuckin' and rubbing the clit Don't give a fuck or a shit, Raider the klan you know that we running this shit Triple the six, meant it to sell at VA, now it's at 90 to 6 Spitting this shit like I come with a lisp, truthfully, bitches just cum on the big dick And it's all in her lips Enough of this shit let's go back to the crib Came in the crib with a couple of clips Close on my left there's a gun on my hip Swag and I'm running a bitch Hotter than a fucking brick Off timing, fuck a rhyme scheme, I'm just grinding Yo, how many bitches do you got inside the hatchback? 'Back How much money can you stuff inside a knapsack? Sack I need a couple Happy Meals and a lapdance Shit, I ain't hard to please Please What kind of gun do you hide inside your shoebox? 'Box Do you still hide money in your tube socks? Socks You ever lick a few shots at a new cop? Blaow, blaow, blaow Shit, now bring 'em up to speed Blaow, blaow Girl, I want your pussy Your pussy feels beautiful to me And when I'm inside that pussy The future is all I can see Sliding up in it Lofty305 gon' fuck you 'til you finish 'Til you finish and it's diminished Then I'ma keep stroking to get my nut in Then I'ma slap your ass on your fat butt, baby girl Yeah, you know you wanna just suck it Because you so fine like LeToya Luckett It's getting red, Lofty305, I pimp fat With the mad fuckin' honeybuns Plenty honey Plenty hundies in my wallet, son Lofty305 got all these bitches, yeah I got the broads and now they're on, son Like It's N64, yeah, nigga, ch'yeah 1996, all my niggas finish 305 Dade county where a nigga live Bust a nut, cover up her face with jizz Bust a nut, teabag that dirty slut Fuck the bitch in the coochie, mouth, and the butt Three holes so you know you gotta fill 'em all Hit every fucking ho, drink the alcohol Tell that bitch, Drink the alcohol or the get the ball Put that bitch up on the tub, now she's so far Gone on all up in the room, butt-naked dancing Now the ho butt-naked and she booty shaking Oh shit, now that shit done turned on Good music so the bitch finna suck my dong Suck my shlong, what I told to a Jewish ho Aw, I was gonna rip it2</t>
         </is>
       </c>
     </row>
@@ -4249,14 +4249,10 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Denzel Curry Freestyle | LA Leakers Freestyle #145</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Yeah, yeah, yeah L.A. Leakers, Justin Credible, DJ Sourmilk Let's do it today Bro, live from Redbull Studios in beautiful Santa Monica, California baby The beautiful Redbull Studios man, Power 106 is here Yes Denzel Curry is here to set a tone today Oh man, Dade County Ey, we ain't come to play around, he said just drop the beats man We gon' get right to it Yeah, drop the beat Let get this shit poppin' man Denzel Curry, L.A. Leakers Freestyle, com on Oh boy Alright, let me see what I got so far man We hre baby My heart poundin' Come on baby, it's go time Part I AHHH HA by Lil Durk Zel finna slide on the beat, okay Let a nigga ride with the heat, okay I got bars for everybody, feds gon' call that a RICO case I don't give a damn what your ego say, 2018 had a emo phase I'ma offset the game like a Migo play and a nigga go ape like I'm Nigo Bape Woo Rappin' but it's hard to believe it, actin' like you movin' bricks Cappin', you'se a quadriplegic, nigga, you ain't movin' shit Blackened bitch, we slaughterin' demons Thought I wouldn't use a blick Had to ask these niggas out, just like a ho I used to hit Come on Niggas say I'm broke because they haven't seen my safe yet Come on Freshman of the year and he ain't even talk to Ye yet Okay Am I the only nigga that the radio ain't play yet? But my checks still unfoldin' like a Barbie House Playset Wooo 'Cause I be gettin' money, so I'm smart to put the rest aside Niggas snitchin' on they self, they need to eat some pesticide Facts I ain't tryna say what you doin' wasn't justified But how they test you're gangster then you go ahead and testify? Come on Why you tryin' other niggas thinkin' you ain't next to die? I'd be paranoid, shit I'm sleepin' and I'm next to fight Peyton, AI, Tiger, they gon' put me where the best reside Come back like I'm Jordan, bet he won't test me with this .45 Uh-huh 'Fore I ride the wave Oh, I rather get hit by a bus All this shit is sus, it's like grown men in Toys R Us Ha He tried to pull my card but he ain't seein' Royal Flush This is my opinion nigga, I ain't sayin' much Lookin' up to the goats and no I'll never degrade 'em Yeah But didn't Kobe admire Jordan before he played 'em? Yes sir When Ali was the champ wasn't Frazier callin' to fade him? Yes sir You beat the best to be the best, my ultimatum Mhm Ain't no way that I'm followin' men, I'll navigate 'em And ain't no way I'm followin' trends when I create 'em You lookin' at the future my nigga, you can't escape it You'd rather wait for niggas to die to say I am the greatest Fuck y'all That boy Denzel ain't playin' no fuckin' games Oh, he, he got a point to prove, come on man He comin' in here spazzin' swingin' on that L.A. Leakers Freestyle Swingin' Man I'm comin' in hot, comin' in hot You got another round? You got another round brother? Do I have another round? Let me see, let me see, let me see Somethin, somethin' else in the clip? Man hold up, turn the beat up, turn the beat up in my head for me Okay, okay, okay I'm feelin' this shit, I'm feelin' this shit man Well let's go get it then baby, Denzel Curry's here L.A. Leakers I gotta murder everythin' down touchin', you feel me, fuck it Go season baby Listen Part II Just Saying by Jeezy 2020 vision, let my future form a distance That's so Raven, Miyagi's a little different Mhm In my premonition, I only picture my infants Mhm Rugrats, skip all the talks about Dr. Lipschitz Tryna keep the balance, be honorable and sadistic Lost a lot of homies but in my dreams they revisit Huh Lookin' at the world without lookin' forward to Christmas Should I be a Buddhist, Jehovah's Witness or Christian? Let's go Satan's out the question With the way the industry ran, you gotta have a fuckin' death wish Just to get views or to be viewed as a legend But call a nigga corny when you hear he got a message Damn, I know a nigga preachin' like a reverend My head is out the box like Seven Call me Pandora, martial arts elevate my aura Fire spit make you tempura There is no order Yeah, I am number one, fuck a top five Yeah, them other niggas cool buddy but they are not live For the fact, them other niggas are not I Too fly, compare me to Marty McFly No Biggie, I'm rappin' like I'm from Bed-Stuy Bustin' off the top of the dome, my mind is war cry Truthfully the realest of all, that is no lie Put me on the track with the best and they'll be no tie I'm sayin' no Oh shit, yo Yo, cool him off, he's, he's on fire How many, how many Redbulls you have 'for you came in here? He turned up Man just turnin' the fuck up He turned up man, crazy energy, energy baby Denzel Curry, yes Appreciate you droppin' off those bars with us man Thank you Yo, appreciate you bro Man, shit Project goin' crazy, let 'em know Yeah, ey man Melt My Eyez, See Your Future out now Melt My Eyez Deluxe is comin' out soon, that's the uncut You feel me it's like a film So, I gotta show y'all, alright I showed y'all the first half of the film But now finna show y'all like the second half of the film You feel me like the stuff that we left out Okay So, even put that in there, you know what I'm sayin' More content, more stuff, great songs, all that We love it, we love it, we lovin' havin' you on the show We gotta go digest those bars man Oh, yeah, yeah, yeah Yeah, we gotta hit rewind, yeah exactly, spittin' that back man We gon' run it back a few times man Shout to Denzel Curry, shout to our Redbull family Shout to Power 106 man, it's the Liftoff show, the L.A. Leakers baby, you know that, you know that1</t>
-        </is>
-      </c>
+          <t>1017 Goons</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4266,12 +4262,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Stadium Starship</t>
+          <t>[1991] INTRO [INDIVUAL NIGGA TRILLEST RAWEST OUTBREAKS]</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Deep in the galaxy, indigo vert When I swerve, coming down, when I swang through Stadium starship be boomin' like Metro Can I phone you home with my Bluetooth? Gold on my grill and my Glock is gray matter Some niggas be hollerin' 'bout truce, truce Beam me from misery, Pegasus symphony Riding black hoes in a black coupe Denny Cascade the majestic Messiah Pronounced as the funkiest Jesus Stranded in Zone 3 my nigga I'm zoning with LSD tabs in my grapefruit Sighin' rewindin' about the last time That my nine would cock back and would chase you Think of my honey, I'm buzzing, I'm bugging About the last time I would taste you, hate to Burst your little bubbles like it was blossom and buttercup Got niggas in the hood, be shootin', shoutin', and other stuff And then ya' mama cryin' In a ball, she crunchin' up, her walls pixilate From the swift of the angel dust Beware of the pale horse Revelation minus caving, rippin' the sound chords C9 is the future year, is 2055 Come with me into Atlantis so we can stay alive Deep in the galaxy, indigo vert When I swerve, coming down, when I swang through Stadium starship be boomin' like Metro Can I phone you home with my Bluetooth? Gold on my grill and my Glock is gray matter Some niggas be hollerin' 'bout truce, truce Beam me from misery, Pegasus symphony Riding black hoes in a black coupe Denny Cascade the majestic Messiah Pronounced as the funkiest Jesus Stranded in Zone 3 my nigga I'm zoning with LSD tabs in my grapefruit Sighin' rewindin' about the last time That my nine would cock back and would chase you Think of my honey, I'm buzzing, I'm bugging About the last time I would taste you, hate to 8</t>
+          <t>Yo, it's that boy Denzel Curry I'm finna do this for my niggas, mane It's the intro, nigga I hope y'all enjoy, it nigga, ya know what I'm saying? This the King Remembered Underground Tape 1991 to motherfuckin' 1995, my nigga Raider Klan is in this bitch, shoutout to SpaceGhostPurrp, my nigga Y'all better like... y'all better support a nigga, bruh Dat, yeee</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4279,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Shotz from the Double Glock</t>
+          <t>1st Quarter</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Writing from the twentythird level of a condo Right down the street from where lebron beat rondo I see the game , the upgrading for a nigga Every time I sit back I start fucking with a nigga I 'm like damn what do you think should I take that drink nah Judges laming gabels on my niggas and a whitesome sank And I just wonder what if I blunder but nigga fuck that I just vibing and taste that cat cash and tities just like that Ok im green latern floating it's superman poking Hot howking lawn you can smell it in the open Even on the ocean that aquamen seaweed Burning on that saga got this niggas wanne be me Divided we fall, united we stand x8 Up in a gravel where they judge you with a gavel But this kill will never tatel All this ratlles in my face I feel like adam But I was born with a appel the black man a bad man Chokers and poseres preformance is over Employing this soldiers that's ready for war It ain't over till the fat lady sing And the gun go click pull out the four four And put in the holster jumping the whip And I'm gone like a stoner no it's not over I'm dubbling bad with ratatatat coz you's a rat nigga My mad nigga and my asstrack nigga Still in my steez ain't you in this g Know you not me not qpsg Divided we fall, united we stand x8 Thee puss ass niggas wanne take my life But I'mma stand up nigga man up Tryna get my pants up avoid them handcuffs I'm choppin my ganja with fingers no grinder Chasin the dollar for licking vagina Underground till I retire Gold grill coz I'm a bigtymer I could ... and got them bars And in water swimming with the sharks Niggas is trippin the pistol im grippin Don't play with me coz I'm fully charged Im on that 1993 smoking in public It's the land of the free Divided we fall , united we stand , devided we fall Ride down the strip bumping to some bop Nigga get the shot from the double Glock Gunplay nigga its that triple c Coming out hard its that mjg Slide with the clan bitch you bet not slip Hardest ass slippin from the full clip Pull a motherfucker let that AK grip T I E bitch I got them stitch like tip Fuck a burgerking if a nigga want beef Bangbang on the bitch like I'm chief keef Bitches got ... nigga six feet R K All day Catch a motherfucker thats on the creep Niggas is poppin so death is your option Your body is shocking your brain is a ... I cut I chop it you niggas is drop it A bullet ... Run from the game and run from the clique Little ugly nigga u don't wanne see death Strolling down the street bumpin that beat Rippin that masterpiece 4 5 on my boat You get dough like niggas in vegas be Fuck that shit imme hit him where it hurt Knock a nigga out and put him in a verse Let a nigga out and put it on a shirt Ratatat and put him in a hurse Billinistic shit when I take your bicth And I low my clip everglades ride Let's take that trip Seamen shoes so yo ass gon slip Go and roll your boat Gently down the stream I got snipers in the bushes that shoot like swat teams Black Raven United we stand so my niggas is reppin one nation Like im raidin , im shocking you niggas so they nigga know im amazing I am raising this human is thaught this niggas johny im blazing Always been a plus bitch put the case in thats klu klux mentaly fuck Kill two hoes with one buc shot Run and than gun in your block Feel like soldiers son gonna face them shots I feel like .. under the pressure the heat ......... Niggas ain't bout that life but They claim the are They claim they hard Plus they heart of chief keef Better wanne ride with a squad Tell me where them guns at nigga My nigga is mortal combat Nigga you don't claim non Find a copy shame So yo bitch niggas yo wear thongs Thats my style on your songs So fuck nigguhs better fall back Get your head cracked Till you ball kept Like that nigga straight like that Niggas raiders in this bitch Fuck yo lifes and fuck yo ... Like lil ugly mane I'mma eat yo shit bitch</t>
+          <t>Livin' like a heathen, smokin' on Garden of Eden The question I'm always thinkin' is What a nigga believe in? The only thing I know is that I'm twenty-five breathin' Fuck a twenty-five to life, deep in my heart, my people need me It's not for social medias or guest spots on the TV No Jimmy Kimmel or Fallon, not for the bucks, no Tim Allen I'm givin' flows out the gallon and leavin' you for a thought Niggas turnin' down property for a chain that they bought, bitch Invest in guns when police pull us over Never stay sick when the climate get grosser Keep your frinds close and your enemis closer Government keepin' tabs, put your life in a folder Many snakes in the grass, so beware of the cobra Your only option, go to college or be a soldier Can't even stand your ground when you outside of Florida Twenty-five years, I'ma call it first quarter Twenty-five years, I'ma call it first quarter Twenty Twenty-five years, I'ma call it first quarter Twenty-five years, I'ma call it first quarter Twenty-five to life, deep in my heart my people need me It's government keepin' tabs, put your life in a folder Twenty-five to life, deep in my heart my people need me It's government keepin' tabs, put your life in a folder Twenty-five to life, deep in my heart my people need me Twenty-five years, I'ma call it first Twenty Twenty-five years, I'ma call it first quarter Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five years, I'ma call it first Yay Twenty-five years, I'ma call it first quarter So, okay The climb from the bottom created out of them toxins It's ironic niggas changed when we made it about them pockets Had a couple homies fall, celebrated 'em in the projects Feel like we ain't do 'em justice 'cause they still ain't never left Least we could've did was fly they body to the steps Of a pyramid in Egypt, lay they royalty to rest Least I could've did was keep on puttin' for the West They stories never forgotten long as REAS' still breathin' Ain't shit changed, nigga, REASON still REASON Cash took a bullet, but that nigga still breathin' Changed my whole perspective, now my time comin' quicker Than me in some raw pussy, you think I ain't raw, push me I might black on a nigga, tell massa I's comin' Niggas get designer and thinkin' they did something Fyre Festival how you niggas is fly for nothing What your legacy worth when you dead in the dirt? Look what your legacy worth when you only got a quarter to spend Hustle on blocks, you got a quarter to give Penny for your thoughts, my nigga Pac shared a quarter of his And he ain't even get a quarter to live I'm sad for my niggas, make it past twenty-five I'm glad for my niggas, that's a miracle where we from My nigga Dale got hit in his lungs Bleedin', callin' for God, askin' for help but that nigga ain't never come, so Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five years, I'ma call it first Twenty Twenty-five years, I'ma call it first quarter</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4296,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Everywhere I Go</t>
+          <t>2055 Freestyle</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DJ E-Feezy! Denzel Curry! Yung Simmie! 808 Mafia That 305 Dade County! Everywhere I go It's what we do! Everywhere I go Everywhere I go Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch Yung Simmie Off in Carol City, but we call it the Blackland When niggas get backhand, we hop in our black vans Grinding every day, gotta stack up my stacks man Sleeping in my city, that's how you get jacked man I'm cooling with white chicks, they wearing all black man I'm sipping that kickstand, while niggas get kicked out I'm holding my wrist out, speeding in that Benz Bout to pick up your bitch now, she grabbing my dick now I told her to get down, cause haters is watching You niggas don't get pussy, I'm changing the topic You niggas don't get fresh, you shop at Hot Topic And I'm on Cloud 9, I can grab me a comet Opinions never matter, I'll piss on your comments I'm cooling in Cali, I got hitters in Compton Flying to Miami, got a bitch in her panties The way I drop bars, they should give me a Grammy I cop a whole O just to smoke with my granny I smoke all day, the weed man my daddy Everywhere I go, I be speeding through traffic With a bad bitch, I don't fuck with the ratchets My nigga got a stick, he'll let you have it Glocks under pillow, clips under mattress Everywhere I go, I'm a fucking chick magnet Grocery store, pick a bitch, then I bag it Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch Denzel Curry All about Pesos but my name isn't Pedro Everywhere a nigga go getting money for my shows If you do not have my money then I'm double-edged, a foe Ni-niggas think they bothering, not even a semi-pro Simmie let the semi go on these fuck niggas It seems like everywhere I go I'm seein' fuck niggas The only reason why you niggas hating in the first place is cause deep down, bro, you really wanna fuck with me This is not the time to preach, boy Society's a cyborg but Imma beast, boy Everything is heat, boy Niggas saying they street, boy The way I go hard is like making Black Sabbath look like the Beach Boys Dope bars equals a Percocet, anybody I murder next isn't a Malcolm X, niggas is out to flex Shit changed ever since a nigga dropped 'Threatz' So when I got the call that Lotto was in cardiac arrest Barely impressed by these niggas sneak disses, when I tried to be friends with them niggas I didn't mention My nigga, friends don't exist I'd rather get a Jennifer Anniston looking chick, and probably put her on the strip That pimp shit in my veins, Cascade is the name I'm outta this world, buddy, you can stay in your lane So far from my lane, but yet I used to be Why should I lie now? I'm keeping it true to me Yung Simmie Everywhere I go All the ladies love me Your girl wanna fuck me, begging me to hug me Everywhere I go Yeah, I'm sipping muddy, counting up the money, you can't get none from me Everywhere I go Repping my city, couple hittas with me, Glock to your kidney Everywhere I go Bitches screaming Simmie, wanna get with me, but I ain't friendly Denzel Curry, Yung Simmie Everywhere I go Rolling with savages, crew full of niggas like civil rights activists Everywhere I go Back like I'm Lazarus, it's hazardous if I come up and snatch your bitch Everywhere I go Kill a show, then make a couple then she asking when Curry comin' back Everywhere I go Simmie-Curry is magnificent, fuck that other shit, I'd rather fuck your bitch, bitch1</t>
+          <t>Red eye Red beams so it seems that a brother gotta terminate Seen out the streets so we purge the gate Stay high as a terrorists murder rate Stay fly as a maggot in early stage In the grave but it's too late for life Early for wrong but it's too late for right Riding an eleven, but it might be your life You would not know cause you're never inside Side of my mind, might blow up my mind Left in a box that was quite in it's lines Capital lies, I do not have a favorite government because they capitalise I cannot die Rolling the dime for the dynasty better now pay for your life Death Gunshots Way before had dishonor had his Madonna in the sauna When that Glock burst you a goner We are the future Jon Connor Anaconda Boa constrictor situations getting sticky I am yet illuminated Gas in the crib just like its fumigated Smoked out, with the fam Fuck the friend cause we're not related The most heard, or the most hated I'm the only motherfucker that's fueled by hatred I'm a demon to you fuckboys cause even the Devil was God's creation Nigga</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4313,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bandz</t>
+          <t>32 Ave Intro (Remastered)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Run the check up on these fuck niggas Yeah Big money shit, I'm a motherfucker Motherfucker Love for the plug, like I'm blood brother I'm in love with the plug, in love with the plug Pull up in a Bentley truck, shittin' on her Shi-shi, shittin' on her Before I had a hit, I had bricks on 'em And niggas talkin' money like they got some Got some I can cop a whip off the bread crumbs Yeah Youngins in the hood, they gon' stretch Lay it down I can cop a Rollie off the extras Bust down I'm a dope boy and I'm gon' speak it Yeah I got work, and nigga, I'm gon' keep it Yeah If the rep don't work, nigga we still eatin' We ran up, nigga, ain't no secret, lil' nigga Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Big talk, need that big top jumpin' like a circus So hard, fuck her slow top, I'ma break a circuit Blowshark, that was my old bop, this your final curtain call Scary Movie 2 that bitch, I'm gon' fuck her wall to wall Shawty want the Curry, 'cause she know I got the sauce And I stay on point like a nigga in a joust Pussy is golden, not callin' me off Like MJ or OJ, I beat it and bounce Ol' nigga, more jumpin' the God shoes, but ain't no soul So, I'ma stack my bankroll 'til my diamonds lookin' like strobes Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice Runnin' my bands up, fell in love with a dancer Ain't no time for frontin', I see it, I want, got both of my hands up Thank God for the life, goin' hard for the night Only happens once in a lifetime, and you can't do this shit twice</t>
+          <t>Up on the Three Two Ave I wake up every morning tryna figure how to start my day my day I go to the bathroom then take me a piss Brush my teeth now it's time to parlé I'm out I call up B Money to open the crystal It's time to go jet so I skate open the door, nigga I'm rolling and blousing and coughing these ounces These money roll a whole 28 Took 8 grams Bumping 99' jams reminiscing on the town last week Talk about a cop cherry tops run a block In a Baja saying the youngin' had heat Spur of the moment The youngin' was dumb as he dropped from a fatal attack On the 207 called 9-11 Hit 15 bullets to his back Shit got whack Everybody really on that but you just got to embrace it Even on the tracks just like it's braces Murder Gardens, Carol City unsolved cases Face it, you get wasted like it's GTA But this ain't no Grove Street and you ain't CJ, nigga Bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga1</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4330,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Think They Are</t>
+          <t>40 Bandz</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Kid Hazel, you killed this Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods Catch an opp slipping, knock him out his tennis Down to catch a case, tryna get ahead of business Clean the block with the mop, I ain't leaving no witness Claiming he a bitch, show up in a nigga kitchen Dior on me, got me feeling blessed like a Christian Came from shit and made millions Ran it up fresh out of prison I'm a gift to the game, no riddle Fuck your handout, I ain't tripping Got his bitch with me, I'm pimping Glock on me got a nigga limping Glock on me, you could go missing Cartier on my vision Shitting on you niggas like a pigeon She fucking with you, she a duck, quack I took her from you with a big sack What I took from you, can't get back You niggas broke as fuck, need to fix that Yeah, you gotta watch your bitch plus you gotta watch your dawgs too Just 'cause he say he real, that don't mean he ain't flawed too Just 'cause he tote a steel, that don't mean he'll pop you Only riding with the ones that I know gonna drop you Wanna be a hot boy, well, I got hot shells I'll slap you with this pistol, don't kiss and tell Niggas going police tryna send you to jail Niggas really hurt, you ain't in no cell Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods Real shit, I don't gotta act hard Know niggas throw hands in the backyard No glove, no wraps or a mouthguard You can swipe all day, but I pull cards What I'm saying is I never had to do fraud When the old girl working 'bout two jobs When the old boy applied for a new job So I guess that I'm blessed by the true God See, back in the day, I would hop in the Lexus, just me and my manager hoping it start Here in the present, I'm stacking my scrilla all off of the shit that I said from my heart Haters get mad when they see that you the big dawg, but they won't bite and I bet they don't bark Mad over hoes, you a motherfucking simp, son, your niggas Maggie and Lisa and Bart I watch 'em all try to ether me, just because they cannot eat with me I read the bible, I know 'bout betrayal, I get reminded by a Jesus piece Perfect match, put my soul to beats, my brother with me, he gon' hold the heat Doing things I supposed to do, to be that nigga I supposed to be Zel Gotta watch these niggas around you, 'cause they might not be who you think they are 'Member she used to clown you, now she tryna come fuck all on a star My nigga just got them pounds through, riding 'round town tryna dodge the narc My other nigga got your main boo, he gon' fuck that bitch then break her heart Used to bring the stolos through now I'm pulling up in a new NASCAR Used to be an average joe, but now I fuck the baddest broads Turned up on these niggas, I don't see me ever falling off I know niggas hating, so I got my niggas toting rods1</t>
+          <t>Hey McFli! I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay Got me a lawyer I'ma need a revolver, gotta talk to my father Bought some designer, niggas showed me the sauna You could do whatcha wanna No anacondas, no need for designer Just zeros and commas Ego's enormous, like Tyrannosaurus Bitch, get a thesaurus, uh All of your niggas is comical What I do is astronomical Made up my shit, it's phenomenal Build up my money, Bionicle I could backhand a nigga, flip that Dead shit, and I never had to flip packs Comin' out the meet', like, how you did that? Get a new beat, flip it like it's new crack, uh I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay Take all the quotes, read all my notes Ridin' 'round bulletproof, thinkin' I'm Dolph Ridin' 'round bulletproof like I'm the Pope New pack of Newports, I want all the smoke Big green and Ksubis, my pockets on hope Who do you know? Samurai, hammer time , antidote, end of line This revolution was televised, ayy Tell your ho she can just never mind, ayy She keep callin' like a telethon, ayy Keep droppin' bombs like this Lebanon, ayy That bitch shit you on, I'm never on, ayy Keep it a hundred, my momma need hunnids I am not a weasel, I'm never laid frontin' Know that she lyin' when she said she love me I don't give no fuck, I just want that money I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay1</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4347,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Get Lit or Die Tryin’</t>
+          <t>4.1.0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>KXNG Crooked, Eastside, Long Beach, California My name is KXNG Crooked I snap on you rappers often When I'm spazzin' I'm just gettin' my passionate point across Like a hood cat clappin' his hands when he talkin' Now that I got your attention, I feel I should really mention Don't come around here flossin', Big Willies, we Willie Lynch 'em Pull out the chopper, rappers hittin' the ground Like every bar's a bullet, when I pull it, it sound like Ba-da-da-da-da-da-da a couple of bullets are comin' your way Then it jam, like God damn Then I pick up somethin' quicker, start killin' everything in the vicinity The proximity, the Glocksimity, we on Yosemite Sam Bam, bam your body drop, Van Damme, karate chop The Beretta's a better competitor Pop pop turn your sweater to a crop top Killin' you and whoever in that drop top Etcetera, etcetera and it will not stop Just shoot, shoot like doot doot And beaucoup, beaucoup, I'm cuckoo I'm a star goin' to war with you clones like Count Dooku I'm worlds apart from you rappers Like I walk in the booth rockin' a biosuit made of plastic And NASA's galactic elastic travelin' through space, interstellar rapping Broadcastin' from uninhibited planets When I come back, that's it You see a flash in the sky, it's that nigga, I When I land, you wack niggas die And your casket is your last hit You wack bitch, fuckin' bastard Back to the hand clappin' You die quicker than Darren Wilson walkin' through Ferguson Dressed like the grand dragon of the Klan Passin' niggas with pants saggin' With they hand on a black Magnum To clap him backwards So their last words is kcuf meht nmad saggin That's backwards for fuck them damn niggas Buck them damn triggers You charge us, bodies fill up them damn Rivers 'Cause everybody wanna be the best rapper alive But I only like dead rappers Compare me to the best rappers who died And you rappers I used to look up to I gotta cancel you now Like Simon Cowell, I can't let you ex-factors survive Nah, the time's right and they finally limelightin' the god of this rhyme writin' My mic can only be likened to Poseidon's trident and Zeus' lightnin' strike And my metaphors are what Thor was to the Norse viking I'm a born titan and at-point kill 'em like swordfightin' I'm slicin' organs with songwritin', I dwarf giants I hope I'm rubbin' you pussies wrong sort of like poor dykin' I smoke philosophy, I snort science That mean I'm higher than higher learnin', look in my eyes That's where the fire's burnin' Try to deny a music messiah's returnin' You die and you fry in my iron furnace I am on my get rich or die tryin' like when Em was signin' Curtis 'Cause I am murderous Joe Budden, Jersey City, New Jersey Now we can do this a couple of different ways, it really depends Could give them classic NY jeans over the Timbs Or I could spit about my car and how it sit on the rims Or I could tell you why I'm hot and disappear like MIMS But the bars there, put that on God, ask a atheist And if I ain't the bomb at least I'm in the blast radius I'm beating these kids' indictment, shit, I like the terror APB on my actions, I'm in the viking era Moment of truth, I give you facts right now Fuck this cypher, my mind ain't on rap right now So it's fuck metaphors and punches, all the witty shit Got a missing uncle and another need a kidney flip Face says I been stressed I got an aunt getting her ass kicked by MS Nigga, why am I here? For the look, for the promo Shit that bothered from the start 'Cause the cancer left his lungs and it's on my grandfather's heart Yeah, just not the side that the beat is on I'm supposed to put that to the side when the beat is on I'm planning the funeral, I'm getting the hearse ready These niggas only wanna ask me if the verse is ready Not a how do I feel, not a how do I deal If thats life, then nigga, how is it real? These last couple of days I've been speaking to my peers Giving them cries for help, I guess they need to see the tears But wait, wildest part of all of that is They'll shoot a suicidal rapper right here on the bridge But fuck it, gotta pardon 'em, shout out to my squad and 'em House Gang, Shady, I'm gone, nigga, my job is done Yelawolf, Gadsden, Alabama My name is Wayne, I'm from Alabama Here's the back story I just fell off the turnip truck with Ernest Tubb I'm 33, I've got 3 kids and I just popped 3 pills I don't know which one's which or what it's for Safety ain't really a habit I've formed I still smoke to the cigarette butt I still drink till I end up being that klutz Clumsy, self-destructive dummy Stumbling over my words, mumbling I'll probably do it tonight Leave the bar, leave the car And pass out like a fetus in a jar with my feet up to the stars And dream about that light that leads up to the lord I have nightmares about my momma getting beat up in the yard Wake up feeling like half a human Hit the studio and unleash this guilt and regret For my lack of union between rap, you and the rock and roll community But unity between country music and MCs, I'm claiming immunity Still I'm working, sawing, milling this tree Building this house exactly the way Charlemagne tha god and Lord Jamar thought it would be Wait a minute... the lord and the god hate me Jesus Christ, I am the white devil! Nah... I'm still working, sawing, milling this tree Building this house exactly the way I thought it should be Wanna take a tour? Let's see I've got floor-to-ceiling windows and a cabin-style mansion Bucks, bears, trucks, boats, tires, spares, four-wheelers Three-wheelers, two-wheelers, a drug dealer on call Plaques on the wall, racks on the wall for my guns on the wall Lift kits, low riders, chop shops, hi tops, low tops, cowboy boots Dixie flags, American flags, Slumerican tags on my Slumerican ass CEO I've got my name on the bathrobe, and the flame on the back porch is lit Guess who's coming to dinner? André 3000 and Hank the Third, go figure I've got two stand-up jetskis, a top pedigree horse, just to pet and feed of course Who rides a horse in Nashville? I might I've got bicycles for the kids, tricycles for the babies M-80s, bottle rockets, bottles in my pocket Moonshine, gold watches, gold rings All fake, no bling, don't hate, that's my thing I've got new clothes, old clothes, vintage, tremendous, endless style Goodwill loves me Mackle-more than you I've got flat screen TVs, with skate videos on repeat All the latest CDs, mp3s, and Beats by Dre Thank you very much, Jimmy Iovine for the check I've got a black woman fine as she can be FeFe with a ring on her finger that could give sight to the blind A 5, a 10, a couple hundreds layin' on the counter I don't know where that came from I got artwork from hard work, yardworkers for yard work Don't look under the tarp, sir I'm growin' weed for my mama there I've got a paved driveway and photos in the hallway of me on my Harley And I did it my way See, hip-hop is what you make of it And I'm makin' a lot of it See that's a quadruple entendre, Jay Z eat your heart out Joell Ortiz, Brooklyn, New York But these cyphers? I treat 'em like they a war don't want no mediators Nah, this that grow up in the P's behavior, next door to the greasy neighbors People thank you, I do this for all the mean creators I was someone who never needed favors to get where I'm at Now they deem me a savior But to be honest I ain't feelin' like that, man I just really like rap Y'all lucky, trust me I'm opposite the hands of Sandusky With the shit that my pen state, these rappers can't touch me Ugly? Shit, you serious? I'm hideous I was better than all you silly kids while trying to figure out just who I really is As a younger dude, life was somethin' rude I barely made it to the first like a Cutler move No rubber groove on my shoes led to fights, so suspensions I had 3 in one week, yeah that was public school Did I say 3 in 1? That's funny 'cause there's 4 of us in the Slaughter That's a 3 and 1, I learned that in public school too Like what's in between a 3 and 1 and House Gang, I spoke to all 3 on 1 call Like I dropped 2 albums and 3 is 1 second from bein' done Just need y'all 3 to send me 1 verse apiece For this Heatmakerz beat and Brother's Keeper 1 Simple mathematics, I'm addin' up to all these rap addicts I don't like to divide dough so I multiply flow And subtract maggots Like a brand new Craftmatic, boy I'm back at it Smokin' these new boys like my last habit Dabnabbit I tried to quit but everything I kick's like the last dragon Hoes suckin' my drummer dick, they on my bandwagon I just gotta laugh 'cause y'all pushin' a lot of swag I'm pushin' this big ole Hearse, don't get body bagged Royce Da 5'9, Detroit, gah These new rappers be askin' me Why I don't be hangin' out where they be hangin' out I tell 'em, I say, Lil nigga, listen here If I don't got no business there, I don't got no business there See there's a difference here You hustlin' so you can be seen Nigga I'm grindin' so I can disappear I don't do it like other rappers do When it's on time, it's skull and bone signs at the stu We got guns you only find on your cheat code screen If you think I remind you of any of these niggas you wildin' out Like Chico Bean When there's drama I don't ask no questions, I just clap in that direction I look at this gat like it's a actual accessory I'm anti-social so relax when you step to me Nigga I shoot the breeze with actual weaponry Your lil' stare downs won't fare well I got a pale conscience, I'm the grey area The last person I had a bond with was a bail bondsman Now imagine me hangin' with y'all and we rappin' on the same song Nigga I'd rather juggle a couple of chainsaws Or run through hell with a pair of gasoline Hanes on I'm a star but not on some I wanna be a star kinda shit The only celebrity who give a fuck less than me is Marshawn Lynch Glock in the stash as a backup but the MAC'll burst Cripple your style, your first born child'll come out With a colostomy bag as the afterbirth I don't give a fuck Nigga I'll show up to Beyonce's show posin' as Jay Z Stagger in your studio session with a bomb strapped to my chest Lookin' like Omarion holdin' his baby Jump in the 4 door Mercedes with a .44 listenin' to JoJo and K-Ci Drinkin' and sniffin' enough blow that it got me thinkin' I can exchange sicknesses Maybe, this ebola for rabies That's it, just livin' the rapper life Banana clip in the air, lookin' like it's 'bout to start singin' it's MAC tonight MACs, I use this MAC as a component for thugs rollin' up I got this MAC on and you better stay in that corner 'Cause shit can turn into that song except I don't give a fuck what day it is I'll have this club goin' up, fuck with me Mack magnet, attractin' enormous green Slap this clip in this gat then call this arm Christy Mack 'Cause this bitch is that war machine Life of a giant, but who needs size when you're wack and your team's soft Drag your girl down this hill 'til she admits that it feels like she's jackin' the beanstalk We both got marketing plans Yours is to sell records and try to net more than you gross before Mine is to punch you in your face if you ever disrespect me And then go and invest into a grocery store Rolled up with the Smith Wesson and drew on you like let's fight now I do numbers, I turn you and your crew into two plumbers Translation, get your shit together and pipe down Fuck a mic, I don't write, I chew and spit I'll shoot you and your sis if you insist I got my eyes on the sparrow Silencer's so big it look like I got Bobby Shmurda tied to the front of the barrel And he doin' this My name is Marshall, I'm reppin' that motherfuckin' Motor City, bitch I just turned Slaughterhouse to a quintet Began to trend-set, murdered a friend's pet Made shit as ill as it can get went in-depth Like a fucking vignette and two bars skins wet I'm already covered in sweat and I wasn't even ready to come in yet AHH, let me set this drink down Beat up a gal, start beef with her pal Probably be wild 'til I'm wrinkled and senile And Rap God was a freestyle Off the top of the dome piece while I was 'sleep on the couch And I'm freestyling now I need a towel, sweat leaks from my brow It's burning my eyes, my cerebral is foul 'Cause shit I'm thinking about should be illegal I need my head banned like the guy who left Cleveland Ohio And went to South Beach with his talents Scream fuck you on the way out and wink with a smile This whole game can eat a dick, I'm going back deep underground But right now I'm back on that bullshit and you I'm singling out 'Cause you're so fucking outdated you should mingle a while What the fuck is this Klusterfuk of busters? Bunch of Buster Douglas', motherfuckers is one hit wonders One swing and you're crowned Knocked one out the park, one catchy jingle and now You think you fucking with me 'cause you sold like 300 thou? Bitch, I can jump without my feet ever leaving the ground Reach up, swing from a cloud with 3 thousand people around Evil and vile enough to leap in the crowd And heave a child in a sinkhole on Cinco de Mayo When I'm sprinkled in pico de gallo Mardi Gras beads in a towel I just made that up I don't know much Spanish, I'm not bilingual But I'll show you a Mexican stand off Between just these two amigos 'Cause neither really wants to say what we're thinking out loud But I sure as fuck think I know how to read body English, no doubt 'Cause we're trying to kill each other, but lyrically The fuck is humility? What is a real emcee? Royce, he came up in this shit with me Never spit that hustler shit, it wasn't a fit for me Let them adjust 'til they just get the gist of me Just not giving a fuck and plus with the history Of muscular distrophy, it wasn't a mystery Why this middle finger was stuck in this upward positioning So what in the fuck is a list to me? I'm used to not being on it, I expect it out 'em Heck wit' 'em, I get my respect without 'em Ain't really been into diamonds since I put my first record out But I could put a chain around my second album And wear it as a neck medallion Became a millionaire, went downhill from there Became civil, office swivel chair, sterling silverware Screaming life is still unfair til I get a real career The fuck am I gonna do until then? This job is too fulfilling Two ga-jillion pairs of super villain shoes to fill in A mood to kill till I plow my Coupe de Ville Into some children at the food pavilion at Build-A-Bear Warrior's mind, Im pro-hydrocodone euphoria In the Drug Emporium line, I'm soaring I'm pouring Vicodin four at a time ignoring the warning signs on 'em 'fore I go four wheeler riding Gory and violent, horrifying You surely won't find no one more abhorring Than I am with this retaliatory of rhyming for Gloria Steinem But I finger her like a witness, show me a line-up I usually am abusive, but excuse me, ma'am I guess I must've threw you for a loop like Toucan Sam When I said I could use the sample 'cause you's a tramp But look how you react to this trigger like When I call you a bigger dyke than the Hoover Dam You're playing right into Lex Luthor's hand It's such a ruthless plan, might even lose a fan But fuck it, Superman wouldn't change in a phone booth for Stan I'm a brand new being like Grand Puba's band Happy as Anderson Cooper having a tuba crammed In his pooper with lubricant...wait, that's too... I can't Since honesty is the best policy I'll give you the old college try Try to acknowledge my mistakes, probably won't qualify As a gentleman and a scholar, but it's time that I swallow pride And say that I'm sorry, sorry I can't apologize I think of all them times I compromised my bottom lines And thought of rhymes that sodomized your daughter's minds Then I'm like dollar signs But I may fight for gay rights especially if they dyke Is more of a knockout than Janay Rice Play nice, bitch, I'll punch Lana Del Rey right In the face twice like Ray Rice in broad daylight In plain sight of the elevator surveillance Til her head is banged on the railing Then celebrate with the Ravens Never date an assailant who self-medicates with inhalants I'd meditate, but I may need a better way to escape The aggression, rage and the anger Cause leg restraints on the ankles Heavy weights and an anchor with handcuffs in chains Just ain't enough to contain it But I'd still get the same respect as Jay if I came on Stage in a fucking negligée everyday and Liz Claiborne Devastated from breakup with Kate Hudson Wait slut, your friends, what are they gonna say 'Cause makeup ain't gonna cover That eye that's seven-eighths of the way shut Peppersprayed with your face cut Made my bank like a lay up Off these effing skanks on the way up Oh, bitch thinks she's heaven-sent It's evident that she ain't never been with seven inches Yes, I said seven, I measured it Seven inches from the floor While I'm standing on the fourth floor balcony At the Sheraton while I'm stretching it Bitch, I'm a pimp so a limp dick is all you'll ever get So if she's hesitant to get the hint I'll bet you that I get the message sent who she's messing with Hella quick when I tell a chick not to ever use sex as a weapon When I step in and beat the wretched wench with a crescent wrench Existential detriment to a lesbian devil And the unpleasant stench of an estrogen level A separatist like a Chechnian rebel Impressionist with a pencil A pessimist, with his lips pressed against The edge of this Red Bull Pedal to the metal I'm rippin' this shit cause right away I'll give it to a bitch like a pedestrian, deadly as ever You see what kind of effects she has on the opposite sex when I push her flexible little sexy ass through a plate of plexiglass SHADYXV as perplexing as The last fifteen years and I'm predicting my next relapse When I spit these lyrics so don't look at me weird When I start shifting gears and shit re-smears all over Britney Spears And these little Disney queers Who use chicks for beards? Just made that up too... Oh and the Shady 2.0 We wrote it in roman numerals like they do for the Super Bowls 'Cause it's supposed to confuse you hoes So flows lose you as usual, so juvenile 2 year old when I go to the studio It's only music but don't be foolish though You don't know me through it ho but you can blow me to it though In my homie's Buick Been known to lose it though so if I overdo it you drove me to it When I step in the vocal booth like I'm supposed to do And murder you on a fuckin' track like Tony Stewart In one take, if I fuck up and I don't redo it You couldn't sound grown on a beat if you were moaning to it The day I don't say fuck you wall, you can throw me through it Rootinest-tootinest, shootin' this from the hip With the sentiments, Eminem isn't penning them for the women I'm an enemy to them and the epitome of an inconsiderate idiot But they consider me equivalent to chlamydia They tryna get rid of me gadzooks But I stiggity stand for the figgity flag Of the United States and the freedom, I distribute these raps through And if I catch you doing anything Hindering or prohibiting that after I get me the Tattoo of your lips on my ass I'ma be literally Pickin' up and deliberately whippin' the Statue of Liberty at you, woooh! Fuck it Got it somewhere in there probably, I don't know142</t>
+          <t>Tuesday, September 23rd 2014Arsenal 1 1-2 Southampton 1 Alexis 14' 1-0 Tadi penalty 20' 1-1 Clyne 40' 1-2 Cardiff City 2 0-3 Bournemouth 2 Gosling 9' 0-1, 33' 0-3 Daniels 22' 0-2 Derby County 2 2-0 Reading 2 Russell 67' 1-0 Pearce own goal 82' 2-0 Leyton Orient 3 0-1 Sheffield United 3 Higdon 2' 0-1 Liverpool 1 1-1 Middlesbrough 2 Rossiter 10' 1-0 Reach 62' 1-1 Suso 109' 2-1 Bamford penalty 1203' 2-2 Penalties Liverpool 14-13 Middlesbrough Balotelli Liverpool Bamford Middlesbrough Lucas Liverpool Clayton Middlesbrough Lallana Liverpool Reach Middlesbrough Suso Liverpool Adomah Middlesbrough Sterling Liverpool Vossen Middlesbrough Williams Liverpool Friend Middlesbrough Touré Liverpool Alyana Middlesbrough Sahko Liverpool Fredericks Middlesbrough Manquillo Liverpool Omeruo Middlesbrough Enrique Liverpool Wildschut Middlesbrough Mignolet Liverpool Blackman Middlesbrough Balotelli Liverpool Bamford Middlesbrough Lucas Liverpool Clayton Middlesbrough Lallana Liverpool Reach Middlesbrough Suso Liverpool Adomah Middlesbrough Milton Keynes Dons 3 2-0 Bradford City 3 Afobe 5' 1-0, 86' 2-0 Shrewsbury Town 4 1-0 Norwich City 2 Collins 54' 1-0 Sunderland 1 1-2 Stoke City 1 Altidore 16' 1-0 Muniesa 31' 1-1, 71' 1-2 Swansea City 1 3-0 Everton 1 Dyer 28' 1-0 Sigurðsson 64' 2-0 Emnes 87' 3-0 Fulham 2 2-1 Doncaster Rovers 3 Ruiz 16' 1-0 Burn 32' 2-0 Coppinger 60' 2-1Wednesday, September 24th 2014Burton Albion 4 0-2 Brighton Hove Albion 2 R. Ince 18' 0-1 Lua Lua 37' 0-2 Mackail-Smith 66' 0-3 Calderon red card 88' Chelsea 1 2-1 Bolton Wanderers 2 Zouma 25' 1-0 Mills 31' 1-1 Oscar 55' 2-1 Manchester City 1 7-0 Sheffield Wednesday 2 Lampard 47' 1-0, 901' 7-0 Deko 53' 2-0, 77' 5-0 Navas 54' 3-0 Zayatte red card 59' Touré 60' 4-0 Pozo 88' 6-0 Tottenham Hotspur 1 3-1 Nottingham Forest 2 Grant 61' 0-1 Mason 72' 1-1 Soldado 83' 2-1 Kane 90'1 3-1 Crystal Palace 1 2-3 Newcastle United 1 Gayle penalty 25' 1-0 Riviere 36' 1-1, 48' 1-2 Kaikai 90'2 2-2 Abeid red card 100' Dummett 112' 2-3 West Bromwich Albion 1 3-2 Hull City 1 Ideye 15' 1-0 T. Ince 41' 1-1 Brady 50' 1-2 McAuley 87' 2-2 Berahino 88' 3-211</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4364,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Drogas</t>
+          <t>5A.M. IN OPA-LOCKA!!!!!!!</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Stephen the King Open a book and I live in a shoe 'cause I ride like Christine Trill black teen Killing the , witnesses leaving the scene I'm running with men and the Gods and the Kings Aquarius'Killa the murder-machine Bam-bam-bam when I'm cocking the beam Plus a lot that I spent on that lean Word, leaving this shit in the dirt after he came from a church Riding a hearse, Curry the Killer, the curse, putting my dick in her skirt Making her squirt 'cause she love it, polite, LeToya Luckett Sing on my dick then I kick her like a bucket But Raider ain't dying, Killer Curry keep 'em crying Cry me a river, then drag them to the river Then I make them quiver shiver, that nigga make them quiver, cold And Denzel Curry, I'm in my motherfucking mode Yo, how many bitches do you got inside the hatchback? 'Back How much money can you stuff inside a knapsack? Sack I need a couple Happy Meals and a lapdance Shit, I ain't hard to please Please What kind of gun do you hide inside your shoebox? 'Box Do you still hide money in your tube socks? Socks You ever lick a few shots at a new cop? Blaow, blaow, blaow Shit, now bring 'em up to speed Blaow, blaow No more Xannies, bitch, there's just a cup of alcohol Mix it with some juicy juice and take that shit with Adderall Sip the shake until my liver breaks, fuck her in her little face And afterwards, I take all of the shit she makes There's cocaine on her dinner plate She snorts until her motherfucking vision pixelates Ask the bitch if she wanted a giant dick to taste And when she says yes I'll beat that pussy till it fucking breaks I come in this bitch, likin' the pussy I'm lickin' on, fuckin' and rubbing the clit Don't give a fuck or a shit, Raider the klan you know that we running this shit Triple the six, meant it to sell at VA, now it's at 90 to 6 Spitting this shit like I come with a lisp, truthfully, bitches just cum on the big dick And it's all in her lips Enough of this shit let's go back to the crib Came in the crib with a couple of clips Close on my left there's a gun on my hip Swag and I'm running a bitch Hotter than a fucking brick Off timing, fuck a rhyme scheme, I'm just grinding Yo, how many bitches do you got inside the hatchback? 'Back How much money can you stuff inside a knapsack? Sack I need a couple Happy Meals and a lapdance Shit, I ain't hard to please Please What kind of gun do you hide inside your shoebox? 'Box Do you still hide money in your tube socks? Socks You ever lick a few shots at a new cop? Blaow, blaow, blaow Shit, now bring 'em up to speed Blaow, blaow Girl, I want your pussy Your pussy feels beautiful to me And when I'm inside that pussy The future is all I can see Sliding up in it Lofty305 gon' fuck you 'til you finish 'Til you finish and it's diminished Then I'ma keep stroking to get my nut in Then I'ma slap your ass on your fat butt, baby girl Yeah, you know you wanna just suck it Because you so fine like LeToya Luckett It's getting red, Lofty305, I pimp fat With the mad fuckin' honeybuns Plenty honey Plenty hundies in my wallet, son Lofty305 got all these bitches, yeah I got the broads and now they're on, son Like It's N64, yeah, nigga, ch'yeah 1996, all my niggas finish 305 Dade county where a nigga live Bust a nut, cover up her face with jizz Bust a nut, teabag that dirty slut Fuck the bitch in the coochie, mouth, and the butt Three holes so you know you gotta fill 'em all Hit every fucking ho, drink the alcohol Tell that bitch, Drink the alcohol or the get the ball Put that bitch up on the tub, now she's so far Gone on all up in the room, butt-naked dancing Now the ho butt-naked and she booty shaking Oh shit, now that shit done turned on Good music so the bitch finna suck my dong Suck my shlong, what I told to a Jewish ho Aw, I was gonna rip it2</t>
+          <t>It's 455 in the morning and I'm tired as fuck in Opa-Locka Yeah who is this guy? Once again, it's the, Aquarius Killa Ready to roll up a switch to kill a nigga with AK quicker Don't give a damn what you gotta say I'm bumping nine millimeter infamous and Juicy J On that three six tip bitch You ready to die? You ready to float? You ready to fly? You ready to burn? You ready to fry? I'm ready to kill Live free and die hard Curry spit the fire verses niggas calling him Charzard smoke Now I'm not a pocket monster, I am a mobster Leave you with the with lobsters get over here! Underground trill sound, I'm hot like hellbound curry is a dog Take your next spell bound post for your team I will kill you on the runway Best, out of Carol CIty ever since gunplay, Rozay get over here! But I'm the not the motherfucking police 5 A.M in Opa-Locka motherfucker, I'm too beast 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M 5 A.M nigga, 5 A.M in Opa-Locka bitch pussy! Smoke</t>
         </is>
       </c>
     </row>
@@ -4385,10 +4381,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>1017 Goons</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr"/>
+          <t>5 Days</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>40 points! Glass on the toners Ice? It's on a flash card Flash Gordon, Flamboyant, hot on boil You like boys I pull up in the boysenberry Benz Hot way back when You was hot way back when Boys to Men In the menopause You wanna see the men? And then you pause I make a all time Snatch your body, family, mantelpiece Pull up in the Mickey Mantle fleece Wood wheel unleash You standardized I got under stand, capiche? I pull up with the tires hot They on fire Cheeks scorching hot I pull up in the torch Benz Pull up in the Wheels of Fortune Rap game Pat Sajak In the black Maybach With no braids Braided up? Yes No snap back Why they wanna stress me out? Piece and chain re-lying on my chest Now they want to spring test Spring up toaster Pull up in a drop top Testarossa Glock out the holster 5 days out the week My picture on your sister's poster Black Amorosa It's a cold, cold world It's a cold, cold world Used to turn boys to girls Now I pull up in the bowling ball swirl I'm on bowling lanes I got propane I'm on fast flames Fast track train Uh! Fast track train I'm in a Lamborghini You in a fast track Amtrak I live the life of a tampax Tampon, go to sleep Leave the lamps on Leave the... Leave the, leave the amp on Speakers blown Now you pull up with the equinox Leave the Eclipse on Leave the, leave the Mitsubishi I pull up in Tahiti I give you the heebie jeebies Leave the trunk open Leave the trunk, super-soak them I went asleep Woke up, the beach was in Oakland Open Open Ocean win I got Ocean Spray Pour a four inside a Taaka Taaka vodka You ain't liked a lot You lookin' like a lobster I pull up, you ball blockin'</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>[1991] INTRO [INDIVUAL NIGGA TRILLEST RAWEST OUTBREAKS]</t>
+          <t>95 TIL I DIE 94 TIL I GO</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Yo, it's that boy Denzel Curry I'm finna do this for my niggas, mane It's the intro, nigga I hope y'all enjoy, it nigga, ya know what I'm saying? This the King Remembered Underground Tape 1991 to motherfuckin' 1995, my nigga Raider Klan is in this bitch, shoutout to SpaceGhostPurrp, my nigga Y'all better like... y'all better support a nigga, bruh Dat, yeee</t>
+          <t>Yeah, yeah, what it is, what it is It's 2010 and I was born in 1995 See, my dawg Halo, he was born in '94 So I'm just gon' do What we do 'til I go, you feel me? Slice your ass up like Jedi master They call me but I ain't a pastor Any nigga get it twisted might end up like Caspar Niggas asleep, well, the kid is nightmares I'm the flyest kid ever, like straight out of Con Air Don't flare 'cause the next man might need a spare It's not a joke, bitch I don't shoot, I make tricks, my words too real for fake shit Five hundred all in the same chain And they like What the hell? at the show, House of Pain And I'm not but I'm on a manic train And y'all niggas need to stop, put you to sleep like Mr. Spock And this the entrprise, why y'all lookin' at the sky? I must be the truth 'cause y'all paralyzed I am the king looking for a queen This is self-attested just like the thing This is like a movie 'til it stepped on the scene There ain't no whips when I'm lookin' for the cream With a AK-47 so test my regime Don't mess with me 'cause I'm a murderous machine I flow like a sailor, and I beep like a pager I hang with little West but I wouldn't fuck with Taylor Not even with two fingers Mystical, I'm in danger, seeing colors like the Power Rangers Niggas is like petro 'cause my shit is too retro A long distance like metro Homie, I'm too real on this mass appeal Too real on this mass appeal, I'm gone '95 'til I die Yeah, hah, Halo, nah Listen, I'ma let the clip slip then Bullets attachin' like the vision Ain't nobody stayin' alive when my shots in precision Will I stay hot like I'm cookin' in the kitchen? Dead bodies drop like noodles, instant Life goes on, proceed, progress Everybody die, who might go next? Tears fall down then you take a deep breath But anyway, my voice like I'm screamin' in a Money longer than a city-state Your bitch wanna penetrate, three girls with me I should've played a , 'day, 'day, 'day, yeah '94 'til I go, ho I have a dream that one day down in Alabama, with its vicious racists, with its governor having his lips dripping with the words of interposition and nullification that one day right down in Alabama little black boys and black girls will be able to join hands with little white boys and white girls as sisters and brothers. I have a dream today.</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1st Quarter</t>
+          <t>ACT A DAMN FOOL</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Livin' like a heathen, smokin' on Garden of Eden The question I'm always thinkin' is What a nigga believe in? The only thing I know is that I'm twenty-five breathin' Fuck a twenty-five to life, deep in my heart, my people need me It's not for social medias or guest spots on the TV No Jimmy Kimmel or Fallon, not for the bucks, no Tim Allen I'm givin' flows out the gallon and leavin' you for a thought Niggas turnin' down property for a chain that they bought, bitch Invest in guns when police pull us over Never stay sick when the climate get grosser Keep your frinds close and your enemis closer Government keepin' tabs, put your life in a folder Many snakes in the grass, so beware of the cobra Your only option, go to college or be a soldier Can't even stand your ground when you outside of Florida Twenty-five years, I'ma call it first quarter Twenty-five years, I'ma call it first quarter Twenty Twenty-five years, I'ma call it first quarter Twenty-five years, I'ma call it first quarter Twenty-five to life, deep in my heart my people need me It's government keepin' tabs, put your life in a folder Twenty-five to life, deep in my heart my people need me It's government keepin' tabs, put your life in a folder Twenty-five to life, deep in my heart my people need me Twenty-five years, I'ma call it first Twenty Twenty-five years, I'ma call it first quarter Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five years, I'ma call it first Yay Twenty-five years, I'ma call it first quarter So, okay The climb from the bottom created out of them toxins It's ironic niggas changed when we made it about them pockets Had a couple homies fall, celebrated 'em in the projects Feel like we ain't do 'em justice 'cause they still ain't never left Least we could've did was fly they body to the steps Of a pyramid in Egypt, lay they royalty to rest Least I could've did was keep on puttin' for the West They stories never forgotten long as REAS' still breathin' Ain't shit changed, nigga, REASON still REASON Cash took a bullet, but that nigga still breathin' Changed my whole perspective, now my time comin' quicker Than me in some raw pussy, you think I ain't raw, push me I might black on a nigga, tell massa I's comin' Niggas get designer and thinkin' they did something Fyre Festival how you niggas is fly for nothing What your legacy worth when you dead in the dirt? Look what your legacy worth when you only got a quarter to spend Hustle on blocks, you got a quarter to give Penny for your thoughts, my nigga Pac shared a quarter of his And he ain't even get a quarter to live I'm sad for my niggas, make it past twenty-five I'm glad for my niggas, that's a miracle where we from My nigga Dale got hit in his lungs Bleedin', callin' for God, askin' for help but that nigga ain't never come, so Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty Twenty-five to life, deep in my heart my people need me Twenty Twenty Twenty Twenty Twenty-five years, I'ma call it first Twenty Twenty-five years, I'ma call it first quarter</t>
+          <t>You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall When the sun begins to dim And eventually the day dies And the mood prepares to sway That's where another way lies Glow of the liquor store lights Set the scene for no rights Let's convene, discuss the scheme And hope it flows how we dream Tonight can make or break you if you let it Someone set it out for you to let it out Now don't regret it Get embedded to the back drop Positioned there with your cash crop Envision night as the last stop Don't miss the train It's time to gain, strain, aim, fire Blame, reign, fuck and then retire I'm liar past eleven, after one I'm on the run Till the sun comes up tomorrow I'm working, you're having fun Not too devious, but that's me Spontaneous if you ask me But then again, I'm blending in Step to the beat, walk to the beat Talk to the beat, live to the beat Rock to the beat, fuck to the beat Dance to the beat, pay to the beat Fight to the beat, you get l-l-lost to the beat Police walk the beat, kill to the beat Steel to the heat, terrorize kill no retreat Prowl to the beat, how did a V-O weak scandal oh spray vandal Walk the streets I hear footsteps on the streets Someone's following me on the streets Like racism on the streets Can't even have a new car on the streets Police prowl on the streets They got you sittin' on the streets Runnin' ya L's, what in the hell? Runnin' on tell, they see a black man they get scared as hell Like did somebody escape from jail You feel em' prowlin' when you walk in some rooms When you walk in, like boom! I wanna just break shit, I wanna re-create shit I wanna take shit you say and use it against you Act a damn fool like crackheads do Like your mama do You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall Dusk, thus the beginning is on until dawn Trust regardless of the daily Really nothings wrong I'm still breathin' and here's another evening From the fortress I leave for my course of tonight's achievements There's no grievance in my pocket Just a couple of dollars, a pen and hopefully my wallet Because my man over here has got the hook up at the front door Long as my ID's right what more could they want for? Yeah we in there Like fluoride, off the wall on the left side A room full of pride, I'm consumed by the tune applied This fuckin' DJ is tight man I can already feel the minutes being added to my life span MC Lyte paper thin drink tickets from the staff Now it's time to make a friend and see if I can make her laugh Hey princess, I got a lot of dialog So I'm gonna line it up for you to get high and try to follow Light up another false sense of security Play a game of twenty questions You can test my purity And as the world comes down on me And as I go down on her... night prowler I'm out when the freaks come out Way after dusk After the time when the opening acts get they time to bust The nightshift I prowl and observe like the owl Surroundings minus the scowl Wise and well endowed In the mental! Well renowned Ghetto pass every town PSC! Nice 2 meet you, oh you know about this wow! Your ex-boyfriend showed you all about this how? Can I thank him for training such a beauty It fits my style Compliments exchanged Plus 5 dollars change Signed my name on the poster And I kept it in the holster like I'm supposed ta Now, what would you do in the clutch If you get a pussy hug after dusk? You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall5</t>
         </is>
       </c>
     </row>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2055 Freestyle</t>
+          <t>African Samurai</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Red eye Red beams so it seems that a brother gotta terminate Seen out the streets so we purge the gate Stay high as a terrorists murder rate Stay fly as a maggot in early stage In the grave but it's too late for life Early for wrong but it's too late for right Riding an eleven, but it might be your life You would not know cause you're never inside Side of my mind, might blow up my mind Left in a box that was quite in it's lines Capital lies, I do not have a favorite government because they capitalise I cannot die Rolling the dime for the dynasty better now pay for your life Death Gunshots Way before had dishonor had his Madonna in the sauna When that Glock burst you a goner We are the future Jon Connor Anaconda Boa constrictor situations getting sticky I am yet illuminated Gas in the crib just like its fumigated Smoked out, with the fam Fuck the friend cause we're not related The most heard, or the most hated I'm the only motherfucker that's fueled by hatred I'm a demon to you fuckboys cause even the Devil was God's creation Nigga</t>
+          <t>Blood-stained katanas, Black man from Ghana I battle over my honor and guided by Nobunaga The power in every kata has channeled most of my Oni Years later, ended up scarred, broken and lonely The sword I touch been cursed by memories of war Every stroke from the blade left the enemies floored Challenge the lord who could afford to buy your life, clearly Let you commit seppuku, not worthy of hara-kiri Forty-five, battle-side, get ready to die Over pride, commit suicide, standin' right behind With the steel, noble samurai to the naked eye I'll decide if you stay alive, hear my battle cry, motherf Oh-eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh3</t>
         </is>
       </c>
     </row>
@@ -4449,12 +4449,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>32 Ave Intro (Remastered)</t>
+          <t>AL1ENZ</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Up on the Three Two Ave I wake up every morning tryna figure how to start my day my day I go to the bathroom then take me a piss Brush my teeth now it's time to parlé I'm out I call up B Money to open the crystal It's time to go jet so I skate open the door, nigga I'm rolling and blousing and coughing these ounces These money roll a whole 28 Took 8 grams Bumping 99' jams reminiscing on the town last week Talk about a cop cherry tops run a block In a Baja saying the youngin' had heat Spur of the moment The youngin' was dumb as he dropped from a fatal attack On the 207 called 9-11 Hit 15 bullets to his back Shit got whack Everybody really on that but you just got to embrace it Even on the tracks just like it's braces Murder Gardens, Carol City unsolved cases Face it, you get wasted like it's GTA But this ain't no Grove Street and you ain't CJ, nigga Bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga You bitch nigga, bitch nigga, hashtag, rich nigga1</t>
+          <t>Oh ! Les bras en lair, ça peut tuer I am the best rapper alive Je suis le meilleur rappeur français en vie Brah ! Forever Young, allez viens on temmène, Forever Young On les emmerde, un million dproblèmes, on les enterre On veut être millionnaire, Forever Young, levez les mains en lair Jmène ma guérilla, cest du Alonz Je viens des cités dor, je ne veux pas dbronze Cest la Black Machine, chicha qua le goût résine Je vaux 1 milliard en kidnapping Et cest le retour de K.A.S.S.I.M PIMP ! 2 milliard de clip sur Google Chine, wallah reste tranquille La baraka même sous bière fine Jcabre Saint Antoine, Bougainville À deux doigts davoir les cheveux longs défrisés comme les ptits dma ville Click-Click PAH ! PAH ! Cest moi qui tire, mettez-vous dans la file Tapage nocturne dans ta cité Lalbum est sorti, les 3.2 écoutent papé Bourricot ouais jsuis au top, je suis prêt à mettre les gaz Quel corps sur le sol sera dessiné Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Jvais les fumer Motherfuck jai la santé, les couilles à Béné Belafomouk, je suis sur la route, jarrive au taquet Poussez, poussez Ajax, Tottenham Fenerbahce, Hooligan No Limit, Menace de société Et sucez-nous la bite, on arrive, ça va péter Ça va péter ! Campeón Campeón !, popular On a affrété un jet, avec deuxtrois chars Deuxtrois chattes mais je suis le Capo dei Capi Jachète larbitre et le match, appelle-moi Aulas ou Tapie Wallah recule sinon jappuie, jsuis Marseille mais en pleine forme Plusieurs Luciano, Alonz', imagine lalbum Monstre, jai la frappe, jai le seum, le bon, celui qui t'explose Jvais mourir en studio par overdose Cest la nuit dnoce, le rap français jvais lui fourrer Direction Las Vegas, jvais lexporter, hors de portée Dans les cordes, loreille je vais lui mordre Jai 2054 raisons denculer la concurrence, vous verrez, vous-verrez, vous verrez Game-Game Over ! 1</t>
         </is>
       </c>
     </row>
@@ -4466,12 +4466,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>40 Bandz</t>
+          <t>A Life In The Day Of Denzel Curry</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Hey McFli! I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay Got me a lawyer I'ma need a revolver, gotta talk to my father Bought some designer, niggas showed me the sauna You could do whatcha wanna No anacondas, no need for designer Just zeros and commas Ego's enormous, like Tyrannosaurus Bitch, get a thesaurus, uh All of your niggas is comical What I do is astronomical Made up my shit, it's phenomenal Build up my money, Bionicle I could backhand a nigga, flip that Dead shit, and I never had to flip packs Comin' out the meet', like, how you did that? Get a new beat, flip it like it's new crack, uh I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay Take all the quotes, read all my notes Ridin' 'round bulletproof, thinkin' I'm Dolph Ridin' 'round bulletproof like I'm the Pope New pack of Newports, I want all the smoke Big green and Ksubis, my pockets on hope Who do you know? Samurai, hammer time , antidote, end of line This revolution was televised, ayy Tell your ho she can just never mind, ayy She keep callin' like a telethon, ayy Keep droppin' bombs like this Lebanon, ayy That bitch shit you on, I'm never on, ayy Keep it a hundred, my momma need hunnids I am not a weasel, I'm never laid frontin' Know that she lyin' when she said she love me I don't give no fuck, I just want that money I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay I could make forty bands in a day Never let a nigga get in my way I could make forty bands in a day Tell momma that we gon' be okay1</t>
+          <t>Raider Klan, strictly for my Raiders A life in the day as Denzel Curry Okay, it's five in the morning, crack of the dawn and I'm yawning As I just reminisce when me and my cousin used to roll a swish Pussy-ass niggas they act like a bitch, they say I wasn't gon' be shit 'Cause the words I choose to use was just so damn articulate I paint a picture with the scripture my father gave me Went to yelling niggas and bitches and how you wouldn't play me But after my granny passed that's when a nigga grew heartless Run up in the nigga house and shoot the shit like target Get it? With a pen and a pad and I was quick with it Laying down on the back end so me and my niggas could rip it But by then, we broke up, reality hit and I woke up Each and every day, I take a smoke and I would choke up Now it's over, I keep a conscious mind ever since I went sober Stopped speaking of happy times, I wasn't in Range Rovers A few months later I had a chat with Dece Yeah, Mike Dece, a real Posh OG Talking about this rapper that came out the CC Carol City's own folk, yeah, I'm from the Zone 3 Simmie, well Andrew straight out of Myrtle Grove Came a fan to a friend, Raider Klan across the globe People raising eyebrows, think my songs is devilish Know it's quite rebelish, plus my talent's Heaven-sent, ferno Creeping with the flame so they can burn dro Or probably in the Jaguar, bumping while they ride slow Now listen, no need for the hating niggas Wasn't here before but then arrived so you a fake nigga Now my Facebook and Twitter's full of compliments They scream Aquarius'Killa, now triumphant, then accomplishments That's as far as I got on my verse Synthesize, realize, life's no game Synthesize, realize, life's no game Synthesize, realize, life's no game Synthesize, realize, life's no game La-la-la, la-la-la, la-la-la La-la-la, la-la-la, la-la-la A life in the day of Denzel Curry2</t>
         </is>
       </c>
     </row>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>4.1.0</t>
+          <t>Always With Me</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Tuesday, September 23rd 2014Arsenal 1 1-2 Southampton 1 Alexis 14' 1-0 Tadi penalty 20' 1-1 Clyne 40' 1-2 Cardiff City 2 0-3 Bournemouth 2 Gosling 9' 0-1, 33' 0-3 Daniels 22' 0-2 Derby County 2 2-0 Reading 2 Russell 67' 1-0 Pearce own goal 82' 2-0 Leyton Orient 3 0-1 Sheffield United 3 Higdon 2' 0-1 Liverpool 1 1-1 Middlesbrough 2 Rossiter 10' 1-0 Reach 62' 1-1 Suso 109' 2-1 Bamford penalty 1203' 2-2 Penalties Liverpool 14-13 Middlesbrough Balotelli Liverpool Bamford Middlesbrough Lucas Liverpool Clayton Middlesbrough Lallana Liverpool Reach Middlesbrough Suso Liverpool Adomah Middlesbrough Sterling Liverpool Vossen Middlesbrough Williams Liverpool Friend Middlesbrough Touré Liverpool Alyana Middlesbrough Sahko Liverpool Fredericks Middlesbrough Manquillo Liverpool Omeruo Middlesbrough Enrique Liverpool Wildschut Middlesbrough Mignolet Liverpool Blackman Middlesbrough Balotelli Liverpool Bamford Middlesbrough Lucas Liverpool Clayton Middlesbrough Lallana Liverpool Reach Middlesbrough Suso Liverpool Adomah Middlesbrough Milton Keynes Dons 3 2-0 Bradford City 3 Afobe 5' 1-0, 86' 2-0 Shrewsbury Town 4 1-0 Norwich City 2 Collins 54' 1-0 Sunderland 1 1-2 Stoke City 1 Altidore 16' 1-0 Muniesa 31' 1-1, 71' 1-2 Swansea City 1 3-0 Everton 1 Dyer 28' 1-0 Sigurðsson 64' 2-0 Emnes 87' 3-0 Fulham 2 2-1 Doncaster Rovers 3 Ruiz 16' 1-0 Burn 32' 2-0 Coppinger 60' 2-1Wednesday, September 24th 2014Burton Albion 4 0-2 Brighton Hove Albion 2 R. Ince 18' 0-1 Lua Lua 37' 0-2 Mackail-Smith 66' 0-3 Calderon red card 88' Chelsea 1 2-1 Bolton Wanderers 2 Zouma 25' 1-0 Mills 31' 1-1 Oscar 55' 2-1 Manchester City 1 7-0 Sheffield Wednesday 2 Lampard 47' 1-0, 901' 7-0 Deko 53' 2-0, 77' 5-0 Navas 54' 3-0 Zayatte red card 59' Touré 60' 4-0 Pozo 88' 6-0 Tottenham Hotspur 1 3-1 Nottingham Forest 2 Grant 61' 0-1 Mason 72' 1-1 Soldado 83' 2-1 Kane 90'1 3-1 Crystal Palace 1 2-3 Newcastle United 1 Gayle penalty 25' 1-0 Riviere 36' 1-1, 48' 1-2 Kaikai 90'2 2-2 Abeid red card 100' Dummett 112' 2-3 West Bromwich Albion 1 3-2 Hull City 1 Ideye 15' 1-0 T. Ince 41' 1-1 Brady 50' 1-2 McAuley 87' 2-2 Berahino 88' 3-211</t>
+          <t>Its that ultimate Beast Coast shit Ronny J, listen up Hold up Corleone stepped in With a brand new swank, no smoke section But a nigga still lit Got apes with a case for banana clips sitting by the money on the safe But I will bless them, like I been sneezing Im sick with the lyrics, my season they season Your season is food, beef I will cleave it The love that they showing been broken like Cleveland I went from a Wolf to a Cavalier Now my name ring bells through the stratosphere Over here where the Crips and the Bloods be Be the place where the boy grew lovely Now we off free Henny with the bubbly But dont touch that bottle my nigga trust me Thats Patrón and I be blowin on strong Cause a nigga still stressed cause real shit going on Like why are my people dying? Why are those bullets still flying? They just killed my nigga Spazz So I spazzed the flow like water Poseidon To unslave your mind for real I dont do it for the money never do it for thrills I really tryna put on for all my niggas who down My niggas who would paint a nigga all red like clowns My pack by the pound, they pack for the sound Then I flip a verse, move swift through your town Hit up Curry then its back to the Crowne That something that we out finna take for the now Or maybe 'til forever my nigga Junior B said I gotta make it heaven my nigga For my people that's with me, riding like shuttles Carol City to the Borough we thorough U to the L to the T for eternity This is my brotherhood not a fraternity Any emergency within an urgency Its going down choppers going up vertically Copying governments we're never governing Lead a rebellion thats me and my covenant Oh, man, I came out the boat from the ocean They say that my people's the omen Oh shit switch, ultimate is back Two-dont-know Cadillac, on the cul-de-sac Bumping Project Pat, sipping Cognac Cultivate the pack, one day might collapse If you might relapse from the dopest raps They dont sit and crack, bitch Guns might blow you off the atlas, shit Sometimes I cant see I just make my enemies bleed Oh my God, I, I cant breathe My nemeses out, be forever ULT But then again Sometimes I cant sleep I cant get you outta my dreams Who am I? Im the unseen Thats my reply Just know you just know you always with me Oh my God Yeah Nigga Yeah we really out here C9 to the Beast Coast Carol City to Brooklyn You feel me? Sometimes I cant see I just make my enemies bleed Oh my God, I, I cant breathe My nemeses out, be forever ULT But then again Sometimes I cant sleep I cant get you outta my dreams Who am I? Im the unseen Thats my reply Just know you just know you always with me Oh my God2</t>
         </is>
       </c>
     </row>
@@ -4500,12 +4500,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>5A.M. IN OPA-LOCKA!!!!!!!</t>
+          <t>AMBERS FINE ASS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>It's 455 in the morning and I'm tired as fuck in Opa-Locka Yeah who is this guy? Once again, it's the, Aquarius Killa Ready to roll up a switch to kill a nigga with AK quicker Don't give a damn what you gotta say I'm bumping nine millimeter infamous and Juicy J On that three six tip bitch You ready to die? You ready to float? You ready to fly? You ready to burn? You ready to fry? I'm ready to kill Live free and die hard Curry spit the fire verses niggas calling him Charzard smoke Now I'm not a pocket monster, I am a mobster Leave you with the with lobsters get over here! Underground trill sound, I'm hot like hellbound curry is a dog Take your next spell bound post for your team I will kill you on the runway Best, out of Carol CIty ever since gunplay, Rozay get over here! But I'm the not the motherfucking police 5 A.M in Opa-Locka motherfucker, I'm too beast 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M motherfucker 5 A.M 5 A.M 5 A.M nigga, 5 A.M in Opa-Locka bitch pussy! Smoke</t>
+          <t>Woo, woo Woo, woo, ooh Oh, yeah-yeah, oh, yeah-yeah Oh, yeah-yeah, oh, yeah-yeah, yeah-yeah Woo, woo, woo, woo, ooh Woo, woo, ooh Oh, yeah-yeah, oh, yeah-yeah Oh, yeah-yeah When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, tell me what you feelin', babe You're picture perfect beyond discussion, no repercussions My inspiration to seek elevation like it's nothin' Only eighteen who would think that you pop one out the oven You're like my weakness, a distraction from this constant thuggin' I love your energy, when I'm without you, wish I wasn't So I could penetrate you slow, another introduction To me I'm baskin' in your presence, to you we just fuckin' You made it easy to be loved, to have you, I am lucky I'd rather have you closer to me than my other lovers Sometimes I regulate my feelings so you don't feel smothered And it's a shower of your blessings, wit' your love I'm covered No matter what hard times life brings, I know that I'll recover Because I love you, babe, heaven knows how much I love you And you know that I never put no one above you You're my number one, you're my number one You're my number one Yeah, yeah, yeah When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, tell me what you feelin', babe Woo, woo Hey dude, what's the deal though? Like for real, though? Babygirl, lay down, put yo head on my pillow Let me just hit that pussy from the back and I make that sound Go pit-pat on your pussycat Babygirl rollin' all over and she feelin' that fat cock all in her Ruben Slikk stack nothin' but Sellin' that cocaine, yes, this shit look just like splinters Babygirl, know she cummin' Nuttin' all up on my face When I'm lickin' the pussy and the clit of that beautiful woman And yes, I'm passin' it to the Curry The Curry that receives I came in this girl, and like I best believe That I will be the one of the niggas who cummin' up in that pussy Denzel the Curry givin' that kush, I'm makin' her gushy Wait, hold up, no need for that Viagra Turn her pussy into the falls of Niagara If you don't get that, get yo bitch wetter Fuck that, I'm not no Twista, but I could do it better That nigga that do a dot, I'm bumpin' in my fuckin' whip She poppin' that pussy like she just damn popped a clip Poppin' it like it's a trigger Curry, I'm rollin' up swishers Them niggas don't wanna go get it wit' us She said come over here and your face you bust So goddamn, this girl want it in her mouth I told her, Come here, and please go down south Yeah, I'm nasty wit' it, don't take kind to the threats Wait, hold up, Denzel Curry do take kind to the breasts So I'm puttin' my face in them titties Goddamn, them titties Oh my God, them tig ol' bitties Denzel Curry, I'm in this shit, I'm ready to take yo bitch And I raid, you can call me Danny Cascade 'Cause the way I slip and slide, but I'm not Trick Daddy My reside be the beats Pop that just like police I beat it, nigga, I beat it up-</t>
         </is>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>5 Days</t>
+          <t>Analyze Deez</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>40 points! Glass on the toners Ice? It's on a flash card Flash Gordon, Flamboyant, hot on boil You like boys I pull up in the boysenberry Benz Hot way back when You was hot way back when Boys to Men In the menopause You wanna see the men? And then you pause I make a all time Snatch your body, family, mantelpiece Pull up in the Mickey Mantle fleece Wood wheel unleash You standardized I got under stand, capiche? I pull up with the tires hot They on fire Cheeks scorching hot I pull up in the torch Benz Pull up in the Wheels of Fortune Rap game Pat Sajak In the black Maybach With no braids Braided up? Yes No snap back Why they wanna stress me out? Piece and chain re-lying on my chest Now they want to spring test Spring up toaster Pull up in a drop top Testarossa Glock out the holster 5 days out the week My picture on your sister's poster Black Amorosa It's a cold, cold world It's a cold, cold world Used to turn boys to girls Now I pull up in the bowling ball swirl I'm on bowling lanes I got propane I'm on fast flames Fast track train Uh! Fast track train I'm in a Lamborghini You in a fast track Amtrak I live the life of a tampax Tampon, go to sleep Leave the lamps on Leave the... Leave the, leave the amp on Speakers blown Now you pull up with the equinox Leave the Eclipse on Leave the, leave the Mitsubishi I pull up in Tahiti I give you the heebie jeebies Leave the trunk open Leave the trunk, super-soak them I went asleep Woke up, the beach was in Oakland Open Open Ocean win I got Ocean Spray Pour a four inside a Taaka Taaka vodka You ain't liked a lot You lookin' like a lobster I pull up, you ball blockin'</t>
+          <t>Ayy, Nyyjerya, these boys inferior, black interior Exterior only mirror the street I'm peering on The street lights keep on reflecting just like my street life The heat tight, I see the enemy, tell 'em keep right I creeped up, thought you was hard, now you a seeker Titty soft, it be a holocaust for the Häagen-Dazs I want the cream, cheddar cheese and chettufine The game is greedy, nigga I'm lookin' for linguine Got two guns, two pacs, that's Afeni I got my angels, my demons, omens, they never leave me Don't believe me? I administer the minister 9 milli' is the finisher, death is your visitor Told the driver that the time was now, so let's be ready Bust it like confetti, leave a nigga noodle, no spaghetti On the street, I let 'em know the SZN don't play, dog Couple weeks later he was found with a stray dog Eatin' out his brain, left a couple remains A couple of maggots on his chain with his face on the grain See police they tried to figure out the motive or aim Then they go back to the hood and try to figure a name Where was who when the what happened? Where was you, in the what caption? Good cop but he's bad acting, bad cop but a good partner One step got too close, two steps and you're back farther Back to square one, honey got her hair done At the salon with bitches talking 'bout Solange I told her I'ma go undercover just like I'm Bond, James Look for the shooter just like Lebron James Had to be careful, I switch the hairdo One false move and I'll be staring down the barrel Three suspects dressed in all black apparel They got on the scene, got away clean, so sterile I got the analysis when I got a couple hints The mastermind behind it all, he ruled with a iron fist Address him as the Lord, a.k.a LoRd Lu C N The brother on the side of him, he always has a grin That's Zeltron but people call him 6 Billion Switch like Chameleon, numerous affiliates Put them both together now they look like Ferb and Phineas This could be the people that be leading out the syndicate African, name for a dame, Nyyjerya The empress with the wickedness, cut your ligaments No emphasis, so mysterious, only one missing is Is the one who didn't take the Fifth for making him a squid2</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>95 TIL I DIE 94 TIL I GO</t>
+          <t>Angelz (Cold Blooded Soul Version)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Yeah, yeah, what it is, what it is It's 2010 and I was born in 1995 See, my dawg Halo, he was born in '94 So I'm just gon' do What we do 'til I go, you feel me? Slice your ass up like Jedi master They call me but I ain't a pastor Any nigga get it twisted might end up like Caspar Niggas asleep, well, the kid is nightmares I'm the flyest kid ever, like straight out of Con Air Don't flare 'cause the next man might need a spare It's not a joke, bitch I don't shoot, I make tricks, my words too real for fake shit Five hundred all in the same chain And they like What the hell? at the show, House of Pain And I'm not but I'm on a manic train And y'all niggas need to stop, put you to sleep like Mr. Spock And this the entrprise, why y'all lookin' at the sky? I must be the truth 'cause y'all paralyzed I am the king looking for a queen This is self-attested just like the thing This is like a movie 'til it stepped on the scene There ain't no whips when I'm lookin' for the cream With a AK-47 so test my regime Don't mess with me 'cause I'm a murderous machine I flow like a sailor, and I beep like a pager I hang with little West but I wouldn't fuck with Taylor Not even with two fingers Mystical, I'm in danger, seeing colors like the Power Rangers Niggas is like petro 'cause my shit is too retro A long distance like metro Homie, I'm too real on this mass appeal Too real on this mass appeal, I'm gone '95 'til I die Yeah, hah, Halo, nah Listen, I'ma let the clip slip then Bullets attachin' like the vision Ain't nobody stayin' alive when my shots in precision Will I stay hot like I'm cookin' in the kitchen? Dead bodies drop like noodles, instant Life goes on, proceed, progress Everybody die, who might go next? Tears fall down then you take a deep breath But anyway, my voice like I'm screamin' in a Money longer than a city-state Your bitch wanna penetrate, three girls with me I should've played a , 'day, 'day, 'day, yeah '94 'til I go, ho I have a dream that one day down in Alabama, with its vicious racists, with its governor having his lips dripping with the words of interposition and nullification that one day right down in Alabama little black boys and black girls will be able to join hands with little white boys and white girls as sisters and brothers. I have a dream today.</t>
+          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jhovah judge me on my flaws My word is law, forevr stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm getting tired of the bullshit Can't keep spinning Angels keep singing, guide me through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those the good book opposes Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm getting tired of the bullshit Can't keep spinning Angels keep singing, guide me through all this Angels keep singing, angels keep singing And a 3, 2, 1 Play me out y'all Keep it goin' One more time One more time One more time</t>
         </is>
       </c>
     </row>
@@ -4551,12 +4551,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ACT A DAMN FOOL</t>
+          <t>Angelz (Live At Electric Lady)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall When the sun begins to dim And eventually the day dies And the mood prepares to sway That's where another way lies Glow of the liquor store lights Set the scene for no rights Let's convene, discuss the scheme And hope it flows how we dream Tonight can make or break you if you let it Someone set it out for you to let it out Now don't regret it Get embedded to the back drop Positioned there with your cash crop Envision night as the last stop Don't miss the train It's time to gain, strain, aim, fire Blame, reign, fuck and then retire I'm liar past eleven, after one I'm on the run Till the sun comes up tomorrow I'm working, you're having fun Not too devious, but that's me Spontaneous if you ask me But then again, I'm blending in Step to the beat, walk to the beat Talk to the beat, live to the beat Rock to the beat, fuck to the beat Dance to the beat, pay to the beat Fight to the beat, you get l-l-lost to the beat Police walk the beat, kill to the beat Steel to the heat, terrorize kill no retreat Prowl to the beat, how did a V-O weak scandal oh spray vandal Walk the streets I hear footsteps on the streets Someone's following me on the streets Like racism on the streets Can't even have a new car on the streets Police prowl on the streets They got you sittin' on the streets Runnin' ya L's, what in the hell? Runnin' on tell, they see a black man they get scared as hell Like did somebody escape from jail You feel em' prowlin' when you walk in some rooms When you walk in, like boom! I wanna just break shit, I wanna re-create shit I wanna take shit you say and use it against you Act a damn fool like crackheads do Like your mama do You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall Dusk, thus the beginning is on until dawn Trust regardless of the daily Really nothings wrong I'm still breathin' and here's another evening From the fortress I leave for my course of tonight's achievements There's no grievance in my pocket Just a couple of dollars, a pen and hopefully my wallet Because my man over here has got the hook up at the front door Long as my ID's right what more could they want for? Yeah we in there Like fluoride, off the wall on the left side A room full of pride, I'm consumed by the tune applied This fuckin' DJ is tight man I can already feel the minutes being added to my life span MC Lyte paper thin drink tickets from the staff Now it's time to make a friend and see if I can make her laugh Hey princess, I got a lot of dialog So I'm gonna line it up for you to get high and try to follow Light up another false sense of security Play a game of twenty questions You can test my purity And as the world comes down on me And as I go down on her... night prowler I'm out when the freaks come out Way after dusk After the time when the opening acts get they time to bust The nightshift I prowl and observe like the owl Surroundings minus the scowl Wise and well endowed In the mental! Well renowned Ghetto pass every town PSC! Nice 2 meet you, oh you know about this wow! Your ex-boyfriend showed you all about this how? Can I thank him for training such a beauty It fits my style Compliments exchanged Plus 5 dollars change Signed my name on the poster And I kept it in the holster like I'm supposed ta Now, what would you do in the clutch If you get a pussy hug after dusk? You don't know me but you'd like to Why'd you think I stood beside you? Not concerned with how this might fall Nature become prowl at nightfall5</t>
+          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jhovah judge me on my flaws My word is law, forevr stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm growing tired of the bullshit I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those, the good book of posers Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch What did you say? Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm growing tired of the bullshit Motherfucker I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing</t>
         </is>
       </c>
     </row>
@@ -4568,12 +4568,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>African Samurai</t>
+          <t>ANOTHA LATE NITE</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Blood-stained katanas, Black man from Ghana I battle over my honor and guided by Nobunaga The power in every kata has channeled most of my Oni Years later, ended up scarred, broken and lonely The sword I touch been cursed by memories of war Every stroke from the blade left the enemies floored Challenge the lord who could afford to buy your life, clearly Let you commit seppuku, not worthy of hara-kiri Forty-five, battle-side, get ready to die Over pride, commit suicide, standin' right behind With the steel, noble samurai to the naked eye I'll decide if you stay alive, hear my battle cry, motherf Oh-eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh Huh, eh-eh Eh-eh, eh-eh Eh3</t>
+          <t>Yeah, babie...we still freakin...Freakz Pt 2 Play N Skillz Man, I wish they could free Pimp C man, so we can see all these freakz out here Pitbull, Pitbull, Bun B, Bun B, part 2, part 2 There's so many in this world babie...pick choose remix Bun B 2 be getting his creep on... In tha bedroom getting his freak on... Twist ya body up in all different kinda positionz rite now really can't speak on But I can sho ya betta den tell ya... Let it go gurl u kno I won't fail ya... We can bust til we both stop count no more... To the top of the moutain like Mahailya... Like dro let me inhale ya... Deep in the chest, deep in the lungz... Switchin sex in between dem sheetz, I'm keeping u wet, keeping u sprung N I luv it when u licc me babie... From my head 2 my feet with ur tongue.. Rite now I ain't even scared 2 say it...U make me complete, ur the 1 So, don't be scared 2 let ur hair down C'mon take this ride...Let ur inhabitionz go... release the freak Nside I can take u where u wanna go...I can show u whatchu wanna see I can give u nething u want...Letchu be that freak u wanna be Just keep dancing like that n front of me... The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u on the counter, freak u on the table... Freak ya rite now cuz I can't wait 2 freak u later... Yeah, yeah, yeah...Skillz I still don't wanna...Licc, licc ya...ya'll know Get what I want, neva trick my doe Cum to D-town, pimpz...gotta lotta hez All around the globe, in different area codez I mite sticc 2 1, but not 2day cuz I luv my F-R-E-A-K-S... Yes, believe I got em I got so many u would think I bought em Cum str8 2 the point...my time to clown Lemme kno from the gate if u luv that sound... If so, I can turn it down, turn it down....Bring it bacc!! Thank God, that the world has so many freakz that know how to wild out if they got a man on the low, but believe that they proz they kno how 2 hide out Everybody want a freak 2 freak wid...Pitbullz the Latin version of freaknicc So...dale loca y habre la voca U know what 2 do...there ain't no rulez n a freak game If u like ur hair pulled, then ur azz slap, den hit it from the bacc Then let it B known, all the mamaz that think they 2 good 2 get freakie Ya'll betta B gone...But, C 2 play this game...Ya'll gotta play, play wid skillz Is dat little Chiko Pitbull from the bottom wid dem boyz Play N Skillz.. Encouragin all the freakz 2 get out get, get, get, get freakie... I'm 100 freak ...Just looking 4 a freak that can get wid me... Player... Yeah, I'm da playa , the playa 2 call 23'z, I'm the playa that ballz So many freakz tha attractz dem hataz Da boyz a pimp, but not in gatorz I'm da man N the 2 man band Had 2 share a freak when I went 2 Vegas Got a Latin chic that call me papi Got a black chic that'll put it on me Got a white chic that'll give me brain So good that I swirve the lane U want it from the bacc, I can do that 4 u U want it all nite, I can do that 4 u Got 4, 5 chix, yall kno my stee 4, 5 chix for my boi Bun B 4, 5 chix when they free Pimp C Got 5 otha chix from the 4-1-3 My pimpin game is on anotha level My watch gage is on anotha bezel From DMX 2 club levelz the Roxy Club, they down 4 whateva.. Cuz I can freak a freak about tha freak den pass it to Pit so he can freak Den pass it bacc to da rest of da crew and this is how we do it on freakz part 2 Play N Skills The world has too many freakz... adina Howard Ohhhhhh... I'll take my t-shirt and my panties off... I want chu to freak me in the mornin... We can do it anyway u like...In the shower, on the counter, every hour</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4585,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AL1ENZ</t>
+          <t>Aquemini</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Oh ! Les bras en lair, ça peut tuer I am the best rapper alive Je suis le meilleur rappeur français en vie Brah ! Forever Young, allez viens on temmène, Forever Young On les emmerde, un million dproblèmes, on les enterre On veut être millionnaire, Forever Young, levez les mains en lair Jmène ma guérilla, cest du Alonz Je viens des cités dor, je ne veux pas dbronze Cest la Black Machine, chicha qua le goût résine Je vaux 1 milliard en kidnapping Et cest le retour de K.A.S.S.I.M PIMP ! 2 milliard de clip sur Google Chine, wallah reste tranquille La baraka même sous bière fine Jcabre Saint Antoine, Bougainville À deux doigts davoir les cheveux longs défrisés comme les ptits dma ville Click-Click PAH ! PAH ! Cest moi qui tire, mettez-vous dans la file Tapage nocturne dans ta cité Lalbum est sorti, les 3.2 écoutent papé Bourricot ouais jsuis au top, je suis prêt à mettre les gaz Quel corps sur le sol sera dessiné Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Jvais les fumer Motherfuck jai la santé, les couilles à Béné Belafomouk, je suis sur la route, jarrive au taquet Poussez, poussez Ajax, Tottenham Fenerbahce, Hooligan No Limit, Menace de société Et sucez-nous la bite, on arrive, ça va péter Ça va péter ! Campeón Campeón !, popular On a affrété un jet, avec deuxtrois chars Deuxtrois chattes mais je suis le Capo dei Capi Jachète larbitre et le match, appelle-moi Aulas ou Tapie Wallah recule sinon jappuie, jsuis Marseille mais en pleine forme Plusieurs Luciano, Alonz', imagine lalbum Monstre, jai la frappe, jai le seum, le bon, celui qui t'explose Jvais mourir en studio par overdose Cest la nuit dnoce, le rap français jvais lui fourrer Direction Las Vegas, jvais lexporter, hors de portée Dans les cordes, loreille je vais lui mordre Jai 2054 raisons denculer la concurrence, vous verrez, vous-verrez, vous verrez Game-Game Over ! 1</t>
+          <t>Yeah, hahaha Young Reela, baby You know what it is Hahaha Yeah, man I'm in the booth, man, it's an ongoing slaughter Workin' hard and I'm writin' like a hard-working author Stress and pain's the emotions that I go through This ain't real I laugh and say, I told you I ain't going nowhere, swallow my pride Adjusting in my feelings, man, man, I ain't gon' hide I never felt quite like this before I knew a hit was gon' happen like this, you know I contemplated and elevated my Realer got everybody singin' it Because I'm on a race I'm on it now, I'm with no He really loves you? Yeah, that's what he say I turn him to your ex-man, huh, Jean Grey Tell him, Get lost in a mean way Never leapin' to success, man, no Green Day You see me, I'm on a high rise Like Curry said, I'm sky high My high, man, they wanna give me a mug I'm so high up, 'bout to give a comet a hug I'm a dawg though, chillin' with my cats Well, y'all about the chase, but none of 'em is rats They keep it one hundred, do what they gotta do And make wonderful music when they jump in the stu' I'm feelin' like a black republican I'm tumblin' and bubblin', I'm manglin' the money And you got comin' in, I level it, I'm lovin' it, you lose money You gon' fumble in, I'm bucklin', you sniffin' in, I'm stuffin' it In my safe or in my wallet I got 'em hypnotized, R.I.P. to Chris Wallace No colors with the Curry, go get 'em, man, hahaha Yee, Curry 'bout to flow like Aquarius Shit, I'm blowin' up, you could call my ass a terrorist A Taliban, my flow scary like the ring Snap like a pregnant bitch with mood swings No Bun B but I'm the underground king Still grippin' grain, I got nigga dreams Snap at me, you know I'm 'bout to snap back And I'm the hot shit like Satan's asscrack Most of these niggas really really can't talk And I run this game like a fuckin' Xbox I ain't CeeLo Green but homie, fuck you And Curry's the real one like the 2 Live Crew Yes, little nigga, I'm ballin' like a piston I got wasted dreams, he got kush visions Rollercoaster shit, got a writer ambition And let her hear the pause like a short intermission This is Chevy music in the lanes that you switchin' Nigga, I'm good like Popeye's chicken Me and the real yay, you know we go hard And I'ma ride out like a fuckin' bust car, yee Even when the sun goes down Heroes eventually die, horoscopes often lie And sometimes why nothin' is for sure, nothin' is for certain Nothin' last forever until you close the curtain It's him and I, Aquemini It's him and I, Aquemini, yee</t>
         </is>
       </c>
     </row>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A Life In The Day Of Denzel Curry</t>
+          <t>Art Of God [S.4.M.R. Intro]</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Raider Klan, strictly for my Raiders A life in the day as Denzel Curry Okay, it's five in the morning, crack of the dawn and I'm yawning As I just reminisce when me and my cousin used to roll a swish Pussy-ass niggas they act like a bitch, they say I wasn't gon' be shit 'Cause the words I choose to use was just so damn articulate I paint a picture with the scripture my father gave me Went to yelling niggas and bitches and how you wouldn't play me But after my granny passed that's when a nigga grew heartless Run up in the nigga house and shoot the shit like target Get it? With a pen and a pad and I was quick with it Laying down on the back end so me and my niggas could rip it But by then, we broke up, reality hit and I woke up Each and every day, I take a smoke and I would choke up Now it's over, I keep a conscious mind ever since I went sober Stopped speaking of happy times, I wasn't in Range Rovers A few months later I had a chat with Dece Yeah, Mike Dece, a real Posh OG Talking about this rapper that came out the CC Carol City's own folk, yeah, I'm from the Zone 3 Simmie, well Andrew straight out of Myrtle Grove Came a fan to a friend, Raider Klan across the globe People raising eyebrows, think my songs is devilish Know it's quite rebelish, plus my talent's Heaven-sent, ferno Creeping with the flame so they can burn dro Or probably in the Jaguar, bumping while they ride slow Now listen, no need for the hating niggas Wasn't here before but then arrived so you a fake nigga Now my Facebook and Twitter's full of compliments They scream Aquarius'Killa, now triumphant, then accomplishments That's as far as I got on my verse Synthesize, realize, life's no game Synthesize, realize, life's no game Synthesize, realize, life's no game Synthesize, realize, life's no game La-la-la, la-la-la, la-la-la La-la-la, la-la-la, la-la-la A life in the day of Denzel Curry2</t>
+          <t>Yeah, welcome to Blvcklvnd Rvdix 66-point-motherfucking-6, nigga We're gonna be interviewing Raider Klan's own Denzel Curry This broadcast is for the minds in everyone So get your 40's and your black boats Get your stylez teas, get your blunts, and get your brew, get your lean 'Cause we're 'bout to go deep, we 'bout to go real deep Into the minds of one of the youngest MCs but yet intellectual Everything that you heard from the verse to the stage Why did you sleep on it? Man, you'll see Strictly for my Raiders that be up on the block Runnin' niggas one deep when they servin' the rock Just to start a revolution where niggas poppin' a cop Liberating my mind, as I goes in the drop top Keep your finger on my trigger Like 2Pac, this is strictly for my niggas Rest in peace from me 'cause up in person you a nigga Like me, just tryna get richer, uncle Tom ass nigga I don't know what's worse My generation's lost so they end in a hearse Fuck this life 'cause my skin's not a curse Although we is hurting, what's the is my birth Reason this written because risen by the Earth You die in the crypts, before we be, 'fore a devil is paying attention to the birds America's lying because they know the truth hurts Might live to all the My king is a , I'm the king of I'm the king of , this a king's verse This a king's verse, this a king's verse This a king's verse, nigga, this a king's verse Strictly for my Raiders, nigga Strictly for my Raiders, nigga Strictly for my Raiders, nigga Strictly for my Raiders, nigga</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Always With Me</t>
+          <t>Assisted Death</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Its that ultimate Beast Coast shit Ronny J, listen up Hold up Corleone stepped in With a brand new swank, no smoke section But a nigga still lit Got apes with a case for banana clips sitting by the money on the safe But I will bless them, like I been sneezing Im sick with the lyrics, my season they season Your season is food, beef I will cleave it The love that they showing been broken like Cleveland I went from a Wolf to a Cavalier Now my name ring bells through the stratosphere Over here where the Crips and the Bloods be Be the place where the boy grew lovely Now we off free Henny with the bubbly But dont touch that bottle my nigga trust me Thats Patrón and I be blowin on strong Cause a nigga still stressed cause real shit going on Like why are my people dying? Why are those bullets still flying? They just killed my nigga Spazz So I spazzed the flow like water Poseidon To unslave your mind for real I dont do it for the money never do it for thrills I really tryna put on for all my niggas who down My niggas who would paint a nigga all red like clowns My pack by the pound, they pack for the sound Then I flip a verse, move swift through your town Hit up Curry then its back to the Crowne That something that we out finna take for the now Or maybe 'til forever my nigga Junior B said I gotta make it heaven my nigga For my people that's with me, riding like shuttles Carol City to the Borough we thorough U to the L to the T for eternity This is my brotherhood not a fraternity Any emergency within an urgency Its going down choppers going up vertically Copying governments we're never governing Lead a rebellion thats me and my covenant Oh, man, I came out the boat from the ocean They say that my people's the omen Oh shit switch, ultimate is back Two-dont-know Cadillac, on the cul-de-sac Bumping Project Pat, sipping Cognac Cultivate the pack, one day might collapse If you might relapse from the dopest raps They dont sit and crack, bitch Guns might blow you off the atlas, shit Sometimes I cant see I just make my enemies bleed Oh my God, I, I cant breathe My nemeses out, be forever ULT But then again Sometimes I cant sleep I cant get you outta my dreams Who am I? Im the unseen Thats my reply Just know you just know you always with me Oh my God Yeah Nigga Yeah we really out here C9 to the Beast Coast Carol City to Brooklyn You feel me? Sometimes I cant see I just make my enemies bleed Oh my God, I, I cant breathe My nemeses out, be forever ULT But then again Sometimes I cant sleep I cant get you outta my dreams Who am I? Im the unseen Thats my reply Just know you just know you always with me Oh my God2</t>
+          <t>Yeah Yeah, yeah Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl Destined to be here with you It goes like this, a cloudy mist You were interesting, I was interested And eventually, it turned into this No more bitches with me I'm solo now I can't hurt no more I'm too wavy right now I'm going brazy in the sky And my brain will never lie Memories never die But you will, and so will I Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl Two more puffs I'm gone with the wind I am a ghost, off in the wind Sometimes I think I might need therapist Therapeutic, no I cannot compute it Computadora, downloader loader So I can get everything that I desire Passion and fire I can make anything happen my nigga Just call me MacGyver Call up G-O-V Where it stays on me Mr. U-L-T, that's me Whatcha wanna do Whatcha wanna be, like Just like a zombie I come back alive I'm Frankenstein, out of my mind Keepin' my vibes right When my soul large, star, bright, bitch Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AMBERS FINE ASS</t>
+          <t>BABE AND I</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Woo, woo Woo, woo, ooh Oh, yeah-yeah, oh, yeah-yeah Oh, yeah-yeah, oh, yeah-yeah, yeah-yeah Woo, woo, woo, woo, ooh Woo, woo, ooh Oh, yeah-yeah, oh, yeah-yeah Oh, yeah-yeah When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, tell me what you feelin', babe You're picture perfect beyond discussion, no repercussions My inspiration to seek elevation like it's nothin' Only eighteen who would think that you pop one out the oven You're like my weakness, a distraction from this constant thuggin' I love your energy, when I'm without you, wish I wasn't So I could penetrate you slow, another introduction To me I'm baskin' in your presence, to you we just fuckin' You made it easy to be loved, to have you, I am lucky I'd rather have you closer to me than my other lovers Sometimes I regulate my feelings so you don't feel smothered And it's a shower of your blessings, wit' your love I'm covered No matter what hard times life brings, I know that I'll recover Because I love you, babe, heaven knows how much I love you And you know that I never put no one above you You're my number one, you're my number one You're my number one Yeah, yeah, yeah When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control When you smile at me, its alchemy our love is gold More precious than any mineral the cosmos can hold I'm in love with your beauty, body, essence and soul Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Woo, woo Tell me what you feelin', babe, let my lovin' take control Tell me what you feelin', babe, tell me what you feelin', babe Woo, woo Hey dude, what's the deal though? Like for real, though? Babygirl, lay down, put yo head on my pillow Let me just hit that pussy from the back and I make that sound Go pit-pat on your pussycat Babygirl rollin' all over and she feelin' that fat cock all in her Ruben Slikk stack nothin' but Sellin' that cocaine, yes, this shit look just like splinters Babygirl, know she cummin' Nuttin' all up on my face When I'm lickin' the pussy and the clit of that beautiful woman And yes, I'm passin' it to the Curry The Curry that receives I came in this girl, and like I best believe That I will be the one of the niggas who cummin' up in that pussy Denzel the Curry givin' that kush, I'm makin' her gushy Wait, hold up, no need for that Viagra Turn her pussy into the falls of Niagara If you don't get that, get yo bitch wetter Fuck that, I'm not no Twista, but I could do it better That nigga that do a dot, I'm bumpin' in my fuckin' whip She poppin' that pussy like she just damn popped a clip Poppin' it like it's a trigger Curry, I'm rollin' up swishers Them niggas don't wanna go get it wit' us She said come over here and your face you bust So goddamn, this girl want it in her mouth I told her, Come here, and please go down south Yeah, I'm nasty wit' it, don't take kind to the threats Wait, hold up, Denzel Curry do take kind to the breasts So I'm puttin' my face in them titties Goddamn, them titties Oh my God, them tig ol' bitties Denzel Curry, I'm in this shit, I'm ready to take yo bitch And I raid, you can call me Danny Cascade 'Cause the way I slip and slide, but I'm not Trick Daddy My reside be the beats Pop that just like police I beat it, nigga, I beat it up-</t>
+          <t>They say we're young and we don't know We won't find out until we grow I don't know if all that's true 'Cause you got me and, baby, I've got you Babe I've got you, babe I've got you, babe I've got you, babe They say our love won't pay the rent Before it's earned, our money's all been spent Well, I guess that's so, we don't have a pot But at least I'm sure of all the things we got Babe I've got you, babe I've got you, babe I've got you, babe I got flowers in the spring I got you to wear my ring And when I'm sad, you're a clown And if I get scared, you're always around So let them say your hair's too long I don't care, with you I can't go wrong So put your loving hand in mine Ain't no hill or mountain we can't climb Babe I've got you, babe I've got you, babe I've got you, babe I've got you to hold my hand I've got you to understand I've got you to walk with me I've got you to talk with me I've got you to kiss goodnight I've got you to hold me tight I've got you, I can't let go I've got you to love me so I've got you, babe I've got you, babe I've got you, babe I've got you, babe</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Analyze Deez</t>
+          <t>Babylon (Good Times Ahead Fatality Remix)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Ayy, Nyyjerya, these boys inferior, black interior Exterior only mirror the street I'm peering on The street lights keep on reflecting just like my street life The heat tight, I see the enemy, tell 'em keep right I creeped up, thought you was hard, now you a seeker Titty soft, it be a holocaust for the Häagen-Dazs I want the cream, cheddar cheese and chettufine The game is greedy, nigga I'm lookin' for linguine Got two guns, two pacs, that's Afeni I got my angels, my demons, omens, they never leave me Don't believe me? I administer the minister 9 milli' is the finisher, death is your visitor Told the driver that the time was now, so let's be ready Bust it like confetti, leave a nigga noodle, no spaghetti On the street, I let 'em know the SZN don't play, dog Couple weeks later he was found with a stray dog Eatin' out his brain, left a couple remains A couple of maggots on his chain with his face on the grain See police they tried to figure out the motive or aim Then they go back to the hood and try to figure a name Where was who when the what happened? Where was you, in the what caption? Good cop but he's bad acting, bad cop but a good partner One step got too close, two steps and you're back farther Back to square one, honey got her hair done At the salon with bitches talking 'bout Solange I told her I'ma go undercover just like I'm Bond, James Look for the shooter just like Lebron James Had to be careful, I switch the hairdo One false move and I'll be staring down the barrel Three suspects dressed in all black apparel They got on the scene, got away clean, so sterile I got the analysis when I got a couple hints The mastermind behind it all, he ruled with a iron fist Address him as the Lord, a.k.a LoRd Lu C N The brother on the side of him, he always has a grin That's Zeltron but people call him 6 Billion Switch like Chameleon, numerous affiliates Put them both together now they look like Ferb and Phineas This could be the people that be leading out the syndicate African, name for a dame, Nyyjerya The empress with the wickedness, cut your ligaments No emphasis, so mysterious, only one missing is Is the one who didn't take the Fifth for making him a squid2</t>
+          <t>This shit is GTA, bitch! Hey! Damn Damn, damn, damn Yeah Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! It is the ultimate Myrmidon From the land, which is the city of Babylon Dreads in my hairs, dont confuse me for Cinnamon I'm one of a kind, as I grow like a Digimon When I'm evolving, not many books Many revolvers, no problem solving Illegal tendencies, infinite symphonies Illustrate misery, living on infamy Infamous Lord If you come back from the dead, you will go back to the morgue I'll hunt you like Sun Tzu, so better be humble Don't make me, I'm Wesley in the Art of War Soar, synonym, you will be flying Truth, antonym, I won't be lying Bruh, ain't no hakuna matata 'Cuz, you shouldn't fuck with a lion Damn Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! I might run up on a nigga and I-I-I might run up on a nigga and I-I-I-I-I-I-I-I-I-I-I-I-I-I- I might run up on a nigga and I-I-I-Damn I-I might run up, run up, run up You making me sick Yah! I-I-I-I- I-I-I might run up on a nigga and I-I-I-Damn I-I might run up, run up, run up You making me sick Yah! I-I-I-I- I-I-I might run up on a nigga and Clique! Damn Yeah Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! Damn</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4670,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Angelz (Cold Blooded Soul Version)</t>
+          <t>Back in the Dayz</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jhovah judge me on my flaws My word is law, forevr stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm getting tired of the bullshit Can't keep spinning Angels keep singing, guide me through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those the good book opposes Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm getting tired of the bullshit Can't keep spinning Angels keep singing, guide me through all this Angels keep singing, angels keep singing And a 3, 2, 1 Play me out y'all Keep it goin' One more time One more time One more time</t>
+          <t>Hook Rellhoe I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga Verse 1 Nell Stepped on the block Everything is still the same But Niggas changing by the clock Its just a new day Matching two J's John J say he got the dropp And we copp Kickin' it on the weekend Keepin up in the clouds Wondering why my niggas hanging by the block But it ain't like back then Cause its different when your niggas missin' Niggas be keepin they distance But we aimin for the cop As we stroll down the road That we been chose Niggas ten toes'in As we exposing The niggas fakin' the phonk So the nigga trunk music Getting in to it I buss you head when bump So whutchu want? Hook Rellhoe I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga Verse 2 Denzel Curry Running and yurning The blunts I be turning Rollin and smoking And Niggas is choking And Curry take another sip of the potion I'm taking your bitch And I got that bitch open Like Screen doors My brother is rolling in green doe Selling that shit like green ? ?? Niggas with ?? Check my stilo My ego ?????????? So where is the bud? And bring enough sex For my brother and my Cuz Put a dime, and a nickle Situation got me pickled I'm a ball, yeah high with your bitch And get all up in her draws Plawing roo-raa in that Charday Told that black goddess Please Bring that pussy my way So I can just slay it I dont really play it I don't really give a fuck Denzel Curry on that fway shit Hook Verse 3 Rellhoe NaNaNaaNaaaaaa Now have you ever stepped on the block And been totin' the Glock While the cops lurkin' low All this dro' gotta go-go-go These hoes be schemin' Triflin' chasin the green That you earned from the fiends They might let you fuck But ahead for the team Do you know what I mean The pimp in me It be the real deal Feel where Im from Blackland, Carol City You side with goons come out And see ring-ding-ding ?? Hit the floor Flopping yo' ho From back in the day Yo ????????????? They already know I put that Mac down Smokin yo town Get down to the funk I lived how you want2</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Angelz (Live At Electric Lady)</t>
+          <t>Bandoe</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>I spent my whole career lookin' for validation Chasin' women that use pussy for they persuasion Chained to my vessel, saw freedom in meditation Usin' medication would make the perfect escapist They unprestigious, I got angels in my allegiance My demons would look for sin like junkies feelin' fiendish The meanest streets I walk in, these size elevens I stalk Not carin' if I'm rich or if I'm surrounded by chalk I could either live like Jay or die like Jah Alhamdulillah, let Jhovah judge me on my flaws My word is law, forevr stick to the code Stay bold and to switch it up when things grow old All I have in this world is my heart and my soul Lay my life down for it 'cause they both made of gold Twenty-four karats, twenty-five and countin', twenty-four hours Days not promised, but for now, never send flowers I'm growing tired of the bullshit I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing I spent my whole life lookin' for validation In today's age, it would've led to my cancellation Damnation for those, the good book of posers Life goes to shit, thinkin' I smelled roses Friends turn to foes and foes end up frozen Actin' like my day ones, nigga, you're just posin' Niggas gettin' coked up and act like they slick Smile in my face, then go and pillow talk to a bitch What did you say? Word got back to me, so it is what it is I don't fuck with no man who don't take care of his kids Off-topic, out of pocket, all these niggas is trash Fightin' for crumbs of fame and some thot with an ass, fuck 'em Plan, plot, strategize, it's the task, I realize, right before I bomb first You don't gotta love me, respect me, and fear me And yes, you gotta fade me if worst come to worst 'Cause love could get you killed, playin' the victim get you bullied I passed God's test, understood life fully The wing-ridden angel, the horn-hidden demon The day I go to war, this is the song I be singin' The song I be singin' I'm growing tired of the bullshit Motherfucker I keep spinning Angels keep singing, gotta get through all this Angels keep singing, angels keep singing</t>
+          <t>Yeah, yeah Got the beat by Powers, and we just made a banger Yeah, yeah Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Was in jail, now I'm finally free, in Cali smokin' Cali weed Got that shit you wanna see, I'm that nigga that you wanna be Deep in the streets, it's like the sea, with Curry countin' currency Got that .30 on me, I can't let a nigga Curry me Won't let these niggas worry me, won't let these bitches Tory me In that white house, motherfuckers ain't gon' Cory me I am in the 'yo now, I got Hector, he recordin' me The industry ignorin' me, but the streets supportin' me Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Ran out of bullets, so I beat him with the handle Big gun, big knife, I feel like Rambo Might just drop a sex tape and start a scandal She be squirtin', I guess I know the angle Threesome, it takes two to tango But they way too clingy, think we need to entangle Since she fuck with me, her whole life been in shambles But I handle with care if she fragile Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Niggas know this block is hot, so I'm movin' in hot pursuit See my money skydive from the top, I swear it parachute I got troopers that got Rugers, I got cougars down to fuck Even when my racks is up, I always say it's not enough Damn, listen to the sonics, hear the tales of the struggle Had to run the streets with guns 'cause they ain't runnin' with knuckles Niggas think this shit a game, only pussy niggas, lame Got the money and the fame, and I always been the same nigga Haan Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Woo! Life is great, business is boomin' Bitches is fuckin', chickens is cluckin' And we're back on top, baby That humble shit? Leave that shit in 2023 Let these lil' niggas know</t>
         </is>
       </c>
     </row>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ANOTHA LATE NITE</t>
+          <t>Big Brother Snap!</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Yeah, babie...we still freakin...Freakz Pt 2 Play N Skillz Man, I wish they could free Pimp C man, so we can see all these freakz out here Pitbull, Pitbull, Bun B, Bun B, part 2, part 2 There's so many in this world babie...pick choose remix Bun B 2 be getting his creep on... In tha bedroom getting his freak on... Twist ya body up in all different kinda positionz rite now really can't speak on But I can sho ya betta den tell ya... Let it go gurl u kno I won't fail ya... We can bust til we both stop count no more... To the top of the moutain like Mahailya... Like dro let me inhale ya... Deep in the chest, deep in the lungz... Switchin sex in between dem sheetz, I'm keeping u wet, keeping u sprung N I luv it when u licc me babie... From my head 2 my feet with ur tongue.. Rite now I ain't even scared 2 say it...U make me complete, ur the 1 So, don't be scared 2 let ur hair down C'mon take this ride...Let ur inhabitionz go... release the freak Nside I can take u where u wanna go...I can show u whatchu wanna see I can give u nething u want...Letchu be that freak u wanna be Just keep dancing like that n front of me... The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u in the morning, freak u in the evening, freak ya late nite The world has too many freakz... I can freak u on the counter, freak u on the table... Freak ya rite now cuz I can't wait 2 freak u later... Yeah, yeah, yeah...Skillz I still don't wanna...Licc, licc ya...ya'll know Get what I want, neva trick my doe Cum to D-town, pimpz...gotta lotta hez All around the globe, in different area codez I mite sticc 2 1, but not 2day cuz I luv my F-R-E-A-K-S... Yes, believe I got em I got so many u would think I bought em Cum str8 2 the point...my time to clown Lemme kno from the gate if u luv that sound... If so, I can turn it down, turn it down....Bring it bacc!! Thank God, that the world has so many freakz that know how to wild out if they got a man on the low, but believe that they proz they kno how 2 hide out Everybody want a freak 2 freak wid...Pitbullz the Latin version of freaknicc So...dale loca y habre la voca U know what 2 do...there ain't no rulez n a freak game If u like ur hair pulled, then ur azz slap, den hit it from the bacc Then let it B known, all the mamaz that think they 2 good 2 get freakie Ya'll betta B gone...But, C 2 play this game...Ya'll gotta play, play wid skillz Is dat little Chiko Pitbull from the bottom wid dem boyz Play N Skillz.. Encouragin all the freakz 2 get out get, get, get, get freakie... I'm 100 freak ...Just looking 4 a freak that can get wid me... Player... Yeah, I'm da playa , the playa 2 call 23'z, I'm the playa that ballz So many freakz tha attractz dem hataz Da boyz a pimp, but not in gatorz I'm da man N the 2 man band Had 2 share a freak when I went 2 Vegas Got a Latin chic that call me papi Got a black chic that'll put it on me Got a white chic that'll give me brain So good that I swirve the lane U want it from the bacc, I can do that 4 u U want it all nite, I can do that 4 u Got 4, 5 chix, yall kno my stee 4, 5 chix for my boi Bun B 4, 5 chix when they free Pimp C Got 5 otha chix from the 4-1-3 My pimpin game is on anotha level My watch gage is on anotha bezel From DMX 2 club levelz the Roxy Club, they down 4 whateva.. Cuz I can freak a freak about tha freak den pass it to Pit so he can freak Den pass it bacc to da rest of da crew and this is how we do it on freakz part 2 Play N Skills The world has too many freakz... adina Howard Ohhhhhh... I'll take my t-shirt and my panties off... I want chu to freak me in the mornin... We can do it anyway u like...In the shower, on the counter, every hour</t>
+          <t>Yee I'm finna snap for y'all, boy Shit It's little Curry, you don't want me to get serious 'Cause nigga, I snap like a bitch on her period Damn Grippin' grain and switchin' lanes like Fast and the Furious Fuck bein' a rapper, I'm a snapper and a lyricist Nah, I ain't done, you thought shit was all good What? Lumberjack shit 'cause your bitch is on my wood Woo Yes, I'm runnin' shit like the little engine I could And my city's like a jacket 'cause I stay in the hood Damn Seriously Funny like my name was Kevin Hart I'm here to take it back like my name was Rosa Parks Get 'em Nigga, I'm the new shit, why you still in the old part? Yeah Makin' rappers breakfast like a fuckin' Pop-Tart Woo Tell me, what's the difference 'tween a coward and a hero? The coward tells a story and so ends the glory You put it on yourself when you claim that you flashin' Transporter shit, layin' it down, it's just action Every beat I get I'm 'bout to turn into a classic Like Family Guy, I'ma have niggas laughin' Punchlines crazy and they need a straight jacket Mm Most niggas is , most niggas is Relax and take notes from the words that I spoke The words that I speak, different mode, I'm a beast Woo Nah, I ain't done 'til the fat lady sings Nah, I ain't Frodo but I'm Lord of the Ring blocks with Floyd Mayweather Killa I'm here to bring the heat like the sun wearin' a sweater Curry Wait a minute, tell me who could really snap better, yeah Curry Yee Damn</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Aquemini</t>
+          <t>Bipolar</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Yeah, hahaha Young Reela, baby You know what it is Hahaha Yeah, man I'm in the booth, man, it's an ongoing slaughter Workin' hard and I'm writin' like a hard-working author Stress and pain's the emotions that I go through This ain't real I laugh and say, I told you I ain't going nowhere, swallow my pride Adjusting in my feelings, man, man, I ain't gon' hide I never felt quite like this before I knew a hit was gon' happen like this, you know I contemplated and elevated my Realer got everybody singin' it Because I'm on a race I'm on it now, I'm with no He really loves you? Yeah, that's what he say I turn him to your ex-man, huh, Jean Grey Tell him, Get lost in a mean way Never leapin' to success, man, no Green Day You see me, I'm on a high rise Like Curry said, I'm sky high My high, man, they wanna give me a mug I'm so high up, 'bout to give a comet a hug I'm a dawg though, chillin' with my cats Well, y'all about the chase, but none of 'em is rats They keep it one hundred, do what they gotta do And make wonderful music when they jump in the stu' I'm feelin' like a black republican I'm tumblin' and bubblin', I'm manglin' the money And you got comin' in, I level it, I'm lovin' it, you lose money You gon' fumble in, I'm bucklin', you sniffin' in, I'm stuffin' it In my safe or in my wallet I got 'em hypnotized, R.I.P. to Chris Wallace No colors with the Curry, go get 'em, man, hahaha Yee, Curry 'bout to flow like Aquarius Shit, I'm blowin' up, you could call my ass a terrorist A Taliban, my flow scary like the ring Snap like a pregnant bitch with mood swings No Bun B but I'm the underground king Still grippin' grain, I got nigga dreams Snap at me, you know I'm 'bout to snap back And I'm the hot shit like Satan's asscrack Most of these niggas really really can't talk And I run this game like a fuckin' Xbox I ain't CeeLo Green but homie, fuck you And Curry's the real one like the 2 Live Crew Yes, little nigga, I'm ballin' like a piston I got wasted dreams, he got kush visions Rollercoaster shit, got a writer ambition And let her hear the pause like a short intermission This is Chevy music in the lanes that you switchin' Nigga, I'm good like Popeye's chicken Me and the real yay, you know we go hard And I'ma ride out like a fuckin' bust car, yee Even when the sun goes down Heroes eventually die, horoscopes often lie And sometimes why nothin' is for sure, nothin' is for certain Nothin' last forever until you close the curtain It's him and I, Aquemini It's him and I, Aquemini, yee</t>
+          <t>Bitch I'm bipolar I might Oh shit, ugh Bitch I'm bipolar I might Uhh, yeah Bitch I'm bipolar I might Fuck, ugh Bitch I'm bipolar I might switch, switch, switch I remember when I was younger One day I looked in the mirror and I asked myself who are you? And he responded Shit, nigga, I was gonna ask you See I done flew to places you ain't never been I done fucked some hoes you could never have It's a lot of questions you could never ask I could come to your show and turn it into a blood bath Damn, I paint these pictures like I paint my bitches, ugh Kill niggas, told my wrist don't Stacy Keibler, ugh I'm Scott Steiner with this big pump In high school you were the loser that had a packed lunch In high school I kept the knife in my bag tucked My nigga had the pistol on 'em, had the whole school shook I look in the mirror and meet a new me everyday shit Tell her she ain't Oakland because that's the only bay shit That's the only way shit, I'm so impatient Forty Glock on me for any sticky situation I'm two-faced and I'm proud of it, yeah Gotta get these fuck niggas 'round from me, yeah Bitch, I'm bipolar, I might switch it up, switch it up I don't know nobody, I don't give a fuck, give a fuck If I pull up on you, nigga, give it up, give it up If I pull up on you, nigga, give it up, give it up Bitch, I'm bipolar, I might switch, I might switch, uh If I pull up on you, you gon' bitch, you gon' bitch, uh Bitch, I'm bipolar, I might switch it up, switch it up Bitch, I'm bipolar, I might switch, switch, switch I'm switchin' up like Palpatine turned into Sidious I'm switchin' up like the Joker, so why you so serious? I'm switchin' like a bad bitch when she's on her period Man, I'm switchin' like the gears on The Fast and the Furious Vin Diesel, you can see my smile and my evil This style isn't feeble, you guys lookin' see-through You lookin' like a motherfuckin' screen door Nigga, hol' up, I'm blowin' up the spot, C-4 Nigga, hol' up, didn't y'all niggas seen before? Like Chris Rock, you switchin' up on me You get your shit rocked, shit knocked Call it Mary-Kate, I'm bustin' twin Glock's Slipknot, how the fuck I'm cold but yet my shit hot? Red dot, followed by the bullet to the headshot Bet' not switch on a nigga, click on a nigga, what the fuck You switched on a nigga, I bet a nigga get the slump Huh-ha-huh-ha Bitch, I'm bipolar, I might switch it up, switch it up Rrah I don't know nobody, I don't give a fuck, give a fuck Ahh If I pull up on you, nigga, give it up, give it up If I pull up on you, nigga, give it up, give it up Yeah, yeah-yeah Bitch, I'm bipolar, I might switch, I might switch Yeah, yeah, yeah If I pull up on you, you gon' bitch, you gon' bitch Yeah, yeah Bitch, I'm bipolar, I might switch it up, switch it up Yeah Bitch, I'm bipolar, I might switch, switch, switch Yeah6</t>
         </is>
       </c>
     </row>
@@ -4738,12 +4738,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Art Of God [S.4.M.R. Intro]</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Cancrejo Remix)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Yeah, welcome to Blvcklvnd Rvdix 66-point-motherfucking-6, nigga We're gonna be interviewing Raider Klan's own Denzel Curry This broadcast is for the minds in everyone So get your 40's and your black boats Get your stylez teas, get your blunts, and get your brew, get your lean 'Cause we're 'bout to go deep, we 'bout to go real deep Into the minds of one of the youngest MCs but yet intellectual Everything that you heard from the verse to the stage Why did you sleep on it? Man, you'll see Strictly for my Raiders that be up on the block Runnin' niggas one deep when they servin' the rock Just to start a revolution where niggas poppin' a cop Liberating my mind, as I goes in the drop top Keep your finger on my trigger Like 2Pac, this is strictly for my niggas Rest in peace from me 'cause up in person you a nigga Like me, just tryna get richer, uncle Tom ass nigga I don't know what's worse My generation's lost so they end in a hearse Fuck this life 'cause my skin's not a curse Although we is hurting, what's the is my birth Reason this written because risen by the Earth You die in the crypts, before we be, 'fore a devil is paying attention to the birds America's lying because they know the truth hurts Might live to all the My king is a , I'm the king of I'm the king of , this a king's verse This a king's verse, this a king's verse This a king's verse, nigga, this a king's verse Strictly for my Raiders, nigga Strictly for my Raiders, nigga Strictly for my Raiders, nigga Strictly for my Raiders, nigga</t>
+          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Assisted Death</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (JerriousB Remix)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Yeah Yeah, yeah Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl Destined to be here with you It goes like this, a cloudy mist You were interesting, I was interested And eventually, it turned into this No more bitches with me I'm solo now I can't hurt no more I'm too wavy right now I'm going brazy in the sky And my brain will never lie Memories never die But you will, and so will I Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl Two more puffs I'm gone with the wind I am a ghost, off in the wind Sometimes I think I might need therapist Therapeutic, no I cannot compute it Computadora, downloader loader So I can get everything that I desire Passion and fire I can make anything happen my nigga Just call me MacGyver Call up G-O-V Where it stays on me Mr. U-L-T, that's me Whatcha wanna do Whatcha wanna be, like Just like a zombie I come back alive I'm Frankenstein, out of my mind Keepin' my vibes right When my soul large, star, bright, bitch Seldom do we share a room Now that we to aspire Let's live and die Live and die Yeah Seldom do we share a room Now that we to aspire Before we die Don't fear the other side, girl</t>
+          <t>What exactly are you trying to hide, Mr. Curry? Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Over my Over my Over my Over my Over my Over my Over my Over my</t>
         </is>
       </c>
     </row>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BABE AND I</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Like A Version)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>They say we're young and we don't know We won't find out until we grow I don't know if all that's true 'Cause you got me and, baby, I've got you Babe I've got you, babe I've got you, babe I've got you, babe They say our love won't pay the rent Before it's earned, our money's all been spent Well, I guess that's so, we don't have a pot But at least I'm sure of all the things we got Babe I've got you, babe I've got you, babe I've got you, babe I got flowers in the spring I got you to wear my ring And when I'm sad, you're a clown And if I get scared, you're always around So let them say your hair's too long I don't care, with you I can't go wrong So put your loving hand in mine Ain't no hill or mountain we can't climb Babe I've got you, babe I've got you, babe I've got you, babe I've got you to hold my hand I've got you to understand I've got you to walk with me I've got you to talk with me I've got you to kiss goodnight I've got you to hold me tight I've got you, I can't let go I've got you to love me so I've got you, babe I've got you, babe I've got you, babe I've got you, babe</t>
+          <t>Hi, my name is Denzel Curry And you're now 'bout to witness Black Balloons And a one, two One, two, three, let's go Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to a thousand depths Soon black balloons pop Let it be the day the pain stop, let's go Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me One time Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float Ladies and gentlemen Let it float, let it float Sampa Let it float, let it float by me Assume life is I'm the liberator Assume the walls are closing in, but that's the indicator I die a love or hater, I love a lot of haters Who wear a mask and take a jab and see me later, uh Nah, ask not what we can do Accounting for the energy residing in my mental Oh, a who are you, you haven't thought it through You standing on the seat and let is sway, you are suspendable Honey, you too dependable I don't mean to offend you boo If your boo don't inspire independence Now I can't be shy, I'm undecided I feel my fears, I die, duh-dun dead We fly balloons so high we rise in Now me and gravity are like friends to the end, ah Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Two times Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me And on keys, we got Michael Beck playing And on bass, we got Joe Birdman And on the drums, we got Jamie Cameron And on the guitar, we got Art, check it out And on the right, we got Sampa The Great And on the mic, you got Danny Cascade And on the mic, everybody in this hit Let's break it down Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, now, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, now, let it float, now, now, now, now That better be close to perfect2</t>
         </is>
       </c>
     </row>
@@ -4789,12 +4789,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Babylon (Good Times Ahead Fatality Remix)</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Louby Remix)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>This shit is GTA, bitch! Hey! Damn Damn, damn, damn Yeah Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! It is the ultimate Myrmidon From the land, which is the city of Babylon Dreads in my hairs, dont confuse me for Cinnamon I'm one of a kind, as I grow like a Digimon When I'm evolving, not many books Many revolvers, no problem solving Illegal tendencies, infinite symphonies Illustrate misery, living on infamy Infamous Lord If you come back from the dead, you will go back to the morgue I'll hunt you like Sun Tzu, so better be humble Don't make me, I'm Wesley in the Art of War Soar, synonym, you will be flying Truth, antonym, I won't be lying Bruh, ain't no hakuna matata 'Cuz, you shouldn't fuck with a lion Damn Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! I might run up on a nigga and I-I-I might run up on a nigga and I-I-I-I-I-I-I-I-I-I-I-I-I-I- I might run up on a nigga and I-I-I-Damn I-I might run up, run up, run up You making me sick Yah! I-I-I-I- I-I-I might run up on a nigga and I-I-I-Damn I-I might run up, run up, run up You making me sick Yah! I-I-I-I- I-I-I might run up on a nigga and Clique! Damn Yeah Envious, everyone actin' so frivolous Jealousy, I can read it with telepathy You making me sick, you making me sick I-I-I might run up on a nigga and Clique! Damn</t>
+          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
         </is>
       </c>
     </row>
@@ -4806,12 +4806,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Babylon (josh pan &amp; X&amp;G Remix)</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Manuvers Remix)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>YOUTUBE PLAYLIST SPOTIFY PLAYLIST Missing , Campusanis Got Well Soon, A.M I still love you JANUARY - Bloom in the Rain by Nothing's Carved In Stone - Nothing Else by Mac Ayres - Winona by Miloe - Happy by Young Rising Sons - Fame by The Satellite Station - Wore It Like I Stole It by The Flowers - Daydreams by Walden - Caught Up by The Motive - Tightropes by Naipia - Just Woke Up by Oscar DeLaughter - Feelz by Bay Ledges - Peur des filles by L'Impératrice - Another Night by Two Another - What I Said by VICTON - LOST by GI-DLE - Ruby Jean by Mickey Newball - by Fan Yi Chen Alan Kuo - Sorry by Danny Elfman - IDK by Steevedreez - The Real by N.Flying - Our Summer by TOMORROW X TOGETHER - Step? by BIBI - Stay Bautiful by Jamie - Manners by BAND-MAID - White Sands by Still Cornrs - Sputnik by Mundaka - Goodbye by Rare Monk - Shrouded Sun by Before I Turn - Misunderstood by OSKA - Domino by Hail The Sun - Cherries by Isa - T.I.K. by Valleyheart - Afterlife by Holding Absence - Pillow Talk by Chapel - The Worst by Polyphia - LOST IN PARADISE by ALI Ft. AKLO - VIVID VICE by Who-ya Extended - More Like You by Orla Gartland - rock n roll by lil cat - Part of Me by Healy - Hit My Line by Josh Fudge - Lesson Zero by Epik High - End of the World by Epik High Ft. GSoul - Oidar by Hether - The Disease by SEVER - What You're Doing To Me by Trevor Something - by Lexie Liu - somebody like you by daste. - Typhoons by Royal Blood - Chasing Knives by Lonely The Brave - Can't Run Forever by Vacation Manor - Right and Left by Survive Said The Prophet - Outro STILL by TOMORROW X TOGETHER - by jeebanoff - Lavande by Blandoe Ft. jeebanoff - Mysterious by CHINAH - superpowerful by slenderbodies Crooked Colours - Duplex by Small Black - Wolf by Colde - Odd Eye by DREAMCATCHER - 2015 by Zero Period - Sunday Sunshine by Young Rising Sons - Clover by Michael Barrow The Tourists - Lighter by Colde - Play With Life by Hwa Sa - Bushwick by The Vanghns - Outside by Sleepy Soul - Mist by Maika Loubté - Can't Imagine Feeling Better by Scoobert Doobert - Dance No More by Swaine Delgado - Less by Millionyoung - Steady as She Goes by Tim Hart - Eat My Love by BIBI FEBRUARY - Got Well Soon by Campusanis - Ordinary by Besphrenz - Silver Lining by Clint Lowery - Show Me How by Men I Trust - Drifting by Indii G. - Oh Love by Lucas Estrada, Wankelmut Nobody Cares - Spotlight by BOBBY - MIMI by youra - Oh, But Lover by Haiva Ru - Better The Devil You Know by Galleons Ft. Phil Bayer - One One by Death From Above 1979 - Year Of The Rat by Void Of Vision - My Limp by Hayley Williams - NO MORE PEAKY MODE by Asaka - by Myuk - by Lexie Liu - Celebrity by IU - Hope by Arlo Parks - Vas by Blssom - Maybe It's Just Rare by The Undercover Dream Lovers - Sweet Dreams by Puma Blue - Silverlake by Rare Monk - DLMD by Steevedreez - Pine by Unusual Demont - 3000 Miles Baby Baby by Yeek - Poison Love by DREAMCATCHER - crucifix by plxntkid - Timeless by Of Mice Men - Good Days by SZA - claws by Hovvdy - Blue Ceiling by moanday - Tomboy by Destiny Rogers - Cover Me by Polar States - Yours by maye - Soft by GRAE - The Ocean by We Are The Empty - Ordinary by UMI - Grateful by Mahalia - Obsessed by Astrid S - Movie by Tom Misch - I Like U by NIKI - right here by keshi - by LELLE - Rollerskates by End of the World - Just Friends by Audrey Mika - Honesty by Pink Sweat - Honeymoon Fades by Sabrina Carpenter - Switchblade by NIKI - My Favourite Clothes by RINI - Is It Just Me? by Sasha Loan - Double Take by dhruv - High School by UMI - Telephone by A Scent Like Wolves - Surreal by Better Animal - As It Is by Alfa Nova - JTM by Charlotte Fever - Friends by PROM - I still love you by A.M - No Sleep by Arm's Length - Sensitive by Richie Quake - Everybody's Gonna Love Somebody by Alfie Templeman - Arrival by Blame It On Leo - FNIO by ultramodernista Ft. uju - Big Bang by Cherry Glazerr - Flying on Faith by CHUNG HA - Turn It On by LASOUM - Under Me by Velafire - YouI by milk. - Everything by Mammoth Indigo - Can't Go Home Tonight by The Kelseys - The master mind by Who-Ya Extended - Stay tempus by GSoul - TUCKITIN by YAS - When my Heart breaks by LambC - LIAR LIAR by YAS - Came in Through a Window by LOMELI - Satellites by Space Tyger - Blocked by Ethan Tasch - Sonata by Micra - Keeps Bringing Me Back by Blood Cultures - Be Mine by Sonia Gadhia - Big by Legwurk - Nothing by Jetty Bones - Meteor by Architects - Butterfly by G-Dragon Ft. Jin Jung - abitsincere by Chayr - sink by Vaundy - Anchor by Of Mice Men - Growing Up by Cinders - Real Life by Claire Rosinkranz - FEEL LIKE by Josh Fudge - Attention by SHINee - Squares by Indigo Waves - Villain by CHEETAH Ft. JAMIE - DON'T NEED by VINXEN - flowers by honeywhip - Wake Up by Divided Minds - Control Freak by Doll Skin - blackwhite by braveweather - Lala by Life In Sweatpants - Everything's Good by The Valla - Ready To Go by LØVEHEIST - Leather Jacket by Jon Reynolds The Aches - Baby Good Night by GDTOP - Famous by Tungevaag, Vlade Kay Jonth Feat. Skinny Days - CLOUDS by NF - Under The Gun by Electric Guest - Sunday Drive by Ladyhawke - Y Don't U by Kids on Bridges - Gimme Twice by The Royal Concept - Yes, I Was Drunk by Twin Atlantic - Headlights by Morning Parade - Change by Churchill - Danny, Dakota the Wishing Well by A Silent Film - Another Way Out by Hollywood Undead - Mz. Hyde by Halestorm - Courtesy Call by Thousand Foot Krutch - All My Friends by Madeon MARCH - Joker by BIG Naughty Feat. JAMIE - La La La by B3nte B3VA - Cali Dreams by Vintage Culture Fancy Inc Ft. The Beach - Be Sweet by Japanese Breakfast - by Have A Nice Day! - Fck The World by Badflower - Beautiful Mistakes by Maroon 5 Ft. Magan Thee Stallion - serotonin by girl in red - on your mind by lentra - woman up by lil cat - Light Giants by Lapcat - I Pray by Tessalonia - Expressions by My Twin Sister - Sit on Your Hands by chemical club - Twist by MAK HEE OH - Trapped In A Lava Lamp by Huron John - Greek Tragedy by The Wombats - Tides by Haven - PFC by CRITTER - Morning by Sleepy Soul - Dead or Alive by Gender Roles - Chemicals by HOLOW Max Green - Something by Dayglow - From Here by Pashy - Tangerine by Glass Animals - Crawling Home When The Morning Comes by Sweet and Lonely - Purely Educational by Eldel Island - Fuck It All by Oscar Scheller - This Time by Little Monarch - a little bit bored by syence - Guilty Love by Ladyhawke Broods - Modern Rapunzel by The Covassettes - Barely Alive by ufo ufo - Skeletons by Young Rising Sons - Feel Like Making Love by MIREI - Love Drug by LEEBADA - she got it by Dingo x BIBI - FRIENDS by IIIBOI Wonstein - Why do u say by Way Ched Ft. MOON, ASH ISLAND - VVS by Miranni, Munchman, Khundi Panda MUSHVENOM Ft. JUSTHIS - Call U Up by PARK JIHOON Ft. Lee Hi - Exit by Lucy Daydream - BKGW by Nana Lourdes - Beautiful Lies by Lánre Ft. Zaya Malák - Dance On My Own by M.O - Tongue Tied by Verzache - Take Control by KREAM - telepatía by Kali Uchis - weapon by Against The Current - Home by Cole Rolland Ft. The Animal In Me - Don't Assume What You Don't Know by Grace VanderWaal - Daydreaming by Yehra - by KUN - by Ronghao Li - On The Ground by ROSÉ - Gone by ROSÉ - Stepping Stone by Valleyheart - Yoi yami kareido by Eri Sasaki - Tearing me apart by PROM - You by Vacation Manor - CRAZY by Strawberry Girls Ft. Andrés - Hotel Beds by Doohickey Cubicle - Oh La La by Gabry Ponte MOTi Ft. Mougleta - Heavy by MOD SUN Ft. blackbear - Hotel Fellatio by Dubdogz, ida Corr HEDEGAARD - Toi Et Moi by Paradis - everything's worth it by iogi - instagram by DEAN - peacewise silence by ackerman - by Aimer Vaundy - Around by Familiar - Time Bomb by Paul Bartolomé Ft. Kellin Quinn - Sports With Strangers by HUNNY - Common Ground by Huron John - Love Me Less by MAX Ft. Quinn XCII - Made Your Mark by Hail The Sun - The Albatross by Lost At Sea - FEEL LIKE by WOODZ - wtf by Ponette - Don't Light My Fire by DREAMCATCHER - Limbo by Royal Blood - Cinema by TESSEL Amber Arcades - The Point by Valleyheart - Is Anarchy A Good Thing by Tilian - Rose Coloured Catastrophe by Dear Me Ft. Kellin Quinn HJ - Pretty Girl hi! by UMI - Til I Change Your Mind by Teddy Swims - For The Glory by All Good Things Ft. Hollywood Undead - Titans by LSD Ft. Major Lazer, Labrinth Sia - Paradox by SUPER JUNIOR - Save Your Tears by The Weeknd - Empty Cup by IU - Something by Girl's Day - Falling in Love - Chinese Version by UNIQ - I Want You by Chris Lake - by - by Silence Wang - by 26 Gem, Kozay Evis Wy - by David Tao - by Rainie Yang - , by - by Ronghao Li - by A-Lin - MVP by Will Pan - Come Back by Lil Ghost - Stop Sugar by Gen Neo - by - Cinderella by CNBLUE - Like A Mercedes by Lexie Liu - Amusement Park by BAKEHYUN - This Night by GroovyRoom Ft. Jhnovr Blue.D - Missed Call by Jiselle Ft. Chancellor - You're Sexy I'm Sexy by Eric Nam APRIL - Tired by Cami Petyn - The Light by Familiar - Growing Tired. by Familiar - Peter Riffin by No Dice - Misery Is Butterfly by ExRe - For You by GSoul - let me inside your head by swim school - Hollywood is Under Water by Kowloon - supposed to by BLÜ EYES - Sweeter by Dafna - Awake by Chiiild Mahalia - Say by 0fret - Stay Mine by Timmy Trumpet Afrojack - Burn It Down by Afterlife - Spider by HOSHI - Nightmares by Palaye Royale - you me by Lizdek joss lock - Playlist by Litany Oscar Scheller - Narcissist by Younger Hunger - Something To Lose by june - Rules by Richie Quake - Spinning by GRAE - What If I Love You by Gatlin - LazyBaby by Dove Cameron - Streets by Doja Cat - Wolf Skin by Blame It On Leo - youmeeveryone by iogi - 2. by milk. Search Party Animal - by JAMIE feat. OLNL - Major Crimes Unicorns by Val DaGrain - NO THANKS by Whee in - Butterfly by Whee In Feat. GSoul - expectations by daste. Feat. Akurei - for free by YAS - Billie and Finneas by Righteous Punk - It's Christmas and All the Leaves Are Dead and so is Your Childhood by Dear Me - Carry on by Simple Fiction - goddess by pretty havoc. - Nightingale by Young Rising Sons - Too Late by Arkaeo - Missing You by G-Dragon Feat. Kim Yuna - LMLY by Jackson Wang - Sorry by The Rose - commes des garçons like the boys by Isaac Dunbar - Bloom by Of Mice Men - Circles by LambC - rosecolored by braveweather - Quiero Estar by Bratty - All I Crave Is Peace by Tilian - Factory Reset by Tilian - Dreams You Don't Forget by NIGHT TRAVELER - Sunny - TAK Remix by SURAN Feat. BIG Naughty - Love Line by Tinashe Shift K3Y - Flatline by Two Feet - Chemicals by Tropic Gold - Last Time by Sunday Friend Feat. Kellin Quinn - Kick Back by WayV - Last Laugh by FLETCHER - transparent soul by WILLOW - Happen To Me by BENEE - no space by Alextbh - Trigger by Seori - Cloud by Primary Feat. ChoA - Walking In The Rain by Chancellor Younha - deathwish by Stand Atlantic Feat. nothing,nowhere. - All Talk by Just Fine - Parachute by Vacation Manor - Burrito by Yenjamin Feat. Soovi - by Eve - Sorry Mom by The Band CAMINO - Life is a Bi... by BIBI - Older by No Love For The Middle Child Set It Off - F Me Up - Vansire Remix by Swaine Delgado - Scaredy Cat by DRP IAN - So Beautiful by DRP IAN - Dope Lovers by DRP IAN - Nerves by DRP IAN - Nerdy Love by pH-1 Yerin Baek - Over 85 by Hojean - phobia by Dvwn - Irene by Jimmy Brown - Dance by offonoff - Distance by JUNNY - Memory by Hojean - EVITA! by DeVita MAY - D Half Moon by DEAN Feat. Gaeko - AUTOMATIC by Chancellor, Babylon, twlv, MOON, BIBI Jiselle - And July by HEIZE Feat. DEAN DJ Friz - Oscar by Golden, pH-1, BIG Naughty Jay Park - Life Sucks by HATFELT - Party Forever by Simon Dominic - Superglue by Bittermilk Feat. Parxed - Not Yours by Mari Ferreira - You by Fredik Ferrier - Between Days by Far Caspian - 364 Asonot by Imri Cohen - MOVIE by JUNNY - Know Me by GEMINI - Let Me Know by Jimmy Brown - It Was Love by GIRIBOY - Tiny Little Boy by Rad Museum - Goodnight by Dvwn Feat. Kwon Ji Ah - Why by Hoody Feat. George - by tricot - Pink Shirt Day by Luke Rickarby Locket - Lunatic Fringe by Anemoria - outside by swim school - In My Head by Ponette - Seeds by Crumb - Bankrupt by Silverstein - rue by girl in red - Chris Brown Moves Remix by The Quiett, YUMDDA, h3hyeon JAEHA - Me Too by Meghan Trainor - Whenever He Asks by Gatlin - I'm Scared by Ley Vara - Kiss Me More by Doja Cat Feat. SZA - puzzle by Cha-Hee - Day by Day by Mosaic - Where the Heart Belongs by Softspoken Feat. Alexia Rodriguez - Deep Down by Lexie Liu - I'm In Love by Colde - Smoke by Mac Ayres - weekends remix by Hojean Feat. Chevy - Hurt by BAEKHYUN Seo Moon Tak - Eternal by Jenevieve - Frankeinstein by Claire Rosinkranzs - Garbage by Huron John - STAY UP by Stevedreez - The Absence Of Light by Watch For Wolves - Fool's Gold by Sofia Carson - Hank Is Dead by Red Fang - You're Killin' Me by Never Loved - Find Out by Never Loved - Shadow by Siyeon Dami - Butterfly Effect by Inchaos - Strange Clouds by B.o.B Feat. Lil Wayne - motive by Ariana Grande Feat. Doja Cat - ONE SHOT by B.A.P - by DAYY6 - Flu by HEIZE Feat. CHANGMO - lovememore. by dosii - The Chase by Alextbh - Hands High - Alonestar Mix by Alonestar Ed Sheeran - jealousy, jealousy by Olivia Rodrigo - Blowing Smoke by Teddy Swims - Broke by Teddy Swims Feat. Thomas Rhett - Build a Bitch by Bella Poarch - Fuzzy by Waterparks - Cirque by Sub Urban - Psycho by Mia Rodriguez - Special by Charlotte Sands - Fashion Forward by The Home Team - One of Those Crazy Girls by Paramore - tired eyes by water eyes - Should've Said It by Camila Cabello - Alright by O3ohn - death bed coffee for your head by Powfu beabadoobee - actually happy by BLÜ EYES - by Motte - Going by GEMINI - March Lover by John Park - Mmmh by KAI - surf. by wave to earth - HANGANG by Hoody - When I Smoke by BLOO - What Do I Call You by TAEYEON - haPPiness by SOLE - Can You Understand by Mind Combined - 2easy by NIve Feat. HEIZE - Like A Fool by NIve Sam Kim - Aching by ABOUT - SUMMERIDE by Jay Park - Good Boy by zai.ro - Diver by POLKADOT STINGRAY - PLEASE PLEASE by EVERGLOW - Veneno by Blssom - A Fix of Nostalgia by Cinders - West Like by Destiny Rogers Feat. Kalan.FrFr - America's Cup by Pond - Grown Ups by Aeroplane Mode - Someone to Chill With by Erika de Casier - Super Emotional by HONEYMOAN - Cake by JDM Global - easier by slenderbodies Joey Pecoraro - Déja Vu by LOUD HOUND - Otw Less Fear, More Faith by Mileena - Ain't Talkin' Bout Much by Patrick Paige II Syd - No More Or Less by Renwick - Pieces Of Summer by Amor Amor - Climb by Ali Awan - Dog Days by Argonaut Wasp - The Waves by Sunspire - Hasta Que by Tatiana Hazel - Dream Drop by Instupendo - Feels Right by Biig Piig JUNE - Don't Know What To Do - Live by BLACKPINK - u and me, but mostly me by ELIO - We Are Infinite by The Lighthouse And The Whaler - Bittersweet by WONWOO MINGYU Feat. Lee Hi - SECRET LOVE REMIX by Horim Feat. Chancellor, Damo, Brwn, Knave Jhnovr - inside by JUNNY - My New Swag by VaVa Feat. Nana Wang Ty. - u love u by blackbear Tate McRae - Change by H.E.R. - by tricot - Pasadena by Tinashe Buddy - Can't Get Me High by Jax Anderson Feat. PVRIS - Buzzed by Téo WILLOW - Wiggle by binki - Bad Texter by Ryan Woods - Mariposa by Peach Tree Rascals - Morning Sex by Ralph Castelli - Stella Brown by Jelami Aryeh - Was It Something I Said by MyKey - Only in the West by Yeek - Thunder by Roy Blair - Yoko by Huron John Claire Ernst - That I Miss You by Vansire - Sea Sick by binki - From These Heights by Jelani Aryeh - Puppy Dog by Dreamer Boy - HUSTLE by Tifa Chen - No Joke by Show Luo - by NINEONE - Oh Boy by G.E.M. - Can't Stand It by Rui En - by J.Sheon - Two Perfect Moments by Tyler Bates - by Ryan.B Iki - Moonshot by N.Flying - D.D. by OuiOui - With Friends Like These by Reckless Serenade - Dive by Sunsleep - A Faint Illusion by Tides Of Man - Modern Disco by Amarionette - Look Alive by We Are The Ocean - F.C.P.R.E.M.I.X. by The Fall of Troy - Sarcasm by Get Scared - Letting Go by Eternity Forever - Breathe, Desperately by From Indian Lakes - Baby, You Wouldn't Last A Minute On The Creek by Chiodos - 100 Ways by Jackson Wang - Mx. Sinister by I DONT KNOW HOW BUT THEY FOUND ME - The Detail by Delta Sleep - My Lips Like Warm Coffee by CHUNG HA Colde - I JUST WANNA KNOW WHAT HAPPENS WHEN I'M DEAD by Hot Milk - by BIG Naughty Feat. Kid Milli - 5 Gawd Remix by BIG Naughty - by Kami-sama, I have noticed - sherlock by oceanfromtheblue - Transcend by BewhY C JAMM - sober by JUNNY feat. YOUHA - Between by Alextbh - Supervillain by Between You Me - Punk Fun by Huron John - Troy Bolton by Huron John - nrys again by dad sports - Cold Waters by Hong Kong Boyfriend - Filth by Christian Leave - Alice by Your Neighbors - Moonlight by Public Library Commute - Pears by Weston Estate - PINCH ME by young friend - My Future Ex Wife by Andrés Feat. Happy Hour - Hum by Young Culture - Me Time by Eri Sasaki - Disco Pantz by Rejjie Snow, Tinashe grouptherapy - Eyes Half Open by Cinders - Dance by Jimmy Brown - Midnight Charm by Jenevieve - dhmu by Ley Vara - JACKSON by Woodie Gochild Feat. CHANGMO - No Blueberries by DPR IAN Feat. DPR LIVE, CL - Welcome To The Show by DPR IAN - edwin by Mokyo YEIN - Actually Pt.2 by PENOMECO - Comme des Garçons by Jiwoo - What 2 Do by DEAN, Crush Jeff Bernat - Gotta Go by Sik-K, GSoul, pH-1 Jay Park - far from here by Hojean - Don't Play by Sik-K punchnello - BADKID!!! by Dvwn - Planet Girl by Jooyoung Feat. pH-1 - Never Knew by Jimmy Brown - Dive by Jooyoung - I'm the one by BLOO - After a long time Digging Club Seoul Ver. by george, Kim Hyun Chul PARKMOONCHI - Turning Into Video by Stello - Bad Dream Baby by Hippo Campus - Boulevard by TESSEL - About To by City Park - Keep Moving by Charlotte Day Wilson - Dogs of Fire by Ali Awan - Tulips at My Bedside by Central Heat Exchange Living Hour - Softer Side by Art School Girlfriend - New Cool by Firstworld - Fuck June by Sipper - anytime by Scotch Mist - I Can't Even Remember by Hotel Decor - Mrs. David by Seaway - Over This by We Were Sharks - How Big Is Your Brain? by Super American - Fever Dream by Grayscale - Blue in the Dark by Bearings - February Weather by In Her Own Words - '99 Benz by A Story Told - Three's Company by Hungover - Magic by Vacation Manor - Storyteller by Real Friends - That's Life by Still Woozy - THE END by Alesso Charlotte Lawrence - GO by MIA GLADSTONE - Right Through Me by The Home Team - againagain by Against The Current Feat. guardin - Fumari by Peach Tree Rascals - Insecure by Bren Joy feat. Pink Sweat - Best of Me by Dreamer Boy - Broken Vows by The Hails - The Juice by Sam Kim - Sleepover by Litany - GIANTS by True Damage - Sugarcoated by Gatlin - Medicine by Paul Bartolome - Kids Of Summer by Mayday Parade - anyway by swim school - Healing by FLETCHER - For Days by Efe, M.O Ria Sean - Paper Hearts by Tori Kelly - Get Into It Yuh by Doja Cat - Love To Dream by Doja Cat - You Right by Doja Cat Feat. The Weeknd - I Forgot That You Existed by Taylor Swift - Overthinking by Yeek - Don't Be A Fool by Dreamer Boy - papá by Peach Tree Rascals - Anybody Else by spill tab - Halloween by marinelli - ae86 by BETWEEN FRIENDS - Cuff Your Jeans by Claud - Darcy by Wabie - Second Base by Forrest Nolan - Choked Out by M.A.G.S. - Skydive by Postcard Boy - Fiji Fine by Bren Joy - dancefloor by marcos g - Nothing Has Changed by The Polar Boys - 18 by Jeremy Zucker - Like You by GRAE - somebody loves you by Jeremy Zucker JULY - Yellow Cab by DPR LIVE - Too Young by Alta View - Prisoner by Alta View Feat. David Pesci - Her by Poppy - Breeders by Poppy - Dark Dark World by Poppy - Daydreaming by SPINN - CORE PRIDE by UVERworld - I Just Wanna by INNOSENT in FORMAL - Psycho by JEON SOYEON - Flower by Johnny Stimson - NEW GIRL by JUNNY Feat. Kid Milli - move by brb. - beside you by keshi - EASY by Whee In Sik-K - Bonnie Clyde by YUQI - Family by Badflower - Castle in Flames by Alisa - IDEA OF YOU by YAS - FOOL AROUND by YAS taylor from earth - TRASH by Whee In Feat. pH-1 - Home by High Grass - Walk Over My Grave by Yours Truly - Bouncin' by Tinashe - Hotel by Claire Rosinkranz - LAX by Claire Rosinkranz - Yours by Jimmy Brown - Versos de placer by maye - 1 Thing by Sophie Powers Kellin Quinn - T.Y.S.M by Happy Hour - Boy In The Mirror by punchnello Feat. Kidd King - Roller Coaster by youra - My House by Declan McKenna - Sangria by SAARA - Way Out by ADN Lewis - Toxic by Tiyon - God Bless You by Jayrah Gibson Bos - State of Wonder by inverness, Anthony Russo, KANG DANIEL - You Got Nerve by Tiyon - Fragile by ARCADES SOFÍA - Pretty Lips by WINEHOUSE - horoscope by yung cxreal baby frankie - Northern Lights by Kennie - i love when it rains in LA by Wu Aml - fan behavior by Isaac Dunbar - Nightmares by Two Feet - Waltzing Back by No Vacation - Bunny by The Birthdays - Sweet Dream by Alessia Cara - Icy Ivy by Who-ya Extended - rom com 2004 by Soccer Mommy - Carousel by Young Rising Sons - Amoeba by Clairo - WAY by Chancellor - Work Hard by Tatiana Hazel - Maybe by Tatiana Hazel - Summer Drive by 1set - Downhill Love by ALEPH - Do What by Claire Ernst Huron John - Beggin' by Måneskin - Talk! by oceanfromtheblue Feat. MRSHLL - Get Down by Still Woozy - US by Moon Jong Up - Take 3 by Inner Wave - Chaeri by Magdalena Bay - Questions by Far Caspian - Seito by Obsimo Hector Gachan - Bluff by Nico Play - Strike by Little Monarch - When Dawn Comes Again by Colde BAEKHYUN - Supa Straight by DJ Zirk, Tha 2thick Family, Buckshotz, Lil Chris Primo - Paresthesia by Early Eyes - Crash and Burn by Maggie Lindemann - Games by Tessa Violet - We Are Between by Modest Mouse - everything sucks by vaultboy - Don't Rush by Cabri - lullaby by Against The Current - I Can See The Future by Tinashe - your body by Jimmy Brown Rovv - HONEST by Jeremy Zucker - Think I'm Crazy by Two Feet - Summer Tights by DPR LIVE - Boom by DPR LIVE DPR IAN - Devil by Two Feet - BUFFALO by Sunwoojunga - DiViNE by i - Drugs by UPSAHL feat. Two Feet - Time Walking on Memories by NELL - Carrying On by Mini Trees - Whatever You Want by P!nk - WHY Y by BIBI Feat. Tiger JK - by Indigo la End - What I Like by Destiny Rogers - Jeszcze raz by Patrycja Markowska - Kitchen Light by Xana - No Room 4 U by PROM - Reignite by Knox Brown Gallant - Monster by PVRIS - I'm Alive by NIve - Palm Tree by Yenjamin - Flux by Poppy - Liar by Karl Michael Teddy Swims - Esther by BAYNK Tinashe - Shiver by Young Culture - Head High Swim by Young Culture - BEcause by DREAMCATCHER - Whistle by DREAMCATCHER - Alldaylong by DREAMCATCHER - Running Out of Time by Gray Joy AUGUST - Masterpiece by Cloudy June - Ego Trip by Trip Carter - Party Again by TOPS - Bad for Fun by Petite League - Reconsider by Cafuné - 24 Hours by austin white - Blue Racecar by SASSY 009 - Passenger Seat by HOMESHAKE - Shoes by Layzi - False Idols by HONEYMOAN - Chaise Longue by Wet Leg - Without You by GRAZER - Jasmine by Ruby Francis - Something Got Between Us by The Jungle Giants - Hard Feelings by Redspencer - Kids Don't Care by Dim Sum - Overdrive by Kraak Smaak, Tim Ayre - Dolores by Amira Elfeky - space girl by Frances Forever - No Friends by Cadmium Rosendale - I Didn't Change My Number by Billie Eilish - Lost Cause by Billie Eilish - In the Strangest Way by The Hails - Know Me by DPR LIVE DEAN - Weekend by PERCNT - See You Again by Tyler, The Creator Feat. Kali Uchis - After The Storm by Kali Uchis Feat. Tyler, The Creator Bootsy Collins - Weight in Gold by Gallant - Is Magic Gone by FKJ - Sober by Childish Gambino - We OUI by jeebanoff Feat. sogumm - If You Wonder by Jeff Bernat - Photograph by offonoff - bad habit by GSoul - Jasmine by DPR LIVE - Sometimes by Crush - Paris in the Rain by Lauv - Color Drive by DPR CREAM - STAY by The Kid LAROI Justin Bieber - Slow Bloom by The Home Team - Superimposed by Juice - my worst by blackbear - Résumé by Jenevieve - I can't make you love me by KINDA BLUE Hwa Sa - Don't Hate Me by Badflower - Undo Back To My Heart by Tinashe Wax Motif - ALL IN by Jay Park, pH-1 Groovy Room - Playing Games by Summer Walker Bryson Tiller - Peace Sign by Usher Zaytoven - Work Sumn by Kirko Bangz Feat. Jacquees Tory Lanez - Candy by Doja Cat - H20 by Kbn Kbnlondon - Alone With You by Ashlee - BMB by Jaymz Stillmorfn - All Day by Holyrain - Unconditional by Tinashe - Last Call by Tinashe - The Chase by Tinashe - Tom Jerry by - by - by - by Young7 Hako - Sweet Baby by - Ur Best Friend by Kiana Ledé Kehlani - Got It Like That by B.I, Destiny Rogers Tyla Yaweh - Fallin' Adrenaline by Why Don't We - by - Girlfriend by - Vibrant by Time, The Valuator - Altar Of The Sun by Bahari - Hurt by Bahari - California by Bahari - Sad Face - Tarro Remix by Bahari Tarro - Savage by Bahari - Simplicity by Yam Haus - All Yours by Jane Holiday - First Time Feeling by Ripe - Wonder by Spencer Sutherland - God Complex by The True Blue - DOA by Armors Olen - Eagletown by Orange Guava Passion - You Make It Easy by Red Hearse - Tell Me by Spencer Sutherland - Willow by The Q-Tip Bandits - Summer Rain by Good Boy Daisy - Sweet Spice by Deb Never Jim-E Stack - Try by Kloudink - Ticket To Ride by KAWALA - Shit Could Be Worse by Andrés - Beach - Acoustic by Veronica Fusaro - OHMAMI by Chase Atlantic - Rumors by Lizzo Feat. Cardi B - Can I Love? by Cosmic Boy Feat. youra Meego - Honey! by Tabber DEAN - Thinkin' bout you by OuiOui Wilcox - Dingo X meenoi - DOOL by meenoi - But Maybe by Maddox - Summer by The Volunteers - Take It Slow by Milky Day - Lost My Mind by inverness William Bolton - Nuuh by THAMA - Killshot by Magdalena Bay - omomo punk by Warren Hue - Anywhere by JUNE - Marigold by Jelani Aryeh - Lonely in Tokyo by Mirei - Crash My Car by COIN - Woopie by Still Woozy - Get By by Still Woozy - Window by Still Woozy - All Along by Still Woozy - Black Mambo by Glass Animals - Cliché by Sub Urban - Isolate by Sub Urban - PATCHWERK by Sub Urban Two Feet - Broken by DNMO Sub Urban - C'est la vie by Weathers - Cry by Ashnikko Feat. Grimes - Cane Shuga by Glass Animals - Tessellate by alt-J - I Know by Heiruspecs - 270 by No Dice - LOERLOVER by TOMORROW X TOGETHER - Paranoia by Koethe - Permanent Vacation by Arrows in Action - Panic by Movements - Nature by Goodnight Goodbye - faded by swably, DEAN Maberry - Sad But True by Royal Blood - New Gravity by MIYAVI - changes by daste. - Away From Me by Foxera Feat. Kellin Quinn - Maybe I Should Move to California by Righteous Punk - Sunshine by Dear Me Arkaeo - see red by swim school - Amapolas by Leo Rizzi - The Thrill by Yam Haus - Run Wild by Thutmose NoMBE - Hollywood by The Black Skirts - The Only Thing We Know by Bob Moses - hurts 2 hate somebody by ELIO, Chase Atlantic No Rome - Shine Your Star by 03ohn - People Say Things Change by Air Review - Yoko Ono by Mob Rich - Runnin' It Now by Pigeon John - Marigolds by Kishi Bashi - JUNGLE by Dillan Ponders Ruby Waters - Something Has to Change by The Japanese House - Jackie Onassis by ELIO Feat. Nolie - When U Saw Love by ELIO Feat. Babygirl - Get Up by Mother Mother - Count on You by Banoffee - My Friends Online by ELIO Feat. Grady - Body Language by ELIO Feat. Sachi - Waste of Emotion by ELIO Feat. BLACKSTARKIDS - Headache by Heart Of Gold - WhoWho by WizTheMc Hugo - Overthinking by Rikas - It's You by Colde - Enter Sandman by Rina Sawayama - Vibrate Remix by IV JAY Feat. GSoul - Simon Say by Destiny Rogers Feat. Flo Milli - Over and Over by MOTIP - Lustre by Jiwoo - DARLING by Stevedreez - Tender by Jax Anderson Feat. Yoke Lore - Live Again by Grayscale - P.Y.T. by Amarionette - Love You Like I Used To by Revin7ins Kellin Quinn - 818 by Lexie Liu - Motown by Grayscale - King of Everything by Grayscale - Crazy by Makeout - Deadbeat by Between You Me - ONLY by Lee Hi - Floating by Raveena Feat. Hope Tala - COMING HOME by HONNE Feat. NIKI - People by Evan Wright - love doubt by dacelynn - Knock Knock by Sam Evian - Is It Light Where You Are by Art School Girlfriend - Anywhere, Anytime by Mid Memory - Higher Places by Space Equator - Funny Guy by Walter Sprig - Chemicals by Early Eyes SEPTEMBER - City by With Confidence - These Nights. by Sons Of Leaves - parachute by Joh K - Iris by TRST - Johnny Wants To Fight by Badflower - Ella by Two Feet - Sucker For That Love by Robin Packalen SAAY - Split Personality by Hot Milk - Silhouette by Dhat Studd CC, Dvwn Hojean - Intentions by Mosaic - No Sympathy by Jenevieve - Mellow Eyes by Jenevieve - Crybaby by Jenevieve - Thank God You Introduced Me To Your Sister by Sarah Barrios - I'm an Idiot by Scoobert Doobert - In The Dark by Swae Lee Jhené Aiko - this is what falling in love feels like by JVKE - In The Blue by Arcane Ghosts - Deleters by Holy Fuck Feat. Angus Andrew - Live Your Life by Extreme Music - Blush by Spencer Sutherland - One Look by Spencer Sutherland - Drive by Spencer Sutherland - Control by Sabrina Claudio - Swan Song by Saweetie NIKI - Fire In The Sky by Anderson .Paak - Every Summertime by NIKI - Never Gonna Come Down by Mark Tuan BIBI - War With Heaven by keshi - Affection by Fiji Blue - Feels So Good by HONNE Anna of the Nourth - Hellow, Anxiety by Phum Viphurit - Outside by Fiji Blue - Only When I Look into Your Eyes by Fiji Blue - Hard to Say Goodbye by Johnny Stimson - Day by Day by Fiji Blue - Aphrodite by RINI - Casual by Johnny Stimson, Jeff Bernat Jesse Barrera - Midsummer Madness by 88rising, Joji, Rich Brian, Higher Brothers AUGUST 08 - hot tub DREAM Machine by tobi lou - Emerald by RINI - Just Like This by Loco Feat. george - Smile by Johnny Stimson - Shouldn't Be by Luke Chiang - Bonnie Clide by DEAN - Home by Luke Chiang - Your Dog Loves You by - It Takes Two by Fiji Blue - 2 The Face by 88rising, Rich Brian Higher Brothers - Adios by Hoody GRAY - she likes spring, I prefer winter by slchld - Dive with you by Seori Feat. eaJ - Paragraphs by Luke Chiang - Wrong About Forever by Jeff Bernat - Moments In Between by Mini Trees - Bad Dream by Cannons - Criminal by Koethe - Signas by Koethe - Savior by Lee Hi Feat. B.I - Bye by Lee Hi - H.S.K.T. by Lee Hi Feat. Wonstein - Intentions by Lee Hi - Shivers by Ed Sheeran - On and On by Local Nomad - LALISA by LISA - MONEY by LISA - PSYCHO BITCH by Cami Petyn - Enter Sandman by Alessia - Woozy by Hot Milk - Underneath My Skin by The Band CAMINO - Ways Of Love by Bahari - icy girl by oceanfromtheblue Feat. SOLE - Ego Dream by LOMELI - Good Days by Young Rising Sons - I Don't Wanna Talk I Just Wanna Dance by Glass Animals - simple times by Kacey Musgraves - LALA Unlocked by Alicia Keys Feat. Swae Lee - EVERYBODYDIES by The Band CAMINO - Just A Phase by The Band CAMINO - Song About You by The Band CAMINO - Wasted Time by Candid - Good Ones by Chaeli XCX - PADO by BIBI 3</t>
+          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, Im timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so Im cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
         </is>
       </c>
     </row>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Back in the Dayz</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Pazmal Remix)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Hook Rellhoe I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga Verse 1 Nell Stepped on the block Everything is still the same But Niggas changing by the clock Its just a new day Matching two J's John J say he got the dropp And we copp Kickin' it on the weekend Keepin up in the clouds Wondering why my niggas hanging by the block But it ain't like back then Cause its different when your niggas missin' Niggas be keepin they distance But we aimin for the cop As we stroll down the road That we been chose Niggas ten toes'in As we exposing The niggas fakin' the phonk So the nigga trunk music Getting in to it I buss you head when bump So whutchu want? Hook Rellhoe I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga I been thinkin' bout them good ol' days When I was a whipper snapper Used to try to get a kiss But now it be the draws I'm after I'm just a southernplayalistic pimp I used to sling a fat rock But now I'm serving Hemp Nigga Verse 2 Denzel Curry Running and yurning The blunts I be turning Rollin and smoking And Niggas is choking And Curry take another sip of the potion I'm taking your bitch And I got that bitch open Like Screen doors My brother is rolling in green doe Selling that shit like green ? ?? Niggas with ?? Check my stilo My ego ?????????? So where is the bud? And bring enough sex For my brother and my Cuz Put a dime, and a nickle Situation got me pickled I'm a ball, yeah high with your bitch And get all up in her draws Plawing roo-raa in that Charday Told that black goddess Please Bring that pussy my way So I can just slay it I dont really play it I don't really give a fuck Denzel Curry on that fway shit Hook Verse 3 Rellhoe NaNaNaaNaaaaaa Now have you ever stepped on the block And been totin' the Glock While the cops lurkin' low All this dro' gotta go-go-go These hoes be schemin' Triflin' chasin the green That you earned from the fiends They might let you fuck But ahead for the team Do you know what I mean The pimp in me It be the real deal Feel where Im from Blackland, Carol City You side with goons come out And see ring-ding-ding ?? Hit the floor Flopping yo' ho From back in the day Yo ????????????? They already know I put that Mac down Smokin yo town Get down to the funk I lived how you want2</t>
+          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Over my Tonight on 102.1, it's Denny Cascade and the gang in town Denzel, are you really making an album? I'm telling you, eventually, they're gonna catch up to your game, you're running out of time! Someone is really trying to hurt me! It's not enough is it? It's not enough you had us come out here In the middle of the night What exactly are you trying to hide, Mr. Curry?</t>
         </is>
       </c>
     </row>
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Bandoe</t>
+          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Telescope Thieves Remix)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Yeah, yeah Got the beat by Powers, and we just made a banger Yeah, yeah Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Was in jail, now I'm finally free, in Cali smokin' Cali weed Got that shit you wanna see, I'm that nigga that you wanna be Deep in the streets, it's like the sea, with Curry countin' currency Got that .30 on me, I can't let a nigga Curry me Won't let these niggas worry me, won't let these bitches Tory me In that white house, motherfuckers ain't gon' Cory me I am in the 'yo now, I got Hector, he recordin' me The industry ignorin' me, but the streets supportin' me Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Ran out of bullets, so I beat him with the handle Big gun, big knife, I feel like Rambo Might just drop a sex tape and start a scandal She be squirtin', I guess I know the angle Threesome, it takes two to tango But they way too clingy, think we need to entangle Since she fuck with me, her whole life been in shambles But I handle with care if she fragile Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Niggas know this block is hot, so I'm movin' in hot pursuit See my money skydive from the top, I swear it parachute I got troopers that got Rugers, I got cougars down to fuck Even when my racks is up, I always say it's not enough Damn, listen to the sonics, hear the tales of the struggle Had to run the streets with guns 'cause they ain't runnin' with knuckles Niggas think this shit a game, only pussy niggas, lame Got the money and the fame, and I always been the same nigga Haan Hood hop, we still boomin' out the back door Trap out your house, treat your shit just like a bando Got your ho, wanna ride all on my handle 'Cause she know that I'm gettin' to them bandos It's a BE Bandos A BE, bandos A BE, bandos A BE Them bandos A BE, them bandos A BE, them bandos A BE Bandos A BE Woo! Life is great, business is boomin' Bitches is fuckin', chickens is cluckin' And we're back on top, baby That humble shit? Leave that shit in 2023 Let these lil' niggas know</t>
+          <t>Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Big Brother Snap!</t>
+          <t>Black Balloons Reprise (Instrumental)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Yee I'm finna snap for y'all, boy Shit It's little Curry, you don't want me to get serious 'Cause nigga, I snap like a bitch on her period Damn Grippin' grain and switchin' lanes like Fast and the Furious Fuck bein' a rapper, I'm a snapper and a lyricist Nah, I ain't done, you thought shit was all good What? Lumberjack shit 'cause your bitch is on my wood Woo Yes, I'm runnin' shit like the little engine I could And my city's like a jacket 'cause I stay in the hood Damn Seriously Funny like my name was Kevin Hart I'm here to take it back like my name was Rosa Parks Get 'em Nigga, I'm the new shit, why you still in the old part? Yeah Makin' rappers breakfast like a fuckin' Pop-Tart Woo Tell me, what's the difference 'tween a coward and a hero? The coward tells a story and so ends the glory You put it on yourself when you claim that you flashin' Transporter shit, layin' it down, it's just action Every beat I get I'm 'bout to turn into a classic Like Family Guy, I'ma have niggas laughin' Punchlines crazy and they need a straight jacket Mm Most niggas is , most niggas is Relax and take notes from the words that I spoke The words that I speak, different mode, I'm a beast Woo Nah, I ain't done 'til the fat lady sings Nah, I ain't Frodo but I'm Lord of the Ring blocks with Floyd Mayweather Killa I'm here to bring the heat like the sun wearin' a sweater Curry Wait a minute, tell me who could really snap better, yeah Curry Yee Damn</t>
+          <t>Ayo, congratulations, Pebbles, you did it You done jumped in your Uncle Smack lap You asked what's in his knapsack He pulled out a box wit' a ribbon, big enough to fit you in it But you got hope 'Cause conversation of the GOAT...you winnin' most likely gets you in it It's just wack The only nigga that had your back, you put a knife in his to get it You snaked Brizz - don't say you didn't If that's your man, why you ain't convince him it should be him spittin'? You done blindsided your own pupil out his vision But I eye ain't trippin' I bet this the last your stupid ass gon' be jumpin' in his business No cap, so you don't get none of this shit twisted This battle? It ain't about who the fuck is the pen wizard This is for hard-headed slick niggas And since you wanted Brizz whippin', think Summer Impact again wit' it These punches gon' hit different Nigga, you a snake When you talk and I listen, I don't hear words, I hear hissin' Sss...the way you and URL set up Brizz? That shit sad Guess you think your turn next necks This fast'll give me whiplash You can't be from the trenches, 'cause if you was, you would know this shit math Once Raw turned into Rock, it gotta get bagged This y'all King of Pop!? Beat It The whole world saw your bitch ass All that moonwalkin' on stage shit - you did Bad! How you gon' tell me I eye change, but got the nerve to have on contacts? But you didn't have the nerve to put on when it was contact! If you was anywhere next to Raw, you was supposed to lock up when the fire was on max But you cut wack We saw Rock in hot water...he ain't come back! Another cut, another cut, another cut Where the fuck was all that!? You fitted for this New Era nigga, you all cap All that Cave Gang shit, that was all act When it was live and direct, it was, Quiet for the set! We saw all that violence in your raps, they props And the real movie started soon as the actin' stopped Then, you got caught lyin' in blogs and all that And y'all fans who overlooked that? Y'all fuckin' up the format 'Cause battle rap ain't supposed to have the kinda fans that ignore that I don't give a fuck how good you battle! If you can't be a man, I can't be a fan All forms of respect you shoulda lost that Talkin' 'bout, I ain't see Mook when niggas was fightin' And y'all applaud that Where the fuck y'all grew up at!? Dickhead! How the fuck you tryin' the nigga that tell the nigga who set it off that!? But you know what? You right You ain't see me in a fight - that's a for sure fact 'Cause we on stage, where the brawl at You was by the exit playin' the floor mat Guess you ain't wanna en-door endure that Then the fans ask, Well, Mook, ain't you in breach? 'Cause they say it's no-contact in the contract. Well, how's that? When all I did what I'm advised at I just crossed T and dotted a eye I black I'm a man of little words, Roc read to find redefine that John Hancock signature right that'll clarify where the line at! Then you tried to sell I ran after I swung Who buyin' that? First off, how he was gon' know if I ran Iran if he got his eye racked Iraq!? And please, don't even think I'm glorifyin' that 'Cause I'm not Listen, Roc, you ain't in tune wit' the block Nobody know a dude that you shot! The only TECs text you shoot, they blue wit' the dots You just a kid that was cool, so you rocked So whether you knew it or not, I'll lose props for havin' you as a opp! Porkchop! Call docs, they examine your body autops' Saw him after, he walked right past us - thought not Ain't seen a sucka haul Hall off that fast since cough drops! cough The fuck y'all mean Gun Bar King!? No, you the fuck not! I don't wanna hear no heavy metal you blastin' You a punk, Rock! We saw you in action, you wasn't active All them punches you got, and you ain't let one drop You a faggot! You wouldn't square up for a jump shot! Y'all jack a nigga who took a plea, when the plan was to go to trial wit' ya co-de' Bellhop Roc, ain't help Brizz to pop I thought Rock was supposed to be solid How you couldn't even send the block cinderblock? Niggas that stand next to doors will get you knocked Shit you not, you told Brizz, Break a leg so he could cripple his stock, before he get too hot Niggas like Roc? They'll gas you to be loyal To keep you close 'til they destroy you Y'all don't know how deep the wicket wicked is that'll loom in them aluminum when they not for you I'm at hot water boil Or get metal rounds, break the coil I'da saw you at the door ajar, and I'da broke Rock down to the oil Brizz and his niggas should've caught you and beat the brakes off you 'Cause you a coward And if you from the street, you already know the time I'm on if that's somethin' I'll call you Coward! The reason why your raps tonight ain't gon' stack against this? 'Cause they packed wit' a lotta hypothetically clappin' niggas and mad opinions My shit is shit people actually witnessed That's the difference You Power-trippin' My fans get the entire picture But your fans, they need proof That's why I'm glad everybody got to witness the Tommy turn Ghost... Heh, you James St. Patrick, Roc you 'bout to die on your own truth Nigga, you heard it first This the GOAT, givin' out that Curry work You 'bout to get 30'd, prob'ly Jersey wit' the Wave and the rafters Be worried, Surf You a bati, boy, and I know what ya makin' Jamaican for you to whip a verse You gettin' burnt How you don't care bein' Caribbean the one always gettin' your chicken jerked!? The butt of the gun pon Roc top, watch his bomboclaat The chop, feed this pussy the whole fuckin' stock Lift him out his fuckin' socks! 100 shots make him helicop' Lift a faggot off the floor That blade musta spun a lot And them bars hit, if you love the shot Look, double-barrel A pair'll, leave you in peril Battlewise, a pair of lies'll paralyze legal impair you That a pair of legal, that's for paralegals to handle Keep it street, I dare you! Pair of Eagles underneath my 'pparel! Before you even get to blink, I'll air you! Nigga, you a bitch You gon' forever be a bitch! And you ain't never gon' forget! This the Statue of Liberty, Roc forever gon' be lit! Fuck them candy bars, nigga! I ain't never gon' be tricked I don't give a fuck if it's Halloween! A clown never gon' be It! Nigga, Eazy! You laid the foundation down...but we built where the fuck we at Don't give a fuck what you did in the past! You just comin' back Imagine somebody showin' you where you used to do construction at Like, You see this hundred-story skyscraper? I put cement under that. Clown...I know you ain't been around It's been awhile It is marble on every floor and elevators in this building now If URL was really a house or somethin' The nigga screamin', That's LIGHT! is the reason the power runnin' You know how I'm comin' I'll put you out your misery, nigga Record deals you used to have? Shit a memory, nigga You've dropped nothin' hot in history, nigga! I'd rather be a god-tier battle rapper than a bottom-tier industry ni- What you supposed to be? Some type of lyrical miracle? My nigga, you say stupid shit that's hysterical! You told Lux, You are more hypocritical than a dyin' hippopotamus TERRIBLE! That shit was so unable to bear unbearable I swear if you, act up, I'mma make it all spooky One thing you better control is the way you talk to me I won't play wit' y'all goofies I am not a PG I'm somethin' I don't think Murda seen murder scene I'm a rated-R movie When I was Dot Mob, I played my position I never played you When everybody turned they back on y'all, I stayed true I coulda left when K-Shine left, joined DNA too I left wit' the crew I came in with my Cave crew Me not helpin' Brizz...had me stressin' I was dead wrong for not helpin' Brizz, no exceptions I learned my lesson You talkin' 'bout me holdin' doors? Question... That door I was holdin' in the fight was backstage Why ain't you come in that direction? Pussy! You speak on me not fightin'? Kinda awkward You swung and poof...disappeared You the reason the drama started You ain't stick around for action Why you put on this front? You left Detroit niggas fightin' backstage and...went out the front! You are not live, you big bitch! You swung, missed, we got rushed by Detroit niggas Nobody in Dot Mob did shit! Bitch, you real bitter Fuck how you feel, nigga Who are you to tell anybody that they ain't a real nigga? Don't worry 'bout me, don't ask me my business Where were you when Rex got his ass beat on Lenox? Somebody posted a pic of his eye...yo! Shit look like he got hit by a Tahoe! His face swole, nose bust, and his eye closed It coulda been my fault, he prob'ly was high I wanna see if you can get this riddle My Expert Opinion you shouldn't be having shits and giggles wit' a nigga that pistol-whipped you! Shit is simple Nigga split your temple, somethin' dent your mental Nigga left Murda beat he killed a instrumental! You shittin' me!? Ask this dumb nigga what's wrong wit' him That nigga split your head open, to the white meat, and then you did a song wit' him! Aye, that sound like good bargainin' Y'all want a feature from Mook? Don't pay him Just pistol-whip him and crack his skull again You comprehend? Nigga, you ain't safe unless you walkin' in wit' a bodyguard Even he gon' need somebody guardin' him Boy, you are softer than the softener your shit is washin' in I'll have it to where you passed, your pastor passin' 'round offerings No arguin' I'll be like, Let's go live on the 'Gram Dap you, then slap you I got bipolar hands We can't compare resumes, mine's over fam's I'm the Gun Bar King, I never met a phase metaphase where my toast is mitosis jammed! Play wit' me crazy Tay'll get angry Rest in Peace, Party Arty I will have Murda face a P80 Your roof'll get shot, I'll bang a .380 Snoop on your block, murder Murda, and 'Murder Was the Case' that they gave me You really should stop, or really get shot Hittin' your top This inf' red foreheads it's a Indian dot Gimme ya Glock! Semis'll pop They won't know what happened to Mook Murda murder unsolved...rest in peace, Biggie and 'Pac I had to kill Rex, one round In Philly, he dropped Now I'm givin' the General Mills it's a cereal box! I might flip Let this butterfly knife flip, slice shit 187, Method Man wit' the ice pick type shit Bitch, clamp ya head in a vise grip Leave him there for 1,400 hours - I know it sound type slick But on military time, it's type sick! Forensics found Murda Murder at 1600 Who seen that Wesley Snipes flick? I know the basics Rock is still active like open cases Open faces, like Taraji wit' the rifle in Smokin' Aces I'll leave you in the desert, I will find a hole in Vegas And that's How to Get Away with Murda Murder Viola Davis! You not the truth Pussy, you ain't a nigga that I salute If it's beef, I don't apologize...I cop a deuce I'll let goblins loose, they don't wanna hear no kinda truce Rock his roof, his this Cat in the Hat Dr.- I got the juice You thought you was educated? Boy, you'd put a hit out on Roc and be devastated Come to find out the hitter you sent to me never made it He hesitated, when they found Murda's man slaughtered it was premeditated You talk stupid, I'mma split this nigga mug If I'm ever stealin' steel in a bar, there's a pistol in the club My bitch creep up wit' somethin' resemblin' a snub BANG! That was Murda Murder She Wrote on the window in his blood Knocked his brains out, murk him wit' a .9 He landed head-first in his brain matter I put Murda murder on his mind! Boy, you straight twat Fuckin' wit' Tay Roc? I think not I'll push a blade in, 'til the blade stop Twist it If I can't get it out 'cause the blade locked in his tank top I drag Hawks 'cross Mookie chest Blaylock! He'll straight drop! This rifle'll hit his head If whoever got your back alive, it'll be Night of the Living Dead I'm the nigga that this nigga can't body I don't care how long you rap See, Murda C-Murder? No Limit can't stop me Rap Yo, all jokes aside... When I just listened to you rappin'...choreographin'...'bout how you 'bout to make all of this dyin' happen... It took every bone in my body to not start dyin' laughin' Yo, Roc, everything violent that you say gon' happen is not gon' happen My Detroit niggas already showed you the one be lyin' Lion, cappin' But wait a minute, hold up Y'all hear that? Hello! Hello?... Is anybody home? Is anybody home?... No vacant! Roc, where everybody in the Cave went? They escaped to civili-za-tion! They figured out they ain't gotta stick to Rock to get they flame lit You tricked them, you ain't train them All that gas, all them matches, you gave 'em But they talent set the blazin' Somehow you made 'em believe friction is how it got created Now, I know y'all thinkin', That's basic information. Where they been? But duh! They been livin' under a Rock they was Cave men! All them skeletons of yours you thought was lost? Ain't no favoritism pickin' which bone marrow, and I brought 'em all Push a pawn off a board I helped you sow your royal oats That's what I brought you to the city for So JayBlac, when King Jaffe around Roc, I ain't with none of that semi Semmi talk! You wanna switch roles wit' me? Pause But it's yours Fire lead in your hat Now you King Jaffe, Roc...lyin' lion dead on your back! It ain't where you from, pussy - it's where you at That's why I came all the way where I'm from to where you at I dare you at Tranquilizer leave a bear relaxed Die wit' ya eyes open - let's have a staring match! The hammer clap, 'til the handle burn like candle wax Tre on your hat, you don't even get a Chance to rap Dead rappin' better promotion, see his fans react I told Smack, I need chicken, he sent the FAMILY PACK! If we warrin', then we warrin' then I'm Balrog, let's brawl again You will get pressed then stretched like an accordian Boy, you'll get whipped to next week like the DeLorean I see they done switched up the playboard for him Well, whatever offense y'all niggas put Jordan in, I'm scorin' then Oh, you Jazz-talkin'? Let the vault spin, I'm locked in Ain't no pick-and-rolls either, Roc I create my own options like, If I see him alone Malone, give him the whole stock then Stockton! Niggas say, Mook, you hate Roc! ...Aight, and? But hate is a strong word like...what if, God forbid, tomorrow, you find out Tay a goner? I say, Nigga, that'd be a weight lifted. I wish it was a way I could make it stronger. Roc, you gon' respect me, boy And these foul lines is 'cause I'm tryna make a extra point I hope you spiritual...not wit' these dark forces you would hit- Dracula? Nigga, who's scared of you? Matter fact...if bein' Dracula don't tell y'all he a sucka... under his breath Ah, my God... You can't say it no clearer How y'all put stake in the heart of a nigga who can't look himself in the mirror!? Well, let's see if this shit is all a myth I got a clip full of garlic-dipped hollow-tips What happen when you swallow this? Sleep in a casket tight, exactly how you like I go to your funeral, I talk sarcastic on the mic like, He Dracula, right? Then y'all good - he should be back by tonight. Hand of God, straight to Pearly Gates Smack White Son raise Sunrays ain't dawn on Tay 'til the morning...that's light I'll hurt the back outta wife Well, tell that bitch watch her mouth 'fore I gag it shut Grab her up, let her know she don't be around smack enough She talk like a Goon, like bullet wounds ain't about jack Jakk' to her Well, let's see if she feel like that after she gotta Count Dracula's! You ain't do it wit' Hustle Callin' Troy Mitchell your uncle is what gave you credentials Fuck you thought, biggin' Chess chest up was gon' make you official O'fficial? What about them videos of you spreadin' open your asshole you gave to O'fficial? That's on my mother grave, all of this true - sorry, O'fficial And them niggas from the Cave found out that shit, too That's why they ain't wit' you! Look, you see Brizz ain't on Roc set You startin' to show distance a lot, Chess Ave left the Cave - nigga, see what you got left!? Wait a minute...when A-V-E leave the C-A-V-E, C what you got left Right, see, you been suckin' Rajon so long, guaranteed you got cock breath Look, that nigga Surf is sick of you He been wanted to get rid of you, but he stuck around...typical Y'all relationship ain't reciprocal Nigga, Roc the help Well, I give it true I'll leave that shit to Tsu to play Mystikal But yeah, you wanna shake your ass! You ever watch yourself!? That nigga Surf talk to you on Live like you are not yourself! You killin' his business You got him against a Rock and a hard place He know you Manolo, but don't got the cojones to play Scarface Surf, you sound like a goofie! But Mookie...Mookie, Rock kept callin'! Shut the fuck up! The only real way you stop fuckin' wit' Roc is with drawin' withdrawin' Motherfuckin' right You a cartoonist The only guns you drew is the ones you drew so much when they write You give us illusions, they were startin' to come to life But...that's right Batman, Cave Gang Well, Roc, it ain't the same thing My gun go Bang Your gun say Bang Say, mayne, wait a minute, you takin' this Bat shit too far Now you want us to believe you can see sound? That's impossible Wait, but if that's logical When I got you and the Wave bouncin' off walls from this TEC echo, locate echolocate a hospital I'mma sit here and play blind wit' you But Roc, these ain't just lyrics, this shit is Braille And to make sure you see what I'm sayin', I gotta make you feel it! Wait, where was your imaginary Dezzi when you was Mario Andretti? Imposters im-pastas want sauce until their legs turn spaghetti Then the Culture got mad I spoke facts - I wasn't ready How I get killed for talkin' real? I feel like Dr. Sebi You 'bout to see the greatest ever milk this game legen-dairy Ben Jerry, said Ben Jerry's, get hit in flurries It's gettin' scary, his vision blurry Tell medics Hurry, dead in his telly Turn a bed and breakfast to a bed and buried! I see you been hangin' 'round T-Top a lot! So what? They all scared But look, all's fair in warfare Your boy Bear, he poor bears Pallbearers done pour beer for poor Bear I'mma say that shit one more time real slow...so you hear I said...all's fair in warfare Your boy Bear, he poor bears His pallbearers done pour beer for poor Bear Aye, Roc on FIRE! Piss on that nigga, I don't care! 'Cause this Macho Man ran, he Randy Savage all year Nigga, you a bitch You gon' forever be a bitch! And you ain't never gon' forget! This the Statue of Liberty, Roc forever gon' be lit! Fuck them candy bars, nigga! I ain't never gon' be tricked Give a fuck if it's Halloween! A clown never gon' be It! Nigga, EAZY! ...Stupid-ass contacts in your fuckin' eyes Battle rap...would be boring without the grace of me Whenever I'm not around, y'all be boring 'em, basically I should fall back a card or two, just to make 'em see All it takes is one boring card Soon as some more gets bored smorgasbord, they'll have a plate for me Bitch, you can be I'm the alpha I'm talkin' A to Z They gon' patiently wait for me while you die painfully Don't play wit' me Aye, we all gathered here tonight Everybody, bow your heads at y'all table and say grace wit' me God, forgive me - gotta murder Mook 'fore he murder me Treat this battle like I'm fightin' a murder case purposely But facin' Murda won't worry me, certainly I'mma beat Murda murder, first, second, and third de- Amen You heard of me Roc been here for eternity This blade for emergency I'll do a surgery perfectly, cut vertically Catch ya newborn inside a nursery Bury him, your seed'll be the first planted planet Mercury Currently, I'm the best, in history The rest disagree I'm facin' Murda, but you facin' the death penalty BANG! I could kill him with less energy Have somethin' Loaded in front of Mook this gon' be the best trilogy Yeah, they say I really be trippin' grippin' this .38 Bang! Make the soul of Murda rise wit' the murder rate Terminate This whole place'll be flames if you play Tay I just wrapped some old tape on the K Ray J You know how they say cigs is a gateway drug? Put a Sig cig' in your mouth, you'll get drug through a gateway If niggas ask how I been, then this what I may say I'm doin' fine. You seen my last battle? I had a great Da- Loyal to this league, I'm grateful I ain't mad what I'm paid I been ignorin' all the questions that they had for the Cave Since they no longer see C Ave, it's, What's Cave without Ave? What's Ave without Cave? I'm 'bout to have an outrage This is actually my stage All the classics I made, all the passion I gave Even though niggas jumped ship I could run shit without one nigga on my team on some Donald Trump sh- You on Trump dick! Tell 'em that when you go and perform The way you take up for Trump, it trumpet seems like you wanna blow on his horn I know you a corn! You easily offend me! I see you buggin' You got white bitches callin' you nigga - you ain't even fuckin' You thought that swing was meanin' somethin'? You gon' end up like Caine at the end of that movie I'll lean a Ilena cousin And your bitch better not speak or nothin'! Yeah, y'all hear me back there! Yeah! You gon' end up like Caine at the end of that movie I'll lean a Ilena cousin And your bitch better not speak or nothin'! She try to get out a sentence? smack Butt her butter in the middle she a English muffin Her teeth I'm crunchin' Sound like she speakin' Russian I'll reach for somethin', heaters dumpin', people runnin' Them be the reprecussions Mook, learn your bitch ass some manners in my castle What you got...one, two, three, four, five battles? Nigga, I been there and done that like time travel I'll clap you, then bury the stainless steel it's a time capsule Give MM this .9mm, lean one Since your initials is M and M Eminem, I brought a Machine Gun Clean one, shoestring, and a 'K strapped to it Money on his head, I'll put a G on MM and make Maybach Music John Ancrum, you in some shit Don't act like you innocent .50 clip, stick wit' a drum instrument Pistol-whip, break John face in increments In other words, I give a fuck what John Ancrum meant I'm vigilant I'll break a ligament on this participant! Take this loss on Caffeine to the heart stimulant! You ain't shit to niggas I went against If URL was a country, you'd be a visitor visitin' You'd be a immigrant! I'm ignorant, and not the one you should really get pissed off I'll get Murda murder set up in a small room Jigsaw Christian, Louboutin wit' the spikes- Y'ALL HEAR ME!? Y'ALL HEAR ME!? I will get Murda murder set up in a small room Jigsaw! Christian, Louboutin wit' the spikes, I will kick dog! Spike get him, like that Fatality wit' the pitfall Gun in your mouth Boy, I will push until this bitch cough Have him hoarse horse wit' a revolver McGraw Quick-Draw This shit about...angles, bars, schemes - pick a route I'll have you identifyin' your bitch body, you gotta pick her out At 16, I had the dope game figured out Moved whole things in and out Talk like you got cocaine in that drought Kick in your door, both Tay blikkers out Lookin' for Murda and murderin' that white bitch...it ain't at O.J. Simpson's house I got a surprise You wanna live? You gotta survive Pull up on the side of your ride, shotty'll rise You prob'ly'll die I'll wet up your ride That's exactly how I left Murda murdered wit' his bitch Bonnie Clyde You gotta be high! Off-white, you sniff that color You think it's all lolly? Pop lollipop on this big-ass sucker Big mag-tucker I lift that, buck you Headshot, left Murda murder in the hood I Know What You Did Last Summer You bitch-ass sucka! You don't know how to be a soldier I'll have niggas followin' you, and they followin' a quota Pop the trunk, throw your body in a Rover Ransom note like the Purge movie We holdin' Murda murder for 12 hours, and it's over. Stoppin' me? Shit, I would be amazed I heard when you facin' Murda murder, it's scary, but I'm not even afraid This where the shit stop You gotta see the Cave Facts of life, only way you can skip Rock, you gotta see the Wave Nigga, if you was in my class, you'd be bottom-tier Ars' would disrespect you, DNA would get you the fuck outta here K-Shine will fuck you up...but first, you all mine 'Cause Smack'll look like Puffy if he even attempt Murda murder on Shine Shyne You ain't the King of Harlem, you don't know how Loaded you be in Type of nigga to take a picture wit' Alpo if he see him You'se a BITCH! My man Craig ain't search us We'll make this room rock Run up stupid and be the next Billy Boondocks My cannon blam, I'll shoot 'til the hammer jam I will have Rex tryna wake you up in a ambulance You don't stand a chance We could go hand-to-hand, I'm a handyman I will catch Murda murder wit' this hook Candyman! I'm the nigga that this nigga can't body! I don't care how long you rap See, Murda C-Murder? No Limit can't stop me! Rap, pussy Yo, I ain't gon' lie, all jokes aside... When I just listened to you rappin'...choreographin'...'bout how you 'bout to make all of this dyin' happen... It took every bone in my body to not bust out dyin' laughin' You said this shit is about angles and schemes, a lot of content But...all you do is kill niggas every round Other than that, you not sayin' a thing You know what? Fuck you and your mom's a bitch Lemme say that shit again Fuck you...and your mom's a bitch ...Oh, that prob'ly don't register, right? That's 'cause in the physical, your moms exist Y'all don't remember? Say it again! It was mainly him egging that shit on wit' Brizz In hindsight, those sentiments were more yours than his My mom's a bitch? That wasn't even creative, Roc No metaphors or flips The sheer disrespect is why you knew that bar would hit Losin' any family member hurt - that's common sense But losin' your mother? That's hard as hard could get You wake up every morning sick, can't do nothin' more than wish Your whole reality torn to bits My mom's a bitch? Wait a minute - my mother talkin' - sshhh... She told me to tell you next time, be careful wit' the forces you talkin' against You ain't notice it's all been downhill for you since Bein' exposed for this fraud you is She said to tell you that's karma...that's what you can call a bitch Thinkin' back to Summer Impact, you would be the nigga to front But I'm con-few-sed Didn't you get what you want? I mean...you was the main one sayin' when I rhyme I need to hurry up and get to the punch Which one is it, chump? 'Cause now you wastin' my time Well, maybe a MAC to your head will cause medics cosmetics to help make up makeup your mind See the difference in the way that we rhyme!? I don't just Bang! Bang! fake make-up wit' lines My punchlines is real rap I make metaphors outta real facts I cover all my ground But wit' yew? All I found... ...is you talk wild loud...'bout how your gun gon' pow-pow All your opponents all got pounds But in the end, them niggas all got pounds Yo, what's gon' happen when Roc pick that lead up!? Nigga, he gon' jot down Your straps only seen in your raps Matter fact, that make you the nigga wit' the drawn-out rounds This kid is wired Roc, you done put enough bullet holes on loose-leaf to fill a binder I gotta peel pill, but I'm next-level ill For real, my pen a ceiling penicillin higher Wait a minute, I don't know what's worse... The fact that a nigga wit' just they bare hands could take your chain... Or the fact that a nigga wit' just they bare hands could break your chain... How I could just walk in the middle of the mall and make your chain? And then you come back to URL wit' a faker chain! Wait a minute, you paid to get somethin' back that's fugazi!? You crazy... Wait, it shoulda been surgery, new body, somethin' from a waist snatch You couldn't be a bigger ass payin' for somethin' fake back! I don't fuck wit' battle rappers 'cause y'all think small and I hate that Arguin' 'bout a million views - I'm tryna get paid that My pockets Puffy, right! But wit' you, it's, How did he Diddy take that? You ain't even got a car, Roc! Say that ain't facts! No, ya don't You done sold ya soul to so-and-so Sold your soul to this platform, now you stuck, can't go unless you goin' broke Hope ya know you're hoin', ho! Reason my dough load the boat? 'Cause I down the streams, sellin' out row, row, and row That's currency current, sea overflow Roc, on the low...low...low, low-low-low? I will put all this shit in motion, ho But if you think you the wave? Sure Shore, whatever floats your boat Look, you can win Twitter polls and votes But the way I get paid for this shit? to Smack Tell 'em niggas I'm the only GOAT That's all a fact You out here sack chasin', can't get a quarter back quarterback Talkin' 'bout URL made me How? I'm makin' more than Smack! Nigga, I got paid for three battles You ain't heard one round yet I'm gettin' paid to rehearse now that's what you'd call a sound check! Do ya hear me now!? I get a bag, you get a purse...bitch Big difference in that - very Your shit be on the arm, my shit I gotta carry! G'head wit' all that Roc-a-Fella Roc a fairy! You play the bitch role! This comparin' Tyler Perry to watchin' Belly! You done tricked us into thinkin' you a live alive nigga like Makaveli! The pole don't horseplay Enough to go 'round, the more the merry Pause...niggas stripped you wit' no pistol? I'm disgusted wit' you Niggas just booked you and left... The most notorious vampire in the world, you go ruin his rep' Sad day when Dracula gets somethin' took off his neck! Then five of y'all go beat on a female Talkin' 'bout, Well, she was the woman who lined him! Yeah, but what about the man who robbed him? That man ain't hidin' He all on the 'Gram wit' your shit in his hand, postin' addresses on where you can find him He posted your ID, wit' the same address you share wit' your mama And that ain't nowhere near the problem Roc, here's the problem If that address was somethin' only your close friends and family know... Wait a minute, let's do the math Carry the 2, then the fo'...there we go How the fuck did the tranny know!? 'Cause that was the same address she posted from y'all DMs of you tellin' her where to go And that was over two years ago Roc, and there's audio... I bet you would be corny though and be like, W-Well, where it go? Right? I bet you won't get on here wit' Goodz and act like he ain't hear it, though I'm sorry, Goodz, but Dan Barz is my man, so... You know what? I'mma give you line-for-line validation to let you know I had the conversation Here it go... Tay Roc, Tay Roc, I ain't tryna come out there for you to waste my time. He go, Yo, why you keep sayin' my name so much? What, you tryna shut me up? He said, No, I'm comin' She banged the line She called back, said, I need you to know I'm not a woman. You hear him say, Huh? She said, I wasn't born a woman. It was a delay, second-wise 'bout eight or nine And that's on my mother grave, to the sky The next phrase from this guy was...Yo, hurry up before I change my mind. Say I'm lyin'! Say I'm lyin'! Say I'm ly- You lyin' Say I'm lyin'! I said it Say I'm lyin'! I said it, nigga Yeah, yeah, we know But don't worry Go 'head, get tight After this, everybody gon' hear it, bro But look- Listen, listen, listen, listen, listen... Rest in Peace to Brizz bro In the orange shirt, he had him put in the earth Real nigga, he never woulda got put in my plot 'Cause see, when it's love...it's no time to think You just react when you get put in that spot But here's the nigga who started everything and did nothing Bein' loyal to him, Brizz, look what it got God, why you always take the real niggas from us? It shoulda been Roc! Nigga, 'cause we know those was all your views You'se a dummy Tryna be a ventriloquist and use a dummy to talk for you Tennis threats on the Internet I wasn't racketin' back-and-forth wit' you I wanted to wait, tell you, Suck my dick in your face! Now do what you was taught to do ...Exactly! This nigga play the battlefield, your whole squad soft as you My niggas wit' pistol play - they prayin' I call a audible Your niggas give high-fives when they hear gun bars that's hot from you My niggas shot guys If they ain't die, they finished inside the hospital, nigga! Let's call a spade a spade Right now, I'm battlin' two and a possible Brizz, T-Top, and you When you couldn't swim or fend orphan for yourself, Dot Mobb adopted you I got battles locked for you When that Cave was dark and empty, I went to bat a lot for you Knowin' I created you, burnin' a hole inside of you A shot or two is optimal, but I need you livin' long as possible Make Roc die breathin', that's what I could do I'm satisfied that you dyin' inside knowin' your career forever tied with Mook Ain't nobody kick you out You was Tre, you jumped out the ride for you 'Member? When your punches wasn't hittin' NOTHIN', Furious I was the pop for</t>
         </is>
       </c>
     </row>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Bipolar</t>
+          <t>Black Balloons Reprise (Mac Miller Version)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Bitch I'm bipolar I might Oh shit, ugh Bitch I'm bipolar I might Uhh, yeah Bitch I'm bipolar I might Fuck, ugh Bitch I'm bipolar I might switch, switch, switch I remember when I was younger One day I looked in the mirror and I asked myself who are you? And he responded Shit, nigga, I was gonna ask you See I done flew to places you ain't never been I done fucked some hoes you could never have It's a lot of questions you could never ask I could come to your show and turn it into a blood bath Damn, I paint these pictures like I paint my bitches, ugh Kill niggas, told my wrist don't Stacy Keibler, ugh I'm Scott Steiner with this big pump In high school you were the loser that had a packed lunch In high school I kept the knife in my bag tucked My nigga had the pistol on 'em, had the whole school shook I look in the mirror and meet a new me everyday shit Tell her she ain't Oakland because that's the only bay shit That's the only way shit, I'm so impatient Forty Glock on me for any sticky situation I'm two-faced and I'm proud of it, yeah Gotta get these fuck niggas 'round from me, yeah Bitch, I'm bipolar, I might switch it up, switch it up I don't know nobody, I don't give a fuck, give a fuck If I pull up on you, nigga, give it up, give it up If I pull up on you, nigga, give it up, give it up Bitch, I'm bipolar, I might switch, I might switch, uh If I pull up on you, you gon' bitch, you gon' bitch, uh Bitch, I'm bipolar, I might switch it up, switch it up Bitch, I'm bipolar, I might switch, switch, switch I'm switchin' up like Palpatine turned into Sidious I'm switchin' up like the Joker, so why you so serious? I'm switchin' like a bad bitch when she's on her period Man, I'm switchin' like the gears on The Fast and the Furious Vin Diesel, you can see my smile and my evil This style isn't feeble, you guys lookin' see-through You lookin' like a motherfuckin' screen door Nigga, hol' up, I'm blowin' up the spot, C-4 Nigga, hol' up, didn't y'all niggas seen before? Like Chris Rock, you switchin' up on me You get your shit rocked, shit knocked Call it Mary-Kate, I'm bustin' twin Glock's Slipknot, how the fuck I'm cold but yet my shit hot? Red dot, followed by the bullet to the headshot Bet' not switch on a nigga, click on a nigga, what the fuck You switched on a nigga, I bet a nigga get the slump Huh-ha-huh-ha Bitch, I'm bipolar, I might switch it up, switch it up Rrah I don't know nobody, I don't give a fuck, give a fuck Ahh If I pull up on you, nigga, give it up, give it up If I pull up on you, nigga, give it up, give it up Yeah, yeah-yeah Bitch, I'm bipolar, I might switch, I might switch Yeah, yeah, yeah If I pull up on you, you gon' bitch, you gon' bitch Yeah, yeah Bitch, I'm bipolar, I might switch it up, switch it up Yeah Bitch, I'm bipolar, I might switch, switch, switch Yeah6</t>
+          <t>I got this light shinin' in my You can turn that light off Yeah, yeah, yeah, yeah, yeah, yeah, yeah Everything is on purpose Everything is on purpose, on purpose, yeah Everything is on purpose, yeah Everything is on purpose, on purpose, yeah Mmm-hmm Hell yeah, okay You can bet I never tell a lie in my songs You fakin', how the fuck you coming flexin' with a Scion? I'm buyin' anything I put my eyes on No bygones, no motherfuckin' bygones You need to do better, I keep it hot, I choose weather That's God level, solid, I'm all metal You soft Jllo, I am flyin' higher than falsetto What's on special? Short bus droppd to the floor bus Full course, got her pussy wetter than pool shorts They waitin', never playin' like the side of the hoop court Decided to do more, I'm runnin' my own shit I know I look fantastic, I'm so happy you noticed You should focus on yourself, why your lips so loose? You talk a lot of shit, but you don't sip no juice High on opinions, but you low on funds Shit, it's my time and it's your time of the month Rhymin' ain't really nothin' but boredom I just absorb, then I'm on Gee, I'm exitin' orbit, but more importantly I'm gettin' up every mornin' Too many squares in your circle You way too out of proportion, so act accordingly Normally I'm torn between good and bad How I'm 'bout to knock 'em down, uppercut, hook or jab I ain't seen this much food since back in cookin' class Let me see what else inside this goodie bag The Big Bang happened when the black balloon ignited I feel the pain shoulder to shoulder as I was knighted The night turns to day and my days don't seem the brightest It's like itis, I wanna take a bite out of what life is If the President fuck around and piss off ISIS Bury me in blueberry bills, jewels, and ices Let's connect from mind to mind Lies are on the rise, increasin', bigger size Hard to victimize when evil's idolized Inside my battered mind, I have visions of bein' broke A broken man writin' words of wisdom inside these notes Shattered and lost, chatterin' talk, blabberin' off Grabbin' the cross, telling Jesús nothing matters at all, ugh The black balloon floats, the black balloon flies The black balloon pops, the black balloon dies I must be the black balloon and The children of the world always meets a doomed end The earth will soon end We all perish, all parents, all kids, all buried Cemetery, ceremonious, find me at my loneliest Life is the ugliest bitch I ever messed with But she quick to down that nut back like Nesquik Never try to take my life, you get your chest hit Countin' paper with Nyyjerya 'til my flesh split Uh, uh, uh We all cry The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed 'Til then, I kick that funky shit until my casket closed We all cry Can you save me, baby? The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed Ooh-ahh 'Til then, I kick that funky shit until my casket closed We all cry Ooh-ahh Can you save me, baby? Ooh-ahh, ahh-ahh-ahh, ahh-ahh Ooh-ahh, ahh Can you save me, baby? Ooh-ahh2</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Cancrejo Remix)</t>
+          <t>Bloodrush</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red</t>
+          <t>You arrived to valley Of Endless black memories Bloodlust starts You notice the smell of death Time may end, serenade will start Procession of Black Doom Dark shadows swallow you Review to reality Exclamation breaks Fog has descended You feel the power of Allies of eagle You will loose your mind Second attention Is too much for you Without the Nagual Death will Pay A visit to you</t>
         </is>
       </c>
     </row>
@@ -4908,12 +4908,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (JerriousB Remix)</t>
+          <t>Blvcklvnd Souljas</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>What exactly are you trying to hide, Mr. Curry? Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Over my Over my Over my Over my Over my Over my Over my Over my</t>
+          <t>DJ Killa Riding down the strip, bumping to some Pac Pac bitch Nigga get the shot from the double Glock Gun play nigga, it's that Triple C Coming out hard, it's that MJG Slide with the Klan, bitch you better not slip Caught his ass slipping from the full clip Grill that motherfucker, let that AK rip T.I.P., bitch I got them sticks like TIP Fuck a Burger King, if a nigga want beef Bang bang on a bitch, like I'm Chief Keef bang bang Bitches got pressure, lay a nigga six feet R.K. all day, catch a motherfucker that's on the creep Niggas is poppin', so death is your option Your body gets shot till your brain is in fronted I cut it, I chop it, you niggas is droppin' A bullet is knocking, is harder to snuff Run from the gauge, or run from the TEC Really little niggas, you don't wanna see death Really little niggas, you don't wanna see death Really little nigga, you don't wanna see death Strolling down the street, bumping that P, gripping that master beat 45 on my belt, you get dealt like niggas in Vegas be Fuck that shit, I'mma hit 'em where it hurt Knock a nigga out, then put him in a verse Lay a nigga out, then put it on a shirt Wrap up the tie, then put him in a hearse Villainistic shit when I take your bitch and unload my clip Everglades ride, let's take that trip Cement shoes so your ass don't slip Go and roe your boat, gently down the stream I got snipers in the bushes that shoot like swat teams Real nigga shit, I been 'bout mine Killing these beats like I'm tote my nine Yapping this shit like I bump on grind BatKave nigga like I'm going kinda blind Brooklyn shit, like we bikers nine Terroristic coke, blowing on that dro Nigga low key, no more Bet I take your ho, till you show like a nigga ain't know Home invade your door, express yourself like a lil bitch yo I don't give a damn, nigga I go ham Nah, I go hard as fuck, nigga you just outta luck And take yourself, nigga tuck your chain Fuck that shit, I'm bringing the pain ho1</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Like A Version)</t>
+          <t>Brainwash Pimpin</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Hi, my name is Denzel Curry And you're now 'bout to witness Black Balloons And a one, two One, two, three, let's go Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to a thousand depths Soon black balloons pop Let it be the day the pain stop, let's go Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me One time Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float Ladies and gentlemen Let it float, let it float Sampa Let it float, let it float by me Assume life is I'm the liberator Assume the walls are closing in, but that's the indicator I die a love or hater, I love a lot of haters Who wear a mask and take a jab and see me later, uh Nah, ask not what we can do Accounting for the energy residing in my mental Oh, a who are you, you haven't thought it through You standing on the seat and let is sway, you are suspendable Honey, you too dependable I don't mean to offend you boo If your boo don't inspire independence Now I can't be shy, I'm undecided I feel my fears, I die, duh-dun dead We fly balloons so high we rise in Now me and gravity are like friends to the end, ah Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Two times Hot pink, Valentine red Black balloons, over my head And what we do? Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me And on keys, we got Michael Beck playing And on bass, we got Joe Birdman And on the drums, we got Jamie Cameron And on the guitar, we got Art, check it out And on the right, we got Sampa The Great And on the mic, you got Danny Cascade And on the mic, everybody in this hit Let's break it down Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, now, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, let it float, let it float, now Let it float, now, let it float, now, now, now, now That better be close to perfect2</t>
+          <t>Im kind of famous for being a professional bitch And I want to give all the ladies out there Some tips and tricks to make every man Do everything that you ever wanted I want to teach you girls all a secret Not to please a man, or stupid shit Men have been pimping for far too long I want to make that pimpstress game strong A pimpstress can turn beta boys out Make em suck a dick for your bank account Ill teach you the commandments of the Pimpstress Game Fuck the patriarchy it wont be the same! Rule number 1 Every man wants to cum When his dicks in his hand His brain is dumb Rule number 2 Make them think youll screw If you tease him Hell be crawling for you Rule number 3 Dont let him flee His ass belongs to you Till you set him free Rule number 4 Never let him score Hell be on his knees begging for more I love giving men rules. They really need structure in their lives Theyre like disgusting dogs always humping everything around them If women dont control them, who will? But theres always more rules for those disgusting men in your life, so listen up Rule number 5 Never let him hide Blackmail him So he works in overdrive! Rule number 6 Teach that man new tricks Brainwash him To obsess about dicks Rule number 7 Always teach boys a lesson Remind them their balls Are in your posession Rule number 8 Dudes are never really straight They out there waiting For down low late Rule number 9 Copy me and be fine Boys will do anything Just to be mine Rule number 10 Be zen about men Theyre just slaves Living in your pig pen So while other bitches brag about being boss Talking trash about barbie girls in lip gloss Im turning boys out And never taking a loss</t>
         </is>
       </c>
     </row>
@@ -4942,12 +4942,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Louby Remix)</t>
+          <t>Break The Bitch Freestyle</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
+          <t>Ayy, ayy, ayy, ayy, ayy, ayy Fuck that shit Bitch I'm- Yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah Okay, huh Off of the Molly, I'm bussin' I don't talk shit, I don't do no discussion Run up on me, then that choppa is rumbling Ball on that bitch like the OKC Thunder Freestyle off the top it ain't nothin' Shit on that bitch, I think she need a plunger, uh I eat the beat like I'm hungry High off the bitch, I think I got the munchies, uh Percocet pop, got yo' bitch in the back and she giving me top in the Cadillac, uh Talkin' that shit 'til I pull up with Brodie Ridin' that gun lik a cattle back, uh Talkin' that shit 'til I pull up with Brodie He shoot at yo' fac and I bat yo' back, uh Hit you in the chest no asthma attack I don't got time for the battle rap, uh You'll come back when your done doing your hair? Bet that Hit him in his face, he forget that You know where the shit at, uh Run up in yo' trap, where the shit at? Huh Designer on me, no mismatch, uh Break the bitch off no KitKat, uh She get slapped like a pimp named Slipback Pull up on- Ooh I'm back on that Wok' You run up on me you get shot I kill a nigga like a white cop You run up on me then you get popped Choppa from Black Ops I'm gon' take stand like a black cop Man, I'm roaming with my mans Prolly in Japan Had to sleep on the flight, eleven hours off a Xan I used to pour the Wok', by the eighth, I was in a trance Had to stop it for a second, now I'm back hittin' that dance Back on that Wok', yeah, uh, back on that Wok', yeah, tuh Juiced up like 'Pac, yeah, juiced up like 'Pac, yeah, huh Back on that Wok', yeah, huh, you will get shot, yeah, huh I'm off the uppers, I don't give a fuck, Molly I pop, yeah, huh Ayy, huh, servin' them rocks, poppin' them rocks I got yo' bitch on my cock, huh Diamonds with rocks, nigga just stop I see the fake in yo' watch, huh You was a cop, you was an opp Fuckin' with me, you get popped, huh I go to Gucci, maybe Raf Simmons If a nigga wanna shop, uh Back on that Wok' again, yeah, hand on my Glock again, yeah Her mouth on my cock again, yeah, I keep on conquering, yeah I'm in the club with a .40, yeah Came in the club with my shorty, yeah My gun hot and horny, yeah, that's a different story, yeah Ayy, I ball out, feel like a Laker, bitch I sip the Henny, no chaser, bitch My gun is full of lead, ironic, 'cause it'll just get to erasing shit Fuck with niggas on that racist shit Run up on me, get to blazin' shit Jackie Chan kush in my Swisher, goddamn, I smoke 'til look like an Asian kid Aha-ha-ha-ha Back on that Wok' Back on the opps on that wok, yeah Back on that Wok', yeah Back on the opps, yeah Bow-bow-bow-bow-bow-blaow-blaow I'm rollin' Back on my opp block, huh, pull up to the opp block, huh I need some top, top Run up on me got a Glock, Glock, huh Bitch on my cock, cock, huh Go and suck my cock, uh Just 'cause yo' boyfriend walked in the room, don't mean you can stop, nah, huh, ayy Shit, I'm gonna fuck her face 'til she get lockjaw, huh Hit her from the back so good, she screaming out, Oh my God, huh Baby, I'm far from God, huh Really, I'm just being modest, huh I pray to God every day for forgiveness, I know sometimes I ain't that honest, huh I keep on flyin', I'm fly without tryin', they callin' that shit autopilot, uh Gun a librarian and a barbarian, bitch, yeah, it came with the silence, yeah I'm going hard off the Xanies and Percies, you lil' niggas just need to try it, huh Feel like Rick Ross or somethin', my pockets fat, they don't need no diet, ayy Feel like 2 Chains or somethin', with this new Draco, I'm gon start a riot, ayy Niggas talk stupid to me, It ain't nothin' for me to leave them dying, ayy Leave they momma cryin', ayy, families traumatized, ayy Presidential Rollie, see it through Obama's eyes, ayy I can't believe that nigga Trump is president for what? I mean the shit is kinda fucked up But I'm still rich so who give a fuck I can't say that, 'cause I care And I got niggas that's still in the trenches I can't pay for everybody, get the winnings They gotta get it to themselves, gotta get it, uh I'ma talk my shit and back it up Pull up in that all-black, black, Acura I shoot it too accurate, ironic, accurate in the Acura Talkin' that shit you can't catch us, uh You will need more than some backup, uh All my niggas be axing questions Like they throwing hatchets, uh, ayy Try us if you want, 'cause my niggas in the back And my niggas in the front, with a Mac, couple gats And a strap, better run, 'cause my niggas down to hunt I'ma treat you just like a Pigskin, go and punt Get the fuck out my face, I'm gon' pick up yo' bitch Get the fuck in her face All of my niggas be grippin' them K's You ain't talkin' no money, the fuck out my face I'm gon' chase to the bank, straight to the bank Remember I would run to the bank I used to follow the card crackers to the bank Couple of 'em robbin' the bank, holdup Ayy, back on that Act' Sippin' that Wok' 'til I asthma attack Run up on me, then I'm shootin' my Mac And my niggas get money, yeah, that is a fact Feel like Bobby Brown, I'm spittin' the crack Ain't get that bitch, get the fuck out my trap I fuck that bitch in the muhfuckin' back I hit that so good, she ain't know how to act, uh Like can I mess up? I don't know I gotta fess up, I mean I'm finna make a confession I mean the shit about progression I mean my word is my weapon I'm in the beat so good, yeah, taste so good I'ma come back for seconds I'm gonna kill a nigga, it's my preference I'm gonna send a nigga up to Heaven You Microsoft like Windows 7 I spit shit like a damn reverend I'm a young nigga like an adolescent I'm in school, I can teach a lesson I'm in the cut with a Smith Wesson I got the bitch from the fucking west end I fuck that bitch in the fucking Westin, huh I'm up on tour, yeah, huh I'm back from tour, yeah, huh I'm back from tour, yeah, huh I'm back from tour, yeah, huh Remember my old Twitter handle, Juice Dior, yeah That was when I was broke Now they can call me Juice Dior, yeah AP my wrist, ayy, hmm Dick in yo' bitch, ayy, huh I told that bitch to act like a dog, just give me a lick, ayy, huh I know these bitches be bitches for real They burnin' like ticks, ayy So I had to use a rubber before I bend her over and hit, ayy, huh Back on that bitch, hmm Back on that cat again, huh Hittin' that cat again, huh, I'm up to bat again, huh I'm Barry Bonds with her friends, huh I just got in with twins, huh They sucked me up in my Benz, huh It was real, it wasn't pretend, huh Back on that Act' again I was flippin' them packs, yeah I was full of adrenaline Listening to Eminem Ridin' in that old- Ridin' in that old school Ram Now I pull up in new school Lamb' I don't really give a Hoover Dam But, I'm up in Amsterdam, smokin' that gas Countin' the cake, gettin' the cash Look at yo' bitch, I'm finna smash I record it while I hit from the back I remember I was pouring up green Now a nigga really pouring up Act' Now a nigga really poppin' them Mollies Rollin', rollin', I was up in the class I remember rollin' in gym class I remember rollin' doing gym laps I remember rollin' up in math class Yeah, told my teacher had the last laugh Rich as fuck on yo' bitch ass Yeah, teach, you a broke ass Yeah, man you faileds, tryna teach the whole class Yeah, came back on they broke ass Run up on me you get poked, yeah L-O-L, but this shit ain't no joke, yeah Run up on me, you know what I'm on Choppa on me, it's getting you gone I'm up in the Lambo it transform to a 'Rari That shit Megatron Light up just like Tron, hmm Put that dick in yo' mom, hmm W-W-W-dot, you ain't on shit dot com, hmm Run up on me, you done, hmm These niggas my sons, hmm My brother locked up, won't let that nigga out Just like Akon Back on that Wok', mhm Hand on my Glock, mhm Bitch on her knees, please, ooh She give me top, mhm I'm in the studio, wait, can you turn me up a notch, yeah I'm juiced up today, they callin' me young 'Pac, ayy AP my wrist, it costs 250 Even though my gang is 150 Run up on me then that choppa hittin' It came with equipped with a muhfuckin' titty Fuck a .30, bitch, I need me a .50 And fuck an auto, rather I'd have a Semi I can finger fuck the bitch how I want It'll shoot a nigga maybe, uh1</t>
         </is>
       </c>
     </row>
@@ -4959,12 +4959,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Manuvers Remix)</t>
+          <t>Bust Ya Head Open</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, Im timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so Im cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
+          <t>Yuh 4's up, nigga Comin' to break your fuckin' face Loced' out, never ? Codeine in my cannabis Cock it now I'm finna bust Thuggin' niggas know where it's at Smokin on a fuckin' sack Niggas talkin', that's a wrap Loadin' and I'm bustin' back Cause we what's happenin', nigga what's happenin' Nigga they got the fuckin' Mac Leave these niggas fuckin' flat, tire fire fuck a ? I annihilate the place, a lion to a fuckin' cat Chop it, screw it, I'mma do it like I'm in the fuckin' trap ? life up in this bitch so tell me what the fuck you want All black, strapped up and ready out the Audi 4 7.2 up in my clip and make yo bitch' talk like ? Hit up ? Mike and tell him Burn a nigga in the trunk Don't fuck around, cause all my niggas they run down Run up on a nigga with a 4 pound So show that pussy nigga, don't go around, we bust? around Hit 'em down then blow it up, youngin' with me roll it up ? we fresh as fuck, and y'all just ??? Fuck y'all sound, my niggas go bang, 400 niggas up in this thang Give you a last one to bust your brain, crooked-ass niggas you fuckin' late Fuck a liar, pacify em', middle finger to a baby Give a nigga nine shots, pussies ain't no fuckin' cats Y'all little niggas don't want none Homie actin' like you 'bout to do a show, stuntin Niggas actin' like you gotta tell or show somethin' I run up on a nigga, let him hold somethin' You don't want that, you just actin' nigga Run up on a nigga, I'm packin' nigga Do a nigga green on that traffic nigga I ain't really break, no we talk ratchet, nigga I'm in the hood, everyday On the block, I'm smokin' haze Me and my niggas we totin' K's We ain't really never heard about playin' games, y'all niggas lame What a nigga wanna do, let a nigga know somethin' Nigga you's are actin' hard, y'all niggas really pussy, y'all niggas better stop the car? Y'all really don't want no beef, slide on a nigga in the streets, hit him with the heat 30 in the clip, knock a nigga off his feet Fuck that plan I don't really buy beef, I'm really 'bout it Y'all niggas, y'all niggas, y'all niggas just shoutin' Man y'all niggas just talkin' Run up on a nigga, I get to sparkin' Walkin' off, I'm poppin' off on any nigga 'bout that paper, nigga You's a hater nigga, faker nigga And I'll be damned if I let a nigga play a nigga It's me and the team and I'm sure ready to tape a nigga Shoot a nigga Computer, reboot a nigga Spook a nigga Shit, I might ??? I'm recordin' Snitchin', nigga stop bitchin' Then I might ship his body to Richmond, Virginia Injure, I'm a ninja Nah, not a turtle, but nigga might ? Them niggas got his ass like ?, put the .40 cal-y in the trunk Horny with the trigger let me buzz, 25 hits to the guts Pussy-ass nigga now what? What?! Hardly speakin' when you're hardly breathin' Better call the deacon, fall asleep, he dreamin' Now his momma grievin', turn to where we leavin' That's the type of shit to ask What God believe in? ?, bustin, nigga couldn't trust it Nigga had to rush it, fuck it Lookin' for a nigga 'bout a couple weeks now If I don't get him, gotta get his cousin Thuggin' and chuckin', Wu-Tang bring the ruckus The kid like the goose, you silly you duckin', shit I will Twin Glocks like ? when I bring the tommy out, what's the deal? Triple the six on the tape, when I come visit your waste starin' right in your face Dead and I don't want escape, mothafucka wanna get it so I gotta hit him with the K Goddamn, two shots to the fuckin' dome, came to the shit with the chrome Curry wanna get with them mothafuckin ' ????</t>
         </is>
       </c>
     </row>
@@ -4976,12 +4976,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Pazmal Remix)</t>
+          <t>Captain universe</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Over my Tonight on 102.1, it's Denny Cascade and the gang in town Denzel, are you really making an album? I'm telling you, eventually, they're gonna catch up to your game, you're running out of time! Someone is really trying to hurt me! It's not enough is it? It's not enough you had us come out here In the middle of the night What exactly are you trying to hide, Mr. Curry?</t>
+          <t>Intro This right here is a vocal exercise Verses and freestyles, 3 to 1, that's a ratio Ayo so lemme explain how this is gonna work When you hear this sound Gun Cock That means I'm about to go in off the top of my head Everything else is pre written These verses are all wordplay The tone and the emotions of the lyrics change They progress in the same way as the album does Think of all these verses as the cracks between the songs It's extra. I want to recap what's been going on and start to hint for what's to come This is where I, elaborate on what I mean You know, thisll, thisll help explain my ideology There's knowledge hidden in here that's gonna make the album click together No Backups, no editing, its just gonna be one vocal track ya know? Im gonna keep it nice and simple Simple beat And I'm a real emcee so I don't need a crazy beat to flex I just let my lyrics do the talking So uh, how long did I make this beat? 45 minutes? Yeesh, alright...Lets go Verse 1 Ayo, don't fuck with me Don't fuck with N!cky G I run rap like track like Steve P Ooh-wee I got the lyrical heat The inferno that burns through your journal Mos Def I'm out for blood like a Crip I'm swashbuckling ships Put my roots with my loot like a pirate All my music, Internet pirate- -ed I'm violent when my mind is dilate I spit so much it drips on my own dick The only thing I'm riding is my own dick And the only thing I write is my own shit That's a shot at ghostwriters and my consciousness So let me tell you what my options is I can either be pompous or an optimist And I can even sell celibates if I was a black market auctionist, the new clients monogamous I got this shit like a gastroenterologist I like to pop my zits And be with A B.I.G. butt Notorious bitch! Shut up and listen I got more christenings to give I'm a monster like the loch ness I could ground you up and eat you like sausage And if you're easily nauseous don't watch this cause I'll go straight for your esophagus Just playin, I kill em with kindness I'm full of life like metropolis You know I rock this shit Swing a sword at it like a Boblikin Leave your one legged friend hobbling And I got lines like red Robins fries, bottomless Verse 2 Sometimes I don't believe in myself like I'm heaven sent Sometimes I don't feel myself, self-celibate I could save a million lives and find a way to talk myself out of the relishment Cause nothings ever good enough for a perfectionist I've been too negligent with my intelligence I've been a resident inside of being hesitant Focused on the irrelevant No longer can that be my precedent Time to develop my replenishment And Let my actions become the evidence I got big shoes to fill now I grew up and filled out But a lot of my dreams spilled out I robbed myself and took the till out Feeling like I shot myself in the face With bullet cases Put holes in a lot of situations But now I'm trying to raise my innovations Climb to the top of the Appalachians Where I can grasp my aspirations That's why I bleed in every rap that I'm making Every beat is yeast, I been baking The lines are the icing to complete the cake I had patterns of bulimia so I stuff my face I wilted, but I put new flowers in the vase Water myself everyday Sunk in my roots Opened my eyes, to obtuse More than right, then left into flight Got high I'm off my vocal pipe Then ate the ripe fruit Happiness is the pursuit Shoot any dispute Ain't no problem I can't compute Ain't no dispute I can't compute And I'm en route to becoming the progidy Im en route to becoming the progidy Im en route to becoming the progprodigy Im en route to becoming to prodigy I was when I was 10 Except now I'm a grown man I can really do things now I don't have to pretend Like I used to in my bed- Room, look at the starts out my window and tell myself I'll be there soon Verse 3 I started out as whack I took the time to fine tune my craft Fast forward my time lapse Now I rhyme tight with no slack, I'm back, Im back, Im back, Im back I'm back and youre addicted to me like smack So INhale my words like crack Relax and let your eyes roll back I'll align your spine with a tap I can see my abs now I sat up, I got a six-pack now But that doesn't add up, my hunger should mean I'm Santa Claus fat now At last I finally found my knack I took the bite from the apple on your mac And regurgitated it back into this rap I got more lines than topography maps I more obsessed with myself than making sure that you clap But I know you're sitting there in your chair making your head move forward and back I molded these rhymes to be harder than a cast I reedread and breathe more jazz than a sax I stick to my pacts I'm truthful like that I snack on anything like a pack of rats I'll give you a smack if you say you hate blacks But as a matter of fact, I hate black cats If I see one in my path, fuck that I'll take the long way back And I'm a scholar in college but don't ever say that I'm frat rap That's whack crap about smashing fat racks and raping girls with fat asses IF I EVER SAW THAT HAPPEN I WOULD RIP OFF YOUR NUTSACKS I kid, but don't give me a reason to create a bloodbath Chorus Clips, Clips, Clips, Clips Reload Gun Cock Reload Gun Cock ReloadShoot Freestyle 1 I see these things, these things that I bring The metal, wood and clay to which I cling Which I think Will be what I die from So I might as well enjoy it now so why run? I put the world in my lungs I think Ill die young And spit it to you as the truth from the blunt that I speak And spit it to you as the truth from the tongue that I speak Listen to me spit these bars as Im freestyling Verse 4 This is a warpath you can track by the bloodbath Contractions of a muskrat Jump the fuck back I got my palm on my nutsack My other palms in the palms that consist of my dub sac, Ha! I got a Backwood under my mustache I hide my eyes with some sunglass-es I copped for free, fuck your logo fashion I'm comfortable with who I am, I don't need to be masked in I'm back and back in as the captain of these captions An assassin with verb-al actions You, plus your crew, is still a subtraction I'm narcissistic I only think about my rations My mind is the abstract rap contraption so fasten Your seat belts, this is a wild ride Resurrection from a mind that died Guided back into the life of light Then applied with a wide stride of pride Never slip or slide Never tongue-tied I reside in music to confide In my thoughts ideas and fears I'm in gear and Im not looking at the rear view mirror I found my career It appeared at a severe time of fear I engineered it to be premier And Now I see with my ears And I'm in the clear of the frontier Fight or flight? Stress me I might take your life Smite ya with the height of what I cite Take a bite I'm a knight of the night I dwell in the moonlight when the ghouls have goon fights I'm outright polite face to face But when I write, I might just put you in your place I got the sleight of hand, point and case I work real hard every day's a rat race Verse 5 I'm about to inject you with the verbal slime The vegetables of rhyme Nutrition for your mind Poke your nerves in your spine Emcees be all over the place with their rhymes While mine remain defined Glued to perfection I kiss the mic with affection My mind is taking time for some stretching Bending galaxies into my verbal collection My ethics remain the most pristine You dont know half the shit I've seen Drugs, violence and money ain't my scene, that shits obscene Failure is not in my genome I eat rappers like amino Acid I spit, I'm sick make you need chemo I got the heart of a king, I'm casino I keep my profile on the d low That way if I need to snap a neck, I can creep slow I'm quiet but alert like Cappuccino For every rhyme you have, I got a kilo I torpedo my ego of being half Latino with rhymes that are jalapeño A mean flow, like a lunch money Bully I got leverage like a pulley Pull your body in the gully Then assassinate ya subtly Fire rhymes, Ill boil your blood till its bubbly I must boil your blood because I can't leave evidence I can't have a conscious that is decadence I'm perfecting the elements So I can raise a hell-ish genesis Inject ya membranous tissues With my sentences Your brain is my new residence So prepare for ideas of excellence and long nights of restlessness I'm reckless, I'll erode your skeletal with tetanus Spit the most venomous Leave you stranded in a nebulous Unless you're in for my best interest I'll show you benevolence Fly us away on a Pegasus Let you benefit from my intelligence My rhymes are the perception of medicine that is perfection Known to cure cancer, bulimia and depression That last one is a self-tested assessment Verse 6 I'm back with a bad habit of being a rabbit and too hop to be toe tag-ged I'll incinerate you if you discriminately use the term faggot Bury your skeleton inside of the slime of the maggots That's the way its gotsta happen if you're a foul mouth bastard who thinks backwards you capsize slacker Step into my rapture This is chapter, one It's do this or do a backwards gun That last one rhymed with try You imbecile child step into my trial Let's see if you follow the crevices or smile Let's see if you can decipher my rhyme style It's gold wealth, disguised in stealth Subliminal messages that tend to melt Your brain it's actually not good for you health So maybe you shouldn't listen to me Maybe you should just do your own thing But just know I have a swarm of bees ready to sting Emerging, from underneath my lunula fing-ertips Talk ya shit, I ain't allergic In fact I'll probably learn it Churn it, inside of the pot Stir it Take the recipe and burn it Then emerge it 2.0 the newer version And now everybody's drinking my syrup I'm the best in the west let's not get into a stirrup From CA through Oregon, Washington to Alberta Chorus Freestyle 2 You wanna hear some words? I don't give a fuck about a verb, or a noun, I'm profound Sniffing out pounds of herb like a hound I'm always at work Spinning pizzas picture perfect round I got a low-key sound and I'm bound To have a Loki crown that's golden brown Pretty girls pucker like a goldfish mouth Im about to get a sucker on me down south I'm losing my marbles like change in the couch I guess my mindset is my new allowance Verse 7 I elope, in these dark thoughts of a man Reaching for the ends to which they span I'm creeping on myself I just need the white van Weighing actions vs. consequences by the gram I've been blowing myself up like 42 japan I'm the number one rank in any clan And I'm just speaking frank, Anne And Im walking on the plank of the shark tank My boat already sank so I'd better start to thank Oil the gears as they crank, swivel the gun on the tank And I'm the dope boy and this here is dank Every song has a ploy, I come out with a shank This ain't a toy, this the gun of a tank This ain't a coin, this is the whole bank I'm the dope boy, my product is dank Verse 8 Ill hydrate ya like hydrocortisone I'm in my zone Ive already flown Migrated to Oregon My heads a mess I need a comb Miss my family kiss em on the phone I'm up and coming I'm all up and grown Im tryna compare myself to the legend of Davy Jones I'm in construction watch out for my orange cones And I'm known for drinking milk so I'm not prone to broken bones So come at me with your full blown And problems about the O-zone Verse 9 I came out, I came out I came out, I came out And when my mother came around She said I hate your sound I thought Fuck you talking bout now? She said You're not brown, you didn't grow up downtown, sometimes I think you do these things just to see me frown I thought Fuck off, can't knock me down I'm not in this for a crown, I'm in this only for the sound Who needs to care whether I'm black white or brown? It's only what I say and convey that counts I was in the pound, impounded, who let the dogs out? I may have been lost but I came back found With a new collar and a shiny name tag on A whole new lawn of grass to aim and pee on Eat sleep and play with repeat on Barking at the mailman to be gone Cause I don't trust the government It seems like they're crooked and crumbling I wanna make my paycheck and not funnel it Back into paths where I just run a bit People need structure but government feels fluctuated Easily hated, but I think we'd hate it if we didn't make it And if we didn't have laws we would all have died 100 years ago all too faded, it's undebated Human nature is more destructive than creative That's why you should praise me for being patient I got a relation- -ship with God And he says Dog It's all backwards, our spots Responsibility in you, in knocks You're the new boss, take it out for a shot. I'm shocked, for a second my heart stopped and my stomach dropped... Me and God just flopped... So the first thing Imma do is smash the crown with a rock Burn the throne, no more idols to mock My idea of leadership is like Spock Rid of emotion and respect the cock Atmosphere Eat, sleep and fuck is what we got Take it back to the basics of the block I need your help so give me your hand There's a revolution out there for us to understand All of us create it, there's no plan Shits been spinning the same like a fan Let stand, and create a template to end all of what we debate This is a race, keep your pace Chorus Freestyle 3 It courses through my brain It-it-it-its in my sayings Its every motherfucking thing that Ive been playing And every, Ive been, Ive been spraying Running through these god damn lyrics every day in Day in, night out Cause Im a dark knight right now Im under the moon, Im literally on Mt. Baldy You motherfuckers aint know shit about the shots that Ive be calling Man what the fuck am I talking about? Im just, Im just high right now I, Im too high, Im too high Literally Im like 2000 feet above, above sea level Check my, check my fucking levels I need to turn the gain down I sound distorted Man my rhymes are so nice its like Im imported Verse 10 Ayo I was six feet deep, in something that I dug But I just pulled myself up outta that rut Im here to stir a muck Bring the fuck with the ruckus Ooh I'm so luscious This is how many fucks I give .. Hut hut, Andrew Luck I'm back in play Or re le, Chez Jose This is where I lay this is where I wanna stay Every night every day Blow up like Michael Bay Actually fuck fame, that shit cray- -fish, if you in it for the money you a bitch I don't say this often but you can suck my dick Egotistical pricks I turn into bowels I'm a wild dog you want to hear me howl? I'm like a soul on ice with the solstice at night Insomniac werewolf with a bite I scream for ice cream but I wouldn't do much for a Klondike Don't believe the hype, they're just alright but G the motherfucker who strikes with might Verse 11 I got bars thatll take me further than mars Ive known it from the start so Ive been perfecting my art Your part, is not much in my scheme Just make sure you scream when Im on stage Have everybody listening My lifes pristine Wake up and smoke weed Say Hello to the team We just trying to get some C.R.E.A.M Wu-Tang, who saying That Im playing? Im a rap abomination Emcees praying that I wont slay em On their own beat, on their own street And hear their mothers weep As I leave a card by their feet Says I ended the blindness, Sincerely the Finest Ooh-wee Ill always kill em with kindness Ooh-wee I got the lyrical heat The inferno that burns though your journal Mos Def I put my sweatshirt on so thats word to Earl I expel pearls, Im not talking about the necklace Im reckless, Ill always eat a pussy out for breakfast Im next bitch, so dont judge this dude You dont know what the fuck Ive been through Too, much has been put into this So I aint leaving until I have a gold fucking necklace Yes, I, I must spit to impress Before Im the next best to put the mic to rest Mos Def, taught me mathematic tactics Most rap is lacking So Ill start the reaction of INhale in action Thats oxygen in action I got Ls being passed n I can sleep when Im dead so for now let me rap Verse 12 I'm leaping off cliffs to expand my wingspan Morphing my brain into a sphere So every angle that appears is clear Gain the ability to sneer in the face of fear Fear is nothing Compared to what I've been cooking and stuffing Inside the turkey It's murky and doesn't understand what is mercy It's out for blood and boy am I thirsty Swimming in dreams of virgins and wine Disembodied the shrine Gave it a design Of thought, individuality Acts of kind with immortal minds Death is just a race against time To see who can accomplish what within it Death to the men who undermined women And I feel as if I never will die As I can accomplish whatever I try Apply my mind Into the eyes and look right through the sky My soul is as soft as the fuzz on a peach Embodying every freak that I meet We have more genes Than every speck of sand on a beach What does that mean? Where is the gene That makes an act of mean? Where is the gene That births a queen? Where is the gene That causes my lucid dreams? Where is the gene that made G The Jesus of DJ-ing And spitting this lyrics? You know this shit is more than just appearance This shit is really, it goes deep inside of my veins It courses through my sayings Verse 13 It's me and my words against the world I talk a lot so I don't need a referral You can't unrecord, so this shit is eternal Im smooth with my verbal and this beat is fertile So I fuck it, every night tuck it Into bed, wake up she gives me head Then puts her head on my stomach She tells me she loves it and loves when I unbutton what's covering her And plummet into her muffin Pussy so sweet Caramel, chocolate vanilla and poppy seed Yo I'm papa G Word to b poppa I g I see, hip-hop properly I'm about to take radio rap out of poverty Run an iPod monopoly with a free music economy Wreck the record label my philosophy I've overcome mountains You got anything else that can stop me? You best eat your broccoli Cause you gon need to be real strong to stop me Except I aint stopping Chorus Freestyle 4 Except I aint stopping You copy? Think about what you say before you're sorry That's why I'm old fashioned like Atari I'm on my grind doing Ollies All these raps are quality I don't have a favorite one, I'm about equality I'm in the trees like a koala be I got the world's best heart, I'm fatherly That's why all these crazy bitches want to have their fawn with me Quit calling me, I don't wanna be bothered You see, I've met a whole lot of you ladies And youre all fucking crazy Had one girl fake a pregnancy Expecting me to stick around All these women try and tie me down with a baby Ah Just put it in without a condom I've heard way too often Followed by It's alright, I took the pill Bitch I don't trust you and that's how I feel, Ha! I ain't amused but you're a muse for me to use Always spew the holy holy like in the pew I got a birds eye view and sick with my own flu With which I might fly by and kill you Catch that or was that too much for you? I hope you caught it cause now your finally dead Now I don't have to waste any lead You're so-so but I'm every thread And all your opinions are just things that Ive already said Verse 14 My lips are always chapped From all the air I drag What goes in must come out and My sentences are bad My soul is at the end of a mag I see a man with a bag I look the other way, I see the man with the segregated flag Which way do I go? What do you think? You take me stupid or someone on the brink Of world peace and humanity in sync And all of this within an arms reach So I can't blink until I find the missing link Verse 15 21 years in the making And the whole time I been going bacon I think I've been pacing I'm near my final destination Life isn't patient It wants what it wants and takes it And then it sees what it wants and creates it These are the basic rules of life Day after night, until the end of time So why do we fight? What is wrong? What is right? The only lesson I've learned is don't believe the hype Can we even learn? Or is it just lessons that we have to earn? Why do we yearn? Life always ends in turn So why do I smoke the fern? Is it the INhalation of the burn? Why do I like to curse? Why do I like to flirt? Why do I write this verse? What really are words worth? Do they really serve a purpose or is it getting lost in the universe? Should I try to fly like the birds, or dig tunnels with the worms? Why do I want these things? Are the answers really what I search? I'm trying to answer life before I lie in the hearse, yeah! Verse 16 I see, I see hip-hop as a gun It gives power to the man who yields one But it gives a whole nother level of power to the man who really knows how to wield one Same thing how it takes talent to go semi pro But it takes a whole lotta work to go professional It's a big difference It's the big leagues vs. the amateurs Its the circumference vs. the diameter The worker vs. the manager The peasant vs. the chancellor The black house cat vs. the panther It's me vs. hip hops ramblers Quit being inconsiderate And taking away from an art form So you can get your liquor in That was built to make a difference Through brutal honesty and enlightening the policies Of what us inaudibly To common to see NBC, just wants gossip I'm here in the form of the long lost prophet Allah reincarnated with Muhammad Serving the blood of my heart in a goblet Knowledge of an entire life in every droplet Flow of a faucet that's sick like vomit That last line is a composite of a sonnet I'm preparing to pay with my life And my words are my breath, and wallet Is being held under a knife The pressure is precise The ethics of a man I like to exercise Experience is the best teacher of wrong vs. right So don't believe the hype I'm not always right despite being a white, man I'm right because I stay up at night to write my insight until I can't feel my hand This is something that's bigger than me And I won't quit until I can put it in between my teeth Verse 17 They say what I say ain't as important as what I do But I'm confused, because what I bring to you is the same two Hold up Steve let's sniff out the Blues Clues This one's sweat on my neck like J. Crew Let's sniff out the Blues Clues and take a J cruise Chains of thought weigh like slave shoes Not what you should see but what they choose It's what they put on our shoes with swoosh labels We released information over the Internet for free to anyone who was able With cells into portable tables and cables Chorus Freestyle 5 Uh, I dont know what to say, uh Wassup, wassup, wassup, wassup I can be an emcee or I could be the drummer I can make more sound than the engine of a Hummer Bummer, that you have to sit the sideline While I spit raps and ride the high rise You need to climb a mountain just to get in my eyesight And I can make this real messy like we was in a pie fight That's 3.14 Whatchu know about that? Nothing? Well there's the door I suggest you still get out while it's easy like a whore Cause if you stand there and rebuttal when I come back around there's gonna be a Whole. Lot. More. Verse 18 My face been multiplying acne like I'm a mathlete Im feeling crappy like 2015 Crabtree I feel like a has be, so I drink coffee, until the break of dawn While rapping, zeppelin rocking, ignorance the new armeggadon I've had lots of time to reflect the concept of many wrongs Addiction to electronic restriction has humanity dead and gone Has everything I think been thought? Is it just the credits on? Am I ever creative or just invasive like Jason Statham in The Italian Job? That's a whole different song. Pause. New topic Verse 19 Im watching the blur of green trees and leaves Feeling like nothing ever mattered I can feel the vibration through the cars tire feet Recline and the rocksll start to sing you to sleep Elevation is what we seek, the summit is under my feet This forest is quiet no birds cheep Fresh air meant to INhale deep The smoke from the blunt starts to seep Into my lungs take in the heat Smoke on the view, gaze on the haze Baker, Im covered I'm fog Crepes with a glaze Of hazelnut gourmet sauce Topped off with whipped bliss of the gods Smoke smog with my dawgs Smash, no items or mods Not a monster but a cookie hog I'm pretty odd, do whatever I feel when I wake up Too many things to do than stay put and stay stuck Add a little flavor with a spray of the shaker I'm a creator who just gave this crater And it's big as fuck You could roll in its deep but its like the wheels on the bus Darkness makes you ponder if the difference of life is on purpose or luck? Why am I me and not a big buck? Why does my head point to happiness and big bucks? Why is my head not the shape of a duck? What if monkeys are secretly smarter than us? What if they're the ones running the experi-munts? They act dump to puppeteer us with ropes You can't understand any other life except the one yours chose But yet all our electrons rotate so close Created the difference between inland and coast Dead and living folks And the concept of hope Isotopes and molecules I be running through this shit that I cule Verse 20 I can think Though any situation I got the bossest consciousness Filled with the rawest faucet Of flawless thoughts that blossom Into colossal gospel My words are fossils Here to stay Spread and spray From Boston to Austin to the bay I display an awesome buffet Of parfaits that convey Past clichés and will live on past my day when I pass away Im molding my days like clay And churning the furnace to not decay So preserve my DNA Like fine cabernet Wine And sip it on my judgment day Eat my words like sorbet soufflé At my cafe The fires crackling My mouth is babbling Trying to tackle what happening Around me, but sadly I don't think I'm scratching The surface of the half of it I'm passing time trying to remind Every pacifist that they're accurate I'm trying to ejaculate the immaculate all over your face Make ya taste my miraculous case I'm trying to calculate every single angle Untangle hatred And become the grateful patrons Underneath those clothes we're all naked, we're all related So let's hug each other, snap the moment and paint it Make it a song on everybody's playlist And label it the greatest Chorus Freestyle 6 Oh youre a fat ass? Boo-hoo Quit going to McDonalds and make your own fucking food Its not rocket science its not even voodoo Dont eat donuts motherfucker get your head right And at night, I dont obey the law of red lights I do donuts what I drive, I spin around in my mind I got the eyesight of the three blind mice times thrice Thats nine, thats nice, I dont listen to Christ I dont like being told what not and what to do Call me a rebel but thats just what Im meant to do Im amendable but if I led, Id be incredible Dont run out of lead in your pencil Cause my lessons immensful Verse 21 Im on 16th alley in the Cascade valley North of Cali I been working out my mind like Bally Cooking something up on the galley Putting beats in body bags, add up the tally My raps are pieces of art, I got a whole gallery I can pep talk a rally into a riot for the finale Flow sweeter than berries, like Halle Ooh I like them caramel girls The scandalous girls Fuck me like an animal girls Bring out my instincts Make me go primate Annihilate your eardrums With vibrate, tions I hydrate with nitrate So I flow with nitrous Let loose like on Friday night with a pipe Packed with kief of the leaves That allows me to catch Z's Cause I don't sleep, Geez Louise Nicky G, He's the missing piece of the puzzle Between peace vs. muzzles I paint a picture with my ease-l I got a lot of power I need diesel With a flow so lethal my language needs to be illegal I got the nose of a beagle and the talons of an eagle I turn ya into fecal then roll you around like a dung beetle Ill stab you with a bees needle and put you in the fetal Position, a fucking animal on every composition 159 is the addition of my cognition So when I'm speaking you need to shut the fuck up and listen Just kidding But I'm just more than a musician I got food for thought that's nutrition I'm a poetic dietician And fuck paying tuition I'd rather spray my ammunition I'm in a high gear transmission And I just sparked the ignition Verse 22 I been creeping through the peep hole Weed O's till my feet slow Shoot a beat then I reload Nicky G, G is for giant with my fe-fi-fe-flow Stomp, the ground erodes Yo he flow like he got the cheat codes He is not an equal King Midas touch when he flow, he speak gold Deceitful, like Rumpelstiltskin Like Rumpelstiltskin Chilling with the fill in villain Im just your enemy until I make a killing Im throwing curveballs like Curt Schilling I'm iller than a chinchilla that has ten children Fighting off evil women like Scott Pilgrim I swear I've met more than a million And I don't do this for them I do this for the feeling I do this for the Chem- -istry of my brain stem Raise the mayhem Out my cranium Not the best But def- -initely in the top ten And offend- Ded if you think diff-er-ent Not what I want but I spit what I am Verse 23 I may be introverted and shy But in my mind, Lies A consciousness, where I got enough confidence and competence to accomplish an entire continent I got a horoscope of a broke metronome I'm the holy ghost giving every note a home Ill straighten out your head like a comb I'm flowing Rivers like Joan Get girls wet like boats I float with ease I got a whole lotta ways to cut the cheese I got an army of chords and keys I breathe these raps like breeze I got your hands up like I told you to freeze But unlike the police, I'm pro free Im digging tunnels underground where the moles be Dip me like guacamole I'm raising all you kids like Angelina Jolie I'm a god, on the low key Like a bass note I was born in the winter I'm straight cold Ill give you a splinter with a dull icicle Ill break the ice in your skull Throw your corpse off the hull You'll feed the seagulls My words should be illegal I'm so lethal I got retrieval skills like a beagle Snatching the egg of an eagle Which I feed my people to lead past the cathedral to laugh in the face of evil And I won't stop until the Devil lays peaceful And all men are treated equal I got a sequence of sequels This is just the prequel of the needle Chorus Freestyle 7 I just smoked a blunt My body is retarded My mind has departed Rolled a back and sparked it The moon isn't even the farthest I've traveled, through galaxies and seen through fallacies of the most lethargic That last line was a hiccup That last beat I made, I need to turn the kick up Make my vocal pop because listen how I spit luck Gain respect and get trust Maintain flexed, Nicks Maintain flexed, Nick the mista It's when the pressures on that defines who you are Are you subpar or you can reach the bar? Except the bar is meant to be lifted, and I'm the motherfucking gifted! Who be spitting and kicking all of this god damn different Things that Ive been lifting Verse 24 I'm like a magician I can disappear into thin air I brainstorm so much I wake up with Einsteins hair I'm in a race against a tortoise and I'm the hare But this ain't the story you used to hear I'm trying to rewrite history with a flare so rare My skins so fair I can give you a ghost-like scare But in reality I'm sweeter than a pear With a mistook left hook that can leave you impaired My words sting like Nair And they slap like a snare I rhyme snuggly like a big teddy bear My flow spreads like a spiders web Step into my lair I'm making the world change, Im not waiting like Mayer I spend my time as a god like creator So if music dies I can rise and be the savior Verse 25 Ain't no limits to this gift I'm tired of cheese and crackers I want to live the Ritz Bliss, death has given me a kiss But that's another story that's was some shit Let's just say I appreciate what it means to live I hold in my genesjeans my kids And honest, I hope they never get my lisp Money power and happiness, I can't scratch away this itch, it's a bitch My soul could never be beat even by Chuck Norris' fists My goal is to become a young enormous prince My name on all the tourists lists A camera click with a horde of pics Give all the Swedish chicks a foreign dick I feel immortal with this Take a shot I pray it miss, cause my sleeves' got more tricks Too many things I want to fix I'm just a kid I eat Trix I want to get under your skin like ticks The clock ticks and tocks I think time is a paradox I have too many thoughts to talk And if you're racist, suck my cock here's a box of dicks That last line was a little bit ridiculous But thats ok because Im named Nicholas And I try to stay fresh and packed like pickles is I have a high ego it's hard t</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BLACK BALLOONS | 13LACK 13ALLOONZ (Telescope Thieves Remix)</t>
+          <t>Car Phone</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Let it float, let it float, let it float, let it float Let it float, let it float by me Inside this paper plane Note my words are Navy sealed so here and I quote Taboo and I are in the same boat What's said from Pennywise, I guess we all float Sky is the limit, I could die in a minute Got my mind in a skillet, suicide not a mission See the vibe very timid, I'm timid and very sad Translated my thoughts and feelings, I pivot into the pad Rapers turn to landscapers when they use hoes Hoes turn to housewives when they see gold Ice Cube with activator when I'm aggravated Or decapitated when I lose my head since life is overrated Two thousand feet, a thousand steps I let it all sink to one thousand depths Soon black balloons pop Let it be the day the pain stop Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Heaven or Hell, huh, which one prevails, huh? We gotta go and figure it out I tried to tell you that this life isn't it And I just wanna be the rightest I can be Show my son to think so he can fly as high can be Always show examples how they kill niggas like me Thinking as straight as me, but call me crazy Sun is my attitude, so I'm cool like JAY-Z Ándale, ándale, my intelligence for threes Cancel me like I ain't the King of D.C Cancel me like I ain't the number one G Cancel me like you don't like Dance On Me Quickly they forget how you change on all these lies You flashing all these lights, and you savin' these kids lives And they hate you 'cause you're right, give me hell then, shit Take your turn to fire and to pitchfork, bitch Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me Hot pink, Valentine red Black balloons, over my head Let it float, let it float, let it float, let it float Let it float, let it float by me Let it float, let it float, let it float, let it float Let it float, let it float by me</t>
+          <t>Yeah, uh It's the mothafuckin'... Well I'm back on the scene Better than red everything Gold teeth in my mouth, still look clean Chasin' one dream, that's a dream about a dollar We can go dota, I only want her 'til tomorrow Bringin' that phonk back because you make wanna, wanna, wanna I wanna smoke some marijuana with cha boi Bitch you is for the drama But save it for yo' momma cause nobody want no problem I just want a bitch with nice round bottom Drop top whip, but my shoes all autumn Fee said get em' so I got em' Rollin' blunts fatter than yo mama Check like Osama, eatin' Benihana I just wanna live, live, live, like a baller Pop, pop, pop, my motherfuckin' collar Who ya follow? When I hit, I bet she swallow Oh, baby, I know you see me shinin' Money keep on piling' Got this way from grindin', grindin' Oh, baby I just want it all Paintings on my wall Car phone in my car, car Oh, baby, I know you see me shinin' Money keep on piling' Got this way from grindin', grindin' Oh, baby I just want it all Paintings on my wall Car phone in my car, car Well I'm back on the scene, didn't have to use a triple beam To make sure I stay wealthy, get moolah and live serene Medulla oblongata projectin' all of my dreams Escape the only fate that awaits when out of my sleep Really reality, vanishin' vanity And your eyes are not meant to be Get you wetter than manatees, oh please Give a round of applause to God The squad lookin' like angels where the devil has broadened my heart I play a organ donor, skeletons in the closet get amazed by the boner, now I want her forever Simply I'm like a Nebuchadnezzar She the queen to my kingdom and yeah she keep my Beretta In the desert, I turn back the sands of time In that alcoholic river servin' cocaine lines I'm runnin' through the city like America's most You won't know who's in the phantom so consider me ghost Women suckin' like vampires with they ego they stroke Prolly catch a heart attack with the weed that I smoke Tours, I don't feel like a tourist, leader not a tourist Party with the Mormons, hasta luego outta the mornin', damn! Hasta mañana, señorita dominicana Crashin' the pussy Baila La Bamba, off marijuana, tight, anaconda Oh, baby!</t>
         </is>
       </c>
     </row>
@@ -5010,12 +5010,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Black Balloons Reprise (Instrumental)</t>
+          <t>Certified</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Ayo, congratulations, Pebbles, you did it You done jumped in your Uncle Smack lap You asked what's in his knapsack He pulled out a box wit' a ribbon, big enough to fit you in it But you got hope 'Cause conversation of the GOAT...you winnin' most likely gets you in it It's just wack The only nigga that had your back, you put a knife in his to get it You snaked Brizz - don't say you didn't If that's your man, why you ain't convince him it should be him spittin'? You done blindsided your own pupil out his vision But I eye ain't trippin' I bet this the last your stupid ass gon' be jumpin' in his business No cap, so you don't get none of this shit twisted This battle? It ain't about who the fuck is the pen wizard This is for hard-headed slick niggas And since you wanted Brizz whippin', think Summer Impact again wit' it These punches gon' hit different Nigga, you a snake When you talk and I listen, I don't hear words, I hear hissin' Sss...the way you and URL set up Brizz? That shit sad Guess you think your turn next necks This fast'll give me whiplash You can't be from the trenches, 'cause if you was, you would know this shit math Once Raw turned into Rock, it gotta get bagged This y'all King of Pop!? Beat It The whole world saw your bitch ass All that moonwalkin' on stage shit - you did Bad! How you gon' tell me I eye change, but got the nerve to have on contacts? But you didn't have the nerve to put on when it was contact! If you was anywhere next to Raw, you was supposed to lock up when the fire was on max But you cut wack We saw Rock in hot water...he ain't come back! Another cut, another cut, another cut Where the fuck was all that!? You fitted for this New Era nigga, you all cap All that Cave Gang shit, that was all act When it was live and direct, it was, Quiet for the set! We saw all that violence in your raps, they props And the real movie started soon as the actin' stopped Then, you got caught lyin' in blogs and all that And y'all fans who overlooked that? Y'all fuckin' up the format 'Cause battle rap ain't supposed to have the kinda fans that ignore that I don't give a fuck how good you battle! If you can't be a man, I can't be a fan All forms of respect you shoulda lost that Talkin' 'bout, I ain't see Mook when niggas was fightin' And y'all applaud that Where the fuck y'all grew up at!? Dickhead! How the fuck you tryin' the nigga that tell the nigga who set it off that!? But you know what? You right You ain't see me in a fight - that's a for sure fact 'Cause we on stage, where the brawl at You was by the exit playin' the floor mat Guess you ain't wanna en-door endure that Then the fans ask, Well, Mook, ain't you in breach? 'Cause they say it's no-contact in the contract. Well, how's that? When all I did what I'm advised at I just crossed T and dotted a eye I black I'm a man of little words, Roc read to find redefine that John Hancock signature right that'll clarify where the line at! Then you tried to sell I ran after I swung Who buyin' that? First off, how he was gon' know if I ran Iran if he got his eye racked Iraq!? And please, don't even think I'm glorifyin' that 'Cause I'm not Listen, Roc, you ain't in tune wit' the block Nobody know a dude that you shot! The only TECs text you shoot, they blue wit' the dots You just a kid that was cool, so you rocked So whether you knew it or not, I'll lose props for havin' you as a opp! Porkchop! Call docs, they examine your body autops' Saw him after, he walked right past us - thought not Ain't seen a sucka haul Hall off that fast since cough drops! cough The fuck y'all mean Gun Bar King!? No, you the fuck not! I don't wanna hear no heavy metal you blastin' You a punk, Rock! We saw you in action, you wasn't active All them punches you got, and you ain't let one drop You a faggot! You wouldn't square up for a jump shot! Y'all jack a nigga who took a plea, when the plan was to go to trial wit' ya co-de' Bellhop Roc, ain't help Brizz to pop I thought Rock was supposed to be solid How you couldn't even send the block cinderblock? Niggas that stand next to doors will get you knocked Shit you not, you told Brizz, Break a leg so he could cripple his stock, before he get too hot Niggas like Roc? They'll gas you to be loyal To keep you close 'til they destroy you Y'all don't know how deep the wicket wicked is that'll loom in them aluminum when they not for you I'm at hot water boil Or get metal rounds, break the coil I'da saw you at the door ajar, and I'da broke Rock down to the oil Brizz and his niggas should've caught you and beat the brakes off you 'Cause you a coward And if you from the street, you already know the time I'm on if that's somethin' I'll call you Coward! The reason why your raps tonight ain't gon' stack against this? 'Cause they packed wit' a lotta hypothetically clappin' niggas and mad opinions My shit is shit people actually witnessed That's the difference You Power-trippin' My fans get the entire picture But your fans, they need proof That's why I'm glad everybody got to witness the Tommy turn Ghost... Heh, you James St. Patrick, Roc you 'bout to die on your own truth Nigga, you heard it first This the GOAT, givin' out that Curry work You 'bout to get 30'd, prob'ly Jersey wit' the Wave and the rafters Be worried, Surf You a bati, boy, and I know what ya makin' Jamaican for you to whip a verse You gettin' burnt How you don't care bein' Caribbean the one always gettin' your chicken jerked!? The butt of the gun pon Roc top, watch his bomboclaat The chop, feed this pussy the whole fuckin' stock Lift him out his fuckin' socks! 100 shots make him helicop' Lift a faggot off the floor That blade musta spun a lot And them bars hit, if you love the shot Look, double-barrel A pair'll, leave you in peril Battlewise, a pair of lies'll paralyze legal impair you That a pair of legal, that's for paralegals to handle Keep it street, I dare you! Pair of Eagles underneath my 'pparel! Before you even get to blink, I'll air you! Nigga, you a bitch You gon' forever be a bitch! And you ain't never gon' forget! This the Statue of Liberty, Roc forever gon' be lit! Fuck them candy bars, nigga! I ain't never gon' be tricked I don't give a fuck if it's Halloween! A clown never gon' be It! Nigga, Eazy! You laid the foundation down...but we built where the fuck we at Don't give a fuck what you did in the past! You just comin' back Imagine somebody showin' you where you used to do construction at Like, You see this hundred-story skyscraper? I put cement under that. Clown...I know you ain't been around It's been awhile It is marble on every floor and elevators in this building now If URL was really a house or somethin' The nigga screamin', That's LIGHT! is the reason the power runnin' You know how I'm comin' I'll put you out your misery, nigga Record deals you used to have? Shit a memory, nigga You've dropped nothin' hot in history, nigga! I'd rather be a god-tier battle rapper than a bottom-tier industry ni- What you supposed to be? Some type of lyrical miracle? My nigga, you say stupid shit that's hysterical! You told Lux, You are more hypocritical than a dyin' hippopotamus TERRIBLE! That shit was so unable to bear unbearable I swear if you, act up, I'mma make it all spooky One thing you better control is the way you talk to me I won't play wit' y'all goofies I am not a PG I'm somethin' I don't think Murda seen murder scene I'm a rated-R movie When I was Dot Mob, I played my position I never played you When everybody turned they back on y'all, I stayed true I coulda left when K-Shine left, joined DNA too I left wit' the crew I came in with my Cave crew Me not helpin' Brizz...had me stressin' I was dead wrong for not helpin' Brizz, no exceptions I learned my lesson You talkin' 'bout me holdin' doors? Question... That door I was holdin' in the fight was backstage Why ain't you come in that direction? Pussy! You speak on me not fightin'? Kinda awkward You swung and poof...disappeared You the reason the drama started You ain't stick around for action Why you put on this front? You left Detroit niggas fightin' backstage and...went out the front! You are not live, you big bitch! You swung, missed, we got rushed by Detroit niggas Nobody in Dot Mob did shit! Bitch, you real bitter Fuck how you feel, nigga Who are you to tell anybody that they ain't a real nigga? Don't worry 'bout me, don't ask me my business Where were you when Rex got his ass beat on Lenox? Somebody posted a pic of his eye...yo! Shit look like he got hit by a Tahoe! His face swole, nose bust, and his eye closed It coulda been my fault, he prob'ly was high I wanna see if you can get this riddle My Expert Opinion you shouldn't be having shits and giggles wit' a nigga that pistol-whipped you! Shit is simple Nigga split your temple, somethin' dent your mental Nigga left Murda beat he killed a instrumental! You shittin' me!? Ask this dumb nigga what's wrong wit' him That nigga split your head open, to the white meat, and then you did a song wit' him! Aye, that sound like good bargainin' Y'all want a feature from Mook? Don't pay him Just pistol-whip him and crack his skull again You comprehend? Nigga, you ain't safe unless you walkin' in wit' a bodyguard Even he gon' need somebody guardin' him Boy, you are softer than the softener your shit is washin' in I'll have it to where you passed, your pastor passin' 'round offerings No arguin' I'll be like, Let's go live on the 'Gram Dap you, then slap you I got bipolar hands We can't compare resumes, mine's over fam's I'm the Gun Bar King, I never met a phase metaphase where my toast is mitosis jammed! Play wit' me crazy Tay'll get angry Rest in Peace, Party Arty I will have Murda face a P80 Your roof'll get shot, I'll bang a .380 Snoop on your block, murder Murda, and 'Murder Was the Case' that they gave me You really should stop, or really get shot Hittin' your top This inf' red foreheads it's a Indian dot Gimme ya Glock! Semis'll pop They won't know what happened to Mook Murda murder unsolved...rest in peace, Biggie and 'Pac I had to kill Rex, one round In Philly, he dropped Now I'm givin' the General Mills it's a cereal box! I might flip Let this butterfly knife flip, slice shit 187, Method Man wit' the ice pick type shit Bitch, clamp ya head in a vise grip Leave him there for 1,400 hours - I know it sound type slick But on military time, it's type sick! Forensics found Murda Murder at 1600 Who seen that Wesley Snipes flick? I know the basics Rock is still active like open cases Open faces, like Taraji wit' the rifle in Smokin' Aces I'll leave you in the desert, I will find a hole in Vegas And that's How to Get Away with Murda Murder Viola Davis! You not the truth Pussy, you ain't a nigga that I salute If it's beef, I don't apologize...I cop a deuce I'll let goblins loose, they don't wanna hear no kinda truce Rock his roof, his this Cat in the Hat Dr.- I got the juice You thought you was educated? Boy, you'd put a hit out on Roc and be devastated Come to find out the hitter you sent to me never made it He hesitated, when they found Murda's man slaughtered it was premeditated You talk stupid, I'mma split this nigga mug If I'm ever stealin' steel in a bar, there's a pistol in the club My bitch creep up wit' somethin' resemblin' a snub BANG! That was Murda Murder She Wrote on the window in his blood Knocked his brains out, murk him wit' a .9 He landed head-first in his brain matter I put Murda murder on his mind! Boy, you straight twat Fuckin' wit' Tay Roc? I think not I'll push a blade in, 'til the blade stop Twist it If I can't get it out 'cause the blade locked in his tank top I drag Hawks 'cross Mookie chest Blaylock! He'll straight drop! This rifle'll hit his head If whoever got your back alive, it'll be Night of the Living Dead I'm the nigga that this nigga can't body I don't care how long you rap See, Murda C-Murder? No Limit can't stop me Rap Yo, all jokes aside... When I just listened to you rappin'...choreographin'...'bout how you 'bout to make all of this dyin' happen... It took every bone in my body to not start dyin' laughin' Yo, Roc, everything violent that you say gon' happen is not gon' happen My Detroit niggas already showed you the one be lyin' Lion, cappin' But wait a minute, hold up Y'all hear that? Hello! Hello?... Is anybody home? Is anybody home?... No vacant! Roc, where everybody in the Cave went? They escaped to civili-za-tion! They figured out they ain't gotta stick to Rock to get they flame lit You tricked them, you ain't train them All that gas, all them matches, you gave 'em But they talent set the blazin' Somehow you made 'em believe friction is how it got created Now, I know y'all thinkin', That's basic information. Where they been? But duh! They been livin' under a Rock they was Cave men! All them skeletons of yours you thought was lost? Ain't no favoritism pickin' which bone marrow, and I brought 'em all Push a pawn off a board I helped you sow your royal oats That's what I brought you to the city for So JayBlac, when King Jaffe around Roc, I ain't with none of that semi Semmi talk! You wanna switch roles wit' me? Pause But it's yours Fire lead in your hat Now you King Jaffe, Roc...lyin' lion dead on your back! It ain't where you from, pussy - it's where you at That's why I came all the way where I'm from to where you at I dare you at Tranquilizer leave a bear relaxed Die wit' ya eyes open - let's have a staring match! The hammer clap, 'til the handle burn like candle wax Tre on your hat, you don't even get a Chance to rap Dead rappin' better promotion, see his fans react I told Smack, I need chicken, he sent the FAMILY PACK! If we warrin', then we warrin' then I'm Balrog, let's brawl again You will get pressed then stretched like an accordian Boy, you'll get whipped to next week like the DeLorean I see they done switched up the playboard for him Well, whatever offense y'all niggas put Jordan in, I'm scorin' then Oh, you Jazz-talkin'? Let the vault spin, I'm locked in Ain't no pick-and-rolls either, Roc I create my own options like, If I see him alone Malone, give him the whole stock then Stockton! Niggas say, Mook, you hate Roc! ...Aight, and? But hate is a strong word like...what if, God forbid, tomorrow, you find out Tay a goner? I say, Nigga, that'd be a weight lifted. I wish it was a way I could make it stronger. Roc, you gon' respect me, boy And these foul lines is 'cause I'm tryna make a extra point I hope you spiritual...not wit' these dark forces you would hit- Dracula? Nigga, who's scared of you? Matter fact...if bein' Dracula don't tell y'all he a sucka... under his breath Ah, my God... You can't say it no clearer How y'all put stake in the heart of a nigga who can't look himself in the mirror!? Well, let's see if this shit is all a myth I got a clip full of garlic-dipped hollow-tips What happen when you swallow this? Sleep in a casket tight, exactly how you like I go to your funeral, I talk sarcastic on the mic like, He Dracula, right? Then y'all good - he should be back by tonight. Hand of God, straight to Pearly Gates Smack White Son raise Sunrays ain't dawn on Tay 'til the morning...that's light I'll hurt the back outta wife Well, tell that bitch watch her mouth 'fore I gag it shut Grab her up, let her know she don't be around smack enough She talk like a Goon, like bullet wounds ain't about jack Jakk' to her Well, let's see if she feel like that after she gotta Count Dracula's! You ain't do it wit' Hustle Callin' Troy Mitchell your uncle is what gave you credentials Fuck you thought, biggin' Chess chest up was gon' make you official O'fficial? What about them videos of you spreadin' open your asshole you gave to O'fficial? That's on my mother grave, all of this true - sorry, O'fficial And them niggas from the Cave found out that shit, too That's why they ain't wit' you! Look, you see Brizz ain't on Roc set You startin' to show distance a lot, Chess Ave left the Cave - nigga, see what you got left!? Wait a minute...when A-V-E leave the C-A-V-E, C what you got left Right, see, you been suckin' Rajon so long, guaranteed you got cock breath Look, that nigga Surf is sick of you He been wanted to get rid of you, but he stuck around...typical Y'all relationship ain't reciprocal Nigga, Roc the help Well, I give it true I'll leave that shit to Tsu to play Mystikal But yeah, you wanna shake your ass! You ever watch yourself!? That nigga Surf talk to you on Live like you are not yourself! You killin' his business You got him against a Rock and a hard place He know you Manolo, but don't got the cojones to play Scarface Surf, you sound like a goofie! But Mookie...Mookie, Rock kept callin'! Shut the fuck up! The only real way you stop fuckin' wit' Roc is with drawin' withdrawin' Motherfuckin' right You a cartoonist The only guns you drew is the ones you drew so much when they write You give us illusions, they were startin' to come to life But...that's right Batman, Cave Gang Well, Roc, it ain't the same thing My gun go Bang Your gun say Bang Say, mayne, wait a minute, you takin' this Bat shit too far Now you want us to believe you can see sound? That's impossible Wait, but if that's logical When I got you and the Wave bouncin' off walls from this TEC echo, locate echolocate a hospital I'mma sit here and play blind wit' you But Roc, these ain't just lyrics, this shit is Braille And to make sure you see what I'm sayin', I gotta make you feel it! Wait, where was your imaginary Dezzi when you was Mario Andretti? Imposters im-pastas want sauce until their legs turn spaghetti Then the Culture got mad I spoke facts - I wasn't ready How I get killed for talkin' real? I feel like Dr. Sebi You 'bout to see the greatest ever milk this game legen-dairy Ben Jerry, said Ben Jerry's, get hit in flurries It's gettin' scary, his vision blurry Tell medics Hurry, dead in his telly Turn a bed and breakfast to a bed and buried! I see you been hangin' 'round T-Top a lot! So what? They all scared But look, all's fair in warfare Your boy Bear, he poor bears Pallbearers done pour beer for poor Bear I'mma say that shit one more time real slow...so you hear I said...all's fair in warfare Your boy Bear, he poor bears His pallbearers done pour beer for poor Bear Aye, Roc on FIRE! Piss on that nigga, I don't care! 'Cause this Macho Man ran, he Randy Savage all year Nigga, you a bitch You gon' forever be a bitch! And you ain't never gon' forget! This the Statue of Liberty, Roc forever gon' be lit! Fuck them candy bars, nigga! I ain't never gon' be tricked Give a fuck if it's Halloween! A clown never gon' be It! Nigga, EAZY! ...Stupid-ass contacts in your fuckin' eyes Battle rap...would be boring without the grace of me Whenever I'm not around, y'all be boring 'em, basically I should fall back a card or two, just to make 'em see All it takes is one boring card Soon as some more gets bored smorgasbord, they'll have a plate for me Bitch, you can be I'm the alpha I'm talkin' A to Z They gon' patiently wait for me while you die painfully Don't play wit' me Aye, we all gathered here tonight Everybody, bow your heads at y'all table and say grace wit' me God, forgive me - gotta murder Mook 'fore he murder me Treat this battle like I'm fightin' a murder case purposely But facin' Murda won't worry me, certainly I'mma beat Murda murder, first, second, and third de- Amen You heard of me Roc been here for eternity This blade for emergency I'll do a surgery perfectly, cut vertically Catch ya newborn inside a nursery Bury him, your seed'll be the first planted planet Mercury Currently, I'm the best, in history The rest disagree I'm facin' Murda, but you facin' the death penalty BANG! I could kill him with less energy Have somethin' Loaded in front of Mook this gon' be the best trilogy Yeah, they say I really be trippin' grippin' this .38 Bang! Make the soul of Murda rise wit' the murder rate Terminate This whole place'll be flames if you play Tay I just wrapped some old tape on the K Ray J You know how they say cigs is a gateway drug? Put a Sig cig' in your mouth, you'll get drug through a gateway If niggas ask how I been, then this what I may say I'm doin' fine. You seen my last battle? I had a great Da- Loyal to this league, I'm grateful I ain't mad what I'm paid I been ignorin' all the questions that they had for the Cave Since they no longer see C Ave, it's, What's Cave without Ave? What's Ave without Cave? I'm 'bout to have an outrage This is actually my stage All the classics I made, all the passion I gave Even though niggas jumped ship I could run shit without one nigga on my team on some Donald Trump sh- You on Trump dick! Tell 'em that when you go and perform The way you take up for Trump, it trumpet seems like you wanna blow on his horn I know you a corn! You easily offend me! I see you buggin' You got white bitches callin' you nigga - you ain't even fuckin' You thought that swing was meanin' somethin'? You gon' end up like Caine at the end of that movie I'll lean a Ilena cousin And your bitch better not speak or nothin'! Yeah, y'all hear me back there! Yeah! You gon' end up like Caine at the end of that movie I'll lean a Ilena cousin And your bitch better not speak or nothin'! She try to get out a sentence? smack Butt her butter in the middle she a English muffin Her teeth I'm crunchin' Sound like she speakin' Russian I'll reach for somethin', heaters dumpin', people runnin' Them be the reprecussions Mook, learn your bitch ass some manners in my castle What you got...one, two, three, four, five battles? Nigga, I been there and done that like time travel I'll clap you, then bury the stainless steel it's a time capsule Give MM this .9mm, lean one Since your initials is M and M Eminem, I brought a Machine Gun Clean one, shoestring, and a 'K strapped to it Money on his head, I'll put a G on MM and make Maybach Music John Ancrum, you in some shit Don't act like you innocent .50 clip, stick wit' a drum instrument Pistol-whip, break John face in increments In other words, I give a fuck what John Ancrum meant I'm vigilant I'll break a ligament on this participant! Take this loss on Caffeine to the heart stimulant! You ain't shit to niggas I went against If URL was a country, you'd be a visitor visitin' You'd be a immigrant! I'm ignorant, and not the one you should really get pissed off I'll get Murda murder set up in a small room Jigsaw Christian, Louboutin wit' the spikes- Y'ALL HEAR ME!? Y'ALL HEAR ME!? I will get Murda murder set up in a small room Jigsaw! Christian, Louboutin wit' the spikes, I will kick dog! Spike get him, like that Fatality wit' the pitfall Gun in your mouth Boy, I will push until this bitch cough Have him hoarse horse wit' a revolver McGraw Quick-Draw This shit about...angles, bars, schemes - pick a route I'll have you identifyin' your bitch body, you gotta pick her out At 16, I had the dope game figured out Moved whole things in and out Talk like you got cocaine in that drought Kick in your door, both Tay blikkers out Lookin' for Murda and murderin' that white bitch...it ain't at O.J. Simpson's house I got a surprise You wanna live? You gotta survive Pull up on the side of your ride, shotty'll rise You prob'ly'll die I'll wet up your ride That's exactly how I left Murda murdered wit' his bitch Bonnie Clyde You gotta be high! Off-white, you sniff that color You think it's all lolly? Pop lollipop on this big-ass sucker Big mag-tucker I lift that, buck you Headshot, left Murda murder in the hood I Know What You Did Last Summer You bitch-ass sucka! You don't know how to be a soldier I'll have niggas followin' you, and they followin' a quota Pop the trunk, throw your body in a Rover Ransom note like the Purge movie We holdin' Murda murder for 12 hours, and it's over. Stoppin' me? Shit, I would be amazed I heard when you facin' Murda murder, it's scary, but I'm not even afraid This where the shit stop You gotta see the Cave Facts of life, only way you can skip Rock, you gotta see the Wave Nigga, if you was in my class, you'd be bottom-tier Ars' would disrespect you, DNA would get you the fuck outta here K-Shine will fuck you up...but first, you all mine 'Cause Smack'll look like Puffy if he even attempt Murda murder on Shine Shyne You ain't the King of Harlem, you don't know how Loaded you be in Type of nigga to take a picture wit' Alpo if he see him You'se a BITCH! My man Craig ain't search us We'll make this room rock Run up stupid and be the next Billy Boondocks My cannon blam, I'll shoot 'til the hammer jam I will have Rex tryna wake you up in a ambulance You don't stand a chance We could go hand-to-hand, I'm a handyman I will catch Murda murder wit' this hook Candyman! I'm the nigga that this nigga can't body! I don't care how long you rap See, Murda C-Murder? No Limit can't stop me! Rap, pussy Yo, I ain't gon' lie, all jokes aside... When I just listened to you rappin'...choreographin'...'bout how you 'bout to make all of this dyin' happen... It took every bone in my body to not bust out dyin' laughin' You said this shit is about angles and schemes, a lot of content But...all you do is kill niggas every round Other than that, you not sayin' a thing You know what? Fuck you and your mom's a bitch Lemme say that shit again Fuck you...and your mom's a bitch ...Oh, that prob'ly don't register, right? That's 'cause in the physical, your moms exist Y'all don't remember? Say it again! It was mainly him egging that shit on wit' Brizz In hindsight, those sentiments were more yours than his My mom's a bitch? That wasn't even creative, Roc No metaphors or flips The sheer disrespect is why you knew that bar would hit Losin' any family member hurt - that's common sense But losin' your mother? That's hard as hard could get You wake up every morning sick, can't do nothin' more than wish Your whole reality torn to bits My mom's a bitch? Wait a minute - my mother talkin' - sshhh... She told me to tell you next time, be careful wit' the forces you talkin' against You ain't notice it's all been downhill for you since Bein' exposed for this fraud you is She said to tell you that's karma...that's what you can call a bitch Thinkin' back to Summer Impact, you would be the nigga to front But I'm con-few-sed Didn't you get what you want? I mean...you was the main one sayin' when I rhyme I need to hurry up and get to the punch Which one is it, chump? 'Cause now you wastin' my time Well, maybe a MAC to your head will cause medics cosmetics to help make up makeup your mind See the difference in the way that we rhyme!? I don't just Bang! Bang! fake make-up wit' lines My punchlines is real rap I make metaphors outta real facts I cover all my ground But wit' yew? All I found... ...is you talk wild loud...'bout how your gun gon' pow-pow All your opponents all got pounds But in the end, them niggas all got pounds Yo, what's gon' happen when Roc pick that lead up!? Nigga, he gon' jot down Your straps only seen in your raps Matter fact, that make you the nigga wit' the drawn-out rounds This kid is wired Roc, you done put enough bullet holes on loose-leaf to fill a binder I gotta peel pill, but I'm next-level ill For real, my pen a ceiling penicillin higher Wait a minute, I don't know what's worse... The fact that a nigga wit' just they bare hands could take your chain... Or the fact that a nigga wit' just they bare hands could break your chain... How I could just walk in the middle of the mall and make your chain? And then you come back to URL wit' a faker chain! Wait a minute, you paid to get somethin' back that's fugazi!? You crazy... Wait, it shoulda been surgery, new body, somethin' from a waist snatch You couldn't be a bigger ass payin' for somethin' fake back! I don't fuck wit' battle rappers 'cause y'all think small and I hate that Arguin' 'bout a million views - I'm tryna get paid that My pockets Puffy, right! But wit' you, it's, How did he Diddy take that? You ain't even got a car, Roc! Say that ain't facts! No, ya don't You done sold ya soul to so-and-so Sold your soul to this platform, now you stuck, can't go unless you goin' broke Hope ya know you're hoin', ho! Reason my dough load the boat? 'Cause I down the streams, sellin' out row, row, and row That's currency current, sea overflow Roc, on the low...low...low, low-low-low? I will put all this shit in motion, ho But if you think you the wave? Sure Shore, whatever floats your boat Look, you can win Twitter polls and votes But the way I get paid for this shit? to Smack Tell 'em niggas I'm the only GOAT That's all a fact You out here sack chasin', can't get a quarter back quarterback Talkin' 'bout URL made me How? I'm makin' more than Smack! Nigga, I got paid for three battles You ain't heard one round yet I'm gettin' paid to rehearse now that's what you'd call a sound check! Do ya hear me now!? I get a bag, you get a purse...bitch Big difference in that - very Your shit be on the arm, my shit I gotta carry! G'head wit' all that Roc-a-Fella Roc a fairy! You play the bitch role! This comparin' Tyler Perry to watchin' Belly! You done tricked us into thinkin' you a live alive nigga like Makaveli! The pole don't horseplay Enough to go 'round, the more the merry Pause...niggas stripped you wit' no pistol? I'm disgusted wit' you Niggas just booked you and left... The most notorious vampire in the world, you go ruin his rep' Sad day when Dracula gets somethin' took off his neck! Then five of y'all go beat on a female Talkin' 'bout, Well, she was the woman who lined him! Yeah, but what about the man who robbed him? That man ain't hidin' He all on the 'Gram wit' your shit in his hand, postin' addresses on where you can find him He posted your ID, wit' the same address you share wit' your mama And that ain't nowhere near the problem Roc, here's the problem If that address was somethin' only your close friends and family know... Wait a minute, let's do the math Carry the 2, then the fo'...there we go How the fuck did the tranny know!? 'Cause that was the same address she posted from y'all DMs of you tellin' her where to go And that was over two years ago Roc, and there's audio... I bet you would be corny though and be like, W-Well, where it go? Right? I bet you won't get on here wit' Goodz and act like he ain't hear it, though I'm sorry, Goodz, but Dan Barz is my man, so... You know what? I'mma give you line-for-line validation to let you know I had the conversation Here it go... Tay Roc, Tay Roc, I ain't tryna come out there for you to waste my time. He go, Yo, why you keep sayin' my name so much? What, you tryna shut me up? He said, No, I'm comin' She banged the line She called back, said, I need you to know I'm not a woman. You hear him say, Huh? She said, I wasn't born a woman. It was a delay, second-wise 'bout eight or nine And that's on my mother grave, to the sky The next phrase from this guy was...Yo, hurry up before I change my mind. Say I'm lyin'! Say I'm lyin'! Say I'm ly- You lyin' Say I'm lyin'! I said it Say I'm lyin'! I said it, nigga Yeah, yeah, we know But don't worry Go 'head, get tight After this, everybody gon' hear it, bro But look- Listen, listen, listen, listen, listen... Rest in Peace to Brizz bro In the orange shirt, he had him put in the earth Real nigga, he never woulda got put in my plot 'Cause see, when it's love...it's no time to think You just react when you get put in that spot But here's the nigga who started everything and did nothing Bein' loyal to him, Brizz, look what it got God, why you always take the real niggas from us? It shoulda been Roc! Nigga, 'cause we know those was all your views You'se a dummy Tryna be a ventriloquist and use a dummy to talk for you Tennis threats on the Internet I wasn't racketin' back-and-forth wit' you I wanted to wait, tell you, Suck my dick in your face! Now do what you was taught to do ...Exactly! This nigga play the battlefield, your whole squad soft as you My niggas wit' pistol play - they prayin' I call a audible Your niggas give high-fives when they hear gun bars that's hot from you My niggas shot guys If they ain't die, they finished inside the hospital, nigga! Let's call a spade a spade Right now, I'm battlin' two and a possible Brizz, T-Top, and you When you couldn't swim or fend orphan for yourself, Dot Mobb adopted you I got battles locked for you When that Cave was dark and empty, I went to bat a lot for you Knowin' I created you, burnin' a hole inside of you A shot or two is optimal, but I need you livin' long as possible Make Roc die breathin', that's what I could do I'm satisfied that you dyin' inside knowin' your career forever tied with Mook Ain't nobody kick you out You was Tre, you jumped out the ride for you 'Member? When your punches wasn't hittin' NOTHIN', Furious I was the pop for</t>
+          <t>'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist I said niggas love to get they buzz up It's a fact them motherfuckers never loved us I can be the main talk in a barbershop chair, but I'll never let you see me get my buzz cut Six shots like a Call of Duty split-screen so you know I gotta gang green Stackin' all of my currency for the niggas who hurtin' me, either they are supporting or either hatin' Jealousy's for bitches, I'm not an enemy Put my time into money instead of enemies But you know they say it goes until it's good, we could go in the next seven days You don't exist to me Ya'll can all watch the throne, I'ma still go ham Stackin' these O's of the Toucan Sam Bird game perp, there's a killer on cam I can turn any picture into Silence of the Lambs Woah That's killer, Denzel that nigga Woah People hate regardless and that's a fact nigga All I gotta do is die and stay racked nigga But I'm 'bout to have the luxury of countin' racks nigga Real shit, see now we rich Overhaters throw south, don't even throw a fit You can say what you want, but I know you ain't dis But in reality I prolly fucked your bitch Boy eastside where you out yo vibe Damn Nigga better clip the .45 Raa Ya'll niggas ain't talkin' 'bout Damn I'm back to the money, who lie Oh Hatin' ass niggas get popped God damn I'm 32 Zel to the five Oh shit If you think I'm not that nigga man, damn my nigga you cry 'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Iced out like a motherfucking frostbite Pure ice, fuck your Snow White Cold cap, bring da ice Senile, ice cold, with a girl all froze Now we eskimo bros 'Cause we scared that ho like a URL I was born to give ya'll hell so All hail D-E-N, be like me 'Cause I get the racks, why see you can't Compared to a profit, infinite, plus niggas too many sockets Goes in my pockets, niggas be plottin' For my dog, he gonna cock it Boys got rich like a firehouse Pigs come through put the fire out 32 Zel 'bout to ball out I'm the name yo bitch wanna call out So how in the fuck do you feel You do not know what's so real Kick her right out of the door if she talkin' 'bout feelings or not 'cause Oh you don't like that shit Tell everybody it's how I say bitch See not glow, my niggas been rich Always good music ain't fucking with the clique Boy eastside where you out yo vibe Damn Nigga better clip the .45 Raa Ya'll niggas ain't talkin' 'bout Damn I'm back to the money, who lie Oh Hatin' ass niggas get popped God damn I'm 32 Zel to the five Oh shit If you think I'm not that nigga man, damn my nigga you cry 'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist That's killer Denzel that nigga That's killer Denzel that nigga</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Black Balloons Reprise (Mac Miller Version)</t>
+          <t>Champ’s n G’s</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>I got this light shinin' in my You can turn that light off Yeah, yeah, yeah, yeah, yeah, yeah, yeah Everything is on purpose Everything is on purpose, on purpose, yeah Everything is on purpose, yeah Everything is on purpose, on purpose, yeah Mmm-hmm Hell yeah, okay You can bet I never tell a lie in my songs You fakin', how the fuck you coming flexin' with a Scion? I'm buyin' anything I put my eyes on No bygones, no motherfuckin' bygones You need to do better, I keep it hot, I choose weather That's God level, solid, I'm all metal You soft Jllo, I am flyin' higher than falsetto What's on special? Short bus droppd to the floor bus Full course, got her pussy wetter than pool shorts They waitin', never playin' like the side of the hoop court Decided to do more, I'm runnin' my own shit I know I look fantastic, I'm so happy you noticed You should focus on yourself, why your lips so loose? You talk a lot of shit, but you don't sip no juice High on opinions, but you low on funds Shit, it's my time and it's your time of the month Rhymin' ain't really nothin' but boredom I just absorb, then I'm on Gee, I'm exitin' orbit, but more importantly I'm gettin' up every mornin' Too many squares in your circle You way too out of proportion, so act accordingly Normally I'm torn between good and bad How I'm 'bout to knock 'em down, uppercut, hook or jab I ain't seen this much food since back in cookin' class Let me see what else inside this goodie bag The Big Bang happened when the black balloon ignited I feel the pain shoulder to shoulder as I was knighted The night turns to day and my days don't seem the brightest It's like itis, I wanna take a bite out of what life is If the President fuck around and piss off ISIS Bury me in blueberry bills, jewels, and ices Let's connect from mind to mind Lies are on the rise, increasin', bigger size Hard to victimize when evil's idolized Inside my battered mind, I have visions of bein' broke A broken man writin' words of wisdom inside these notes Shattered and lost, chatterin' talk, blabberin' off Grabbin' the cross, telling Jesús nothing matters at all, ugh The black balloon floats, the black balloon flies The black balloon pops, the black balloon dies I must be the black balloon and The children of the world always meets a doomed end The earth will soon end We all perish, all parents, all kids, all buried Cemetery, ceremonious, find me at my loneliest Life is the ugliest bitch I ever messed with But she quick to down that nut back like Nesquik Never try to take my life, you get your chest hit Countin' paper with Nyyjerya 'til my flesh split Uh, uh, uh We all cry The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed 'Til then, I kick that funky shit until my casket closed We all cry Can you save me, baby? The day the black balloon explode, we all die Nobody couldn't handle the truth, we all lie Then wait to see the real exposed Ooh-ahh 'Til then, I kick that funky shit until my casket closed We all cry Ooh-ahh Can you save me, baby? Ooh-ahh, ahh-ahh-ahh, ahh-ahh Ooh-ahh, ahh Can you save me, baby? Ooh-ahh2</t>
+          <t>You know I'm saying, strictly for my raiders, nigga I had to get two niggas, you know I'm saying These raiders, my nigga Champ Fway, Harvey G Man, give 'em that phonk, my nigga Blavklvnd Rvdix Troublesome Strictly for my raiders, Harvey G Blavklvnd Rvdix 66.6, nigga Harvey G, young man maxi, smokin' on that cat piss Snapping niggas' necks, Macho Man, Randy Savage All my hoes the baddest, hold 'em like magnets If I see George Zimmerman I'll blast him They look like we ain't equal Turnin' us against our own people No , pure evil Y'all transparent, I see you Tell the truth and they ain't believe you Only live once, you better think twice think about it til reaper come and snatch your life This chess, not checkers, not rolling dice Kill everything, shoot a nigga on sight, sipping on that dirty Sprite Purple, purple, purple ice, yeah, a psychedelic night Uh, yeah, she feeling the phonk I ain't talking 'bout a car when I say that she got a donk Skinny tears and dead bodies coming out of the trunk This Raider Klan, understand, guns like Pakistan All across Blavklvnd, Harvey G the fuckin' man Damn, 'bout to kill man I'm still smoking on like a chopper, man I kick it all day, Van Damme Sour D smoke got my eyes all lazy Niggas sneak diss but that shit don't faze me We don't talk shit, been sick in there lately Send that man all on me crazy This ain't young man, the truth is evil Gun in my hand, I'm 'bout to shoot these people Blacked out in Timb' boots and a Niggas say they real, but I can see straight, dude I am recording, my nigga, this true You fake as fuck, so my dick in your boo Fuck all that fame, just give me the loot Run up on me, I'ma give you the blues Fa-fa-fa, y'all niggas pop Niggas started dying, I'ma find you Shoot you in your eye, I'ma blind you Nigga, I ain't got no mind, fool</t>
         </is>
       </c>
     </row>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Bloodrush</t>
+          <t>Chop Em Up</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>You arrived to valley Of Endless black memories Bloodlust starts You notice the smell of death Time may end, serenade will start Procession of Black Doom Dark shadows swallow you Review to reality Exclamation breaks Fog has descended You feel the power of Allies of eagle You will loose your mind Second attention Is too much for you Without the Nagual Death will Pay A visit to you</t>
+          <t>I'm only here to do Rum dirty, tuck birdy, drum sturdy Lunch break one, 30 130 If I lose tonight then I'm tyin' the judges, it's a hung jury I'm violatin', nah, I won't leave no space You fool them with this Pacino face, but in ya heart we see Nino traits I don't believe that he sold weight Why? Cause you got Cort' court after Drugz? That means you about to fold, this a RICO case Me no play today, see he no safe See I O.D. 'til I see you D.O.A So start respectin' me Boy, that first battle? You was talkin' recklessly You won't be caught beat Cort' twice Tonight? It's double Jeopardy The .45? Baow! Trajectory It specialize at making Crips walk with an accessory So fuck that 100K, respectfully, this 'bout legacy Y'all asked for the T, so I'm steam, lettin' the lemon squeeze Boy, the only blue faces I respect, are dead to me Machete, slash his memory Good for one hack, like Patrick Beverly Boy, I had to play it calm Bullets go behind ya back like we breakin' bonds I turn up and blast it in his head like his favorite song I've been catchin' bodies, y'all should catch the priors After that Eazy battle they said, 'Tez retire. I had an off season And came back like J. Cole with goals to leave the 'net on fire That's how you torch foes There'll be yellow tape at your crossroads White chalk, dark souls Black TEC's, dark mode Boy, I will smoke ya ashes to charcoal, that's how you earned urned death Burst TEC's, burnt flesh Trigger finger quicker than an A.I. first step Chokes What the fuck? I'm chokin', it's a crazy session Nah I'm bullshittin', that's just my Casey impression I told niggas- Cortez ends the round on himself I can't miss I'm like Above The Rim when it comes to a name flip And that's just something I live and die by Cort' court like my name's Flip Dangerous, we don't play I keep a razor that'll eat ya face From ear to ear his cheek's fileted I left Cort' court with a smile, cause my brother just beat the Case' Every other Saturday, you've been cookin' fam' But I knew as soon as I got to wrap in ya face, that'll be the weekend Weeknd that start lookin' bad Pull a mag', shoot you wit' it Barrel in his mouth, give him a moon roof ceiling And blew his teeth clean out, like a Nunu visit You think I'm trollin'? Bang it on him Nina lickin', leave him crippled the way I'm finna make this Rican sitter think it over I think it's over That 100K, will go from motivation to a motive 30 popped him, no medics, just the Caffeine workers workin' on him Applyin' pressure, inserting cotton Bringing out the first aids on Cort' court like Irving Johnson You heard me patna? I'm real focused, fillin' bullets to the top, tryin' to see what the mil' holdin' I just smoked Drugz, steel still loaded I ain't tryin' to kill no one I'm a family man, I don't think I'm 'Pac But I'll squeeze a Glock to make it back to my kids, I'm the only thing they got Then he heard a single pop This ain't the best look That dyke hoe that said you was better, will get her head whooped I should've knocked yo' gay ass out Fit' outfit before I got to Cort' court like Westbrook TEC cook Get shot for real, got him killed Now he can't even see his seeds grow Smack, fuck how papi feel poppi field Dig a hole, you're gone now Pole across yo' scalp See it splat when the Rican crack like a dope house You 'bout to get all type of bad You won't see no kinda bag What's another words for tournament? A tourny attorney and Cort' court don't stand a fightin' chance I'm finna smoke dawg, I told y'all You know what'll really make this body over the top? If I up the pole Vault pole-vault No talk .50 Cal', bullets whizzin' out goin' Zoom, Zoom, Zoom That's all Cort' court hearin' now You for real a clown Aye you like puttin' yo' hands on women? I should clap you up And let that bitch kick back, like J. Lo 'til you had enough Smack calls time Aye fuck that first battle and fuck that first round Now I'm talkin' spicy, I'm more seasoned in the kitchen Sofrito drippin' Wait, I heard that y'all be Crippin' When since Cort' on blue cordon bleu this time, I'm cookin' different for the chicken Glock clickin', pot whippin', .30 will bang Look stupid, bird in the brain Rum spilled on the carpet, that's a permanent stain Ayo, matter of fact, hold on, they sayin' that the cops here? We don't give a fuck about that shit Boy if you there, we gon' pop there stumbles Boy if you there, we gon' pop there I chop 'em up, sell him limbs on black market, that's a profit share Fuck the Mexican talk too, caught somethin' bigger than taco here And when the stock drop you'll do more than drop tier What's poppin'? Yeah! I told these nigga, I don't wanna battle. I sold guns from Cali to Queens nigga, these hollows gonna travel Baow, and now you gargle on a capsule You went from the top of the app Nitty, to the bottom of my barrel I blast a Hawk Rewatchin' Nitty ass get chalked They'll be no future in you, those are my after thoughts You don't ring bells, you never made it past the porch In my hood? Ain't no gold medals but every other day I had to past the torch So I keep a lil' piece Will squeeze if I have to hear a Lil' Peep Drill piece, steal his car Lil' Reese It's lit bro, that 100 round drum, let a clip go I'll put the whole stock in his Crip tho crypto It's currency Nitty, and I heard about the cash you makin' In his crib, no mask, I'm vaccinated Pistol whip, head crack, crack ya brain in You'll run down Cort' court? Leave his basket hangin' Team Homi, oh that's your defense slime? Swave sent the drop, I know where to catch slime Stretch .9 You don't get it, Magneto helmet, I'm made to protect mines minds Look Rum, random bars won't work, respect mines When you talkin' to the plug, we need direct lines I'm blazin' the lead That fuckin' 100K's the only thing that plays in my head It's bodega, it's only right this cat gettin' laid over bread I was fed, y'all disrespected, now I'm catchin' a fury Cause like a bag full of percies, I started handin' out 30's UM3, round 3, oh now y'all follow my journey? Once Smack signed off Cort' court, showed the power of a tourney attorney I'm bangin' early, yeah it's a tragic thing if I clap the thing, the 'matic ring First a Blood, now a Crip, they crown this Latin, King I'll white flag ya team, Nitty soul get levitated Once the casket close Nit' knit family separated! I'm in ya hood, and I got metal to grip It's a clean 30, that's a gentleman's clip And it back Cort' court in Phoenix like Devin and Chris Smack calls time Aye real talk though my nigga Who be helpin' you write? Cause when you said that one line...I'm lyin', you ain't said nothin' that's nice This shit is over I'ma lift it on him, no mask Show up bare bear faced on Cort' court like the Grizzly's logo I'm on a mission solo, waitin' outside ya crib for you Cort'll get clipped, soon as he come out that bitch umbilical Pop the trunk, you gonna get in too, there's plenty room Even that hoe whole Fit can go wit' Cortez, it's a Dickie suit You that nigga too But that Shotgun ain't got no respect for a legend gun clicks And this is Proof Nigga move I need that 100, and ain't no Mission Impossible So my logic is, if you gotta eat then Ethan Hunt somethin' Who the fuck want it? I'll pull it out and stretch him, squeeze and buck Now the Rican's struck reconstruct, now they tryin' to put you back together Replace part of your skull or you dead So you can imagine yo'self winnin' that money, but that place plates all in ya head Fam' done I'll hit him in the Cadillac truck, he can't run Drag him, big ass Escalade on Cort' court like And 1 And what?! You can try and punch wit' me, that's your choice But the skill gap is about here in hearing range, we on two different frequencies And I know that hurts hertz more War lord Literally, this shit is over Cort' court, check the scoreboard After dawg get stretched, I'll take all the money and jewelry off his neck I left Cort' court in the street without a dime...like Delonte West On the set Aye, you better help ya homie this time Cause we came in this bitch with like eight .45's 845 But I'm finna show Cort the quarter .9 900 You get outta line? Then this boy done Just give me his second half, I'm finna zip Cort' up And I get done shankin' Mr. Spanish, I'ma tell him send your senor cut Aye, I give a fuck if they show love to me when I do rappin' My nigga, we had to pull the plug on our own mama cause she was unresponsive I kept talkin', and that's the only time I needed a reaction That shit left me broken too Literally, broke in two She left 100,000 in life insurance but that couldn't close my wounds I ain't even want it! She died for us to get that money Now so will you! Load the tool, trip and you gon' die You from Brooklyn? You really from the Stuy' stye? But the pain is different in my eyes On God Ayo a .9 pop, brains everywhere when I pop I even got blood on the Rollie, you just died on my watch We slide ops, blast you In Brooklyn, we don't drive quarts, we drive past you I'm cravin' the case and we known for sliders like White Castle I told niggas, yo Smack, you don't about none of these niggas Cause you put 100K on the head of every one of these niggas I'll do the job, work for hire Easy fee, by myself, I scam alone, no PPP So go ahead and talk stupid, my dawg shooters, rawruthless Beanie Siegel, State Property, final scene Cort' court shootin' I chalk students, I hate y'all, in my face God It's fake y'all, Jake Paul After this there won't be no more cap after this after we faceoff I hate y'all I'm made inside, I'm the Undertaker out the casket, I'm back alive Pistol whip, Louieville Slugger, crack ya mind And they will never look at you again once I bat an eye Told you nigga, that's facts Nitty all you do is clap MACs I'm different, off that Bacardi Rum we back caps Yeah boy, ya roof get splattered, then the tool I splatter 12 leave 'em dead, who the fuck said, these Blue Lives Matter? I sold a shit load of hammers, I put it all in the bricks The work literally cost me a grip I'm talkin' on yo' strip in yo' hood, I was trappin'schemin' You had traps in AZ Nitty? I haven't seen it You was in the game 6? Well, before Jordan I was winnin' with packs in Paxson Phoenix And I peep it, the sneak shit Uh huh, I'm onto they ass You and Geechi? Y'all splittin'? Y'all goin' half? EMS pick 'em up when I split 'em, both in halves Word Aye! There's no half assin' or back trackin' Just clap at him Revolver hold six, but only three of the rounds blew blue like an App battle I'm that badder Nigga you can't see? This the nigga you can't beat This is like the third time fire on Cort' court I'm on a 2K streak Elite I'm finna go on a run, I told you he done You'll get left I'll displace you Cortez, it can only be one If I go to the trunk, this bitch gon' learn, it's my word Grip it firm, hit up Ern' Ernest Bury the murder weapon Planting plant in the spring feel Springfield like Mr. Burns Kill confirmed I'll pull up on this man's set like, Who want funk? Dum dum in his shotgun like a crash test Leave fam' stretched We be wildin' and you not a problem like an abscess I'm past that, I don't gotta kill niggas For a couple racks they gon' deal wit' 'em I just pay 'em like a G M.O. GMO, and that ain't even no real chicken Still spinnin', I let it air Fuck a drive-by, I'll hop out the Cherokee on foot like the Trail Of Tears Let's be clear Before this was goin' down You knew you would lose before this was goin' down What's goin' down? You don't wanna live or you just gave it up? And became a donor now Load the cal' if dawg want it I'ma rob niggas like, Give it all nigga. Or I pull a MAC's and force Cortez, I put the fear of God in him My nigga! This shit is a wrap All them plates you been gettin' from Smack And as we can see, Cor' done ate coordinate a lot, but this still ain't a match Facts! Me run out of punches, that's somethin' you won't ever see After all this time, I still be surprised at my gift, cause I never peaked peeked Let me eat .40 shoot near Unload the blue steel I give a fuck what you got under that tee ese TSA, it's goin' through clear For real! Aye, I gotta keep workin' I can't lose Just like your government, I'm still out here earnin' Ern' in my name too Thang shoot, murk 'em bad Body in the furnace since you've been tryin' to reach Surf so bad Now we can finally see Ern' urn and ash You trash Just a nigga that I gotta drop Before they stop the clock, I gotta make sure every punch count it's Com-U-Box And that's a lot You know I'll do you bad You can't catch a break? You either gon' have to change what you wrote or throw away the pad We can crash This ain't it Cortez You fat, sloppy, body bitch The fans say they miss fit Ms. Fit Cortez Bitch</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Blvcklvnd Souljas</t>
+          <t>Choppin</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DJ Killa Riding down the strip, bumping to some Pac Pac bitch Nigga get the shot from the double Glock Gun play nigga, it's that Triple C Coming out hard, it's that MJG Slide with the Klan, bitch you better not slip Caught his ass slipping from the full clip Grill that motherfucker, let that AK rip T.I.P., bitch I got them sticks like TIP Fuck a Burger King, if a nigga want beef Bang bang on a bitch, like I'm Chief Keef bang bang Bitches got pressure, lay a nigga six feet R.K. all day, catch a motherfucker that's on the creep Niggas is poppin', so death is your option Your body gets shot till your brain is in fronted I cut it, I chop it, you niggas is droppin' A bullet is knocking, is harder to snuff Run from the gauge, or run from the TEC Really little niggas, you don't wanna see death Really little niggas, you don't wanna see death Really little nigga, you don't wanna see death Strolling down the street, bumping that P, gripping that master beat 45 on my belt, you get dealt like niggas in Vegas be Fuck that shit, I'mma hit 'em where it hurt Knock a nigga out, then put him in a verse Lay a nigga out, then put it on a shirt Wrap up the tie, then put him in a hearse Villainistic shit when I take your bitch and unload my clip Everglades ride, let's take that trip Cement shoes so your ass don't slip Go and roe your boat, gently down the stream I got snipers in the bushes that shoot like swat teams Real nigga shit, I been 'bout mine Killing these beats like I'm tote my nine Yapping this shit like I bump on grind BatKave nigga like I'm going kinda blind Brooklyn shit, like we bikers nine Terroristic coke, blowing on that dro Nigga low key, no more Bet I take your ho, till you show like a nigga ain't know Home invade your door, express yourself like a lil bitch yo I don't give a damn, nigga I go ham Nah, I go hard as fuck, nigga you just outta luck And take yourself, nigga tuck your chain Fuck that shit, I'm bringing the pain ho1</t>
+          <t>Yeah, yeah Choppin, choppin, choppin, scopes Chopsticks Yeah, yeah, choppin Yeah, yeah Chopsticks, choppin, choppin, choppin, choppin Oh my god, Ronny Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Choppa with that stick, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that stick, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Go get your mane 'cause I've sent you the alcohol Mainly 'cause our shit is praying Like, this not a game, we ain't playing SEGA Killers built like Kane, now they understand us 'Cause we ain't from the Chi, we ain't from Decatur This is more like Cuba, Haiti, or Jamaica Asking for a four, I can see the numbers, just to make 'em greater hagnin' down like an ornament It's a damn match, not a tournament You last up, it was unfortunate That's why we stay on the porch with a SUV while they Niggas pulled up, niggas hopped out Then it blew up, it's a shootout Can't see the dude so I heard These be the reasons I can't pull it out, that- Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Choppa with the stick, in the streets, gotta' get back They were hoppin' out while they were walkin' in Choppa with the stick, in the streets, gotta' get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins</t>
         </is>
       </c>
     </row>
@@ -5078,12 +5078,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Brainwash Pimpin</t>
+          <t>CLOUT COBAIN | CLOUT CO13A1N (Spotify Singles)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Im kind of famous for being a professional bitch And I want to give all the ladies out there Some tips and tricks to make every man Do everything that you ever wanted I want to teach you girls all a secret Not to please a man, or stupid shit Men have been pimping for far too long I want to make that pimpstress game strong A pimpstress can turn beta boys out Make em suck a dick for your bank account Ill teach you the commandments of the Pimpstress Game Fuck the patriarchy it wont be the same! Rule number 1 Every man wants to cum When his dicks in his hand His brain is dumb Rule number 2 Make them think youll screw If you tease him Hell be crawling for you Rule number 3 Dont let him flee His ass belongs to you Till you set him free Rule number 4 Never let him score Hell be on his knees begging for more I love giving men rules. They really need structure in their lives Theyre like disgusting dogs always humping everything around them If women dont control them, who will? But theres always more rules for those disgusting men in your life, so listen up Rule number 5 Never let him hide Blackmail him So he works in overdrive! Rule number 6 Teach that man new tricks Brainwash him To obsess about dicks Rule number 7 Always teach boys a lesson Remind them their balls Are in your posession Rule number 8 Dudes are never really straight They out there waiting For down low late Rule number 9 Copy me and be fine Boys will do anything Just to be mine Rule number 10 Be zen about men Theyre just slaves Living in your pig pen So while other bitches brag about being boss Talking trash about barbie girls in lip gloss Im turning boys out And never taking a loss</t>
+          <t>I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I've felt Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain I don't even know what to feel, they don't even know what's real Dry tears with a dollar bill, I'm out tryna make a mill', oh Why you wanna take my soul? I'm yelling out hell no! I can't even trust my friends, most of them might be foes Watch these hoes when they say they want a lot of me I don't know who's the one that wanna plot on me I stay low so my demons don't acknowledge me When I go, I know death don't do apologies I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I felt Ayy Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Know when it rains, it pours They wanna go to war For things that they can't afford I gotta grab the sword, preach I gotta thank the Lord, I gotta go record heat I wanna be fly to soar 'cause niggas be trying to floor me People be thinkin' that I won the lottery So paranoid, I don't know who be plotting on me Out of nowhere try to fight you I'm feeling like Raichu 'cause everything shocking to me Gotta beware of the wicked, the time will be ticking Them niggas still clocking on me Lord is my witness, I handle my business You niggas ain't never ball blocking on me I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I've felt Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Clout Cobain Clout Cobain Clout Cobain</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Break The Bitch Freestyle</t>
+          <t>CNT U SEE (Remix)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Ayy, ayy, ayy, ayy, ayy, ayy Fuck that shit Bitch I'm- Yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah Okay, huh Off of the Molly, I'm bussin' I don't talk shit, I don't do no discussion Run up on me, then that choppa is rumbling Ball on that bitch like the OKC Thunder Freestyle off the top it ain't nothin' Shit on that bitch, I think she need a plunger, uh I eat the beat like I'm hungry High off the bitch, I think I got the munchies, uh Percocet pop, got yo' bitch in the back and she giving me top in the Cadillac, uh Talkin' that shit 'til I pull up with Brodie Ridin' that gun lik a cattle back, uh Talkin' that shit 'til I pull up with Brodie He shoot at yo' fac and I bat yo' back, uh Hit you in the chest no asthma attack I don't got time for the battle rap, uh You'll come back when your done doing your hair? Bet that Hit him in his face, he forget that You know where the shit at, uh Run up in yo' trap, where the shit at? Huh Designer on me, no mismatch, uh Break the bitch off no KitKat, uh She get slapped like a pimp named Slipback Pull up on- Ooh I'm back on that Wok' You run up on me you get shot I kill a nigga like a white cop You run up on me then you get popped Choppa from Black Ops I'm gon' take stand like a black cop Man, I'm roaming with my mans Prolly in Japan Had to sleep on the flight, eleven hours off a Xan I used to pour the Wok', by the eighth, I was in a trance Had to stop it for a second, now I'm back hittin' that dance Back on that Wok', yeah, uh, back on that Wok', yeah, tuh Juiced up like 'Pac, yeah, juiced up like 'Pac, yeah, huh Back on that Wok', yeah, huh, you will get shot, yeah, huh I'm off the uppers, I don't give a fuck, Molly I pop, yeah, huh Ayy, huh, servin' them rocks, poppin' them rocks I got yo' bitch on my cock, huh Diamonds with rocks, nigga just stop I see the fake in yo' watch, huh You was a cop, you was an opp Fuckin' with me, you get popped, huh I go to Gucci, maybe Raf Simmons If a nigga wanna shop, uh Back on that Wok' again, yeah, hand on my Glock again, yeah Her mouth on my cock again, yeah, I keep on conquering, yeah I'm in the club with a .40, yeah Came in the club with my shorty, yeah My gun hot and horny, yeah, that's a different story, yeah Ayy, I ball out, feel like a Laker, bitch I sip the Henny, no chaser, bitch My gun is full of lead, ironic, 'cause it'll just get to erasing shit Fuck with niggas on that racist shit Run up on me, get to blazin' shit Jackie Chan kush in my Swisher, goddamn, I smoke 'til look like an Asian kid Aha-ha-ha-ha Back on that Wok' Back on the opps on that wok, yeah Back on that Wok', yeah Back on the opps, yeah Bow-bow-bow-bow-bow-blaow-blaow I'm rollin' Back on my opp block, huh, pull up to the opp block, huh I need some top, top Run up on me got a Glock, Glock, huh Bitch on my cock, cock, huh Go and suck my cock, uh Just 'cause yo' boyfriend walked in the room, don't mean you can stop, nah, huh, ayy Shit, I'm gonna fuck her face 'til she get lockjaw, huh Hit her from the back so good, she screaming out, Oh my God, huh Baby, I'm far from God, huh Really, I'm just being modest, huh I pray to God every day for forgiveness, I know sometimes I ain't that honest, huh I keep on flyin', I'm fly without tryin', they callin' that shit autopilot, uh Gun a librarian and a barbarian, bitch, yeah, it came with the silence, yeah I'm going hard off the Xanies and Percies, you lil' niggas just need to try it, huh Feel like Rick Ross or somethin', my pockets fat, they don't need no diet, ayy Feel like 2 Chains or somethin', with this new Draco, I'm gon start a riot, ayy Niggas talk stupid to me, It ain't nothin' for me to leave them dying, ayy Leave they momma cryin', ayy, families traumatized, ayy Presidential Rollie, see it through Obama's eyes, ayy I can't believe that nigga Trump is president for what? I mean the shit is kinda fucked up But I'm still rich so who give a fuck I can't say that, 'cause I care And I got niggas that's still in the trenches I can't pay for everybody, get the winnings They gotta get it to themselves, gotta get it, uh I'ma talk my shit and back it up Pull up in that all-black, black, Acura I shoot it too accurate, ironic, accurate in the Acura Talkin' that shit you can't catch us, uh You will need more than some backup, uh All my niggas be axing questions Like they throwing hatchets, uh, ayy Try us if you want, 'cause my niggas in the back And my niggas in the front, with a Mac, couple gats And a strap, better run, 'cause my niggas down to hunt I'ma treat you just like a Pigskin, go and punt Get the fuck out my face, I'm gon' pick up yo' bitch Get the fuck in her face All of my niggas be grippin' them K's You ain't talkin' no money, the fuck out my face I'm gon' chase to the bank, straight to the bank Remember I would run to the bank I used to follow the card crackers to the bank Couple of 'em robbin' the bank, holdup Ayy, back on that Act' Sippin' that Wok' 'til I asthma attack Run up on me, then I'm shootin' my Mac And my niggas get money, yeah, that is a fact Feel like Bobby Brown, I'm spittin' the crack Ain't get that bitch, get the fuck out my trap I fuck that bitch in the muhfuckin' back I hit that so good, she ain't know how to act, uh Like can I mess up? I don't know I gotta fess up, I mean I'm finna make a confession I mean the shit about progression I mean my word is my weapon I'm in the beat so good, yeah, taste so good I'ma come back for seconds I'm gonna kill a nigga, it's my preference I'm gonna send a nigga up to Heaven You Microsoft like Windows 7 I spit shit like a damn reverend I'm a young nigga like an adolescent I'm in school, I can teach a lesson I'm in the cut with a Smith Wesson I got the bitch from the fucking west end I fuck that bitch in the fucking Westin, huh I'm up on tour, yeah, huh I'm back from tour, yeah, huh I'm back from tour, yeah, huh I'm back from tour, yeah, huh Remember my old Twitter handle, Juice Dior, yeah That was when I was broke Now they can call me Juice Dior, yeah AP my wrist, ayy, hmm Dick in yo' bitch, ayy, huh I told that bitch to act like a dog, just give me a lick, ayy, huh I know these bitches be bitches for real They burnin' like ticks, ayy So I had to use a rubber before I bend her over and hit, ayy, huh Back on that bitch, hmm Back on that cat again, huh Hittin' that cat again, huh, I'm up to bat again, huh I'm Barry Bonds with her friends, huh I just got in with twins, huh They sucked me up in my Benz, huh It was real, it wasn't pretend, huh Back on that Act' again I was flippin' them packs, yeah I was full of adrenaline Listening to Eminem Ridin' in that old- Ridin' in that old school Ram Now I pull up in new school Lamb' I don't really give a Hoover Dam But, I'm up in Amsterdam, smokin' that gas Countin' the cake, gettin' the cash Look at yo' bitch, I'm finna smash I record it while I hit from the back I remember I was pouring up green Now a nigga really pouring up Act' Now a nigga really poppin' them Mollies Rollin', rollin', I was up in the class I remember rollin' in gym class I remember rollin' doing gym laps I remember rollin' up in math class Yeah, told my teacher had the last laugh Rich as fuck on yo' bitch ass Yeah, teach, you a broke ass Yeah, man you faileds, tryna teach the whole class Yeah, came back on they broke ass Run up on me you get poked, yeah L-O-L, but this shit ain't no joke, yeah Run up on me, you know what I'm on Choppa on me, it's getting you gone I'm up in the Lambo it transform to a 'Rari That shit Megatron Light up just like Tron, hmm Put that dick in yo' mom, hmm W-W-W-dot, you ain't on shit dot com, hmm Run up on me, you done, hmm These niggas my sons, hmm My brother locked up, won't let that nigga out Just like Akon Back on that Wok', mhm Hand on my Glock, mhm Bitch on her knees, please, ooh She give me top, mhm I'm in the studio, wait, can you turn me up a notch, yeah I'm juiced up today, they callin' me young 'Pac, ayy AP my wrist, it costs 250 Even though my gang is 150 Run up on me then that choppa hittin' It came with equipped with a muhfuckin' titty Fuck a .30, bitch, I need me a .50 And fuck an auto, rather I'd have a Semi I can finger fuck the bitch how I want It'll shoot a nigga maybe, uh1</t>
+          <t>Break me, solely For the one I share Preaching slowly But hands curled up tightly My tears won't flow against her will Oh won't you tell me please, how you can hear me? Told me gotta rap on it Rat-a-scat on it Skiddily doo-wop, do a dab on it Low key wanna nap on it, but now I'm back on it Talking like a weatherman, calls it like we sees it Be a better man, all about the season Think I'm working for the pork, ain't had a choice but had a reason though Seventeen, community service was my recess Cause it's some BS what?, Pops was hot Called them senior kids, called them CS As I regress, had to shed some fools and some defects, sharpen my reflex Don't give a fuck about respect, I don't give a fuck I'm a reject, course I gotta eject Did what the fuck you expected, my shit too electric, way I flow electrical I picked up right where they left it, regrettable So I left it and made next shit, acceptable? Still not? What you hatin' on? They hangin' on my testicles Gotta shake 'em off, fuckin' skepticals My tears won't flow against her will Oh won't you tell me please, how you can hear me? Okay, okay, okay everybody, settle down, settle down I go by the ultimate, Denzel Curry and this is a poem called 'what's the point?' What's the point of living in the now if you can't see that your future is bright enough to blind the sun? What's the point of being a star when people see you from afar yet you're constantly getting blocked by everyone? What's the point? It's worse than the way I feel when you just wanna hit There's not a difference between musicians and women Now I'm sending my apologies to the hearts I apprehended and the ones that ain't acknowledge me Oh well, farewell, so gone, bittersweet Only thing I want in life is love and my inner peace Big house, nice lawn, and a hatchback Twin flame living in my lap, who can match that? Break me, slowly For the one I share Preaching slowly But hands curled up tightly2</t>
         </is>
       </c>
     </row>
@@ -5112,12 +5112,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Burn It All Down (Denzel Curry Remix)</t>
+          <t>COLE PIMP (Demo)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>61 Conway the Machine - Front Lines Dan Bull - Gamers Without Borders Eric Bellinger - Enough Famous Dex - Like U Know Me NateWantsToBattle - rere Raury - Take Back the Power Rob Markman - Parkside Freestyle ft. DviousMindZ Terrace Martin Denzel Curry - Pig Feet ft. Daylyt, G Perico Kamasi Washington The Aces - Kelly Xanman - Im Tryna Yeah XXXTENTACION - Riot 62 Teejayx6 - Black Lives Matter YG - FTP 63 NOT - CAN YOU HELP ME? Aquilo - Always Forever Poppy - All the Things She Said SCANDAL - Living in the city The Zolas - Energy Czar Young Culture - I'll Be There YSN Flow - Head Racin' 64 BenBen - Lifetime Cosmo's Midnight - Yesteryear Dave East - Menace Eves Karydas - Complicated Jim Jones - The People Jungkook BTS - Still With You Kane Brown - Worldwide Beautiful Machine Gun Kelly - Killing In The Name ft. Travis Barker R3HAB, TINI Reik - Bésame I Need You Stonefox - White Caps 65 Alborosie - Unprecedented Time Alex the Astronaut - Banksia Apollo Brown Ché Noir - '94 Astrid S - Dance Dance Dance Ball Park Music - Day Age Brad Cox - Drinking Season Brantley Gilbert - Hard Days CG5 - Created Equal DHeusta - Expectations Donell Lewis - Missing You Dounia - SOULMATE DVBBS - Tinted Eyes ft. 24kGoldn blackbear Elvis Costello - No Flag Harrison Storm - Breathe Again IAMDDB - Quarantine Jess Kent - No One Else Joey Nato - Don't Get Involved ft. ImDontai King Rod Wave - Heart Lauren Cimorelli - Automatic Love Like Saturn - Leftovers Luke Bond ft. Sarah de Warren - Walk Away Mason Watts - Sanctuary MAXINE - I Like U, But I Love Me Meek Mill - Otherside Of America Nadia Rose - Too Bad Nasty C - They Don't ft. T.I. NateWantsToBattle - Stay the Course ft. CG5 Navvy - Pieces Nick De La Hoyde - Lay Low Ninajirachi - Alight Raleigh Ritchie - Party Fear RiFF RAFF - Hop out the Lamb Rockit Gaming - Bad Rabbit ft. Lucky Rockit Gaming - Empress Rufus Wainwright - You Ain't Big scarlxrd - the label is deff gxn delete this xne hahaha Tee Grizzley - Mr. Officer The Villa - Turning Point Trey Songz - 2020 Riots How Many Times will hyde - easy for u. Wing Defence - Relocate Yoste - Well Be Alright Yuto. AU - Apple Peach ft. BOY SODA 66 645AR - WHY Andrés, Kurt Travis Donovan Melero - Multiverse, Pt. 2 CG5 - Music from the Heart ft. KK Slider Leon Bridges - Sweeter 67 Juicy J - Hella Fuckin Trauma 68 Ben Platt - Everything I Did to Get to You from Songland Caleb Hyles - The Whole 'Being Dead' Thing Deko - NINJA GAIDEN ft. ITSOKTOCRY Gorillaz - Machine Bitez 8 Masego - Masegos 27th 69 Azealia Banks - Black Madonna Dame D.O.L.L.A. - Blacklist Emiway Bantai - Firse Machayenge Remix ft. Macklemore Gorillaz - Friday 13th ft. Octavian Hopsin - Kumbaya Jorja Smith - Rose Rouge Quin NFN - Detroit Flow 610 Alexander Biggs - All I Can Do Is Hate You Ballout - Go Files J - Strange Raves Through the Night Kyle Allen - Hello World Ruston Kelly - Rubber Unlike Pluto - Nicotine ft. Joanna Jones 611 ALMA - LA Money Acoustic Aluna AlunaGeorge - Warrior D-Block Europe - Free 22 Dirty Projectors - Inner World Dounia - Best Bad Influence HANDSOME - The Walker ft. Essie Holt Jack Harlow - Only Way Freestyle Jason Derulo Jwash 685 - Savage Love Kodak Black - VULTURES CRY 2 ft. WizDaWizard Mike Smiff Ozuna - Caramelo Paul Kelly - My Island Home Savage Gap - I'm drunk and I miss you too ft. ilyTOMMY Spillage Village, EARTHGANG JID - End of Daze ft. Hollywood JB, Mereba JordxnBryant The Living Tombstone - Drunk Tom Walker - Wait for You YNW BSlime - Freestyle LOL 612 6ix9ine Nicki Minaj - TROLLZ Afrojack Chico Rose - Cloud 9 ft. Jeremih AJ Mitchell - Burn Aya Nakamura Maluma - Djadja Remix Buddy - Black 2 Buju Banton - Blessed CeeLo Green - People Watching DaBaby - ROCKSTAR BLM Remix ft. Roddy Ricch Dame D.O.L.L.A. - GOAT Spirit ft. Raphael Saadiq Dennis Lloyd - Alien DDG - She Cheated Dzeko Keith Urban - Both Still Young Dua Lipa - Break My Heart Moon Boots Remix Dua Lipa - Break My Heart Solardo Remix Eden Prince - Let It Go Ella Henderson - Take Care of You Fortafy - Virgil Drip ft. Kennyon Brown Donell Lewis G-Eazy - Love Is Gone Remix' ft. JAHMED Drew Love Gabby Barrett - Footprints on the Moon Garrett Kato - Its Easier When Youre Standing There Harry Hudson - Intimidating HONNE - no song without you Jafaris - Glue Johnny Hunter - Hallow Man Kaash Paige - Jaded Kelly Clarkson - I Dare You Arkadi Remix Kiana Ledé - Dear Mr. President Kierra Luv - Worth It All Kojey Radical - Same Boat ft. Mereba Kranium - Gal Policy Remix ft. Tiwa Savage Like Saturn - Dojo Club Lil Baby - The Bigger Picture Lil Keed - FOX 5 ft. Gunna Lil Playah - Lied to Me, Part 2 Lori McKenna - Good Fight Luke Bryan - Build Me a Daddy Maren Morris - Just for Now Maren Morris - Takes Two Margo Price - Letting Me Down Marshmello Halsey - Be Kind Surf Mesa Remix Nasty C - Eazy Neil Young - Vacancy NLE Choppa - Shotta Flow 5 Oh Wonder - Us Against the World Pistol Pete Enzo - The Top Pop Smoke - Make it Rain ft. Rowdy Rebel Rexx Life Raj - War Sam Feldt VIZE - Far Away From Home ft. Leony Sara Bareilles - Little Voice Seeb Zak Abel - Sad In Scandinavia Shadient ft. fknsyd - Miles of Mind Shea Couleé GESS - Collide ft. Mykki Blanco Surf - Never Scared Surfaces Elton John - Learn To Fly Switchfoot - Lucky Man T-Pain - Get Up Teyana Taylor - Wake Up Love ft. Iman Shumpert The Black Eyed Peas El Alfa - NO MAÑANA The Kid LAROI - GO! ft. Juice WRLD The Main Squeeze Gallant - This World Thomston - April Thouxanbanfauni - American Muscle UMI - Pretty Girl hi! Vaishalini - In Between Girl Vera Blue - Heroes Woodkid - Pale Yellow Tyla Yaweh - Tommy Lee ft. Post Malone Xavier Dunn - Mid Sentence ft. Gretta Ray YK Osiris - Leave Me on Read Young T Bugsey - Don't Rush DaBaby Remix ft. DaBaby Yungeen Ace - Heartbroken Zac Brown Band - The Man Who Loves You the Most Zinga - FAKE SHOTS 613 JT Music - Uncaged The Cast of RuPaul's Drag Race All Stars, Season 5 - I'm in Love 615 glaive - sick gnash - inside gnash - outside Jake Hill - Father Time Rob Markman - Niagara Falls ft. Noc Rockit Gaming - Corrupt Uce Lee TF - Westside Stupid Usher - California ft. Tyga 616 6ix9ine Nicki Minaj - TROLLZ Alternative Edition A Boogie wit da Hoodie - Bleed IDLES - Grounds J. Cole - Snow On Tha Bluff Lil Darkie - ON THE MOUNTAIN Machine Gun Kelly - Bloody Valentine Acoustic NoCap - Count A Million ft. Lil Uzi Vert RMR - RASCAL Remix ft. Young Thug 617 Ashe - Moral of the Story Remix ft. Niall Horan Ashnikko - Cry ft. Grimes G-Eazy - Everybodys Gotta Learn Sometime Greer - Bye Bye Baby Lolo Zouaï - Beautiful Lies Remo Drive - A Flower and a Weed Saweetie - Tap In Smokepurpp - Big Dawg ft. Rick Ross The Killers - My Own Souls Warning THEY. - Count Me In 618 ALMA - Stay All Night Acoustic E-40 - Give Me 6 Noname - Song 33 Swae Lee - Reality Check Trippie Redd - Dreamer Tyedie - Heart YoungBoy Never Broke Again - One Shot ft. Lil Baby 619 Alesso - Midnight Jack Wins Remix ft. Liam Payne Alicia Keys - Perfect Way to Die ALLBLACK, Rexx Life Raj Guapdad 4000 - Cleat Check Always Never - Need Somebody Amber Mark - My People Anderson .Paak - Lockdown Amy Shark - Everybody Rise Ben Platt - Corner of the Sky Beyoncé - BLACK PARADE Beyoncé - BLACK PARADE Extended Blueface - First Mission BTS - Stay Gold Calboy - Brand New ft. King Von Cameron Dallas - Dangerous Caro Emerald - Wake Up Romeo Casanova - Red Light ft. Smoove'L CG5 - Father's Day Christian Crosby - Insecure Cuban Doll - 1st Off Dan Bull - Minecraft vs Lego ft. The Stupendium ERB Dijon - sweet thing Don Diablo Andy Grammer - Thousand Faces Dounia - Hard Questions Freestyle EST - I WANNA BE HERE Ebenezer - Melanin Eden Prince - Lift Your Energy Fivio Foreign - Move Like A Boss ft. Young M.A Flo Milli - Like That Bitch Fredo Bang - Receipts Groundbreaking - Meltdown ft. TryHardNinja Guap Tarantino - Very Begin ft. Future Lil Wookie Gucci Mane - Still Remember ft. Pooh Shiesty H.E.R. - I Can't Breathe ndyah - WYS what you saying Jasiah - Rebel John Gabbana - Thot Curse Josh X - No Luv Jozzy - Pleasantville Keedron Bryant - I Just Wanna Live KYLE - Bouncin Like Saturn - Hope Lil Loaded - 6locc 6a6y Remix ft. NLE Choppa Loser - teeth Luh Kel - How To Love Mario Judah - Crush Nicky Romero Jordan Grace - Burning NLE Choppa - TKO Anthem ft. Goon Big4 Tevooo3 Paige - Cold Blooded Pink Sweat - Not Alright POORSTACY - Choose Life Rilès - GOA Robin Schulz Wes - Alane Shantel May - Until I Say So ft. Westside Gunn Shy Glizzy - Right Or Wrong ft. Lil Uzi Vert Silva Hound - INKMACHINEGUN Smiley, LB Spiffy 6ixbuzz - Name Brand Sofia Carson R3HAB - Miss U More Than U Know Sofía Reyes Piso 21 - Cuando Estás Tú Tate McRae - vicious ft. Lil Mosey The Score - The Champion Tom Speight - Natalie Portman Tyga - Vacation Victoria Monét, Khalid SG Lewis - Experience Young Chris Wale - Yellow Flag 620 NOT - I LEFT MY RICHARD MILLIE Josh A - Mood Swings JT Music - I'm the Infection ft. Andrea Storm Kaden Rockit Gaming - Splashdown 621 August Alsina - NOLA MAJ - Where Are We Going MAJ - Whip Whip Soulja Boy Tell 'Em - Slide YoungBoy Never Broke Again - death enclaimed 622 88GLAM - Dance for Me Arca - KLK ft. ROSALÍA August Alsina - Rounds Bright Eyes - Mariana Trench Dan Bull - I'm the King of the Castle G-Eazy - Nostalgia Cycle Katy Perry - Daisies Oliver Heldens Remix Lil Darkie - COCKNBALLTORTURE ft. BRUHMANEGOD, Jasiah, CXRPSE NoCap - Suge Night Sam Fischer - This City Remix ft. Kane Brown YSN Flow - No Church On Sundays 623 August Alsina - Work to Do CG5 - He's the Cartoon Cat Justin Rarri - 2 SEATER LGP Qua - Straight for the Bag ft. French Montana Ray LaMontagne - Roll Me Mama, Roll 624 6LACK - Float 645AR - Made a Way ft. Reddo August Alsina - Sincerely Autumn! - Still The Same! Remix ft. Lil Tecca Deradoorian - Corsican Shores Dermot Kennedy - Giants DJ Snake - Trust Nobody Doja Cat - UNISEX FREESTYLE Flight - Sum Jack Harlow - WHATS POPPIN Remix ft. Tory Lanez, Lil Wayne DaBaby JPEGMAFIA - THE BENDS! kenzie - EXHALE ft. Sia Lecrae - Deep End Lil Rxspy - caroline MISSIO - Wolves Paul Woolford Diplo - Looking For Me ft. Kareen Lomax Quincy - No Stress Raleigh Ritchie - Squares Ryan Hemsworth EDEN - Cold Feet Unlike Pluto - Broken String ZaeHD CEO - SPECIAL DELIVERY 625 August Alsina - Deliver Us ft. Darrel Walls Bring Me the Horizon - Parasite Eve Burna Boy - Wonderful Charlie Puth - Girlfriend David Cook - Red Turns Blue Dixie Chicks - March March Eric Church - Stick That In Your Country Song G-Eazy - Had Enough Guy Sebastian - Standing With You Jake Hill - GT350 Jay Gwuapo - Blue Face ft. Asian Da Brat Jessie Ware - Soul Control JP Saxe - Hey Stupid, I Love You Lennon Stella - Summer Feelings Jengi Remix ft. Charlie Puth Mario Judah - Die Very Rough The Living Tombstone - A Doll's House ft. Hayley Nelson 626 24hrs - Number4 Alexander 23 - IDK You Yet Live on Piano Alexandra Stan - Take Me Home Karim Naas Remix Alesso - Midnight Rompasso Remix Aloe Blacc - My Way Babyy Chris 2K Kevin Gates - No Harm Becky Hill Sigala Heaven On My Mind Big Boi Sleepy Brown - Can't Sleep BLACKPINK - How You Like That Blake Rose - Ordinary People Brett Eldredge - Sunday Drive Calboy - Rounds ft. Fivio Foreign Call Me Karizma - Float CamelPhat, Yannis, Foals - Hypercolour Casey Veggies Rockie Fresh - Made For It Cassadee Pope - Let Me Go Cassadee Pope - Built This House Cheat Codes - Heaven Chelsea Cutler Noah Kahan - Crazier Things Chris Tomlin - Thank You Lord ft. Florida Georgia Line Thomas Rhett Chris Tomlin - Who You Are To Me ft. Lady A Chrissy Metz - Actress cupcakKe - Discounts deadman - DEADMANX6 Demi Lovato - In the Mirror Dominic Fike - Chicken Tenders Donna Missal - How Does It Feel Dounia - Skin Deep DubVision - Sign Dwn2earth - Vacation ELHAE Eric Bellinger - Perks GABIFUEGO Astrid S - Contigo Tengo Feeling Germ - WALKED IN grandson - Identity Guapdad 4000 - Lil Scammer That Could ft. Denzel Curry Jayla Darden - Demonstration Jonas Blue MAX - Naked K CAMP - Pineapple Juice Kacy Hill - Everybodys Mother KYLE - Bouncin Alternate Version Landon Cube - Eighties ft. 24kGoldn Lauren Alaina - Getting Good Remix ft. Trisha Yearwood Like Saturn - Sandy Future Lil Gotit - What Is Was ft. Future Lil Loaded - Gang Unit Remix ft. YG Lil Mosey - Back At It ft. Lil Baby Marshmello Halsey - Be Kind Jacques Lu Cont Remix Matt Ox - Beam Me Up Maverick Sabre - Signs MC Virgins Yung Craka - Pill Cosby Megan Thee Stallion - Girls in the Hood Melanie Martinez - Fire Drill Memphis May Fire - Everybody Loves Me Quinn XCII - Second Time Around Rockit Gaming - Lefty Russell Dickerson - Home Sweet Savannah Cristina - Fd Up ft. Flo Milli Shay Lia - All Up To You Sheppard - Symphony Shoreline Mafia - Gangstas Sippas Remix ft. Q Da Fool YG Stephen - Stray Nights Sueco The Child - Smackdown ft. TOKYO'S REVENGE Teejayx6 - Punchin ft. NLE Choppa Terrace Martin, Robert Glasper, 9th Wonder Kamasi Washington - Freeze Tag Tinashe THEY. - Hopscotch Remix tobi lou - Neither Here Nor There Toni Braxton Missy Elliott - Do It Trevor Daniel Selena Gomez - Past Life Turbo - Racing After Me twst - Are You Filming Me? Tyga - Ibiza Usher - I Cry Young Dolph - Blue Diamonds Yung Pinch - Nascar Shawty 627 DHeusta - Misunderstood JT Music - Time to Operate ft. Neebs Gaming 629 645AR - ITCHY FINGERS glaive - astrid Glass Animals - Heat Waves Queen Naija Wale - Butterflies Pt. 2 Wale Remix 630 BRONSON - DAWN ft. Totally Enormous Extinct Dinosaurs Disclosure slowthai - My High Ellie Goulding - Slow Grenade ft. Lauv Evanescence - The Game is Over J Nanks - Everyday Kanye West - Wash Us in the Blood ft. Travis Scott Katy Perry - Daisies Acoustic Kyle Allen - Encryption Lennon Stella - Summer Feelings Acoustic ft. Charlie Puth Mike Shinoda - Open Door Mike Shinoda - Osiris Mike Shinoda - Super Galaxtica Moneybagg Yo - Said Sum OBN Jay - Dead Presidents ft. Jackboy Quando Rondo - Depression2</t>
+          <t>Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pulling up in that Pontiac Lookin like a funeral all black Riding in the hearse whip Coffin in the back With the brand new blade In my black backpack Come close to me you get hurt Eye contact with the dirt I may be goth but dont get me wrong My wrists cut but Im still strong So dont fuck with us We dont fuck with you We the only mothafuckas in this bitch ass crew We the 916 we may not be hood But we cut bitch boys up In the fuckin woods We dont fuck with guns, we got knives and blades We go hard as fuck, we dont play it safe I'm lonely, but Im not alone Spirits follow me when Im walkin home Okay Slit Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope I swear, I swear, I swear, I swear Pimp dem sluts, break dem hoes, ride clean, smoke yo dope This cant come at no surprise Master of the suicide Cut your throat, then cut your thighs I been chasing all them highs The lows as well, dont count them less You smoke that shit, and blow the stress Depression like a big abscess You pop that shit, and it regress Lunacy inside my brain My presence make you feel the same Gone with the wind, as fast as you came Dive to the floor when you hear out my name 916 to the grave Im set Came from the place many people forget Came from the place many people regret Do not stop now, this game of roulette Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope</t>
         </is>
       </c>
     </row>
@@ -5129,12 +5129,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Bust Ya Head Open</t>
+          <t>‘ Cosmic ’ .m4a (Instrumental)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Yuh 4's up, nigga Comin' to break your fuckin' face Loced' out, never ? Codeine in my cannabis Cock it now I'm finna bust Thuggin' niggas know where it's at Smokin on a fuckin' sack Niggas talkin', that's a wrap Loadin' and I'm bustin' back Cause we what's happenin', nigga what's happenin' Nigga they got the fuckin' Mac Leave these niggas fuckin' flat, tire fire fuck a ? I annihilate the place, a lion to a fuckin' cat Chop it, screw it, I'mma do it like I'm in the fuckin' trap ? life up in this bitch so tell me what the fuck you want All black, strapped up and ready out the Audi 4 7.2 up in my clip and make yo bitch' talk like ? Hit up ? Mike and tell him Burn a nigga in the trunk Don't fuck around, cause all my niggas they run down Run up on a nigga with a 4 pound So show that pussy nigga, don't go around, we bust? around Hit 'em down then blow it up, youngin' with me roll it up ? we fresh as fuck, and y'all just ??? Fuck y'all sound, my niggas go bang, 400 niggas up in this thang Give you a last one to bust your brain, crooked-ass niggas you fuckin' late Fuck a liar, pacify em', middle finger to a baby Give a nigga nine shots, pussies ain't no fuckin' cats Y'all little niggas don't want none Homie actin' like you 'bout to do a show, stuntin Niggas actin' like you gotta tell or show somethin' I run up on a nigga, let him hold somethin' You don't want that, you just actin' nigga Run up on a nigga, I'm packin' nigga Do a nigga green on that traffic nigga I ain't really break, no we talk ratchet, nigga I'm in the hood, everyday On the block, I'm smokin' haze Me and my niggas we totin' K's We ain't really never heard about playin' games, y'all niggas lame What a nigga wanna do, let a nigga know somethin' Nigga you's are actin' hard, y'all niggas really pussy, y'all niggas better stop the car? Y'all really don't want no beef, slide on a nigga in the streets, hit him with the heat 30 in the clip, knock a nigga off his feet Fuck that plan I don't really buy beef, I'm really 'bout it Y'all niggas, y'all niggas, y'all niggas just shoutin' Man y'all niggas just talkin' Run up on a nigga, I get to sparkin' Walkin' off, I'm poppin' off on any nigga 'bout that paper, nigga You's a hater nigga, faker nigga And I'll be damned if I let a nigga play a nigga It's me and the team and I'm sure ready to tape a nigga Shoot a nigga Computer, reboot a nigga Spook a nigga Shit, I might ??? I'm recordin' Snitchin', nigga stop bitchin' Then I might ship his body to Richmond, Virginia Injure, I'm a ninja Nah, not a turtle, but nigga might ? Them niggas got his ass like ?, put the .40 cal-y in the trunk Horny with the trigger let me buzz, 25 hits to the guts Pussy-ass nigga now what? What?! Hardly speakin' when you're hardly breathin' Better call the deacon, fall asleep, he dreamin' Now his momma grievin', turn to where we leavin' That's the type of shit to ask What God believe in? ?, bustin, nigga couldn't trust it Nigga had to rush it, fuck it Lookin' for a nigga 'bout a couple weeks now If I don't get him, gotta get his cousin Thuggin' and chuckin', Wu-Tang bring the ruckus The kid like the goose, you silly you duckin', shit I will Twin Glocks like ? when I bring the tommy out, what's the deal? Triple the six on the tape, when I come visit your waste starin' right in your face Dead and I don't want escape, mothafucka wanna get it so I gotta hit him with the K Goddamn, two shots to the fuckin' dome, came to the shit with the chrome Curry wanna get with them mothafuckin ' ????</t>
+          <t>I can't even lose, dont matter if it's an odd win Don't matter if its an odd win RICK, fuck your favorite rapper, he or she ain't nothin' unless they're after me Dormit deus faciunt The eve of their destruction, breaking Adams down to atoms Taking jobs since Washingtons and Adams Dormit perpetua It don't matter how I choose to displace this, energy My enemies need bigger teams My winning team needs bigger rings Dormit deus faciunt Galactus has his eyes on Saturn's Yo' girl has her eyes on m, I see, I know these patterns Dormit prpetua My dick's Patronus, something potent, Im the, death bringer Gotcha girl all on my dark and she a death eater My dark parts inside her neck reach her heart for a moment of truth Dormit deus faciunt If I go in the Aether, is she going to puke? The flow is impeccable Dormit perpetua My flow is on steroids Your flow is on edibles My soul is on Devil mode My cook is so decadant, look at the rich motions Dormit deus faciunt wrist motions All eyes on me like its first day of fall and my sweatpants are gray dick pokin' Game so cold, hoe so thirsty Dormit perpetua Gon sip slow, bitch Game so cold, my girl mad like I left the fridge open I left her ribs open Dormit deus faciunt I left the door to the game open I letcho muhfuckin' brain open Because that shit that you go to that dude on yo' block for 'cause you know who slangs potent Dormit perpetua I been killin shit since day six Left the first five open, it ain't no excuse to be complainin', it's RVCK God has been summoned like Anima These rappers simply aren't up to my caliber, Valefor Yo Flying and shocking, I'm droppin' these toxins Throwing real shots, never shadow boxin' Y'all outta options, let's get it poppin' Turn on my limit, my bars over overclockin' Fuckin' a goddess, that bitch look like Shiva That pussy too magical, might need an ether Might need an ether High in the clouds, but don't puff sativa Play my shit loud, Firaga your speakers Oh, you think you better, my nigga? I'm Noctis, can't top this, my flow is too toxic Foes gettin' nauseous, titan like Astral Yeah, I got swag' out the asshole Rappers on Soundcloud are just my vassals They wanna beef, but not worth the hassle But not worth the hassle Yeah, y'all baby like fetus, I'm O-G like Tidus Dormit deus faciunt My main bitch Yuna, but Lulu my mistress Fly over seas on that fahrenheit Rikku and Paine my ex, too, wanna fuck tonight, woah Wanna fuck tonight, woah Never on Slowga, my flow always go Dormit perpetua, my flow always go Harder than Wakka, yeah, yo' girl, she know Yeah, yo' girl, she know When I walk in, wanna fuck me wit' haste Swear to Jenova, that bitch got no chaste That bitch got no chaste Sin Harvestry don't bother me Dormit deus faciunt Shiki on oddwin beat? That's oddity Will there be more in the future? Probably Yeah, bruh, Pray to your God, Yu Yevon, properly Pray to your God, Yu Yevon, properly That be me, Shiki Mr. Tohno Dormit perpetua, Mr. Tohno Go through the trial in my SisCon temple SisCon temple This right here, just a nigga spittin' simple Ah Still blitz combo finish the instrumental Uh, black mask like I'm , textin' yo' chick on my Wi-Fi Dormit deus faciunt Squad deep, we never shy, get hella bands 'cause I'm that guy Pull up in the fo' door with the top down wherever I go Dormit perpetua It's on lockdown, I will , but not now, I got shit to do My squad deep, but that's , steady mobbin' what I'm supposed to do Dormit deus faciunt All four of us up with hella , feel hella cool My chin lookin' like , she do whatever I wanna do Dormit perpetua Gotta keep her close, just my coupé, 'cause she liable like a Honda, too , , three on my back, uh, make a nigga like a ninja Dormit deus faciunt Quiksilver camo' paint, uh, still aimin' at yo' temple And I bought that last December, hope my real niggas remember Dormit perpetua Straight driftin' through insomnia, no cops 'cause I stay clever Ma-Man, my ninja blade says Supreme on it, ya girl'll make sure the whole team on it Dormit deus faciunt You over there, you think God'll help her but she wit' us Hoo! She don't even wanna spend hella bands on my Dormit perpetua, it's about that time I call her Luna 'cause she stay wit' me style I take a drift and I feel complete, in Insomnia, she give me ecstasy Woo-Woo-Woo! I'm double F to the death of moi Dormit deus faciunt, death of moi She said I'm a dog, no reservoir No reservoir But I got the juice, I'm the reservoir Juice Only banger anthems in my repertoire Yeah Got my squad, we goin' in, aye Dormit perpetua, goin' 'em How we do, we showin' 'em, aye Showin' 'em Been the best since 2010, aye 2010 That's when DAX had to begin, aye To begin Call me PETE with the loud mouth rap Dormit deus faciunt, PETE, what? What? Call me Rex with the Cloud, gon' dab Rex, brr! Call me Peace, 'cause I now bounce back Peace Catch me outside, how 'bout that? Yeah, how 'bout that? Love to get these digits, I get it like I'm a math nerd Dormit perpetua, uh-huh Pastor, of the seventy-two hours after What? Me and oddy, we be catchin' bodies Dormit deus faciunt We don't mess with thotties, run like two Bugattis Called up PEO PETER 'cause it's true, I got it Girl, I see it all, that's no Illuminati Woo! Baby, you got questions, but you know that I got answers Dormit perpetua, baby, you got questions, but you know that I got answers, ooh, yeah Hit me on my celly, but please miss me with that banter Hit me on my celly, but please miss me with that banter, ah! Comin' into the cypher, I'm ridin' the twos like bikers Dormit deus faciunt, bikers And Peter Piper be pickin' a peck of pickled peppers forever Uh, uh Uh, you hear me, my dudes? It's odd when Yeah, odd when Even if we even, you lose, now bring it back, dog Dormit perpetua, back dog, oh! I could never pretend that I was a rap god Know I got it, rap god, oh! But denyin' my photoshoppin'? Now that's fraud That's fraud, damn That's odd, shinin' like the sun god do Me and Stayble plus young odd, too Young odd, too, now whatchu know about it? Brrah! Fuck PEO PEO Sword on my back like I'm Cloud, hey it deus faciunt, like I'm Cloud Swing it around, now you down, woo! He dead I ain't really with the crowd, hey Damn But I gotta spit it now, woah Dormit perpetua, wow wow-wow, hey Why? PEO spit it so fly, hey So fly Swank levels on high, hey Charizard, spittin' fire, hey Charizard, spittin' fire They come along and just vibe, hey Dormit deus faciunt, vibe Stick around for the ride, hey Skrrt! oddwin said I had to write, hey What? Boss level, boss fight, damn Dormit perpetua, uh Yeah, my team's so stacked, yeah What? 'Cause I'm really on my grind, hey On my grind Lewi really takin' lives, hey Slash bster bend it, then you die, woah Woah Yeah, huh-uh? Yeah, I really had to do it, it's time Dormit deus faciunt Man, I really had to make it all rhyme Man, I like lemon and lime Dormit perpetua Woah, huh? Freestyle off the top, hey What? Top But yo' head still bop Bop Like a girl givin' top Woah, huh? Yeah, hittin' the pussy, I roll, hey Dormit deus faciunt, woah, what? Roll They be sayin', Why you troll?, hey Yuh Tootsie, Tootsie, Tootsie Roll, yeah Dormit perpetua, bitch It don't gotta make sense, yeah Nah 8-0-8s gon' bang, hey Yeah, I'm really in the future, hey Okay Now it really make sense, woah Yeah-Yeah, yeah-yeah Wo-ooh-woah-woah Super speed, you could call me Flash Dormit deus faciunt With the fast dash Dash Flow flames like Rapidash Like Rapidash And my homies know I'm that man I'm that man Grown killer, call me Robocop Put y'all out, but my dick stuck Dormit perpetua, my dick stuck Super Saiyan, Kamehameha Kame But I'm flashin' the Gatlin' Gun Gatlin' Gun Call me Vash with my Trigun With my Trigun You ain't messin' wit' my spirit gun My spirit gun Kill a with my Spirit Sword and niggas know I'm the only one Spirit Sword, dormit deus faciunt, only one To her back like shogun Like shogun I got The Glow, call me Sho'nuff Sho'nuff , now I'm all buff Dormit perpetua, buff Real rap bars, nigga, no bluff No bluff You can't stop what rap called Stuff Stuff Noctis spit the bars, yeah, I'm royal off those Yeah, I'm royal off those Many comin' down, 'boutta stuff 'em real quick, Prompto style Dormit deus faciunt, Prompto style Took a like like no receipt Receipt That's why oddwin made sure I drop flames on this fire beat Dormit perpetua, drop flames on this fire beat With the , I launch lightnin' from my vocal chords From my vocal chords Shout-out to Lightning wit' my dick shoved down her vocal chords Dormit deus faciunt, vocal chords like Cloud, that's crazy with his I aim to kill Dormit perpetua I am the real deal And like a plot twist I'm like the with the blade of steel, I'm like the with the blade of steel, Deadass be my Timberlands Dormit deus faciunt, yuh You already know where I'm gettin' in You know I'm keepin' my hat sharp Just so you know I can finish him Fatality, where the ultra move? Dormit perpetua Drop it in the battle where the sea grove They still askin', What does he do? What does he do?! I just go hard for my peoples For my peoples I finally know where I'm supposed to be Dormit deus faciunt The reason why they are opposed to me Opposed to me The same people that were close to me Close to me Are the same niggas that are me me Fuck it, nigga, I'mma take yo' brothers Dormit perpetua, brothers Singin' Lovely Day by Bill Withers Bill Withers Just the two of us, got our bones severed Bones severed I'mma keep my droid, just to be better Be better Mad niggas really owe me bread Dormit deus faciunt I'mma let it rock, say, Go ahead Go ahead They try to play me out so they can get ahead Let the shots off like the Evil Dead Evil Dead But I'd rather get the win instead Dormit perpetua, instead 'Cause you know they like to intellect To intellect It's right at the end of the day, when the game , you know I won't give a crap , you know I won't give a crap Niggas dissin' all these mumble rappers even though they lackin' all the cadence though Dormit deus faciunt, cadence though Motherfuckers couldn't rap in even if they had the bread to pay it though Mine's closed with they wack flows, 'cause they so worried on they damn flows Dormit perpetua, damn flows Praisin' rappers for the subpar, with those bars, it ain't it, bro' Subpar Yeah, shout-out to oddwin for this hot shit Dormit deus faciunt I'm about to pop it, poppin', I'm the top pick Topic of discussion, man, I'm it To be honest, you should stop it Look, boy, I got this Cypher wrapped up like it's a present Dormit perpetua Spittin' futuristic bars, you wrapped up in the present I got a pen and paper, better know that I'm a menace I'm the real deal, boy, you better pay attention I don't get it, they pathetic when get up and Spit heat Dormit deus faciunt I wrote that shit in quotes 'cause they don't really spit heat Barely spit lukewarm, I turn 'em to mincemeat Drop 'em and chop 'em all when I spit a sixteen Dormit perpetua Then I roll 'em up like a joint is Still, they will never be as dope as ya boy is Steppin' to the bars, man, that shit is pointless All I do is rap 'cause I don't got other choices Damn, this shit's only half done Dormit deus faciunt Always steppin' forward, I won't ever go back one I'm puttin' you back ten, man, who would know? This dude is dope, you a MAC-10, I'm a Bazooka, bro' I got that boom-boom-boom-boomin' flow Dormit perpetua Finna take over the empire, let Lucius know You don't follow my vision? You pretty stupid, bro' You think I'm lyin'? You don't know what truth is, bro' Last four bars, I gotta make 'em count Dormit deus faciunt Enemies in my way, ya, I'mma take 'em out I'mma lay 'em down and let they body rot They probably thought they won 'til I made their hobby stop Yo', it's Mordecai The Zenith They got me? Nah, I was born to kill the wacks Dormit perpetua With my raps, their caps get to peelin' back Shout-out oddwin After this shit, ya really finna feel the wrath Yuh They thought I was a hit man, the way I just killed this track Can't even fuck with the warriors of light, I'm pullin' ya card like ace Dormit deus faciunt I'm pullin' apart ya face Muhammad, I'm on ya cake You know that I'm colder than Shiva, you prolly losin' ya fans You , postin' on these niggas Dormit perpetua You can't even unicast, like what kinda magic is that? Unicast They scared to dash and back like , Blizzaga bars Blizzaga bars Hittin' ya conscience hard They silent, dog Dog I came from a lion of kings, like, Nah Dormit deus faciunt These hoes want my , I might not These hoes want my But you know I make hoes scream like Sephiroth When that sword is in the guts like Aerith You kids' stupid laugh and hoot like Kefka Dormit perpetua, Kefka Palazzo's Laugh Baby, move and sneak to Level 2 2 Enough to crit' and all ya scary Call up Tom Barry, and I'mma bury someone Call up Tom Barry, , aye Yo, oddwin, tell 'em I'm godly Dormit deus faciunt I planted my seeds, it's not a poppy no, it is addictive I planned all my moves, they all poppin' Some niggas not a madre, call me, Poppy Dormit perpetua Can't stop me, fuck Kamikaze, I got too much to live for Foresight predicted, odd wins, not even God could stop me I read the competition already Shots leave him all red, he might be asleep in the Dormit deus faciunt Just a homerun , then he copy this with a black, big hit attempted Dormit perpetua you niggas 'til you speak up and listen Fuck a shark, dog, I made you glisten Paid tuition for final , my place still missin' Like Westbrook, yeah Dormit deus faciunt I teach these niggas with a textbook, yeah I putcha wrist in the match, if he gassed up, , he ain't God makin' contact Dormit perpetua Who tryna match on the dub? Got my hair right, then I left him in the dust Right to my forearm , but whatever I got left in the tank gettin' used up I'm a young buck, came into the game with to my name Dormit deus faciunt Like a , but they ain't never put me on they list , but I feel like it's the gist Yeah Gotta go nuts for all my fuckin' jits Let's go, dormit perpetua Fuck you, bitch, I'm goin' ape shit Feel like universal, , this some fake shit I cascade from the palms, this some BAPE shit Young Kratos out here testin' fate, bitch, hoo! I'm handin' L's, Prompto Prompto, dormit deus faciunt Or pumpin' Hip-Hop was yo' bitch, I tap first, just remain Noctis Just remain Noctis Mr. Krabs with the ego, you Plankton, microscopic Dormit perpetua, microscopic Death Note, stick news of , meltin' ya fiber optics Ya fiber optics Been in this rappin' like Eric, let me grab the bus Dormit deus faciunt The sword lily, the flower women, that's the gladiolus That's the gladiolus markin' birth for the ancients, hail Atticus Dormit perpetua, hail Atticus I'm aimin' for the top, but you wishin' how you could rap wit' us How you could rap wit' us This means political treason, there's no amnesty Dormit deus faciunt, there's no amnesty Now you Trump with Sephiroth views, rage and fantasies Rage and fantasies I ain't Eric , but I'm losin' that better sanity Dormit perpetua, losin' that better sanity From openin' a can of Whoop-ass on all humanity Whoop-ass on all humanity In a world for a snakes, a R-K-O will mask the viper Mask the viper, dormit deus faciunt Y'all best stick to ya position as waiters and window wipers Waiters and window wipers 'Cause any beat unleashed, you'll pop roses the rider Dormit perpetua, you'll pop roses the rider Go type up conan.com, officially closed this cypher Officially closed this cypher Angry boul that is on the mic' Dormit deus faciunt Kill-Kill-Kill you niggas by 10 tonight Kill-Kill-Kill you niggas by 10 tonight I'm gonna come in and make that shit light But, nah, tight Infinite rage, not infinite power Dormit perpetua Got this shit for infinite hours So infinite cowards I really didn't sour I really didn't sour Dea-Deadly niggas wit' a deadly force Dormit deus faciunt Bl-Bloody boul on a wild horse Let his girls throat 'cause many Owed me money, thought this shit was funny, so I grabbed me a little blowtorch Dormit perpetua Wanted to fight me really a Unleash the rage as soon as it hit me Come on, let's go as soon as you take me I really kill you like you tryna kill me Dormit deus faciunt I'll letcha die, go ahead, nigga, try to cry, I'll see you in Hell once you decide to commit suicide I'll letcha die, go ahead, nigga, try to cry, I'll see you in Hell once you decide to commit suicide, dormit perpetua Mass murderer of Philly, but I'm really weird once you really get me Re-Really funny and really silly, but I throw my L's on the whole city I'm Ugly Fuck, new Ugly God Dormit deus faciunt I'm crazy as shit, I'm really high I throw out this bar for the one time Once I see the new day shine Dormit perpetua I'm super trash, but I kick some ass and really spaz if I needed to This shit is true, I got the 'flu', so I'm completely turnin' black and blue and Bitch better know that I'm royalty, I'm king of the game like I'm Noctis Dormit deus faciunt Suddenly, they all for loyalty, now that they realize they not this Dormit perpetua Weird boy makin' big plays like the mothafucka let the odd win Bitches want like I done told them 'bout Or maybe I called it a god dream Dormit deus faciunt I don't know why I ain't the ultra light Bitches worried 'bout how I seem Don't worry, I'm gonna do it right Dormit perpetua Ain't Black, but I captured this, so you can call me Kodak If you think you movin' up, well, some of you must go back One, two, I'mma shoot you all the way up, call you Heroin Dormit deus faciunt Ain't hearin' all that wack shit I know you been pedallin' Dormit perpetua I be spittin' on the track, and my flow goin' steadily There's nothin' that I lack, pull up on you all readily Finished it off like I'm saucin' the cypher, I brought you all to your demise, yeah Dormit deus faciunt She said she wanna be saved now, I'm seein' the 'cid in her eyes, yah Dormit perpetua Makin' the money all long for ya shit, almost like I'm Uncle Sam, yeah Say that you shootin' some movies, but can't even cop you a cam', woah Aye, keep it on the block, keep missin' with shot Keep it on the block, keep missin' with shot, dormit deus faciunt You wack rappers not, keep wishin' for the top You wack rappers not, keep wishin' for the top While I be wishin' for a Glock, sniffle while I rock While I be wishin' for a Glock, sniffle while I rock Timmy, Timmy Turner with the instance of a Timmy, Timmy Turner with the instance of a , dormit perpetua We're off to the games, broke all of the cage We're off to the games, broke all of the cage You should really be cautious, you'll get lost in the maze You should really be cautious, you'll get lost in the maze In shock and amaze, of days In shock and amaze, of days Just waitin' at the top while you're off in a daze Just waitin' at the top while you're off in a daze Shot up a , it's intermission, imminent interdimensions, while I was spittin' a written Shot up a , it's intermission, imminent interdimensions, while I was spittin' a written, dormit deus faciunt Kickin' these kittens wishin' they spittin' some wickedness and they kiddin', B-B-C sittin' Kickin' these kittens wishin' they spittin' some wickedness and they kiddin', B-B-C sittin', dormit perpetua If ya obscene, come and rock with me If ya obscene, come and rock with me If you want an anomaly, God obviously, He's watchin' me, but not really helped all of his problems If you want an anomaly, God obviously, He's watchin' me, but not really helped all of his problems the prophecy that's prolly stoppin' me the prophecy that's prolly stoppin' me Swear to God, I been givin' my all to this game and it all ends the same with them callin' me Lame while they callin' for fame Swear to God, I been givin' my all to this game and it all ends the same with them callin' me Lame while they callin' for fame, dormit deus faciunt I've got a small crew and it's small as a I've got a small crew and it's small as a This is the dawn of an age where the artists are changin' This is the dawn of an age where the artists are changin', dormit perpetua Start callin' the names in the hallways of fame Start callin' the names in the hallways of fame I don't know where I started to change I don't know where I started to change Parted my rage for the problems I face when I'm off on my way Part of my rage for the problems I face when I'm off on my way Rockin' the stage in the way Rockin' the stage in the way, dormit deus faciunt I'm doin' me, while all of you hate I'm doin' me, while all of you hate If you blocked on my page, then you off in this game, damn If you blocked on my page, then you off in this game, damn, dormit perpetua Kez got hungry, some man he ate him Kez got hungry, some man he ate him Reminded him of a metaphor of Channing Tatum Reminded him of a metaphor of Channing Tatum They're disgraceful, they're distasteful They're disgraceful, they're distasteful Look at the between the eyes and jammed a staple, brrah! Jammed a staple Aye, oddwin, this was a pleasure to do, I appreciate it Dormit deus faciunt Much love, this was fun, yeah Dormit perpetua Dormit deus faciunt Dormit perpetua Dormit deus faciunt Dormit perpetua</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Captain universe</t>
+          <t>Count My Blessings</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Intro This right here is a vocal exercise Verses and freestyles, 3 to 1, that's a ratio Ayo so lemme explain how this is gonna work When you hear this sound Gun Cock That means I'm about to go in off the top of my head Everything else is pre written These verses are all wordplay The tone and the emotions of the lyrics change They progress in the same way as the album does Think of all these verses as the cracks between the songs It's extra. I want to recap what's been going on and start to hint for what's to come This is where I, elaborate on what I mean You know, thisll, thisll help explain my ideology There's knowledge hidden in here that's gonna make the album click together No Backups, no editing, its just gonna be one vocal track ya know? Im gonna keep it nice and simple Simple beat And I'm a real emcee so I don't need a crazy beat to flex I just let my lyrics do the talking So uh, how long did I make this beat? 45 minutes? Yeesh, alright...Lets go Verse 1 Ayo, don't fuck with me Don't fuck with N!cky G I run rap like track like Steve P Ooh-wee I got the lyrical heat The inferno that burns through your journal Mos Def I'm out for blood like a Crip I'm swashbuckling ships Put my roots with my loot like a pirate All my music, Internet pirate- -ed I'm violent when my mind is dilate I spit so much it drips on my own dick The only thing I'm riding is my own dick And the only thing I write is my own shit That's a shot at ghostwriters and my consciousness So let me tell you what my options is I can either be pompous or an optimist And I can even sell celibates if I was a black market auctionist, the new clients monogamous I got this shit like a gastroenterologist I like to pop my zits And be with A B.I.G. butt Notorious bitch! Shut up and listen I got more christenings to give I'm a monster like the loch ness I could ground you up and eat you like sausage And if you're easily nauseous don't watch this cause I'll go straight for your esophagus Just playin, I kill em with kindness I'm full of life like metropolis You know I rock this shit Swing a sword at it like a Boblikin Leave your one legged friend hobbling And I got lines like red Robins fries, bottomless Verse 2 Sometimes I don't believe in myself like I'm heaven sent Sometimes I don't feel myself, self-celibate I could save a million lives and find a way to talk myself out of the relishment Cause nothings ever good enough for a perfectionist I've been too negligent with my intelligence I've been a resident inside of being hesitant Focused on the irrelevant No longer can that be my precedent Time to develop my replenishment And Let my actions become the evidence I got big shoes to fill now I grew up and filled out But a lot of my dreams spilled out I robbed myself and took the till out Feeling like I shot myself in the face With bullet cases Put holes in a lot of situations But now I'm trying to raise my innovations Climb to the top of the Appalachians Where I can grasp my aspirations That's why I bleed in every rap that I'm making Every beat is yeast, I been baking The lines are the icing to complete the cake I had patterns of bulimia so I stuff my face I wilted, but I put new flowers in the vase Water myself everyday Sunk in my roots Opened my eyes, to obtuse More than right, then left into flight Got high I'm off my vocal pipe Then ate the ripe fruit Happiness is the pursuit Shoot any dispute Ain't no problem I can't compute Ain't no dispute I can't compute And I'm en route to becoming the progidy Im en route to becoming the progidy Im en route to becoming the progprodigy Im en route to becoming to prodigy I was when I was 10 Except now I'm a grown man I can really do things now I don't have to pretend Like I used to in my bed- Room, look at the starts out my window and tell myself I'll be there soon Verse 3 I started out as whack I took the time to fine tune my craft Fast forward my time lapse Now I rhyme tight with no slack, I'm back, Im back, Im back, Im back I'm back and youre addicted to me like smack So INhale my words like crack Relax and let your eyes roll back I'll align your spine with a tap I can see my abs now I sat up, I got a six-pack now But that doesn't add up, my hunger should mean I'm Santa Claus fat now At last I finally found my knack I took the bite from the apple on your mac And regurgitated it back into this rap I got more lines than topography maps I more obsessed with myself than making sure that you clap But I know you're sitting there in your chair making your head move forward and back I molded these rhymes to be harder than a cast I reedread and breathe more jazz than a sax I stick to my pacts I'm truthful like that I snack on anything like a pack of rats I'll give you a smack if you say you hate blacks But as a matter of fact, I hate black cats If I see one in my path, fuck that I'll take the long way back And I'm a scholar in college but don't ever say that I'm frat rap That's whack crap about smashing fat racks and raping girls with fat asses IF I EVER SAW THAT HAPPEN I WOULD RIP OFF YOUR NUTSACKS I kid, but don't give me a reason to create a bloodbath Chorus Clips, Clips, Clips, Clips Reload Gun Cock Reload Gun Cock ReloadShoot Freestyle 1 I see these things, these things that I bring The metal, wood and clay to which I cling Which I think Will be what I die from So I might as well enjoy it now so why run? I put the world in my lungs I think Ill die young And spit it to you as the truth from the blunt that I speak And spit it to you as the truth from the tongue that I speak Listen to me spit these bars as Im freestyling Verse 4 This is a warpath you can track by the bloodbath Contractions of a muskrat Jump the fuck back I got my palm on my nutsack My other palms in the palms that consist of my dub sac, Ha! I got a Backwood under my mustache I hide my eyes with some sunglass-es I copped for free, fuck your logo fashion I'm comfortable with who I am, I don't need to be masked in I'm back and back in as the captain of these captions An assassin with verb-al actions You, plus your crew, is still a subtraction I'm narcissistic I only think about my rations My mind is the abstract rap contraption so fasten Your seat belts, this is a wild ride Resurrection from a mind that died Guided back into the life of light Then applied with a wide stride of pride Never slip or slide Never tongue-tied I reside in music to confide In my thoughts ideas and fears I'm in gear and Im not looking at the rear view mirror I found my career It appeared at a severe time of fear I engineered it to be premier And Now I see with my ears And I'm in the clear of the frontier Fight or flight? Stress me I might take your life Smite ya with the height of what I cite Take a bite I'm a knight of the night I dwell in the moonlight when the ghouls have goon fights I'm outright polite face to face But when I write, I might just put you in your place I got the sleight of hand, point and case I work real hard every day's a rat race Verse 5 I'm about to inject you with the verbal slime The vegetables of rhyme Nutrition for your mind Poke your nerves in your spine Emcees be all over the place with their rhymes While mine remain defined Glued to perfection I kiss the mic with affection My mind is taking time for some stretching Bending galaxies into my verbal collection My ethics remain the most pristine You dont know half the shit I've seen Drugs, violence and money ain't my scene, that shits obscene Failure is not in my genome I eat rappers like amino Acid I spit, I'm sick make you need chemo I got the heart of a king, I'm casino I keep my profile on the d low That way if I need to snap a neck, I can creep slow I'm quiet but alert like Cappuccino For every rhyme you have, I got a kilo I torpedo my ego of being half Latino with rhymes that are jalapeño A mean flow, like a lunch money Bully I got leverage like a pulley Pull your body in the gully Then assassinate ya subtly Fire rhymes, Ill boil your blood till its bubbly I must boil your blood because I can't leave evidence I can't have a conscious that is decadence I'm perfecting the elements So I can raise a hell-ish genesis Inject ya membranous tissues With my sentences Your brain is my new residence So prepare for ideas of excellence and long nights of restlessness I'm reckless, I'll erode your skeletal with tetanus Spit the most venomous Leave you stranded in a nebulous Unless you're in for my best interest I'll show you benevolence Fly us away on a Pegasus Let you benefit from my intelligence My rhymes are the perception of medicine that is perfection Known to cure cancer, bulimia and depression That last one is a self-tested assessment Verse 6 I'm back with a bad habit of being a rabbit and too hop to be toe tag-ged I'll incinerate you if you discriminately use the term faggot Bury your skeleton inside of the slime of the maggots That's the way its gotsta happen if you're a foul mouth bastard who thinks backwards you capsize slacker Step into my rapture This is chapter, one It's do this or do a backwards gun That last one rhymed with try You imbecile child step into my trial Let's see if you follow the crevices or smile Let's see if you can decipher my rhyme style It's gold wealth, disguised in stealth Subliminal messages that tend to melt Your brain it's actually not good for you health So maybe you shouldn't listen to me Maybe you should just do your own thing But just know I have a swarm of bees ready to sting Emerging, from underneath my lunula fing-ertips Talk ya shit, I ain't allergic In fact I'll probably learn it Churn it, inside of the pot Stir it Take the recipe and burn it Then emerge it 2.0 the newer version And now everybody's drinking my syrup I'm the best in the west let's not get into a stirrup From CA through Oregon, Washington to Alberta Chorus Freestyle 2 You wanna hear some words? I don't give a fuck about a verb, or a noun, I'm profound Sniffing out pounds of herb like a hound I'm always at work Spinning pizzas picture perfect round I got a low-key sound and I'm bound To have a Loki crown that's golden brown Pretty girls pucker like a goldfish mouth Im about to get a sucker on me down south I'm losing my marbles like change in the couch I guess my mindset is my new allowance Verse 7 I elope, in these dark thoughts of a man Reaching for the ends to which they span I'm creeping on myself I just need the white van Weighing actions vs. consequences by the gram I've been blowing myself up like 42 japan I'm the number one rank in any clan And I'm just speaking frank, Anne And Im walking on the plank of the shark tank My boat already sank so I'd better start to thank Oil the gears as they crank, swivel the gun on the tank And I'm the dope boy and this here is dank Every song has a ploy, I come out with a shank This ain't a toy, this the gun of a tank This ain't a coin, this is the whole bank I'm the dope boy, my product is dank Verse 8 Ill hydrate ya like hydrocortisone I'm in my zone Ive already flown Migrated to Oregon My heads a mess I need a comb Miss my family kiss em on the phone I'm up and coming I'm all up and grown Im tryna compare myself to the legend of Davy Jones I'm in construction watch out for my orange cones And I'm known for drinking milk so I'm not prone to broken bones So come at me with your full blown And problems about the O-zone Verse 9 I came out, I came out I came out, I came out And when my mother came around She said I hate your sound I thought Fuck you talking bout now? She said You're not brown, you didn't grow up downtown, sometimes I think you do these things just to see me frown I thought Fuck off, can't knock me down I'm not in this for a crown, I'm in this only for the sound Who needs to care whether I'm black white or brown? It's only what I say and convey that counts I was in the pound, impounded, who let the dogs out? I may have been lost but I came back found With a new collar and a shiny name tag on A whole new lawn of grass to aim and pee on Eat sleep and play with repeat on Barking at the mailman to be gone Cause I don't trust the government It seems like they're crooked and crumbling I wanna make my paycheck and not funnel it Back into paths where I just run a bit People need structure but government feels fluctuated Easily hated, but I think we'd hate it if we didn't make it And if we didn't have laws we would all have died 100 years ago all too faded, it's undebated Human nature is more destructive than creative That's why you should praise me for being patient I got a relation- -ship with God And he says Dog It's all backwards, our spots Responsibility in you, in knocks You're the new boss, take it out for a shot. I'm shocked, for a second my heart stopped and my stomach dropped... Me and God just flopped... So the first thing Imma do is smash the crown with a rock Burn the throne, no more idols to mock My idea of leadership is like Spock Rid of emotion and respect the cock Atmosphere Eat, sleep and fuck is what we got Take it back to the basics of the block I need your help so give me your hand There's a revolution out there for us to understand All of us create it, there's no plan Shits been spinning the same like a fan Let stand, and create a template to end all of what we debate This is a race, keep your pace Chorus Freestyle 3 It courses through my brain It-it-it-its in my sayings Its every motherfucking thing that Ive been playing And every, Ive been, Ive been spraying Running through these god damn lyrics every day in Day in, night out Cause Im a dark knight right now Im under the moon, Im literally on Mt. Baldy You motherfuckers aint know shit about the shots that Ive be calling Man what the fuck am I talking about? Im just, Im just high right now I, Im too high, Im too high Literally Im like 2000 feet above, above sea level Check my, check my fucking levels I need to turn the gain down I sound distorted Man my rhymes are so nice its like Im imported Verse 10 Ayo I was six feet deep, in something that I dug But I just pulled myself up outta that rut Im here to stir a muck Bring the fuck with the ruckus Ooh I'm so luscious This is how many fucks I give .. Hut hut, Andrew Luck I'm back in play Or re le, Chez Jose This is where I lay this is where I wanna stay Every night every day Blow up like Michael Bay Actually fuck fame, that shit cray- -fish, if you in it for the money you a bitch I don't say this often but you can suck my dick Egotistical pricks I turn into bowels I'm a wild dog you want to hear me howl? I'm like a soul on ice with the solstice at night Insomniac werewolf with a bite I scream for ice cream but I wouldn't do much for a Klondike Don't believe the hype, they're just alright but G the motherfucker who strikes with might Verse 11 I got bars thatll take me further than mars Ive known it from the start so Ive been perfecting my art Your part, is not much in my scheme Just make sure you scream when Im on stage Have everybody listening My lifes pristine Wake up and smoke weed Say Hello to the team We just trying to get some C.R.E.A.M Wu-Tang, who saying That Im playing? Im a rap abomination Emcees praying that I wont slay em On their own beat, on their own street And hear their mothers weep As I leave a card by their feet Says I ended the blindness, Sincerely the Finest Ooh-wee Ill always kill em with kindness Ooh-wee I got the lyrical heat The inferno that burns though your journal Mos Def I put my sweatshirt on so thats word to Earl I expel pearls, Im not talking about the necklace Im reckless, Ill always eat a pussy out for breakfast Im next bitch, so dont judge this dude You dont know what the fuck Ive been through Too, much has been put into this So I aint leaving until I have a gold fucking necklace Yes, I, I must spit to impress Before Im the next best to put the mic to rest Mos Def, taught me mathematic tactics Most rap is lacking So Ill start the reaction of INhale in action Thats oxygen in action I got Ls being passed n I can sleep when Im dead so for now let me rap Verse 12 I'm leaping off cliffs to expand my wingspan Morphing my brain into a sphere So every angle that appears is clear Gain the ability to sneer in the face of fear Fear is nothing Compared to what I've been cooking and stuffing Inside the turkey It's murky and doesn't understand what is mercy It's out for blood and boy am I thirsty Swimming in dreams of virgins and wine Disembodied the shrine Gave it a design Of thought, individuality Acts of kind with immortal minds Death is just a race against time To see who can accomplish what within it Death to the men who undermined women And I feel as if I never will die As I can accomplish whatever I try Apply my mind Into the eyes and look right through the sky My soul is as soft as the fuzz on a peach Embodying every freak that I meet We have more genes Than every speck of sand on a beach What does that mean? Where is the gene That makes an act of mean? Where is the gene That births a queen? Where is the gene That causes my lucid dreams? Where is the gene that made G The Jesus of DJ-ing And spitting this lyrics? You know this shit is more than just appearance This shit is really, it goes deep inside of my veins It courses through my sayings Verse 13 It's me and my words against the world I talk a lot so I don't need a referral You can't unrecord, so this shit is eternal Im smooth with my verbal and this beat is fertile So I fuck it, every night tuck it Into bed, wake up she gives me head Then puts her head on my stomach She tells me she loves it and loves when I unbutton what's covering her And plummet into her muffin Pussy so sweet Caramel, chocolate vanilla and poppy seed Yo I'm papa G Word to b poppa I g I see, hip-hop properly I'm about to take radio rap out of poverty Run an iPod monopoly with a free music economy Wreck the record label my philosophy I've overcome mountains You got anything else that can stop me? You best eat your broccoli Cause you gon need to be real strong to stop me Except I aint stopping Chorus Freestyle 4 Except I aint stopping You copy? Think about what you say before you're sorry That's why I'm old fashioned like Atari I'm on my grind doing Ollies All these raps are quality I don't have a favorite one, I'm about equality I'm in the trees like a koala be I got the world's best heart, I'm fatherly That's why all these crazy bitches want to have their fawn with me Quit calling me, I don't wanna be bothered You see, I've met a whole lot of you ladies And youre all fucking crazy Had one girl fake a pregnancy Expecting me to stick around All these women try and tie me down with a baby Ah Just put it in without a condom I've heard way too often Followed by It's alright, I took the pill Bitch I don't trust you and that's how I feel, Ha! I ain't amused but you're a muse for me to use Always spew the holy holy like in the pew I got a birds eye view and sick with my own flu With which I might fly by and kill you Catch that or was that too much for you? I hope you caught it cause now your finally dead Now I don't have to waste any lead You're so-so but I'm every thread And all your opinions are just things that Ive already said Verse 14 My lips are always chapped From all the air I drag What goes in must come out and My sentences are bad My soul is at the end of a mag I see a man with a bag I look the other way, I see the man with the segregated flag Which way do I go? What do you think? You take me stupid or someone on the brink Of world peace and humanity in sync And all of this within an arms reach So I can't blink until I find the missing link Verse 15 21 years in the making And the whole time I been going bacon I think I've been pacing I'm near my final destination Life isn't patient It wants what it wants and takes it And then it sees what it wants and creates it These are the basic rules of life Day after night, until the end of time So why do we fight? What is wrong? What is right? The only lesson I've learned is don't believe the hype Can we even learn? Or is it just lessons that we have to earn? Why do we yearn? Life always ends in turn So why do I smoke the fern? Is it the INhalation of the burn? Why do I like to curse? Why do I like to flirt? Why do I write this verse? What really are words worth? Do they really serve a purpose or is it getting lost in the universe? Should I try to fly like the birds, or dig tunnels with the worms? Why do I want these things? Are the answers really what I search? I'm trying to answer life before I lie in the hearse, yeah! Verse 16 I see, I see hip-hop as a gun It gives power to the man who yields one But it gives a whole nother level of power to the man who really knows how to wield one Same thing how it takes talent to go semi pro But it takes a whole lotta work to go professional It's a big difference It's the big leagues vs. the amateurs Its the circumference vs. the diameter The worker vs. the manager The peasant vs. the chancellor The black house cat vs. the panther It's me vs. hip hops ramblers Quit being inconsiderate And taking away from an art form So you can get your liquor in That was built to make a difference Through brutal honesty and enlightening the policies Of what us inaudibly To common to see NBC, just wants gossip I'm here in the form of the long lost prophet Allah reincarnated with Muhammad Serving the blood of my heart in a goblet Knowledge of an entire life in every droplet Flow of a faucet that's sick like vomit That last line is a composite of a sonnet I'm preparing to pay with my life And my words are my breath, and wallet Is being held under a knife The pressure is precise The ethics of a man I like to exercise Experience is the best teacher of wrong vs. right So don't believe the hype I'm not always right despite being a white, man I'm right because I stay up at night to write my insight until I can't feel my hand This is something that's bigger than me And I won't quit until I can put it in between my teeth Verse 17 They say what I say ain't as important as what I do But I'm confused, because what I bring to you is the same two Hold up Steve let's sniff out the Blues Clues This one's sweat on my neck like J. Crew Let's sniff out the Blues Clues and take a J cruise Chains of thought weigh like slave shoes Not what you should see but what they choose It's what they put on our shoes with swoosh labels We released information over the Internet for free to anyone who was able With cells into portable tables and cables Chorus Freestyle 5 Uh, I dont know what to say, uh Wassup, wassup, wassup, wassup I can be an emcee or I could be the drummer I can make more sound than the engine of a Hummer Bummer, that you have to sit the sideline While I spit raps and ride the high rise You need to climb a mountain just to get in my eyesight And I can make this real messy like we was in a pie fight That's 3.14 Whatchu know about that? Nothing? Well there's the door I suggest you still get out while it's easy like a whore Cause if you stand there and rebuttal when I come back around there's gonna be a Whole. Lot. More. Verse 18 My face been multiplying acne like I'm a mathlete Im feeling crappy like 2015 Crabtree I feel like a has be, so I drink coffee, until the break of dawn While rapping, zeppelin rocking, ignorance the new armeggadon I've had lots of time to reflect the concept of many wrongs Addiction to electronic restriction has humanity dead and gone Has everything I think been thought? Is it just the credits on? Am I ever creative or just invasive like Jason Statham in The Italian Job? That's a whole different song. Pause. New topic Verse 19 Im watching the blur of green trees and leaves Feeling like nothing ever mattered I can feel the vibration through the cars tire feet Recline and the rocksll start to sing you to sleep Elevation is what we seek, the summit is under my feet This forest is quiet no birds cheep Fresh air meant to INhale deep The smoke from the blunt starts to seep Into my lungs take in the heat Smoke on the view, gaze on the haze Baker, Im covered I'm fog Crepes with a glaze Of hazelnut gourmet sauce Topped off with whipped bliss of the gods Smoke smog with my dawgs Smash, no items or mods Not a monster but a cookie hog I'm pretty odd, do whatever I feel when I wake up Too many things to do than stay put and stay stuck Add a little flavor with a spray of the shaker I'm a creator who just gave this crater And it's big as fuck You could roll in its deep but its like the wheels on the bus Darkness makes you ponder if the difference of life is on purpose or luck? Why am I me and not a big buck? Why does my head point to happiness and big bucks? Why is my head not the shape of a duck? What if monkeys are secretly smarter than us? What if they're the ones running the experi-munts? They act dump to puppeteer us with ropes You can't understand any other life except the one yours chose But yet all our electrons rotate so close Created the difference between inland and coast Dead and living folks And the concept of hope Isotopes and molecules I be running through this shit that I cule Verse 20 I can think Though any situation I got the bossest consciousness Filled with the rawest faucet Of flawless thoughts that blossom Into colossal gospel My words are fossils Here to stay Spread and spray From Boston to Austin to the bay I display an awesome buffet Of parfaits that convey Past clichés and will live on past my day when I pass away Im molding my days like clay And churning the furnace to not decay So preserve my DNA Like fine cabernet Wine And sip it on my judgment day Eat my words like sorbet soufflé At my cafe The fires crackling My mouth is babbling Trying to tackle what happening Around me, but sadly I don't think I'm scratching The surface of the half of it I'm passing time trying to remind Every pacifist that they're accurate I'm trying to ejaculate the immaculate all over your face Make ya taste my miraculous case I'm trying to calculate every single angle Untangle hatred And become the grateful patrons Underneath those clothes we're all naked, we're all related So let's hug each other, snap the moment and paint it Make it a song on everybody's playlist And label it the greatest Chorus Freestyle 6 Oh youre a fat ass? Boo-hoo Quit going to McDonalds and make your own fucking food Its not rocket science its not even voodoo Dont eat donuts motherfucker get your head right And at night, I dont obey the law of red lights I do donuts what I drive, I spin around in my mind I got the eyesight of the three blind mice times thrice Thats nine, thats nice, I dont listen to Christ I dont like being told what not and what to do Call me a rebel but thats just what Im meant to do Im amendable but if I led, Id be incredible Dont run out of lead in your pencil Cause my lessons immensful Verse 21 Im on 16th alley in the Cascade valley North of Cali I been working out my mind like Bally Cooking something up on the galley Putting beats in body bags, add up the tally My raps are pieces of art, I got a whole gallery I can pep talk a rally into a riot for the finale Flow sweeter than berries, like Halle Ooh I like them caramel girls The scandalous girls Fuck me like an animal girls Bring out my instincts Make me go primate Annihilate your eardrums With vibrate, tions I hydrate with nitrate So I flow with nitrous Let loose like on Friday night with a pipe Packed with kief of the leaves That allows me to catch Z's Cause I don't sleep, Geez Louise Nicky G, He's the missing piece of the puzzle Between peace vs. muzzles I paint a picture with my ease-l I got a lot of power I need diesel With a flow so lethal my language needs to be illegal I got the nose of a beagle and the talons of an eagle I turn ya into fecal then roll you around like a dung beetle Ill stab you with a bees needle and put you in the fetal Position, a fucking animal on every composition 159 is the addition of my cognition So when I'm speaking you need to shut the fuck up and listen Just kidding But I'm just more than a musician I got food for thought that's nutrition I'm a poetic dietician And fuck paying tuition I'd rather spray my ammunition I'm in a high gear transmission And I just sparked the ignition Verse 22 I been creeping through the peep hole Weed O's till my feet slow Shoot a beat then I reload Nicky G, G is for giant with my fe-fi-fe-flow Stomp, the ground erodes Yo he flow like he got the cheat codes He is not an equal King Midas touch when he flow, he speak gold Deceitful, like Rumpelstiltskin Like Rumpelstiltskin Chilling with the fill in villain Im just your enemy until I make a killing Im throwing curveballs like Curt Schilling I'm iller than a chinchilla that has ten children Fighting off evil women like Scott Pilgrim I swear I've met more than a million And I don't do this for them I do this for the feeling I do this for the Chem- -istry of my brain stem Raise the mayhem Out my cranium Not the best But def- -initely in the top ten And offend- Ded if you think diff-er-ent Not what I want but I spit what I am Verse 23 I may be introverted and shy But in my mind, Lies A consciousness, where I got enough confidence and competence to accomplish an entire continent I got a horoscope of a broke metronome I'm the holy ghost giving every note a home Ill straighten out your head like a comb I'm flowing Rivers like Joan Get girls wet like boats I float with ease I got a whole lotta ways to cut the cheese I got an army of chords and keys I breathe these raps like breeze I got your hands up like I told you to freeze But unlike the police, I'm pro free Im digging tunnels underground where the moles be Dip me like guacamole I'm raising all you kids like Angelina Jolie I'm a god, on the low key Like a bass note I was born in the winter I'm straight cold Ill give you a splinter with a dull icicle Ill break the ice in your skull Throw your corpse off the hull You'll feed the seagulls My words should be illegal I'm so lethal I got retrieval skills like a beagle Snatching the egg of an eagle Which I feed my people to lead past the cathedral to laugh in the face of evil And I won't stop until the Devil lays peaceful And all men are treated equal I got a sequence of sequels This is just the prequel of the needle Chorus Freestyle 7 I just smoked a blunt My body is retarded My mind has departed Rolled a back and sparked it The moon isn't even the farthest I've traveled, through galaxies and seen through fallacies of the most lethargic That last line was a hiccup That last beat I made, I need to turn the kick up Make my vocal pop because listen how I spit luck Gain respect and get trust Maintain flexed, Nicks Maintain flexed, Nick the mista It's when the pressures on that defines who you are Are you subpar or you can reach the bar? Except the bar is meant to be lifted, and I'm the motherfucking gifted! Who be spitting and kicking all of this god damn different Things that Ive been lifting Verse 24 I'm like a magician I can disappear into thin air I brainstorm so much I wake up with Einsteins hair I'm in a race against a tortoise and I'm the hare But this ain't the story you used to hear I'm trying to rewrite history with a flare so rare My skins so fair I can give you a ghost-like scare But in reality I'm sweeter than a pear With a mistook left hook that can leave you impaired My words sting like Nair And they slap like a snare I rhyme snuggly like a big teddy bear My flow spreads like a spiders web Step into my lair I'm making the world change, Im not waiting like Mayer I spend my time as a god like creator So if music dies I can rise and be the savior Verse 25 Ain't no limits to this gift I'm tired of cheese and crackers I want to live the Ritz Bliss, death has given me a kiss But that's another story that's was some shit Let's just say I appreciate what it means to live I hold in my genesjeans my kids And honest, I hope they never get my lisp Money power and happiness, I can't scratch away this itch, it's a bitch My soul could never be beat even by Chuck Norris' fists My goal is to become a young enormous prince My name on all the tourists lists A camera click with a horde of pics Give all the Swedish chicks a foreign dick I feel immortal with this Take a shot I pray it miss, cause my sleeves' got more tricks Too many things I want to fix I'm just a kid I eat Trix I want to get under your skin like ticks The clock ticks and tocks I think time is a paradox I have too many thoughts to talk And if you're racist, suck my cock here's a box of dicks That last line was a little bit ridiculous But thats ok because Im named Nicholas And I try to stay fresh and packed like pickles is I have a high ego it's hard t</t>
+          <t>See it, get it If you can see it Get it If you can see it, then you know that you can get it on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way See it, get it As the world spins around me like I'm utilizing vinyl My final destination are behind me like a spinal Tapped into my psyche Manifesting someone like me Walking to the grocery store end up bumpin' into my wifey Right up out my fantasies Stay up here one advantage I organize my thoughts and it seems I'm losing my sanity Rambling 'bout when I'm my best whenever I'm gamblin' Manifestin' most of my money in palms, handlin' Channeling my inner self with my inner self So it's two times deeper, beyond things that I've felt If I felt, I feel If I dealt, I deal Given my ideals Now I got what's real Tangible, not mechanical Caging my inner animal Minutes eating up most of my time The clock is a cannibal Yet, there's other answers Manifest the message When there's nothing to count on I'm counting all of my blessings I'm out On the way, on the way I must draw it out from where it hides If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way I must draw it out from where it hides If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way I must draw it out from where it hides On the way, on the way On the way, on the way On the way, on the way On the way, on the way2</t>
         </is>
       </c>
     </row>
@@ -5163,12 +5163,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Car Phone</t>
+          <t>Creep Creep Devilz!!!!!!! 93</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Yeah, uh It's the mothafuckin'... Well I'm back on the scene Better than red everything Gold teeth in my mouth, still look clean Chasin' one dream, that's a dream about a dollar We can go dota, I only want her 'til tomorrow Bringin' that phonk back because you make wanna, wanna, wanna I wanna smoke some marijuana with cha boi Bitch you is for the drama But save it for yo' momma cause nobody want no problem I just want a bitch with nice round bottom Drop top whip, but my shoes all autumn Fee said get em' so I got em' Rollin' blunts fatter than yo mama Check like Osama, eatin' Benihana I just wanna live, live, live, like a baller Pop, pop, pop, my motherfuckin' collar Who ya follow? When I hit, I bet she swallow Oh, baby, I know you see me shinin' Money keep on piling' Got this way from grindin', grindin' Oh, baby I just want it all Paintings on my wall Car phone in my car, car Oh, baby, I know you see me shinin' Money keep on piling' Got this way from grindin', grindin' Oh, baby I just want it all Paintings on my wall Car phone in my car, car Well I'm back on the scene, didn't have to use a triple beam To make sure I stay wealthy, get moolah and live serene Medulla oblongata projectin' all of my dreams Escape the only fate that awaits when out of my sleep Really reality, vanishin' vanity And your eyes are not meant to be Get you wetter than manatees, oh please Give a round of applause to God The squad lookin' like angels where the devil has broadened my heart I play a organ donor, skeletons in the closet get amazed by the boner, now I want her forever Simply I'm like a Nebuchadnezzar She the queen to my kingdom and yeah she keep my Beretta In the desert, I turn back the sands of time In that alcoholic river servin' cocaine lines I'm runnin' through the city like America's most You won't know who's in the phantom so consider me ghost Women suckin' like vampires with they ego they stroke Prolly catch a heart attack with the weed that I smoke Tours, I don't feel like a tourist, leader not a tourist Party with the Mormons, hasta luego outta the mornin', damn! Hasta mañana, señorita dominicana Crashin' the pussy Baila La Bamba, off marijuana, tight, anaconda Oh, baby!</t>
+          <t>Straight outta Blackland The trill ass nigga named Aquarius Killin' Denzel is my alias Fuck the motherfucking pigs They wanna see a nigga downfall And want to kill our kids Just the way shit ain't been the same They kill my cousin ChynaMan, and bust a slug brain Niggas beef for hoe shit That why Raven Miyagi all black like a crow bitch This the type of shit a nigga hate 'Cause my nigga Muney Jordan said 'My nigga we share the same fate' Jitt, the nigga he used to be around The same place he said was the place he was gunned down God knows I ask why? But when I pray to him it's almost I get no reply Not saying Im Athiest, I know where my vape is Blackland and black man, crackers is racist Creep, they wanna beef so nigga don't sleep I see, the He peeps, the predator, that's stalking his prey creep Creep creep, they wanna beef so nigga don't sleep I see, the He peeps, the predator, that's stalking his prey play, creep creep You already know what I'm saying, know what I'm saying nigga I like to dedicate this song, to like Man, saying to all the loss, you feel me? I dedicate this one to like, especially to my cousin ChynaMan I love you brother Man if it wasn't for him, you know what I'm saying? So he could watch me do this shit, you feel me? Smoke Right, dog, I am going to make you proud bro You know what I'm saying, Mick Travis, ChynaMan, I love you man Never got to tell you that before you left, you feel me? Smoke You know what I'm saying, we miss you down here Flawless, victory Know what I'm saying, we're going to make for you Raider Klan all day nigga, know what I'm saying Shoutout Raiders all day nigga, know what I'm saying Shoutout to that boy SpaceGhostPurrp for telling me about the beat Man, everybody who ever lost somebody keep your head up, you feel me? We're all in this together, you feel me? Life's too short for that beef shit, you feel me? I am still going to dedicate this to like, my dog you feel me? Rest in peace to my grandmother, I love you And my , I love you I'd like to dedicate this to All the loss Curry, rest in peace , shoutout my boy renegade, Simmie, DC, and Purrp nigga1</t>
         </is>
       </c>
     </row>
@@ -5180,12 +5180,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Certified</t>
+          <t>Dark &amp; Violent (Clean)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist I said niggas love to get they buzz up It's a fact them motherfuckers never loved us I can be the main talk in a barbershop chair, but I'll never let you see me get my buzz cut Six shots like a Call of Duty split-screen so you know I gotta gang green Stackin' all of my currency for the niggas who hurtin' me, either they are supporting or either hatin' Jealousy's for bitches, I'm not an enemy Put my time into money instead of enemies But you know they say it goes until it's good, we could go in the next seven days You don't exist to me Ya'll can all watch the throne, I'ma still go ham Stackin' these O's of the Toucan Sam Bird game perp, there's a killer on cam I can turn any picture into Silence of the Lambs Woah That's killer, Denzel that nigga Woah People hate regardless and that's a fact nigga All I gotta do is die and stay racked nigga But I'm 'bout to have the luxury of countin' racks nigga Real shit, see now we rich Overhaters throw south, don't even throw a fit You can say what you want, but I know you ain't dis But in reality I prolly fucked your bitch Boy eastside where you out yo vibe Damn Nigga better clip the .45 Raa Ya'll niggas ain't talkin' 'bout Damn I'm back to the money, who lie Oh Hatin' ass niggas get popped God damn I'm 32 Zel to the five Oh shit If you think I'm not that nigga man, damn my nigga you cry 'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Iced out like a motherfucking frostbite Pure ice, fuck your Snow White Cold cap, bring da ice Senile, ice cold, with a girl all froze Now we eskimo bros 'Cause we scared that ho like a URL I was born to give ya'll hell so All hail D-E-N, be like me 'Cause I get the racks, why see you can't Compared to a profit, infinite, plus niggas too many sockets Goes in my pockets, niggas be plottin' For my dog, he gonna cock it Boys got rich like a firehouse Pigs come through put the fire out 32 Zel 'bout to ball out I'm the name yo bitch wanna call out So how in the fuck do you feel You do not know what's so real Kick her right out of the door if she talkin' 'bout feelings or not 'cause Oh you don't like that shit Tell everybody it's how I say bitch See not glow, my niggas been rich Always good music ain't fucking with the clique Boy eastside where you out yo vibe Damn Nigga better clip the .45 Raa Ya'll niggas ain't talkin' 'bout Damn I'm back to the money, who lie Oh Hatin' ass niggas get popped God damn I'm 32 Zel to the five Oh shit If you think I'm not that nigga man, damn my nigga you cry 'Cause I ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist Ball out, roll face Hoping I don't catch a case Vibin' hard, swear to God .45 up on my waist That's killer Denzel that nigga That's killer Denzel that nigga</t>
+          <t>Fang life! Klan You ain't never heard no tales from the darkside You ain't never heard no tales from the darkside Welcome to the land You ain't never heard no tales from the darkside What it's 'bout?! Its bout a young, running away from the moon to catch the sun quicker Drug dealer, Nino with the steelo trying to sell kilos and grams Settling angry stomachs up in his fam So if that silver spoon on your plate, if you touch that, that's your fate Don't have faith, Like Evans, you got to face demons to get to your heaven The pimps is the prophts, not prophets for revernds, this is the lifestyle of a broke adolescent So here's a lesson of a teen that survived Rikers But shortly, his life had ended with a bullet that's made out of Midas Touch You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a name on the darkside You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a name on the darkside Knew a young brother without a name, he was in love with his nina trapped And steadily schemin', barely sleepin', but dreamin' of pretty and beamers But when he awake, he sees his fate And his reality, to do whatever it takes to elevate his salary Any a casualty, kill 'em, rob 'em Then casually walk off into the darkness, it all started When he was, welcomed into our up world, the son of a up girl And his father was just a blur, his life had took a curve When he saw his brother dead on the curb, due to retaliation Of the gang relation, he was young, a kid, a baby And yet to realize the pollution of the nation Now he 18 life in jail is what he facin' Murder was the case that they gave him Murder was the case when they raised him Mind stuck in the all black prison You think he give a about the system? Car driving We gotta get this money Damn right We gotta get this money, I got the plans... Everything's set up Just got to go in there-.. Got the banger man, as long as you got the hammer man, we out ...Go by the book... You ready to do this or what? Yeah, yeah, 'this what I got to do Out on the gank, rolling the dank As he cased out the bank, he was catching that shank Getting loaded the stick, trying to major his rank Thugging was how he was brought in the paint Rush the security, no longer pure was thee Soul turned it cold for the love of the gold Bust in the air, everyone hit the floor Not giving a loc-ing off of the 'dro Bodied a riding in a dropped Lac Top back, cruising them twenty fours So I went crazy, my vision got hazy I walked in the bank, and I start to get bold Clutching that pistol grip The teller was moving too slow so I pistol-whipped The he was twitching, bust at a civilian And blasted the mag with no mask in the buildin Burn the fingertips off, replace the dental Left the golden bullet magic in his coufie, no his temple Thats engraved, leaving corpses In graves, Glock 17 cutting fades Barber, we dumped the security in the harbor Then we switched the identity, chose the name Leroy Carter The bank teller looking short and squeamish Steve pistol-whipped the she kept screaming Shut up, before a nut up, ho Steve said he couldnt take the So he took her to the back, then Steve grabbed the MAC Then he put it to her head, and then he ripped the Bro, we gotta do a job or we might get toast 13 shots rung out and it left two ghost Tales from the dark side, jack move, riding Trials and tribulations of the dark and violent</t>
         </is>
       </c>
     </row>
@@ -5197,12 +5197,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Champ’s n G’s</t>
+          <t>Daughter*</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>You know I'm saying, strictly for my raiders, nigga I had to get two niggas, you know I'm saying These raiders, my nigga Champ Fway, Harvey G Man, give 'em that phonk, my nigga Blavklvnd Rvdix Troublesome Strictly for my raiders, Harvey G Blavklvnd Rvdix 66.6, nigga Harvey G, young man maxi, smokin' on that cat piss Snapping niggas' necks, Macho Man, Randy Savage All my hoes the baddest, hold 'em like magnets If I see George Zimmerman I'll blast him They look like we ain't equal Turnin' us against our own people No , pure evil Y'all transparent, I see you Tell the truth and they ain't believe you Only live once, you better think twice think about it til reaper come and snatch your life This chess, not checkers, not rolling dice Kill everything, shoot a nigga on sight, sipping on that dirty Sprite Purple, purple, purple ice, yeah, a psychedelic night Uh, yeah, she feeling the phonk I ain't talking 'bout a car when I say that she got a donk Skinny tears and dead bodies coming out of the trunk This Raider Klan, understand, guns like Pakistan All across Blavklvnd, Harvey G the fuckin' man Damn, 'bout to kill man I'm still smoking on like a chopper, man I kick it all day, Van Damme Sour D smoke got my eyes all lazy Niggas sneak diss but that shit don't faze me We don't talk shit, been sick in there lately Send that man all on me crazy This ain't young man, the truth is evil Gun in my hand, I'm 'bout to shoot these people Blacked out in Timb' boots and a Niggas say they real, but I can see straight, dude I am recording, my nigga, this true You fake as fuck, so my dick in your boo Fuck all that fame, just give me the loot Run up on me, I'ma give you the blues Fa-fa-fa, y'all niggas pop Niggas started dying, I'ma find you Shoot you in your eye, I'ma blind you Nigga, I ain't got no mind, fool</t>
+          <t>Me and my dawg be together like guarded Pump make a nigga drop out like Harvard Pocket full of green, but that shit ain't collard Lost my marbles, no mancala Untame when I'm in a Tame Impala Impalas pull up on parlor Big baller, call the nigga Saitama My llama sing like Alana Shock a nigga, you can call me Raiden When I switch the cadence, bitch, I'm too amazin' Call a nigga Ronald Wilson Reagan That's them triple sixes, 'cause my shit is blazin' Snatch a nigga daughter like it's Taken If a nigga try me, then you know he hatin' Super Saiyan mixed with a Superman Come down to hoes, I'm never savin' Wanna see a star? Go to Macy's Pew Brand new phones, no rabies Yeah Pull up to your home like Katie's Ooh Slaughter your daughter like Casey Ew Wanna see a star? Go to Macy's Pew Brand new phones, no rabies Yeah Pull up to your home like Katie's Ooh Slaughter your daughter like Casey Ew4</t>
         </is>
       </c>
     </row>
@@ -5214,12 +5214,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CHOOSE WISELY INTERMISSION</t>
+          <t>Day N Night Throwback</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>To all Noble and Worthy Ladies, This present Description of a New World, was made as an Appendix to my Observations upon Experimental Philosophy and, having some Sympathy and Coherence with each other, were joined together as Two several Worlds, at their Two Poles. But, by reason most Ladies take no delight in Philosophical Arguments, I separated some from the mentioned Observations, and caused them to go out by themselves, that I might express my Respects, in presenting to them such Fancies as my Contemplations did afford. The First Part is Romancical the Second, Philosophical and the Third is merely Fancy or as I may call it Fantastical. And if Noble Ladies you should chance to take pleasure in reading these Fancies, I shall account myself a Happy Creatoress If not, I must be content to live a Melancholy Life in my own World which I cannot call a Poor World, if Poverty be only want of Gold, and Jewels for, there is more Gold in it, than all the Chymists ever made or, as I verily believe will ever be able to make. As for the Rocks of Diamonds, I wish, with all my Soul, they might be shared amongst my Noble Female Friends upon which condition, I would willingly quit my Part And of the Gold, I should desire only so much as might suffice to repair my Noble Lord and Husband's Losses for, I am not Covetous, but as Ambitious as ever any of my Sex was, is, or can be which is the cause, That though I cannot be Henry the Fifth, or Charles the Second yet, I will endeavor to be, Margaret the First and, though I have neither Power, Time nor Occasion, to be a great Conqueror, like Alexander, or Cesar yet, rather than not be Mistress of a World, since Fortune and the Fates would give me none, I have made one of my own. And thus, believing, or, at least, hoping, that no Creature can, or will, Envy me for this World of mine, I remain, Noble Ladies, Your Humble Servant, M. Newcastle. The Description of a New World, Called The Blazing-World A Merchant travelling into a foreign country, fell extremely in love with a young Lady but being a stranger in that Nation, and beneath her, both in birth and wealth, he could have but little hopes of obtaining his desire however his love growing more and more vehement upon him, even to the slighting of all difficulties, he resolved at last to steal her away which he had the better opportunity to do, because her Father's house was not far from the Sea, and she often using to gather shells upon the shore accompanied not with above two to three of her servants, it encouraged him the more to execute his design. Thus, coming one time with a little light Vessel, not unlike a Packet-boat, manned with some few Sea-men, and well victual led, for fear of some accidents, which might perhaps retard their journey, to the place where she used to repair he forced her away. But when he fancied himself the happiest man of the World, he proved to be the most unfortunate for Heaven frowning at his theft, raised such a Tempest, as they knew not what to do, or whether to steer their course so that the Vessel, both by its own lightness, and the violent motion of the wind, was carried as swift as an Arrow out of a Bow, towards the North-pole, and in a short time reached the Icy Sea, where the wind forced it amongst huge pieces of Ice but being little, and light, it did by the assistance and favour of the gods to this virtuous Lady, so turn and wind through those precipices, as if it had been guided by some experienced Pilot, and skillful Mariner. But alas! Those few men which were in it, not knowing whether they went, nor what was to be done in so strange an Adventure, and not being provided for so cold a Voyage, were all frozen to death the young Lady only, by the light of her Beauty, the heat of her Youth, and Protection of the Gods, remaining alive. Neither was it a wonder that the men did freeze to death for they were not only driven to the very end or point of the Pole of that World, but even to another Pole of another World, which joined close to it so that the cold having a double strength at the conjunction of those two Poles, was insupportable. At last, the Boat still passing on, was forced into another World for it is impossible to round this Worlds Globe from Pole to Pole, so as we do from East to West because the Poles of the other World, joining to the Poles of this, do not allow any further passage to surround the World that way but if any one arrives to either of these Poles, he is either forced to return, or to enter into another World and lest you should scruple at it, and think, if it were thus, those that live at the Poles would either see two Suns at one time, or else they would never want the Sun's light for six months together, as it is commonly believed. You must know, that each of these Worlds having its own Sun to enlighten it, they move each one in their peculiar Circles which motion is so just and exact, that neither can hinder or obstruct the other for they do not exceed their Tropics and although they should meet, yet we in this World cannot so well perceive them, by reason of the brightness of our Sun, which being nearer to us, obstructs the splendor of the Sun of the other World, they being too far off to be discerned by our optic perception, except we use very good Telescopes by which, skillful Astronomers have often observed two or three Suns at once. But to return to the wandering Boat, and the distressed Lady she seeing all the Men dead, found small comfort in life their Bodies which were preserved all that while from putrefaction and stench, by the extremity of cold, began now to thaw, and corrupt whereupon she having not strength enough to fling them over-board, was forced to remove out of her small Cabine, upon the deck, to avoid the nauseous smell and finding the Boat swim between two plains of Ice, as a stream that runs betwixt two shores, at last perceived land, but covered all with Snow from which came, walking upon the Ice, strange Creatures, in shape like Bears, only they went upright as men those Creatures coming near the Boat, catches hold of it with their Paws, that served them instead of hands some two or three of them entered first and when they came out, the rest went in one after another at last having viewed and observed all that was in the Boat, they spake to each other in a language which the Lady did not understand and having carried her out of the Boat, sunk it, together with the dead men. The Lady now finding her self in so strange a place, and amongst such wonderful kind of Creatures, was extreamly strucken with fear, and could entertain no other Thoughts, but that every moment her life was to be a sacrifice to their cruelty but those Bear-like Creatures, how terrible soever they appear'd to her sight, yet were they so far from exercising any cruelty upon her, that rather they shewed her all civility and kindness imaginable for she being not able to go upon the Ice, by reason of its slipperiness, they took her up in their rough arms, and carried her into their City, where instead of Houses, they had Caves under ground and as soon as they enter'd the City, both Males and Females, young and old, flock together to see this Lady, holding up their Paws in admiration at last having brought her into a certain large and spacious Cave, which they intended for her reception, they left her to the custody of the Females, who entertained her with all kindness and respect, and gave her such victuals as they used to eat but seeing her Constitution neither agreed with the temper of that Climate, nor their Diet, they were resolved to carry her into another Island of a warmer temper in which were men like Foxes, onely walking in an upright shape, who received their neighbors the Bear-men with great civility and Courtship, very much admiring this beauteous Lady and having discoursed some while together, agreed at last to make her a Present to the Emperor of their World to which end, after she had made some short stay in the same place, they brought her cross that Island to a large River, whose stream run smooth and clear, like Chrystal in which were numerous Boats, much like our Fox-traps in one whereof she was carried, some of the Bear- and Fox-men waiting on her and as soon as they had crossed the River, they came into an Island where there were Men which had heads, beaks and feathers, like wild-Geese, only they went in an upright shape, like the Bear-men and Fox-men their rumps they carried between their legs, their wings were of the same length with their Bodies, and their tails of an indifferent size, trailing after them like a Ladie's Garment and after the Bear- and Fox-men had declared their intention and design to their Neighbors, the Geese- or Bird-men, some of them joined to the rest, and attended the Lady through that Island, till they came to another great and large River, where there was a preparation made of many Boats, much like Birds nests, only of a bigger size and having crost that River, they arrived into another Island, which was of a pleasant and mild temper, full of Woods and the Inhabitants thereof were Satyrs, who received both the Bear- Fox- and Bird men, with all respect and civility and after some conferences for they all understood each others language some chief of the Satyrs joining to them, accompanied the Lady out of that Island to another River, wherein were many handsome and commodious Barges and having crost that River, they entered into a large and spacious Kingdom, the men whereof were of a Grass-Green Complexion, who entertained them very kindly, and provided all conveniences for their further voyage hitherto they had only crost Rivers, but now they could not avoid the open Seas any longer wherefore they made their Ships and tacklings ready to sail over into the Island, where the Emperor of the Blazing- world for so it was call'd kept his residence. Very good Navigators they were and though they had no knowledge of the Load-stone, or Needle or pendulous Watches, yet which was as serviceable to them they had subtile observations, and great practice in so much that they could not onely tell the depth of the Sea in every place, but where there were shelves of Sand, Rocks, and other obstructions to be avoided by skillful and experienced Sea-men Besides, they were excellent Augurers, which skill they counted more necessary and beneficial then the use of Compasses, Cards, Watches, and the like but, above the rest, they had an extraordinary Art, much to be taken notice of by Experimental Philosophers, and that was a certain Engin, which would draw in a great quantity of Air, and shoot forth Wind with a great force this Engine in a calm, they placed behind their Ships, and in a storm, before for it served against the raging waves, like Cannons against an hostile Army, or besieged Town it would batter and beat the waves in pieces, were they as high as Steeples and as soon as a breach was made, they forced their passage through, in spit even of the most furious wind, using two of those Engins at every Ship, one before, to beat off the waves, and another behind to drive it on so that the artificial wind had the better of the natural for, it had a greater advantage of the waves, then the natural of the Ships the natural being above the face of the Water, could not without a down right motion enter or press into the Ships whereas the artificial with a sideward-motion, did pierce into the bowels of the Waves Moreover, it is to be observed, that in a great Tempest they would join their Ships in battle-aray and when they feared Wind and Waves would be too strong for them, if they divided their Ships they joined as many together as the compass or advantage of the places of the Liquid Element would give them leave. For, their Ships were so ingeniously contrived, that they could fasten them together as close as a Honey-comb, without waste of place and being thus united, no Wind nor Waves were able to separate them. The Emperor's Ships, were all of Gold but the Merchants and Skippers, of Leather the Golden Ships were not much heavier then ours of Wood, by reason they were neatly made, and required not such thickness, neither were they troubled with Pitch, Tar, Pumps, Guns, and the like, which make our Woodden-Ships very heavy for though they were not all of a piece, yet they were so well sodder'd, that there was no fear of Leaks, Chinks, or Clefts and as for Guns, there was no use of them, because they had no other enemies but the Winds But the Leather Ships were not altogether so sure, although much leighter besides, they were pitched to keep out Water. Having thus prepared, and order'd their Navy, they went on in despite of Calm or Storm And though the Lady at first fancied her self in a very sad condition, and her mind was much tormented with doubts and fears, not knowing whether this strange Adventure would tend to her safety or destruction yet she being withal of a generous spirit, and ready wit, considering what dangers she had past, and finding those sorts of men civil and diligent attendants to her, took courage, and endeavoured to learn their language which after she had obtained so far, that partly by some words and signs she was able to apprehend their meaning, she was so far from being afraid of them, that she thought her self not only safe, but very happy in their company By which we may see, that Novelty discomposes the mind, but acquaintance settles it in peace and tranquility. At last, having passed by several rich Islands and Kingdoms, they went towards Paradise, which was the seat of the Emperor and coming in sight of it, rejoiced very much the Lady at first could perceive nothing but high Rocks, which seemed to touch the Skies and although they appear'd not of an equal heigth, yet they seemed to be all one piece, without partitions but at last drawing nearer, she perceived a clift, which was a part of those Rocks, out of which she spied coming forth a great number of Boats, which afar off shewed like a company of Ants, marching one after another the Boats appeared like the holes or partitions in a Honey-comb, and when joined together, stood as close the men were of several Complexions, but none like any of our World and when both the Boats and Ships met, they saluted and spake to each other very courteously for there was but one language in all that World nor no more but one Emperor, to whom they all submitted with the greatest duty and obedience, which made them live in a continued Peace and Happiness not acquainted with Foreign Wars or Home-bred Insurrections. The Lady now being arrived at this place, was carried out of her Ship into one of those Boats, and conveighed through the same passage for there was no other into that part of the World where the Emperor did reside which part was very pleasant, and of a mild temper Within it self it was divided by a great number of vast and large Rivers, all ebbing and flowing, into several Islands of unequal distance from each other, which in most parts were as pleasant, healthful, rich, and fruitful, as Nature could make them and, as I mentioned before, secure from all Foreign Invasions, by reason there was but one way to enter, and that like a Labyrinth, so winding and turning among the Rocks, that no other Vessels but small Boats, could pass, carrying not above three passengers at a time On each side all along the narrow and winding River, there were several Cities, some of Marble, some of Alabaster, some of Agat, some of Amber, some of Coral, and some of other precious materials not known in our world all which after the Lady had passed, she came to the Imperial City, named Paradise, which appeared in form like several Islands for, Rivers did run betwixt every street, which together with the Bridges, whereof there was a great number, were all paved. The City it self was built of Gold and their Architectures were noble, stately, and magnificent, not like our Modern, but like those in the Romans time for, our Modern Buildings are like those Houses which Children use to make of Cards, one story above another, fitter for Birds, then Men but theirs were more Large, and Broad, then high the highest of them did not exceed two stories, besides those rooms that were under-ground, as Cellars, and other Offices. The Emperor's Palace stood upon an indifferent ascent from the Imperial City at the top of which ascent was a broad Arch, supported by several Pillars, which went round the Palace, and contained four of our English miles in compass within the Arch stood the Emperor's Guard, which consisted of several sorts of Men at every half mile, was a Gate to enter, and every Gate was of a different fashion the first, which allowed a passage from the Imperial City into the Palace, had on either hand a Cloyster, the outward part whereof stood upon Arches sustained by Pillars, but the inner part was close Being entered through the Gate, the Palace it self appear'd in its middle like the Isle of a Church, a mile and a half long, and half a mile broad the roof of it was all Arched, and rested upon Pillars, so artificially placed that a stranger would lose himself therein without a Guide at the extreme sides, that is, between the outward and inward part of the Cloyster, were Lodgings for Attendants and in the midst of the Palace, the Emperor's own Rooms whose Lights were placed at the top of every one, because of the heat of the Sun the Emperor's apartment for State was no more enclosed then the rest only an Imperial Throne was in every apartment, of which the several adornments could not be perceived until one entered, because the Pillars were so just opposite to one another, that all the adornments could not be seen at one. The first part of the Palace was, as the Imperial City, all of Gold and when it came to the Emperors appartment, it was so rich with Diamonds, Pearls, Rubies, and the like precious Stones, that it surpasses my skill to enumerate them all. Amongst the rest, the Imperial Room of State appear'd most magnificent it was paved with green Diamonds for there are in that World Diamonds of all Colors so artificially, as it seemed but of one piece the Pillars were set with Diamonds so close, and in such a manner, that they appeared most Glorious to the sight between every Pillar was a Bow or Arch of a certain sort of Diamonds, the like whereof our World does not afford which being placed in every one of the Arches in several rows, seemed just like so many Rain-bows of several different colours. The roof of the Arches was of blew Diamonds, and in the midst thereof was a Carbuncle, which represented the Sun and the Rising and Setting-Sun at the East and West-side of the Room were made of Rubies. Out of this Room there was a passage into the Emperor's Bed-Chamber, the Walls whereof were of Jet, and the Floor of black Marble the Roof was of Mother of Pearl, where the Moon and Blazing-Stars were represented by white Diamonds, and his Bed was made of Diamonds and Carbuncles. No sooner was the Lady brought before the Emperor, but he conceived her to be some Goddess, and offered to worship her which she refused, telling him, for by that time she had pretty well learned their Language that although she came out of another world, yet was she but a mortal. At which the Emperor rejoycing, made her his Wife, and gave her an absolute power to rule and govern all that World as she pleased. But her subjects, who could hardly be perswaded to believe her mortal, tender'd her all the Veneration and Worship due to a Deity. Her Accouterments after she was made Empress, was as follower On her head she wore a Cap of Pearl, and a Half-moon of Diamonds just before it on the top of her Crown came spreading over a broad Carbuncle, cut in the form of the Sun her Coat was of Pearl, mixt with blew Diamonds, and fringed with red ones her Buskins and Sandals were of green Diamonds In her left hand she held a Buckler, to signifies the Defence of her Dominions which Buckler was made of that sort of Diamond as has several different Colors and being cut and made in the form of an Arch, shewed like a Rain-bow In her right hand she carried a Spear made of white Diamond, cut like the tail of a Blazing Star, which signified that she was ready to assault those that proved her Enemies. None was allowed to use or wear Gold but those of the Imperial Race, which were the onely Nobles of the State nor durst any one wear Jewels but the Emperor, the Empress and their Eldest Son notwithstanding that they had an infinite quantity both of Gold and precious Stones in that World for they had larger extents of Gold, then our Arabian Sands their precious Stones were Rocks, and their Diamonds of several Colors they used no Coyn, but all their Traffick was by exchange of several Commodities. Their Priests and Governors were Princes of the Imperial Blood, and made Eunuches for that purpose and as for the ordinary sort of men in that part of the World where the Emperor resided, they were of several Complexions not white, black, tawny, olive or ash-colored but some appear'd of an Azure, some of a deep Purple, some of a Grass-green, some of a Scarlet, some of an Orange-color, c. Which Colors and Complexions, whether they were made by the bare reflection of light, without the assistance of small particles or by the help of well-ranged and order'd Atoms or by a continual agitation of little Globules or by some pressing and re-acting motion, I am not able to determine. The rest of the Inhabitants of that World, were men of several different sorts, shapes, figures, dispositions, and humors, as I have already made mention, heretofore some were Bear-men, some Worm-men, some Fish- or Mear-men, otherwise called Syrens some Bird-men, some Fly-men, some Ant-men, some Geese-men, some Spider-men, some Lice-men, some Fox-men, some Ape-men, some Jack daw-men, some Magpie-men, some Parrot-men, some Satyrs, some Gyants, and many more, which I cannot all remember and of these several sorts of men, each followed such a profession as was most proper for the nature of their Species, which the Empress encouraged them in, especially those that had applied themselves to the study of several Arts and Sciences for they were as ingenious and witty in the invention of profitable and useful Arts, as we are in our world, nay, more and to that end she erected Schools, and founded several Societies. The Bear-men were to be her Experimental Philosophers, the Bird-men her Astronomers, the Fly- Worm- and Fish-men her Natural Philosophers, the Ape-men her Chemists, the Satyrs her Galenick Physicians, the Fox-men her Politicians, the Spider- and Lice-men her Mathematicians, the Jackdaw Magpie and Parrot-men her Orators and Logicians, the Gyants her Architects, c. But before all things, she having got a sovereign power from the Emperor over all the World, desired to be informed both of the manner of their Religion and Government and to that end she called the Priests and States men, to give her an account of either. Of the States men she inquired, first, Why they had so few Laws? To which they answered, That many Laws made many Divisions, which most commonly did breed Factions, and at last brake out into open Wars. Next, she asked, Why they preferred the Monarchical form of Government before any other? They answered, That as it was natural for one Body to have but one Head, so it was also natural for a politic body to have but one Governor and that a Common-wealth, which had many Governors was like a Monster with many Heads. Besides, said they, a Monarchy is a divine form of Government, and agrees most with our Religion For as there is but one God, whom we all unanimously worship and adore with one Faith so we are resolved to have but one Emperor, to whom we all submit with one obedience. Then the Empress seeing that the several sorts of her Subjects had each their Churches apart, asked the Priests, whether they were of several Religions? They answered her Majesty, That there was no more but one Religion in all that World, nor no diversity of opinions in that same Religion for though there were several sorts of men, yet had they all but one opinion concerning the Worship and Adoration of God. The Empress asked them, Whether they were Jews, Turks, or Christians? We do not know, said they, what Religions those are but we do all unanimously acknowledge, worship and adore the Onely, Omnipotent, and Eternal God, with all reverence, submission, and duty. Again, the Empress inquired, Whether they had several Forms of Worship? They answered, No For our Devotion and Worship consists only in Prayers, which we frame according to our several Necessities, in Petitions, Humiliations, Thanksgiving, c. Truly, replied the Empress, I thought you had been either Jews, or Turks, because I never perceived any Women in your Congregations But what is the reason, you bar them from your religious Assemblies? It is not fit, said they, that Men and Women should be promiscuously together in time of Religious Worship for their company hinders Devotion, and makes many, instead of praying to God, direct their Devotion to their Mistresses. But, asked the Empress, Have they no Congregation of their own, to perform the duties of Divine Worship, as well as Men? No, answered they but they stay at home, and say their Prayers by themselves in their Closets. Then the Empress desired to know the reason why the Priests and Governors of their World were made Eunuchs? They answer'd, To keep them from Marriage For Women and Children most commonly make disturbance both in Church and State. But, said she, Women and Children have no Employment in Church or State. 'Tis true, answer'd they but, although they are not admitted to publick Employments, yet are they so prevalent with their Husbands and Parents, that many times by their importunate persuasions, they cause as much, nay, more mischief secretly, then if they had the management of public Affairs. The Empress having received an information of what concerned both Church and State, passed some time in viewing the Imperial Palace, where she admired much the skill and ingenuity of the Architects, and inquired of them, first, Why they built their Houses no higher then two stories from the Ground? They answered her Majesty, That the lower their Buildings were, the less were they subject either to the heat of the Sun, or Wind, Tempest, Decay, c. Then she desired to know the reason, why they made them so thick? They answered, That, the thicker the Walls were, the warmer they were in Winter, the cooler in Summer for their thickness kept out both the Cold and Heat. Lastly, she asked, Why they Arched their Roofs, and made so many Pillars? They replied, That Arches and Pillars, did not onely grace a Building very much, and caused it to appear Magnificent, but made it also firm and lasting. The Empress was very well satisfied with their answers and after some time, when she thought that her new founded societies of the Vertuoso's had made a good progress in the several Employments she had put them upon, she caused a Convocation first of the Bird-men, and commanded them to give her a true relation of the two Celestial Bodies, viz. the Sun and Moon, which they did with all the obedience and faithfulness befitting their duty. The Sun, as much as they could observe, they related to be a firm or solid Stone, of a vast bigness of color yellowish, and of an extraordinary splendor But the Moon, they said, was of a whitish color and although she looked dim in the presence of the Sun, yet had she her own light, and was a shining body of her self, as might be perceived by her vigorous appearance in Moon-shiny-nights the difference only betwixt her own and the Sun's light was, that the Sun did strike his beams in a direct line but the Moon never respected the Centre of their World in a right line, but her Center was always eccentrically. The Spots both in the Sun and Moon, as far as they were able to perceive, they affirmed to be nothing else but flaws and stains of their stony Bodies. Concerning the heat of the Sun, they were not of one opinion some would have the Sun hot in it self, alleging an old Tradition, that it should at some time break asunder, and burn the Heavens, and consume this world into hot Embers, which, said they, could not be done, if the Sun were not fiery of it self. Others again said, This opinion could not stand with reason for Fire being a destroyer of all things, the Sun-stone after this manner would burn up all the near adjoining Bodies Besides, said they, Fire cannot subsist without fuel and the Sun stone having nothing to feed on, would in a short time consume it self wherefore they thought it more probable that the Sun was not actually hot, but only by the reflection of its light so that its heat was an effect of its light, both being immaterial. But this opinion again was laugh at by others, and rejected as ridiculous, who thought it impossible that one immaterial should produce another and believed that both the light and heat of the Sun proceeded from a swift Circular motion of the Ethereal Globules, which by their striking upon the Optic nerve, caused light, and their motion produced heat But neither would this opinion hold for, said some, then it would follow, that the sight of Animals is the cause of light and that, were there no eyes, there would be no light which was against all sense and reason. Thus they argued concerning the heat and light of the Sun but, which is remarkable, none did say, that the Sun was a Globules fluid body, and had a swift Circular motion but all agreed, It was fixt and firm like a Center, and therefore they generally called it the Sun-stone. Then the Empress asked them the reason, Why the Sun and Moon did often appear in different postures or shapes, as sometimes magnified, sometimes diminished sometimes elevated, other whiles depressed now thrown to the right, and then to the left? To which some of the Bird-men answered, That it proceeded from the various degrees of heat and cold, which are found in the Air, from whence did follow a differing density and rarity and likewise from the vapors that are interposed, whereof those that ascend are higher and less dense then the ambient air, but those which descend are heavier and more dense. But others did with more probability affirm, that it was nothing else but the various patterns of the Air for like as Painters do not copy out one and the same original just alike at all times so, said they, do several parts of the Air make different patterns of the luminous Bodies of the Sun and Moon which patterns, as several copies, the sensitive motions do figure out in the substance of our eyes. This answer the Empress liked much better then the former, and enquired further, What opinion they had of those Creatures that are called the motes of the Sun? To which they answered, That they were nothing else but streams of very small, rare and transparent particles, through which the Sun was represented as through a glass for if they were not transparent, said they, they would eclipse the light of the Sun and if not rare and of an airy substance, they would hinder Flies from flying in the Air, at least retard their flying motion Nevertheless, although they were thinner then the thinnest vapour, yet were they not so thin as the body of air, or else they would not be perceptible by animal sight. Then the Empress asked, Whether they were living Creatures? They answered, Yes Because they did encrease and decrease, and were nourished by the presence, and starved by the absence of the Sun. Having thus finished their discourse of the Sun and Moon, the Empress desired to know what Stars there were besides? But they answer'd, that they could perceive in that World none other but Blazing Stars, and from thence it had the name that it was called the Blazing-World and these Blazing-Stars, said they, were such solid, firm and shining bodies as the Sun and Moon, not of a Globular, but of several sorts of figures some had tails and some, other kinds of shapes. After this, The Empress asked them, What kind of substance or creature the Air was? The Bird-men answered, That they could have no other perception of the Air, but by their own Respiration For, said they, some bodies are only subject to touch, others only to sight, and others only to smell but some are subject to none of our exterior Senses For Nature is so full of variety, that our weak Senses cannot perceive all the various sorts of her Creatures neither is there any one object perceptible by all our Senses, no more then several objects are by one sense. I believe you, replied the Empress but if yo</t>
+          <t>Yeah, yeah, yeah, yeah Curry It is like this Day and night What? Or afternoon, I'm always on my grind, grind What? I look up, I'm always singin' blue What? There's all the lies, I head there's nothing true, true Now look at me What? Just tryna fit in but they just let me bleed, bleed What? So I hit the wall in the room and then I cuss What? There's no love in the world, there's all just lust, lust, oh 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night H's all alone, some things will nevr change The lonely loner seems to free his mind at night, at, at, at night So here I go What? Just like the ocean, need to find my flow, flow Comes from the heart, don't really understand Why they had to take my cousin Johnny, man, man Never did no time What? I ain't about it, I ain't 'bout that life, life What? Let me mediate and let my mind clear What? So I seen the evil or see no fear, fear, yeah-yeah 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night He's all alone, some things will never change The lonely loner seems to free his mind at night, at, at, at night Life as a stoner Life as a stoner Life as a stoner Turned him to a goner Yeah, yeah Yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night He's all alone, some things will never change The lonely loner seems to free his mind at night, at, at, at night Na-na-na, na-na-na, he takes to me, me Carol City, I grind all day Carol City, I grind all night Carol City, I grind all day Carol City, I grind all night</t>
         </is>
       </c>
     </row>
@@ -5231,12 +5231,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chop Em Up</t>
+          <t>DBZ (ft. Method Man &amp; Denzel Curry)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>I'm only here to do Rum dirty, tuck birdy, drum sturdy Lunch break one, 30 130 If I lose tonight then I'm tyin' the judges, it's a hung jury I'm violatin', nah, I won't leave no space You fool them with this Pacino face, but in ya heart we see Nino traits I don't believe that he sold weight Why? Cause you got Cort' court after Drugz? That means you about to fold, this a RICO case Me no play today, see he no safe See I O.D. 'til I see you D.O.A So start respectin' me Boy, that first battle? You was talkin' recklessly You won't be caught beat Cort' twice Tonight? It's double Jeopardy The .45? Baow! Trajectory It specialize at making Crips walk with an accessory So fuck that 100K, respectfully, this 'bout legacy Y'all asked for the T, so I'm steam, lettin' the lemon squeeze Boy, the only blue faces I respect, are dead to me Machete, slash his memory Good for one hack, like Patrick Beverly Boy, I had to play it calm Bullets go behind ya back like we breakin' bonds I turn up and blast it in his head like his favorite song I've been catchin' bodies, y'all should catch the priors After that Eazy battle they said, 'Tez retire. I had an off season And came back like J. Cole with goals to leave the 'net on fire That's how you torch foes There'll be yellow tape at your crossroads White chalk, dark souls Black TEC's, dark mode Boy, I will smoke ya ashes to charcoal, that's how you earned urned death Burst TEC's, burnt flesh Trigger finger quicker than an A.I. first step Chokes What the fuck? I'm chokin', it's a crazy session Nah I'm bullshittin', that's just my Casey impression I told niggas- Cortez ends the round on himself I can't miss I'm like Above The Rim when it comes to a name flip And that's just something I live and die by Cort' court like my name's Flip Dangerous, we don't play I keep a razor that'll eat ya face From ear to ear his cheek's fileted I left Cort' court with a smile, cause my brother just beat the Case' Every other Saturday, you've been cookin' fam' But I knew as soon as I got to wrap in ya face, that'll be the weekend Weeknd that start lookin' bad Pull a mag', shoot you wit' it Barrel in his mouth, give him a moon roof ceiling And blew his teeth clean out, like a Nunu visit You think I'm trollin'? Bang it on him Nina lickin', leave him crippled the way I'm finna make this Rican sitter think it over I think it's over That 100K, will go from motivation to a motive 30 popped him, no medics, just the Caffeine workers workin' on him Applyin' pressure, inserting cotton Bringing out the first aids on Cort' court like Irving Johnson You heard me patna? I'm real focused, fillin' bullets to the top, tryin' to see what the mil' holdin' I just smoked Drugz, steel still loaded I ain't tryin' to kill no one I'm a family man, I don't think I'm 'Pac But I'll squeeze a Glock to make it back to my kids, I'm the only thing they got Then he heard a single pop This ain't the best look That dyke hoe that said you was better, will get her head whooped I should've knocked yo' gay ass out Fit' outfit before I got to Cort' court like Westbrook TEC cook Get shot for real, got him killed Now he can't even see his seeds grow Smack, fuck how papi feel poppi field Dig a hole, you're gone now Pole across yo' scalp See it splat when the Rican crack like a dope house You 'bout to get all type of bad You won't see no kinda bag What's another words for tournament? A tourny attorney and Cort' court don't stand a fightin' chance I'm finna smoke dawg, I told y'all You know what'll really make this body over the top? If I up the pole Vault pole-vault No talk .50 Cal', bullets whizzin' out goin' Zoom, Zoom, Zoom That's all Cort' court hearin' now You for real a clown Aye you like puttin' yo' hands on women? I should clap you up And let that bitch kick back, like J. Lo 'til you had enough Smack calls time Aye fuck that first battle and fuck that first round Now I'm talkin' spicy, I'm more seasoned in the kitchen Sofrito drippin' Wait, I heard that y'all be Crippin' When since Cort' on blue cordon bleu this time, I'm cookin' different for the chicken Glock clickin', pot whippin', .30 will bang Look stupid, bird in the brain Rum spilled on the carpet, that's a permanent stain Ayo, matter of fact, hold on, they sayin' that the cops here? We don't give a fuck about that shit Boy if you there, we gon' pop there stumbles Boy if you there, we gon' pop there I chop 'em up, sell him limbs on black market, that's a profit share Fuck the Mexican talk too, caught somethin' bigger than taco here And when the stock drop you'll do more than drop tier What's poppin'? Yeah! I told these nigga, I don't wanna battle. I sold guns from Cali to Queens nigga, these hollows gonna travel Baow, and now you gargle on a capsule You went from the top of the app Nitty, to the bottom of my barrel I blast a Hawk Rewatchin' Nitty ass get chalked They'll be no future in you, those are my after thoughts You don't ring bells, you never made it past the porch In my hood? Ain't no gold medals but every other day I had to past the torch So I keep a lil' piece Will squeeze if I have to hear a Lil' Peep Drill piece, steal his car Lil' Reese It's lit bro, that 100 round drum, let a clip go I'll put the whole stock in his Crip tho crypto It's currency Nitty, and I heard about the cash you makin' In his crib, no mask, I'm vaccinated Pistol whip, head crack, crack ya brain in You'll run down Cort' court? Leave his basket hangin' Team Homi, oh that's your defense slime? Swave sent the drop, I know where to catch slime Stretch .9 You don't get it, Magneto helmet, I'm made to protect mines minds Look Rum, random bars won't work, respect mines When you talkin' to the plug, we need direct lines I'm blazin' the lead That fuckin' 100K's the only thing that plays in my head It's bodega, it's only right this cat gettin' laid over bread I was fed, y'all disrespected, now I'm catchin' a fury Cause like a bag full of percies, I started handin' out 30's UM3, round 3, oh now y'all follow my journey? Once Smack signed off Cort' court, showed the power of a tourney attorney I'm bangin' early, yeah it's a tragic thing if I clap the thing, the 'matic ring First a Blood, now a Crip, they crown this Latin, King I'll white flag ya team, Nitty soul get levitated Once the casket close Nit' knit family separated! I'm in ya hood, and I got metal to grip It's a clean 30, that's a gentleman's clip And it back Cort' court in Phoenix like Devin and Chris Smack calls time Aye real talk though my nigga Who be helpin' you write? Cause when you said that one line...I'm lyin', you ain't said nothin' that's nice This shit is over I'ma lift it on him, no mask Show up bare bear faced on Cort' court like the Grizzly's logo I'm on a mission solo, waitin' outside ya crib for you Cort'll get clipped, soon as he come out that bitch umbilical Pop the trunk, you gonna get in too, there's plenty room Even that hoe whole Fit can go wit' Cortez, it's a Dickie suit You that nigga too But that Shotgun ain't got no respect for a legend gun clicks And this is Proof Nigga move I need that 100, and ain't no Mission Impossible So my logic is, if you gotta eat then Ethan Hunt somethin' Who the fuck want it? I'll pull it out and stretch him, squeeze and buck Now the Rican's struck reconstruct, now they tryin' to put you back together Replace part of your skull or you dead So you can imagine yo'self winnin' that money, but that place plates all in ya head Fam' done I'll hit him in the Cadillac truck, he can't run Drag him, big ass Escalade on Cort' court like And 1 And what?! You can try and punch wit' me, that's your choice But the skill gap is about here in hearing range, we on two different frequencies And I know that hurts hertz more War lord Literally, this shit is over Cort' court, check the scoreboard After dawg get stretched, I'll take all the money and jewelry off his neck I left Cort' court in the street without a dime...like Delonte West On the set Aye, you better help ya homie this time Cause we came in this bitch with like eight .45's 845 But I'm finna show Cort the quarter .9 900 You get outta line? Then this boy done Just give me his second half, I'm finna zip Cort' up And I get done shankin' Mr. Spanish, I'ma tell him send your senor cut Aye, I give a fuck if they show love to me when I do rappin' My nigga, we had to pull the plug on our own mama cause she was unresponsive I kept talkin', and that's the only time I needed a reaction That shit left me broken too Literally, broke in two She left 100,000 in life insurance but that couldn't close my wounds I ain't even want it! She died for us to get that money Now so will you! Load the tool, trip and you gon' die You from Brooklyn? You really from the Stuy' stye? But the pain is different in my eyes On God Ayo a .9 pop, brains everywhere when I pop I even got blood on the Rollie, you just died on my watch We slide ops, blast you In Brooklyn, we don't drive quarts, we drive past you I'm cravin' the case and we known for sliders like White Castle I told niggas, yo Smack, you don't about none of these niggas Cause you put 100K on the head of every one of these niggas I'll do the job, work for hire Easy fee, by myself, I scam alone, no PPP So go ahead and talk stupid, my dawg shooters, rawruthless Beanie Siegel, State Property, final scene Cort' court shootin' I chalk students, I hate y'all, in my face God It's fake y'all, Jake Paul After this there won't be no more cap after this after we faceoff I hate y'all I'm made inside, I'm the Undertaker out the casket, I'm back alive Pistol whip, Louieville Slugger, crack ya mind And they will never look at you again once I bat an eye Told you nigga, that's facts Nitty all you do is clap MACs I'm different, off that Bacardi Rum we back caps Yeah boy, ya roof get splattered, then the tool I splatter 12 leave 'em dead, who the fuck said, these Blue Lives Matter? I sold a shit load of hammers, I put it all in the bricks The work literally cost me a grip I'm talkin' on yo' strip in yo' hood, I was trappin'schemin' You had traps in AZ Nitty? I haven't seen it You was in the game 6? Well, before Jordan I was winnin' with packs in Paxson Phoenix And I peep it, the sneak shit Uh huh, I'm onto they ass You and Geechi? Y'all splittin'? Y'all goin' half? EMS pick 'em up when I split 'em, both in halves Word Aye! There's no half assin' or back trackin' Just clap at him Revolver hold six, but only three of the rounds blew blue like an App battle I'm that badder Nigga you can't see? This the nigga you can't beat This is like the third time fire on Cort' court I'm on a 2K streak Elite I'm finna go on a run, I told you he done You'll get left I'll displace you Cortez, it can only be one If I go to the trunk, this bitch gon' learn, it's my word Grip it firm, hit up Ern' Ernest Bury the murder weapon Planting plant in the spring feel Springfield like Mr. Burns Kill confirmed I'll pull up on this man's set like, Who want funk? Dum dum in his shotgun like a crash test Leave fam' stretched We be wildin' and you not a problem like an abscess I'm past that, I don't gotta kill niggas For a couple racks they gon' deal wit' 'em I just pay 'em like a G M.O. GMO, and that ain't even no real chicken Still spinnin', I let it air Fuck a drive-by, I'll hop out the Cherokee on foot like the Trail Of Tears Let's be clear Before this was goin' down You knew you would lose before this was goin' down What's goin' down? You don't wanna live or you just gave it up? And became a donor now Load the cal' if dawg want it I'ma rob niggas like, Give it all nigga. Or I pull a MAC's and force Cortez, I put the fear of God in him My nigga! This shit is a wrap All them plates you been gettin' from Smack And as we can see, Cor' done ate coordinate a lot, but this still ain't a match Facts! Me run out of punches, that's somethin' you won't ever see After all this time, I still be surprised at my gift, cause I never peaked peeked Let me eat .40 shoot near Unload the blue steel I give a fuck what you got under that tee ese TSA, it's goin' through clear For real! Aye, I gotta keep workin' I can't lose Just like your government, I'm still out here earnin' Ern' in my name too Thang shoot, murk 'em bad Body in the furnace since you've been tryin' to reach Surf so bad Now we can finally see Ern' urn and ash You trash Just a nigga that I gotta drop Before they stop the clock, I gotta make sure every punch count it's Com-U-Box And that's a lot You know I'll do you bad You can't catch a break? You either gon' have to change what you wrote or throw away the pad We can crash This ain't it Cortez You fat, sloppy, body bitch The fans say they miss fit Ms. Fit Cortez Bitch</t>
+          <t>What shit is this? Nobody cares Yo Nobody knows Divide and conquer, inside my being resides a monster Uh I line you up like you need a barber, don't be a martyr Don't be a starter, believe in karma, I'll be your sponsor Yeah Go even farther and deadbeat like it need a father Get even darker than DMX on the streets of Yonkers The cheaper hawker love Mary Jane like I'm Peter Parker Uh S.I. Nw Yorker, we don't make up storis, Sephora I mean to keep it a bean like Goya I'm a microphone fiend, my tree green as sequoia The New York State greens, have you ever seen that no more or nah? Life a B if you can't support her Ain't no price tag, if you gotta ask, then you can't afford her Ahh Your band real, but soon as your man squeal Get your man killed for that monkey business, you're mandrill If that man still stands and he takin' the standstill Put that steel on the stand and tell him to stand still Bum Musicians usually are regarded Tical As sort of the scum of the earth Nobody cares And so if you want to, uh, be a musician Nobody knows You just have to realize, nobody's really gonna care Five rings on my hand, Miyamoto Musashi Workin' to get bigger than the nigga who starred in Degrassi By the will and grace of God, I'ma do it, wallahi It's always the adversaries who be willin' to stop me Caught red-handed, hopin' that I'm dead stranded Yet I'm still givin' the hood what the Feds handed I cracked the code and played the cards from they hands, a gambit When I grab the mic, I crush your stamina, you will be damaged 'Cause using big words don't make you lyrical And goin' backwards in a swimmin' pool don't make you spiritual So if I bought a brand new whip, they call it Wait a minute Damn, whatever the next line was, I'm ballin' I'm the current boss, currency what I come across And currently, I been sharp as a knife that's on current frost Face, you a lost case, my life is all-state It's in good hands and I'm never off-pace Old school flows used for Your Old Droog Pro-tools, more grooves turn to soul food I'm doin' this 'cause I chose to These other niggas suck, they doin' what these hoes do For other MCs, the danger's imminent Most likely I'ma air this shit out, make mothers reminisce About a little rapper's delusion, thought he was infinite Label heard the record and said What shit is this?</t>
         </is>
       </c>
     </row>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Choppin</t>
+          <t>DEAD (Original)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Yeah, yeah Choppin, choppin, choppin, scopes Chopsticks Yeah, yeah, choppin Yeah, yeah Chopsticks, choppin, choppin, choppin, choppin Oh my god, Ronny Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Choppa with that stick, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that stick, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Go get your mane 'cause I've sent you the alcohol Mainly 'cause our shit is praying Like, this not a game, we ain't playing SEGA Killers built like Kane, now they understand us 'Cause we ain't from the Chi, we ain't from Decatur This is more like Cuba, Haiti, or Jamaica Asking for a four, I can see the numbers, just to make 'em greater hagnin' down like an ornament It's a damn match, not a tournament You last up, it was unfortunate That's why we stay on the porch with a SUV while they Niggas pulled up, niggas hopped out Then it blew up, it's a shootout Can't see the dude so I heard These be the reasons I can't pull it out, that- Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Choppa with that heat, in the streets, gotta get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins Choppa with the stick, in the streets, gotta' get back They were hoppin' out while they were walkin' in Choppa with the stick, in the streets, gotta' get back They were hoppin' out while they were walkin' in Was he in the Hummer or was he in the Benz? Why they do the race when they end up in the pen? Everybody knows that God make amends But men on Earth gotta pay for these sins</t>
+          <t>Yeah The once lost, disciples - now found Bound, together, forever As I embellish, mentally I nourish Resuscitate a mindstate that has perished, you shall inherit His blood I require back, to Earth We rise out of spiritual darkness, six thousand year curse The lost disciples bound to the midst of the bottomless pit Trapped behind the gates of the wicked wilderness I hear the sounds of the trumpets blowing across the heavens It's calm, prepare for the storm of the seven Shabazz The Disciple, the holy exalter Condemning those who sacrificing babies on the altar I hear the cries of innocent black babies who are aborted And unmercifully slaughtered Loud screams echo, skulls of angry slaves Turning over in their graves The white sheets are like white flags, you need to wave it To the soldier of the Lord the warrior King David I come to kill and crucify, those who trick and lie In the eyes of the most high The pale-face, devil race, caucasoid germ Grafted from original black man's sperm Thin-blooded weak, grafted-brain punk Your power's a third of mine, you drunk funky skunk How dare you use Jesus name to shell your filthy religion My tongue be the sword to slash you with precision The justice system is his, the court'll only acquit him And eighty-five percent of y'all are going to hell with em The walls of hell are closing in, disciples we rose again The Sunz of Man, chosen men Like lightning striking from the East The Holy Psychiatrist, 4th Disciple, and Killah Priest Unlimited volts of energy striking the enemy The righteous vicinity, death be the penalty So come on and swing it low, sweet chariot Pick up the righteous load, and yo then carry it To a new home, and identity For my people, death'll be the penalty Uh, and for my folks I mad a-love Keep your eyes on the prize and you'll rise above Ay yo, Shabazz, make sure you sing it loud enough Peacing out to the righteous, stay rugged and rough And y'all get on down Come on now, get on down Swing it low, sweet chariot Get on down Come on now, get on down Swing it low, sweet chariot Lawd, in this se-solider There might be a war draw near Sharpen your sword, we must be aware Of trick knowledge, them use to de-ce-ive us You've been plagued with the mental di-se-as-es You worship false portraits of Je-eh-s-us The grafted image you worship is Ce-as-ea-r I hear the snap of my great-great-grandfather's neck in a noose Hanging from a fucking tree whipped-in, mentally abused Visions of great great cousins Running across the field, unarmed Ran down, and killed I be the star to dispel the darkness Cast upon your soul by inhabitants of Mount Caucus Who praise the dead, and not the true and living Killed Jesus and said that he died for their religion So come on and swing it low, sweet chariot Pick up your righteous load, and yo then carry it To a new home, and i-dentity For my people, death'll be the penalty Uh, and for my folks I got mad a-love Keep your eyes on the prize and you'll rise above Ay yo Shabazz, make sure you sing it loud enough Peacing out to the righteous, stay rugged and rough And y'all get on down, come on now get on down Swing it low sweet chariot - get on down Come on now get on down, swing it low sweet chariot Swing it low now Swing it low now sweet chariot Swing it low now sweet chariot Swing it low now sweet chariot Pick up the righteous load and yo and carry it1</t>
         </is>
       </c>
     </row>
@@ -5265,12 +5265,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CLOUT COBAIN | CLOUT CO13A1N (Spotify Singles)</t>
+          <t>Death 4rm Da Triple Glock</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I've felt Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain I don't even know what to feel, they don't even know what's real Dry tears with a dollar bill, I'm out tryna make a mill', oh Why you wanna take my soul? I'm yelling out hell no! I can't even trust my friends, most of them might be foes Watch these hoes when they say they want a lot of me I don't know who's the one that wanna plot on me I stay low so my demons don't acknowledge me When I go, I know death don't do apologies I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I felt Ayy Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Know when it rains, it pours They wanna go to war For things that they can't afford I gotta grab the sword, preach I gotta thank the Lord, I gotta go record heat I wanna be fly to soar 'cause niggas be trying to floor me People be thinkin' that I won the lottery So paranoid, I don't know who be plotting on me Out of nowhere try to fight you I'm feeling like Raichu 'cause everything shocking to me Gotta beware of the wicked, the time will be ticking Them niggas still clocking on me Lord is my witness, I handle my business You niggas ain't never ball blocking on me I just wanna feel myself, you want me to kill myself Man, I been on my own, Lord, I'ma need some help I just wanna feel myself, you want me to kill myself Man, it's been so damn long, dealing with the things I've felt Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Suicidal doors, call it Kurt Cobain Suwoo leather seats, like a bloody stain I need hella bass, I need hella pain You gon' wanna cry, I'ma make it rain Clout Cobain Clout Cobain Clout Cobain</t>
+          <t>Yuh, Don't Sleep On Me Hoe What up, Mikey, Niko, Yung Kane, Pouya? Fuck that bitch, pop that cunt Speakin' the truth and I'm keepin' it blunt Kick it like pun, runnin' these hoes Murder Team on us, he never love hoes Sippin' my Joe in the mornin' Tourin' through these bitches' Floorin', floorin' the gas on these borin' horny bitches fuckin' with me And I'm flippin' the script, pissin' on these bitches Golden shower for an hour, pussy sour, that shit get devoured Runnin' it back, booty is fat I'm lovin' that, never be stoppin' that kid Pouya walks inside the building and he rips it up Put my dick up in a slut then throw that ho under the bus 'cause I don't give a motherfuck Bitch, press your luck, I'm 'bout to bust another nut, uh Yo, yo, open up your mouth, open, open Hold up, you 'bout to get showed up When they show up then they slow up You don't know what's gon' act like you do Bad bitch ain't pretty Nah Played her like a Run it like DMC, it's tricky, baby, it's tricky And I go harder than harder, run it like Jimmy Carter Played her like a maracas, I'm hotter than fuckin' lava, uh New whip and a new bitch M to the M, don't fuck with a prude bitch Suckin' that down 'til the bitch toothless I'm roofless, I got that pussy bruisin' So, whoa, what you say? You beat hoes up and you still get laid? You got no job and you still get paid? And you kick hoes out like a double play? How far you go? All the way How hard you ball? NBA my bitch strippin' 'til her I'm her daddy, father's day Murder Team, back away Get her wet, rainy day Eat the pussy, fish filet New nigga, yeah, you fuckin' with the Whoa, nigga, fuck it, kill a nigga, kick that bucket 'Cause you don't even know me, I ball like Kobe Bitches want that beef, eat a little nigga like, nigga, show me I'm hittin' you, the bitch in you Wait, wait, waitstop the track, shit, I'm rappin like Mystikal Tell yo' ho, Eat a testicle, Mystikal style to Mystikal verse Unlock the best in you, give it all up undressin' you Pop a bean Ayy, nigga, what you mean? Ayy, check my style, real shit Fuck niggas is talkin', this nigga I'm the Soulja and I have no limit You sleepin' on a nigga and you ain't slick with it I got two broads shaped like All type of ass, skin tone light I ain't worried On top of this shit like No jersey, nigga, no mercy Get trampled like a No elephants, my soul, I'm never sellin' it Bitch nigga so irrelevant Just witness the development of the lyrical saint I go harder than for my family's sake curve Skrrt Then my nigga just take flight We stay on the ground, 'bout to late nights Other niggas get stage freight And I'm one of the greats, right Here we go, switchin' the flow Fuckin' her good, then I'm hittin' the dough Hop in the whip, the crib Phone blowin' up, I don't care 'bout a bitch from hit up the Nigga, what you think? Purple shit all in my drank Got a nigga on , hol' up I'm swervin', I tell her I'm workin She tell me to come through, Say, Nah, bae, I can't, got checks all on my mind Got no time for none of you hoes Gotta get up and get on my grind If niggas be trippin', I'm totin' that iron Don't aim with that stick, just up when I fire Walk with the clan, yes, I am the man , uh Niggas be trippin', so yes, I be If that nigga slippin', then he finna lay We pop his body, then hit with that shotty Whatever is left, man, Yes, I'm the man, say it again Hatin' ass nigga, just fucked nigga AK-47s so none of you pussies can fuck with the clan</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>CNT U SEE (Remix)</t>
+          <t>Demonz On My Mind</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Break me, solely For the one I share Preaching slowly But hands curled up tightly My tears won't flow against her will Oh won't you tell me please, how you can hear me? Told me gotta rap on it Rat-a-scat on it Skiddily doo-wop, do a dab on it Low key wanna nap on it, but now I'm back on it Talking like a weatherman, calls it like we sees it Be a better man, all about the season Think I'm working for the pork, ain't had a choice but had a reason though Seventeen, community service was my recess Cause it's some BS what?, Pops was hot Called them senior kids, called them CS As I regress, had to shed some fools and some defects, sharpen my reflex Don't give a fuck about respect, I don't give a fuck I'm a reject, course I gotta eject Did what the fuck you expected, my shit too electric, way I flow electrical I picked up right where they left it, regrettable So I left it and made next shit, acceptable? Still not? What you hatin' on? They hangin' on my testicles Gotta shake 'em off, fuckin' skepticals My tears won't flow against her will Oh won't you tell me please, how you can hear me? Okay, okay, okay everybody, settle down, settle down I go by the ultimate, Denzel Curry and this is a poem called 'what's the point?' What's the point of living in the now if you can't see that your future is bright enough to blind the sun? What's the point of being a star when people see you from afar yet you're constantly getting blocked by everyone? What's the point? It's worse than the way I feel when you just wanna hit There's not a difference between musicians and women Now I'm sending my apologies to the hearts I apprehended and the ones that ain't acknowledge me Oh well, farewell, so gone, bittersweet Only thing I want in life is love and my inner peace Big house, nice lawn, and a hatchback Twin flame living in my lap, who can match that? Break me, slowly For the one I share Preaching slowly But hands curled up tightly2</t>
+          <t>Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Raider to gang, Waka to Flocka, Aquarius, nigga, go hard in the paint Takin' this bank, Pee Wee, give me your flesh, I go hard with the shank Visit a shark, sleep with the fish, Curry The Killer, that nigga who's this Tommy Wright, Street Type, Hustle and Flow when I'm whoopin' that trick Pull out the stick, pull out the gauge, Aquarius Killer, the Raider with rage Up in the yard, don't step to this, demon around like The Exorcist Emily Rose, I'm tippin' these bowls and splittin' these hoes, we runnin' this shit Raider to Klan, we crazy like Stan Miyagi, so sorry I'm cuttin' your bitch Samurai, do or die, Raider to Klan, we all on the run Little Jitt's wreckin' shit, bullets, Ballistics takin' his gun Put it to a cop's head, watch a nigga drop dead Ridin' in the Chevy, Lord Infamous bumpin' heavy As I get the B, the L, the U-N-T That's me, a real O.G., and Blackland is where I be Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Pussy-ass nigga, you owe me money Head full of shit cause your sister want to fuck me Been at your house and you keep gettin' lucky This shit won't last, no time for the fuck shit I bet you on blast and I bet you get fucked quick Call your little sis' cause I want to get my butt licked 4 A.M., geeked up on the suss Lockpick dick your front door like I'm fuckin' All in your crib, takin' all the shit Glock 17 with a beam on a bitch Aim at your dome when you sleep in the sheets Shadow hand swag how I creep and I creep With the all-black Vans you can't even see Flesh feelin' numb from the cannabis seed Nigga, I'm high, nigga, I'm dope Ruben Slikk'll put the nine to your throat Nigga, what you got? For a nigga life Ruben fuckin' Slikk, yeah, sellin' that white Backhand slap, slingin' that coke I don't give a fuck, nigga never broke Nigga fuckin' hoes, that's how I do That's how I gotta live my life, see it through To the fuckin' light, look to the light Ruben fuckin' Slikk, get high off the white Nigga take a bump right to the nose I don't give a fuck, stay fuckin' with the hoes Stay higher than a bitch, Ruben fuckin' Slikk Higher than a motherfucker, extras in the clip Got thirty rounds all up in a bitch Finna just pull that trigger back, bitch Nigga just put them holes in your chest Nigga just put that hole in your head, damn Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga1</t>
         </is>
       </c>
     </row>
@@ -5299,12 +5299,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>COLE PIMP (Demo)</t>
+          <t>Denzel Curry - Diet_ | A COLORS SHOW</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pulling up in that Pontiac Lookin like a funeral all black Riding in the hearse whip Coffin in the back With the brand new blade In my black backpack Come close to me you get hurt Eye contact with the dirt I may be goth but dont get me wrong My wrists cut but Im still strong So dont fuck with us We dont fuck with you We the only mothafuckas in this bitch ass crew We the 916 we may not be hood But we cut bitch boys up In the fuckin woods We dont fuck with guns, we got knives and blades We go hard as fuck, we dont play it safe I'm lonely, but Im not alone Spirits follow me when Im walkin home Okay Slit Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope I swear, I swear, I swear, I swear Pimp dem sluts, break dem hoes, ride clean, smoke yo dope This cant come at no surprise Master of the suicide Cut your throat, then cut your thighs I been chasing all them highs The lows as well, dont count them less You smoke that shit, and blow the stress Depression like a big abscess You pop that shit, and it regress Lunacy inside my brain My presence make you feel the same Gone with the wind, as fast as you came Dive to the floor when you hear out my name 916 to the grave Im set Came from the place many people forget Came from the place many people regret Do not stop now, this game of roulette Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope Pimp dem sluts, break dem hoes, ride clean, smoke yo dope</t>
+          <t>Woah, Kenny Pamela Anderson, Pam Grier The man's here, there's no fear Came through with no tears Wah I don't cry Matter fact, I don't lie like a bedside To tell the truth, then I tell you what it is or what it ain't Please roll me up another dank, another smoke Though I see it as the antidote to cure my daily anecdotes I see my thoughts, it's adios Finito, I get new jerseys like I was a guido The ego, gotta be vetoed if you want a free throw D'Evils, stay with the scripture, what your mama read you You gotta milk the game, son, I couldn't bottle-feed you This next bar was 'bout to do some Logic shit But now it's time to stop the shit and let me pop my shit Drama still added on, stayin' positive All my niggas on my side, on the opposite Get money from a show, then deposit it Uh Your show ain't got no hoes, I acknowledge it Yeah So braggadocios, spit sick shit, it's atrocious Nasty Risin' like the stocks, stockbroking The Shogun, came through with no gun One man, Ichiban, fresh out of Japan, do as I command And what I demand is some fuckin' peace and quiet Told 'em please go to church, and please get on a diet Shoebox came with the doowop One billion and two cops can't find 2Pac Two shots, that's two grazed in two days What goes up must come down on Tuesday And I don't like Pixar, mister I am the master, I came through like a Wait a minute, bastard Nobody fathered my style People said I would fall off, but I've been here for a while, so nope Are you ready for the motherfuckin' giant? The tyrant, the titan, the ogre, the lycan The vampire, taking over empires If the game was a tooth, I'm a fuckin' pair of pliers We gon' do 'em Vinny style As you can see, this nigga got many styles Serious Know too many niggas that got semi rounds Serious They're cold like ice Put thorns to your crowns, you go out like Christ, my niggas Get money from a show, then deposit it Uh Your show ain't got no hoes, I acknowledge it Yeah So braggadocios, spit sick shit, it's atrocious Nasty Risin' like the stocks, stockbroking The Shogun, came through with no gun One man, Ichiban, fresh out of Japan, do as I command And what I demand is some fuckin' peace and quiet Told 'em please go to church, and please get on a diet You motherfuckers know what time it is It's the motherfuckin' championship1</t>
         </is>
       </c>
     </row>
@@ -5316,12 +5316,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>‘ Cosmic ’ .m4a (Instrumental)</t>
+          <t>Denzel Curry’s Discography</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>I can't even lose, dont matter if it's an odd win Don't matter if its an odd win RICK, fuck your favorite rapper, he or she ain't nothin' unless they're after me Dormit deus faciunt The eve of their destruction, breaking Adams down to atoms Taking jobs since Washingtons and Adams Dormit perpetua It don't matter how I choose to displace this, energy My enemies need bigger teams My winning team needs bigger rings Dormit deus faciunt Galactus has his eyes on Saturn's Yo' girl has her eyes on m, I see, I know these patterns Dormit prpetua My dick's Patronus, something potent, Im the, death bringer Gotcha girl all on my dark and she a death eater My dark parts inside her neck reach her heart for a moment of truth Dormit deus faciunt If I go in the Aether, is she going to puke? The flow is impeccable Dormit perpetua My flow is on steroids Your flow is on edibles My soul is on Devil mode My cook is so decadant, look at the rich motions Dormit deus faciunt wrist motions All eyes on me like its first day of fall and my sweatpants are gray dick pokin' Game so cold, hoe so thirsty Dormit perpetua Gon sip slow, bitch Game so cold, my girl mad like I left the fridge open I left her ribs open Dormit deus faciunt I left the door to the game open I letcho muhfuckin' brain open Because that shit that you go to that dude on yo' block for 'cause you know who slangs potent Dormit perpetua I been killin shit since day six Left the first five open, it ain't no excuse to be complainin', it's RVCK God has been summoned like Anima These rappers simply aren't up to my caliber, Valefor Yo Flying and shocking, I'm droppin' these toxins Throwing real shots, never shadow boxin' Y'all outta options, let's get it poppin' Turn on my limit, my bars over overclockin' Fuckin' a goddess, that bitch look like Shiva That pussy too magical, might need an ether Might need an ether High in the clouds, but don't puff sativa Play my shit loud, Firaga your speakers Oh, you think you better, my nigga? I'm Noctis, can't top this, my flow is too toxic Foes gettin' nauseous, titan like Astral Yeah, I got swag' out the asshole Rappers on Soundcloud are just my vassals They wanna beef, but not worth the hassle But not worth the hassle Yeah, y'all baby like fetus, I'm O-G like Tidus Dormit deus faciunt My main bitch Yuna, but Lulu my mistress Fly over seas on that fahrenheit Rikku and Paine my ex, too, wanna fuck tonight, woah Wanna fuck tonight, woah Never on Slowga, my flow always go Dormit perpetua, my flow always go Harder than Wakka, yeah, yo' girl, she know Yeah, yo' girl, she know When I walk in, wanna fuck me wit' haste Swear to Jenova, that bitch got no chaste That bitch got no chaste Sin Harvestry don't bother me Dormit deus faciunt Shiki on oddwin beat? That's oddity Will there be more in the future? Probably Yeah, bruh, Pray to your God, Yu Yevon, properly Pray to your God, Yu Yevon, properly That be me, Shiki Mr. Tohno Dormit perpetua, Mr. Tohno Go through the trial in my SisCon temple SisCon temple This right here, just a nigga spittin' simple Ah Still blitz combo finish the instrumental Uh, black mask like I'm , textin' yo' chick on my Wi-Fi Dormit deus faciunt Squad deep, we never shy, get hella bands 'cause I'm that guy Pull up in the fo' door with the top down wherever I go Dormit perpetua It's on lockdown, I will , but not now, I got shit to do My squad deep, but that's , steady mobbin' what I'm supposed to do Dormit deus faciunt All four of us up with hella , feel hella cool My chin lookin' like , she do whatever I wanna do Dormit perpetua Gotta keep her close, just my coupé, 'cause she liable like a Honda, too , , three on my back, uh, make a nigga like a ninja Dormit deus faciunt Quiksilver camo' paint, uh, still aimin' at yo' temple And I bought that last December, hope my real niggas remember Dormit perpetua Straight driftin' through insomnia, no cops 'cause I stay clever Ma-Man, my ninja blade says Supreme on it, ya girl'll make sure the whole team on it Dormit deus faciunt You over there, you think God'll help her but she wit' us Hoo! She don't even wanna spend hella bands on my Dormit perpetua, it's about that time I call her Luna 'cause she stay wit' me style I take a drift and I feel complete, in Insomnia, she give me ecstasy Woo-Woo-Woo! I'm double F to the death of moi Dormit deus faciunt, death of moi She said I'm a dog, no reservoir No reservoir But I got the juice, I'm the reservoir Juice Only banger anthems in my repertoire Yeah Got my squad, we goin' in, aye Dormit perpetua, goin' 'em How we do, we showin' 'em, aye Showin' 'em Been the best since 2010, aye 2010 That's when DAX had to begin, aye To begin Call me PETE with the loud mouth rap Dormit deus faciunt, PETE, what? What? Call me Rex with the Cloud, gon' dab Rex, brr! Call me Peace, 'cause I now bounce back Peace Catch me outside, how 'bout that? Yeah, how 'bout that? Love to get these digits, I get it like I'm a math nerd Dormit perpetua, uh-huh Pastor, of the seventy-two hours after What? Me and oddy, we be catchin' bodies Dormit deus faciunt We don't mess with thotties, run like two Bugattis Called up PEO PETER 'cause it's true, I got it Girl, I see it all, that's no Illuminati Woo! Baby, you got questions, but you know that I got answers Dormit perpetua, baby, you got questions, but you know that I got answers, ooh, yeah Hit me on my celly, but please miss me with that banter Hit me on my celly, but please miss me with that banter, ah! Comin' into the cypher, I'm ridin' the twos like bikers Dormit deus faciunt, bikers And Peter Piper be pickin' a peck of pickled peppers forever Uh, uh Uh, you hear me, my dudes? It's odd when Yeah, odd when Even if we even, you lose, now bring it back, dog Dormit perpetua, back dog, oh! I could never pretend that I was a rap god Know I got it, rap god, oh! But denyin' my photoshoppin'? Now that's fraud That's fraud, damn That's odd, shinin' like the sun god do Me and Stayble plus young odd, too Young odd, too, now whatchu know about it? Brrah! Fuck PEO PEO Sword on my back like I'm Cloud, hey it deus faciunt, like I'm Cloud Swing it around, now you down, woo! He dead I ain't really with the crowd, hey Damn But I gotta spit it now, woah Dormit perpetua, wow wow-wow, hey Why? PEO spit it so fly, hey So fly Swank levels on high, hey Charizard, spittin' fire, hey Charizard, spittin' fire They come along and just vibe, hey Dormit deus faciunt, vibe Stick around for the ride, hey Skrrt! oddwin said I had to write, hey What? Boss level, boss fight, damn Dormit perpetua, uh Yeah, my team's so stacked, yeah What? 'Cause I'm really on my grind, hey On my grind Lewi really takin' lives, hey Slash bster bend it, then you die, woah Woah Yeah, huh-uh? Yeah, I really had to do it, it's time Dormit deus faciunt Man, I really had to make it all rhyme Man, I like lemon and lime Dormit perpetua Woah, huh? Freestyle off the top, hey What? Top But yo' head still bop Bop Like a girl givin' top Woah, huh? Yeah, hittin' the pussy, I roll, hey Dormit deus faciunt, woah, what? Roll They be sayin', Why you troll?, hey Yuh Tootsie, Tootsie, Tootsie Roll, yeah Dormit perpetua, bitch It don't gotta make sense, yeah Nah 8-0-8s gon' bang, hey Yeah, I'm really in the future, hey Okay Now it really make sense, woah Yeah-Yeah, yeah-yeah Wo-ooh-woah-woah Super speed, you could call me Flash Dormit deus faciunt With the fast dash Dash Flow flames like Rapidash Like Rapidash And my homies know I'm that man I'm that man Grown killer, call me Robocop Put y'all out, but my dick stuck Dormit perpetua, my dick stuck Super Saiyan, Kamehameha Kame But I'm flashin' the Gatlin' Gun Gatlin' Gun Call me Vash with my Trigun With my Trigun You ain't messin' wit' my spirit gun My spirit gun Kill a with my Spirit Sword and niggas know I'm the only one Spirit Sword, dormit deus faciunt, only one To her back like shogun Like shogun I got The Glow, call me Sho'nuff Sho'nuff , now I'm all buff Dormit perpetua, buff Real rap bars, nigga, no bluff No bluff You can't stop what rap called Stuff Stuff Noctis spit the bars, yeah, I'm royal off those Yeah, I'm royal off those Many comin' down, 'boutta stuff 'em real quick, Prompto style Dormit deus faciunt, Prompto style Took a like like no receipt Receipt That's why oddwin made sure I drop flames on this fire beat Dormit perpetua, drop flames on this fire beat With the , I launch lightnin' from my vocal chords From my vocal chords Shout-out to Lightning wit' my dick shoved down her vocal chords Dormit deus faciunt, vocal chords like Cloud, that's crazy with his I aim to kill Dormit perpetua I am the real deal And like a plot twist I'm like the with the blade of steel, I'm like the with the blade of steel, Deadass be my Timberlands Dormit deus faciunt, yuh You already know where I'm gettin' in You know I'm keepin' my hat sharp Just so you know I can finish him Fatality, where the ultra move? Dormit perpetua Drop it in the battle where the sea grove They still askin', What does he do? What does he do?! I just go hard for my peoples For my peoples I finally know where I'm supposed to be Dormit deus faciunt The reason why they are opposed to me Opposed to me The same people that were close to me Close to me Are the same niggas that are me me Fuck it, nigga, I'mma take yo' brothers Dormit perpetua, brothers Singin' Lovely Day by Bill Withers Bill Withers Just the two of us, got our bones severed Bones severed I'mma keep my droid, just to be better Be better Mad niggas really owe me bread Dormit deus faciunt I'mma let it rock, say, Go ahead Go ahead They try to play me out so they can get ahead Let the shots off like the Evil Dead Evil Dead But I'd rather get the win instead Dormit perpetua, instead 'Cause you know they like to intellect To intellect It's right at the end of the day, when the game , you know I won't give a crap , you know I won't give a crap Niggas dissin' all these mumble rappers even though they lackin' all the cadence though Dormit deus faciunt, cadence though Motherfuckers couldn't rap in even if they had the bread to pay it though Mine's closed with they wack flows, 'cause they so worried on they damn flows Dormit perpetua, damn flows Praisin' rappers for the subpar, with those bars, it ain't it, bro' Subpar Yeah, shout-out to oddwin for this hot shit Dormit deus faciunt I'm about to pop it, poppin', I'm the top pick Topic of discussion, man, I'm it To be honest, you should stop it Look, boy, I got this Cypher wrapped up like it's a present Dormit perpetua Spittin' futuristic bars, you wrapped up in the present I got a pen and paper, better know that I'm a menace I'm the real deal, boy, you better pay attention I don't get it, they pathetic when get up and Spit heat Dormit deus faciunt I wrote that shit in quotes 'cause they don't really spit heat Barely spit lukewarm, I turn 'em to mincemeat Drop 'em and chop 'em all when I spit a sixteen Dormit perpetua Then I roll 'em up like a joint is Still, they will never be as dope as ya boy is Steppin' to the bars, man, that shit is pointless All I do is rap 'cause I don't got other choices Damn, this shit's only half done Dormit deus faciunt Always steppin' forward, I won't ever go back one I'm puttin' you back ten, man, who would know? This dude is dope, you a MAC-10, I'm a Bazooka, bro' I got that boom-boom-boom-boomin' flow Dormit perpetua Finna take over the empire, let Lucius know You don't follow my vision? You pretty stupid, bro' You think I'm lyin'? You don't know what truth is, bro' Last four bars, I gotta make 'em count Dormit deus faciunt Enemies in my way, ya, I'mma take 'em out I'mma lay 'em down and let they body rot They probably thought they won 'til I made their hobby stop Yo', it's Mordecai The Zenith They got me? Nah, I was born to kill the wacks Dormit perpetua With my raps, their caps get to peelin' back Shout-out oddwin After this shit, ya really finna feel the wrath Yuh They thought I was a hit man, the way I just killed this track Can't even fuck with the warriors of light, I'm pullin' ya card like ace Dormit deus faciunt I'm pullin' apart ya face Muhammad, I'm on ya cake You know that I'm colder than Shiva, you prolly losin' ya fans You , postin' on these niggas Dormit perpetua You can't even unicast, like what kinda magic is that? Unicast They scared to dash and back like , Blizzaga bars Blizzaga bars Hittin' ya conscience hard They silent, dog Dog I came from a lion of kings, like, Nah Dormit deus faciunt These hoes want my , I might not These hoes want my But you know I make hoes scream like Sephiroth When that sword is in the guts like Aerith You kids' stupid laugh and hoot like Kefka Dormit perpetua, Kefka Palazzo's Laugh Baby, move and sneak to Level 2 2 Enough to crit' and all ya scary Call up Tom Barry, and I'mma bury someone Call up Tom Barry, , aye Yo, oddwin, tell 'em I'm godly Dormit deus faciunt I planted my seeds, it's not a poppy no, it is addictive I planned all my moves, they all poppin' Some niggas not a madre, call me, Poppy Dormit perpetua Can't stop me, fuck Kamikaze, I got too much to live for Foresight predicted, odd wins, not even God could stop me I read the competition already Shots leave him all red, he might be asleep in the Dormit deus faciunt Just a homerun , then he copy this with a black, big hit attempted Dormit perpetua you niggas 'til you speak up and listen Fuck a shark, dog, I made you glisten Paid tuition for final , my place still missin' Like Westbrook, yeah Dormit deus faciunt I teach these niggas with a textbook, yeah I putcha wrist in the match, if he gassed up, , he ain't God makin' contact Dormit perpetua Who tryna match on the dub? Got my hair right, then I left him in the dust Right to my forearm , but whatever I got left in the tank gettin' used up I'm a young buck, came into the game with to my name Dormit deus faciunt Like a , but they ain't never put me on they list , but I feel like it's the gist Yeah Gotta go nuts for all my fuckin' jits Let's go, dormit perpetua Fuck you, bitch, I'm goin' ape shit Feel like universal, , this some fake shit I cascade from the palms, this some BAPE shit Young Kratos out here testin' fate, bitch, hoo! I'm handin' L's, Prompto Prompto, dormit deus faciunt Or pumpin' Hip-Hop was yo' bitch, I tap first, just remain Noctis Just remain Noctis Mr. Krabs with the ego, you Plankton, microscopic Dormit perpetua, microscopic Death Note, stick news of , meltin' ya fiber optics Ya fiber optics Been in this rappin' like Eric, let me grab the bus Dormit deus faciunt The sword lily, the flower women, that's the gladiolus That's the gladiolus markin' birth for the ancients, hail Atticus Dormit perpetua, hail Atticus I'm aimin' for the top, but you wishin' how you could rap wit' us How you could rap wit' us This means political treason, there's no amnesty Dormit deus faciunt, there's no amnesty Now you Trump with Sephiroth views, rage and fantasies Rage and fantasies I ain't Eric , but I'm losin' that better sanity Dormit perpetua, losin' that better sanity From openin' a can of Whoop-ass on all humanity Whoop-ass on all humanity In a world for a snakes, a R-K-O will mask the viper Mask the viper, dormit deus faciunt Y'all best stick to ya position as waiters and window wipers Waiters and window wipers 'Cause any beat unleashed, you'll pop roses the rider Dormit perpetua, you'll pop roses the rider Go type up conan.com, officially closed this cypher Officially closed this cypher Angry boul that is on the mic' Dormit deus faciunt Kill-Kill-Kill you niggas by 10 tonight Kill-Kill-Kill you niggas by 10 tonight I'm gonna come in and make that shit light But, nah, tight Infinite rage, not infinite power Dormit perpetua Got this shit for infinite hours So infinite cowards I really didn't sour I really didn't sour Dea-Deadly niggas wit' a deadly force Dormit deus faciunt Bl-Bloody boul on a wild horse Let his girls throat 'cause many Owed me money, thought this shit was funny, so I grabbed me a little blowtorch Dormit perpetua Wanted to fight me really a Unleash the rage as soon as it hit me Come on, let's go as soon as you take me I really kill you like you tryna kill me Dormit deus faciunt I'll letcha die, go ahead, nigga, try to cry, I'll see you in Hell once you decide to commit suicide I'll letcha die, go ahead, nigga, try to cry, I'll see you in Hell once you decide to commit suicide, dormit perpetua Mass murderer of Philly, but I'm really weird once you really get me Re-Really funny and really silly, but I throw my L's on the whole city I'm Ugly Fuck, new Ugly God Dormit deus faciunt I'm crazy as shit, I'm really high I throw out this bar for the one time Once I see the new day shine Dormit perpetua I'm super trash, but I kick some ass and really spaz if I needed to This shit is true, I got the 'flu', so I'm completely turnin' black and blue and Bitch better know that I'm royalty, I'm king of the game like I'm Noctis Dormit deus faciunt Suddenly, they all for loyalty, now that they realize they not this Dormit perpetua Weird boy makin' big plays like the mothafucka let the odd win Bitches want like I done told them 'bout Or maybe I called it a god dream Dormit deus faciunt I don't know why I ain't the ultra light Bitches worried 'bout how I seem Don't worry, I'm gonna do it right Dormit perpetua Ain't Black, but I captured this, so you can call me Kodak If you think you movin' up, well, some of you must go back One, two, I'mma shoot you all the way up, call you Heroin Dormit deus faciunt Ain't hearin' all that wack shit I know you been pedallin' Dormit perpetua I be spittin' on the track, and my flow goin' steadily There's nothin' that I lack, pull up on you all readily Finished it off like I'm saucin' the cypher, I brought you all to your demise, yeah Dormit deus faciunt She said she wanna be saved now, I'm seein' the 'cid in her eyes, yah Dormit perpetua Makin' the money all long for ya shit, almost like I'm Uncle Sam, yeah Say that you shootin' some movies, but can't even cop you a cam', woah Aye, keep it on the block, keep missin' with shot Keep it on the block, keep missin' with shot, dormit deus faciunt You wack rappers not, keep wishin' for the top You wack rappers not, keep wishin' for the top While I be wishin' for a Glock, sniffle while I rock While I be wishin' for a Glock, sniffle while I rock Timmy, Timmy Turner with the instance of a Timmy, Timmy Turner with the instance of a , dormit perpetua We're off to the games, broke all of the cage We're off to the games, broke all of the cage You should really be cautious, you'll get lost in the maze You should really be cautious, you'll get lost in the maze In shock and amaze, of days In shock and amaze, of days Just waitin' at the top while you're off in a daze Just waitin' at the top while you're off in a daze Shot up a , it's intermission, imminent interdimensions, while I was spittin' a written Shot up a , it's intermission, imminent interdimensions, while I was spittin' a written, dormit deus faciunt Kickin' these kittens wishin' they spittin' some wickedness and they kiddin', B-B-C sittin' Kickin' these kittens wishin' they spittin' some wickedness and they kiddin', B-B-C sittin', dormit perpetua If ya obscene, come and rock with me If ya obscene, come and rock with me If you want an anomaly, God obviously, He's watchin' me, but not really helped all of his problems If you want an anomaly, God obviously, He's watchin' me, but not really helped all of his problems the prophecy that's prolly stoppin' me the prophecy that's prolly stoppin' me Swear to God, I been givin' my all to this game and it all ends the same with them callin' me Lame while they callin' for fame Swear to God, I been givin' my all to this game and it all ends the same with them callin' me Lame while they callin' for fame, dormit deus faciunt I've got a small crew and it's small as a I've got a small crew and it's small as a This is the dawn of an age where the artists are changin' This is the dawn of an age where the artists are changin', dormit perpetua Start callin' the names in the hallways of fame Start callin' the names in the hallways of fame I don't know where I started to change I don't know where I started to change Parted my rage for the problems I face when I'm off on my way Part of my rage for the problems I face when I'm off on my way Rockin' the stage in the way Rockin' the stage in the way, dormit deus faciunt I'm doin' me, while all of you hate I'm doin' me, while all of you hate If you blocked on my page, then you off in this game, damn If you blocked on my page, then you off in this game, damn, dormit perpetua Kez got hungry, some man he ate him Kez got hungry, some man he ate him Reminded him of a metaphor of Channing Tatum Reminded him of a metaphor of Channing Tatum They're disgraceful, they're distasteful They're disgraceful, they're distasteful Look at the between the eyes and jammed a staple, brrah! Jammed a staple Aye, oddwin, this was a pleasure to do, I appreciate it Dormit deus faciunt Much love, this was fun, yeah Dormit perpetua Dormit deus faciunt Dormit perpetua Dormit deus faciunt Dormit perpetua</t>
+          <t>Denzel Curry's discographyprojectsJanuary 16, 2011 Curry Wuz Here September 24, 2011 King Remembered Underground Tape 1991-1995 January 12, 2012 King of the Mischievous South, Vol. 1 Underground Tape 1996 May 13, 2012 Strictly 4 My R.V.I.D.X.R.Z. December 31, 2012 Mental Vendetta With Lofty305 September 3, 2013 Nostalgic 64 June 9, 2015 Planet Shrooms June 9, 2015 32 Zel March 9, 2016 Imperial June 24, 2017 13 - EP September 22, 2017 32 Zel Solo re-release July 25, 2018 TA13OO Act 1 Light July 26, 2018 TA13OO Act 2 Gray July 27, 2018 TA13OO Act 3 Dark July 27, 2018 TA13OO March 29, 2019 BLACK BALLOONS 13LACK 13ALLOONZ Love Below Remixes May 31, 2019 ZUU January 6, 2020 13LOOD 1N 13LOOD OUT MIXX February 7, 2020 UNLOCKED WKenny Beats May 1, 2020 UNLOCKED Instrumental WKenny Beats March 5, 2021 UNLOCKED 1.5 wKenny Beats March 25, 2022 Melt My Eyez, See Your Future September 30, 2022 Melt My Eyez, See Your Future The Extended Edition songs2011January 16, 2011 Intro Curry Wuz Here December 16, 2011 1993 FREESTYLE RAIDER KLAN SO TO YOUNG RENEGADE unreleased every date is when the song was previewed or published unofficially 9 August, 2021 Choppin 9 August, 2021 IDGAF 9 August, 2021 SKED 9 August, 2021 SLIDE freestyles</t>
         </is>
       </c>
     </row>
@@ -5333,12 +5333,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Count My Blessings</t>
+          <t>Denzel Curry Sway In The Morning Freestyle</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>See it, get it If you can see it Get it If you can see it, then you know that you can get it on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way Then you know that you can get it, on the way See it, get it As the world spins around me like I'm utilizing vinyl My final destination are behind me like a spinal Tapped into my psyche Manifesting someone like me Walking to the grocery store end up bumpin' into my wifey Right up out my fantasies Stay up here one advantage I organize my thoughts and it seems I'm losing my sanity Rambling 'bout when I'm my best whenever I'm gamblin' Manifestin' most of my money in palms, handlin' Channeling my inner self with my inner self So it's two times deeper, beyond things that I've felt If I felt, I feel If I dealt, I deal Given my ideals Now I got what's real Tangible, not mechanical Caging my inner animal Minutes eating up most of my time The clock is a cannibal Yet, there's other answers Manifest the message When there's nothing to count on I'm counting all of my blessings I'm out On the way, on the way I must draw it out from where it hides If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way I must draw it out from where it hides If you can see it, on the way Then you know that you can get it, on the way If you can see it, on the way I must draw it out from where it hides On the way, on the way On the way, on the way On the way, on the way On the way, on the way2</t>
+          <t>Everybody wants me to rap Matter fact, everybody wants me to- Poetry, flowetry Everybody say yes Curry is the best, the ichiban Came through, motherfuckin' taliban Blowin' up, pakistan, thinkin' 'bout is armageddon I came through with a lethal weapon like I'm Danny Glover, came through, I am not your lover Motherfucker I will fuck her then I might just use a rubber It's the nigga undercover like I'm brother, like I'm Eddie Griffin, nigga came through with the smithin' Wessin', who the fuck you testin' Blessin' these motherfuckin' niggas like a pastor The master, came through I blast ya Leave you on the wall like plaster Casper, all you niggas ghost Everybody know that Curry kill a nigga's not a hoax I'm a legend, I came through and you know I'm stepping On this block, in these 305 shoes Everybody know that, nigga, get a fucking Blue's Clue 'Cause I'm leaving niggas red The niggas coming through and I'm going off top the head And everybody know I just might just leave 'em dead Put 'em in the grave when I cradle And niggas like to spin it like I don't give a fuck</t>
         </is>
       </c>
     </row>
@@ -5350,12 +5350,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Creep Creep Devilz!!!!!!! 93</t>
+          <t>D’Evilz</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Straight outta Blackland The trill ass nigga named Aquarius Killin' Denzel is my alias Fuck the motherfucking pigs They wanna see a nigga downfall And want to kill our kids Just the way shit ain't been the same They kill my cousin ChynaMan, and bust a slug brain Niggas beef for hoe shit That why Raven Miyagi all black like a crow bitch This the type of shit a nigga hate 'Cause my nigga Muney Jordan said 'My nigga we share the same fate' Jitt, the nigga he used to be around The same place he said was the place he was gunned down God knows I ask why? But when I pray to him it's almost I get no reply Not saying Im Athiest, I know where my vape is Blackland and black man, crackers is racist Creep, they wanna beef so nigga don't sleep I see, the He peeps, the predator, that's stalking his prey creep Creep creep, they wanna beef so nigga don't sleep I see, the He peeps, the predator, that's stalking his prey play, creep creep You already know what I'm saying, know what I'm saying nigga I like to dedicate this song, to like Man, saying to all the loss, you feel me? I dedicate this one to like, especially to my cousin ChynaMan I love you brother Man if it wasn't for him, you know what I'm saying? So he could watch me do this shit, you feel me? Smoke Right, dog, I am going to make you proud bro You know what I'm saying, Mick Travis, ChynaMan, I love you man Never got to tell you that before you left, you feel me? Smoke You know what I'm saying, we miss you down here Flawless, victory Know what I'm saying, we're going to make for you Raider Klan all day nigga, know what I'm saying Shoutout Raiders all day nigga, know what I'm saying Shoutout to that boy SpaceGhostPurrp for telling me about the beat Man, everybody who ever lost somebody keep your head up, you feel me? We're all in this together, you feel me? Life's too short for that beef shit, you feel me? I am still going to dedicate this to like, my dog you feel me? Rest in peace to my grandmother, I love you And my , I love you I'd like to dedicate this to All the loss Curry, rest in peace , shoutout my boy renegade, Simmie, DC, and Purrp nigga1</t>
+          <t>Bunch of spoiled ass rich kids JPEGMAFIA Generation Y, 1989 Still afraid 'Fraid to leave his stoop, 'fraid to leave his stoop 'Fraid to leave his stoop, 'fraid to leave his stoop I'm a stoop kid, afraid to leave his stoop 'Fraid to leave his stoop Oh yeah Uh Young nigga on a stoop with a shotgun Baby, I'm a slave to the profit Lost kid and my girlfriend a boss bitch Sling around, throw the page in the garbage Baby said she only beg for the paper Lick the bowl, bring the pot to the neighbor Like, how you want, how you want, how you want it I got that fucking flavor Niggas on the roof with a shotgun Fuck the devil Black man's choice, spit rhymes or peddle Seen both sides on the pot and kettle Oh my gosh, I'm the seed of the Based God Fuck love and peace, I spit hate crimes No deal for me, fuck a co-sign 'Cause if I want mine, nigga, I'ma take mine Niggas on the roof with a shotgun Fuck that bitch Stoop kid afraid of the change and shit Stuck in my ways, I'm a young, old kid 25 in my right mind Voice of the youth It's a sign of the times Generation Y, 1989 Niggas on the roof with a shotgun 'Fraid to leave his stoop, 'fraid to leave his stoop 'Fraid to leave his stoop, 'fraid to leave his stoop I'm a stoop kid, afraid to leave his stoop 'Fraid to leave his stoop Oh yeah Niggas on the roof with a shotgun Niggas on the roof-2</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dark &amp; Violent (Clean)</t>
+          <t>Didn’t Cha Know (Live At Electric Lady)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Fang life! Klan You ain't never heard no tales from the darkside You ain't never heard no tales from the darkside Welcome to the land You ain't never heard no tales from the darkside What it's 'bout?! Its bout a young, running away from the moon to catch the sun quicker Drug dealer, Nino with the steelo trying to sell kilos and grams Settling angry stomachs up in his fam So if that silver spoon on your plate, if you touch that, that's your fate Don't have faith, Like Evans, you got to face demons to get to your heaven The pimps is the prophts, not prophets for revernds, this is the lifestyle of a broke adolescent So here's a lesson of a teen that survived Rikers But shortly, his life had ended with a bullet that's made out of Midas Touch You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a name on the darkside You ain't never heard no tales from the darkside You ain't never felt the pain of the darkside You ain't felt the burning flames of the darkside You don't have a name on the darkside Knew a young brother without a name, he was in love with his nina trapped And steadily schemin', barely sleepin', but dreamin' of pretty and beamers But when he awake, he sees his fate And his reality, to do whatever it takes to elevate his salary Any a casualty, kill 'em, rob 'em Then casually walk off into the darkness, it all started When he was, welcomed into our up world, the son of a up girl And his father was just a blur, his life had took a curve When he saw his brother dead on the curb, due to retaliation Of the gang relation, he was young, a kid, a baby And yet to realize the pollution of the nation Now he 18 life in jail is what he facin' Murder was the case that they gave him Murder was the case when they raised him Mind stuck in the all black prison You think he give a about the system? Car driving We gotta get this money Damn right We gotta get this money, I got the plans... Everything's set up Just got to go in there-.. Got the banger man, as long as you got the hammer man, we out ...Go by the book... You ready to do this or what? Yeah, yeah, 'this what I got to do Out on the gank, rolling the dank As he cased out the bank, he was catching that shank Getting loaded the stick, trying to major his rank Thugging was how he was brought in the paint Rush the security, no longer pure was thee Soul turned it cold for the love of the gold Bust in the air, everyone hit the floor Not giving a loc-ing off of the 'dro Bodied a riding in a dropped Lac Top back, cruising them twenty fours So I went crazy, my vision got hazy I walked in the bank, and I start to get bold Clutching that pistol grip The teller was moving too slow so I pistol-whipped The he was twitching, bust at a civilian And blasted the mag with no mask in the buildin Burn the fingertips off, replace the dental Left the golden bullet magic in his coufie, no his temple Thats engraved, leaving corpses In graves, Glock 17 cutting fades Barber, we dumped the security in the harbor Then we switched the identity, chose the name Leroy Carter The bank teller looking short and squeamish Steve pistol-whipped the she kept screaming Shut up, before a nut up, ho Steve said he couldnt take the So he took her to the back, then Steve grabbed the MAC Then he put it to her head, and then he ripped the Bro, we gotta do a job or we might get toast 13 shots rung out and it left two ghost Tales from the dark side, jack move, riding Trials and tribulations of the dark and violent</t>
+          <t>And I'm One, two, three, and Ooh, oh-oh-ooh Oh-oh-ooh, oh-oh-ooh Ooh, oh-oh-ooh Oh-oh-ooh, oh-oh-ooh Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Didn't ya know? Didn't ya know? Tried to move but I lost my way Didn't ya know? Didn't ya know? Stopped to watch my emotions sway Didn't ya know? Didn't ya know? Knew the toll but I would not pay Didn't ya know? Didn't ya know? That you never know where the cards may lay Time to save the world Where in the world is all the time? So many things I didnt know So many times I've changed my mind Guess I was born to mak mistakes But I ain't scared to take th weight So if I stumble off the path I know my heart will guide me back Yeah Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Uh Ooh, hey, ooh I'm trying to decide, uh Which way to go Think I made a wrong turn back there somewhere Didn't ya know? Didn't ya know? Tried to run but I lost my way Didn't ya know? Didn't ya know? Stopped to watch my emotions sway Didn't ya know? Didn't ya know? Knew the toll but I would not pay Didn't ya know? Didn't ya know? I said you never know where the cards may lay Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day</t>
         </is>
       </c>
     </row>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Daughter*</t>
+          <t>DIE*</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Me and my dawg be together like guarded Pump make a nigga drop out like Harvard Pocket full of green, but that shit ain't collard Lost my marbles, no mancala Untame when I'm in a Tame Impala Impalas pull up on parlor Big baller, call the nigga Saitama My llama sing like Alana Shock a nigga, you can call me Raiden When I switch the cadence, bitch, I'm too amazin' Call a nigga Ronald Wilson Reagan That's them triple sixes, 'cause my shit is blazin' Snatch a nigga daughter like it's Taken If a nigga try me, then you know he hatin' Super Saiyan mixed with a Superman Come down to hoes, I'm never savin' Wanna see a star? Go to Macy's Pew Brand new phones, no rabies Yeah Pull up to your home like Katie's Ooh Slaughter your daughter like Casey Ew Wanna see a star? Go to Macy's Pew Brand new phones, no rabies Yeah Pull up to your home like Katie's Ooh Slaughter your daughter like Casey Ew4</t>
+          <t>from Snippet I don't give a damn about your clique, so die I don't give a damn about your hits, so die I don't give a damn about your bitch, so die You say that you can't live with my shit, so die Die, die, hoe, die Die, hoe, die Die, hoe, die Die, hoe, die Wait a minute, run that shit back Die, die, hoe, die Die, hoe, die Die, hoe, die, yeah, yeah Yeah I don't give a damn about your clique, so die I don't give a damn about your hits, so die I don't giv a damn about your bitch, so die You say that you can't live with my shit, so die Di, die, hoe, die Die, hoe, die Die, hoe, die Die, hoe, die Wait a minute, run that shit back Die, die, hoe, die Die, hoe, die Die, hoe, die, yeah, yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Day N Night Throwback</t>
+          <t>DIET_ (Instrumental)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah Curry It is like this Day and night What? Or afternoon, I'm always on my grind, grind What? I look up, I'm always singin' blue What? There's all the lies, I head there's nothing true, true Now look at me What? Just tryna fit in but they just let me bleed, bleed What? So I hit the wall in the room and then I cuss What? There's no love in the world, there's all just lust, lust, oh 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night H's all alone, some things will nevr change The lonely loner seems to free his mind at night, at, at, at night So here I go What? Just like the ocean, need to find my flow, flow Comes from the heart, don't really understand Why they had to take my cousin Johnny, man, man Never did no time What? I ain't about it, I ain't 'bout that life, life What? Let me mediate and let my mind clear What? So I seen the evil or see no fear, fear, yeah-yeah 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night He's all alone, some things will never change The lonely loner seems to free his mind at night, at, at, at night Life as a stoner Life as a stoner Life as a stoner Turned him to a goner Yeah, yeah Yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah 'Cause day and night The lonely stoner seems to free his mind at night He's all alone all through the day and night The lonely loner seems to free his mind at night, at, at, at night Day and night The lonely stoner seems to free his mind at night He's all alone, some things will never change The lonely loner seems to free his mind at night, at, at, at night Na-na-na, na-na-na, he takes to me, me Carol City, I grind all day Carol City, I grind all night Carol City, I grind all day Carol City, I grind all night</t>
+          <t>Coffee black, cigarette Start this day like all the rest First thing in the morning that I do Start missing you Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die --- Instrumental --- Coffee black, cigarette Start this day like all the rest First thing in the morning that I do Start missing you Rendezvous in the night A willing woman to hold me tight And in the middle of love's embrace I see your face Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die --- Instrumental Backup singers in Spanish --- Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die...</t>
         </is>
       </c>
     </row>
@@ -5418,12 +5418,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>DBZ (ft. Method Man &amp; Denzel Curry)</t>
+          <t>Dirty South Interlude</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>What shit is this? Nobody cares Yo Nobody knows Divide and conquer, inside my being resides a monster Uh I line you up like you need a barber, don't be a martyr Don't be a starter, believe in karma, I'll be your sponsor Yeah Go even farther and deadbeat like it need a father Get even darker than DMX on the streets of Yonkers The cheaper hawker love Mary Jane like I'm Peter Parker Uh S.I. Nw Yorker, we don't make up storis, Sephora I mean to keep it a bean like Goya I'm a microphone fiend, my tree green as sequoia The New York State greens, have you ever seen that no more or nah? Life a B if you can't support her Ain't no price tag, if you gotta ask, then you can't afford her Ahh Your band real, but soon as your man squeal Get your man killed for that monkey business, you're mandrill If that man still stands and he takin' the standstill Put that steel on the stand and tell him to stand still Bum Musicians usually are regarded Tical As sort of the scum of the earth Nobody cares And so if you want to, uh, be a musician Nobody knows You just have to realize, nobody's really gonna care Five rings on my hand, Miyamoto Musashi Workin' to get bigger than the nigga who starred in Degrassi By the will and grace of God, I'ma do it, wallahi It's always the adversaries who be willin' to stop me Caught red-handed, hopin' that I'm dead stranded Yet I'm still givin' the hood what the Feds handed I cracked the code and played the cards from they hands, a gambit When I grab the mic, I crush your stamina, you will be damaged 'Cause using big words don't make you lyrical And goin' backwards in a swimmin' pool don't make you spiritual So if I bought a brand new whip, they call it Wait a minute Damn, whatever the next line was, I'm ballin' I'm the current boss, currency what I come across And currently, I been sharp as a knife that's on current frost Face, you a lost case, my life is all-state It's in good hands and I'm never off-pace Old school flows used for Your Old Droog Pro-tools, more grooves turn to soul food I'm doin' this 'cause I chose to These other niggas suck, they doin' what these hoes do For other MCs, the danger's imminent Most likely I'ma air this shit out, make mothers reminisce About a little rapper's delusion, thought he was infinite Label heard the record and said What shit is this?</t>
+          <t>From Miami to Atlanta, we all grippin' grain Just getting that wood and switching lanes All away from down here to up to Texas We gon' keep it dirty south until we be breathless</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DEAD (Original)</t>
+          <t>Distrust</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Yeah The once lost, disciples - now found Bound, together, forever As I embellish, mentally I nourish Resuscitate a mindstate that has perished, you shall inherit His blood I require back, to Earth We rise out of spiritual darkness, six thousand year curse The lost disciples bound to the midst of the bottomless pit Trapped behind the gates of the wicked wilderness I hear the sounds of the trumpets blowing across the heavens It's calm, prepare for the storm of the seven Shabazz The Disciple, the holy exalter Condemning those who sacrificing babies on the altar I hear the cries of innocent black babies who are aborted And unmercifully slaughtered Loud screams echo, skulls of angry slaves Turning over in their graves The white sheets are like white flags, you need to wave it To the soldier of the Lord the warrior King David I come to kill and crucify, those who trick and lie In the eyes of the most high The pale-face, devil race, caucasoid germ Grafted from original black man's sperm Thin-blooded weak, grafted-brain punk Your power's a third of mine, you drunk funky skunk How dare you use Jesus name to shell your filthy religion My tongue be the sword to slash you with precision The justice system is his, the court'll only acquit him And eighty-five percent of y'all are going to hell with em The walls of hell are closing in, disciples we rose again The Sunz of Man, chosen men Like lightning striking from the East The Holy Psychiatrist, 4th Disciple, and Killah Priest Unlimited volts of energy striking the enemy The righteous vicinity, death be the penalty So come on and swing it low, sweet chariot Pick up the righteous load, and yo then carry it To a new home, and identity For my people, death'll be the penalty Uh, and for my folks I mad a-love Keep your eyes on the prize and you'll rise above Ay yo, Shabazz, make sure you sing it loud enough Peacing out to the righteous, stay rugged and rough And y'all get on down Come on now, get on down Swing it low, sweet chariot Get on down Come on now, get on down Swing it low, sweet chariot Lawd, in this se-solider There might be a war draw near Sharpen your sword, we must be aware Of trick knowledge, them use to de-ce-ive us You've been plagued with the mental di-se-as-es You worship false portraits of Je-eh-s-us The grafted image you worship is Ce-as-ea-r I hear the snap of my great-great-grandfather's neck in a noose Hanging from a fucking tree whipped-in, mentally abused Visions of great great cousins Running across the field, unarmed Ran down, and killed I be the star to dispel the darkness Cast upon your soul by inhabitants of Mount Caucus Who praise the dead, and not the true and living Killed Jesus and said that he died for their religion So come on and swing it low, sweet chariot Pick up your righteous load, and yo then carry it To a new home, and i-dentity For my people, death'll be the penalty Uh, and for my folks I got mad a-love Keep your eyes on the prize and you'll rise above Ay yo Shabazz, make sure you sing it loud enough Peacing out to the righteous, stay rugged and rough And y'all get on down, come on now get on down Swing it low sweet chariot - get on down Come on now get on down, swing it low sweet chariot Swing it low now Swing it low now sweet chariot Swing it low now sweet chariot Swing it low now sweet chariot Pick up the righteous load and yo and carry it1</t>
+          <t>Careful who you hang around They only want you for the loot Claiming that they love you But they'll have your ass in hot pursuit Never turn your back 'cause When they get the chance they gonna shoot Catch you while you slippin' Puttin' shots inside your Subaru I don't trust soul I'm an outer body experience My ligaments attached To this soulless corpse I been living in I'm riding, watching people plottin' On they only benefit I'm I the only human in truest form? I've been heaven sent It's evident my element Is not meant to be mentioned With these other motherfuckers that ain't Never been through nothing Fraud niggas been tryna get down Revolve niggas for all figures I'm puttin' you rappers back in that box Up for delivery, who can you trust When you chose the ops Probably go off with the cop 'Cause niggas sittin' on the clock I'm paranoid, more power, more problems More thoughts to follow, my partner switchin' But I'm wrong if I tell 'em to swallow hallow's For stabbin' my back, based on betrayal Beggin' for mercy, I've lost in the past Have to prepare for controversy I pour my liquor out so all my dead brothers could sip Police tried to leave me headless with a sleepy hollow tip Catch my drift, if you can't then I will sink your battleship Here's a kiss from the dragon hot as the back of my spliff I separate the hate so I could make the devil wait, ugh Aviator, elevator only elevate, ugh Since I'm out my shell I might as well should catch a case When I'm looking at myself I only see my brother face How the fuck, get my dollars up, bitch I never bluff Fisticuffs, knock your ass out, that's Jigglypuff I don't trust any informant that's forming inside my household Another day, another dollar and another out sole Bitches wanna check, niggas wanna see you sweat Government want you in debt and these crackers want you dead I can't even trust the tiniest voices that's in my head So I only trust my gut instinct that's nuff said nigga Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck3</t>
         </is>
       </c>
     </row>
@@ -5452,12 +5452,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Death 4rm Da Triple Glock</t>
+          <t>Do You Do You Know</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Yuh, Don't Sleep On Me Hoe What up, Mikey, Niko, Yung Kane, Pouya? Fuck that bitch, pop that cunt Speakin' the truth and I'm keepin' it blunt Kick it like pun, runnin' these hoes Murder Team on us, he never love hoes Sippin' my Joe in the mornin' Tourin' through these bitches' Floorin', floorin' the gas on these borin' horny bitches fuckin' with me And I'm flippin' the script, pissin' on these bitches Golden shower for an hour, pussy sour, that shit get devoured Runnin' it back, booty is fat I'm lovin' that, never be stoppin' that kid Pouya walks inside the building and he rips it up Put my dick up in a slut then throw that ho under the bus 'cause I don't give a motherfuck Bitch, press your luck, I'm 'bout to bust another nut, uh Yo, yo, open up your mouth, open, open Hold up, you 'bout to get showed up When they show up then they slow up You don't know what's gon' act like you do Bad bitch ain't pretty Nah Played her like a Run it like DMC, it's tricky, baby, it's tricky And I go harder than harder, run it like Jimmy Carter Played her like a maracas, I'm hotter than fuckin' lava, uh New whip and a new bitch M to the M, don't fuck with a prude bitch Suckin' that down 'til the bitch toothless I'm roofless, I got that pussy bruisin' So, whoa, what you say? You beat hoes up and you still get laid? You got no job and you still get paid? And you kick hoes out like a double play? How far you go? All the way How hard you ball? NBA my bitch strippin' 'til her I'm her daddy, father's day Murder Team, back away Get her wet, rainy day Eat the pussy, fish filet New nigga, yeah, you fuckin' with the Whoa, nigga, fuck it, kill a nigga, kick that bucket 'Cause you don't even know me, I ball like Kobe Bitches want that beef, eat a little nigga like, nigga, show me I'm hittin' you, the bitch in you Wait, wait, waitstop the track, shit, I'm rappin like Mystikal Tell yo' ho, Eat a testicle, Mystikal style to Mystikal verse Unlock the best in you, give it all up undressin' you Pop a bean Ayy, nigga, what you mean? Ayy, check my style, real shit Fuck niggas is talkin', this nigga I'm the Soulja and I have no limit You sleepin' on a nigga and you ain't slick with it I got two broads shaped like All type of ass, skin tone light I ain't worried On top of this shit like No jersey, nigga, no mercy Get trampled like a No elephants, my soul, I'm never sellin' it Bitch nigga so irrelevant Just witness the development of the lyrical saint I go harder than for my family's sake curve Skrrt Then my nigga just take flight We stay on the ground, 'bout to late nights Other niggas get stage freight And I'm one of the greats, right Here we go, switchin' the flow Fuckin' her good, then I'm hittin' the dough Hop in the whip, the crib Phone blowin' up, I don't care 'bout a bitch from hit up the Nigga, what you think? Purple shit all in my drank Got a nigga on , hol' up I'm swervin', I tell her I'm workin She tell me to come through, Say, Nah, bae, I can't, got checks all on my mind Got no time for none of you hoes Gotta get up and get on my grind If niggas be trippin', I'm totin' that iron Don't aim with that stick, just up when I fire Walk with the clan, yes, I am the man , uh Niggas be trippin', so yes, I be If that nigga slippin', then he finna lay We pop his body, then hit with that shotty Whatever is left, man, Yes, I'm the man, say it again Hatin' ass nigga, just fucked nigga AK-47s so none of you pussies can fuck with the clan</t>
+          <t>Mmmhmm They knew I had... They knew I had that heat huh My shit is right by me Hand me that motherfuckin blunt This motherfucka, I gotta dry this bitch first Paranoia! my body with flames, Homie, ya better be ready for war when walkin down the street at night n' Ready with hand on the gauge For niggas that run up or wanna get diesel Run up on me, there is no sequel Motherfucker, the bullet will meet you To bury your body in river for niggas that run up and Stop that! Homie, because we all know where you been shot at This nigga wanna get down? Heck, my niggas wanna get down too! Run up on us and kick up dust Watchin how fast we you a 40 ounce bottle that ganja Lucifer turn on my demons to make me do everything, even if choppin off nostrils I walk in the do' Look for the money, for penny, then hurry and sell You niggas, ya better be ready just because of the smell Nigga be walkin through Hell Head for this murder and keepin the death Put one in ya when I'm bussin my tech, with the tech and get off of the set This ain't the right flow... For niggas that really don't wanna be bussin Step over homie, we feel that we differ, we on a mission, nigga no discussion Do you want to know black magic? Where yo ass can get smashed fo' pickin up savine And fuckin with them psychos And bustin with the rifles We niggas best sight no Muthafuckas you ain't never seen me before you hit the do' like a habit So come into my room and let me teach you black magic It had happened one Saturday night, I was like a muthafucka, down in street Smokin on some hydroponic trees Me and my was plottin on a come up Imma burn somethin like a skinny ho, can't cook in the mornin If you sleepin, we creepin Givin niggas dirt naps I'm hurtin, for certain And homie you don't wanna see 187, don't listen to eleven nigga's pockets and king-sized mantles n' Shit's gettin funky like them flattenin Couldn't clean like a surgeon, make you bloody like a virgin Only God can judge me and I'm wonderin will I ever see again, I'm livin for this life and I know I'm gonna murder somethin Twisted Insane got the gauge, gon' pop somethin If this go good, homie we gon' cop somethin Break it down, bag it up, and hit the block all in the same night, this black magic'll have you seein lights One off for the dojo Sufferin one to the dome my composure Circle and salt when I'm doin the voodoo and lightin a candle and urn for the And leavin em all in the dirt So niggas that take out they stomach and fill em with bullets, you know about puttin in work I'm never the one to be feelin the booster when off of Medusa 40 ounce and a Ruger, dumpin on niggas that really don't wanna be fucked with Hop out the model when off of the bottle and catch slippin right in front of ya bucket Catch ya slippin right in front of ya bucket My niggas will all to the brain Look into they eyes and , watch how fast these niggas when they encounter the flames Burnin bodies like the ashes and urns, I'm ready to learn why these niggas are sicker Dumpin with so much artillery, niggas they feelin me when I be off of the liquor Sick and the quicksand's gettin thicker And all the O.E. is just killin my liver So passionate for bein with the wicked elixir Hopin you niggas is gettin your fixer Off of my shit cause I do be a savage Meetin your doom when you enter the room... Black magic</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Demonz On My Mind</t>
+          <t>DRAINO (OG VERSION)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Raider to gang, Waka to Flocka, Aquarius, nigga, go hard in the paint Takin' this bank, Pee Wee, give me your flesh, I go hard with the shank Visit a shark, sleep with the fish, Curry The Killer, that nigga who's this Tommy Wright, Street Type, Hustle and Flow when I'm whoopin' that trick Pull out the stick, pull out the gauge, Aquarius Killer, the Raider with rage Up in the yard, don't step to this, demon around like The Exorcist Emily Rose, I'm tippin' these bowls and splittin' these hoes, we runnin' this shit Raider to Klan, we crazy like Stan Miyagi, so sorry I'm cuttin' your bitch Samurai, do or die, Raider to Klan, we all on the run Little Jitt's wreckin' shit, bullets, Ballistics takin' his gun Put it to a cop's head, watch a nigga drop dead Ridin' in the Chevy, Lord Infamous bumpin' heavy As I get the B, the L, the U-N-T That's me, a real O.G., and Blackland is where I be Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Pussy-ass nigga, you owe me money Head full of shit cause your sister want to fuck me Been at your house and you keep gettin' lucky This shit won't last, no time for the fuck shit I bet you on blast and I bet you get fucked quick Call your little sis' cause I want to get my butt licked 4 A.M., geeked up on the suss Lockpick dick your front door like I'm fuckin' All in your crib, takin' all the shit Glock 17 with a beam on a bitch Aim at your dome when you sleep in the sheets Shadow hand swag how I creep and I creep With the all-black Vans you can't even see Flesh feelin' numb from the cannabis seed Nigga, I'm high, nigga, I'm dope Ruben Slikk'll put the nine to your throat Nigga, what you got? For a nigga life Ruben fuckin' Slikk, yeah, sellin' that white Backhand slap, slingin' that coke I don't give a fuck, nigga never broke Nigga fuckin' hoes, that's how I do That's how I gotta live my life, see it through To the fuckin' light, look to the light Ruben fuckin' Slikk, get high off the white Nigga take a bump right to the nose I don't give a fuck, stay fuckin' with the hoes Stay higher than a bitch, Ruben fuckin' Slikk Higher than a motherfucker, extras in the clip Got thirty rounds all up in a bitch Finna just pull that trigger back, bitch Nigga just put them holes in your chest Nigga just put that hole in your head, damn Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga Demons in my mind, ain't nowhere to hide, nigga I got demons in my mind, ain't nowhere to hide I got demons in my mind, ain't nowhere to hide, nigga I be schemin' all the time when I'm on them lines, nigga I ain't scared, what the fuck is you trippin' fo'? Nigga I ain't scared, what the fuck is you trippin' fo'? Nigga1</t>
+          <t>Something's wrong, you could never understand What I be on, you could never comprehend I'm on top, I ain't like that other man I'm gon' let you down, again Woke up drenched in a sweat so cold That it froze my home, wanna go to Hell 'Cause at least it's warm on a brimstone floor No love no more, I'm gettin' frail Yeah And my face is not the same as before I cannot see who I was before I died and was reborn as a dog I cannot look myself in the mirror I cause quakes Last to touch everything that breaks Okay And I'd rather not even show my face Cops on the block and they buildin' a case Wassup? Hope that these shots put holes in ya cape I don't want nobody savin' the day This black AK got somethin' to say Okay It's okay, just back up and pray What? Chorus ZillaKami SosMula Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Mula Verse 2 SosMula Ayy, my shotty got a body on it Sleezy Tommy got a body on it Sleezy I just body my opponents Boom-boom I'm John Gotti, you's a rodent Fuck outta here Double barrel shotgun, run like Ricky Rrah Hit 'em with a hot one, drum hold fifty Boom-boom Cop killer shells like Mutombo's pinky Boom-boom Bitch curl up like a jumbo shrimpy Slide Feds wanna watch everything I do No, no CNN, Fox 5, 10 o'clock news Bitch Mom's stressed, kids stressed, and pops too Boom-boom My wrist, carats, your gang buy jewel Mula Shawty suck my soul 'til my dick turn blue Slide Shawty fuck me crazy like a sick cartoon Slide In a Mercedes, I go vroom-vroom Skrrt Niggas talkin' brazy, they get boom-boom Boom-boom Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again No, you can't tell me, 'cause I be for real Know how I work it, I buy out a deal No, she is not gonna love me for real Tell her to fuck me until she can show that that's real But all the lovin' is fake You is a bitch, I can see in your face Say you would kill me, then tell me a date and a time And I'll be there, I'll make you bleed there I might have it all But half of the time I just feel insignificant Incapable, intoxicated I'm over the pressure, yet feel underprivileged Like my kingdom is buried in sand Ozymandias, I am the man As I look at the cards in my hand The fortune teller of the tarots says terror I'm sick of artists that chuck up the deuce When they get the juice when you helped from the roots And I'm sick of hoes that walk in and seduce But then talkin' shit once you give 'em the boot, ahem Clear your throat 'cause you know you a swallower Up to me? I would kill the whole lot of ya So it's part two to Hell or High Water, huh? Test your gangsta but went Law Order, huh? Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Medicate Medicate Medicate Instrumental</t>
         </is>
       </c>
     </row>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Denzel Curry - Diet_ | A COLORS SHOW</t>
+          <t>DROP IT ON YO ASS FOOL</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Woah, Kenny Pamela Anderson, Pam Grier The man's here, there's no fear Came through with no tears Wah I don't cry Matter fact, I don't lie like a bedside To tell the truth, then I tell you what it is or what it ain't Please roll me up another dank, another smoke Though I see it as the antidote to cure my daily anecdotes I see my thoughts, it's adios Finito, I get new jerseys like I was a guido The ego, gotta be vetoed if you want a free throw D'Evils, stay with the scripture, what your mama read you You gotta milk the game, son, I couldn't bottle-feed you This next bar was 'bout to do some Logic shit But now it's time to stop the shit and let me pop my shit Drama still added on, stayin' positive All my niggas on my side, on the opposite Get money from a show, then deposit it Uh Your show ain't got no hoes, I acknowledge it Yeah So braggadocios, spit sick shit, it's atrocious Nasty Risin' like the stocks, stockbroking The Shogun, came through with no gun One man, Ichiban, fresh out of Japan, do as I command And what I demand is some fuckin' peace and quiet Told 'em please go to church, and please get on a diet Shoebox came with the doowop One billion and two cops can't find 2Pac Two shots, that's two grazed in two days What goes up must come down on Tuesday And I don't like Pixar, mister I am the master, I came through like a Wait a minute, bastard Nobody fathered my style People said I would fall off, but I've been here for a while, so nope Are you ready for the motherfuckin' giant? The tyrant, the titan, the ogre, the lycan The vampire, taking over empires If the game was a tooth, I'm a fuckin' pair of pliers We gon' do 'em Vinny style As you can see, this nigga got many styles Serious Know too many niggas that got semi rounds Serious They're cold like ice Put thorns to your crowns, you go out like Christ, my niggas Get money from a show, then deposit it Uh Your show ain't got no hoes, I acknowledge it Yeah So braggadocios, spit sick shit, it's atrocious Nasty Risin' like the stocks, stockbroking The Shogun, came through with no gun One man, Ichiban, fresh out of Japan, do as I command And what I demand is some fuckin' peace and quiet Told 'em please go to church, and please get on a diet You motherfuckers know what time it is It's the motherfuckin' championship1</t>
+          <t>To all of theses niggas AquariusKilla is my fucking name and im mystic Bitch if you see me im dressed like a genie if niggas got beef its a death wish death wish My god im so trill like these nigga will think im from Houston Spitting my lyrics dog ima kill it these niggas will think that im toothless Kill any beat any rapper just like a attacker im ready to become a rebel Watch if im smoking a spliff and bring the lyrical heat like the mouth of a devil T.O.T.A touch one touch all wonder rum wheres my jaws I wanna kill victims and break laws dog Chills going down your spine as you shiver Curry the killa a lyricist I drag them to the river 91 to 95 im straight up from the underground Sound change drastically because denzel is versatile One step two step Turn around I look back whoevers behind me gonna end up getting they head cracked And I ain't talking dice im talking bout my other half Dont make me go on a rampage and cause a hectic aftermath</t>
         </is>
       </c>
     </row>
@@ -5503,12 +5503,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Denzel Curry Interviews</t>
+          <t>DROPSHIT*</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>101 Ant Clemons - 4 Letter Word ft. Timbaland Charlie Puth - Cheating On You Danny Brown - 3 Tearz ft. Run The Jewels Drew Allen - Egos Myke Towers - Hace un Mes Twelve'len - Thank the Gang Remix ft. Guapdad 4000 102 AJ Tracey - Cat Pack Amanda Black - Ndizele Wena anders - Nauseous Big Thief - Forgotten Eyes Cherry Glazerr - Call Me ft. Portugal. The Man Jhené Aiko - Triggered Remix ft. Summer Walker 21 Savage Joey Trap - Danger Freestyle Lil Toe - Cash Out Lucki - Nascar Dashcar Mike Posner - Legacy ft. Talib Kweli Ms Banks - Bad B Bop Pia Mia, Carnage Gunna - Don't Get Me Started Slow Hollows - Heart 103 88rising, CHUNG HA Rich Brian - These Nights Andrea Bocelli - Return to Love ft. Ellie Goulding BlocBoy JB - ChopBloc 2 ft. NLE Choppa Doja Cat - Bottom Bitch GARZI - My Temptations Guapdad 4000 - Gucci Pajamas ft. Chance the Rapper Charlie Wilson Highly Suspect - Tokyo Ghoul ft. Terrible Johnny Young Thug Kacy Hill - Much Higher Wiley - Givenchy Bag ft. Chip, Future Nafe Smallz 104 Alexander Oscar - Someone Else Ali Gatie - Used to You Ambjaay, Tyga Lil Pump - Uno Remix ft. Tyga, Lil Pump Anna Wise - Count My Blessings ft. Denzel Curry Big Shaq - Buss it Down Black Eyed Peas - eXplosion ft. Anitta Camila Cabello - Cry For Me Casanova - Knock Knock Cascada - Like the Way I Do Pop Edit Conor Maynard - Waste Your Time Cxrpse - Blacked Out ft. Sybyr, BRUHMANEGOD, LIL DARKIE Yvncc Dan Shay - 10,000 hours ft. Justin Bieber Dave East - Alone ft. Jacquees DeathbyRomy - Problems DJ Spoony - Sweet Like Chocolate ft. Lily Allen Fabolous - Choosy ft. Jeremih Davido Fleur East Figured Out Fredo Bang - Face Down gnash - forgive George Maple - Superhuman Gucci Mane - Big Booty ft. Megan Thee Stallion Jack River - Later Flight James Blunt - Champions Jessie Reyez - Far Away JUMEX - SPRAYPAINT ft. Travis Barker Juice WRLD - Bandit ft. YoungBoy Never Broke Again Kash Doll - Mobb'n Keyon Christ - Peace of Mind Only Kid Ink - Randy Mo Lil' Kim - Pray For Me ft. Musiq Soulchild Rick Ross Majid Jordan - Superstar Martin Jensen Malte Ebert - I Could Get Used To This New Hope Club Danna Paola - Know Me Too Well Niall Horan - Nice To Meet Ya No Rome - Talk Nice Norah Jones Mavis Staples - I'll Be Gone Paris Shadows - Enough's Enough Pop Smoke - War ft. Lil Tjay Poppy - I Disagree Quin NFN - Hold You Down ft. PnB Rock RiFF RAFF - BRiNG iT BACK TO ME BABY RITUAL Robinson - Hard Times Russ - Old Days Steve Aoki Will Sparks - Send It T.R.U., 2 Chainz Sleepy Rose - Shoot It Out ft. Hott LockedN Worl Thouxanbanfauni - Home Invasion Travis Scott - Highest in the Room Tyler, The Creator - EARFQUAKE Channel Tres Remix 106 Keyon Christ - Life Ain't Been Fair to Us 107 anders - My Side of the Bed FKA twigs - home with you Lil Darkie - HAHA Yungeen Ace - Bad Bitch Remix ft. Blac Youngsta 108 Cigarettes After Sex - Falling in Love City Girls - JT First Day Out Destiny Rogers - Lo Lo ft. Guapdad 4000 P-LO Luke Combs - What You See Is What You Get SebastiAn - Sober ft. Bakar THEMXXNLIGHT - Do You Love Me? Winona Oak - Let Me Know 109 BJ the Chicago Kid Ari Lennox - Time Today Remix Caribou - Home Chloe Lilac - Special Green Day - Fire, Ready, Aim Miranda Lambert - Tequila Does Phantogram - In a Spiral UMI - Love Affair 1010 Arizona Zervas - ROXANNE Baby Ariel - Wildside Courtney Barnett - Keep On Elliot Jones - I'm In Love Hearts Colors - Fuck It Up Jason Aldean - Got What I Got Lady Antebellum - Boots Moneybagg Yo Megan Thee Stallion - All Dat Myles Erlick - Where Do We Go Sam Hunt - Kinfolks Seafret - Fall The Neighbourhood - Yellow Box Wretch 32 - 1010 ft. Giggs YUNGBLUD - original me ft. Dan Reynolds 1011 12AM - Love Dies ft. 24kGoldn A Thousand Horses - Livin' My Best Life Apache 207 - Wieso tust Du dir das an? Arcángel - Invicto Baka Not Nice - Up Becky G - MALA SANTA BENEE - Find an Island Bishop Briggs - JEKYLL HIDE Blueface - Close Up ft. Jeremih Camila Cabello - Easy Charli XCX - Click No Boys Remix ft. Slayyyter Kim Petras Cher Lloyd - M.I.A deadman - l'amour EST - Talk Deep Eden xo - Dance Monkey Ella Henderson - Young French Montana - Twisted ft. AAP Rocky, Logic Juicy J Gucci Mane - Tootsies ft. Lil Baby Harry Styles - Lights Up Hayley Kiyoko - Demons Internet Money - Somebody ft. Lil Tecca A Boogie Wit da Hoodie James Arthur - You ft. Travis Barker James Blunt - I Told You Jennifer Lopez - Baila Conmigo JoJo - Joanna Kash Doll, Kim Petras, ALMA Stefflon Don - How It's Done Kid Ink - Bats Fly ft. Rory Fresco KINGDØMS - Senses Konata Smal - Ruckus lLabrinth Banx Ranx - Something's Got To Give Banx Ranx Remix Little Boots - Souvenirs Demo Lost Kings - LA The Parties ft. Sevyn Streeter Luh Kel Marian Hill - like u do Mau y Ricky Nicky Jam - BOTA FUEGO Meduza, Becky Hill GOODBOYS - Lose Control PH4DE wifisfuneral - Hang Me Prince Fox - Not the One Pusha T - Puppets Succesion Remix R3HAB Ella Vos - Exhale RiFF RAFF - MARSHMALLOW MAZERATi ft. DJ Paul Roddy Ricch - Big Stepper Rod Wave - Cuban Links ft. Kevin Gates Rubi Rose - Hit Yo Dance ft. NLE Choppa Yella Beezy Shordie Shordie - Both Sides ft. Shoreline Mafia Stizzy Stacks - Ima Dog ft. NLE Choppa T-Pain - Trover Saves the Universe T.I. - Sabotage Terror Jr - Crowded Rooms The Black Eyed Peas J Balvin - RITMO Bad Boys For Life Tiana Major9 EARTHGANG - Collide Tiffany Young - Run For Your Life TINI Sebastián Yatra - Oye Vargas Lagola - Forgot To Be Your Lover Warhol.ss - Eddie Murphy Wynne JID - Ego Check Xavier Omär Sango - What Do We Do? ft. Parisalexa Ye Ali - Lemon Pepper Freestyle Yelawolf - Opie Taylor Yellow Claw - Amsterdamned 1012 Jasiah - SOUL EATER 1014 Caroline Polachek - Look At Me Now 1015 Kalin White - Keep G-Eazy - I Wanna Rock ft. Gunna Lil Darkie - ANTHRAXBLACKMOLD ft. Chauncey666, DeadBeatVillain, REAPEROFTHESOUTH Webneversleeps Lunay Myke Towers - La Cama 1016 Beck - Uneventful Days Emotional Oranges - Sundays Flight Facilities - Better Than Ever ft. Aloe Blacc Katy Perry - Harleys In Hawaii Laguna Nights - LIZ Lucki - 4 The Betta Madeon - New Be Fine Nessly Teejayx6 - Juggin Til I Die Rexx Life Raj - No Permission Needed ft. Bas UMI - Sukidakara 1017 7AE - Bout It anders - Sticky Situation ft. Rich The Kid AuRa Alan Walker - Ghost cute girls doing cute things - Your Hand Ghetto Sage - Häagen Dasz JP Saxe - If The World Was Ending ft. Julia Michaels Kingz Daddy, DJ Luian Mambo Kingz - No Me Ignores ft. Jay Menez, Myke Towers, Rauw Alejandro, Cazzu Eladio Carrión Lil Windex - Money Don't Bitch ft. teven Cannon Mariahlynn VÉRITÉ - think of me 1018 AJ Mitchell - Like Strangers Do Ali Gatie - Say to You Allie X - Rings a Bell bbno - slop Blueface - First Class ft. Gunna Bouba Savage Kenny Beats - Buss It Down BTS - Make It Right Remix ft. Lauv Cody Simpson - Golden Thing Cold War Kids - Beyond the Pale Daddy Yankee - Que Tire Pa' 'Lante DaniLeigh - Cravin ft. G-Eazy DJ Pharris - JUUG ft. Chief Keef Jeremih Famous Dex - Proofread ft. Wiz Khalifa Gang Starr - Bad Name Grace Carter - Fired Up Grace VanderWaal - I Don't Like You Griselda Records - Dr. Bird's Gryffin - Body Back ft. Maia Wright Hey Violet - Clean Icewear Vezzo G Herbo - How Im Coming Remix Jadakiss - Me Kamille - Don't Answer ft. Wiley Kiana Ledé - Easy Breezy Krewella - Ghost L Devine - Peachy Keen Landon Cube - Pretty ft. 24kGoldn Lost Kings - Somebody Out There ft. Marc E. Bassy Mark Battles, Chuwee FUTURISTIC - Dreaming2 ft. Tory Lanez Markie Lil Durk - In My Flesh Nick Blixky - Drive the Boat ft. Nas Blixky 22Gz Quinn Lewis - Empty Saint Asonia - This August Day Shark Puppet - Buckets ft. Suigeneris DC The Don Rex Orange County - Pluto Projector Russ BIA - BEST ON EARTH Thouxanbanfauni - Best of Me TLE Cinco - Check Dis ft. NLE Choppa Vegyn - Wisin Yandel - Chica Bombastic Yo Gotti - Pose Remix ft. Lil Uzi Vert Megan Thee Stallion Yung Pinch Pouya - That's My Baby 1019 Frank Ocean - DHL Yung Trench - lost star 1020 Tom The Mail Man - My Storm 1021 Brooke Candy - FMU ft. Rico Nasty Lil Revive - DARKNESS Pretty Carcass Flip Stalley - A Main 1022 Berner - La Plaza ft. Wiz Khalifa Snoop Dogg IDRYS - G.O.M.A Lil Happy Lil Sad - Denial Victoria Monét - Ass Like That 1023 Banoffee - Tennis Fan ft. Empress Of Davido - Risky ft. Popcaan Gallant - Sweet Insomnia ft. 6LACK Kalin White - Kia Mumford Sons - Blind Leading The Blind PewDiePie Party in Backyard - Mine All Day PRETTYMUCH CNCO - Me Necesita Quin NFN - Poles ft. NLE Choppa Selena Gomez - Lose You to Love Me TNGHT - Dollaz UMI - Runnin ft. Yeek 1024 Coldplay - Arabesque Coldplay - Orphans CXLOE - Devil You Dont Doja Cat - Rules JP Cooper, Stefflon Don Banx Ranx - The Reason Why K. Michelle - The Rain Kesha - Raising Hell ft. Big Freedia Louis Tomlinson - We Made It Major Lazer Khalid - Trigger Selena Gomez - Look At Her Now svrite - Star RiFF RAFF - Floor Seats ft. Chief Keef DJ Paul Robb Bank - Hentai Skizzy Mars - Leave Me ft. Marc E. Bassy The 1975 - Frail State of Mind Terrace Martin - Trail Mix ft. Rose Gold Buddy Tinashe - Die A Little Bit ft. Ms Banks Wafia - Flowers Superpowers 1025 1K Phew - Kung Fu ft. WHATUPURG Ty Brasel 800Goony - 14Hunnid 8hunnid ft. Trippie Redd Aaron Carpenter - No Control Alex Aiono - I Cant Be Me Arin Ray - A Seat Bonnie McKee Eden xo - Bad Girls Go To Heaven Cah Out - Aye Migo ft. Lil Durk Conan Gray - Maniac Cuban Doll - My Ex Danny Ocean - Dime tú Dave East - Godfather 4 ft. Nas DJ Kay Slay - Hocus Pocus ft. A Boogie Wit da Hoodie, Blueface Moneybagg Yo EDEN - projector Ekali - Back to You ft. Kiiara eli. US - Im fine EVAN GIIA - Sidelines FELIX SANDMAN - MOOD FOR YOU Gabrielle Aplin - Like You Say You Do Galantis Dolly Parton - Faith ft. Mr. Probz Hoodrich Pablo Juan - Minute Maid iann dior - Strings Jack Gray - Friends Like These jens - Wish I Was Right For You Jogami - Sparda JoJo - Sabotage Kyle Dion - Dead Kodak Black - Zombie ft. DB Omerta NLE Choppa Lady Antebellum - What Im Leaving For Liam Payne - All I Want For Christmas LIAMOO - Issues Lizzo - Good as Hell Remix ft. Ariana Grande Logic - OCD Luh Kel - Movie ft. PnB Rock Luke James - Go Girl ft. BJ the Chicago Kid Ro James Mae Muller - Dick Maye - Moody Milky Chance - Rush ft. Témé Tan Mura Masa - No Hope Generation Niall Horan - Nice to Meet Ya Stripped Version Nina Nesbitt - Toxic O.T. Genasis - Big Shot ft. Mustard Oh Wonder - Better Now Omar Montes - Alocao ft. Bad Gyal Pet Shop Boys - An Open Mind Pet Shop Boys - No Boundaries Queen Naija - Good Morning Text Rebecca Black - Sweetheart Reem Singer - Only One Roddy Ricch - Start Wit Me ft. Gunna Smash Mouth - Bus Stop Smino - Trina Sonia - Games Steve Aoki Bassjackers - I Wanna Rave Tei Shi - Alone in the Universe The Knocks - Lucky Me ft. Great Good Fine OK Tyga, YG Santana - Mamacita Vybz Kartel - INTERVIEW Westlife - My Blood Why Dont We - Mad At You Yungeen Ace - Bando Zella Day - You Sexy Thing ZHU partywithray - Came for the Low 1026 Joey Trap - 21 Freestyle 1027 Slayyyter - Hello Kitty 1028 Joey Trap - Tube Sock Freestyle Keyon Christ - Booze Right ft. Bibi Bourelly Normani 21 Savage - Motivation Savage Remix Tame Impala - It Might Be Time 1029 Agnes Obel - Island Of Doom Kalin White - Friendless Lily Moore - Undo ft. Dan Caplen Westside Gunn - Kool G ft. Conway the Machine BENNY THE BUTCHER 1030 AJ Tracey Skepta - Kiss Tell Anitta Marília Mendonça - Some Que Ele Vem Atrás Buddy - Hollywood ft. Kent Jamz Buddy - Hollywood A COLORS SHOW dvsn - No Cryin' ft. Future Emily Burns - Is It Just Me? GASHI - Mr. Ferrari Goody Grace - Scumbag ft. blink-182 HAIM - Now I'm In It Hamzaa - Write it Down Hannah Diamond - Invisible Josh A Jake Hill - Lowlife Omar Apollo - Frio Quadeca EGOVERT - FISH OUTTA BACARDI Skinnyfromthe9 - Hurt Me Sybyr - Darker Than Lit Y2K, bbno, Enrique Iglesias Carly Rae Jepsen - Lalala Remix 1031 21 Savage - Immortal Dua Lipa - Dont Start Now Four of Diamonds - Long Way To Go Halsey - Graveyard Axwell Remix M Huncho Nafe Smallz - Thumb Martin Garrix Dean Lewis - Used To Love MØ - On On Noah Cyrus - Fuckyounoah ft. London on da Track Pink Sweat Crush - I Wanna Be Yours PlayThatBoiZay - POISON KLAN ft. Denzel Curry Anonymuz REMI - Brain ft. Lori Sad Frosty - pLaYgRoUnD oTw Freestyle Sheck Wes - YKTS Six60 - Ghosts Ski Mask the Slump God - Carbonated Water Smokepurpp - Stevie Timmy Trumpet - Therapy ft. Charlott Boss Tom Walker - Heartbeats Trinidad James - Ugly Vince Staples - Sheet Music Episode 02 Young Dolph - Tric or Treat</t>
+          <t>Be lil a dropkick dropheads dropshit</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Denzel Curry’s Discography</t>
+          <t>DuRags</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Denzel Curry's discographyprojectsJanuary 16, 2011 Curry Wuz Here September 24, 2011 King Remembered Underground Tape 1991-1995 January 12, 2012 King of the Mischievous South, Vol. 1 Underground Tape 1996 May 13, 2012 Strictly 4 My R.V.I.D.X.R.Z. December 31, 2012 Mental Vendetta With Lofty305 September 3, 2013 Nostalgic 64 June 9, 2015 Planet Shrooms June 9, 2015 32 Zel March 9, 2016 Imperial June 24, 2017 13 - EP September 22, 2017 32 Zel Solo re-release July 25, 2018 TA13OO Act 1 Light July 26, 2018 TA13OO Act 2 Gray July 27, 2018 TA13OO Act 3 Dark July 27, 2018 TA13OO March 29, 2019 BLACK BALLOONS 13LACK 13ALLOONZ Love Below Remixes May 31, 2019 ZUU January 6, 2020 13LOOD 1N 13LOOD OUT MIXX February 7, 2020 UNLOCKED WKenny Beats May 1, 2020 UNLOCKED Instrumental WKenny Beats March 5, 2021 UNLOCKED 1.5 wKenny Beats March 25, 2022 Melt My Eyez, See Your Future September 30, 2022 Melt My Eyez, See Your Future The Extended Edition songs2011January 16, 2011 Intro Curry Wuz Here December 16, 2011 1993 FREESTYLE RAIDER KLAN SO TO YOUNG RENEGADE unreleased every date is when the song was previewed or published unofficially 9 August, 2021 Choppin 9 August, 2021 IDGAF 9 August, 2021 SKED 9 August, 2021 SLIDE freestyles</t>
+          <t>Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate I'm stuck in my ways Maneuver through shit while you stuck in one place What the fuck is an obstacle? I went up from a maze Frankie Beverly, heavenly, everybody just give me the praise Bow down to the wave lord, send them presi and save yours For my gat imma save yall, but that's back in the day I'm a black panther activist, had to miss School for the meetings on Saturn and outta this world You are outta your mind, I'm so high in grind mode Jukin' and vibin' thru life, my life is my ice, nice Feel like I married my wife, so I hit it more than twice Immortalized I am more than nice Even way back in the days was known as I got vice Gotta get put on the lights or get put on the pavement Better run for your life Hard times, hard to reminisce But I know my future bright I am the future went back to the future twice Just to save everybody life, with waves nigga Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Too many waves Too many waves Using my government name Stuck in my ways Sometimes I feel like I'm born a mistake But you couldn't relate Cause you can't imitate Copy dat, you're a clone I'm Jango Fett Who wanna get it with the murderous set Kill a motherfucker like a VHS Cause we don't play so I eject Going like a free man no Woodcrest Red light back and infinite access off of my access Thinking no answers that's an exit Wait Nigga that wasn't the exit There was no message Flow like a radical leftist Black as my right and left fist Bitch uh People try to change my mind but Im sorry I decline, got my mind made up, made up hey Even when the world is fine I sit back and I recline and I never change up, change up, hey Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate6</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Denzel Curry Sway In The Morning Freestyle</t>
+          <t>Elevate (Demo)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Everybody wants me to rap Matter fact, everybody wants me to- Poetry, flowetry Everybody say yes Curry is the best, the ichiban Came through, motherfuckin' taliban Blowin' up, pakistan, thinkin' 'bout is armageddon I came through with a lethal weapon like I'm Danny Glover, came through, I am not your lover Motherfucker I will fuck her then I might just use a rubber It's the nigga undercover like I'm brother, like I'm Eddie Griffin, nigga came through with the smithin' Wessin', who the fuck you testin' Blessin' these motherfuckin' niggas like a pastor The master, came through I blast ya Leave you on the wall like plaster Casper, all you niggas ghost Everybody know that Curry kill a nigga's not a hoax I'm a legend, I came through and you know I'm stepping On this block, in these 305 shoes Everybody know that, nigga, get a fucking Blue's Clue 'Cause I'm leaving niggas red The niggas coming through and I'm going off top the head And everybody know I just might just leave 'em dead Put 'em in the grave when I cradle And niggas like to spin it like I don't give a fuck</t>
+          <t>from Snippet -You better choose a side, you gotta choose a side I'm just 'gon let 'em hate You better do what's right or you gonna lose the fight I gotta elevate Look at the mountains, I'm in the -</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>D’Evilz</t>
+          <t>Endtro</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Bunch of spoiled ass rich kids JPEGMAFIA Generation Y, 1989 Still afraid 'Fraid to leave his stoop, 'fraid to leave his stoop 'Fraid to leave his stoop, 'fraid to leave his stoop I'm a stoop kid, afraid to leave his stoop 'Fraid to leave his stoop Oh yeah Uh Young nigga on a stoop with a shotgun Baby, I'm a slave to the profit Lost kid and my girlfriend a boss bitch Sling around, throw the page in the garbage Baby said she only beg for the paper Lick the bowl, bring the pot to the neighbor Like, how you want, how you want, how you want it I got that fucking flavor Niggas on the roof with a shotgun Fuck the devil Black man's choice, spit rhymes or peddle Seen both sides on the pot and kettle Oh my gosh, I'm the seed of the Based God Fuck love and peace, I spit hate crimes No deal for me, fuck a co-sign 'Cause if I want mine, nigga, I'ma take mine Niggas on the roof with a shotgun Fuck that bitch Stoop kid afraid of the change and shit Stuck in my ways, I'm a young, old kid 25 in my right mind Voice of the youth It's a sign of the times Generation Y, 1989 Niggas on the roof with a shotgun 'Fraid to leave his stoop, 'fraid to leave his stoop 'Fraid to leave his stoop, 'fraid to leave his stoop I'm a stoop kid, afraid to leave his stoop 'Fraid to leave his stoop Oh yeah Niggas on the roof with a shotgun Niggas on the roof-2</t>
+          <t>Nobody knows We just follow the flow And we go Nobody knows, oo-ooh Introducin' the motherfuckin' end, do anything to win I see the greed inside the hearts of men Christian Dior can't cover sins of a sinner Either feed your fuckin' dogs 'cause they gon' eat you for dinner What? I put on even tried to sabotage me You want the light so I let the dark camouflage me Bein' conceited, they think I'm easily defeated Then my fire start to burn lik the rebirth of a phoenix Yah King of the hill, this mic' judge my rap skill Combination straight out of Catskill, I'm that ill Been debatin' on whether I want to rap still Feelin' guilty, most of my stuck in the trap still New chapter, old vessel, new swagger Cut deep, my tongue sharp, that's two daggers Earn plaques, there's two gold and one platinum Money under the table, but when we talk masters Nobody knows Nobody knows We just follow the flow And we go Nobody knows, oo-ooh Introducin' the motherfuckin' end, I'm here to melt your lens Once you see your future, you will sin All you bark, but don't bite, shoot, but can't fight Stick you with the left to get right Carbon fiber knives cut across the windpipe 'Cause that's the smell of death and it's in the air tonight, uh I get Vicious like I'm Spike Spiegel when I cite evil I hate fuck and crooked white people Everybody seems stressed, better soul somethin' Everybody look at me like I owe somethin' Earned everything that I come to have If you touch one of mine, I'll beat your ass like you stole somethin' Los Angeles hills, talk, scream and kill cops Fuck opps, I'ma do it all 'til my heart stops Writin' to get this paper, then let the pen drop Who let these fuck boys back in hip-hop? Nobody knows We just follow the flow And we go Nobody knows, oo-ooh</t>
         </is>
       </c>
     </row>
@@ -5571,12 +5571,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Did I Hurt U</t>
+          <t>Endtro (Demo)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLACK. ELLIOT Voiceover Hello friend. Hello friend? Thats lame. Maybe I should give you a name? But thats a slippery slope. Youre only in my head. We have to remember that. Shit. Its actually happened. Im talking to an imaginary person. Within the black of frame, silhouettes begin forming. ELLIOT V.O. What I'm about to tell you is top-secret. We pull out to reveal were in an office looking out of a very tall Manhattan skyscraper. Shadowy figures sit and stand around a conference table, arguing. ELLIOT V.O. A conspiracy bigger than all of us. There's a powerful group of people out there who are secretly running the world. ELLIOT V.O. I'm talking about the guys that no one knows about. The guys that are invisible. The top 1 of the top 1. The guys that play God without permission. CUT TO BLACK. ELLIOT V.O. And now I think theyre following me. INT. NYC SUBWAY MOVING - MORNING We finally meet ELLIOT late 20s. His hoodie throws a sliced shadow over his face. He sneaks looks at a couple of mysterious MEN DRESSED IN BLACK, one on either side of the train. One reads the NY Post. The other looks straight ahead, suspiciously so. ELLIOT V.O. This is about last night. I should have gone to Angelas birthday party. Instead I went to-- INT. RONS COFFEE FLASHBACK - NIGHT A large coffee shop with a fair amount of patrons. A cheesy sign that reads Ron's Coffee displays on the door. Elliot sits by himself, hoodie on, no coffee. His leg taps nervously. Elliot intently watches as a mild-mannered Indian with a mustache walks into the shop. This is RON 40s-50s. He orders a latte from the front and sits alone. He pulls out his iPad and sips his latte, enjoying the quiet evening to himself. Elliot musters courage with a deep breath and walks over. He sits across from him without saying a word, his leg twitching. RON stares at him. ELLIOT You're Ron. He nervously gestures to the cheesy sign. Confused, Ron glares at him in response. ELLIOT nervous and robotic But your real name is Rohit Mehta. You changed it to Ron when you bought your first Rons Coffee shop six years ago. Now you got 17 of 'em with 8 more coming next quarter. An awkward silence. Ron tilts his head, not sure if he should be flattered or concerned. RON thick Indian accent May I help you with something? ELLIOT I like coming here 'cause your Wi-Fi was fast. I mean, you're one of the few spots that has a fiber connection with gigabit speed. It's good. So good, it scratched that part of my mind, part that doesn't allow good to exist without condition, so I started intercepting all the traffic on your network. That's when I noticed something strange. It's when I decided to hack you. Another awkward silence. Ron leans forward. RON Hack-- ELLIOT I know you run a website - called Plato's Boys. Alarms suddenly go off in Rons world. RON Pardon me? ELLIOT You're using Tor networking to keep the servers anonymous. You made it really hard for anyone to see it, but I saw it. Even though Elliot came off a little amateurish at first, his confidence builds as he continues to talk. ELLIOT The onion routing protocol, it's not as anonymous as you think it is. Whoever's in control of the exit nodes is also in control of the traffic, which makes me...the one in control. RON I must ask you to kindly leave-- Elliot pulls out a thick folder of files and places it on the table. ELLIOT I own everything. All your emails. All your files. All your pics. Ron flips through a few pages then slaps the folder close. RON angry Get out of here right now, or I'll call the-- ELLIOT Police? You want them to find out about the 100 terabytes of child pornography you serve to your 400,000 users? Ron is stunned silent. Ron looks down, cornered and speechless. Elliot looks genuinely sympathetic. ELLIOT Personally, man, I was hoping it was just gonna be some BDSM stuff. You realize how much simpler that would have been? RON I did not hurt anyone. I never did. That's my personal life. All the blood in Phils face as drained. Emotion begins to fill his face. Elliot looks at him, a mix of pity and guilt. ELLIOT I understand what it's like to be different. I'm very different too. I mean, I don't jerk off to little kids, but I don't know how to talk to people. My dad was the only one I could talk to. But he died. At first, Ron is unsure on how to proceed. But sensing an opportunity, he takes a deep breath and nods sympathetically. RON I'm sorry to hear that. How did he pass, may I ask? ELLIOT Leukemia. He definitely got it from radiation at the company he worked at, though I couldn't prove it. Now he's dead. Company's fine, though. Ron cant help but start crying. Elliot genuinely feels for him. ELLIOT Oh hey. It's okay, Rohit. You don't have to worry anymore. Ron looks up, confused. RON confused then angry I don't understand. Are you blackmailing me? So that's what this is about money. That's all you care about, huh? No. If I pay you now, you'll want more and more. No matter how much I give. You will inform the police anyway. I won't pay you, sir. Remember, you also broke the law. Elliot nods agreeingly. He looks out the windows, as if looking for something. ELLIOT Actually, you're right. Partly. See, I usually do this kind of thing from my computer, but this time I wanted to do it AFK. In person. Trying to work on my social anxiety. But there's always the threat of you fleeing after I call you out. Elliot leans over and begins to zip up his bag, getting ready to stand. ELLIOT You'd tell your sys admin to take your servers down, wipe all the data. Elliot stands, putting his oversized bookbag on. ELLIOT So I made sure to include the current time and and location on my anonymous tip. Ron stands up with Elliot. RON desperate, nervous Wait. Hold on. I'll give you the money. I'll pay you. How much do you want? I'll pay you. Sirens can be heard. Lights swirl outside the windows. ELLIOT That's the part you were wrong about, Rohit. I don't give a shit about money. POLICE race into the shop as Elliot breezes past them, heading out, leaving the chaos to surround the destroyed Phil. Violent jazz slowly BUILDS on the soundtrack. TITLE SEQUENCE INT. NYC SUBWAY MOVING - MORNING Back to present day, Elliot snaps awake. He eyes the two MEN IN BLACK who still sneak looks at him. ELLIOT V.O. Now I'm being followed. The higher ups don't like someone with my powers. In three short minutes, I destroyed a man's business, life, existence. I deleted him. On the far end of the packed train, a dark-haired man YAWNS loudly. He looks like a disheveled Californian whos been forced to relocate. He wears cargo pants and what looks like a gas attendant shirt that reads Computer Repair With A Smile. Below it, a logo reads MR. ROBOT 40s. He looks at Elliot with a stoners smile as he brushes his scraggly beard. Elliot doesnt smile back. Across the crowd of people, the man shouts MR. ROBOT Hey! Hey, you. Hey, kiddo. What's happening? Elliot doesnt answer. Instead, he looks away, pretending he didnt hear him. MR. ROBOT Exciting time in the world right now. Exciting time. Mr. Robot lies on his back, returning to his homeless slumber. EXT. NYC STREETS - LATER Elliot walks through the crowded streets of New York, carefully avoiding the touch of other humans. He carries a huge bookbag on his back. INT. ALLSAFE OFFICES - LATER He walks into the modest offices of AllSafe Cybersecurity, as announced by the boring, corporate logo. ELLIOT V.O. But I'm only a vigilante hacker by night. By day, just a regular cyber security engineer, employee number ER28-0652. INT. ALLSAFE OFFICES - GIDEONS OFFICE - CONTINUOUS The AllSafe boss, GIDEON GODDARD 40s, a bearded metrosexual with adult braces stands while ANGELA 20s, a blonde girl-nextdoor trapped in the prim and proper veneer of a private school upbringing, looks at him sternly. Gideon shouts through his glass doors GIDEON Elliot, in here! Angela ...All over the price. Yeah, I can totally, I can totally handle it. GIDEON Look-- Elliot nervously walks in, curiously looking at Angela who pretends hes not even there. Gideon passes a file to him. GIDEON They were hacked again. Last night. ANGELA Gideon-- ELLIOT V.O. That's my childhood friend Angela. She can be a bit high strung sometimes, but trust me she's one of the good ones. Elliot looks over the notes. ELLIOT What am I looking at? Is this the log file? This was a RUDY attack. Concerned, Gideon nods. Elliot shakes his head, impressed more than he usually is. ELLIOT This is awesome. ANGELA Gideon, will you please answer me? GIDEON to ELLIOT Awesome? You think this is awesome? This is killing us, Elliot. ANGELA Gideon, I'm not leaving-- GIDEON Angela! Let's just see how this meeting goes today. Their networks are getting attacked every week. Who knows if they'll still even be a client. ELLIOT Theyre coming in? Gideons look confirms it. He looks at Elliots hoodie. GIDEON Hey, what did we say about the dress code? Elliot sheds his hoodie, revealing an oversized, button-downed dress shirt underneath. He hates it. GIDEON All right, now, look over those logs. And be ready this afternoon in case they have any questions. Okay? ANGELA Okay INT. ALLSAFE OFFICES - HALLWAYS Elliot and Angela walk out. Elliot smells something on her. ELLIOT Start smoking again? ANGELA ignores his question Did you not get my texts last night? I sent you exactly 13 of them. ELLIOT Yeah, I'm sorry. I couldn't make it. ANGELA looks at him You promised me that you were gonna try this time. FLASHBACK Last night, Elliot nervously walks up to the entrance of a packed bar. Through the big windows outside he sees Angela, laughing, smiling, drinking with friends. Elliots hand goes for the door, but his hand trembles-- ANGELA Stop thinking about something else when I'm talking to you. I hate when you do that. ELLIOT Sorry, I was thinking about work. ANGELA Maybe that's why Gideon loves you so much. He thanks me all the time for bringing you in. But for some reason, I think you secretly hate it here. ELLIOT V.O. She was right. I liked most of the people, but our business--a cyber security firm that protects corporations--I can't think of anything I hate more. ELLIOT No, I love it here. Elliot and Angela both chuckle. ANGELA I'm sorry. I'm just in a bad mood. I'm late on my last two student loan payments, and I can't get Gideon to give me a raise. A slick, good-looking white man named OLLIE 20s walks up and kisses Angela. OLLIE to Angela Hey. ANGELA to Ollie Hi. OLLIE to Elliot Yo, buddy. Missed you last night. Where were you? ELLIOT Gotta go, big meeting today. Elliot doesnt wait for a response, he disappears into the maze of cubicles quickly. OLLIE to Angela Did you find out what happened? ANGELA Yeah. He said he was working. OLLIE not buying it Oh, come on. You gotta talk to him. ANGELA rolls her eyes Were gonna be late for the staff meeting. OLLIE He can't stand me. And you know why. Angela, I can't have that kind of negativity in my life-- Angela glares at him. Ollie points. OLLIE That's exactly what I'm talking about. EXT. NEW YORK STREETS - DAY Elliot shiftlessly walks through the streets once again, big bookbag in tow. His eyes wander around in paranoia. He continues to eat his McDonalds fries from the bag. INT. PSYCHOLOGISTS OFFICE - DAY He sits across from his psychologist, KRISTA 30s-40s, a slender African-American woman who tries too hard at youth with a short dress. Theyre looking at each other in silence. KRISTA What are you thinking about? ELLIOT Nothing. KRISTA Wanna know what Im thinking about? The first time you came to me. ELLIOT V.O. I didn't exactly come to Krista. I was forced here. But I do like her. Hacking her was simple. Her password Dylan 2791. Favorite artist and the year in which she was born, backwards. Though she's a psychologist, she's really bad at reading people. But I'm good at reading people. My secret I look for the worst in them. INSERT Kristas Gmail and Facebook. We land on her eHarmony profile. ELLIOT V.O I know she went through a divorce four years ago. I know she was devastated by it and has been dating losers on eHarmony ever since. INSERT A profile pic of a salt and pepper handsome gent. Hes a nice fellow with a middle-aged face and a welcoming smile. His name is listed as Michael Hansen. ELLIOT V.O. Her most recent foray Michael Hansen. I searched for him online, but nothing came up. No LinkedIn, no Facebook, nothing. Something about him bugs me, scratching that part of my mind again. But I'll hack him soon enough. I always do. Back to the scene. Elliot eyes Krista. KRISTA I know you're not yelling like before, which is good. But I can tell you're still holding on to it. And we need to work on your anger issues, Elliot. You're angry at everyone, at society-- ELLIOT V.O. Fuck society. KRISTA I know you have a lot to be angry about, but keeping it to yourself and staying quiet like you're doing it's not going to help you. There's pain underneath. That's where our work needs to go. Elliot says nothing. Krista leans forward. KRISTA What is it about society that disappoints you so much? Elliot holds back as his eyes wander to the Apple insignia glowing off of Kristas laptop on her desk. ELLIOT V.O. Oh, I don't know. Is it that we collectively thought Steve Jobs was a great man, even when we knew he made billions off the backs of children? His eyes shift to the glass framed Tour De France poster hanging on the wall featuring Lance Armstrong. ELLIOT V.O. Or maybe its that it feels like all our heroes are counterfeit, the world itself just one big hoax. His eyes refocus on the reflection of the glass frame, seeing that Kristas browser from her laptop is on Twitter. ELLIOT V.O. Spamming each other with our running commentary of bullshit masquerading as insight, our social media faking as intimacy. Krista still eyes Elliot, waiting for him to respond. He returns his stare back at her, noticing the I voted sticker on her blouse. ELLIOT V.O. Or is it that we voted for this? Not with our rigged elections-- His eyes now notice the expensive accessories of Krista. Her earrings, watch, shoes, her Hunger Games book in her bag. ELLIOT V.O. But with our things, our property, our money. I'm not saying anything new. We all know why we do this, not because Hunger Games books makes us happy-- Krista crosses her legs, still waiting on Elliot to respond. Thats when Elliot spots a prescription bottle next to Kristas purse on her desk chair. ELLIOT V.O. But because we wanna be sedated. Because its painful not to pretend, because were cowards. Fuck society. KRISTA echoing Elliot. Youre not saying anything, whats wrong? He finally responds to Krista. ELLIOT Nothing. Krista collects herself, frustrated shes getting nowhere. ELLIOT Dont be frustrated. KRISTA confused Why shouldnt I be? ELLIOT Youre different than most. You at least try. You at least understand. KRISTA intrigued Understand what? ELLIOT What it's like to feel alone. You understand the pain. You want to protect people from it. You want to protect me from it. I respect that about you. Long silence. KRISTA Why do you think I know what it's like to feel alone? ELLIOT V.O. Shit! From her emails! KRISTA Elliot? ELLIOT I dont know. Krista lets it go. KRISTA Let's talk about last night. Did you go to Angela's birthday party? FLASHBACK Last night, we pick up where we left off. Elliots hand trembles as he reaches for the door to the bar. He sweats as he closes his eyes and tries to force himself to go in, but cant. The door opens, three people file out. Elliot quickly moves out of the way, avoiding physical contact at all costs. He takes a breath and looks through the windows again. Angela is happy, surrounded by friends, enjoying her birthday. Ollie walks up to her. They kiss. This is enough for Elliot to wrap his head in his hoodie and walk away-- Back to the scene. ELLIOT Yeah. It was nice. KRISTA Did you try to talk to anyone? ELLIOT Sure. I got a girls number. KRISTA impressed You did? ELLIOT chuckles Shes cute. She likes the Hunger Games. KRISTA back to being suspicious You're hiding again, Elliot. When you hide, your delusions come back. It's a slippery slope. Let's talk about the men in black you've been seeing. Are they still there? ELLIOT No, I told you they're gone. The meds you gave me are working. INT. ALLSAFE OFFICES - CUBICLE - LATER Elliot types away at his computer. He glances up and notices Ollie approaching. OLLIE Yo man. Do you wanna-- Elliot reluctantly takes off his headphones. OLLIE Uh, do you wanna do lunch today? ELLIOT Uh yeah, I got other plans-- OLLIE Other plans. Right. Thats what you said the last three times I asked you. Ollie looks around. OLLIE Look, bud, you and Angela have been close for a long time, and that's even more reason why I want us to be on good terms. I - I just I feel like things have been awkward between us. Don't you? ELLIOT Im okay with it being awkward between us. OLLIE awkwardly laughs Um, yeah. I - I - Im not okay with that. OLLIE more sympathetic tone Um look, man, I love Angela, and I want us to to get along for her sake. I mean, that's what I'm that's what I'm here for. I just, I - I don't normally do stuff As Ollie drones on again, Elliots stream of consciousness interrupts ELLIOT V.O. Am I that crazy not to like this guy? Among some of his Facebook likes are-- INSERT Ollies Facebook profile and likes. ELLIOT V.O. George W. Bushs Decision Points, Transformers 2 Revenge of the Fallen, and the music of Josh Groban. Must I really justify myself any further? Back to scene. ELLIOT V.O. His was the easiest to hack. Password was 123456Seven. INSERT Ollies Gmail account. ELLIOT V.O. I witnessed his first I love you with Angela over Gchat. INSERT Profile pic of a trashy woman named Stella B. ELLIOT V.O. Then I witnessed the first of many infidelities with Stella B. Back to the scene. Ollies still in the midst of his phony plea. OLLIE ...I've never done anything like this before. ELLIOT V.O. I've thought about telling Angela, but she has shitty taste in men, and I'm not quite ready to see what comes after this just yet. OLLIE ...You like music. I like music. Maroon 5. ELLIOT V.O. Plus I can manage Ollie easier than the others. For now, anyway. OLLIE And that's all I mean. I just want you to know that. I like you, bro, and I want you to like me too. ELLIOT I understand. Ill try harder. OLLIE That's cool, man. Hey, whenever you're ready, I'd love to just...chill-- He puts his arm on Elliots shoulder-- but Elliot, not comfortable with the physical contact, shifts his shoulder away. OLLIE Oh, forgot about your no touching thing. ELLIOT V.O. Truth is, I shouldn't hate Ollie he's not that bad a guy. He's too dumb to be bad. In fact, when I think about the really bad people-- As if sensing it, Elliot peeks out of his cubicle. He sees a handful of business SUITS at the front. The SUITS head towards Gideons office. ELLIOT V.O. E Corp, the largest conglomerate in the world. They're so big, they're literally everywhere. E Corps logo, which looks like the Enron E logo, is shown on all the products inside of the office desktops, smartphones, laptops. ELLIOT V.O. A perfect monster of modern society. The E might as well stand for Evil. An advertisement plays on a television and displays some of E Corps ventures. Agriculture, electronics, medicine, construction. ELLIOT V.O. In fact, after a thorough, intensive self-reprogramming, that's all my mind hears, sees, or reads when they pop up in my world. INSERT E Corp advertisement. WOMAN That's what we have to offer. Together, we can change the world with E Corp-- INSERT Replace E Corp logo with Evil Corp logo ELLIOT V.O. Krista would have a shit fit if she knew I did that. But thats what they are...a conglomerate of evil. And now I have to help them. Gideon and the team of SUITS walk up next to Elliots cubicle. GIDEON There are six on-site engineers on your account. Plus a few off-site. Elliot sneaks a peek at the head suit, Steve Ballmer with a full mane of hair. ELLIOT V.O. There he is, Terry Colby, the CTO. TERRY COLBY looks around with a doofus smile. ELLIOT V.O. Even though he's the head technology guy at one of the biggest companies in the world, he owns a Blackberry. Elliots eyes shift to Terrys Blackberry on his belt. Terry looks at Elliots desktop with confusion. ELLIOT V.O. But also looks like he doesn't see a terminal very often. He's not a techie. He's a moron. The suits, led by Gideon, keep on walking through the office. ELLIOT V.O. An arrogant moron. The worst kind. Elliot focuses on his terminal, but a person from the pack walks up to him. Hes good-looking, sharply dressed and has a rock star smile. His name is TYRELL WELLICK 30s. He reaches his hand out to Elliot. Elliot painfully takes it. TYRELL thick Swedish accent Oh, hi. Tyrell Wellick. I'm Senior Vice President, Technology. ELLIOT Im...Elliot. Just a tech. TYRELL Don't be so humble. You know, I started out exactly where you are, and to be honest, you know, my heart is still there. So I see you're running Gnome. You know, I'm actually on KDE myself. I know this desktop environment is supposed to be better but you know what they say. Old habits they die hard. ELLIOT V.O. An executive running Linux with-- TYRELL Yeah, I know what you're thinking. I'm an executive. I mean why am I even running Linux? Again old habits. It's gonna be fun working with you. I should join the rest of the group. Bonsoir, Elliot. He takes off with an earnest smile. Elliot sits back down in his cubicle with a resigned sigh. He takes in his small three-walled cube universe amidst the thirty other identical cubes. ELLIOT V.O. Sometimes I dream of saving the world. His eyes look over at Lloyd who is busy paying a Verizon bill online. ELLIOTV.O. Saving everyone from the invisible hand, one that brands us with an employee badge. Elliot eyes his fellow employees sympathetically, all looking like enslaved serfs with their company badges hanging off them. EXT. NYC STREETS - NIGHT Elliot walks through the streets alone as GROUPS OF FRIENDS laugh while walking in and out of bars. Credit cards are swiped, dollar-tips are thrown, a homeless man begs for change. ELLIOT V.O. The one that forces us to work for them. The one that controls us every day without us knowing it. But I cant stop it. Im not that special. INT. ELLIOTS LOFT - NIGHT Elliot enters his messy small loft. ELLIOT V.O. I'm just anonymous. I'm just alone. Elliot makes his way over to a fishbowl, swimming inside is a black fish named QWERTY. ELLIOT V.O. If it weren't for Qwerty, I'd be completely empty. MOMENTS LATER ELLIOT V.O. I hate when I can't hold in my loneliness. This crying has been happening too often, every other week now. What do normal people do when they get this sad? They reach out to friends or family, I think. INT. ELLIOTS HOUSE FLASHBACK - DAY A YOUNG ELLIOT 8 sits at the kitchen table. His MOTHER 30s, pretty but cold. Buttoned up, a short haircut, and expressionless face. She methodically smokes a cigarette. Young Elliot looks like hes been scolded. His mother grabs his arms and slams them down on the table. ELLIOT V.O. Thats not an option. INT. ELLIOTS LOFT - KITCHEN - MOMENTS LATER Elliot crushes up morphine pills. He puts the crushed powder on a small glass table and cuts it with a credit card. ELLIOT V.O. I do morphine. INT. ELLIOTS LOFT - MOMENTS LATER Elliot snorts up a line of morphine. He lies back down on the floor as it takes effect. He sprawls out on his couch, staring at Qwerty as it takes effect. ELLIOT V.O. The key to doing morphine without turning into a junkie is to limit yourself to 30 milligrams a day. Anything more just builds up your tolerance. I check every pill I get for purity. I have 8 milligram Suboxone for maintenance in case I go through withdrawals-- Elliots eyes shift from Qwerty to an empty prescription bottle. ELLIOT V.O. Shit! Im out again. He reaches out for it in disbelief. MOMENTS LATER SHAYLA 20s, a hipster girl, steps into the room. She slides an orange bottle full of pills. ELLIOT How much? SHAYLA On the house. ELLIOT No Shayla, not doing that. Okay? This is just a regular drug deal, like it always is. Elliot offers her cash. Shayla resigns herself and takes it. SHAYLA So what are you you to tonight? 'Cause I tried to post something on your Facebook and couldn't find you. ELLIOT Im not on Facebook. SHAYLA What? Why not? ELLIOT Cause I hate Facebook. SHAYLA offended Thats crazy. Elliot shoots her a look, I guess Im crazy. Disappointed, Shayla playfully pulls out two white pills from her pocket. SHAYLA Well you want to do these together then? Pure Molly. The last line piques Elliots interest, though his look is already regretting the decision. INT. ELLIOTS LOFT - LATER Elliot lies naked in his bed, smoking a joint, while a nude Shayla lies next to him, fast asleep. He wears a dumb look. ELLIOT V.O. Don't ever make decisions when you're on morphine. His cell beeps. He looks at it. ELLIOT V.O. Instagram check-in for Krista at Pierre Loti. Okay, Michael Hansen. Time to find out who you really are. EXT. PIERRE LOTI - NIGHT Elliot, in a hoodie, walks by Pierre Loti across the street. He doesnt walk towards it, instead he stays put, lurking around the corner. Elliot looks around the city block hes standing on. In the distance, a late night diner shows two MEN IN BLACK having coffee. Elliot hides in the shadows, watching them. EXT. PIERRE LOTI - AWHILE LATER Elliots spies Michael from across the street as he watches him kiss Krista goodbye. They part ways. Michael hails a cab. Elliot snaps a picture of the number on top of Michaels cab as it takes off. He quickly pulls out his cell phone and dials. ELLIOT into the phone Uh, hi I just left my keys in one of your cabs. 56Y2. Sure. Suddenly, the MR. ROBOT bum from the subway walks up to their table, begging for money. Elliot shoots a confused look-- but gets interrupted when the operator returns. ELLIOT 306 Hawthorne. Thank you. Thank you. He hangs up and returns his gaze back to the two MEN IN BLACK. Mr. Robot is nowhere to be seen. He lets it go for now and returns to the task at hand. EXT. 306 HAWTHORNE AVENUE - LATER Elliot walks up and sees the cab, waiting by the curb. On the stoop in front of 306 Hawthorne, Michael begrudgingly walks his dog. Its as if Michael has completely dropped his cheery, nice guy act. MICHAEL Come on, asshole, piss already! Come on! He jerks the dog by his leash, causing him to YELP. Elliot charges from across the street. The cowed dog looks up sheepishly at Michael as it nervously paces around the small patch of grass. MICHAEL Come on! Will you will you go? - Come on, go, go! He yanks the dog into the air by the leash, when Elliot finally gets there-- ELLIOT Hey! MICHAEL Go, will ya? The dog yelps again. ELLIOT Hey! Michael stops and turns. Elliot looks at the dog with sympathy, but then back at Michael. ELLIOT May I borrow your phone? Mine's dead. I need to call my mom. Michael reluctantly nods and pulls out his cell. He slides it unlocked with his passcode and hands it to him. ELLIOT Thank you. Elliot takes it, immediately memorizing all the apps on his homescreen, specifically the E Corp app. He dials his own number and calls. From within Elliots back pocket, we see his phone light up and vibrate. Elliot gets his own voicemail. He hangs up, quickly deletes his call log and looks back at Michael. ELLIOT No answer. Thanks anyway. Michael takes his phone back with a shrug. EXT. NYC SUBWAY - LATER Elliot walks out of the subway station, smoking a joint. His phone immediately vibrates. He looks at it with a question, then answers. ELLIOT Angela, is everything okay? INTERCUT WITH INT. ALLSAFE OFFICES - CUBICLE Angela stands apart from Lloyd, who is desperately trying to tackle a tech issue on his desktop. ANGELA into the phone, discreet I need you to come to AllSafe. ELLIOT You're there? It's three in the morning. ANGELA They attacked Evil Corp servers again, but it's bad this time. It's a DDoS attack. ELLIOT Did you call Lloyd? He's on call. ANGELA Yeah, he's here. ELLIOT Is he talking to their tech department? ANGELA He's online with them, but so far nothing. I don't think that Lloyd can handle this. Look, Gideon just put me on this account. I can't screw up in my first week. I need you. Please. Elliot looks back into the subway. He tosses his joint. INT. ALLSAFE OFFICES - NIGHT Elliot races in. Angela walks up to him, panicking. ANGELA Finally! ELLIOT Calm down, its only been an hour. ANGELA Yeah, well, an hour in Evil Corp time is like 13 million in revenue, approximately. Actually, I calculated that. That's exactly how much they lost. ELLIOT Dont worry, I got you. They approach Lloyd who is sweating bullets in his cubicle. ELLIOT Lloyd, whats up? No response, Lloyd is locked in on his terminal. LLOYD Elliot. This is bad. Worst DDoS attack I've ever seen. ELLIOT Did you reconfigure the DNS? LLOYD Yes! ELLIOT Stop the services. LLOYD I already stopped the services, tries to reboot the servers but they're not coming back up. Dude, someone is straight up fingerblasting their entire network right now. Elliot types furiously on his desktop, navigating Evil Corps servers. Angela checks her phone. ANGELA They just started reporting on the outage. ELLIOT V.O. Shit. This is worse than I thought. Theyre in the network. Elliot types away as Gideon walks in. Even though hes angry, he keeps his cool. He sees Elliot, then faces Angela. GIDEON What's the status update? See here. I thought we set up security protocols - so that this doesn't happen. Wheres the attack coming from? ELLIOT Everywhere, obviously. - The USA, Finland, Thailand, Kuwait-- GIDEON Start restarting the services, load sharing, redirect the traffic--and call Prolexic for help. ELLIOT Wait. GIDEON What? ELLIOT I don't think this is just a DDoS attack. I think they got a rootkit sitting inside the servers. ANGELA Whats a rootkit? LLOYD It's like a crazy serial rapist with a very big dick. ANGELA Jesus, Lloyd! LLOYD Sorry. It's malicious code that completely takes over their system. It can delete system files and stop programs. Viruses, worms-- ANGELA How do we stop it? LLOYD That's the thing. It's fundamentally invisible you can't stop it. All of their servers are timing out. None of them are coming back up. Elliot moves to Lloyds terminal to check something. ELLIOT That's because every time we restart the server the virus replicates itself during boot up and crashes the host. LLOYD How are we supposed to bring up the network if we can't restart the servers? ELLIOT We can't. Which is what they wanted. By defending ourselves, we ended up spreading the virus everywhere. Everyone exchanges tense looks. Gideon tries to contain himself as he already knows what follows. ELLIOT Only thing we can do is we've gotta take the whole system offline, wipe the infected servers clean, then bring them back up. GIDEON Youre coming with me. ELLIOT whispers Yeah. GIDEON Lloyd. Tell everybody to start taking everything offline. LLOYD Got it. GIDEON on the phone Uh, the server farm in Dulles. We're gonna need the jet. EXT. PRIVATE JET - NIGHT Gideon and Elliot speed walk towards a slick black sedan already waiting for them. INT. SERVER FARM - NIGHT Elliot speed-walks into the loud WHIRRING of the large arrays of servers. GIDEON They're booting the network back up. Now, you're downloading the logs, right because-- ELLIOT Stop. Tell him to stop. GIDEON What? ELLIOT Don't start the boot sequence. You guys missed one. There's an infected server up and running. Elliot moves to the server display and points out cs 30. ELLIOT What's the ETA before it hits this server? ElliotThe backup server up and running? A spectating TECH nervously stares at the display and then Elliot before shrugging. Elliot returns to the console and starts to furiously type. ELLIOT The backup server up and running? TECH It's ready, but it's not configured for auto switch. Elliot races towards the backup server, cs51. He finds it terminals in. ELLIOT We need to redirect the traffic, need to switch DNS. The displays shows that the network is slowly coming back online, approaching the still-infected server, cs30. GIDEON This is impossible. ELLIOT You got this, you got this, you got this. As Elliot continues to type, nearly all the servers but cs30 and cs51 have come back online. He manages to switch the DNS to cs51 at the last second. ELLIOT We still up? Gideon holds his breath and watches as the network boots up the backup server and then the remaining ones before letting it all out. GIDEON Were okay. ELLIOT Yeah. Gideon squats down to Elliot with a huge grin on his face. He proudly squeezes Elliots shoulder. Elliot shies away from the contact. ELLIOT I'm gonna take a look at </t>
+          <t>Nobody knows They just follow the flow Let it go Nobody knows Ah-ah-ah-ah-ah Introducin' the motherfuckin' end, do anything to win I see the greed inside the hearts of men Christian Dior can't cover sins of a sinner Either feed your fuckin' dogs 'cause they gon' eat you for dinner Niggas I put on even tried to sabotage me You want the light so I let the dark camouflage me Bein' conceited, they think I'm easily defeated Then my fire start to burn like the rebirth of a phoenix King of the hill, this mic' judge my rap skill Combination straight out of Catskill, I'm that ill Been debatin' on whether I want to rap still Feelin' guilty, most of my niggas stuck in the trap still New chapter, old vessel, new swagger Cut deep, my tongue sharp, that's two daggers Earn plaques, there's two gold and one platinum Money under the table, but when we talk masters Nobody knows They just follow the flow Let it go Nobody knows Ah-ah-ah-ah-ah Introducin' the motherfuckin' end, I'm here to melt your lens Once you see your future, you will sin All you niggas bark, but don't bite, shoot, but can't fight Stick you with the left to get right Carbon fiber knives cut across the windpipe 'Cause that's the smell of death and it's in the air tonight, uh I get Vicious like I'm Spike Spiegel when I cite evil I hate fuck niggas and crooked white people Everybody seems stressed, better soul somethin' Everybody look at me like I owe somethin' Earned everything that I come to have If you touch one of mine, I'll beat your ass like you stole somethin' Los Angeles hills, talk, scream and kill cops Fuck opps, I'ma do it all 'til my heart stops Writin' to get this paper, then let the pen drop Who let these fuck boys back in hip-hop? Nobody knows They just follow the flow Let it go Nobody knows Ah-ah-ah-ah-ah</t>
         </is>
       </c>
     </row>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Didn’t Cha Know (Live At Electric Lady)</t>
+          <t>Endtroduction (Live At Electric Lady)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>And I'm One, two, three, and Ooh, oh-oh-ooh Oh-oh-ooh, oh-oh-ooh Ooh, oh-oh-ooh Oh-oh-ooh, oh-oh-ooh Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Didn't ya know? Didn't ya know? Tried to move but I lost my way Didn't ya know? Didn't ya know? Stopped to watch my emotions sway Didn't ya know? Didn't ya know? Knew the toll but I would not pay Didn't ya know? Didn't ya know? That you never know where the cards may lay Time to save the world Where in the world is all the time? So many things I didnt know So many times I've changed my mind Guess I was born to mak mistakes But I ain't scared to take th weight So if I stumble off the path I know my heart will guide me back Yeah Ooh, hey I'm trying to decide Which way to go Think I made a wrong turn back there somewhere Uh Ooh, hey, ooh I'm trying to decide, uh Which way to go Think I made a wrong turn back there somewhere Didn't ya know? Didn't ya know? Tried to run but I lost my way Didn't ya know? Didn't ya know? Stopped to watch my emotions sway Didn't ya know? Didn't ya know? Knew the toll but I would not pay Didn't ya know? Didn't ya know? I said you never know where the cards may lay Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day Love is life, and life is free Take a ride of life with me Free your mind and find your way There will be a brighter day</t>
+          <t>You want me to start it off or you got it? You got it Make it funky for me Okay, okay, okay, okay Introducin' the motherfuckin' end, do anything to win I see the greed inside the hearts of men Christian Dior can't cover sins of a sinner Either feed your fuckin' dogs 'cause they gon' eat you for dinner Niggas I put on even tried to sabotage me You want the light so I let the dark camouflage me Bein' conceited, they think I'm easily defeated Then my fire start to burn like the rebirth of a phoenix King of the hill, this mic' judge my rap skill Combination straight out of Catskill, I'm that ill Been debatin' on whether I want to rap still Feelin' guilty, most of my niggas stuck in the trap still New chapter, old vessel, new swagger Cut deep, my tongue sharp, that's two daggers Earn plaques, there's two gold and one platinum Money under the table, but when we talk masters Nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Introducin' the motherfuckin' end, I'm here to melt your lens Once you see your future, you will sin All you niggas bark, but don't bite, shoot, but can't fight Stick you with the left to get right Carbon fiber knives cut across the windpipe 'Cause that's the smell of death and it's in the air tonight, uh I get Vicious like I'm Spike Spiegel when I cite evil I hate fuck niggas and crooked white people Everybody seems stressed, better soul somethin' Everybody look at me like I owe somethin' Earned everything that I come to have If you touch one of mine, I'll beat your ass like you stole somethin' Los Angeles hills, talk, scream and kill cops Fuck opps, I'ma do it all 'til my heart stops Writin' to get this paper, then let the pen drop Who let these fuck boys back in hip-hop? Nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Uh-uh Nobody knows, nobody knows, nobody knows, nobody knows Introducin' the motherfuckin' end, end, end, end, end, end Introducin' the motherfuckin' end, end, end, end, end, end Introducin' the motherfuckin' end, end, end, end, end, end Introducin' the motherfuckin' end, end, end, end, end, end Introducin' Introducin' Yeah, yeah, yeah Sike Get funky with it</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DIE*</t>
+          <t>Evil Twin [Chopped &amp; Screwed Mix]</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>from Snippet I don't give a damn about your clique, so die I don't give a damn about your hits, so die I don't give a damn about your bitch, so die You say that you can't live with my shit, so die Die, die, hoe, die Die, hoe, die Die, hoe, die Die, hoe, die Wait a minute, run that shit back Die, die, hoe, die Die, hoe, die Die, hoe, die, yeah, yeah Yeah I don't give a damn about your clique, so die I don't give a damn about your hits, so die I don't giv a damn about your bitch, so die You say that you can't live with my shit, so die Di, die, hoe, die Die, hoe, die Die, hoe, die Die, hoe, die Wait a minute, run that shit back Die, die, hoe, die Die, hoe, die Die, hoe, die, yeah, yeah Yeah</t>
+          <t>Uh, uh Uh, uh Uh, uh Uh ZXLTRXN and ZillaKami, bitch, we back on again 'Gain Chilli-chillin' with my dawg, that be my evil twin Twin A nigga-nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on... I'm just chillin' with my dawg, that be my evil... They'll never stand tall, they'll never be... Back in Hell, with the dogs singing war... Drownin'-drownin' in the gases from a war, scared to admit we Drownin'-drownin' with a president who really should of took a... I-I-I frown at society, hope atom bombs just take us... I frown-I frown at society, hope atom take us-take us-us, us My access to oblivion, I kill reptilian I power up Nathan Fillion, Milli-Fillion I'm drillin' this building a cult, killing my enemis as a result You a bitch, your mom a bitch, your mom's a hoe, and I'm killing you all ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that b my evil twin Twin A nigga-nigga got is fam 'cause I don't got a friend Friend Silence-silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin Stand-stand tall, they'll be-be gone Back in Hell, with the dogs singing war... La-di da, pocket full of cream, call it wars, wars With the sauce, I can make an atheist go, Gosh, gosh Lactose, you ain't makin' bread so now you toast-toast Brag, boast, most people say that I'm an toast-toast Cash rules everything around me, but niggas want the clout You say-you say you with the shits, still a nigga air out-out now Eren Yeager out and hit him with the click-clack-bow Nigga, you's a bitch, your white tee is a night gown ZXLTRXN and ZillaKami, bitch, we back on... I'm just chillin' with my dawg, that be my evil twin Twin A nigga-nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on-back on I'm just chillin' with my dawg, that be twin-twin They'll-they'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs</t>
         </is>
       </c>
     </row>
@@ -5622,12 +5622,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>DIET_ (Instrumental)</t>
+          <t>Evil Twin [O.G. Mix]</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Coffee black, cigarette Start this day like all the rest First thing in the morning that I do Start missing you Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die --- Instrumental --- Coffee black, cigarette Start this day like all the rest First thing in the morning that I do Start missing you Rendezvous in the night A willing woman to hold me tight And in the middle of love's embrace I see your face Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die --- Instrumental Backup singers in Spanish --- Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die Chorus Some broken hearts never mend Some memories never end Some tears will never dry My love for you will never die...</t>
+          <t>Uh, uh Uh, uh Uh, uh Uh ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs Drownin' in the gases from a war, scared to admit we lost Drownin' with a president who really should of took a loss I frown at society, hope atom bombs just take us all I frown at society, hope atom bombs just take us all My access to oblivion, I kill reptilian I power up Nathan Fillion, call me six billion I'm drillin' this building a cult, killing my enmies as a result You a bitch, your mom a bitch, your mom's a hoe, and I'm killing you all ZXLTRXN and ZillaKami, bitch, w back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs La-di da, pocket full of cream, call it Häagen-Dazs With the sauce, I can make an atheist go, Oh my Gosh Lactose, you ain't makin' bread so now you lack toast Brag, boast, most people say that I'm an asshole Cash rules everything around me, but niggas want the clout now You say you with the shits, still a nigga air you out now Eren Yeager out and hit him with the click-clack-bow Nigga, you's a bitch, your white tee is a night gown ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs</t>
         </is>
       </c>
     </row>
@@ -5639,12 +5639,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Dirty South Interlude</t>
+          <t>Evil Twin [Slowed &amp; Reverb Mix]</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>From Miami to Atlanta, we all grippin' grain Just getting that wood and switching lanes All away from down here to up to Texas We gon' keep it dirty south until we be breathless</t>
+          <t>Uh, uh Uh, uh Uh, uh Uh ZXLTRXN and ZillaKami, bitch, we back on again 'Gain Im just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I dont got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs Drownin in the gases from a war, scared to admit we lost Drownin with a president who really should of took a loss I frown at society, hope atom bombs just take us all I frown at society, hope atom bombs just take us all My access to oblivion, I kill reptilian I power up Nathan Fillion, call me six billion I'm drillin this building a cult, killing my enmies as a result You a bitch, your mom a bitch, your mom's a hoe, and I'm killing you all ZXLTRXN and ZillaKami, bitch, w back on again 'Gain Im just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs La-di da, pocket full of cream, call it Häagen-Dazs With the sauce, I can make an atheist go, Oh my Gosh Lactose, you ain't makin' bread so now you lack toast Brag, boast, most people say that I'm an asshole Cash rules everything around me, but niggas want the clout now You say you with the shits, still a nigga air you out now Eren Yeager out and hit him with the click-clack-bow Nigga, you's a bitch, your white tee is a night gown ZXLTRXN and ZillaKami, bitch, we back on again 'Gain I'm just chillin' with my dawg, that be my evil twin Twin All a nigga got is fam 'cause I don't got a friend Friend This ain't Silence of the Lambs, you ain't wearin' my skin Skin ZXLTRXN and ZillaKami, yeah we back on again I'm just chillin' with my dawg, that be my evil twin They'll never stand tall, they'll never be gone Back in Hell, with the dogs singing war songs</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Distrust</t>
+          <t>Extinct (Original Remix)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Careful who you hang around They only want you for the loot Claiming that they love you But they'll have your ass in hot pursuit Never turn your back 'cause When they get the chance they gonna shoot Catch you while you slippin' Puttin' shots inside your Subaru I don't trust soul I'm an outer body experience My ligaments attached To this soulless corpse I been living in I'm riding, watching people plottin' On they only benefit I'm I the only human in truest form? I've been heaven sent It's evident my element Is not meant to be mentioned With these other motherfuckers that ain't Never been through nothing Fraud niggas been tryna get down Revolve niggas for all figures I'm puttin' you rappers back in that box Up for delivery, who can you trust When you chose the ops Probably go off with the cop 'Cause niggas sittin' on the clock I'm paranoid, more power, more problems More thoughts to follow, my partner switchin' But I'm wrong if I tell 'em to swallow hallow's For stabbin' my back, based on betrayal Beggin' for mercy, I've lost in the past Have to prepare for controversy I pour my liquor out so all my dead brothers could sip Police tried to leave me headless with a sleepy hollow tip Catch my drift, if you can't then I will sink your battleship Here's a kiss from the dragon hot as the back of my spliff I separate the hate so I could make the devil wait, ugh Aviator, elevator only elevate, ugh Since I'm out my shell I might as well should catch a case When I'm looking at myself I only see my brother face How the fuck, get my dollars up, bitch I never bluff Fisticuffs, knock your ass out, that's Jigglypuff I don't trust any informant that's forming inside my household Another day, another dollar and another out sole Bitches wanna check, niggas wanna see you sweat Government want you in debt and these crackers want you dead I can't even trust the tiniest voices that's in my head So I only trust my gut instinct that's nuff said nigga Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck Tell the cops I don't give a fuck Run and hide, boy you better duck3</t>
+          <t>Yeah I'm just sayin' that, yeah I just, damn Yeah, yeah I take my licks in the storm, bitch do me raw Yeah, still fuckin' 'til six in the morn' Son, how I flooded out the wrist to reward Damn, they don't make 'em like this anymore Don't try to hold that, you can't control that I bought the 'Rari, the Tesla, then I got the throwback I used to ride it, the Honda that was black as Kodak And I recall it, like a picture, that is, really, that's sick Big screen lyrics, yeah, sixteen nearin', and Zay, 'fore you leave, Can you fuck me in the mirror? Yeah Baby, I got too many bitches not to mention them Hoes, I don't evn know they names but they b feelin' it tough They wanna touch me like under covers and anacondas Before you fuckin' go purchase your Gary Paytons I'm really not everybody, sippin' and talkin' bad as yo' daddy You shouldn't fuck with these niggas, we was the reckless Yeah, I fuck my bitch when I'm bored, rich from the poor Drunk, high, stumblin' off the shits and record Smooth nigga, even when I miss, I'ma score Damn, they don't make 'em like this anymore Zay, I don't agree what you talkin', I ain't no regular Fuck you think they callin' me, Him? I'm a competitor Levelin', young veteran, more lines than editors Shit, why you think we Top Dawgs? Niggas different, uh I been that nigga since Hov was Big Pimpin' Fly nigga, ain't no gravity, damn Say somethin' slick, we on your line like a family plan I used to throw up gang signs out my granny new van Just some young hood niggas with no guidance like Drake and Chris My latest shit, make niggas elevate they pen My new chick always say she ain't no basic bitch Well, tell me why we always argue over basic shit? That's crazy 2020, we can burn one I done took way too many Ls and I ain't earned some No more buyin' bags for bitches that can't afford one No more gettin' brain from bitches that I can't learn from Look, we done went from H to the Izzo To now a bunch of niggas and bitches with all gimmicks Show they ass more than Lizzo, shit That's my baby, haha This shit screwed up Oh, I stayed the same like grenades When I took my pen out, a nigga blew up Look I used to ride through the six with my boys, kick in your door Psychoanalysis, I feel like Sigmund Freud Video vixen, she copped her tits from the store, said Damn, they don't make 'em like this a Bitch, you are doorbell dumb Lookin' from crumbs in the cracks of a couch in a mad house I laugh out loud at shit I'm mad 'bout Cash cow or mad cow if I ever cashed out Backpedals and tackles just turn into the rap route Mac robbin' niggas with MACs after he maxed out Called him again, minimum chance he get back out Scope and a lens, we was kids with bubble wrap Oblivious to the fact the candy lady was a trap house Slidin' through the city, I'm like Sly and the Stones I got the fam and the blicky if you're eyein' me wrong Told the cop, It ain't the fifties, I'll pop this chrome And I will not be wrong, next stop we home Yeah Wait JID, I'm in some pussy, I was knee-deeper than Funkadelics I am legend, that explain all the will that a nigga carry Talkin' real big wheel like Ferris, top that shit from the greatest Newborn babies, that shit newly apparent, REASON I take my licks in the storm, bitch do me raw Yeah, still fuckin' 'til six in the morn' Son, how I flooded out the wrist to reward Damn, they don't make 'em like this Uh, niggas want my old shit, buy my old album And tell your favorite rappers, come see me and peep the outcome I put a X right beside his name like Malcolm And give his head to the nigga that- stole the style from I got a list of niggas to kill, don't ask, How come? Don't ask no names, just pray that you not one I ain't playin' with these niggas but they still is my sons And fuck your top five if I ain't your top one These raps written in blood, I got little for buzz Know how I'm feelin' this bud, I'm the king of my city Not gon' fiddle with love, but ain't nobody to trust if niggas ain't with the fuss I see through the poker face, dawg I'm calling the bluff I shine like a multifaceted gem in the rough I'm passionate with every pen that I touch It's like I wrote this shit in cursive God MC flow, nigga these is Bible verses The feature feet on the clue to hearses Same thing you gifted with is what your beat cursed with Yeah, yeah, uh Who left the bricks on the floor, we too big on the boards Well, smooth nigga off the bench, I'ma score I could hit a million hoes, that's legit, but I'm sure They don't make 'em like my bitch anymore, who let these kids in the door You was 'posed to keep it closed, now they in here throwing stones And break the window to my soul, ain't no remote chance in hell I ever let 'em get control, uh I surf the 'Gram and see the wave you niggas rode, go to the board for the lesson I be transparent with you, just don't be projecting Who taught you to be armed and use your guard as a weapon? Who told you, hit your shell every time you feel threatened? You know that I've been stressed, I smoked a quarter by afternoon I walk with an attitude, I gave you niggas change and got no token of gratitude Like what I gotta do to make you tap in? I might fuck around, start beefin' with my rap friends, fuck you REASON Before we roam, let me go back to the start 'Cause art imitates life and life imitates art Once we start to dive in this knowledge and this wisdom They gon' always wanna box us in like it's cubism Knew about Picasso before I was a snot-nose Before I had a pot to piss in, and for a hot stone Pressure is like walkin' across hot coal I'm cooler than a North Face in Norway, Oslo Everybody on this track is known to slay shit JID gave me a reason to snap on Zay shit Toy with my emotions, I am not one to play with I'm rappin' with these Top Dawgs, to chill with my down bitch That is no lie, I'm a nice guy and a wise guy With a bright mind fresh out of Muay Thai Don't like to beef with niggas 'cause they all pie Only time they really caught a body was in Far Cry Try to bring the Grammy to the crib, that's it Why die to be a legend when I live that shit? You could talk about my music, I don't give two shits because Sooner or later you gon' ride my dick Icarus if I fall off, but Imma soar Like a sprained ankle when landed on the floor If you don't like the song, here's the exit door 'Cause they don't really make 'em like- JetsonMade another one Bitch we've been bored, I wish we could tour Girl you need Christ, not Christian Dior Why you keep trying to take pics with me for? Damn, they don't make 'em like this anymore A white boy broke her heart back in high school Now she told me she ain't takin' white dick anymore Damn, are you sure? Cried when she don't get her way Damn, are you four? Stole her heart, now I'm tryna slide in the getaway The game chose me, baby I didn't get a say I done watched a lot of rappers rise and disintegrate Paid attention to the styles I'm finna demonstrate, this is how you do it mane World's gettin' too insane, turned a check into a chain Tuggin' on a new earrher NuvaRing, we are not the same If you fuckin' with my crew then you got the right brothers like we flew a plane Don't ask me about it, let your boo explain Look Say she don't know REASON, that shit too insane Old school, put my shorty on Biggie like Pootie Tang, do ya' thang Cap in all the raps, that shit don't stop Your shit like Breonna Taylor killers, that shit don't knock Wait Jack, I'm in some pussy, I was knee-deeper than Funkadelics I am legend, that explain all the will that a nigga carry Talkin' real big wheel like Ferris, top that shit from the greatest Newborn babies, that shit newly apparent, REASON I take my licks in the storm, bitch do me raw Yeah, still fuckin' 'til six in the morn' Son, how I flooded out the wrist to reward Damn, they don't make 'em like this anymore</t>
         </is>
       </c>
     </row>
@@ -5673,12 +5673,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Do You Do You Know</t>
+          <t>Eyes of the World</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Mmmhmm They knew I had... They knew I had that heat huh My shit is right by me Hand me that motherfuckin blunt This motherfucka, I gotta dry this bitch first Paranoia! my body with flames, Homie, ya better be ready for war when walkin down the street at night n' Ready with hand on the gauge For niggas that run up or wanna get diesel Run up on me, there is no sequel Motherfucker, the bullet will meet you To bury your body in river for niggas that run up and Stop that! Homie, because we all know where you been shot at This nigga wanna get down? Heck, my niggas wanna get down too! Run up on us and kick up dust Watchin how fast we you a 40 ounce bottle that ganja Lucifer turn on my demons to make me do everything, even if choppin off nostrils I walk in the do' Look for the money, for penny, then hurry and sell You niggas, ya better be ready just because of the smell Nigga be walkin through Hell Head for this murder and keepin the death Put one in ya when I'm bussin my tech, with the tech and get off of the set This ain't the right flow... For niggas that really don't wanna be bussin Step over homie, we feel that we differ, we on a mission, nigga no discussion Do you want to know black magic? Where yo ass can get smashed fo' pickin up savine And fuckin with them psychos And bustin with the rifles We niggas best sight no Muthafuckas you ain't never seen me before you hit the do' like a habit So come into my room and let me teach you black magic It had happened one Saturday night, I was like a muthafucka, down in street Smokin on some hydroponic trees Me and my was plottin on a come up Imma burn somethin like a skinny ho, can't cook in the mornin If you sleepin, we creepin Givin niggas dirt naps I'm hurtin, for certain And homie you don't wanna see 187, don't listen to eleven nigga's pockets and king-sized mantles n' Shit's gettin funky like them flattenin Couldn't clean like a surgeon, make you bloody like a virgin Only God can judge me and I'm wonderin will I ever see again, I'm livin for this life and I know I'm gonna murder somethin Twisted Insane got the gauge, gon' pop somethin If this go good, homie we gon' cop somethin Break it down, bag it up, and hit the block all in the same night, this black magic'll have you seein lights One off for the dojo Sufferin one to the dome my composure Circle and salt when I'm doin the voodoo and lightin a candle and urn for the And leavin em all in the dirt So niggas that take out they stomach and fill em with bullets, you know about puttin in work I'm never the one to be feelin the booster when off of Medusa 40 ounce and a Ruger, dumpin on niggas that really don't wanna be fucked with Hop out the model when off of the bottle and catch slippin right in front of ya bucket Catch ya slippin right in front of ya bucket My niggas will all to the brain Look into they eyes and , watch how fast these niggas when they encounter the flames Burnin bodies like the ashes and urns, I'm ready to learn why these niggas are sicker Dumpin with so much artillery, niggas they feelin me when I be off of the liquor Sick and the quicksand's gettin thicker And all the O.E. is just killin my liver So passionate for bein with the wicked elixir Hopin you niggas is gettin your fixer Off of my shit cause I do be a savage Meetin your doom when you enter the room... Black magic</t>
+          <t>Uh, certified legend Bow to the God when he step into our presence Premonitions I be gettin', make a nigga see the future Off with their heads, King Cooper, huh Oh lawd, I'm a shadowcaster Gettin' bitches wet when I play that guitar Axl rose. my guns is black, straight as slacks I don't trust none of them niggas 'Cause when the time is right they show their colors, my nigga That's why I'm catchin' out, I gotta , controversy when color, my nigga East side we fly, high grade, A in the jeep far, Beast Coast Niggas takin' your bitch like a stolen Rover Gettin' brain at a lot at Rolling Roaster So you wanna get high? Elevate and levitate into the sky You realize like we speak truth Samurai mind state we see you So blind like the Beegees, never gonna be me Weed in my lungs pump it out like a chimney My gemini, Bow to the master, listen to the teacher I roll a hundred blunts for my killers Then I roll two blunts for my chick 'Cause she don't really smoke that much She be coughin' all just with one little hit I said as much as it makes you feels sideways Smokin' up like every day is friday Rollin' up while I'm smokin' I ain't even leave my fuckin' driveway Flickin' joints while I'm on the highway I just want it my way All of my people be blunted, step in this bitch Know we smell funky All of your people be on me, so back up for we start dabbin' nigga whut I'm alive why of the blunt, hope you not a bum 'cause we finna tear this shit up Twenty grams that's ten blunts, nigga light it up When the cops lookin' I don't give a fuck All these girls sippin' stuff, keep rollin' up She a champ, damn, give that girl a belt I don't never need no help I smoke all day, young nigga take that myself My time invested in a Uzi, nigga feelin' free like Boosie Bullets gettin' high, get coochie while I bang and I'm Gucci Unless that ass some boujee Welcome to the Eyes of the World Fuck that, niggas got eyes on your girl Witch Curry we gon' run the world Zone 3, Brooklyn, Thailand You fuck niggas really got some nerves Knockin' on the door when you see Do not disturb Everything I get it I'ma swerve If you ain't know, shit, you gonna learn Got a lot vagina up in the hemisphere and raw dog the world World Rollin' my dynamite, explodin' the paper genetic make up up on your girl girl Steadily travellin' through the wave of the cosmic powers upon the spin Parody parody couldn't compare to me even if you was my twin Twin So what the fuck it's like ass niggas tryna do become my motherfuckin' steeze? Clon 'em everybody, bring 'em down Was ever any organism on that me As the time like puzzle had my mind Scrap it, told y'all niggas break fast We were under bacon when the walk past, voilà As-salamu alaykum, Allah Since I fuck the globe and That's word from my nigga Mark We turn curse in a curse, nigga, holy Bitch better throw that shit back like scolly just killa control the oceans I killed beside so I'm soulless But godly you couldn't stop me I'm Rick Bobby I drop these nuts on your bitch face like bowling melancholy because you saw me From callin' until the God that the world cosmic Showtime Marvin Johnson Rolled up, hold up, blighted Never excited 'cause a light that flame leave you blinded Simple-minded never minded Cold butter I'ma need check your claiming East Coast nigga I'm on the West Side chillin' with the hoes Shocked and white Nigga know-know if you bow-bow G build in my niggas loko when they hit Money a power Brooklyn mentality rollin' this hour And in backwoods on some frontal Coupe killer real nigga never front yo I'm a soulja, Red Army Young Zeus, I'm godless when I I got 'em nigga feelin' 'cause the bitch wanna find out where I'm sittin' and the city 'cause they heard get is back and then I always keepin' strapped when I hit Mouth full of gold, no limit Get it and I spend it Can I like my woman? Head it to the bank Who I got a thing Cuts in the world Straight shooters blame2</t>
         </is>
       </c>
     </row>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DRAINO (OG VERSION)</t>
+          <t>Fallin’ Apart (Close Counters Remix)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Something's wrong, you could never understand What I be on, you could never comprehend I'm on top, I ain't like that other man I'm gon' let you down, again Woke up drenched in a sweat so cold That it froze my home, wanna go to Hell 'Cause at least it's warm on a brimstone floor No love no more, I'm gettin' frail Yeah And my face is not the same as before I cannot see who I was before I died and was reborn as a dog I cannot look myself in the mirror I cause quakes Last to touch everything that breaks Okay And I'd rather not even show my face Cops on the block and they buildin' a case Wassup? Hope that these shots put holes in ya cape I don't want nobody savin' the day This black AK got somethin' to say Okay It's okay, just back up and pray What? Chorus ZillaKami SosMula Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Mula Verse 2 SosMula Ayy, my shotty got a body on it Sleezy Tommy got a body on it Sleezy I just body my opponents Boom-boom I'm John Gotti, you's a rodent Fuck outta here Double barrel shotgun, run like Ricky Rrah Hit 'em with a hot one, drum hold fifty Boom-boom Cop killer shells like Mutombo's pinky Boom-boom Bitch curl up like a jumbo shrimpy Slide Feds wanna watch everything I do No, no CNN, Fox 5, 10 o'clock news Bitch Mom's stressed, kids stressed, and pops too Boom-boom My wrist, carats, your gang buy jewel Mula Shawty suck my soul 'til my dick turn blue Slide Shawty fuck me crazy like a sick cartoon Slide In a Mercedes, I go vroom-vroom Skrrt Niggas talkin' brazy, they get boom-boom Boom-boom Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again Mmm-hm, I let you down again No, you can't tell me, 'cause I be for real Know how I work it, I buy out a deal No, she is not gonna love me for real Tell her to fuck me until she can show that that's real But all the lovin' is fake You is a bitch, I can see in your face Say you would kill me, then tell me a date and a time And I'll be there, I'll make you bleed there I might have it all But half of the time I just feel insignificant Incapable, intoxicated I'm over the pressure, yet feel underprivileged Like my kingdom is buried in sand Ozymandias, I am the man As I look at the cards in my hand The fortune teller of the tarots says terror I'm sick of artists that chuck up the deuce When they get the juice when you helped from the roots And I'm sick of hoes that walk in and seduce But then talkin' shit once you give 'em the boot, ahem Clear your throat 'cause you know you a swallower Up to me? I would kill the whole lot of ya So it's part two to Hell or High Water, huh? Test your gangsta but went Law Order, huh? Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Can't catch tears when they're all down the drain Can't cry now, but can self-medicate Medicate Medicate Medicate Instrumental</t>
+          <t>Dreams, I'm fallin' apart Life is getting so bad Oh yeah In the night, I Won't stop feelin' good, so I Young Felipe Never been concerned about the, He say, she say Look inside my bank account, you'll see it's my B-day Everyday, all day, but I do not eat cake, and I do not see hate Stinkmeaner, my demeanor with the Nina Señoritas wanna meet me at the Catalina Wine mixer, mix it up with my elixir Overlookin' the ocean, I'm hopin' I see Flipper Young Felipe, movin' like it's GTA But not CJ, more like Tommy, copy, facts Spacey nigga, you can call me Drax Win every fucking track and you know it's 'bout to slap, uh Dreams are fallin' apart Life is getting so bad Oh yeah In the night, I Won't stop feelin' good, so I Turn up, said they want fire, let it burn up Tryna break my habits but some days I gotta burn up Got your girl hooked off the truth, no Sojourner You know I'm Ja Rule with the pen ink murder, so I was writin' 'bout tomorrow when today called Throwin' curves at a nigga, no baseball We work through it, hashtag no days off Feelin' high, feelin' blessed, no Based God Dudes hatin' on my lines, no eight balls But I got dope in my quotes, speech napalm So before you wanna ride, check your breaks Y'all on very thin ice with some really cheap skates Margarita, no food, we do very cheap dates Don't give me bad mood but the head mad great, uh What's in my wallet? The keys to they heart is a deposit</t>
         </is>
       </c>
     </row>
@@ -5707,12 +5707,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DROP IT ON YO ASS FOOL</t>
+          <t>Fallin’ Apart (Human Movement Remix)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>To all of theses niggas AquariusKilla is my fucking name and im mystic Bitch if you see me im dressed like a genie if niggas got beef its a death wish death wish My god im so trill like these nigga will think im from Houston Spitting my lyrics dog ima kill it these niggas will think that im toothless Kill any beat any rapper just like a attacker im ready to become a rebel Watch if im smoking a spliff and bring the lyrical heat like the mouth of a devil T.O.T.A touch one touch all wonder rum wheres my jaws I wanna kill victims and break laws dog Chills going down your spine as you shiver Curry the killa a lyricist I drag them to the river 91 to 95 im straight up from the underground Sound change drastically because denzel is versatile One step two step Turn around I look back whoevers behind me gonna end up getting they head cracked And I ain't talking dice im talking bout my other half Dont make me go on a rampage and cause a hectic aftermath</t>
+          <t>Uh Uh Young Filipe Never been concerned about the He say, She say Look inside my bank account, you see it's my b-day Everyday all day but I do not eat cake and I do not see hate Stink meaner, my demeanour with a Nina Señoritas wanna meet me at the Catalina Wine mixer, mix it up with my elixir Overlookin' the ocean, I'm hopin' I see flipper Young Filipe movin' like it's GTA But not CJ, more like Tommy, copy, facts Spacey nigga, you can call me Dra Win every fucking track and you know it's 'bout to slap, uh Uh Uh Turn up, said they want fire, let it burn up Tryna break my habits but some days I gotta burn up Got your girl hooked off the truth, no Sojourner You know I'm Ja Rule with the pen ink murder, so I was writin' 'bout tomorrow when today called Throwin' curves at a nigga, no baseball We work through it, hashtag no days off Feelin' high, feelin' blessed, no Based God Dudes hatin' on my lines, no eight balls But I got dope in my quotes, speech napalm So before you wanna ride, check your breaks Y'all on very thin ice with some really cheap skates Margarita, no food, we do very cheap dates Don't give me bad mood but the head mad great, uh What's in my wallet? The keys to they heart as a deposit Uh Uh Uh Uh Uh Uh Uh Uh Uh Uh</t>
         </is>
       </c>
     </row>
@@ -5724,12 +5724,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>DROPSHIT*</t>
+          <t>Farmapram Alprazolam 2mg</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Be lil a dropkick dropheads dropshit</t>
+          <t>Farmapram Alprazolam 2mg Httpsjustpaste.itFarmapram-Alprazolam-2mg Farmapram Alprazolam 2mg Is anxiety disturbing you a lot? If your answer is yes then you must get a solution as quickly as possible. But now the question is that how will you get a solution? It is easier just go and buy a farmapram alprazolam 2mg and see how easily it gives you a relief. Without any doubt, we can say that it is the best tablet and is responsible for giving you faster relief. Now if you want to know more about it then just read this article thoroughly</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>DuRags</t>
+          <t>Freestyle</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate I'm stuck in my ways Maneuver through shit while you stuck in one place What the fuck is an obstacle? I went up from a maze Frankie Beverly, heavenly, everybody just give me the praise Bow down to the wave lord, send them presi and save yours For my gat imma save yall, but that's back in the day I'm a black panther activist, had to miss School for the meetings on Saturn and outta this world You are outta your mind, I'm so high in grind mode Jukin' and vibin' thru life, my life is my ice, nice Feel like I married my wife, so I hit it more than twice Immortalized I am more than nice Even way back in the days was known as I got vice Gotta get put on the lights or get put on the pavement Better run for your life Hard times, hard to reminisce But I know my future bright I am the future went back to the future twice Just to save everybody life, with waves nigga Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Too many waves Too many waves Using my government name Stuck in my ways Sometimes I feel like I'm born a mistake But you couldn't relate Cause you can't imitate Copy dat, you're a clone I'm Jango Fett Who wanna get it with the murderous set Kill a motherfucker like a VHS Cause we don't play so I eject Going like a free man no Woodcrest Red light back and infinite access off of my access Thinking no answers that's an exit Wait Nigga that wasn't the exit There was no message Flow like a radical leftist Black as my right and left fist Bitch uh People try to change my mind but Im sorry I decline, got my mind made up, made up hey Even when the world is fine I sit back and I recline and I never change up, change up, hey Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate Bitch I got too many waves, bitch I got too many ways Sometimes Im stuck in my ways, thats just the way I was raised Remember back in the day, rockin them Trick Daddy braids Facing a blunt to the face, gotta escape all the hate6</t>
+          <t>Ouais les mecs c'est le Wati-B, t'es bête ou quoi ?, fonce, va le dire aux autres hé ho On grimpe comme Madonna ou Maradona, frappe et te brise le dos chuuut... Assieds-toi là j'ai pas fini, faut qu'on pète aux Philippines, puis jusqu'à Phili Phili C'est le 7-5 double zéro neuf, Paris centre, va-va-va le dire aux autres hé ho Dans tous les tieks ça chuchote Wati chuuut Qu'à toutes nos dates dans la salle c'était chuuut, hé ho Gros ça chuchote que ça sent l'flop, c'est d'la chuuut Ça chuchote, ça concocte, ça papote, ça zozote Qu'on arpente les rues en Dolce Gabbana, y'a du biff, qu'on devient les King de Paname Chut ! Viens que j't'explique petit malin, Wari wari bana tout comme les banas banas chut Mon style est noir comme les ténèbres, diversifié comme Internet J'suis pas net, guette un peu comme j'te pénètre, lève-toi, déshabille-toi, jette-toi par la fenêtre Chut ! Maître Gims n'est pas mal, ça chuchote qu'il kiffe grave les nanas Yes ay bébé, j'assume c'est pas haram, j'ai un côté polygame en moi comme les Diallo Hey, j'veux faire mal comme Billie Jean, crosse dans le crâne, l'ennemi est éliminé Dawala m'épaule t'inquiète pas, c'est pas fini, DJ H-Cue scratch sur le vinyle Sexion dans le game, dans les ghettos, ça tourne grave dans les gamos Ça chuchote platine, roro, que le Wati-B c'est du lourd poto Po-poto ça rap sale dans les vidéos Concerts, street et passages radio, ra-rafale toujours pire que chaud Akhi, du côté de chez vous ça chuchote deux, trois skeuds dans les bacs et ça pue l'flop que ça pue l'flop, que ça pue l'flop Les carottes et les douilles du Wati-Boss Ça chuchote nouveau boys-band, pour les puristes nouveau Wu-Tang Mon équipe chuchote hein, t'inquiète on arrive, on est plus que déter' Ouais les mecs c'est le Wati-B, t'es bête ou quoi ?! Fonce, va le dire aux autres hé ho On grimpe comme Madonna ou Maradona, frappe et te brise le dos chuuut... Assieds toi là j'ai pas fini, faut qu'on pète aux Philippines, puis jusqu'à Phili Phili C'est le 7-5 double zéro neuf, Paris centre, va-va-va le dire aux autres hé ho Dans tous les tieks ça chuchote Wati chut Qu'on s'fait squette-di par le Wati-Boss, qu'on s'fait chuuut, hé ho Chuchote qu'on kick comme des chut Sur Paname ça chuchote qu'on arrive en force, ça va chut Partout ça chuchote qu'la 9ème Zone est prête à débouler Que voulez-vous ? Les couiller ou les souiller par vos souliers ? Ça m'saoule là tout, les coups bas, tous les mecs qui veulent douiller Y'a Souleymane, joue les fous, sous les coups de boules khey tu vas couler Mais d'abord, pull-up, c'est l'poulo, j'fais l'boulot Debout là, avoue-le c'bamboula est cool, pour ce coup là demande à Boulay Ça chuchote que Barack Adama cherche la baraka Que la hass est baraquée, qu'elle veut pas qu'on se barre à Cannes Ça chuchote Fuck la Sexion, ils sont pas si forts en session Ça chuchote que Fall a gé-chan, mais vous êtes toujours aussi fan de ses sons Ça chuchote Disque de cristal, les number one en freestyle Black M le p'tit dalleux qui se faisait p't'être une p'tite t'à l'heure oooh Re-repéré vers Pigalle, p'tit flash Weed en main et dans les poches tout l'attirail Ça chuchote W-A-T-I B, des ghettos jusqu'aux quartiers huppés C'est pt'être pour ça qu'ça chuchote ça chuchote qu'on a gagné du blé Comment te dire, ça sent la Wati-faillite ? Pas de dadia dans les strass et les paillettes Tirer Pa ! Pa ! sur les gens, oui j'ai failli Tirez-vous de àl mon équipe est là ça y est Akhi, t'm'parles de tes péripéties pour que tes paquets de llets-bi s'épaississent Tu m'parles de story d'té-ci, mais il paraît qu'quand ça pète tu t'désistes Qui que tu sois et quoi que t'ais fait mec, ici tu fais très peu d'effet mais Laisse-moi t'dire qu'les rumeurs dans c'Monde, c'est comme tout, c'est traître éphémère Ouais les mecs c'est le Wati-B, t'es bête ou quoi ?! Fonce, va le dire aux autres hé ho On grimpe comme Madonna ou Maradona, drappe et te brise le dos hé ho Assieds toi là j'ai pas fini, faut qu'on pète aux Philippines, puis jusqu'à Phili Phili C'est le 7-5 double zéro neuf, Paris centre, va-va-va le dire aux autres hé ho Dans tous les tieks ça chuchote Wati chut Chuchote que depuis L'écrasement de tête on s'la chut, hé ho Que L'école des points vitaux, Sexion D'Assaut c'est du chut Ça chuchote Wati chut, ça ch